--- a/src/utnce/city_bus_routes.xlsx
+++ b/src/utnce/city_bus_routes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>382710</t>
+          <t>1689867</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,17 +488,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rotterdam, Capelsebrug Metro</t>
+          <t>Schiedam, Station Schiedam Centrum</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bus 96: Rotterdam Capelsebrug =&gt; Krimpen aan den IJssel Stormpolder =&gt; Rotterdam Capelsebrug</t>
+          <t>Bus 126: Maassluis West =&gt; Schiedam Centrum</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5578975 51.9211507, 4.5575924 51.9210525), (4.5575924 51.9210525, 4.5571963 51.9209242, 4.5569058 51.9208259), (4.5569058 51.9208259, 4.5568024 51.9207897, 4.5566458 51.9207199, 4.5565453 51.9206062, 4.5565164 51.9204996, 4.5565453 51.9203752, 4.5567206 51.9202177, 4.5571453 51.9199557, 4.5572339 51.919921, 4.5573503 51.9198746), (4.5573503 51.9198746, 4.557422 51.91979, 4.5574607 51.9197437), (4.5574607 51.9197437, 4.5575914 51.9196167, 4.5578388 51.9194336, 4.5580272 51.9192943), (4.5580272 51.9192943, 4.5580967 51.9192951, 4.5581568 51.9192988, 4.5582347 51.9193053, 4.5583025 51.9193145, 4.5584296 51.9193354, 4.5585196 51.9193989), (4.5588403 51.9194949, 4.5585997 51.9194323, 4.5585196 51.9193989), (4.5588403 51.9194949, 4.5594492 51.9198303), (4.5594492 51.9198303, 4.5643451 51.9225477), (4.5643451 51.9225477, 4.5654199 51.9231437, 4.565903 51.9234138), (4.565903 51.9234138, 4.5669772 51.9240188), (4.5669772 51.9240188, 4.5676532 51.9243845, 4.5677122 51.9244167, 4.5680013 51.9245268, 4.5681981 51.9245734, 4.568391 51.9246125), (4.568391 51.9246125, 4.5685278 51.9246073, 4.5685992 51.9246095), (4.5685992 51.9246095, 4.5688575 51.9246006, 4.5690801 51.9245419, 4.56943 51.9244017, 4.5696564 51.9242731), (4.5756197 51.9177515, 4.5754723 51.9178008, 4.5750799 51.917941, 4.5746819 51.9181108, 4.5745715 51.9181702, 4.5739886 51.9184663, 4.5735557 51.9187351, 4.5731765 51.919019, 4.5728634 51.9192808, 4.5726521 51.9194972, 4.5723219 51.9198695, 4.572088 51.9202116, 4.5718428 51.9206688, 4.5715796 51.9213041, 4.5709609 51.9227991, 4.5707807 51.9231644, 4.5706562 51.9233517, 4.5703204 51.9237345, 4.5698601 51.9241265, 4.5696564 51.9242731), (4.5756197 51.9177515, 4.5757516 51.9176762), (4.5757516 51.9176762, 4.5760981 51.9175736, 4.5765383 51.917466), (4.5765383 51.917466, 4.5768782 51.9173844), (4.5768782 51.9173844, 4.577128 51.9173452, 4.5773263 51.9173028, 4.5775312 51.9172664), (4.5775312 51.9172664, 4.5776975 51.9172557), (4.5777891 51.9172386, 4.5776975 51.9172557), (4.5783521 51.917113, 4.5777891 51.9172386), (4.5786747 51.9170428, 4.5783521 51.917113), (4.5800688 51.9167392, 4.5786747 51.9170428), (4.5830946 51.9152775, 4.5824409 51.915722, 4.5821655 51.9159094, 4.5819552 51.9160461, 4.5817532 51.9161683, 4.5815496 51.9162753, 4.5813288 51.9163772, 4.5811619 51.916444, 4.5809582 51.9165138, 4.5807097 51.9165923, 4.5804925 51.9166428, 4.5800688 51.9167392), (4.5830946 51.9152775, 4.5838709 51.9147475, 4.5841651 51.914552), (4.5841651 51.914552, 4.5844554 51.9143714), (4.5844554 51.9143714, 4.5846651 51.9142436, 4.5848351 51.9141458, 4.5853348 51.9138817), (4.5853348 51.9138817, 4.5855396 51.9137815), (4.5855396 51.9137815, 4.5856882 51.9136691, 4.5860352 51.91349, 4.5862783 51.9133789), (4.5862783 51.9133789, 4.5871662 51.9129495, 4.587256 51.9129078), (4.587256 51.9129078, 4.587535 51.9127717), (4.587535 51.9127717, 4.588651 51.9121996), (4.588651 51.9121996, 4.5889608 51.9120228, 4.5892319 51.9118699, 4.5894664 51.9117378), (4.5894664 51.9117378, 4.5893267 51.9116379, 4.5892261 51.9115878, 4.5890426 51.9115288, 4.5888527 51.9114868, 4.5887121 51.9114674, 4.5885275 51.9114347, 4.5882725 51.9113896, 4.5879844 51.9113129), (4.5879844 51.9113129, 4.5877097 51.911242, 4.5874086 51.9111563, 4.5872804 51.9111198, 4.5872172 51.9111025), (4.5872172 51.9111025, 4.5870296 51.9110449, 4.5868227 51.9109712, 4.5867158 51.9109294, 4.5865733 51.9108402), (4.5857102 51.9104162, 4.5861617 51.9106439, 4.5865733 51.9108402), (4.5857102 51.9104162, 4.5855568 51.91038, 4.5854341 51.9103291, 4.585321 51.9102764, 4.5852308 51.9102322), (4.5852308 51.9102322, 4.5851608 51.9101923, 4.5850811 51.9101469, 4.584893 51.9100465), (4.584893 51.9100465, 4.5843728 51.9097913), (4.5843728 51.9097913, 4.5841433 51.9096718, 4.5840335 51.9095807), (4.5833453 51.9092438, 4.5840335 51.9095807), (4.5829224 51.9090363, 4.5833453 51.9092438), (4.5823951 51.9087749, 4.5824973 51.9088294, 4.5829224 51.9090363), (4.5811921 51.908201, 4.5823951 51.9087749), (4.5811921 51.908201, 4.5811312 51.9082482, 4.5807458 51.9085577, 4.579462 51.9095848, 4.5792 51.9098, 4.5787682 51.9101365, 4.5785506 51.9103082), (4.5740503 51.9081653, 4.5743165 51.9082908, 4.5763166 51.9092374, 4.5774437 51.9097789, 4.5785506 51.9103082), (4.5766817 51.9060596, 4.5766086 51.9061195, 4.5765202 51.9061822, 4.5760795 51.9065347, 4.5754 51.9070771, 4.5744361 51.9078535, 4.5740503 51.9081653), (4.575402 51.9054333, 4.5754151 51.9054396, 4.5764896 51.9059468, 4.5766817 51.9060596), (4.5753272 51.9049917, 4.5752734 51.9050339, 4.5751694 51.9051214, 4.5750098 51.9052621, 4.575402 51.9054333), (4.5753272 51.9049917, 4.5757174 51.9051752, 4.5755664 51.905298, 4.575402 51.9054333), (4.575402 51.9054333, 4.5754151 51.9054396, 4.5764896 51.9059468, 4.5766817 51.9060596), (4.5766817 51.9060596, 4.5769616 51.9061812, 4.5789405 51.9071268, 4.5793648 51.9073356, 4.5811921 51.908201), (4.5811921 51.908201, 4.5823951 51.9087749), (4.5823951 51.9087749, 4.5824973 51.9088294, 4.5829224 51.9090363), (4.5829224 51.9090363, 4.5833453 51.9092438), (4.5833453 51.9092438, 4.5840335 51.9095807), (4.5840335 51.9095807, 4.5841876 51.909613, 4.5844398 51.9097327), (4.5844398 51.9097327, 4.5846422 51.9098099), (4.5846422 51.9098099, 4.5848916 51.9099382, 4.5852041 51.9101136), (4.5852041 51.9101136, 4.5853143 51.9101753, 4.5853995 51.910223, 4.5854375 51.9102443, 4.5855642 51.9103088, 4.5856293 51.910346, 4.5857102 51.9104162), (4.5857102 51.9104162, 4.5861617 51.9106439, 4.5865733 51.9108402), (4.5865733 51.9108402, 4.5867726 51.9108892, 4.5870504 51.9109747, 4.5871049 51.9109873, 4.5872095 51.9110164), (4.5872095 51.9110164, 4.5873299 51.9110423), (4.5873299 51.9110423, 4.5875334 51.9110981, 4.587834 51.9111795, 4.5881556 51.9112608, 4.5884224 51.9113229, 4.5887738 51.911387, 4.5890186 51.9114345, 4.5891532 51.9114634, 4.5892536 51.9114905, 4.5893662 51.9115323, 4.5894352 51.9115634, 4.5895371 51.9116106, 4.5896067 51.9116528), (4.5896067 51.9116528, 4.5897646 51.9115632, 4.5899632 51.9114415, 4.5901452 51.9113434, 4.5903183 51.9112468, 4.5904691 51.91115, 4.5906257 51.9110897), (4.5909871 51.9108503, 4.5906257 51.9110897), (4.5916978 51.9103592, 4.5909871 51.9108503), (4.5923013 51.9099798, 4.5916978 51.9103592), (4.5932475 51.9093316, 4.5929772 51.9095164, 4.5923013 51.9099798), (4.5934771 51.9091805, 4.5932475 51.9093316), (4.596615 51.9077012, 4.5964677 51.9077395, 4.59601 51.9078825, 4.5957819 51.9079618, 4.5955653 51.9080405, 4.5952562 51.9081614, 4.5948804 51.9083315, 4.5945502 51.9084885, 4.594246 51.9086643, 4.5940273 51.9088055, 4.5934771 51.9091805), (4.5974949 51.9074766, 4.5971007 51.9075752, 4.5968397 51.9076427, 4.596615 51.9077012), (4.5982514 51.907295, 4.5974949 51.9074766), (4.5982514 51.907295, 4.5984138 51.9072284, 4.5985427 51.9071914, 4.5986734 51.9071382), (4.5986734 51.9071382, 4.5986798 51.9071067, 4.5986975 51.9070769, 4.5987256 51.9070504, 4.5988071 51.907012, 4.5989076 51.9069997, 4.5989494 51.907003, 4.5989896 51.9070109, 4.5990266 51.9070233, 4.5990593 51.9070397), (4.5990593 51.9070397, 4.5991138 51.907092, 4.599126 51.9071232, 4.5991263 51.9071537), (4.5991263 51.9071537, 4.5990979 51.9072088, 4.5990358 51.9072521), (4.5990358 51.9072521, 4.598993 51.9072675, 4.5989458 51.9072769, 4.5988965 51.9072797, 4.5988473 51.9072758, 4.5988006 51.9072655, 4.5987587 51.9072491, 4.5987236 51.9072275), (4.5987236 51.9072275, 4.5984733 51.907267, 4.5982514 51.907295), (4.5982514 51.907295, 4.5974949 51.9074766), (4.5974949 51.9074766, 4.5971007 51.9075752, 4.5968397 51.9076427, 4.596615 51.9077012), (4.596615 51.9077012, 4.5964677 51.9077395, 4.59601 51.9078825, 4.5957819 51.9079618, 4.5955653 51.9080405, 4.5952562 51.9081614, 4.5948804 51.9083315, 4.5945502 51.9084885, 4.594246 51.9086643, 4.5940273 51.9088055, 4.5934771 51.9091805), (4.5934771 51.9091805, 4.5932475 51.9093316), (4.5932475 51.9093316, 4.5932028 51.9094513, 4.5919871 51.9102628), (4.5919871 51.9102628, 4.5912888 51.9107134), (4.5912888 51.9107134, 4.5908451 51.9110679, 4.5906293 51.9112511, 4.5904024 51.9114262, 4.5901249 51.9116113, 4.5899355 51.9117122, 4.5897169 51.9117322), (4.5897169 51.9117322, 4.5895788 51.9118133), (4.5895788 51.9118133, 4.5893983 51.9119168, 4.5891908 51.912031, 4.5878982 51.9126985, 4.5873985 51.9129566), (4.5873985 51.9129566, 4.5868138 51.9132702), (4.5868138 51.9132702, 4.5859622 51.9136518, 4.5855396 51.9137815), (4.5853348 51.9138817, 4.5855396 51.9137815), (4.5844554 51.9143714, 4.5846651 51.9142436, 4.5848351 51.9141458, 4.5853348 51.9138817), (4.5841651 51.914552, 4.5844554 51.9143714), (4.5830946 51.9152775, 4.5838709 51.9147475, 4.5841651 51.914552), (4.5830946 51.9152775, 4.5824409 51.915722, 4.5821655 51.9159094, 4.5819552 51.9160461, 4.5817532 51.9161683, 4.5815496 51.9162753, 4.5813288 51.9163772, 4.5811619 51.916444, 4.5809582 51.9165138, 4.5807097 51.9165923, 4.5804925 51.9166428, 4.5800688 51.9167392), (4.5800688 51.9167392, 4.5786747 51.9170428), (4.5786747 51.9170428, 4.5783521 51.917113), (4.5783521 51.917113, 4.5777891 51.9172386), (4.5777891 51.9172386, 4.5776975 51.9172557), (4.5776975 51.9172557, 4.5775599 51.9173146), (4.5775599 51.9173146, 4.5769874 51.9174418), (4.5769874 51.9174418, 4.5767104 51.9175057, 4.5764646 51.9175715), (4.5764646 51.9175715, 4.5756197 51.9177515), (4.5756197 51.9177515, 4.5754723 51.9178008, 4.5750799 51.917941, 4.5746819 51.9181108, 4.5745715 51.9181702, 4.5739886 51.9184663, 4.5735557 51.9187351, 4.5731765 51.919019, 4.5728634 51.9192808, 4.5726521 51.9194972, 4.5723219 51.9198695, 4.572088 51.9202116, 4.5718428 51.9206688, 4.5715796 51.9213041, 4.5709609 51.9227991, 4.5707807 51.9231644, 4.5706562 51.9233517, 4.5703204 51.9237345, 4.5698601 51.9241265, 4.5696564 51.9242731), (4.5696564 51.9242731, 4.5695 51.9245044), (4.5695 51.9245044, 4.5693171 51.9246852, 4.569267 51.9247668, 4.5692106 51.9249233), (4.5692106 51.9249233, 4.5692313 51.9249952, 4.5692319 51.9250683, 4.5692112 51.9251435, 4.5691694 51.9252153, 4.5691076 51.9252814, 4.569028 51.9253398, 4.5689328 51.9253886, 4.5688253 51.9254263, 4.5687086 51.9254517, 4.5686119 51.9254614, 4.5683846 51.925455, 4.5681933 51.92541, 4.5680313 51.9253328, 4.5678885 51.9252001, 4.5678706 51.9251674, 4.567845 51.9251016, 4.5678364 51.9250341), (4.5678364 51.9250341, 4.5676261 51.9247505, 4.5674123 51.9245348, 4.5670693 51.9243082, 4.5597643 51.9202266), (4.5597643 51.9202266, 4.5596325 51.9200631, 4.5594492 51.9198303), (4.5588403 51.9194949, 4.5594492 51.9198303), (4.5588403 51.9194949, 4.5585997 51.9194323, 4.5585196 51.9193989), (4.5585196 51.9193989, 4.5584822 51.9193883, 4.5583927 51.9193765, 4.5582903 51.919371, 4.5581967 51.9193932), (4.5581967 51.9193932, 4.5577454 51.9196906, 4.5576324 51.9197858, 4.5575727 51.9198428), (4.5575727 51.9198428, 4.5573922 51.920009, 4.5571341 51.9202249), (4.5571341 51.9202249, 4.5570731 51.9202977, 4.5570453 51.9203684, 4.5570275 51.9204135, 4.5570645 51.9205312, 4.5571948 51.9206445), (4.5571948 51.9206445, 4.5573831 51.9206832, 4.5578123 51.9208208), (4.5578123 51.9208208, 4.5580288 51.9209046, 4.5580834 51.9209124, 4.5582038 51.9209099, 4.5583923 51.9209126, 4.558582 51.9209522, 4.5589084 51.921068, 4.5588845 51.9211893))</t>
+          <t>MULTILINESTRING ((4.2362522 51.9260742, 4.2362083 51.9260474, 4.23615 51.9260117, 4.2360756 51.9260368), (4.2360756 51.9260368, 4.2360399 51.9260545), (4.2360399 51.9260545, 4.2359978 51.926072), (4.2359978 51.926072, 4.235645 51.9262759, 4.2353966 51.92643, 4.2355613 51.9265323, 4.2356466 51.9265883, 4.235716 51.9266335), (4.235716 51.9266335, 4.2359671 51.9267941), (4.2359671 51.9267941, 4.2358355 51.9269303, 4.2356971 51.9270198, 4.2355502 51.9271231, 4.2354572 51.9271969), (4.2354572 51.9271969, 4.2356168 51.9272568, 4.2357087 51.9273488), (4.2357087 51.9273488, 4.2361711 51.9276359, 4.2370914 51.9282072), (4.2370914 51.9282072, 4.2371924 51.9282384, 4.2373455 51.928338, 4.2376331 51.9285112, 4.237928 51.9286888, 4.2379821 51.9287754), (4.2379821 51.9287754, 4.2383707 51.9290109), (4.2383707 51.9290109, 4.2384889 51.9290424, 4.2385689 51.9291152), (4.2385689 51.9291152, 4.2392728 51.9295598), (4.2392728 51.9295598, 4.2394432 51.9296374, 4.2395664 51.9297336), (4.2395664 51.9297336, 4.2399109 51.9299392, 4.239944 51.9299588), (4.239944 51.9299588, 4.2401348 51.9300771, 4.2402466 51.9301432), (4.2402466 51.9301432, 4.240505 51.9302282, 4.2406741 51.9302953, 4.2408082 51.9303537, 4.2409146 51.9304022), (4.2409146 51.9304022, 4.2409778 51.9303601, 4.2409881 51.9303539, 4.241075 51.9303009, 4.2414179 51.930091, 4.2424482 51.9294345, 4.2425002 51.9294013, 4.243819 51.928561), (4.243819 51.928561, 4.2442509 51.9282898, 4.2443126 51.9282511, 4.2444958 51.9281278), (4.2444958 51.9281278, 4.2446558 51.9280304, 4.2452812 51.927629), (4.2452812 51.927629, 4.2455748 51.9274406, 4.2457566 51.9273315, 4.2458912 51.9272306), (4.2458912 51.9272306, 4.2460026 51.927151, 4.2460332 51.9271192, 4.2461267 51.9270094), (4.2461267 51.9270094, 4.246096 51.9269806, 4.2460781 51.926948, 4.246074 51.9269136, 4.2460839 51.9268797, 4.2461073 51.9268484, 4.2461427 51.9268217, 4.2461946 51.9267991, 4.2462548 51.9267865), (4.2462548 51.9267865, 4.2463142 51.9267847, 4.2463722 51.9267928, 4.2464246 51.92681, 4.2464677 51.9268353), (4.2464677 51.9268353, 4.2466506 51.9268001, 4.2467107 51.9267845, 4.2467866 51.9267636, 4.2469196 51.9267633), (4.2472869 51.9265984, 4.2471321 51.9266764, 4.2469196 51.9267633), (4.248122 51.9261996, 4.2476658 51.9264131, 4.2474554 51.9265163, 4.2473324 51.926575, 4.2472869 51.9265984), (4.248122 51.9261996, 4.248233 51.9261113, 4.2484756 51.9259861, 4.2486988 51.9258866, 4.2488463 51.9258642), (4.2497718 51.9254407, 4.2488463 51.9258642), (4.2497718 51.9254407, 4.2498385 51.9253834, 4.2499421 51.9253506, 4.2500796 51.9252915), (4.2500796 51.9252915, 4.2500844 51.9252425, 4.2501168 51.9251972, 4.2501628 51.9251664, 4.2502218 51.9251453, 4.2503107 51.9251356), (4.2503107 51.9251356, 4.250414 51.9250567, 4.250476 51.9249958, 4.2505739 51.9249411), (4.2525517 51.9232053, 4.2524806 51.9232221, 4.2520446 51.9234766, 4.2517873 51.923653, 4.2517099 51.9237474, 4.2516 51.9239, 4.2513 51.9243, 4.2512375 51.9243752, 4.251163 51.9244468, 4.2509877 51.9245879, 4.2505739 51.9249411), (4.2525517 51.9232053, 4.252652 51.9232142, 4.2530078 51.9233098, 4.2531502 51.923349, 4.2532482 51.9233639, 4.2533073 51.9233637), (4.2533073 51.9233637, 4.2533947 51.9233385, 4.2534477 51.9233104, 4.2534712 51.9232807, 4.2535316 51.923184, 4.2535756 51.9231153, 4.2536046 51.9230844, 4.2536497 51.9230588, 4.2537154 51.9230459), (4.2563873 51.9236562, 4.2563151 51.9236637, 4.2562413 51.9236593, 4.2561651 51.9236462, 4.2556 51.9235, 4.2553031 51.9234245, 4.255119 51.9233748, 4.2547712 51.9232843, 4.2543371 51.9231714, 4.2539268 51.9230591, 4.2538229 51.9230429, 4.253756 51.9230382, 4.2537154 51.9230459), (4.256698 51.9233291, 4.2565123 51.9235826, 4.2564778 51.9236169, 4.2564452 51.9236363, 4.2563873 51.9236562), (4.2567486 51.9232597, 4.256698 51.9233291), (4.2567781 51.9232215, 4.2567486 51.9232597), (4.2572123 51.9226886, 4.2568239 51.9231621, 4.2567781 51.9232215), (4.2573246 51.9225354, 4.2572123 51.9226886), (4.2573246 51.9225354, 4.2575023 51.9223036, 4.2575611 51.9222267, 4.2577879 51.9219428, 4.2581358 51.9215252, 4.2582315 51.9214088, 4.2586578 51.9209387, 4.2590222 51.9205369, 4.2594573 51.9200291, 4.2596906 51.9197266, 4.2597381 51.9196639, 4.2597592 51.9196387, 4.2598095 51.9195724), (4.2598095 51.9195724, 4.2597888 51.9195654, 4.2597693 51.9195571, 4.2597513 51.9195477, 4.259735 51.9195371, 4.2597206 51.9195256, 4.2597081 51.9195132, 4.2596978 51.9195001, 4.2596898 51.9194864, 4.259684 51.9194722, 4.2596807 51.9194578, 4.2596797 51.9194432, 4.2596812 51.9194287), (4.2596812 51.9194287, 4.2596855 51.9194134, 4.2596924 51.9193985, 4.2597019 51.9193842, 4.2597139 51.9193706, 4.2597282 51.9193579, 4.2597447 51.9193463, 4.2597632 51.9193358), (4.2597632 51.9193358, 4.2597881 51.9193247, 4.2598153 51.9193158, 4.2598441 51.9193093, 4.2598741 51.9193051, 4.2599047 51.9193035, 4.2599354 51.9193044, 4.2599656 51.9193078, 4.2599948 51.9193137, 4.2600225 51.9193219, 4.2600486 51.9193326, 4.2600721 51.9193454, 4.2600926 51.91936, 4.2601097 51.9193763, 4.260123 51.9193938, 4.2601323 51.9194122, 4.2601375 51.9194313, 4.2601383 51.9194506, 4.2601349 51.9194698, 4.2601273 51.9194886), (4.2601273 51.9194886, 4.2602359 51.9195274, 4.260286 51.9195427, 4.2609472 51.9197652, 4.2611279 51.9198224, 4.2616284 51.91998, 4.2625522 51.9202568, 4.2635239 51.9205585, 4.2640782 51.9207446, 4.264315 51.9208355), (4.264315 51.9208355, 4.2649748 51.9210731), (4.2649748 51.9210731, 4.2652941 51.9211601, 4.2653364 51.9211768, 4.2653772 51.9211919, 4.2654662 51.9212214, 4.2655082 51.9212272), (4.2655082 51.9212272, 4.2655387 51.9212149, 4.2655715 51.921205, 4.265606 51.9211977, 4.2656417 51.921193, 4.2656781 51.9211911, 4.2657146 51.9211919, 4.2657507 51.9211955, 4.2657859 51.9212018, 4.2658196 51.9212108, 4.2658512 51.9212222, 4.2658802 51.921236), (4.2658802 51.921236, 4.2659106 51.9212549, 4.2659363 51.9212763, 4.2659566 51.9212997, 4.2659712 51.9213248), (4.2659712 51.9213248, 4.2659817 51.9213407, 4.2659983 51.9213669, 4.2660108 51.9213834, 4.2660247 51.921397, 4.2660474 51.9214136, 4.2660717 51.9214266, 4.2661189 51.9214415, 4.2662746 51.9214891, 4.2664849 51.9215676), (4.2664849 51.9215676, 4.2668654 51.9216803, 4.2672298 51.9217992), (4.2672298 51.9217992, 4.2686899 51.9222791, 4.2692015 51.9224629, 4.2695351 51.9225965, 4.2698454 51.9227554, 4.2700291 51.9228611, 4.2702869 51.9230359), (4.2702869 51.9230359, 4.2705048 51.9232078), (4.2705048 51.9232078, 4.2707191 51.9233698, 4.2708427 51.9234907, 4.2708836 51.9235082), (4.2708836 51.9235082, 4.2709307 51.9235135, 4.2709761 51.9235229, 4.2710188 51.9235363, 4.271058 51.9235533, 4.2710928 51.9235736, 4.2711224 51.9235968), (4.2711224 51.9235968, 4.2711421 51.9236245, 4.2711546 51.9236538, 4.2711595 51.9236839, 4.2711566 51.9237142, 4.2711473 51.9237409, 4.2711369 51.923763, 4.2711314 51.9237863), (4.2711314 51.9237863, 4.2711283 51.923813, 4.2711327 51.9238397, 4.2711435 51.9238696, 4.2711869 51.9240271), (4.2711869 51.9240271, 4.2713379 51.9243127), (4.2713379 51.9243127, 4.2714039 51.9244378), (4.2714039 51.9244378, 4.2714874 51.9245427, 4.2714962 51.9245537, 4.2715087 51.9245699, 4.2715253 51.9245867, 4.271541 51.9245994), (4.271541 51.9245994, 4.2715616 51.9246133, 4.2715819 51.9246244, 4.2716524 51.9246545, 4.2716897 51.9246739, 4.2717139 51.9246902, 4.2717379 51.9247117, 4.2717566 51.9247385, 4.2717607 51.9247439), (4.2717607 51.9247439, 4.2717717 51.9247619, 4.2717795 51.9247876), (4.2717795 51.9247876, 4.2717743 51.9248243, 4.2717604 51.9248554, 4.2717472 51.9248798, 4.2717365 51.9248975), (4.2717365 51.9248975, 4.2717977 51.9249488, 4.2719049 51.9250118), (4.2719049 51.9250118, 4.2719885 51.9250405, 4.2721797 51.9251073, 4.2722459 51.9251398, 4.2723117 51.9252248), (4.2723117 51.9252248, 4.2722346 51.9252465), (4.2722346 51.9252465, 4.2721316 51.9252725, 4.2720189 51.9252984, 4.2718931 51.9253305, 4.2718647 51.9253354), (4.2718647 51.9253354, 4.2718293 51.9253414, 4.271694 51.9253646, 4.2715981 51.925381), (4.2715981 51.925381, 4.2715195 51.9252275, 4.2715057 51.9252044, 4.271475 51.9251532), (4.271475 51.9251532, 4.2714369 51.925084), (4.2714369 51.925084, 4.2714006 51.9250631, 4.2713605 51.9250043, 4.2713319 51.9249726), (4.2713319 51.9249726, 4.2712981 51.924963, 4.2712638 51.9249505, 4.2712302 51.9249347, 4.2711978 51.9249144), (4.2711978 51.9249144, 4.2711691 51.9248917, 4.2711497 51.9248691, 4.2711362 51.924845, 4.2711327 51.9248272, 4.2711289 51.9248042, 4.2711275 51.9247818, 4.2711358 51.9247576, 4.2711495 51.9247322, 4.2711643 51.9246986, 4.27117 51.924671), (4.27117 51.924671, 4.27117 51.9246157, 4.2711558 51.9245331), (4.2711558 51.9245331, 4.2710681 51.9243563), (4.2710681 51.9243563, 4.2709162 51.9240614), (4.2709162 51.9240614, 4.2708634 51.9239131, 4.2708455 51.9238857, 4.2708162 51.923859, 4.2708078 51.9238526), (4.2708078 51.9238526, 4.2707778 51.9238355, 4.2707373 51.9238223, 4.2706986 51.9238059, 4.2706633 51.9237867, 4.2706338 51.9237642, 4.2706115 51.9237386, 4.2705967 51.923711, 4.27059 51.9236823), (4.27059 51.9236823, 4.2705915 51.9236533, 4.2706011 51.9236249, 4.2706187 51.923598, 4.2706435 51.9235733, 4.270675 51.9235517, 4.2707121 51.9235338, 4.2707536 51.9235202, 4.2707956 51.923513), (4.2707956 51.923513, 4.270838 51.9235075, 4.2708836 51.9235082), (4.2708836 51.9235082, 4.2709307 51.9235135, 4.2709761 51.9235229, 4.2710188 51.9235363, 4.271058 51.9235533, 4.2710928 51.9235736, 4.2711224 51.9235968), (4.2711224 51.9235968, 4.2711714 51.9236042, 4.2712218 51.9236071, 4.271418 51.9236065, 4.271578 51.9236151, 4.2717402 51.9236169), (4.2717402 51.9236169, 4.2720719 51.9236488, 4.2722988 51.9236648, 4.2727396 51.923677), (4.2727396 51.923677, 4.2740411 51.9236301, 4.2747025 51.9235948, 4.275122 51.9236088), (4.275122 51.9236088, 4.2769596 51.9234453, 4.2778387 51.9233523, 4.2784296 51.9232827), (4.2784296 51.9232827, 4.2790061 51.9232149), (4.2790061 51.9232149, 4.2807973 51.9229846), (4.2807973 51.9229846, 4.2866722 51.9222409, 4.2879741 51.9220762, 4.2888743 51.921958, 4.2903005 51.9217719), (4.2903005 51.9217719, 4.2928116 51.9214203), (4.2928116 51.9214203, 4.2943993 51.9211536, 4.2954559 51.9209411, 4.2971565 51.920604, 4.2985268 51.9203502, 4.2994872 51.9201963, 4.3002196 51.9200837, 4.3005901 51.9200355, 4.3017538 51.9198853, 4.3025142 51.9198055), (4.3025142 51.9198055, 4.3029704 51.9197606, 4.3033191 51.9197282, 4.3036372 51.9197022, 4.3039287 51.9196739), (4.3039287 51.9196739, 4.3044224 51.9196458, 4.3049655 51.9196162, 4.3063148 51.9195494, 4.3070968 51.9195003, 4.307542 51.919465, 4.3083114 51.9193974, 4.3090764 51.9193203, 4.3104455 51.9191576, 4.3120641 51.9189433), (4.3120641 51.9189433, 4.314611 51.9186155, 4.3154168 51.9185093), (4.3154168 51.9185093, 4.3163083 51.9183942, 4.3180821 51.9181666, 4.320817 51.917811, 4.3215497 51.9177069, 4.3221992 51.9176261, 4.3227929 51.9175531, 4.3235126 51.9174721, 4.3238849 51.9174427, 4.3241543 51.9174255, 4.3248342 51.9173883, 4.3254697 51.9173744, 4.32608 51.9173769), (4.32608 51.9173769, 4.326843 51.9173116, 4.327297 51.9173042, 4.3277805 51.9173132), (4.3277805 51.9173132, 4.3284912 51.9173214), (4.3284912 51.9173214, 4.3293914 51.9173245, 4.3301573 51.9172922, 4.3304399 51.9172619, 4.3307957 51.9171965, 4.3308521 51.9171786, 4.3310899 51.9171228), (4.3310899 51.9171228, 4.3312965 51.9170494, 4.3313595 51.9170328), (4.3313595 51.9170328, 4.3318442 51.9168858, 4.3318965 51.9168707, 4.3319308 51.9168607, 4.3319493 51.9168565), (4.3319493 51.9168565, 4.3319971 51.9168453, 4.3324025 51.9167384, 4.3325139 51.9167089, 4.332598 51.9166848, 4.3326714 51.9166638, 4.333242 51.9165232, 4.3335637 51.9164376, 4.3342269 51.9162642, 4.3344389 51.9162088, 4.336474 51.9156853, 4.3366744 51.9156321), (4.3366744 51.9156321, 4.3369825 51.915541), (4.3369825 51.915541, 4.337575 51.9153842, 4.3376886 51.9153563, 4.3379038 51.9153082), (4.3379038 51.9153082, 4.3378114 51.9152079, 4.3376684 51.9150611, 4.3375905 51.9149057), (4.3371571 51.9144645, 4.3373518 51.9146625, 4.3374216 51.9147341, 4.3375905 51.9149057), (4.3371571 51.9144645, 4.337001 51.9143698, 4.3369199 51.9142205), (4.3365337 51.9138407, 4.3369199 51.9142205), (4.3361144 51.9133822, 4.3365337 51.9138407), (4.3361144 51.9133822, 4.336002 51.9133133, 4.3359279 51.9132307, 4.3359028 51.9132049), (4.3359028 51.9132049, 4.3358305 51.913135), (4.3358305 51.913135, 4.3359725 51.913141), (4.3361593 51.9130626, 4.3359725 51.913141), (4.3364853 51.9129373, 4.3362593 51.9130261, 4.3362096 51.9130444, 4.3361593 51.9130626), (4.3367019 51.9128422, 4.3364853 51.9129373), (4.3369974 51.9127347, 4.3369115 51.9127655, 4.3367019 51.9128422), (4.3371572 51.9126845, 4.3369974 51.9127347), (4.3373137 51.9126233, 4.3371572 51.9126845), (4.338691 51.9120689, 4.3386553 51.9120947, 4.3381667 51.9122894, 4.3375539 51.9125293, 4.3373137 51.9126233), (4.3387083 51.9120338, 4.338691 51.9120689), (4.3387027 51.9120181, 4.3387055 51.912026, 4.3387083 51.9120338), (4.338072 51.9111947, 4.3384213 51.9116402, 4.338593 51.9118611, 4.3386821 51.9119758, 4.3387027 51.9120181), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.342946 51.9095826, 4.3430227 51.9095288, 4.3430781 51.9095155, 4.3435151 51.9094109, 4.3437 51.9094), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3446973 51.909355, 4.3449363 51.909356), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3517346 51.9093718, 4.3517446 51.9093132, 4.3517805 51.9092523, 4.3518404 51.909199, 4.3519203 51.9091569, 4.3520148 51.9091286, 4.3520574 51.9091235, 4.3521179 51.9091161, 4.3522047 51.9091195, 4.3522228 51.9091202, 4.3523225 51.9091406, 4.3524106 51.9091759, 4.3524406 51.9091963, 4.3524812 51.9092239, 4.3525022 51.9092488), (4.3525022 51.9092488, 4.3525298 51.9092814, 4.3525531 51.9093446, 4.3525515 51.9093726), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3581013 51.9093656, 4.3583597 51.9092941, 4.3585158 51.9092802, 4.3586815 51.9093418), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3591826 51.9095669, 4.3593609 51.9096185, 4.3595031 51.909712, 4.3595557 51.9097493), (4.3595557 51.9097493, 4.359685 51.9098633, 4.3597555 51.9099313), (4.3597555 51.9099313, 4.3601654 51.9103626), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611126 51.9107367), (4.3611126 51.9107367, 4.3612052 51.9106805, 4.3613204 51.9105963, 4.3614235 51.9105274, 4.3614435 51.9104581, 4.3614031 51.9104158), (4.3614031 51.9104158, 4.3613667 51.9103952, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611126 51.9107367), (4.3611126 51.9107367, 4.3611208 51.9107423, 4.3611339 51.9107527, 4.3611597 51.9107722, 4.3611809 51.9107825, 4.3612213 51.9108023, 4.3613344 51.9108012, 4.3614523 51.9107598, 4.3618808 51.9105876, 4.3622939 51.9103907, 4.3631313 51.9100301, 4.363477 51.9098659, 4.3636342 51.9098051, 4.3637472 51.9097786, 4.3639217 51.909792, 4.3641086 51.9098235), (4.3641086 51.9098235, 4.3642746 51.909836, 4.3644335 51.90981, 4.3650426 51.9096896, 4.3652479 51.9096503, 4.3656102 51.9095755, 4.3659478 51.9095051, 4.3660967 51.9094542, 4.3661665 51.9094125, 4.3662201 51.9093557), (4.3662201 51.9093557, 4.3662466 51.9092896, 4.3662532 51.9092177, 4.3662939 51.9091547, 4.3664061 51.9090948, 4.3665364 51.9090594), (4.3668089 51.9090127, 4.366604 51.9090471, 4.3665364 51.9090594), (4.369128 51.9089487, 4.368667 51.9089266, 4.3679363 51.9089204, 4.3677375 51.9089313, 4.3674451 51.9089456, 4.3671429 51.9089781, 4.3668089 51.9090127), (4.369128 51.9089487, 4.3694899 51.9089535, 4.3697508 51.9089618, 4.3703901 51.9090009, 4.3707876 51.9090434, 4.3712046 51.9090999, 4.3713342 51.9091467, 4.3713727 51.9092542), (4.3713727 51.9092542, 4.3713311 51.909311, 4.3713423 51.90938, 4.3713937 51.9094573, 4.3716651 51.9096469, 4.3717363 51.9096931, 4.3718318 51.9097339, 4.372045 51.9097247, 4.372205 51.9096817, 4.3723323 51.9096084, 4.3723737 51.9095309, 4.3724051 51.909458, 4.3724489 51.909416, 4.3725131 51.9093361, 4.3726552 51.9092755, 4.3727175 51.9092526), (4.3727175 51.9092526, 4.3729108 51.9091746), (4.3729108 51.9091746, 4.3733454 51.9092956, 4.3742606 51.9096154, 4.3744197 51.9096622, 4.3746069 51.9097201, 4.3747551 51.9097641), (4.3747551 51.9097641, 4.3749592 51.9098264, 4.3757693 51.9100652, 4.3770662 51.9104415, 4.3775498 51.9105886, 4.3783129 51.9108257, 4.3784874 51.9108837, 4.3786241 51.9109268, 4.3788233 51.9109802, 4.3789826 51.9110206), (4.3789826 51.9110206, 4.379184 51.9110701, 4.3795 51.9111331, 4.3800662 51.9112316, 4.381361 51.9113636, 4.3820491 51.911416, 4.3827137 51.9114269, 4.3829816 51.9114013, 4.3832627 51.9113388, 4.3834296 51.9112832), (4.3834296 51.9112832, 4.3834952 51.9112733, 4.3835669 51.9112645, 4.3836176 51.9112621, 4.3837262 51.9112632, 4.3837758 51.9112706, 4.3838412 51.9112893), (4.3838412 51.9112893, 4.3839744 51.9113081, 4.3840283 51.9113146, 4.3843153 51.9113494, 4.3844973 51.9113495, 4.3859185 51.9112922, 4.3861237 51.9112839, 4.3863332 51.9112734, 4.3883297 51.9111734, 4.3884242 51.9111658, 4.3885058 51.9111612, 4.3889253 51.9111252, 4.3892005 51.9111137, 4.3892811 51.9111116, 4.3899124 51.9111075, 4.3903402 51.9111281, 4.3906709 51.9111441), (4.3906709 51.9111441, 4.3908252 51.9111498, 4.3915113 51.911197, 4.392291 51.911277, 4.3929441 51.9113906, 4.3935685 51.9115096, 4.3943295 51.9116643, 4.3950574 51.911838, 4.3951543 51.9118611, 4.3954133 51.9119483, 4.3958178 51.9121033, 4.3964989 51.9125195, 4.3966217 51.9125977, 4.3972353 51.9129943, 4.3972904 51.9130262, 4.3973722 51.913063), (4.3973722 51.913063, 4.3974217 51.9130479, 4.3974763 51.9130427, 4.3975309 51.9130479, 4.3975805 51.913063), (4.3975805 51.913063, 4.3976773 51.913042, 4.3977223 51.9130146, 4.3977543 51.9129951, 4.3986546 51.9124633, 4.3987457 51.9124384, 4.3988699 51.9124128), (4.3988699 51.9124128, 4.3988622 51.9123829, 4.398866 51.9123526, 4.398881 51.9123238, 4.3989065 51.9122978, 4.3989409 51.9122763, 4.3989826 51.9122602, 4.3990291 51.9122505, 4.399078 51.9122477, 4.3991267 51.9122519), (4.3991267 51.9122519, 4.3991666 51.9122612, 4.3992028 51.9122752, 4.3992336 51.9122934, 4.3992578 51.9123151, 4.3992736 51.9123378, 4.3992822 51.9123619, 4.3992833 51.9123865, 4.3992768 51.9124109, 4.399263 51.912434), (4.399263 51.912434, 4.39935 51.9124929, 4.3993938 51.9125301), (4.3993938 51.9125301, 4.399411 51.9125407), (4.399411 51.9125407, 4.3995253 51.912611), (4.3995253 51.912611, 4.3995622 51.9126338), (4.3995622 51.9126338, 4.4001878 51.9130126, 4.4003025 51.9130679, 4.4003417 51.9130877, 4.4004551 51.9131411), (4.4004551 51.9131411, 4.4005278 51.913176), (4.4005278 51.913176, 4.4006698 51.9132443, 4.4010029 51.9134413, 4.4011293 51.9135206), (4.4011293 51.9135206, 4.4015827 51.9138122, 4.4016484 51.9139115), (4.4016484 51.9139115, 4.4016943 51.9140085), (4.4016943 51.9140085, 4.4018001 51.9142071, 4.4018107 51.9142276), (4.4018107 51.9142276, 4.4018888 51.914294, 4.4021132 51.9143678), (4.4021132 51.9143678, 4.4022894 51.9144163, 4.4023322 51.91443, 4.4023904 51.914445, 4.4026704 51.9145403), (4.4026704 51.9145403, 4.4026639 51.9146617), (4.4026639 51.9146617, 4.4026479 51.9147047, 4.4026358 51.9147357, 4.402608 51.9147978, 4.4026004 51.9148212), (4.4026004 51.9148212, 4.4024819 51.9148932, 4.4024187 51.9149613, 4.4023781 51.9150201), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023445 51.9188801, 4.4023243 51.9188543, 4.4023083 51.918818, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023881 51.9189542, 4.402364 51.9190272, 4.4023615 51.9190373, 4.4023469 51.9191291, 4.4023418 51.9191637, 4.4023121 51.9192971, 4.4022934 51.9194298), (4.4022934 51.9194298, 4.4022857 51.9195074), (4.4022857 51.9195074, 4.402264 51.9197357, 4.4022543 51.9199786, 4.4022507 51.920291, 4.4023273 51.9206063, 4.4024516 51.9208966), (4.4024516 51.9208966, 4.4026187 51.9212013, 4.4026684 51.921302, 4.4026907 51.9213442, 4.402705 51.9213712, 4.4027375 51.9214414), (4.4027375 51.9214414, 4.4027841 51.9215306, 4.4027953 51.9215577, 4.4029344 51.9218933), (4.4029344 51.9218933, 4.4032079 51.922545, 4.4032192 51.9225763, 4.4032343 51.9226131, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382748</t>
+          <t>383677</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rotterdam, Capelsebrug</t>
+          <t>Maassluis, Station Maassluis West</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bus 97: Rotterdam Capelsebrug =&gt; Krimpen aan den IJssel =&gt; Rotterdam Capelsebrug</t>
+          <t>Bus 126: Schiedam Centrum =&gt; Maassluis West</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,14 +547,14 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5578975 51.9211507, 4.5575924 51.9210525), (4.5575924 51.9210525, 4.5571963 51.9209242, 4.5569058 51.9208259), (4.5569058 51.9208259, 4.5568024 51.9207897, 4.5566458 51.9207199, 4.5565453 51.9206062, 4.5565164 51.9204996, 4.5565453 51.9203752, 4.5567206 51.9202177, 4.5571453 51.9199557, 4.5572339 51.919921, 4.5573503 51.9198746), (4.5573503 51.9198746, 4.557422 51.91979, 4.5574607 51.9197437), (4.5574607 51.9197437, 4.5575914 51.9196167, 4.5578388 51.9194336, 4.5580272 51.9192943), (4.5580272 51.9192943, 4.5580967 51.9192951, 4.5581568 51.9192988, 4.5582347 51.9193053, 4.5583025 51.9193145, 4.5584296 51.9193354, 4.5585196 51.9193989), (4.5588403 51.9194949, 4.5585997 51.9194323, 4.5585196 51.9193989), (4.5588403 51.9194949, 4.5594492 51.9198303), (4.5594492 51.9198303, 4.5643451 51.9225477), (4.5643451 51.9225477, 4.5654199 51.9231437, 4.565903 51.9234138), (4.565903 51.9234138, 4.5669772 51.9240188), (4.5669772 51.9240188, 4.5676532 51.9243845, 4.5677122 51.9244167, 4.5680013 51.9245268, 4.5681981 51.9245734, 4.568391 51.9246125), (4.568391 51.9246125, 4.5685278 51.9246073, 4.5685992 51.9246095), (4.5685992 51.9246095, 4.5688575 51.9246006, 4.5690801 51.9245419, 4.56943 51.9244017, 4.5696564 51.9242731), (4.5756197 51.9177515, 4.5754723 51.9178008, 4.5750799 51.917941, 4.5746819 51.9181108, 4.5745715 51.9181702, 4.5739886 51.9184663, 4.5735557 51.9187351, 4.5731765 51.919019, 4.5728634 51.9192808, 4.5726521 51.9194972, 4.5723219 51.9198695, 4.572088 51.9202116, 4.5718428 51.9206688, 4.5715796 51.9213041, 4.5709609 51.9227991, 4.5707807 51.9231644, 4.5706562 51.9233517, 4.5703204 51.9237345, 4.5698601 51.9241265, 4.5696564 51.9242731), (4.5756197 51.9177515, 4.5757516 51.9176762), (4.5757516 51.9176762, 4.5760981 51.9175736, 4.5765383 51.917466), (4.5765383 51.917466, 4.5768782 51.9173844), (4.5768782 51.9173844, 4.577128 51.9173452, 4.5773263 51.9173028, 4.5775312 51.9172664), (4.5775312 51.9172664, 4.5776975 51.9172557), (4.5777891 51.9172386, 4.5776975 51.9172557), (4.5783521 51.917113, 4.5777891 51.9172386), (4.5786747 51.9170428, 4.5783521 51.917113), (4.5800688 51.9167392, 4.5786747 51.9170428), (4.5830946 51.9152775, 4.5824409 51.915722, 4.5821655 51.9159094, 4.5819552 51.9160461, 4.5817532 51.9161683, 4.5815496 51.9162753, 4.5813288 51.9163772, 4.5811619 51.916444, 4.5809582 51.9165138, 4.5807097 51.9165923, 4.5804925 51.9166428, 4.5800688 51.9167392), (4.5830946 51.9152775, 4.5838709 51.9147475, 4.5841651 51.914552), (4.5841651 51.914552, 4.5844554 51.9143714), (4.5844554 51.9143714, 4.5846651 51.9142436, 4.5848351 51.9141458, 4.5853348 51.9138817), (4.5853348 51.9138817, 4.5855396 51.9137815), (4.5855396 51.9137815, 4.5856882 51.9136691, 4.5860352 51.91349, 4.5862783 51.9133789), (4.5862783 51.9133789, 4.5871662 51.9129495, 4.587256 51.9129078), (4.587256 51.9129078, 4.587535 51.9127717), (4.587535 51.9127717, 4.588651 51.9121996), (4.588651 51.9121996, 4.5889608 51.9120228, 4.5892319 51.9118699, 4.5894664 51.9117378), (4.5894664 51.9117378, 4.5896067 51.9116528), (4.5896067 51.9116528, 4.5897646 51.9115632, 4.5899632 51.9114415, 4.5901452 51.9113434, 4.5903183 51.9112468, 4.5904691 51.91115, 4.5906257 51.9110897), (4.5909871 51.9108503, 4.5906257 51.9110897), (4.5916978 51.9103592, 4.5909871 51.9108503), (4.5923013 51.9099798, 4.5916978 51.9103592), (4.5932475 51.9093316, 4.5929772 51.9095164, 4.5923013 51.9099798), (4.5934771 51.9091805, 4.5932475 51.9093316), (4.596615 51.9077012, 4.5964677 51.9077395, 4.59601 51.9078825, 4.5957819 51.9079618, 4.5955653 51.9080405, 4.5952562 51.9081614, 4.5948804 51.9083315, 4.5945502 51.9084885, 4.594246 51.9086643, 4.5940273 51.9088055, 4.5934771 51.9091805), (4.5974949 51.9074766, 4.5971007 51.9075752, 4.5968397 51.9076427, 4.596615 51.9077012), (4.5982514 51.907295, 4.5974949 51.9074766), (4.5982514 51.907295, 4.5984138 51.9072284, 4.5985427 51.9071914, 4.5986734 51.9071382), (4.5986734 51.9071382, 4.5986798 51.9071067, 4.5986975 51.9070769, 4.5987256 51.9070504, 4.5988071 51.907012, 4.5989076 51.9069997, 4.5989494 51.907003, 4.5989896 51.9070109, 4.5990266 51.9070233, 4.5990593 51.9070397), (4.5990593 51.9070397, 4.5991138 51.907092, 4.599126 51.9071232, 4.5991263 51.9071537), (4.5991263 51.9071537, 4.5990979 51.9072088, 4.5990358 51.9072521), (4.5990358 51.9072521, 4.5990537 51.9073067, 4.5991051 51.9074254, 4.599114 51.9075108, 4.5990821 51.9075918), (4.5990821 51.9075918, 4.5989959 51.9078553, 4.5989853 51.9079021, 4.598949 51.9080225, 4.5988841 51.908219), (4.5988841 51.908219, 4.5990023 51.9082345, 4.5991279 51.9082535, 4.5993492 51.9082969, 4.5995715 51.9083574), (4.5995715 51.9083574, 4.5998129 51.9084357), (4.5998129 51.9084357, 4.6000913 51.9085594), (4.6000913 51.9085594, 4.6002123 51.9086155), (4.6002123 51.9086155, 4.6008811 51.9089259, 4.601985 51.9094402, 4.602696 51.9097756, 4.6030303 51.9099268, 4.6033184 51.9100565, 4.6040051 51.9103807, 4.604628 51.9106697, 4.6047124 51.9107032), (4.6047124 51.9107032, 4.6048097 51.9107177, 4.6049469 51.9107265, 4.6056673 51.9107247, 4.6063045 51.9107268, 4.6064297 51.9107382, 4.6065036 51.9107547, 4.6065685 51.9107826), (4.6065685 51.9107826, 4.6066343 51.9108153, 4.607172 51.9110852, 4.607327 51.9111604), (4.607327 51.9111604, 4.6073761 51.9111841), (4.6073761 51.9111841, 4.6074703 51.91123), (4.6074703 51.91123, 4.6077431 51.9113152, 4.6079082 51.9113932, 4.6080996 51.9114845, 4.60823 51.911589), (4.60823 51.911589, 4.6085833 51.9117627, 4.6089228 51.9119303, 4.6094641 51.9121923, 4.6101528 51.9125315, 4.610958 51.9129281, 4.6114118 51.9131519, 4.6116887 51.9132904, 4.6118256 51.9133523), (4.6118256 51.9133523, 4.6119635 51.9134181), (4.6119635 51.9134181, 4.6120234 51.9134483, 4.612137 51.9135004), (4.612137 51.9135004, 4.6123071 51.9136049, 4.612418 51.9136927, 4.6125047 51.913806, 4.6126096 51.9140165, 4.6126597 51.9140877, 4.6127026 51.9141435, 4.6127623 51.9141918, 4.6129027 51.914273, 4.6130292 51.9143184, 4.613139 51.9143485, 4.6132312 51.9143572, 4.613299 51.9143549), (4.614977 51.9142596, 4.6149168 51.9142371, 4.6147646 51.9142008, 4.6146023 51.9141913, 4.6144862 51.9142042, 4.6142051 51.9142461, 4.6134765 51.9143433, 4.613299 51.9143549), (4.614977 51.9142596, 4.6152342 51.9143405, 4.6152861 51.91436, 4.6153842 51.9143968, 4.6155008 51.9144361, 4.6155513 51.9144472), (4.6155513 51.9144472, 4.615569 51.9144384, 4.6156158 51.9144284, 4.6156389 51.9144282, 4.6156613 51.9144281, 4.6157048 51.9144365, 4.6157421 51.9144527, 4.6157694 51.9144752, 4.6157782 51.914491, 4.6157842 51.9145018, 4.6157851 51.9145299, 4.6157733 51.914555), (4.6157733 51.914555, 4.6157973 51.9146142, 4.6158337 51.9146483, 4.6158663 51.9146745, 4.6160553 51.9148153, 4.6160822 51.9148534), (4.6160822 51.9148534, 4.6161425 51.9148953, 4.6162704 51.9149646), (4.6162704 51.9149646, 4.6168873 51.9153025, 4.61699 51.9153597, 4.6171064 51.9154322), (4.6171064 51.9154322, 4.6171649 51.9155212, 4.6171685 51.9155927, 4.6171911 51.9158177, 4.6172221 51.9160845, 4.6172414 51.9162703, 4.6173036 51.9167566), (4.6175293 51.9172102, 4.6174399 51.9171414, 4.6173759 51.9170659, 4.6173175 51.9169591, 4.6173057 51.9168689, 4.6173036 51.9167566), (4.6175293 51.9172102, 4.6176601 51.9172914, 4.618494 51.9177399, 4.6190902 51.9180728, 4.6193399 51.9182127, 4.6198102 51.9184736, 4.6204575 51.9188146, 4.6207976 51.9190088, 4.6211298 51.9192027), (4.6211298 51.9192027, 4.6214863 51.9193978, 4.6215111 51.9194114, 4.6216349 51.9194791, 4.6218064 51.919581), (4.6218064 51.919581, 4.6219246 51.9196473, 4.6219783 51.9197101, 4.6219981 51.9197613, 4.6220152 51.919835, 4.6220321 51.9199934, 4.6220547 51.9202546, 4.6220184 51.920319), (4.6220184 51.920319, 4.6220618 51.9204775, 4.6220633 51.9205299, 4.6220749 51.9206493, 4.6220869 51.9207734, 4.6220915 51.9208203, 4.6221046 51.9211127, 4.6221137 51.9211797, 4.6221642 51.9213693, 4.6221752 51.9215267, 4.6221805 51.9216274, 4.6221867 51.921688, 4.622224 51.9220214, 4.6222391 51.9221889, 4.6222685 51.9223801, 4.6222824 51.922522, 4.6223022 51.922558, 4.6225182 51.9226945, 4.6227339 51.9228086, 4.6228956 51.9228907), (4.6228956 51.9228907, 4.6232072 51.9230642, 4.6232647 51.9231031, 4.6232948 51.923155), (4.6232948 51.923155, 4.6232233 51.9232374, 4.6228832 51.9234732, 4.6227761 51.9235399, 4.6226326 51.9236488, 4.6224088 51.9237924, 4.6219265 51.9240984), (4.6219265 51.9240984, 4.6218397 51.9241412), (4.6218397 51.9241412, 4.6217061 51.9242067, 4.6216572 51.9242345, 4.6215503 51.9242839), (4.6215503 51.9242839, 4.6215346 51.924318, 4.6215043 51.9243481, 4.621426 51.9243841, 4.6213297 51.9243939, 4.621263 51.9243838, 4.6212054 51.9243609, 4.6211639 51.9243286, 4.6211413 51.9242899, 4.6211397 51.9242488, 4.6211548 51.9242155, 4.6211839 51.9241859), (4.6211839 51.9241859, 4.6211634 51.9241015, 4.6211596 51.924052, 4.6211541 51.9239771), (4.617623 51.9210155, 4.617792 51.9210632, 4.6178756 51.9210905, 4.6179389 51.9211124, 4.6179796 51.9211287, 4.6182507 51.9212443, 4.61848 51.9213437, 4.6188536 51.9215304, 4.6191107 51.9216742, 4.6194467 51.9218986, 4.6199081 51.922267, 4.6199596 51.9223144, 4.620138 51.9225061, 4.620309 51.922704, 4.6205169 51.9229943, 4.6206777 51.9232351, 4.6211541 51.9239771), (4.617623 51.9210155, 4.6174631 51.9210074, 4.617345 51.9209817, 4.6172282 51.9209564), (4.6172282 51.9209564, 4.6171906 51.9209811, 4.6171448 51.9209998, 4.6170932 51.9210115, 4.6170387 51.9210155, 4.6169787 51.9210109, 4.6169214 51.9209965, 4.616873 51.9209741, 4.6168354 51.9209448, 4.616811 51.9209106, 4.6168016 51.9208737), (4.6168016 51.9208737, 4.6166656 51.9208525, 4.6165642 51.9208335, 4.6164622 51.9207995), (4.6164622 51.9207995, 4.616346 51.9207875, 4.6159355 51.9207561, 4.6153968 51.9207357, 4.6144912 51.9207329, 4.6136137 51.9207564, 4.6127397 51.9207984, 4.6119666 51.9208584, 4.6108094 51.9209738, 4.6107613 51.9209783, 4.6106093 51.9209927), (4.6106093 51.9209927, 4.6106067 51.921036, 4.610582 51.9210767, 4.6105377 51.9211104, 4.6104784 51.9211337, 4.610402 51.9211446, 4.6103243 51.9211382, 4.6102539 51.9211148, 4.6102019 51.9210773, 4.610175 51.9210309), (4.6027806 51.9187429, 4.6028775 51.9188044, 4.6029978 51.918876, 4.6038373 51.9193517, 4.60449 51.9197145, 4.6048054 51.9198851, 4.6049656 51.9199745, 4.6052784 51.9201396, 4.6053135 51.9201589, 4.6062034 51.9206487, 4.6064557 51.9207676, 4.6070823 51.920975, 4.6076564 51.9210892, 4.6082078 51.921145, 4.6086913 51.921153, 4.6090507 51.9211323, 4.6099812 51.921048, 4.6100418 51.9210417, 4.610175 51.9210309), (4.6027806 51.9187429, 4.6027228 51.9187661, 4.6026508 51.9187778, 4.6025767 51.9187745, 4.6025084 51.9187567, 4.6024611 51.9187345), (4.6024611 51.9187345, 4.6023569 51.9187971, 4.60222 51.9188776, 4.6013782 51.9194727, 4.6007434 51.9198982, 4.6005456 51.9200353, 4.6003977 51.9201354), (4.6003977 51.9201354, 4.6003346 51.9201761), (4.6003346 51.9201761, 4.6002807 51.9201496, 4.6001608 51.9200834, 4.600088 51.9200518, 4.5999908 51.9200082), (4.599803 51.9199418, 4.5999908 51.9200082), (4.5979135 51.9189243, 4.597954 51.9189435, 4.5981355 51.9190429, 4.5983403 51.9191563, 4.5984953 51.9192421, 4.5988627 51.9194384, 4.5994098 51.9197382, 4.5994473 51.9197581, 4.5997542 51.9199213, 4.5997694 51.9199275, 4.599803 51.9199418), (4.5979135 51.9189243, 4.597795 51.9188988, 4.5976865 51.918838, 4.5976382 51.9187724), (4.5963527 51.9180491, 4.5966467 51.9182205, 4.5971344 51.9184792, 4.5973394 51.9185929, 4.5975886 51.9187443, 4.5976382 51.9187724), (4.5963527 51.9180491, 4.5962638 51.9180338, 4.5961789 51.9179934, 4.5961245 51.9179581, 4.5960544 51.9178752), (4.5937649 51.9162794, 4.5944596 51.91665, 4.5952282 51.9170735, 4.5956023 51.9174816, 4.5957976 51.9176774, 4.5960544 51.9178752), (4.593549 51.9161603, 4.5936411 51.9162099, 4.5937649 51.9162794), (4.5934738 51.9161186, 4.593549 51.9161603), (4.5911418 51.9148403, 4.5915262 51.9150445, 4.5915746 51.9150702, 4.5922324 51.9154308, 4.5934738 51.9161186), (4.5905015 51.9144444, 4.590528 51.9144975, 4.5906054 51.9145515, 4.5907 51.9146, 4.5911418 51.9148403), (4.5915756 51.913572, 4.5911914 51.9138455, 4.5907107 51.9141813, 4.590539 51.9143046, 4.5905015 51.9143906, 4.5905015 51.9144444), (4.5915756 51.913572, 4.5916414 51.9134823, 4.591815 51.9132885, 4.5919794 51.913096, 4.5920692 51.9130099, 4.5921984 51.9129196), (4.5924903 51.9124999, 4.5924191 51.9125956, 4.5923836 51.9126518, 4.5921984 51.9129196), (4.5929627 51.9118669, 4.5926244 51.9123228, 4.5925651 51.9124106, 4.5924903 51.9124999), (4.5934463 51.9112243, 4.5932034 51.9115454, 4.5929627 51.9118669), (4.5936159 51.9110589, 4.5934463 51.9112243), (4.5957786 51.9090677, 4.5955801 51.9092132, 4.595193 51.9095018, 4.594998 51.9096428, 4.5948124 51.9098105, 4.5946873 51.909941, 4.5941716 51.9104813, 4.59402 51.9106394, 4.5938564 51.9108141, 4.5936159 51.9110589), (4.5966877 51.908466, 4.5965503 51.908528, 4.5964441 51.9085951, 4.5962376 51.9087411, 4.5957786 51.9090677), (4.5973798 51.9082612, 4.5971865 51.9083081, 4.5969906 51.9083667, 4.5966877 51.908466), (4.5975681 51.9082279, 4.5973798 51.9082612), (4.5988841 51.908219, 4.5986976 51.9081992, 4.5985746 51.908186, 4.5982911 51.9081727, 4.5980386 51.90818, 4.5979097 51.9081867, 4.5977931 51.9081976, 4.5975681 51.9082279), (4.5990821 51.9075918, 4.5989959 51.9078553, 4.5989853 51.9079021, 4.598949 51.9080225, 4.5988841 51.908219), (4.5990821 51.9075918, 4.5990102 51.9075262, 4.5989591 51.9074932, 4.5988469 51.9074652), (4.5988469 51.9074652, 4.5987349 51.9074708, 4.5986038 51.9074707, 4.5984429 51.9074603, 4.5983222 51.907447, 4.5981897 51.9074348, 4.5980165 51.9074342, 4.5978803 51.907451, 4.5974949 51.9074766), (4.5974949 51.9074766, 4.5971007 51.9075752, 4.5968397 51.9076427, 4.596615 51.9077012), (4.596615 51.9077012, 4.5964677 51.9077395, 4.59601 51.9078825, 4.5957819 51.9079618, 4.5955653 51.9080405, 4.5952562 51.9081614, 4.5948804 51.9083315, 4.5945502 51.9084885, 4.594246 51.9086643, 4.5940273 51.9088055, 4.5934771 51.9091805), (4.5934771 51.9091805, 4.5932475 51.9093316), (4.5932475 51.9093316, 4.5932028 51.9094513, 4.5919871 51.9102628), (4.5919871 51.9102628, 4.5912888 51.9107134), (4.5912888 51.9107134, 4.5908451 51.9110679, 4.5906293 51.9112511, 4.5904024 51.9114262, 4.5901249 51.9116113, 4.5899355 51.9117122, 4.5897169 51.9117322), (4.5897169 51.9117322, 4.5895788 51.9118133), (4.5895788 51.9118133, 4.5893983 51.9119168, 4.5891908 51.912031, 4.5878982 51.9126985, 4.5873985 51.9129566), (4.5873985 51.9129566, 4.5868138 51.9132702), (4.5868138 51.9132702, 4.5859622 51.9136518, 4.5855396 51.9137815), (4.5853348 51.9138817, 4.5855396 51.9137815), (4.5844554 51.9143714, 4.5846651 51.9142436, 4.5848351 51.9141458, 4.5853348 51.9138817), (4.5841651 51.914552, 4.5844554 51.9143714), (4.5830946 51.9152775, 4.5838709 51.9147475, 4.5841651 51.914552), (4.5830946 51.9152775, 4.5824409 51.915722, 4.5821655 51.9159094, 4.5819552 51.9160461, 4.5817532 51.9161683, 4.5815496 51.9162753, 4.5813288 51.9163772, 4.5811619 51.916444, 4.5809582 51.9165138, 4.5807097 51.9165923, 4.5804925 51.9166428, 4.5800688 51.9167392), (4.5800688 51.9167392, 4.5786747 51.9170428), (4.5786747 51.9170428, 4.5783521 51.917113), (4.5783521 51.917113, 4.5777891 51.9172386), (4.5777891 51.9172386, 4.5776975 51.9172557), (4.5776975 51.9172557, 4.5775599 51.9173146), (4.5775599 51.9173146, 4.5769874 51.9174418), (4.5769874 51.9174418, 4.5767104 51.9175057, 4.5764646 51.9175715), (4.5764646 51.9175715, 4.5756197 51.9177515), (4.5756197 51.9177515, 4.5754723 51.9178008, 4.5750799 51.917941, 4.5746819 51.9181108, 4.5745715 51.9181702, 4.5739886 51.9184663, 4.5735557 51.9187351, 4.5731765 51.919019, 4.5728634 51.9192808, 4.5726521 51.9194972, 4.5723219 51.9198695, 4.572088 51.9202116, 4.5718428 51.9206688, 4.5715796 51.9213041, 4.5709609 51.9227991, 4.5707807 51.9231644, 4.5706562 51.9233517, 4.5703204 51.9237345, 4.5698601 51.9241265, 4.5696564 51.9242731), (4.5696564 51.9242731, 4.5695 51.9245044), (4.5695 51.9245044, 4.5693171 51.9246852, 4.569267 51.9247668, 4.5692106 51.9249233), (4.5692106 51.9249233, 4.5692313 51.9249952, 4.5692319 51.9250683, 4.5692112 51.9251435, 4.5691694 51.9252153, 4.5691076 51.9252814, 4.569028 51.9253398, 4.5689328 51.9253886, 4.5688253 51.9254263, 4.5687086 51.9254517, 4.5686119 51.9254614, 4.5683846 51.925455, 4.5681933 51.92541, 4.5680313 51.9253328, 4.5678885 51.9252001, 4.5678706 51.9251674, 4.567845 51.9251016, 4.5678364 51.9250341), (4.5678364 51.9250341, 4.5676261 51.9247505, 4.5674123 51.9245348, 4.5670693 51.9243082, 4.5597643 51.9202266), (4.5597643 51.9202266, 4.5596325 51.9200631, 4.5594492 51.9198303), (4.5588403 51.9194949, 4.5594492 51.9198303), (4.5588403 51.9194949, 4.5585997 51.9194323, 4.5585196 51.9193989), (4.5585196 51.9193989, 4.5584822 51.9193883, 4.5583927 51.9193765, 4.5582903 51.919371, 4.5581967 51.9193932), (4.5581967 51.9193932, 4.5577454 51.9196906, 4.5576324 51.9197858, 4.5575727 51.9198428), (4.5575727 51.9198428, 4.5573922 51.920009, 4.5571341 51.9202249), (4.5571341 51.9202249, 4.5570731 51.9202977, 4.5570453 51.9203684, 4.5570275 51.9204135, 4.5570645 51.9205312, 4.5571948 51.9206445), (4.5571948 51.9206445, 4.5573831 51.9206832, 4.5578123 51.9208208), (4.5578123 51.9208208, 4.5580288 51.9209046, 4.5580834 51.9209124, 4.5582038 51.9209099, 4.5583923 51.9209126, 4.558582 51.9209522, 4.5589084 51.921068, 4.5588845 51.9211893))</t>
+          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4030168 51.9226615, 4.4029977 51.9226303, 4.4029741 51.9225613), (4.4029741 51.9225613, 4.4028913 51.922478, 4.4028582 51.9224268, 4.4028355 51.9223499), (4.4028355 51.9223499, 4.4028239 51.9222624, 4.4028002 51.9221863, 4.4026273 51.9218013, 4.402572 51.9216791, 4.4025263 51.9215776, 4.4024883 51.921489, 4.4024544 51.9214158, 4.4022804 51.9210387, 4.4021092 51.9206542, 4.4020599 51.9204292, 4.4020411 51.9202942, 4.4020297 51.9201511, 4.4020449 51.919886, 4.4020862 51.9194999), (4.4020862 51.9194999, 4.4020939 51.9194222), (4.4020939 51.9194222, 4.4021194 51.9192185, 4.4021437 51.9191328, 4.4021906 51.9190311, 4.402222 51.9189515, 4.4022496 51.9188787, 4.4022798 51.9188233), (4.4022798 51.9188233, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023816 51.9149644, 4.4023853 51.9149053, 4.4024035 51.9148696, 4.4024755 51.9147714, 4.4025195 51.9147, 4.4025452 51.9146696, 4.4025731 51.914635), (4.4025731 51.914635, 4.4025057 51.9146144), (4.4025057 51.9146144, 4.4023111 51.9145415, 4.4022566 51.9145243, 4.4020376 51.914461, 4.4019371 51.9144294, 4.4018269 51.914386), (4.4018269 51.914386, 4.4017625 51.9143529, 4.4017015 51.914225, 4.4016245 51.9140211), (4.4016245 51.9140211, 4.4015786 51.9139241), (4.4015786 51.9139241, 4.401525 51.9138567, 4.4014889 51.9138268, 4.4013186 51.9137264), (4.4013186 51.9137264, 4.4009579 51.9135638, 4.4006661 51.9133843, 4.4005816 51.9133339, 4.4005518 51.9133162, 4.4004209 51.913244, 4.4003474 51.9132055), (4.4003474 51.9132055, 4.4002465 51.9131438, 4.4002083 51.9131212, 4.3994952 51.9126829), (4.3994952 51.9126829, 4.399452 51.9126563), (4.399452 51.9126563, 4.3993377 51.9125859), (4.3993377 51.9125859, 4.3993173 51.9125734), (4.3993173 51.9125734, 4.3992696 51.9125475, 4.3991711 51.9124928), (4.3991711 51.9124928, 4.399125 51.9125038, 4.399076 51.9125078, 4.3990269 51.9125047, 4.3989803 51.9124946, 4.3989388 51.9124781), (4.3989388 51.9124781, 4.3988164 51.9125122, 4.3987272 51.912544, 4.3979159 51.9130192, 4.3977903 51.9130712, 4.3977354 51.913094, 4.397653 51.9131291), (4.397653 51.9131291, 4.3976571 51.9131642, 4.3976434 51.9131984, 4.3976131 51.9132282, 4.3975694 51.9132508, 4.3975164 51.9132638, 4.3974595 51.9132661, 4.3974042 51.9132574, 4.3973627 51.913242, 4.3973292 51.9132203, 4.3973063 51.9131939), (4.3973063 51.9131939, 4.3972948 51.9131561, 4.3973047 51.9131182), (4.3973047 51.9131182, 4.3972312 51.9130688, 4.3965539 51.9126393, 4.3964302 51.9125619, 4.3962367 51.9124423, 4.3958981 51.912245, 4.3957165 51.9121615, 4.3950134 51.9119194, 4.3942792 51.9117321, 4.3935025 51.9115709, 4.3928415 51.9114426, 4.3922686 51.9113451, 4.3914946 51.9112645, 4.3909575 51.9112355, 4.3906487 51.9112169), (4.3906487 51.9112169, 4.3903318 51.911201, 4.3898481 51.9111767, 4.3893046 51.9111963, 4.3892809 51.9111972, 4.3892142 51.9111994, 4.3889403 51.9112083, 4.3885131 51.9112359, 4.3884338 51.9112412, 4.3883338 51.9112446, 4.3863402 51.9113401, 4.3861317 51.9113501, 4.3859262 51.9113585, 4.3844861 51.9114173, 4.3843026 51.9114458, 4.3840426 51.9115221, 4.3839877 51.9115382, 4.3838386 51.9115499), (4.3838386 51.9115499, 4.3837638 51.911574, 4.3836319 51.9115826, 4.3835579 51.9115825, 4.3834803 51.9115823), (4.3834803 51.9115823, 4.3832818 51.9115477, 4.3829915 51.9115033, 4.3827133 51.9114733, 4.3820351 51.9114713, 4.3813438 51.9114356, 4.3800342 51.9112935, 4.3798236 51.9112588, 4.3793179 51.9111755, 4.3791689 51.9111466, 4.3789808 51.9111109), (4.3789808 51.9111109, 4.3788083 51.9110671, 4.3786075 51.9110259, 4.3780142 51.9108668, 4.3775107 51.9107157, 4.376974 51.9105646, 4.3767314 51.9104928, 4.376412 51.9103872), (4.376412 51.9103872, 4.3749771 51.9099701, 4.37487 51.9099404, 4.3746601 51.9098752), (4.3746601 51.9098752, 4.3745226 51.9098322, 4.374277 51.9097529), (4.374277 51.9097529, 4.3732742 51.9094137, 4.3731311 51.9093694, 4.372949 51.9093204), (4.372949 51.9093204, 4.3727175 51.9092526), (4.3727175 51.9092526, 4.3723789 51.9092076, 4.3721194 51.90926, 4.3717796 51.9092015, 4.3716273 51.9091717, 4.3713727 51.9092542), (4.3713727 51.9092542, 4.3711607 51.9091592, 4.3707754 51.9090997, 4.3706535 51.9090849, 4.3703818 51.9090581, 4.3696989 51.9090244, 4.3694731 51.9089959, 4.369128 51.9089487), (4.369128 51.9089487, 4.368667 51.9089266, 4.3679363 51.9089204, 4.3677375 51.9089313, 4.3674451 51.9089456, 4.3671429 51.9089781, 4.3668089 51.9090127), (4.3668089 51.9090127, 4.366604 51.9090471, 4.3665364 51.9090594), (4.3662201 51.9093557, 4.3662466 51.9092896, 4.3662532 51.9092177, 4.3662939 51.9091547, 4.3664061 51.9090948, 4.3665364 51.9090594), (4.3641086 51.9098235, 4.3642746 51.909836, 4.3644335 51.90981, 4.3650426 51.9096896, 4.3652479 51.9096503, 4.3656102 51.9095755, 4.3659478 51.9095051, 4.3660967 51.9094542, 4.3661665 51.9094125, 4.3662201 51.9093557), (4.3611126 51.9107367, 4.3611208 51.9107423, 4.3611339 51.9107527, 4.3611597 51.9107722, 4.3611809 51.9107825, 4.3612213 51.9108023, 4.3613344 51.9108012, 4.3614523 51.9107598, 4.3618808 51.9105876, 4.3622939 51.9103907, 4.3631313 51.9100301, 4.363477 51.9098659, 4.3636342 51.9098051, 4.3637472 51.9097786, 4.3639217 51.909792, 4.3641086 51.9098235), (4.361054 51.9107217, 4.3611126 51.9107367), (4.361003 51.9107058, 4.361054 51.9107217), (4.361003 51.9107058, 4.3610858 51.9106382, 4.3611254 51.9105905, 4.3612273 51.9104633, 4.3612512 51.9104357, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3601654 51.9103626, 4.3598195 51.9101251, 4.3596939 51.9099938), (4.3596939 51.9099938, 4.3596106 51.9099183, 4.3594546 51.9097895), (4.3594546 51.9097895, 4.3593013 51.9096644, 4.3591826 51.9095669), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3586815 51.9093418, 4.3584023 51.9093665, 4.3582834 51.9093753, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3525496 51.9094094, 4.3525195 51.9094715), (4.3525195 51.9094715, 4.3524649 51.9095268, 4.3523892 51.9095718, 4.3523097 51.9095992), (4.3523097 51.9095992, 4.3522975 51.9096035, 4.3522368 51.9096136), (4.3522368 51.9096136, 4.3521958 51.9096197, 4.3520908 51.9096195, 4.3520628 51.9096149), (4.3520628 51.9096149, 4.3519892 51.9096028, 4.3519821 51.9096002), (4.3519821 51.9096002, 4.3518979 51.9095707, 4.3518673 51.9095523, 4.3518228 51.9095254, 4.3517875 51.9094917, 4.3517808 51.9094853, 4.3517469 51.9094302, 4.3517346 51.9093718), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3446973 51.909355, 4.3449363 51.909356), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3437 51.9094, 4.3435453 51.9094618, 4.343117 51.9095625), (4.343117 51.9095625, 4.3430661 51.9095744, 4.342946 51.9095826), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.338072 51.9111947, 4.3384213 51.9116402, 4.338593 51.9118611, 4.3386821 51.9119758, 4.3387027 51.9120181), (4.3387027 51.9120181, 4.3387055 51.912026, 4.3387083 51.9120338), (4.3387083 51.9120338, 4.338691 51.9120689), (4.338691 51.9120689, 4.3386553 51.9120947, 4.3381667 51.9122894, 4.3375539 51.9125293, 4.3373137 51.9126233), (4.3373137 51.9126233, 4.3371572 51.9126845), (4.3371572 51.9126845, 4.3369974 51.9127347), (4.3369974 51.9127347, 4.3369115 51.9127655, 4.3367019 51.9128422), (4.3367019 51.9128422, 4.3364853 51.9129373), (4.3364853 51.9129373, 4.3362593 51.9130261, 4.3362096 51.9130444, 4.3361593 51.9130626), (4.3361593 51.9130626, 4.3359725 51.913141), (4.3359725 51.913141, 4.3360339 51.9132055, 4.3361144 51.9133822), (4.3361144 51.9133822, 4.3365337 51.9138407), (4.3365337 51.9138407, 4.3369199 51.9142205), (4.3369199 51.9142205, 4.3371032 51.9143301, 4.3371571 51.9144645), (4.3371571 51.9144645, 4.3373518 51.9146625, 4.3374216 51.9147341, 4.3375905 51.9149057), (4.3375905 51.9149057, 4.337831 51.9150142, 4.3379327 51.9151103, 4.3379942 51.9151728, 4.3381045 51.9152755), (4.3381045 51.9152755, 4.3382107 51.9153718), (4.3382107 51.9153718, 4.3380134 51.9154159), (4.3380134 51.9154159, 4.3378017 51.9154633, 4.3367375 51.9157318, 4.3365378 51.9157827, 4.3345074 51.9163096, 4.3342946 51.916365, 4.3335094 51.9165703, 4.333307 51.9166218, 4.3327427 51.9167678, 4.3326707 51.9167881, 4.3326299 51.9167996), (4.3326299 51.9167996, 4.3320681 51.916945, 4.3320047 51.9169628, 4.3319724 51.916971, 4.331612 51.9170624, 4.3314816 51.9170955, 4.3313833 51.9171204), (4.3313833 51.9171204, 4.3314003 51.9172564), (4.3314003 51.9172564, 4.3313935 51.9173909, 4.3313557 51.917493, 4.3313309 51.9175706), (4.3313309 51.9175706, 4.3312501 51.9176647, 4.3311935 51.9177306), (4.3311935 51.9177306, 4.3310548 51.917902), (4.3310548 51.917902, 4.3306426 51.9183387, 4.3305422 51.918445), (4.3305422 51.918445, 4.3301739 51.9183159), (4.3301739 51.9183159, 4.3300198 51.9182735), (4.3300198 51.9182735, 4.3296221 51.9181848, 4.3292437 51.9180982, 4.3287635 51.9179931), (4.3287635 51.9179931, 4.3284303 51.9179212, 4.3276444 51.9177794, 4.3271488 51.9176986, 4.3266662 51.9176386, 4.325819 51.9175249), (4.325819 51.9175249, 4.3251586 51.9175332, 4.3242841 51.9175646, 4.323539 51.9176234, 4.3222725 51.9177582, 4.3209146 51.9179384), (4.3209146 51.9179384, 4.3186045 51.9182425), (4.3186045 51.9182425, 4.3165729 51.9185065, 4.3144232 51.9187784, 4.3127346 51.9189939, 4.3104896 51.9193017, 4.3087837 51.91952, 4.3074506 51.9196557, 4.3061873 51.9197649), (4.3061873 51.9197649, 4.3051332 51.9198773, 4.3041542 51.9199551, 4.3035695 51.9199965), (4.3035695 51.9199965, 4.3018422 51.9201222, 4.30089 51.9202281, 4.2999901 51.9203307), (4.2999901 51.9203307, 4.2986181 51.9205226, 4.2974548 51.9207097, 4.2960218 51.9209924, 4.2947531 51.9212289, 4.2939967 51.9213596, 4.2930441 51.921509), (4.2930441 51.921509, 4.2907606 51.9218038, 4.2881133 51.9221478, 4.2864707 51.9223591), (4.2864707 51.9223591, 4.2837346 51.9227037, 4.2809414 51.9230548), (4.2809414 51.9230548, 4.2791591 51.9232842), (4.2791591 51.9232842, 4.2778999 51.9234501, 4.2769096 51.9235641), (4.2769096 51.9235641, 4.2759253 51.923757, 4.2752082 51.9238681, 4.2746904 51.9239505, 4.2742317 51.9240403), (4.2742317 51.9240403, 4.273911 51.9241097), (4.273911 51.9241097, 4.2735419 51.9241895), (4.2735419 51.9241895, 4.2730539 51.9243458, 4.2727804 51.9244382), (4.2727804 51.9244382, 4.2726105 51.9245553, 4.2722354 51.9247144, 4.2721626 51.9247544), (4.2721626 51.9247544, 4.2720599 51.924784, 4.2719557 51.9248898, 4.2719287 51.924922, 4.2719049 51.9250118), (4.2719049 51.9250118, 4.2718609 51.925057, 4.2717971 51.9250931, 4.2717711 51.9250977, 4.2715309 51.9251428, 4.271475 51.9251532), (4.271475 51.9251532, 4.2714369 51.925084), (4.2714369 51.925084, 4.2714006 51.9250631, 4.2713605 51.9250043, 4.2713319 51.9249726), (4.2713319 51.9249726, 4.2712981 51.924963, 4.2712638 51.9249505, 4.2712302 51.9249347, 4.2711978 51.9249144), (4.2711978 51.9249144, 4.2711691 51.9248917, 4.2711497 51.9248691, 4.2711362 51.924845, 4.2711327 51.9248272, 4.2711289 51.9248042, 4.2711275 51.9247818, 4.2711358 51.9247576, 4.2711495 51.9247322, 4.2711643 51.9246986, 4.27117 51.924671), (4.27117 51.924671, 4.27117 51.9246157, 4.2711558 51.9245331), (4.2711558 51.9245331, 4.2710681 51.9243563), (4.2710681 51.9243563, 4.2709162 51.9240614), (4.2709162 51.9240614, 4.2708001 51.9239246, 4.2707735 51.9238966, 4.2707374 51.9238742), (4.2707374 51.9238742, 4.2706934 51.9238551, 4.2706516 51.9238411, 4.2706136 51.9238235, 4.2705801 51.9238026, 4.2705521 51.9237789, 4.27053 51.9237529, 4.2705144 51.9237252), (4.2705144 51.9237252, 4.2705082 51.9236986, 4.2705081 51.9236717, 4.2705137 51.923645, 4.2705252 51.923619, 4.2705421 51.9235942), (4.2705421 51.9235942, 4.2705587 51.9235716, 4.2705729 51.9235419, 4.2705776 51.9235175, 4.270571 51.9234954, 4.2705542 51.9234645, 4.2704463 51.9233519, 4.2703445 51.9232614, 4.2701181 51.9230788, 4.2698795 51.9229281), (4.2698795 51.9229281, 4.2697331 51.922846, 4.2694749 51.9227167, 4.2692217 51.9226124, 4.269128 51.9225713, 4.2688722 51.9224739, 4.2686593 51.9224003, 4.2680322 51.9221958), (4.2680322 51.9221958, 4.2670811 51.9218888), (4.2670811 51.9218888, 4.2663982 51.9216688), (4.2663982 51.9216688, 4.2662324 51.9216295, 4.2660552 51.921572, 4.2660137 51.9215586, 4.2659709 51.9215447, 4.2658855 51.9215263, 4.2658271 51.9215308), (4.2658271 51.9215308, 4.2657984 51.9215446, 4.265767 51.9215561, 4.2657336 51.9215651, 4.2656986 51.9215714, 4.2656626 51.921575, 4.2656262 51.9215763, 4.265588 51.9215745, 4.2655533 51.92157, 4.2655217 51.9215633, 4.2654912 51.9215541, 4.2654622 51.9215432, 4.2654382 51.921532), (4.2654382 51.921532, 4.2654032 51.9215099, 4.2653774 51.9214864, 4.2653639 51.9214712, 4.2653527 51.9214554, 4.2653437 51.921439, 4.2653372 51.9214222, 4.2653331 51.921405, 4.2653301 51.921393), (4.2653301 51.921393, 4.2653263 51.9213796, 4.2653208 51.9213665, 4.2653135 51.9213537, 4.2653046 51.9213413, 4.265294 51.9213294, 4.2652691 51.9213147, 4.2652237 51.9212983, 4.265167 51.9212779, 4.2649069 51.921161), (4.2649069 51.921161, 4.2643639 51.9209568, 4.2637953 51.9207568), (4.2637953 51.9207568, 4.2630387 51.9205062, 4.2616396 51.9200669, 4.2611264 51.9198906, 4.2605844 51.9197111, 4.26024 51.919597, 4.2601873 51.9195808, 4.2600752 51.9195425), (4.2600752 51.9195425, 4.2600516 51.9195559, 4.2600251 51.919567, 4.2599964 51.9195758, 4.2599659 51.919582, 4.2599344 51.9195856, 4.2599024 51.9195864, 4.2598704 51.9195844, 4.2598393 51.9195797, 4.2598095 51.9195724), (4.2573246 51.9225354, 4.2575023 51.9223036, 4.2575611 51.9222267, 4.2577879 51.9219428, 4.2581358 51.9215252, 4.2582315 51.9214088, 4.2586578 51.9209387, 4.2590222 51.9205369, 4.2594573 51.9200291, 4.2596906 51.9197266, 4.2597381 51.9196639, 4.2597592 51.9196387, 4.2598095 51.9195724), (4.2573246 51.9225354, 4.2572123 51.9226886), (4.2572123 51.9226886, 4.2568239 51.9231621, 4.2567781 51.9232215), (4.2567781 51.9232215, 4.2567486 51.9232597), (4.2567486 51.9232597, 4.256698 51.9233291), (4.256698 51.9233291, 4.2565123 51.9235826, 4.2564778 51.9236169, 4.2564452 51.9236363, 4.2563873 51.9236562), (4.2563873 51.9236562, 4.2563151 51.9236637, 4.2562413 51.9236593, 4.2561651 51.9236462, 4.2556 51.9235, 4.2553031 51.9234245, 4.255119 51.9233748, 4.2547712 51.9232843, 4.2543371 51.9231714, 4.2539268 51.9230591, 4.2538229 51.9230429, 4.253756 51.9230382, 4.2537154 51.9230459), (4.2533073 51.9233637, 4.2533947 51.9233385, 4.2534477 51.9233104, 4.2534712 51.9232807, 4.2535316 51.923184, 4.2535756 51.9231153, 4.2536046 51.9230844, 4.2536497 51.9230588, 4.2537154 51.9230459), (4.2525517 51.9232053, 4.252652 51.9232142, 4.2530078 51.9233098, 4.2531502 51.923349, 4.2532482 51.9233639, 4.2533073 51.9233637), (4.2525517 51.9232053, 4.2524806 51.9232221, 4.2520446 51.9234766, 4.2517873 51.923653, 4.2517099 51.9237474, 4.2516 51.9239, 4.2513 51.9243, 4.2512375 51.9243752, 4.251163 51.9244468, 4.2509877 51.9245879, 4.2505739 51.9249411), (4.2505739 51.9249411, 4.2505364 51.9250106, 4.2504941 51.9250763, 4.2504566 51.9251717), (4.2504566 51.9251717, 4.2505046 51.9252095, 4.2505234 51.9252387, 4.2505313 51.9252754, 4.2505034 51.9253425, 4.2504434 51.9253858, 4.250397 51.925403, 4.250304 51.9254151, 4.2502305 51.9254074, 4.2501572 51.9253815), (4.2501572 51.9253815, 4.2499822 51.9254053, 4.2498798 51.9254306, 4.2497718 51.9254407), (4.2497718 51.9254407, 4.2488463 51.9258642), (4.2488463 51.9258642, 4.2487507 51.9259339, 4.2485453 51.926042, 4.2482899 51.926155, 4.248122 51.9261996), (4.248122 51.9261996, 4.2476658 51.9264131, 4.2474554 51.9265163, 4.2473324 51.926575, 4.2472869 51.9265984), (4.2472869 51.9265984, 4.2471321 51.9266764, 4.2469196 51.9267633), (4.2469196 51.9267633, 4.24683 51.9268416), (4.24683 51.9268416, 4.2467663 51.9268829, 4.2467157 51.9268936, 4.2466446 51.9269241, 4.2465777 51.9269904, 4.246527 51.9270517, 4.2464662 51.9270867, 4.2464013 51.9271029, 4.246302 51.9271167, 4.2462411 51.9271267, 4.2461829 51.927173, 4.2461438 51.9272079, 4.2460401 51.927274), (4.2460401 51.927274, 4.2458966 51.9274065, 4.2457296 51.9275299, 4.2453629 51.9277561), (4.2453629 51.9277561, 4.2448254 51.928105, 4.2448026 51.9281198, 4.2446561 51.9282111), (4.2446561 51.9282111, 4.2444563 51.928336, 4.2441427 51.9285355, 4.2426826 51.9294567, 4.2426449 51.9294806, 4.24236 51.9296603, 4.2419781 51.9299096), (4.2419781 51.9299096, 4.2412944 51.9303565, 4.2412294 51.930393, 4.2410697 51.9304919), (4.2410697 51.9304919, 4.2409564 51.9305561), (4.2409564 51.9305561, 4.2408019 51.9304708), (4.2408019 51.9304708, 4.2407008 51.9304217, 4.2404133 51.9302735), (4.2404133 51.9302735, 4.2402466 51.9301432), (4.239944 51.9299588, 4.2401348 51.9300771, 4.2402466 51.9301432), (4.2395664 51.9297336, 4.2399109 51.9299392, 4.239944 51.9299588), (4.2395664 51.9297336, 4.2393986 51.9296713, 4.2392728 51.9295598), (4.2385689 51.9291152, 4.2392728 51.9295598), (4.2385689 51.9291152, 4.2384391 51.9290772, 4.2383707 51.9290109), (4.2379821 51.9287754, 4.2383707 51.9290109), (4.2379821 51.9287754, 4.2378597 51.9287085, 4.2375868 51.9285469, 4.2372978 51.9283758, 4.237136 51.928266, 4.2370914 51.9282072), (4.2357087 51.9273488, 4.2361711 51.9276359, 4.2370914 51.9282072), (4.2357087 51.9273488, 4.2355617 51.9272923, 4.2354572 51.9271969), (4.2359671 51.9267941, 4.2358355 51.9269303, 4.2356971 51.9270198, 4.2355502 51.9271231, 4.2354572 51.9271969), (4.2364766 51.9262826, 4.2364136 51.9263218, 4.2363981 51.9263295, 4.2359671 51.9267941), (4.2365344 51.9262467, 4.2364766 51.9262826), (4.2365344 51.9262467, 4.2362522 51.9260742))</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>382750</t>
+          <t>6377577</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,17 +564,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Krimpen aan den IJssel, Van Ostadelaan</t>
+          <t>Slikkerveer, Dillenburgplein</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bus 98: Krimpen aan den IJssel Van Ostadelaan =&gt; Krimpen aan den IJssel =&gt; Krimpen aan den IJssel Van Ostadelaan</t>
+          <t>Bus 140: Rotterdam Kralingse Zoom =&gt; Slikkerveer Dillenburgplein</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -585,14 +585,14 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5988841 51.908219, 4.5990023 51.9082345, 4.5991279 51.9082535, 4.5993492 51.9082969, 4.5995715 51.9083574), (4.5988841 51.908219, 4.5986976 51.9081992, 4.5985746 51.908186, 4.5982911 51.9081727, 4.5980386 51.90818, 4.5979097 51.9081867, 4.5977931 51.9081976, 4.5975681 51.9082279), (4.5975681 51.9082279, 4.5973798 51.9082612), (4.5973798 51.9082612, 4.5971865 51.9083081, 4.5969906 51.9083667, 4.5966877 51.908466), (4.5966877 51.908466, 4.5965503 51.908528, 4.5964441 51.9085951, 4.5962376 51.9087411, 4.5957786 51.9090677), (4.5957786 51.9090677, 4.5955801 51.9092132, 4.595193 51.9095018, 4.594998 51.9096428, 4.5948124 51.9098105, 4.5946873 51.909941, 4.5941716 51.9104813, 4.59402 51.9106394, 4.5938564 51.9108141, 4.5936159 51.9110589), (4.5936159 51.9110589, 4.5934463 51.9112243), (4.5934463 51.9112243, 4.5932034 51.9115454, 4.5929627 51.9118669), (4.5929627 51.9118669, 4.5926244 51.9123228, 4.5925651 51.9124106, 4.5924903 51.9124999), (4.5924903 51.9124999, 4.5924191 51.9125956, 4.5923836 51.9126518, 4.5921984 51.9129196), (4.5921984 51.9129196, 4.592143 51.9130306, 4.5920035 51.9132308, 4.5919204 51.9133391, 4.5917568 51.9134922, 4.5917018 51.9135261, 4.5915756 51.913572), (4.5915756 51.913572, 4.5911914 51.9138455, 4.5907107 51.9141813, 4.590539 51.9143046, 4.5905015 51.9143906, 4.5905015 51.9144444), (4.5905015 51.9144444, 4.590528 51.9144975, 4.5906054 51.9145515, 4.5907 51.9146, 4.5911418 51.9148403), (4.5911418 51.9148403, 4.5915262 51.9150445, 4.5915746 51.9150702, 4.5922324 51.9154308, 4.5934738 51.9161186), (4.5934738 51.9161186, 4.593549 51.9161603), (4.593549 51.9161603, 4.5936411 51.9162099, 4.5937649 51.9162794), (4.5937649 51.9162794, 4.5944596 51.91665, 4.5952282 51.9170735, 4.5956023 51.9174816, 4.5957976 51.9176774, 4.5960544 51.9178752), (4.5960544 51.9178752, 4.5961885 51.9179251, 4.5962353 51.9179545, 4.5963105 51.9179985, 4.5963527 51.9180491), (4.5963527 51.9180491, 4.5966467 51.9182205, 4.5971344 51.9184792, 4.5973394 51.9185929, 4.5975886 51.9187443, 4.5976382 51.9187724), (4.5976382 51.9187724, 4.597734 51.9187994, 4.5978628 51.9188719, 4.5979135 51.9189243), (4.5979135 51.9189243, 4.597954 51.9189435, 4.5981355 51.9190429, 4.5983403 51.9191563, 4.5984953 51.9192421, 4.5988627 51.9194384, 4.5994098 51.9197382, 4.5994473 51.9197581, 4.5997542 51.9199213, 4.5997694 51.9199275, 4.599803 51.9199418), (4.599803 51.9199418, 4.5999908 51.9200082), (4.5999908 51.9200082, 4.6001168 51.9200085), (4.6001168 51.9200085, 4.6001874 51.9200233, 4.6002233 51.9200382, 4.600351 51.9201082, 4.6003977 51.9201354), (4.6024611 51.9187345, 4.6023569 51.9187971, 4.60222 51.9188776, 4.6013782 51.9194727, 4.6007434 51.9198982, 4.6005456 51.9200353, 4.6003977 51.9201354), (4.6024611 51.9187345, 4.6024309 51.9187057, 4.6024101 51.9186728, 4.6024033 51.9186432, 4.602407 51.9186134, 4.6024207 51.9185848, 4.6024439 51.9185588, 4.602472 51.9185388, 4.6025135 51.9185188, 4.6025508 51.9185078, 4.6026173 51.9184992, 4.6026717 51.9185014, 4.6027237 51.9185116, 4.6027704 51.9185292, 4.602809 51.9185533, 4.6028372 51.9185826, 4.602853 51.9186152, 4.6028556 51.9186494, 4.6028446 51.918683, 4.6028176 51.9187168, 4.6027806 51.9187429), (4.6027806 51.9187429, 4.6028775 51.9188044, 4.6029978 51.918876, 4.6038373 51.9193517, 4.60449 51.9197145, 4.6048054 51.9198851, 4.6049656 51.9199745, 4.6052784 51.9201396, 4.6053135 51.9201589, 4.6062034 51.9206487, 4.6064557 51.9207676, 4.6070823 51.920975, 4.6076564 51.9210892, 4.6082078 51.921145, 4.6086913 51.921153, 4.6090507 51.9211323, 4.6099812 51.921048, 4.6100418 51.9210417, 4.610175 51.9210309), (4.610175 51.9210309, 4.6101762 51.9209836, 4.6102038 51.9209394, 4.6102544 51.9209038, 4.6103218 51.9208811, 4.6104038 51.9208743, 4.6104777 51.9208849, 4.6105414 51.9209105, 4.6105871 51.9209479, 4.6106093 51.9209927), (4.6164622 51.9207995, 4.616346 51.9207875, 4.6159355 51.9207561, 4.6153968 51.9207357, 4.6144912 51.9207329, 4.6136137 51.9207564, 4.6127397 51.9207984, 4.6119666 51.9208584, 4.6108094 51.9209738, 4.6107613 51.9209783, 4.6106093 51.9209927), (4.6164622 51.9207995, 4.6165812 51.9207892, 4.6166842 51.920797, 4.616822 51.9208103), (4.616822 51.9208103, 4.6168557 51.9207768, 4.6169027 51.9207501, 4.6169596 51.9207321, 4.6170223 51.9207242, 4.61708 51.9207262, 4.6171352 51.9207367, 4.6171998 51.9207634, 4.617247 51.9208014, 4.6172716 51.9208469, 4.6172709 51.9208948), (4.6172709 51.9208948, 4.6173849 51.920925, 4.6174838 51.9209568, 4.617623 51.9210155), (4.617623 51.9210155, 4.617792 51.9210632, 4.6178756 51.9210905, 4.6179389 51.9211124, 4.6179796 51.9211287, 4.6182507 51.9212443, 4.61848 51.9213437, 4.6188536 51.9215304, 4.6191107 51.9216742, 4.6194467 51.9218986, 4.6199081 51.922267, 4.6199596 51.9223144, 4.620138 51.9225061, 4.620309 51.922704, 4.6205169 51.9229943, 4.6206777 51.9232351, 4.6211541 51.9239771), (4.6211541 51.9239771, 4.621252 51.9240428, 4.6212888 51.9240719, 4.6213564 51.9241388), (4.6213564 51.9241388, 4.6214229 51.9241479, 4.621481 51.9241699), (4.621481 51.9241699, 4.6216067 51.9241516, 4.6216799 51.9241514, 4.6218397 51.9241412), (4.6219265 51.9240984, 4.6218397 51.9241412), (4.6232948 51.923155, 4.6232233 51.9232374, 4.6228832 51.9234732, 4.6227761 51.9235399, 4.6226326 51.9236488, 4.6224088 51.9237924, 4.6219265 51.9240984), (4.6228956 51.9228907, 4.6232072 51.9230642, 4.6232647 51.9231031, 4.6232948 51.923155), (4.6220184 51.920319, 4.6220618 51.9204775, 4.6220633 51.9205299, 4.6220749 51.9206493, 4.6220869 51.9207734, 4.6220915 51.9208203, 4.6221046 51.9211127, 4.6221137 51.9211797, 4.6221642 51.9213693, 4.6221752 51.9215267, 4.6221805 51.9216274, 4.6221867 51.921688, 4.622224 51.9220214, 4.6222391 51.9221889, 4.6222685 51.9223801, 4.6222824 51.922522, 4.6223022 51.922558, 4.6225182 51.9226945, 4.6227339 51.9228086, 4.6228956 51.9228907), (4.6220184 51.920319, 4.6219585 51.9202465, 4.6219097 51.9198393, 4.6219 51.9197572, 4.6218536 51.9196668, 4.6218064 51.919581), (4.6211298 51.9192027, 4.6214863 51.9193978, 4.6215111 51.9194114, 4.6216349 51.9194791, 4.6218064 51.919581), (4.6175293 51.9172102, 4.6176601 51.9172914, 4.618494 51.9177399, 4.6190902 51.9180728, 4.6193399 51.9182127, 4.6198102 51.9184736, 4.6204575 51.9188146, 4.6207976 51.9190088, 4.6211298 51.9192027), (4.6175293 51.9172102, 4.6174399 51.9171414, 4.6173759 51.9170659, 4.6173175 51.9169591, 4.6173057 51.9168689, 4.6173036 51.9167566), (4.6171064 51.9154322, 4.6171649 51.9155212, 4.6171685 51.9155927, 4.6171911 51.9158177, 4.6172221 51.9160845, 4.6172414 51.9162703, 4.6173036 51.9167566), (4.6162704 51.9149646, 4.6168873 51.9153025, 4.61699 51.9153597, 4.6171064 51.9154322), (4.6160822 51.9148534, 4.6161425 51.9148953, 4.6162704 51.9149646), (4.6160822 51.9148534, 4.6160251 51.9148362, 4.6158726 51.9147643, 4.6157981 51.9147185, 4.615686 51.9146323, 4.6156372 51.9146079), (4.6156372 51.9146079, 4.6155954 51.9146036, 4.6155573 51.9145921, 4.6155217 51.9145709, 4.6154996 51.9145436), (4.6154996 51.9145436, 4.6154267 51.9144915, 4.6153606 51.9144717, 4.6153145 51.9144523, 4.6151899 51.9143914, 4.614977 51.9142596), (4.614977 51.9142596, 4.6149168 51.9142371, 4.6147646 51.9142008, 4.6146023 51.9141913, 4.6144862 51.9142042, 4.6142051 51.9142461, 4.6134765 51.9143433, 4.613299 51.9143549), (4.612137 51.9135004, 4.6123071 51.9136049, 4.612418 51.9136927, 4.6125047 51.913806, 4.6126096 51.9140165, 4.6126597 51.9140877, 4.6127026 51.9141435, 4.6127623 51.9141918, 4.6129027 51.914273, 4.6130292 51.9143184, 4.613139 51.9143485, 4.6132312 51.9143572, 4.613299 51.9143549), (4.6119635 51.9134181, 4.6120234 51.9134483, 4.612137 51.9135004), (4.6118256 51.9133523, 4.6119635 51.9134181), (4.60823 51.911589, 4.6085833 51.9117627, 4.6089228 51.9119303, 4.6094641 51.9121923, 4.6101528 51.9125315, 4.610958 51.9129281, 4.6114118 51.9131519, 4.6116887 51.9132904, 4.6118256 51.9133523), (4.60823 51.911589, 4.6080204 51.9115387, 4.6078317 51.911447, 4.6076612 51.911361, 4.6074703 51.91123), (4.6073761 51.9111841, 4.6074703 51.91123), (4.607327 51.9111604, 4.6073761 51.9111841), (4.6065685 51.9107826, 4.6066343 51.9108153, 4.607172 51.9110852, 4.607327 51.9111604), (4.6065685 51.9107826, 4.6063613 51.9107898, 4.6056655 51.9107851, 4.6049257 51.9107793, 4.604803 51.9107514, 4.6047124 51.9107032), (4.6002123 51.9086155, 4.6008811 51.9089259, 4.601985 51.9094402, 4.602696 51.9097756, 4.6030303 51.9099268, 4.6033184 51.9100565, 4.6040051 51.9103807, 4.604628 51.9106697, 4.6047124 51.9107032), (4.6000913 51.9085594, 4.6002123 51.9086155), (4.5998129 51.9084357, 4.6000913 51.9085594), (4.5995715 51.9083574, 4.5998129 51.9084357))</t>
+          <t>MULTILINESTRING ((4.5325838 51.9218251, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5479149 51.8980137, 4.5485747 51.8975964, 4.5487375 51.8974839, 4.5488444 51.897379, 4.5488933 51.8972621, 4.5489196 51.8971507, 4.5489077 51.8970619, 4.5488729 51.8969771, 4.5488177 51.8968981), (4.5488177 51.8968981, 4.5487476 51.8968387, 4.5486356 51.8967748, 4.5484664 51.8967126, 4.5482726 51.8966717, 4.5481199 51.8966541, 4.5479251 51.8966494, 4.547233 51.8966504), (4.547233 51.8966504, 4.5467952 51.8966721, 4.5465439 51.896691, 4.5462845 51.8967191), (4.5462845 51.8967191, 4.5461268 51.8967364), (4.5461268 51.8967364, 4.546009 51.8967487, 4.5458973 51.8967672), (4.5458973 51.8967672, 4.5458275 51.8967838, 4.5457023 51.8968256, 4.5455832 51.8968701, 4.5454467 51.8969435, 4.5453203 51.8970335, 4.5451801 51.8971775, 4.5451243 51.8972607, 4.5450901 51.8973448, 4.5450587 51.8974481, 4.545048 51.8975699, 4.545076 51.8976869, 4.545124 51.8977958), (4.545124 51.8977958, 4.5451662 51.8978642, 4.5452108 51.8979192), (4.5452108 51.8979192, 4.5452709 51.8980302, 4.5453505 51.8981248, 4.5454883 51.8982762, 4.5456368 51.898438, 4.54568 51.8984894, 4.5457353 51.8985458, 4.5458583 51.8986813, 4.5459884 51.8988089, 4.5462656 51.8989648, 4.5472345 51.8994042, 4.547562 51.8995488, 4.5476515 51.8995782, 4.5477379 51.8995856, 4.5478421 51.8995974, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5481455 51.8996143), (4.5481455 51.8996143, 4.548152 51.8996665, 4.5481516 51.8997139, 4.5481369 51.8997913, 4.548106 51.8998781, 4.5480221 51.9000798, 4.5479617 51.9001651), (4.547754 51.9006432, 4.5478594 51.9004027, 4.5479617 51.9001651), (4.547754 51.9006432, 4.5477124 51.9007684, 4.5476371 51.9009284, 4.5476126 51.9009616, 4.5475484 51.9010602), (4.5475484 51.9010602, 4.5474768 51.9011373, 4.5473698 51.90123, 4.5472192 51.9014106), (4.5517979 51.9020393, 4.5511774 51.9020027, 4.5504737 51.9020209, 4.5493815 51.9020668, 4.5483608 51.9021125, 4.5481545 51.9021172, 4.5479858 51.9021104, 4.5478335 51.9020864, 4.547713 51.9020551, 4.5476602 51.9020368, 4.5476032 51.9020132, 4.547542 51.901984, 4.5474808 51.9019496, 4.547426 51.9019155, 4.5473648 51.9018747, 4.5473089 51.9018203, 4.5472443 51.9017328, 4.5472186 51.9016689, 4.5472075 51.901602, 4.5472069 51.9015063, 4.5472192 51.9014106), (4.5517979 51.9020393, 4.5519698 51.9020307, 4.5522226 51.9020475, 4.5523564 51.9020574, 4.552616 51.9020702, 4.5527763 51.9020851), (4.556777 51.9013514, 4.5565388 51.9013637, 4.5560877 51.9013869, 4.5558778 51.9014091, 4.5554656 51.9015013, 4.5552254 51.9015923, 4.5549267 51.9016856, 4.5546052 51.9017638, 4.5541618 51.9018647, 4.5535444 51.9020006, 4.5532683 51.902045, 4.5527763 51.9020851), (4.556716 51.9011674, 4.556777 51.9013514), (4.5566426 51.9009131, 4.556716 51.9011674), (4.5582126 51.8999063, 4.5567807 51.9000084, 4.5566966 51.9000318, 4.5566238 51.9000574, 4.5565642 51.9000918, 4.5565103 51.9001321, 4.5564697 51.9001893, 4.5564555 51.9002453, 4.5564649 51.900331, 4.5566426 51.9009131), (4.5632174 51.8989903, 4.5627722 51.8990085, 4.5622263 51.8990389, 4.5619938 51.8990608, 4.5615419 51.8991103, 4.5613774 51.8991326, 4.5612544 51.8991706, 4.5611354 51.8992135, 4.5610126 51.8992819, 4.5608193 51.8994016, 4.5603321 51.8996895, 4.5601912 51.8997313, 4.559971 51.8997612, 4.5596758 51.899795, 4.5594495 51.899817, 4.5582126 51.8999063), (4.5648615 51.8989058, 4.564649 51.8989264, 4.5640101 51.8989544, 4.5635837 51.8989746, 4.5632174 51.8989903), (4.5749108 51.8981797, 4.5748614 51.8981566, 4.5747785 51.8981392, 4.5746862 51.8981343, 4.5745725 51.898145, 4.5744108 51.8981753, 4.5743172 51.8981929, 4.5739143 51.8982643, 4.5731774 51.8983948, 4.5721625 51.8985559, 4.5717862 51.8986039, 4.5708037 51.8987054, 4.5703319 51.8987511, 4.5695762 51.8988238, 4.5694793 51.8988173, 4.5693942 51.8988098, 4.5692969 51.8987888, 4.5692127 51.8987678, 4.5686899 51.8985597, 4.5685552 51.898511, 4.5684228 51.8984829, 4.5683372 51.8984739, 4.5682343 51.8984772, 4.5673211 51.8985907, 4.5671616 51.8986105, 4.5661205 51.8987398, 4.5648615 51.8989058), (4.5754797 51.8994565, 4.5754304 51.8994319, 4.5753818 51.8993938, 4.5753358 51.8992173, 4.5753092 51.8991361, 4.5751395 51.8986186, 4.5750606 51.8983579, 4.5750365 51.8982886, 4.574987 51.8982259, 4.5749108 51.8981797), (4.5754797 51.8994565, 4.5756047 51.899469, 4.5761929 51.8994749), (4.5761929 51.8994749, 4.5769876 51.8994797, 4.5777825 51.8994605, 4.5784093 51.899426, 4.5789704 51.8993942, 4.5790685 51.8993889, 4.5794446 51.8993656, 4.5796601 51.899349, 4.5798725 51.8993235, 4.5800809 51.8992854, 4.5802714 51.8992235, 4.5804479 51.8991449, 4.5805948 51.8990843, 4.5807369 51.8990092), (4.5807369 51.8990092, 4.5807925 51.8989839, 4.5808638 51.8989769, 4.580977 51.8989973, 4.5810703 51.8990476), (4.5810703 51.8990476, 4.581148 51.8990935), (4.5834166 51.8954751, 4.583298 51.8955846, 4.583055 51.8958787, 4.5827 51.8964, 4.5824 51.897, 4.58221 51.897569, 4.581996 51.898025, 4.5818374 51.8983629, 4.5816773 51.8986897, 4.5815882 51.898818, 4.5814496 51.8989327, 4.5812316 51.8990514, 4.581148 51.8990935), (4.585379 51.8937454, 4.5851018 51.8939849, 4.5838039 51.8951162, 4.5835627 51.8953534, 4.5834166 51.8954751), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5813918 51.8876576, 4.5817493 51.8875972, 4.5819812 51.8875508), (4.5820725 51.8865322, 4.5820689 51.8866127, 4.582073 51.8866566, 4.5820755 51.88677, 4.5819922 51.8869977, 4.5818936 51.8872124, 4.5818885 51.8872972, 4.5819812 51.8875508), (4.5822055 51.8864571, 4.5821395 51.8864857, 4.5820894 51.8865076, 4.5820725 51.8865322), (4.5833313 51.8859659, 4.5832094 51.8860208, 4.5831265 51.8860581, 4.5822055 51.8864571), (4.5834553 51.8859101, 4.5833313 51.8859659), (4.5843863 51.8855117, 4.5838794 51.8857246, 4.5837 51.8858, 4.5834553 51.8859101), (4.5896855 51.8832363, 4.5868271 51.884465, 4.5854964 51.8850284, 4.5845946 51.8854218, 4.5843863 51.8855117), (4.5898143 51.883181, 4.5896855 51.8832363), (4.5925485 51.8820294, 4.5898143 51.883181), (4.5938141 51.8814805, 4.5936337 51.8815589, 4.5931712 51.8817601, 4.593038 51.8818193, 4.592671 51.8819776, 4.5926102 51.8820033, 4.5925485 51.8820294), (4.5941953 51.8813554, 4.593979 51.8814124, 4.5938141 51.8814805), (4.5941953 51.8813554, 4.5941886 51.8813284, 4.5941942 51.8813012, 4.5942116 51.8812761, 4.5942374 51.8812561, 4.5942706 51.8812409, 4.594309 51.8812314, 4.5943583 51.8812285, 4.5944066 51.8812351, 4.5944494 51.8812504, 4.5944825 51.8812731), (4.5951747 51.8808972, 4.5949802 51.8809871, 4.5947482 51.8811467, 4.5945853 51.8812242, 4.5944825 51.8812731), (4.599216 51.8791798, 4.5990933 51.8792307, 4.5989505 51.87929, 4.5981435 51.8796398, 4.5980207 51.8796911, 4.5973364 51.8799845, 4.5971654 51.8800563, 4.5967775 51.88021, 4.5961258 51.8804929, 4.5951747 51.8808972), (4.5995644 51.878936, 4.5995245 51.8790158, 4.5994393 51.8790708, 4.599216 51.8791798), (4.599887 51.8789464, 4.5995644 51.878936), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6042362 51.8853311, 4.6039447 51.8855064))</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>382822</t>
+          <t>6377578</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -602,17 +602,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Rotterdam, Kralingse Zoom</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bus 143: Ridderkerk Drievliet =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 140: Slikkerveer Dillenburgplein =&gt; Rotterdam Kralingse Zoom</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -623,14 +623,14 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.6201144 51.866237, 4.6199518 51.8662224), (4.6199518 51.8662224, 4.6194445 51.8662367, 4.6194177 51.8662374), (4.6194177 51.8662374, 4.6193385 51.8662396, 4.618367 51.866267), (4.618367 51.866267, 4.6181785 51.8662912, 4.6178073 51.8663051, 4.6177615 51.8663037, 4.6176361 51.8662993), (4.6176361 51.8662993, 4.617621 51.866324, 4.6175964 51.8663457, 4.6175607 51.8663642, 4.6175188 51.866376, 4.6174734 51.8663806, 4.6174276 51.8663776, 4.6173846 51.8663671, 4.6173457 51.8663488, 4.6173167 51.8663245), (4.6173167 51.8663245, 4.6171908 51.8663287, 4.6165992 51.866337, 4.616425 51.8663185), (4.616425 51.8663185, 4.614839 51.8663614, 4.6145098 51.8663731, 4.6142231 51.8663981, 4.6131844 51.8665053, 4.6130919 51.8665148, 4.6127577 51.8665493, 4.6126315 51.8665623), (4.6126315 51.8665623, 4.6124287 51.8666005, 4.6121626 51.8666356, 4.612104 51.8666355, 4.6119868 51.866636), (4.6119868 51.866636, 4.6119793 51.8666547, 4.6119663 51.8666723, 4.6119362 51.8666961, 4.6118875 51.8667162, 4.6118317 51.8667248, 4.6117749 51.8667215, 4.6117295 51.8667094, 4.6116917 51.8666897), (4.6116917 51.8666897, 4.6115538 51.8667021, 4.6115052 51.8667064, 4.6112104 51.8667249, 4.6110534 51.8667243), (4.6110534 51.8667243, 4.6082034 51.8669911, 4.6079327 51.8670186, 4.6076943 51.8670488, 4.607492 51.8670898, 4.6073108 51.8671398, 4.607179 51.8671852, 4.6070466 51.8672395, 4.6069127 51.8673049), (4.6069127 51.8673049, 4.6068225 51.8673839, 4.6067045 51.8674666, 4.6066631 51.8674956, 4.60658 51.8675742), (4.60658 51.8675742, 4.6066062 51.8676298, 4.6065922 51.8676869), (4.6065922 51.8676869, 4.606551 51.8677285, 4.6064885 51.8677583), (4.6064885 51.8677583, 4.6064182 51.8677719, 4.6063447 51.8677703, 4.6062762 51.8677537, 4.6062206 51.8677238, 4.6061843 51.8676843, 4.6061714 51.8676395, 4.6061835 51.8675947), (4.6061835 51.8675947, 4.6060785 51.8675283, 4.6060338 51.867502, 4.6059054 51.8674263, 4.6056642 51.8672999, 4.6053586 51.8671186, 4.6052897 51.867058), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.604261 51.8659971, 4.6041981 51.8660065, 4.604134 51.8660005, 4.6040784 51.8659801, 4.6040394 51.8659482), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.5987671 51.8674556, 4.5987781 51.8674734, 4.5987852 51.8675006, 4.5987799 51.8675281, 4.5987626 51.8675536, 4.5987347 51.8675752, 4.5986982 51.8675912), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.6000875 51.868606, 4.5999607 51.8686449), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6010114 51.8707586, 4.6010146 51.8708408, 4.6008982 51.8709489, 4.6007502 51.8710864), (4.6007502 51.8710864, 4.6007102 51.8711237, 4.6005942 51.8711482), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5986297 51.8719968, 4.598818 51.8720142), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5893205 51.8749147, 4.5894396 51.8749746, 4.5895977 51.8750793, 4.5897017 51.8751857, 4.5897606 51.8752496, 4.5899099 51.8754155, 4.5899197 51.8754278, 4.5899725 51.8755045), (4.5899725 51.8755045, 4.5900546 51.8755136, 4.5901254 51.8755408), (4.5901254 51.8755408, 4.5901749 51.8755826, 4.5901957 51.8756328), (4.5901957 51.8756328, 4.5901861 51.8756814, 4.5901493 51.8757247, 4.5900901 51.8757573), (4.5900901 51.8757573, 4.5900973 51.8758371, 4.5901099 51.8760148, 4.590088 51.876233, 4.5900455 51.8763427), (4.5900455 51.8763427, 4.5899066 51.8777485, 4.5898906 51.8779483), (4.5898906 51.8779483, 4.5899306 51.8781042, 4.5899765 51.8781872, 4.5900138 51.8782722), (4.5900138 51.8782722, 4.5900795 51.8782788, 4.5901391 51.8782972, 4.5901871 51.8783258, 4.5902199 51.8783633, 4.5902322 51.8784053, 4.5902235 51.8784463, 4.5901953 51.8784837, 4.5901502 51.8785143), (4.5901502 51.8785143, 4.5901426 51.8786027, 4.5902196 51.8787645, 4.5903152 51.8789495), (4.5903152 51.8789495, 4.5904728 51.8791024, 4.5907214 51.8792848, 4.5910282 51.8794502), (4.5910282 51.8794502, 4.5911605 51.8794897, 4.591327 51.8795586, 4.5915546 51.8796374, 4.5918106 51.8797671), (4.5918106 51.8797671, 4.5926847 51.8802283, 4.5929659 51.8803737), (4.5929659 51.8803737, 4.5930586 51.8804231), (4.5930586 51.8804231, 4.5929354 51.8805071), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664852 51.8857136, 4.5660094 51.8855779, 4.5655691 51.8854499), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5631299 51.884958, 4.563184 51.8849679), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5612939 51.8846229, 4.560959 51.8846024, 4.5605985 51.8845823), (4.5605985 51.8845823, 4.5603966 51.8845812, 4.5600885 51.8845852, 4.5598252 51.8846013, 4.5595296 51.8846291, 4.5591924 51.8846716, 4.5581458 51.8848266, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.599887 51.8789464, 4.5995644 51.878936), (4.5995644 51.878936, 4.5995245 51.8790158, 4.5994393 51.8790708, 4.599216 51.8791798), (4.599216 51.8791798, 4.5990933 51.8792307, 4.5989505 51.87929, 4.5981435 51.8796398, 4.5980207 51.8796911, 4.5973364 51.8799845, 4.5971654 51.8800563, 4.5967775 51.88021, 4.5961258 51.8804929, 4.5951747 51.8808972), (4.5951747 51.8808972, 4.5949802 51.8809871, 4.5947482 51.8811467, 4.5945853 51.8812242, 4.5944825 51.8812731), (4.5944825 51.8812731, 4.5945048 51.8813055, 4.5945071 51.8813407, 4.5944893 51.8813742, 4.5944536 51.8814017), (4.5944536 51.8814017, 4.5944084 51.8814188, 4.5943567 51.8814258, 4.594304 51.881422, 4.5942563 51.8814078, 4.5942187 51.8813848, 4.5941953 51.8813554), (4.5941953 51.8813554, 4.593979 51.8814124, 4.5938141 51.8814805), (4.5938141 51.8814805, 4.5936337 51.8815589, 4.5931712 51.8817601, 4.593038 51.8818193, 4.592671 51.8819776, 4.5926102 51.8820033, 4.5925485 51.8820294), (4.5925485 51.8820294, 4.5898143 51.883181), (4.5898143 51.883181, 4.5896855 51.8832363), (4.5896855 51.8832363, 4.5868271 51.884465, 4.5854964 51.8850284, 4.5845946 51.8854218, 4.5843863 51.8855117), (4.5843863 51.8855117, 4.5838794 51.8857246, 4.5837 51.8858, 4.5834553 51.8859101), (4.5834553 51.8859101, 4.5833313 51.8859659), (4.5833313 51.8859659, 4.5832094 51.8860208, 4.5831265 51.8860581, 4.5822055 51.8864571), (4.5822055 51.8864571, 4.5821395 51.8864857, 4.5820894 51.8865076, 4.5820725 51.8865322), (4.5820725 51.8865322, 4.5820689 51.8866127, 4.582073 51.8866566, 4.5820755 51.88677, 4.5819922 51.8869977, 4.5818936 51.8872124, 4.5818885 51.8872972, 4.5819812 51.8875508), (4.5813918 51.8876576, 4.5817493 51.8875972, 4.5819812 51.8875508), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.585379 51.8937454, 4.5851018 51.8939849, 4.5838039 51.8951162, 4.5835627 51.8953534, 4.5834166 51.8954751), (4.5834166 51.8954751, 4.583298 51.8955846, 4.583055 51.8958787, 4.5827 51.8964, 4.5824 51.897, 4.58221 51.897569, 4.581996 51.898025, 4.5818374 51.8983629, 4.5816773 51.8986897, 4.5815882 51.898818, 4.5814496 51.8989327, 4.5812316 51.8990514, 4.581148 51.8990935), (4.5810703 51.8990476, 4.581148 51.8990935), (4.5807369 51.8990092, 4.5807925 51.8989839, 4.5808638 51.8989769, 4.580977 51.8989973, 4.5810703 51.8990476), (4.5761929 51.8994749, 4.5769876 51.8994797, 4.5777825 51.8994605, 4.5784093 51.899426, 4.5789704 51.8993942, 4.5790685 51.8993889, 4.5794446 51.8993656, 4.5796601 51.899349, 4.5798725 51.8993235, 4.5800809 51.8992854, 4.5802714 51.8992235, 4.5804479 51.8991449, 4.5805948 51.8990843, 4.5807369 51.8990092), (4.5754797 51.8994565, 4.5756047 51.899469, 4.5761929 51.8994749), (4.5754797 51.8994565, 4.5754304 51.8994319, 4.5753818 51.8993938, 4.5753358 51.8992173, 4.5753092 51.8991361, 4.5751395 51.8986186, 4.5750606 51.8983579, 4.5750365 51.8982886, 4.574987 51.8982259, 4.5749108 51.8981797), (4.5749108 51.8981797, 4.5748614 51.8981566, 4.5747785 51.8981392, 4.5746862 51.8981343, 4.5745725 51.898145, 4.5744108 51.8981753, 4.5743172 51.8981929, 4.5739143 51.8982643, 4.5731774 51.8983948, 4.5721625 51.8985559, 4.5717862 51.8986039, 4.5708037 51.8987054, 4.5703319 51.8987511, 4.5695762 51.8988238, 4.5694793 51.8988173, 4.5693942 51.8988098, 4.5692969 51.8987888, 4.5692127 51.8987678, 4.5686899 51.8985597, 4.5685552 51.898511, 4.5684228 51.8984829, 4.5683372 51.8984739, 4.5682343 51.8984772, 4.5673211 51.8985907, 4.5671616 51.8986105, 4.5661205 51.8987398, 4.5648615 51.8989058), (4.5648615 51.8989058, 4.564649 51.8989264, 4.5640101 51.8989544, 4.5635837 51.8989746, 4.5632174 51.8989903), (4.5632174 51.8989903, 4.5627722 51.8990085, 4.5622263 51.8990389, 4.5619938 51.8990608, 4.5615419 51.8991103, 4.5613774 51.8991326, 4.5612544 51.8991706, 4.5611354 51.8992135, 4.5610126 51.8992819, 4.5608193 51.8994016, 4.5603321 51.8996895, 4.5601912 51.8997313, 4.559971 51.8997612, 4.5596758 51.899795, 4.5594495 51.899817, 4.5582126 51.8999063), (4.5582126 51.8999063, 4.5567807 51.9000084, 4.5566966 51.9000318, 4.5566238 51.9000574, 4.5565642 51.9000918, 4.5565103 51.9001321, 4.5564697 51.9001893, 4.5564555 51.9002453, 4.5564649 51.900331, 4.5566426 51.9009131), (4.5566426 51.9009131, 4.556716 51.9011674), (4.556716 51.9011674, 4.556777 51.9013514), (4.556777 51.9013514, 4.5565388 51.9013637, 4.5560877 51.9013869, 4.5558778 51.9014091, 4.5554656 51.9015013, 4.5552254 51.9015923, 4.5549267 51.9016856, 4.5546052 51.9017638, 4.5541618 51.9018647, 4.5535444 51.9020006, 4.5532683 51.902045, 4.5527763 51.9020851), (4.5527763 51.9020851, 4.552628 51.9021053, 4.5524735 51.9021066, 4.5523523 51.9021077, 4.5519953 51.9020726, 4.5517979 51.9020393), (4.5517979 51.9020393, 4.5511774 51.9020027, 4.5504737 51.9020209, 4.5493815 51.9020668, 4.5483608 51.9021125, 4.5481545 51.9021172, 4.5479858 51.9021104, 4.5478335 51.9020864, 4.547713 51.9020551, 4.5476602 51.9020368, 4.5476032 51.9020132, 4.547542 51.901984, 4.5474808 51.9019496, 4.547426 51.9019155, 4.5473648 51.9018747, 4.5473089 51.9018203, 4.5472443 51.9017328, 4.5472186 51.9016689, 4.5472075 51.901602, 4.5472069 51.9015063, 4.5472192 51.9014106), (4.5475484 51.9010602, 4.5474768 51.9011373, 4.5473698 51.90123, 4.5472192 51.9014106), (4.547754 51.9006432, 4.5477124 51.9007684, 4.5476371 51.9009284, 4.5476126 51.9009616, 4.5475484 51.9010602), (4.547754 51.9006432, 4.5478594 51.9004027, 4.5479617 51.9001651), (4.5479617 51.9001651, 4.5479791 51.9000771, 4.5479945 51.9000146, 4.5480152 51.8999254, 4.5480328 51.8998431, 4.5480354 51.8997526, 4.5480222 51.8996835, 4.5480126 51.8996268), (4.5480126 51.8996268, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5487738 51.8995215), (4.5500922 51.8993607, 4.5499524 51.8993782, 4.5487738 51.8995215), (4.5513068 51.8992207, 4.5503112 51.8993343, 4.5500922 51.8993607), (4.5548122 51.8987608, 4.5547723 51.8987965, 4.5547152 51.8988289, 4.5546472 51.8988569, 4.5545288 51.8988786, 4.5544459 51.8988879, 4.5535816 51.8989779, 4.5531226 51.8990396, 4.5527269 51.8990836, 4.5523393 51.8991256, 4.5519014 51.8991729, 4.5513648 51.8992125, 4.5513068 51.8992207), (4.5548983 51.8987023, 4.5548526 51.8987272, 4.5548122 51.8987608), (4.5545245 51.8972914, 4.5545246 51.8973396, 4.5545545 51.8974781, 4.5548888 51.8986688, 4.5548983 51.8987023), (4.5547206 51.8969503, 4.554628 51.8970397, 4.5545733 51.8971128, 4.5545344 51.8972013, 4.5545245 51.8972914), (4.5547206 51.8969503, 4.5547147 51.8968396, 4.5546911 51.8967736, 4.55466 51.8967347, 4.5545522 51.8966665, 4.55445 51.8966365), (4.55445 51.8966365, 4.5538792 51.8966295, 4.5536181 51.8966344, 4.5533994 51.8966478, 4.5531848 51.8966684, 4.5529702 51.896704, 4.5527702 51.8967562, 4.551023 51.8973207, 4.5503541 51.8975386, 4.5498802 51.8977113, 4.5493006 51.8979438, 4.5488513 51.8981658), (4.5488513 51.8981658, 4.5487497 51.8982024), (4.5487497 51.8982024, 4.5483649 51.8983135), (4.5483649 51.8983135, 4.5478294 51.8986555), (4.5478294 51.8986555, 4.5471605 51.8991251, 4.5466865 51.8995082, 4.5463181 51.899844, 4.5459668 51.9001904, 4.5456836 51.9005042, 4.5454325 51.9008173, 4.5449534 51.9014626, 4.5443886 51.9022514), (4.5443886 51.9022514, 4.5425932 51.9047847), (4.5425932 51.9047847, 4.542333 51.9051525), (4.542333 51.9051525, 4.5417629 51.9059437), (4.5417629 51.9059437, 4.5396931 51.9088629, 4.539377 51.9093208), (4.539377 51.9093208, 4.5387852 51.910157), (4.5387852 51.910157, 4.5380469 51.9112595), (4.5380469 51.9112595, 4.5379521 51.9116746), (4.5379521 51.9116746, 4.5378351 51.9119875), (4.5378351 51.9119875, 4.5375947 51.9125348, 4.5374436 51.9127966, 4.537105 51.9133637, 4.5370412 51.9134951, 4.5369934 51.9136265, 4.5369753 51.913689, 4.5369626 51.9137448, 4.5369453 51.9138582, 4.5369214 51.9140174), (4.5369214 51.9140174, 4.5368888 51.9142896), (4.5368888 51.9142896, 4.5369016 51.9143641), (4.5369016 51.9143641, 4.5368592 51.9146113, 4.5368458 51.9146701, 4.5368271 51.9147223, 4.5367233 51.9149487), (4.5367233 51.9149487, 4.5366293 51.9151457, 4.5365924 51.9152169, 4.536554 51.9152706, 4.5365167 51.9153179, 4.5364379 51.9153952), (4.5364379 51.9153952, 4.5363083 51.9154615), (4.5363083 51.9154615, 4.5362162 51.915499, 4.5361277 51.9155279, 4.5359824 51.9155615, 4.5358612 51.9155819, 4.5357098 51.9155998, 4.5355691 51.9156122, 4.5354354 51.9156156), (4.5354354 51.9156156, 4.5352698 51.9156114, 4.5351538 51.9156033, 4.5350202 51.9155864, 4.534884 51.9155597, 4.5347655 51.9155265, 4.5346049 51.9154696, 4.5345568 51.9154471, 4.5344284 51.9153869, 4.5343384 51.9153395), (4.5343384 51.9153395, 4.5342584 51.9152815, 4.534185 51.9152151), (4.534185 51.9152151, 4.5341561 51.9151597), (4.5341561 51.9151597, 4.5340751 51.9150032, 4.5339324 51.9147448, 4.5338688 51.9146521, 4.5338052 51.9145726, 4.5337264 51.9144932, 4.5336709 51.9144427, 4.5336154 51.9144022), (4.5336154 51.9144022, 4.5334611 51.9143302, 4.533296 51.9142682, 4.5331445 51.9142189, 4.5329668 51.9141725, 4.5326279 51.9140931, 4.5323165 51.9140357, 4.5320094 51.9139874, 4.5318264 51.9139655, 4.5316488 51.9139536, 4.5314866 51.9139494), (4.5314866 51.9139494, 4.5312325 51.9139526, 4.530978 51.9139687, 4.5307919 51.9139862, 4.5305729 51.9140187, 4.5301352 51.9141132, 4.5296575 51.9142469), (4.5296575 51.9142469, 4.5293095 51.9143451), (4.5293095 51.9143451, 4.5289756 51.9144581, 4.5288483 51.9145063, 4.5286589 51.9145778, 4.5285964 51.9146047, 4.5285529 51.9146207, 4.5284886 51.9146505, 4.5284173 51.9147023), (4.5284173 51.9147023, 4.5289734 51.9156684, 4.5290143 51.9157669, 4.529028 51.9158167, 4.5290971 51.9160723, 4.5291621 51.9162899, 4.529186 51.9164778, 4.5291863 51.9165782, 4.5291886 51.916624, 4.5291924 51.9167389, 4.5291293 51.917261, 4.5291197 51.9173397, 4.5291135 51.9174258, 4.5291124 51.9174854, 4.5291179 51.9175545, 4.5291233 51.9176184, 4.5291377 51.9177075, 4.5291588 51.9178107, 4.5291818 51.9178874, 4.52921 51.9179576, 4.5292986 51.9181552, 4.5294137 51.9183615, 4.5298236 51.9191005, 4.5298961 51.9192186, 4.5299221 51.9192625, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>383137</t>
+          <t>13649636</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bus 144: Ridderkerk Drievliet =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 142: Slikkerveer Sporttunnel =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -661,14 +661,14 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.6207999 51.8658198, 4.6208634 51.865973, 4.6208744 51.8660041, 4.6209144 51.8660997), (4.6209144 51.8660997, 4.620945 51.8661035, 4.6209799 51.8661123, 4.6210272 51.8661354), (4.6210272 51.8661354, 4.6210477 51.8661528, 4.6210617 51.866171, 4.6210699 51.8661903, 4.6210722 51.8662116), (4.6210722 51.8662116, 4.6210637 51.8662421, 4.6210417 51.8662698, 4.6210002 51.8662964), (4.6210002 51.8662964, 4.6210209 51.8663733, 4.6210255 51.8663904, 4.6210608 51.8665215, 4.6210549 51.8665995), (4.6210549 51.8665995, 4.6211706 51.866921, 4.6211761 51.8670767, 4.621152 51.8671758, 4.6210449 51.8672787, 4.6206679 51.8675812, 4.6205192 51.8677005), (4.6143716 51.869073, 4.6147226 51.8690314, 4.615024 51.8690422, 4.6152608 51.8690827, 4.6154801 51.8691477, 4.6157169 51.8692424, 4.6161573 51.8694483, 4.6162358 51.8694859, 4.6165017 51.8696104, 4.6170348 51.8698647, 4.6171442 51.8699168, 4.6173092 51.8699802, 4.6175592 51.870004, 4.6177862 51.8699844, 4.6180271 51.8698794, 4.6182374 51.8696988, 4.6183137 51.8696392, 4.6186553 51.8693572, 4.6191454 51.8689605, 4.6192822 51.8688502, 4.6196757 51.8685357, 4.6199592 51.8681874, 4.619996 51.8681422, 4.6202549 51.8679236, 4.6203351 51.867851, 4.6205192 51.8677005), (4.6143716 51.869073, 4.6142547 51.8690928, 4.6140284 51.8691368, 4.6129838 51.8693434, 4.6127725 51.8693824, 4.6126818 51.8694016, 4.6126478 51.8694088, 4.6117392 51.8695892, 4.6115148 51.8696359, 4.6114208 51.869674, 4.611334 51.8697301, 4.6112 51.8699, 4.6111102 51.8700307), (4.6111102 51.8700307, 4.6110109 51.8701791, 4.6109185 51.8702614, 4.6107786 51.8703212, 4.61058 51.8703602, 4.6104153 51.8703923, 4.6101383 51.870449), (4.6101383 51.870449, 4.610023 51.8704934, 4.6097727 51.8705504, 4.6096339 51.8705875), (4.6096339 51.8705875, 4.6096194 51.8706215, 4.6095869 51.8706503, 4.609542 51.8706701, 4.609489 51.8706795, 4.6094339 51.8706775, 4.609374 51.8706605, 4.6093298 51.8706303, 4.6093085 51.8705917, 4.6093136 51.8705512, 4.6093442 51.8705151), (4.6093442 51.8705151, 4.6093151 51.8704256, 4.6092849 51.8703344, 4.6092071 51.8701493, 4.6090282 51.8698515, 4.6087839 51.8695019, 4.6085632 51.8691416, 4.6084362 51.8689734, 4.6082486 51.868782, 4.6081663 51.868695, 4.6080153 51.8685772, 4.6077533 51.8684159, 4.6070115 51.8680116, 4.60667 51.8678377, 4.6066142 51.8678093, 4.6064885 51.8677583), (4.6064885 51.8677583, 4.6064182 51.8677719, 4.6063447 51.8677703, 4.6062762 51.8677537, 4.6062206 51.8677238, 4.6061843 51.8676843, 4.6061714 51.8676395, 4.6061835 51.8675947), (4.6061835 51.8675947, 4.6060785 51.8675283, 4.6060338 51.867502, 4.6059054 51.8674263, 4.6056642 51.8672999, 4.6053586 51.8671186, 4.6052897 51.867058), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.604261 51.8659971, 4.6041981 51.8660065, 4.604134 51.8660005, 4.6040784 51.8659801, 4.6040394 51.8659482), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.5987671 51.8674556, 4.5987781 51.8674734, 4.5987852 51.8675006, 4.5987799 51.8675281, 4.5987626 51.8675536, 4.5987347 51.8675752, 4.5986982 51.8675912), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.6000875 51.868606, 4.5999607 51.8686449), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6010114 51.8707586, 4.6010146 51.8708408, 4.6008982 51.8709489, 4.6007502 51.8710864), (4.6007502 51.8710864, 4.6007102 51.8711237, 4.6005942 51.8711482), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5986297 51.8719968, 4.598818 51.8720142), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5893205 51.8749147, 4.5894396 51.8749746, 4.5895977 51.8750793, 4.5897017 51.8751857, 4.5897606 51.8752496, 4.5899099 51.8754155, 4.5899197 51.8754278, 4.5899725 51.8755045), (4.5899725 51.8755045, 4.5900546 51.8755136, 4.5901254 51.8755408), (4.5901254 51.8755408, 4.590275 51.8755342, 4.590498 51.8754839, 4.5906565 51.8754612, 4.5907951 51.875467, 4.5909373 51.8755089), (4.5909373 51.8755089, 4.5910262 51.8755293, 4.59149 51.8756617), (4.59149 51.8756617, 4.5918202 51.8757545), (4.5918202 51.8757545, 4.5936102 51.8762562, 4.5948943 51.8766301, 4.5951338 51.8767003), (4.5951338 51.8767003, 4.5954281 51.8767817, 4.5954703 51.8767931, 4.5957716 51.8768809), (4.5957716 51.8768809, 4.5959206 51.8769321, 4.5961121 51.8770125), (4.5961121 51.8770125, 4.5963493 51.8771313), (4.5963493 51.8771313, 4.5971302 51.8775374), (4.5971302 51.8775374, 4.5974007 51.877677), (4.5974007 51.877677, 4.5981919 51.8780842), (4.5981919 51.8780842, 4.5987327 51.8783819, 4.5994525 51.8787881), (4.5994525 51.8787881, 4.5995191 51.8788386, 4.5995511 51.8788816, 4.5995644 51.878936), (4.599887 51.8789464, 4.5995644 51.878936), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6042362 51.8853311, 4.6039447 51.8855064), (4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5812821 51.8874099, 4.5811075 51.8870851, 4.5810465 51.8869849), (4.5810465 51.8869849, 4.5809754 51.8868492), (4.5809754 51.8868492, 4.5809061 51.8867458, 4.5808705 51.8866689, 4.5808174 51.8865241), (4.5808174 51.8865241, 4.580793 51.8864537, 4.5807735 51.8864015), (4.5807735 51.8864015, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664852 51.8857136, 4.5660094 51.8855779, 4.5655691 51.8854499), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5631299 51.884958, 4.563184 51.8849679), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5612939 51.8846229, 4.560959 51.8846024, 4.5605985 51.8845823), (4.5605985 51.8845823, 4.5603966 51.8845812, 4.5600885 51.8845852, 4.5598252 51.8846013, 4.5595296 51.8846291, 4.5591924 51.8846716, 4.5581458 51.8848266, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.5961121 51.8770125, 4.5963493 51.8771313), (4.5963493 51.8771313, 4.5971302 51.8775374), (4.5971302 51.8775374, 4.5974007 51.877677), (4.5974007 51.877677, 4.5981919 51.8780842), (4.5981919 51.8780842, 4.5987327 51.8783819, 4.5994525 51.8787881), (4.5994525 51.8787881, 4.5995191 51.8788386, 4.5995511 51.8788816, 4.5995644 51.878936), (4.599887 51.8789464, 4.5995644 51.878936), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6042362 51.8853311, 4.6039447 51.8855064), (4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5812821 51.8874099, 4.5811075 51.8870851, 4.5810465 51.8869849), (4.5810465 51.8869849, 4.5809754 51.8868492), (4.5809754 51.8868492, 4.5809061 51.8867458, 4.5808705 51.8866689, 4.5808174 51.8865241), (4.5808174 51.8865241, 4.580793 51.8864537, 4.5807735 51.8864015), (4.5807735 51.8864015, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664852 51.8857136, 4.5660094 51.8855779, 4.5655691 51.8854499), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5631299 51.884958, 4.563184 51.8849679), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5612939 51.8846229, 4.560959 51.8846024, 4.5605985 51.8845823), (4.5605985 51.8845823, 4.5603966 51.8845812, 4.5600885 51.8845852, 4.5598252 51.8846013, 4.5595296 51.8846291, 4.5591924 51.8846716, 4.5581458 51.8848266, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>383138</t>
+          <t>13649635</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ridderkerk, Sporthal Drievliet</t>
+          <t>Ridderkerk, Sporttunnel</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bus 144: Rotterdam Zuidplein =&gt; Ridderkerk Drievliet</t>
+          <t>Bus 142: Rotterdam Zuidplein =&gt; Slikkerveer Sporttunnel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -699,14 +699,14 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5515763 51.8856119, 4.551893 51.8855858, 4.5523292 51.885541, 4.5529925 51.885444, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5580638 51.8847621, 4.5581165 51.8847544, 4.5586696 51.8846721, 4.5590969 51.8846121, 4.559427 51.8845737, 4.5597377 51.8845459, 4.5600613 51.8845315, 4.5603754 51.8845325, 4.5606027 51.8845391), (4.5606027 51.8845391, 4.5609047 51.8845622, 4.5612939 51.8846229), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.5809091 51.8861627), (4.5809091 51.8861627, 4.5809785 51.8863676), (4.5809785 51.8863676, 4.5810226 51.8864773), (4.5810226 51.8864773, 4.5810698 51.8865952, 4.5811086 51.8867042, 4.5811475 51.8868252, 4.5811566 51.8868801, 4.5811788 51.8870463, 4.5812821 51.8874099), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6042362 51.8853311, 4.6039447 51.8855064), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.599887 51.8789464, 4.5995644 51.878936), (4.5994525 51.8787881, 4.5995191 51.8788386, 4.5995511 51.8788816, 4.5995644 51.878936), (4.5981919 51.8780842, 4.5987327 51.8783819, 4.5994525 51.8787881), (4.5974007 51.877677, 4.5981919 51.8780842), (4.5971302 51.8775374, 4.5974007 51.877677), (4.5963493 51.8771313, 4.5971302 51.8775374), (4.5961121 51.8770125, 4.5963493 51.8771313), (4.5957716 51.8768809, 4.5959206 51.8769321, 4.5961121 51.8770125), (4.5951338 51.8767003, 4.5954281 51.8767817, 4.5954703 51.8767931, 4.5957716 51.8768809), (4.5918202 51.8757545, 4.5936102 51.8762562, 4.5948943 51.8766301, 4.5951338 51.8767003), (4.59149 51.8756617, 4.5918202 51.8757545), (4.5909373 51.8755089, 4.5910262 51.8755293, 4.59149 51.8756617), (4.5909373 51.8755089, 4.5907989 51.8755188, 4.5905621 51.8755608, 4.590324 51.8756104, 4.5901957 51.8756328), (4.5901957 51.8756328, 4.5901861 51.8756814, 4.5901493 51.8757247, 4.5900901 51.8757573), (4.5900901 51.8757573, 4.5900216 51.8757742, 4.589948 51.8757762), (4.589948 51.8757762, 4.5898845 51.8757652, 4.5898291 51.8757431), (4.5898291 51.8757431, 4.5897743 51.8756977, 4.5897543 51.8756424, 4.5897725 51.8755865, 4.5898262 51.8755401), (4.5898262 51.8755401, 4.5897978 51.8754567, 4.5897396 51.8753355, 4.5896572 51.8752307, 4.5895966 51.8751509, 4.5894484 51.8750315, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5986297 51.8719968, 4.598818 51.8720142), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6005942 51.8711482, 4.6005834 51.8710827, 4.6007545 51.8709185, 4.600817 51.8708585), (4.600817 51.8708585, 4.6008858 51.8707925, 4.6010114 51.8707586), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6000875 51.868606, 4.5999607 51.8686449), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5986982 51.8675912, 4.5986528 51.8676009, 4.5986048 51.8676018, 4.5985584 51.8675941, 4.5985178 51.8675782, 4.598494 51.8675618), (4.598494 51.8675618, 4.5984686 51.8675312, 4.5984619 51.8675047, 4.5984668 51.867478, 4.5984831 51.8674531, 4.5985096 51.8674318, 4.5985443 51.8674156), (4.5985443 51.8674156, 4.5985818 51.8674062, 4.598622 51.8674028, 4.5986622 51.8674057, 4.5987 51.8674147, 4.598733 51.8674292, 4.5987671 51.8674556), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6040394 51.8659482, 4.6040236 51.8659148, 4.6040266 51.86588, 4.604048 51.8658478, 4.6040854 51.8658218, 4.6041347 51.8658049), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6025656 51.8634085, 4.6023999 51.8635276), (4.6027708 51.8633057, 4.602693 51.8633277, 4.6026379 51.8633548, 4.6025656 51.8634085), (4.6031926 51.8632156, 4.6029494 51.8632676, 4.6027708 51.8633057), (4.6033256 51.8631872, 4.6031926 51.8632156), (4.6064038 51.8625382, 4.6059425 51.8626344, 4.605177 51.8627959, 4.6048704 51.8628606, 4.603602 51.8631282, 4.6034995 51.8631501, 4.6033256 51.8631872), (4.6070566 51.8623983, 4.606629 51.8624916, 4.6064038 51.8625382), (4.6106179 51.8627, 4.6105227 51.862631, 4.6103951 51.8625384, 4.6103362 51.8624956, 4.6100648 51.8622987, 4.6100461 51.8622852, 4.6099106 51.8621869, 4.6098575 51.8621689, 4.6093668 51.8622562, 4.6089933 51.8623283, 4.6083025 51.8624704, 4.6081351 51.8625065, 4.6077637 51.8625842, 4.6073574 51.862666, 4.6070923 51.8624285, 4.6070566 51.8623983), (4.6126874 51.8619376, 4.6125576 51.8619662, 4.6119923 51.8620943, 4.6118391 51.8621311, 4.6115195 51.862208, 4.6113138 51.8623181, 4.6111931 51.8623837, 4.610765 51.8626162, 4.6106179 51.8627), (4.6126874 51.8619376, 4.6130509 51.8618449, 4.6131626 51.8618171, 4.6133016 51.8617791, 4.6133906 51.8617735, 4.6140873 51.861773, 4.6142136 51.8617765, 4.6148906 51.8617763, 4.6150523 51.8617747, 4.6152376 51.8617776, 4.6153314 51.8618019, 4.6154087 51.8618351, 4.6156459 51.8620743, 4.6160556 51.8625207, 4.6164 51.8629, 4.616592 51.8632019), (4.6227513 51.8619187, 4.6226198 51.8619773, 4.6225311 51.8620046, 4.6223896 51.8620116, 4.6219315 51.8620155, 4.6215536 51.8620187, 4.6214735 51.8620318, 4.621359 51.8620506, 4.6212749 51.8620723, 4.6205844 51.8622351, 4.6205353 51.862248, 4.6197825 51.8624284, 4.6195887 51.8624755, 4.6194484 51.8625027, 4.6191515 51.8625603, 4.6190656 51.86259, 4.6189826 51.8626453, 4.6185562 51.8627383, 4.6184442 51.8627632, 4.6183485 51.8627859, 4.6179445 51.8628816, 4.6178712 51.8628989, 4.6177321 51.8629319, 4.6175792 51.8629681, 4.6171772 51.8630633, 4.6170556 51.8630921, 4.6167069 51.8631747, 4.616592 51.8632019), (4.6227513 51.8619187, 4.622875 51.861985, 4.6230244 51.8620156, 4.6236186 51.8620116, 4.6237354 51.8620337, 4.6238347 51.8621031, 4.6239199 51.8622666, 4.6239387 51.8623028, 4.6240324 51.8624824, 4.624094 51.8626007, 4.6241109 51.8626331, 4.6241357 51.8626763, 4.6243745 51.8631249, 4.6243833 51.8632133, 4.6243773 51.8633522, 4.6243776 51.8634281, 4.6243781 51.8636709, 4.6243791 51.8637037, 4.6243775 51.8639978, 4.6243772 51.8641772, 4.6243156 51.8642558, 4.6242245 51.8643017, 4.6241095 51.8643254, 4.6230787 51.864537, 4.6229542 51.8645626, 4.6228274 51.8645886, 4.6223445 51.8646878, 4.6219637 51.8647659, 4.6218644 51.8647863, 4.6211701 51.8649289, 4.6210455 51.8649545, 4.620738 51.8650176, 4.6206903 51.8650361, 4.6206497 51.8650621, 4.6206197 51.8651118, 4.6206499 51.8654082, 4.6206541 51.865522), (4.6206541 51.865522, 4.6207039 51.8656276, 4.6207999 51.8658198))</t>
+          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5515763 51.8856119, 4.551893 51.8855858, 4.5523292 51.885541, 4.5529925 51.885444, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5580638 51.8847621, 4.5581165 51.8847544, 4.5586696 51.8846721, 4.5590969 51.8846121, 4.559427 51.8845737, 4.5597377 51.8845459, 4.5600613 51.8845315, 4.5603754 51.8845325, 4.5606027 51.8845391), (4.5606027 51.8845391, 4.5609047 51.8845622, 4.5612939 51.8846229), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.5809091 51.8861627), (4.5809091 51.8861627, 4.5809785 51.8863676), (4.5809785 51.8863676, 4.5810226 51.8864773), (4.5810226 51.8864773, 4.5810698 51.8865952, 4.5811086 51.8867042, 4.5811475 51.8868252, 4.5811566 51.8868801, 4.5811788 51.8870463, 4.5812821 51.8874099), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6042362 51.8853311, 4.6039447 51.8855064), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.599887 51.8789464, 4.5995644 51.878936), (4.5994525 51.8787881, 4.5995191 51.8788386, 4.5995511 51.8788816, 4.5995644 51.878936), (4.5981919 51.8780842, 4.5987327 51.8783819, 4.5994525 51.8787881), (4.5974007 51.877677, 4.5981919 51.8780842), (4.5971302 51.8775374, 4.5974007 51.877677), (4.5963493 51.8771313, 4.5971302 51.8775374), (4.5961121 51.8770125, 4.5963493 51.8771313), (4.5957716 51.8768809, 4.5959206 51.8769321, 4.5961121 51.8770125))</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>383140</t>
+          <t>13206980</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bus 146: Ridderkerk Drievliet =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 142: Slikkerveer Dillenburgplein =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -737,14 +737,14 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.6206793 51.8657129, 4.6206644 51.865647, 4.6206541 51.865522), (4.6227513 51.8619187, 4.622875 51.861985, 4.6230244 51.8620156, 4.6236186 51.8620116, 4.6237354 51.8620337, 4.6238347 51.8621031, 4.6239199 51.8622666, 4.6239387 51.8623028, 4.6240324 51.8624824, 4.624094 51.8626007, 4.6241109 51.8626331, 4.6241357 51.8626763, 4.6243745 51.8631249, 4.6243833 51.8632133, 4.6243773 51.8633522, 4.6243776 51.8634281, 4.6243781 51.8636709, 4.6243791 51.8637037, 4.6243775 51.8639978, 4.6243772 51.8641772, 4.6243156 51.8642558, 4.6242245 51.8643017, 4.6241095 51.8643254, 4.6230787 51.864537, 4.6229542 51.8645626, 4.6228274 51.8645886, 4.6223445 51.8646878, 4.6219637 51.8647659, 4.6218644 51.8647863, 4.6211701 51.8649289, 4.6210455 51.8649545, 4.620738 51.8650176, 4.6206903 51.8650361, 4.6206497 51.8650621, 4.6206197 51.8651118, 4.6206499 51.8654082, 4.6206541 51.865522), (4.6227513 51.8619187, 4.6226198 51.8619773, 4.6225311 51.8620046, 4.6223896 51.8620116, 4.6219315 51.8620155, 4.6215536 51.8620187, 4.6214735 51.8620318, 4.621359 51.8620506, 4.6212749 51.8620723, 4.6205844 51.8622351, 4.6205353 51.862248, 4.6197825 51.8624284, 4.6195887 51.8624755, 4.6194484 51.8625027, 4.6191515 51.8625603, 4.6190656 51.86259, 4.6189826 51.8626453, 4.6185562 51.8627383, 4.6184442 51.8627632, 4.6183485 51.8627859, 4.6179445 51.8628816, 4.6178712 51.8628989, 4.6177321 51.8629319, 4.6175792 51.8629681, 4.6171772 51.8630633, 4.6170556 51.8630921, 4.6167069 51.8631747, 4.616592 51.8632019), (4.6126874 51.8619376, 4.6130509 51.8618449, 4.6131626 51.8618171, 4.6133016 51.8617791, 4.6133906 51.8617735, 4.6140873 51.861773, 4.6142136 51.8617765, 4.6148906 51.8617763, 4.6150523 51.8617747, 4.6152376 51.8617776, 4.6153314 51.8618019, 4.6154087 51.8618351, 4.6156459 51.8620743, 4.6160556 51.8625207, 4.6164 51.8629, 4.616592 51.8632019), (4.6126874 51.8619376, 4.6125576 51.8619662, 4.6119923 51.8620943, 4.6118391 51.8621311, 4.6115195 51.862208, 4.6113138 51.8623181, 4.6111931 51.8623837, 4.610765 51.8626162, 4.6106179 51.8627), (4.6106179 51.8627, 4.6105227 51.862631, 4.6103951 51.8625384, 4.6103362 51.8624956, 4.6100648 51.8622987, 4.6100461 51.8622852, 4.6099106 51.8621869, 4.6098575 51.8621689, 4.6093668 51.8622562, 4.6089933 51.8623283, 4.6083025 51.8624704, 4.6081351 51.8625065, 4.6077637 51.8625842, 4.6073574 51.862666, 4.6070923 51.8624285, 4.6070566 51.8623983), (4.6070566 51.8623983, 4.606629 51.8624916, 4.6064038 51.8625382), (4.6064038 51.8625382, 4.6059425 51.8626344, 4.605177 51.8627959, 4.6048704 51.8628606, 4.603602 51.8631282, 4.6034995 51.8631501, 4.6033256 51.8631872), (4.6033256 51.8631872, 4.6031926 51.8632156), (4.6031926 51.8632156, 4.6029494 51.8632676, 4.6027708 51.8633057), (4.6027708 51.8633057, 4.602693 51.8633277, 4.6026379 51.8633548, 4.6025656 51.8634085), (4.6025656 51.8634085, 4.6023999 51.8635276), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.5963168 51.8647624, 4.5963515 51.8647894, 4.5963706 51.8648218, 4.5963723 51.8648562, 4.5963563 51.8648892, 4.5963243 51.8649175, 4.5962796 51.8649381, 4.5962302 51.8649485, 4.596178 51.8649495, 4.5961277 51.864941, 4.5960837 51.8649236), (4.5960837 51.8649236, 4.5959896 51.8649829, 4.5958 51.8651, 4.5956085 51.8652145, 4.5952283 51.8654301, 4.5937477 51.8663344, 4.5934524 51.866516, 4.5933022 51.8666296, 4.5931589 51.8667686, 4.5931013 51.866846, 4.5930381 51.8669753, 4.5930075 51.8670945, 4.5929817 51.8672564, 4.5929479 51.8674742), (4.5929479 51.8674742, 4.5929659 51.8675988, 4.5929692 51.8677276, 4.5929729 51.86776, 4.5929474 51.867934, 4.5929161 51.8681349, 4.5929125 51.8681633, 4.5928952 51.868225, 4.592868 51.8683065, 4.5928186 51.8684044), (4.5928186 51.8684044, 4.5927797 51.8686872, 4.5927303 51.8689302, 4.5926666 51.8691532, 4.5925761 51.8693459, 4.5924597 51.8695354, 4.5923073 51.8697262, 4.5920803 51.8699459, 4.5918068 51.8701646, 4.5914964 51.8703837, 4.5913743 51.8704663, 4.5912463 51.8705585, 4.5909441 51.8707632, 4.5907274 51.8709121), (4.5907274 51.8709121, 4.5906705 51.8709852, 4.5905901 51.871059, 4.5905092 51.8711198, 4.590482 51.8711388, 4.5903129 51.8712522, 4.5901401 51.8713761, 4.5901041 51.8714036, 4.5899733 51.8714775, 4.5898886 51.8715174, 4.5897659 51.8715749), (4.5897659 51.8715749, 4.5886281 51.87236), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5839924 51.8714405, 4.5840791 51.8714972, 4.5841246 51.8715271, 4.5846026 51.8718404, 4.5848583 51.872008, 4.5860281 51.8727748, 4.5864742 51.8730672, 4.5867465 51.8732563, 4.5867756 51.8732755, 4.5868681 51.8733365), (4.5839924 51.8714405, 4.5839349 51.8714627, 4.5838677 51.8714682, 4.5838028 51.8714561, 4.5837518 51.8714284), (4.5837518 51.8714284, 4.5837222 51.8713845, 4.5837291 51.8713372, 4.5837711 51.8712973), (4.5830525 51.8708312, 4.583293 51.8709832, 4.5833996 51.871053, 4.5836532 51.8712198, 4.5836741 51.8712336, 4.5837711 51.8712973), (4.5828217 51.8706735, 4.5830525 51.8708312), (4.5826078 51.8705335, 4.5828217 51.8706735), (4.580583 51.8692209, 4.5826078 51.8705335), (4.5785613 51.8678838, 4.580583 51.8692209), (4.5773409 51.8671903, 4.5775191 51.8672689, 4.5777512 51.8673813, 4.5780426 51.8675455, 4.5782784 51.8676923, 4.5785613 51.8678838), (4.576701 51.8669836, 4.5769211 51.8670417, 4.5771268 51.8671104, 4.5773409 51.8671903), (4.5764571 51.8669253, 4.576701 51.8669836), (4.5764571 51.8669253, 4.5763373 51.8669183, 4.5760779 51.866892, 4.5757591 51.8668676, 4.5749387 51.8668306), (4.5749387 51.8668306, 4.5745234 51.8667977, 4.5736724 51.8667579, 4.5736387 51.8667563, 4.5734621 51.8667491, 4.5731551 51.8667422), (4.5731551 51.8667422, 4.5730049 51.8667416), (4.5730049 51.8667416, 4.5687103 51.8665531), (4.5687103 51.8665531, 4.5674435 51.8664891, 4.5673073 51.8664828, 4.5669609 51.8664714), (4.5669609 51.8664714, 4.5667592 51.8664664), (4.5667592 51.8664664, 4.5665909 51.8664622, 4.5629491 51.866298), (4.5629491 51.866298, 4.5623442 51.8662429), (4.5623442 51.8662429, 4.5612859 51.8661997, 4.5611966 51.8661961, 4.56111 51.866194, 4.5607838 51.8661848), (4.5607838 51.8661848, 4.5606537 51.8661806), (4.5606537 51.8661806, 4.5604001 51.86617, 4.5603533 51.8661681), (4.5603533 51.8661681, 4.5600959 51.8661575), (4.5600959 51.8661575, 4.5594428 51.8661233, 4.558977 51.8661033, 4.5587196 51.8660912, 4.5584618 51.8660786, 4.5583865 51.8660735, 4.5582722 51.8660628), (4.5582722 51.8660628, 4.5579985 51.8660262, 4.5576659 51.8659749), (4.5576659 51.8659749, 4.5571831 51.8659136, 4.5568049 51.8658854, 4.5564803 51.8658788, 4.5562202 51.8658838), (4.5562202 51.8658838, 4.5560203 51.8658921, 4.5558123 51.8659062), (4.5558123 51.8659062, 4.5555843 51.8659378, 4.5554042 51.8659753, 4.5551272 51.8660438, 4.5547789 51.8661389), (4.5547789 51.8661389, 4.5549995 51.866411, 4.5551294 51.8666033, 4.5551986 51.8667694, 4.5552127 51.8668815, 4.5552063 51.866986, 4.5551857 51.8670776, 4.555123 51.8672061, 4.5550589 51.8673105, 4.5548867 51.867473, 4.5547583 51.8675576, 4.5545118 51.8677229), (4.5545118 51.8677229, 4.5535507 51.8683612), (4.5535507 51.8683612, 4.5526746 51.8689377, 4.552418 51.8691013), (4.552418 51.8691013, 4.5523274 51.86916), (4.5523274 51.86916, 4.552045 51.869069), (4.552045 51.869069, 4.5517982 51.8689673, 4.5514956 51.8688371, 4.5510898 51.8686407, 4.5506536 51.868423), (4.5506536 51.868423, 4.5505177 51.8683259, 4.5503999 51.8681983, 4.5503199 51.8680485, 4.5502735 51.8679205), (4.5502735 51.8679205, 4.5502212 51.867782, 4.5501696 51.8676168, 4.5500612 51.8673872, 4.5499626 51.8672285, 4.5498325 51.8670861, 4.5496325 51.8669357, 4.5494113 51.8667999, 4.5491058 51.8666635, 4.5481566 51.8662908, 4.5472781 51.8659201), (4.5472781 51.8659201, 4.5465403 51.8656843, 4.5456438 51.8654318, 4.5443994 51.8651227), (4.5443994 51.8651227, 4.5431206 51.8648471), (4.5431206 51.8648471, 4.5415177 51.8645291, 4.5401468 51.8643273, 4.5384332 51.864132), (4.5384332 51.864132, 4.537373 51.8640392, 4.5366244 51.8639966), (4.5366244 51.8639966, 4.5359179 51.8639684), (4.5359179 51.8639684, 4.5347166 51.8639244, 4.5331489 51.8639331, 4.532493 51.8639476, 4.5317805 51.8639748, 4.5296808 51.8641288, 4.5290106 51.8642019, 4.5283436 51.8642806), (4.5283436 51.8642806, 4.5274414 51.8644176, 4.5264261 51.8645766, 4.525654 51.8647171, 4.5250799 51.8648337), (4.5250799 51.8648337, 4.5245561 51.8650106, 4.523294 51.8653815), (4.523294 51.8653815, 4.521927 51.8657796, 4.5215318 51.8658844, 4.5212375 51.8659427, 4.5208394 51.8660155, 4.5200349 51.8661424, 4.5196802 51.86621, 4.5191426 51.8663486, 4.5184823 51.8665636, 4.5180475 51.8667406, 4.5176994 51.8669079), (4.5176994 51.8669079, 4.5172165 51.8671821, 4.5167713 51.8674966, 4.5164336 51.8677948, 4.5161563 51.868086, 4.515929 51.8683848, 4.5157778 51.8686353, 4.515742 51.8687212), (4.515742 51.8687212, 4.5156652 51.8689502, 4.5156472 51.8690395), (4.5156472 51.8690395, 4.5156353 51.8690983, 4.5156123 51.869304, 4.5155875 51.8694923), (4.5155875 51.8694923, 4.5155433 51.8699384, 4.5154987 51.8702196, 4.5154112 51.8705351, 4.5153059 51.8708281, 4.5152067 51.8710521, 4.5149474 51.8715001, 4.5146615 51.871897, 4.5143575 51.8722183), (4.5143575 51.8722183, 4.5141897 51.8724126, 4.5140652 51.8725489, 4.5138281 51.8726764), (4.5138281 51.8726764, 4.5136826 51.8728125), (4.5136826 51.8728125, 4.5123878 51.8740487, 4.5121984 51.874231), (4.5121984 51.874231, 4.5114715 51.8749277, 4.5113051 51.875076), (4.5113051 51.875076, 4.5112231 51.8751625, 4.511008 51.8753356, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.510858 51.8754417, 4.5107671 51.8754933, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5812821 51.8874099, 4.5811075 51.8870851, 4.5810465 51.8869849), (4.5810465 51.8869849, 4.5809754 51.8868492), (4.5809754 51.8868492, 4.5809061 51.8867458, 4.5808705 51.8866689, 4.5808174 51.8865241), (4.5808174 51.8865241, 4.580793 51.8864537, 4.5807735 51.8864015), (4.5807735 51.8864015, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664852 51.8857136, 4.5660094 51.8855779, 4.5655691 51.8854499), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5631299 51.884958, 4.563184 51.8849679), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5612939 51.8846229, 4.560959 51.8846024, 4.5605985 51.8845823), (4.5605985 51.8845823, 4.5603966 51.8845812, 4.5600885 51.8845852, 4.5598252 51.8846013, 4.5595296 51.8846291, 4.5591924 51.8846716, 4.5581458 51.8848266, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>383141</t>
+          <t>13206981</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ridderkerk, Sporthal Drievliet</t>
+          <t>Slikkerveer, Dillenburgplein</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bus 146: Rotterdam Zuidplein =&gt; Ridderkerk Drievliet</t>
+          <t>Bus 142: Rotterdam Zuidplein =&gt; Slikkerveer Dillenburgplein</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -775,14 +775,14 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.5105415 51.8754014, 4.510776 51.8752818, 4.5109024 51.8752089, 4.5110329 51.8751203), (4.5110329 51.8751203, 4.5112047 51.8749389), (4.5112047 51.8749389, 4.5115852 51.8745949, 4.5119918 51.8741924), (4.5119918 51.8741924, 4.5124366 51.8737681), (4.5124366 51.8737681, 4.5130293 51.8731922, 4.513444 51.8727936, 4.5138482 51.8723891, 4.513983 51.8722283, 4.5141152 51.8720659, 4.51419 51.8719714, 4.5143362 51.8717699), (4.5143362 51.8717699, 4.5144448 51.8715932, 4.514536 51.8714408, 4.5146219 51.8712883, 4.5147742 51.8709813), (4.5147742 51.8709813, 4.5148605 51.870739, 4.5149478 51.8704562, 4.5150113 51.8701689, 4.5150652 51.8698476, 4.5150862 51.869489), (4.5150862 51.869489, 4.5151156 51.8691838), (4.5151156 51.8691838, 4.5151296 51.8690358, 4.5151392 51.8689342), (4.5151392 51.8689342, 4.5152286 51.8687194), (4.5152286 51.8687194, 4.5153662 51.8680853, 4.5154245 51.8678352, 4.5154447 51.8677532, 4.5154762 51.8676467, 4.5155034 51.8675544, 4.5155305 51.8674685, 4.5155717 51.867358, 4.5156125 51.8672626, 4.5156494 51.8671878, 4.5156789 51.8671323, 4.5157084 51.8670768, 4.5157569 51.8669981, 4.5158174 51.8669084), (4.5158174 51.8669084, 4.5161773 51.8664051, 4.5165072 51.8659436, 4.5169064 51.8653852, 4.5170635 51.8651655, 4.5171099 51.8650991, 4.5171525 51.8650352, 4.5171844 51.8649843, 4.5172125 51.8649368, 4.5172402 51.8648872, 4.5172771 51.8648164), (4.5172771 51.8648164, 4.5173356 51.8646937, 4.5173491 51.8646612, 4.5173627 51.8646232, 4.5173723 51.8645842, 4.5173807 51.8645449, 4.5173876 51.8645013, 4.5173909 51.8644484, 4.5173913 51.8644182, 4.5173886 51.8643829, 4.5173828 51.8643495, 4.5173726 51.8643024, 4.5173609 51.8642584, 4.5173474 51.8642203, 4.5173284 51.8641818, 4.5173046 51.8641402, 4.5172788 51.8640967, 4.5172515 51.8640525, 4.5172208 51.8640106, 4.5171812 51.8639665, 4.5171132 51.8639017, 4.5170372 51.8638423, 4.5169611 51.8637921, 4.5168933 51.8637525, 4.5168086 51.8637115, 4.5167027 51.8636618, 4.5165823 51.8636142, 4.5164514 51.8635678, 4.5163229 51.8635265, 4.51621 51.8634922, 4.5160926 51.8634626, 4.5159753 51.8634372, 4.5158673 51.8634169, 4.5157549 51.8633985, 4.5156375 51.8633807, 4.5155193 51.863367, 4.51541 51.863359, 4.5152937 51.8633554, 4.5151818 51.8633565, 4.5150804 51.8633647, 4.5149872 51.8633765, 4.5148858 51.8633945, 4.5148008 51.8634153, 4.5145046 51.8635018, 4.514294 51.8636051, 4.5141189 51.8637213, 4.5139802 51.8638706, 4.5138955 51.8640109, 4.5138395 51.8641724, 4.5138513 51.8644091, 4.5139563 51.864616, 4.5141045 51.8647797, 4.5143152 51.8649315, 4.5146301 51.8650682, 4.5149704 51.8651203, 4.5152626 51.8651313, 4.5155375 51.8651288, 4.5158788 51.8651067, 4.5161595 51.8651216), (4.5161595 51.8651216, 4.5167068 51.8650917, 4.5169508 51.8650755, 4.5178202 51.8650219, 4.5187389 51.864962, 4.5193734 51.8649111, 4.5197004 51.8648844, 4.5201615 51.864843), (4.5201615 51.864843, 4.5213874 51.8647202, 4.5225584 51.8646005, 4.5238924 51.864434, 4.5251796 51.8642698, 4.5253728 51.8642423, 4.5262595 51.8641789), (4.5262595 51.8641789, 4.5276191 51.8639975, 4.5288418 51.8638506, 4.5294743 51.8637844, 4.5310465 51.8636484, 4.5339191 51.8635293), (4.5339191 51.8635293, 4.5347441 51.863533, 4.53592 51.863559), (4.53592 51.863559, 4.5366308 51.8635799), (4.5366308 51.8635799, 4.537808 51.8636469, 4.538599 51.8637127, 4.5395993 51.8638207, 4.5408043 51.8639757, 4.5421351 51.8641921, 4.5434546 51.8644467), (4.5434546 51.8644467, 4.5447329 51.8647254), (4.5447329 51.8647254, 4.5452991 51.8648724), (4.5452991 51.8648724, 4.546221 51.8650046), (4.546221 51.8650046, 4.5469904 51.8651785), (4.5469904 51.8651785, 4.5478061 51.8653934, 4.5483858 51.8655607, 4.5489312 51.8657262), (4.5489312 51.8657262, 4.549375 51.8657889, 4.5502664 51.8660772), (4.5502664 51.8660772, 4.5510077 51.8663154, 4.5512039 51.8663708, 4.5513821 51.8664234), (4.5513821 51.8664234, 4.5516986 51.8664905, 4.5519454 51.8665134, 4.5522082 51.8665205, 4.5524718 51.8665007, 4.5527093 51.8664701), (4.5527093 51.8664701, 4.5529265 51.8664381, 4.5532715 51.8663684, 4.5536218 51.8662767), (4.5536218 51.8662767, 4.553988 51.8661817, 4.5543965 51.8660586), (4.5543965 51.8660586, 4.5546496 51.8659843), (4.5546496 51.8659843, 4.554867 51.8659194, 4.5550797 51.8658572, 4.5555469 51.8657504, 4.5557722 51.8657124, 4.5559251 51.8656958, 4.5561209 51.8656834), (4.5561209 51.8656834, 4.5562872 51.8656834), (4.5562872 51.8656834, 4.5564455 51.8656875, 4.5566654 51.8656925, 4.5568451 51.8657024, 4.557049 51.8657281, 4.5573816 51.8657745, 4.5575801 51.8658109, 4.5580937 51.865907, 4.558315 51.8659384, 4.5585014 51.8659583, 4.5587177 51.8659788), (4.5587177 51.8659788, 4.5589416 51.8659892), (4.5589416 51.8659892, 4.5592827 51.8660015, 4.5599872 51.8660334), (4.5599872 51.8660334, 4.560372 51.8660509, 4.5604185 51.8660533, 4.5607147 51.8660662), (4.5607147 51.8660662, 4.560841 51.8660711), (4.560841 51.8660711, 4.5611239 51.8660824, 4.5612437 51.8660883), (4.5612437 51.8660883, 4.5614692 51.8660981, 4.5620322 51.8661232, 4.562218 51.8661349, 4.5623505 51.8661502, 4.5626953 51.8661832), (4.5626953 51.8661832, 4.5628245 51.8661954, 4.563017 51.8662147, 4.5633735 51.8662275, 4.5654446 51.8663235), (4.5654446 51.8663235, 4.5665786 51.8663715, 4.5668739 51.8663851), (4.5668739 51.8663851, 4.567095 51.8663946), (4.567095 51.8663946, 4.5674293 51.8664085, 4.5709253 51.8665663, 4.5717079 51.8666003), (4.5717079 51.8666003, 4.5728089 51.8666474, 4.5731299 51.8666654), (4.5731299 51.8666654, 4.5732771 51.8666716), (4.5732771 51.8666716, 4.5735754 51.8666834, 4.5741434 51.8667084, 4.5753529 51.8667687, 4.5756714 51.8667866, 4.576009 51.8668245, 4.5762982 51.866872, 4.5764571 51.8669253), (4.5764571 51.8669253, 4.576701 51.8669836), (4.576701 51.8669836, 4.5769211 51.8670417, 4.5771268 51.8671104, 4.5773409 51.8671903), (4.5773409 51.8671903, 4.5775191 51.8672689, 4.5777512 51.8673813, 4.5780426 51.8675455, 4.5782784 51.8676923, 4.5785613 51.8678838), (4.5785613 51.8678838, 4.580583 51.8692209), (4.580583 51.8692209, 4.5826078 51.8705335), (4.5826078 51.8705335, 4.5828217 51.8706735), (4.5828217 51.8706735, 4.5830525 51.8708312), (4.5830525 51.8708312, 4.583293 51.8709832, 4.5833996 51.871053, 4.5836532 51.8712198, 4.5836741 51.8712336, 4.5837711 51.8712973), (4.5837711 51.8712973, 4.5838234 51.8712771, 4.5838843 51.8712706, 4.5839446 51.8712788, 4.5839955 51.8713005, 4.5840295 51.8713329, 4.5840409 51.8713709, 4.5840279 51.8714086, 4.5839924 51.8714405), (4.5839924 51.8714405, 4.5840791 51.8714972, 4.5841246 51.8715271, 4.5846026 51.8718404, 4.5848583 51.872008, 4.5860281 51.8727748, 4.5864742 51.8730672, 4.5867465 51.8732563, 4.5867756 51.8732755, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5897659 51.8715749, 4.5886281 51.87236), (4.5897659 51.8715749, 4.5898504 51.871497, 4.5899268 51.8714203, 4.5900133 51.8713507, 4.5900492 51.8713266, 4.5902238 51.8712024), (4.5902238 51.8712024, 4.5903946 51.8710877, 4.5904209 51.8710668, 4.5905234 51.8710087, 4.5906229 51.8709623, 4.5907274 51.8709121), (4.5928186 51.8684044, 4.5927797 51.8686872, 4.5927303 51.8689302, 4.5926666 51.8691532, 4.5925761 51.8693459, 4.5924597 51.8695354, 4.5923073 51.8697262, 4.5920803 51.8699459, 4.5918068 51.8701646, 4.5914964 51.8703837, 4.5913743 51.8704663, 4.5912463 51.8705585, 4.5909441 51.8707632, 4.5907274 51.8709121), (4.5928186 51.8684044, 4.5928014 51.8683001, 4.5927836 51.8682149, 4.5927821 51.8681576, 4.5927876 51.8681274, 4.5928279 51.8679164), (4.5928279 51.8679164, 4.5928494 51.8677531, 4.5928546 51.8677205, 4.5928934 51.8676132, 4.5929479 51.8674742), (4.5960837 51.8649236, 4.5959896 51.8649829, 4.5958 51.8651, 4.5956085 51.8652145, 4.5952283 51.8654301, 4.5937477 51.8663344, 4.5934524 51.866516, 4.5933022 51.8666296, 4.5931589 51.8667686, 4.5931013 51.866846, 4.5930381 51.8669753, 4.5930075 51.8670945, 4.5929817 51.8672564, 4.5929479 51.8674742), (4.5960837 51.8649236, 4.5960486 51.8648977, 4.5960282 51.8648663, 4.5960245 51.8648326, 4.5960378 51.8647998, 4.5960669 51.8647711, 4.5961089 51.8647495), (4.5961089 51.8647495, 4.5961607 51.8647367, 4.5962163 51.8647347, 4.5962702 51.8647435, 4.5963168 51.8647624), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6041347 51.8658049, 4.6041856 51.865799, 4.6042369 51.865803, 4.6042838 51.8658164, 4.6043219 51.865838, 4.6043476 51.8658657, 4.6043587 51.8659039, 4.6043463 51.8659419, 4.6043121 51.8659745, 4.604261 51.8659971), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.6052897 51.867058, 4.6053952 51.867092, 4.6057101 51.8672583, 4.6059378 51.8673591, 4.6061161 51.867439, 4.6061637 51.8674603, 4.6062881 51.8675197), (4.6062881 51.8675197, 4.6063748 51.8675047, 4.6064639 51.8675126), (4.6064639 51.8675126, 4.606531 51.8675369, 4.60658 51.8675742), (4.60658 51.8675742, 4.6066062 51.8676298, 4.6065922 51.8676869), (4.6065922 51.8676869, 4.6067014 51.8677477, 4.6067533 51.8677737, 4.6071121 51.8679527, 4.6075754 51.8681734, 4.6079173 51.8683759, 4.6081932 51.8685763, 4.6083498 51.8687425, 4.6085455 51.8689435, 4.6086673 51.8691173, 4.6088809 51.8694822, 4.6090784 51.8698345, 4.6092589 51.8701641, 4.6093664 51.8703131, 4.6094393 51.8703991, 4.6095095 51.8704809), (4.6095095 51.8704809, 4.6095591 51.870494, 4.6095991 51.8705163), (4.6095991 51.8705163, 4.6097407 51.870494, 4.6100221 51.870448, 4.6101383 51.870449), (4.6111102 51.8700307, 4.6110109 51.8701791, 4.6109185 51.8702614, 4.6107786 51.8703212, 4.61058 51.8703602, 4.6104153 51.8703923, 4.6101383 51.870449), (4.6143716 51.869073, 4.6142547 51.8690928, 4.6140284 51.8691368, 4.6129838 51.8693434, 4.6127725 51.8693824, 4.6126818 51.8694016, 4.6126478 51.8694088, 4.6117392 51.8695892, 4.6115148 51.8696359, 4.6114208 51.869674, 4.611334 51.8697301, 4.6112 51.8699, 4.6111102 51.8700307), (4.6143716 51.869073, 4.6147226 51.8690314, 4.615024 51.8690422, 4.6152608 51.8690827, 4.6154801 51.8691477, 4.6157169 51.8692424, 4.6161573 51.8694483, 4.6162358 51.8694859, 4.6165017 51.8696104, 4.6170348 51.8698647, 4.6171442 51.8699168, 4.6173092 51.8699802, 4.6175592 51.870004, 4.6177862 51.8699844, 4.6180271 51.8698794, 4.6182374 51.8696988, 4.6183137 51.8696392, 4.6186553 51.8693572, 4.6191454 51.8689605, 4.6192822 51.8688502, 4.6196757 51.8685357, 4.6199592 51.8681874, 4.619996 51.8681422, 4.6202549 51.8679236, 4.6203351 51.867851, 4.6205192 51.8677005), (4.6210549 51.8665995, 4.6211706 51.866921, 4.6211761 51.8670767, 4.621152 51.8671758, 4.6210449 51.8672787, 4.6206679 51.8675812, 4.6205192 51.8677005), (4.6210549 51.8665995, 4.6209926 51.8665332, 4.6209393 51.8664113, 4.620931 51.8663919, 4.6209097 51.8663434, 4.620898 51.8663169), (4.620898 51.8663169, 4.6208401 51.8663122, 4.6207892 51.8662959, 4.6207538 51.866274, 4.6207299 51.8662473), (4.6207299 51.8662473, 4.6207187 51.8662156, 4.6207211 51.8661892, 4.6207338 51.8661637), (4.6207338 51.8661637, 4.6207532 51.8661432, 4.6207795 51.8661257, 4.6208089 51.866113), (4.6208089 51.866113, 4.620768 51.8660188, 4.6207587 51.8659887, 4.6206793 51.8657129))</t>
+          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5515763 51.8856119, 4.551893 51.8855858, 4.5523292 51.885541, 4.5529925 51.885444, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5580638 51.8847621, 4.5581165 51.8847544, 4.5586696 51.8846721, 4.5590969 51.8846121, 4.559427 51.8845737, 4.5597377 51.8845459, 4.5600613 51.8845315, 4.5603754 51.8845325, 4.5606027 51.8845391), (4.5606027 51.8845391, 4.5609047 51.8845622, 4.5612939 51.8846229), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.5809091 51.8861627), (4.5809091 51.8861627, 4.5809785 51.8863676), (4.5809785 51.8863676, 4.5810226 51.8864773), (4.5810226 51.8864773, 4.5810698 51.8865952, 4.5811086 51.8867042, 4.5811475 51.8868252, 4.5811566 51.8868801, 4.5811788 51.8870463, 4.5812821 51.8874099), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.5972195 51.8830715, 4.5973643 51.8831999, 4.5975062 51.8833312, 4.5977354 51.8835571, 4.5987547 51.8846901, 4.5989748 51.8849393, 4.599163 51.8851631, 4.6003402 51.8868356, 4.6003722 51.8868928, 4.600442 51.8869949), (4.5944536 51.8814017, 4.5945473 51.8814456, 4.5950076 51.8817237, 4.5958413 51.8821814, 4.5966167 51.8826436, 4.5968554 51.8827921, 4.5971294 51.8829944, 4.5972195 51.8830715), (4.5944536 51.8814017, 4.5944084 51.8814188, 4.5943567 51.8814258, 4.594304 51.881422, 4.5942563 51.8814078, 4.5942187 51.8813848, 4.5941953 51.8813554), (4.5941953 51.8813554, 4.5941886 51.8813284, 4.5941942 51.8813012, 4.5942116 51.8812761, 4.5942374 51.8812561, 4.5942706 51.8812409, 4.594309 51.8812314, 4.5943583 51.8812285, 4.5944066 51.8812351, 4.5944494 51.8812504, 4.5944825 51.8812731), (4.5951747 51.8808972, 4.5949802 51.8809871, 4.5947482 51.8811467, 4.5945853 51.8812242, 4.5944825 51.8812731), (4.599216 51.8791798, 4.5990933 51.8792307, 4.5989505 51.87929, 4.5981435 51.8796398, 4.5980207 51.8796911, 4.5973364 51.8799845, 4.5971654 51.8800563, 4.5967775 51.88021, 4.5961258 51.8804929, 4.5951747 51.8808972), (4.5995644 51.878936, 4.5995245 51.8790158, 4.5994393 51.8790708, 4.599216 51.8791798), (4.599887 51.8789464, 4.5995644 51.878936), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6042362 51.8853311, 4.6039447 51.8855064))</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>383229</t>
+          <t>382822</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rotterdam, Kralingse Zoom</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bus 183: Rotterdam Zuidplein =&gt; Rotterdam Kralingse Zoom</t>
+          <t>Bus 143: Ridderkerk Drievliet =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -813,14 +813,14 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.477892 51.8738233), (4.477892 51.8738233, 4.4778583 51.8736846, 4.4773956 51.8716034, 4.4773731 51.8715251), (4.4773731 51.8715251, 4.4773167 51.8715123, 4.4772689 51.8714898, 4.4772337 51.8714597, 4.4772142 51.8714246, 4.4772129 51.8713843, 4.4772322 51.8713457, 4.4772703 51.871313, 4.4773232 51.8712893), (4.4773232 51.8712893, 4.4772998 51.871209, 4.4768061 51.8690926, 4.4765546 51.868247, 4.4764177 51.8677994, 4.4764086 51.8677656, 4.4763693 51.8676743), (4.4763693 51.8676743, 4.4762952 51.867659, 4.4762362 51.8676275, 4.4762011 51.8675844, 4.4761954 51.8675363, 4.4762199 51.8674905, 4.4762708 51.867454), (4.4762708 51.867454, 4.4762724 51.8673804, 4.4760339 51.8667754, 4.4752828 51.865055, 4.4751265 51.8647011), (4.4751265 51.8647011, 4.4750728 51.8645796), (4.4750728 51.8645796, 4.4748794 51.8641417, 4.4748324 51.864032, 4.4748172 51.8639916, 4.4747789 51.8639089), (4.4747789 51.8639089, 4.4747146 51.8638955, 4.4746596 51.863871), (4.4746596 51.863871, 4.4746027 51.863815, 4.4745936 51.8637491), (4.4745936 51.8637491, 4.474608 51.8637172, 4.4746341 51.8636882, 4.4746704 51.8636638), (4.4746704 51.8636638, 4.4746475 51.8635968, 4.474327 51.8629049, 4.4742318 51.8626459), (4.4742318 51.8626459, 4.4739064 51.861581), (4.4739064 51.861581, 4.4736285 51.8606326), (4.4736285 51.8606326, 4.4735954 51.8605385), (4.4735954 51.8605385, 4.4735847 51.8604812), (4.4735847 51.8604812, 4.4735195 51.8604638, 4.4734664 51.8604346, 4.4734306 51.8603967), (4.4734306 51.8603967, 4.4733127 51.8603665, 4.472152 51.860328, 4.4720801 51.8603288, 4.4719956 51.8603319, 4.4719399 51.8603394), (4.4719399 51.8603394, 4.4719181 51.8603656, 4.4718878 51.8603883, 4.4718504 51.8604065, 4.4718075 51.8604195, 4.47174 51.8604277, 4.4716716 51.8604228, 4.4716151 51.8604078, 4.4715673 51.8603838, 4.471532 51.8603527), (4.471532 51.8603527, 4.4715108 51.8603139, 4.4715089 51.8602731), (4.4715089 51.8602731, 4.4715266 51.8602333, 4.4715625 51.8601986, 4.4716135 51.8601719, 4.4716749 51.8601557), (4.4716749 51.8601557, 4.4716904 51.860089, 4.4716917 51.8600668, 4.471765 51.859785), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4742753 51.857107, 4.4742343 51.8570635, 4.474224 51.8570301, 4.4742322 51.8569879, 4.4742776 51.8569386, 4.4743184 51.8569179, 4.4744058 51.8568994, 4.4744955 51.8569064, 4.4745575 51.8569288), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4849479 51.8530844, 4.4849478 51.8530381, 4.484976 51.8529951, 4.4850284 51.852962, 4.4850972 51.8529435, 4.4851723 51.8529424, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.489866 51.8513095, 4.4899069 51.8513065, 4.4899388 51.8513029, 4.4899701 51.8512983, 4.4899944 51.8512938, 4.4900343 51.8512851, 4.4900619 51.8512787, 4.4900998 51.851268, 4.4901995 51.8512324, 4.4902957 51.8511942, 4.4904588 51.8511261, 4.4905014 51.8511099, 4.4905567 51.8510898, 4.4905955 51.8510755, 4.4906369 51.8510644, 4.4909165 51.8510154), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4919243 51.8506091, 4.4921994 51.8504556, 4.4923991 51.8503541, 4.4925084 51.850299, 4.4925566 51.8502745, 4.4925916 51.8502556, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4972441 51.8486291, 4.4972842 51.8486168, 4.4973376 51.8486054, 4.4973792 51.8485974, 4.4975215 51.8485668, 4.497848 51.8484988, 4.4979464 51.8484809, 4.4979805 51.8484743, 4.498023 51.8484685, 4.4980732 51.8484619, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4994995 51.8481354, 4.4997151 51.8480292, 4.4999322 51.8478913), (4.4999322 51.8478913, 4.5000134 51.847828, 4.5000345 51.8478115, 4.5001142 51.8477494), (4.5001142 51.8477494, 4.5002513 51.847627, 4.5004034 51.847461, 4.5005066 51.8472903, 4.500547 51.8471197, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005137 51.8465004, 4.5005059 51.8464439, 4.5004991 51.8463644, 4.5004817 51.8461678, 4.5004716 51.8460832, 4.5004681 51.8460263, 4.5005065 51.8458942), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5004432 51.8452783, 4.5004072 51.8452074, 4.5003706 51.8449916, 4.5003559 51.8448126, 4.5003416 51.8446572, 4.5003164 51.8445903), (4.5003164 51.8445903, 4.5002659 51.8445787, 4.5002296 51.8445594, 4.5002017 51.8445353, 4.5001839 51.8445078, 4.500177 51.8444785, 4.5001816 51.844449, 4.5002048 51.8444125, 4.5002451 51.8443823, 4.5002988 51.8443613, 4.5003603 51.8443517, 4.5004236 51.8443544, 4.5004824 51.8443691, 4.5005292 51.8443964), (4.5005292 51.8443964, 4.500795 51.844334, 4.5008577 51.8443193, 4.5009906 51.8442881, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5078395 51.8443642, 4.5078749 51.8443775, 4.5079132 51.8443942, 4.5079503 51.8444108, 4.5079838 51.8444263), (4.5079838 51.8444263, 4.5080354 51.8444708, 4.5080661 51.8444874, 4.508105 51.8445051, 4.5081487 51.8445238, 4.5081929 51.8445408, 4.5082326 51.8445501, 4.5082689 51.8445535, 4.5083157 51.8445548, 4.5083736 51.8445485), (4.5083736 51.8445485, 4.5084106 51.8445366, 4.508464 51.8445246, 4.5085245 51.8445137, 4.5086485 51.8445046, 4.5087727 51.8445128, 4.5088907 51.8445381, 4.5089965 51.8445791), (4.5089965 51.8445791, 4.5090929 51.8446403, 4.5091616 51.8447144), (4.5091616 51.8447144, 4.5091938 51.8447798, 4.5092042 51.8448479, 4.5091931 51.8449142, 4.5091613 51.8449778, 4.50911 51.8450365, 4.5090412 51.8450879), (4.5090412 51.8450879, 4.5089638 51.8451275, 4.5088759 51.8451578, 4.5087806 51.8451778, 4.5086811 51.8451867, 4.5085806 51.8451843, 4.5084824 51.8451707), (4.5084824 51.8451707, 4.5083178 51.8452592, 4.5081458 51.8454758, 4.5080705 51.8457061, 4.5080232 51.8459593, 4.5080166 51.8464374, 4.5081628 51.84798, 4.5081725 51.8480556, 4.5081835 51.8481407), (4.5081835 51.8481407, 4.5081858 51.848222), (4.5081858 51.848222, 4.5082793 51.8490484), (4.5082793 51.8490484, 4.508311 51.8491951), (4.508311 51.8491951, 4.5083977 51.8492137, 4.508472 51.8492471, 4.5085273 51.8492923, 4.508559 51.8493456), (4.508559 51.8493456, 4.5085653 51.8493924, 4.5085531 51.8494388), (4.5085531 51.8494388, 4.5085242 51.8494809, 4.5084801 51.8495176, 4.5084233 51.8495468, 4.5083569 51.849567), (4.5083569 51.849567, 4.5082541 51.849578, 4.5081513 51.8495675), (4.5081513 51.8495675, 4.5080695 51.8495413, 4.5080036 51.8495015, 4.5079528 51.849453, 4.5079407 51.8493958, 4.5079456 51.849349, 4.5079687 51.8493043, 4.5080085 51.8492644, 4.5080627 51.8492316, 4.5081281 51.8492078), (4.5081281 51.8492078, 4.5081542 51.849102, 4.5080693 51.8482396), (4.5080693 51.8482396, 4.5080609 51.848136), (4.5080609 51.848136, 4.5080199 51.8477682, 4.5078881 51.8461491, 4.5079219 51.8458087, 4.5080165 51.8454771, 4.5082127 51.8451675, 4.5082159 51.8450556), (4.5082159 51.8450556, 4.5081619 51.8450037, 4.5081239 51.8449466, 4.5081032 51.8448863, 4.5081004 51.8448247, 4.5081071 51.8447825, 4.5081212 51.844743), (4.5081212 51.844743, 4.5081409 51.8447127, 4.5081673 51.8446823, 4.5082134 51.8446381, 4.5082559 51.8446088, 4.5083058 51.8445798, 4.5083736 51.8445485), (4.5083736 51.8445485, 4.5084106 51.8445366, 4.508464 51.8445246, 4.5085245 51.8445137, 4.5086485 51.8445046, 4.5087727 51.8445128, 4.5088907 51.8445381, 4.5089965 51.8445791), (4.5089965 51.8445791, 4.5094985 51.8443857), (4.5094985 51.8443857, 4.5097981 51.8443108, 4.5101319 51.8442641), (4.5101319 51.8442641, 4.5104897 51.8442412, 4.5116343 51.8441942), (4.5116343 51.8441942, 4.5132989 51.8441191, 4.5136485 51.8441066), (4.5136485 51.8441066, 4.5148861 51.844045), (4.5148861 51.844045, 4.5169883 51.8439607, 4.5172702 51.8439518), (4.5172702 51.8439518, 4.517891 51.8439196), (4.517891 51.8439196, 4.5194925 51.8438508, 4.5198892 51.8438364), (4.5198892 51.8438364, 4.52014 51.8438258, 4.5207779 51.8437967), (4.5207779 51.8437967, 4.52194 51.8437326, 4.522601 51.8436777, 4.5235639 51.8435811, 4.5245053 51.8434575, 4.5253188 51.843329), (4.5253188 51.843329, 4.5257417 51.8432773, 4.5261534 51.8432511, 4.5267089 51.843254, 4.5269781 51.8432397, 4.5271361 51.8432238), (4.5271361 51.8432238, 4.5271551 51.8431872, 4.5271864 51.8431538, 4.5272284 51.8431254, 4.5272793 51.8431032, 4.5273367 51.8430881, 4.527398 51.843081, 4.5274603 51.8430822, 4.5275208 51.8430915, 4.5275766 51.8431086, 4.5276253 51.8431326), (4.5276253 51.8431326, 4.5276688 51.8431666, 4.5276978 51.8432061), (4.5276978 51.8432061, 4.5277082 51.8432345, 4.5277111 51.8432636, 4.5277064 51.8432925, 4.5276941 51.8433206, 4.5276747 51.8433471, 4.5276485 51.8433713, 4.5276164 51.8433926, 4.5275792 51.8434104), (4.5275792 51.8434104, 4.5276361 51.8436986), (4.5276361 51.8436986, 4.5276835 51.8437908, 4.5277152 51.843879, 4.5277539 51.8443623, 4.527758 51.8445349), (4.527758 51.8445349, 4.5277585 51.8445616, 4.5277644 51.8448864, 4.5277657 51.8449603, 4.5277671 51.8450377), (4.5277671 51.8450377, 4.5277676 51.8450646, 4.5277694 51.8451663), (4.5277694 51.8451663, 4.5281975 51.8451604, 4.5282487 51.8451597, 4.5283163 51.8451586, 4.5289664 51.8451561, 4.5289928 51.8451552, 4.5291012 51.8451527, 4.5296719 51.8451465), (4.5296719 51.8451465, 4.5299127 51.8451429), (4.5299127 51.8451429, 4.5304491 51.8451377, 4.5309206 51.8451331, 4.5311141 51.8451293, 4.5314885 51.8451246), (4.5314885 51.8451246, 4.5314882 51.844853, 4.5314792 51.8446802, 4.5314681 51.8444255, 4.5314779 51.8442987), (4.5314779 51.8442987, 4.5321761 51.8442991, 4.5324246 51.8442941, 4.5326342 51.8442917, 4.5328468 51.8442931, 4.5333037 51.8442892), (4.5333037 51.8442892, 4.5338219 51.8442834, 4.5342277 51.8442759, 4.5347077 51.8442632), (4.5347077 51.8442632, 4.5348397 51.8442601, 4.5349606 51.8442657, 4.5355284 51.8443193), (4.5355284 51.8443193, 4.5357538 51.844306, 4.5360008 51.8443263, 4.5360506 51.8443287), (4.5360506 51.8443287, 4.5360772 51.844303, 4.5361138 51.8442825, 4.5361578 51.8442688, 4.5361994 51.8442632, 4.5362419 51.8442635, 4.5362831 51.8442699, 4.5363306 51.8442862, 4.5363683 51.8443103, 4.5363928 51.8443421, 4.5364026 51.8443739, 4.5363956 51.8444078, 4.5363721 51.8444395, 4.5363341 51.8444653, 4.5362853 51.8444828), (4.5362853 51.8444828, 4.5362767 51.8446845, 4.5362351 51.8447571), (4.5362351 51.8447571, 4.536245 51.8453334), (4.536245 51.8453334, 4.5362664 51.8454462, 4.5362697 51.8455701, 4.5362889 51.8458584), (4.5362889 51.8458584, 4.5362806 51.8460899, 4.5362893 51.8462115), (4.5362893 51.8462115, 4.536292 51.8462728), (4.536292 51.8462728, 4.5362956 51.8464027, 4.5362946 51.8464315, 4.5362927 51.8469145, 4.5362704 51.8472999), (4.5362704 51.8472999, 4.5362753 51.8473929, 4.5362753 51.8474216, 4.5362775 51.8493998), (4.5362775 51.8493998, 4.5363521 51.8497363, 4.5363557 51.8497538, 4.536373 51.8498117, 4.5363725 51.8498395), (4.5363725 51.8498395, 4.5364398 51.8498626, 4.536487 51.8499003, 4.5365064 51.8499463, 4.536495 51.8499934, 4.5364545 51.8500339, 4.5363916 51.8500613), (4.5363916 51.8500613, 4.5363728 51.850127, 4.536365 51.8501498, 4.5362852 51.8504404), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.536325 51.8524724, 4.5363937 51.8526698, 4.5364036 51.8527315, 4.5364231 51.8527931, 4.5364291 51.8528119), (4.5364291 51.8528119, 4.5364775 51.8528244, 4.5365187 51.8528445, 4.5365497 51.8528706), (4.5365497 51.8528706, 4.5366782 51.8528683, 4.5368008 51.8528673, 4.5369493 51.8528736), (4.5391576 51.8527685, 4.5390088 51.8527813, 4.5373411 51.8528389, 4.5371991 51.8528492, 4.5369493 51.8528736), (4.5391576 51.8527685, 4.5393891 51.8527134, 4.5396198 51.8526628, 4.5397591 51.8526241), (4.5397591 51.8526241, 4.5398699 51.8526671, 4.5399884 51.8527685, 4.5400073 51.8527847, 4.5401488 51.8528937, 4.540196 51.8529447), (4.540196 51.8529447, 4.5403403 51.8530294, 4.5407707 51.8532433, 4.5409889 51.8533411, 4.5410632 51.8533842, 4.5414519 51.8536088, 4.5416457 51.8537492, 4.5421909 51.8542166, 4.5422253 51.8542471, 4.5423018 51.8543125), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.5407372 51.8552967, 4.5405935 51.8554282, 4.5405462 51.855458, 4.540513 51.8554819, 4.5403666 51.8555742, 4.5402179 51.8556677, 4.540188 51.8556849), (4.540188 51.8556849, 4.5399866 51.8557707), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5372261 51.8567319, 4.5370627 51.8567723, 4.5369727 51.8567813, 4.5365812 51.8567813, 4.536467 51.8567817, 4.536276 51.8567869), (4.536276 51.8567869, 4.5362737 51.8569004, 4.5362788 51.8569739, 4.5362701 51.8572417, 4.5362632 51.8573295, 4.5362365 51.8574061), (4.5362365 51.8574061, 4.5362365 51.8584422, 4.5362397 51.8589712, 4.5362395 51.8590436, 4.5362409 51.8591443, 4.5362433 51.8593107), (4.5362433 51.8593107, 4.5362563 51.8600024, 4.5362603 51.8600793, 4.5362618 51.8602102, 4.5362724 51.8605997, 4.5362764 51.8614328, 4.5362945 51.8615858), (4.5362945 51.8615858, 4.536351 51.8616689, 4.5364209 51.861867), (4.5364209 51.861867, 4.536429 51.8619148, 4.5364322 51.8620523, 4.5364329 51.8623996, 4.5364318 51.862473, 4.5364308 51.8626027), (4.5364308 51.8626027, 4.5364322 51.8627023), (4.5364322 51.8627023, 4.5364352 51.8628252, 4.5364269 51.8629148, 4.5364224 51.8629924, 4.5364148 51.8630358, 4.5364 51.8630843, 4.5363105 51.8633919, 4.5362744 51.8635002), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5357387 51.8692299, 4.5358962 51.8691815, 4.5360179 51.8691419, 4.536083 51.8691058, 4.5361453 51.8690587, 4.5361792 51.8690086, 4.5361952 51.8689713, 4.5362062 51.8689163, 4.5362056 51.8688542, 4.536216 51.8687493), (4.5353282 51.8693549, 4.535419 51.8693301, 4.5357387 51.8692299), (4.5346672 51.8696393, 4.5348068 51.869543, 4.5349507 51.8694684, 4.5353282 51.8693549), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5301922 51.8712078, 4.5300378 51.8712823, 4.5298383 51.8713552, 4.5296118 51.8714681, 4.5294845 51.871529, 4.5292887 51.8715998, 4.5287904 51.8717275, 4.5282423 51.8719334, 4.5280262 51.8719879), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5238862 51.873997, 4.5236198 51.8744114, 4.5235218 51.8745134), (4.5235218 51.8745134, 4.5235807 51.8745336), (4.5235807 51.8745336, 4.5236739 51.8745663, 4.5244158 51.8748388), (4.5244158 51.8748388, 4.5248697 51.8750019), (4.5248697 51.8750019, 4.5249426 51.8750294), (4.5249426 51.8750294, 4.5249147 51.8752794, 4.5249067 51.8753511, 4.5248415 51.8754574), (4.5248415 51.8754574, 4.5248163 51.8756396, 4.5248078 51.8757007, 4.5247946 51.8758005, 4.5247822 51.875888, 4.5247638 51.8760179, 4.5247591 51.8760399, 4.524729 51.8763276, 4.524701 51.8765536), (4.524701 51.8765536, 4.524688 51.876658, 4.524621 51.8769296, 4.5245797 51.8769938, 4.524405 51.8771971, 4.5242986 51.877321), (4.5242986 51.877321, 4.5242449 51.8773787, 4.524212 51.8774151, 4.5241877 51.8774431, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5491952 51.8858746, 4.5491868 51.8859218, 4.5491074 51.8860822), (4.5491074 51.8860822, 4.5491135 51.8866017), (4.5491135 51.8866017, 4.5490916 51.8869321), (4.5490916 51.8869321, 4.5490954 51.8869723, 4.5489717 51.8872989), (4.5489717 51.8872989, 4.5488624 51.8875512), (4.5488624 51.8875512, 4.5488079 51.887664, 4.5488039 51.8877079, 4.5488566 51.887742, 4.5491058 51.8877813, 4.549192 51.8877593, 4.5493116 51.8874768), (4.5493116 51.8874768, 4.5494448 51.8871435), (4.5494448 51.8871435, 4.5495234 51.886977), (4.5495234 51.886977, 4.5496839 51.8870025, 4.5498132 51.887023, 4.5498728 51.8870342, 4.5500591 51.8870593, 4.5501612 51.8870756), (4.5501612 51.8870756, 4.5502685 51.8871105, 4.5504269 51.8871326, 4.5508141 51.8871919, 4.5509547 51.8872134, 4.5510431 51.8872269, 4.5513083 51.887269, 4.5514007 51.8872818, 4.5520649 51.8873867, 4.5522603 51.8874175, 4.5529682 51.88753, 4.5530416 51.8875403, 4.5533176 51.8875727, 4.5534049 51.8875862), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.550361 51.8960888, 4.5508161 51.8975901), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.5548122 51.8987608, 4.5547723 51.8987965, 4.5547152 51.8988289, 4.5546472 51.8988569, 4.5545288 51.8988786, 4.5544459 51.8988879, 4.5535816 51.8989779, 4.5531226 51.8990396, 4.5527269 51.8990836, 4.5523393 51.8991256, 4.5519014 51.8991729, 4.5513648 51.8992125, 4.5513068 51.8992207), (4.5548983 51.8987023, 4.5548526 51.8987272, 4.5548122 51.8987608), (4.5545245 51.8972914, 4.5545246 51.8973396, 4.5545545 51.8974781, 4.5548888 51.8986688, 4.5548983 51.8987023), (4.5547206 51.8969503, 4.554628 51.8970397, 4.5545733 51.8971128, 4.5545344 51.8972013, 4.5545245 51.8972914), (4.5547206 51.8969503, 4.5547147 51.8968396, 4.5546911 51.8967736, 4.55466 51.8967347, 4.5545522 51.8966665, 4.55445 51.8966365), (4.55445 51.8966365, 4.5538792 51.8966295, 4.5536181 51.8966344, 4.5533994 51.8966478, 4.5531848 51.8966684, 4.5529702 51.896704, 4.5527702 51.8967562, 4.551023 51.8973207, 4.5503541 51.8975386, 4.5498802 51.8977113, 4.5493006 51.8979438, 4.5488513 51.8981658), (4.5488513 51.8981658, 4.5487497 51.8982024), (4.5487497 51.8982024, 4.5483649 51.8983135), (4.5483649 51.8983135, 4.5478294 51.8986555), (4.5478294 51.8986555, 4.5471605 51.8991251, 4.5466865 51.8995082, 4.5463181 51.899844, 4.5459668 51.9001904, 4.5456836 51.9005042, 4.5454325 51.9008173, 4.5449534 51.9014626, 4.5443886 51.9022514), (4.5443886 51.9022514, 4.5425932 51.9047847), (4.5425932 51.9047847, 4.542333 51.9051525), (4.542333 51.9051525, 4.5417629 51.9059437), (4.5417629 51.9059437, 4.5396931 51.9088629, 4.539377 51.9093208), (4.539377 51.9093208, 4.5387852 51.910157), (4.5387852 51.910157, 4.5380469 51.9112595), (4.5380469 51.9112595, 4.5379521 51.9116746), (4.5379521 51.9116746, 4.5378351 51.9119875), (4.5378351 51.9119875, 4.5375947 51.9125348, 4.5374436 51.9127966, 4.537105 51.9133637, 4.5370412 51.9134951, 4.5369934 51.9136265, 4.5369753 51.913689, 4.5369626 51.9137448, 4.5369453 51.9138582, 4.5369214 51.9140174), (4.5369214 51.9140174, 4.5368888 51.9142896), (4.5368888 51.9142896, 4.5369016 51.9143641), (4.5369016 51.9143641, 4.5368592 51.9146113, 4.5368458 51.9146701, 4.5368271 51.9147223, 4.5367233 51.9149487), (4.5367233 51.9149487, 4.5366293 51.9151457, 4.5365924 51.9152169, 4.536554 51.9152706, 4.5365167 51.9153179, 4.5364379 51.9153952), (4.5364379 51.9153952, 4.5363083 51.9154615), (4.5363083 51.9154615, 4.5362162 51.915499, 4.5361277 51.9155279, 4.5359824 51.9155615, 4.5358612 51.9155819, 4.5357098 51.9155998, 4.5355691 51.9156122, 4.5354354 51.9156156), (4.5354354 51.9156156, 4.5352698 51.9156114, 4.5351538 51.9156033, 4.5350202 51.9155864, 4.534884 51.9155597, 4.5347655 51.9155265, 4.5346049 51.9154696, 4.5345568 51.9154471, 4.5344284 51.9153869, 4.5343384 51.9153395), (4.5343384 51.9153395, 4.5342584 51.9152815, 4.534185 51.9152151), (4.534185 51.9152151, 4.5341561 51.9151597), (4.5341561 51.9151597, 4.5340751 51.9150032, 4.5339324 51.9147448, 4.5338688 51.9146521, 4.5338052 51.9145726, 4.5337264 51.9144932, 4.5336709 51.9144427, 4.5336154 51.9144022), (4.5336154 51.9144022, 4.5334611 51.9143302, 4.533296 51.9142682, 4.5331445 51.9142189, 4.5329668 51.9141725, 4.5326279 51.9140931, 4.5323165 51.9140357, 4.5320094 51.9139874, 4.5318264 51.9139655, 4.5316488 51.9139536, 4.5314866 51.9139494), (4.5314866 51.9139494, 4.5312325 51.9139526, 4.530978 51.9139687, 4.5307919 51.9139862, 4.5305729 51.9140187, 4.5301352 51.9141132, 4.5296575 51.9142469), (4.5296575 51.9142469, 4.5293095 51.9143451), (4.5293095 51.9143451, 4.5289756 51.9144581, 4.5288483 51.9145063, 4.5286589 51.9145778, 4.5285964 51.9146047, 4.5285529 51.9146207, 4.5284886 51.9146505, 4.5284173 51.9147023), (4.5284173 51.9147023, 4.5289734 51.9156684, 4.5290143 51.9157669, 4.529028 51.9158167, 4.5290971 51.9160723, 4.5291621 51.9162899, 4.529186 51.9164778, 4.5291863 51.9165782, 4.5291886 51.916624, 4.5291924 51.9167389, 4.5291293 51.917261, 4.5291197 51.9173397, 4.5291135 51.9174258, 4.5291124 51.9174854, 4.5291179 51.9175545, 4.5291233 51.9176184, 4.5291377 51.9177075, 4.5291588 51.9178107, 4.5291818 51.9178874, 4.52921 51.9179576, 4.5292986 51.9181552, 4.5294137 51.9183615, 4.5298236 51.9191005, 4.5298961 51.9192186, 4.5299221 51.9192625, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
+          <t>MULTILINESTRING ((4.6201144 51.866237, 4.6199518 51.8662224), (4.6199518 51.8662224, 4.6194445 51.8662367, 4.6194177 51.8662374), (4.6194177 51.8662374, 4.6193385 51.8662396, 4.618367 51.866267), (4.618367 51.866267, 4.6181785 51.8662912, 4.6178073 51.8663051, 4.6177615 51.8663037, 4.6176361 51.8662993), (4.6176361 51.8662993, 4.617621 51.866324, 4.6175964 51.8663457, 4.6175607 51.8663642, 4.6175188 51.866376, 4.6174734 51.8663806, 4.6174276 51.8663776, 4.6173846 51.8663671, 4.6173457 51.8663488, 4.6173167 51.8663245), (4.6173167 51.8663245, 4.6171908 51.8663287, 4.6165992 51.866337, 4.616425 51.8663185), (4.616425 51.8663185, 4.614839 51.8663614, 4.6145098 51.8663731, 4.6142231 51.8663981, 4.6131844 51.8665053, 4.6130919 51.8665148, 4.6127577 51.8665493, 4.6126315 51.8665623), (4.6126315 51.8665623, 4.6124287 51.8666005, 4.6121626 51.8666356, 4.612104 51.8666355, 4.6119868 51.866636), (4.6119868 51.866636, 4.6119793 51.8666547, 4.6119663 51.8666723, 4.6119362 51.8666961, 4.6118875 51.8667162, 4.6118317 51.8667248, 4.6117749 51.8667215, 4.6117295 51.8667094, 4.6116917 51.8666897), (4.6116917 51.8666897, 4.6115538 51.8667021, 4.6115052 51.8667064, 4.6112104 51.8667249, 4.6110534 51.8667243), (4.6110534 51.8667243, 4.6082034 51.8669911, 4.6079327 51.8670186, 4.6076943 51.8670488, 4.607492 51.8670898, 4.6073108 51.8671398, 4.607179 51.8671852, 4.6070466 51.8672395, 4.6069127 51.8673049), (4.6069127 51.8673049, 4.6068225 51.8673839, 4.6067045 51.8674666, 4.6066631 51.8674956, 4.60658 51.8675742), (4.60658 51.8675742, 4.6066062 51.8676298, 4.6065922 51.8676869), (4.6065922 51.8676869, 4.606551 51.8677285, 4.6064885 51.8677583), (4.6064885 51.8677583, 4.6064182 51.8677719, 4.6063447 51.8677703, 4.6062762 51.8677537, 4.6062206 51.8677238, 4.6061843 51.8676843, 4.6061714 51.8676395, 4.6061835 51.8675947), (4.6061835 51.8675947, 4.6060785 51.8675283, 4.6060338 51.867502, 4.6059054 51.8674263, 4.6056642 51.8672999, 4.6053586 51.8671186, 4.6052897 51.867058), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.604261 51.8659971, 4.6041981 51.8660065, 4.604134 51.8660005, 4.6040784 51.8659801, 4.6040394 51.8659482), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.5987671 51.8674556, 4.5987781 51.8674734, 4.5987852 51.8675006, 4.5987799 51.8675281, 4.5987626 51.8675536, 4.5987347 51.8675752, 4.5986982 51.8675912), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.6000875 51.868606, 4.5999607 51.8686449), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6010114 51.8707586, 4.6010146 51.8708408, 4.6008982 51.8709489, 4.6007502 51.8710864), (4.6007502 51.8710864, 4.6007102 51.8711237, 4.6005942 51.8711482), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5986297 51.8719968, 4.598818 51.8720142), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5893205 51.8749147, 4.5894396 51.8749746, 4.5895977 51.8750793, 4.5897017 51.8751857, 4.5897606 51.8752496, 4.5899099 51.8754155, 4.5899197 51.8754278, 4.5899725 51.8755045), (4.5899725 51.8755045, 4.5900546 51.8755136, 4.5901254 51.8755408), (4.5901254 51.8755408, 4.5901749 51.8755826, 4.5901957 51.8756328), (4.5901957 51.8756328, 4.5901861 51.8756814, 4.5901493 51.8757247, 4.5900901 51.8757573), (4.5900901 51.8757573, 4.5900973 51.8758371, 4.5901099 51.8760148, 4.590088 51.876233, 4.5900455 51.8763427), (4.5900455 51.8763427, 4.5899066 51.8777485, 4.5898906 51.8779483), (4.5898906 51.8779483, 4.5899306 51.8781042, 4.5899765 51.8781872, 4.5900138 51.8782722), (4.5900138 51.8782722, 4.5900795 51.8782788, 4.5901391 51.8782972, 4.5901871 51.8783258, 4.5902199 51.8783633, 4.5902322 51.8784053, 4.5902235 51.8784463, 4.5901953 51.8784837, 4.5901502 51.8785143), (4.5901502 51.8785143, 4.5901426 51.8786027, 4.5902196 51.8787645, 4.5903152 51.8789495), (4.5903152 51.8789495, 4.5904728 51.8791024, 4.5907214 51.8792848, 4.5910282 51.8794502), (4.5910282 51.8794502, 4.5911605 51.8794897, 4.591327 51.8795586, 4.5915546 51.8796374, 4.5918106 51.8797671), (4.5918106 51.8797671, 4.5926847 51.8802283, 4.5929659 51.8803737), (4.5929659 51.8803737, 4.5930586 51.8804231), (4.5930586 51.8804231, 4.5929354 51.8805071), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664852 51.8857136, 4.5660094 51.8855779, 4.5655691 51.8854499), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5631299 51.884958, 4.563184 51.8849679), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5612939 51.8846229, 4.560959 51.8846024, 4.5605985 51.8845823), (4.5605985 51.8845823, 4.5603966 51.8845812, 4.5600885 51.8845852, 4.5598252 51.8846013, 4.5595296 51.8846291, 4.5591924 51.8846716, 4.5581458 51.8848266, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>383230</t>
+          <t>2064547</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -830,17 +830,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Ridderkerk, Sporthal Drievliet</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bus 183: Rotterdam Kralingse Zoom =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 143: Rotterdam Zuidplein =&gt; Ridderkerk Drievliet</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -851,14 +851,14 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5326664 51.921806, 4.5328002 51.9219914, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5479149 51.8980137, 4.5485747 51.8975964, 4.5487375 51.8974839, 4.5488444 51.897379, 4.5488933 51.8972621, 4.5489196 51.8971507, 4.5489077 51.8970619, 4.5488729 51.8969771, 4.5488177 51.8968981), (4.5488177 51.8968981, 4.5487476 51.8968387, 4.5486356 51.8967748, 4.5484664 51.8967126, 4.5482726 51.8966717, 4.5481199 51.8966541, 4.5479251 51.8966494, 4.547233 51.8966504), (4.547233 51.8966504, 4.5467952 51.8966721, 4.5465439 51.896691, 4.5462845 51.8967191), (4.5462845 51.8967191, 4.5461268 51.8967364), (4.5461268 51.8967364, 4.546009 51.8967487, 4.5458973 51.8967672), (4.5458973 51.8967672, 4.5458275 51.8967838, 4.5457023 51.8968256, 4.5455832 51.8968701, 4.5454467 51.8969435, 4.5453203 51.8970335, 4.5451801 51.8971775, 4.5451243 51.8972607, 4.5450901 51.8973448, 4.5450587 51.8974481, 4.545048 51.8975699, 4.545076 51.8976869, 4.545124 51.8977958), (4.545124 51.8977958, 4.5451662 51.8978642, 4.5452108 51.8979192), (4.5452108 51.8979192, 4.5452709 51.8980302, 4.5453505 51.8981248, 4.5454883 51.8982762, 4.5456368 51.898438, 4.54568 51.8984894, 4.5457353 51.8985458, 4.5458583 51.8986813, 4.5459884 51.8988089, 4.5462656 51.8989648, 4.5472345 51.8994042, 4.547562 51.8995488, 4.5476515 51.8995782, 4.5477379 51.8995856, 4.5478421 51.8995974, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5487738 51.8995215), (4.5500922 51.8993607, 4.5499524 51.8993782, 4.5487738 51.8995215), (4.5513068 51.8992207, 4.5503112 51.8993343, 4.5500922 51.8993607), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.550361 51.8960888, 4.5508161 51.8975901), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5537909 51.8866067, 4.5537511 51.8866954, 4.5534485 51.8874889, 4.5534049 51.8875862), (4.5537909 51.8866067, 4.553608 51.8862373, 4.5535617 51.8861367, 4.5534987 51.8859574, 4.5534857 51.885831, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5241253 51.877511, 4.5240744 51.8775674, 4.5240534 51.8775906, 4.5239828 51.8776682), (4.5242986 51.877321, 4.5242449 51.8773787, 4.524212 51.8774151, 4.5241877 51.8774431, 4.5241253 51.877511), (4.524701 51.8765536, 4.524688 51.876658, 4.524621 51.8769296, 4.5245797 51.8769938, 4.524405 51.8771971, 4.5242986 51.877321), (4.5248415 51.8754574, 4.5248163 51.8756396, 4.5248078 51.8757007, 4.5247946 51.8758005, 4.5247822 51.875888, 4.5247638 51.8760179, 4.5247591 51.8760399, 4.524729 51.8763276, 4.524701 51.8765536), (4.5248415 51.8754574, 4.5248284 51.8753226, 4.5248347 51.8752738, 4.5248697 51.8750019), (4.5244158 51.8748388, 4.5248697 51.8750019), (4.5235807 51.8745336, 4.5236739 51.8745663, 4.5244158 51.8748388), (4.5235218 51.8745134, 4.5235807 51.8745336), (4.5233961 51.8744682, 4.5235218 51.8745134), (4.5233961 51.8744682, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5282131 51.871889, 4.5287592 51.871698, 4.528907 51.8716415, 4.5292342 51.8715389, 4.5294225 51.87147, 4.5300086 51.8712543, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5353732 51.8694084, 4.5351646 51.8694777, 4.5350151 51.8695296, 4.5348653 51.8695826, 4.5346672 51.8696393), (4.5357765 51.8692846, 4.5354618 51.8693812, 4.5353732 51.8694084), (4.536216 51.8687493, 4.5362684 51.8687988, 4.5362839 51.8688321, 4.5363023 51.868918, 4.5362971 51.8689649, 4.5362773 51.8690301, 4.5362198 51.8690913, 4.5361594 51.8691419, 4.5360905 51.8691815, 4.5360075 51.8692153, 4.5357765 51.8692846), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362744 51.8635002, 4.5362616 51.8633186, 4.5362616 51.8632064, 4.5362697 51.863147), (4.5362697 51.863147, 4.5362812 51.8630752, 4.536286 51.8630431, 4.5362926 51.8628241, 4.5362966 51.8627044), (4.5362966 51.8627044, 4.536296 51.8626013), (4.536296 51.8626013, 4.5363036 51.8624724, 4.5363139 51.8620037, 4.5362983 51.8617363, 4.5362945 51.8615858), (4.5362433 51.8593107, 4.5362563 51.8600024, 4.5362603 51.8600793, 4.5362618 51.8602102, 4.5362724 51.8605997, 4.5362764 51.8614328, 4.5362945 51.8615858), (4.5362365 51.8574061, 4.5362365 51.8584422, 4.5362397 51.8589712, 4.5362395 51.8590436, 4.5362409 51.8591443, 4.5362433 51.8593107), (4.5362365 51.8574061, 4.5362074 51.8573266, 4.5361932 51.8572215, 4.5361838 51.856956, 4.5361807 51.8568996, 4.5361744 51.8567876), (4.5361744 51.8567876, 4.5361758 51.856731), (4.5361758 51.856731, 4.5362342 51.8567311, 4.5362769 51.8567288), (4.5362769 51.8567288, 4.5364676 51.8567186, 4.5370489 51.8567172, 4.5372261 51.8567319), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5399866 51.8557707, 4.5401249 51.8556473), (4.5401249 51.8556473, 4.5401548 51.8556288, 4.5402927 51.8555419, 4.5403048 51.8555343, 4.5404479 51.8554431, 4.5404822 51.855421, 4.5405328 51.855388, 4.5407372 51.8552967), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.540196 51.8529447, 4.5403403 51.8530294, 4.5407707 51.8532433, 4.5409889 51.8533411, 4.5410632 51.8533842, 4.5414519 51.8536088, 4.5416457 51.8537492, 4.5421909 51.8542166, 4.5422253 51.8542471, 4.5423018 51.8543125), (4.540196 51.8529447, 4.5400995 51.8529201, 4.5399619 51.8528331, 4.5399439 51.8528217, 4.5397913 51.8527235, 4.5397701 51.8527066), (4.5397701 51.8527066, 4.5396753 51.8527389, 4.5394128 51.8527701, 4.5391576 51.8527685), (4.5391576 51.8527685, 4.5390088 51.8527813, 4.5373411 51.8528389, 4.5371991 51.8528492, 4.5369493 51.8528736), (4.5369493 51.8528736, 4.5367911 51.8529254, 4.5366988 51.8529349, 4.5366052 51.8529506, 4.5365675 51.8529569), (4.5365675 51.8529569, 4.5365412 51.852994, 4.5364964 51.8530236, 4.5364383 51.8530423), (4.5364383 51.8530423, 4.5363685 51.8530478, 4.5363001 51.8530377), (4.5363001 51.8530377, 4.5362427 51.8530136, 4.5362027 51.8529786, 4.5361849 51.8529355, 4.5361903 51.8528989, 4.5362147 51.8528636, 4.536256 51.8528349, 4.5363098 51.8528157), (4.5363098 51.8528157, 4.5363004 51.8527594, 4.5362966 51.8527367, 4.5362914 51.8526419, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362493 51.8502139, 4.5362533 51.850148, 4.5362579 51.8500909, 4.5362583 51.850066), (4.5362583 51.850066, 4.5362045 51.8500497, 4.5361613 51.850024, 4.5361331 51.8499914), (4.5361331 51.8499914, 4.5361226 51.849951, 4.5361349 51.8499108), (4.5361349 51.8499108, 4.5361612 51.8498813, 4.5361998 51.8498575, 4.5362477 51.8498414), (4.5362477 51.8498414, 4.5362413 51.8497777, 4.5362378 51.8497575, 4.5362775 51.8493998), (4.5362704 51.8472999, 4.5362753 51.8473929, 4.5362753 51.8474216, 4.5362775 51.8493998), (4.5362704 51.8472999, 4.5362044 51.8469852, 4.5361875 51.8468626), (4.5361875 51.8468626, 4.5361746 51.8464631, 4.5361751 51.8464019), (4.5361751 51.8464019, 4.5361755 51.8462737), (4.5361755 51.8462737, 4.5361757 51.8462105), (4.5361757 51.8462105, 4.5361762 51.8458772, 4.5361942 51.8454302, 4.536245 51.8453334), (4.5362351 51.8447571, 4.536245 51.8453334), (4.5362351 51.8447571, 4.5361938 51.8446831, 4.5361776 51.8445258, 4.5361763 51.8444877), (4.5361763 51.8444877, 4.5361302 51.8444769, 4.5360903 51.8444589, 4.5360596 51.8444351, 4.5360402 51.844407), (4.5360402 51.844407, 4.53574 51.8443679, 4.5355284 51.8443193), (4.5347077 51.8442632, 4.5348397 51.8442601, 4.5349606 51.8442657, 4.5355284 51.8443193), (4.5333037 51.8442892, 4.5338219 51.8442834, 4.5342277 51.8442759, 4.5347077 51.8442632), (4.5314779 51.8442987, 4.5321761 51.8442991, 4.5324246 51.8442941, 4.5326342 51.8442917, 4.5328468 51.8442931, 4.5333037 51.8442892), (4.5314885 51.8451246, 4.5314882 51.844853, 4.5314792 51.8446802, 4.5314681 51.8444255, 4.5314779 51.8442987), (4.5299127 51.8451429, 4.5304491 51.8451377, 4.5309206 51.8451331, 4.5311141 51.8451293, 4.5314885 51.8451246), (4.5296719 51.8451465, 4.5299127 51.8451429), (4.5277694 51.8451663, 4.5281975 51.8451604, 4.5282487 51.8451597, 4.5283163 51.8451586, 4.5289664 51.8451561, 4.5289928 51.8451552, 4.5291012 51.8451527, 4.5296719 51.8451465), (4.5277671 51.8450377, 4.5277676 51.8450646, 4.5277694 51.8451663), (4.527758 51.8445349, 4.5277585 51.8445616, 4.5277644 51.8448864, 4.5277657 51.8449603, 4.5277671 51.8450377), (4.5276361 51.8436986, 4.5276835 51.8437908, 4.5277152 51.843879, 4.5277539 51.8443623, 4.527758 51.8445349), (4.5276361 51.8436986, 4.5274275 51.8434394), (4.5274275 51.8434394, 4.5273779 51.8434375, 4.5273295 51.8434304, 4.5272838 51.8434183, 4.5272421 51.8434016, 4.5272057 51.8433807, 4.5271755 51.8433563, 4.5271525 51.8433291), (4.5271525 51.8433291, 4.5268841 51.8433386, 4.5266743 51.8433443, 4.5261988 51.8433475, 4.5256616 51.8433816, 4.5251105 51.8434648, 4.5246485 51.8435341, 4.5237206 51.8436692, 4.5231693 51.8437346, 4.5227447 51.8437892), (4.5227447 51.8437892, 4.521619 51.8438964), (4.521619 51.8438964, 4.5211646 51.8439335, 4.5203262 51.8439801, 4.5201535 51.8439897, 4.5198974 51.8440027), (4.5198974 51.8440027, 4.5194902 51.8440214), (4.5194902 51.8440214, 4.5188734 51.8440502), (4.5188734 51.8440502, 4.5178177 51.8440994), (4.5178177 51.8440994, 4.5175376 51.8441108, 4.5173983 51.8441174), (4.5173983 51.8441174, 4.5172328 51.8441251, 4.5168106 51.8441449), (4.5168106 51.8441449, 4.5140426 51.8442647), (4.5140426 51.8442647, 4.5139077 51.8442701, 4.513724 51.844278), (4.513724 51.844278, 4.5135972 51.8442822, 4.5132408 51.8442994), (4.5132408 51.8442994, 4.5122853 51.8443444), (4.5122853 51.8443444, 4.5120019 51.8443673, 4.511644 51.8443838, 4.5107755 51.8444205), (4.5107755 51.8444205, 4.5099405 51.8444576, 4.509745 51.8444751, 4.5094515 51.8445485, 4.50929 51.8446095, 4.5091616 51.8447144), (4.5091616 51.8447144, 4.5091938 51.8447798, 4.5092042 51.8448479, 4.5091931 51.8449142, 4.5091613 51.8449778, 4.50911 51.8450365, 4.5090412 51.8450879), (4.5090412 51.8450879, 4.5089638 51.8451275, 4.5088759 51.8451578, 4.5087806 51.8451778, 4.5086811 51.8451867, 4.5085806 51.8451843, 4.5084824 51.8451707), (4.5084824 51.8451707, 4.5083178 51.8452592, 4.5081458 51.8454758, 4.5080705 51.8457061, 4.5080232 51.8459593, 4.5080166 51.8464374, 4.5081628 51.84798, 4.5081725 51.8480556, 4.5081835 51.8481407), (4.5081835 51.8481407, 4.5081858 51.848222), (4.5081858 51.848222, 4.5082793 51.8490484), (4.5082793 51.8490484, 4.508311 51.8491951), (4.508311 51.8491951, 4.5083977 51.8492137, 4.508472 51.8492471, 4.5085273 51.8492923, 4.508559 51.8493456), (4.508559 51.8493456, 4.5085653 51.8493924, 4.5085531 51.8494388), (4.5085531 51.8494388, 4.5085242 51.8494809, 4.5084801 51.8495176, 4.5084233 51.8495468, 4.5083569 51.849567), (4.5083569 51.849567, 4.5082541 51.849578, 4.5081513 51.8495675), (4.5081513 51.8495675, 4.5080695 51.8495413, 4.5080036 51.8495015, 4.5079528 51.849453, 4.5079407 51.8493958, 4.5079456 51.849349, 4.5079687 51.8493043, 4.5080085 51.8492644, 4.5080627 51.8492316, 4.5081281 51.8492078), (4.5081281 51.8492078, 4.5081542 51.849102, 4.5080693 51.8482396), (4.5080693 51.8482396, 4.5080609 51.848136), (4.5080609 51.848136, 4.5080199 51.8477682, 4.5078881 51.8461491, 4.5079219 51.8458087, 4.5080165 51.8454771, 4.5082127 51.8451675, 4.5082159 51.8450556), (4.5082159 51.8450556, 4.5081619 51.8450037, 4.5081239 51.8449466, 4.5081032 51.8448863, 4.5081004 51.8448247, 4.5081071 51.8447825, 4.5081212 51.844743), (4.5081212 51.844743, 4.5081165 51.8447153, 4.5081083 51.8446876, 4.5080971 51.8446578, 4.5080815 51.8446312, 4.508052 51.8445984, 4.5080251 51.8445701, 4.5080013 51.8445451, 4.5079745 51.8445221), (4.5079745 51.8445221, 4.5079633 51.8445123, 4.5079444 51.8444987, 4.5079075 51.8444763, 4.5078709 51.8444547, 4.5078245 51.8444277, 4.5077789 51.8443989, 4.507654 51.8442933), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.5011258 51.8442847, 4.5010253 51.8443266, 4.5008624 51.8443752, 4.5008003 51.8443921, 4.5005717 51.8444634), (4.5005717 51.8444634, 4.5005701 51.8444922, 4.5005483 51.8445286, 4.5005177 51.8445509, 4.5004545 51.8445786), (4.5004545 51.8445786, 4.5004512 51.8446591, 4.5004557 51.8448558, 4.5004702 51.8449888, 4.5004732 51.8452103, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.500569 51.8460238, 4.5005759 51.8460789, 4.5005822 51.8461653, 4.5006023 51.8463606, 4.5006114 51.846439, 4.5006156 51.8464964, 4.5005798 51.8466531), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005968 51.8470272, 4.5006109 51.8471269, 4.5005521 51.8473367, 4.5004631 51.8475036, 4.5003396 51.8476556, 4.5002013 51.8477813), (4.5002013 51.8477813, 4.5001313 51.8478358, 4.5001098 51.8478526, 4.5000883 51.8478694, 4.5000667 51.8478862, 4.499995 51.8479421), (4.499995 51.8479421, 4.4997806 51.8480715, 4.499629 51.8481465, 4.4994158 51.848224, 4.4992205 51.8482555), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4982664 51.8484549, 4.4981078 51.8485266, 4.4980619 51.8485408, 4.4980211 51.8485509, 4.4979907 51.8485572, 4.4978697 51.8485827, 4.4975776 51.8486428, 4.4974211 51.8486743, 4.4973787 51.848683, 4.4973249 51.8486899, 4.4972833 51.8486954, 4.4970461 51.8487123), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4928811 51.8501276, 4.4927246 51.8502499, 4.4926516 51.8502987, 4.4926155 51.8503186), (4.4926155 51.8503186, 4.492567 51.8503431, 4.492459 51.8503978, 4.4922629 51.8504966, 4.4921699 51.8505319, 4.4919243 51.8506091), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4909165 51.8510154, 4.490719 51.8511204, 4.4906671 51.8511421, 4.4906232 51.8511579, 4.4905678 51.8511796, 4.4905263 51.8511941, 4.4903489 51.8512567, 4.4902448 51.8512922, 4.4901716 51.8513121, 4.4901344 51.8513214, 4.4900957 51.8513298, 4.4900529 51.8513351, 4.4899584 51.8513392, 4.4899082 51.8513385, 4.4898594 51.8513368, 4.4898192 51.8513342, 4.4897837 51.8513301, 4.4897243 51.8513197), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4852424 51.8529589, 4.4852913 51.8529858, 4.4853231 51.8530212, 4.4853341 51.8530611, 4.4853231 51.853101, 4.4852913 51.8531364, 4.4852423 51.8531632), (4.4852423 51.8531632, 4.4851723 51.8531797, 4.4850974 51.8531787, 4.4850287 51.8531603, 4.4849763 51.8531272, 4.4849479 51.8530844), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4745575 51.8569288, 4.474605 51.8569655, 4.4746271 51.8570102, 4.4746207 51.8570578, 4.4745796 51.857105, 4.4745011 51.8571397, 4.474458 51.8571471, 4.4743645 51.8571427, 4.4742753 51.857107), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.471765 51.859785, 4.4717757 51.8598451, 4.4718127 51.860047, 4.4718124 51.8600709, 4.4718145 51.8601245, 4.4718159 51.8601616), (4.4718159 51.8601616, 4.4718724 51.8601823, 4.4719167 51.8602123, 4.4719451 51.8602489), (4.4719451 51.8602489, 4.4720414 51.8602614, 4.4720863 51.8602646, 4.4721582 51.8602672, 4.4733019 51.8603012, 4.4733791 51.8602965, 4.4734322 51.8602912), (4.4734322 51.8602912, 4.473468 51.8602573, 4.4735213 51.8602287, 4.4735863 51.8602117, 4.4736567 51.8602079, 4.4737255 51.8602178, 4.4737859 51.8602404, 4.473832 51.8602734, 4.4738593 51.8603137), (4.4738593 51.8603137, 4.4738657 51.8603444, 4.4738609 51.8603752, 4.4738451 51.8604047, 4.4738245 51.8604268, 4.4737977 51.8604461, 4.4737657 51.8604622), (4.4737657 51.8604622, 4.4737904 51.8605398), (4.4737904 51.8605398, 4.4738155 51.8606328), (4.4738155 51.8606328, 4.4741014 51.8615911), (4.4741014 51.8615911, 4.4744428 51.8626655), (4.4744428 51.8626655, 4.4744963 51.8628223, 4.4748308 51.8635667, 4.4748561 51.8636318), (4.4748561 51.8636318, 4.4749261 51.8636466, 4.4749847 51.8636744, 4.4750142 51.8637016, 4.4750259 51.8637124, 4.4750451 51.8637565, 4.4750436 51.8637715, 4.4750404 51.863802, 4.4750123 51.8638443, 4.4749638 51.8638787), (4.4749638 51.8638787, 4.4750017 51.8639658, 4.4750144 51.8640032, 4.4750704 51.8641367, 4.475233 51.8645218), (4.475233 51.8645218, 4.4752933 51.8646646), (4.4752933 51.8646646, 4.4754627 51.8650657, 4.4762919 51.8671223, 4.4763968 51.8673627, 4.4764328 51.8674299), (4.4764328 51.8674299, 4.4764907 51.8674428, 4.4765395 51.867466, 4.4765746 51.8674972, 4.4765919 51.8675299, 4.4765938 51.8675642, 4.4765754 51.8676047, 4.4765361 51.8676391), (4.4765361 51.8676391, 4.4765326 51.8677499, 4.4765384 51.8677815, 4.4766888 51.8682452, 4.4769296 51.8690926, 4.4774198 51.8711971, 4.4774442 51.8712772), (4.4774442 51.8712772, 4.4775273 51.8712967, 4.477589 51.8713362, 4.4776177 51.8713881, 4.4776083 51.8714419, 4.4775631 51.8714884, 4.4774906 51.8715188), (4.4774906 51.8715188, 4.4775154 51.8715932, 4.4778 51.8727, 4.4779931 51.873565, 4.478021 51.8736674, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5515763 51.8856119, 4.551893 51.8855858, 4.5523292 51.885541, 4.5529925 51.885444, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5580638 51.8847621, 4.5581165 51.8847544, 4.5586696 51.8846721, 4.5590969 51.8846121, 4.559427 51.8845737, 4.5597377 51.8845459, 4.5600613 51.8845315, 4.5603754 51.8845325, 4.5606027 51.8845391), (4.5606027 51.8845391, 4.5609047 51.8845622, 4.5612939 51.8846229), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808539 51.8860094), (4.5808539 51.8860094, 4.5816583 51.8858829, 4.5820105 51.8858158, 4.5828973 51.8855969), (4.5828973 51.8855969, 4.5831876 51.885511), (4.5831876 51.885511, 4.5835267 51.8853972, 4.5842198 51.885121, 4.5858468 51.8844222, 4.5879601 51.8835154, 4.5888663 51.8831043, 4.5892971 51.8828734, 4.5897879 51.882581, 4.5901198 51.8823636, 4.5905132 51.8820931), (4.5905132 51.8820931, 4.5915395 51.8813513), (4.5915395 51.8813513, 4.5926297 51.8806087, 4.5928425 51.8804588), (4.5928425 51.8804588, 4.5917152 51.8798175, 4.5912797 51.8795869, 4.5910282 51.8794502), (4.5903152 51.8789495, 4.5904728 51.8791024, 4.5907214 51.8792848, 4.5910282 51.8794502), (4.5903152 51.8789495, 4.5901557 51.8788033, 4.5900367 51.8786174, 4.5899873 51.8785436), (4.5899873 51.8785436, 4.5899219 51.8785326, 4.589865 51.8785099, 4.589818 51.8784732, 4.5897939 51.8784289, 4.5897934 51.8783899, 4.5898108 51.8783525, 4.5898447 51.8783196, 4.5898923 51.8782939), (4.5898923 51.8782939, 4.5898803 51.8782023, 4.5898926 51.8781003, 4.5898906 51.8779483), (4.5900455 51.8763427, 4.5899066 51.8777485, 4.5898906 51.8779483), (4.5900455 51.8763427, 4.5900252 51.8761076, 4.589991 51.8759486, 4.5899715 51.8758531, 4.589948 51.8757762), (4.589948 51.8757762, 4.5898845 51.8757652, 4.5898291 51.8757431), (4.5898291 51.8757431, 4.5897743 51.8756977, 4.5897543 51.8756424, 4.5897725 51.8755865, 4.5898262 51.8755401), (4.5898262 51.8755401, 4.5897978 51.8754567, 4.5897396 51.8753355, 4.5896572 51.8752307, 4.5895966 51.8751509, 4.5894484 51.8750315, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5986297 51.8719968, 4.598818 51.8720142), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6005942 51.8711482, 4.6005834 51.8710827, 4.6007545 51.8709185, 4.600817 51.8708585), (4.600817 51.8708585, 4.6008858 51.8707925, 4.6010114 51.8707586), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6000875 51.868606, 4.5999607 51.8686449), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5986982 51.8675912, 4.5986528 51.8676009, 4.5986048 51.8676018, 4.5985584 51.8675941, 4.5985178 51.8675782, 4.598494 51.8675618), (4.598494 51.8675618, 4.5984686 51.8675312, 4.5984619 51.8675047, 4.5984668 51.867478, 4.5984831 51.8674531, 4.5985096 51.8674318, 4.5985443 51.8674156), (4.5985443 51.8674156, 4.5985818 51.8674062, 4.598622 51.8674028, 4.5986622 51.8674057, 4.5987 51.8674147, 4.598733 51.8674292, 4.5987671 51.8674556), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6040394 51.8659482, 4.6040236 51.8659148, 4.6040266 51.86588, 4.604048 51.8658478, 4.6040854 51.8658218, 4.6041347 51.8658049), (4.6041347 51.8658049, 4.6041856 51.865799, 4.6042369 51.865803, 4.6042838 51.8658164, 4.6043219 51.865838, 4.6043476 51.8658657, 4.6043587 51.8659039, 4.6043463 51.8659419, 4.6043121 51.8659745, 4.604261 51.8659971), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.6052897 51.867058, 4.6053952 51.867092, 4.6057101 51.8672583, 4.6059378 51.8673591, 4.6061161 51.867439, 4.6061637 51.8674603, 4.6062881 51.8675197), (4.6062881 51.8675197, 4.6063748 51.8675047, 4.6064639 51.8675126), (4.6064639 51.8675126, 4.6065697 51.8674438, 4.6066151 51.8674195, 4.6067548 51.8673448, 4.6069127 51.8673049), (4.6110534 51.8667243, 4.6082034 51.8669911, 4.6079327 51.8670186, 4.6076943 51.8670488, 4.607492 51.8670898, 4.6073108 51.8671398, 4.607179 51.8671852, 4.6070466 51.8672395, 4.6069127 51.8673049), (4.6110534 51.8667243, 4.6112142 51.8666911, 4.611479 51.8666502, 4.6115325 51.8666406, 4.611649 51.8666182), (4.611649 51.8666182, 4.6116523 51.8665998, 4.6116606 51.8665821, 4.611691 51.8665512, 4.6117219 51.8665341, 4.6117586 51.8665222, 4.6117976 51.8665162, 4.6118396 51.8665162, 4.6118776 51.8665218, 4.6119201 51.866536, 4.6119525 51.8665555, 4.6119754 51.8665796), (4.6119754 51.8665796, 4.6121023 51.8665742, 4.6121586 51.8665733, 4.6124053 51.8665696, 4.6126315 51.8665623), (4.616425 51.8663185, 4.614839 51.8663614, 4.6145098 51.8663731, 4.6142231 51.8663981, 4.6131844 51.8665053, 4.6130919 51.8665148, 4.6127577 51.8665493, 4.6126315 51.8665623), (4.616425 51.8663185, 4.6165933 51.8662999, 4.6171875 51.8662691, 4.6172966 51.8662677), (4.6172966 51.8662677, 4.6173045 51.8662416, 4.6173227 51.8662175, 4.6173501 51.8661969, 4.617381 51.8661825, 4.6174128 51.8661735, 4.6174502 51.8661684, 4.6174885 51.8661685, 4.6175225 51.8661731, 4.6175519 51.866181, 4.6175818 51.8661939, 4.6176077 51.8662113, 4.6176261 51.866231, 4.6176374 51.8662526), (4.6176374 51.8662526, 4.6177665 51.8662401, 4.6178113 51.8662399, 4.6181866 51.8662482, 4.618367 51.866267), (4.6194177 51.8662374, 4.6193385 51.8662396, 4.618367 51.866267))</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>383253</t>
+          <t>383137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ridderkerk, Peterselieweg</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bus 187: Rotterdam Zuidplein =&gt; Ridderkerk Nieuw-Reijerwaard</t>
+          <t>Bus 144: Ridderkerk Drievliet =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -889,14 +889,14 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5220097 51.8769687, 4.522013 51.8769323, 4.5220595 51.8765436, 4.522117 51.876008, 4.5221632 51.8756371, 4.5222052 51.8755429, 4.5222702 51.8754551, 4.5227598 51.8750424, 4.5232827 51.8745843, 4.5233961 51.8744682), (4.5233961 51.8744682, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5282131 51.871889, 4.5287592 51.871698, 4.528907 51.8716415, 4.5292342 51.8715389, 4.5294225 51.87147, 4.5300086 51.8712543, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5348068 51.869543, 4.5349507 51.8694684, 4.5353282 51.8693549), (4.5353282 51.8693549, 4.535419 51.8693301, 4.5357387 51.8692299), (4.5357387 51.8692299, 4.5358962 51.8691815, 4.5360179 51.8691419, 4.536083 51.8691058, 4.5361453 51.8690587, 4.5361792 51.8690086, 4.5361952 51.8689713, 4.5362062 51.8689163, 4.5362056 51.8688542, 4.536216 51.8687493), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362744 51.8635002, 4.5362616 51.8633186, 4.5362616 51.8632064, 4.5362697 51.863147), (4.5362697 51.863147, 4.5362812 51.8630752, 4.536286 51.8630431, 4.5362926 51.8628241, 4.5362966 51.8627044), (4.5362966 51.8627044, 4.536296 51.8626013), (4.536296 51.8626013, 4.5364308 51.8626027), (4.5364308 51.8626027, 4.536664 51.8626149, 4.5392029 51.8626095), (4.5392029 51.8626095, 4.5398481 51.8626138, 4.5399181 51.862614, 4.5400276 51.8626117, 4.5402608 51.8626087, 4.5403332 51.8626063, 4.5404121 51.8625978, 4.5404607 51.8625883, 4.5405135 51.8625725, 4.5405469 51.8625628), (4.5405469 51.8625628, 4.5405997 51.8625503, 4.540664 51.8625411, 4.5407204 51.8625381), (4.5407204 51.8625381, 4.5408365 51.8625472, 4.5409348 51.8625619), (4.5409348 51.8625619, 4.5410088 51.862584, 4.5410758 51.862609, 4.541149 51.8626323, 4.5411817 51.8626407, 4.5412143 51.8626476, 4.5414392 51.8626853), (4.5414392 51.8626853, 4.5420853 51.8627376, 4.542604 51.8628012, 4.5430978 51.862874, 4.5438342 51.8630141, 4.5446021 51.8631821), (4.5446021 51.8631821, 4.5458815 51.8634585), (4.5458815 51.8634585, 4.548304 51.863969), (4.548304 51.863969, 4.5488128 51.8640434, 4.5492882 51.8641388), (4.5492882 51.8641388, 4.5497528 51.8642429, 4.549834 51.8642567, 4.5500764 51.8642987), (4.5500764 51.8642987, 4.5501432 51.864173, 4.550358 51.8638305, 4.5507955 51.8631964), (4.5507955 51.8631964, 4.5509711 51.8629769, 4.5511424 51.8627512), (4.5520563 51.8611582, 4.5520681 51.8612195, 4.5520281 51.8613049, 4.5520121 51.8613311, 4.5511424 51.8627512), (4.5508571 51.860807, 4.5508952 51.8608225, 4.5509467 51.8608348, 4.5512701 51.8609103, 4.5519789 51.86108, 4.5520319 51.8611151, 4.5520563 51.8611582), (4.5507887 51.8607757, 4.5508142 51.8607874, 4.5508571 51.860807), (4.5506141 51.8597351, 4.5506958 51.8597827, 4.5509626 51.859847, 4.5510556 51.8598661, 4.5511173 51.8598964, 4.5511414 51.8599374, 4.5511411 51.8599836, 4.5509428 51.8603519, 4.5507743 51.8606998, 4.5507887 51.8607757), (4.5519497 51.8569918, 4.5518 51.8572, 4.5515388 51.8575051, 4.5513508 51.8577484, 4.5510448 51.8581022, 4.5507199 51.8584779, 4.5502 51.8591, 4.5501731 51.8591489, 4.5501772 51.859205, 4.5506141 51.8597351), (4.5523898 51.8564599, 4.5520435 51.8568647, 4.5519497 51.8569918), (4.5523898 51.8564599, 4.5524226 51.8563965, 4.552521 51.8563093, 4.5527489 51.8561141), (4.5527489 51.8561141, 4.5528159 51.8560968, 4.5528419 51.8560901, 4.5529052 51.8560738, 4.5530031 51.8560416, 4.5530395 51.8560297), (4.5530395 51.8560297, 4.5530808 51.8559574, 4.5531686 51.8559129, 4.5532802 51.8558995), (4.5532802 51.8558995, 4.5533439 51.855843, 4.5533583 51.8558238, 4.5533777 51.8558006, 4.5535564 51.8555826, 4.5536844 51.8554756), (4.5555626 51.8538535, 4.5554626 51.8538366, 4.5553353 51.8538296, 4.5552296 51.8538424, 4.5551268 51.8538721, 4.5550523 51.8539071, 4.5549269 51.8540044, 4.5547769 51.8541477, 4.5546599 51.8542759, 4.5538488 51.8552651, 4.5537648 51.8553694, 4.5536844 51.8554756), (4.5555626 51.8538535, 4.5557541 51.8538809, 4.5560097 51.8539042, 4.5561625 51.8539298, 4.5563078 51.8539607, 4.5564379 51.8539921, 4.5568784 51.8541005, 4.5572991 51.8541827, 4.5575547 51.854231, 4.5580925 51.8543319, 4.5585776 51.8544204, 4.5589429 51.8544793, 4.5593761 51.8545328, 4.5595742 51.8545462, 4.5598581 51.8545538, 4.5601146 51.8545511), (4.5601146 51.8545511, 4.560107 51.8549246, 4.5597534 51.855469, 4.5590261 51.856616, 4.5586345 51.8567485, 4.5589272 51.8570873, 4.5589462 51.8571091, 4.5589918 51.8571588, 4.5591152 51.8572317, 4.5593137 51.8572947, 4.5606835 51.8576638, 4.5607999 51.8576979), (4.5607999 51.8576979, 4.5609471 51.8577088, 4.5609825 51.8577167), (4.5609825 51.8577167, 4.5611525 51.857757, 4.5611787 51.8577628), (4.5611787 51.8577628, 4.5617211 51.8570472), (4.5617211 51.8570472, 4.5621091 51.8565567, 4.5622602 51.8564029), (4.5622602 51.8564029, 4.5626244 51.8564899, 4.562894 51.8565646), (4.562894 51.8565646, 4.5631572 51.8566354, 4.5636108 51.8567755, 4.5637729 51.8568302, 4.563843 51.8568466, 4.5639471 51.8568757, 4.5640632 51.8569123, 4.5640949 51.8569436, 4.5641144 51.8569737, 4.5641202 51.8569919, 4.5641181 51.8570291, 4.5641155 51.8570748, 4.5640989 51.8571253, 4.5638313 51.857478, 4.5636721 51.8576879, 4.5636078 51.8577727, 4.5635673 51.8578261, 4.5632737 51.858213, 4.5629627 51.8586332, 4.5619289 51.8600301), (4.5619289 51.8600301, 4.5618877 51.8600983, 4.5618081 51.8601898, 4.5616728 51.8602433), (4.5616728 51.8602433, 4.5630551 51.8608758), (4.5630551 51.8608758, 4.5637878 51.8612112, 4.5645197 51.8615463), (4.5645197 51.8615463, 4.5646906 51.8616434, 4.5647848 51.861715, 4.5648719 51.8618002, 4.564923 51.8618645, 4.5649652 51.8619319, 4.5650159 51.8620575, 4.5650333 51.8621711, 4.5650294 51.8622565, 4.5649873 51.8624822), (4.5649873 51.8624822, 4.5649768 51.8626052), (4.5649768 51.8626052, 4.5649722 51.8626586, 4.5649843 51.8627597, 4.5650165 51.8628436, 4.5650605 51.8629271, 4.565184 51.8630505, 4.5652342 51.8630886, 4.5653479 51.8631713), (4.5653479 51.8631713, 4.5655419 51.8632872, 4.566458 51.8638223, 4.5670052 51.864138, 4.5675019 51.8644263, 4.5676733 51.8645258, 4.5678156 51.8646084, 4.5681119 51.8647803, 4.5683123 51.8648966, 4.56844 51.8649709), (4.56844 51.8649709, 4.5686379 51.865086))</t>
+          <t>MULTILINESTRING ((4.6207999 51.8658198, 4.6208634 51.865973, 4.6208744 51.8660041, 4.6209144 51.8660997), (4.6209144 51.8660997, 4.620945 51.8661035, 4.6209799 51.8661123, 4.6210272 51.8661354), (4.6210272 51.8661354, 4.6210477 51.8661528, 4.6210617 51.866171, 4.6210699 51.8661903, 4.6210722 51.8662116), (4.6210722 51.8662116, 4.6210637 51.8662421, 4.6210417 51.8662698, 4.6210002 51.8662964), (4.6210002 51.8662964, 4.6210209 51.8663733, 4.6210255 51.8663904, 4.6210608 51.8665215, 4.6210549 51.8665995), (4.6210549 51.8665995, 4.6211706 51.866921, 4.6211761 51.8670767, 4.621152 51.8671758, 4.6210449 51.8672787, 4.6206679 51.8675812, 4.6205192 51.8677005), (4.6143716 51.869073, 4.6147226 51.8690314, 4.615024 51.8690422, 4.6152608 51.8690827, 4.6154801 51.8691477, 4.6157169 51.8692424, 4.6161573 51.8694483, 4.6162358 51.8694859, 4.6165017 51.8696104, 4.6170348 51.8698647, 4.6171442 51.8699168, 4.6173092 51.8699802, 4.6175592 51.870004, 4.6177862 51.8699844, 4.6180271 51.8698794, 4.6182374 51.8696988, 4.6183137 51.8696392, 4.6186553 51.8693572, 4.6191454 51.8689605, 4.6192822 51.8688502, 4.6196757 51.8685357, 4.6199592 51.8681874, 4.619996 51.8681422, 4.6202549 51.8679236, 4.6203351 51.867851, 4.6205192 51.8677005), (4.6143716 51.869073, 4.6142547 51.8690928, 4.6140284 51.8691368, 4.6129838 51.8693434, 4.6127725 51.8693824, 4.6126818 51.8694016, 4.6126478 51.8694088, 4.6117392 51.8695892, 4.6115148 51.8696359, 4.6114208 51.869674, 4.611334 51.8697301, 4.6112 51.8699, 4.6111102 51.8700307), (4.6111102 51.8700307, 4.6110109 51.8701791, 4.6109185 51.8702614, 4.6107786 51.8703212, 4.61058 51.8703602, 4.6104153 51.8703923, 4.6101383 51.870449), (4.6101383 51.870449, 4.610023 51.8704934, 4.6097727 51.8705504, 4.6096339 51.8705875), (4.6096339 51.8705875, 4.6096194 51.8706215, 4.6095869 51.8706503, 4.609542 51.8706701, 4.609489 51.8706795, 4.6094339 51.8706775, 4.609374 51.8706605, 4.6093298 51.8706303, 4.6093085 51.8705917, 4.6093136 51.8705512, 4.6093442 51.8705151), (4.6093442 51.8705151, 4.6093151 51.8704256, 4.6092849 51.8703344, 4.6092071 51.8701493, 4.6090282 51.8698515, 4.6087839 51.8695019, 4.6085632 51.8691416, 4.6084362 51.8689734, 4.6082486 51.868782, 4.6081663 51.868695, 4.6080153 51.8685772, 4.6077533 51.8684159, 4.6070115 51.8680116, 4.60667 51.8678377, 4.6066142 51.8678093, 4.6064885 51.8677583), (4.6064885 51.8677583, 4.6064182 51.8677719, 4.6063447 51.8677703, 4.6062762 51.8677537, 4.6062206 51.8677238, 4.6061843 51.8676843, 4.6061714 51.8676395, 4.6061835 51.8675947), (4.6061835 51.8675947, 4.6060785 51.8675283, 4.6060338 51.867502, 4.6059054 51.8674263, 4.6056642 51.8672999, 4.6053586 51.8671186, 4.6052897 51.867058), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.604261 51.8659971, 4.6041981 51.8660065, 4.604134 51.8660005, 4.6040784 51.8659801, 4.6040394 51.8659482), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.5987671 51.8674556, 4.5987781 51.8674734, 4.5987852 51.8675006, 4.5987799 51.8675281, 4.5987626 51.8675536, 4.5987347 51.8675752, 4.5986982 51.8675912), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.6000875 51.868606, 4.5999607 51.8686449), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6010114 51.8707586, 4.6010146 51.8708408, 4.6008982 51.8709489, 4.6007502 51.8710864), (4.6007502 51.8710864, 4.6007102 51.8711237, 4.6005942 51.8711482), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5986297 51.8719968, 4.598818 51.8720142), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5893205 51.8749147, 4.5894396 51.8749746, 4.5895977 51.8750793, 4.5897017 51.8751857, 4.5897606 51.8752496, 4.5899099 51.8754155, 4.5899197 51.8754278, 4.5899725 51.8755045), (4.5899725 51.8755045, 4.5900546 51.8755136, 4.5901254 51.8755408), (4.5901254 51.8755408, 4.590275 51.8755342, 4.590498 51.8754839, 4.5906565 51.8754612, 4.5907951 51.875467, 4.5909373 51.8755089), (4.5909373 51.8755089, 4.5910262 51.8755293, 4.59149 51.8756617), (4.59149 51.8756617, 4.5918202 51.8757545), (4.5918202 51.8757545, 4.5936102 51.8762562, 4.5948943 51.8766301, 4.5951338 51.8767003), (4.5951338 51.8767003, 4.5954281 51.8767817, 4.5954703 51.8767931, 4.5957716 51.8768809), (4.5957716 51.8768809, 4.5959206 51.8769321, 4.5961121 51.8770125), (4.5961121 51.8770125, 4.5963493 51.8771313), (4.5963493 51.8771313, 4.5971302 51.8775374), (4.5971302 51.8775374, 4.5974007 51.877677), (4.5974007 51.877677, 4.5981919 51.8780842), (4.5981919 51.8780842, 4.5987327 51.8783819, 4.5994525 51.8787881), (4.5994525 51.8787881, 4.5995191 51.8788386, 4.5995511 51.8788816, 4.5995644 51.878936), (4.599887 51.8789464, 4.5995644 51.878936), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6042362 51.8853311, 4.6039447 51.8855064), (4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5812821 51.8874099, 4.5811075 51.8870851, 4.5810465 51.8869849), (4.5810465 51.8869849, 4.5809754 51.8868492), (4.5809754 51.8868492, 4.5809061 51.8867458, 4.5808705 51.8866689, 4.5808174 51.8865241), (4.5808174 51.8865241, 4.580793 51.8864537, 4.5807735 51.8864015), (4.5807735 51.8864015, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664852 51.8857136, 4.5660094 51.8855779, 4.5655691 51.8854499), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5631299 51.884958, 4.563184 51.8849679), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5612939 51.8846229, 4.560959 51.8846024, 4.5605985 51.8845823), (4.5605985 51.8845823, 4.5603966 51.8845812, 4.5600885 51.8845852, 4.5598252 51.8846013, 4.5595296 51.8846291, 4.5591924 51.8846716, 4.5581458 51.8848266, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>383254</t>
+          <t>383138</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Ridderkerk, Sporthal Drievliet</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bus 187: Ridderkerk Nieuw-Reijerwaard =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 144: Rotterdam Zuidplein =&gt; Ridderkerk Drievliet</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -927,14 +927,14 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5653479 51.8631713, 4.5655419 51.8632872, 4.566458 51.8638223, 4.5670052 51.864138, 4.5675019 51.8644263, 4.5676733 51.8645258, 4.5678156 51.8646084, 4.5681119 51.8647803, 4.5683123 51.8648966, 4.56844 51.8649709), (4.5649768 51.8626052, 4.5649722 51.8626586, 4.5649843 51.8627597, 4.5650165 51.8628436, 4.5650605 51.8629271, 4.565184 51.8630505, 4.5652342 51.8630886, 4.5653479 51.8631713), (4.5649873 51.8624822, 4.5649768 51.8626052), (4.5645197 51.8615463, 4.5646906 51.8616434, 4.5647848 51.861715, 4.5648719 51.8618002, 4.564923 51.8618645, 4.5649652 51.8619319, 4.5650159 51.8620575, 4.5650333 51.8621711, 4.5650294 51.8622565, 4.5649873 51.8624822), (4.5630551 51.8608758, 4.5637878 51.8612112, 4.5645197 51.8615463), (4.5616728 51.8602433, 4.5630551 51.8608758), (4.5616728 51.8602433, 4.5615806 51.8602813, 4.5614592 51.8603424, 4.5613756 51.8604061), (4.5613756 51.8604061, 4.5612845 51.8605017), (4.5612845 51.8605017, 4.5607601 51.8611781, 4.5597878 51.8624842), (4.5589909 51.8622564, 4.5595488 51.8624157, 4.5597878 51.8624842), (4.5589909 51.8622564, 4.5588152 51.8622431, 4.558489 51.8621624), (4.558489 51.8621624, 4.5584022 51.8620749), (4.5584022 51.8620749, 4.5586466 51.8617406, 4.558893 51.8614973), (4.558893 51.8614973, 4.5597551 51.8602932, 4.5599282 51.8600605), (4.5599282 51.8600605, 4.5599846 51.8599336, 4.5600929 51.8597415), (4.5600929 51.8597415, 4.5600486 51.8596987, 4.560026 51.859646, 4.5600288 51.859597, 4.5600582 51.8595411, 4.5601071 51.859476), (4.5601071 51.859476, 4.5601656 51.8594077, 4.5602356 51.8593572), (4.5602356 51.8593572, 4.560314 51.8593341, 4.5603691 51.8593314), (4.5603691 51.8593314, 4.5604466 51.8592665, 4.5604625 51.8592515, 4.5606365 51.8590367, 4.5607786 51.8588672), (4.5607786 51.8588672, 4.5608186 51.858768, 4.5608769 51.8584742), (4.5608769 51.8584742, 4.5608811 51.8583045, 4.5609365 51.8581439, 4.5609916 51.8580429, 4.5611211 51.8578428), (4.5611211 51.8578428, 4.5609691 51.8577913, 4.5609362 51.8577798), (4.5609362 51.8577798, 4.5607999 51.8576979), (4.5601146 51.8545511, 4.560107 51.8549246, 4.5597534 51.855469, 4.5590261 51.856616, 4.5586345 51.8567485, 4.5589272 51.8570873, 4.5589462 51.8571091, 4.5589918 51.8571588, 4.5591152 51.8572317, 4.5593137 51.8572947, 4.5606835 51.8576638, 4.5607999 51.8576979), (4.5555626 51.8538535, 4.5557541 51.8538809, 4.5560097 51.8539042, 4.5561625 51.8539298, 4.5563078 51.8539607, 4.5564379 51.8539921, 4.5568784 51.8541005, 4.5572991 51.8541827, 4.5575547 51.854231, 4.5580925 51.8543319, 4.5585776 51.8544204, 4.5589429 51.8544793, 4.5593761 51.8545328, 4.5595742 51.8545462, 4.5598581 51.8545538, 4.5601146 51.8545511), (4.5555626 51.8538535, 4.5554626 51.8538366, 4.5553353 51.8538296, 4.5552296 51.8538424, 4.5551268 51.8538721, 4.5550523 51.8539071, 4.5549269 51.8540044, 4.5547769 51.8541477, 4.5546599 51.8542759, 4.5538488 51.8552651, 4.5537648 51.8553694, 4.5536844 51.8554756), (4.5536844 51.8554756, 4.5536073 51.8555943, 4.5535249 51.8557443, 4.5534921 51.8557904, 4.5534709 51.8558201, 4.5534554 51.8558477, 4.5534172 51.8559074, 4.5534046 51.8559271), (4.5534046 51.8559271, 4.5534733 51.8559767, 4.5534992 51.85604, 4.553477 51.8561038), (4.553477 51.8561038, 4.5534193 51.8561508, 4.5533357 51.8561795), (4.5533357 51.8561795, 4.5532277 51.8561838, 4.5531282 51.8561573, 4.5530591 51.8561058), (4.5530591 51.8561058, 4.5529724 51.8561291, 4.5529405 51.856138, 4.5528784 51.8561565, 4.5528219 51.8561737), (4.5528219 51.8561737, 4.5527428 51.8562223, 4.5524698 51.8564245, 4.5523898 51.8564599), (4.5523898 51.8564599, 4.5520435 51.8568647, 4.5519497 51.8569918), (4.5519497 51.8569918, 4.5518 51.8572, 4.5515388 51.8575051, 4.5513508 51.8577484, 4.5510448 51.8581022, 4.5507199 51.8584779, 4.5502 51.8591, 4.5501731 51.8591489, 4.5501772 51.859205, 4.5506141 51.8597351), (4.5506141 51.8597351, 4.5506958 51.8597827, 4.5509626 51.859847, 4.5510556 51.8598661, 4.5511173 51.8598964, 4.5511414 51.8599374, 4.5511411 51.8599836, 4.5509428 51.8603519, 4.5507743 51.8606998, 4.5507887 51.8607757), (4.5507887 51.8607757, 4.5508142 51.8607874, 4.5508571 51.860807), (4.5508571 51.860807, 4.5508952 51.8608225, 4.5509467 51.8608348, 4.5512701 51.8609103, 4.5519789 51.86108, 4.5520319 51.8611151, 4.5520563 51.8611582), (4.5520563 51.8611582, 4.5520681 51.8612195, 4.5520281 51.8613049, 4.5520121 51.8613311, 4.5511424 51.8627512), (4.5511424 51.8627512, 4.5510355 51.8629852, 4.5509053 51.8632188), (4.5509053 51.8632188, 4.5504951 51.8638736, 4.5503396 51.8641309, 4.5502979 51.8642083, 4.55023 51.8643262), (4.55023 51.8643262, 4.5501837 51.8644101), (4.5501837 51.8644101, 4.55004 51.8643817), (4.55004 51.8643817, 4.5497956 51.8643366, 4.548888 51.8641231, 4.548304 51.863969), (4.5458815 51.8634585, 4.548304 51.863969), (4.5446021 51.8631821, 4.5458815 51.8634585), (4.5414392 51.8626853, 4.5420853 51.8627376, 4.542604 51.8628012, 4.5430978 51.862874, 4.5438342 51.8630141, 4.5446021 51.8631821), (4.5414392 51.8626853, 4.5412149 51.8627, 4.5411354 51.86271, 4.5410803 51.862717, 4.540969 51.8627442), (4.540969 51.8627442, 4.5408658 51.8627622, 4.5407864 51.862768), (4.5407864 51.862768, 4.54075 51.8627686, 4.5406656 51.8627602, 4.5405806 51.8627424), (4.5405806 51.8627424, 4.5405265 51.8627328, 4.540465 51.8627125, 4.5403967 51.8626897, 4.5403283 51.8626757, 4.540249 51.8626602, 4.5401305 51.8626522, 4.5400581 51.8626541, 4.5397025 51.8626672, 4.539446 51.8626825), (4.539446 51.8626825, 4.5387863 51.8626974), (4.5387863 51.8626974, 4.5383983 51.8627052, 4.5380137 51.8627067, 4.537025 51.8627003, 4.5367745 51.8627001, 4.5366621 51.8626995, 4.5364322 51.8627023), (4.5364322 51.8627023, 4.5364352 51.8628252, 4.5364269 51.8629148, 4.5364224 51.8629924, 4.5364148 51.8630358, 4.5364 51.8630843, 4.5363105 51.8633919, 4.5362744 51.8635002), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.536216 51.8687493, 4.5362684 51.8687988, 4.5362839 51.8688321, 4.5363023 51.868918, 4.5362971 51.8689649, 4.5362773 51.8690301, 4.5362198 51.8690913, 4.5361594 51.8691419, 4.5360905 51.8691815, 4.5360075 51.8692153, 4.5357765 51.8692846), (4.5357765 51.8692846, 4.5354618 51.8693812, 4.5353732 51.8694084), (4.5353732 51.8694084, 4.5351646 51.8694777, 4.5350151 51.8695296, 4.5348653 51.8695826, 4.5346672 51.8696393), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5301922 51.8712078, 4.5300378 51.8712823, 4.5298383 51.8713552, 4.5296118 51.8714681, 4.5294845 51.871529, 4.5292887 51.8715998, 4.5287904 51.8717275, 4.5282423 51.8719334, 4.5280262 51.8719879), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5238862 51.873997, 4.5236198 51.8744114, 4.5235218 51.8745134), (4.5235218 51.8745134, 4.5233981 51.874623, 4.5231536 51.8747956, 4.5228931 51.8750825, 4.5224919 51.8755244, 4.5224352 51.8756277, 4.5223374 51.8760321, 4.5221909 51.876547, 4.5221453 51.8769064, 4.5221413 51.8769382, 4.5221367 51.8769739, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5221374 51.8771528, 4.5221362 51.8771869, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5515763 51.8856119, 4.551893 51.8855858, 4.5523292 51.885541, 4.5529925 51.885444, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5580638 51.8847621, 4.5581165 51.8847544, 4.5586696 51.8846721, 4.5590969 51.8846121, 4.559427 51.8845737, 4.5597377 51.8845459, 4.5600613 51.8845315, 4.5603754 51.8845325, 4.5606027 51.8845391), (4.5606027 51.8845391, 4.5609047 51.8845622, 4.5612939 51.8846229), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.5809091 51.8861627), (4.5809091 51.8861627, 4.5809785 51.8863676), (4.5809785 51.8863676, 4.5810226 51.8864773), (4.5810226 51.8864773, 4.5810698 51.8865952, 4.5811086 51.8867042, 4.5811475 51.8868252, 4.5811566 51.8868801, 4.5811788 51.8870463, 4.5812821 51.8874099), (4.5812821 51.8874099, 4.5813918 51.8876576), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5933845 51.890308, 4.5929306 51.8903412, 4.592564 51.890383, 4.5920788 51.890483, 4.5915819 51.8906196, 4.5906 51.8909, 4.5894439 51.891235, 4.5894168 51.8912428, 4.5888584 51.891437, 4.5883015 51.8916696, 4.5879633 51.891814, 4.5876068 51.892, 4.5872359 51.8922151, 4.5868224 51.8925033, 4.58642 51.89281, 4.5860671 51.893127, 4.5857476 51.8934049, 4.585379 51.8937454), (4.5936899 51.8902784, 4.5936251 51.8902857, 4.5933845 51.890308), (4.6011404 51.8890979, 4.6010625 51.8891205, 4.6004401 51.8890928, 4.6001834 51.8890956, 4.5998728 51.8891147, 4.5995464 51.8891408, 4.5984164 51.8892602, 4.5982108 51.8892957, 4.5980146 51.8893347, 4.5972973 51.8895043, 4.5970953 51.8895497, 4.596855 51.8895852, 4.5963443 51.8896507, 4.5960131 51.8897061, 4.5956641 51.8897835, 4.5953622 51.8898703, 4.5949136 51.890016, 4.5947105 51.8900798, 4.5944964 51.8901386, 4.5941254 51.8902171, 4.5939229 51.8902504, 4.5936899 51.8902784), (4.600442 51.8869949, 4.6007048 51.8873446, 4.6009 51.8877, 4.6011 51.8884, 4.6011448 51.8885503, 4.6011723 51.8887229, 4.6011615 51.8890175, 4.6011575 51.8890672, 4.6011404 51.8890979), (4.6013386 51.8867645, 4.600702 51.8869269, 4.6006395 51.8869432, 4.600442 51.8869949), (4.6033083 51.8858379, 4.6028641 51.8860775, 4.6025632 51.886242, 4.6019601 51.8865735, 4.6018495 51.8866239, 4.6017291 51.8866608, 4.6013386 51.8867645), (4.6039447 51.8855064, 4.6036423 51.885662, 4.6034551 51.8857638, 4.6033083 51.8858379), (4.6042362 51.8853311, 4.6039447 51.8855064), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.599887 51.8789464, 4.5995644 51.878936), (4.5994525 51.8787881, 4.5995191 51.8788386, 4.5995511 51.8788816, 4.5995644 51.878936), (4.5981919 51.8780842, 4.5987327 51.8783819, 4.5994525 51.8787881), (4.5974007 51.877677, 4.5981919 51.8780842), (4.5971302 51.8775374, 4.5974007 51.877677), (4.5963493 51.8771313, 4.5971302 51.8775374), (4.5961121 51.8770125, 4.5963493 51.8771313), (4.5957716 51.8768809, 4.5959206 51.8769321, 4.5961121 51.8770125), (4.5951338 51.8767003, 4.5954281 51.8767817, 4.5954703 51.8767931, 4.5957716 51.8768809), (4.5918202 51.8757545, 4.5936102 51.8762562, 4.5948943 51.8766301, 4.5951338 51.8767003), (4.59149 51.8756617, 4.5918202 51.8757545), (4.5909373 51.8755089, 4.5910262 51.8755293, 4.59149 51.8756617), (4.5909373 51.8755089, 4.5907989 51.8755188, 4.5905621 51.8755608, 4.590324 51.8756104, 4.5901957 51.8756328), (4.5901957 51.8756328, 4.5901861 51.8756814, 4.5901493 51.8757247, 4.5900901 51.8757573), (4.5900901 51.8757573, 4.5900216 51.8757742, 4.589948 51.8757762), (4.589948 51.8757762, 4.5898845 51.8757652, 4.5898291 51.8757431), (4.5898291 51.8757431, 4.5897743 51.8756977, 4.5897543 51.8756424, 4.5897725 51.8755865, 4.5898262 51.8755401), (4.5898262 51.8755401, 4.5897978 51.8754567, 4.5897396 51.8753355, 4.5896572 51.8752307, 4.5895966 51.8751509, 4.5894484 51.8750315, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5986297 51.8719968, 4.598818 51.8720142), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6005942 51.8711482, 4.6005834 51.8710827, 4.6007545 51.8709185, 4.600817 51.8708585), (4.600817 51.8708585, 4.6008858 51.8707925, 4.6010114 51.8707586), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6000875 51.868606, 4.5999607 51.8686449), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5986982 51.8675912, 4.5986528 51.8676009, 4.5986048 51.8676018, 4.5985584 51.8675941, 4.5985178 51.8675782, 4.598494 51.8675618), (4.598494 51.8675618, 4.5984686 51.8675312, 4.5984619 51.8675047, 4.5984668 51.867478, 4.5984831 51.8674531, 4.5985096 51.8674318, 4.5985443 51.8674156), (4.5985443 51.8674156, 4.5985818 51.8674062, 4.598622 51.8674028, 4.5986622 51.8674057, 4.5987 51.8674147, 4.598733 51.8674292, 4.5987671 51.8674556), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6040394 51.8659482, 4.6040236 51.8659148, 4.6040266 51.86588, 4.604048 51.8658478, 4.6040854 51.8658218, 4.6041347 51.8658049), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6025656 51.8634085, 4.6023999 51.8635276), (4.6027708 51.8633057, 4.602693 51.8633277, 4.6026379 51.8633548, 4.6025656 51.8634085), (4.6031926 51.8632156, 4.6029494 51.8632676, 4.6027708 51.8633057), (4.6033256 51.8631872, 4.6031926 51.8632156), (4.6064038 51.8625382, 4.6059425 51.8626344, 4.605177 51.8627959, 4.6048704 51.8628606, 4.603602 51.8631282, 4.6034995 51.8631501, 4.6033256 51.8631872), (4.6070566 51.8623983, 4.606629 51.8624916, 4.6064038 51.8625382), (4.6106179 51.8627, 4.6105227 51.862631, 4.6103951 51.8625384, 4.6103362 51.8624956, 4.6100648 51.8622987, 4.6100461 51.8622852, 4.6099106 51.8621869, 4.6098575 51.8621689, 4.6093668 51.8622562, 4.6089933 51.8623283, 4.6083025 51.8624704, 4.6081351 51.8625065, 4.6077637 51.8625842, 4.6073574 51.862666, 4.6070923 51.8624285, 4.6070566 51.8623983), (4.6126874 51.8619376, 4.6125576 51.8619662, 4.6119923 51.8620943, 4.6118391 51.8621311, 4.6115195 51.862208, 4.6113138 51.8623181, 4.6111931 51.8623837, 4.610765 51.8626162, 4.6106179 51.8627), (4.6126874 51.8619376, 4.6130509 51.8618449, 4.6131626 51.8618171, 4.6133016 51.8617791, 4.6133906 51.8617735, 4.6140873 51.861773, 4.6142136 51.8617765, 4.6148906 51.8617763, 4.6150523 51.8617747, 4.6152376 51.8617776, 4.6153314 51.8618019, 4.6154087 51.8618351, 4.6156459 51.8620743, 4.6160556 51.8625207, 4.6164 51.8629, 4.616592 51.8632019), (4.6227513 51.8619187, 4.6226198 51.8619773, 4.6225311 51.8620046, 4.6223896 51.8620116, 4.6219315 51.8620155, 4.6215536 51.8620187, 4.6214735 51.8620318, 4.621359 51.8620506, 4.6212749 51.8620723, 4.6205844 51.8622351, 4.6205353 51.862248, 4.6197825 51.8624284, 4.6195887 51.8624755, 4.6194484 51.8625027, 4.6191515 51.8625603, 4.6190656 51.86259, 4.6189826 51.8626453, 4.6185562 51.8627383, 4.6184442 51.8627632, 4.6183485 51.8627859, 4.6179445 51.8628816, 4.6178712 51.8628989, 4.6177321 51.8629319, 4.6175792 51.8629681, 4.6171772 51.8630633, 4.6170556 51.8630921, 4.6167069 51.8631747, 4.616592 51.8632019), (4.6227513 51.8619187, 4.622875 51.861985, 4.6230244 51.8620156, 4.6236186 51.8620116, 4.6237354 51.8620337, 4.6238347 51.8621031, 4.6239199 51.8622666, 4.6239387 51.8623028, 4.6240324 51.8624824, 4.624094 51.8626007, 4.6241109 51.8626331, 4.6241357 51.8626763, 4.6243745 51.8631249, 4.6243833 51.8632133, 4.6243773 51.8633522, 4.6243776 51.8634281, 4.6243781 51.8636709, 4.6243791 51.8637037, 4.6243775 51.8639978, 4.6243772 51.8641772, 4.6243156 51.8642558, 4.6242245 51.8643017, 4.6241095 51.8643254, 4.6230787 51.864537, 4.6229542 51.8645626, 4.6228274 51.8645886, 4.6223445 51.8646878, 4.6219637 51.8647659, 4.6218644 51.8647863, 4.6211701 51.8649289, 4.6210455 51.8649545, 4.620738 51.8650176, 4.6206903 51.8650361, 4.6206497 51.8650621, 4.6206197 51.8651118, 4.6206499 51.8654082, 4.6206541 51.865522), (4.6206541 51.865522, 4.6207039 51.8656276, 4.6207999 51.8658198))</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>383275</t>
+          <t>13206951</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -944,17 +944,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Rotterdam, Kralingse Zoom</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bus 290: Ridderkerk Donkersloot =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 145: Dordrecht Station =&gt; Rotterdam Kralingse Zoom</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -965,14 +965,14 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.6130186 51.8726872, 4.6133261 51.8726852, 4.6135374 51.8726549, 4.6137345 51.872599, 4.6139165 51.8725163, 4.6140675 51.8724202, 4.6142232 51.8722436, 4.6145434 51.8718814, 4.6152131 51.8711188, 4.6152575 51.8710884), (4.6152575 51.8710884, 4.6153069 51.8710772, 4.6154068 51.8710802, 4.6154807 51.8710941, 4.6169195 51.8715428, 4.6173325 51.8716624, 4.6181 51.8718), (4.6181 51.8718, 4.6188473 51.8720587), (4.6188473 51.8720587, 4.6193701 51.8722305), (4.6193701 51.8722305, 4.6200475 51.8724626, 4.6201832 51.8725114), (4.6201832 51.8725114, 4.6202195 51.8725244, 4.6205871 51.8726951, 4.6208436 51.8728011, 4.6211681 51.8729105, 4.6227 51.8734, 4.6233828 51.8736164, 4.6236262 51.8737177, 4.6237882 51.8738101), (4.6237882 51.8738101, 4.6236671 51.8740281), (4.6236671 51.8740281, 4.6238232 51.8740642, 4.6239308 51.8741486, 4.6239572 51.87424, 4.623928 51.8743769, 4.6235931 51.8750058, 4.6235035 51.8752137, 4.6234111 51.8754723, 4.6233602 51.8756411, 4.6233394 51.8757885, 4.6233555 51.8758898, 4.6234149 51.8759969, 4.6234552 51.8760512, 4.6235101 51.8761003, 4.6235538 51.8761336), (4.6235538 51.8761336, 4.6236365 51.8761786, 4.6237054 51.8762083, 4.6238629 51.8762532, 4.6244258 51.8763859), (4.6244258 51.8763859, 4.6243062 51.8765704), (4.6243062 51.8765704, 4.6242389 51.8766743, 4.6235344 51.8767433, 4.6234799 51.876823, 4.6234324 51.8768959, 4.6215373 51.8797296, 4.6214421 51.8798718, 4.6213445 51.8800178, 4.6212988 51.8800878, 4.6212561 51.8801532), (4.6212561 51.8801532, 4.6212127 51.8802195, 4.6211971 51.8802434, 4.6204305 51.8813772, 4.6196924 51.8825284, 4.6196064 51.8826536, 4.619392 51.8828899, 4.6192043 51.8830354, 4.6180877 51.8837575, 4.616817 51.8845628, 4.6167407 51.8846104), (4.6167407 51.8846104, 4.6162443 51.8849201, 4.6160334 51.8850478, 4.615888 51.8851385, 4.6158129 51.8851483, 4.6156187 51.8851637), (4.6155794 51.8849888, 4.6156187 51.8851637), (4.6157011 51.8847349, 4.6156142 51.8848209, 4.6155757 51.8848817, 4.61557 51.8849236, 4.6155794 51.8849888), (4.6181174 51.8754183, 4.6178779 51.8757949, 4.6177098 51.8760596, 4.6174382 51.8764869, 4.6168942 51.8773626, 4.6163068 51.8782829, 4.6153905 51.8797265, 4.61521 51.8800162, 4.6150775 51.8802309, 4.6150169 51.8803258, 4.6149581 51.8804221, 4.6148996 51.8805432, 4.6148703 51.8806433, 4.6148667 51.8807148, 4.6148691 51.8807975, 4.6148825 51.8808532, 4.6149015 51.8809087, 4.6149712 51.8810544, 4.6150495 51.8811707, 4.6151738 51.8812844, 4.6152847 51.8813626, 4.6155518 51.8815052, 4.6169918 51.8821891, 4.6175788 51.8824769, 4.6177049 51.8825862, 4.6177866 51.8827029, 4.6178122 51.8828037, 4.6178122 51.8829233, 4.6177342 51.8830761, 4.6175696 51.8832401, 4.6171978 51.8835267, 4.6157011 51.8847349), (4.6181174 51.8754183, 4.6181376 51.8753675, 4.6181871 51.8752428, 4.6182074 51.875124), (4.6182074 51.875124, 4.6182139 51.8750292, 4.6181576 51.8748388, 4.6180161 51.874661, 4.6179018 51.8745621), (4.6179018 51.8745621, 4.6178196 51.8744994, 4.6176226 51.8743739), (4.6176226 51.8743739, 4.6172725 51.8741591), (4.6172725 51.8741591, 4.6171704 51.8740956, 4.6170853 51.8740418, 4.6169101 51.8739385), (4.6169101 51.8739385, 4.6167344 51.8740271, 4.616351 51.874216, 4.6160142 51.8743516, 4.615601 51.8744846, 4.6151646 51.8745966, 4.6147146 51.8746833, 4.6143259 51.8747389, 4.6138683 51.8747766), (4.6138683 51.8747766, 4.6135062 51.8747898, 4.6131413 51.8747965), (4.6131413 51.8747965, 4.6125618 51.874792), (4.6125618 51.874792, 4.609868 51.8747586, 4.609755 51.8747572, 4.6095253 51.8747544), (4.6095253 51.8747544, 4.609339 51.8747522), (4.609339 51.8747522, 4.6091114 51.874748, 4.6084056 51.8747352, 4.6077506 51.874735), (4.6077506 51.874735, 4.6071319 51.8747415), (4.6071319 51.8747415, 4.6047489 51.8747852, 4.6037457 51.8748154, 4.6032128 51.8748457, 4.6027525 51.8748907), (4.6027525 51.8748907, 4.6026341 51.8749055), (4.6026341 51.8749055, 4.6024153 51.8749368, 4.6022205 51.8749732, 4.6020309 51.875014, 4.6017106 51.8750917, 4.6013367 51.8752056, 4.6010792 51.8752993, 4.6007908 51.8754137, 4.6005095 51.8755497, 4.6001444 51.8757564, 4.5998368 51.8759464, 4.5987983 51.8766419, 4.5979028 51.8772506, 4.5975806 51.8774765, 4.597147 51.8777654, 4.595786 51.8786929), (4.595786 51.8786929, 4.5954553 51.8788289, 4.5951142 51.879033, 4.5932199 51.8803151, 4.5931811 51.8803413, 4.5931551 51.8803589, 4.5930586 51.8804231), (4.5930586 51.8804231, 4.5929354 51.8805071), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.580697 51.8861956), (4.580697 51.8861956, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5806371 51.8860403), (4.5806371 51.8860403, 4.5805833 51.8858996), (4.5805833 51.8858996, 4.5805479 51.8858152), (4.5805479 51.8858152, 4.5805254 51.8857581), (4.5805254 51.8857581, 4.5803986 51.8854485, 4.5803426 51.8853116, 4.580278 51.8851328, 4.5802218 51.884892, 4.5802014 51.884717, 4.5802058 51.8844493, 4.5802267 51.884241, 4.5802745 51.8838924, 4.5803004 51.883673, 4.5803063 51.883437, 4.5802902 51.8832476, 4.5802568 51.8830513, 4.5801998 51.8828407, 4.5799585 51.8821946), (4.5799585 51.8821946, 4.5793812 51.8807131), (4.5793812 51.8807131, 4.5791915 51.8802168, 4.5790151 51.8797749, 4.5788189 51.8793218, 4.5786661 51.8789993, 4.5784643 51.8786848), (4.5784643 51.8786848, 4.5782511 51.8783948, 4.5779303 51.878047, 4.5776891 51.8778104, 4.5773872 51.8775587, 4.5770757 51.8773425, 4.5767006 51.8771142, 4.5765101 51.8770204), (4.5765101 51.8770204, 4.5758402 51.8767027, 4.5751516 51.8764197, 4.5741495 51.8760344), (4.5741495 51.8760344, 4.5734541 51.8757202), (4.5734541 51.8757202, 4.5725971 51.8753896, 4.5717327 51.8750501), (4.5717327 51.8750501, 4.5714682 51.874949), (4.5714682 51.874949, 4.5710065 51.8747676), (4.5710065 51.8747676, 4.5701935 51.8744515), (4.5701935 51.8744515, 4.5695884 51.8742186), (4.5695884 51.8742186, 4.5691995 51.8740479), (4.5691995 51.8740479, 4.5677925 51.8734999, 4.5665777 51.8730293, 4.5653779 51.8725576, 4.5647025 51.8722991, 4.5640922 51.8720826, 4.5636255 51.8719374, 4.5630855 51.8717864, 4.5624785 51.8716502), (4.5624785 51.8716502, 4.560991 51.8713367), (4.560991 51.8713367, 4.5608239 51.8713036, 4.5602652 51.8711659, 4.5597515 51.8710173, 4.5593001 51.8708669, 4.5588564 51.8706956, 4.5584753 51.8705337, 4.5582354 51.8704241), (4.5582354 51.8704241, 4.5576113 51.870086, 4.5572934 51.8699055), (4.5572934 51.8699055, 4.5567152 51.8695828, 4.5562983 51.869365, 4.5560078 51.8692276, 4.5555513 51.8690202, 4.5551834 51.8688676, 4.5541377 51.8684516), (4.5541377 51.8684516, 4.5536322 51.8682572), (4.5536322 51.8682572, 4.5529493 51.8679945), (4.5529493 51.8679945, 4.5525075 51.8678234, 4.5506418 51.8671148), (4.5506418 51.8671148, 4.5499608 51.8668623, 4.549123 51.866548, 4.5482206 51.8662305, 4.5472781 51.8659201), (4.5472781 51.8659201, 4.5465403 51.8656843, 4.5456438 51.8654318, 4.5443994 51.8651227), (4.5443994 51.8651227, 4.5431206 51.8648471), (4.5431206 51.8648471, 4.5415177 51.8645291, 4.5401468 51.8643273, 4.5384332 51.864132), (4.5384332 51.864132, 4.537373 51.8640392, 4.5366244 51.8639966), (4.5366244 51.8639966, 4.5359179 51.8639684), (4.5359179 51.8639684, 4.5347166 51.8639244, 4.5331489 51.8639331, 4.532493 51.8639476, 4.5317805 51.8639748, 4.5296808 51.8641288, 4.5290106 51.8642019, 4.5283436 51.8642806), (4.5283436 51.8642806, 4.5274414 51.8644176, 4.5264261 51.8645766, 4.525654 51.8647171, 4.5250799 51.8648337), (4.5250799 51.8648337, 4.5245561 51.8650106, 4.523294 51.8653815), (4.523294 51.8653815, 4.521927 51.8657796, 4.5215318 51.8658844, 4.5212375 51.8659427, 4.5208394 51.8660155, 4.5200349 51.8661424, 4.5196802 51.86621, 4.5191426 51.8663486, 4.5184823 51.8665636, 4.5180475 51.8667406, 4.5176994 51.8669079), (4.5176994 51.8669079, 4.5172165 51.8671821, 4.5167713 51.8674966, 4.5164336 51.8677948, 4.5161563 51.868086, 4.515929 51.8683848, 4.5157778 51.8686353, 4.515742 51.8687212), (4.515742 51.8687212, 4.5156652 51.8689502, 4.5156472 51.8690395), (4.5156472 51.8690395, 4.5156353 51.8690983, 4.5156123 51.869304, 4.5155875 51.8694923), (4.5155875 51.8694923, 4.5155433 51.8699384, 4.5154987 51.8702196, 4.5154112 51.8705351, 4.5153059 51.8708281, 4.5152067 51.8710521, 4.5149474 51.8715001, 4.5146615 51.871897, 4.5143575 51.8722183), (4.5143575 51.8722183, 4.5141897 51.8724126, 4.5140652 51.8725489, 4.5138281 51.8726764), (4.5138281 51.8726764, 4.5136826 51.8728125), (4.5136826 51.8728125, 4.5123878 51.8740487, 4.5121984 51.874231), (4.5121984 51.874231, 4.5114715 51.8749277, 4.5113051 51.875076), (4.5113051 51.875076, 4.5112231 51.8751625, 4.511008 51.8753356, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.510858 51.8754417, 4.5107671 51.8754933, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.6702424 51.8073603, 4.669416 51.8074505), (4.669416 51.8074505, 4.669086 51.8074888, 4.6690552 51.8075179, 4.6690337 51.8075394, 4.66901 51.8075631), (4.66901 51.8075631, 4.6688517 51.8076913, 4.6685927 51.8078065), (4.6685927 51.8078065, 4.6684872 51.8078405, 4.6684309 51.8078581, 4.6683142 51.807916, 4.6682788 51.8079408, 4.6682378 51.8079706, 4.6681928 51.8080206, 4.6681568 51.8080755), (4.6681568 51.8080755, 4.6682636 51.8083774, 4.6682825 51.8085131, 4.6682573 51.8087004, 4.668255 51.8088528, 4.6682541 51.8089109, 4.6682537 51.808922, 4.6682515 51.8089752), (4.6682515 51.8089752, 4.6682439 51.8090611), (4.6682439 51.8090611, 4.6682379 51.8091332, 4.6682301 51.8092262, 4.6682206 51.8093074, 4.6681475 51.8099287), (4.6681475 51.8099287, 4.6681471 51.8101498), (4.6681471 51.8101498, 4.6681448 51.8102652, 4.6682259 51.8106578, 4.6682448 51.8107282), (4.6682448 51.8107282, 4.6682577 51.8107829, 4.668279 51.810873, 4.6682759 51.8110162), (4.6682759 51.8110162, 4.6683017 51.8110299, 4.6683235 51.811046, 4.6683408 51.8110641, 4.6683529 51.8110838), (4.6683529 51.8110838, 4.6683608 51.8111133, 4.6683572 51.8111432, 4.6683424 51.8111717, 4.6683171 51.8111973, 4.6682829 51.8112185), (4.6682829 51.8112185, 4.6682194 51.8112394, 4.6681481 51.8112455, 4.6680778 51.811236), (4.6680778 51.811236, 4.6679026 51.8112757, 4.6666405 51.8114674, 4.666378 51.8115073, 4.6661036 51.8115493, 4.6637449 51.8119104, 4.6636353 51.8119272), (4.6636353 51.8119272, 4.6634794 51.8119501), (4.6634794 51.8119501, 4.6634097 51.8119596, 4.6623046 51.8120767), (4.6623046 51.8120767, 4.6606706 51.8122491, 4.6604625 51.8122611, 4.6602037 51.812265, 4.6593793 51.8122508, 4.658467 51.8122227, 4.6582699 51.8121835), (4.6582021 51.8121802, 4.6582699 51.8121835), (4.6569732 51.8121383, 4.6575004 51.8121645, 4.6582021 51.8121802), (4.6569732 51.8121383, 4.6568835 51.812133, 4.6567939 51.8121126, 4.6567034 51.8120788, 4.655421 51.8113327, 4.6553522 51.8112907), (4.6553522 51.8112907, 4.6552686 51.8112745, 4.6550858 51.8111734), (4.6550858 51.8111734, 4.6540344 51.8105728, 4.6539612 51.8105318, 4.6538435 51.8104749), (4.6538435 51.8104749, 4.6537181 51.810415, 4.6536675 51.8103922, 4.6535852 51.8103553), (4.6535852 51.8103553, 4.6533925 51.8102688, 4.6530732 51.8101712, 4.6525901 51.8100439), (4.6525901 51.8100439, 4.6522866 51.8099435, 4.6520736 51.8098548), (4.6520736 51.8098548, 4.6519835 51.8098047, 4.6517536 51.8096157, 4.6513384 51.8092575, 4.6511902 51.8091277, 4.6511402 51.8090903), (4.6511402 51.8090903, 4.6511022 51.8090637, 4.6509978 51.8089701, 4.6507992 51.8087759, 4.649813 51.807783, 4.6497266 51.807696), (4.6497266 51.807696, 4.6495762 51.8075406, 4.6495505 51.807514, 4.6492997 51.8072803, 4.6485518 51.8065376, 4.6484979 51.8064873, 4.6484471 51.8064424, 4.6483337 51.8063372, 4.6481923 51.8062083, 4.6479008 51.8059304, 4.6472629 51.8053746, 4.6471244 51.8052346, 4.647013 51.8051023, 4.6469372 51.805, 4.6468789 51.804911, 4.6468302 51.8048181, 4.6467989 51.8047373, 4.646747 51.8045935, 4.6467354 51.8045303, 4.6467294 51.8044905, 4.6467202 51.8043954, 4.6467174 51.8042963, 4.6467216 51.8042096, 4.6467365 51.8041023, 4.6467584 51.8040152, 4.6467964 51.8039147, 4.6468744 51.8037603, 4.6469347 51.8036536, 4.6470121 51.8035377, 4.6470525 51.8034901, 4.647095 51.8034411, 4.6471907 51.8033499, 4.6472754 51.8032784), (4.6472754 51.8032784, 4.6474341 51.803153, 4.6475485 51.8030627), (4.6475485 51.8030627, 4.6476823 51.8029628), (4.6476823 51.8029628, 4.6479194 51.8027826), (4.6479194 51.8027826, 4.6480458 51.8026915, 4.6484963 51.8024128, 4.6486522 51.8023102, 4.6488793 51.8021355, 4.6492756 51.8018292), (4.6492756 51.8018292, 4.6502887 51.8010485), (4.6502887 51.8010485, 4.650448 51.800931, 4.6507409 51.8006895, 4.6508989 51.800545, 4.6509615 51.8004841, 4.6510199 51.8004246, 4.6511313 51.8002916, 4.6513327 51.8000348, 4.6515182 51.7997662, 4.6517565 51.7994715, 4.6519486 51.7992514), (4.6519486 51.7992514, 4.6522785 51.7988903, 4.652354 51.7988163), (4.652354 51.7988163, 4.6525317 51.7986541, 4.6526873 51.7985227), (4.6526873 51.7985227, 4.6527305 51.7983635, 4.6527318 51.7983258, 4.6527277 51.7982882, 4.652711 51.7982428, 4.652689 51.7982007), (4.652689 51.7982007, 4.6526456 51.7981506, 4.6525673 51.798087, 4.6525347 51.7980039), (4.6525347 51.7980039, 4.6518439 51.797716, 4.6517194 51.7976769, 4.6515326 51.7976314, 4.6514194 51.7976162), (4.6514194 51.7976162, 4.6512549 51.7976041, 4.6511455 51.7975983, 4.651036 51.7975979, 4.6509613 51.7976001, 4.6508737 51.7976076, 4.6507758 51.7976212, 4.6506749 51.7976423, 4.6505654 51.7976668, 4.6504652 51.7976964, 4.6503564 51.7977326, 4.6502759 51.7977708, 4.6501953 51.7978116, 4.6501013 51.7978707, 4.6500186 51.797934, 4.6499403 51.7980027, 4.6498889 51.7980608, 4.649846 51.7981222, 4.6497997 51.79822, 4.6497727 51.7983185, 4.6497565 51.7984096, 4.6497511 51.7985008, 4.6497633 51.7987471, 4.6496838 51.7991011), (4.6496838 51.7991011, 4.6498338 51.8002541, 4.649854 51.8004025), (4.649854 51.8004025, 4.6499689 51.8012454, 4.6502747 51.8033881, 4.6503954 51.8042057, 4.6504415 51.8048468), (4.6504415 51.8048468, 4.6504957 51.8054484, 4.6504655 51.8057789, 4.6503901 51.8061933, 4.6503147 51.8065245, 4.65018 51.806906, 4.6500907 51.807113), (4.6500907 51.807113, 4.649903 51.8074094, 4.6495162 51.8080465, 4.6492073 51.8084725, 4.6487333 51.8089891, 4.6483277 51.8093648, 4.64825 51.8094247), (4.64825 51.8094247, 4.6479448 51.8096597, 4.6471249 51.8102115, 4.646346 51.8106577, 4.6457586 51.8109683, 4.6453357 51.8111673), (4.6453357 51.8111673, 4.6449611 51.8113096, 4.644648 51.8114286), (4.644648 51.8114286, 4.6442905 51.8115516, 4.6439056 51.8116735, 4.6434472 51.8118042, 4.6430331 51.8119138, 4.6424361 51.8120537, 4.6415722 51.8122407, 4.6413517 51.8122865), (4.6413517 51.8122865, 4.6409445 51.8123755), (4.6409445 51.8123755, 4.6402684 51.8125232), (4.6402684 51.8125232, 4.6392602 51.8127623, 4.6382969 51.8130181, 4.6376239 51.8132049, 4.6371363 51.8133408, 4.6367162 51.8134597), (4.6367162 51.8134597, 4.6361015 51.8136893), (4.6361015 51.8136893, 4.6355326 51.8139139, 4.6348487 51.814202, 4.6341762 51.8145145, 4.6337527 51.8147251, 4.6333386 51.814942, 4.6327793 51.8152493, 4.6323039 51.815535, 4.6318445 51.81583, 4.6315003 51.8160808, 4.631235 51.8162883), (4.631235 51.8162883, 4.6307589 51.8167023, 4.6304004 51.8170557, 4.6301558 51.8173329, 4.6298795 51.8176628, 4.6294874 51.8182048, 4.6293507 51.8184186), (4.6293507 51.8184186, 4.6288837 51.8191985, 4.6281801 51.8205091, 4.6270586 51.8226646), (4.6270586 51.8226646, 4.6248446 51.8269145), (4.6248446 51.8269145, 4.6236755 51.8289921, 4.6226322 51.8305496), (4.6226322 51.8305496, 4.6225369 51.8306919, 4.6219331 51.83155, 4.6210412 51.8327408, 4.6199943 51.8340147, 4.6188986 51.8352464, 4.6187223 51.8354306, 4.6173355 51.8368802, 4.6142193 51.8400162), (4.6142193 51.8400162, 4.6120852 51.8421631), (4.6120852 51.8421631, 4.6065027 51.8477858), (4.6065027 51.8477858, 4.6061086 51.8483197), (4.6061086 51.8483197, 4.605825 51.8486351), (4.605825 51.8486351, 4.6038715 51.8509501), (4.6038715 51.8509501, 4.603251 51.8516307), (4.603251 51.8516307, 4.6030635 51.851829), (4.6030635 51.851829, 4.6014941 51.8534576), (4.6014941 51.8534576, 4.6013209 51.8537423, 4.6010851 51.8540186, 4.6008893 51.854307, 4.600804 51.8545013, 4.6007739 51.8546957, 4.6007722 51.854888, 4.6008302 51.8551032, 4.6009056 51.8552511, 4.6009905 51.8553688, 4.6011564 51.8555487, 4.6012934 51.8556575, 4.6014507 51.8557583), (4.6014507 51.8557583, 4.6015944 51.8558397), (4.6015944 51.8558397, 4.6018482 51.8559501, 4.6021104 51.8560276, 4.602432 51.8560984, 4.6027881 51.8561463, 4.6031603 51.8561904, 4.6038121 51.8562402, 4.6047962 51.8562984, 4.6062306 51.8564322), (4.6062306 51.8564322, 4.6086732 51.8564625, 4.6137806 51.8564131), (4.6137806 51.8564131, 4.6199581 51.8563878), (4.6199581 51.8563878, 4.6207286 51.8563044, 4.6228712 51.8562608), (4.6228712 51.8562608, 4.6251893 51.8561955), (4.6251893 51.8561955, 4.6254185 51.8561685, 4.6262864 51.8561313, 4.6264581 51.8561201), (4.6264581 51.8561201, 4.626744 51.8560806, 4.6269741 51.8560133, 4.627142 51.8559464, 4.6272804 51.8558668, 4.6273606 51.8557868, 4.627405 51.855708, 4.6274272 51.8555975, 4.6274248 51.8554431), (4.6274248 51.8554431, 4.627423 51.8553629), (4.627423 51.8553629, 4.627101 51.8553525, 4.626886 51.8553374, 4.6265879 51.8553106, 4.6261861 51.8552558, 4.6259861 51.8552255, 4.6256805 51.8551964, 4.6254806 51.8551929, 4.6252938 51.8552115, 4.625124 51.8552407, 4.6248505 51.8553117, 4.6247656 51.8553496, 4.624709 51.855395, 4.6246675 51.8554446, 4.6246477 51.8554912, 4.6246182 51.8555612), (4.6249496 51.856033, 4.624651 51.8556171, 4.6246182 51.8555612), (4.6255888 51.8569013, 4.6249496 51.856033), (4.6257027 51.8570545, 4.6255888 51.8569013), (4.6265241 51.8581824, 4.6257027 51.8570545), (4.6265241 51.8581824, 4.6268647 51.8585787), (4.6268647 51.8585787, 4.626901 51.8586341, 4.6269334 51.8586831, 4.6270471 51.8588456), (4.6270471 51.8588456, 4.6270768 51.858966), (4.6273158 51.8593631, 4.6272882 51.8593122, 4.6272684 51.8592749, 4.6272115 51.85918, 4.6271868 51.8591346, 4.6271728 51.8591131, 4.6270768 51.858966), (4.6274926 51.8596793, 4.6273991 51.8595143, 4.6273158 51.8593631), (4.627571 51.8598512, 4.6274926 51.8596793), (4.6278533 51.860705, 4.6277627 51.860382, 4.6276424 51.8600176, 4.6276094 51.8599273, 4.627571 51.8598512), (4.628397 51.8626741, 4.6279134 51.8609203, 4.6278533 51.860705), (4.6286065 51.8634562, 4.6284867 51.8630076, 4.628397 51.8626741), (4.6288602 51.8643812, 4.6288005 51.8641679, 4.6286065 51.8634562), (4.6288602 51.8643812, 4.6289328 51.8645005, 4.6289661 51.8645982, 4.6289713 51.864634, 4.6289745 51.8647511), (4.6289745 51.8647511, 4.6289765 51.8648233), (4.6289765 51.8648233, 4.6288384 51.8648224), (4.6288384 51.8648224, 4.6286385 51.8648266), (4.6286385 51.8648266, 4.6284063 51.8648225, 4.6281669 51.864804), (4.6275058 51.8649463, 4.6277929 51.864862, 4.6280091 51.8648227, 4.6281669 51.864804), (4.6275058 51.8649463, 4.6273077 51.8650172), (4.6273077 51.8650172, 4.6269639 51.8651402, 4.6268662 51.8651771, 4.6266624 51.8652492, 4.6263842 51.8653334, 4.6260437 51.8654126, 4.6256477 51.8654753, 4.6244809 51.8656404, 4.6220722 51.8659916), (4.6220722 51.8659916, 4.6218276 51.8660568, 4.6212623 51.8661726, 4.6212153 51.8661823, 4.6210722 51.8662116), (4.6210722 51.8662116, 4.6210637 51.8662421, 4.6210417 51.8662698, 4.6210002 51.8662964), (4.6210002 51.8662964, 4.6209902 51.8663006, 4.6209459 51.8663131, 4.620898 51.8663169), (4.620898 51.8663169, 4.6208401 51.8663122, 4.6207892 51.8662959, 4.6207538 51.866274, 4.6207299 51.8662473), (4.6207299 51.8662473, 4.6205839 51.8662331, 4.6205434 51.8662323, 4.6201144 51.866237), (4.6201144 51.866237, 4.6199518 51.8662224), (4.6199518 51.8662224, 4.6194445 51.8662367, 4.6194177 51.8662374), (4.6194177 51.8662374, 4.6193385 51.8662396, 4.618367 51.866267), (4.618367 51.866267, 4.6181785 51.8662912, 4.6178073 51.8663051, 4.6177615 51.8663037, 4.6176361 51.8662993), (4.6176361 51.8662993, 4.617621 51.866324, 4.6175964 51.8663457, 4.6175607 51.8663642, 4.6175188 51.866376, 4.6174734 51.8663806, 4.6174276 51.8663776, 4.6173846 51.8663671, 4.6173457 51.8663488, 4.6173167 51.8663245), (4.6173167 51.8663245, 4.6171908 51.8663287, 4.6165992 51.866337, 4.616425 51.8663185), (4.616425 51.8663185, 4.614839 51.8663614, 4.6145098 51.8663731, 4.6142231 51.8663981, 4.6131844 51.8665053, 4.6130919 51.8665148, 4.6127577 51.8665493, 4.6126315 51.8665623), (4.6126315 51.8665623, 4.6124287 51.8666005, 4.6121626 51.8666356, 4.612104 51.8666355, 4.6119868 51.866636), (4.6119868 51.866636, 4.6119793 51.8666547, 4.6119663 51.8666723, 4.6119362 51.8666961, 4.6118875 51.8667162, 4.6118317 51.8667248, 4.6117749 51.8667215, 4.6117295 51.8667094, 4.6116917 51.8666897), (4.6116917 51.8666897, 4.6115538 51.8667021, 4.6115052 51.8667064, 4.6112104 51.8667249, 4.6110534 51.8667243), (4.6110534 51.8667243, 4.6082034 51.8669911, 4.6079327 51.8670186, 4.6076943 51.8670488, 4.607492 51.8670898, 4.6073108 51.8671398, 4.607179 51.8671852, 4.6070466 51.8672395, 4.6069127 51.8673049), (4.6069127 51.8673049, 4.6068225 51.8673839, 4.6067045 51.8674666, 4.6066631 51.8674956, 4.60658 51.8675742), (4.60658 51.8675742, 4.6066062 51.8676298, 4.6065922 51.8676869), (4.6065922 51.8676869, 4.606551 51.8677285, 4.6064885 51.8677583), (4.6064885 51.8677583, 4.6064182 51.8677719, 4.6063447 51.8677703, 4.6062762 51.8677537, 4.6062206 51.8677238, 4.6061843 51.8676843, 4.6061714 51.8676395, 4.6061835 51.8675947), (4.6061835 51.8675947, 4.6060785 51.8675283, 4.6060338 51.867502, 4.6059054 51.8674263, 4.6056642 51.8672999, 4.6053586 51.8671186, 4.6052897 51.867058), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.604261 51.8659971, 4.6041981 51.8660065, 4.604134 51.8660005, 4.6040784 51.8659801, 4.6040394 51.8659482), (4.6040394 51.8659482, 4.6040236 51.8659148, 4.6040266 51.86588, 4.604048 51.8658478, 4.6040854 51.8658218, 4.6041347 51.8658049), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.5963168 51.8647624, 4.5963515 51.8647894, 4.5963706 51.8648218, 4.5963723 51.8648562, 4.5963563 51.8648892, 4.5963243 51.8649175, 4.5962796 51.8649381, 4.5962302 51.8649485, 4.596178 51.8649495, 4.5961277 51.864941, 4.5960837 51.8649236), (4.5960837 51.8649236, 4.5959896 51.8649829, 4.5958 51.8651, 4.5956085 51.8652145, 4.5952283 51.8654301, 4.5937477 51.8663344, 4.5934524 51.866516, 4.5933022 51.8666296, 4.5931589 51.8667686, 4.5931013 51.866846, 4.5930381 51.8669753, 4.5930075 51.8670945, 4.5929817 51.8672564, 4.5929479 51.8674742), (4.5929479 51.8674742, 4.5929659 51.8675988, 4.5929692 51.8677276, 4.5929729 51.86776, 4.5929474 51.867934, 4.5929161 51.8681349, 4.5929125 51.8681633, 4.5928952 51.868225, 4.592868 51.8683065, 4.5928186 51.8684044), (4.5928186 51.8684044, 4.5927797 51.8686872, 4.5927303 51.8689302, 4.5926666 51.8691532, 4.5925761 51.8693459, 4.5924597 51.8695354, 4.5923073 51.8697262, 4.5920803 51.8699459, 4.5918068 51.8701646, 4.5914964 51.8703837, 4.5913743 51.8704663, 4.5912463 51.8705585, 4.5909441 51.8707632, 4.5907274 51.8709121), (4.5907274 51.8709121, 4.5906705 51.8709852, 4.5905901 51.871059, 4.5905092 51.8711198, 4.590482 51.8711388, 4.5903129 51.8712522, 4.5901401 51.8713761, 4.5901041 51.8714036, 4.5899733 51.8714775, 4.5898886 51.8715174, 4.5897659 51.8715749), (4.5897659 51.8715749, 4.5886281 51.87236), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5893205 51.8749147, 4.5894396 51.8749746, 4.5895977 51.8750793, 4.5897017 51.8751857, 4.5897606 51.8752496, 4.5899099 51.8754155, 4.5899197 51.8754278, 4.5899725 51.8755045), (4.5899725 51.8755045, 4.5900546 51.8755136, 4.5901254 51.8755408), (4.5901254 51.8755408, 4.5901749 51.8755826, 4.5901957 51.8756328), (4.5901957 51.8756328, 4.5901861 51.8756814, 4.5901493 51.8757247, 4.5900901 51.8757573), (4.5900901 51.8757573, 4.5900973 51.8758371, 4.5901099 51.8760148, 4.590088 51.876233, 4.5900455 51.8763427), (4.5900455 51.8763427, 4.5899066 51.8777485, 4.5898906 51.8779483), (4.5898906 51.8779483, 4.5899306 51.8781042, 4.5899765 51.8781872, 4.5900138 51.8782722), (4.5900138 51.8782722, 4.5900795 51.8782788, 4.5901391 51.8782972, 4.5901871 51.8783258, 4.5902199 51.8783633, 4.5902322 51.8784053, 4.5902235 51.8784463, 4.5901953 51.8784837, 4.5901502 51.8785143), (4.5901502 51.8785143, 4.5901426 51.8786027, 4.5902196 51.8787645, 4.5903152 51.8789495), (4.5903152 51.8789495, 4.5904728 51.8791024, 4.5907214 51.8792848, 4.5910282 51.8794502), (4.5910282 51.8794502, 4.5911605 51.8794897, 4.591327 51.8795586, 4.5915546 51.8796374, 4.5918106 51.8797671), (4.5918106 51.8797671, 4.5926847 51.8802283, 4.5929659 51.8803737), (4.5929659 51.8803737, 4.5930586 51.8804231), (4.5930586 51.8804231, 4.5929354 51.8805071), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.580697 51.8861956), (4.580697 51.8861956, 4.5803674 51.886243, 4.5797706 51.8863331), (4.5797706 51.8863331, 4.57922 51.8864173, 4.5785034 51.8865014), (4.5785034 51.8865014, 4.5782204 51.8865009, 4.5777166 51.8865319, 4.5774055 51.8865382, 4.5770448 51.8865355), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5698241 51.8860942, 4.5696337 51.8861054, 4.569379 51.8860841, 4.5693462 51.8860816, 4.5693185 51.8860822, 4.5692427 51.8860869, 4.5691927 51.8860953, 4.5691269 51.8861087, 4.5689743 51.8861496), (4.5689743 51.8861496, 4.5688542 51.8861425, 4.568807 51.8861397, 4.5687608 51.8861366, 4.568487 51.8861181, 4.5681919 51.8860927, 4.5678357 51.8860486, 4.5676369 51.8860114, 4.5673918 51.8859581, 4.5671952 51.885913), (4.5671952 51.885913, 4.567007 51.8858647, 4.5667983 51.885804, 4.566728 51.8857839, 4.5666163 51.885752), (4.5666163 51.885752, 4.5664387 51.8857566, 4.5660445 51.8856435, 4.5656547 51.8855397, 4.5651645 51.8854357, 4.5649757 51.8854238, 4.5648781 51.8854342, 4.5648393 51.8854463, 4.5647362 51.8854952, 4.5646475 51.8855586, 4.5645406 51.8857009, 4.5641769 51.8862508, 4.5641153 51.8863397, 4.5640744 51.8864211, 4.5624 51.8904, 4.562 51.8913, 4.5612 51.8928, 4.5607012 51.8936761, 4.5605 51.894, 4.5603046 51.8942584, 4.560108 51.894495, 4.5598142 51.8948233, 4.5595603 51.8950416, 4.5592051 51.8952594), (4.5592051 51.8952594, 4.558795 51.895549, 4.5584254 51.8957585, 4.5581104 51.8959134, 4.5577193 51.8960734), (4.5577193 51.8960734, 4.5573391 51.8961865, 4.5568626 51.8963102, 4.5564133 51.8964141, 4.556151 51.8964844), (4.556151 51.8964844, 4.5553529 51.8965911, 4.5550496 51.8966239, 4.5547632 51.8966386, 4.55445 51.8966365), (4.55445 51.8966365, 4.5538792 51.8966295, 4.5536181 51.8966344, 4.5533994 51.8966478, 4.5531848 51.8966684, 4.5529702 51.896704, 4.5527702 51.8967562, 4.551023 51.8973207, 4.5503541 51.8975386, 4.5498802 51.8977113, 4.5493006 51.8979438, 4.5488513 51.8981658), (4.5488513 51.8981658, 4.5487497 51.8982024), (4.5487497 51.8982024, 4.5483649 51.8983135), (4.5483649 51.8983135, 4.5478294 51.8986555), (4.5478294 51.8986555, 4.5471605 51.8991251, 4.5466865 51.8995082, 4.5463181 51.899844, 4.5459668 51.9001904, 4.5456836 51.9005042, 4.5454325 51.9008173, 4.5449534 51.9014626, 4.5443886 51.9022514), (4.5443886 51.9022514, 4.5425932 51.9047847), (4.5425932 51.9047847, 4.542333 51.9051525), (4.542333 51.9051525, 4.5417629 51.9059437), (4.5417629 51.9059437, 4.5396931 51.9088629, 4.539377 51.9093208), (4.539377 51.9093208, 4.5387852 51.910157), (4.5387852 51.910157, 4.5380469 51.9112595), (4.5380469 51.9112595, 4.5379521 51.9116746), (4.5379521 51.9116746, 4.5378351 51.9119875), (4.5378351 51.9119875, 4.5375947 51.9125348, 4.5374436 51.9127966, 4.537105 51.9133637, 4.5370412 51.9134951, 4.5369934 51.9136265, 4.5369753 51.913689, 4.5369626 51.9137448, 4.5369453 51.9138582, 4.5369214 51.9140174), (4.5369214 51.9140174, 4.5368888 51.9142896), (4.5368888 51.9142896, 4.5369016 51.9143641), (4.5369016 51.9143641, 4.5368592 51.9146113, 4.5368458 51.9146701, 4.5368271 51.9147223, 4.5367233 51.9149487), (4.5367233 51.9149487, 4.5366293 51.9151457, 4.5365924 51.9152169, 4.536554 51.9152706, 4.5365167 51.9153179, 4.5364379 51.9153952), (4.5364379 51.9153952, 4.5363083 51.9154615), (4.5363083 51.9154615, 4.5362162 51.915499, 4.5361277 51.9155279, 4.5359824 51.9155615, 4.5358612 51.9155819, 4.5357098 51.9155998, 4.5355691 51.9156122, 4.5354354 51.9156156), (4.5354354 51.9156156, 4.5352698 51.9156114, 4.5351538 51.9156033, 4.5350202 51.9155864, 4.534884 51.9155597, 4.5347655 51.9155265, 4.5346049 51.9154696, 4.5345568 51.9154471, 4.5344284 51.9153869, 4.5343384 51.9153395), (4.5343384 51.9153395, 4.5342584 51.9152815, 4.534185 51.9152151), (4.534185 51.9152151, 4.5341561 51.9151597), (4.5341561 51.9151597, 4.5340751 51.9150032, 4.5339324 51.9147448, 4.5338688 51.9146521, 4.5338052 51.9145726, 4.5337264 51.9144932, 4.5336709 51.9144427, 4.5336154 51.9144022), (4.5336154 51.9144022, 4.5334611 51.9143302, 4.533296 51.9142682, 4.5331445 51.9142189, 4.5329668 51.9141725, 4.5326279 51.9140931, 4.5323165 51.9140357, 4.5320094 51.9139874, 4.5318264 51.9139655, 4.5316488 51.9139536, 4.5314866 51.9139494), (4.5314866 51.9139494, 4.5312325 51.9139526, 4.530978 51.9139687, 4.5307919 51.9139862, 4.5305729 51.9140187, 4.5301352 51.9141132, 4.5296575 51.9142469), (4.5296575 51.9142469, 4.5293095 51.9143451), (4.5293095 51.9143451, 4.5289756 51.9144581, 4.5288483 51.9145063, 4.5286589 51.9145778, 4.5285964 51.9146047, 4.5285529 51.9146207, 4.5284886 51.9146505, 4.5284173 51.9147023), (4.5284173 51.9147023, 4.5289734 51.9156684, 4.5290143 51.9157669, 4.529028 51.9158167, 4.5290971 51.9160723, 4.5291621 51.9162899, 4.529186 51.9164778, 4.5291863 51.9165782, 4.5291886 51.916624, 4.5291924 51.9167389, 4.5291293 51.917261, 4.5291197 51.9173397, 4.5291135 51.9174258, 4.5291124 51.9174854, 4.5291179 51.9175545, 4.5291233 51.9176184, 4.5291377 51.9177075, 4.5291588 51.9178107, 4.5291818 51.9178874, 4.52921 51.9179576, 4.5292986 51.9181552, 4.5294137 51.9183615, 4.5298236 51.9191005, 4.5298961 51.9192186, 4.5299221 51.9192625, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>383405</t>
+          <t>13206952</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lansingerland-Zoetermeer Zuidplein</t>
+          <t>Dordrecht, Centraal Station</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bus 173: Berkel en Rodenrijs Rodenrijs Metro =&gt; Lansingerland-Zoetermeer</t>
+          <t>Bus 145: Rotterdam Kralingse Zoom =&gt; Dordrecht Station</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1003,14 +1003,14 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4616458 51.9758184, 4.4618374 51.9758343), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4637436 51.9771046, 4.4638291 51.9771429, 4.4638829 51.9771902, 4.4639126 51.9772531), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4689412 51.9792258, 4.469024 51.979253, 4.4691004 51.9793111, 4.469132 51.979373), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.4707127 51.9802661, 4.4708237 51.980236, 4.4709237 51.9802285, 4.4710576 51.9802382), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.4893767 51.9946729, 4.489175 51.9947712), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4897415 51.9944962, 4.4898099 51.9944327, 4.4898827 51.9943828), (4.4898827 51.9943828, 4.4898632 51.9943444, 4.4898621 51.9943042, 4.4898795 51.9942655), (4.4898795 51.9942655, 4.4899002 51.9942425, 4.4899275 51.9942224, 4.4899604 51.9942057, 4.4900253 51.994187, 4.4900964 51.9941816, 4.4901667 51.9941901, 4.4902293 51.9942116), (4.4902293 51.9942116, 4.4903455 51.99417, 4.4904477 51.9941336, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911912 51.9939533, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928445 51.9933386, 4.4928496 51.9932997, 4.4928766 51.9932644, 4.4929221 51.9932372, 4.4929811 51.9932214, 4.4930454 51.9932195, 4.4931065 51.9932319, 4.4931475 51.9932505), (4.4931475 51.9932505, 4.493191 51.9932955, 4.493198 51.9933394, 4.4931763 51.9933814, 4.4931295 51.9934148), (4.4931295 51.9934148, 4.4931699 51.9934422, 4.4932449 51.9934938, 4.4937736 51.9939066), (4.4937736 51.9939066, 4.4939947 51.9940794, 4.4943993 51.9943657, 4.4944976 51.9944418, 4.4947466 51.9946434, 4.4948033 51.9946894, 4.495018 51.9948567, 4.4953613 51.9950909, 4.4953844 51.9951089, 4.4955077 51.9952044, 4.4964726 51.9959429, 4.4966155 51.9960503, 4.496783 51.9961885, 4.4968326 51.9962237), (4.4968326 51.9962237, 4.4970246 51.9963618), (4.4970246 51.9963618, 4.4970867 51.9964088, 4.4973099 51.9965767, 4.4973417 51.9965987, 4.4975068 51.996746, 4.4976458 51.9968054, 4.4977459 51.9968606, 4.497854 51.9969195, 4.4978908 51.9969619, 4.4979399 51.9970129, 4.4980027 51.9971031, 4.4983374 51.9973787, 4.4985205 51.9975157, 4.49871 51.9976542, 4.4988498 51.9977194, 4.4989376 51.9977639, 4.499056 51.9978245, 4.4991246 51.99791, 4.4992036 51.9979996, 4.499287 51.9980674, 4.499408 51.9981316, 4.4995143 51.9981955, 4.4995672 51.9982384, 4.4996116 51.9983008, 4.4997309 51.9984071, 4.4998975 51.9985407, 4.5000667 51.9986775, 4.5001181 51.9987156, 4.500229 51.9987945, 4.5004086 51.9988821, 4.5005908 51.9989745, 4.5006587 51.9990541, 4.5007199 51.99913, 4.5007452 51.9991635, 4.500805 51.9992281), (4.5004836 51.9994917, 4.5005647 51.9994262, 4.500805 51.9992281), (4.5006669 51.9996227, 4.5004836 51.9994917), (4.5006669 51.9996227, 4.5007602 51.9996607, 4.5008513 51.9997294, 4.5009334 51.9997947), (4.5009334 51.9997947, 4.5010747 51.9997329, 4.5012777 51.9996298, 4.5014268 51.9995659, 4.5015464 51.9995449), (4.5044067 51.9981204, 4.5041481 51.9982503, 4.5025808 51.9990367, 4.5016963 51.9994791, 4.5015464 51.9995449), (4.5044067 51.9981204, 4.5045529 51.9980105, 4.5046604 51.9979547, 4.5048274 51.9979085), (4.507403 51.9966101, 4.5071143 51.9967644, 4.5069955 51.9968208, 4.5065041 51.9970649, 4.5060257 51.9973037, 4.5051171 51.9977634, 4.5048274 51.9979085), (4.507403 51.9966101, 4.5074786 51.9965326, 4.5075846 51.9964773, 4.5077228 51.9964105, 4.5078577 51.9963531, 4.5079524 51.9963097, 4.5080266 51.9962991), (4.5107334 51.9949313, 4.5096055 51.995502, 4.5092899 51.9956683, 4.5087682 51.9959322, 4.5082363 51.9961942, 4.5080266 51.9962991), (4.5107334 51.9949313, 4.5108202 51.9948536, 4.5108782 51.9948196, 4.5110421 51.9947761), (4.5127998 51.9938546, 4.51276 51.9938828, 4.5126498 51.9939649, 4.5125195 51.9940336, 4.5110421 51.9947761), (4.5127998 51.9938546, 4.5129211 51.9936106, 4.5129815 51.9934902, 4.5131194 51.993323), (4.5135449 51.9924329, 4.5135369 51.992465, 4.5134249 51.9926869, 4.5133522 51.9928325, 4.5131194 51.993323), (4.5135449 51.9924329, 4.5135247 51.9923845, 4.5135549 51.9922904, 4.5135589 51.9922029), (4.5135589 51.9922029, 4.5135102 51.9921751, 4.5134797 51.9921389, 4.513471 51.9920984, 4.5134849 51.9920585, 4.513509 51.9920322, 4.513543 51.9920105, 4.5135805 51.9919959, 4.5136225 51.991987, 4.5136666 51.9919843, 4.5137106 51.9919878), (4.5137106 51.9919878, 4.5137872 51.9919188, 4.5138892 51.991823, 4.5139618 51.9917194), (4.5139618 51.9917194, 4.5140754 51.991526, 4.5142143 51.9912469, 4.5143615 51.9910581, 4.5143903 51.9910255, 4.5144487 51.9909595, 4.5145578 51.9908809), (4.5145578 51.9908809, 4.5147088 51.9908175), (4.5147088 51.9908175, 4.5148131 51.9909056), (4.5148131 51.9909056, 4.5151242 51.9911059, 4.5156374 51.9914327, 4.5161467 51.991721), (4.5161467 51.991721, 4.5166392 51.9919578, 4.5170505 51.9921402, 4.5175051 51.992311, 4.5180966 51.992545), (4.5206872 51.9932186, 4.5203764 51.9931253, 4.5197368 51.992965, 4.5188766 51.9927617, 4.5180966 51.992545), (4.5214037 51.9935305, 4.5209685 51.9933223, 4.5206872 51.9932186), (4.5216016 51.993675, 4.521507 51.9935941, 4.5214037 51.9935305), (4.5217182 51.9937392, 4.5216016 51.993675), (4.5217994 51.9938025, 4.5217182 51.9937392), (4.5223817 51.9943572, 4.5222877 51.9942542, 4.5220599 51.994032, 4.522029 51.9940051, 4.5219785 51.9939585, 4.52196 51.9939417, 4.5217994 51.9938025), (4.5234894 51.9964222, 4.523166 51.9955972, 4.5230227 51.9952821, 4.522707 51.9947828, 4.5225742 51.9945873, 4.5223817 51.9943572), (4.5234894 51.9964222, 4.5238524 51.9972835, 4.5242287 51.998086, 4.5262239 52.0023212, 4.5263063 52.0024871, 4.5263802 52.0027496), (4.5263802 52.0027496, 4.5264799 52.002904, 4.526528 52.0031213, 4.5265588 52.0033513), (4.5265588 52.0033513, 4.5265521 52.0036), (4.5265521 52.0036, 4.5266456 52.0038165, 4.5266538 52.0038866, 4.5266314 52.0040204, 4.5265659 52.0042628, 4.5265532 52.0043187, 4.5265481 52.0043608, 4.5265677 52.0044098, 4.5266369 52.0044392, 4.5267352 52.0044536), (4.5267352 52.0044536, 4.5269485 52.0044166, 4.5272194 52.0043688), (4.5272194 52.0043688, 4.5272582 52.0044432), (4.5272582 52.0044432, 4.5273726 52.0046805, 4.5274812 52.0049079, 4.5277027 52.0053902, 4.5280551 52.006152, 4.5281676 52.0064101, 4.5283079 52.0067704, 4.5283873 52.0069701, 4.5284103 52.0070257, 4.5284291 52.0070673), (4.5284291 52.0070673, 4.5284548 52.0070937, 4.5284965 52.0071202, 4.5285448 52.0071342), (4.5287641 52.0071224, 4.5286551 52.0071388, 4.5285934 52.0071408, 4.5285448 52.0071342), (4.5345029 52.0061361, 4.5342755 52.0061748, 4.5340277 52.0062178, 4.533248 52.0063518, 4.5331859 52.0063625, 4.5324527 52.0064892, 4.5321284 52.0065448, 4.5320212 52.0065626, 4.5306925 52.006791, 4.5298077 52.0069431, 4.5294823 52.006999, 4.5287641 52.0071224), (4.5346255 52.0061139, 4.5345029 52.0061361), (4.5347769 52.0060864, 4.5346255 52.0061139), (4.5353843 52.0058539, 4.5351878 52.0059634, 4.5350386 52.0060226, 4.5348909 52.0060626, 4.5347769 52.0060864), (4.5389361 52.0049641, 4.538697 52.0050072, 4.5377919 52.0051703, 4.5373609 52.0052411, 4.5368459 52.0053257, 4.5367467 52.005342, 4.536483 52.0053927, 4.5362031 52.0054455, 4.5360273 52.0054943, 4.5359463 52.0055267, 4.5358785 52.0055538, 4.5355571 52.0057489, 4.5353843 52.0058539), (4.5400948 52.0074615, 4.5397862 52.0068068, 4.53958 52.0063696, 4.5394197 52.0059928, 4.539397 52.0059354, 4.5393548 52.0058502, 4.5392824 52.0056919, 4.5392434 52.0056099, 4.5391886 52.0054901, 4.5389361 52.0049641), (4.5407308 52.0081676, 4.5405402 52.0080041, 4.5404305 52.0079064, 4.5403364 52.0078003, 4.5402366 52.0076878, 4.540151 52.0075524, 4.5400948 52.0074615), (4.5409125 52.0082926, 4.5407308 52.0081676), (4.5409125 52.0082926, 4.5410426 52.0083643, 4.5411713 52.0084271, 4.5413254 52.0084758, 4.5414094 52.0085024, 4.5416767 52.0085859, 4.541745 52.008624, 4.5418149 52.0086671, 4.5418607 52.0087112, 4.5419146 52.0087704, 4.5419916 52.0089483, 4.542142 52.0092726, 4.5423714 52.0096075, 4.5424712 52.0097889, 4.5426375 52.0102634, 4.5427109 52.0104786, 4.5428176 52.0106908, 4.5428561 52.0107672, 4.5430097 52.0110282, 4.543151 52.0113845, 4.5431675 52.0114781, 4.54311 52.0116394, 4.5430751 52.0116868, 4.5430454 52.0117188, 4.5429769 52.0117494), (4.5429769 52.0117494, 4.5430082 52.011781, 4.5430409 52.0118368, 4.5430498 52.0118971, 4.5430721 52.0119785, 4.5431289 52.0121048, 4.5434926 52.0128748, 4.5438352 52.0135984, 4.5438983 52.0137328, 4.5442978 52.0145829, 4.5447753 52.015618, 4.5448406 52.0157625, 4.5451169 52.0163992, 4.5451403 52.0164868, 4.5451615 52.016611), (4.5451615 52.016611, 4.5451467 52.0166879), (4.5451467 52.0166879, 4.5451397 52.0167064), (4.5451397 52.0167064, 4.5451066 52.0167903, 4.5450542 52.0169001), (4.5450542 52.0169001, 4.5449659 52.0170032, 4.544902 52.0170515, 4.5448026 52.017085, 4.5447291 52.0171098, 4.5445088 52.0171649, 4.5434805 52.0173473), (4.5434805 52.0173473, 4.5367041 52.0185396, 4.5362393 52.0186293, 4.536008 52.0186785, 4.535796 52.0187458), (4.535796 52.0187458, 4.5356855 52.0188291, 4.5356515 52.0188522, 4.5355713 52.0188991, 4.5354029 52.0189975), (4.5354029 52.0189975, 4.5353103 52.0190605, 4.5351829 52.0191443, 4.535011 52.0192327), (4.535011 52.0192327, 4.5346921 52.019328, 4.5344778 52.0193706, 4.5341601 52.0194328), (4.5341601 52.0194328, 4.5342081 52.0195276, 4.5346545 52.0204794), (4.5346545 52.0204794, 4.535523 52.022335, 4.5367353 52.0249362, 4.5371166 52.0257791), (4.5371166 52.0257791, 4.5376725 52.0270296, 4.5377314 52.0271697, 4.5377456 52.0272038, 4.5377926 52.0273168), (4.5377926 52.0273168, 4.5378139 52.027368), (4.5378139 52.027368, 4.5378528 52.0274654), (4.5378528 52.0274654, 4.5378889 52.0275503), (4.5378889 52.0275503, 4.5385461 52.0290033, 4.5391874 52.0304746), (4.5391874 52.0304746, 4.5395397 52.0312266, 4.5398254 52.0318628, 4.5398631 52.031947), (4.5398631 52.031947, 4.5399016 52.0320789), (4.5399016 52.0320789, 4.5396535 52.0321013), (4.5396535 52.0321013, 4.5392618 52.0321778), (4.5392618 52.0321778, 4.5390677 52.0322111), (4.5390677 52.0322111, 4.5387335 52.0322599), (4.5387335 52.0322599, 4.538312 52.0323134, 4.5378305 52.0324012, 4.5372631 52.0324997, 4.5334791 52.0331982), (4.5334791 52.0331982, 4.5329467 52.0332896), (4.5329467 52.0332896, 4.5326117 52.0333464, 4.5324977 52.0333677, 4.5323898 52.0333878), (4.5323898 52.0333878, 4.5321484 52.033427), (4.5321484 52.033427, 4.5313115 52.0335746, 4.5307421 52.0336548, 4.5295481 52.0338624, 4.5260029 52.0344916, 4.5257514 52.0345353), (4.5257514 52.0345353, 4.5248169 52.0347014, 4.5246322 52.0347319), (4.5246322 52.0347319, 4.5243555 52.0347823, 4.5240889 52.03483, 4.5236559 52.0349083, 4.5234616 52.0349495, 4.5231579 52.0350255, 4.522924 52.0350841, 4.5221346 52.0352299, 4.5220378 52.0352442, 4.5211413 52.0353997, 4.520664 52.0354671, 4.5169901 52.0361152), (4.5169901 52.0361152, 4.5167798 52.0361575, 4.5164589 52.036224), (4.5164589 52.036224, 4.5157435 52.0363458, 4.515423 52.0364235), (4.515423 52.0364235, 4.5152622 52.0364649), (4.5152622 52.0364649, 4.5150622 52.0365289, 4.5147452 52.0366397, 4.5143208 52.0368347, 4.5139407 52.0370391), (4.5139407 52.0370391, 4.5137737 52.0371144, 4.5137018 52.0371348), (4.5137018 52.0371348, 4.5137118 52.0372229, 4.5137257 52.0373333), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5173452 52.0399151, 4.516962 52.0396478), (4.5173452 52.0399151, 4.517167 52.0400031, 4.5171127 52.0400537, 4.5171005 52.0401013, 4.5171104 52.0401619, 4.5171986 52.0402415), (4.5171986 52.0402415, 4.5173893 52.0403909, 4.5174731 52.0404587, 4.5175721 52.0405235), (4.5175721 52.0405235, 4.5177904 52.040427, 4.5178598 52.0403589, 4.5179069 52.0402849), (4.5179069 52.0402849, 4.5178569 52.040269, 4.517822 52.0402527, 4.517732 52.0401911))</t>
+          <t>MULTILINESTRING ((4.5325838 51.9218251, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5486257 51.8976951, 4.5489879 51.8975171, 4.5494289 51.8973027, 4.5500962 51.8970334, 4.5511374 51.8966695, 4.5521618 51.8963138, 4.5527162 51.8961212, 4.5539203 51.8957047, 4.5544018 51.8955318), (4.5544018 51.8955318, 4.5555423 51.8951104, 4.5565408 51.8946894, 4.5574256 51.894262), (4.5574256 51.894262, 4.5585677 51.8937128), (4.5585677 51.8937128, 4.5589865 51.8934165, 4.559345 51.8931476, 4.5597015 51.8928484, 4.5601071 51.8924747, 4.5604202 51.8921528), (4.5604202 51.8921528, 4.5607674 51.8917599, 4.5610315 51.8914234, 4.5613031 51.8910357, 4.5614521 51.8907959, 4.5615919 51.8905494), (4.5615919 51.8905494, 4.5617093 51.889876, 4.56178 51.8893475, 4.5618269 51.8890279, 4.5618771 51.8888251, 4.5628697 51.8863515, 4.5629098 51.8862342, 4.5629474 51.8860237, 4.563 51.88533, 4.5630573 51.8851269, 4.5631019 51.885022, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808539 51.8860094), (4.5808539 51.8860094, 4.5816583 51.8858829, 4.5820105 51.8858158, 4.5828973 51.8855969), (4.5828973 51.8855969, 4.5831876 51.885511), (4.5831876 51.885511, 4.5835267 51.8853972, 4.5842198 51.885121, 4.5858468 51.8844222, 4.5879601 51.8835154, 4.5888663 51.8831043, 4.5892971 51.8828734, 4.5897879 51.882581, 4.5901198 51.8823636, 4.5905132 51.8820931), (4.5905132 51.8820931, 4.5915395 51.8813513), (4.5915395 51.8813513, 4.5926297 51.8806087, 4.5928425 51.8804588), (4.5928425 51.8804588, 4.5917152 51.8798175, 4.5912797 51.8795869, 4.5910282 51.8794502), (4.5903152 51.8789495, 4.5904728 51.8791024, 4.5907214 51.8792848, 4.5910282 51.8794502), (4.5903152 51.8789495, 4.5901557 51.8788033, 4.5900367 51.8786174, 4.5899873 51.8785436), (4.5899873 51.8785436, 4.5899219 51.8785326, 4.589865 51.8785099, 4.589818 51.8784732, 4.5897939 51.8784289, 4.5897934 51.8783899, 4.5898108 51.8783525, 4.5898447 51.8783196, 4.5898923 51.8782939), (4.5898923 51.8782939, 4.5898803 51.8782023, 4.5898926 51.8781003, 4.5898906 51.8779483), (4.5900455 51.8763427, 4.5899066 51.8777485, 4.5898906 51.8779483), (4.5900455 51.8763427, 4.5900252 51.8761076, 4.589991 51.8759486, 4.5899715 51.8758531, 4.589948 51.8757762), (4.589948 51.8757762, 4.5898845 51.8757652, 4.5898291 51.8757431), (4.5898291 51.8757431, 4.5897743 51.8756977, 4.5897543 51.8756424, 4.5897725 51.8755865, 4.5898262 51.8755401), (4.5898262 51.8755401, 4.5897978 51.8754567, 4.5897396 51.8753355, 4.5896572 51.8752307, 4.5895966 51.8751509, 4.5894484 51.8750315, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5897659 51.8715749, 4.5886281 51.87236), (4.5897659 51.8715749, 4.5898504 51.871497, 4.5899268 51.8714203, 4.5900133 51.8713507, 4.5900492 51.8713266, 4.5902238 51.8712024), (4.5902238 51.8712024, 4.5903946 51.8710877, 4.5904209 51.8710668, 4.5905234 51.8710087, 4.5906229 51.8709623, 4.5907274 51.8709121), (4.5928186 51.8684044, 4.5927797 51.8686872, 4.5927303 51.8689302, 4.5926666 51.8691532, 4.5925761 51.8693459, 4.5924597 51.8695354, 4.5923073 51.8697262, 4.5920803 51.8699459, 4.5918068 51.8701646, 4.5914964 51.8703837, 4.5913743 51.8704663, 4.5912463 51.8705585, 4.5909441 51.8707632, 4.5907274 51.8709121), (4.5928186 51.8684044, 4.5928014 51.8683001, 4.5927836 51.8682149, 4.5927821 51.8681576, 4.5927876 51.8681274, 4.5928279 51.8679164), (4.5928279 51.8679164, 4.5928494 51.8677531, 4.5928546 51.8677205, 4.5928934 51.8676132, 4.5929479 51.8674742), (4.5960837 51.8649236, 4.5959896 51.8649829, 4.5958 51.8651, 4.5956085 51.8652145, 4.5952283 51.8654301, 4.5937477 51.8663344, 4.5934524 51.866516, 4.5933022 51.8666296, 4.5931589 51.8667686, 4.5931013 51.866846, 4.5930381 51.8669753, 4.5930075 51.8670945, 4.5929817 51.8672564, 4.5929479 51.8674742), (4.5960837 51.8649236, 4.5960486 51.8648977, 4.5960282 51.8648663, 4.5960245 51.8648326, 4.5960378 51.8647998, 4.5960669 51.8647711, 4.5961089 51.8647495), (4.5961089 51.8647495, 4.5961607 51.8647367, 4.5962163 51.8647347, 4.5962702 51.8647435, 4.5963168 51.8647624), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6041347 51.8658049, 4.6041856 51.865799, 4.6042369 51.865803, 4.6042838 51.8658164, 4.6043219 51.865838, 4.6043476 51.8658657, 4.6043587 51.8659039, 4.6043463 51.8659419, 4.6043121 51.8659745, 4.604261 51.8659971), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.6052897 51.867058, 4.6053952 51.867092, 4.6057101 51.8672583, 4.6059378 51.8673591, 4.6061161 51.867439, 4.6061637 51.8674603, 4.6062881 51.8675197), (4.6062881 51.8675197, 4.6063748 51.8675047, 4.6064639 51.8675126), (4.6064639 51.8675126, 4.6065697 51.8674438, 4.6066151 51.8674195, 4.6067548 51.8673448, 4.6069127 51.8673049), (4.6110534 51.8667243, 4.6082034 51.8669911, 4.6079327 51.8670186, 4.6076943 51.8670488, 4.607492 51.8670898, 4.6073108 51.8671398, 4.607179 51.8671852, 4.6070466 51.8672395, 4.6069127 51.8673049), (4.6110534 51.8667243, 4.6112142 51.8666911, 4.611479 51.8666502, 4.6115325 51.8666406, 4.611649 51.8666182), (4.611649 51.8666182, 4.6116523 51.8665998, 4.6116606 51.8665821, 4.611691 51.8665512, 4.6117219 51.8665341, 4.6117586 51.8665222, 4.6117976 51.8665162, 4.6118396 51.8665162, 4.6118776 51.8665218, 4.6119201 51.866536, 4.6119525 51.8665555, 4.6119754 51.8665796), (4.6119754 51.8665796, 4.6121023 51.8665742, 4.6121586 51.8665733, 4.6124053 51.8665696, 4.6126315 51.8665623), (4.616425 51.8663185, 4.614839 51.8663614, 4.6145098 51.8663731, 4.6142231 51.8663981, 4.6131844 51.8665053, 4.6130919 51.8665148, 4.6127577 51.8665493, 4.6126315 51.8665623), (4.616425 51.8663185, 4.6165933 51.8662999, 4.6171875 51.8662691, 4.6172966 51.8662677), (4.6172966 51.8662677, 4.6173045 51.8662416, 4.6173227 51.8662175, 4.6173501 51.8661969, 4.617381 51.8661825, 4.6174128 51.8661735, 4.6174502 51.8661684, 4.6174885 51.8661685, 4.6175225 51.8661731, 4.6175519 51.866181, 4.6175818 51.8661939, 4.6176077 51.8662113, 4.6176261 51.866231, 4.6176374 51.8662526), (4.6176374 51.8662526, 4.6177665 51.8662401, 4.6178113 51.8662399, 4.6181866 51.8662482, 4.618367 51.866267), (4.6194177 51.8662374, 4.6193385 51.8662396, 4.618367 51.866267), (4.6199518 51.8662224, 4.6194445 51.8662367, 4.6194177 51.8662374), (4.6199518 51.8662224, 4.6201353 51.8661975, 4.6205416 51.866176, 4.6205821 51.8661747, 4.6207338 51.8661637), (4.6207338 51.8661637, 4.6207532 51.8661432, 4.6207795 51.8661257, 4.6208089 51.866113), (4.6208089 51.866113, 4.6208409 51.8661044, 4.6208757 51.8660997, 4.6209144 51.8660997), (4.6209144 51.8660997, 4.620945 51.8661035, 4.6209799 51.8661123, 4.6210272 51.8661354), (4.6210272 51.8661354, 4.6211834 51.8661112, 4.6212319 51.8661036, 4.6218045 51.8660147, 4.6220722 51.8659916), (4.6273077 51.8650172, 4.6269639 51.8651402, 4.6268662 51.8651771, 4.6266624 51.8652492, 4.6263842 51.8653334, 4.6260437 51.8654126, 4.6256477 51.8654753, 4.6244809 51.8656404, 4.6220722 51.8659916), (4.6275058 51.8649463, 4.6273077 51.8650172), (4.6275058 51.8649463, 4.6277929 51.864862, 4.6280091 51.8648227, 4.6281669 51.864804), (4.6281669 51.864804, 4.6284058 51.8647532, 4.6285359 51.8647417, 4.6286314 51.8647392), (4.6286314 51.8647392, 4.6288488 51.8647445), (4.6288488 51.8647445, 4.6288551 51.864638, 4.6288469 51.8645578, 4.6288602 51.8643812), (4.6288602 51.8643812, 4.6288005 51.8641679, 4.6286065 51.8634562), (4.6286065 51.8634562, 4.6284867 51.8630076, 4.628397 51.8626741), (4.628397 51.8626741, 4.6279134 51.8609203, 4.6278533 51.860705), (4.6278533 51.860705, 4.6277627 51.860382, 4.6276424 51.8600176, 4.6276094 51.8599273, 4.627571 51.8598512), (4.627571 51.8598512, 4.6274926 51.8596793), (4.6274926 51.8596793, 4.6273991 51.8595143, 4.6273158 51.8593631), (4.6273158 51.8593631, 4.6272882 51.8593122, 4.6272684 51.8592749, 4.6272115 51.85918, 4.6271868 51.8591346, 4.6271728 51.8591131, 4.6270768 51.858966), (4.6270471 51.8588456, 4.6270768 51.858966), (4.6270471 51.8588456, 4.6273375 51.8587878), (4.6273375 51.8587878, 4.6279933 51.8586778), (4.6279933 51.8586778, 4.6296734 51.858396, 4.6299773 51.858345), (4.6299773 51.858345, 4.6298495 51.8580564), (4.6298495 51.8580564, 4.6297784 51.8578941, 4.629663 51.8576315, 4.6295421 51.8574418, 4.6293545 51.8572547, 4.6291544 51.8571122, 4.6289585 51.8570118, 4.6287097 51.8569277, 4.6284721 51.8568796, 4.628051 51.8568341, 4.6271449 51.8567861), (4.6271449 51.8567861, 4.6263028 51.8567449, 4.6257001 51.8567323), (4.6257001 51.8567323, 4.6248542 51.8567274, 4.6243977 51.8567122, 4.6236205 51.856668, 4.6221415 51.8566202, 4.6217623 51.8566144, 4.6214003 51.8565443), (4.6214003 51.8565443, 4.6186034 51.85655), (4.6186034 51.85655, 4.6146344 51.8565736, 4.6105733 51.8566119), (4.6105733 51.8566119, 4.6097651 51.8567024, 4.6084654 51.8567668, 4.6063408 51.8569318), (4.6063408 51.8569318, 4.6053357 51.8570029, 4.6047691 51.8570163, 4.6043503 51.8570059, 4.6039485 51.8569756, 4.6033476 51.8568974), (4.6033476 51.8568974, 4.6025355 51.8567495), (4.6025355 51.8567495, 4.6017833 51.8566287), (4.6017833 51.8566287, 4.6013933 51.8565777, 4.600966 51.8565387, 4.6003206 51.8565188, 4.5997171 51.8565311, 4.5992619 51.8565572), (4.5992619 51.8565572, 4.5982948 51.8566525, 4.5966762 51.8568433), (4.5966762 51.8568433, 4.5953903 51.857011, 4.5952527 51.8570305, 4.5951205 51.8570527, 4.5949762 51.8570799, 4.5948323 51.8571138, 4.5947089 51.8571471, 4.5945907 51.8571858, 4.5944985 51.8572257, 4.5944191 51.857267, 4.5943412 51.8573163, 4.5942696 51.8573675, 4.5942265 51.8574081, 4.594192 51.8574528, 4.5941615 51.8575036, 4.5941332 51.8575631, 4.5941177 51.8576279, 4.5941102 51.8576904, 4.5941135 51.8577469, 4.5941326 51.8578039, 4.594155 51.857851, 4.5941911 51.8579042, 4.594242 51.8579592, 4.5942885 51.8579996, 4.5943344 51.8580341, 4.5944061 51.8580753, 4.5944789 51.8581113, 4.5945789 51.8581484, 4.5946672 51.8581735, 4.5947613 51.8581948, 4.5948661 51.8582095, 4.5949685 51.8582181, 4.5950741 51.8582201, 4.5951793 51.8582152, 4.5952973 51.8582022, 4.5954132 51.8581818, 4.595518 51.8581547, 4.5956122 51.8581209, 4.5957242 51.8580783, 4.5958254 51.8580265, 4.596025 51.8579018, 4.5965234 51.8574913, 4.5965533 51.8574706, 4.5965876 51.8574533, 4.5968562 51.857349), (4.5968562 51.857349, 4.5972084 51.8570032, 4.598984 51.8552206), (4.598984 51.8552206, 4.6004861 51.8536152, 4.6017105 51.8522786, 4.6021757 51.8517751), (4.6021757 51.8517751, 4.6024054 51.8515443), (4.6024054 51.8515443, 4.6025973 51.8513471), (4.6025973 51.8513471, 4.6052553 51.8485412), (4.6052553 51.8485412, 4.6054321 51.8483588), (4.6054321 51.8483588, 4.6055742 51.8482122), (4.6055742 51.8482122, 4.6115838 51.8421535), (4.6115838 51.8421535, 4.6170783 51.8366453, 4.618378 51.8353088, 4.6184799 51.8352016, 4.6196137 51.8339228, 4.6203928 51.8329873, 4.6209625 51.832282, 4.6215866 51.8314549, 4.6220846 51.8307458), (4.6220846 51.8307458, 4.622305 51.8304319, 4.6227301 51.8297942, 4.6233847 51.8287508), (4.6233847 51.8287508, 4.6237733 51.8281096, 4.6240751 51.8275814, 4.6243619 51.8270626, 4.6251466 51.8255539, 4.626343 51.823267), (4.626343 51.823267, 4.6266876 51.8225901), (4.6266876 51.8225901, 4.6274132 51.8211813, 4.6276783 51.8206916, 4.6285196 51.8191133, 4.6289807 51.818344), (4.6289807 51.818344, 4.6290657 51.8182098), (4.6290657 51.8182098, 4.6294743 51.8176226, 4.6297892 51.8172309, 4.6302115 51.816782, 4.6305934 51.8164137, 4.6310886 51.8160077, 4.6313578 51.8158085, 4.631715 51.8155664), (4.631715 51.8155664, 4.6320879 51.8153268, 4.6324906 51.8150912, 4.6329274 51.8148452, 4.6334329 51.8145793, 4.6339696 51.8143128, 4.6345375 51.8140498, 4.6351654 51.8137749), (4.6351654 51.8137749, 4.6358177 51.8135172), (4.6358177 51.8135172, 4.636452 51.8132778), (4.636452 51.8132778, 4.636938 51.8131063, 4.6374492 51.8129436, 4.6380434 51.8127628, 4.6386594 51.8125914, 4.639316 51.8124249, 4.6400334 51.8122598), (4.6400334 51.8122598, 4.6407163 51.8121189), (4.6407163 51.8121189, 4.6411876 51.8119902, 4.6419739 51.811831, 4.6425955 51.8116922, 4.6430973 51.8115651, 4.6435953 51.8114169, 4.6441028 51.8112525, 4.6445376 51.8110915, 4.6451175 51.8108619), (4.6451175 51.8108619, 4.6455087 51.8106639, 4.6460851 51.8103971, 4.6468203 51.8099888, 4.6475277 51.8095083, 4.6479416 51.8091712), (4.6479416 51.8091712, 4.6479448 51.8091686, 4.6483035 51.8088553, 4.6487547 51.8083765, 4.6490579 51.8079435, 4.6494702 51.807227, 4.6496047 51.8069675), (4.6496047 51.8069675, 4.6496746 51.8068027), (4.6496746 51.8068027, 4.6497772 51.8065147, 4.6498602 51.8062254, 4.6499121 51.8059816, 4.649948 51.8057133, 4.6499668 51.8054112, 4.649964 51.8051563, 4.6499395 51.8048379, 4.649873 51.8043911), (4.649873 51.8043911, 4.6497186 51.8041914), (4.6497186 51.8041914, 4.6496593 51.8040815, 4.6495966 51.8039988, 4.6495159 51.8039253, 4.6494406 51.803869, 4.6493512 51.8038186, 4.649243 51.8037697), (4.649243 51.8037697, 4.6480553 51.8032869), (4.6480553 51.8032869, 4.6479064 51.8032649, 4.6478227 51.8032601, 4.6477273 51.8032609, 4.647635 51.8032764, 4.647527 51.8033104), (4.647527 51.8033104, 4.6473281 51.803489, 4.6472373 51.803572, 4.6471593 51.8036636, 4.6470357 51.8038269, 4.6469643 51.8039557, 4.6469059 51.8040971, 4.6468759 51.8041981, 4.6468673 51.8043032, 4.6468662 51.8043898, 4.6468716 51.8044738, 4.6468876 51.8045794, 4.6469629 51.8048021, 4.6470054 51.804885, 4.6470522 51.8049585, 4.6471162 51.8050536, 4.6471801 51.8051314, 4.6472301 51.8051849, 4.64728 51.8052318, 4.6473265 51.8052791, 4.647373 51.8053192, 4.6474659 51.8054019, 4.6480695 51.8058894, 4.6484296 51.8062403, 4.648473 51.8062837, 4.6485411 51.8063531, 4.64861 51.8064247), (4.64861 51.8064247, 4.6486288 51.8064419, 4.6489204 51.8067237, 4.6496603 51.8074477, 4.6496757 51.8074628), (4.6496757 51.8074628, 4.6497021 51.8074896, 4.6498049 51.8075942, 4.6498954 51.8076863), (4.6498954 51.8076863, 4.6504532 51.8082329, 4.6506627 51.8084405), (4.6506627 51.8084405, 4.6508643 51.8086356, 4.6509797 51.8087486, 4.6511488 51.8089143, 4.6512408 51.8090046, 4.6512741 51.8090355), (4.6512741 51.8090355, 4.6513158 51.8090761, 4.651501 51.8092507, 4.6517091 51.8094252, 4.6518546 51.8095433, 4.6519883 51.8096332, 4.652144 51.8097159, 4.6522861 51.809783), (4.6522861 51.809783, 4.6524746 51.8098539, 4.6527231 51.8099342), (4.6527231 51.8099342, 4.653062 51.8100203, 4.6535755 51.810186, 4.6537196 51.8102486), (4.6537196 51.8102486, 4.6537462 51.8102602, 4.6538006 51.810291, 4.6538538 51.8103207), (4.6538538 51.8103207, 4.6539926 51.8103968), (4.6539926 51.8103968, 4.6540845 51.810453, 4.6543056 51.8106114, 4.6549137 51.8109989), (4.6549137 51.8109989, 4.6551423 51.8111329), (4.6551423 51.8111329, 4.6553248 51.8112455), (4.6553248 51.8112455, 4.6553522 51.8112907), (4.6569732 51.8121383, 4.6568835 51.812133, 4.6567939 51.8121126, 4.6567034 51.8120788, 4.655421 51.8113327, 4.6553522 51.8112907), (4.6569732 51.8121383, 4.6575004 51.8121645, 4.6582021 51.8121802), (4.6582021 51.8121802, 4.6582699 51.8121835), (4.6582699 51.8121835, 4.6585021 51.8121482, 4.6591495 51.8121745, 4.6592633 51.8121791, 4.6601561 51.8121894, 4.6604414 51.8121702, 4.6608917 51.8121226, 4.6622242 51.8119818, 4.663373 51.8118595, 4.6634456 51.8118499), (4.6634456 51.8118499, 4.6635738 51.8118313), (4.6635738 51.8118313, 4.6637067 51.8118112, 4.666068 51.8114533, 4.6663243 51.8114152, 4.6666031 51.8113724, 4.6666894 51.8113592), (4.6666894 51.8113592, 4.6667441 51.8113032, 4.6676458 51.8111665, 4.6677275 51.8111978), (4.6677275 51.8111978, 4.6678662 51.8111739, 4.6679602 51.8111558), (4.6679602 51.8111558, 4.6679514 51.8111168, 4.6679624 51.8110779, 4.6679923 51.811043, 4.6680381 51.8110155, 4.6680953 51.8109981, 4.6681585 51.8109924), (4.6681585 51.8109924, 4.6681883 51.8108757, 4.6681864 51.8108534, 4.6681754 51.81079, 4.6681596 51.8107507, 4.667989 51.8103448, 4.6679562 51.8102629, 4.6679413 51.8101568, 4.6680331 51.8093061, 4.6680504 51.80913, 4.6680571 51.8090615, 4.6680664 51.8089754), (4.6680664 51.8089754, 4.6680701 51.8089289, 4.6680705 51.8089235, 4.6680898 51.8087993), (4.6680898 51.8087993, 4.6680948 51.8086807, 4.6680789 51.8085537, 4.6680287 51.80839, 4.6679336 51.8081365, 4.6679167 51.8080133, 4.6679082 51.807973, 4.6678956 51.8079268, 4.6678861 51.8078853), (4.6678861 51.8078853, 4.6679223 51.8077854), (4.6679223 51.8077854, 4.6681025 51.8077628), (4.6681025 51.8077628, 4.6681964 51.807753, 4.6686852 51.8077077), (4.6686852 51.8077077, 4.6688517 51.8076913), (4.6688517 51.8076913, 4.6691268 51.8076609), (4.6691268 51.8076609, 4.669334 51.8076401), (4.669334 51.8076401, 4.6700628 51.8075614, 4.6708524 51.807476), (4.6708524 51.807476, 4.6714322 51.8074136, 4.6722448 51.8073245), (4.6722448 51.8073245, 4.6725786 51.807284), (4.6725786 51.807284, 4.6725815 51.8072383, 4.6726042 51.8071949), (4.6726042 51.8071949, 4.6724629 51.8071304, 4.6722906 51.8071375, 4.6702424 51.8073603))</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>383677</t>
+          <t>383141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maassluis, Station Maassluis West</t>
+          <t>Ridderkerk, Sporthal Drievliet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bus 126: Schiedam Centrum =&gt; Maassluis West</t>
+          <t>Bus 146: Rotterdam Zuidplein =&gt; Ridderkerk Drievliet</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1041,14 +1041,14 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4030168 51.9226615, 4.4029977 51.9226303, 4.4029741 51.9225613), (4.4029741 51.9225613, 4.4028913 51.922478, 4.4028582 51.9224268, 4.4028355 51.9223499), (4.4028355 51.9223499, 4.4028239 51.9222624, 4.4028002 51.9221863, 4.4026273 51.9218013, 4.402572 51.9216791, 4.4025263 51.9215776, 4.4024883 51.921489, 4.4024544 51.9214158, 4.4022804 51.9210387, 4.4021092 51.9206542, 4.4020599 51.9204292, 4.4020411 51.9202942, 4.4020297 51.9201511, 4.4020449 51.919886, 4.4020862 51.9194999), (4.4020862 51.9194999, 4.4020939 51.9194222), (4.4020939 51.9194222, 4.4021194 51.9192185, 4.4021437 51.9191328, 4.4021906 51.9190311, 4.402222 51.9189515, 4.4022496 51.9188787, 4.4022798 51.9188233), (4.4022798 51.9188233, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023816 51.9149644, 4.4023853 51.9149053, 4.4024035 51.9148696, 4.4024755 51.9147714, 4.4025195 51.9147, 4.4025452 51.9146696, 4.4025731 51.914635), (4.4025731 51.914635, 4.4025057 51.9146144), (4.4025057 51.9146144, 4.4023111 51.9145415, 4.4022566 51.9145243, 4.4020376 51.914461, 4.4019371 51.9144294, 4.4018269 51.914386), (4.4018269 51.914386, 4.4017625 51.9143529, 4.4017015 51.914225, 4.4016245 51.9140211), (4.4016245 51.9140211, 4.4015786 51.9139241), (4.4015786 51.9139241, 4.401525 51.9138567, 4.4014889 51.9138268, 4.4013186 51.9137264), (4.4013186 51.9137264, 4.4009579 51.9135638, 4.4006661 51.9133843, 4.4005816 51.9133339, 4.4005518 51.9133162, 4.4004209 51.913244, 4.4003474 51.9132055), (4.4003474 51.9132055, 4.4002465 51.9131438, 4.4002083 51.9131212, 4.3994952 51.9126829), (4.3994952 51.9126829, 4.399452 51.9126563), (4.399452 51.9126563, 4.3993377 51.9125859), (4.3993377 51.9125859, 4.3993173 51.9125734), (4.3993173 51.9125734, 4.3992696 51.9125475, 4.3991711 51.9124928), (4.3991711 51.9124928, 4.399125 51.9125038, 4.399076 51.9125078, 4.3990269 51.9125047, 4.3989803 51.9124946, 4.3989388 51.9124781), (4.3989388 51.9124781, 4.3988164 51.9125122, 4.3987272 51.912544, 4.3979159 51.9130192, 4.3977903 51.9130712, 4.3977354 51.913094, 4.397653 51.9131291), (4.397653 51.9131291, 4.3976571 51.9131642, 4.3976434 51.9131984, 4.3976131 51.9132282, 4.3975694 51.9132508, 4.3975164 51.9132638, 4.3974595 51.9132661, 4.3974042 51.9132574, 4.3973627 51.913242, 4.3973292 51.9132203, 4.3973063 51.9131939), (4.3973063 51.9131939, 4.3972948 51.9131561, 4.3973047 51.9131182), (4.3973047 51.9131182, 4.3972312 51.9130688, 4.3965539 51.9126393, 4.3964302 51.9125619, 4.3962367 51.9124423, 4.3958981 51.912245, 4.3957165 51.9121615, 4.3950134 51.9119194, 4.3942792 51.9117321, 4.3935025 51.9115709, 4.3928415 51.9114426, 4.3922686 51.9113451, 4.3914946 51.9112645, 4.3909575 51.9112355, 4.3906487 51.9112169), (4.3906487 51.9112169, 4.3903318 51.911201, 4.3898481 51.9111767, 4.3893046 51.9111963, 4.3892809 51.9111972, 4.3892142 51.9111994, 4.3889403 51.9112083, 4.3885131 51.9112359, 4.3884338 51.9112412, 4.3883338 51.9112446, 4.3863402 51.9113401, 4.3861317 51.9113501, 4.3859262 51.9113585, 4.3844861 51.9114173, 4.3843026 51.9114458, 4.3840426 51.9115221, 4.3839877 51.9115382, 4.3838386 51.9115499), (4.3838386 51.9115499, 4.3837638 51.911574, 4.3836319 51.9115826, 4.3835579 51.9115825, 4.3834803 51.9115823), (4.3834803 51.9115823, 4.3832818 51.9115477, 4.3829915 51.9115033, 4.3827133 51.9114733, 4.3820351 51.9114713, 4.3813438 51.9114356, 4.3800342 51.9112935, 4.3798236 51.9112588, 4.3793179 51.9111755, 4.3791689 51.9111466, 4.3789808 51.9111109), (4.3789808 51.9111109, 4.3788083 51.9110671, 4.3786075 51.9110259, 4.3780142 51.9108668, 4.3775107 51.9107157, 4.376974 51.9105646, 4.3767314 51.9104928, 4.376412 51.9103872), (4.376412 51.9103872, 4.3749771 51.9099701, 4.37487 51.9099404, 4.3746601 51.9098752), (4.3746601 51.9098752, 4.3745226 51.9098322, 4.374277 51.9097529), (4.374277 51.9097529, 4.3732742 51.9094137, 4.3731311 51.9093694, 4.372949 51.9093204), (4.372949 51.9093204, 4.3727175 51.9092526), (4.3727175 51.9092526, 4.3723789 51.9092076, 4.3721194 51.90926, 4.3717796 51.9092015, 4.3716273 51.9091717, 4.3713727 51.9092542), (4.3713727 51.9092542, 4.3711607 51.9091592, 4.3707754 51.9090997, 4.3706535 51.9090849, 4.3703818 51.9090581, 4.3696989 51.9090244, 4.3694731 51.9089959, 4.369128 51.9089487), (4.369128 51.9089487, 4.368667 51.9089266, 4.3679363 51.9089204, 4.3677375 51.9089313, 4.3674451 51.9089456, 4.3671429 51.9089781, 4.3668089 51.9090127), (4.3668089 51.9090127, 4.366604 51.9090471, 4.3665364 51.9090594), (4.3662201 51.9093557, 4.3662466 51.9092896, 4.3662532 51.9092177, 4.3662939 51.9091547, 4.3664061 51.9090948, 4.3665364 51.9090594), (4.3641086 51.9098235, 4.3642746 51.909836, 4.3644335 51.90981, 4.3650426 51.9096896, 4.3652479 51.9096503, 4.3656102 51.9095755, 4.3659478 51.9095051, 4.3660967 51.9094542, 4.3661665 51.9094125, 4.3662201 51.9093557), (4.3611126 51.9107367, 4.3611208 51.9107423, 4.3611339 51.9107527, 4.3611597 51.9107722, 4.3611809 51.9107825, 4.3612213 51.9108023, 4.3613344 51.9108012, 4.3614523 51.9107598, 4.3618808 51.9105876, 4.3622939 51.9103907, 4.3631313 51.9100301, 4.363477 51.9098659, 4.3636342 51.9098051, 4.3637472 51.9097786, 4.3639217 51.909792, 4.3641086 51.9098235), (4.361054 51.9107217, 4.3611126 51.9107367), (4.361003 51.9107058, 4.361054 51.9107217), (4.361003 51.9107058, 4.3610858 51.9106382, 4.3611254 51.9105905, 4.3612273 51.9104633, 4.3612512 51.9104357, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3601654 51.9103626, 4.3598195 51.9101251, 4.3596939 51.9099938), (4.3596939 51.9099938, 4.3596106 51.9099183, 4.3594546 51.9097895), (4.3594546 51.9097895, 4.3593013 51.9096644, 4.3591826 51.9095669), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3586815 51.9093418, 4.3584023 51.9093665, 4.3582834 51.9093753, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3525496 51.9094094, 4.3525195 51.9094715), (4.3525195 51.9094715, 4.3524649 51.9095268, 4.3523892 51.9095718, 4.3523097 51.9095992), (4.3523097 51.9095992, 4.3522975 51.9096035, 4.3522368 51.9096136), (4.3522368 51.9096136, 4.3521958 51.9096197, 4.3520908 51.9096195, 4.3520628 51.9096149), (4.3520628 51.9096149, 4.3519892 51.9096028, 4.3519821 51.9096002), (4.3519821 51.9096002, 4.3518979 51.9095707, 4.3518673 51.9095523, 4.3518228 51.9095254, 4.3517875 51.9094917, 4.3517808 51.9094853, 4.3517469 51.9094302, 4.3517346 51.9093718), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3446973 51.909355, 4.3449363 51.909356), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3437 51.9094, 4.3435453 51.9094618, 4.343117 51.9095625), (4.343117 51.9095625, 4.3430661 51.9095744, 4.342946 51.9095826), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.338072 51.9111947, 4.3384213 51.9116402, 4.338593 51.9118611, 4.3386821 51.9119758, 4.3387027 51.9120181), (4.3387027 51.9120181, 4.3387055 51.912026, 4.3387083 51.9120338), (4.3387083 51.9120338, 4.338691 51.9120689), (4.338691 51.9120689, 4.3386553 51.9120947, 4.3381667 51.9122894, 4.3375539 51.9125293, 4.3373137 51.9126233), (4.3373137 51.9126233, 4.3371572 51.9126845), (4.3371572 51.9126845, 4.3369974 51.9127347), (4.3369974 51.9127347, 4.3369115 51.9127655, 4.3367019 51.9128422), (4.3367019 51.9128422, 4.3364853 51.9129373), (4.3364853 51.9129373, 4.3362593 51.9130261, 4.3362096 51.9130444, 4.3361593 51.9130626), (4.3361593 51.9130626, 4.3359725 51.913141), (4.3359725 51.913141, 4.3360339 51.9132055, 4.3361144 51.9133822), (4.3361144 51.9133822, 4.3365337 51.9138407), (4.3365337 51.9138407, 4.3369199 51.9142205), (4.3369199 51.9142205, 4.3371032 51.9143301, 4.3371571 51.9144645), (4.3371571 51.9144645, 4.3373518 51.9146625, 4.3374216 51.9147341, 4.3375905 51.9149057), (4.3375905 51.9149057, 4.337831 51.9150142, 4.3379327 51.9151103, 4.3379942 51.9151728, 4.3381045 51.9152755), (4.3381045 51.9152755, 4.3382107 51.9153718), (4.3382107 51.9153718, 4.3380134 51.9154159), (4.3380134 51.9154159, 4.3378017 51.9154633, 4.3367375 51.9157318, 4.3365378 51.9157827, 4.3345074 51.9163096, 4.3342946 51.916365, 4.3335094 51.9165703, 4.333307 51.9166218, 4.3327427 51.9167678, 4.3326707 51.9167881, 4.3326299 51.9167996), (4.3326299 51.9167996, 4.3320681 51.916945, 4.3320047 51.9169628, 4.3319724 51.916971, 4.331612 51.9170624, 4.3314816 51.9170955, 4.3313833 51.9171204), (4.3313833 51.9171204, 4.3314003 51.9172564), (4.3314003 51.9172564, 4.3313935 51.9173909, 4.3313557 51.917493, 4.3313309 51.9175706), (4.3313309 51.9175706, 4.3312501 51.9176647, 4.3311935 51.9177306), (4.3311935 51.9177306, 4.3310548 51.917902), (4.3310548 51.917902, 4.3306426 51.9183387, 4.3305422 51.918445), (4.3305422 51.918445, 4.3301739 51.9183159), (4.3301739 51.9183159, 4.3300198 51.9182735), (4.3300198 51.9182735, 4.3296221 51.9181848, 4.3292437 51.9180982, 4.3287635 51.9179931), (4.3287635 51.9179931, 4.3284303 51.9179212, 4.3276444 51.9177794, 4.3267735 51.917632, 4.3260899 51.9175431), (4.3260899 51.9175431, 4.3251586 51.9175332, 4.3243217 51.917558, 4.323657 51.9175986, 4.3222725 51.9177582, 4.3200161 51.9180443), (4.3200161 51.9180443, 4.3188527 51.91819, 4.3176818 51.9183385), (4.3176818 51.9183385, 4.3165649 51.9184949, 4.3144232 51.9187784, 4.3127346 51.9189939, 4.3104896 51.9193017, 4.3087837 51.91952, 4.3074506 51.9196557, 4.3061873 51.9197649), (4.3061873 51.9197649, 4.3051332 51.9198773, 4.3041542 51.9199551, 4.3035695 51.9199965), (4.3035695 51.9199965, 4.3018422 51.9201222, 4.30089 51.9202281, 4.2999901 51.9203307), (4.2999901 51.9203307, 4.2986181 51.9205226, 4.2974548 51.9207097, 4.2960218 51.9209924, 4.2947531 51.9212289, 4.2939967 51.9213596, 4.2930441 51.921509), (4.2930441 51.921509, 4.2907606 51.9218038, 4.2881133 51.9221478, 4.2864707 51.9223591), (4.2864707 51.9223591, 4.2837346 51.9227037, 4.2809414 51.9230548), (4.2809414 51.9230548, 4.2791591 51.9232842), (4.2791591 51.9232842, 4.2778999 51.9234501, 4.2769096 51.9235641), (4.2769096 51.9235641, 4.2759253 51.923757, 4.2752082 51.9238681, 4.2746904 51.9239505, 4.2742317 51.9240403), (4.2742317 51.9240403, 4.273911 51.9241097), (4.273911 51.9241097, 4.2735419 51.9241895), (4.2735419 51.9241895, 4.2730539 51.9243458, 4.2727804 51.9244382), (4.2727804 51.9244382, 4.2726105 51.9245553, 4.2722354 51.9247144, 4.2721626 51.9247544), (4.2721626 51.9247544, 4.2720599 51.924784, 4.2719557 51.9248898, 4.2719287 51.924922, 4.2719049 51.9250118), (4.2719049 51.9250118, 4.2718609 51.925057, 4.2717971 51.9250931, 4.2717711 51.9250977, 4.2715309 51.9251428, 4.271475 51.9251532), (4.271475 51.9251532, 4.2714369 51.925084), (4.2714369 51.925084, 4.2714006 51.9250631, 4.2713605 51.9250043, 4.2713319 51.9249726), (4.2713319 51.9249726, 4.2712981 51.924963, 4.2712638 51.9249505, 4.2712302 51.9249347, 4.2711978 51.9249144), (4.2711978 51.9249144, 4.2711691 51.9248917, 4.2711497 51.9248691, 4.2711362 51.924845, 4.2711327 51.9248272, 4.2711289 51.9248042, 4.2711275 51.9247818, 4.2711358 51.9247576, 4.2711495 51.9247322, 4.2711643 51.9246986, 4.27117 51.924671), (4.27117 51.924671, 4.27117 51.9246157, 4.2711558 51.9245331), (4.2711558 51.9245331, 4.2710681 51.9243563), (4.2710681 51.9243563, 4.2709162 51.9240614), (4.2709162 51.9240614, 4.2708001 51.9239246, 4.2707735 51.9238966, 4.2707374 51.9238742), (4.2707374 51.9238742, 4.2706934 51.9238551, 4.2706516 51.9238411, 4.2706136 51.9238235, 4.2705801 51.9238026, 4.2705521 51.9237789, 4.27053 51.9237529, 4.2705144 51.9237252), (4.2705144 51.9237252, 4.2705082 51.9236986, 4.2705081 51.9236717, 4.2705137 51.923645, 4.2705252 51.923619, 4.2705421 51.9235942), (4.2705421 51.9235942, 4.2705587 51.9235716, 4.2705729 51.9235419, 4.2705776 51.9235175, 4.270571 51.9234954, 4.2705542 51.9234645, 4.2704463 51.9233519, 4.2703445 51.9232614, 4.2701181 51.9230788, 4.2698795 51.9229281), (4.2698795 51.9229281, 4.2697331 51.922846, 4.2694749 51.9227167, 4.2692217 51.9226124, 4.269128 51.9225713, 4.2688722 51.9224739, 4.2686593 51.9224003, 4.2680322 51.9221958), (4.2680322 51.9221958, 4.2670811 51.9218888), (4.2670811 51.9218888, 4.2663982 51.9216688), (4.2663982 51.9216688, 4.2662324 51.9216295, 4.2660552 51.921572, 4.2660137 51.9215586, 4.2659709 51.9215447, 4.2658855 51.9215263, 4.2658271 51.9215308), (4.2658271 51.9215308, 4.2657984 51.9215446, 4.265767 51.9215561, 4.2657336 51.9215651, 4.2656986 51.9215714, 4.2656626 51.921575, 4.2656262 51.9215763, 4.265588 51.9215745, 4.2655533 51.92157, 4.2655217 51.9215633, 4.2654912 51.9215541, 4.2654622 51.9215432, 4.2654382 51.921532), (4.2654382 51.921532, 4.2654032 51.9215099, 4.2653774 51.9214864, 4.2653639 51.9214712, 4.2653527 51.9214554, 4.2653437 51.921439, 4.2653372 51.9214222, 4.2653331 51.921405, 4.2653301 51.921393), (4.2653301 51.921393, 4.2653263 51.9213796, 4.2653208 51.9213665, 4.2653135 51.9213537, 4.2653046 51.9213413, 4.265294 51.9213294, 4.2652691 51.9213147, 4.2652237 51.9212983, 4.265167 51.9212779, 4.2649069 51.921161), (4.2649069 51.921161, 4.2643639 51.9209568, 4.2637953 51.9207568), (4.2637953 51.9207568, 4.2630387 51.9205062, 4.2616396 51.9200669, 4.2611264 51.9198906, 4.2605844 51.9197111, 4.26024 51.919597, 4.2601873 51.9195808, 4.2600752 51.9195425), (4.2600752 51.9195425, 4.2600516 51.9195559, 4.2600251 51.919567, 4.2599964 51.9195758, 4.2599659 51.919582, 4.2599344 51.9195856, 4.2599024 51.9195864, 4.2598704 51.9195844, 4.2598393 51.9195797, 4.2598095 51.9195724), (4.2573246 51.9225354, 4.2575023 51.9223036, 4.2575611 51.9222267, 4.2577879 51.9219428, 4.2581358 51.9215252, 4.2582315 51.9214088, 4.2586578 51.9209387, 4.2590222 51.9205369, 4.2594573 51.9200291, 4.2596906 51.9197266, 4.2597381 51.9196639, 4.2597592 51.9196387, 4.2598095 51.9195724), (4.2573246 51.9225354, 4.2572123 51.9226886), (4.2572123 51.9226886, 4.2568239 51.9231621, 4.2567781 51.9232215), (4.2567781 51.9232215, 4.2567486 51.9232597), (4.2567486 51.9232597, 4.256698 51.9233291), (4.256698 51.9233291, 4.2565123 51.9235826, 4.2564778 51.9236169, 4.2564452 51.9236363, 4.2563873 51.9236562), (4.2563873 51.9236562, 4.2563151 51.9236637, 4.2562413 51.9236593, 4.2561651 51.9236462, 4.2556 51.9235, 4.2553031 51.9234245, 4.255119 51.9233748, 4.2547712 51.9232843, 4.2543371 51.9231714, 4.2539268 51.9230591, 4.2538229 51.9230429, 4.253756 51.9230382, 4.2537154 51.9230459), (4.2533073 51.9233637, 4.2533947 51.9233385, 4.2534477 51.9233104, 4.2534712 51.9232807, 4.2535316 51.923184, 4.2535756 51.9231153, 4.2536046 51.9230844, 4.2536497 51.9230588, 4.2537154 51.9230459), (4.2525517 51.9232053, 4.252652 51.9232142, 4.2530078 51.9233098, 4.2531502 51.923349, 4.2532482 51.9233639, 4.2533073 51.9233637), (4.2525517 51.9232053, 4.2524806 51.9232221, 4.2520446 51.9234766, 4.2517873 51.923653, 4.2517099 51.9237474, 4.2516 51.9239, 4.2513 51.9243, 4.2512375 51.9243752, 4.251163 51.9244468, 4.2509877 51.9245879, 4.2505739 51.9249411), (4.2505739 51.9249411, 4.2505364 51.9250106, 4.2504941 51.9250763, 4.2504566 51.9251717), (4.2504566 51.9251717, 4.2505046 51.9252095, 4.2505234 51.9252387, 4.2505313 51.9252754, 4.2505034 51.9253425, 4.2504434 51.9253858, 4.250397 51.925403, 4.250304 51.9254151, 4.2502305 51.9254074, 4.2501572 51.9253815), (4.2501572 51.9253815, 4.2499822 51.9254053, 4.2498798 51.9254306, 4.2497718 51.9254407), (4.2497718 51.9254407, 4.2488463 51.9258642), (4.2488463 51.9258642, 4.2487507 51.9259339, 4.2485453 51.926042, 4.2482899 51.926155, 4.248122 51.9261996), (4.248122 51.9261996, 4.2476658 51.9264131, 4.2474554 51.9265163, 4.2473324 51.926575, 4.2472869 51.9265984), (4.2472869 51.9265984, 4.2471321 51.9266764, 4.2469196 51.9267633), (4.2469196 51.9267633, 4.24683 51.9268416), (4.24683 51.9268416, 4.2467663 51.9268829, 4.2467157 51.9268936, 4.2466446 51.9269241, 4.2465777 51.9269904, 4.246527 51.9270517, 4.2464662 51.9270867, 4.2464013 51.9271029, 4.246302 51.9271167, 4.2462411 51.9271267, 4.2461829 51.927173, 4.2461438 51.9272079, 4.2460401 51.927274), (4.2460401 51.927274, 4.2458966 51.9274065, 4.2457296 51.9275299, 4.2453629 51.9277561), (4.2453629 51.9277561, 4.2448254 51.928105, 4.2448026 51.9281198, 4.2446561 51.9282111), (4.2446561 51.9282111, 4.2444563 51.928336, 4.2441427 51.9285355, 4.2426826 51.9294567, 4.2426449 51.9294806, 4.24236 51.9296603, 4.2419781 51.9299096), (4.2419781 51.9299096, 4.2412944 51.9303565, 4.2412294 51.930393, 4.2410697 51.9304919), (4.2410697 51.9304919, 4.2409564 51.9305561), (4.2409564 51.9305561, 4.2408019 51.9304708), (4.2408019 51.9304708, 4.2407008 51.9304217, 4.2404133 51.9302735), (4.2404133 51.9302735, 4.2402466 51.9301432), (4.239944 51.9299588, 4.2401348 51.9300771, 4.2402466 51.9301432), (4.2395664 51.9297336, 4.2399109 51.9299392, 4.239944 51.9299588), (4.2395664 51.9297336, 4.2393986 51.9296713, 4.2392728 51.9295598), (4.2385689 51.9291152, 4.2392728 51.9295598), (4.2385689 51.9291152, 4.2384391 51.9290772, 4.2383707 51.9290109), (4.2379821 51.9287754, 4.2383707 51.9290109), (4.2379821 51.9287754, 4.2378597 51.9287085, 4.2375868 51.9285469, 4.2372978 51.9283758, 4.237136 51.928266, 4.2370914 51.9282072), (4.2357087 51.9273488, 4.2361711 51.9276359, 4.2370914 51.9282072), (4.2357087 51.9273488, 4.2355617 51.9272923, 4.2354572 51.9271969), (4.2359671 51.9267941, 4.2358355 51.9269303, 4.2356971 51.9270198, 4.2355502 51.9271231, 4.2354572 51.9271969), (4.2364766 51.9262826, 4.2364136 51.9263218, 4.2363981 51.9263295, 4.2359671 51.9267941), (4.2365344 51.9262467, 4.2364766 51.9262826), (4.2365344 51.9262467, 4.2362522 51.9260742))</t>
+          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.5105415 51.8754014, 4.510776 51.8752818, 4.5109024 51.8752089, 4.5110329 51.8751203), (4.5110329 51.8751203, 4.5112047 51.8749389), (4.5112047 51.8749389, 4.5115852 51.8745949, 4.5119918 51.8741924), (4.5119918 51.8741924, 4.5124366 51.8737681), (4.5124366 51.8737681, 4.5130293 51.8731922, 4.513444 51.8727936, 4.5138482 51.8723891, 4.513983 51.8722283, 4.5141152 51.8720659, 4.51419 51.8719714, 4.5143362 51.8717699), (4.5143362 51.8717699, 4.5144448 51.8715932, 4.514536 51.8714408, 4.5146219 51.8712883, 4.5147742 51.8709813), (4.5147742 51.8709813, 4.5148605 51.870739, 4.5149478 51.8704562, 4.5150113 51.8701689, 4.5150652 51.8698476, 4.5150862 51.869489), (4.5150862 51.869489, 4.5151156 51.8691838), (4.5151156 51.8691838, 4.5151296 51.8690358, 4.5151392 51.8689342), (4.5151392 51.8689342, 4.5152286 51.8687194), (4.5152286 51.8687194, 4.5153662 51.8680853, 4.5154245 51.8678352, 4.5154447 51.8677532, 4.5154762 51.8676467, 4.5155034 51.8675544, 4.5155305 51.8674685, 4.5155717 51.867358, 4.5156125 51.8672626, 4.5156494 51.8671878, 4.5156789 51.8671323, 4.5157084 51.8670768, 4.5157569 51.8669981, 4.5158174 51.8669084), (4.5158174 51.8669084, 4.5161773 51.8664051, 4.5165072 51.8659436, 4.5169064 51.8653852, 4.5170635 51.8651655, 4.5171099 51.8650991, 4.5171525 51.8650352, 4.5171844 51.8649843, 4.5172125 51.8649368, 4.5172402 51.8648872, 4.5172771 51.8648164), (4.5172771 51.8648164, 4.5173356 51.8646937, 4.5173491 51.8646612, 4.5173627 51.8646232, 4.5173723 51.8645842, 4.5173807 51.8645449, 4.5173876 51.8645013, 4.5173909 51.8644484, 4.5173913 51.8644182, 4.5173886 51.8643829, 4.5173828 51.8643495, 4.5173726 51.8643024, 4.5173609 51.8642584, 4.5173474 51.8642203, 4.5173284 51.8641818, 4.5173046 51.8641402, 4.5172788 51.8640967, 4.5172515 51.8640525, 4.5172208 51.8640106, 4.5171812 51.8639665, 4.5171132 51.8639017, 4.5170372 51.8638423, 4.5169611 51.8637921, 4.5168933 51.8637525, 4.5168086 51.8637115, 4.5167027 51.8636618, 4.5165823 51.8636142, 4.5164514 51.8635678, 4.5163229 51.8635265, 4.51621 51.8634922, 4.5160926 51.8634626, 4.5159753 51.8634372, 4.5158673 51.8634169, 4.5157549 51.8633985, 4.5156375 51.8633807, 4.5155193 51.863367, 4.51541 51.863359, 4.5152937 51.8633554, 4.5151818 51.8633565, 4.5150804 51.8633647, 4.5149872 51.8633765, 4.5148858 51.8633945, 4.5148008 51.8634153, 4.5145046 51.8635018, 4.514294 51.8636051, 4.5141189 51.8637213, 4.5139802 51.8638706, 4.5138955 51.8640109, 4.5138395 51.8641724, 4.5138513 51.8644091, 4.5139563 51.864616, 4.5141045 51.8647797, 4.5143152 51.8649315, 4.5146301 51.8650682, 4.5149704 51.8651203, 4.5152626 51.8651313, 4.5155375 51.8651288, 4.5158788 51.8651067, 4.5161595 51.8651216), (4.5161595 51.8651216, 4.5167068 51.8650917, 4.5169508 51.8650755, 4.5178202 51.8650219, 4.5187389 51.864962, 4.5193734 51.8649111, 4.5197004 51.8648844, 4.5201615 51.864843), (4.5201615 51.864843, 4.5213874 51.8647202, 4.5225584 51.8646005, 4.5238924 51.864434, 4.5251796 51.8642698, 4.5253728 51.8642423, 4.5262595 51.8641789), (4.5262595 51.8641789, 4.5276191 51.8639975, 4.5288418 51.8638506, 4.5294743 51.8637844, 4.5310465 51.8636484, 4.5339191 51.8635293), (4.5339191 51.8635293, 4.5347441 51.863533, 4.53592 51.863559), (4.53592 51.863559, 4.5366308 51.8635799), (4.5366308 51.8635799, 4.537808 51.8636469, 4.538599 51.8637127, 4.5395993 51.8638207, 4.5408043 51.8639757, 4.5421351 51.8641921, 4.5434546 51.8644467), (4.5434546 51.8644467, 4.5447329 51.8647254), (4.5447329 51.8647254, 4.5452991 51.8648724), (4.5452991 51.8648724, 4.546221 51.8650046), (4.546221 51.8650046, 4.5469904 51.8651785), (4.5469904 51.8651785, 4.5478061 51.8653934, 4.5483858 51.8655607, 4.5489312 51.8657262), (4.5489312 51.8657262, 4.549375 51.8657889, 4.5502664 51.8660772), (4.5502664 51.8660772, 4.5510077 51.8663154, 4.5512039 51.8663708, 4.5513821 51.8664234), (4.5513821 51.8664234, 4.5516986 51.8664905, 4.5519454 51.8665134, 4.5522082 51.8665205, 4.5524718 51.8665007, 4.5527093 51.8664701), (4.5527093 51.8664701, 4.5529265 51.8664381, 4.5532715 51.8663684, 4.5536218 51.8662767), (4.5536218 51.8662767, 4.553988 51.8661817, 4.5543965 51.8660586), (4.5543965 51.8660586, 4.5546496 51.8659843), (4.5546496 51.8659843, 4.554867 51.8659194, 4.5550797 51.8658572, 4.5555469 51.8657504, 4.5557722 51.8657124, 4.5559251 51.8656958, 4.5561209 51.8656834), (4.5561209 51.8656834, 4.5562872 51.8656834), (4.5562872 51.8656834, 4.5564455 51.8656875, 4.5566654 51.8656925, 4.5568451 51.8657024, 4.557049 51.8657281, 4.5573816 51.8657745, 4.5575801 51.8658109, 4.5580937 51.865907, 4.558315 51.8659384, 4.5585014 51.8659583, 4.5587177 51.8659788), (4.5587177 51.8659788, 4.5589416 51.8659892), (4.5589416 51.8659892, 4.5592827 51.8660015, 4.5599872 51.8660334), (4.5599872 51.8660334, 4.560372 51.8660509, 4.5604185 51.8660533, 4.5607147 51.8660662), (4.5607147 51.8660662, 4.560841 51.8660711), (4.560841 51.8660711, 4.5611239 51.8660824, 4.5612437 51.8660883), (4.5612437 51.8660883, 4.5614692 51.8660981, 4.5620322 51.8661232, 4.562218 51.8661349, 4.5623505 51.8661502, 4.5626953 51.8661832), (4.5626953 51.8661832, 4.5628245 51.8661954, 4.563017 51.8662147, 4.5633735 51.8662275, 4.5654446 51.8663235), (4.5654446 51.8663235, 4.5665786 51.8663715, 4.5668739 51.8663851), (4.5668739 51.8663851, 4.567095 51.8663946), (4.567095 51.8663946, 4.5674293 51.8664085, 4.5709253 51.8665663, 4.5717079 51.8666003), (4.5717079 51.8666003, 4.5728089 51.8666474, 4.5731299 51.8666654), (4.5731299 51.8666654, 4.5732771 51.8666716), (4.5732771 51.8666716, 4.5735754 51.8666834, 4.5741434 51.8667084, 4.5753529 51.8667687, 4.5756714 51.8667866, 4.576009 51.8668245, 4.5762982 51.866872, 4.5764571 51.8669253), (4.5764571 51.8669253, 4.576701 51.8669836), (4.576701 51.8669836, 4.5769211 51.8670417, 4.5771268 51.8671104, 4.5773409 51.8671903), (4.5773409 51.8671903, 4.5775191 51.8672689, 4.5777512 51.8673813, 4.5780426 51.8675455, 4.5782784 51.8676923, 4.5785613 51.8678838), (4.5785613 51.8678838, 4.580583 51.8692209), (4.580583 51.8692209, 4.5826078 51.8705335), (4.5826078 51.8705335, 4.5828217 51.8706735), (4.5828217 51.8706735, 4.5830525 51.8708312), (4.5830525 51.8708312, 4.583293 51.8709832, 4.5833996 51.871053, 4.5836532 51.8712198, 4.5836741 51.8712336, 4.5837711 51.8712973), (4.5837711 51.8712973, 4.5838234 51.8712771, 4.5838843 51.8712706, 4.5839446 51.8712788, 4.5839955 51.8713005, 4.5840295 51.8713329, 4.5840409 51.8713709, 4.5840279 51.8714086, 4.5839924 51.8714405), (4.5839924 51.8714405, 4.5840791 51.8714972, 4.5841246 51.8715271, 4.5846026 51.8718404, 4.5848583 51.872008, 4.5860281 51.8727748, 4.5864742 51.8730672, 4.5867465 51.8732563, 4.5867756 51.8732755, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5897659 51.8715749, 4.5886281 51.87236), (4.5897659 51.8715749, 4.5898504 51.871497, 4.5899268 51.8714203, 4.5900133 51.8713507, 4.5900492 51.8713266, 4.5902238 51.8712024), (4.5902238 51.8712024, 4.5903946 51.8710877, 4.5904209 51.8710668, 4.5905234 51.8710087, 4.5906229 51.8709623, 4.5907274 51.8709121), (4.5928186 51.8684044, 4.5927797 51.8686872, 4.5927303 51.8689302, 4.5926666 51.8691532, 4.5925761 51.8693459, 4.5924597 51.8695354, 4.5923073 51.8697262, 4.5920803 51.8699459, 4.5918068 51.8701646, 4.5914964 51.8703837, 4.5913743 51.8704663, 4.5912463 51.8705585, 4.5909441 51.8707632, 4.5907274 51.8709121), (4.5928186 51.8684044, 4.5928014 51.8683001, 4.5927836 51.8682149, 4.5927821 51.8681576, 4.5927876 51.8681274, 4.5928279 51.8679164), (4.5928279 51.8679164, 4.5928494 51.8677531, 4.5928546 51.8677205, 4.5928934 51.8676132, 4.5929479 51.8674742), (4.5960837 51.8649236, 4.5959896 51.8649829, 4.5958 51.8651, 4.5956085 51.8652145, 4.5952283 51.8654301, 4.5937477 51.8663344, 4.5934524 51.866516, 4.5933022 51.8666296, 4.5931589 51.8667686, 4.5931013 51.866846, 4.5930381 51.8669753, 4.5930075 51.8670945, 4.5929817 51.8672564, 4.5929479 51.8674742), (4.5960837 51.8649236, 4.5960486 51.8648977, 4.5960282 51.8648663, 4.5960245 51.8648326, 4.5960378 51.8647998, 4.5960669 51.8647711, 4.5961089 51.8647495), (4.5961089 51.8647495, 4.5961607 51.8647367, 4.5962163 51.8647347, 4.5962702 51.8647435, 4.5963168 51.8647624), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6041347 51.8658049, 4.6041856 51.865799, 4.6042369 51.865803, 4.6042838 51.8658164, 4.6043219 51.865838, 4.6043476 51.8658657, 4.6043587 51.8659039, 4.6043463 51.8659419, 4.6043121 51.8659745, 4.604261 51.8659971), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.6052897 51.867058, 4.6053952 51.867092, 4.6057101 51.8672583, 4.6059378 51.8673591, 4.6061161 51.867439, 4.6061637 51.8674603, 4.6062881 51.8675197), (4.6062881 51.8675197, 4.6063748 51.8675047, 4.6064639 51.8675126), (4.6064639 51.8675126, 4.606531 51.8675369, 4.60658 51.8675742), (4.60658 51.8675742, 4.6066062 51.8676298, 4.6065922 51.8676869), (4.6065922 51.8676869, 4.6067014 51.8677477, 4.6067533 51.8677737, 4.6071121 51.8679527, 4.6075754 51.8681734, 4.6079173 51.8683759, 4.6081932 51.8685763, 4.6083498 51.8687425, 4.6085455 51.8689435, 4.6086673 51.8691173, 4.6088809 51.8694822, 4.6090784 51.8698345, 4.6092589 51.8701641, 4.6093664 51.8703131, 4.6094393 51.8703991, 4.6095095 51.8704809), (4.6095095 51.8704809, 4.6095591 51.870494, 4.6095991 51.8705163), (4.6095991 51.8705163, 4.6097407 51.870494, 4.6100221 51.870448, 4.6101383 51.870449), (4.6111102 51.8700307, 4.6110109 51.8701791, 4.6109185 51.8702614, 4.6107786 51.8703212, 4.61058 51.8703602, 4.6104153 51.8703923, 4.6101383 51.870449), (4.6143716 51.869073, 4.6142547 51.8690928, 4.6140284 51.8691368, 4.6129838 51.8693434, 4.6127725 51.8693824, 4.6126818 51.8694016, 4.6126478 51.8694088, 4.6117392 51.8695892, 4.6115148 51.8696359, 4.6114208 51.869674, 4.611334 51.8697301, 4.6112 51.8699, 4.6111102 51.8700307), (4.6143716 51.869073, 4.6147226 51.8690314, 4.615024 51.8690422, 4.6152608 51.8690827, 4.6154801 51.8691477, 4.6157169 51.8692424, 4.6161573 51.8694483, 4.6162358 51.8694859, 4.6165017 51.8696104, 4.6170348 51.8698647, 4.6171442 51.8699168, 4.6173092 51.8699802, 4.6175592 51.870004, 4.6177862 51.8699844, 4.6180271 51.8698794, 4.6182374 51.8696988, 4.6183137 51.8696392, 4.6186553 51.8693572, 4.6191454 51.8689605, 4.6192822 51.8688502, 4.6196757 51.8685357, 4.6199592 51.8681874, 4.619996 51.8681422, 4.6202549 51.8679236, 4.6203351 51.867851, 4.6205192 51.8677005), (4.6210549 51.8665995, 4.6211706 51.866921, 4.6211761 51.8670767, 4.621152 51.8671758, 4.6210449 51.8672787, 4.6206679 51.8675812, 4.6205192 51.8677005), (4.6210549 51.8665995, 4.6209926 51.8665332, 4.6209393 51.8664113, 4.620931 51.8663919, 4.6209097 51.8663434, 4.620898 51.8663169), (4.620898 51.8663169, 4.6208401 51.8663122, 4.6207892 51.8662959, 4.6207538 51.866274, 4.6207299 51.8662473), (4.6207299 51.8662473, 4.6207187 51.8662156, 4.6207211 51.8661892, 4.6207338 51.8661637), (4.6207338 51.8661637, 4.6207532 51.8661432, 4.6207795 51.8661257, 4.6208089 51.866113), (4.6208089 51.866113, 4.620768 51.8660188, 4.6207587 51.8659887, 4.6206793 51.8657129))</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>383704</t>
+          <t>383140</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1058,17 +1058,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Capelle aan den IJssel, Operalaan</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bus 30: Rotterdam Station Alexander =&gt; Capelle Schollevaar</t>
+          <t>Bus 146: Ridderkerk Drievliet =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1079,14 +1079,14 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5521298 51.9520982, 4.5521448 51.9520508, 4.5523312 51.9519987), (4.5523312 51.9519987, 4.5525756 51.9520624, 4.5524949 51.9524061), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556635 51.9523168, 4.5556662 51.9522246, 4.5556983 51.9521449, 4.5557319 51.9520613, 4.555787 51.9519264, 4.5558017 51.9518965, 4.555853 51.9518422), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5560787 51.9512475, 4.5556664 51.951177, 4.5555308 51.9511328, 4.5554069 51.9510761, 4.5553136 51.9510114), (4.5553136 51.9510114, 4.5552663 51.9509693), (4.5552663 51.9509693, 4.5552148 51.9508771, 4.5552019 51.9507641, 4.5552139 51.9507074, 4.5552483 51.9506131, 4.5552497 51.9506093), (4.5552497 51.9506093, 4.5552706 51.9505523), (4.5552706 51.9505523, 4.5554109 51.9501973, 4.5555868 51.9498173, 4.5556261 51.9497323, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5565252 51.945449), (4.5565252 51.945449, 4.5566413 51.9454101, 4.556665 51.9454022, 4.5567204 51.9453825, 4.5570236 51.9452744), (4.5570236 51.9452744, 4.5573256 51.9451667, 4.558098 51.9448935), (4.558098 51.9448935, 4.5598696 51.9442764, 4.5601156 51.9441888, 4.5603427 51.9441306, 4.5605838 51.9441016, 4.5609927 51.9441028, 4.5614516 51.9441798, 4.5623885 51.9443342, 4.5625515 51.9443662, 4.5631824 51.9444896, 4.5635204 51.9446119, 4.5638955 51.9448439, 4.5646402 51.9453018, 4.5649372 51.9454878, 4.5659353 51.9461053, 4.566651 51.9465651, 4.5667991 51.946821, 4.5669933 51.9469628), (4.5669933 51.9469628, 4.567149 51.9470642), (4.567149 51.9470642, 4.5679499 51.9474809, 4.5680637 51.9475422), (4.5680637 51.9475422, 4.5682307 51.9476111), (4.5682307 51.9476111, 4.5683493 51.9476844, 4.5683517 51.9476856, 4.5684502 51.9477358), (4.5684502 51.9477358, 4.5687634 51.9478953), (4.5687634 51.9478953, 4.5697791 51.9479519), (4.5697791 51.9479519, 4.5697527 51.948205, 4.5697233 51.9484564, 4.5697592 51.9485628, 4.5699052 51.9486855), (4.5699052 51.9486855, 4.5700123 51.9486645, 4.5701518 51.9486585, 4.5704504 51.9486665, 4.5705198 51.9486686, 4.5711383 51.9486875, 4.5712973 51.9487035, 4.571432 51.9487365, 4.5715391 51.9487865, 4.5716202 51.9488493, 4.5719555 51.9490839, 4.5723636 51.9494183, 4.5724438 51.9494598), (4.5724438 51.9494598, 4.5725379 51.9494842, 4.5728243 51.9495102, 4.5729703 51.9495304, 4.5731795 51.9495741, 4.5734126 51.9495918, 4.5735545 51.9496017, 4.5741231 51.9496413), (4.5741231 51.9496413, 4.5745324 51.9495777, 4.5752111 51.9496242, 4.5756641 51.9497218, 4.5757862 51.9497428), (4.5757862 51.9497428, 4.5760539 51.9497603, 4.5761343 51.9497674, 4.5762264 51.9497947, 4.5762725 51.9498205, 4.5762971 51.9498343, 4.576353 51.949892, 4.5763596 51.9499579, 4.5763365 51.9501484, 4.576353 51.9502052, 4.5763777 51.9502538, 4.5764479 51.950299, 4.5765468 51.950337), (4.5765468 51.950337, 4.5766436 51.9503633, 4.5767757 51.9503798), (4.5767757 51.9503798, 4.5769748 51.9503938, 4.5771331 51.950405, 4.5785523 51.950505), (4.5785523 51.950505, 4.579333 51.9505618), (4.579333 51.9505618, 4.5795895 51.9505794, 4.5797258 51.9506024, 4.5798134 51.9506564, 4.5799173 51.9507494, 4.5800227 51.9508504, 4.5801298 51.9509174, 4.5802578 51.950972, 4.580401 51.9510038, 4.5807269 51.9510604, 4.580993 51.9510994, 4.5814288 51.9511353, 4.5817526 51.9511619, 4.5818247 51.9511838), (4.5818247 51.9511838, 4.5818792 51.9512143, 4.5818951 51.951273, 4.5818364 51.9516804, 4.5818134 51.9517749, 4.5817625 51.9518914, 4.5816945 51.9519968, 4.5816226 51.9521519, 4.5816294 51.952292, 4.5816619 51.9524224, 4.5817456 51.9525271, 4.5819637 51.9527248, 4.5820712 51.9528223, 4.5822061 51.9529375, 4.5823104 51.9530404, 4.582343 51.9530974, 4.5823648 51.9531854), (4.5823648 51.9531854, 4.5825128 51.9532063, 4.5826121 51.9532134, 4.5827062 51.9532424, 4.5827864 51.9532801, 4.5829007 51.9533706, 4.5830475 51.9535106, 4.5830687 51.9535319, 4.5832307 51.9536784, 4.5832859 51.953723, 4.5833583 51.9537534, 4.5834532 51.9537789, 4.5838417 51.9538211, 4.5839635 51.9538331, 4.5844657 51.9538909, 4.5851349 51.9539667, 4.585226 51.953968, 4.5853164 51.9539534, 4.5858493 51.9537926, 4.5861125 51.9537191, 4.5861665 51.9537094, 4.5863703 51.9536887), (4.5863703 51.9536887, 4.5864874 51.9536849), (4.5864874 51.9536849, 4.5864883 51.9537088, 4.5864982 51.9537454, 4.5865195 51.9537821, 4.5865849 51.9538756), (4.5865849 51.9538756, 4.5866413 51.9538788, 4.5866937 51.9538921, 4.5867373 51.9539144, 4.5867681 51.9539437), (4.5867681 51.9539437, 4.5869288 51.9539436, 4.5871867 51.9539363, 4.587341 51.9539494, 4.5874723 51.9539665, 4.5876891 51.9540275, 4.58794 51.9541251, 4.5880224 51.9541728), (4.5880224 51.9541728, 4.588238 51.9542354, 4.5884622 51.9542819, 4.5892629 51.9544056), (4.5904693 51.950309, 4.5906278 51.9503459, 4.5907598 51.9503976, 4.5908811 51.9504782, 4.5910585 51.9506031, 4.5912118 51.950668, 4.5914411 51.9507181, 4.5915811 51.9507642, 4.5916861 51.9508117, 4.5917705 51.9508833, 4.5918331 51.9509671, 4.5918438 51.9510362, 4.5918301 51.9511305, 4.5917838 51.9512087, 4.5916991 51.9512842, 4.5916371 51.9513394, 4.5915651 51.9514191, 4.5915278 51.9514955, 4.5915065 51.9515769, 4.5914958 51.9516878, 4.5914585 51.9518966, 4.5914265 51.9520387, 4.5913211 51.9526739, 4.5913038 51.9527233, 4.5912825 51.9527635, 4.5912198 51.9528136, 4.590855 51.9530045, 4.5904745 51.9532073, 4.5904542 51.9532263, 4.5904178 51.9532713, 4.5903817 51.9535208, 4.5903474 51.9535953, 4.5902476 51.9536945, 4.5899878 51.9538266, 4.5897863 51.953921, 4.5895724 51.9540264, 4.5893957 51.9541753, 4.5893184 51.9542706, 4.5892629 51.9544056), (4.5904693 51.950309, 4.5899185 51.9502727, 4.5897878 51.9502735, 4.5896945 51.9503007, 4.5895 51.9504, 4.5892038 51.9505398, 4.5890851 51.9505669, 4.5889651 51.950562, 4.5885206 51.950532, 4.5882104 51.9505163, 4.5881057 51.950536, 4.5880227 51.9505622, 4.587937 51.9506122, 4.5878842 51.950661, 4.5878587 51.9506993, 4.5878248 51.9507685, 4.5877891 51.950952, 4.5877618 51.9511252, 4.5877833 51.951172, 4.5878361 51.9512568, 4.5879362 51.9513509))</t>
+          <t>MULTILINESTRING ((4.6206793 51.8657129, 4.6206644 51.865647, 4.6206541 51.865522), (4.6227513 51.8619187, 4.622875 51.861985, 4.6230244 51.8620156, 4.6236186 51.8620116, 4.6237354 51.8620337, 4.6238347 51.8621031, 4.6239199 51.8622666, 4.6239387 51.8623028, 4.6240324 51.8624824, 4.624094 51.8626007, 4.6241109 51.8626331, 4.6241357 51.8626763, 4.6243745 51.8631249, 4.6243833 51.8632133, 4.6243773 51.8633522, 4.6243776 51.8634281, 4.6243781 51.8636709, 4.6243791 51.8637037, 4.6243775 51.8639978, 4.6243772 51.8641772, 4.6243156 51.8642558, 4.6242245 51.8643017, 4.6241095 51.8643254, 4.6230787 51.864537, 4.6229542 51.8645626, 4.6228274 51.8645886, 4.6223445 51.8646878, 4.6219637 51.8647659, 4.6218644 51.8647863, 4.6211701 51.8649289, 4.6210455 51.8649545, 4.620738 51.8650176, 4.6206903 51.8650361, 4.6206497 51.8650621, 4.6206197 51.8651118, 4.6206499 51.8654082, 4.6206541 51.865522), (4.6227513 51.8619187, 4.6226198 51.8619773, 4.6225311 51.8620046, 4.6223896 51.8620116, 4.6219315 51.8620155, 4.6215536 51.8620187, 4.6214735 51.8620318, 4.621359 51.8620506, 4.6212749 51.8620723, 4.6205844 51.8622351, 4.6205353 51.862248, 4.6197825 51.8624284, 4.6195887 51.8624755, 4.6194484 51.8625027, 4.6191515 51.8625603, 4.6190656 51.86259, 4.6189826 51.8626453, 4.6185562 51.8627383, 4.6184442 51.8627632, 4.6183485 51.8627859, 4.6179445 51.8628816, 4.6178712 51.8628989, 4.6177321 51.8629319, 4.6175792 51.8629681, 4.6171772 51.8630633, 4.6170556 51.8630921, 4.6167069 51.8631747, 4.616592 51.8632019), (4.6126874 51.8619376, 4.6130509 51.8618449, 4.6131626 51.8618171, 4.6133016 51.8617791, 4.6133906 51.8617735, 4.6140873 51.861773, 4.6142136 51.8617765, 4.6148906 51.8617763, 4.6150523 51.8617747, 4.6152376 51.8617776, 4.6153314 51.8618019, 4.6154087 51.8618351, 4.6156459 51.8620743, 4.6160556 51.8625207, 4.6164 51.8629, 4.616592 51.8632019), (4.6126874 51.8619376, 4.6125576 51.8619662, 4.6119923 51.8620943, 4.6118391 51.8621311, 4.6115195 51.862208, 4.6113138 51.8623181, 4.6111931 51.8623837, 4.610765 51.8626162, 4.6106179 51.8627), (4.6106179 51.8627, 4.6105227 51.862631, 4.6103951 51.8625384, 4.6103362 51.8624956, 4.6100648 51.8622987, 4.6100461 51.8622852, 4.6099106 51.8621869, 4.6098575 51.8621689, 4.6093668 51.8622562, 4.6089933 51.8623283, 4.6083025 51.8624704, 4.6081351 51.8625065, 4.6077637 51.8625842, 4.6073574 51.862666, 4.6070923 51.8624285, 4.6070566 51.8623983), (4.6070566 51.8623983, 4.606629 51.8624916, 4.6064038 51.8625382), (4.6064038 51.8625382, 4.6059425 51.8626344, 4.605177 51.8627959, 4.6048704 51.8628606, 4.603602 51.8631282, 4.6034995 51.8631501, 4.6033256 51.8631872), (4.6033256 51.8631872, 4.6031926 51.8632156), (4.6031926 51.8632156, 4.6029494 51.8632676, 4.6027708 51.8633057), (4.6027708 51.8633057, 4.602693 51.8633277, 4.6026379 51.8633548, 4.6025656 51.8634085), (4.6025656 51.8634085, 4.6023999 51.8635276), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.5963168 51.8647624, 4.5963515 51.8647894, 4.5963706 51.8648218, 4.5963723 51.8648562, 4.5963563 51.8648892, 4.5963243 51.8649175, 4.5962796 51.8649381, 4.5962302 51.8649485, 4.596178 51.8649495, 4.5961277 51.864941, 4.5960837 51.8649236), (4.5960837 51.8649236, 4.5959896 51.8649829, 4.5958 51.8651, 4.5956085 51.8652145, 4.5952283 51.8654301, 4.5937477 51.8663344, 4.5934524 51.866516, 4.5933022 51.8666296, 4.5931589 51.8667686, 4.5931013 51.866846, 4.5930381 51.8669753, 4.5930075 51.8670945, 4.5929817 51.8672564, 4.5929479 51.8674742), (4.5929479 51.8674742, 4.5929659 51.8675988, 4.5929692 51.8677276, 4.5929729 51.86776, 4.5929474 51.867934, 4.5929161 51.8681349, 4.5929125 51.8681633, 4.5928952 51.868225, 4.592868 51.8683065, 4.5928186 51.8684044), (4.5928186 51.8684044, 4.5927797 51.8686872, 4.5927303 51.8689302, 4.5926666 51.8691532, 4.5925761 51.8693459, 4.5924597 51.8695354, 4.5923073 51.8697262, 4.5920803 51.8699459, 4.5918068 51.8701646, 4.5914964 51.8703837, 4.5913743 51.8704663, 4.5912463 51.8705585, 4.5909441 51.8707632, 4.5907274 51.8709121), (4.5907274 51.8709121, 4.5906705 51.8709852, 4.5905901 51.871059, 4.5905092 51.8711198, 4.590482 51.8711388, 4.5903129 51.8712522, 4.5901401 51.8713761, 4.5901041 51.8714036, 4.5899733 51.8714775, 4.5898886 51.8715174, 4.5897659 51.8715749), (4.5897659 51.8715749, 4.5886281 51.87236), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.587102 51.8733485, 4.5871261 51.8733754, 4.5871357 51.8734055, 4.5871299 51.8734359, 4.5871091 51.8734638, 4.5870755 51.8734864), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5839924 51.8714405, 4.5840791 51.8714972, 4.5841246 51.8715271, 4.5846026 51.8718404, 4.5848583 51.872008, 4.5860281 51.8727748, 4.5864742 51.8730672, 4.5867465 51.8732563, 4.5867756 51.8732755, 4.5868681 51.8733365), (4.5839924 51.8714405, 4.5839349 51.8714627, 4.5838677 51.8714682, 4.5838028 51.8714561, 4.5837518 51.8714284), (4.5837518 51.8714284, 4.5837222 51.8713845, 4.5837291 51.8713372, 4.5837711 51.8712973), (4.5830525 51.8708312, 4.583293 51.8709832, 4.5833996 51.871053, 4.5836532 51.8712198, 4.5836741 51.8712336, 4.5837711 51.8712973), (4.5828217 51.8706735, 4.5830525 51.8708312), (4.5826078 51.8705335, 4.5828217 51.8706735), (4.580583 51.8692209, 4.5826078 51.8705335), (4.5785613 51.8678838, 4.580583 51.8692209), (4.5773409 51.8671903, 4.5775191 51.8672689, 4.5777512 51.8673813, 4.5780426 51.8675455, 4.5782784 51.8676923, 4.5785613 51.8678838), (4.576701 51.8669836, 4.5769211 51.8670417, 4.5771268 51.8671104, 4.5773409 51.8671903), (4.5764571 51.8669253, 4.576701 51.8669836), (4.5764571 51.8669253, 4.5763373 51.8669183, 4.5760779 51.866892, 4.5757591 51.8668676, 4.5749387 51.8668306), (4.5749387 51.8668306, 4.5745234 51.8667977, 4.5736724 51.8667579, 4.5736387 51.8667563, 4.5734621 51.8667491, 4.5731551 51.8667422), (4.5731551 51.8667422, 4.5730049 51.8667416), (4.5730049 51.8667416, 4.5687103 51.8665531), (4.5687103 51.8665531, 4.5674435 51.8664891, 4.5673073 51.8664828, 4.5669609 51.8664714), (4.5669609 51.8664714, 4.5667592 51.8664664), (4.5667592 51.8664664, 4.5665909 51.8664622, 4.5629491 51.866298), (4.5629491 51.866298, 4.5623442 51.8662429), (4.5623442 51.8662429, 4.5612859 51.8661997, 4.5611966 51.8661961, 4.56111 51.866194, 4.5607838 51.8661848), (4.5607838 51.8661848, 4.5606537 51.8661806), (4.5606537 51.8661806, 4.5604001 51.86617, 4.5603533 51.8661681), (4.5603533 51.8661681, 4.5600959 51.8661575), (4.5600959 51.8661575, 4.5594428 51.8661233, 4.558977 51.8661033, 4.5587196 51.8660912, 4.5584618 51.8660786, 4.5583865 51.8660735, 4.5582722 51.8660628), (4.5582722 51.8660628, 4.5579985 51.8660262, 4.5576659 51.8659749), (4.5576659 51.8659749, 4.5571831 51.8659136, 4.5568049 51.8658854, 4.5564803 51.8658788, 4.5562202 51.8658838), (4.5562202 51.8658838, 4.5560203 51.8658921, 4.5558123 51.8659062), (4.5558123 51.8659062, 4.5555843 51.8659378, 4.5554042 51.8659753, 4.5551272 51.8660438, 4.5547789 51.8661389), (4.5547789 51.8661389, 4.5549995 51.866411, 4.5551294 51.8666033, 4.5551986 51.8667694, 4.5552127 51.8668815, 4.5552063 51.866986, 4.5551857 51.8670776, 4.555123 51.8672061, 4.5550589 51.8673105, 4.5548867 51.867473, 4.5547583 51.8675576, 4.5545118 51.8677229), (4.5545118 51.8677229, 4.5535507 51.8683612), (4.5535507 51.8683612, 4.5526746 51.8689377, 4.552418 51.8691013), (4.552418 51.8691013, 4.5523274 51.86916), (4.5523274 51.86916, 4.552045 51.869069), (4.552045 51.869069, 4.5517982 51.8689673, 4.5514956 51.8688371, 4.5510898 51.8686407, 4.5506536 51.868423), (4.5506536 51.868423, 4.5505177 51.8683259, 4.5503999 51.8681983, 4.5503199 51.8680485, 4.5502735 51.8679205), (4.5502735 51.8679205, 4.5502212 51.867782, 4.5501696 51.8676168, 4.5500612 51.8673872, 4.5499626 51.8672285, 4.5498325 51.8670861, 4.5496325 51.8669357, 4.5494113 51.8667999, 4.5491058 51.8666635, 4.5481566 51.8662908, 4.5472781 51.8659201), (4.5472781 51.8659201, 4.5465403 51.8656843, 4.5456438 51.8654318, 4.5443994 51.8651227), (4.5443994 51.8651227, 4.5431206 51.8648471), (4.5431206 51.8648471, 4.5415177 51.8645291, 4.5401468 51.8643273, 4.5384332 51.864132), (4.5384332 51.864132, 4.537373 51.8640392, 4.5366244 51.8639966), (4.5366244 51.8639966, 4.5359179 51.8639684), (4.5359179 51.8639684, 4.5347166 51.8639244, 4.5331489 51.8639331, 4.532493 51.8639476, 4.5317805 51.8639748, 4.5296808 51.8641288, 4.5290106 51.8642019, 4.5283436 51.8642806), (4.5283436 51.8642806, 4.5274414 51.8644176, 4.5264261 51.8645766, 4.525654 51.8647171, 4.5250799 51.8648337), (4.5250799 51.8648337, 4.5245561 51.8650106, 4.523294 51.8653815), (4.523294 51.8653815, 4.521927 51.8657796, 4.5215318 51.8658844, 4.5212375 51.8659427, 4.5208394 51.8660155, 4.5200349 51.8661424, 4.5196802 51.86621, 4.5191426 51.8663486, 4.5184823 51.8665636, 4.5180475 51.8667406, 4.5176994 51.8669079), (4.5176994 51.8669079, 4.5172165 51.8671821, 4.5167713 51.8674966, 4.5164336 51.8677948, 4.5161563 51.868086, 4.515929 51.8683848, 4.5157778 51.8686353, 4.515742 51.8687212), (4.515742 51.8687212, 4.5156652 51.8689502, 4.5156472 51.8690395), (4.5156472 51.8690395, 4.5156353 51.8690983, 4.5156123 51.869304, 4.5155875 51.8694923), (4.5155875 51.8694923, 4.5155433 51.8699384, 4.5154987 51.8702196, 4.5154112 51.8705351, 4.5153059 51.8708281, 4.5152067 51.8710521, 4.5149474 51.8715001, 4.5146615 51.871897, 4.5143575 51.8722183), (4.5143575 51.8722183, 4.5141897 51.8724126, 4.5140652 51.8725489, 4.5138281 51.8726764), (4.5138281 51.8726764, 4.5136826 51.8728125), (4.5136826 51.8728125, 4.5123878 51.8740487, 4.5121984 51.874231), (4.5121984 51.874231, 4.5114715 51.8749277, 4.5113051 51.875076), (4.5113051 51.875076, 4.5112231 51.8751625, 4.511008 51.8753356, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.510858 51.8754417, 4.5107671 51.8754933, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>383705</t>
+          <t>10104880</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rotterdam, Station Alexander</t>
+          <t>Vlaardingen, Begraafplaats Holy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bus 30: Capelle Schollevaar =&gt; Rotterdam Station Alexander</t>
+          <t>Bus 156: Vlaardingen West =&gt; Vlaardingen Holy Noord</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1117,14 +1117,14 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5879362 51.9513509, 4.5880569 51.9514644, 4.5880944 51.9514997, 4.5881246 51.9515613, 4.5881435 51.9516415, 4.5880653 51.9518919, 4.588009 51.9520946, 4.587956 51.9522765, 4.5878644 51.9525939, 4.5877927 51.952835, 4.5877449 51.9529444, 4.5877418 51.9529535, 4.5876795 51.9530215, 4.5875698 51.9530831, 4.587446 51.9531403, 4.5868709 51.953401, 4.5867556 51.9534542), (4.5867556 51.9534542, 4.5866345 51.9535466, 4.5865279 51.9536059, 4.5864987 51.9536489, 4.5864874 51.9536849), (4.5863703 51.9536887, 4.5864874 51.9536849), (4.5823648 51.9531854, 4.5825128 51.9532063, 4.5826121 51.9532134, 4.5827062 51.9532424, 4.5827864 51.9532801, 4.5829007 51.9533706, 4.5830475 51.9535106, 4.5830687 51.9535319, 4.5832307 51.9536784, 4.5832859 51.953723, 4.5833583 51.9537534, 4.5834532 51.9537789, 4.5838417 51.9538211, 4.5839635 51.9538331, 4.5844657 51.9538909, 4.5851349 51.9539667, 4.585226 51.953968, 4.5853164 51.9539534, 4.5858493 51.9537926, 4.5861125 51.9537191, 4.5861665 51.9537094, 4.5863703 51.9536887), (4.5818247 51.9511838, 4.5818792 51.9512143, 4.5818951 51.951273, 4.5818364 51.9516804, 4.5818134 51.9517749, 4.5817625 51.9518914, 4.5816945 51.9519968, 4.5816226 51.9521519, 4.5816294 51.952292, 4.5816619 51.9524224, 4.5817456 51.9525271, 4.5819637 51.9527248, 4.5820712 51.9528223, 4.5822061 51.9529375, 4.5823104 51.9530404, 4.582343 51.9530974, 4.5823648 51.9531854), (4.579333 51.9505618, 4.5795895 51.9505794, 4.5797258 51.9506024, 4.5798134 51.9506564, 4.5799173 51.9507494, 4.5800227 51.9508504, 4.5801298 51.9509174, 4.5802578 51.950972, 4.580401 51.9510038, 4.5807269 51.9510604, 4.580993 51.9510994, 4.5814288 51.9511353, 4.5817526 51.9511619, 4.5818247 51.9511838), (4.5785523 51.950505, 4.579333 51.9505618), (4.5767757 51.9503798, 4.5769748 51.9503938, 4.5771331 51.950405, 4.5785523 51.950505), (4.5765468 51.950337, 4.5766436 51.9503633, 4.5767757 51.9503798), (4.5757862 51.9497428, 4.5760539 51.9497603, 4.5761343 51.9497674, 4.5762264 51.9497947, 4.5762725 51.9498205, 4.5762971 51.9498343, 4.576353 51.949892, 4.5763596 51.9499579, 4.5763365 51.9501484, 4.576353 51.9502052, 4.5763777 51.9502538, 4.5764479 51.950299, 4.5765468 51.950337), (4.5741231 51.9496413, 4.5745324 51.9495777, 4.5752111 51.9496242, 4.5756641 51.9497218, 4.5757862 51.9497428), (4.5724438 51.9494598, 4.5725379 51.9494842, 4.5728243 51.9495102, 4.5729703 51.9495304, 4.5731795 51.9495741, 4.5734126 51.9495918, 4.5735545 51.9496017, 4.5741231 51.9496413), (4.5699052 51.9486855, 4.5700123 51.9486645, 4.5701518 51.9486585, 4.5704504 51.9486665, 4.5705198 51.9486686, 4.5711383 51.9486875, 4.5712973 51.9487035, 4.571432 51.9487365, 4.5715391 51.9487865, 4.5716202 51.9488493, 4.5719555 51.9490839, 4.5723636 51.9494183, 4.5724438 51.9494598), (4.5697791 51.9479519, 4.5697527 51.948205, 4.5697233 51.9484564, 4.5697592 51.9485628, 4.5699052 51.9486855), (4.5687634 51.9478953, 4.5697791 51.9479519), (4.5687634 51.9478953, 4.5686522 51.9478891, 4.5683177 51.9477617, 4.5682792 51.947747, 4.5682762 51.9477459, 4.5681472 51.9476809), (4.5681472 51.9476809, 4.5679829 51.9476086), (4.5679829 51.9476086, 4.5670859 51.9471017), (4.5670859 51.9471017, 4.5669256 51.9470109), (4.5669256 51.9470109, 4.5667871 51.9469005, 4.5666501 51.9466789, 4.5665916 51.946576, 4.565876 51.9461431, 4.5648949 51.9455359, 4.5645801 51.9453411, 4.5638338 51.9448817, 4.5634721 51.9446582, 4.5631771 51.9445326, 4.5625337 51.9444045, 4.5623456 51.9443672, 4.5620735 51.9443218, 4.5614306 51.9442275, 4.5609863 51.9441539, 4.5607346 51.9441377, 4.5605891 51.9441458, 4.5603814 51.9441757, 4.5601593 51.944236, 4.5599251 51.9443107, 4.5581472 51.9449486), (4.5581472 51.9449486, 4.5579174 51.9450301, 4.5573755 51.9452224, 4.5570749 51.9453312), (4.5570749 51.9453312, 4.5569223 51.9453864, 4.5568034 51.9454288, 4.5567723 51.9454399, 4.5567196 51.9454587, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.5558538 51.949644), (4.5558538 51.949644, 4.5558136 51.9497617, 4.555598 51.950245, 4.5554771 51.950419), (4.5554771 51.950419, 4.5554128 51.9505729), (4.5554128 51.9505729, 4.55539 51.950632), (4.55539 51.950632, 4.5553885 51.9506358, 4.5553657 51.9506944, 4.5553509 51.950817, 4.5553693 51.950894), (4.5553693 51.950894, 4.5554179 51.9509614, 4.5554662 51.9510056, 4.5555278 51.9510585, 4.5556792 51.9511329, 4.5558846 51.9511775, 4.5560963 51.9512054), (4.5560787 51.9512475, 4.5560963 51.9512054), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.555853 51.9518422, 4.5558531 51.9519017, 4.5558077 51.9520505, 4.5557758 51.9521549, 4.5557409 51.9522389), (4.5557409 51.9522389, 4.5556635 51.9523168), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.5522534 51.9523763, 4.5521498 51.9523628), (4.5521498 51.9523628, 4.5522106 51.9521068))</t>
+          <t>MULTILINESTRING ((4.3149703 51.9044683, 4.3148871 51.9043298, 4.3148788 51.9042771, 4.3148928 51.9042486, 4.3149737 51.9041959, 4.3152921 51.9041188, 4.3154104 51.9040901), (4.3158689 51.904823, 4.3158165 51.9047571, 4.3156247 51.9044463, 4.3154104 51.9040901), (4.3158689 51.904823, 4.3155775 51.904895, 4.3152785 51.9049688), (4.3152785 51.9049688, 4.3149079 51.905055, 4.3147712 51.9050989, 4.3147155 51.905133), (4.3147155 51.905133, 4.3146949 51.9051686, 4.3146937 51.905179, 4.3146896 51.9052142, 4.3147071 51.9052742, 4.3147493 51.9053738), (4.3147493 51.9053738, 4.3150761 51.9060425), (4.3150761 51.9060425, 4.3151932 51.9062677, 4.315635 51.9071258, 4.315736 51.907312, 4.3158242 51.9074772, 4.3160471 51.9079105, 4.3163962 51.9086105), (4.3163962 51.9086105, 4.316582 51.9089508, 4.31674 51.9092775, 4.316787 51.9093778, 4.3168883 51.9096121, 4.3170211 51.9098371, 4.3170998 51.9100099), (4.3173406 51.9104781, 4.3173317 51.910461, 4.3172762 51.910344, 4.3172502 51.910281, 4.3172042 51.9101972, 4.3170998 51.9100099), (4.3174996 51.9107224, 4.3174219 51.9106348, 4.3173406 51.9104781), (4.3175531 51.9107796, 4.3174996 51.9107224), (4.3175531 51.9107796, 4.3174109 51.910831, 4.3170411 51.9109923, 4.3168654 51.9110391), (4.3168654 51.9110391, 4.316219 51.9113539), (4.316219 51.9113539, 4.3161489 51.9114269, 4.3160696 51.9115305, 4.3160544 51.9116107), (4.3160544 51.9116107, 4.3160574 51.9117336, 4.3160835 51.9118353), (4.3160835 51.9118353, 4.3161253 51.9119977, 4.3161129 51.9121043), (4.3161129 51.9121043, 4.3162309 51.9125272, 4.3162589 51.9126183, 4.3162855 51.9127189, 4.316354 51.912992, 4.31644 51.9132895), (4.31644 51.9132895, 4.3165207 51.9135717, 4.316551 51.9136311, 4.3166314 51.9136657), (4.3166314 51.9136657, 4.3169459 51.9136683, 4.3171779 51.9136707, 4.3172946 51.9136714, 4.3186721 51.9136851, 4.3189693 51.9136873, 4.319681 51.9136884, 4.3199892 51.9136831), (4.3266714 51.9130641, 4.3262789 51.9131035, 4.3260794 51.9131269, 4.3252635 51.9132005, 4.3249395 51.9132309, 4.3247289 51.9132507, 4.3242197 51.9133022, 4.3216897 51.9135331, 4.320528 51.9136486, 4.3202021 51.913674, 4.3199892 51.9136831), (4.3273976 51.9129952, 4.3273525 51.9129992, 4.327277 51.9130064, 4.3266714 51.9130641), (4.3273976 51.9129952, 4.3275722 51.9129724), (4.3275722 51.9129724, 4.3277265 51.9129507), (4.3277265 51.9129507, 4.3278663 51.9129183), (4.3280686 51.9128757, 4.3279711 51.9128963, 4.3279198 51.9129071, 4.3278663 51.9129183), (4.3285028 51.9127895, 4.3280686 51.9128757), (4.3288141 51.9127264, 4.3286987 51.9127498, 4.3285028 51.9127895), (4.3319355 51.9120894, 4.3310565 51.9122668, 4.3308912 51.9123013, 4.3307236 51.9123335, 4.3305572 51.9123669, 4.3298911 51.9125014, 4.3296722 51.9125472, 4.3295422 51.912573, 4.3288141 51.9127264), (4.3336587 51.9117294, 4.3333849 51.9117881, 4.3327983 51.9119094, 4.3320314 51.9120694, 4.3319355 51.9120894), (4.3344452 51.9115739, 4.334402 51.9115831, 4.3336587 51.9117294), (4.3345112 51.91156, 4.3344452 51.9115739), (4.3347128 51.9115162, 4.33462 51.9115364, 4.3345112 51.91156), (4.3347128 51.9115162, 4.334855 51.9114864), (4.3350243 51.9114476, 4.3349632 51.9114604, 4.3349091 51.9114734, 4.334855 51.9114864), (4.335145 51.911422, 4.3351062 51.9114302, 4.3350243 51.9114476), (4.3378036 51.9108706, 4.3377469 51.9108838, 4.3376508 51.9109062, 4.3371833 51.9110026, 4.336912 51.9110588, 4.3359093 51.9112671, 4.3356535 51.9113193, 4.335168 51.9114174, 4.335145 51.911422), (4.3378036 51.9108706, 4.3378974 51.9109945, 4.338072 51.9111947), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.342946 51.9095826, 4.3430227 51.9095288, 4.3430781 51.9095155, 4.3435151 51.9094109, 4.3437 51.9094), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3446973 51.909355, 4.3449363 51.909356), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3517346 51.9093718, 4.3517446 51.9093132, 4.3517805 51.9092523, 4.3518404 51.909199, 4.3519203 51.9091569, 4.3520148 51.9091286, 4.3520574 51.9091235, 4.3521179 51.9091161, 4.3522047 51.9091195, 4.3522228 51.9091202, 4.3523225 51.9091406, 4.3524106 51.9091759, 4.3524406 51.9091963, 4.3524812 51.9092239, 4.3525022 51.9092488), (4.3525022 51.9092488, 4.3525298 51.9092814, 4.3525531 51.9093446, 4.3525515 51.9093726), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3581013 51.9093656, 4.3583597 51.9092941, 4.3585158 51.9092802, 4.3586815 51.9093418), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3591826 51.9095669, 4.3593609 51.9096185, 4.3595031 51.909712, 4.3595557 51.9097493), (4.3595557 51.9097493, 4.359685 51.9098633, 4.3597555 51.9099313), (4.3597555 51.9099313, 4.3601654 51.9103626), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611359 51.910654, 4.3611799 51.9106149, 4.3612563 51.9105478, 4.3613318 51.91048, 4.3614031 51.9104158), (4.3614031 51.9104158, 4.3613667 51.9103952, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604497 51.910645), (4.3604497 51.910645, 4.3605905 51.9107268, 4.3606753 51.9108044, 4.3606969 51.9108242, 4.3607331 51.9108561, 4.3608002 51.9109014, 4.3608325 51.9109233), (4.3608325 51.9109233, 4.3608919 51.9109269, 4.3609462 51.9109372, 4.3609927 51.9109558, 4.3610399 51.9109981, 4.3610516 51.9110511, 4.3610113 51.9111143), (4.3610113 51.9111143, 4.3610562 51.9111753, 4.3610713 51.9111957, 4.3610954 51.9112226, 4.3612148 51.9113423, 4.3612286 51.9114164), (4.3612418 51.9117696, 4.3612961 51.9115948, 4.3612286 51.9114164), (4.3612418 51.9117696, 4.3610047 51.9123802), (4.3610047 51.9123802, 4.3609786 51.9125271, 4.3609473 51.9126305, 4.3608888 51.912779, 4.360862 51.9128594, 4.3608327 51.9129337, 4.3608014 51.9130078, 4.3606994 51.9131287), (4.3602702 51.9142028, 4.3606291 51.9133128, 4.3606994 51.9131287), (4.3602702 51.9142028, 4.3602511 51.9143769, 4.360244 51.9143938, 4.3602361 51.9144124, 4.3601878 51.9144588), (4.3601568 51.9145522, 4.3601878 51.9144588), (4.3601568 51.9145522, 4.3601482 51.9146279, 4.3601186 51.9146726, 4.3600937 51.9147103, 4.3600498 51.9147781, 4.3597036 51.9152008), (4.3597036 51.9152008, 4.3594615 51.9155295, 4.3594443 51.9155532), (4.3591233 51.9160252, 4.3591738 51.9159466, 4.3593765 51.9156528, 4.3594443 51.9155532), (4.3591233 51.9160252, 4.3591204 51.9161175, 4.3590763 51.9161837), (4.3590763 51.9161837, 4.3591165 51.9162043, 4.3591475 51.9162303, 4.3591674 51.91626, 4.3591752 51.9162919, 4.3591702 51.916324, 4.3591529 51.9163544, 4.3591222 51.9163828, 4.3590808 51.9164055, 4.3590314 51.9164209, 4.3589858 51.9164275, 4.3589389 51.9164278, 4.3588931 51.9164219), (4.3588931 51.9164219, 4.3588347 51.9164864, 4.3586714 51.9165993), (4.358273 51.9171422, 4.3583989 51.9169823, 4.3586714 51.9165993), (4.358273 51.9171422, 4.3578643 51.9176704), (4.3578643 51.9176704, 4.3577993 51.917811, 4.3576805 51.917929), (4.3576805 51.917929, 4.3575409 51.9181246), (4.3575409 51.9181246, 4.3574882 51.9182451, 4.357445 51.9182819, 4.3572854 51.9183682), (4.3572854 51.9183682, 4.3569974 51.918635, 4.3566069 51.9189934, 4.3564182 51.9191851), (4.3564182 51.9191851, 4.3563417 51.9192801, 4.3562468 51.9193374), (4.3562468 51.9193374, 4.3560239 51.9195228), (4.3560239 51.9195228, 4.3558465 51.9197878, 4.3558101 51.9198244, 4.3556857 51.9199499), (4.3556857 51.9199499, 4.3556357 51.9199939, 4.3550793 51.9204564, 4.3545101 51.9209508, 4.354413 51.9210352, 4.3540337 51.9213937, 4.3538564 51.9215552, 4.3537162 51.9217682), (4.3537162 51.9217682, 4.3536035 51.9219403, 4.3534553 51.9221915, 4.3534185 51.9222563, 4.3533439 51.9223647), (4.3533439 51.9223647, 4.3532802 51.9224554), (4.3532802 51.9224554, 4.3531998 51.9225614, 4.3528996 51.9230406, 4.3526556 51.923441, 4.3525548 51.9236011, 4.3524875 51.9237135, 4.3524552 51.9238351, 4.3524641 51.9239577, 4.3524859 51.9240535, 4.3525491 51.9241608, 4.3526099 51.9242377, 4.352709 51.9243259, 4.3531594 51.9245569, 4.353409 51.9246754), (4.353409 51.9246754, 4.3535946 51.9247669, 4.3537482 51.924846, 4.3538754 51.9249254, 4.3539722 51.9250309, 4.3540515 51.9251593, 4.3540663 51.9252262), (4.3540663 51.9252262, 4.3540685 51.925314, 4.3540384 51.9254504, 4.3539805 51.9255705, 4.3539459 51.9256302, 4.3538888 51.9257276), (4.3537485 51.9256952, 4.3538888 51.9257276), (4.3532185 51.9255728, 4.3535027 51.9256376, 4.353601 51.9256611, 4.3537485 51.9256952), (4.3526789 51.9254486, 4.3529509 51.9255086, 4.3532185 51.9255728), (4.3519857 51.9253504, 4.3523562 51.9253952, 4.3526789 51.9254486), (4.3466087 51.924549, 4.3468574 51.9246083, 4.3469652 51.9246344, 4.3475963 51.9247879, 4.3483397 51.9249657, 4.3487193 51.9250421, 4.348866 51.9250729, 4.3490906 51.9250954, 4.3493369 51.9251204, 4.349398 51.9251245, 4.3498175 51.9251678, 4.3505473 51.9252226, 4.3508518 51.9252494, 4.3518988 51.9253428, 4.3519857 51.9253504), (4.3461052 51.9244273, 4.3462418 51.9244593, 4.3463134 51.9244758, 4.3466087 51.924549), (4.3461052 51.9244273, 4.3460313 51.9245358, 4.3457582 51.9249629, 4.344433 51.9270788), (4.344433 51.9270788, 4.3442193 51.9274127, 4.3441614 51.9275016, 4.3440878 51.9276145), (4.3440878 51.9276145, 4.3442102 51.9276415), (4.3442102 51.9276415, 4.3442972 51.9276604, 4.3444789 51.9277003), (4.3444789 51.9277003, 4.3445113 51.9277074, 4.3448134 51.9277814), (4.3448134 51.9277814, 4.3449599 51.9278178, 4.3453012 51.9278982), (4.3453012 51.9278982, 4.3458234 51.9280233, 4.346062 51.9280805, 4.3463656 51.9281532, 4.3464048 51.9281629, 4.346954 51.9282996, 4.3470822 51.9283427, 4.3471565 51.9283836), (4.3471565 51.9283836, 4.3472503 51.9284811, 4.3474773 51.9288911), (4.3474773 51.9288911, 4.3475502 51.9289818, 4.347647 51.9290551), (4.347647 51.9290551, 4.347712 51.9290943, 4.3479637 51.9291789, 4.3481723 51.9292292, 4.3483479 51.9292716, 4.3492231 51.9294823), (4.3492231 51.9294823, 4.3497179 51.9295998, 4.3497826 51.9296139, 4.3501344 51.9296988, 4.3505695 51.9297981), (4.3505695 51.9297981, 4.3506634 51.9298204, 4.350742 51.9298416), (4.350742 51.9298416, 4.3509365 51.9298588, 4.3510916 51.9298812), (4.3510916 51.9298812, 4.3511209 51.9298685, 4.3511536 51.9298593, 4.3511885 51.929854, 4.3512529 51.9298547, 4.3513134 51.9298685, 4.3513632 51.9298937, 4.3513944 51.929924, 4.3514096 51.9299586), (4.3514096 51.9299586, 4.3515483 51.9299975, 4.3519893 51.9301404), (4.3519893 51.9301404, 4.3524502 51.930253), (4.3524502 51.930253, 4.3527713 51.93033), (4.3527713 51.93033, 4.3531083 51.9304095, 4.3541228 51.9306487), (4.3541228 51.9306487, 4.3542693 51.9306833, 4.3548684 51.9308323, 4.3550447 51.9308568, 4.3551793 51.9308663, 4.3553254 51.9308444), (4.3553254 51.9308444, 4.3554304 51.9308101, 4.3555582 51.9307683), (4.3555582 51.9307683, 4.3556617 51.930733, 4.355829 51.930676, 4.3559427 51.9306372), (4.3559427 51.9306372, 4.3562669 51.9305392), (4.3562669 51.9305392, 4.3564801 51.9305838, 4.3566222 51.9306164, 4.3567608 51.9306465, 4.357046 51.9307135, 4.3576866 51.9308703, 4.3579138 51.9309236), (4.3579138 51.9309236, 4.3580075 51.9309415, 4.3590429 51.9311931), (4.3590429 51.9311931, 4.3592642 51.9312469), (4.3592642 51.9312469, 4.359855 51.9313847, 4.3599898 51.9314162), (4.3599898 51.9314162, 4.3601858 51.9314661, 4.3602706 51.9315656, 4.359799 51.932356), (4.359799 51.932356, 4.3596709 51.9325515), (4.3596709 51.9325515, 4.3593714 51.9330199, 4.3589339 51.9337078, 4.3586679 51.9341225), (4.3586679 51.9341225, 4.358382 51.9345833, 4.3582754 51.9347574, 4.3582411 51.9348103, 4.3582257 51.9348376, 4.3581827 51.9349044, 4.3581622 51.9349332, 4.3581428 51.9349659, 4.3579474 51.9352716, 4.3578647 51.9354195, 4.3578092 51.9354828, 4.357195 51.9359678, 4.3569988 51.9362657, 4.3567507 51.9366201, 4.3565536 51.9369281, 4.356491 51.9370351), (4.356491 51.9370351, 4.3565665 51.9370686), (4.3565665 51.9370686, 4.3566717 51.9371406, 4.3567154 51.9371776, 4.3567625 51.9372252, 4.3568002 51.9372833, 4.3568238 51.9373298, 4.3568481 51.9373842, 4.3568639 51.9374799, 4.3568651 51.9375806, 4.3568554 51.9376864, 4.35684 51.9377514, 4.3567858 51.9378995, 4.3567455 51.9380034, 4.3566979 51.9381088, 4.3564993 51.9384651, 4.3564494 51.9385596, 4.3563249 51.9387951, 4.3561249 51.9392072, 4.356065 51.9393251, 4.3557599 51.9399255, 4.3557022 51.940032, 4.3556172 51.9401481, 4.355529 51.9402184, 4.35539 51.940299, 4.3550185 51.9404123, 4.3546396 51.9405166, 4.3544254 51.9405252, 4.3542605 51.9404987, 4.3538845 51.9404167, 4.3533824 51.9402992, 4.3530935 51.9402316, 4.3530221 51.9402142, 4.3527503 51.9401479, 4.3525357 51.9400993, 4.3523454 51.9400515, 4.3518236 51.9399261, 4.3509842 51.9397313, 4.3508536 51.9397016), (4.3509028 51.9396262, 4.3508536 51.9397016), (4.3514022 51.9388178, 4.3509028 51.9396262), (4.3516717 51.9383828, 4.3514022 51.9388178), (4.3522996 51.9366962, 4.3524498 51.936802, 4.3525193 51.9368855, 4.352529 51.9369655, 4.352491 51.937103, 4.3523555 51.937327, 4.3523405 51.9373512, 4.3520145 51.9378517, 4.3516717 51.9383828), (4.3497963 51.9356044, 4.3521873 51.936647, 4.3522996 51.9366962), (4.3497963 51.9356044, 4.3496938 51.9355799, 4.3496025 51.93556, 4.3495405 51.9355358, 4.3493712 51.9354575, 4.3489997 51.9352914, 4.3483924 51.9350222, 4.3482941 51.9349765), (4.3482941 51.9349765, 4.3482436 51.9349956, 4.3481858 51.9350033, 4.348127 51.9349988, 4.348074 51.9349826, 4.3480327 51.9349564, 4.3480078 51.9349233), (4.3480078 51.9349233, 4.3478432 51.9348816, 4.3472374 51.9347894, 4.3470505 51.9347563, 4.3469271 51.9347133, 4.3467998 51.9346287, 4.3466479 51.93449, 4.346455 51.9342458, 4.3463209 51.9341334, 4.346171 51.9340247, 4.3459635 51.9339259, 4.3457392 51.9338539, 4.3456904 51.9338422, 4.3455383 51.9337935, 4.3453562 51.9337532, 4.3452204 51.9337241), (4.3452204 51.9337241, 4.344869 51.9336376, 4.3443146 51.933504), (4.3443146 51.933504, 4.3441326 51.9334613, 4.3440837 51.9334481, 4.3437514 51.9334134, 4.3433223 51.93343, 4.3424318 51.9334631, 4.3423391 51.9334558, 4.3421839 51.9334398, 4.3420697 51.9334283, 4.3420186 51.9334143, 4.3418041 51.9333556, 4.341157 51.9330478, 4.3411187 51.9330271, 4.3410064 51.93298), (4.3410064 51.93298, 4.3409375 51.9330056, 4.3408597 51.933012, 4.3407984 51.933003, 4.340732 51.9329748, 4.3406998 51.9329466, 4.3406815 51.932913), (4.3406815 51.932913, 4.3405446 51.9328849, 4.3405005 51.9328784, 4.3395744 51.9327445, 4.3393794 51.9327139, 4.3382314 51.9325336, 4.3380984 51.9325136, 4.3377523 51.9324614, 4.3376172 51.932441, 4.3373892 51.9324063, 4.3371076 51.9324112), (4.3371076 51.9324112, 4.3369773 51.9324338, 4.3368163 51.9325198, 4.3367144 51.9326058, 4.3363405 51.9331786, 4.3362631 51.9333024, 4.3351362 51.9351052, 4.33508 51.9351941, 4.334699 51.9357965, 4.3345246 51.9360991, 4.3343288 51.93662), (4.3343288 51.93662, 4.3342569 51.9369511, 4.3342977 51.9370585, 4.3343879 51.9371659, 4.3345705 51.9372666, 4.3356828 51.9375385, 4.3357892 51.9375607, 4.3359252 51.937591), (4.3359252 51.937591, 4.3360908 51.9376302, 4.3362423 51.9376853), (4.3362423 51.9376853, 4.3365298 51.9377525), (4.3365298 51.9377525, 4.3364963 51.9378144, 4.3364667 51.9378646, 4.3364278 51.9379375), (4.3364278 51.9379375, 4.3359951 51.9378332))</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>384017</t>
+          <t>10104879</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Capelle aan den IJssel, Sint Annabaai</t>
+          <t>Vlaardingen, Station Vlaardingen West</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bus 31: Rotterdam Station Alexander =&gt; Capelle Oostgaarde</t>
+          <t>Bus 156: Vlaardingen Holy Noord =&gt; Vlaardingen West</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1155,14 +1155,14 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5521298 51.9520982, 4.5521448 51.9520508, 4.5523312 51.9519987), (4.5523312 51.9519987, 4.5525756 51.9520624, 4.5524949 51.9524061), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556635 51.9523168, 4.5556662 51.9522246, 4.5556983 51.9521449, 4.5557319 51.9520613, 4.555787 51.9519264, 4.5558017 51.9518965, 4.555853 51.9518422), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5560787 51.9512475, 4.5556664 51.951177, 4.5555308 51.9511328, 4.5554069 51.9510761, 4.5553136 51.9510114), (4.5553136 51.9510114, 4.5552663 51.9509693), (4.5552663 51.9509693, 4.5552148 51.9508771, 4.5552019 51.9507641, 4.5552139 51.9507074, 4.5552483 51.9506131, 4.5552497 51.9506093), (4.5552497 51.9506093, 4.5552706 51.9505523), (4.5552706 51.9505523, 4.5554109 51.9501973, 4.5555868 51.9498173, 4.5556261 51.9497323, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5565252 51.945449), (4.5565252 51.945449, 4.5566413 51.9454101, 4.556665 51.9454022, 4.5567204 51.9453825, 4.5570236 51.9452744), (4.5570236 51.9452744, 4.5573256 51.9451667, 4.558098 51.9448935), (4.558098 51.9448935, 4.5598696 51.9442764, 4.5601156 51.9441888, 4.5603427 51.9441306, 4.5605838 51.9441016, 4.5609927 51.9441028, 4.5614516 51.9441798, 4.5623885 51.9443342, 4.5625515 51.9443662, 4.5631824 51.9444896, 4.5635204 51.9446119, 4.5638955 51.9448439, 4.5646402 51.9453018, 4.5649372 51.9454878, 4.5659353 51.9461053, 4.566651 51.9465651, 4.5667991 51.946821, 4.5669933 51.9469628), (4.5669933 51.9469628, 4.567149 51.9470642), (4.567149 51.9470642, 4.5679499 51.9474809, 4.5680637 51.9475422), (4.5680637 51.9475422, 4.56848 51.94718), (4.56848 51.94718, 4.5689706 51.9467689, 4.5694643 51.9463448, 4.5700085 51.9459167), (4.5728456 51.9435323, 4.5725279 51.9438069, 4.5719061 51.9443238, 4.5715088 51.944654, 4.5714568 51.9446973, 4.5711107 51.9449852, 4.5709622 51.9451132, 4.5709139 51.9451534, 4.5706044 51.9454097, 4.5703656 51.9456075, 4.5700085 51.9459167), (4.5730521 51.943358, 4.5728456 51.9435323), (4.5779347 51.9391215, 4.5775653 51.9393953, 4.5771548 51.9397568, 4.576331 51.9404525, 4.5759411 51.9407775, 4.5756433 51.9410331, 4.5755233 51.9411323, 4.5751907 51.9414073, 4.5744494 51.9420212, 4.5742251 51.9422069, 4.573907 51.9424713, 4.5738635 51.9425074, 4.5735362 51.9428159, 4.5733548 51.9429854, 4.5732254 51.9431432, 4.5730521 51.943358), (4.5799577 51.9375657, 4.5798006 51.9376936, 4.5790287 51.9383357, 4.5783816 51.9388596, 4.5782425 51.9389475, 4.5779347 51.9391215), (4.5800477 51.9374907, 4.5799577 51.9375657), (4.5803401 51.9372517, 4.5802024 51.9373657, 4.5800477 51.9374907), (4.5805396 51.9370825, 4.5803401 51.9372517), (4.5827581 51.9343632, 4.5825842 51.9345583, 4.5822275 51.934964, 4.5819691 51.9352766, 4.5818102 51.9355006, 4.5814228 51.9359855, 4.5809175 51.9366477, 4.580818 51.9367766, 4.5807424 51.9368752, 4.5806776 51.9369503, 4.5805396 51.9370825), (4.5837165 51.9336086, 4.5836166 51.9336908, 4.5827581 51.9343632), (4.5838276 51.9335206, 4.5837165 51.9336086), (4.5851722 51.9325886, 4.5850661 51.9326619, 4.5840003 51.9333868, 4.5838276 51.9335206), (4.5864393 51.9317334, 4.5852855 51.9325124, 4.5851722 51.9325886), (4.5864393 51.9317334, 4.5865032 51.9316704, 4.5866067 51.9315684, 4.5866784 51.9315124), (4.5866784 51.9315124, 4.5867787 51.931547, 4.5868845 51.9315798, 4.5869936 51.9316395, 4.5871292 51.9317203, 4.5871956 51.9317641, 4.5873429 51.9319069), (4.5873429 51.9319069, 4.587845 51.9321857, 4.5881272 51.9323254, 4.5883859 51.932434, 4.5885839 51.9325117, 4.5888752 51.9326235, 4.5894766 51.9328592, 4.5895536 51.9328831, 4.5896269 51.9328918, 4.5897301 51.9328756), (4.5904339 51.9320735, 4.5903401 51.9321833, 4.5902947 51.9322366, 4.590204 51.9323633, 4.5900839 51.9325054, 4.5898348 51.9328145, 4.5897799 51.9328511, 4.589756 51.9328647, 4.5897301 51.9328756), (4.5905636 51.9319109, 4.5904339 51.9320735), (4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.590792 51.9315924, 4.5909841 51.9316511, 4.5911175 51.9316918), (4.5911175 51.9316918, 4.5913724 51.9317752, 4.5915988 51.9318549, 4.5920696 51.9320323, 4.5927314 51.9322774, 4.5935017 51.932573, 4.5941426 51.9328172, 4.5953193 51.9332727, 4.5953972 51.9333021, 4.5954865 51.9333338), (4.5954865 51.9333338, 4.595633 51.93336, 4.5957876 51.9334013, 4.5960653 51.9335042), (4.5960653 51.9335042, 4.5961083 51.9334818, 4.5961601 51.9334681, 4.5962161 51.9334642, 4.5962714 51.9334707, 4.5963099 51.933482, 4.5963433 51.9334984, 4.5963766 51.9335259, 4.5963957 51.9335582, 4.5963987 51.9335926, 4.5963855 51.933626), (4.5963855 51.933626, 4.5965161 51.9336729, 4.5966931 51.9337444, 4.596778 51.9337991), (4.596778 51.9337991, 4.5972118 51.9339426, 4.5977906 51.9341379, 4.5978599 51.9341626, 4.5979825 51.9342103, 4.59808 51.93425, 4.598225 51.9343137, 4.5983323 51.9343626, 4.5986091 51.9344839, 4.5988862 51.9346069, 4.5995376 51.9348887, 4.600075 51.9351373), (4.600075 51.9351373, 4.6001869 51.9351565, 4.6002406 51.935178, 4.6002878 51.935195, 4.6004041 51.9352403), (4.6004041 51.9352403, 4.6004474 51.9352237, 4.6004963 51.9352147, 4.6005474 51.9352139, 4.6005969 51.9352215, 4.6006428 51.9352374, 4.60068 51.9352603), (4.60068 51.9352603, 4.6007012 51.9352822, 4.6007144 51.9353063, 4.6007189 51.9353316, 4.6007145 51.9353569, 4.6007016 51.9353811, 4.6006728 51.9354089, 4.6006328 51.9354307, 4.6005661 51.935448, 4.6004937 51.9354488), (4.6004937 51.9354488, 4.600419 51.9355216, 4.6003861 51.9355578, 4.600086 51.9358177, 4.5999553 51.9359301, 4.5999128 51.9359632, 4.5998062 51.9360267), (4.5996178 51.9362029, 4.5998062 51.9360267), (4.5996178 51.9362029, 4.5993 51.9365, 4.5986961 51.9370277, 4.5980549 51.9376022, 4.5979768 51.9376726, 4.597303 51.9382706, 4.5972518 51.9383518, 4.5972265 51.9384272), (4.5972265 51.9384272, 4.5972441 51.9385054, 4.5972984 51.9386022, 4.5974176 51.9386946, 4.5978912 51.9389565, 4.5982417 51.9391148, 4.5985925 51.9392145, 4.599217 51.9393607, 4.599506 51.9395048, 4.5996365 51.9396012, 4.5997706 51.9397319, 4.5998501 51.9398803), (4.5998501 51.9398803, 4.6000081 51.940198), (4.6000081 51.940198, 4.6000916 51.9403305, 4.6002091 51.9404516, 4.600342 51.9405621, 4.6005307 51.9406679, 4.6006675 51.9407257, 4.6009388 51.9408137, 4.6013849 51.9409483, 4.6018073 51.9411774, 4.6019182 51.941236, 4.6019888 51.9412743), (4.6019888 51.9412743, 4.6024841 51.9415661, 4.6026426 51.9416457), (4.6058202 51.9392778, 4.6058202 51.9393095, 4.6057907 51.9393329, 4.6055394 51.939523, 4.6053946 51.9396349, 4.6050407 51.9399034, 4.6039777 51.9407, 4.6030947 51.941329, 4.6030677 51.9413479, 4.6027694 51.9415566, 4.6026426 51.9416457), (4.6042229 51.938289, 4.6042869 51.9385016, 4.6043291 51.9385715, 4.6044082 51.9386239, 4.6052256 51.938908, 4.6054029 51.9389749, 4.6056557 51.9391219, 4.6057902 51.9392061, 4.6058137 51.9392353, 4.6058202 51.9392778), (4.6048292 51.9376608, 4.604458 51.9379842, 4.6043186 51.9381076, 4.6042641 51.9381671, 4.6042317 51.93823, 4.6042229 51.938289), (4.6050884 51.9374127, 4.6048292 51.9376608), (4.6071005 51.9355008, 4.6070895 51.93553, 4.6070623 51.9356136, 4.6070362 51.93567, 4.6069723 51.9357515, 4.6068431 51.9358678, 4.6068199 51.9358874, 4.6065964 51.9360769, 4.6064192 51.9362272, 4.6061978 51.9364148, 4.605999 51.9365876, 4.6056657 51.9368771, 4.6051569 51.9373193, 4.6050884 51.9374127), (4.6071335 51.9354327, 4.6071005 51.9355008), (4.6095397 51.9356759, 4.6092416 51.935504, 4.609051 51.9354131, 4.6089492 51.9353751, 4.6088757 51.9353477, 4.6087444 51.9353235, 4.608608 51.9353131, 4.6083203 51.9353334, 4.6076052 51.9354105, 4.6074281 51.93544, 4.6072832 51.9354455, 4.6071927 51.9354398, 4.6071335 51.9354327), (4.6095397 51.9356759, 4.609738 51.9357206, 4.6098451 51.9357432, 4.6099512 51.9357552, 4.6100644 51.9357467, 4.6102478 51.9357171, 4.610373 51.9357052), (4.6107565 51.9355307, 4.610373 51.9357052), (4.6107565 51.9355307, 4.6111843 51.9353407), (4.6111843 51.9353407, 4.6113765 51.9352557), (4.6134107 51.9338514, 4.6133773 51.9338838, 4.6130872 51.9341647, 4.6126272 51.9346103, 4.6125615 51.9346739, 4.6124337 51.9347692, 4.6123601 51.9348241, 4.6120213 51.9349843, 4.6119267 51.935029, 4.6113765 51.9352557), (4.6082201 51.9301868, 4.6086574 51.930257, 4.608879 51.9302926, 4.6090804 51.9303404, 4.6092301 51.9304017, 4.6093322 51.9304537, 4.6094506 51.9305225, 4.6095336 51.9305855, 4.6096112 51.9306744, 4.6097568 51.9308674, 4.6101174 51.9314196, 4.6102878 51.9316725, 4.6105408 51.9320557, 4.6105709 51.9321021, 4.6105848 51.9321232, 4.6107529 51.9323704, 4.6109706 51.9326884, 4.6110414 51.9327656, 4.6111203 51.9328394, 4.6112442 51.9329192, 4.6113476 51.9329796, 4.6119717 51.9332996, 4.6123798 51.9334574, 4.6129859 51.9336916, 4.6134107 51.9338514))</t>
+          <t>MULTILINESTRING ((4.3359951 51.9378332, 4.3358063 51.9377908), (4.3358943 51.9376361, 4.3358569 51.9376982, 4.3358063 51.9377908), (4.3358943 51.9376361, 4.3357553 51.9376128, 4.3356467 51.9375933, 4.334513 51.9373315, 4.3343145 51.9372306, 4.3341804 51.9370769, 4.3341402 51.9369545, 4.3342188 51.9366018), (4.3342188 51.9366018, 4.3344218 51.9360913, 4.3346256 51.9357473, 4.3349889 51.9351716, 4.3350441 51.9350842, 4.3353176 51.9346773, 4.3361692 51.9332787, 4.3362412 51.9331604, 4.3366194 51.9325816, 4.3367482 51.9324592, 4.3369145 51.9323815, 4.3370754 51.9323385), (4.3370754 51.9323385, 4.3373624 51.9323203, 4.3375984 51.9323418, 4.338269 51.9324559, 4.3394223 51.9326444, 4.3405155 51.9328086, 4.3405709 51.932817, 4.3407129 51.9328239), (4.3407129 51.9328239, 4.3407576 51.9327953, 4.3408137 51.9327776, 4.3408607 51.932772, 4.3409474 51.9327807, 4.3410152 51.9328094), (4.3410152 51.9328094, 4.3410514 51.9328426, 4.3410674 51.9328787, 4.341065 51.9329148), (4.341065 51.9329148, 4.3411784 51.9329678, 4.3412125 51.9329813, 4.3415982 51.9331692, 4.3418685 51.9333084, 4.3420541 51.9333524, 4.3421923 51.9333799, 4.3423463 51.9333894, 4.3424387 51.9333918, 4.3431613 51.9333772, 4.3433437 51.9333721, 4.3438177 51.9333331, 4.3441305 51.9333705, 4.3441812 51.9333825, 4.3443593 51.9334295, 4.3450734 51.9336043, 4.3455766 51.9337275, 4.3457293 51.9337761, 4.3457799 51.9337886, 4.3459795 51.9338508, 4.3461832 51.9339387, 4.3464202 51.9340849, 4.346553 51.9342236, 4.3466633 51.9343586, 4.3467954 51.934522, 4.3469325 51.9346025, 4.3470819 51.9346687, 4.3472544 51.9347188, 4.3478697 51.93481, 4.3480313 51.9348344), (4.3480313 51.9348344, 4.3480815 51.9348038, 4.3481471 51.9347877, 4.3482338 51.9348093, 4.3482961 51.9348418, 4.3483369 51.9348748, 4.3483495 51.9349195), (4.3483495 51.9349195, 4.3484431 51.934981, 4.3491223 51.9352716, 4.3494268 51.9354176, 4.3495499 51.9354732, 4.3495922 51.9354923, 4.3497337 51.9355596, 4.3497963 51.9356044), (4.3497963 51.9356044, 4.3521873 51.936647, 4.3522996 51.9366962), (4.3522996 51.9366962, 4.3524498 51.936802, 4.3525193 51.9368855, 4.352529 51.9369655, 4.352491 51.937103, 4.3523555 51.937327, 4.3523405 51.9373512, 4.3520145 51.9378517, 4.3516717 51.9383828), (4.3516717 51.9383828, 4.3514022 51.9388178), (4.3514022 51.9388178, 4.3509028 51.9396262), (4.3509028 51.9396262, 4.3510325 51.9396597, 4.3518665 51.9398576, 4.3525421 51.9400092, 4.3526477 51.9400348, 4.3527787 51.9400665, 4.353143 51.9401525, 4.3539259 51.9403409, 4.3544192 51.940462, 4.3546187 51.9404701, 4.3549997 51.9403882, 4.3553659 51.940269, 4.3555552 51.9401346, 4.3556883 51.9399078, 4.3559838 51.9393107, 4.3560445 51.9391879, 4.3564222 51.9384494, 4.3565673 51.9381618, 4.3566658 51.9379756, 4.3567119 51.9378776, 4.3567584 51.9377788, 4.356795 51.9376787, 4.3568071 51.9376199, 4.3568076 51.9375258, 4.3568002 51.9374406, 4.3567691 51.9373402), (4.3567691 51.9373402, 4.3567599 51.9373221, 4.3567459 51.9372951, 4.3567171 51.9372573, 4.3566653 51.9372061, 4.3566179 51.9371689, 4.3565376 51.93712, 4.3564458 51.937082), (4.356491 51.9370351, 4.3564458 51.937082), (4.3586679 51.9341225, 4.358382 51.9345833, 4.3582754 51.9347574, 4.3582411 51.9348103, 4.3582257 51.9348376, 4.3581827 51.9349044, 4.3581622 51.9349332, 4.3581428 51.9349659, 4.3579474 51.9352716, 4.3578647 51.9354195, 4.3578092 51.9354828, 4.357195 51.9359678, 4.3569988 51.9362657, 4.3567507 51.9366201, 4.3565536 51.9369281, 4.356491 51.9370351), (4.3596709 51.9325515, 4.3593714 51.9330199, 4.3589339 51.9337078, 4.3586679 51.9341225), (4.359799 51.932356, 4.3596709 51.9325515), (4.3599898 51.9314162, 4.3601858 51.9314661, 4.3602706 51.9315656, 4.359799 51.932356), (4.3592642 51.9312469, 4.359855 51.9313847, 4.3599898 51.9314162), (4.3590429 51.9311931, 4.3592642 51.9312469), (4.3579138 51.9309236, 4.3580075 51.9309415, 4.3590429 51.9311931), (4.3562669 51.9305392, 4.3564801 51.9305838, 4.3566222 51.9306164, 4.3567608 51.9306465, 4.357046 51.9307135, 4.3576866 51.9308703, 4.3579138 51.9309236), (4.3559427 51.9306372, 4.3562669 51.9305392), (4.3555582 51.9307683, 4.3556617 51.930733, 4.355829 51.930676, 4.3559427 51.9306372), (4.3553254 51.9308444, 4.3554304 51.9308101, 4.3555582 51.9307683), (4.3541228 51.9306487, 4.3542693 51.9306833, 4.3548684 51.9308323, 4.3550447 51.9308568, 4.3551793 51.9308663, 4.3553254 51.9308444), (4.3527713 51.93033, 4.3531083 51.9304095, 4.3541228 51.9306487), (4.3524502 51.930253, 4.3527713 51.93033), (4.3519893 51.9301404, 4.3524502 51.930253), (4.3519893 51.9301404, 4.3515087 51.9300628, 4.3513649 51.9300493), (4.3513649 51.9300493, 4.3513298 51.9300692, 4.3512879 51.9300833, 4.3512417 51.9300906, 4.3511782 51.9300891, 4.3511189 51.930075, 4.3510701 51.9300499, 4.351044 51.9300257, 4.3510282 51.9299984, 4.3510235 51.9299695), (4.3510235 51.9299695, 4.3508993 51.9299256, 4.350742 51.9298416), (4.3505695 51.9297981, 4.3506634 51.9298204, 4.350742 51.9298416), (4.3492231 51.9294823, 4.3497179 51.9295998, 4.3497826 51.9296139, 4.3501344 51.9296988, 4.3505695 51.9297981), (4.347647 51.9290551, 4.347712 51.9290943, 4.3479637 51.9291789, 4.3481723 51.9292292, 4.3483479 51.9292716, 4.3492231 51.9294823), (4.3474773 51.9288911, 4.3475502 51.9289818, 4.347647 51.9290551), (4.3471565 51.9283836, 4.3472503 51.9284811, 4.3474773 51.9288911), (4.3453012 51.9278982, 4.3458234 51.9280233, 4.346062 51.9280805, 4.3463656 51.9281532, 4.3464048 51.9281629, 4.346954 51.9282996, 4.3470822 51.9283427, 4.3471565 51.9283836), (4.3448134 51.9277814, 4.3449599 51.9278178, 4.3453012 51.9278982), (4.3444789 51.9277003, 4.3445113 51.9277074, 4.3448134 51.9277814), (4.3442102 51.9276415, 4.3442972 51.9276604, 4.3444789 51.9277003), (4.3440878 51.9276145, 4.3442102 51.9276415), (4.343923 51.9275755, 4.3440878 51.9276145), (4.343923 51.9275755, 4.3439967 51.9274593, 4.3441877 51.9271451, 4.3455256 51.9249444), (4.3455256 51.9249444, 4.3457742 51.9245327, 4.3458006 51.9244771, 4.3458652 51.9243697), (4.3458652 51.9243697, 4.3461052 51.9244273), (4.3461052 51.9244273, 4.3462418 51.9244593, 4.3463134 51.9244758, 4.3466087 51.924549), (4.3466087 51.924549, 4.3468574 51.9246083, 4.3469652 51.9246344, 4.3475963 51.9247879, 4.3483397 51.9249657, 4.3487193 51.9250421, 4.348866 51.9250729, 4.3490906 51.9250954, 4.3493369 51.9251204, 4.349398 51.9251245, 4.3498175 51.9251678, 4.3505473 51.9252226, 4.3508518 51.9252494, 4.3518988 51.9253428, 4.3519857 51.9253504), (4.3519857 51.9253504, 4.3523562 51.9253952, 4.3526789 51.9254486), (4.3526789 51.9254486, 4.3529509 51.9255086, 4.3532185 51.9255728), (4.3532185 51.9255728, 4.3535027 51.9256376, 4.353601 51.9256611, 4.3537485 51.9256952), (4.3537485 51.9256952, 4.3538107 51.9255953, 4.3538648 51.9255004, 4.3539148 51.9253552, 4.3539074 51.925262, 4.3539009 51.9251977, 4.3538406 51.9250855, 4.3537617 51.9250007, 4.3536657 51.924917, 4.3533774 51.9247632, 4.3528098 51.9244962, 4.3527098 51.9244424, 4.3525613 51.9243541, 4.3524401 51.9242471, 4.3523886 51.9241733, 4.3523171 51.9240715, 4.3522744 51.9239525, 4.3522643 51.9238274, 4.3522604 51.9236989, 4.3523225 51.9235858, 4.3524323 51.9234144, 4.3526445 51.9230833), (4.3526445 51.9230833, 4.3529797 51.9225548, 4.3530046 51.9225156, 4.3530809 51.9224077), (4.3530809 51.9224077, 4.3531574 51.922321), (4.3531574 51.922321, 4.3532507 51.9222196, 4.3536143 51.9217443, 4.3537672 51.9215293, 4.3539137 51.9213865, 4.3542556 51.9210476, 4.3543213 51.9209843, 4.3544126 51.9209086, 4.3546035 51.9207503, 4.3550078 51.9204317, 4.3552227 51.9202518), (4.3552227 51.9202518, 4.355464 51.9200296, 4.3555709 51.9199245), (4.3555709 51.9199245, 4.3556222 51.9198745), (4.3556222 51.9198745, 4.3557114 51.9197805, 4.3557619 51.9197408, 4.3560239 51.9195228), (4.3562468 51.9193374, 4.3560239 51.9195228), (4.3562468 51.9193374, 4.3562923 51.9192579, 4.3564182 51.9191851), (4.3572854 51.9183682, 4.3569974 51.918635, 4.3566069 51.9189934, 4.3564182 51.9191851), (4.3572854 51.9183682, 4.3573706 51.9182493, 4.3574128 51.9182124, 4.3575409 51.9181246), (4.3576805 51.917929, 4.3575409 51.9181246), (4.3576805 51.917929, 4.3577307 51.9177909, 4.3578643 51.9176704), (4.358273 51.9171422, 4.3578643 51.9176704), (4.358273 51.9171422, 4.3583989 51.9169823, 4.3586714 51.9165993), (4.3586714 51.9165993, 4.3587495 51.9164541, 4.3588002 51.9163849), (4.3588002 51.9163849, 4.3587662 51.9163541, 4.3587474 51.9163186, 4.3587454 51.9162813, 4.3587579 51.9162488, 4.3587832 51.9162192, 4.3588227 51.9161929, 4.3588721 51.916174, 4.3589278 51.916164, 4.3589859 51.9161635), (4.3589859 51.9161635, 4.3590302 51.9160969, 4.3591233 51.9160252), (4.3591233 51.9160252, 4.3591738 51.9159466, 4.3593765 51.9156528, 4.3594443 51.9155532), (4.3597036 51.9152008, 4.3594615 51.9155295, 4.3594443 51.9155532), (4.3597036 51.9152008, 4.359976 51.9147613, 4.3600199 51.9146933, 4.3600458 51.9146559, 4.3600791 51.9146078), (4.3600791 51.9146078, 4.3601568 51.9145522), (4.3601568 51.9145522, 4.3601878 51.9144588), (4.3601878 51.9144588, 4.3601608 51.9144005, 4.3601679 51.9143823, 4.3601752 51.9143639, 4.3602702 51.9142028), (4.3602702 51.9142028, 4.3606291 51.9133128, 4.3606994 51.9131287), (4.3606994 51.9131287, 4.360726 51.9129965, 4.3607586 51.9129137, 4.3607856 51.9128488, 4.3607944 51.9128238, 4.3608172 51.9127679), (4.3608172 51.9127679, 4.3608899 51.9126204, 4.3609313 51.9125196, 4.3610047 51.9123802), (4.3612418 51.9117696, 4.3610047 51.9123802), (4.3612418 51.9117696, 4.3612961 51.9115948, 4.3612286 51.9114164), (4.3612286 51.9114164, 4.3611347 51.9113805, 4.3610383 51.9112782, 4.3610129 51.9112515, 4.3609873 51.9112275, 4.3609268 51.9111813, 4.3608946 51.9111568), (4.3608946 51.9111568, 4.3607963 51.9111515, 4.360737 51.9111312, 4.3606969 51.911108, 4.3606689 51.9110621, 4.3606736 51.9110153, 4.3606919 51.9109839, 4.3607214 51.910963), (4.3607214 51.910963, 4.3606641 51.9109053, 4.3606477 51.9108887, 4.3606117 51.9108579, 4.3605134 51.9107619, 4.3604497 51.910645), (4.3603759 51.9105709, 4.3604497 51.910645), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.3610858 51.9106382, 4.3611254 51.9105905, 4.3612273 51.9104633, 4.3612512 51.9104357, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3601654 51.9103626, 4.3598195 51.9101251, 4.3596939 51.9099938), (4.3596939 51.9099938, 4.3596106 51.9099183, 4.3594546 51.9097895), (4.3594546 51.9097895, 4.3593013 51.9096644, 4.3591826 51.9095669), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3586815 51.9093418, 4.3584023 51.9093665, 4.3582834 51.9093753, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3525496 51.9094094, 4.3525195 51.9094715), (4.3525195 51.9094715, 4.3524649 51.9095268, 4.3523892 51.9095718, 4.3523097 51.9095992), (4.3523097 51.9095992, 4.3522975 51.9096035, 4.3522368 51.9096136), (4.3522368 51.9096136, 4.3521958 51.9096197, 4.3520908 51.9096195, 4.3520628 51.9096149), (4.3520628 51.9096149, 4.3519892 51.9096028, 4.3519821 51.9096002), (4.3519821 51.9096002, 4.3518979 51.9095707, 4.3518673 51.9095523, 4.3518228 51.9095254, 4.3517875 51.9094917, 4.3517808 51.9094853, 4.3517469 51.9094302, 4.3517346 51.9093718), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3446973 51.909355, 4.3449363 51.909356), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3437 51.9094, 4.3435453 51.9094618, 4.343117 51.9095625), (4.343117 51.9095625, 4.3430661 51.9095744, 4.342946 51.9095826), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3378036 51.9108706, 4.3378974 51.9109945, 4.338072 51.9111947), (4.3378036 51.9108706, 4.3377469 51.9108838, 4.3376508 51.9109062, 4.3371833 51.9110026, 4.336912 51.9110588, 4.3359093 51.9112671, 4.3356535 51.9113193, 4.335168 51.9114174, 4.335145 51.911422), (4.335145 51.911422, 4.3351062 51.9114302, 4.3350243 51.9114476), (4.3350243 51.9114476, 4.3349632 51.9114604, 4.3349091 51.9114734, 4.334855 51.9114864), (4.3347128 51.9115162, 4.334855 51.9114864), (4.3347128 51.9115162, 4.33462 51.9115364, 4.3345112 51.91156), (4.3345112 51.91156, 4.3344452 51.9115739), (4.3344452 51.9115739, 4.334402 51.9115831, 4.3336587 51.9117294), (4.3336587 51.9117294, 4.3333849 51.9117881, 4.3327983 51.9119094, 4.3320314 51.9120694, 4.3319355 51.9120894), (4.3319355 51.9120894, 4.3310565 51.9122668, 4.3308912 51.9123013, 4.3307236 51.9123335, 4.3305572 51.9123669, 4.3298911 51.9125014, 4.3296722 51.9125472, 4.3295422 51.912573, 4.3288141 51.9127264), (4.3288141 51.9127264, 4.3286987 51.9127498, 4.3285028 51.9127895), (4.3285028 51.9127895, 4.3280686 51.9128757), (4.3280686 51.9128757, 4.3279711 51.9128963, 4.3279198 51.9129071, 4.3278663 51.9129183), (4.3277265 51.9129507, 4.3278663 51.9129183), (4.3275722 51.9129724, 4.3277265 51.9129507), (4.3273976 51.9129952, 4.3275722 51.9129724), (4.3273976 51.9129952, 4.3273525 51.9129992, 4.327277 51.9130064, 4.3266714 51.9130641), (4.3266714 51.9130641, 4.3262789 51.9131035, 4.3260794 51.9131269, 4.3252635 51.9132005, 4.3249395 51.9132309, 4.3247289 51.9132507, 4.3242197 51.9133022, 4.3216897 51.9135331, 4.320528 51.9136486, 4.3202021 51.913674, 4.3199892 51.9136831), (4.3166314 51.9136657, 4.3169459 51.9136683, 4.3171779 51.9136707, 4.3172946 51.9136714, 4.3186721 51.9136851, 4.3189693 51.9136873, 4.319681 51.9136884, 4.3199892 51.9136831), (4.31644 51.9132895, 4.3165207 51.9135717, 4.316551 51.9136311, 4.3166314 51.9136657), (4.3161129 51.9121043, 4.3162309 51.9125272, 4.3162589 51.9126183, 4.3162855 51.9127189, 4.316354 51.912992, 4.31644 51.9132895), (4.3161129 51.9121043, 4.316031 51.9120012, 4.3159829 51.9118434, 4.3159536 51.9117475, 4.315925 51.9116129), (4.315925 51.9116129, 4.3159272 51.9115485, 4.3159536 51.9114985, 4.3160064 51.9114554, 4.3160668 51.9114136, 4.316219 51.9113539), (4.3168654 51.9110391, 4.316219 51.9113539), (4.3168654 51.9110391, 4.3169825 51.9109428, 4.3173545 51.9107783, 4.3174996 51.9107224), (4.3174996 51.9107224, 4.3174219 51.9106348, 4.3173406 51.9104781), (4.3173406 51.9104781, 4.3173317 51.910461, 4.3172762 51.910344, 4.3172502 51.910281, 4.3172042 51.9101972, 4.3170998 51.9100099), (4.3163962 51.9086105, 4.316582 51.9089508, 4.31674 51.9092775, 4.316787 51.9093778, 4.3168883 51.9096121, 4.3170211 51.9098371, 4.3170998 51.9100099), (4.3150761 51.9060425, 4.3151932 51.9062677, 4.315635 51.9071258, 4.315736 51.907312, 4.3158242 51.9074772, 4.3160471 51.9079105, 4.3163962 51.9086105), (4.3147493 51.9053738, 4.3150761 51.9060425), (4.3147155 51.905133, 4.3146949 51.9051686, 4.3146937 51.905179, 4.3146896 51.9052142, 4.3147071 51.9052742, 4.3147493 51.9053738), (4.3152785 51.9049688, 4.3149079 51.905055, 4.3147712 51.9050989, 4.3147155 51.905133), (4.3152785 51.9049688, 4.3152333 51.9049019), (4.3152333 51.9049019, 4.3150527 51.9046041, 4.3150059 51.9045269, 4.3149703 51.9044683))</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>384018</t>
+          <t>2676429</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rotterdam, Station Alexander</t>
+          <t>Berkel en Rodenrijs, Rodenrijs Metro</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bus 31: Capelle Oostgaarde =&gt; Rotterdam Station Alexander</t>
+          <t>Bus 170: Zoetermeer Centrum West =&gt; Berkel en Rodenrijs Rodenrijs Metro</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1193,14 +1193,14 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.6070795 51.930079, 4.6072187 51.9300618, 4.6074677 51.9300769, 4.6079343 51.9301409, 4.6082201 51.9301868), (4.6070795 51.930079, 4.6070005 51.9301031, 4.6068459 51.9301974, 4.6065753 51.9304138, 4.6064863 51.9304979, 4.6060042 51.930913, 4.605493 51.9313531, 4.6053929 51.9314393, 4.6052 51.9316, 4.6042333 51.9324479, 4.6040359 51.9326219, 4.6033052 51.9333046), (4.6033052 51.9333046, 4.6032364 51.9333647), (4.6032364 51.9333647, 4.603208 51.933442, 4.6031619 51.9334859, 4.6030801 51.9335613), (4.6030801 51.9335613, 4.6030899 51.933576, 4.6030951 51.9335915, 4.6030957 51.9336073, 4.6030914 51.9336229, 4.6030775 51.9336438, 4.6030551 51.9336618, 4.6030258 51.9336755, 4.6029919 51.9336839, 4.6029556 51.9336866, 4.6029194 51.9336834), (4.6029194 51.9336834, 4.6028389 51.9337562, 4.602746 51.9338176, 4.602658 51.9338509), (4.602658 51.9338509, 4.6024235 51.9340506, 4.6016574 51.9345519, 4.6012989 51.9347819, 4.6011593 51.9348668, 4.6008851 51.9350504), (4.6008851 51.9350504, 4.6008368 51.9351198, 4.6007832 51.9351654, 4.6007478 51.9351955, 4.60068 51.9352603), (4.60068 51.9352603, 4.6007012 51.9352822, 4.6007144 51.9353063, 4.6007189 51.9353316, 4.6007145 51.9353569, 4.6007016 51.9353811, 4.6006728 51.9354089, 4.6006328 51.9354307, 4.6005661 51.935448, 4.6004937 51.9354488), (4.6004937 51.9354488, 4.6004577 51.9354427, 4.6004243 51.9354324, 4.6003947 51.9354183), (4.6003947 51.9354183, 4.6003618 51.9353933, 4.6003411 51.9353637, 4.600334 51.9353318, 4.6003412 51.9352999), (4.6003412 51.9352999, 4.6002309 51.935244, 4.6001888 51.9352251, 4.6001633 51.9352117, 4.600075 51.9351373), (4.596778 51.9337991, 4.5972118 51.9339426, 4.5977906 51.9341379, 4.5978599 51.9341626, 4.5979825 51.9342103, 4.59808 51.93425, 4.598225 51.9343137, 4.5983323 51.9343626, 4.5986091 51.9344839, 4.5988862 51.9346069, 4.5995376 51.9348887, 4.600075 51.9351373), (4.596778 51.9337991, 4.5966432 51.9337805, 4.5964664 51.9337204, 4.596331 51.9336721), (4.596331 51.9336721, 4.5962893 51.9336884, 4.5962422 51.9336976, 4.5961929 51.933699, 4.5961446 51.9336925, 4.5961082 51.9336817, 4.5960764 51.9336665, 4.596046 51.9336431, 4.5960262 51.9336158, 4.5960181 51.9335863, 4.5960225 51.9335565), (4.5960225 51.9335565, 4.5955933 51.9333955, 4.5954865 51.9333338), (4.5911175 51.9316918, 4.5913724 51.9317752, 4.5915988 51.9318549, 4.5920696 51.9320323, 4.5927314 51.9322774, 4.5935017 51.932573, 4.5941426 51.9328172, 4.5953193 51.9332727, 4.5953972 51.9333021, 4.5954865 51.9333338), (4.590792 51.9315924, 4.5909841 51.9316511, 4.5911175 51.9316918), (4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.5905636 51.9319109, 4.5904339 51.9320735), (4.5904339 51.9320735, 4.5903401 51.9321833, 4.5902947 51.9322366, 4.590204 51.9323633, 4.5900839 51.9325054, 4.5898348 51.9328145, 4.5897799 51.9328511, 4.589756 51.9328647, 4.5897301 51.9328756), (4.5873429 51.9319069, 4.587845 51.9321857, 4.5881272 51.9323254, 4.5883859 51.932434, 4.5885839 51.9325117, 4.5888752 51.9326235, 4.5894766 51.9328592, 4.5895536 51.9328831, 4.5896269 51.9328918, 4.5897301 51.9328756), (4.5873429 51.9319069, 4.5871247 51.9318031, 4.5869537 51.9317142, 4.5869142 51.9316936, 4.5868102 51.9316338, 4.5867316 51.9315788), (4.5867316 51.9315788, 4.586676 51.9316104, 4.5864393 51.9317334), (4.5864393 51.9317334, 4.5852855 51.9325124, 4.5851722 51.9325886), (4.5851722 51.9325886, 4.5850661 51.9326619, 4.5840003 51.9333868, 4.5838276 51.9335206), (4.5838276 51.9335206, 4.5837165 51.9336086), (4.5837165 51.9336086, 4.5836166 51.9336908, 4.5827581 51.9343632), (4.5827581 51.9343632, 4.5825842 51.9345583, 4.5822275 51.934964, 4.5819691 51.9352766, 4.5818102 51.9355006, 4.5814228 51.9359855, 4.5809175 51.9366477, 4.580818 51.9367766, 4.5807424 51.9368752, 4.5806776 51.9369503, 4.5805396 51.9370825), (4.5805396 51.9370825, 4.5803401 51.9372517), (4.5803401 51.9372517, 4.5802024 51.9373657, 4.5800477 51.9374907), (4.5800477 51.9374907, 4.5799577 51.9375657), (4.5799577 51.9375657, 4.5798006 51.9376936, 4.5790287 51.9383357, 4.5783816 51.9388596, 4.5782425 51.9389475, 4.5779347 51.9391215), (4.5779347 51.9391215, 4.5775653 51.9393953, 4.5771548 51.9397568, 4.576331 51.9404525, 4.5759411 51.9407775, 4.5756433 51.9410331, 4.5755233 51.9411323, 4.5751907 51.9414073, 4.5744494 51.9420212, 4.5742251 51.9422069, 4.573907 51.9424713, 4.5738635 51.9425074, 4.5735362 51.9428159, 4.5733548 51.9429854, 4.5732254 51.9431432, 4.5730521 51.943358), (4.5730521 51.943358, 4.5728456 51.9435323), (4.5728456 51.9435323, 4.5725279 51.9438069, 4.5719061 51.9443238, 4.5715088 51.944654, 4.5714568 51.9446973, 4.5711107 51.9449852, 4.5709622 51.9451132, 4.5709139 51.9451534, 4.5706044 51.9454097, 4.5703656 51.9456075, 4.5700085 51.9459167), (4.5700085 51.9459167, 4.5695154 51.9463727, 4.5691159 51.9468119, 4.5685802 51.9473066, 4.5683473 51.9475095, 4.5682307 51.9476111), (4.5681472 51.9476809, 4.5682307 51.9476111), (4.5681472 51.9476809, 4.5679829 51.9476086), (4.5679829 51.9476086, 4.5670859 51.9471017), (4.5670859 51.9471017, 4.5669256 51.9470109), (4.5669256 51.9470109, 4.5667871 51.9469005, 4.5666501 51.9466789, 4.5665916 51.946576, 4.565876 51.9461431, 4.5648949 51.9455359, 4.5645801 51.9453411, 4.5638338 51.9448817, 4.5634721 51.9446582, 4.5631771 51.9445326, 4.5625337 51.9444045, 4.5623456 51.9443672, 4.5620735 51.9443218, 4.5614306 51.9442275, 4.5609863 51.9441539, 4.5607346 51.9441377, 4.5605891 51.9441458, 4.5603814 51.9441757, 4.5601593 51.944236, 4.5599251 51.9443107, 4.5581472 51.9449486), (4.5581472 51.9449486, 4.5579174 51.9450301, 4.5573755 51.9452224, 4.5570749 51.9453312), (4.5570749 51.9453312, 4.5569223 51.9453864, 4.5568034 51.9454288, 4.5567723 51.9454399, 4.5567196 51.9454587, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.5558538 51.949644), (4.5558538 51.949644, 4.5558136 51.9497617, 4.555598 51.950245, 4.5554771 51.950419), (4.5554771 51.950419, 4.5554128 51.9505729), (4.5554128 51.9505729, 4.55539 51.950632), (4.55539 51.950632, 4.5553885 51.9506358, 4.5553657 51.9506944, 4.5553509 51.950817, 4.5553693 51.950894), (4.5553693 51.950894, 4.5554179 51.9509614, 4.5554662 51.9510056, 4.5555278 51.9510585, 4.5556792 51.9511329, 4.5558846 51.9511775, 4.5560963 51.9512054), (4.5560787 51.9512475, 4.5560963 51.9512054), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.555853 51.9518422, 4.5558531 51.9519017, 4.5558077 51.9520505, 4.5557758 51.9521549, 4.5557409 51.9522389), (4.5557409 51.9522389, 4.5556635 51.9523168), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.5522534 51.9523763, 4.5521498 51.9523628), (4.5521498 51.9523628, 4.5522106 51.9521068))</t>
+          <t>MULTILINESTRING ((4.4828706 52.0610622, 4.4830312 52.0610416), (4.4830312 52.0610416, 4.4830423 52.0610676, 4.483053 52.0610939), (4.483053 52.0610939, 4.4830647 52.0611233, 4.4830747 52.0611461), (4.4830747 52.0611461, 4.4830872 52.061175, 4.4830965 52.0611984), (4.4830965 52.0611984, 4.4831077 52.0612276, 4.4831182 52.0612507), (4.4831182 52.0612507, 4.4831299 52.0612791, 4.4831398 52.0613026), (4.4831398 52.0613026, 4.4831531 52.0613308, 4.4831635 52.0613549), (4.4831635 52.0613549, 4.4832797 52.0616062), (4.4832797 52.0616062, 4.4837988 52.06152), (4.4837988 52.06152, 4.4839294 52.0615258), (4.4839294 52.0615258, 4.4840596 52.0618167, 4.4841147 52.0619397), (4.4841147 52.0619397, 4.4840934 52.0619919), (4.4840934 52.0619919, 4.4840198 52.0621319), (4.4840198 52.0621319, 4.4830365 52.0620321), (4.4830365 52.0620321, 4.4827674 52.0619812, 4.4824858 52.06192, 4.4822274 52.0618111, 4.4820902 52.0617138, 4.4819919 52.0616102), (4.4819919 52.0616102, 4.481933 52.0615347, 4.4818661 52.0614374), (4.4818661 52.0614374, 4.4817637 52.0612827, 4.4816855 52.0611347, 4.4815533 52.0608662), (4.4815533 52.0608662, 4.4813035 52.0603548, 4.4812457 52.0602405), (4.4812457 52.0602405, 4.4811104 52.0599756), (4.4811104 52.0599756, 4.4810407 52.0598216), (4.4810407 52.0598216, 4.4809238 52.0595726, 4.4807394 52.0591907, 4.4803136 52.0583015, 4.4801864 52.0580357, 4.4801036 52.0578666, 4.4799864 52.0576412), (4.4799864 52.0576412, 4.4795336 52.0566925, 4.4793957 52.0564103), (4.4793957 52.0564103, 4.4791743 52.0559091, 4.479054 52.0556644), (4.479054 52.0556644, 4.4789945 52.0555487, 4.4787608 52.0550542), (4.4787608 52.0550542, 4.4780371 52.053562, 4.4773934 52.0522181), (4.4773934 52.0522181, 4.4766597 52.0506754, 4.4764528 52.0502324, 4.476405 52.0501374), (4.476405 52.0501374, 4.4762756 52.049877), (4.4762756 52.049877, 4.4761428 52.0496099), (4.4761428 52.0496099, 4.475608 52.0484925, 4.4755292 52.0483276), (4.4755292 52.0483276, 4.4754906 52.0482399, 4.4753933 52.0480269, 4.4753196 52.0478839), (4.4753196 52.0478839, 4.4749875 52.0472102), (4.4749875 52.0472102, 4.4747897 52.0467868), (4.4747897 52.0467868, 4.4746182 52.046405), (4.4746182 52.046405, 4.4745389 52.0462647), (4.4745389 52.0462647, 4.4744285 52.0461394, 4.4743175 52.0460399, 4.4741029 52.0459238, 4.4739307 52.0458716, 4.4737489 52.045828, 4.4735733 52.0458034, 4.4733905 52.0457918, 4.4731943 52.0457977, 4.4729871 52.0458235, 4.4726524 52.0459185, 4.4723889 52.0460402, 4.4722044 52.0462083, 4.4721007 52.0463713, 4.4720527 52.0465708, 4.4720683 52.0467239, 4.4721136 52.0468398, 4.4721412 52.0468928, 4.4721987 52.0469773, 4.4723464 52.0471128), (4.4723464 52.0471128, 4.4725957 52.0472539), (4.4725957 52.0472539, 4.4728855 52.0473616, 4.4731613 52.0474213), (4.4731613 52.0474213, 4.4734551 52.047445, 4.4737352 52.0474492, 4.4741339 52.0474391), (4.4741339 52.0474391, 4.474707 52.0474213), (4.474707 52.0474213, 4.4749552 52.0474152, 4.4755289 52.0473654, 4.4759578 52.0473096), (4.4759578 52.0473096, 4.4769504 52.0471725), (4.4779066 52.0469671, 4.4777619 52.0469789, 4.4777214 52.0469817, 4.4776326 52.0469882, 4.4772606 52.0470145, 4.4771794 52.0470203, 4.4771208 52.0470318, 4.4770712 52.0470538, 4.477028 52.0470809, 4.4769504 52.0471725), (4.4779066 52.0469671, 4.4780612 52.0470746), (4.4780612 52.0470746, 4.4785316 52.0470436), (4.4785316 52.0470436, 4.4830667 52.046715), (4.4830667 52.046715, 4.4844699 52.0466146), (4.4844699 52.0466146, 4.4846216 52.0466053, 4.4883887 52.0463448), (4.4883887 52.0463448, 4.4901515 52.0462279, 4.4902103 52.0462227, 4.4903055 52.0462146, 4.4904585 52.0462014), (4.4904585 52.0462014, 4.4908431 52.0461703, 4.4913319 52.0461341, 4.4917467 52.046106), (4.4917467 52.046106, 4.4923192 52.0460631, 4.4933103 52.0459886, 4.4954734 52.0458301), (4.4954734 52.0458301, 4.4959183 52.0457943, 4.4963595 52.045747, 4.4966309 52.0457111, 4.4969108 52.0456693, 4.4970341 52.0456476, 4.497199 52.045624), (4.497199 52.045624, 4.4972955 52.0456042), (4.4972955 52.0456042, 4.4975059 52.045562, 4.497614 52.0455381, 4.4979426 52.0454575, 4.498268 52.0453644, 4.4988887 52.0451477, 4.4992241 52.044999), (4.4992241 52.044999, 4.4993136 52.0449118, 4.4994249 52.0448299, 4.4994441 52.0448205, 4.4996569 52.044722, 4.4997167 52.0446928, 4.5000048 52.0446171), (4.5000048 52.0446171, 4.500226 52.0444881), (4.500226 52.0444881, 4.5005578 52.0442637), (4.5005578 52.0442637, 4.5007276 52.0441514, 4.5009926 52.0439522, 4.5011996 52.0437458, 4.5012472 52.0436983), (4.5012472 52.0436983, 4.5013931 52.0435576), (4.5013931 52.0435576, 4.5015713 52.0435733), (4.5015713 52.0435733, 4.5018121 52.0436558, 4.502021 52.0437482, 4.5022021 52.0438196, 4.5023826 52.0439198), (4.5024427 52.0439437, 4.5023826 52.0439198), (4.5045905 52.0441807, 4.5043322 52.0442422, 4.5041872 52.0442808, 4.5041309 52.0442886, 4.5040175 52.0443066, 4.5039063 52.0443218, 4.5037375 52.0443318, 4.503569 52.0443185, 4.5033678 52.0442848, 4.5031923 52.0442376, 4.5031499 52.0442203, 4.5028938 52.0441256, 4.5028048 52.0440871, 4.5026164 52.0440119, 4.5024891 52.0439604, 4.5024427 52.0439437), (4.5076111 52.0434264, 4.5063087 52.0437516, 4.5057 52.0439, 4.5045905 52.0441807), (4.5081423 52.0432942, 4.5076111 52.0434264), (4.508783 52.0431338, 4.50844 52.0432205, 4.5081423 52.0432942), (4.508783 52.0431338, 4.5093742 52.0431313, 4.509559 52.0431173, 4.5097749 52.0430901, 4.5102168 52.0430005, 4.5102757 52.0429885, 4.5104411 52.0429455, 4.5159503 52.0415567, 4.5161971 52.0414642, 4.516366 52.0413871, 4.516587 52.0412737, 4.5167675 52.0411619, 4.5169934 52.0409869), (4.5169934 52.0409869, 4.5172933 52.0407442), (4.5175721 52.0405235, 4.5174311 52.0406333, 4.5172933 52.0407442), (4.5175721 52.0405235, 4.5177904 52.040427, 4.5178598 52.0403589, 4.5179069 52.0402849), (4.5179069 52.0402849, 4.5178569 52.040269, 4.517822 52.0402527, 4.517732 52.0401911), (4.517732 52.0401911, 4.517526 52.0400427, 4.5173452 52.0399151), (4.5173452 52.0399151, 4.516962 52.0396478), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5137257 52.0373333, 4.5136531 52.0372933, 4.5135814 52.0372063, 4.5135661 52.0371504), (4.5135661 52.0371504, 4.5133959 52.03717), (4.5133959 52.03717, 4.5131304 52.0371463, 4.5128956 52.0370737, 4.5127633 52.0369977, 4.5127218 52.036959), (4.5127218 52.036959, 4.5122589 52.0366537, 4.5119523 52.0364337, 4.5113302 52.0359511, 4.5109747 52.0356634, 4.5109553 52.0356452, 4.5107077 52.035443, 4.5103906 52.0351841, 4.5102312 52.0350608), (4.5102312 52.0350608, 4.5101215 52.0350232, 4.5099701 52.034982, 4.5097053 52.0349548), (4.5097053 52.0349548, 4.5095282 52.0349756, 4.5093793 52.0350141, 4.5091403 52.035127, 4.5090737 52.0351585, 4.5088896 52.0352619), (4.5088896 52.0352619, 4.5087293 52.0351976), (4.5087293 52.0351976, 4.5084999 52.035004, 4.5080683 52.0346833, 4.5079515 52.0345703), (4.5079515 52.0345703, 4.5072318 52.034023, 4.5071449 52.033967, 4.5070822 52.0339426, 4.5070084 52.0339146), (4.5037603 52.0312266, 4.5037807 52.0313763, 4.5038844 52.0317588, 4.5039737 52.0318888, 4.5041573 52.0320572, 4.5045094 52.0322376, 4.5049764 52.0324799, 4.5056956 52.0328658, 4.506006 52.0331006, 4.5066661 52.0335861, 4.5067704 52.0336624, 4.5068546 52.0337131, 4.5069092 52.033758, 4.5069795 52.0338303, 4.5069965 52.0338598, 4.5070084 52.0339146), (4.5037603 52.0312266, 4.5037134 52.0311369, 4.5036936 52.0310662, 4.5036832 52.0310085), (4.5036832 52.0310085, 4.5036761 52.0309259, 4.5036846 52.0308648, 4.5037384 52.0305735, 4.5037564 52.0304047), (4.5035378 52.0282905, 4.5035556 52.0286996, 4.503559 52.028791, 4.5035605 52.028843, 4.5036117 52.0293788, 4.5037243 52.0301771, 4.5037564 52.0304047), (4.5035047 52.0277898, 4.5035462 52.0278918, 4.5035547 52.0281861, 4.5035378 52.0282905), (4.5035085 52.0274374, 4.5035074 52.0275347, 4.5035047 52.0277898), (4.5034766 52.0258733, 4.5035001 52.0267603, 4.5035106 52.0272511, 4.5035085 52.0274374), (4.5034717 52.0256879, 4.5034766 52.0258733), (4.5034717 52.0256879, 4.5033878 52.0256255, 4.5033811 52.0255419, 4.5034165 52.0252894, 4.5034667 52.0250843), (4.5040234 52.0159596, 4.5040274 52.0161526, 4.503964 52.0164233, 4.5038248 52.0167235, 4.5036289 52.0170113, 4.5035204 52.0172104, 4.5034714 52.0174427, 4.5034426 52.017698, 4.5033187 52.0189561, 4.5033014 52.0196665, 4.5033053 52.0202917, 4.503336 52.0210362, 4.503361 52.0218292, 4.5034205 52.0232899, 4.5034608 52.0241408, 4.5034762 52.0246513, 4.5034707 52.0248965, 4.5034667 52.0250843), (4.5039556 52.0155212, 4.5039933 52.0157509, 4.5040234 52.0159596), (4.5037605 52.0145049, 4.5038467 52.0149974, 4.5039556 52.0155212), (4.5036817 52.0140262, 4.5037177 52.0142591, 4.5037605 52.0145049), (4.4970885 52.0008594, 4.4970974 52.0008662, 4.4971429 52.0009012, 4.4971986 52.0009424, 4.4972746 52.0009946, 4.4973788 52.0010677, 4.4974336 52.0011078, 4.5000608 52.00317, 4.5001206 52.0032189, 4.5001697 52.0032642, 4.500208 52.0033034, 4.5002434 52.0033448, 4.5002789 52.0033903, 4.5003167 52.0034453, 4.5003526 52.0035123, 4.5004021 52.0036167, 4.5004558 52.00373, 4.5004851 52.0037865, 4.5005188 52.0038418, 4.5005596 52.0038965, 4.5006053 52.0039505, 4.5006565 52.0040009, 4.500712 52.0040509, 4.5020538 52.0051789, 4.5021051 52.0052228, 4.5021533 52.0052677, 4.502194 52.0053105, 4.5022299 52.0053528, 4.502264 52.0053994, 4.5022944 52.005446, 4.5023204 52.0054939, 4.5023419 52.0055421, 4.5023557 52.0055806, 4.5023675 52.005619, 4.5023775 52.0056581, 4.5023853 52.0056971, 4.50239 52.0057371, 4.5023913 52.0057767, 4.5023909 52.0058158, 4.5023882 52.0058547, 4.5023823 52.0058969, 4.5023731 52.0059354, 4.5023622 52.0059751, 4.5023499 52.0060143, 4.5022838 52.0062299, 4.50221 52.0064661, 4.5022043 52.0064875, 4.502202 52.0065063, 4.5022029 52.006529, 4.5022087 52.006555, 4.5022202 52.0065847, 4.5022398 52.0066341, 4.50235 52.0068831, 4.5023648 52.0069172, 4.5023709 52.0069313, 4.5024016 52.0070141, 4.5024233 52.0070784, 4.5024454 52.0071579, 4.5024646 52.0072344, 4.5024943 52.0074065, 4.5025107 52.0075999, 4.5025768 52.0090911, 4.5025932 52.0096361, 4.5025952 52.0098347, 4.5026393 52.0100534, 4.5026912 52.0102567, 4.5028179 52.0106255, 4.5030849 52.0114601, 4.503204 52.0116539, 4.5033077 52.0118135, 4.5033615 52.011995, 4.5034402 52.0125104, 4.5036817 52.0140262), (4.4969055 52.0007183, 4.4970885 52.0008594), (4.4895897 51.9950967, 4.4901346 51.9955141, 4.490665 51.9959236, 4.4909861 51.9961733, 4.4911524 51.9962961, 4.4913188 51.9964138, 4.4916497 51.9966445, 4.4918158 51.9967619, 4.4919717 51.9968809, 4.4932038 51.9978342, 4.4932661 51.9978862, 4.4933261 51.9979386, 4.4933943 51.9979965, 4.4934663 51.9980565, 4.4935383 51.9981148, 4.4936674 51.9982134, 4.4937635 51.9982851, 4.4938585 51.9983518, 4.4939551 51.9984194, 4.4940462 51.9984848, 4.4955238 51.999633, 4.4955822 51.9996797, 4.4956397 51.9997266, 4.4956966 51.9997751, 4.4957516 51.999823, 4.4958113 51.999872, 4.4958674 51.9999158, 4.4959861 52.0000072, 4.4960923 52.000092, 4.4961214 52.0001143, 4.4963782 52.0003106, 4.4966227 52.0004995, 4.4968862 52.000703, 4.4969055 52.0007183), (4.489175 51.9947712, 4.4892292 51.9948137, 4.4895897 51.9950967), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.4710576 51.9802382, 4.470935 51.9802726, 4.4708407 51.9802802, 4.4707127 51.9802661), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.469132 51.979373, 4.4690315 51.9793373, 4.4689806 51.979292, 4.4689412 51.9792258), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4639126 51.9772531, 4.4638287 51.9772152, 4.463774 51.977167, 4.4637436 51.9771046), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4618374 51.9758343, 4.4618339 51.9757344, 4.4618319 51.9756331, 4.4618293 51.975575, 4.4618218 51.9755567, 4.4618017 51.9755381, 4.4617789 51.9755245, 4.4617551 51.9755151, 4.4615248 51.9754898))</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>384029</t>
+          <t>2676430</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1210,17 +1210,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rotterdam, Kralingse Zoom</t>
+          <t>Zoetermeer, Centrum West</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bus 36: Rotterdam Station Alexander =&gt; Rotterdam Kralingse Zoom</t>
+          <t>Bus 170: Berkel en Rodenrijs Rodenrijs Metro =&gt; Zoetermeer Centrum West</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,14 +1231,14 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5521298 51.9520982, 4.5521448 51.9520508, 4.5523312 51.9519987), (4.5523312 51.9519987, 4.5525756 51.9520624, 4.5524949 51.9524061), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556635 51.9523168, 4.5556662 51.9522246, 4.5556983 51.9521449, 4.5557319 51.9520613, 4.555787 51.9519264, 4.5558017 51.9518965, 4.555853 51.9518422), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5560787 51.9512475, 4.5556664 51.951177, 4.5555308 51.9511328, 4.5554069 51.9510761, 4.5553136 51.9510114), (4.5553136 51.9510114, 4.5552663 51.9509693), (4.5552663 51.9509693, 4.5552148 51.9508771, 4.5552019 51.9507641, 4.5552139 51.9507074, 4.5552483 51.9506131, 4.5552497 51.9506093), (4.5552497 51.9506093, 4.5552706 51.9505523), (4.5552706 51.9505523, 4.5554109 51.9501973, 4.5555868 51.9498173, 4.5556261 51.9497323, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5563591 51.9454209, 4.5563198 51.9453827, 4.5562548 51.9453195, 4.5561573 51.9452476, 4.5560598 51.9451975, 4.5559165 51.9451538, 4.5557762 51.9451237, 4.5550626 51.9450198, 4.5549115 51.9449963, 4.5547708 51.9449745, 4.5547162 51.944966, 4.5543735 51.9449128), (4.5543735 51.9449128, 4.5541894 51.9448842), (4.5541894 51.9448842, 4.5540109 51.9448489, 4.5536707 51.9447546), (4.549397 51.9440563, 4.5509306 51.9443064, 4.5524506 51.9445543, 4.5533342 51.9446983, 4.5536707 51.9447546), (4.549397 51.9440563, 4.5493532 51.9441606, 4.5491439 51.9446582, 4.5490606 51.944856, 4.549 51.945), (4.5455591 51.9444508, 4.5462081 51.9445555, 4.5464133 51.944587, 4.5473659 51.9447431, 4.5482302 51.9448789, 4.5487949 51.9449681, 4.549 51.945), (4.5455591 51.9444508, 4.5451832 51.9444346, 4.5451112 51.9444315, 4.5450062 51.9444134, 4.5448797 51.9443916), (4.5448797 51.9443916, 4.5447645 51.9443718, 4.544709 51.9443556, 4.5445041 51.944296, 4.5443977 51.9442651), (4.5397519 51.943511, 4.5399246 51.9435386, 4.5400091 51.9435521, 4.5404961 51.9436298, 4.5411837 51.9437398, 4.5416623 51.9438199, 4.5421572 51.9439028, 4.5436206 51.944139, 4.5438235 51.9441704, 4.5443977 51.9442651), (4.5397519 51.943511, 4.5390844 51.9434219, 4.5386828 51.9433376), (4.5386828 51.9433376, 4.5377743 51.9431559, 4.5376338 51.9431279, 4.5375614 51.9430899, 4.5375271 51.9430544, 4.537512 51.9430056, 4.5375906 51.9428814), (4.5378072 51.9423129, 4.537702 51.9425662, 4.5375906 51.9428814), (4.5395285 51.9382236, 4.5394633 51.9383728, 4.5392549 51.9388493, 4.539229 51.9389085, 4.5391928 51.9389914, 4.5390872 51.939252, 4.5388251 51.939899, 4.5386806 51.9402204, 4.5383627 51.9409823, 4.5382746 51.9411964, 4.5382525 51.9412487, 4.5380935 51.9416336, 4.5378072 51.9423129), (4.5395642 51.9381419, 4.5395285 51.9382236), (4.5395642 51.9381419, 4.539523 51.9381288, 4.5394916 51.9381079, 4.5394736 51.9380816, 4.5394731 51.938046, 4.539497 51.9380136, 4.5395367 51.9379918, 4.5395871 51.9379813, 4.5396402 51.9379837), (4.5396877 51.93788, 4.5396402 51.9379837), (4.5450821 51.9281895, 4.5450405 51.9282895, 4.544725 51.9290478, 4.5443232 51.9299757, 4.543928 51.9309417, 4.5434874 51.931969, 4.5432049 51.9326546, 4.5427624 51.9336672, 4.5425102 51.934247, 4.5416997 51.9361239, 4.5416605 51.9362147, 4.5415618 51.936399, 4.5415097 51.9364589, 4.541417 51.9365245, 4.5412114 51.936607, 4.5408596 51.9367298, 4.5405981 51.9368153, 4.5403397 51.9369315, 4.5401523 51.9370569, 4.54 51.9372, 4.5399151 51.937385, 4.5397898 51.9376577, 4.5396877 51.93788), (4.5450821 51.9281895, 4.5451118 51.9280006), (4.5451118 51.9280006, 4.5451264 51.9279047), (4.5451264 51.9279047, 4.5450986 51.9278828, 4.5450806 51.9278573), (4.5450806 51.9278573, 4.5449265 51.9278216, 4.5447226 51.9277737, 4.5446112 51.9277377, 4.5444838 51.9276809, 4.5443296 51.927571, 4.5441942 51.9274178, 4.5435363 51.9263738, 4.5434083 51.9262283, 4.5433138 51.9261574, 4.5431702 51.9260764, 4.5430286 51.9260262, 4.5428624 51.9259891, 4.5424067 51.9259245), (4.5424067 51.9259245, 4.5417657 51.9258407), (4.5417657 51.9258407, 4.5415995 51.9258184, 4.5409149 51.9256993, 4.5404426 51.9256558), (4.5404426 51.9256558, 4.5392671 51.9255868, 4.5390992 51.9255753), (4.5390992 51.9255753, 4.5380379 51.9255006, 4.537332 51.9254715), (4.537332 51.9254715, 4.5371383 51.9254714, 4.5369446 51.9254762, 4.5365931 51.9254948, 4.5362443 51.9255151, 4.5359879 51.9255352), (4.5359879 51.9255352, 4.5358427 51.9255501, 4.5355346 51.9255743), (4.5355346 51.9255743, 4.5340615 51.9256903, 4.5338287 51.9257103, 4.5336824 51.9257325), (4.5336824 51.9257325, 4.5334787 51.9256958), (4.5334787 51.9256958, 4.5333967 51.9255338, 4.5332314 51.9252324), (4.5332314 51.9252324, 4.5326307 51.9240879), (4.5326307 51.9240879, 4.5322478 51.9234163), (4.5322478 51.9234163, 4.5318117 51.9227005, 4.5317895 51.9226644, 4.531767 51.9226272, 4.5316969 51.9225121), (4.5316969 51.9225121, 4.5314889 51.9221997, 4.531435 51.9221187, 4.5313874 51.9220472), (4.5313874 51.9220472, 4.5313317 51.9219579, 4.5305464 51.9206507, 4.5304358 51.92045), (4.5304358 51.92045, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
+          <t>MULTILINESTRING ((4.4612988 51.9756827, 4.461283 51.9757357, 4.4612794 51.9757502, 4.4612847 51.9757728, 4.4613089 51.975786, 4.4613488 51.9757971, 4.4616458 51.9758184), (4.4616458 51.9758184, 4.4618374 51.9758343), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4637436 51.9771046, 4.4638291 51.9771429, 4.4638829 51.9771902, 4.4639126 51.9772531), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4689412 51.9792258, 4.469024 51.979253, 4.4691004 51.9793111, 4.469132 51.979373), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.4707127 51.9802661, 4.4708237 51.980236, 4.4709237 51.9802285, 4.4710576 51.9802382), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.489175 51.9947712, 4.4892292 51.9948137, 4.4895897 51.9950967), (4.4895897 51.9950967, 4.4901346 51.9955141, 4.490665 51.9959236, 4.4909861 51.9961733, 4.4911524 51.9962961, 4.4913188 51.9964138, 4.4916497 51.9966445, 4.4918158 51.9967619, 4.4919717 51.9968809, 4.4932038 51.9978342, 4.4932661 51.9978862, 4.4933261 51.9979386, 4.4933943 51.9979965, 4.4934663 51.9980565, 4.4935383 51.9981148, 4.4936674 51.9982134, 4.4937635 51.9982851, 4.4938585 51.9983518, 4.4939551 51.9984194, 4.4940462 51.9984848, 4.4955238 51.999633, 4.4955822 51.9996797, 4.4956397 51.9997266, 4.4956966 51.9997751, 4.4957516 51.999823, 4.4958113 51.999872, 4.4958674 51.9999158, 4.4959861 52.0000072, 4.4960923 52.000092, 4.4961214 52.0001143, 4.4963782 52.0003106, 4.4966227 52.0004995, 4.4968862 52.000703, 4.4969055 52.0007183), (4.4969055 52.0007183, 4.4970885 52.0008594), (4.4970885 52.0008594, 4.4970974 52.0008662, 4.4971429 52.0009012, 4.4971986 52.0009424, 4.4972746 52.0009946, 4.4973788 52.0010677, 4.4974336 52.0011078, 4.5000608 52.00317, 4.5001206 52.0032189, 4.5001697 52.0032642, 4.500208 52.0033034, 4.5002434 52.0033448, 4.5002789 52.0033903, 4.5003167 52.0034453, 4.5003526 52.0035123, 4.5004021 52.0036167, 4.5004558 52.00373, 4.5004851 52.0037865, 4.5005188 52.0038418, 4.5005596 52.0038965, 4.5006053 52.0039505, 4.5006565 52.0040009, 4.500712 52.0040509, 4.5020538 52.0051789, 4.5021051 52.0052228, 4.5021533 52.0052677, 4.502194 52.0053105, 4.5022299 52.0053528, 4.502264 52.0053994, 4.5022944 52.005446, 4.5023204 52.0054939, 4.5023419 52.0055421, 4.5023557 52.0055806, 4.5023675 52.005619, 4.5023775 52.0056581, 4.5023853 52.0056971, 4.50239 52.0057371, 4.5023913 52.0057767, 4.5023909 52.0058158, 4.5023882 52.0058547, 4.5023823 52.0058969, 4.5023731 52.0059354, 4.5023622 52.0059751, 4.5023499 52.0060143, 4.5022838 52.0062299, 4.50221 52.0064661, 4.5022043 52.0064875, 4.502202 52.0065063, 4.5022029 52.006529, 4.5022087 52.006555, 4.5022202 52.0065847, 4.5022398 52.0066341, 4.50235 52.0068831, 4.5023648 52.0069172, 4.5023709 52.0069313, 4.5024016 52.0070141, 4.5024233 52.0070784, 4.5024454 52.0071579, 4.5024646 52.0072344, 4.5024943 52.0074065, 4.5025107 52.0075999, 4.5025768 52.0090911, 4.5025932 52.0096361, 4.5025952 52.0098347, 4.5026393 52.0100534, 4.5026912 52.0102567, 4.5028179 52.0106255, 4.5030849 52.0114601, 4.503204 52.0116539, 4.5033077 52.0118135, 4.5033615 52.011995, 4.5034402 52.0125104, 4.5036817 52.0140262), (4.5036817 52.0140262, 4.5037177 52.0142591, 4.5037605 52.0145049), (4.5037605 52.0145049, 4.5038467 52.0149974, 4.5039556 52.0155212), (4.5039556 52.0155212, 4.5039933 52.0157509, 4.5040234 52.0159596), (4.5040234 52.0159596, 4.5040274 52.0161526, 4.503964 52.0164233, 4.5038248 52.0167235, 4.5036289 52.0170113, 4.5035204 52.0172104, 4.5034714 52.0174427, 4.5034426 52.017698, 4.5033187 52.0189561, 4.5033014 52.0196665, 4.5033053 52.0202917, 4.503336 52.0210362, 4.503361 52.0218292, 4.5034205 52.0232899, 4.5034608 52.0241408, 4.5034762 52.0246513, 4.5034707 52.0248965, 4.5034667 52.0250843), (4.5034667 52.0250843, 4.5035124 52.0252919, 4.5035147 52.0253893), (4.5035147 52.0253893, 4.5035204 52.0255237, 4.5035208 52.025629, 4.5034717 52.0256879), (4.5034717 52.0256879, 4.5034766 52.0258733), (4.5034766 52.0258733, 4.5035001 52.0267603, 4.5035106 52.0272511, 4.5035085 52.0274374), (4.5035085 52.0274374, 4.5035074 52.0275347, 4.5035047 52.0277898), (4.5035047 52.0277898, 4.5035462 52.0278918, 4.5035547 52.0281861, 4.5035378 52.0282905), (4.5035378 52.0282905, 4.5035556 52.0286996, 4.503559 52.028791, 4.5035605 52.028843, 4.5036117 52.0293788, 4.5037243 52.0301771, 4.5037564 52.0304047), (4.5037564 52.0304047, 4.503805 52.0305707, 4.5037984 52.0306463), (4.5037984 52.0306463, 4.5037962 52.030709, 4.5037874 52.0308988), (4.5037874 52.0308988, 4.5037906 52.0309407, 4.5037931 52.0309776, 4.5037747 52.0310525, 4.5037603 52.0312266), (4.5037603 52.0312266, 4.5037807 52.0313763, 4.5038844 52.0317588, 4.5039737 52.0318888, 4.5041573 52.0320572, 4.5045094 52.0322376, 4.5049764 52.0324799, 4.5056956 52.0328658, 4.506006 52.0331006, 4.5066661 52.0335861, 4.5067704 52.0336624, 4.5068546 52.0337131, 4.5069092 52.033758, 4.5069795 52.0338303, 4.5069965 52.0338598, 4.5070084 52.0339146), (4.5079515 52.0345703, 4.5072318 52.034023, 4.5071449 52.033967, 4.5070822 52.0339426, 4.5070084 52.0339146), (4.5079515 52.0345703, 4.5081001 52.0346426, 4.5086332 52.035015, 4.5088338 52.0351552), (4.5088338 52.0351552, 4.508982 52.0350839, 4.5092528 52.0349408, 4.5093603 52.034903, 4.5094801 52.0348764, 4.5095933 52.0348677, 4.5097244 52.0348613, 4.5099038 52.0348863, 4.510021 52.0349196), (4.510021 52.0349196, 4.5101385 52.0349717, 4.5102312 52.0350608), (4.5127218 52.036959, 4.5122589 52.0366537, 4.5119523 52.0364337, 4.5113302 52.0359511, 4.5109747 52.0356634, 4.5109553 52.0356452, 4.5107077 52.035443, 4.5103906 52.0351841, 4.5102312 52.0350608), (4.5127218 52.036959, 4.5128201 52.0369855, 4.512972 52.0370343, 4.5130861 52.0370592), (4.5130861 52.0370592, 4.5131398 52.0370708, 4.5133247 52.0370824, 4.5134587 52.0370865, 4.5136145 52.0370647), (4.5136145 52.0370647, 4.5137018 52.0371348), (4.5137018 52.0371348, 4.5137118 52.0372229, 4.5137257 52.0373333), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5173452 52.0399151, 4.516962 52.0396478), (4.5173452 52.0399151, 4.517167 52.0400031, 4.5171127 52.0400537, 4.5171005 52.0401013, 4.5171104 52.0401619, 4.5171986 52.0402415), (4.5171986 52.0402415, 4.5173893 52.0403909, 4.5174731 52.0404587, 4.5175721 52.0405235), (4.5175721 52.0405235, 4.5174311 52.0406333, 4.5172933 52.0407442), (4.5169934 52.0409869, 4.5172933 52.0407442), (4.508783 52.0431338, 4.5093742 52.0431313, 4.509559 52.0431173, 4.5097749 52.0430901, 4.5102168 52.0430005, 4.5102757 52.0429885, 4.5104411 52.0429455, 4.5159503 52.0415567, 4.5161971 52.0414642, 4.516366 52.0413871, 4.516587 52.0412737, 4.5167675 52.0411619, 4.5169934 52.0409869), (4.508783 52.0431338, 4.50844 52.0432205, 4.5081423 52.0432942), (4.5081423 52.0432942, 4.5076111 52.0434264), (4.5076111 52.0434264, 4.5063087 52.0437516, 4.5057 52.0439, 4.5045905 52.0441807), (4.5045905 52.0441807, 4.5043322 52.0442422, 4.5041872 52.0442808, 4.5041309 52.0442886, 4.5040175 52.0443066, 4.5039063 52.0443218, 4.5037375 52.0443318, 4.503569 52.0443185, 4.5033678 52.0442848, 4.5031923 52.0442376, 4.5031499 52.0442203, 4.5028938 52.0441256, 4.5028048 52.0440871, 4.5026164 52.0440119, 4.5024891 52.0439604, 4.5024427 52.0439437), (4.5024427 52.0439437, 4.5023826 52.0439198), (4.5023826 52.0439198, 4.5021192 52.0438706, 4.5017344 52.0437386, 4.5014961 52.0436447), (4.5014961 52.0436447, 4.5013883 52.0437417, 4.5009668 52.0441154), (4.5009668 52.0441154, 4.5008843 52.0442459, 4.5008422 52.0442887, 4.5007948 52.0443358, 4.5006405 52.0444452, 4.5005698 52.04449, 4.5004244 52.0445558, 4.500285 52.0445936), (4.500285 52.0445936, 4.5000981 52.0447069), (4.5000981 52.0447069, 4.49981 52.0448696), (4.49981 52.0448696, 4.4992691 52.0451102, 4.4988684 52.0452628, 4.4984547 52.0453926, 4.4982998 52.0454426, 4.4978707 52.0455712, 4.4976226 52.0456337), (4.4976226 52.0456337, 4.4974856 52.04572, 4.497412 52.0457482, 4.4973342 52.0457699, 4.496919 52.0458515, 4.4967688 52.0458707, 4.4966186 52.0458859, 4.4964084 52.045867), (4.4964084 52.045867, 4.49621 52.0458887, 4.4957529 52.0459375, 4.4932096 52.0461221), (4.4932096 52.0461221, 4.491206 52.0462723, 4.4910919 52.0462816), (4.4910919 52.0462816, 4.4909128 52.0462946, 4.4908695 52.0462978, 4.4905869 52.046308), (4.4905869 52.046308, 4.4904414 52.0463204, 4.4902351 52.0463351, 4.4890868 52.0464144, 4.4870658 52.0465438), (4.4870658 52.0465438, 4.4845785 52.0467256), (4.4845785 52.0467256, 4.4812395 52.0469623), (4.4812395 52.0469623, 4.4788525 52.0471369, 4.4783284 52.04719), (4.4783284 52.04719, 4.4780612 52.0470746), (4.4779066 52.0469671, 4.4780612 52.0470746), (4.4779066 52.0469671, 4.4777619 52.0469789, 4.4777214 52.0469817, 4.4776326 52.0469882, 4.4772606 52.0470145, 4.4771794 52.0470203, 4.4771208 52.0470318, 4.4770712 52.0470538, 4.477028 52.0470809, 4.4769504 52.0471725), (4.4769504 52.0471725, 4.4767373 52.0473052), (4.4767373 52.0473052, 4.4757316 52.0474238, 4.4747987 52.0475028), (4.4747987 52.0475028, 4.4740514 52.0475391, 4.4737101 52.0475554, 4.4733907 52.0475547, 4.4731274 52.0475374, 4.4729754 52.047522), (4.4729754 52.047522, 4.4727265 52.0474631, 4.4724906 52.0473727, 4.4722289 52.0472259), (4.4722289 52.0472259, 4.4721624 52.0471741, 4.4720275 52.047056, 4.4719356 52.0469151, 4.4718897 52.0467922, 4.4718577 52.0466905, 4.4718383 52.0465313), (4.4718383 52.0465313, 4.4718761 52.0463437, 4.4719896 52.0461446, 4.472221 52.0459555, 4.4724807 52.0458152, 4.4728241 52.0457062, 4.4731317 52.045662, 4.473411 52.0456497, 4.4736656 52.0456671, 4.4739658 52.0457282, 4.4742451 52.0458298, 4.4744639 52.0459486, 4.4746305 52.046079, 4.4747493 52.0462005), (4.4747493 52.0462005, 4.4748106 52.0462876, 4.4748455 52.0463546), (4.4748455 52.0463546, 4.4752117 52.0471945), (4.4752117 52.0471945, 4.4754635 52.0477046, 4.4755446 52.0478686), (4.4755446 52.0478686, 4.4757131 52.0482076), (4.4757131 52.0482076, 4.4763647 52.0495721), (4.4763647 52.0495721, 4.4764844 52.0498197), (4.4764844 52.0498197, 4.4766188 52.0500979, 4.4767029 52.050272), (4.4767029 52.050272, 4.4768417 52.0505479, 4.4780376 52.0530366, 4.4782837 52.0535191), (4.4782837 52.0535191, 4.478613 52.0541647), (4.478613 52.0541647, 4.4791324 52.0551965, 4.4791891 52.0553089, 4.4793098 52.0555546), (4.4793098 52.0555546, 4.4796105 52.0561922), (4.4796105 52.0561922, 4.4796903 52.0563591, 4.4799267 52.0568734), (4.4799267 52.0568734, 4.4802477 52.0575599), (4.4802477 52.0575599, 4.4802931 52.0576544, 4.4803846 52.0578344, 4.4804115 52.0578909, 4.4804664 52.0580023, 4.4804996 52.0580722, 4.4807672 52.0586347, 4.4810386 52.0592052), (4.4810386 52.0592052, 4.4813649 52.0598675), (4.4813649 52.0598675, 4.4814917 52.0601295), (4.4814917 52.0601295, 4.481839 52.0608186), (4.481839 52.0608186, 4.4819428 52.0610372), (4.4819428 52.0610372, 4.4820272 52.0611622, 4.4821277 52.06137), (4.4821277 52.06137, 4.4821865 52.0614658), (4.4821865 52.0614658, 4.4822404 52.0615182, 4.4823277 52.0616009, 4.482424 52.0616714, 4.4825653 52.0617286, 4.4828258 52.0617829, 4.483114 52.0618185, 4.4833976 52.0618565), (4.4833976 52.0618565, 4.4835104 52.0618311, 4.4836517 52.0618426, 4.4837329 52.0618183, 4.4837954 52.0617961, 4.4838435 52.0617628, 4.4838692 52.0617068), (4.4838692 52.0617068, 4.4838193 52.0615715), (4.4838193 52.0615715, 4.4832999 52.0616549), (4.4832999 52.0616549, 4.4830337 52.061662), (4.4824274 52.0614694, 4.4826036 52.06156, 4.4828232 52.0616342, 4.4830337 52.061662), (4.4824274 52.0614694, 4.4825514 52.0614079), (4.4825514 52.0614079, 4.4824807 52.0613585, 4.4824487 52.0613274, 4.4824292 52.0613085, 4.4823958 52.0612602, 4.4823751 52.0612149, 4.4823572 52.0611837))</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>384030</t>
+          <t>9408152</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1248,17 +1248,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rotterdam, Station Alexander</t>
+          <t>Berkel en Rodenrijs, Rodenrijs Metro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bus 36: Rotterdam Kralingse Zoom =&gt; Rotterdam Station Alexander</t>
+          <t>Bus 173: Lansingerland-Zoetermeer =&gt; Berkel en Rodenrijs Rodenrijs Metro</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1269,14 +1269,14 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5326664 51.921806, 4.5328002 51.9219914, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5307185 51.9206082, 4.5310848 51.9212139), (4.5310848 51.9212139, 4.5314589 51.9218274, 4.5315103 51.9219175, 4.5315638 51.9220081), (4.5315638 51.9220081, 4.5316038 51.922077, 4.5317895 51.9223681, 4.5318388 51.9224432), (4.5318388 51.9224432, 4.5318798 51.9225055, 4.5319356 51.9225905, 4.531956 51.9226272, 4.5324261 51.9234743), (4.5324261 51.9234743, 4.5327515 51.9240585), (4.5327515 51.9240585, 4.5332141 51.9248827), (4.5332141 51.9248827, 4.5335086 51.9254077, 4.5335603 51.9255002, 4.533614 51.9256065), (4.533614 51.9256065, 4.5337572 51.9255804, 4.5340409 51.9255598), (4.5340409 51.9255598, 4.5348442 51.9254953), (4.5348442 51.9254953, 4.5355316 51.9254342, 4.5358113 51.9254104, 4.5359317 51.9254021), (4.5359317 51.9254021, 4.5365555 51.925355, 4.5368411 51.9253352, 4.5369978 51.9253294, 4.5371544 51.9253245, 4.5373097 51.9253222), (4.5373097 51.9253222, 4.5379887 51.925345, 4.5387377 51.9253926, 4.5390758 51.9254164), (4.5390758 51.9254164, 4.5399331 51.9254818), (4.5399331 51.9254818, 4.5403455 51.925511, 4.5409592 51.9255879), (4.5409592 51.9255879, 4.5418099 51.9257048), (4.5418099 51.9257048, 4.5429137 51.9258664, 4.5431292 51.9259145, 4.5432811 51.92597, 4.5434415 51.9260689, 4.5435322 51.9261475, 4.5435553 51.9261662, 4.5436745 51.926301, 4.5443399 51.9273533, 4.5443892 51.9274242, 4.5444626 51.927502, 4.5446066 51.9276097, 4.5447144 51.927661, 4.5448721 51.927708, 4.5449601 51.9277337, 4.5451193 51.9277523), (4.5451193 51.9277523, 4.5451629 51.9277305, 4.5452153 51.9277181, 4.5452713 51.9277163, 4.5453255 51.9277252, 4.5453725 51.9277441, 4.5454079 51.9277709, 4.545428 51.9278032, 4.5454309 51.9278375, 4.5454167 51.9278707, 4.5453866 51.9278996), (4.5453866 51.9278996, 4.5453485 51.9279196, 4.5453029 51.9279323), (4.5453029 51.9279323, 4.5452289 51.9280186), (4.5452289 51.9280186, 4.5450821 51.9281895), (4.5450821 51.9281895, 4.5450405 51.9282895, 4.544725 51.9290478, 4.5443232 51.9299757, 4.543928 51.9309417, 4.5434874 51.931969, 4.5432049 51.9326546, 4.5427624 51.9336672, 4.5425102 51.934247, 4.5416997 51.9361239, 4.5416605 51.9362147, 4.5415618 51.936399, 4.5415097 51.9364589, 4.541417 51.9365245, 4.5412114 51.936607, 4.5408596 51.9367298, 4.5405981 51.9368153, 4.5403397 51.9369315, 4.5401523 51.9370569, 4.54 51.9372, 4.5399151 51.937385, 4.5397898 51.9376577, 4.5396877 51.93788), (4.5396877 51.93788, 4.5396402 51.9379837), (4.5396402 51.9379837, 4.5396848 51.9379973, 4.5397183 51.9380201, 4.5397359 51.9380488, 4.539733 51.9380852, 4.5397051 51.9381172, 4.5396646 51.9381367, 4.5396152 51.9381454, 4.5395642 51.9381419), (4.5395642 51.9381419, 4.5395285 51.9382236), (4.5395285 51.9382236, 4.5394633 51.9383728, 4.5392549 51.9388493, 4.539229 51.9389085, 4.5391928 51.9389914, 4.5390872 51.939252, 4.5388251 51.939899, 4.5386806 51.9402204, 4.5383627 51.9409823, 4.5382746 51.9411964, 4.5382525 51.9412487, 4.5380935 51.9416336, 4.5378072 51.9423129), (4.5378072 51.9423129, 4.537702 51.9425662, 4.5375906 51.9428814), (4.5375906 51.9428814, 4.5376261 51.9429899, 4.537678 51.9430439, 4.537728 51.9430713, 4.5378053 51.9430939, 4.5387057 51.9432807), (4.5387057 51.9432807, 4.5391032 51.9433626, 4.5397519 51.943511), (4.5397519 51.943511, 4.5399246 51.9435386, 4.5400091 51.9435521, 4.5404961 51.9436298, 4.5411837 51.9437398, 4.5416623 51.9438199, 4.5421572 51.9439028, 4.5436206 51.944139, 4.5438235 51.9441704, 4.5443977 51.9442651), (4.5443977 51.9442651, 4.5447503 51.9442712, 4.5448101 51.9442722, 4.5449174 51.9442923), (4.5449174 51.9442923, 4.5450467 51.9443166, 4.5451505 51.9443361, 4.5452178 51.944355, 4.5455591 51.9444508), (4.5455591 51.9444508, 4.5462081 51.9445555, 4.5464133 51.944587, 4.5473659 51.9447431, 4.5482302 51.9448789, 4.5487949 51.9449681, 4.549 51.945), (4.549397 51.9440563, 4.5493532 51.9441606, 4.5491439 51.9446582, 4.5490606 51.944856, 4.549 51.945), (4.549397 51.9440563, 4.5509306 51.9443064, 4.5524506 51.9445543, 4.5533342 51.9446983, 4.5536707 51.9447546), (4.5536707 51.9447546, 4.553906 51.9447483, 4.554047 51.9447657, 4.5542266 51.9447931), (4.5542266 51.9447931, 4.5544106 51.9448242), (4.5544106 51.9448242, 4.5547523 51.9448819, 4.5548064 51.9448911, 4.5549459 51.9449146, 4.5552355 51.9449635, 4.55576 51.9450436, 4.5560067 51.94509, 4.5561576 51.945146, 4.5562679 51.9452069, 4.55636 51.9452764, 4.5564269 51.9453476, 4.5564608 51.9453836, 4.5565252 51.945449), (4.5565252 51.945449, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.5558538 51.949644), (4.5558538 51.949644, 4.5558136 51.9497617, 4.555598 51.950245, 4.5554771 51.950419), (4.5554771 51.950419, 4.5554128 51.9505729), (4.5554128 51.9505729, 4.55539 51.950632), (4.55539 51.950632, 4.5553885 51.9506358, 4.5553657 51.9506944, 4.5553509 51.950817, 4.5553693 51.950894), (4.5553693 51.950894, 4.5554179 51.9509614, 4.5554662 51.9510056, 4.5555278 51.9510585, 4.5556792 51.9511329, 4.5558846 51.9511775, 4.5560963 51.9512054), (4.5560787 51.9512475, 4.5560963 51.9512054), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.555853 51.9518422, 4.5558531 51.9519017, 4.5558077 51.9520505, 4.5557758 51.9521549, 4.5557409 51.9522389), (4.5557409 51.9522389, 4.5556635 51.9523168), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.5522534 51.9523763, 4.5521498 51.9523628), (4.5521498 51.9523628, 4.5522106 51.9521068))</t>
+          <t>MULTILINESTRING ((4.517732 52.0401911, 4.517526 52.0400427, 4.5173452 52.0399151), (4.5173452 52.0399151, 4.516962 52.0396478), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5137257 52.0373333, 4.5136531 52.0372933, 4.5135814 52.0372063, 4.5135661 52.0371504), (4.5135661 52.0371504, 4.5136145 52.0370647), (4.5136145 52.0370647, 4.5137218 52.0370389, 4.5138233 52.0369967, 4.514392 52.036706, 4.5146793 52.0365829), (4.5146793 52.0365829, 4.5148961 52.0364987, 4.5153712 52.0363488, 4.5155014 52.0363186), (4.5155014 52.0363186, 4.5211926 52.0353096), (4.5211926 52.0353096, 4.5220425 52.0351589), (4.5220425 52.0351589, 4.5228655 52.0350145, 4.5232022 52.0349367, 4.5234852 52.0348769, 4.5237125 52.0348357), (4.5237125 52.0348357, 4.5240278 52.0347755, 4.5243268 52.0347275, 4.5247881 52.0346477, 4.5250481 52.0346007), (4.5250481 52.0346007, 4.525977 52.0344346, 4.5295212 52.0338067, 4.5313482 52.0334928), (4.5313482 52.0334928, 4.532028 52.0333764), (4.532028 52.0333764, 4.5324231 52.0333043), (4.5324231 52.0333043, 4.532581 52.0332765, 4.5327564 52.0332457), (4.5327564 52.0332457, 4.5372175 52.0324456), (4.5372175 52.0324456, 4.5378044 52.0323437, 4.537968 52.0323145), (4.537968 52.0323145, 4.5383878 52.0322401, 4.5390418 52.0321031), (4.5390418 52.0321031, 4.5392443 52.0320698), (4.5392443 52.0320698, 4.5393934 52.0320393, 4.5396219 52.0319904), (4.5396219 52.0319904, 4.5384224 52.0293273), (4.5384224 52.0293273, 4.5380065 52.0284142), (4.5380065 52.0284142, 4.5376728 52.0276995, 4.5376233 52.027593), (4.5376233 52.027593, 4.5375847 52.027509, 4.5375403 52.0274102), (4.5375403 52.0274102, 4.5375223 52.0273701), (4.5375223 52.0273701, 4.5373981 52.0270939, 4.537178 52.0265341), (4.537178 52.0265341, 4.5370119 52.0258562, 4.5369287 52.0255367, 4.5364993 52.0246193, 4.535656 52.0228657), (4.535656 52.0228657, 4.5354112 52.0223565, 4.5349399 52.0213256, 4.5348495 52.0210977), (4.5348495 52.0210977, 4.5347436 52.0209087, 4.5344387 52.020453), (4.5344387 52.020453, 4.534271 52.0200762, 4.5340692 52.0196553, 4.5340409 52.0195587, 4.5339867 52.0194557), (4.5339867 52.0194557, 4.5339527 52.0193859), (4.5339527 52.0193859, 4.5341286 52.0193573), (4.5341286 52.0193573, 4.5345974 52.0192768, 4.5348358 52.0192194, 4.5350592 52.019137, 4.5351203 52.0190982, 4.5352533 52.0190146, 4.5353502 52.0189495), (4.5353502 52.0189495, 4.535498 52.0188533, 4.5356318 52.0187802, 4.535796 52.0187458), (4.5434805 52.0173473, 4.5367041 52.0185396, 4.5362393 52.0186293, 4.536008 52.0186785, 4.535796 52.0187458), (4.5450542 52.0169001, 4.5449659 52.0170032, 4.544902 52.0170515, 4.5448026 52.017085, 4.5447291 52.0171098, 4.5445088 52.0171649, 4.5434805 52.0173473), (4.5451397 52.0167064, 4.5451066 52.0167903, 4.5450542 52.0169001), (4.5451467 52.0166879, 4.5451397 52.0167064), (4.5451615 52.016611, 4.5451467 52.0166879), (4.5429769 52.0117494, 4.5430082 52.011781, 4.5430409 52.0118368, 4.5430498 52.0118971, 4.5430721 52.0119785, 4.5431289 52.0121048, 4.5434926 52.0128748, 4.5438352 52.0135984, 4.5438983 52.0137328, 4.5442978 52.0145829, 4.5447753 52.015618, 4.5448406 52.0157625, 4.5451169 52.0163992, 4.5451403 52.0164868, 4.5451615 52.016611), (4.5409125 52.0082926, 4.5410426 52.0083643, 4.5411713 52.0084271, 4.5413254 52.0084758, 4.5414094 52.0085024, 4.5416767 52.0085859, 4.541745 52.008624, 4.5418149 52.0086671, 4.5418607 52.0087112, 4.5419146 52.0087704, 4.5419916 52.0089483, 4.542142 52.0092726, 4.5423714 52.0096075, 4.5424712 52.0097889, 4.5426375 52.0102634, 4.5427109 52.0104786, 4.5428176 52.0106908, 4.5428561 52.0107672, 4.5430097 52.0110282, 4.543151 52.0113845, 4.5431675 52.0114781, 4.54311 52.0116394, 4.5430751 52.0116868, 4.5430454 52.0117188, 4.5429769 52.0117494), (4.5409125 52.0082926, 4.5407308 52.0081676), (4.5407308 52.0081676, 4.5405402 52.0080041, 4.5404305 52.0079064, 4.5403364 52.0078003, 4.5402366 52.0076878, 4.540151 52.0075524, 4.5400948 52.0074615), (4.5400948 52.0074615, 4.5397862 52.0068068, 4.53958 52.0063696, 4.5394197 52.0059928, 4.539397 52.0059354, 4.5393548 52.0058502, 4.5392824 52.0056919, 4.5392434 52.0056099, 4.5391886 52.0054901, 4.5389361 52.0049641), (4.5389361 52.0049641, 4.538697 52.0050072, 4.5377919 52.0051703, 4.5373609 52.0052411, 4.5368459 52.0053257, 4.5367467 52.005342, 4.536483 52.0053927, 4.5362031 52.0054455, 4.5360273 52.0054943, 4.5359463 52.0055267, 4.5358785 52.0055538, 4.5355571 52.0057489, 4.5353843 52.0058539), (4.5353843 52.0058539, 4.5351878 52.0059634, 4.5350386 52.0060226, 4.5348909 52.0060626, 4.5347769 52.0060864), (4.5347769 52.0060864, 4.5346255 52.0061139), (4.5346255 52.0061139, 4.5345029 52.0061361), (4.5345029 52.0061361, 4.5342755 52.0061748, 4.5340277 52.0062178, 4.533248 52.0063518, 4.5331859 52.0063625, 4.5324527 52.0064892, 4.5321284 52.0065448, 4.5320212 52.0065626, 4.5306925 52.006791, 4.5298077 52.0069431, 4.5294823 52.006999, 4.5287641 52.0071224), (4.5287641 52.0071224, 4.5286551 52.0071388, 4.5285934 52.0071408, 4.5285448 52.0071342), (4.5284291 52.0070673, 4.5284548 52.0070937, 4.5284965 52.0071202, 4.5285448 52.0071342), (4.5272582 52.0044432, 4.5273726 52.0046805, 4.5274812 52.0049079, 4.5277027 52.0053902, 4.5280551 52.006152, 4.5281676 52.0064101, 4.5283079 52.0067704, 4.5283873 52.0069701, 4.5284103 52.0070257, 4.5284291 52.0070673), (4.5272582 52.0044432, 4.5269886 52.0044859, 4.5267882 52.0045222, 4.5265098 52.0045719, 4.5264208 52.0045787, 4.5263364 52.0045827), (4.5263364 52.0045827, 4.5261981 52.0045697), (4.5261981 52.0045697, 4.5262284 52.0044902), (4.5262284 52.0044902, 4.5262803 52.0042931, 4.52633 52.0040836, 4.5263895 52.0036898, 4.5264029 52.0034186), (4.5264029 52.0034186, 4.5264044 52.0033436, 4.5264005 52.0029064, 4.52638 52.0028135, 4.5263802 52.0027496), (4.5234894 51.9964222, 4.5238524 51.9972835, 4.5242287 51.998086, 4.5262239 52.0023212, 4.5263063 52.0024871, 4.5263802 52.0027496), (4.5234894 51.9964222, 4.523166 51.9955972, 4.5230227 51.9952821, 4.522707 51.9947828, 4.5225742 51.9945873, 4.5223817 51.9943572), (4.5223817 51.9943572, 4.5222877 51.9942542, 4.5220599 51.994032, 4.522029 51.9940051, 4.5219785 51.9939585, 4.52196 51.9939417, 4.5217994 51.9938025), (4.5217994 51.9938025, 4.5217182 51.9937392), (4.5217182 51.9937392, 4.5216016 51.993675), (4.5216016 51.993675, 4.521507 51.9935941, 4.5214037 51.9935305), (4.5214037 51.9935305, 4.5209685 51.9933223, 4.5206872 51.9932186), (4.5206872 51.9932186, 4.5203764 51.9931253, 4.5197368 51.992965, 4.5188766 51.9927617, 4.5180966 51.992545), (4.5180966 51.992545, 4.5174693 51.9923845, 4.5171253 51.9922603), (4.5171253 51.9922603, 4.5169901 51.9921971, 4.5165678 51.9920334, 4.5160272 51.9917898), (4.5160272 51.9917898, 4.5155277 51.9915099, 4.514794 51.991045, 4.5146664 51.9909642), (4.5146664 51.9909642, 4.5145503 51.9910408, 4.5144253 51.9911305, 4.5143036 51.9912769, 4.5142152 51.9914393, 4.5141169 51.9916067, 4.5139831 51.9917909, 4.5138702 51.9919469, 4.5138038 51.9920213), (4.5138038 51.9920213, 4.5138375 51.9920511, 4.5138549 51.9920859, 4.5138544 51.9921222, 4.5138361 51.9921569, 4.5138015 51.9921865, 4.513754 51.9922083, 4.513698 51.9922201), (4.513698 51.9922201, 4.5136524 51.9922983, 4.5135945 51.992392, 4.5135449 51.9924329), (4.5135449 51.9924329, 4.5135369 51.992465, 4.5134249 51.9926869, 4.5133522 51.9928325, 4.5131194 51.993323), (4.5131194 51.993323, 4.5130756 51.9935082, 4.5130154 51.9936314, 4.5129367 51.9937524, 4.5128729 51.993807, 4.5127998 51.9938546), (4.5127998 51.9938546, 4.51276 51.9938828, 4.5126498 51.9939649, 4.5125195 51.9940336, 4.5110421 51.9947761), (4.5110421 51.9947761, 4.5109109 51.9948715, 4.5108717 51.9948916, 4.5107334 51.9949313), (4.5107334 51.9949313, 4.5096055 51.995502, 4.5092899 51.9956683, 4.5087682 51.9959322, 4.5082363 51.9961942, 4.5080266 51.9962991), (4.5080266 51.9962991, 4.5079611 51.9963562, 4.5079009 51.996386, 4.5077745 51.9964497, 4.5076414 51.9965188, 4.5075315 51.9965706, 4.507403 51.9966101), (4.507403 51.9966101, 4.5071143 51.9967644, 4.5069955 51.9968208, 4.5065041 51.9970649, 4.5060257 51.9973037, 4.5051171 51.9977634, 4.5048274 51.9979085), (4.5048274 51.9979085, 4.5047154 51.9979895, 4.5046087 51.9980457, 4.5044067 51.9981204), (4.5044067 51.9981204, 4.5041481 51.9982503, 4.5025808 51.9990367, 4.5016963 51.9994791, 4.5015464 51.9995449), (4.5015464 51.9995449, 4.5014712 51.9996017, 4.5013406 51.9996756, 4.5011331 51.9997796, 4.5009671 51.9998622), (4.5009671 51.9998622, 4.500866 51.9998304, 4.5006918 51.999695, 4.5006669 51.9996227), (4.5006669 51.9996227, 4.5004836 51.9994917), (4.5004836 51.9994917, 4.5005647 51.9994262, 4.500805 51.9992281), (4.4970246 51.9963618, 4.4970867 51.9964088, 4.4973099 51.9965767, 4.4973417 51.9965987, 4.4975068 51.996746, 4.4976458 51.9968054, 4.4977459 51.9968606, 4.497854 51.9969195, 4.4978908 51.9969619, 4.4979399 51.9970129, 4.4980027 51.9971031, 4.4983374 51.9973787, 4.4985205 51.9975157, 4.49871 51.9976542, 4.4988498 51.9977194, 4.4989376 51.9977639, 4.499056 51.9978245, 4.4991246 51.99791, 4.4992036 51.9979996, 4.499287 51.9980674, 4.499408 51.9981316, 4.4995143 51.9981955, 4.4995672 51.9982384, 4.4996116 51.9983008, 4.4997309 51.9984071, 4.4998975 51.9985407, 4.5000667 51.9986775, 4.5001181 51.9987156, 4.500229 51.9987945, 4.5004086 51.9988821, 4.5005908 51.9989745, 4.5006587 51.9990541, 4.5007199 51.99913, 4.5007452 51.9991635, 4.500805 51.9992281), (4.4968326 51.9962237, 4.4970246 51.9963618), (4.4937736 51.9939066, 4.4939947 51.9940794, 4.4943993 51.9943657, 4.4944976 51.9944418, 4.4947466 51.9946434, 4.4948033 51.9946894, 4.495018 51.9948567, 4.4953613 51.9950909, 4.4953844 51.9951089, 4.4955077 51.9952044, 4.4964726 51.9959429, 4.4966155 51.9960503, 4.496783 51.9961885, 4.4968326 51.9962237), (4.4931295 51.9934148, 4.4931699 51.9934422, 4.4932449 51.9934938, 4.4937736 51.9939066), (4.4931295 51.9934148, 4.4930838 51.9934304, 4.4930328 51.9934371, 4.4929808 51.9934345, 4.4929323 51.9934227, 4.4928914 51.9934026, 4.4928618 51.9933762), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911221 51.9939723, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4906338 51.9941019, 4.4905151 51.9941812, 4.4904075 51.994222, 4.490298 51.9942667), (4.490298 51.9942667, 4.4903113 51.9942925, 4.4903163 51.9943193, 4.4903129 51.9943462, 4.4903012 51.9943722, 4.4902817 51.9943964, 4.490255 51.9944178), (4.490255 51.9944178, 4.4902065 51.994442, 4.4901492 51.9944573, 4.4900995 51.9944622, 4.4900493 51.9944603, 4.4900009 51.9944517, 4.4899568 51.9944367), (4.4899568 51.9944367, 4.4898617 51.9944752, 4.4897415 51.9944962), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4893767 51.9946729, 4.489175 51.9947712), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.4710576 51.9802382, 4.470935 51.9802726, 4.4708407 51.9802802, 4.4707127 51.9802661), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.469132 51.979373, 4.4690315 51.9793373, 4.4689806 51.979292, 4.4689412 51.9792258), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4639126 51.9772531, 4.4638287 51.9772152, 4.463774 51.977167, 4.4637436 51.9771046), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4618374 51.9758343, 4.4618339 51.9757344, 4.4618319 51.9756331, 4.4618293 51.975575, 4.4618218 51.9755567, 4.4618017 51.9755381, 4.4617789 51.9755245, 4.4617551 51.9755151, 4.4615248 51.9754898))</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>384086</t>
+          <t>383405</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rotterdam, Melanchthonweg</t>
+          <t>Station Lansingerland-Zoetermeer Zuidplein</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bus 35: Rotterdam Station Alexander =&gt; Rotterdam Melanchthonweg</t>
+          <t>Bus 173: Berkel en Rodenrijs Rodenrijs Metro =&gt; Lansingerland-Zoetermeer</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1307,14 +1307,14 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5512133 51.9522286, 4.5511895 51.9522888, 4.5508647 51.953045, 4.550846 51.9531211, 4.5507882 51.9533338), (4.5507882 51.9533338, 4.5504969 51.9540911), (4.5504969 51.9540911, 4.5498886 51.9554752, 4.5497528 51.9558062, 4.5496322 51.9560771, 4.5494213 51.9565484), (4.5494213 51.9565484, 4.549192 51.9570693, 4.5488435 51.9579054, 4.5484348 51.9588179, 4.5484101 51.9588721, 4.548392 51.9589114, 4.5483235 51.9590597), (4.5483235 51.9590597, 4.5486125 51.9591106, 4.5486707 51.9591191, 4.5488137 51.9591414, 4.5488807 51.9591533, 4.5507389 51.959507, 4.552417 51.9597822, 4.5524793 51.9597933, 4.5526053 51.9598132), (4.5526053 51.9598132, 4.5526519 51.9597894, 4.552707 51.959774, 4.5527667 51.9597679, 4.5528261 51.9597715, 4.5529009 51.9597914, 4.5529593 51.9598256, 4.552995 51.9598702), (4.552995 51.9598702, 4.5531126 51.9598821, 4.5531675 51.9598912, 4.5558747 51.9603387, 4.5559309 51.9603504, 4.5560694 51.9603701), (4.5560694 51.9603701, 4.5561309 51.9603443, 4.5562031 51.9603333, 4.5562766 51.9603385, 4.5563347 51.9603554, 4.5563814 51.9603822, 4.556413 51.9604164), (4.556413 51.9604164, 4.5564265 51.9604548, 4.5564206 51.960494, 4.5563959 51.9605302, 4.5563548 51.9605603), (4.5563548 51.9605603, 4.5562944 51.960583, 4.5562251 51.9605921), (4.5562251 51.9605921, 4.5561964 51.9606726, 4.5561766 51.9607203, 4.5560535 51.961017, 4.5558639 51.9614738, 4.5555843 51.962086, 4.5553224 51.9627613, 4.5551031 51.9632709, 4.5550214 51.9634915, 4.5550072 51.9635247, 4.5549068 51.963747, 4.5548372 51.9638879, 4.5547529 51.9640715, 4.5547189 51.9641334, 4.5541808 51.9654218, 4.5541197 51.9655647, 4.5537412 51.9664629, 4.5537204 51.9665117, 4.5536515 51.9666201, 4.5535551 51.9666839), (4.5535551 51.9666839, 4.5533822 51.9666588, 4.553316 51.9666479, 4.5505247 51.9661889, 4.5503348 51.9661577, 4.5502567 51.9661448, 4.5500533 51.9661114, 4.5498361 51.96608, 4.5497929 51.9660729, 4.5485196 51.9658541, 4.5483789 51.9658319, 4.5458307 51.9654202, 4.5457712 51.9654094, 4.5447154 51.9652476, 4.5446126 51.9652306, 4.5425594 51.9648905, 4.5425072 51.9648818, 4.5423065 51.9648513, 4.5421054 51.9648265, 4.5420476 51.9648163, 4.5414973 51.9647206, 4.5380804 51.964159, 4.5380102 51.9641488, 4.5368698 51.96396, 4.5367467 51.9639398, 4.5366027 51.9639182, 4.534454 51.9635714, 4.5341893 51.9635287, 4.534114 51.963516, 4.533933 51.9634878, 4.5337249 51.9634527, 4.5336773 51.9634449, 4.5330237 51.9633471, 4.5328783 51.9633209, 4.5299144 51.9628437, 4.5298409 51.9628328, 4.5296891 51.9628059, 4.5295831 51.9627368), (4.5295831 51.9627368, 4.529636 51.962602, 4.5296504 51.9625533, 4.5298275 51.9621335, 4.5298982 51.9619812, 4.5301804 51.9613164, 4.5302099 51.9612434, 4.5303672 51.9608906, 4.5304075 51.9607954, 4.5306911 51.9601258, 4.5311963 51.9589308, 4.5312505 51.9588027, 4.531287 51.9587163, 4.5317765 51.9575951, 4.5320511 51.9569691, 4.5321188 51.9568149, 4.5321367 51.956774, 4.5321744 51.9566762), (4.5321744 51.9566762, 4.5321425 51.9566602, 4.5321173 51.9566401, 4.5321 51.9566171), (4.5321 51.9566171, 4.5319184 51.9565827, 4.5318596 51.9565739, 4.5309692 51.9564277, 4.53021 51.9562335, 4.5299169 51.9561501), (4.5282061 51.9558718, 4.5287176 51.9559525, 4.5299169 51.9561501), (4.5282061 51.9558718, 4.5279948 51.955877, 4.5276996 51.9558421, 4.5259546 51.9555724, 4.5257468 51.9555248, 4.5255336 51.9554625, 4.5253982 51.955403, 4.5252628 51.9553244, 4.5251071 51.9552102, 4.5250231 51.955122, 4.5249582 51.9550271, 4.5249053 51.9549109, 4.5248719 51.9548117, 4.5248648 51.9547405, 4.5249115 51.9544586, 4.5249338 51.9543521, 4.5249705 51.9542182, 4.5250771 51.9538835, 4.5251642 51.9536192), (4.5251642 51.9536192, 4.5252346 51.9531142, 4.525267 51.9528292, 4.5252893 51.9525759), (4.5252893 51.9525759, 4.5252137 51.9524501, 4.5251528 51.9522985, 4.5251359 51.9522619, 4.5251222 51.9522325, 4.5250665 51.9521209), (4.5250665 51.9521209, 4.525026 51.952026, 4.5249921 51.9519291, 4.5249864 51.9518918, 4.5250001 51.9518555, 4.5250654 51.9517805), (4.5250654 51.9517805, 4.5249274 51.951759, 4.5248472 51.9517456, 4.5246415 51.9517109, 4.5246222 51.9517076, 4.5243811 51.9516669, 4.5242313 51.9516419, 4.5241502 51.9516268, 4.5240917 51.9516087, 4.5240309 51.9515805, 4.5239743 51.9515442, 4.5239412 51.9515227, 4.5238833 51.9514852, 4.5238367 51.9514561), (4.5230697 51.9513436, 4.5234698 51.9514698, 4.5235149 51.9514827, 4.5235484 51.9514897, 4.5235788 51.9514936, 4.5236097 51.9514951, 4.5236371 51.951496, 4.5236665 51.9514957, 4.5237095 51.9514932, 4.5237526 51.9514874, 4.5237843 51.9514779, 4.5238118 51.9514675, 4.5238367 51.9514561), (4.5190355 51.9501284, 4.5190964 51.950117, 4.5191709 51.950119, 4.5211196 51.9507392, 4.5222088 51.9510769, 4.5230697 51.9513436), (4.5187402 51.9506961, 4.5189813 51.9501812, 4.5190355 51.9501284), (4.5187402 51.9506961, 4.5186934 51.9508097), (4.5186934 51.9508097, 4.5185607 51.9511334), (4.5185607 51.9511334, 4.5184599 51.9513738), (4.5184599 51.9513738, 4.5183999 51.9515137, 4.5183433 51.9516539, 4.5180147 51.9524114), (4.5180147 51.9524114, 4.51812 51.9525233, 4.5184959 51.9528011, 4.5187542 51.952998, 4.5198813 51.9538431, 4.5200386 51.953961, 4.5204577 51.954257, 4.5205083 51.9542949, 4.5205584 51.9543259, 4.5206366 51.9543835, 4.5206923 51.9544319), (4.5206923 51.9544319, 4.5204938 51.954542), (4.5204938 51.954542, 4.5203616 51.9546254, 4.5202301 51.9546848), (4.5191595 51.9553678, 4.5194221 51.9551822, 4.5194518 51.9551645, 4.5200315 51.954809, 4.5202301 51.9546848), (4.5191595 51.9553678, 4.5191143 51.9554317, 4.5190475 51.9554952, 4.5188881 51.9555395), (4.5188881 51.9555395, 4.5186502 51.9555779), (4.5186502 51.9555779, 4.5185185 51.9556009), (4.5185185 51.9556009, 4.5182272 51.9556422), (4.5182272 51.9556422, 4.5181477 51.9556756, 4.5178964 51.955717, 4.517141 51.9558301, 4.516987 51.9558466, 4.5165799 51.9558694, 4.5164783 51.9558698, 4.5164138 51.95587, 4.5163438 51.9558638, 4.5161903 51.9558503, 4.5160346 51.9558346, 4.5157102 51.9557857, 4.5155838 51.9557631, 4.5152332 51.9556937, 4.514841 51.9556032, 4.5147037 51.9555672, 4.5143119 51.9554595, 4.5140586 51.9553899, 4.5136497 51.9552949, 4.5132826 51.9552471, 4.5129318 51.9552458, 4.5125693 51.9552883, 4.5124273 51.9553079, 4.5121847 51.955382, 4.5115704 51.9556744, 4.5113561 51.955743), (4.5113561 51.955743, 4.5111908 51.9558282, 4.5111417 51.9558535, 4.5099593 51.9564478, 4.5088205 51.9570319, 4.5083696 51.9572555, 4.5080133 51.9574317, 4.5039376 51.9594766, 4.5037926 51.9595472, 4.5037559 51.9595651, 4.5037073 51.9595892), (4.5037073 51.9595892, 4.5037298 51.9596033, 4.5037475 51.9596197, 4.5037607 51.9596399, 4.5037667 51.9596614, 4.5037625 51.959692, 4.5037508 51.9597124, 4.5037324 51.9597308, 4.5037087 51.9597463, 4.5036803 51.9597583, 4.503647 51.9597668, 4.5036116 51.9597707, 4.5035755 51.9597698, 4.5035405 51.9597642, 4.503501 51.9597509, 4.5034688 51.9597316), (4.5034688 51.9597316, 4.5034148 51.9597582, 4.5033713 51.9597797, 4.5032653 51.9598324, 4.5031374 51.9598956, 4.4995424 51.9616724, 4.4986838 51.9621142, 4.4983612 51.9622802, 4.4981391 51.9623904, 4.4968457 51.9630322, 4.4967223 51.963095), (4.4967223 51.963095, 4.496522 51.963207, 4.4963424 51.9632937, 4.496117 51.9634024), (4.496117 51.9634024, 4.4959179 51.9633575), (4.4959179 51.9633575, 4.4958561 51.9632692, 4.4957541 51.9631117, 4.4957229 51.9630449, 4.4957171 51.9630004, 4.4957258 51.9629538), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4947256 51.9588903, 4.4945035 51.9589287, 4.4944445 51.9589371, 4.494325 51.958957, 4.4941102 51.9590205, 4.4938361 51.9591313, 4.4935002 51.9592896, 4.4933364 51.9593655, 4.4931854 51.9594332, 4.4926965 51.9596564, 4.4914524 51.9602241, 4.4912643 51.9602903, 4.4911922 51.9603044, 4.4910264 51.9603364), (4.4910264 51.9603364, 4.4909514 51.9603493, 4.4908491 51.9603639, 4.4905674 51.9603672, 4.4903067 51.9603413), (4.4903067 51.9603413, 4.4898986 51.9603381, 4.4895312 51.9603357, 4.4885172 51.9603234, 4.4880386 51.9603203, 4.487502 51.9603169, 4.4870723 51.9603121, 4.4865201 51.9602819, 4.4859047 51.9602288, 4.4858252 51.9602222), (4.4858252 51.9602222, 4.4854695 51.9602076, 4.4845788 51.9601138, 4.4844053 51.9600984, 4.484171 51.9600862, 4.4838171 51.9601002, 4.4832862 51.9601694, 4.4830418 51.9602419, 4.4828798 51.9602752), (4.4828798 51.9602752, 4.4828666 51.9603086, 4.4828376 51.960338), (4.4828376 51.960338, 4.4827984 51.9603596, 4.4827508 51.9603734, 4.4826988 51.9603784), (4.4826988 51.9603784, 4.4826396 51.9603727, 4.4825866 51.9603556), (4.4825866 51.9603556, 4.4825452 51.9603287, 4.48252 51.9602951, 4.4825139 51.9602582), (4.4825139 51.9602582, 4.4825318 51.9602154, 4.4825721 51.9601823), (4.4825721 51.9601823, 4.4825009 51.9600937), (4.4825009 51.9600937, 4.4824629 51.9600478, 4.4822155 51.9597639, 4.4819572 51.9594422), (4.4808593 51.9586176, 4.4809805 51.9586942, 4.4810226 51.9587249, 4.4813274 51.9589474, 4.4815775 51.9591299, 4.4819572 51.9594422), (4.4790072 51.9574984, 4.4793269 51.9576909, 4.4807064 51.9585217, 4.4808593 51.9586176), (4.4783766 51.9567261, 4.4783931 51.9567549, 4.4784489 51.956877, 4.4786328 51.9572059, 4.4789332 51.9574538, 4.4790072 51.9574984), (4.4783311 51.9566338, 4.4783766 51.9567261), (4.4770266 51.9535046, 4.4770446 51.9535475, 4.4772622 51.9540669, 4.4778519 51.9555169, 4.4783058 51.9565748, 4.4783311 51.9566338), (4.4769777 51.9533935, 4.4770266 51.9535046), (4.4761133 51.951366, 4.4762884 51.9517992, 4.4763883 51.9520347, 4.4764833 51.9522527, 4.4766674 51.9526909, 4.4768984 51.953217, 4.4769777 51.9533935), (4.4761133 51.951366, 4.4760122 51.9512203, 4.4756489 51.9503361, 4.4754925 51.9499359, 4.4754222 51.9497574, 4.4752499 51.9494071, 4.4751368 51.9493007, 4.4750345 51.9492347, 4.4749306 51.9491678, 4.4748507 51.9491163), (4.4748507 51.9491163, 4.4747347 51.9491597, 4.4744511 51.9492319, 4.4724441 51.9495501), (4.4724441 51.9495501, 4.4722236 51.9495855, 4.4721214 51.9496012, 4.4712745 51.9497315, 4.4711276 51.9497567, 4.4708872 51.9497798), (4.4708872 51.9497798, 4.4708087 51.949781, 4.4707619 51.9497815, 4.4707108 51.9497823, 4.4705513 51.9497618, 4.4658642 51.9487337, 4.4656684 51.9486885, 4.465322 51.9486231))</t>
+          <t>MULTILINESTRING ((4.4616458 51.9758184, 4.4618374 51.9758343), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4637436 51.9771046, 4.4638291 51.9771429, 4.4638829 51.9771902, 4.4639126 51.9772531), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4689412 51.9792258, 4.469024 51.979253, 4.4691004 51.9793111, 4.469132 51.979373), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.4707127 51.9802661, 4.4708237 51.980236, 4.4709237 51.9802285, 4.4710576 51.9802382), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.4893767 51.9946729, 4.489175 51.9947712), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4897415 51.9944962, 4.4898099 51.9944327, 4.4898827 51.9943828), (4.4898827 51.9943828, 4.4898632 51.9943444, 4.4898621 51.9943042, 4.4898795 51.9942655), (4.4898795 51.9942655, 4.4899002 51.9942425, 4.4899275 51.9942224, 4.4899604 51.9942057, 4.4900253 51.994187, 4.4900964 51.9941816, 4.4901667 51.9941901, 4.4902293 51.9942116), (4.4902293 51.9942116, 4.4903455 51.99417, 4.4904477 51.9941336, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911221 51.9939723, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928445 51.9933386, 4.4928496 51.9932997, 4.4928766 51.9932644, 4.4929221 51.9932372, 4.4929811 51.9932214, 4.4930454 51.9932195, 4.4931065 51.9932319, 4.4931475 51.9932505), (4.4931475 51.9932505, 4.493191 51.9932955, 4.493198 51.9933394, 4.4931763 51.9933814, 4.4931295 51.9934148), (4.4931295 51.9934148, 4.4931699 51.9934422, 4.4932449 51.9934938, 4.4937736 51.9939066), (4.4937736 51.9939066, 4.4939947 51.9940794, 4.4943993 51.9943657, 4.4944976 51.9944418, 4.4947466 51.9946434, 4.4948033 51.9946894, 4.495018 51.9948567, 4.4953613 51.9950909, 4.4953844 51.9951089, 4.4955077 51.9952044, 4.4964726 51.9959429, 4.4966155 51.9960503, 4.496783 51.9961885, 4.4968326 51.9962237), (4.4968326 51.9962237, 4.4970246 51.9963618), (4.4970246 51.9963618, 4.4970867 51.9964088, 4.4973099 51.9965767, 4.4973417 51.9965987, 4.4975068 51.996746, 4.4976458 51.9968054, 4.4977459 51.9968606, 4.497854 51.9969195, 4.4978908 51.9969619, 4.4979399 51.9970129, 4.4980027 51.9971031, 4.4983374 51.9973787, 4.4985205 51.9975157, 4.49871 51.9976542, 4.4988498 51.9977194, 4.4989376 51.9977639, 4.499056 51.9978245, 4.4991246 51.99791, 4.4992036 51.9979996, 4.499287 51.9980674, 4.499408 51.9981316, 4.4995143 51.9981955, 4.4995672 51.9982384, 4.4996116 51.9983008, 4.4997309 51.9984071, 4.4998975 51.9985407, 4.5000667 51.9986775, 4.5001181 51.9987156, 4.500229 51.9987945, 4.5004086 51.9988821, 4.5005908 51.9989745, 4.5006587 51.9990541, 4.5007199 51.99913, 4.5007452 51.9991635, 4.500805 51.9992281), (4.5004836 51.9994917, 4.5005647 51.9994262, 4.500805 51.9992281), (4.5006669 51.9996227, 4.5004836 51.9994917), (4.5006669 51.9996227, 4.5007602 51.9996607, 4.5008513 51.9997294, 4.5009334 51.9997947), (4.5009334 51.9997947, 4.5010747 51.9997329, 4.5012777 51.9996298, 4.5014268 51.9995659, 4.5015464 51.9995449), (4.5044067 51.9981204, 4.5041481 51.9982503, 4.5025808 51.9990367, 4.5016963 51.9994791, 4.5015464 51.9995449), (4.5044067 51.9981204, 4.5045529 51.9980105, 4.5046604 51.9979547, 4.5048274 51.9979085), (4.507403 51.9966101, 4.5071143 51.9967644, 4.5069955 51.9968208, 4.5065041 51.9970649, 4.5060257 51.9973037, 4.5051171 51.9977634, 4.5048274 51.9979085), (4.507403 51.9966101, 4.5074786 51.9965326, 4.5075846 51.9964773, 4.5077228 51.9964105, 4.5078577 51.9963531, 4.5079524 51.9963097, 4.5080266 51.9962991), (4.5107334 51.9949313, 4.5096055 51.995502, 4.5092899 51.9956683, 4.5087682 51.9959322, 4.5082363 51.9961942, 4.5080266 51.9962991), (4.5107334 51.9949313, 4.5108202 51.9948536, 4.5108782 51.9948196, 4.5110421 51.9947761), (4.5127998 51.9938546, 4.51276 51.9938828, 4.5126498 51.9939649, 4.5125195 51.9940336, 4.5110421 51.9947761), (4.5127998 51.9938546, 4.5129211 51.9936106, 4.5129815 51.9934902, 4.5131194 51.993323), (4.5135449 51.9924329, 4.5135369 51.992465, 4.5134249 51.9926869, 4.5133522 51.9928325, 4.5131194 51.993323), (4.5135449 51.9924329, 4.5135247 51.9923845, 4.5135549 51.9922904, 4.5135589 51.9922029), (4.5135589 51.9922029, 4.5135102 51.9921751, 4.5134797 51.9921389, 4.513471 51.9920984, 4.5134849 51.9920585, 4.513509 51.9920322, 4.513543 51.9920105, 4.5135805 51.9919959, 4.5136225 51.991987, 4.5136666 51.9919843, 4.5137106 51.9919878), (4.5137106 51.9919878, 4.5137872 51.9919188, 4.5138892 51.991823, 4.5139618 51.9917194), (4.5139618 51.9917194, 4.5140754 51.991526, 4.5142143 51.9912469, 4.5143615 51.9910581, 4.5143903 51.9910255, 4.5144487 51.9909595, 4.5145578 51.9908809), (4.5145578 51.9908809, 4.5147088 51.9908175), (4.5147088 51.9908175, 4.5148131 51.9909056), (4.5148131 51.9909056, 4.5151242 51.9911059, 4.5156374 51.9914327, 4.5161467 51.991721), (4.5161467 51.991721, 4.5166392 51.9919578, 4.5170505 51.9921402, 4.5175051 51.992311, 4.5180966 51.992545), (4.5206872 51.9932186, 4.5203764 51.9931253, 4.5197368 51.992965, 4.5188766 51.9927617, 4.5180966 51.992545), (4.5214037 51.9935305, 4.5209685 51.9933223, 4.5206872 51.9932186), (4.5216016 51.993675, 4.521507 51.9935941, 4.5214037 51.9935305), (4.5217182 51.9937392, 4.5216016 51.993675), (4.5217994 51.9938025, 4.5217182 51.9937392), (4.5223817 51.9943572, 4.5222877 51.9942542, 4.5220599 51.994032, 4.522029 51.9940051, 4.5219785 51.9939585, 4.52196 51.9939417, 4.5217994 51.9938025), (4.5234894 51.9964222, 4.523166 51.9955972, 4.5230227 51.9952821, 4.522707 51.9947828, 4.5225742 51.9945873, 4.5223817 51.9943572), (4.5234894 51.9964222, 4.5238524 51.9972835, 4.5242287 51.998086, 4.5262239 52.0023212, 4.5263063 52.0024871, 4.5263802 52.0027496), (4.5263802 52.0027496, 4.5264799 52.002904, 4.526528 52.0031213, 4.5265588 52.0033513), (4.5265588 52.0033513, 4.5265521 52.0036), (4.5265521 52.0036, 4.5266456 52.0038165, 4.5266538 52.0038866, 4.5266314 52.0040204, 4.5265659 52.0042628, 4.5265532 52.0043187, 4.5265481 52.0043608, 4.5265677 52.0044098, 4.5266369 52.0044392, 4.5267352 52.0044536), (4.5267352 52.0044536, 4.5269485 52.0044166, 4.5272194 52.0043688), (4.5272194 52.0043688, 4.5272582 52.0044432), (4.5272582 52.0044432, 4.5273726 52.0046805, 4.5274812 52.0049079, 4.5277027 52.0053902, 4.5280551 52.006152, 4.5281676 52.0064101, 4.5283079 52.0067704, 4.5283873 52.0069701, 4.5284103 52.0070257, 4.5284291 52.0070673), (4.5284291 52.0070673, 4.5284548 52.0070937, 4.5284965 52.0071202, 4.5285448 52.0071342), (4.5287641 52.0071224, 4.5286551 52.0071388, 4.5285934 52.0071408, 4.5285448 52.0071342), (4.5345029 52.0061361, 4.5342755 52.0061748, 4.5340277 52.0062178, 4.533248 52.0063518, 4.5331859 52.0063625, 4.5324527 52.0064892, 4.5321284 52.0065448, 4.5320212 52.0065626, 4.5306925 52.006791, 4.5298077 52.0069431, 4.5294823 52.006999, 4.5287641 52.0071224), (4.5346255 52.0061139, 4.5345029 52.0061361), (4.5347769 52.0060864, 4.5346255 52.0061139), (4.5353843 52.0058539, 4.5351878 52.0059634, 4.5350386 52.0060226, 4.5348909 52.0060626, 4.5347769 52.0060864), (4.5389361 52.0049641, 4.538697 52.0050072, 4.5377919 52.0051703, 4.5373609 52.0052411, 4.5368459 52.0053257, 4.5367467 52.005342, 4.536483 52.0053927, 4.5362031 52.0054455, 4.5360273 52.0054943, 4.5359463 52.0055267, 4.5358785 52.0055538, 4.5355571 52.0057489, 4.5353843 52.0058539), (4.5400948 52.0074615, 4.5397862 52.0068068, 4.53958 52.0063696, 4.5394197 52.0059928, 4.539397 52.0059354, 4.5393548 52.0058502, 4.5392824 52.0056919, 4.5392434 52.0056099, 4.5391886 52.0054901, 4.5389361 52.0049641), (4.5407308 52.0081676, 4.5405402 52.0080041, 4.5404305 52.0079064, 4.5403364 52.0078003, 4.5402366 52.0076878, 4.540151 52.0075524, 4.5400948 52.0074615), (4.5409125 52.0082926, 4.5407308 52.0081676), (4.5409125 52.0082926, 4.5410426 52.0083643, 4.5411713 52.0084271, 4.5413254 52.0084758, 4.5414094 52.0085024, 4.5416767 52.0085859, 4.541745 52.008624, 4.5418149 52.0086671, 4.5418607 52.0087112, 4.5419146 52.0087704, 4.5419916 52.0089483, 4.542142 52.0092726, 4.5423714 52.0096075, 4.5424712 52.0097889, 4.5426375 52.0102634, 4.5427109 52.0104786, 4.5428176 52.0106908, 4.5428561 52.0107672, 4.5430097 52.0110282, 4.543151 52.0113845, 4.5431675 52.0114781, 4.54311 52.0116394, 4.5430751 52.0116868, 4.5430454 52.0117188, 4.5429769 52.0117494), (4.5429769 52.0117494, 4.5430082 52.011781, 4.5430409 52.0118368, 4.5430498 52.0118971, 4.5430721 52.0119785, 4.5431289 52.0121048, 4.5434926 52.0128748, 4.5438352 52.0135984, 4.5438983 52.0137328, 4.5442978 52.0145829, 4.5447753 52.015618, 4.5448406 52.0157625, 4.5451169 52.0163992, 4.5451403 52.0164868, 4.5451615 52.016611), (4.5451615 52.016611, 4.5451467 52.0166879), (4.5451467 52.0166879, 4.5451397 52.0167064), (4.5451397 52.0167064, 4.5451066 52.0167903, 4.5450542 52.0169001), (4.5450542 52.0169001, 4.5449659 52.0170032, 4.544902 52.0170515, 4.5448026 52.017085, 4.5447291 52.0171098, 4.5445088 52.0171649, 4.5434805 52.0173473), (4.5434805 52.0173473, 4.5367041 52.0185396, 4.5362393 52.0186293, 4.536008 52.0186785, 4.535796 52.0187458), (4.535796 52.0187458, 4.5356855 52.0188291, 4.5356515 52.0188522, 4.5355713 52.0188991, 4.5354029 52.0189975), (4.5354029 52.0189975, 4.5353103 52.0190605, 4.5351829 52.0191443, 4.535011 52.0192327), (4.535011 52.0192327, 4.5346921 52.019328, 4.5344778 52.0193706, 4.5341601 52.0194328), (4.5341601 52.0194328, 4.5342081 52.0195276, 4.5346545 52.0204794), (4.5346545 52.0204794, 4.535523 52.022335, 4.5367353 52.0249362, 4.5371166 52.0257791), (4.5371166 52.0257791, 4.5376725 52.0270296, 4.5377314 52.0271697, 4.5377456 52.0272038, 4.5377926 52.0273168), (4.5377926 52.0273168, 4.5378139 52.027368), (4.5378139 52.027368, 4.5378528 52.0274654), (4.5378528 52.0274654, 4.5378889 52.0275503), (4.5378889 52.0275503, 4.5385461 52.0290033, 4.5391874 52.0304746), (4.5391874 52.0304746, 4.5395397 52.0312266, 4.5398254 52.0318628, 4.5398631 52.031947), (4.5398631 52.031947, 4.5399016 52.0320789), (4.5399016 52.0320789, 4.5396535 52.0321013), (4.5396535 52.0321013, 4.5392618 52.0321778), (4.5392618 52.0321778, 4.5390677 52.0322111), (4.5390677 52.0322111, 4.5387335 52.0322599), (4.5387335 52.0322599, 4.538312 52.0323134, 4.5378305 52.0324012, 4.5372631 52.0324997, 4.5334791 52.0331982), (4.5334791 52.0331982, 4.5329467 52.0332896), (4.5329467 52.0332896, 4.5326117 52.0333464, 4.5324977 52.0333677, 4.5323898 52.0333878), (4.5323898 52.0333878, 4.5321484 52.033427), (4.5321484 52.033427, 4.5313115 52.0335746, 4.5307421 52.0336548, 4.5295481 52.0338624, 4.5260029 52.0344916, 4.5257514 52.0345353), (4.5257514 52.0345353, 4.5248169 52.0347014, 4.5246322 52.0347319), (4.5246322 52.0347319, 4.5243555 52.0347823, 4.5240889 52.03483, 4.5236559 52.0349083, 4.5234616 52.0349495, 4.5231579 52.0350255, 4.522924 52.0350841, 4.5221346 52.0352299, 4.5220378 52.0352442, 4.5211413 52.0353997, 4.520664 52.0354671, 4.5169901 52.0361152), (4.5169901 52.0361152, 4.5167798 52.0361575, 4.5164589 52.036224), (4.5164589 52.036224, 4.5157435 52.0363458, 4.515423 52.0364235), (4.515423 52.0364235, 4.5152622 52.0364649), (4.5152622 52.0364649, 4.5150622 52.0365289, 4.5147452 52.0366397, 4.5143208 52.0368347, 4.5139407 52.0370391), (4.5139407 52.0370391, 4.5137737 52.0371144, 4.5137018 52.0371348), (4.5137018 52.0371348, 4.5137118 52.0372229, 4.5137257 52.0373333), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5173452 52.0399151, 4.516962 52.0396478), (4.5173452 52.0399151, 4.517167 52.0400031, 4.5171127 52.0400537, 4.5171005 52.0401013, 4.5171104 52.0401619, 4.5171986 52.0402415), (4.5171986 52.0402415, 4.5173893 52.0403909, 4.5174731 52.0404587, 4.5175721 52.0405235), (4.5175721 52.0405235, 4.5177904 52.040427, 4.5178598 52.0403589, 4.5179069 52.0402849), (4.5179069 52.0402849, 4.5178569 52.040269, 4.517822 52.0402527, 4.517732 52.0401911))</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>384087</t>
+          <t>2014228</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rotterdam, Station Alexander</t>
+          <t>Rotterdam, Station Noord</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bus 35: Rotterdam Melanchthonweg =&gt; Rotterdam Station Alexander</t>
+          <t>Bus 174: Delft Station Delft =&gt; Rotterdam Station Noord</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1345,14 +1345,14 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4645829 51.9484554, 4.4647692 51.9484723, 4.464916 51.9484851, 4.465012 51.9484947, 4.4652842 51.9485329), (4.4652842 51.9485329, 4.4657957 51.9486184, 4.4659296 51.9486445), (4.4659296 51.9486445, 4.4694131 51.9494095), (4.4694131 51.9494095, 4.4705267 51.949657, 4.4706234 51.9496679, 4.4706929 51.9496733, 4.4707491 51.9496763, 4.470806 51.94968), (4.470806 51.94968, 4.4710858 51.949662, 4.4715732 51.949587, 4.4721833 51.9494916, 4.4725064 51.94944, 4.4728318 51.9493883), (4.4728318 51.9493883, 4.4745151 51.9491291, 4.4746684 51.949094, 4.4747875 51.9490348), (4.4747875 51.9490348, 4.4749412 51.9490543, 4.4750191 51.9491104, 4.475184 51.9492366, 4.4752364 51.9492719, 4.4753387 51.9493807, 4.4754996 51.9497418, 4.4757275 51.9503233, 4.4760813 51.951205, 4.4761133 51.951366), (4.4761133 51.951366, 4.4762884 51.9517992, 4.4763883 51.9520347, 4.4764833 51.9522527, 4.4766674 51.9526909, 4.4768984 51.953217, 4.4769777 51.9533935), (4.4769777 51.9533935, 4.4770266 51.9535046), (4.4770266 51.9535046, 4.4770446 51.9535475, 4.4772622 51.9540669, 4.4778519 51.9555169, 4.4783058 51.9565748, 4.4783311 51.9566338), (4.4783311 51.9566338, 4.4783766 51.9567261), (4.4783766 51.9567261, 4.4783931 51.9567549, 4.4784489 51.956877, 4.4786328 51.9572059, 4.4789332 51.9574538, 4.4790072 51.9574984), (4.4790072 51.9574984, 4.4793269 51.9576909, 4.4807064 51.9585217, 4.4808593 51.9586176), (4.4808593 51.9586176, 4.4809805 51.9586942, 4.4810226 51.9587249, 4.4813274 51.9589474, 4.4815775 51.9591299, 4.4819572 51.9594422), (4.4819572 51.9594422, 4.482318 51.9597296, 4.4825968 51.9600123, 4.4826249 51.9600568), (4.4826249 51.9600568, 4.4826919 51.9601523), (4.4826919 51.9601523, 4.482766 51.9601602, 4.4828239 51.9601806), (4.4828239 51.9601806, 4.4829588 51.9601254, 4.4832621 51.9600528, 4.4836205 51.9600074, 4.4839723 51.9599975, 4.4841922 51.9600068, 4.4844028 51.9600264, 4.4854863 51.9601457, 4.4858252 51.9602222), (4.4903067 51.9603413, 4.4898986 51.9603381, 4.4895312 51.9603357, 4.4885172 51.9603234, 4.4880386 51.9603203, 4.487502 51.9603169, 4.4870723 51.9603121, 4.4865201 51.9602819, 4.4859047 51.9602288, 4.4858252 51.9602222), (4.4903067 51.9603413, 4.49064 51.960305, 4.4908176 51.9602861, 4.4909839 51.9602607), (4.4909839 51.9602607, 4.4911408 51.9602268, 4.4914118 51.9601614, 4.4926451 51.9596135, 4.4927862 51.9595491), (4.4927862 51.9595491, 4.4931374 51.9593884, 4.4932486 51.9593394), (4.4932486 51.9593394, 4.4934496 51.9592457, 4.4937927 51.9590891, 4.49417 51.9589289, 4.4943728 51.9588738, 4.4944196 51.9588654, 4.4944834 51.9588498, 4.4947057 51.9588168), (4.4947057 51.9588168, 4.4947256 51.9588903), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4957258 51.9629538, 4.495903 51.9631354, 4.4959833 51.9632024, 4.496087 51.963289), (4.496087 51.963289, 4.4962586 51.9632325, 4.4964528 51.9631687, 4.4967223 51.963095), (4.5034688 51.9597316, 4.5034148 51.9597582, 4.5033713 51.9597797, 4.5032653 51.9598324, 4.5031374 51.9598956, 4.4995424 51.9616724, 4.4986838 51.9621142, 4.4983612 51.9622802, 4.4981391 51.9623904, 4.4968457 51.9630322, 4.4967223 51.963095), (4.5034688 51.9597316, 4.5034479 51.9597103, 4.5034359 51.9596866, 4.5034351 51.9596523, 4.5034527 51.9596198, 4.5034809 51.9595961, 4.5035129 51.9595804, 4.5035503 51.9595699, 4.5035892 51.9595654, 4.5036287 51.9595667, 4.5036704 51.9595748, 4.5037073 51.9595892), (4.5113561 51.955743, 4.5111908 51.9558282, 4.5111417 51.9558535, 4.5099593 51.9564478, 4.5088205 51.9570319, 4.5083696 51.9572555, 4.5080133 51.9574317, 4.5039376 51.9594766, 4.5037926 51.9595472, 4.5037559 51.9595651, 4.5037073 51.9595892), (4.5113561 51.955743, 4.5114918 51.9556376, 4.5121627 51.9553323, 4.5123956 51.9552604, 4.5125418 51.9552284, 4.5129409 51.9551906, 4.5133054 51.9551972, 4.5134643 51.9552211, 4.5136724 51.9552525, 4.5141902 51.95538, 4.5143381 51.9554195, 4.5145463 51.9554751, 4.514734 51.9555257, 4.5148802 51.955564, 4.5152752 51.9556573, 4.5156089 51.9557193, 4.515879 51.9557666, 4.5162044 51.9557991, 4.5164261 51.9558171, 4.5166013 51.955826, 4.5169811 51.9558057, 4.5171868 51.9557838, 4.5178727 51.9556779, 4.5180899 51.9556422, 4.5182272 51.9556422), (4.5185185 51.9556009, 4.5182272 51.9556422), (4.5186502 51.9555779, 4.5185185 51.9556009), (4.5188881 51.9555395, 4.5186502 51.9555779), (4.5188881 51.9555395, 4.5189959 51.9554584, 4.5191595 51.9553678), (4.5191595 51.9553678, 4.5194221 51.9551822, 4.5194518 51.9551645, 4.5200315 51.954809, 4.5202301 51.9546848), (4.5202301 51.9546848, 4.5203056 51.9545871, 4.5204308 51.9544982), (4.5204308 51.9544982, 4.5204337 51.9544171, 4.5204327 51.9543984, 4.5203884 51.9543521, 4.5199212 51.9540192, 4.5197667 51.9539031, 4.5186406 51.9530566, 4.5183868 51.9528612, 4.5180136 51.9525834, 4.5179769 51.9525362, 4.5179747 51.9524899, 4.5180147 51.9524114), (4.5184599 51.9513738, 4.5183999 51.9515137, 4.5183433 51.9516539, 4.5180147 51.9524114), (4.5185607 51.9511334, 4.5184599 51.9513738), (4.5186934 51.9508097, 4.5185607 51.9511334), (4.5187402 51.9506961, 4.5186934 51.9508097), (4.5187402 51.9506961, 4.5189813 51.9501812, 4.5190355 51.9501284), (4.5190355 51.9501284, 4.5190964 51.950117, 4.5191709 51.950119, 4.5211196 51.9507392, 4.5222088 51.9510769, 4.5230697 51.9513436), (4.5230697 51.9513436, 4.5234698 51.9514698, 4.5235149 51.9514827, 4.5235484 51.9514897, 4.5235788 51.9514936, 4.5236097 51.9514951, 4.5236371 51.951496, 4.5236665 51.9514957, 4.5237095 51.9514932, 4.5237526 51.9514874, 4.5237843 51.9514779, 4.5238118 51.9514675, 4.5238367 51.9514561), (4.5250654 51.9517805, 4.5249274 51.951759, 4.5248472 51.9517456, 4.5246415 51.9517109, 4.5246222 51.9517076, 4.5243811 51.9516669, 4.5242313 51.9516419, 4.5241502 51.9516268, 4.5240917 51.9516087, 4.5240309 51.9515805, 4.5239743 51.9515442, 4.5239412 51.9515227, 4.5238833 51.9514852, 4.5238367 51.9514561), (4.5250654 51.9517805, 4.5251198 51.9519227, 4.5251503 51.9520018, 4.5251753 51.9520546), (4.5251753 51.9520546, 4.5252417 51.9521767, 4.5252714 51.9522369, 4.5252822 51.9522607, 4.5253033 51.9523296, 4.5253196 51.9523973, 4.5253217 51.9524549, 4.5252893 51.9525759), (4.5251642 51.9536192, 4.5252346 51.9531142, 4.525267 51.9528292, 4.5252893 51.9525759), (4.5251642 51.9536192, 4.5251576 51.9538814, 4.5250873 51.9542337, 4.5250654 51.9543572, 4.5250438 51.9544653, 4.5250066 51.9547878, 4.5250177 51.9548804, 4.5250404 51.9549425, 4.5250711 51.955, 4.5251325 51.9550947, 4.5252132 51.9551794, 4.5253236 51.9552648, 4.5254341 51.9553319, 4.5255912 51.9554077, 4.5257565 51.9554528, 4.5264281 51.9555631, 4.5277297 51.9557724, 4.528041 51.9558247, 4.5282061 51.9558718), (4.5282061 51.9558718, 4.5287176 51.9559525, 4.5299169 51.9561501), (4.5299169 51.9561501, 4.5303899 51.9562117, 4.5319004 51.9564626, 4.5319648 51.9564739, 4.5321495 51.9564988), (4.5321495 51.9564988, 4.5321957 51.9564797, 4.5322491 51.95647, 4.5323188 51.9564726, 4.5323819 51.9564911, 4.532419 51.9565137, 4.5324442 51.9565418, 4.5324559 51.9565841, 4.5324412 51.9566259, 4.5324021 51.9566614, 4.5323715 51.9566765, 4.5323363 51.9566872, 4.5322983 51.9566931), (4.5322983 51.9566931, 4.5322414 51.9567922, 4.5322233 51.9568317, 4.5321025 51.9571458, 4.5319644 51.9574656, 4.5319057 51.9576155, 4.5314308 51.9587371, 4.5313924 51.9588282, 4.5312476 51.9591697, 4.5308309 51.9601528, 4.5305497 51.9608177, 4.5305085 51.960915, 4.5303541 51.9612668, 4.5303248 51.9613367, 4.5300227 51.9620027, 4.5298936 51.9623657, 4.5298669 51.9624288, 4.5298031 51.9625793, 4.5297709 51.962624, 4.5297306 51.9627294), (4.5297306 51.9627294, 4.5298774 51.9627493, 4.5299533 51.9627642, 4.5329093 51.9632468, 4.5330565 51.9632734, 4.5337147 51.9633724, 4.5337612 51.9633818, 4.5339103 51.9634077, 4.5340168 51.9634234, 4.5341412 51.9634441, 4.5342143 51.9634564, 4.5347643 51.9635444, 4.5366373 51.9638439, 4.5367773 51.9638665, 4.5369042 51.9638873, 4.5380382 51.9640734, 4.5381101 51.9640856, 4.5420821 51.9647419, 4.5421422 51.9647522, 4.5423333 51.9647808, 4.5425336 51.9648112, 4.5425928 51.9648208, 4.5431142 51.9649049, 4.544623 51.9651483, 4.5446484 51.965153, 4.5447479 51.9651716, 4.5457997 51.9653448, 4.5458589 51.9653542, 4.5484064 51.9657597, 4.5485472 51.9657814, 4.5498271 51.9659958, 4.5498738 51.9660028, 4.5500837 51.9660383, 4.550294 51.9660727, 4.5503621 51.9660839, 4.5508364 51.9661615, 4.5533538 51.9665728, 4.5534225 51.966581, 4.5535426 51.9666026), (4.5535426 51.9666026, 4.5535853 51.9664901, 4.5536099 51.9664386, 4.5539044 51.9657314, 4.5539821 51.9655378, 4.5541647 51.9651132, 4.554591 51.9641127, 4.5546207 51.9640487, 4.5547707 51.9637242, 4.5548675 51.9635043, 4.5548831 51.9634675, 4.554979 51.9632535, 4.555048 51.9630598, 4.5551849 51.9627392, 4.5557389 51.9614539, 4.5558884 51.9611038, 4.5560603 51.960701, 4.5560793 51.9606565, 4.5561078 51.9605735), (4.5561078 51.9605735, 4.5560487 51.9605407, 4.5560136 51.9604967), (4.5560136 51.9604967, 4.555877 51.9604787, 4.5558169 51.960466, 4.5531091 51.9600402, 4.5530526 51.9600313, 4.5529428 51.9600061), (4.5529428 51.9600061, 4.5528713 51.9600382, 4.5527853 51.9600514, 4.5526966 51.9600433, 4.5526456 51.9600275, 4.5526018 51.9600039, 4.552569 51.9599743, 4.5525492 51.9599405), (4.5525492 51.9599405, 4.5524246 51.9599229, 4.5523648 51.9599136, 4.5506458 51.9596368, 4.5488775 51.959352, 4.5488079 51.9593408, 4.5487378 51.9593295, 4.5485904 51.9593024, 4.5485295 51.9592922, 4.5482387 51.9592425, 4.5479634 51.9591987), (4.5479634 51.9591987, 4.5480387 51.9590098, 4.5480749 51.9588595, 4.5480932 51.9588166, 4.5481246 51.958743, 4.548234 51.958535, 4.5483558 51.9583034, 4.5486316 51.9578542, 4.5491924 51.956536, 4.5492864 51.9563293, 4.549387 51.9561082, 4.5495049 51.9558074, 4.5496767 51.9554339, 4.550263 51.9540745), (4.550263 51.9540745, 4.5505764 51.9533053), (4.5505764 51.9533053, 4.5506891 51.9530762, 4.5507271 51.9530235), (4.5507271 51.9530235, 4.551148 51.952015))</t>
+          <t>MULTILINESTRING ((4.3568847 52.00682, 4.3568742 52.0068337, 4.3568703 52.0068426, 4.3568593 52.0068662, 4.3568588 52.0068891, 4.3568751 52.006917, 4.3568962 52.0069397, 4.3569577 52.0069693), (4.3569577 52.0069693, 4.3570185 52.0070006), (4.3570185 52.0070006, 4.3571009 52.0070495), (4.3571009 52.0070495, 4.3572227 52.0071121, 4.3572714 52.0071359), (4.3572714 52.0071359, 4.3575394 52.0072585), (4.3575394 52.0072585, 4.3575451 52.0072611, 4.3575718 52.0072731, 4.3575958 52.0072839, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3578982 52.0069613, 4.3578318 52.0070382, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3580248 52.006814, 4.3585991 52.0061224, 4.3588413 52.005834, 4.3590516 52.0055838, 4.3590832 52.0055491, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3595616 52.0053611, 4.3594949 52.0053641, 4.3594342 52.0053738, 4.3593744 52.0053886, 4.3593243 52.0054026, 4.3592387 52.0054377, 4.3591849 52.0054614, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3598326 52.0053837, 4.3598989 52.005388, 4.3599739 52.0053902), (4.3599739 52.0053902, 4.3601022 52.0054459, 4.360238 52.0055048, 4.3609544 52.0058104), (4.3609544 52.0058104, 4.3611177 52.0058752), (4.3611177 52.0058752, 4.3612717 52.0059321, 4.3614377 52.0059957, 4.3619597 52.0062065, 4.3622142 52.0063226, 4.3624276 52.0064306, 4.3626021 52.0065577), (4.3626021 52.0065577, 4.3626477 52.0066204, 4.3626839 52.0066661, 4.3628134 52.0068119, 4.3628556 52.0068664, 4.3629298 52.0069781, 4.362969 52.0070559, 4.3629831 52.0071198, 4.362967 52.0071966, 4.3629575 52.0072319), (4.36309 52.0074856, 4.3630228 52.0073716, 4.3629987 52.0073203, 4.3629575 52.0072319), (4.363445 52.0080343, 4.3633155 52.0079799, 4.3632647 52.0079459, 4.3632193 52.0079081, 4.3631903 52.0078728, 4.363164 52.0078271, 4.3631527 52.0077937, 4.3631385 52.0077307, 4.363124 52.0076205, 4.3631154 52.0075866, 4.36309 52.0074856), (4.363445 52.0080343, 4.363517 52.0080467, 4.364334 52.0083913, 4.3644182 52.008427, 4.3645003 52.0084593, 4.3645994 52.0084903, 4.3646759 52.0085091, 4.3647045 52.0085162, 4.3647827 52.008547), (4.3649522 52.008549, 4.3649047 52.0085533, 4.3648531 52.0085544, 4.3647827 52.008547), (4.365626 52.0079791, 4.3653334 52.0083575, 4.365238 52.0084511, 4.3651605 52.0084967, 4.3651111 52.0085144, 4.3650378 52.0085348, 4.3649522 52.008549), (4.3660422 52.0074607, 4.365626 52.0079791), (4.3668863 52.0064478, 4.3667956 52.0065233, 4.3667054 52.0066138, 4.3666113 52.0067322, 4.3663926 52.0069857, 4.3661976 52.0072443, 4.3660422 52.0074607), (4.3675553 52.0061843, 4.3673579 52.0062467, 4.367227 52.0062887, 4.3670791 52.0063487, 4.3669706 52.006401, 4.3668863 52.0064478), (4.3675553 52.0061843, 4.3676484 52.0061527), (4.3676484 52.0061527, 4.3676766 52.0061678, 4.3677614 52.0062156), (4.3677614 52.0062156, 4.3678307 52.0062508, 4.3679271 52.0062947, 4.3680172 52.00636), (4.3690533 52.006663, 4.3686518 52.0065513, 4.3685216 52.0065191, 4.368236 52.0064393, 4.3680172 52.00636), (4.3695005 52.0067804, 4.3692897 52.0067252, 4.3690533 52.006663), (4.3695005 52.0067804, 4.3696237 52.0067974, 4.3696937 52.0068148), (4.3696937 52.0068148, 4.3698131 52.0068457, 4.3699184 52.0068995), (4.371492 52.0073103, 4.3713928 52.0072964, 4.3713014 52.0072873, 4.3712509 52.0072776, 4.3710648 52.0072313, 4.3707029 52.0071244, 4.3705462 52.0070782, 4.3699184 52.0068995), (4.371492 52.0073103, 4.3714543 52.0072568, 4.3714312 52.0072055, 4.3714204 52.0071293, 4.3714345 52.0070796, 4.3714573 52.0070359, 4.3715024 52.0069764, 4.3715666 52.0069358, 4.3716872 52.0069122), (4.3719408 52.006777, 4.3718901 52.0068033, 4.3716872 52.0069122), (4.3723567 52.0065598, 4.3719408 52.006777), (4.3723567 52.0065598, 4.3724524 52.0064659, 4.3725786 52.0063966, 4.3726437 52.0063613, 4.3727896 52.0062761), (4.3727896 52.0062761, 4.3728493 52.0062396), (4.3728493 52.0062396, 4.3729885 52.0061592, 4.3731086 52.0060859, 4.3732474 52.0060009, 4.3733667 52.0059639), (4.3738835 52.0056435, 4.3734421 52.0059234, 4.3733667 52.0059639), (4.3743674 52.0052663, 4.3739557 52.0055875, 4.3738835 52.0056435), (4.3743674 52.0052663, 4.374493 52.0051275, 4.375039 52.0046752, 4.3751208 52.0046004, 4.3754954 52.0042536, 4.3755611 52.0041806, 4.375618 52.0041191, 4.3756432 52.0040894, 4.375715 52.0040408), (4.3762024 52.0033604, 4.3759514 52.0037108, 4.3758492 52.0038535, 4.375715 52.0040408), (4.3766822 52.0026707, 4.3762373 52.0033129, 4.3762024 52.0033604), (4.3776908 52.0012426, 4.3776382 52.0013149, 4.3775508 52.0014335, 4.3773682 52.001684, 4.3770488 52.0021498, 4.3769144 52.0023462, 4.3768895 52.0023785, 4.3768562 52.0024292, 4.3766822 52.0026707), (4.3776908 52.0012426, 4.3776933 52.001186, 4.377748 52.0010899, 4.3777847 52.0010406, 4.3778368 52.0009498), (4.3778368 52.0009498, 4.3778136 52.0009353, 4.3777954 52.0009183, 4.377783 52.0008994, 4.3777768 52.0008794, 4.3777771 52.000859, 4.3777886 52.0008318, 4.3777993 52.0008176, 4.3778223 52.0007988, 4.3778515 52.0007837, 4.3778855 52.000773, 4.3779226 52.0007673, 4.3779693 52.0007681), (4.3779693 52.0007681, 4.3780345 52.0006868, 4.3780574 52.0006565, 4.3781236 52.0005615, 4.3782091 52.000507), (4.3798377 51.9981491, 4.3789068 51.9994968, 4.3783299 52.0003453, 4.3782091 52.000507), (4.3798377 51.9981491, 4.3798521 51.9980628, 4.3799629 51.9979022, 4.3800491 51.9977772, 4.3801171 51.9976786, 4.3802023 51.9975609, 4.3802721 51.9975252), (4.3804629 51.9972399, 4.3802721 51.9975252), (4.3807495 51.9967897, 4.3804629 51.9972399), (4.3807495 51.9967897, 4.3807821 51.9966152, 4.3808219 51.9965472, 4.3809041 51.9964125), (4.3809041 51.9964125, 4.3809924 51.9962593, 4.3810686 51.996147, 4.3811635 51.9960038, 4.3812765 51.9958332), (4.3812765 51.9958332, 4.3815861 51.9953889, 4.3816208 51.9953411, 4.3818241 51.994993), (4.3818241 51.994993, 4.3821253 51.9945618, 4.382254 51.9943775), (4.382254 51.9943775, 4.3824651 51.9944201), (4.3824651 51.9944201, 4.3825902 51.9944509, 4.3851444 51.9950802, 4.385821 51.9952343, 4.3861062 51.9953028, 4.3865158 51.9953957), (4.3865158 51.9953957, 4.3871766 51.9954484, 4.3873329 51.9954602), (4.3873329 51.9954602, 4.3880107 51.9955121, 4.388425 51.995522), (4.388425 51.995522, 4.3886822 51.9955355), (4.3886822 51.9955355, 4.3890467 51.9955711, 4.3893998 51.9956175, 4.3897631 51.9956932, 4.3900595 51.9957904), (4.3900595 51.9957904, 4.3901478 51.9958278, 4.3903498 51.995926, 4.3904698 51.9960175, 4.3905934 51.9961335), (4.3905934 51.9961335, 4.3908541 51.9963034, 4.391112 51.9964557), (4.391112 51.9964557, 4.3914757 51.9966031), (4.3914757 51.9966031, 4.3921085 51.9968399, 4.3927382 51.9970506, 4.3932424 51.9971878), (4.3932424 51.9971878, 4.3938036 51.9973318, 4.3946284 51.9974971, 4.3951224 51.9975838), (4.3951224 51.9975838, 4.3954016 51.9976363), (4.3954016 51.9976363, 4.3968078 51.99791), (4.3968078 51.99791, 4.3970211 51.9979535, 4.397347 51.9980173), (4.397347 51.9980173, 4.397471 51.9980411), (4.397471 51.9980411, 4.3985303 51.9982516, 4.3999189 51.9985586), (4.3999189 51.9985586, 4.4008179 51.9987425, 4.4021176 51.9990194, 4.4025638 51.9991152), (4.4025638 51.9991152, 4.4027468 51.9991544), (4.4027468 51.9991544, 4.4032619 51.999265, 4.4048894 51.9996192, 4.4052524 51.9997043, 4.4056684 51.9998206, 4.406216 52.0000256, 4.4065483 52.0001904, 4.4068557 52.0003677, 4.4070609 52.0005105, 4.4072586 52.000663, 4.4075219 52.0009176, 4.4076828 52.0011258, 4.4078131 52.0013148, 4.4079532 52.0015834, 4.4080322 52.0018657, 4.4080629 52.0019926), (4.4080629 52.0019926, 4.4080807 52.0020824), (4.4080807 52.0020824, 4.4081328 52.0022702, 4.4081874 52.0024349, 4.4082516 52.0025884, 4.4083221 52.0027292, 4.4085029 52.0029958, 4.4087465 52.0032719, 4.4089708 52.0034651, 4.4093388 52.0037232, 4.4096046 52.0038761, 4.4099338 52.0040283, 4.4102509 52.004143, 4.4104352 52.004209, 4.4106838 52.0042839, 4.4110606 52.0043722, 4.4115884 52.0044824, 4.4128541 52.0047561, 4.4133139 52.0048489, 4.4137776 52.004934, 4.4140468 52.0049732, 4.4143581 52.0050162, 4.4145996 52.0050469, 4.4148448 52.0050707, 4.4151268 52.0050911, 4.4153994 52.0050963, 4.4156861 52.0050998, 4.4160332 52.0050928, 4.4167159 52.0050481), (4.4167159 52.0050481, 4.4170529 52.005029, 4.4178655 52.0049631), (4.4178655 52.0049631, 4.417984 52.0049256, 4.4180405 52.0049012, 4.4181027 52.0048774, 4.4181527 52.0048524, 4.4182074 52.0048147, 4.4182801 52.0047781, 4.4183461 52.004765, 4.4183885 52.0047601, 4.4184725 52.0047618, 4.4185536 52.0047729, 4.4186658 52.0048106, 4.4187253 52.0048292, 4.4188158 52.0048449, 4.4189504 52.0048679), (4.4189504 52.0048679, 4.4201618 52.0047874, 4.4209749 52.0047421), (4.4209749 52.0047421, 4.4215516 52.0047311, 4.4232751 52.0046614, 4.4243969 52.0046248, 4.4255463 52.0045969, 4.4263183 52.004583, 4.4271683 52.00457), (4.4271683 52.00457, 4.4273149 52.0045679), (4.4273149 52.0045679, 4.4276092 52.0045644), (4.4276092 52.0045644, 4.4287432 52.004539, 4.4291791 52.0045296, 4.429581 52.0045034), (4.429581 52.0045034, 4.4297059 52.0044637, 4.4298378 52.0044452), (4.4298378 52.0044452, 4.4299412 52.0044192, 4.4299979 52.0043924, 4.4300631 52.004334, 4.4301266 52.0042978, 4.4301866 52.0042738, 4.4302865 52.0042591, 4.430363 52.0042628, 4.4304234 52.0042682, 4.4304936 52.0042832, 4.430605 52.0043112, 4.4306955 52.0043258, 4.4309169 52.0043259), (4.4309169 52.0043259, 4.4312971 52.0042501, 4.4316749 52.0041566, 4.4322186 52.0040017), (4.4322186 52.0040017, 4.4326869 52.0038429, 4.4329782 52.0037268, 4.4332968 52.0035841, 4.4337074 52.0033523, 4.4340612 52.0031511, 4.4344448 52.0029063, 4.4356305 52.0020873, 4.4363391 52.0015269, 4.4370052 52.000962, 4.4371508 52.0008397, 4.437606 52.0004072), (4.437606 52.0004072, 4.4378253 52.0002607, 4.4381026 52.00009, 4.4383152 51.999977, 4.4386155 51.9998348, 4.4389189 51.9997213), (4.4389189 51.9997213, 4.4390033 51.9997079, 4.4391519 51.9996669, 4.4391797 51.999655), (4.4391797 51.999655, 4.4392103 51.9996361, 4.4392278 51.9996184, 4.4392405 51.999599, 4.4392448 51.9995743, 4.4392561 51.9995496, 4.4392717 51.9995267, 4.4392985 51.9995049, 4.4393306 51.999486, 4.439366 51.9994756, 4.4394117 51.9994677, 4.4394471 51.9994663), (4.4394471 51.9994663, 4.4394966 51.9994683, 4.4395348 51.9994733, 4.4395947 51.9994889, 4.4396263 51.9995032, 4.4396484 51.9995131), (4.4396484 51.9995131, 4.4396702 51.9995264, 4.4396989 51.9995546, 4.4397197 51.9995972), (4.4397197 51.9995972, 4.4397277 51.9996202, 4.4397301 51.999639), (4.4397301 51.999639, 4.439722 51.9996751, 4.4397051 51.9997119, 4.4396881 51.999736, 4.4396505 51.9997687), (4.4396505 51.9997687, 4.4396555 51.9998191, 4.4396735 51.9998632, 4.4398404 52.0001125, 4.4399683 52.0003196, 4.4402808 52.0008743, 4.4403098 52.0009297), (4.4403098 52.0009297, 4.4403463 52.0010095, 4.4403428 52.0010964), (4.4403428 52.0010964, 4.4404886 52.0013525, 4.4405358 52.001434), (4.4405358 52.001434, 4.4405931 52.0015321), (4.4405931 52.0015321, 4.4406427 52.0016127, 4.440951 52.002177, 4.4411178 52.0024548), (4.4411178 52.0024548, 4.4411776 52.0024952, 4.4412258 52.0025222, 4.441285 52.0025436, 4.4413613 52.0025585, 4.4422669 52.0027016, 4.4426834 52.0027671, 4.4429747 52.002813, 4.4431821 52.0028634, 4.4435545 52.0029563, 4.4440875 52.0030757, 4.4444079 52.0031504, 4.4444447 52.0031645, 4.4444687 52.0031769, 4.4444903 52.0031897), (4.4444903 52.0031897, 4.444548 52.0032184, 4.4445645 52.0032395, 4.4445749 52.0032636, 4.4445707 52.0032928, 4.4443287 52.0037623, 4.444291 52.0038305), (4.444291 52.0038305, 4.4444055 52.0038728, 4.444677 52.0039509), (4.444677 52.0039509, 4.4447353 52.0039688, 4.4450694 52.0040581, 4.446545 52.0043442, 4.4473278 52.0044855, 4.4480021 52.0046072, 4.4480621 52.0046186), (4.4480621 52.0046186, 4.4482026 52.0046321), (4.4482026 52.0046321, 4.4482467 52.0046072, 4.4483008 52.0045915, 4.4483599 52.0045862), (4.4483599 52.0045862, 4.448436 52.0045071, 4.4484674 52.0044644, 4.448588 52.0043211, 4.4487363 52.0041453, 4.4489789 52.0039386, 4.4492449 52.0037362, 4.4501244 52.0031903, 4.4501695 52.0031604, 4.450265 52.003093), (4.450265 52.003093, 4.4502434 52.0030682, 4.4502317 52.0030411, 4.4502307 52.0030129, 4.4502408 52.0029848, 4.4502615 52.002959, 4.4502916 52.002937, 4.4503227 52.0029225, 4.4503579 52.0029121, 4.4503958 52.0029063, 4.4504348 52.0029052, 4.4504733 52.002909), (4.4504733 52.002909, 4.4505645 52.0028382, 4.4506006 52.0028013, 4.4506932 52.0027026), (4.4506932 52.0027026, 4.4507998 52.0025848, 4.4509515 52.0023583, 4.4512163 52.0018386), (4.4512163 52.0018386, 4.4513073 52.0016721, 4.4514121 52.0014385, 4.4514277 52.0013787, 4.451427 52.0013379), (4.451427 52.0013379, 4.4514195 52.0013144, 4.451404 52.0012885, 4.4513766 52.0012566, 4.4513107 52.0011874), (4.4513107 52.0011874, 4.4512757 52.0011633, 4.4512493 52.0011413, 4.4512229 52.0011181, 4.4511867 52.0010774, 4.4511653 52.0010446, 4.4511498 52.0010104, 4.4511302 52.0009392, 4.4511312 52.0008849), (4.4511312 52.0008849, 4.4511431 52.0008261, 4.4511645 52.0007855), (4.4511645 52.0007855, 4.4511974 52.0007357, 4.451238 52.0006858, 4.451321 52.0005875), (4.451321 52.0005875, 4.4513653 52.0005443, 4.4514409 52.0004575, 4.4515955 52.0002764, 4.4518188 51.9999138, 4.4519129 51.9997231, 4.4520034 51.9994881), (4.4520034 51.9994881, 4.4520343 51.9993503, 4.4520535 51.9991725, 4.4520539 51.9989794), (4.4520539 51.9989794, 4.4520477 51.998653), (4.4520477 51.998653, 4.4520311 51.9982376), (4.4520311 51.9982376, 4.4520138 51.9977493), (4.4520138 51.9977493, 4.4520117 51.9976731, 4.4520033 51.9973796), (4.4520033 51.9973796, 4.451986 51.9970788), (4.451986 51.9970788, 4.4519813 51.996796), (4.4519813 51.996796, 4.4519766 51.9965597), (4.4519766 51.9965597, 4.4519614 51.9962718), (4.4519614 51.9962718, 4.451926 51.9959421, 4.4519194 51.9957928), (4.4519194 51.9957928, 4.4518996 51.9955959, 4.4518506 51.995287, 4.4517072 51.9947619, 4.4515167 51.9941997, 4.4512513 51.9935674, 4.4510337 51.993116, 4.4505769 51.9922765), (4.4505769 51.9922765, 4.4505072 51.992146), (4.4505072 51.992146, 4.4500153 51.9912967, 4.449735 51.9907937), (4.449735 51.9907937, 4.4495895 51.9905351, 4.4494411 51.9902606), (4.4494411 51.9902606, 4.4494708 51.9901857, 4.4495193 51.990115), (4.4495193 51.990115, 4.4495729 51.9900825, 4.449703 51.9900478, 4.4499248 51.9900378), (4.4517786 51.9893332, 4.4516603 51.9893629, 4.4515549 51.9894001, 4.4507155 51.9897455, 4.4501316 51.9899858, 4.4499248 51.9900378), (4.4533902 51.9894022, 4.4531404 51.9893453, 4.4528758 51.9892851, 4.4526217 51.9892511, 4.4523786 51.9892477, 4.4521135 51.9892613, 4.4518943 51.989299, 4.4517786 51.9893332), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4534431 51.9896457, 4.4537124 51.989795), (4.4537124 51.989795, 4.4537358 51.9898088, 4.453789 51.9898479, 4.4538154 51.9898909, 4.4538111 51.9899361, 4.4537861 51.9899867, 4.4537579 51.9900293, 4.4536849 51.9901411, 4.4535654 51.9901099, 4.4533996 51.9900666, 4.4533519 51.9900218, 4.4533436 51.9899686, 4.4533694 51.9899137, 4.4533972 51.9898604, 4.4534291 51.9898006, 4.4534338 51.9897681, 4.4534321 51.9897229, 4.4534431 51.9896457), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4559381 51.9899824, 4.4556971 51.9899487, 4.4555423 51.9899217, 4.4541691 51.9895931, 4.4533902 51.9894022), (4.4559381 51.9899824, 4.456041 51.9899735, 4.4560982 51.9899763, 4.456165 51.9899811, 4.4562348 51.989983, 4.4563143 51.9899995), (4.4580889 51.9897888, 4.4577493 51.9898563, 4.4576325 51.9898771, 4.4573482 51.9899251, 4.4569563 51.9899738, 4.4565921 51.9899927, 4.4563143 51.9899995), (4.4585413 51.9896822, 4.4580889 51.9897888), (4.4585413 51.9896822, 4.4586786 51.9896232, 4.4587687 51.9895934, 4.4588179 51.9895796, 4.4588887 51.9895691, 4.4589697 51.9895641), (4.4595392 51.9893945, 4.4589697 51.9895641), (4.4625128 51.9886669, 4.4624158 51.9886872, 4.462359 51.9886987, 4.4622552 51.9887199, 4.4621419 51.988744, 4.4608387 51.9890217, 4.4604064 51.9891387, 4.4595392 51.9893945), (4.4626924 51.9886291, 4.4625128 51.9886669), (4.4626924 51.9886291, 4.4627506 51.9887324, 4.4631133 51.9893721, 4.4631305 51.9894042), (4.4631305 51.9894042, 4.4632009 51.9895357), (4.4632009 51.9895357, 4.4632142 51.9895608, 4.4635192 51.990115, 4.463582 51.9902292, 4.4639289 51.9908599, 4.4645315 51.9919631, 4.4646219 51.9921103, 4.4646492 51.9921548, 4.4647132 51.9922589, 4.4650082 51.9926747), (4.4650082 51.9926747, 4.4650968 51.9927761), (4.4650968 51.9927761, 4.4651916 51.9928732, 4.465219 51.9928921), (4.465219 51.9928921, 4.4652643 51.992931), (4.4652643 51.992931, 4.4653058 51.9929333, 4.4653591 51.9929417, 4.4654157 51.9929554, 4.4654696 51.9929756, 4.4655102 51.9930031, 4.4655474 51.9930424), (4.4655474 51.9930424, 4.465565 51.9930906, 4.4655621 51.9931352, 4.4655388 51.9931799, 4.4655066 51.9932183), (4.4655066 51.9932183, 4.4655831 51.9932856, 4.4657944 51.9934424, 4.4658148 51.993455, 4.4659176 51.9935071, 4.4662139 51.9936531, 4.4663426 51.9937108, 4.4664994 51.9937809, 4.4666079 51.993832, 4.466716 51.9938859, 4.4669254 51.9939877, 4.4685191 51.9947486, 4.4690475 51.9949949, 4.469488 51.9952048, 4.4695416 51.9952304, 4.4697342 51.9953186), (4.4697342 51.9953186, 4.4711577 51.9960095, 4.4712769 51.9960907, 4.4713962 51.996168, 4.4715314 51.996238, 4.4716059 51.9962769, 4.471787 51.9963534, 4.4730463 51.9968836, 4.4736488 51.9971354, 4.4738278 51.9972094, 4.4739627 51.9972671, 4.4741065 51.9973242, 4.4742802 51.9973932, 4.474357 51.9974184, 4.4744825 51.9974799, 4.4745466 51.9974921, 4.4748494 51.9975246, 4.4749184 51.9975385, 4.4764732 51.9981894, 4.4766146 51.9982496, 4.4767503 51.9983095, 4.4777544 51.9987314, 4.4778945 51.9987773, 4.4780501 51.9988106, 4.4782557 51.9988545), (4.4787004 51.9988266, 4.4784196 51.9988442, 4.478308 51.9988512, 4.4782557 51.9988545), (4.481089 51.9986847, 4.4807705 51.9987064, 4.4805147 51.9987126, 4.4792085 51.9987946, 4.4787004 51.9988266), (4.481089 51.9986847, 4.4812538 51.9986642), (4.4812538 51.9986642, 4.4813612 51.9986656), (4.482258 52.0020059, 4.4819645 52.0009823, 4.4819339 52.0008687, 4.4818251 52.0004813, 4.481809 52.0004014, 4.481602 51.9996075, 4.4813612 51.9986656), (4.48462 52.0018028, 4.4841 52.0018, 4.4838128 52.0018195, 4.4833894 52.0018664, 4.482258 52.0020059), (4.48462 52.0018028, 4.4846152 52.0027557, 4.4845933 52.0036271, 4.484584 52.0038032, 4.4845755 52.0040883, 4.4845679 52.0048652), (4.4845679 52.0048652, 4.4845576 52.0059411, 4.4845683 52.0059924, 4.4846326 52.0061477), (4.4846326 52.0061477, 4.4846804 52.0062473), (4.4846804 52.0062473, 4.4847222 52.0063235), (4.4849465 52.006273, 4.4848744 52.0062894, 4.4847222 52.0063235), (4.4849465 52.006273, 4.4850335 52.0062393, 4.4850962 52.0062216, 4.4851193 52.0062185, 4.4851952 52.0062079, 4.4852259 52.0062056, 4.4853216 52.0062201), (4.4914316 52.0060064, 4.4908613 52.0061234, 4.4903504 52.0062195, 4.4902322 52.0062382, 4.4900856 52.0062428, 4.4895604 52.0062371, 4.4893536 52.0062348, 4.4880591 52.0062199, 4.4862985 52.0062126, 4.4856745 52.0062143, 4.4853216 52.0062201), (4.4921053 52.0057447, 4.4920917 52.005766, 4.4920727 52.0057859, 4.4920314 52.0058186, 4.4919711 52.0058547, 4.4919147 52.0058799, 4.4918446 52.005904, 4.4916066 52.0059698, 4.4914316 52.0060064), (4.4919153 52.0051213, 4.4920522 52.0053727, 4.4921213 52.0055, 4.4921321 52.0055311, 4.4921389 52.0055689, 4.4921369 52.0056444, 4.4921235 52.0056959, 4.4921053 52.0057447), (4.4914897 52.0032121, 4.4914883 52.0032885, 4.491485 52.0040297, 4.4914688 52.004192, 4.4914761 52.0042731, 4.4915084 52.004358, 4.4916607 52.0046465, 4.4918473 52.0049872, 4.4919153 52.0051213), (4.4908325 52.0016296, 4.4909394 52.0017495, 4.491241 52.0020485, 4.4913529 52.002184, 4.4914252 52.0023298, 4.4914711 52.0024423, 4.4914985 52.002546, 4.4915076 52.0026788, 4.4915035 52.0027773, 4.4914994 52.0030179, 4.4914897 52.0032121), (4.4866087 51.9972193, 4.4867064 51.9973671, 4.4868836 51.9976102, 4.4877534 51.9985069, 4.4879633 51.998718, 4.4881191 51.9988797, 4.4883429 51.9991121, 4.4886996 51.9994824, 4.488778 51.9995638, 4.489098 51.9998886, 4.4891516 51.9999445, 4.4894194 52.0002185, 4.4896256 52.0004241, 4.4903229 52.0011061, 4.4904195 52.0012101, 4.4907038 52.0014989, 4.4908325 52.0016296), (4.4866087 51.9972193, 4.4865115 51.9971222, 4.4864383 51.9970142, 4.4863002 51.9968198, 4.4862606 51.9967609, 4.4862281 51.9966797, 4.4862018 51.9965918), (4.4862018 51.9965918, 4.4861425 51.9965737, 4.4860964 51.9965444, 4.486069 51.9965073, 4.4860633 51.9964667, 4.4860724 51.9964392, 4.4860917 51.9964138, 4.4861362 51.996383, 4.486195 51.9963632, 4.4862613 51.996357), (4.4862613 51.996357, 4.4863325 51.9962887, 4.4864415 51.9961629, 4.4866202 51.9960083, 4.4868459 51.9958794, 4.4870317 51.9958274), (4.489175 51.9947712, 4.4890171 51.9948481, 4.4885523 51.9950785, 4.4883067 51.9951999, 4.4872715 51.9957093, 4.4870317 51.9958274), (4.4893767 51.9946729, 4.489175 51.9947712), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4897415 51.9944962, 4.4898099 51.9944327, 4.4898827 51.9943828), (4.4898827 51.9943828, 4.4898632 51.9943444, 4.4898621 51.9943042, 4.4898795 51.9942655), (4.4898795 51.9942655, 4.4899002 51.9942425, 4.4899275 51.9942224, 4.4899604 51.9942057, 4.4900253 51.994187, 4.4900964 51.9941816, 4.4901667 51.9941901, 4.4902293 51.9942116), (4.4902293 51.9942116, 4.4903455 51.99417, 4.4904477 51.9941336, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911221 51.9939723, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928445 51.9933386, 4.4928496 51.9932997, 4.4928766 51.9932644, 4.4929221 51.9932372, 4.4929811 51.9932214, 4.4930454 51.9932195, 4.4931065 51.9932319, 4.4931475 51.9932505), (4.4997193 51.9899727, 4.4993802 51.9901192, 4.4991798 51.9902124, 4.4989763 51.9903028, 4.4984151 51.9905956, 4.4981121 51.990745, 4.4979333 51.9908371, 4.4977338 51.9909353, 4.4969219 51.9913518, 4.4964086 51.9916209, 4.4962083 51.9917271, 4.4960082 51.9918288, 4.4957711 51.9919497, 4.494653 51.9925049, 4.4944611 51.9926006, 4.4942524 51.9927028, 4.4931971 51.9932268, 4.4931475 51.9932505), (4.4997193 51.9899727, 4.4998067 51.9899287), (4.5000545 51.9897699, 4.5000227 51.9897975, 4.4999537 51.9898508, 4.4998067 51.9899287), (4.5002077 51.9891235, 4.5002047 51.9891932, 4.500193 51.9893184, 4.500114 51.9896098, 4.5001076 51.9896569, 4.5000545 51.9897699), (4.5001201 51.9886931, 4.5001937 51.9890499, 4.5002077 51.9891235), (4.4999039 51.9877363, 4.4999389 51.9878691, 4.499963 51.9879634, 4.4999657 51.987974, 4.5000026 51.9881061, 4.5000337 51.9882353, 4.5000893 51.9884995, 4.5001064 51.9886068, 4.5001201 51.9886931), (4.4998134 51.9874232, 4.4998933 51.987699, 4.4999039 51.9877363), (4.4996791 51.9869375, 4.4998134 51.9874232), (4.4981174 51.9808894, 4.4981715 51.9810096, 4.4982053 51.9811134, 4.4984383 51.9821217, 4.4986538 51.9829816, 4.4987615 51.9834112, 4.4989318 51.9840177, 4.4989622 51.9841395, 4.4991534 51.9849077, 4.4992515 51.9853211, 4.4993081 51.9855413, 4.499362 51.9857965, 4.499392 51.9859064, 4.4993962 51.9859288, 4.4994133 51.9860023, 4.4994368 51.9860844, 4.499546 51.9864494, 4.4996045 51.9866583, 4.4996791 51.9869375), (4.4965634 51.9808041, 4.4970291 51.9806298, 4.4971787 51.9805925, 4.4973039 51.9805796, 4.4974478 51.9805795, 4.4976 51.9805982, 4.4977807 51.9806384, 4.4979379 51.9807144, 4.498042 51.980788, 4.4980823 51.9808423, 4.4981174 51.9808894), (4.4965634 51.9808041, 4.4965173 51.9808771, 4.496176 51.9810216, 4.4960953 51.9810494), (4.4960953 51.9810494, 4.4960412 51.9810675, 4.4959503 51.9810838, 4.4958413 51.9810828), (4.4958413 51.9810828, 4.4957231 51.9810898, 4.4955693 51.9810601, 4.4955317 51.9810547), (4.4955317 51.9810547, 4.4955102 51.9810681, 4.4954769 51.9810848, 4.4954302 51.981102, 4.4953665 51.9811159, 4.4953217 51.9811304), (4.4953217 51.9811304, 4.4952887 51.9811467, 4.4952548 51.9811727, 4.495234 51.9811917, 4.4951802 51.9812312), (4.4951802 51.9812312, 4.495143 51.9812865, 4.494895 51.9816249), (4.494895 51.9816249, 4.4946711 51.9818096, 4.4943429 51.9820067, 4.4939941 51.9821831, 4.4935324 51.9824488, 4.4930508 51.9826908), (4.4930508 51.9826908, 4.4925487 51.9829295), (4.4925487 51.9829295, 4.4920766 51.9831637, 4.4920452 51.9831798), (4.4920452 51.9831798, 4.4920115 51.9831936, 4.491994 51.9832093, 4.4919879 51.9832343, 4.4919838 51.9832761, 4.4919628 51.9833184, 4.4919358 51.9833433, 4.4918917 51.9833633, 4.4918477 51.9833749, 4.4917903 51.9833871, 4.4917073 51.9833865, 4.4916495 51.9833753, 4.4915955 51.9833592, 4.4915571 51.9833392, 4.4915229 51.9833147, 4.491504 51.9832947, 4.4914841 51.9832664), (4.4914841 51.9832664, 4.4914715 51.9832208, 4.4914804 51.9831786, 4.4914932 51.9831401, 4.4915216 51.9831069, 4.4915756 51.9830753, 4.4916293 51.9830541), (4.4916293 51.9830541, 4.4916858 51.9830372, 4.4917521 51.983031, 4.4918225 51.9830355), (4.4918225 51.9830355, 4.4918662 51.9830324, 4.4919124 51.983024, 4.4919709 51.9830095, 4.4921982 51.9828927, 4.4922841 51.9828834), (4.4922841 51.9828834, 4.4925307 51.9827731, 4.492717 51.9826819, 4.4933681 51.9823776), (4.4933681 51.9823776, 4.4937246 51.9822065, 4.4939455 51.982087), (4.4939455 51.982087, 4.4943416 51.9818815), (4.4943416 51.9818815, 4.4946096 51.9817104, 4.4947053 51.9816317), (4.4947053 51.9816317, 4.4949342 51.9813468, 4.4949935 51.9812586, 4.495027 51.9812063), (4.495027 51.9812063, 4.4950251 51.9811519, 4.4950562 51.9810895, 4.4950675 51.9810529, 4.4950704 51.9810324), (4.4950704 51.9810324, 4.4950359 51.9810099, 4.4950124 51.9809837, 4.4949949 51.9809538, 4.4949874 51.9809271, 4.4949864 51.9808948, 4.494993 51.9808638, 4.4950048 51.9808402, 4.4950209 51.9808164), (4.4950209 51.9808164, 4.4950628 51.9807787), (4.4950628 51.9807787, 4.4950958 51.9807592, 4.4951392 51.98074, 4.4951784 51.9807287, 4.4952364 51.9807156, 4.4952708 51.9807023), (4.4952708 51.9807023, 4.4952972 51.980686, 4.4953194 51.9806662, 4.4953467 51.9806369, 4.4953987 51.9806041), (4.4953987 51.9806041, 4.4957071 51.9801924), (4.4957071 51.9801924, 4.4959618 51.9797979), (4.4959618 51.9797979, 4.4960434 51.9796992, 4.496125 51.9796139, 4.4962543 51.9795086, 4.4964098 51.9794157, 4.4966192 51.979337, 4.4968071 51.9792848, 4.4970289 51.9792408, 4.4973611 51.9791933), (4.4973611 51.9791933, 4.4973838 51.9791499, 4.4974295 51.9791141, 4.4974926 51.9790903), (4.4974926 51.9790903, 4.4975183 51.979005, 4.4975434 51.9788928), (4.4971464 51.97733, 4.4972527 51.9777293, 4.4973309 51.9780316, 4.4974101 51.9783281, 4.4974343 51.9784326, 4.4974892 51.9786302, 4.4975434 51.9788928), (4.4971464 51.97733, 4.4970989 51.9772726, 4.4970161 51.9770078, 4.4969971 51.9769273, 4.496978 51.9768026, 4.4969771 51.9767714, 4.4969636 51.9765714), (4.4961024 51.9727832, 4.4961015 51.9728668, 4.4961753 51.9732404, 4.4962275 51.9734478, 4.4962658 51.9736254, 4.4962957 51.9737643, 4.4964149 51.9742908, 4.4964342 51.9743737, 4.4965369 51.9748032, 4.4967156 51.9755394, 4.4968832 51.9762228, 4.4969636 51.9765714), (4.5002492 51.9716854, 4.5000576 51.9717267, 4.4991401 51.9719458, 4.4986637 51.9720492, 4.4978453 51.9721916, 4.4974265 51.972249, 4.4971525 51.9722888, 4.4968884 51.9723447, 4.4967243 51.9724122, 4.4966652 51.9724535, 4.4966061 51.9724848, 4.4965057 51.9725279, 4.4963063 51.9725859, 4.4962111 51.9726272, 4.4961615 51.9726636, 4.4961239 51.9727032, 4.4961024 51.9727832), (4.5002492 51.9716854, 4.5006153 51.9715763, 4.5007253 51.9715276, 4.5008031 51.9714763, 4.500854 51.9714309, 4.5008808 51.971364, 4.5008808 51.9713086, 4.5008607 51.9712359, 4.5008167 51.9711788, 4.5007588 51.9711137, 4.5003953 51.9707444, 4.5003323 51.9707063, 4.5002371 51.9706675, 4.5001003 51.9706435, 4.4999917 51.970646, 4.4997985 51.9706948, 4.4987686 51.9709939, 4.4986198 51.9710302, 4.4985129 51.9710358, 4.4984065 51.9710261, 4.4983207 51.9710046, 4.498179 51.9709504), (4.4980914 51.9708919, 4.498179 51.9709504), (4.4980914 51.9708919, 4.4979445 51.9707883, 4.4977968 51.9706942, 4.4977041 51.9706575, 4.4975943 51.9706413, 4.4974944 51.9706426, 4.4973708 51.9706611, 4.4972171 51.9707193, 4.4967275 51.9709371, 4.4965149 51.9710201, 4.4962909 51.9710584, 4.4961467 51.9710591, 4.496014 51.9710393, 4.4958913 51.9709862, 4.4957954 51.9709021), (4.4954332 51.9676581, 4.4954411 51.9678838, 4.4954521 51.9684068, 4.4954713 51.9688019, 4.4954917 51.9691899, 4.4955033 51.9693673, 4.495566 51.969827, 4.4956524 51.9703215, 4.4957124 51.970642, 4.4957325 51.9707772, 4.4957618 51.9708617, 4.4957954 51.9709021), (4.4954332 51.9676581, 4.4953896 51.9674814, 4.4953862 51.9674263, 4.4953845 51.9673797, 4.4954163 51.9671868), (4.4955663 51.9640734, 4.4955623 51.9641835, 4.4955559 51.9642203, 4.4955452 51.9642812, 4.4955337 51.9644234, 4.4955123 51.9646891, 4.4954676 51.9652903, 4.4954032 51.9664572, 4.4954062 51.9669155, 4.4954163 51.9671868), (4.495412 51.9638569, 4.4955136 51.9639566, 4.4955663 51.9640734), (4.4953332 51.9638076, 4.495412 51.9638569), (4.4951771 51.9637166, 4.4953332 51.9638076), (4.4951771 51.9637166, 4.4954081 51.963595, 4.4956621 51.9634612, 4.4959179 51.9633575), (4.4959179 51.9633575, 4.4958561 51.9632692, 4.4957541 51.9631117, 4.4957229 51.9630449, 4.4957171 51.9630004, 4.4957258 51.9629538), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4947256 51.9588903, 4.4945035 51.9589287, 4.4944445 51.9589371, 4.494325 51.958957, 4.4941102 51.9590205, 4.4938361 51.9591313, 4.4935002 51.9592896, 4.4933364 51.9593655, 4.4931854 51.9594332, 4.4926965 51.9596564, 4.4914524 51.9602241, 4.4912643 51.9602903, 4.4911922 51.9603044, 4.4910264 51.9603364), (4.4910264 51.9603364, 4.4910421 51.9604157, 4.4910459 51.9604351), (4.4910459 51.9604351, 4.4910507 51.9604705, 4.4910534 51.9604924, 4.4910854 51.9607568, 4.4910739 51.961431, 4.4910719 51.961555), (4.4897511 51.9615623, 4.4900178 51.9615474, 4.4903622 51.9615531, 4.4905097 51.9615526, 4.490683 51.9615525, 4.4910719 51.961555), (4.48713 51.9615821, 4.4871915 51.9615415, 4.4874932 51.961539, 4.488508 51.9615501, 4.4885688 51.9615506, 4.4894977 51.961557, 4.4897511 51.9615623), (4.48713 51.9615821, 4.4871272 51.9619825, 4.4871292 51.9620547, 4.4871247 51.9622869, 4.4871104 51.9627074, 4.4869815 51.9627937, 4.486992 51.9631635, 4.4869885 51.9634249), (4.4869885 51.9634249, 4.485925 51.9636442, 4.4858047 51.963669, 4.4856888 51.9636914, 4.485437 51.9637432, 4.4852684 51.9637795, 4.4849452 51.9638462), (4.4849452 51.9638462, 4.4848236 51.9638723), (4.4848236 51.9638723, 4.4846916 51.9639001), (4.4846916 51.9639001, 4.484572 51.9636895, 4.4830747 51.9609292, 4.482798 51.9605113, 4.4827659 51.9604692), (4.4827659 51.9604692, 4.4826988 51.9603784), (4.4826988 51.9603784, 4.4826396 51.9603727, 4.4825866 51.9603556), (4.4825866 51.9603556, 4.4824278 51.9603887, 4.4823707 51.9604014, 4.4821664 51.960447, 4.4819445 51.9604698), (4.4819445 51.9604698, 4.4818827 51.9604906, 4.481745 51.960534, 4.4813992 51.960639, 4.480526 51.9610628, 4.4803729 51.9611376, 4.4801984 51.9612308), (4.4801984 51.9612308, 4.4800966 51.9612777), (4.4800966 51.9612777, 4.4799524 51.9613537, 4.4793479 51.9616521, 4.4790786 51.9617758, 4.4787651 51.9619302), (4.4787651 51.9619302, 4.4783882 51.962113, 4.4782329 51.9621894, 4.4780393 51.9622869), (4.4780393 51.9622869, 4.4775142 51.9625512, 4.4768852 51.9628544, 4.4767266 51.962937, 4.4759319 51.9633184, 4.4751352 51.9637155), (4.4751352 51.9637155, 4.4747088 51.9639143), (4.4747088 51.9639143, 4.474607 51.963973, 4.4744308 51.9640625), (4.4744308 51.9640625, 4.474373 51.9640176, 4.4742847 51.963949, 4.4741045 51.9638091, 4.4733156 51.9631965, 4.4726725 51.9626971, 4.4724536 51.9625271, 4.47179 51.9620118, 4.4715589 51.961837, 4.4714528 51.9617877), (4.4714528 51.9617877, 4.4713632 51.9617284, 4.4711428 51.9615583, 4.4705699 51.9611146, 4.4699648 51.9606445, 4.4696856 51.9604286, 4.4696653 51.9604127, 4.4695668 51.960338, 4.4694908 51.9602785, 4.4693497 51.9601669, 4.4686232 51.9596049, 4.468084 51.9591884, 4.4679294 51.9590693, 4.4678558 51.95901, 4.4677917 51.9589409, 4.4677461 51.9588596, 4.4677132 51.9587639, 4.4676851 51.9586616), (4.4676851 51.9586616, 4.4678085 51.9584593, 4.468 51.9582), (4.468 51.9582, 4.4681407 51.9579625, 4.4681736 51.9579101, 4.4681811 51.9578518, 4.4681859 51.9577</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>384205</t>
+          <t>2014244</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1362,17 +1362,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rotterdam, Rotterdam Centraal</t>
+          <t>Delft, Station Delft</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bus 33: Rotterdam Meijersplein =&gt; Rotterdam Centraal</t>
+          <t>Bus 174: Rotterdam Station Noord =&gt; Delft Station Delft</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1383,14 +1383,14 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4618241 51.9558838, 4.4618262 51.9560254, 4.4615584 51.9560291), (4.4615584 51.9560291, 4.4613079 51.9560494), (4.4613079 51.9560494, 4.4610887 51.9560695, 4.4610389 51.9560739, 4.4607064 51.9561107), (4.4607064 51.9561107, 4.4605362 51.9561246, 4.460354 51.9561374, 4.4601555 51.956144, 4.4598425 51.9561476, 4.4595355 51.9561274, 4.4591285 51.9560665, 4.4587129 51.9559749, 4.4584079 51.9558844, 4.4581201 51.9557834, 4.4578513 51.955673, 4.4574627 51.955521), (4.4574627 51.955521, 4.4569472 51.9553024, 4.4568275 51.955244), (4.4568275 51.955244, 4.4567804 51.9552617, 4.4567272 51.9552708, 4.456672 51.9552705, 4.4566004 51.9552549, 4.4565434 51.9552239, 4.4565165 51.9551947, 4.4565034 51.9551621, 4.4565051 51.9551286), (4.4565051 51.9551286, 4.4563744 51.95508, 4.4534401 51.9539218, 4.4516951 51.9532227, 4.451483 51.953138, 4.4512332 51.9530341, 4.4495747 51.9523709, 4.4493839 51.9522935, 4.4491454 51.9521967, 4.4489772 51.9521285, 4.4472472 51.9514422, 4.4471272 51.9514046, 4.4469422 51.9513599, 4.4467027 51.9513135, 4.4464252 51.9512624, 4.4461991 51.9512218, 4.4459702 51.9511654, 4.4457671 51.9510948, 4.4453609 51.9509249, 4.4450895 51.9508128, 4.4448168 51.9507151, 4.4446224 51.9506349, 4.4437093 51.9502585, 4.4434446 51.950161, 4.4428547 51.9499239, 4.4426127 51.9498244), (4.4426127 51.9498244, 4.4423971 51.9497392, 4.4419723 51.9495678, 4.4413515 51.9493185, 4.4406504 51.9490373, 4.4403447 51.9489104, 4.4393773 51.9485301, 4.4383207 51.9481043, 4.436197 51.9472495), (4.4360644 51.9471776, 4.436197 51.9472495), (4.4354898 51.9468744, 4.4356587 51.9469442, 4.4357405 51.9469801, 4.4358081 51.9470116, 4.4360644 51.9471776), (4.4354898 51.9468744, 4.4352169 51.947135, 4.4349689 51.9473593, 4.4345769 51.9477386, 4.4344403 51.9478715, 4.4343857 51.9479098, 4.4343204 51.9479194), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4343662 51.9480889, 4.4341057 51.9483329), (4.4341057 51.9483329, 4.4340219 51.9484187, 4.4341344 51.9484616, 4.4342488 51.9485052, 4.4344685 51.9482988, 4.4345971 51.9481812, 4.4344709 51.9481307, 4.4343662 51.9480889), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4343204 51.9479194, 4.4342574 51.9479127, 4.4341994 51.9478905, 4.4341173 51.9478611), (4.4341173 51.9478611, 4.4338518 51.947754, 4.4337819 51.9477182, 4.4337736 51.9476726, 4.4338075 51.9476191, 4.4338882 51.9475437, 4.4339526 51.9474861, 4.4342499 51.947197, 4.4342584 51.9471587, 4.4342457 51.9471155), (4.4342457 51.9471155, 4.4341641 51.9471017, 4.4340468 51.9470552, 4.4335047 51.9468441, 4.4334066 51.9468337, 4.4333193 51.9468732, 4.4327997 51.9473721, 4.4325994 51.9475644, 4.4324511 51.9476979, 4.4323644 51.9477226, 4.4322494 51.9477432), (4.4319937 51.9479307, 4.4320703 51.9478608, 4.4321445 51.9477899, 4.4322494 51.9477432), (4.4319937 51.9479307, 4.4319522 51.9480133, 4.4317944 51.9481706, 4.4316891 51.9482686, 4.4316022 51.9483517, 4.4315724 51.9483798, 4.4313981 51.9485644, 4.4312553 51.9486279), (4.4312553 51.9486279, 4.4308656 51.9484738, 4.430342 51.9482638, 4.4293338 51.9478645, 4.4289708 51.9477208, 4.428875 51.9476828, 4.4280484 51.9473447, 4.427894 51.9472899, 4.4277708 51.947269, 4.4276225 51.9472664, 4.4274982 51.9472656, 4.4273937 51.9472617, 4.4272408 51.9472408, 4.4270474 51.9471994), (4.4272293 51.9470335, 4.4270474 51.9471994), (4.427835 51.946454, 4.4275916 51.9466871, 4.4272293 51.9470335), (4.4279738 51.9462455, 4.4279857 51.9462741, 4.4279787 51.9462985, 4.4279698 51.9463297, 4.427835 51.946454), (4.4281995 51.9461472, 4.4281208 51.9461732, 4.4280623 51.9462006, 4.4279738 51.9462455), (4.4286439 51.9456801, 4.4285283 51.9457883, 4.4282472 51.9460534, 4.4281995 51.9461472), (4.4286439 51.9456801, 4.4285466 51.9456407, 4.42782 51.9453466, 4.4268023 51.9449347), (4.4287395 51.9436466, 4.4286722 51.9436613, 4.4281306 51.9437795, 4.4279322 51.9438401, 4.4277604 51.9439169, 4.4276079 51.9440122, 4.4274919 51.9441221, 4.4268023 51.9449347), (4.4286645 51.9435243, 4.4287395 51.9436466), (4.4286207 51.9434486, 4.4286645 51.9435243), (4.4273687 51.94265, 4.4274223 51.9426791, 4.427576 51.9427625, 4.4282261 51.9430312, 4.4284061 51.9431014, 4.4285801 51.9433772, 4.4286207 51.9434486), (4.4265905 51.9422968, 4.4270831 51.9424925, 4.4271587 51.9425311, 4.4273687 51.94265), (4.4265905 51.9422968, 4.426377 51.9422429, 4.4262418 51.9422063), (4.4262418 51.9422063, 4.4262714 51.9421477, 4.4263635 51.9420777), (4.4263635 51.9420777, 4.4265105 51.94195, 4.4267456 51.9417457), (4.4267456 51.9417457, 4.4268024 51.9416963), (4.4268024 51.9416963, 4.4264239 51.9415321, 4.426335 51.9414608), (4.4259391 51.9413077, 4.4260777 51.94136, 4.4261838 51.9414016, 4.426335 51.9414608), (4.4237287 51.9404329, 4.4240357 51.9405534, 4.4244828 51.9407398, 4.4250175 51.9409499, 4.4258131 51.941257, 4.4259391 51.9413077), (4.4236089 51.9403468, 4.4236464 51.9403938, 4.4236976 51.9404188, 4.4237287 51.9404329), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236035 51.9402878, 4.4236137 51.9402478, 4.4236637 51.9402051, 4.4237385 51.9401662), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4270683 51.9370452, 4.426373 51.9376912), (4.4270683 51.9370452, 4.427082 51.9369986, 4.4271667 51.9368991, 4.4272147 51.9368427, 4.4272501 51.9368031), (4.4272501 51.9368031, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272706 51.9366729, 4.4272911 51.9366554, 4.4273173 51.936641, 4.4273663 51.9366265, 4.4274203 51.9366231, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4285341 51.9340136, 4.4285033 51.9341141, 4.4284473 51.9342692, 4.4281597 51.9350008, 4.4281072 51.9351304), (4.432242 51.9319085, 4.432135 51.9319679, 4.4317837 51.9321628, 4.4314893 51.9323241, 4.4313921 51.9323759, 4.431275 51.9324277, 4.4310585 51.9325147, 4.430748 51.9326194, 4.4305829 51.932679, 4.4294235 51.9330973, 4.4290224 51.9332532, 4.4288567 51.9333275, 4.4287739 51.9333936, 4.4287545 51.9334365, 4.4287209 51.9335246, 4.4286269 51.9337708, 4.4285694 51.9339213, 4.4285341 51.9340136), (4.4330711 51.9314425, 4.432337 51.9318543, 4.432242 51.9319085), (4.4330711 51.9314425, 4.4331351 51.9313815, 4.4332696 51.9312955, 4.4333682 51.9312404, 4.4334446 51.931197, 4.4336887 51.9310632, 4.4338594 51.930983, 4.4341974 51.9308369, 4.4342483 51.9308149, 4.4342928 51.9307957, 4.4343593 51.930771), (4.4343593 51.930771, 4.4343578 51.9307296, 4.4343782 51.9306901, 4.4344182 51.9306569, 4.4344735 51.9306334), (4.4344735 51.9306334, 4.4345296 51.9306229, 4.4345883 51.9306227, 4.4346446 51.9306327, 4.4346858 51.930648, 4.4347201 51.9306689, 4.4347455 51.9306941, 4.4347607 51.9307223), (4.4347607 51.9307223, 4.4348329 51.9307713, 4.4348822 51.9307965, 4.434938 51.9308121, 4.4351093 51.93086, 4.4361214 51.9310013, 4.4366914 51.9310783, 4.4369013 51.9311042, 4.4370328 51.9311144, 4.4373609 51.9311337, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411748 51.9298744, 4.4413655 51.9298059), (4.4413655 51.9298059, 4.4415222 51.9297594, 4.4417071 51.9297127), (4.4417071 51.9297127, 4.4417842 51.9296966, 4.4420381 51.9296437, 4.4421633 51.9296299, 4.442924 51.9295461, 4.4432197 51.9295176, 4.4436136 51.9294796, 4.4440253 51.9294401, 4.4443073 51.9294184, 4.4445478 51.9294001, 4.4474544 51.9290982, 4.4476899 51.9290793, 4.4479408 51.929063, 4.4482372 51.9290547, 4.4486326 51.929048, 4.4489235 51.9290776), (4.4489235 51.9290776, 4.451483 51.928758, 4.4518455 51.9287187, 4.4521984 51.9286924, 4.4525874 51.9286841, 4.453014 51.9287007, 4.4534101 51.928726, 4.4537858 51.9287652, 4.454069 51.9288139, 4.4543227 51.9288638, 4.4545912 51.9289339, 4.4546806 51.9289573, 4.4548902 51.9290061), (4.4548902 51.9290061, 4.4550004 51.929042, 4.4550285 51.9290505, 4.4550901 51.9290671, 4.4551369 51.92908), (4.4551369 51.92908, 4.4552782 51.9291252, 4.455322 51.92914, 4.4558103 51.9293057, 4.4559957 51.9293676, 4.4566856 51.929577), (4.4566856 51.929577, 4.4582187 51.9300752, 4.4583316 51.9301119, 4.4584932 51.9301628), (4.4584932 51.9301628, 4.458545 51.9301021, 4.4588119 51.929784, 4.4591557 51.9293752, 4.4594065 51.9290855), (4.4594065 51.9290855, 4.4594334 51.9290538), (4.4594334 51.9290538, 4.4601822 51.9281608, 4.4609108 51.9272917, 4.4610122 51.9271469, 4.4610742 51.9270027), (4.4610742 51.9270027, 4.4612677 51.9265761, 4.4613066 51.9264892, 4.461349 51.9263877), (4.461349 51.9263877, 4.4613778 51.9263181, 4.4613899 51.9262895, 4.4613975 51.9262694, 4.4614198 51.9262164), (4.4614198 51.9262164, 4.4614538 51.9261322, 4.4615729 51.9258742, 4.4616146 51.9257729), (4.4616146 51.9257729, 4.4617251 51.9255311), (4.4617251 51.9255311, 4.4617315 51.9253463, 4.461795 51.9251081), (4.461795 51.9251081, 4.4620129 51.9243544), (4.4620129 51.9243544, 4.4623025 51.9233666), (4.4623025 51.9233666, 4.4624397 51.9229588), (4.4624397 51.9229588, 4.4625063 51.9227482, 4.4625424 51.9226622, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825))</t>
+          <t>MULTILINESTRING ((4.4813935 51.941748, 4.4813314 51.9419118, 4.4813558 51.941945, 4.4814209 51.9419694, 4.4815096 51.9419788, 4.481581 51.9419607, 4.4816095 51.9419281, 4.4816789 51.9417666, 4.4817797 51.9414578, 4.4814951 51.9414329), (4.480616 51.9413643, 4.4814951 51.9414329), (4.480616 51.9413643, 4.4804787 51.9413853, 4.4803345 51.9414021, 4.4802377 51.9414509, 4.4801813 51.9414816), (4.4801813 51.9414816, 4.4802986 51.9415635, 4.4804532 51.9416839, 4.4806353 51.9418258), (4.4806353 51.9418258, 4.4807524 51.94195, 4.4810792 51.9423961), (4.4810792 51.9423961, 4.4812448 51.9426017, 4.4812703 51.9426404, 4.4813131 51.9427053, 4.4813138 51.942748), (4.4813897 51.9428247, 4.4813555 51.9427901, 4.4813138 51.942748), (4.4813897 51.9428247, 4.4814383 51.9428843, 4.4815631 51.9430218), (4.4815631 51.9430218, 4.4816142 51.9430782, 4.4817293 51.943237, 4.4819953 51.9436335, 4.4820566 51.943731, 4.4821291 51.9438465, 4.4824428 51.9443158), (4.4824428 51.9443158, 4.4825407 51.9444279, 4.4827063 51.9446175, 4.4827625 51.9446875, 4.4827806 51.9447102, 4.4828101 51.944769, 4.4828347 51.9448179), (4.4828347 51.9448179, 4.4827924 51.9448266, 4.482754 51.9448356, 4.4826988 51.944848), (4.4826988 51.944848, 4.4825871 51.944873, 4.4825182 51.9448884, 4.4823448 51.9449106, 4.4818519 51.9449682, 4.4812236 51.9450368, 4.4809328 51.9450716, 4.4808488 51.9450815, 4.4803019 51.9451399, 4.4801595 51.945156, 4.4801351 51.9451588, 4.4790704 51.9452794, 4.4781022 51.9453857, 4.4779668 51.9453999), (4.4779668 51.9453999, 4.4778303 51.9454327, 4.47778 51.9454403, 4.477712 51.9454447, 4.4776131 51.9454394, 4.4775288 51.9454228, 4.477415 51.9453947), (4.477415 51.9453947, 4.4773415 51.9453881, 4.4767811 51.9453476, 4.4762416 51.9453216, 4.4761529 51.9453185, 4.4759623 51.9453128), (4.4759623 51.9453128, 4.4758806 51.9453227, 4.4757415 51.945338, 4.4754206 51.9453496, 4.4751828 51.9453637), (4.4751828 51.9453637, 4.4746089 51.9453944, 4.474525 51.9453946, 4.4744396 51.9453948, 4.4743637 51.9453929), (4.4743637 51.9453929, 4.4743669 51.945474, 4.4743141 51.9455834), (4.4743141 51.9455834, 4.4742225 51.9460215), (4.4742225 51.9460215, 4.4742204 51.946177, 4.4742181 51.9463465), (4.4742181 51.9463465, 4.4742212 51.9464449, 4.4742223 51.9464814, 4.4742247 51.9465553, 4.4742137 51.9467044), (4.4742137 51.9467044, 4.4742313 51.9467483, 4.4748804 51.9483275, 4.4750004 51.9486179), (4.4750004 51.9486179, 4.4750697 51.9487206, 4.4750736 51.9488339, 4.4750211 51.9489553, 4.4749412 51.9490543, 4.4748507 51.9491163), (4.4748507 51.9491163, 4.4747347 51.9491597, 4.4744511 51.9492319, 4.4724441 51.9495501), (4.4724441 51.9495501, 4.4722236 51.9495855, 4.4721214 51.9496012, 4.4712745 51.9497315, 4.4711276 51.9497567, 4.4708872 51.9497798), (4.4708872 51.9497798, 4.4709069 51.9498969, 4.470883 51.9500045, 4.470725 51.9502601), (4.470725 51.9502601, 4.4704577 51.9507442, 4.470402 51.9508451), (4.470402 51.9508451, 4.4703107 51.9510147, 4.4701238 51.9513108, 4.4699545 51.9515844, 4.469784 51.9518459, 4.4696945 51.9520686, 4.469386 51.9525648, 4.4686399 51.953867, 4.4685887 51.9539497, 4.4685672 51.9539905), (4.4685672 51.9539905, 4.468504 51.9541022, 4.4684566 51.9541861, 4.4684043 51.9542715, 4.4683032 51.954431), (4.4683032 51.954431, 4.4681905 51.9544089, 4.468116 51.9543855), (4.468116 51.9543855, 4.4670979 51.9541577, 4.4661587 51.9539462, 4.4658518 51.9538771, 4.464732 51.9536516, 4.4645 51.9536), (4.4647572 51.9531557, 4.4646279 51.9533791, 4.4645905 51.9534436, 4.4645 51.9536), (4.4647572 51.9531557, 4.4683727 51.9539508), (4.4683727 51.9539508, 4.4684445 51.9539665, 4.4685672 51.9539905), (4.4685672 51.9539905, 4.468504 51.9541022, 4.4684566 51.9541861, 4.4684043 51.9542715, 4.4683032 51.954431), (4.4683032 51.954431, 4.467476 51.9558769, 4.4672232 51.9563173, 4.4671981 51.956416), (4.4671981 51.956416, 4.4671822 51.9565116, 4.4671822 51.9566051, 4.4671968 51.9566508, 4.4672196 51.956722, 4.4672278 51.9567478, 4.4672903 51.9568594, 4.467397 51.9569706, 4.4680629 51.9574963), (4.4680629 51.9574963, 4.4681846 51.9575637), (4.4681846 51.9575637, 4.4683059 51.9576698), (4.4683059 51.9576698, 4.4683462 51.9577346), (4.4683462 51.9577346, 4.4683573 51.9577851, 4.4683573 51.9578788, 4.4683109 51.9579628), (4.4683109 51.9579628, 4.4679177 51.9584885, 4.4678926 51.958553, 4.4678584 51.9586325, 4.4679159 51.95864, 4.468 51.9587, 4.4684216 51.9590256, 4.4689399 51.9594256, 4.4694545 51.9598513, 4.4699547 51.9602468, 4.470203 51.9604439, 4.4702841 51.9605108, 4.470885 51.9609722, 4.4715877 51.9615163, 4.4717023 51.9616104, 4.4717249 51.9616302, 4.4717726 51.9616668, 4.4718226 51.9617145, 4.4723621 51.9621207, 4.4727903 51.9624462, 4.4729563 51.9625613, 4.4735656 51.9630413, 4.4741014 51.9634575, 4.4745749 51.9638085, 4.4747088 51.9639143), (4.4751352 51.9637155, 4.4747088 51.9639143), (4.4780393 51.9622869, 4.4775142 51.9625512, 4.4768852 51.9628544, 4.4767266 51.962937, 4.4759319 51.9633184, 4.4751352 51.9637155), (4.4787651 51.9619302, 4.4783882 51.962113, 4.4782329 51.9621894, 4.4780393 51.9622869), (4.4800966 51.9612777, 4.4799524 51.9613537, 4.4793479 51.9616521, 4.4790786 51.9617758, 4.4787651 51.9619302), (4.4801984 51.9612308, 4.4800966 51.9612777), (4.4819445 51.9604698, 4.4818827 51.9604906, 4.481745 51.960534, 4.4813992 51.960639, 4.480526 51.9610628, 4.4803729 51.9611376, 4.4801984 51.9612308), (4.4819445 51.9604698, 4.4821229 51.9603849, 4.482319 51.9603192, 4.4823665 51.9603033, 4.4825139 51.9602582), (4.4825139 51.9602582, 4.4825318 51.9602154, 4.4825721 51.9601823), (4.4825721 51.9601823, 4.4826206 51.9601625, 4.4826919 51.9601523), (4.4826919 51.9601523, 4.482766 51.9601602, 4.4828239 51.9601806), (4.4828239 51.9601806, 4.4828454 51.9601988, 4.4828738 51.9602351, 4.4828798 51.9602752), (4.4828798 51.9602752, 4.4828666 51.9603086, 4.4828376 51.960338), (4.4828376 51.960338, 4.4829107 51.9604259), (4.4829107 51.9604259, 4.4829466 51.9604709, 4.4831758 51.9609149, 4.4847035 51.9636655, 4.4848236 51.9638723), (4.4849452 51.9638462, 4.4848236 51.9638723), (4.4869885 51.9634249, 4.485925 51.9636442, 4.4858047 51.963669, 4.4856888 51.9636914, 4.485437 51.9637432, 4.4852684 51.9637795, 4.4849452 51.9638462), (4.48713 51.9615821, 4.4871272 51.9619825, 4.4871292 51.9620547, 4.4871247 51.9622869, 4.4871104 51.9627074, 4.4869815 51.9627937, 4.486992 51.9631635, 4.4869885 51.9634249), (4.48713 51.9615821, 4.4871915 51.9615415, 4.4874932 51.961539, 4.488508 51.9615501, 4.4885688 51.9615506, 4.4894977 51.961557, 4.4897511 51.9615623), (4.4897511 51.9615623, 4.4900178 51.9615474, 4.4903622 51.9615531, 4.4905097 51.9615526, 4.490683 51.9615525, 4.4910719 51.961555), (4.4910459 51.9604351, 4.4910507 51.9604705, 4.4910534 51.9604924, 4.4910854 51.9607568, 4.4910739 51.961431, 4.4910719 51.961555), (4.4910264 51.9603364, 4.4910421 51.9604157, 4.4910459 51.9604351), (4.4909839 51.9602607, 4.4910264 51.9603364), (4.4909839 51.9602607, 4.4911408 51.9602268, 4.4914118 51.9601614, 4.4926451 51.9596135, 4.4927862 51.9595491), (4.4927862 51.9595491, 4.4931374 51.9593884, 4.4932486 51.9593394), (4.4932486 51.9593394, 4.4934496 51.9592457, 4.4937927 51.9590891, 4.49417 51.9589289, 4.4943728 51.9588738, 4.4944196 51.9588654, 4.4944834 51.9588498, 4.4947057 51.9588168), (4.4947057 51.9588168, 4.4947256 51.9588903), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4957258 51.9629538, 4.495903 51.9631354, 4.4959833 51.9632024, 4.496087 51.963289), (4.496087 51.963289, 4.496117 51.9634024), (4.496117 51.9634024, 4.4957391 51.9635933, 4.4955507 51.9636928, 4.4953332 51.9638076), (4.4953332 51.9638076, 4.495412 51.9638569), (4.495412 51.9638569, 4.4955136 51.9639566, 4.4955663 51.9640734), (4.4955663 51.9640734, 4.4955623 51.9641835, 4.4955559 51.9642203, 4.4955452 51.9642812, 4.4955337 51.9644234, 4.4955123 51.9646891, 4.4954676 51.9652903, 4.4954032 51.9664572, 4.4954062 51.9669155, 4.4954163 51.9671868), (4.4954163 51.9671868, 4.4954701 51.9673776, 4.4954786 51.9674259, 4.4954332 51.9676581), (4.4954332 51.9676581, 4.4954411 51.9678838, 4.4954521 51.9684068, 4.4954713 51.9688019, 4.4954917 51.9691899, 4.4955033 51.9693673, 4.495566 51.969827, 4.4956524 51.9703215, 4.4957124 51.970642, 4.4957325 51.9707772, 4.4957618 51.9708617, 4.4957954 51.9709021), (4.4980914 51.9708919, 4.4979445 51.9707883, 4.4977968 51.9706942, 4.4977041 51.9706575, 4.4975943 51.9706413, 4.4974944 51.9706426, 4.4973708 51.9706611, 4.4972171 51.9707193, 4.4967275 51.9709371, 4.4965149 51.9710201, 4.4962909 51.9710584, 4.4961467 51.9710591, 4.496014 51.9710393, 4.4958913 51.9709862, 4.4957954 51.9709021), (4.4980914 51.9708919, 4.498179 51.9709504), (4.5002492 51.9716854, 4.5006153 51.9715763, 4.5007253 51.9715276, 4.5008031 51.9714763, 4.500854 51.9714309, 4.5008808 51.971364, 4.5008808 51.9713086, 4.5008607 51.9712359, 4.5008167 51.9711788, 4.5007588 51.9711137, 4.5003953 51.9707444, 4.5003323 51.9707063, 4.5002371 51.9706675, 4.5001003 51.9706435, 4.4999917 51.970646, 4.4997985 51.9706948, 4.4987686 51.9709939, 4.4986198 51.9710302, 4.4985129 51.9710358, 4.4984065 51.9710261, 4.4983207 51.9710046, 4.498179 51.9709504), (4.5002492 51.9716854, 4.5000576 51.9717267, 4.4991401 51.9719458, 4.4986637 51.9720492, 4.4978453 51.9721916, 4.4974265 51.972249, 4.4971525 51.9722888, 4.4968884 51.9723447, 4.4967243 51.9724122, 4.4966652 51.9724535, 4.4966061 51.9724848, 4.4965057 51.9725279, 4.4963063 51.9725859, 4.4962111 51.9726272, 4.4961615 51.9726636, 4.4961239 51.9727032, 4.4961024 51.9727832), (4.4961024 51.9727832, 4.4961015 51.9728668, 4.4961753 51.9732404, 4.4962275 51.9734478, 4.4962658 51.9736254, 4.4962957 51.9737643, 4.4964149 51.9742908, 4.4964342 51.9743737, 4.4965369 51.9748032, 4.4967156 51.9755394, 4.4968832 51.9762228, 4.4969636 51.9765714), (4.4969636 51.9765714, 4.4970732 51.9769171, 4.4970925 51.9770007, 4.4971205 51.977106, 4.4971638 51.9772691, 4.4971464 51.97733), (4.4971464 51.97733, 4.4972527 51.9777293, 4.4973309 51.9780316, 4.4974101 51.9783281, 4.4974343 51.9784326, 4.4974892 51.9786302, 4.4975434 51.9788928), (4.4975434 51.9788928, 4.4975988 51.9790169, 4.4976214 51.9790858), (4.4976214 51.9790858, 4.4976758 51.9790999, 4.4977216 51.9791227, 4.4977553 51.9791526, 4.4977759 51.9791944, 4.4977726 51.9792381, 4.4977449 51.9792794, 4.4976781 51.9793194, 4.4976329 51.9793329, 4.4975622 51.9793391, 4.4974926 51.9793304, 4.4974318 51.9793079, 4.4973867 51.9792741), (4.4973867 51.9792741, 4.4972433 51.9792886, 4.4969581 51.9793511), (4.4969581 51.9793511, 4.496759 51.979403, 4.4966031 51.9794605, 4.496456 51.9795285, 4.4963305 51.979602, 4.4962417 51.9796731, 4.4960809 51.9798434), (4.4960809 51.9798434, 4.4959152 51.9801102), (4.4959152 51.9801102, 4.4958148 51.980262), (4.4958148 51.980262, 4.4955737 51.9806261), (4.4955737 51.9806261, 4.4955571 51.9806924, 4.4955184 51.9807592, 4.4955094 51.9807813, 4.4955007 51.9808024), (4.4955007 51.9808024, 4.495526 51.9808141, 4.4955533 51.9808344, 4.4955745 51.9808565, 4.4955915 51.9808861, 4.4955991 51.9809085, 4.495606 51.98094), (4.495606 51.98094, 4.4955979 51.9809736, 4.4955887 51.9809951, 4.4955726 51.9810203), (4.4955726 51.9810203, 4.4955557 51.9810372, 4.4955317 51.9810547), (4.4955317 51.9810547, 4.4955102 51.9810681, 4.4954769 51.9810848, 4.4954302 51.981102, 4.4953665 51.9811159, 4.4953217 51.9811304), (4.4953217 51.9811304, 4.4952887 51.9811467, 4.4952548 51.9811727, 4.495234 51.9811917, 4.4951802 51.9812312), (4.4951802 51.9812312, 4.495143 51.9812865, 4.494895 51.9816249), (4.494895 51.9816249, 4.4946711 51.9818096, 4.4943429 51.9820067, 4.4939941 51.9821831, 4.4935324 51.9824488, 4.4930508 51.9826908), (4.4930508 51.9826908, 4.4925487 51.9829295), (4.4925487 51.9829295, 4.4920766 51.9831637, 4.4920452 51.9831798), (4.4920452 51.9831798, 4.4920115 51.9831936, 4.491994 51.9832093, 4.4919879 51.9832343, 4.4919838 51.9832761, 4.4919628 51.9833184, 4.4919358 51.9833433, 4.4918917 51.9833633, 4.4918477 51.9833749, 4.4917903 51.9833871, 4.4917073 51.9833865, 4.4916495 51.9833753, 4.4915955 51.9833592, 4.4915571 51.9833392, 4.4915229 51.9833147, 4.491504 51.9832947, 4.4914841 51.9832664), (4.4914841 51.9832664, 4.4914715 51.9832208, 4.4914804 51.9831786, 4.4914932 51.9831401, 4.4915216 51.9831069, 4.4915756 51.9830753, 4.4916293 51.9830541), (4.4916293 51.9830541, 4.4916858 51.9830372, 4.4917521 51.983031, 4.4918225 51.9830355), (4.4918225 51.9830355, 4.4918662 51.9830324, 4.4919124 51.983024, 4.4919709 51.9830095, 4.4921982 51.9828927, 4.4922841 51.9828834), (4.4922841 51.9828834, 4.4925307 51.9827731, 4.492717 51.9826819, 4.4933681 51.9823776), (4.4933681 51.9823776, 4.4937246 51.9822065, 4.4939455 51.982087), (4.4939455 51.982087, 4.4943416 51.9818815), (4.4943416 51.9818815, 4.4946096 51.9817104, 4.4947053 51.9816317), (4.4947053 51.9816317, 4.4949342 51.9813468, 4.4949935 51.9812586, 4.495027 51.9812063), (4.495027 51.9812063, 4.4950822 51.9811653, 4.4951166 51.9811098, 4.4951322 51.9810813, 4.4951382 51.9810579), (4.4951382 51.9810579, 4.4951406 51.981041, 4.4951383 51.9810256, 4.4951274 51.9810041, 4.4951048 51.9809805, 4.4950708 51.9809527, 4.4950572 51.9809219, 4.4950529 51.9808928, 4.4950642 51.9808612, 4.4950892 51.9808257, 4.4951152 51.9808063, 4.4951515 51.9807877, 4.4952001 51.9807714, 4.4952571 51.9807618, 4.4953128 51.9807589, 4.4953741 51.980763, 4.4954246 51.9807746, 4.4954452 51.9807811), (4.4954452 51.9807811, 4.4954882 51.9807967, 4.4955007 51.9808024), (4.4955007 51.9808024, 4.495526 51.9808141, 4.4955533 51.9808344, 4.4955745 51.9808565, 4.4955915 51.9808861, 4.4955991 51.9809085, 4.495606 51.98094), (4.495606 51.98094, 4.4957042 51.9809727, 4.4957948 51.9809923, 4.4958629 51.9809985, 4.495981 51.9809749), (4.495981 51.9809749, 4.4960853 51.9809628, 4.49619 51.9809178, 4.4964133 51.9808257, 4.4965634 51.9808041), (4.4965634 51.9808041, 4.4970291 51.9806298, 4.4971787 51.9805925, 4.4973039 51.9805796, 4.4974478 51.9805795, 4.4976 51.9805982, 4.4977807 51.9806384, 4.4979379 51.9807144, 4.498042 51.980788, 4.4980823 51.9808423, 4.4981174 51.9808894), (4.4981174 51.9808894, 4.4981715 51.9810096, 4.4982053 51.9811134, 4.4984383 51.9821217, 4.4986538 51.9829816, 4.4987615 51.9834112, 4.4989318 51.9840177, 4.4989622 51.9841395, 4.4991534 51.9849077, 4.4992515 51.9853211, 4.4993081 51.9855413, 4.499362 51.9857965, 4.499392 51.9859064, 4.4993962 51.9859288, 4.4994133 51.9860023, 4.4994368 51.9860844, 4.499546 51.9864494, 4.4996045 51.9866583, 4.4996791 51.9869375), (4.4996791 51.9869375, 4.4998134 51.9874232), (4.4998134 51.9874232, 4.4998933 51.987699, 4.4999039 51.9877363), (4.4999039 51.9877363, 4.4999389 51.9878691, 4.499963 51.9879634, 4.4999657 51.987974, 4.5000026 51.9881061, 4.5000337 51.9882353, 4.5000893 51.9884995, 4.5001064 51.9886068, 4.5001201 51.9886931), (4.5001201 51.9886931, 4.5001937 51.9890499, 4.5002077 51.9891235), (4.5002077 51.9891235, 4.5002047 51.9891932, 4.500193 51.9893184, 4.500114 51.9896098, 4.5001076 51.9896569, 4.5000545 51.9897699), (4.5000545 51.9897699, 4.5000227 51.9897975, 4.4999537 51.9898508, 4.4998067 51.9899287), (4.4997193 51.9899727, 4.4998067 51.9899287), (4.4997193 51.9899727, 4.4993802 51.9901192, 4.4991798 51.9902124, 4.4989763 51.9903028, 4.4984151 51.9905956, 4.4981121 51.990745, 4.4979333 51.9908371, 4.4977338 51.9909353, 4.4969219 51.9913518, 4.4964086 51.9916209, 4.4962083 51.9917271, 4.4960082 51.9918288, 4.4957711 51.9919497, 4.494653 51.9925049, 4.4944611 51.9926006, 4.4942524 51.9927028, 4.4931971 51.9932268, 4.4931475 51.9932505), (4.4931475 51.9932505, 4.493191 51.9932955, 4.493198 51.9933394, 4.4931763 51.9933814, 4.4931295 51.9934148), (4.4931295 51.9934148, 4.4930838 51.9934304, 4.4930328 51.9934371, 4.4929808 51.9934345, 4.4929323 51.9934227, 4.4928914 51.9934026, 4.4928618 51.9933762), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911221 51.9939723, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4906338 51.9941019, 4.4905151 51.9941812, 4.4904075 51.994222, 4.490298 51.9942667), (4.490298 51.9942667, 4.4903113 51.9942925, 4.4903163 51.9943193, 4.4903129 51.9943462, 4.4903012 51.9943722, 4.4902817 51.9943964, 4.490255 51.9944178), (4.490255 51.9944178, 4.4902065 51.994442, 4.4901492 51.9944573, 4.4900995 51.9944622, 4.4900493 51.9944603, 4.4900009 51.9944517, 4.4899568 51.9944367), (4.4899568 51.9944367, 4.4898617 51.9944752, 4.4897415 51.9944962), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4893767 51.9946729, 4.489175 51.9947712), (4.489175 51.9947712, 4.4890171 51.9948481, 4.4885523 51.9950785, 4.4883067 51.9951999, 4.4872715 51.9957093, 4.4870317 51.9958274), (4.4870317 51.9958274, 4.4869027 51.9959241, 4.4866836 51.9960543, 4.4865238 51.9961937, 4.4864332 51.9963122, 4.4863911 51.9963897), (4.4863911 51.9963897, 4.4864291 51.9964203, 4.4864494 51.9964567, 4.4864498 51.9964952, 4.4864304 51.9965319, 4.4863932 51.9965628, 4.4863419 51.9965849), (4.4863419 51.9965849, 4.4863275 51.9966747, 4.4863398 51.9967429, 4.4863741 51.9968053, 4.4865055 51.9970004, 4.4865747 51.9971076, 4.4866087 51.9972193), (4.4866087 51.9972193, 4.4867064 51.9973671, 4.4868836 51.9976102, 4.4877534 51.9985069, 4.4879633 51.998718, 4.4881191 51.9988797, 4.4883429 51.9991121, 4.4886996 51.9994824, 4.488778 51.9995638, 4.489098 51.9998886, 4.4891516 51.9999445, 4.4894194 52.0002185, 4.4896256 52.0004241, 4.4903229 52.0011061, 4.4904195 52.0012101, 4.4907038 52.0014989, 4.4908325 52.0016296), (4.4908325 52.0016296, 4.4909394 52.0017495, 4.491241 52.0020485, 4.4913529 52.002184, 4.4914252 52.0023298, 4.4914711 52.0024423, 4.4914985 52.002546, 4.4915076 52.0026788, 4.4915035 52.0027773, 4.4914994 52.0030179, 4.4914897 52.0032121), (4.4914897 52.0032121, 4.4914883 52.0032885, 4.491485 52.0040297, 4.4914688 52.004192, 4.4914761 52.0042731, 4.4915084 52.004358, 4.4916607 52.0046465, 4.4918473 52.0049872, 4.4919153 52.0051213), (4.4919153 52.0051213, 4.4920522 52.0053727, 4.4921213 52.0055, 4.4921321 52.0055311, 4.4921389 52.0055689, 4.4921369 52.0056444, 4.4921235 52.0056959, 4.4921053 52.0057447), (4.4921053 52.0057447, 4.4920917 52.005766, 4.4920727 52.0057859, 4.4920314 52.0058186, 4.4919711 52.0058547, 4.4919147 52.0058799, 4.4918446 52.005904, 4.4916066 52.0059698, 4.4914316 52.0060064), (4.4914316 52.0060064, 4.4908613 52.0061234, 4.4903504 52.0062195, 4.4902322 52.0062382, 4.4900856 52.0062428, 4.4895604 52.0062371, 4.4893536 52.0062348, 4.4880591 52.0062199, 4.4862985 52.0062126, 4.4856745 52.0062143, 4.4853216 52.0062201), (4.4853216 52.0062201, 4.4852362 52.0062491, 4.4851406 52.0062654, 4.4850599 52.006279, 4.4849465 52.006273), (4.4849465 52.006273, 4.4848744 52.0062894, 4.4847222 52.0063235), (4.4846804 52.0062473, 4.4847222 52.0063235), (4.4846326 52.0061477, 4.4846804 52.0062473), (4.4845679 52.0048652, 4.4845576 52.0059411, 4.4845683 52.0059924, 4.4846326 52.0061477), (4.48462 52.0018028, 4.4846152 52.0027557, 4.4845933 52.0036271, 4.484584 52.0038032, 4.4845755 52.0040883, 4.4845679 52.0048652), (4.48462 52.0018028, 4.4841 52.0018, 4.4838128 52.0018195, 4.4833894 52.0018664, 4.482258 52.0020059), (4.482258 52.0020059, 4.4819645 52.0009823, 4.4819339 52.0008687, 4.4818251 52.0004813, 4.481809 52.0004014, 4.481602 51.9996075, 4.4813612 51.9986656), (4.4812538 51.9986642, 4.4813612 51.9986656), (4.481089 51.9986847, 4.4812538 51.9986642), (4.481089 51.9986847, 4.4807705 51.9987064, 4.4805147 51.9987126, 4.4792085 51.9987946, 4.4787004 51.9988266), (4.4787004 51.9988266, 4.4784196 51.9988442, 4.478308 51.9988512, 4.4782557 51.9988545), (4.4782557 51.9988545, 4.4779662 51.9988827, 4.4777682 51.9988954, 4.4776152 51.9988883, 4.4774841 51.9988717, 4.4773594 51.99884, 4.4772488 51.9987957, 4.4765423 51.9984923, 4.476401 51.9984293, 4.4762609 51.9983705, 4.4741 51.997462, 4.4740058 51.997417, 4.4738628 51.9973564, 4.4737265 51.9972999, 4.4734308 51.9971753, 4.4729533 51.996969, 4.471697 51.9964378, 4.4714684 51.9963422, 4.4713078 51.9962394, 4.471195 51.9961585, 4.4710568 51.9960779, 4.4696267 51.9953946), (4.4696267 51.9953946, 4.4694442 51.9953076, 4.4693906 51.995282, 4.4689452 51.9950717, 4.4684209 51.9948227, 4.4677017 51.9944783, 4.4673326 51.994306, 4.4667058 51.9940065, 4.4666158 51.993967, 4.4665051 51.993914, 4.4663172 51.9938239, 4.4662552 51.993794, 4.4661161 51.9937322, 4.4659177 51.9936187, 4.4658062 51.9935472, 4.4657395 51.9935032, 4.4656646 51.9934584), (4.4656646 51.9934584, 4.4654869 51.9933553), (4.4654869 51.9933553, 4.465402 51.9932931, 4.4653766 51.9932771), (4.4653766 51.9932771, 4.4653261 51.9932377), (4.4653261 51.9932377, 4.4652897 51.9932397, 4.4652294 51.9932362, 4.4651695 51.9932243, 4.4651167 51.9932095, 4.4650747 51.9931897, 4.4650327 51.9931607, 4.4650068 51.9931317, 4.4649959 51.993109, 4.4649931 51.9930848), (4.4649931 51.9930848, 4.4649917 51.9930588, 4.4649988 51.9930291, 4.4650191 51.9929923, 4.4650429 51.9929678), (4.4650429 51.9929678, 4.4650049 51.9928924, 4.4649558 51.9928094), (4.4649558 51.9928094, 4.464874 51.9927063), (4.464874 51.9927063, 4.4646126 51.9923801, 4.4645423 51.9922935, 4.4644666 51.9921938, 4.4637485 51.9908962, 4.4634003 51.9902681, 4.4633381 51.9901527, 4.4630282 51.9896007, 4.4630146 51.9895753), (4.4630146 51.9895753, 4.4629402 51.9894412), (4.4629402 51.9894412, 4.462925 51.9894105, 4.462635 51.9888846, 4.4625717 51.9887698, 4.4625128 51.9886669), (4.4625128 51.9886669, 4.4624158 51.9886872, 4.462359 51.9886987, 4.4622552 51.9887199, 4.4621419 51.988744, 4.4608387 51.9890217, 4.4604064 51.9891387, 4.4595392 51.9893945), (4.4595392 51.9893945, 4.4589697 51.9895641), (4.4589697 51.9895641, 4.4589049 51.9896042, 4.4587972 51.9896436, 4.4587063 51.989662, 4.4585413 51.9896822), (4.4585413 51.9896822, 4.4580889 51.9897888), (4.4580889 51.9897888, 4.4577493 51.9898563, 4.4576325 51.9898771, 4.4573482 51.9899251, 4.4569563 51.9899738, 4.4565921 51.9899927, 4.4563143 51.9899995), (4.4563143 51.9899995, 4.4562368 51.9900209, 4.4561907 51.9900224, 4.4560891 51.9900163, 4.4560216 51.9900119, 4.4559381 51.9899824), (4.4559381 51.9899824, 4.4556971 51.9899487, 4.4555423 51.9899217, 4.4541691 51.9895931, 4.4533902 51.9894022), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4534431 51.9896457, 4.4537124 51.989795), (4.4537124 51.989795, 4.4537358 51.9898088, 4.453789 51.9898479, 4.4538154 51.9898909, 4.4538111 51.9899361, 4.4537861 51.9899867, 4.4537579 51.9900293, 4.4536849 51.9901411, 4.4535654 51.9901099, 4.4533996 51.9900666, 4.4533519 51.9900218, 4.4533436 51.9899686, 4.4533694 51.9899137, 4.4533972 51.9898604, 4.4534291 51.9898006, 4.4534338 51.9897681, 4.4534321 51.9897229, 4.4534431 51.9896457), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4533902 51.9894022, 4.4531404 51.9893453, 4.4528758 51.9892851, 4.4526217 51.9892511, 4.4523786 51.9892477, 4.4521135 51.9892613, 4.4518943 51.989299, 4.4517786 51.9893332), (4.4517786 51.9893332, 4.4516603 51.9893629, 4.4515549 51.9894001, 4.4507155 51.9897455, 4.4501316 51.9899858, 4.4499248 51.9900378), (4.4499248 51.9900378, 4.4497141 51.9901065, 4.4495849 51.9901477, 4.4495556 51.9901836), (4.4495556 51.9901836, 4.4497396 51.9905195, 4.4499396 51.9909182, 4.4501082 51.9912653, 4.4506114 51.9921242), (4.4506114 51.9921242, 4.4506801 51.992255), (4.4506801 51.992255, 4.4508904 51.9926235, 4.4513108 51.9934741, 4.4515743 51.9941105, 4.4517591 51.9946536, 4.4520143 51.9955146, 4.4520697 51.9958008), (4.4520697 51.9958008, 4.45211 51.9960147, 4.4521521 51.9962227), (4.4521521 51.9962227, 4.4521798 51.9964206, 4.4522149 51.9967118), (4.4522149 51.9967118, 4.4522334 51.9969616), (4.4522334 51.9969616, 4.4522391 51.9970449, 4.452249 51.997314), (4.452249 51.997314, 4.4522566 51.9974458, 4.4522858 51.9978575), (4.4522858 51.9978575, 4.4523086 51.9983478), (4.4523086 51.9983478, 4.4523492 51.9990735), (4.4523492 51.9990735, 4.452366 51.9993406, 4.4523677 51.9995537), (4.4523677 51.9995537, 4.4523271 51.99979, 4.452258 52.0000405), (4.452258 52.0000405, 4.4522117 52.000173, 4.4521779 52.0002717, 4.4520817 52.0004827, 4.4520787 52.0005872), (4.4520787 52.0005872, 4.4520794 52.0006136, 4.4521028 52.0006645), (4.4521028 52.0006645, 4.4521425 52.000689, 4.4521786 52.000715, 4.4522451 52.0007551, 4.452293 52.0007906, 4.4523283 52.0008192, 4.452358 52.0008524, 4.4523906 52.0008954, 4.4524146 52.0009456, 4.4524267 52.0009888, 4.4524295 52.0010083, 4.4524247 52.0010641), (4.4524247 52.0010641, 4.4524139 52.0011003, 4.4523866 52.0011634), (4.4523866 52.0011634, 4.452299 52.001275), (4.452299 52.001275, 4.4521783 52.0013512, 4.4519572 52.0014328, 4.4517632 52.0015249, 4.4516004 52.0016627, 4.4514628 52.0018733), (4.4514628 52.0018733, 4.4511861 52.0023202), (4.4511861 52.0023202, 4.4509211 52.0026387, 4.4507962 52.0027482, 4.4506904 52.0028416, 4.4506513 52.0028768, 4.450573 52.0029482), (4.450573 52.0029482, 4.4506002 52.0029749, 4.4506151 52.0030051, 4.4506166 52.0030367, 4.450609 52.0030598, 4.4505941 52.0030815, 4.4505726 52.0031009, 4.4505453 52.0031175, 4.4505119 52.0031308, 4.4504747 52.0031396, 4.4504355 52.0031436, 4.4503957 52.0031425), (4.4503957 52.0031425, 4.4502685 52.0032061, 4.4502026 52.0032444, 4.4497842 52.0034925, 4.4493231 52.0037817, 4.4490667 52.0039784, 4.4488266 52.0041972), (4.4488266 52.0041972, 4.44872 52.0043082, 4.4486743 52.0043588), (4.4486743 52.0043588, 4.4485633 52.0044927, 4.448536 52.0045312, 4.4484959 52.0046193), (4.4484959 52.0046193, 4.4485256 52.0046407, 4.4485467 52.0046656, 4.4485581 52.0046928, 4.4485552 52.0047372, 4.4485269 52.0047781, 4.4484848 52.0048066, 4.4484306 52.0048257, 4.4483694 52.0048336), (4.4483694 52.0048336, 4.448298 52.004828, 4.4482343 52.0048072), (4.4482343 52.0048072, 4.4481918 52.0047788, 4.4481655 52.0047438, 4.448158 52.0047055), (4.448158 52.0047055, 4.4480309 52.0046771), (4.4480309 52.0046771, 4.447965 52.0046636, 4.4465292 52.0043782, 4.4450523 52.0040915, 4.4446435 52.0040465), (4.4446435 52.0040465, 4.4444596 52.0040292, 4.4443377 52.0040155, 4.444228 52.0040161, 4.4441223 52.0040168), (4.4441223 52.0040168, 4.4441642 52.0039155), (4.4441642 52.0039155, 4.4442108 52.0038027), (4.4442108 52.0038027, 4.4442317 52.0037477, 4.4444656 52.0032879, 4.4444884 52.0032407, 4.4444972 52.0032166, 4.4444903 52.0031897), (4.4411178 52.0024548, 4.4411776 52.0024952, 4.4412258 52.0025222, 4.441285 52.0025436, 4.4413613 52.0025585, 4.4422669 52.0027016, 4.4426834 52.0027671, 4.4429747 52.002813, 4.4431821 52.0028634, 4.4435545 52.0029563, 4.4440875 52.0030757, 4.4444079 52.0031504, 4.4444447 52.0031645, 4.4444687 52.0031769, 4.4444903 52.0031897), (4.4405931 52.0015321, 4.4406427 52.0016127, 4.440951 52.002177, 4.4411178 52.0024548), (4.4405358 52.001434, 4.4405931 52.0015321), (4.4403428 52.0010964, 4.4404886 52.0013525, 4.4405358 52.001434), (4.4403428 52.0010964, 4.4402711 52.0010263, 4.4402145 52.0009538), (4.4402145 52.0009538, 4.4399873 52.0005901, 4.4396943 52.0001, 4.4395924 51.9999677), (4.4395924 51.9999677, 4.4395315 51.9999375, 4.4394787 51.9998696, 4.4394537 51.9998403, 4.4394377 51.9998199), (4.4394377 51.9998199, 4.4393787 51.9998141, 4.4393117 51.9998011, 4.4392669 51.9997926), (4.4392669 51.9997926, 4.4392207 51.9997871, 4.4391622 51.9997906, 4.439117 51.9998002, 4.4390087 51.9998143), (4.4390087 51.9998143, 4.4388706 51.999858, 4.4386085 51.999961, 4.4381813 52.0001736, 4.4379045 52.000352), (4.4379045 52.000352, 4.4377486 52.0004504, 4.4371023 52.0009976, 4.4364306 52.0015652, 4.4357282 52.0021139, 4.4345258 52.0029494, 4.4337715 52.0034148, 4.4333605 52.003629, 4.4330337 52.0037819), (4.4330337 52.0037819, 4.4327581 52.0039137, 4.4325247 52.0040027, 4.4323094 52.004077, 4.4320157 52.0041688, 4.4317207 52.0042536, 4.4313188 52.0043497, 4.4309531 52.0044254), (4.4309531 52.0044254, 4.4309 52.0044555, 4.4306208 52.0045023, 4.4305969 52.0045087, 4.4305804 52.0045134), (4.4305804 52.0045134, 4.4305675 52.0045389, 4.4305505 52.0045606, 4.4305354 52.0045749, 4.430518 52.0045876, 4.4304928 52.0046027, 4.4304614 52.0046204, 4.4304293 52.0046335, 4.4303784 52.0046452), (4.4303784 52.0046452, 4.430343 52.0046521, 4.4303062 52.004655, 4.4302629 52.004653, 4.4302105 52.0046463, 4.4301714 52.0046364, 4.4301266 52.0046193, 4.4300954 52.0046077, 4.4300558 52.0045963), (4.4300558 52.0045963, 4.4300054 52.0045897, 4.4299539 52.0045876, 4.4298768 52.0045947), (4.4298768 52.0045947, 4.4298056 52.0046001, 4.4297006 52.0045845), (4.4297006 52.0045845, 4.429185 52.0046134, 4.4278317 52.0046393), (4.4278317 52.0046393, 4.4273173 52.0046368), (4.4273173 52.0046368, 4.4271712 52.0046391), (4.4271712 52.0046391, 4.4263626 52.0046451, 4.4255495 52.0046573, 4.424412 52.004691, 4.4232895 52.0047295, 4.4219709 52.0047757, 4.4210465 52.0048245, 4.4199312 52.0049032), (4.4199312 52.0049032, 4.4190073 52.0049628), (4.4190073 52.0049628, 4.4189436 52.0049868, 4.4187512 52.0050069, 4.4187253 52.0050121, 4.4186746 52.0050222), (4.4186746 52.0050222, 4.4186613 52.0050421, 4.4186291 52.0050772, 4.4185795 52.0051085, 4.4185374 52.0051248, 4.4185064 52.0051317, 4.4184649 52.0051392, 4.4184163 52.0051422, 4.4183659 52.0051401, 4.4183112 52.0051283), (4.4183112 52.0051283, 4.4182664 52.0051143, 4.418222 52.0050986, 4.418189 52.005085), (4.418189 52.005085, 4.4181437 52.0050731, 4.4181093 52.0050696, 4.418073 52.0050696, 4.4180174 52.0050731, 4.4179509 52.005058), (4.4179509 52.005058, 4.4177065 52.0050771, 4.4171829 52.0051193, 4.4167171 52.0051561, 4.4161832 52.0051741), (4.4161832 52.0051741, 4.4160474 52.0051753, 4.4156984 52.0051776, 4.4153947 52.0051671, 4.4151136 52.0051555, 4.4148363 52.0051358, 4.4145854 52.0051114, 4.4143307 52.00508, 4.414027 52.0050371, 4.4137591 52.0049964, 4.4132819 52.0049058, 4.4128291 52.0048217, 4.4115351 52.0045491, 4.410638 52.004342, 4.4102398 52.0042263, 4.4098588 52.0040768, 4.4094781 52.0038942, 4.4092757 52.0037758, 4.4090571 52.00364, 4.4088374 52.0034674, 4.4086639 52.0033121, 4.4084961 52.0031377, 4.4083493 52.0029542, 4.4081226 52.0025862, 4.4080705 52.0024578, 4.408042 52.0023524, 4.4079733 52.002091), (4.4079733 52.002091, 4.4079462 52.0020019), (4.4079462 52.0020019, 4.4078922 52.0017943, 4.4078203 52.0015897, 4.4076992 52.0013356, 4.407567 52.0011439, 4.4073861 52.0009177, 4.4071598 52.0006985, 4.4069764 52.0005569, 4.4067818 52.0004246, 4.4066429 52.0003341, 4.4064859 52.000247, 4.4061616 52.0000853, 4.4057199 51.9999142, 4.4052283 51.9997642, 4.4048694 51.999674, 4.4032323 51.9993116, 4.4027192 51.9992004), (4.4027192 51.9992004, 4.402577 51.9991695), (4.402577 51.9991695, 4.4021054 51.9990673, 4.4008211 51.9988045, 4.4003574 51.9987184, 4.3996374 51.9985906), (4.3996374 51.9985906, 4.3991319 51.9984863), (4.3991319 51.9984863, 4.3979428 51.9982565), (4.3979428 51.9982565, 4.3977346 51.9982158, 4.3974066 51.9981515), (4.3974066 51.9981515, 4.3972855 51.9981295), (4.3972855 51.9981295, 4.3962774 51.9979292, 4.3956439 51.9978092, 4.3951014 51.9977149, 4.3945862 51.9976313, 4.3937787 51.997513, 4.3930464 51.9974125), (4.3930464 51.9974125, 4.3917853 51.9972668), (4.3917853 51.9972668, 4.3910858 51.9971921), (4.3910858 51.9971921, 4.3907834 51.9971612, 4.3906839 51.9971511), (4.3906839 51.9971511, 4.3905811 51.9971476, 4.3901843 51.997162), (4.3901843 51.997162, 4.3897749 51.9972744, 4.3895165 51.9973061, 4.3893292 51.9973041), (4.3893292 51.9973041, 4.3890265 51.9972623, 4.3886868 51.997174, 4.3883621 51.9970633, 4.3881568 51.9969746, 4.3880424 51.99692), (4.3880424 51.99692, 4.3878544 51.996828), (4.3878544 51.996828, 4.3873665 51.9966075), (4.3873665 51.9966075, 4.3866861 51.9963215), (4.3866861 51.9963215, 4.3863993 51.9962747, 4.3863128 51.9962456, 4.3855338 51.9960422, 4.3837769 51.9956683, 4.3832472 51.9955353), (4.3832472 51.9955353, 4.3821908 51.9952723, 4.3820299 51.9952323, 4.3818973 51.9951887), (4.3818973 51.9951887, 4.38177 51.9953811, 4.3815174 51.9957286), (4.3815174 51.9957286, 4.3811732 51.996243, 4.3811362 51.9962989, 4.3810718 51.9964014), (4.3810718 51.9964014, 4.3810166 51.9964884, 4.38096 51.9965822, 4.3809192 51.9966368, 4.3808622 51.9967052, 4.3807495 51.9967897), (4.3807495 51.9967897, 4.3804629 51.9972399), (4.3804629 51.9972399, 4.3802721 51.9975252), (</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>384206</t>
+          <t>383229</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rotterdam, Meijersplein Metro</t>
+          <t>Rotterdam, Kralingse Zoom</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bus 33: Rotterdam Centraal =&gt; Rotterdam Meijersplein</t>
+          <t>Bus 183: Rotterdam Zuidplein =&gt; Rotterdam Kralingse Zoom</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>183</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1421,14 +1421,14 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629196 51.9227524, 4.4628444 51.9230812, 4.4627567 51.9234229), (4.4627567 51.9234229, 4.4624587 51.9244078), (4.4624587 51.9244078, 4.4622986 51.9249119, 4.4622376 51.9250492), (4.4622376 51.9250492, 4.4621471 51.9252022), (4.4621471 51.9252022, 4.4621564 51.9253122, 4.4621457 51.9254007, 4.4619016 51.9259951, 4.4618304 51.9261938, 4.4616541 51.9262605), (4.4616541 51.9262605, 4.4616271 51.9263227, 4.461618 51.9263436, 4.4616158 51.9263487, 4.4615816 51.9264275), (4.4615816 51.9264275, 4.461545 51.9265267, 4.4614678 51.9267011, 4.4613642 51.926932, 4.4613259 51.9270051, 4.4611842 51.9271995, 4.4610976 51.9273193, 4.4606 51.9279, 4.4603276 51.9282095, 4.4595505 51.9290925), (4.4595505 51.9290925, 4.4595204 51.929123), (4.4595204 51.929123, 4.4592663 51.9294183), (4.4592663 51.9294183, 4.4591427 51.9295921), (4.4591427 51.9295921, 4.4587954 51.9300065, 4.4587404 51.9300685, 4.4586713 51.9301504, 4.4586291 51.9302118), (4.4586291 51.9302118, 4.4585235 51.9302682, 4.4585015 51.9302754), (4.4585015 51.9302754, 4.4584708 51.9302801, 4.4583513 51.9303148), (4.4583513 51.9303148, 4.4582226 51.9302663, 4.4581939 51.9302528, 4.456681 51.929762, 4.4563069 51.9296456, 4.4562367 51.9296249), (4.4562367 51.9296249, 4.4552759 51.9293284, 4.4552156 51.9293098, 4.4551554 51.9292912, 4.4548689 51.9292044), (4.4548689 51.9292044, 4.4545624 51.9291219, 4.4543953 51.9290759, 4.4539883 51.928991, 4.4535955 51.9289192, 4.4533467 51.928883, 4.4531352 51.9288576, 4.4528569 51.9288338), (4.4528569 51.9288338, 4.4526247 51.9288197, 4.4524888 51.928815, 4.452291 51.9288114, 4.4519195 51.9288264, 4.4515117 51.9288628, 4.4509268 51.9289242, 4.4485549 51.9291987), (4.4485549 51.9291987, 4.4483394 51.9292831), (4.4483394 51.9292831, 4.4480514 51.9293576, 4.4477665 51.9294258), (4.4477665 51.9294258, 4.4474471 51.929502), (4.4474471 51.929502, 4.4469608 51.9296229), (4.4469608 51.9296229, 4.4467294 51.9296751, 4.4465081 51.9297077, 4.4462281 51.9297421, 4.445903 51.929772), (4.445903 51.929772, 4.4456879 51.929799, 4.4451475 51.9298373, 4.4449558 51.9298384), (4.4449558 51.9298384, 4.4443548 51.9298812), (4.4443548 51.9298812, 4.4442318 51.9299072, 4.4440847 51.9299186, 4.4435597 51.9299462), (4.4435597 51.9299462, 4.4429796 51.9300203), (4.4429796 51.9300203, 4.4426818 51.930074, 4.4426004 51.9300887), (4.4426004 51.9300887, 4.4421727 51.930166, 4.4420941 51.9301802, 4.4420155 51.9301943, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4373188 51.9313247, 4.4372607 51.9312902, 4.4367886 51.9312194, 4.4360861 51.9311198, 4.4355991 51.9310552, 4.4353083 51.9310143, 4.4351117 51.9309816, 4.4349393 51.9309427, 4.4348532 51.9309166, 4.4347929 51.9308944, 4.4347634 51.9308851, 4.4347349 51.930877, 4.4346532 51.9308599), (4.4346532 51.9308599, 4.4346028 51.9308709, 4.4345496 51.9308735, 4.434497 51.9308675, 4.4344488 51.9308533), (4.4344488 51.9308533, 4.4343725 51.9308738, 4.4343209 51.9308904, 4.4342611 51.9309145, 4.4342013 51.9309386, 4.433997 51.9310155, 4.4338605 51.93107, 4.4337117 51.9311353, 4.4334287 51.9312817, 4.4333277 51.9313334, 4.4331954 51.9313974, 4.4330711 51.9314425), (4.4330711 51.9314425, 4.432337 51.9318543, 4.432242 51.9319085), (4.432242 51.9319085, 4.432135 51.9319679, 4.4317837 51.9321628, 4.4314893 51.9323241, 4.4313921 51.9323759, 4.431275 51.9324277, 4.4310585 51.9325147, 4.430748 51.9326194, 4.4305829 51.932679, 4.4294235 51.9330973, 4.4290224 51.9332532, 4.4288567 51.9333275, 4.4287739 51.9333936, 4.4287545 51.9334365, 4.4287209 51.9335246, 4.4286269 51.9337708, 4.4285694 51.9339213, 4.4285341 51.9340136), (4.4285341 51.9340136, 4.4285033 51.9341141, 4.4284473 51.9342692, 4.4281597 51.9350008, 4.4281072 51.9351304), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4274731 51.9366312, 4.4275292 51.9366566, 4.4275622 51.9366945, 4.4275658 51.9367374, 4.4275487 51.9367677, 4.4275167 51.9367929, 4.4274557 51.9368145, 4.4273856 51.9368177), (4.4273856 51.9368177, 4.4273457 51.9368399), (4.4273457 51.9368399, 4.4273035 51.9368695, 4.427117 51.937028, 4.4270683 51.9370452), (4.4270683 51.9370452, 4.426373 51.9376912), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.4237385 51.9401662, 4.4237184 51.940237, 4.4236893 51.9402742, 4.4236515 51.9403036, 4.4236093 51.9403285), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236089 51.9403468, 4.4236464 51.9403938, 4.4236976 51.9404188, 4.4237287 51.9404329), (4.4237287 51.9404329, 4.4240357 51.9405534, 4.4244828 51.9407398, 4.4250175 51.9409499, 4.4258131 51.941257, 4.4259391 51.9413077), (4.4259391 51.9413077, 4.4260777 51.94136, 4.4261838 51.9414016, 4.426335 51.9414608), (4.426335 51.9414608, 4.426473 51.9414868, 4.426852 51.9416533, 4.4268939 51.9416963), (4.4268939 51.9416963, 4.4268089 51.9417716, 4.4265746 51.9419792), (4.4265746 51.9419792, 4.426431 51.9421072), (4.426431 51.9421072, 4.4263462 51.9421757), (4.4263462 51.9421757, 4.4264302 51.9421943, 4.4265905 51.9422968), (4.4265905 51.9422968, 4.4270831 51.9424925, 4.4271587 51.9425311, 4.4273687 51.94265), (4.4273687 51.94265, 4.4274223 51.9426791, 4.427576 51.9427625, 4.4282261 51.9430312, 4.4284061 51.9431014, 4.4285801 51.9433772, 4.4286207 51.9434486), (4.4286207 51.9434486, 4.4286645 51.9435243), (4.4286645 51.9435243, 4.4287395 51.9436466), (4.4287395 51.9436466, 4.4286722 51.9436613, 4.4281306 51.9437795, 4.4279322 51.9438401, 4.4277604 51.9439169, 4.4276079 51.9440122, 4.4274919 51.9441221, 4.4268023 51.9449347), (4.4268023 51.9449347, 4.4265608 51.9452259, 4.4264546 51.945354), (4.4264546 51.945354, 4.4264036 51.9454155, 4.426382 51.9455212, 4.4264829 51.9456107, 4.4266989 51.945699, 4.4278839 51.9461686, 4.4279391 51.9462013, 4.4279599 51.9462178, 4.4279738 51.9462455), (4.4279738 51.9462455, 4.4279857 51.9462741, 4.4279787 51.9462985, 4.4279698 51.9463297, 4.427835 51.946454), (4.427835 51.946454, 4.4275916 51.9466871, 4.4272293 51.9470335), (4.4272293 51.9470335, 4.427418 51.9471111, 4.4275552 51.9471452, 4.4277666 51.9471697, 4.4279535 51.9471978, 4.4281473 51.9472586, 4.4286848 51.9474848), (4.4286848 51.9474848, 4.4287918 51.9475235, 4.4289731 51.9475932), (4.4289731 51.9475932, 4.4304311 51.9481786, 4.4308575 51.9483491, 4.4308948 51.9483633, 4.4312832 51.9485194), (4.4312832 51.9485194, 4.4315032 51.9483418, 4.4315203 51.9483287, 4.4316193 51.9482401, 4.4317242 51.9481359, 4.4318758 51.9479807, 4.4319937 51.9479307), (4.4319937 51.9479307, 4.4320703 51.9478608, 4.4321445 51.9477899, 4.4322494 51.9477432), (4.4342457 51.9471155, 4.4341641 51.9471017, 4.4340468 51.9470552, 4.4335047 51.9468441, 4.4334066 51.9468337, 4.4333193 51.9468732, 4.4327997 51.9473721, 4.4325994 51.9475644, 4.4324511 51.9476979, 4.4323644 51.9477226, 4.4322494 51.9477432), (4.4341173 51.9478611, 4.4338518 51.947754, 4.4337819 51.9477182, 4.4337736 51.9476726, 4.4338075 51.9476191, 4.4338882 51.9475437, 4.4339526 51.9474861, 4.4342499 51.947197, 4.4342584 51.9471587, 4.4342457 51.9471155), (4.4343204 51.9479194, 4.4342574 51.9479127, 4.4341994 51.9478905, 4.4341173 51.9478611), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4343662 51.9480889, 4.4341057 51.9483329), (4.4341057 51.9483329, 4.4340219 51.9484187, 4.4341344 51.9484616, 4.4342488 51.9485052, 4.4344685 51.9482988, 4.4345971 51.9481812, 4.4344709 51.9481307, 4.4343662 51.9480889), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4354898 51.9468744, 4.4352169 51.947135, 4.4349689 51.9473593, 4.4345769 51.9477386, 4.4344403 51.9478715, 4.4343857 51.9479098, 4.4343204 51.9479194), (4.4354898 51.9468744, 4.4356587 51.9469442, 4.4357405 51.9469801, 4.4358081 51.9470116, 4.4360644 51.9471776), (4.4360644 51.9471776, 4.436197 51.9472495), (4.4426127 51.9498244, 4.4423971 51.9497392, 4.4419723 51.9495678, 4.4413515 51.9493185, 4.4406504 51.9490373, 4.4403447 51.9489104, 4.4393773 51.9485301, 4.4383207 51.9481043, 4.436197 51.9472495), (4.4426127 51.9498244, 4.4429322 51.9498464, 4.4435359 51.9500766, 4.4449065 51.9506221, 4.4451797 51.9507256, 4.4454487 51.9508414, 4.4456121 51.9509085, 4.445875 51.9510165, 4.4460429 51.9510765, 4.4462183 51.9511205, 4.4464815 51.9511569, 4.4468019 51.9512, 4.4470519 51.9512493, 4.4472291 51.9512939, 4.4473827 51.9513532, 4.4490841 51.9520252, 4.4492524 51.9520933, 4.4494915 51.9521901, 4.4496815 51.9522671, 4.4515506 51.9530205, 4.4515929 51.9530337, 4.4518069 51.9531147, 4.4535034 51.9537923, 4.4564652 51.9549915, 4.4565872 51.9550487), (4.4565872 51.9550487, 4.4566408 51.9550323, 4.4567 51.9550265, 4.4567624 51.9550324, 4.4568186 51.9550501, 4.4568691 51.9550832, 4.4568966 51.9551254, 4.4568972 51.9551709), (4.4568972 51.9551709, 4.4570371 51.9552231, 4.4575733 51.955424, 4.4579363 51.9555692, 4.45822 51.9556831, 4.4584663 51.9557797, 4.4587985 51.955874), (4.4587985 51.955874, 4.459155 51.9559464, 4.4595562 51.9560051, 4.4598567 51.9560189, 4.4601646 51.9560177, 4.4604016 51.9559947, 4.460617 51.9559762), (4.460617 51.9559762, 4.4609127 51.9559429, 4.4610509 51.9559261, 4.4612695 51.9559016), (4.4612695 51.9559016, 4.4615134 51.9558837), (4.4615134 51.9558837, 4.4618241 51.9558838))</t>
+          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.477892 51.8738233), (4.477892 51.8738233, 4.4778583 51.8736846, 4.4773956 51.8716034, 4.4773731 51.8715251), (4.4773731 51.8715251, 4.4773167 51.8715123, 4.4772689 51.8714898, 4.4772337 51.8714597, 4.4772142 51.8714246, 4.4772129 51.8713843, 4.4772322 51.8713457, 4.4772703 51.871313, 4.4773232 51.8712893), (4.4773232 51.8712893, 4.4772998 51.871209, 4.4768061 51.8690926, 4.4765546 51.868247, 4.4764177 51.8677994, 4.4764086 51.8677656, 4.4763693 51.8676743), (4.4763693 51.8676743, 4.4762952 51.867659, 4.4762362 51.8676275, 4.4762011 51.8675844, 4.4761954 51.8675363, 4.4762199 51.8674905, 4.4762708 51.867454), (4.4762708 51.867454, 4.4762724 51.8673804, 4.4760339 51.8667754, 4.4752828 51.865055, 4.4751265 51.8647011), (4.4751265 51.8647011, 4.4750728 51.8645796), (4.4750728 51.8645796, 4.4748794 51.8641417, 4.4748324 51.864032, 4.4748172 51.8639916, 4.4747789 51.8639089), (4.4747789 51.8639089, 4.4747146 51.8638955, 4.4746596 51.863871), (4.4746596 51.863871, 4.4746027 51.863815, 4.4745936 51.8637491), (4.4745936 51.8637491, 4.474608 51.8637172, 4.4746341 51.8636882, 4.4746704 51.8636638), (4.4746704 51.8636638, 4.4746475 51.8635968, 4.474327 51.8629049, 4.4742318 51.8626459), (4.4742318 51.8626459, 4.4739064 51.861581), (4.4739064 51.861581, 4.4736285 51.8606326), (4.4736285 51.8606326, 4.4735954 51.8605385), (4.4735954 51.8605385, 4.4735847 51.8604812), (4.4735847 51.8604812, 4.4735195 51.8604638, 4.4734664 51.8604346, 4.4734306 51.8603967), (4.4734306 51.8603967, 4.4733127 51.8603665, 4.472152 51.860328, 4.4720801 51.8603288, 4.4719956 51.8603319, 4.4719399 51.8603394), (4.4719399 51.8603394, 4.4719181 51.8603656, 4.4718878 51.8603883, 4.4718504 51.8604065, 4.4718075 51.8604195, 4.47174 51.8604277, 4.4716716 51.8604228, 4.4716151 51.8604078, 4.4715673 51.8603838, 4.471532 51.8603527), (4.471532 51.8603527, 4.4715108 51.8603139, 4.4715089 51.8602731), (4.4715089 51.8602731, 4.4715266 51.8602333, 4.4715625 51.8601986, 4.4716135 51.8601719, 4.4716749 51.8601557), (4.4716749 51.8601557, 4.4716904 51.860089, 4.4716917 51.8600668, 4.471765 51.859785), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4742753 51.857107, 4.4742343 51.8570635, 4.474224 51.8570301, 4.4742322 51.8569879, 4.4742776 51.8569386, 4.4743184 51.8569179, 4.4744058 51.8568994, 4.4744955 51.8569064, 4.4745575 51.8569288), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4849479 51.8530844, 4.4849478 51.8530381, 4.484976 51.8529951, 4.4850284 51.852962, 4.4850972 51.8529435, 4.4851723 51.8529424, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.489866 51.8513095, 4.4899069 51.8513065, 4.4899388 51.8513029, 4.4899701 51.8512983, 4.4899944 51.8512938, 4.4900343 51.8512851, 4.4900619 51.8512787, 4.4900998 51.851268, 4.4901995 51.8512324, 4.4902957 51.8511942, 4.4904588 51.8511261, 4.4905014 51.8511099, 4.4905567 51.8510898, 4.4905955 51.8510755, 4.4906369 51.8510644, 4.4909165 51.8510154), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4919243 51.8506091, 4.4921994 51.8504556, 4.4923991 51.8503541, 4.4925084 51.850299, 4.4925566 51.8502745, 4.4925916 51.8502556, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4972441 51.8486291, 4.4972842 51.8486168, 4.4973376 51.8486054, 4.4973792 51.8485974, 4.4975215 51.8485668, 4.497848 51.8484988, 4.4979464 51.8484809, 4.4979805 51.8484743, 4.498023 51.8484685, 4.4980732 51.8484619, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4994995 51.8481354, 4.4997151 51.8480292, 4.4999322 51.8478913), (4.4999322 51.8478913, 4.5000134 51.847828, 4.5000345 51.8478115, 4.5001142 51.8477494), (4.5001142 51.8477494, 4.5002513 51.847627, 4.5004034 51.847461, 4.5005066 51.8472903, 4.500547 51.8471197, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005137 51.8465004, 4.5005059 51.8464439, 4.5004991 51.8463644, 4.5004817 51.8461678, 4.5004716 51.8460832, 4.5004681 51.8460263, 4.5005065 51.8458942), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5004432 51.8452783, 4.5004072 51.8452074, 4.5003706 51.8449916, 4.5003559 51.8448126, 4.5003416 51.8446572, 4.5003164 51.8445903), (4.5003164 51.8445903, 4.5002659 51.8445787, 4.5002296 51.8445594, 4.5002017 51.8445353, 4.5001839 51.8445078, 4.500177 51.8444785, 4.5001816 51.844449, 4.5002048 51.8444125, 4.5002451 51.8443823, 4.5002988 51.8443613, 4.5003603 51.8443517, 4.5004236 51.8443544, 4.5004824 51.8443691, 4.5005292 51.8443964), (4.5005292 51.8443964, 4.500795 51.844334, 4.5008577 51.8443193, 4.5009906 51.8442881, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5078395 51.8443642, 4.5078749 51.8443775, 4.5079132 51.8443942, 4.5079503 51.8444108, 4.5079838 51.8444263), (4.5079838 51.8444263, 4.5080354 51.8444708, 4.5080661 51.8444874, 4.508105 51.8445051, 4.5081487 51.8445238, 4.5081929 51.8445408, 4.5082326 51.8445501, 4.5082689 51.8445535, 4.5083157 51.8445548, 4.5083736 51.8445485), (4.5083736 51.8445485, 4.5084106 51.8445366, 4.508464 51.8445246, 4.5085245 51.8445137, 4.5086485 51.8445046, 4.5087727 51.8445128, 4.5088907 51.8445381, 4.5089965 51.8445791), (4.5089965 51.8445791, 4.5090929 51.8446403, 4.5091616 51.8447144), (4.5091616 51.8447144, 4.5091938 51.8447798, 4.5092042 51.8448479, 4.5091931 51.8449142, 4.5091613 51.8449778, 4.50911 51.8450365, 4.5090412 51.8450879), (4.5090412 51.8450879, 4.5089638 51.8451275, 4.5088759 51.8451578, 4.5087806 51.8451778, 4.5086811 51.8451867, 4.5085806 51.8451843, 4.5084824 51.8451707), (4.5084824 51.8451707, 4.5083178 51.8452592, 4.5081458 51.8454758, 4.5080705 51.8457061, 4.5080232 51.8459593, 4.5080166 51.8464374, 4.5081628 51.84798, 4.5081725 51.8480556, 4.5081835 51.8481407), (4.5081835 51.8481407, 4.5081858 51.848222), (4.5081858 51.848222, 4.5082793 51.8490484), (4.5082793 51.8490484, 4.508311 51.8491951), (4.508311 51.8491951, 4.5083977 51.8492137, 4.508472 51.8492471, 4.5085273 51.8492923, 4.508559 51.8493456), (4.508559 51.8493456, 4.5085653 51.8493924, 4.5085531 51.8494388), (4.5085531 51.8494388, 4.5085242 51.8494809, 4.5084801 51.8495176, 4.5084233 51.8495468, 4.5083569 51.849567), (4.5083569 51.849567, 4.5082541 51.849578, 4.5081513 51.8495675), (4.5081513 51.8495675, 4.5080695 51.8495413, 4.5080036 51.8495015, 4.5079528 51.849453, 4.5079407 51.8493958, 4.5079456 51.849349, 4.5079687 51.8493043, 4.5080085 51.8492644, 4.5080627 51.8492316, 4.5081281 51.8492078), (4.5081281 51.8492078, 4.5081542 51.849102, 4.5080693 51.8482396), (4.5080693 51.8482396, 4.5080609 51.848136), (4.5080609 51.848136, 4.5080199 51.8477682, 4.5078881 51.8461491, 4.5079219 51.8458087, 4.5080165 51.8454771, 4.5082127 51.8451675, 4.5082159 51.8450556), (4.5082159 51.8450556, 4.5081619 51.8450037, 4.5081239 51.8449466, 4.5081032 51.8448863, 4.5081004 51.8448247, 4.5081071 51.8447825, 4.5081212 51.844743), (4.5081212 51.844743, 4.5081409 51.8447127, 4.5081673 51.8446823, 4.5082134 51.8446381, 4.5082559 51.8446088, 4.5083058 51.8445798, 4.5083736 51.8445485), (4.5083736 51.8445485, 4.5084106 51.8445366, 4.508464 51.8445246, 4.5085245 51.8445137, 4.5086485 51.8445046, 4.5087727 51.8445128, 4.5088907 51.8445381, 4.5089965 51.8445791), (4.5089965 51.8445791, 4.5094985 51.8443857), (4.5094985 51.8443857, 4.5097981 51.8443108, 4.5101319 51.8442641), (4.5101319 51.8442641, 4.5104897 51.8442412, 4.5116343 51.8441942), (4.5116343 51.8441942, 4.5132989 51.8441191, 4.5136485 51.8441066), (4.5136485 51.8441066, 4.5148861 51.844045), (4.5148861 51.844045, 4.5169883 51.8439607, 4.5172702 51.8439518), (4.5172702 51.8439518, 4.517891 51.8439196), (4.517891 51.8439196, 4.5194925 51.8438508, 4.5198892 51.8438364), (4.5198892 51.8438364, 4.52014 51.8438258, 4.5207779 51.8437967), (4.5207779 51.8437967, 4.52194 51.8437326, 4.522601 51.8436777, 4.5235639 51.8435811, 4.5245053 51.8434575, 4.5253188 51.843329), (4.5253188 51.843329, 4.5257417 51.8432773, 4.5261534 51.8432511, 4.5267089 51.843254, 4.5269781 51.8432397, 4.5271361 51.8432238), (4.5271361 51.8432238, 4.5271551 51.8431872, 4.5271864 51.8431538, 4.5272284 51.8431254, 4.5272793 51.8431032, 4.5273367 51.8430881, 4.527398 51.843081, 4.5274603 51.8430822, 4.5275208 51.8430915, 4.5275766 51.8431086, 4.5276253 51.8431326), (4.5276253 51.8431326, 4.5276688 51.8431666, 4.5276978 51.8432061), (4.5276978 51.8432061, 4.5277082 51.8432345, 4.5277111 51.8432636, 4.5277064 51.8432925, 4.5276941 51.8433206, 4.5276747 51.8433471, 4.5276485 51.8433713, 4.5276164 51.8433926, 4.5275792 51.8434104), (4.5275792 51.8434104, 4.5276361 51.8436986), (4.5276361 51.8436986, 4.5276835 51.8437908, 4.5277152 51.843879, 4.5277539 51.8443623, 4.527758 51.8445349), (4.527758 51.8445349, 4.5277585 51.8445616, 4.5277644 51.8448864, 4.5277657 51.8449603, 4.5277671 51.8450377), (4.5277671 51.8450377, 4.5277676 51.8450646, 4.5277694 51.8451663), (4.5277694 51.8451663, 4.5281975 51.8451604, 4.5282487 51.8451597, 4.5283163 51.8451586, 4.5289664 51.8451561, 4.5289928 51.8451552, 4.5291012 51.8451527, 4.5296719 51.8451465), (4.5296719 51.8451465, 4.5299127 51.8451429), (4.5299127 51.8451429, 4.5304491 51.8451377, 4.5309206 51.8451331, 4.5311141 51.8451293, 4.5314885 51.8451246), (4.5314885 51.8451246, 4.5314882 51.844853, 4.5314792 51.8446802, 4.5314681 51.8444255, 4.5314779 51.8442987), (4.5314779 51.8442987, 4.5321761 51.8442991, 4.5324246 51.8442941, 4.5326342 51.8442917, 4.5328468 51.8442931, 4.5333037 51.8442892), (4.5333037 51.8442892, 4.5338219 51.8442834, 4.5342277 51.8442759, 4.5347077 51.8442632), (4.5347077 51.8442632, 4.5348397 51.8442601, 4.5349606 51.8442657, 4.5355284 51.8443193), (4.5355284 51.8443193, 4.5357538 51.844306, 4.5360008 51.8443263, 4.5360506 51.8443287), (4.5360506 51.8443287, 4.5360772 51.844303, 4.5361138 51.8442825, 4.5361578 51.8442688, 4.5361994 51.8442632, 4.5362419 51.8442635, 4.5362831 51.8442699, 4.5363306 51.8442862, 4.5363683 51.8443103, 4.5363928 51.8443421, 4.5364026 51.8443739, 4.5363956 51.8444078, 4.5363721 51.8444395, 4.5363341 51.8444653, 4.5362853 51.8444828), (4.5362853 51.8444828, 4.5362767 51.8446845, 4.5362351 51.8447571), (4.5362351 51.8447571, 4.536245 51.8453334), (4.536245 51.8453334, 4.5362664 51.8454462, 4.5362697 51.8455701, 4.5362889 51.8458584), (4.5362889 51.8458584, 4.5362806 51.8460899, 4.5362893 51.8462115), (4.5362893 51.8462115, 4.536292 51.8462728), (4.536292 51.8462728, 4.5362956 51.8464027, 4.5362946 51.8464315, 4.5362927 51.8469145, 4.5362704 51.8472999), (4.5362704 51.8472999, 4.5362753 51.8473929, 4.5362753 51.8474216, 4.5362775 51.8493998), (4.5362775 51.8493998, 4.5363521 51.8497363, 4.5363557 51.8497538, 4.536373 51.8498117, 4.5363725 51.8498395), (4.5363725 51.8498395, 4.5364398 51.8498626, 4.536487 51.8499003, 4.5365064 51.8499463, 4.536495 51.8499934, 4.5364545 51.8500339, 4.5363916 51.8500613), (4.5363916 51.8500613, 4.5363728 51.850127, 4.536365 51.8501498, 4.5362852 51.8504404), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.536325 51.8524724, 4.5363937 51.8526698, 4.5364036 51.8527315, 4.5364231 51.8527931, 4.5364291 51.8528119), (4.5364291 51.8528119, 4.5364775 51.8528244, 4.5365187 51.8528445, 4.5365497 51.8528706), (4.5365497 51.8528706, 4.5366782 51.8528683, 4.5368008 51.8528673, 4.5369493 51.8528736), (4.5391576 51.8527685, 4.5390088 51.8527813, 4.5373411 51.8528389, 4.5371991 51.8528492, 4.5369493 51.8528736), (4.5391576 51.8527685, 4.5393891 51.8527134, 4.5396198 51.8526628, 4.5397591 51.8526241), (4.5397591 51.8526241, 4.5398699 51.8526671, 4.5399884 51.8527685, 4.5400073 51.8527847, 4.5401488 51.8528937, 4.540196 51.8529447), (4.540196 51.8529447, 4.5403403 51.8530294, 4.5407707 51.8532433, 4.5409889 51.8533411, 4.5410632 51.8533842, 4.5414519 51.8536088, 4.5416457 51.8537492, 4.5421909 51.8542166, 4.5422253 51.8542471, 4.5423018 51.8543125), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.5407372 51.8552967, 4.5405935 51.8554282, 4.5405462 51.855458, 4.540513 51.8554819, 4.5403666 51.8555742, 4.5402179 51.8556677, 4.540188 51.8556849), (4.540188 51.8556849, 4.5399866 51.8557707), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5372261 51.8567319, 4.5370627 51.8567723, 4.5369727 51.8567813, 4.5365812 51.8567813, 4.536467 51.8567817, 4.536276 51.8567869), (4.536276 51.8567869, 4.5362737 51.8569004, 4.5362788 51.8569739, 4.5362701 51.8572417, 4.5362632 51.8573295, 4.5362365 51.8574061), (4.5362365 51.8574061, 4.5362365 51.8584422, 4.5362397 51.8589712, 4.5362395 51.8590436, 4.5362409 51.8591443, 4.5362433 51.8593107), (4.5362433 51.8593107, 4.5362563 51.8600024, 4.5362603 51.8600793, 4.5362618 51.8602102, 4.5362724 51.8605997, 4.5362764 51.8614328, 4.5362945 51.8615858), (4.5362945 51.8615858, 4.536351 51.8616689, 4.5364209 51.861867), (4.5364209 51.861867, 4.536429 51.8619148, 4.5364322 51.8620523, 4.5364329 51.8623996, 4.5364318 51.862473, 4.5364308 51.8626027), (4.5364308 51.8626027, 4.5364322 51.8627023), (4.5364322 51.8627023, 4.5364352 51.8628252, 4.5364269 51.8629148, 4.5364224 51.8629924, 4.5364148 51.8630358, 4.5364 51.8630843, 4.5363105 51.8633919, 4.5362744 51.8635002), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5357387 51.8692299, 4.5358962 51.8691815, 4.5360179 51.8691419, 4.536083 51.8691058, 4.5361453 51.8690587, 4.5361792 51.8690086, 4.5361952 51.8689713, 4.5362062 51.8689163, 4.5362056 51.8688542, 4.536216 51.8687493), (4.5353282 51.8693549, 4.535419 51.8693301, 4.5357387 51.8692299), (4.5346672 51.8696393, 4.5348068 51.869543, 4.5349507 51.8694684, 4.5353282 51.8693549), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5301922 51.8712078, 4.5300378 51.8712823, 4.5298383 51.8713552, 4.5296118 51.8714681, 4.5294845 51.871529, 4.5292887 51.8715998, 4.5287904 51.8717275, 4.5282423 51.8719334, 4.5280262 51.8719879), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5238862 51.873997, 4.5236198 51.8744114, 4.5235218 51.8745134), (4.5235218 51.8745134, 4.5235807 51.8745336), (4.5235807 51.8745336, 4.5236739 51.8745663, 4.5244158 51.8748388), (4.5244158 51.8748388, 4.5248697 51.8750019), (4.5248697 51.8750019, 4.5249426 51.8750294), (4.5249426 51.8750294, 4.5249147 51.8752794, 4.5249067 51.8753511, 4.5248415 51.8754574), (4.5248415 51.8754574, 4.5248163 51.8756396, 4.5248078 51.8757007, 4.5247946 51.8758005, 4.5247822 51.875888, 4.5247638 51.8760179, 4.5247591 51.8760399, 4.524729 51.8763276, 4.524701 51.8765536), (4.524701 51.8765536, 4.524688 51.876658, 4.524621 51.8769296, 4.5245797 51.8769938, 4.524405 51.8771971, 4.5242986 51.877321), (4.5242986 51.877321, 4.5242449 51.8773787, 4.524212 51.8774151, 4.5241877 51.8774431, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5491952 51.8858746, 4.5491868 51.8859218, 4.5491074 51.8860822), (4.5491074 51.8860822, 4.5491135 51.8866017), (4.5491135 51.8866017, 4.5490916 51.8869321), (4.5490916 51.8869321, 4.5490954 51.8869723, 4.5489717 51.8872989), (4.5489717 51.8872989, 4.5488624 51.8875512), (4.5488624 51.8875512, 4.5488079 51.887664, 4.5488039 51.8877079, 4.5488566 51.887742, 4.5491058 51.8877813, 4.549192 51.8877593, 4.5493116 51.8874768), (4.5493116 51.8874768, 4.5494448 51.8871435), (4.5494448 51.8871435, 4.5495234 51.886977), (4.5495234 51.886977, 4.5496839 51.8870025, 4.5498132 51.887023, 4.5498728 51.8870342, 4.5500591 51.8870593, 4.5501612 51.8870756), (4.5501612 51.8870756, 4.5502685 51.8871105, 4.5504269 51.8871326, 4.5508141 51.8871919, 4.5509547 51.8872134, 4.5510431 51.8872269, 4.5513083 51.887269, 4.5514007 51.8872818, 4.5520649 51.8873867, 4.5522603 51.8874175, 4.5529682 51.88753, 4.5530416 51.8875403, 4.5533176 51.8875727, 4.5534049 51.8875862), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.550361 51.8960888, 4.5508161 51.8975901), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.5548122 51.8987608, 4.5547723 51.8987965, 4.5547152 51.8988289, 4.5546472 51.8988569, 4.5545288 51.8988786, 4.5544459 51.8988879, 4.5535816 51.8989779, 4.5531226 51.8990396, 4.5527269 51.8990836, 4.5523393 51.8991256, 4.5519014 51.8991729, 4.5513648 51.8992125, 4.5513068 51.8992207), (4.5548983 51.8987023, 4.5548526 51.8987272, 4.5548122 51.8987608), (4.5545245 51.8972914, 4.5545246 51.8973396, 4.5545545 51.8974781, 4.5548888 51.8986688, 4.5548983 51.8987023), (4.5547206 51.8969503, 4.554628 51.8970397, 4.5545733 51.8971128, 4.5545344 51.8972013, 4.5545245 51.8972914), (4.5547206 51.8969503, 4.5547147 51.8968396, 4.5546911 51.8967736, 4.55466 51.8967347, 4.5545522 51.8966665, 4.55445 51.8966365), (4.55445 51.8966365, 4.5538792 51.8966295, 4.5536181 51.8966344, 4.5533994 51.8966478, 4.5531848 51.8966684, 4.5529702 51.896704, 4.5527702 51.8967562, 4.551023 51.8973207, 4.5503541 51.8975386, 4.5498802 51.8977113, 4.5493006 51.8979438, 4.5488513 51.8981658), (4.5488513 51.8981658, 4.5487497 51.8982024), (4.5487497 51.8982024, 4.5483649 51.8983135), (4.5483649 51.8983135, 4.5478294 51.8986555), (4.5478294 51.8986555, 4.5471605 51.8991251, 4.5466865 51.8995082, 4.5463181 51.899844, 4.5459668 51.9001904, 4.5456836 51.9005042, 4.5454325 51.9008173, 4.5449534 51.9014626, 4.5443886 51.9022514), (4.5443886 51.9022514, 4.5425932 51.9047847), (4.5425932 51.9047847, 4.542333 51.9051525), (4.542333 51.9051525, 4.5417629 51.9059437), (4.5417629 51.9059437, 4.5396931 51.9088629, 4.539377 51.9093208), (4.539377 51.9093208, 4.5387852 51.910157), (4.5387852 51.910157, 4.5380469 51.9112595), (4.5380469 51.9112595, 4.5379521 51.9116746), (4.5379521 51.9116746, 4.5378351 51.9119875), (4.5378351 51.9119875, 4.5375947 51.9125348, 4.5374436 51.9127966, 4.537105 51.9133637, 4.5370412 51.9134951, 4.5369934 51.9136265, 4.5369753 51.913689, 4.5369626 51.9137448, 4.5369453 51.9138582, 4.5369214 51.9140174), (4.5369214 51.9140174, 4.5368888 51.9142896), (4.5368888 51.9142896, 4.5369016 51.9143641), (4.5369016 51.9143641, 4.5368592 51.9146113, 4.5368458 51.9146701, 4.5368271 51.9147223, 4.5367233 51.9149487), (4.5367233 51.9149487, 4.5366293 51.9151457, 4.5365924 51.9152169, 4.536554 51.9152706, 4.5365167 51.9153179, 4.5364379 51.9153952), (4.5364379 51.9153952, 4.5363083 51.9154615), (4.5363083 51.9154615, 4.5362162 51.915499, 4.5361277 51.9155279, 4.5359824 51.9155615, 4.5358612 51.9155819, 4.5357098 51.9155998, 4.5355691 51.9156122, 4.5354354 51.9156156), (4.5354354 51.9156156, 4.5352698 51.9156114, 4.5351538 51.9156033, 4.5350202 51.9155864, 4.534884 51.9155597, 4.5347655 51.9155265, 4.5346049 51.9154696, 4.5345568 51.9154471, 4.5344284 51.9153869, 4.5343384 51.9153395), (4.5343384 51.9153395, 4.5342584 51.9152815, 4.534185 51.9152151), (4.534185 51.9152151, 4.5341561 51.9151597), (4.5341561 51.9151597, 4.5340751 51.9150032, 4.5339324 51.9147448, 4.5338688 51.9146521, 4.5338052 51.9145726, 4.5337264 51.9144932, 4.5336709 51.9144427, 4.5336154 51.9144022), (4.5336154 51.9144022, 4.5334611 51.9143302, 4.533296 51.9142682, 4.5331445 51.9142189, 4.5329668 51.9141725, 4.5326279 51.9140931, 4.5323165 51.9140357, 4.5320094 51.9139874, 4.5318264 51.9139655, 4.5316488 51.9139536, 4.5314866 51.9139494), (4.5314866 51.9139494, 4.5312325 51.9139526, 4.530978 51.9139687, 4.5307919 51.9139862, 4.5305729 51.9140187, 4.5301352 51.9141132, 4.5296575 51.9142469), (4.5296575 51.9142469, 4.5293095 51.9143451), (4.5293095 51.9143451, 4.5289756 51.9144581, 4.5288483 51.9145063, 4.5286589 51.9145778, 4.5285964 51.9146047, 4.5285529 51.9146207, 4.5284886 51.9146505, 4.5284173 51.9147023), (4.5284173 51.9147023, 4.5289734 51.9156684, 4.5290143 51.9157669, 4.529028 51.9158167, 4.5290971 51.9160723, 4.5291621 51.9162899, 4.529186 51.9164778, 4.5291863 51.9165782, 4.5291886 51.916624, 4.5291924 51.9167389, 4.5291293 51.917261, 4.5291197 51.9173397, 4.5291135 51.9174258, 4.5291124 51.9174854, 4.5291179 51.9175545, 4.5291233 51.9176184, 4.5291377 51.9177075, 4.5291588 51.9178107, 4.5291818 51.9178874, 4.52921 51.9179576, 4.5292986 51.9181552, 4.5294137 51.9183615, 4.5298236 51.9191005, 4.5298961 51.9192186, 4.5299221 51.9192625, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>384207</t>
+          <t>383230</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1438,17 +1438,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Schiedam, Station Schiedam Centrum</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bus 38: Rotterdam Crooswijk =&gt; Schiedam Centrum</t>
+          <t>Bus 183: Rotterdam Kralingse Zoom =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>183</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1459,14 +1459,14 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4917757 51.9371883, 4.4916792 51.9371381, 4.491676 51.9370574), (4.4905215 51.9359435, 4.4907751 51.9362681, 4.4911439 51.9367248, 4.491245 51.9368255, 4.4913732 51.9369017, 4.491676 51.9370574), (4.4903644 51.9357268, 4.4905215 51.9359435), (4.4903644 51.9357268, 4.4914752 51.9357962, 4.4921988 51.9358548, 4.4931761 51.9359078, 4.4937986 51.9359398), (4.4937986 51.9359398, 4.4944866 51.9359895, 4.4946666 51.9360026), (4.4946666 51.9360026, 4.4949296 51.9360225), (4.4968895 51.9347223, 4.4967408 51.9347866, 4.4961675 51.9351944, 4.495778 51.935451, 4.4954 51.9357, 4.4952641 51.9357918, 4.4950929 51.9359074, 4.4949296 51.9360225), (4.4960139 51.9338664, 4.4961348 51.9339858, 4.4963537 51.9341923, 4.4963761 51.9342135, 4.4968895 51.9347223), (4.4953038 51.9332279, 4.4954532 51.9333669, 4.4959268 51.9337925, 4.4960139 51.9338664), (4.4947204 51.9327548, 4.4947971 51.932817, 4.4953038 51.9332279), (4.4946942 51.9327319, 4.4947204 51.9327548), (4.4931195 51.9328701, 4.4931575 51.9328659, 4.4938352 51.9327866, 4.4940671 51.93276, 4.4942035 51.9327443, 4.4944129 51.9327281, 4.4944426 51.9327273, 4.4944934 51.9327252, 4.4946942 51.9327319), (4.4931195 51.9328701, 4.4923667 51.9329522, 4.4920995 51.9329813, 4.4918255 51.9330139, 4.4904884 51.9331618, 4.4901868 51.9331976, 4.4888748 51.9333423, 4.4887378 51.9333577, 4.4887075 51.9333601), (4.4887075 51.9333601, 4.4886807 51.9333639, 4.4886463 51.9333692), (4.4886463 51.9333692, 4.4886196 51.9333592, 4.4885732 51.933341, 4.4885286 51.9333167, 4.4884957 51.9333002, 4.4884594 51.933282, 4.4883959 51.9332376, 4.4883432 51.9331858), (4.4863926 51.9302863, 4.486379 51.9304008, 4.4863776 51.9304305, 4.4863889 51.9305556, 4.4864002 51.9306355, 4.4864398 51.9307667, 4.4864827 51.9308827, 4.4865285 51.9309804, 4.4865808 51.9310921, 4.4866605 51.9312372, 4.4867379 51.9313582, 4.4868565 51.9315391, 4.4873423 51.9321848, 4.4876155 51.9325845, 4.487682 51.9326758, 4.4877443 51.9327386, 4.487782 51.9327787, 4.4878721 51.9328552, 4.4879358 51.9329064, 4.4881141 51.9330312, 4.4883432 51.9331858), (4.4863926 51.9302863, 4.4864125 51.9301961, 4.4864305 51.9301176, 4.486415 51.9300978, 4.486391 51.9300588), (4.486391 51.9300588, 4.4864102 51.929973, 4.4864374 51.9298628, 4.4864199 51.9297366, 4.4864099 51.9296651, 4.4863583 51.929482, 4.4863537 51.9293376, 4.4863676 51.9291922, 4.4863848 51.9291376, 4.4864461 51.9289434, 4.4864831 51.9286527, 4.4864885 51.9286153, 4.486537 51.9281036, 4.4865755 51.9278887), (4.4865755 51.9278887, 4.4865958 51.927721, 4.4866014 51.9276558, 4.4866012 51.9275692), (4.4866012 51.9275692, 4.4866011 51.927553, 4.4865904 51.9274624, 4.4865754 51.9273916), (4.4865754 51.9273916, 4.4865246 51.9273749, 4.4851496 51.9269229, 4.4849079 51.9268222), (4.4849079 51.9268222, 4.4847361 51.9267436), (4.4847361 51.9267436, 4.4826045 51.9258907, 4.4824523 51.9258285, 4.4819174 51.9256072), (4.4819174 51.9256072, 4.4812629 51.925377, 4.4808857 51.9252436, 4.4807344 51.9251952, 4.4805964 51.9251501, 4.48039 51.9250926, 4.4802719 51.9250656, 4.4801521 51.9250389, 4.4799927 51.92501, 4.4799149 51.924997, 4.4797142 51.9249583), (4.4797142 51.9249583, 4.4795644 51.9249278, 4.4795062 51.9249152, 4.4786273 51.9247213, 4.4785222 51.924703, 4.4784609 51.9246928, 4.4782456 51.9246829), (4.4782456 51.9246829, 4.4781356 51.9247468, 4.4780055 51.924794), (4.4780055 51.924794, 4.4778717 51.9248209, 4.4777317 51.9248302, 4.4775917 51.9248214, 4.4775463 51.9248145, 4.4774976 51.9248045, 4.4774804 51.9247999, 4.4774465 51.9247922, 4.477373 51.9247674, 4.4772886 51.9247292), (4.4772886 51.9247292, 4.4771852 51.924672, 4.4771197 51.9246116), (4.4771197 51.9246116, 4.4769519 51.9244827, 4.4768482 51.9244082, 4.4767203 51.9243525, 4.4766115 51.9243242, 4.4756633 51.9241341, 4.475333 51.9240679, 4.475232 51.9240477, 4.4750155 51.9240038, 4.4748755 51.9239743), (4.4748755 51.9239743, 4.4747305 51.9239454, 4.4747029 51.9239394, 4.4746503 51.923929, 4.4746045 51.9239197, 4.4740531 51.9238093), (4.4740531 51.9238093, 4.4734552 51.9236854, 4.4734382 51.9236819, 4.4732799 51.9236498, 4.4731271 51.9236199), (4.4731271 51.9236199, 4.4714901 51.9232759), (4.4714901 51.9232759, 4.469607 51.9228865), (4.469607 51.9228865, 4.4681272 51.9225877, 4.4678125 51.9225305, 4.4676768 51.9225104, 4.4676173 51.9225031, 4.4675508 51.9224986, 4.4674958 51.9224977, 4.467429 51.9224969, 4.4672711 51.922498), (4.4672711 51.922498, 4.4671554 51.9225021, 4.4664572 51.9225417, 4.4663065 51.9225503, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629276 51.9226624, 4.4628351 51.9226479, 4.462784 51.9226396, 4.4627358 51.9226309, 4.4626965 51.9226232, 4.4626495 51.9226121, 4.4626077 51.9226011, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4624456 51.9225368, 4.46233 51.9224838, 4.4619885 51.9223321, 4.4617093 51.922195, 4.4616448 51.922171), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4565831 51.9213873, 4.456427 51.9214005, 4.4563845 51.9214019, 4.4562106 51.9214041, 4.4560904 51.9214067, 4.4559084 51.9213913, 4.4557499 51.9213717, 4.4554996 51.921336, 4.4553721 51.9213207, 4.4553214 51.9213215, 4.4551847 51.9213132), (4.4551847 51.9213132, 4.4551246 51.9213581, 4.455073 51.9213783), (4.455073 51.9213783, 4.4549923 51.9213861, 4.4549499 51.9213836), (4.4549499 51.9213836, 4.4548705 51.9213628, 4.4548277 51.9213389, 4.4547968 51.9213088, 4.4547799 51.9212748), (4.4547799 51.9212748, 4.4546473 51.9212537, 4.4545967 51.921237, 4.4545707 51.9212307, 4.4543595 51.9211693, 4.4539267 51.9210393, 4.4535517 51.9209074), (4.4531413 51.92082, 4.4532334 51.9208403, 4.4535517 51.9209074), (4.4490572 51.9199095, 4.4496221 51.9200402, 4.4497665 51.9200738, 4.4504507 51.9202332, 4.4513299 51.9204361, 4.4521657 51.9206156, 4.4530105 51.9207929, 4.4531413 51.92082), (4.4490572 51.9199095, 4.4489356 51.919896, 4.4488549 51.919871, 4.448713 51.9198124, 4.4486543 51.9197882, 4.4485447 51.9197391), (4.4485447 51.9197391, 4.4484836 51.9197546, 4.4484177 51.9197577, 4.4483535 51.9197481, 4.4482972 51.9197268), (4.4482972 51.9197268, 4.4481769 51.9197568, 4.4481034 51.9197577, 4.4478124 51.9197613), (4.4439657 51.9200533, 4.4444745 51.9200132, 4.4452987 51.9199548, 4.447123 51.9198137, 4.4474696 51.9197888, 4.4477412 51.9197674, 4.4478124 51.9197613), (4.4439657 51.9200533, 4.4436304 51.9201182, 4.4435672 51.9201291, 4.4435202 51.9201347, 4.4434228 51.920144, 4.4433279 51.9201529, 4.4431786 51.9201656, 4.4430418 51.9201775, 4.4428623 51.920191), (4.4428623 51.920191, 4.4426886 51.9202016, 4.4426399 51.9202081, 4.4426046 51.9202156, 4.4425676 51.9202244, 4.4425211 51.9202377, 4.4424861 51.9202477, 4.442453 51.9202613, 4.4422817 51.9203483, 4.4421917 51.9204029, 4.4420499 51.9204975, 4.4416836 51.9207179), (4.4416836 51.9207179, 4.4415875 51.9207787), (4.4415875 51.9207787, 4.4411797 51.9209696, 4.440888 51.9211152, 4.4408223 51.9211457, 4.4407606 51.9211728, 4.4406679 51.9212088, 4.4405342 51.9212581, 4.440383 51.9213158, 4.4402386 51.9213661, 4.4401177 51.9214032, 4.4399964 51.9214361, 4.4398501 51.921474, 4.4397277 51.9215011, 4.4395365 51.9215392, 4.4393411 51.9215751, 4.4392064 51.9215953, 4.4390544 51.9216142), (4.4390544 51.9216142, 4.4390283 51.9216177, 4.4388902 51.9216324, 4.4386863 51.9216519, 4.438456 51.9216677), (4.438456 51.9216677, 4.4382673 51.9216751, 4.4379905 51.9216804, 4.4378507 51.9216793, 4.4372982 51.9216641, 4.4371203 51.9216558, 4.4369388 51.9216464, 4.4368801 51.9216406, 4.4368074 51.9216308, 4.4366945 51.9216097, 4.4364353 51.9215623), (4.4364353 51.9215623, 4.4362398 51.9215257), (4.4362398 51.9215257, 4.4359303 51.9214591, 4.4357786 51.921426, 4.43566 51.9213987, 4.435512 51.9213613, 4.4349958 51.9212241, 4.4346902 51.9211413, 4.434402 51.9210571, 4.4341314 51.9209798, 4.4338811 51.920905, 4.4336515 51.9208316, 4.4333323 51.9207332, 4.4330638 51.920654, 4.4329366 51.9206191, 4.4327871 51.920583, 4.4326171 51.9205449, 4.4324808 51.9205161, 4.4323422 51.9204907, 4.4320415 51.920439, 4.43188 51.9204207, 4.4317184 51.9204024, 4.4312009 51.9203731), (4.4312009 51.9203731, 4.4307225 51.9203687, 4.4302031 51.9203802, 4.4294252 51.9204512, 4.4292614 51.9204662, 4.4291095 51.9204757, 4.4289284 51.9204899), (4.4289284 51.9204899, 4.428923 51.9203707), (4.428923 51.9203707, 4.4289037 51.9202507, 4.428814 51.919929, 4.4286737 51.9192605, 4.4286175 51.9189925, 4.4284398 51.9181656, 4.4283821 51.9178973, 4.4283606 51.9178117), (4.4283606 51.9178117, 4.4283362 51.9177031, 4.428305 51.9175926), (4.428305 51.9175926, 4.4282771 51.9174632, 4.4282347 51.9173869, 4.4281669 51.917289, 4.428019 51.9171673, 4.4278606 51.9170822, 4.4276637 51.9170127, 4.4275231 51.9169799, 4.4273456 51.9169604), (4.4273456 51.9169604, 4.4270564 51.9169682, 4.4270092 51.9169695), (4.4270092 51.9169695, 4.4261477 51.9169928, 4.4260726 51.9169949, 4.4259974 51.9169969, 4.4257895 51.9170017), (4.4257895 51.9170017, 4.4255816 51.9170042), (4.4255816 51.9170042, 4.4253618 51.9170098, 4.4247254 51.9170197, 4.4244382 51.9170252, 4.4242957 51.9170059), (4.4242957 51.9170059, 4.4241158 51.9170025, 4.4236547 51.917027), (4.4236547 51.917027, 4.422765 51.9171043, 4.422586 51.9171192, 4.4217003 51.917197, 4.4215615 51.9172108, 4.4211344 51.9172522, 4.4208113 51.9172802, 4.420165 51.9173385, 4.4199665 51.9173564, 4.4190629 51.9174307, 4.4177935 51.9175495, 4.4176338 51.9175609, 4.4173174 51.9175906), (4.4173174 51.9175906, 4.4171927 51.9176218, 4.4170147 51.9176467, 4.4168287 51.9176738, 4.4166418 51.9177145, 4.416523 51.9177218), (4.416523 51.9177218, 4.416316 51.9177168, 4.4161383 51.9177197, 4.4158486 51.9177382, 4.415733 51.9177269), (4.415733 51.9177269, 4.4155021 51.9177641, 4.4152379 51.9178534, 4.4150968 51.9179052, 4.4149636 51.9179561, 4.4147638 51.9180307, 4.4146456 51.9180752, 4.4144889 51.9181352, 4.4132896 51.918594, 4.4131221 51.9186545, 4.412934 51.9187194, 4.41276 51.9187392, 4.4126161 51.9187518, 4.4124476 51.9187537), (4.4124476 51.9187537, 4.4124295 51.918784, 4.4123963 51.918809, 4.4123517 51.9188259, 4.4123005 51.9188329, 4.4122485 51.9188292, 4.4122013 51.9188152, 4.4121641 51.9187924, 4.4121411 51.9187634), (4.4121411 51.9187634, 4.4119883 51.9187849, 4.4117961 51.9188068), (4.4117961 51.9188068, 4.4116308 51.9188262, 4.4111473 51.919076, 4.4109898 51.9191603, 4.4107464 51.9192914, 4.4100502 51.9196647), (4.4100502 51.9196647, 4.4093856 51.920034, 4.4091859 51.9201509, 4.4091246 51.9201803), (4.4096943 51.920582, 4.4092212 51.9202484, 4.4091246 51.9201803), (4.4096943 51.920582, 4.4099168 51.9207407, 4.41 51.9208, 4.4100309 51.9208582, 4.4100585 51.9209076, 4.4100809 51.9209507, 4.4101263 51.9210344), (4.4101714 51.9211202, 4.4101263 51.9210344), (4.4101714 51.9211202, 4.409913 51.9211819, 4.4096667 51.9212407), (4.4096667 51.9212407, 4.4090742 51.9213762))</t>
+          <t>MULTILINESTRING ((4.5326664 51.921806, 4.5328002 51.9219914, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5479149 51.8980137, 4.5485747 51.8975964, 4.5487375 51.8974839, 4.5488444 51.897379, 4.5488933 51.8972621, 4.5489196 51.8971507, 4.5489077 51.8970619, 4.5488729 51.8969771, 4.5488177 51.8968981), (4.5488177 51.8968981, 4.5487476 51.8968387, 4.5486356 51.8967748, 4.5484664 51.8967126, 4.5482726 51.8966717, 4.5481199 51.8966541, 4.5479251 51.8966494, 4.547233 51.8966504), (4.547233 51.8966504, 4.5467952 51.8966721, 4.5465439 51.896691, 4.5462845 51.8967191), (4.5462845 51.8967191, 4.5461268 51.8967364), (4.5461268 51.8967364, 4.546009 51.8967487, 4.5458973 51.8967672), (4.5458973 51.8967672, 4.5458275 51.8967838, 4.5457023 51.8968256, 4.5455832 51.8968701, 4.5454467 51.8969435, 4.5453203 51.8970335, 4.5451801 51.8971775, 4.5451243 51.8972607, 4.5450901 51.8973448, 4.5450587 51.8974481, 4.545048 51.8975699, 4.545076 51.8976869, 4.545124 51.8977958), (4.545124 51.8977958, 4.5451662 51.8978642, 4.5452108 51.8979192), (4.5452108 51.8979192, 4.5452709 51.8980302, 4.5453505 51.8981248, 4.5454883 51.8982762, 4.5456368 51.898438, 4.54568 51.8984894, 4.5457353 51.8985458, 4.5458583 51.8986813, 4.5459884 51.8988089, 4.5462656 51.8989648, 4.5472345 51.8994042, 4.547562 51.8995488, 4.5476515 51.8995782, 4.5477379 51.8995856, 4.5478421 51.8995974, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5487738 51.8995215), (4.5500922 51.8993607, 4.5499524 51.8993782, 4.5487738 51.8995215), (4.5513068 51.8992207, 4.5503112 51.8993343, 4.5500922 51.8993607), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.550361 51.8960888, 4.5508161 51.8975901), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5537909 51.8866067, 4.5537511 51.8866954, 4.5534485 51.8874889, 4.5534049 51.8875862), (4.5537909 51.8866067, 4.553608 51.8862373, 4.5535617 51.8861367, 4.5534987 51.8859574, 4.5534857 51.885831, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5241253 51.877511, 4.5240744 51.8775674, 4.5240534 51.8775906, 4.5239828 51.8776682), (4.5242986 51.877321, 4.5242449 51.8773787, 4.524212 51.8774151, 4.5241877 51.8774431, 4.5241253 51.877511), (4.524701 51.8765536, 4.524688 51.876658, 4.524621 51.8769296, 4.5245797 51.8769938, 4.524405 51.8771971, 4.5242986 51.877321), (4.5248415 51.8754574, 4.5248163 51.8756396, 4.5248078 51.8757007, 4.5247946 51.8758005, 4.5247822 51.875888, 4.5247638 51.8760179, 4.5247591 51.8760399, 4.524729 51.8763276, 4.524701 51.8765536), (4.5248415 51.8754574, 4.5248284 51.8753226, 4.5248347 51.8752738, 4.5248697 51.8750019), (4.5244158 51.8748388, 4.5248697 51.8750019), (4.5235807 51.8745336, 4.5236739 51.8745663, 4.5244158 51.8748388), (4.5235218 51.8745134, 4.5235807 51.8745336), (4.5233961 51.8744682, 4.5235218 51.8745134), (4.5233961 51.8744682, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5282131 51.871889, 4.5287592 51.871698, 4.528907 51.8716415, 4.5292342 51.8715389, 4.5294225 51.87147, 4.5300086 51.8712543, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5353732 51.8694084, 4.5351646 51.8694777, 4.5350151 51.8695296, 4.5348653 51.8695826, 4.5346672 51.8696393), (4.5357765 51.8692846, 4.5354618 51.8693812, 4.5353732 51.8694084), (4.536216 51.8687493, 4.5362684 51.8687988, 4.5362839 51.8688321, 4.5363023 51.868918, 4.5362971 51.8689649, 4.5362773 51.8690301, 4.5362198 51.8690913, 4.5361594 51.8691419, 4.5360905 51.8691815, 4.5360075 51.8692153, 4.5357765 51.8692846), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362744 51.8635002, 4.5362616 51.8633186, 4.5362616 51.8632064, 4.5362697 51.863147), (4.5362697 51.863147, 4.5362812 51.8630752, 4.536286 51.8630431, 4.5362926 51.8628241, 4.5362966 51.8627044), (4.5362966 51.8627044, 4.536296 51.8626013), (4.536296 51.8626013, 4.5363036 51.8624724, 4.5363139 51.8620037, 4.5362983 51.8617363, 4.5362945 51.8615858), (4.5362433 51.8593107, 4.5362563 51.8600024, 4.5362603 51.8600793, 4.5362618 51.8602102, 4.5362724 51.8605997, 4.5362764 51.8614328, 4.5362945 51.8615858), (4.5362365 51.8574061, 4.5362365 51.8584422, 4.5362397 51.8589712, 4.5362395 51.8590436, 4.5362409 51.8591443, 4.5362433 51.8593107), (4.5362365 51.8574061, 4.5362074 51.8573266, 4.5361932 51.8572215, 4.5361838 51.856956, 4.5361807 51.8568996, 4.5361744 51.8567876), (4.5361744 51.8567876, 4.5361758 51.856731), (4.5361758 51.856731, 4.5362342 51.8567311, 4.5362769 51.8567288), (4.5362769 51.8567288, 4.5364676 51.8567186, 4.5370489 51.8567172, 4.5372261 51.8567319), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5399866 51.8557707, 4.5401249 51.8556473), (4.5401249 51.8556473, 4.5401548 51.8556288, 4.5402927 51.8555419, 4.5403048 51.8555343, 4.5404479 51.8554431, 4.5404822 51.855421, 4.5405328 51.855388, 4.5407372 51.8552967), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.540196 51.8529447, 4.5403403 51.8530294, 4.5407707 51.8532433, 4.5409889 51.8533411, 4.5410632 51.8533842, 4.5414519 51.8536088, 4.5416457 51.8537492, 4.5421909 51.8542166, 4.5422253 51.8542471, 4.5423018 51.8543125), (4.540196 51.8529447, 4.5400995 51.8529201, 4.5399619 51.8528331, 4.5399439 51.8528217, 4.5397913 51.8527235, 4.5397701 51.8527066), (4.5397701 51.8527066, 4.5396753 51.8527389, 4.5394128 51.8527701, 4.5391576 51.8527685), (4.5391576 51.8527685, 4.5390088 51.8527813, 4.5373411 51.8528389, 4.5371991 51.8528492, 4.5369493 51.8528736), (4.5369493 51.8528736, 4.5367911 51.8529254, 4.5366988 51.8529349, 4.5366052 51.8529506, 4.5365675 51.8529569), (4.5365675 51.8529569, 4.5365412 51.852994, 4.5364964 51.8530236, 4.5364383 51.8530423), (4.5364383 51.8530423, 4.5363685 51.8530478, 4.5363001 51.8530377), (4.5363001 51.8530377, 4.5362427 51.8530136, 4.5362027 51.8529786, 4.5361849 51.8529355, 4.5361903 51.8528989, 4.5362147 51.8528636, 4.536256 51.8528349, 4.5363098 51.8528157), (4.5363098 51.8528157, 4.5363004 51.8527594, 4.5362966 51.8527367, 4.5362914 51.8526419, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362493 51.8502139, 4.5362533 51.850148, 4.5362579 51.8500909, 4.5362583 51.850066), (4.5362583 51.850066, 4.5362045 51.8500497, 4.5361613 51.850024, 4.5361331 51.8499914), (4.5361331 51.8499914, 4.5361226 51.849951, 4.5361349 51.8499108), (4.5361349 51.8499108, 4.5361612 51.8498813, 4.5361998 51.8498575, 4.5362477 51.8498414), (4.5362477 51.8498414, 4.5362413 51.8497777, 4.5362378 51.8497575, 4.5362775 51.8493998), (4.5362704 51.8472999, 4.5362753 51.8473929, 4.5362753 51.8474216, 4.5362775 51.8493998), (4.5362704 51.8472999, 4.5362044 51.8469852, 4.5361875 51.8468626), (4.5361875 51.8468626, 4.5361746 51.8464631, 4.5361751 51.8464019), (4.5361751 51.8464019, 4.5361755 51.8462737), (4.5361755 51.8462737, 4.5361757 51.8462105), (4.5361757 51.8462105, 4.5361762 51.8458772, 4.5361942 51.8454302, 4.536245 51.8453334), (4.5362351 51.8447571, 4.536245 51.8453334), (4.5362351 51.8447571, 4.5361938 51.8446831, 4.5361776 51.8445258, 4.5361763 51.8444877), (4.5361763 51.8444877, 4.5361302 51.8444769, 4.5360903 51.8444589, 4.5360596 51.8444351, 4.5360402 51.844407), (4.5360402 51.844407, 4.53574 51.8443679, 4.5355284 51.8443193), (4.5347077 51.8442632, 4.5348397 51.8442601, 4.5349606 51.8442657, 4.5355284 51.8443193), (4.5333037 51.8442892, 4.5338219 51.8442834, 4.5342277 51.8442759, 4.5347077 51.8442632), (4.5314779 51.8442987, 4.5321761 51.8442991, 4.5324246 51.8442941, 4.5326342 51.8442917, 4.5328468 51.8442931, 4.5333037 51.8442892), (4.5314885 51.8451246, 4.5314882 51.844853, 4.5314792 51.8446802, 4.5314681 51.8444255, 4.5314779 51.8442987), (4.5299127 51.8451429, 4.5304491 51.8451377, 4.5309206 51.8451331, 4.5311141 51.8451293, 4.5314885 51.8451246), (4.5296719 51.8451465, 4.5299127 51.8451429), (4.5277694 51.8451663, 4.5281975 51.8451604, 4.5282487 51.8451597, 4.5283163 51.8451586, 4.5289664 51.8451561, 4.5289928 51.8451552, 4.5291012 51.8451527, 4.5296719 51.8451465), (4.5277671 51.8450377, 4.5277676 51.8450646, 4.5277694 51.8451663), (4.527758 51.8445349, 4.5277585 51.8445616, 4.5277644 51.8448864, 4.5277657 51.8449603, 4.5277671 51.8450377), (4.5276361 51.8436986, 4.5276835 51.8437908, 4.5277152 51.843879, 4.5277539 51.8443623, 4.527758 51.8445349), (4.5276361 51.8436986, 4.5274275 51.8434394), (4.5274275 51.8434394, 4.5273779 51.8434375, 4.5273295 51.8434304, 4.5272838 51.8434183, 4.5272421 51.8434016, 4.5272057 51.8433807, 4.5271755 51.8433563, 4.5271525 51.8433291), (4.5271525 51.8433291, 4.5268841 51.8433386, 4.5266743 51.8433443, 4.5261988 51.8433475, 4.5256616 51.8433816, 4.5251105 51.8434648, 4.5246485 51.8435341, 4.5237206 51.8436692, 4.5231693 51.8437346, 4.5227447 51.8437892), (4.5227447 51.8437892, 4.521619 51.8438964), (4.521619 51.8438964, 4.5211646 51.8439335, 4.5203262 51.8439801, 4.5201535 51.8439897, 4.5198974 51.8440027), (4.5198974 51.8440027, 4.5194902 51.8440214), (4.5194902 51.8440214, 4.5188734 51.8440502), (4.5188734 51.8440502, 4.5178177 51.8440994), (4.5178177 51.8440994, 4.5175376 51.8441108, 4.5173983 51.8441174), (4.5173983 51.8441174, 4.5172328 51.8441251, 4.5168106 51.8441449), (4.5168106 51.8441449, 4.5140426 51.8442647), (4.5140426 51.8442647, 4.5139077 51.8442701, 4.513724 51.844278), (4.513724 51.844278, 4.5135972 51.8442822, 4.5132408 51.8442994), (4.5132408 51.8442994, 4.5122853 51.8443444), (4.5122853 51.8443444, 4.5120019 51.8443673, 4.511644 51.8443838, 4.5107755 51.8444205), (4.5107755 51.8444205, 4.5099405 51.8444576, 4.509745 51.8444751, 4.5094515 51.8445485, 4.50929 51.8446095, 4.5091616 51.8447144), (4.5091616 51.8447144, 4.5091938 51.8447798, 4.5092042 51.8448479, 4.5091931 51.8449142, 4.5091613 51.8449778, 4.50911 51.8450365, 4.5090412 51.8450879), (4.5090412 51.8450879, 4.5089638 51.8451275, 4.5088759 51.8451578, 4.5087806 51.8451778, 4.5086811 51.8451867, 4.5085806 51.8451843, 4.5084824 51.8451707), (4.5084824 51.8451707, 4.5083178 51.8452592, 4.5081458 51.8454758, 4.5080705 51.8457061, 4.5080232 51.8459593, 4.5080166 51.8464374, 4.5081628 51.84798, 4.5081725 51.8480556, 4.5081835 51.8481407), (4.5081835 51.8481407, 4.5081858 51.848222), (4.5081858 51.848222, 4.5082793 51.8490484), (4.5082793 51.8490484, 4.508311 51.8491951), (4.508311 51.8491951, 4.5083977 51.8492137, 4.508472 51.8492471, 4.5085273 51.8492923, 4.508559 51.8493456), (4.508559 51.8493456, 4.5085653 51.8493924, 4.5085531 51.8494388), (4.5085531 51.8494388, 4.5085242 51.8494809, 4.5084801 51.8495176, 4.5084233 51.8495468, 4.5083569 51.849567), (4.5083569 51.849567, 4.5082541 51.849578, 4.5081513 51.8495675), (4.5081513 51.8495675, 4.5080695 51.8495413, 4.5080036 51.8495015, 4.5079528 51.849453, 4.5079407 51.8493958, 4.5079456 51.849349, 4.5079687 51.8493043, 4.5080085 51.8492644, 4.5080627 51.8492316, 4.5081281 51.8492078), (4.5081281 51.8492078, 4.5081542 51.849102, 4.5080693 51.8482396), (4.5080693 51.8482396, 4.5080609 51.848136), (4.5080609 51.848136, 4.5080199 51.8477682, 4.5078881 51.8461491, 4.5079219 51.8458087, 4.5080165 51.8454771, 4.5082127 51.8451675, 4.5082159 51.8450556), (4.5082159 51.8450556, 4.5081619 51.8450037, 4.5081239 51.8449466, 4.5081032 51.8448863, 4.5081004 51.8448247, 4.5081071 51.8447825, 4.5081212 51.844743), (4.5081212 51.844743, 4.5081165 51.8447153, 4.5081083 51.8446876, 4.5080971 51.8446578, 4.5080815 51.8446312, 4.508052 51.8445984, 4.5080251 51.8445701, 4.5080013 51.8445451, 4.5079745 51.8445221), (4.5079745 51.8445221, 4.5079633 51.8445123, 4.5079444 51.8444987, 4.5079075 51.8444763, 4.5078709 51.8444547, 4.5078245 51.8444277, 4.5077789 51.8443989, 4.507654 51.8442933), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.5011258 51.8442847, 4.5010253 51.8443266, 4.5008624 51.8443752, 4.5008003 51.8443921, 4.5005717 51.8444634), (4.5005717 51.8444634, 4.5005701 51.8444922, 4.5005483 51.8445286, 4.5005177 51.8445509, 4.5004545 51.8445786), (4.5004545 51.8445786, 4.5004512 51.8446591, 4.5004557 51.8448558, 4.5004702 51.8449888, 4.5004732 51.8452103, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.500569 51.8460238, 4.5005759 51.8460789, 4.5005822 51.8461653, 4.5006023 51.8463606, 4.5006114 51.846439, 4.5006156 51.8464964, 4.5005798 51.8466531), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005968 51.8470272, 4.5006109 51.8471269, 4.5005521 51.8473367, 4.5004631 51.8475036, 4.5003396 51.8476556, 4.5002013 51.8477813), (4.5002013 51.8477813, 4.5001313 51.8478358, 4.5001098 51.8478526, 4.5000883 51.8478694, 4.5000667 51.8478862, 4.499995 51.8479421), (4.499995 51.8479421, 4.4997806 51.8480715, 4.499629 51.8481465, 4.4994158 51.848224, 4.4992205 51.8482555), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4982664 51.8484549, 4.4981078 51.8485266, 4.4980619 51.8485408, 4.4980211 51.8485509, 4.4979907 51.8485572, 4.4978697 51.8485827, 4.4975776 51.8486428, 4.4974211 51.8486743, 4.4973787 51.848683, 4.4973249 51.8486899, 4.4972833 51.8486954, 4.4970461 51.8487123), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4928811 51.8501276, 4.4927246 51.8502499, 4.4926516 51.8502987, 4.4926155 51.8503186), (4.4926155 51.8503186, 4.492567 51.8503431, 4.492459 51.8503978, 4.4922629 51.8504966, 4.4921699 51.8505319, 4.4919243 51.8506091), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4909165 51.8510154, 4.490719 51.8511204, 4.4906671 51.8511421, 4.4906232 51.8511579, 4.4905678 51.8511796, 4.4905263 51.8511941, 4.4903489 51.8512567, 4.4902448 51.8512922, 4.4901716 51.8513121, 4.4901344 51.8513214, 4.4900957 51.8513298, 4.4900529 51.8513351, 4.4899584 51.8513392, 4.4899082 51.8513385, 4.4898594 51.8513368, 4.4898192 51.8513342, 4.4897837 51.8513301, 4.4897243 51.8513197), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4852424 51.8529589, 4.4852913 51.8529858, 4.4853231 51.8530212, 4.4853341 51.8530611, 4.4853231 51.853101, 4.4852913 51.8531364, 4.4852423 51.8531632), (4.4852423 51.8531632, 4.4851723 51.8531797, 4.4850974 51.8531787, 4.4850287 51.8531603, 4.4849763 51.8531272, 4.4849479 51.8530844), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4745575 51.8569288, 4.474605 51.8569655, 4.4746271 51.8570102, 4.4746207 51.8570578, 4.4745796 51.857105, 4.4745011 51.8571397, 4.474458 51.8571471, 4.4743645 51.8571427, 4.4742753 51.857107), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.471765 51.859785, 4.4717757 51.8598451, 4.4718127 51.860047, 4.4718124 51.8600709, 4.4718145 51.8601245, 4.4718159 51.8601616), (4.4718159 51.8601616, 4.4718724 51.8601823, 4.4719167 51.8602123, 4.4719451 51.8602489), (4.4719451 51.8602489, 4.4720414 51.8602614, 4.4720863 51.8602646, 4.4721582 51.8602672, 4.4733019 51.8603012, 4.4733791 51.8602965, 4.4734322 51.8602912), (4.4734322 51.8602912, 4.473468 51.8602573, 4.4735213 51.8602287, 4.4735863 51.8602117, 4.4736567 51.8602079, 4.4737255 51.8602178, 4.4737859 51.8602404, 4.473832 51.8602734, 4.4738593 51.8603137), (4.4738593 51.8603137, 4.4738657 51.8603444, 4.4738609 51.8603752, 4.4738451 51.8604047, 4.4738245 51.8604268, 4.4737977 51.8604461, 4.4737657 51.8604622), (4.4737657 51.8604622, 4.4737904 51.8605398), (4.4737904 51.8605398, 4.4738155 51.8606328), (4.4738155 51.8606328, 4.4741014 51.8615911), (4.4741014 51.8615911, 4.4744428 51.8626655), (4.4744428 51.8626655, 4.4744963 51.8628223, 4.4748308 51.8635667, 4.4748561 51.8636318), (4.4748561 51.8636318, 4.4749261 51.8636466, 4.4749847 51.8636744, 4.4750142 51.8637016, 4.4750259 51.8637124, 4.4750451 51.8637565, 4.4750436 51.8637715, 4.4750404 51.863802, 4.4750123 51.8638443, 4.4749638 51.8638787), (4.4749638 51.8638787, 4.4750017 51.8639658, 4.4750144 51.8640032, 4.4750704 51.8641367, 4.475233 51.8645218), (4.475233 51.8645218, 4.4752933 51.8646646), (4.4752933 51.8646646, 4.4754627 51.8650657, 4.4762919 51.8671223, 4.4763968 51.8673627, 4.4764328 51.8674299), (4.4764328 51.8674299, 4.4764907 51.8674428, 4.4765395 51.867466, 4.4765746 51.8674972, 4.4765919 51.8675299, 4.4765938 51.8675642, 4.4765754 51.8676047, 4.4765361 51.8676391), (4.4765361 51.8676391, 4.4765326 51.8677499, 4.4765384 51.8677815, 4.4766888 51.8682452, 4.4769296 51.8690926, 4.4774198 51.8711971, 4.4774442 51.8712772), (4.4774442 51.8712772, 4.4775273 51.8712967, 4.477589 51.8713362, 4.4776177 51.8713881, 4.4776083 51.8714419, 4.4775631 51.8714884, 4.4774906 51.8715188), (4.4774906 51.8715188, 4.4775154 51.8715932, 4.4778 51.8727, 4.4779931 51.873565, 4.478021 51.8736674, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>384208</t>
+          <t>383253</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1476,17 +1476,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rotterdam, Kerkhoflaan</t>
+          <t>Ridderkerk, Peterselieweg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bus 38: Schiedam Centrum =&gt; Rotterdam Crooswijk</t>
+          <t>Bus 187: Rotterdam Zuidplein =&gt; Ridderkerk Nieuw-Reijerwaard</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>187</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1497,14 +1497,14 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.408814 51.9213724, 4.40915 51.921267, 4.4098666 51.9210988, 4.4099402 51.9210803, 4.4101263 51.9210344), (4.4096943 51.920582, 4.4099168 51.9207407, 4.41 51.9208, 4.4100309 51.9208582, 4.4100585 51.9209076, 4.4100809 51.9209507, 4.4101263 51.9210344), (4.4096943 51.920582, 4.4092212 51.9202484, 4.4091246 51.9201803), (4.4100502 51.9196647, 4.4093856 51.920034, 4.4091859 51.9201509, 4.4091246 51.9201803), (4.4117961 51.9188068, 4.4116308 51.9188262, 4.4111473 51.919076, 4.4109898 51.9191603, 4.4107464 51.9192914, 4.4100502 51.9196647), (4.4121411 51.9187634, 4.4119883 51.9187849, 4.4117961 51.9188068), (4.4121411 51.9187634, 4.4121348 51.9187299, 4.4121475 51.918697, 4.4121777 51.9186688, 4.4122216 51.9186487, 4.412274 51.918639, 4.4123327 51.9186415, 4.4123858 51.9186571, 4.4124259 51.9186837, 4.4124475 51.9187174, 4.4124476 51.9187537), (4.415733 51.9177269, 4.4155021 51.9177641, 4.4152379 51.9178534, 4.4150968 51.9179052, 4.4149636 51.9179561, 4.4147638 51.9180307, 4.4146456 51.9180752, 4.4144889 51.9181352, 4.4132896 51.918594, 4.4131221 51.9186545, 4.412934 51.9187194, 4.41276 51.9187392, 4.4126161 51.9187518, 4.4124476 51.9187537), (4.415733 51.9177269, 4.4158382 51.9176912, 4.4161301 51.9176681, 4.4163084 51.9176636), (4.4163084 51.9176636, 4.4165127 51.9176793), (4.4165127 51.9176793, 4.4166322 51.9176676, 4.4168141 51.9176218), (4.4168141 51.9176218, 4.4169424 51.9176046, 4.4169995 51.9176003, 4.4171907 51.9175816, 4.4173174 51.9175906), (4.4236547 51.917027, 4.422765 51.9171043, 4.422586 51.9171192, 4.4217003 51.917197, 4.4215615 51.9172108, 4.4211344 51.9172522, 4.4208113 51.9172802, 4.420165 51.9173385, 4.4199665 51.9173564, 4.4190629 51.9174307, 4.4177935 51.9175495, 4.4176338 51.9175609, 4.4173174 51.9175906), (4.4242957 51.9170059, 4.4241158 51.9170025, 4.4236547 51.917027), (4.4242957 51.9170059, 4.4244216 51.9169572, 4.4252444 51.9169186, 4.4253495 51.9169141, 4.4254195 51.9169111, 4.4256443 51.9169033), (4.4256443 51.9169033, 4.4258331 51.9169067), (4.4258331 51.9169067, 4.4260558 51.9169001, 4.4261357 51.9168991, 4.4271126 51.9168864), (4.4271126 51.9168864, 4.4274727 51.9168889), (4.4274727 51.9168889, 4.4277596 51.9169537, 4.427942 51.9170265, 4.428111 51.9171109, 4.4282799 51.9172449, 4.4283443 51.9173276, 4.428398 51.9174136, 4.428423 51.9175843), (4.428423 51.9175843, 4.4284493 51.9176943, 4.4284763 51.917801), (4.4284763 51.917801, 4.4285415 51.9180672, 4.4285597 51.9181512, 4.4287696 51.9189763, 4.4288415 51.919246, 4.4289935 51.9199124, 4.4290357 51.9201532, 4.4290504 51.9202373, 4.4290818 51.9203542), (4.4290818 51.9203542, 4.4292411 51.9203234, 4.4303292 51.9202561, 4.4307461 51.9202493, 4.4312374 51.9202571), (4.4312374 51.9202571, 4.4317039 51.9202742, 4.4318625 51.9202906, 4.4320212 51.9203125), (4.4320212 51.9203125, 4.4321898 51.9203389, 4.4324917 51.9203899, 4.4326024 51.9204126, 4.4326838 51.9204326, 4.4327689 51.9204558, 4.4328562 51.9204845, 4.4330481 51.9205485, 4.4334797 51.9206898, 4.4340027 51.9208582, 4.4344141 51.9209837, 4.4348515 51.921106, 4.4353215 51.9212284, 4.4357389 51.9213366, 4.4359471 51.921381, 4.4361312 51.921418, 4.4363977 51.9214733), (4.4363977 51.9214733, 4.4364704 51.9214863), (4.4364704 51.9214863, 4.43664 51.9215118, 4.436763 51.9215265, 4.436897 51.921539, 4.4372138 51.9215639, 4.4374904 51.9215818, 4.437873 51.9215831, 4.4380276 51.9215834, 4.4382635 51.921576, 4.4384854 51.9215644, 4.4386611 51.9215494), (4.4386611 51.9215494, 4.4388897 51.9215238, 4.4390395 51.9215035, 4.4390928 51.9214941), (4.4390928 51.9214941, 4.4393446 51.9214461, 4.4395328 51.9214053, 4.4397271 51.9213512, 4.4398926 51.9213028, 4.4400274 51.9212563, 4.4401231 51.9212212, 4.4402579 51.921164, 4.4403697 51.9211163, 4.4405125 51.9210415, 4.4406706 51.9209467, 4.44081 51.9208519), (4.44081 51.9208519, 4.4413574 51.9204832, 4.4415509 51.9203989, 4.4416446 51.9203581, 4.4417042 51.9203337, 4.441716 51.9203289, 4.4418188 51.920292), (4.4418188 51.920292, 4.4419417 51.9202534, 4.4420143 51.9202345, 4.4421058 51.9202166), (4.4421058 51.9202166, 4.4429771 51.9201201, 4.4430291 51.9201147, 4.4431669 51.9200999, 4.4433747 51.9200854, 4.4435509 51.9200746, 4.4436147 51.9200714, 4.4439657 51.9200533), (4.4439657 51.9200533, 4.4444745 51.9200132, 4.4452987 51.9199548, 4.447123 51.9198137, 4.4474696 51.9197888, 4.4477412 51.9197674, 4.4478124 51.9197613), (4.4478124 51.9197613, 4.448051 51.9197155, 4.4481309 51.9197001, 4.4482265 51.9196513), (4.4482265 51.9196513, 4.4482266 51.9196035, 4.4482544 51.919559), (4.4482544 51.919559, 4.4482924 51.9195308, 4.4483416 51.9195102, 4.4484272 51.919497, 4.4485141 51.9195064, 4.4485872 51.9195368, 4.448623 51.9195677, 4.4486429 51.9196037, 4.4486458 51.9196377, 4.4486344 51.919671), (4.4486344 51.919671, 4.4487034 51.9197376, 4.4487653 51.9197727, 4.4488902 51.9198435, 4.4490572 51.9199095), (4.4490572 51.9199095, 4.4496221 51.9200402, 4.4497665 51.9200738, 4.4504507 51.9202332, 4.4513299 51.9204361, 4.4521657 51.9206156, 4.4530105 51.9207929, 4.4531413 51.92082), (4.4531413 51.92082, 4.4532334 51.9208403, 4.4535517 51.9209074), (4.4535517 51.9209074, 4.453956 51.920985, 4.4545424 51.9211656, 4.4546101 51.9211809, 4.4546604 51.9211938, 4.4547897 51.9212059), (4.4547897 51.9212059, 4.4548174 51.9211762, 4.4548585 51.9211495, 4.45491 51.9211308), (4.45491 51.9211308, 4.4549678 51.9211216, 4.4550047 51.921122), (4.4550047 51.921122, 4.455027 51.9211225, 4.4550836 51.9211333, 4.4551333 51.9211532, 4.4551722 51.9211807, 4.4551976 51.9212137, 4.4552092 51.9212428), (4.4552092 51.9212428, 4.4553035 51.9212544, 4.4553396 51.921264, 4.4553905 51.9212679, 4.455708 51.9213039, 4.4557744 51.9213125, 4.4559055 51.921322, 4.4560815 51.9213233), (4.4560815 51.9213233, 4.4562137 51.9213262, 4.4562858 51.9213293, 4.4563319 51.9213323, 4.4563924 51.9213379, 4.4564273 51.9213438, 4.4565831 51.9213873), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4616448 51.922171, 4.4617134 51.9221824, 4.4617725 51.9221935, 4.4619426 51.9222344, 4.4620721 51.9222699, 4.462115 51.9222847), (4.462115 51.9222847, 4.4623979 51.922397, 4.4624753 51.9224277, 4.4625906 51.9224711, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661004 51.9224577, 4.466304 51.9224402, 4.4664005 51.9224341, 4.4670548 51.9223911, 4.4673276 51.9223794), (4.4673276 51.9223794, 4.4674555 51.922379, 4.4675654 51.9223809, 4.4676719 51.9223857, 4.467816 51.9223984, 4.4679869 51.9224187, 4.4681857 51.9224535, 4.4686671 51.9225472, 4.4691077 51.922632, 4.4695231 51.9227013, 4.4696893 51.9227278), (4.4696893 51.9227278, 4.4700805 51.9228048, 4.4709773 51.9229556, 4.4715933 51.9230921), (4.4715933 51.9230921, 4.4724497 51.9232651), (4.4724497 51.9232651, 4.472973 51.9233656, 4.4732262 51.9234142), (4.4732262 51.9234142, 4.4733896 51.9234439, 4.4735459 51.9234738), (4.4735459 51.9234738, 4.4741718 51.9235894, 4.4751239 51.9237692, 4.4751617 51.9237762, 4.4753603 51.9238153), (4.4753603 51.9238153, 4.4761927 51.9239776, 4.476813 51.9240985, 4.4769224 51.9241169, 4.4770044 51.924125, 4.4772165 51.9241418), (4.4772165 51.9241418, 4.4773054 51.9240886, 4.4774322 51.9240388, 4.4774795 51.9240283, 4.4775736 51.9240075, 4.4777228 51.9239962, 4.477846 51.9240061, 4.4779195 51.9240158, 4.4779584 51.9240232, 4.4779744 51.9240262, 4.478001 51.9240312, 4.4780116 51.9240341), (4.4780116 51.9240341, 4.4780355 51.9240419, 4.478077 51.9240553, 4.4781806 51.9241041), (4.4781806 51.9241041, 4.4782549 51.9241504, 4.4783414 51.9242352), (4.4783414 51.9242352, 4.4785235 51.924358, 4.4786137 51.9244196, 4.478661 51.9244573, 4.4788154 51.9245171, 4.479551 51.9246743, 4.4796266 51.9246902, 4.479682 51.9247018, 4.4798461 51.9247374), (4.4798461 51.9247374, 4.4800363 51.9247734, 4.48011 51.9247899, 4.4802513 51.9248218, 4.480471 51.9248855), (4.480471 51.9248855, 4.4808426 51.9250146, 4.4818492 51.9253455), (4.4818492 51.9253455, 4.4820681 51.9254518, 4.4821452 51.9254895, 4.4822083 51.9255273, 4.4823875 51.9256318, 4.4825872 51.9257483, 4.4848009 51.9266659), (4.4848009 51.9266659, 4.484976 51.9267366), (4.484976 51.9267366, 4.4852199 51.9268409, 4.4863278 51.9271928, 4.4865022 51.9272469, 4.4865576 51.9272641, 4.4866486 51.9272923, 4.4866931 51.927306, 4.4867411 51.9273209), (4.4867411 51.9273209, 4.4867577 51.9274516, 4.4867621 51.9275182, 4.4867635 51.9275583, 4.4867404 51.927697, 4.4866366 51.9285917, 4.4865567 51.9292396, 4.4865584 51.9293792, 4.486592 51.9295298, 4.4866325 51.9296506, 4.4866487 51.9297568, 4.4866398 51.9298594, 4.4866133 51.9299587, 4.4865995 51.9299865, 4.4865528 51.9300715), (4.4865528 51.9300715, 4.4865295 51.9301224, 4.4864706 51.9302193, 4.4864164 51.9302644, 4.4863926 51.9302863), (4.4863926 51.9302863, 4.486379 51.9304008, 4.4863776 51.9304305, 4.4863889 51.9305556, 4.4864002 51.9306355, 4.4864398 51.9307667, 4.4864827 51.9308827, 4.4865285 51.9309804, 4.4865808 51.9310921, 4.4866605 51.9312372, 4.4867379 51.9313582, 4.4868565 51.9315391, 4.4873423 51.9321848, 4.4876155 51.9325845, 4.487682 51.9326758, 4.4877443 51.9327386, 4.487782 51.9327787, 4.4878721 51.9328552, 4.4879358 51.9329064, 4.4881141 51.9330312, 4.4883432 51.9331858), (4.4883432 51.9331858, 4.4884081 51.9332145, 4.4885239 51.9332728, 4.4886267 51.9333187, 4.4886854 51.9333499, 4.4887075 51.9333601), (4.4931195 51.9328701, 4.4923667 51.9329522, 4.4920995 51.9329813, 4.4918255 51.9330139, 4.4904884 51.9331618, 4.4901868 51.9331976, 4.4888748 51.9333423, 4.4887378 51.9333577, 4.4887075 51.9333601), (4.4931195 51.9328701, 4.4931575 51.9328659, 4.4938352 51.9327866, 4.4940671 51.93276, 4.4942035 51.9327443, 4.4944129 51.9327281, 4.4944426 51.9327273, 4.4944934 51.9327252, 4.4946942 51.9327319), (4.4946942 51.9327319, 4.4947204 51.9327548), (4.4947204 51.9327548, 4.4947971 51.932817, 4.4953038 51.9332279), (4.4953038 51.9332279, 4.4954532 51.9333669, 4.4959268 51.9337925, 4.4960139 51.9338664), (4.4960139 51.9338664, 4.4961348 51.9339858, 4.4963537 51.9341923, 4.4963761 51.9342135, 4.4968895 51.9347223), (4.4968895 51.9347223, 4.4967408 51.9347866, 4.4961675 51.9351944, 4.495778 51.935451, 4.4954 51.9357, 4.4952641 51.9357918, 4.4950929 51.9359074, 4.4949296 51.9360225), (4.4949296 51.9360225, 4.4948137 51.936125), (4.4948137 51.936125, 4.494196 51.9366086, 4.4928863 51.9376753), (4.4928019 51.9376328, 4.4928863 51.9376753), (4.4927019 51.9375811, 4.4928019 51.9376328), (4.4924397 51.9374524, 4.4927019 51.9375811))</t>
+          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5220097 51.8769687, 4.522013 51.8769323, 4.5220595 51.8765436, 4.522117 51.876008, 4.5221632 51.8756371, 4.5222052 51.8755429, 4.5222702 51.8754551, 4.5227598 51.8750424, 4.5232827 51.8745843, 4.5233961 51.8744682), (4.5233961 51.8744682, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5282131 51.871889, 4.5287592 51.871698, 4.528907 51.8716415, 4.5292342 51.8715389, 4.5294225 51.87147, 4.5300086 51.8712543, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5348068 51.869543, 4.5349507 51.8694684, 4.5353282 51.8693549), (4.5353282 51.8693549, 4.535419 51.8693301, 4.5357387 51.8692299), (4.5357387 51.8692299, 4.5358962 51.8691815, 4.5360179 51.8691419, 4.536083 51.8691058, 4.5361453 51.8690587, 4.5361792 51.8690086, 4.5361952 51.8689713, 4.5362062 51.8689163, 4.5362056 51.8688542, 4.536216 51.8687493), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362744 51.8635002, 4.5362616 51.8633186, 4.5362616 51.8632064, 4.5362697 51.863147), (4.5362697 51.863147, 4.5362812 51.8630752, 4.536286 51.8630431, 4.5362926 51.8628241, 4.5362966 51.8627044), (4.5362966 51.8627044, 4.536296 51.8626013), (4.536296 51.8626013, 4.5364308 51.8626027), (4.5364308 51.8626027, 4.536664 51.8626149, 4.5392029 51.8626095), (4.5392029 51.8626095, 4.5398481 51.8626138, 4.5399181 51.862614, 4.5400276 51.8626117, 4.5402608 51.8626087, 4.5403332 51.8626063, 4.5404121 51.8625978, 4.5404607 51.8625883, 4.5405135 51.8625725, 4.5405469 51.8625628), (4.5405469 51.8625628, 4.5405997 51.8625503, 4.540664 51.8625411, 4.5407204 51.8625381), (4.5407204 51.8625381, 4.5408365 51.8625472, 4.5409348 51.8625619), (4.5409348 51.8625619, 4.5410088 51.862584, 4.5410758 51.862609, 4.541149 51.8626323, 4.5411817 51.8626407, 4.5412143 51.8626476, 4.5414392 51.8626853), (4.5414392 51.8626853, 4.5420853 51.8627376, 4.542604 51.8628012, 4.5430978 51.862874, 4.5438342 51.8630141, 4.5446021 51.8631821), (4.5446021 51.8631821, 4.5458815 51.8634585), (4.5458815 51.8634585, 4.548304 51.863969), (4.548304 51.863969, 4.5488128 51.8640434, 4.5492882 51.8641388), (4.5492882 51.8641388, 4.5497528 51.8642429, 4.549834 51.8642567, 4.5500764 51.8642987), (4.5500764 51.8642987, 4.5501432 51.864173, 4.550358 51.8638305, 4.5507955 51.8631964), (4.5507955 51.8631964, 4.5509711 51.8629769, 4.5511424 51.8627512), (4.5520563 51.8611582, 4.5520681 51.8612195, 4.5520281 51.8613049, 4.5520121 51.8613311, 4.5511424 51.8627512), (4.5508571 51.860807, 4.5508952 51.8608225, 4.5509467 51.8608348, 4.5512701 51.8609103, 4.5519789 51.86108, 4.5520319 51.8611151, 4.5520563 51.8611582), (4.5507887 51.8607757, 4.5508142 51.8607874, 4.5508571 51.860807), (4.5506141 51.8597351, 4.5506958 51.8597827, 4.5509626 51.859847, 4.5510556 51.8598661, 4.5511173 51.8598964, 4.5511414 51.8599374, 4.5511411 51.8599836, 4.5509428 51.8603519, 4.5507743 51.8606998, 4.5507887 51.8607757), (4.5519497 51.8569918, 4.5518 51.8572, 4.5515388 51.8575051, 4.5513508 51.8577484, 4.5510448 51.8581022, 4.5507199 51.8584779, 4.5502 51.8591, 4.5501731 51.8591489, 4.5501772 51.859205, 4.5506141 51.8597351), (4.5523898 51.8564599, 4.5520435 51.8568647, 4.5519497 51.8569918), (4.5523898 51.8564599, 4.5524226 51.8563965, 4.552521 51.8563093, 4.5527489 51.8561141), (4.5527489 51.8561141, 4.5528159 51.8560968, 4.5528419 51.8560901, 4.5529052 51.8560738, 4.5530031 51.8560416, 4.5530395 51.8560297), (4.5530395 51.8560297, 4.5530808 51.8559574, 4.5531686 51.8559129, 4.5532802 51.8558995), (4.5532802 51.8558995, 4.5533439 51.855843, 4.5533583 51.8558238, 4.5533777 51.8558006, 4.5535564 51.8555826, 4.5536844 51.8554756), (4.5555626 51.8538535, 4.5554626 51.8538366, 4.5553353 51.8538296, 4.5552296 51.8538424, 4.5551268 51.8538721, 4.5550523 51.8539071, 4.5549269 51.8540044, 4.5547769 51.8541477, 4.5546599 51.8542759, 4.5538488 51.8552651, 4.5537648 51.8553694, 4.5536844 51.8554756), (4.5555626 51.8538535, 4.5557541 51.8538809, 4.5560097 51.8539042, 4.5561625 51.8539298, 4.5563078 51.8539607, 4.5564379 51.8539921, 4.5568784 51.8541005, 4.5572991 51.8541827, 4.5575547 51.854231, 4.5580925 51.8543319, 4.5585776 51.8544204, 4.5589429 51.8544793, 4.5593761 51.8545328, 4.5595742 51.8545462, 4.5598581 51.8545538, 4.5601146 51.8545511), (4.5601146 51.8545511, 4.560107 51.8549246, 4.5597534 51.855469, 4.5590261 51.856616, 4.5586345 51.8567485, 4.5589272 51.8570873, 4.5589462 51.8571091, 4.5589918 51.8571588, 4.5591152 51.8572317, 4.5593137 51.8572947, 4.5606835 51.8576638, 4.5607999 51.8576979), (4.5607999 51.8576979, 4.5609471 51.8577088, 4.5609825 51.8577167), (4.5609825 51.8577167, 4.5611525 51.857757, 4.5611787 51.8577628), (4.5611787 51.8577628, 4.5617211 51.8570472), (4.5617211 51.8570472, 4.5621091 51.8565567, 4.5622602 51.8564029), (4.5622602 51.8564029, 4.5626244 51.8564899, 4.562894 51.8565646), (4.562894 51.8565646, 4.5631572 51.8566354, 4.5636108 51.8567755, 4.5637729 51.8568302, 4.563843 51.8568466, 4.5639471 51.8568757, 4.5640632 51.8569123, 4.5640949 51.8569436, 4.5641144 51.8569737, 4.5641202 51.8569919, 4.5641181 51.8570291, 4.5641155 51.8570748, 4.5640989 51.8571253, 4.5638313 51.857478, 4.5636721 51.8576879, 4.5636078 51.8577727, 4.5635673 51.8578261, 4.5632737 51.858213, 4.5629627 51.8586332, 4.5619289 51.8600301), (4.5619289 51.8600301, 4.5618877 51.8600983, 4.5618081 51.8601898, 4.5616728 51.8602433), (4.5616728 51.8602433, 4.5630551 51.8608758), (4.5630551 51.8608758, 4.5637878 51.8612112, 4.5645197 51.8615463), (4.5645197 51.8615463, 4.5646906 51.8616434, 4.5647848 51.861715, 4.5648719 51.8618002, 4.564923 51.8618645, 4.5649652 51.8619319, 4.5650159 51.8620575, 4.5650333 51.8621711, 4.5650294 51.8622565, 4.5649873 51.8624822), (4.5649873 51.8624822, 4.5649768 51.8626052), (4.5649768 51.8626052, 4.5649722 51.8626586, 4.5649843 51.8627597, 4.5650165 51.8628436, 4.5650605 51.8629271, 4.565184 51.8630505, 4.5652342 51.8630886, 4.5653479 51.8631713), (4.5653479 51.8631713, 4.5655419 51.8632872, 4.566458 51.8638223, 4.5670052 51.864138, 4.5675019 51.8644263, 4.5676733 51.8645258, 4.5678156 51.8646084, 4.5681119 51.8647803, 4.5683123 51.8648966, 4.56844 51.8649709), (4.56844 51.8649709, 4.5686379 51.865086))</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>384325</t>
+          <t>383254</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1514,17 +1514,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rotterdam, Caïrostraat</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bus 42: Rotterdam Marconiplein =&gt; Rotterdam Bedrijvenpark Noord-West</t>
+          <t>Bus 187: Ridderkerk Nieuw-Reijerwaard =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>187</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1535,14 +1535,14 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4316822 51.9136058, 4.4318559 51.913557, 4.431904 51.9135169, 4.4318932 51.9134463, 4.4318861 51.9134363, 4.4318661 51.9134138, 4.4318447 51.9133912, 4.4317438 51.9133624, 4.4316506 51.9133654), (4.4316506 51.9133654, 4.4311943 51.9135124), (4.4311943 51.9135124, 4.430908 51.9136151, 4.4307552 51.9136959), (4.4307552 51.9136959, 4.4306095 51.9138959), (4.4306095 51.9138959, 4.4304502 51.9140443, 4.4302457 51.9141746, 4.4301333 51.9142374, 4.4298954 51.9143341, 4.4289021 51.9147234, 4.4285609 51.9148782, 4.4279131 51.9152276, 4.4274959 51.9154913, 4.4266441 51.9160857, 4.4264829 51.916192), (4.4264829 51.916192, 4.426453 51.9162117, 4.4262601 51.9163553, 4.4261142 51.9165168, 4.4259646 51.916701, 4.4258978 51.9167995, 4.4258331 51.9169067), (4.4258331 51.9169067, 4.4260558 51.9169001, 4.4261357 51.9168991, 4.4271126 51.9168864), (4.4271126 51.9168864, 4.4274727 51.9168889), (4.4274727 51.9168889, 4.4277596 51.9169537, 4.427942 51.9170265, 4.428111 51.9171109, 4.4282799 51.9172449, 4.4283443 51.9173276, 4.428398 51.9174136, 4.428423 51.9175843), (4.428423 51.9175843, 4.4284493 51.9176943, 4.4284763 51.917801), (4.4284763 51.917801, 4.4285415 51.9180672, 4.4285597 51.9181512, 4.4287696 51.9189763, 4.4288415 51.919246, 4.4289935 51.9199124, 4.4290357 51.9201532, 4.4290504 51.9202373, 4.4290818 51.9203542), (4.4290818 51.9203542, 4.4291095 51.9204757), (4.4291095 51.9204757, 4.4290942 51.9206756, 4.4290943 51.9207571, 4.428985 51.9212549), (4.428985 51.9212549, 4.4289119 51.9215876), (4.4289119 51.9215876, 4.428892 51.921649, 4.4288422 51.9217798), (4.4288422 51.9217798, 4.4288717 51.9218212, 4.4288261 51.9219287, 4.4287724 51.9219548, 4.4286652 51.9219713, 4.428542 51.9219637, 4.4283783 51.9219482, 4.4280502 51.9219249), (4.4280502 51.9219249, 4.4279096 51.9219484, 4.4278388 51.9219659, 4.4277687 51.9219919, 4.4276779 51.922052, 4.427406 51.9223028, 4.4272946 51.9223882), (4.4272946 51.9223882, 4.4271813 51.9225129, 4.4270379 51.9226764, 4.4269779 51.9227424, 4.4268286 51.9228893, 4.4264954 51.9232006, 4.4260067 51.9236572, 4.4256486 51.9239911, 4.4251075 51.9245017, 4.425071 51.9245354, 4.4247933 51.9247919, 4.4245047 51.9250473), (4.4245047 51.9250473, 4.4244035 51.9252117, 4.4243864 51.9252396), (4.4243864 51.9252396, 4.4244785 51.9252842, 4.4245121 51.9253071, 4.4245242 51.9253222, 4.4245296 51.9253503), (4.4245296 51.9253503, 4.4245142 51.9253748, 4.4242826 51.9255788, 4.4242492 51.9256082, 4.4241999 51.9256205), (4.4241999 51.9256205, 4.4241116 51.9256243, 4.4240616 51.9256216, 4.4238903 51.9255558), (4.4238903 51.9255558, 4.4238554 51.9255855, 4.4237216 51.9256988), (4.4237216 51.9256988, 4.4234458 51.9259323, 4.4228858 51.9263846, 4.4226614 51.9265777, 4.4220188 51.9270944, 4.4215586 51.9274945, 4.4210053 51.9279383, 4.4201697 51.9286366, 4.4194152 51.9292547, 4.4189761 51.9296217, 4.4182827 51.9301959, 4.4180459 51.9304032, 4.4172511 51.9310471, 4.4171635 51.9311203, 4.4164937 51.9317138), (4.4164937 51.9317138, 4.4164385 51.9317978), (4.4164385 51.9317978, 4.4164656 51.9318295, 4.4164802 51.9318641, 4.4164815 51.9319, 4.4164618 51.9319477, 4.4164188 51.9319891, 4.4163571 51.9320202, 4.4163006 51.9320351, 4.4162401 51.932041, 4.416179 51.9320378, 4.416121 51.9320254), (4.416121 51.9320254, 4.4160302 51.9320937), (4.4160302 51.9320937, 4.4154362 51.9326257, 4.415338 51.9327203, 4.4150466 51.9329983, 4.4150126 51.9330351, 4.4140663 51.9339201, 4.4135411 51.9344073, 4.4134873 51.9344476, 4.4134459 51.9344664, 4.4133921 51.9344792, 4.4123588 51.9345795), (4.4123588 51.9345795, 4.4120602 51.9346055), (4.4120602 51.9346055, 4.4119082 51.9346182, 4.4118188 51.9346257), (4.4118188 51.9346257, 4.4116937 51.9346356), (4.4116937 51.9346356, 4.411845 51.9352395, 4.4118506 51.9353837, 4.4118202 51.9356665), (4.4117446 51.9364715, 4.4118202 51.9356665), (4.4116975 51.9369918, 4.4117446 51.9364715), (4.4116975 51.9369918, 4.4116691 51.9372014, 4.4116221 51.9376335, 4.4115653 51.9378173, 4.4114583 51.9380844, 4.4114034 51.9382312), (4.4114034 51.9382312, 4.411393 51.9383583, 4.4109425 51.9393238), (4.4109425 51.9393238, 4.4107327 51.939759, 4.4107079 51.9398219), (4.4107079 51.9398219, 4.4105476 51.9401911), (4.4105476 51.9401911, 4.4103729 51.9405935, 4.4101286 51.9411186, 4.4100341 51.9413217), (4.4100341 51.9413217, 4.4099834 51.9414478, 4.4098523 51.9417122), (4.4098523 51.9417122, 4.4099731 51.9417369, 4.4103136 51.9417991, 4.4105069 51.9418225, 4.4107663 51.9418708, 4.4120706 51.9421403, 4.4124497 51.9422212, 4.4132293 51.9423875, 4.4138219 51.942514), (4.4138219 51.942514, 4.4138184 51.9426317, 4.413817 51.9431811, 4.413817 51.9436483, 4.4138271 51.943943, 4.4137318 51.9441232, 4.4134825 51.9445677, 4.4134422 51.9446371, 4.4134078 51.9446964, 4.4131687 51.9451131, 4.4129094 51.9455873, 4.4126333 51.9461069, 4.4123983 51.9464892), (4.4123983 51.9464892, 4.4123488 51.9465773, 4.412257 51.9465849), (4.412257 51.9465849, 4.4105401 51.9462068, 4.4099085 51.9460786, 4.4093778 51.9459691, 4.4086914 51.9458273, 4.408359 51.9457596, 4.4081715 51.9457214, 4.4081375 51.9457121, 4.4080075 51.9456768, 4.4078843 51.9456434, 4.4073255 51.9455199, 4.4070525 51.9454609), (4.4070525 51.9454609, 4.4069365 51.9454381, 4.4068082 51.9454128, 4.4066943 51.9454, 4.4065868 51.9453772, 4.4064444 51.9453468, 4.4060074 51.9452537, 4.4051879 51.9450792, 4.4045506 51.9449465, 4.4030001 51.9446195, 4.40284 51.9445895, 4.4020706 51.9444295, 4.4018292 51.9443777, 4.40018 51.944025, 4.4001237 51.9440129, 4.398107 51.9435943), (4.398107 51.9435943, 4.3973193 51.9434357), (4.3999354 51.9417311, 4.3998115 51.9418143, 4.399705 51.941883, 4.3985722 51.9426134, 4.3984725 51.9426782, 4.3980265 51.9429679, 4.3978317 51.9431003, 4.3975887 51.9432523, 4.3974397 51.943349, 4.3973193 51.9434357), (4.3999354 51.9417311, 4.401081 51.9419808, 4.4012227 51.942012, 4.4039627 51.9425942), (4.4039627 51.9425942, 4.4040561 51.9424284), (4.4040561 51.9424284, 4.4044614 51.9416762, 4.4046192 51.9413844))</t>
+          <t>MULTILINESTRING ((4.5653479 51.8631713, 4.5655419 51.8632872, 4.566458 51.8638223, 4.5670052 51.864138, 4.5675019 51.8644263, 4.5676733 51.8645258, 4.5678156 51.8646084, 4.5681119 51.8647803, 4.5683123 51.8648966, 4.56844 51.8649709), (4.5649768 51.8626052, 4.5649722 51.8626586, 4.5649843 51.8627597, 4.5650165 51.8628436, 4.5650605 51.8629271, 4.565184 51.8630505, 4.5652342 51.8630886, 4.5653479 51.8631713), (4.5649873 51.8624822, 4.5649768 51.8626052), (4.5645197 51.8615463, 4.5646906 51.8616434, 4.5647848 51.861715, 4.5648719 51.8618002, 4.564923 51.8618645, 4.5649652 51.8619319, 4.5650159 51.8620575, 4.5650333 51.8621711, 4.5650294 51.8622565, 4.5649873 51.8624822), (4.5630551 51.8608758, 4.5637878 51.8612112, 4.5645197 51.8615463), (4.5616728 51.8602433, 4.5630551 51.8608758), (4.5616728 51.8602433, 4.5615806 51.8602813, 4.5614592 51.8603424, 4.5613756 51.8604061), (4.5613756 51.8604061, 4.5612845 51.8605017), (4.5612845 51.8605017, 4.5607601 51.8611781, 4.5597878 51.8624842), (4.5589909 51.8622564, 4.5595488 51.8624157, 4.5597878 51.8624842), (4.5589909 51.8622564, 4.5588152 51.8622431, 4.558489 51.8621624), (4.558489 51.8621624, 4.5584022 51.8620749), (4.5584022 51.8620749, 4.5586466 51.8617406, 4.558893 51.8614973), (4.558893 51.8614973, 4.5597551 51.8602932, 4.5599282 51.8600605), (4.5599282 51.8600605, 4.5599846 51.8599336, 4.5600929 51.8597415), (4.5600929 51.8597415, 4.5600486 51.8596987, 4.560026 51.859646, 4.5600288 51.859597, 4.5600582 51.8595411, 4.5601071 51.859476), (4.5601071 51.859476, 4.5601656 51.8594077, 4.5602356 51.8593572), (4.5602356 51.8593572, 4.560314 51.8593341, 4.5603691 51.8593314), (4.5603691 51.8593314, 4.5604466 51.8592665, 4.5604625 51.8592515, 4.5606365 51.8590367, 4.5607786 51.8588672), (4.5607786 51.8588672, 4.5608186 51.858768, 4.5608769 51.8584742), (4.5608769 51.8584742, 4.5608811 51.8583045, 4.5609365 51.8581439, 4.5609916 51.8580429, 4.5611211 51.8578428), (4.5611211 51.8578428, 4.5609691 51.8577913, 4.5609362 51.8577798), (4.5609362 51.8577798, 4.5607999 51.8576979), (4.5601146 51.8545511, 4.560107 51.8549246, 4.5597534 51.855469, 4.5590261 51.856616, 4.5586345 51.8567485, 4.5589272 51.8570873, 4.5589462 51.8571091, 4.5589918 51.8571588, 4.5591152 51.8572317, 4.5593137 51.8572947, 4.5606835 51.8576638, 4.5607999 51.8576979), (4.5555626 51.8538535, 4.5557541 51.8538809, 4.5560097 51.8539042, 4.5561625 51.8539298, 4.5563078 51.8539607, 4.5564379 51.8539921, 4.5568784 51.8541005, 4.5572991 51.8541827, 4.5575547 51.854231, 4.5580925 51.8543319, 4.5585776 51.8544204, 4.5589429 51.8544793, 4.5593761 51.8545328, 4.5595742 51.8545462, 4.5598581 51.8545538, 4.5601146 51.8545511), (4.5555626 51.8538535, 4.5554626 51.8538366, 4.5553353 51.8538296, 4.5552296 51.8538424, 4.5551268 51.8538721, 4.5550523 51.8539071, 4.5549269 51.8540044, 4.5547769 51.8541477, 4.5546599 51.8542759, 4.5538488 51.8552651, 4.5537648 51.8553694, 4.5536844 51.8554756), (4.5536844 51.8554756, 4.5536073 51.8555943, 4.5535249 51.8557443, 4.5534921 51.8557904, 4.5534709 51.8558201, 4.5534554 51.8558477, 4.5534172 51.8559074, 4.5534046 51.8559271), (4.5534046 51.8559271, 4.5534733 51.8559767, 4.5534992 51.85604, 4.553477 51.8561038), (4.553477 51.8561038, 4.5534193 51.8561508, 4.5533357 51.8561795), (4.5533357 51.8561795, 4.5532277 51.8561838, 4.5531282 51.8561573, 4.5530591 51.8561058), (4.5530591 51.8561058, 4.5529724 51.8561291, 4.5529405 51.856138, 4.5528784 51.8561565, 4.5528219 51.8561737), (4.5528219 51.8561737, 4.5527428 51.8562223, 4.5524698 51.8564245, 4.5523898 51.8564599), (4.5523898 51.8564599, 4.5520435 51.8568647, 4.5519497 51.8569918), (4.5519497 51.8569918, 4.5518 51.8572, 4.5515388 51.8575051, 4.5513508 51.8577484, 4.5510448 51.8581022, 4.5507199 51.8584779, 4.5502 51.8591, 4.5501731 51.8591489, 4.5501772 51.859205, 4.5506141 51.8597351), (4.5506141 51.8597351, 4.5506958 51.8597827, 4.5509626 51.859847, 4.5510556 51.8598661, 4.5511173 51.8598964, 4.5511414 51.8599374, 4.5511411 51.8599836, 4.5509428 51.8603519, 4.5507743 51.8606998, 4.5507887 51.8607757), (4.5507887 51.8607757, 4.5508142 51.8607874, 4.5508571 51.860807), (4.5508571 51.860807, 4.5508952 51.8608225, 4.5509467 51.8608348, 4.5512701 51.8609103, 4.5519789 51.86108, 4.5520319 51.8611151, 4.5520563 51.8611582), (4.5520563 51.8611582, 4.5520681 51.8612195, 4.5520281 51.8613049, 4.5520121 51.8613311, 4.5511424 51.8627512), (4.5511424 51.8627512, 4.5510355 51.8629852, 4.5509053 51.8632188), (4.5509053 51.8632188, 4.5504951 51.8638736, 4.5503396 51.8641309, 4.5502979 51.8642083, 4.55023 51.8643262), (4.55023 51.8643262, 4.5501837 51.8644101), (4.5501837 51.8644101, 4.55004 51.8643817), (4.55004 51.8643817, 4.5497956 51.8643366, 4.548888 51.8641231, 4.548304 51.863969), (4.5458815 51.8634585, 4.548304 51.863969), (4.5446021 51.8631821, 4.5458815 51.8634585), (4.5414392 51.8626853, 4.5420853 51.8627376, 4.542604 51.8628012, 4.5430978 51.862874, 4.5438342 51.8630141, 4.5446021 51.8631821), (4.5414392 51.8626853, 4.5412149 51.8627, 4.5411354 51.86271, 4.5410803 51.862717, 4.540969 51.8627442), (4.540969 51.8627442, 4.5408658 51.8627622, 4.5407864 51.862768), (4.5407864 51.862768, 4.54075 51.8627686, 4.5406656 51.8627602, 4.5405806 51.8627424), (4.5405806 51.8627424, 4.5405265 51.8627328, 4.540465 51.8627125, 4.5403967 51.8626897, 4.5403283 51.8626757, 4.540249 51.8626602, 4.5401305 51.8626522, 4.5400581 51.8626541, 4.5397025 51.8626672, 4.539446 51.8626825), (4.539446 51.8626825, 4.5387863 51.8626974), (4.5387863 51.8626974, 4.5383983 51.8627052, 4.5380137 51.8627067, 4.537025 51.8627003, 4.5367745 51.8627001, 4.5366621 51.8626995, 4.5364322 51.8627023), (4.5364322 51.8627023, 4.5364352 51.8628252, 4.5364269 51.8629148, 4.5364224 51.8629924, 4.5364148 51.8630358, 4.5364 51.8630843, 4.5363105 51.8633919, 4.5362744 51.8635002), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.536216 51.8687493, 4.5362684 51.8687988, 4.5362839 51.8688321, 4.5363023 51.868918, 4.5362971 51.8689649, 4.5362773 51.8690301, 4.5362198 51.8690913, 4.5361594 51.8691419, 4.5360905 51.8691815, 4.5360075 51.8692153, 4.5357765 51.8692846), (4.5357765 51.8692846, 4.5354618 51.8693812, 4.5353732 51.8694084), (4.5353732 51.8694084, 4.5351646 51.8694777, 4.5350151 51.8695296, 4.5348653 51.8695826, 4.5346672 51.8696393), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5301922 51.8712078, 4.5300378 51.8712823, 4.5298383 51.8713552, 4.5296118 51.8714681, 4.5294845 51.871529, 4.5292887 51.8715998, 4.5287904 51.8717275, 4.5282423 51.8719334, 4.5280262 51.8719879), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5238862 51.873997, 4.5236198 51.8744114, 4.5235218 51.8745134), (4.5235218 51.8745134, 4.5233981 51.874623, 4.5231536 51.8747956, 4.5228931 51.8750825, 4.5224919 51.8755244, 4.5224352 51.8756277, 4.5223374 51.8760321, 4.5221909 51.876547, 4.5221453 51.8769064, 4.5221413 51.8769382, 4.5221367 51.8769739, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5221374 51.8771528, 4.5221362 51.8771869, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>384326</t>
+          <t>6397484</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1552,17 +1552,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rotterdam, Marconiplein</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bus 42: Rotterdam Bedrijvenpark Noord-West =&gt; Rotterdam Marconiplein</t>
+          <t>Bus 283: Rotterdam Kralingse Zoom =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1573,14 +1573,14 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4046192 51.9413844, 4.4048656 51.9409487), (4.4048656 51.9409487, 4.4049656 51.9407685, 4.4050168 51.9406804), (4.4050168 51.9406804, 4.4051664 51.9407126, 4.4067167 51.9410262, 4.407898 51.9412746, 4.4089696 51.9415058), (4.4089696 51.9415058, 4.4091805 51.9415673, 4.4097173 51.9416867), (4.4097173 51.9416867, 4.4099126 51.9412606, 4.410377 51.9402404), (4.410377 51.9402404, 4.4105803 51.9397948, 4.4106041 51.9397346), (4.4106041 51.9397346, 4.4110544 51.9387965, 4.411285 51.938336, 4.4114034 51.9382312), (4.4116975 51.9369918, 4.4116691 51.9372014, 4.4116221 51.9376335, 4.4115653 51.9378173, 4.4114583 51.9380844, 4.4114034 51.9382312), (4.4116975 51.9369918, 4.4117446 51.9364715), (4.4117446 51.9364715, 4.4118202 51.9356665), (4.4118202 51.9356665, 4.4118007 51.9354702), (4.4118007 51.9354702, 4.4117718 51.9352794, 4.4116513 51.9348172, 4.4115866 51.9346232), (4.4115866 51.9346232, 4.41168 51.9345777, 4.4118042 51.9345581, 4.4118866 51.9345511, 4.412011 51.9345406), (4.412011 51.9345406, 4.4129291 51.9344517, 4.4133572 51.9344103, 4.413402 51.9343994, 4.4134331 51.9343906, 4.4134682 51.9343712, 4.4135023 51.9343484, 4.4139922 51.9338915, 4.4149354 51.933004, 4.4151636 51.9327848, 4.4152365 51.9327157, 4.4152657 51.9326877, 4.4153619 51.9325979, 4.4159405 51.9320537), (4.4159405 51.9320537, 4.4160223 51.9319723), (4.4160223 51.9319723, 4.4159875 51.9319243, 4.4159806 51.9318719, 4.415991 51.9318395, 4.4160122 51.9318092, 4.4160432 51.9317824, 4.4160827 51.9317602, 4.4161315 51.9317429, 4.4161853 51.9317328, 4.4162414 51.9317304, 4.416297 51.9317357), (4.416297 51.9317357, 4.4164045 51.9316764), (4.4164045 51.9316764, 4.4170777 51.93109, 4.417164 51.9310151, 4.4182055 51.9301621, 4.418451 51.9299562, 4.4188997 51.9295898, 4.4193375 51.9292303, 4.4200921 51.9286077, 4.4209242 51.9279095, 4.4219686 51.927057, 4.4228088 51.9263596, 4.4230651 51.9261485, 4.4236237 51.9256734), (4.4236237 51.9256734, 4.4237667 51.9255518, 4.4237972 51.92552), (4.4237972 51.92552, 4.423679 51.9254703, 4.4236346 51.9254329, 4.4236252 51.9253945), (4.4236252 51.9253945, 4.4236551 51.9253615, 4.4236773 51.9253407, 4.423911 51.9251218, 4.4239459 51.9251081, 4.4239703 51.9250967), (4.4239703 51.9250967, 4.4240301 51.9250925, 4.4242662 51.925184), (4.4242662 51.925184, 4.4242971 51.9251663, 4.4245047 51.9250473), (4.4272946 51.9223882, 4.4271813 51.9225129, 4.4270379 51.9226764, 4.4269779 51.9227424, 4.4268286 51.9228893, 4.4264954 51.9232006, 4.4260067 51.9236572, 4.4256486 51.9239911, 4.4251075 51.9245017, 4.425071 51.9245354, 4.4247933 51.9247919, 4.4245047 51.9250473), (4.4272946 51.9223882, 4.4274354 51.9221799, 4.4275911 51.9220164, 4.4276953 51.9219399, 4.4277909 51.9218966), (4.4277909 51.9218966, 4.4279478 51.9218557, 4.4284063 51.9217721), (4.4284063 51.9217721, 4.4286575 51.9217182), (4.4286575 51.9217182, 4.4287401 51.921645, 4.4288042 51.9215569), (4.4288042 51.9215569, 4.4288655 51.921323), (4.4288655 51.921323, 4.4288783 51.9211997, 4.4289246 51.9206548, 4.4289284 51.9204899), (4.4289284 51.9204899, 4.428923 51.9203707), (4.428923 51.9203707, 4.4289037 51.9202507, 4.428814 51.919929, 4.4286737 51.9192605, 4.4286175 51.9189925, 4.4284398 51.9181656, 4.4283821 51.9178973, 4.4283606 51.9178117), (4.4283606 51.9178117, 4.4283362 51.9177031, 4.428305 51.9175926), (4.428305 51.9175926, 4.4282771 51.9174632, 4.4282347 51.9173869, 4.4281669 51.917289, 4.428019 51.9171673, 4.4278606 51.9170822, 4.4276637 51.9170127, 4.4275231 51.9169799, 4.4273456 51.9169604), (4.4273456 51.9169604, 4.4270564 51.9169682, 4.4270092 51.9169695), (4.4270092 51.9169695, 4.4261477 51.9169928, 4.4260726 51.9169949, 4.4259974 51.9169969, 4.4257895 51.9170017), (4.4257895 51.9170017, 4.4255816 51.9170042), (4.4255816 51.9170042, 4.4256443 51.9169033), (4.4256443 51.9169033, 4.4257027 51.9167971, 4.4260616 51.9163348, 4.4262186 51.9162024, 4.4265499 51.9159677, 4.4273278 51.9154515, 4.4277355 51.9151886, 4.4281318 51.9149564, 4.42846 51.9147872, 4.4287198 51.9146502), (4.4287198 51.9146502, 4.4290038 51.9145982, 4.430084 51.9141982, 4.4302809 51.9140802, 4.4304037 51.9139597, 4.4306095 51.9138959), (4.4306095 51.9138959, 4.4307924 51.913842, 4.4313343 51.9137082), (4.4313343 51.9137082, 4.4316822 51.9136058))</t>
+          <t>MULTILINESTRING ((4.5326664 51.921806, 4.5328002 51.9219914, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5479149 51.8980137, 4.5485747 51.8975964, 4.5487375 51.8974839, 4.5488444 51.897379, 4.5488933 51.8972621, 4.5489196 51.8971507, 4.5489077 51.8970619, 4.5488729 51.8969771, 4.5488177 51.8968981), (4.5488177 51.8968981, 4.5487476 51.8968387, 4.5486356 51.8967748, 4.5484664 51.8967126, 4.5482726 51.8966717, 4.5481199 51.8966541, 4.5479251 51.8966494, 4.547233 51.8966504), (4.547233 51.8966504, 4.5467952 51.8966721, 4.5465439 51.896691, 4.5462845 51.8967191), (4.5462845 51.8967191, 4.5461268 51.8967364), (4.5461268 51.8967364, 4.546009 51.8967487, 4.5458973 51.8967672), (4.5458973 51.8967672, 4.5458275 51.8967838, 4.5457023 51.8968256, 4.5455832 51.8968701, 4.5454467 51.8969435, 4.5453203 51.8970335, 4.5451801 51.8971775, 4.5451243 51.8972607, 4.5450901 51.8973448, 4.5450587 51.8974481, 4.545048 51.8975699, 4.545076 51.8976869, 4.545124 51.8977958), (4.545124 51.8977958, 4.5451662 51.8978642, 4.5452108 51.8979192), (4.5452108 51.8979192, 4.5452709 51.8980302, 4.5453505 51.8981248, 4.5454883 51.8982762, 4.5456368 51.898438, 4.54568 51.8984894, 4.5457353 51.8985458, 4.5458583 51.8986813, 4.5459884 51.8988089, 4.5462656 51.8989648, 4.5472345 51.8994042, 4.547562 51.8995488, 4.5476515 51.8995782, 4.5477379 51.8995856, 4.5478421 51.8995974, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5487738 51.8995215), (4.5500922 51.8993607, 4.5499524 51.8993782, 4.5487738 51.8995215), (4.5513068 51.8992207, 4.5503112 51.8993343, 4.5500922 51.8993607), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.550361 51.8960888, 4.5508161 51.8975901), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5537909 51.8866067, 4.5537511 51.8866954, 4.5534485 51.8874889, 4.5534049 51.8875862), (4.5537909 51.8866067, 4.553608 51.8862373, 4.5535617 51.8861367, 4.5534987 51.8859574, 4.5534857 51.885831, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5427538 51.8862279, 4.542674 51.8862311, 4.5425966 51.8862187, 4.5425294 51.8861919, 4.5424792 51.8861536, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5422818 51.8860046, 4.5389805 51.8841404, 4.5384694 51.8838634, 4.5383752 51.883812, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5241253 51.877511, 4.5240744 51.8775674, 4.5240534 51.8775906, 4.5239828 51.8776682), (4.5242986 51.877321, 4.5242449 51.8773787, 4.524212 51.8774151, 4.5241877 51.8774431, 4.5241253 51.877511), (4.524701 51.8765536, 4.524688 51.876658, 4.524621 51.8769296, 4.5245797 51.8769938, 4.524405 51.8771971, 4.5242986 51.877321), (4.5248415 51.8754574, 4.5248163 51.8756396, 4.5248078 51.8757007, 4.5247946 51.8758005, 4.5247822 51.875888, 4.5247638 51.8760179, 4.5247591 51.8760399, 4.524729 51.8763276, 4.524701 51.8765536), (4.5248415 51.8754574, 4.5248284 51.8753226, 4.5248347 51.8752738, 4.5248697 51.8750019), (4.5244158 51.8748388, 4.5248697 51.8750019), (4.5235807 51.8745336, 4.5236739 51.8745663, 4.5244158 51.8748388), (4.5235218 51.8745134, 4.5235807 51.8745336), (4.5233961 51.8744682, 4.5235218 51.8745134), (4.5233961 51.8744682, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5282131 51.871889, 4.5287592 51.871698, 4.528907 51.8716415, 4.5292342 51.8715389, 4.5294225 51.87147, 4.5300086 51.8712543, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5353732 51.8694084, 4.5351646 51.8694777, 4.5350151 51.8695296, 4.5348653 51.8695826, 4.5346672 51.8696393), (4.5357765 51.8692846, 4.5354618 51.8693812, 4.5353732 51.8694084), (4.536216 51.8687493, 4.5362684 51.8687988, 4.5362839 51.8688321, 4.5363023 51.868918, 4.5362971 51.8689649, 4.5362773 51.8690301, 4.5362198 51.8690913, 4.5361594 51.8691419, 4.5360905 51.8691815, 4.5360075 51.8692153, 4.5357765 51.8692846), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362744 51.8635002, 4.5362616 51.8633186, 4.5362616 51.8632064, 4.5362697 51.863147), (4.5362697 51.863147, 4.5362812 51.8630752, 4.536286 51.8630431, 4.5362926 51.8628241, 4.5362966 51.8627044), (4.5362966 51.8627044, 4.536296 51.8626013), (4.536296 51.8626013, 4.5363036 51.8624724, 4.5363139 51.8620037, 4.5362983 51.8617363, 4.5362945 51.8615858), (4.5362433 51.8593107, 4.5362563 51.8600024, 4.5362603 51.8600793, 4.5362618 51.8602102, 4.5362724 51.8605997, 4.5362764 51.8614328, 4.5362945 51.8615858), (4.5362365 51.8574061, 4.5362365 51.8584422, 4.5362397 51.8589712, 4.5362395 51.8590436, 4.5362409 51.8591443, 4.5362433 51.8593107), (4.5362365 51.8574061, 4.5362074 51.8573266, 4.5361932 51.8572215, 4.5361838 51.856956, 4.5361807 51.8568996, 4.5361744 51.8567876), (4.5361744 51.8567876, 4.5361758 51.856731), (4.5361758 51.856731, 4.5362342 51.8567311, 4.5362769 51.8567288), (4.5362769 51.8567288, 4.5364676 51.8567186, 4.5370489 51.8567172, 4.5372261 51.8567319), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5399866 51.8557707, 4.5401249 51.8556473), (4.5401249 51.8556473, 4.5401548 51.8556288, 4.5402927 51.8555419, 4.5403048 51.8555343, 4.5404479 51.8554431, 4.5404822 51.855421, 4.5405328 51.855388, 4.5407372 51.8552967), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.5472358 51.8521552, 4.5471428 51.8522429, 4.5469869 51.852301, 4.5461557 51.8526461, 4.5445974 51.8533239, 4.5440281 51.8535651, 4.5438464 51.8536433, 4.543031 51.8539753, 4.5424539 51.8542392, 4.5423018 51.8543125), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5486849 51.8522221, 4.5487987 51.8522093, 4.5488635 51.8522167, 4.5490941 51.8522428, 4.5493137 51.8522676, 4.5494177 51.8523009), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5519422 51.8525328, 4.5521179 51.8525618, 4.5523302 51.8526119, 4.552533 51.8526696, 4.5533174 51.8529705), (4.5533174 51.8529705, 4.5535743 51.8530623, 4.5536128 51.8530921, 4.5536247 51.853115), (4.5536247 51.853115, 4.5536248 51.8531441, 4.5536057 51.853175, 4.5533553 51.8534009), (4.5533553 51.8534009, 4.5531322 51.8536107, 4.5522968 51.8543932), (4.5522968 51.8543932, 4.5521568 51.8545351), (4.5521568 51.8545351, 4.5519122 51.85453), (4.5519122 51.85453, 4.5518042 51.8545278), (4.5518042 51.8545278, 4.5517061 51.8545257), (4.5517061 51.8545257, 4.551594 51.8545234, 4.5515223 51.8546147, 4.5515145 51.854765), (4.5515145 51.854765, 4.5514998 51.8549187), (4.5514998 51.8549187, 4.5511668 51.8549131), (4.5513873 51.8542902, 4.5513471 51.8544039, 4.5511859 51.8548593, 4.5511668 51.8549131), (4.5519422 51.8525328, 4.5517713 51.8530495, 4.5517 51.8533, 4.5515239 51.8538194, 4.5513873 51.8542902), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5494177 51.8523009, 4.5493128 51.8523101, 4.5490803 51.8522859, 4.5488502 51.8522619, 4.5487817 51.8522548, 4.5486849 51.8522221), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5473965 51.8510914, 4.547394 51.8511564, 4.5473597 51.8514184, 4.5472795 51.8518996, 4.547256 51.8520381, 4.5472358 51.8521552), (4.546971 51.8503821, 4.5472673 51.8506665, 4.5473351 51.8508021, 4.547364 51.8509107, 4.5473832 51.8510197, 4.5473965 51.8510914), (4.5493165 51.8486733, 4.5490986 51.8488976, 4.5480482 51.8498356, 4.5477413 51.8500256, 4.546971 51.8503821), (4.5498698 51.8479058, 4.5497797 51.8481803, 4.5497089 51.8483044, 4.5494363 51.8486115, 4.5493165 51.8486733), (4.5501673 51.8470231, 4.5501019 51.8473196, 4.5498698 51.8479058), (4.5501673 51.8470231, 4.5501749 51.8469293, 4.5501992 51.8468666, 4.5502507 51.8467731, 4.5502935 51.8467217, 4.5505427 51.8464398, 4.5507361 51.846254, 4.5509549 51.8460284, 4.5509896 51.8459949, 4.5510207 51.8459649, 4.551051 51.8459325), (4.551051 51.8459325, 4.5511384 51.8458169, 4.5512331 51.8457157), (4.551555 51.8446123, 4.5514027 51.8451022, 4.5513 51.8456, 4.5512331 51.8457157), (4.5516014 51.8445003, 4.551555 51.8446123), (4.5516506 51.8440807, 4.5516236 51.8444005, 4.5516014 51.8445003), (4.5516506 51.8440807, 4.5516205 51.8440008, 4.5516116 51.8438775), (4.5516116 51.8438775, 4.5515644 51.8438595, 4.5515281 51.8438337, 4.5515058 51.8438023), (4.5515058 51.8438023, 4.5513121 51.8437852, 4.5511774 51.8437555), (4.5480775 51.8432412, 4.5485619 51.843384, 4.5492477 51.8435449, 4.5496217 51.8436134, 4.5502883 51.8437029, 4.5507617 51.843741, 4.5511774 51.8437555), (4.5480775 51.8432412, 4.5477057 51.8431373, 4.5476709 51.8431276, 4.5475111 51.8431073), (4.5475111 51.8431073, 4.5474731 51.8431259, 4.5474288 51.8431382, 4.5473809 51.8431432), (4.5473809 51.8431432, 4.5473073 51.8432087, 4.5472855 51.8432282, 4.5471801 51.8433153, 4.5470725 51.8433769), (4.5470725 51.8433769, 4.5467802 51.8436146, 4.5466431 51.8436775, 4.5465127 51.8437231, 4.5461784 51.843815, 4.5460218 51.8438554), (4.5460218 51.8438554, 4.5458332 51.8439088, 4.5456475 51.8439643, 4.5454198 51.8440454, 4.5452729 51.8441077, 4.5440504 51.8446261, 4.543895 51.8446862, 4.5438388 51.8447122, 4.5438009 51.8447369, 4.5437503 51.8447871), (4.5437503 51.8447871, 4.5436926 51.8447777, 4.5436082 51.8447839, 4.5435271 51.8447977, 4.5433949 51.8448374, 4.5432607 51.8448678, 4.5430214 51.8449163, 4.5423141 51.8450325, 4.5406261 51.845344, 4.5405104 51.8453506, 4.5403956 51.8453432, 4.5403196 51.8453231), (4.5403196 51.8453231, 4.5402262 51.8453904, 4.5400804 51.8454289, 4.5374695 51.8459066, 4.5373021 51.8459489, 4.5371641 51.8460108, 4.5368943 51.8461415, 4.5367847 51.8461794, 4.5366785 51.8462064, 4.5366482 51.8462121), (4.5366482 51.8462121, 4.5365432 51.8462593, 4.5364354 51.8462698, 4.536292 51.8462728, 4.5361755 51.8462737), (4.5361755 51.8462737, 4.5361757 51.8462105), (4.5361757 51.8462105, 4.5361762 51.8458772, 4.5361942 51.8454302, 4.536245 51.8453334), (4.5362351 51.8447571, 4.536245 51.8453334), (4.5362351 51.8447571, 4.5361938 51.8446831, 4.5361776 51.8445258, 4.5361763 51.8444877), (4.5361763 51.8444877, 4.5361302 51.8444769, 4.5360903 51.8444589, 4.5360596 51.8444351, 4.5360402 51.844407), (4.5360402 51.844407, 4.53574 51.8443679, 4.5355284 51.8443193), (4.5347077 51.8442632, 4.5348397 51.8442601, 4.5349606 51.8442657, 4.5355284 51.8443193), (4.5333037 51.8442892, 4.5338219 51.8442834, 4.5342277 51.8442759, 4.5347077 51.8442632), (4.5314779 51.8442987, 4.5321761 51.8442991, 4.5324246 51.8442941, 4.5326342 51.8442917, 4.5328468 51.8442931, 4.5333037 51.8442892), (4.5314885 51.8451246, 4.5314882 51.844853, 4.5314792 51.8446802, 4.5314681 51.8444255, 4.5314779 51.8442987), (4.5299127 51.8451429, 4.5304491 51.8451377, 4.5309206 51.8451331, 4.5311141 51.8451293, 4.5314885 51.8451246), (4.5296719 51.8451465, 4.5299127 51.8451429), (4.5277694 51.8451663, 4.5281975 51.8451604, 4.5282487 51.8451597, 4.5283163 51.8451586, 4.5289664 51.8451561, 4.5289928 51.8451552, 4.5291012 51.8451527, 4.5296719 51.8451465), (4.5277671 51.8450377, 4.5277676 51.8450646, 4.5277694 51.8451663), (4.527758 51.8445349, 4.5277585 51.8445616, 4.5277644 51.8448864, 4.5277657 51.8449603, 4.5277671 51.8450377), (4.5276361 51.8436986, 4.5276835 51.8437908, 4.5277152 51.843879, 4.5277539 51.8443623, 4.527758 51.8445349), (4.5276361 51.8436986, 4.5274275 51.8434394), (4.5274275 51.8434394, 4.5273779 51.8434375, 4.5273295 51.8434304, 4.5272838 51.8434183, 4.5272421 51.8434016, 4.5272057 51.8433807, 4.5271755 51.8433563, 4.5271525 51.8433291), (4.5271525 51.8433291, 4.5268841 51.8433386, 4.5266743 51.8433443, 4.5261988 51.8433475, 4.5256616 51.8433816, 4.5251105 51.8434648, 4.5246485 51.8435341, 4.5237206 51.8436692, 4.5231693 51.8437346, 4.5227447 51.8437892), (4.5227447 51.8437892, 4.521619 51.8438964), (4.521619 51.8438964, 4.5211646 51.8439335, 4.5203262 51.8439801, 4.5201535 51.8439897, 4.5198974 51.8440027), (4.5198974 51.8440027, 4.5194902 51.8440214), (4.5194902 51.8440214, 4.5188734 51.8440502), (4.5188734 51.8440502, 4.5178177 51.8440994), (4.5178177 51.8440994, 4.5175376 51.8441108, 4.5173983 51.8441174), (4.5173983 51.8441174, 4.5172328 51.8441251, 4.5168106 51.8441449), (4.5168106 51.8441449, 4.5140426 51.8442647), (4.5140426 51.8442647, 4.5139077 51.8442701, 4.513724 51.844278), (4.513724 51.844278, 4.5135972 51.8442822, 4.5132408 51.8442994), (4.5132408 51.8442994, 4.5122853 51.8443444), (4.5122853 51.8443444, 4.5120019 51.8443673, 4.511644 51.8443838, 4.5107755 51.8444205), (4.5107755 51.8444205, 4.5099405 51.8444576, 4.509745 51.8444751, 4.5094515 51.8445485, 4.50929 51.8446095, 4.5091616 51.8447144), (4.5091616 51.8447144, 4.5091938 51.8447798, 4.5092042 51.8448479, 4.5091931 51.8449142, 4.5091613 51.8449778, 4.50911 51.8450365, 4.5090412 51.8450879), (4.5090412 51.8450879, 4.5089638 51.8451275, 4.5088759 51.8451578, 4.5087806 51.8451778, 4.5086811 51.8451867, 4.5085806 51.8451843, 4.5084824 51.8451707), (4.5084824 51.8451707, 4.5083351 51.8451255, 4.5082159 51.8450556), (4.5082159 51.8450556, 4.5081619 51.8450037, 4.5081239 51.8449466, 4.5081032 51.8448863, 4.5081004 51.8448247, 4.5081071 51.8447825, 4.5081212 51.844743), (4.5081212 51.844743, 4.5081165 51.8447153, 4.5081083 51.8446876, 4.5080971 51.8446578, 4.5080815 51.8446312, 4.508052 51.8445984, 4.5080251 51.8445701, 4.5080013 51.8445451, 4.5079745 51.8445221), (4.5079745 51.8445221, 4.5079633 51.8445123, 4.5079444 51.8444987, 4.5079075 51.8444763, 4.5078709 51.8444547, 4.5078245 51.8444277, 4.5077789 51.8443989, 4.507654 51.8442933), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.5011258 51.8442847, 4.5010253 51.8443266, 4.5008624 51.8443752, 4.5008003 51.8443921, 4.5005717 51.8444634), (4.5005717 51.8444634, 4.5005701 51.8444922, 4.5005483 51.8445286, 4.5005177 51.8445509, 4.5004545 51.8445786), (4.5004545 51.8445786, 4.5004512 51.8446591, 4.5004557 51.8448558, 4.5004702 51.8449888, 4.5004732 51.8452103, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.500569 51.8460238, 4.5005759 51.8460789, 4.5005822 51.8461653, 4.5006023 51.8463606, 4.5006114 51.846439, 4.5006156 51.8464964, 4.5005798 51.8466531), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005968 51.8470272, 4.5006109 51.8471269, 4.5005521 51.8473367, 4.5004631 51.8475036, 4.5003396 51.8476556, 4.5002013 51.8477813), (4.5002013 51.8477813, 4.5001313 51.8478358, 4.5001098 51.8478526, 4.5000883 51.8478694, 4.5000667 51.8478862, 4.499995 51.8479421), (4.499995 51.8479421, 4.4997806 51.8480715, 4.499629 51.8481465, 4.4994158 51.848224, 4.4992205 51.8482555), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4982664 51.8484549, 4.4981078 51.8485266, 4.4980619 51.8485408, 4.4980211 51.8485509, 4.4979907 51.8485572, 4.4978697 51.8485827, 4.4975776 51.8486428, 4.4974211 51.8486743, 4.4973787 51.848683, 4.4973249 51.8486899, 4.4972833 51.8486954, 4.4970461 51.8487123), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4928811 51.8501276, 4.4927246 51.8502499, 4.4926516 51.8502987, 4.4926155 51.8503186), (4.4926155 51.8503186, 4.492567 51.8503431, 4.492459 51.8503978, 4.4922629 51.8504966, 4.4921699 51.8505319, 4.4919243 51.8506091), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4909165 51.8510154, 4.490719 51.8511204, 4.4906671 51.8511421, 4.4906232 51.8511579, 4.4905678 51.8511796, 4.4905263 51.8511941, 4.4903489 51.8512567, 4.4902448 51.8512922, 4.4901716 51.8513121, 4.4901344 51.8513214, 4.4900957 51.8513298, 4.4900529 51.8513351, 4.4899584 51.8513392, 4.4899082 51.8513385, 4.4898594 51.8513368, 4.4898192 51.8513342, 4.4897837 51.8513301, 4.4897243 51.8513197), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4852424 51.8529589, 4.4852913 51.8529858, 4.4853231 51.8530212, 4.4853341 51.8530611, 4.4853231 51.853101, 4.4852913 51.8531364, 4.4852423 51.8531632), (4.4852423 51.8531632, 4.4851723 51.8531797, 4.4850974 51.8531787, 4.4850287 51.8531603, 4.4849763 51.8531272, 4.4849479 51.8530844), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4745575 51.8569288, 4.474605 51.8569655, 4.4746271 51.8570102, 4.4746207 51.8570578, 4.4745796 51.857105, 4.4745011 51.8571397, 4.474458 51.8571471, 4.4743645 51.8571427, 4.4742753 51.857107), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.471765 51.859785, 4.4717757 51.8598451, 4.4718127 51.860047, 4.4718124 51.8600709, 4.4718145 51.8601245, 4.4718159 51.8601616), (4.4718159 51.8601616, 4.4718724 51.8601823, 4.4719167 51.8602123, 4.4719451 51.8602489), (4.4719451 51.8602489, 4.4720414 51.8602614, 4.4720863 51.8602646, 4.4721582 51.8602672, 4.4733019 51.8603012, 4.4733791 51.8602965, 4.4734322 51.8602912), (4.4734322 51.8602912, 4.473468 51.8602573, 4.4735213 51.8602287, 4.4735863 51.8602117, 4.4736567 51.8602079, 4.4737255 51.8602178, 4.4737859 51.8602404, 4.473832 51.8602734, 4.4738593 51.8603137), (4.4738593 51.8603137, 4.4738657 51.8603444, 4.4738609 51.8603752, 4.4738451 51.8604047, 4.4738245 51.8604268, 4.4737977 51.8604461, 4.4737657 51.8604622), (4.4737657 51.8604622, 4.4737904 51.8605398), (4.4737904 51.8605398, 4.4738155 51.8606328), (4.4738155 51.8606328, 4.4741014 51.8615911), (4.4741014 51.8615911, 4.4744428 51.8626655), (4.4744428 51.8626655, 4.4744963 51.8628223, 4.4748308 51.8635667, 4.4748561 51.8636318), (4.4748561 51.8636318, 4.4749261 51.8636466, 4.4749847 51.8636744, 4.4750142 51.8637016, 4.4750259 51.8637124, 4.4750451 51.8637565, 4.4750436 51.8637715, 4.4750404 51.863802, 4.4750123 51.8638443, 4.4749638 51.8638787), (4.4749638 51.8638787, 4.4750017 51.8639658, 4.4750144 51.8640032, 4.4750704 51.8641367, 4.475233 51.8645218), (4.475233 51.8645218, 4.4752933 51.8646646), (4.4752933 51.8646646, 4.4754627 51.8650657, 4.4762919 51.8671223, 4.4763968 51.8673627, 4.4764328 51.8674299), (4.4764328 51.8674299, 4.4764907 51.8674428, 4.4765395 51.867466, 4.4765746 51.8674972, 4.4765919 51.8675299, 4.4765938 51.8675642, 4.4765754 51.8676047, 4.4765361 51.8676391), (4.4765361 51.8676391, 4.4765326 51.8677499, 4.4765384 51.8677815, 4.4766888 51.8682452, 4.4769296 51.8690926, 4.4774198 51.8711971, 4.4774442 51.8712772), (4.4774442 51.8712772, 4.4775273 51.8712967, 4.477589 51.8713362, 4.4776177 51.8713881, 4.4776083 51.8714419, 4.4775631 51.8714884, 4.4774906 51.8715188), (4.4774906 51.8715188, 4.4775154 51.8715932, 4.4778 51.8727, 4.4779931 51.873565, 4.478021 51.8736674, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>384338</t>
+          <t>6397485</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1590,17 +1590,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rotterdam, Station Zuid/Steenplaat</t>
+          <t>Rotterdam, Kralingse Zoom</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bus 32: Rotterdam Overschie =&gt; Rotterdam Station Zuid</t>
+          <t>Bus 283: Rotterdam Zuidplein =&gt; Rotterdam Kralingse Zoom</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1611,14 +1611,14 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4257583 51.934414, 4.4254798 51.9346127), (4.4257583 51.934414, 4.4267886 51.9348098), (4.4267886 51.9348098, 4.4273664 51.9350451, 4.4276105 51.9350731, 4.4279605 51.9351132, 4.4280066 51.9351185, 4.4281072 51.9351304), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.432806 51.935817, 4.4335304 51.9360056), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4363799 51.9365609, 4.4365007 51.9365817, 4.4365201 51.93659, 4.4365598 51.9366094, 4.4366571 51.9366752), (4.4366571 51.9366752, 4.4367048 51.9366655, 4.4367551 51.9366656, 4.4368027 51.9366755), (4.4368027 51.9366755, 4.4369048 51.936615, 4.4369482 51.9365771, 4.4370105 51.9365338, 4.4370708 51.9364852, 4.438046 51.9355251), (4.438046 51.9355251, 4.4381221 51.9354479, 4.4382133 51.9353555), (4.4382133 51.9353555, 4.4382864 51.9352625, 4.4384223 51.9351197, 4.4388365 51.9345667, 4.4391044 51.9341261, 4.4391723 51.934013, 4.4393924 51.9336307, 4.4395438 51.933357, 4.4395594 51.9333155, 4.4395866 51.9331075, 4.4395526 51.9329658, 4.4394792 51.932825, 4.4393683 51.9326937, 4.439051 51.932455, 4.4388959 51.9322883, 4.4388663 51.9322565, 4.4388058 51.9322256, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4374625 51.9312203, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411354 51.9298369, 4.4412392 51.9297781, 4.4412694 51.9297517, 4.4412966 51.9296959), (4.4412966 51.9296959, 4.4412598 51.9296588, 4.4411057 51.9295033, 4.4407703 51.9292578), (4.4407703 51.9292578, 4.4405638 51.9291277, 4.4403209 51.9289555, 4.4401524 51.9288076, 4.4400234 51.928655, 4.4394512 51.9279322), (4.4394512 51.9279322, 4.4394004 51.927931, 4.4393522 51.9279212, 4.4393103 51.9279035, 4.4392779 51.9278794, 4.4392625 51.9278599, 4.4392535 51.9278389, 4.4392521 51.9278092, 4.4392635 51.9277803, 4.4392869 51.9277543), (4.4392869 51.9277543, 4.439188 51.9276786, 4.4389609 51.927521, 4.4387785 51.927306, 4.4384003 51.9268115, 4.4380758 51.9263913, 4.4372904 51.9253968, 4.4372435 51.9253382, 4.436498 51.9244063, 4.4363277 51.9241766, 4.4362021 51.9239674, 4.4361703 51.9238937, 4.4361438 51.9238271, 4.4361373 51.9237644, 4.436194 51.9236333, 4.4363 51.9235, 4.4370252 51.9229373, 4.4370507 51.9229163, 4.437123 51.9228632, 4.4372285 51.922774, 4.4372831 51.922701, 4.4373631 51.9224811, 4.4374217 51.9223528, 4.4377592 51.9220618, 4.4383067 51.9216196, 4.4386375 51.9213456, 4.4389623 51.9210923, 4.4389952 51.9210777, 4.4391186 51.9210362, 4.4398004 51.9208241), (4.4398004 51.9208241, 4.4400129 51.9207734, 4.4402063 51.9207151, 4.4402865 51.9206953, 4.4403276 51.9206904, 4.4403687 51.9206927, 4.440401 51.9206984, 4.4404324 51.9207122, 4.440462 51.9207296, 4.4405835 51.9208134, 4.440615 51.9208297, 4.4406819 51.920845, 4.440731 51.9208498, 4.4407705 51.9208509, 4.44081 51.9208519), (4.44081 51.9208519, 4.4413574 51.9204832, 4.4415509 51.9203989, 4.4416446 51.9203581, 4.4417042 51.9203337, 4.441716 51.9203289, 4.4418188 51.920292), (4.4418188 51.920292, 4.4419417 51.9202534, 4.4420143 51.9202345, 4.4421058 51.9202166), (4.4421058 51.9202166, 4.442191 51.920178, 4.4422475 51.9201565, 4.4423091 51.9201376, 4.4424367 51.9201013, 4.4425207 51.9200631, 4.4427205 51.9199218), (4.4427205 51.9199218, 4.4429061 51.9198129, 4.4429343 51.9197992, 4.4430411 51.9197547), (4.4439798 51.9190765, 4.443136 51.9196997, 4.4430411 51.9197547), (4.4439798 51.9190765, 4.4440902 51.9189882, 4.4441977 51.9189023), (4.4441977 51.9189023, 4.4446925 51.9185057, 4.4453536 51.9178492, 4.4453946 51.917782), (4.4460597 51.916945, 4.4460355 51.9169763, 4.4460136 51.9170034, 4.4458962 51.9171618, 4.4455293 51.91765, 4.4454917 51.9176869, 4.4453946 51.917782), (4.4460597 51.916945, 4.4460612 51.9168391, 4.4460613 51.9167704, 4.4460628 51.9167322, 4.4460664 51.9166637), (4.4460664 51.9166637, 4.4460663 51.9166549, 4.4460659 51.9166216, 4.4460658 51.9166127, 4.4460654 51.91658, 4.446065 51.9165038), (4.446065 51.9165038, 4.4462775 51.9163897), (4.4462775 51.9163897, 4.4463891 51.91631, 4.4464296 51.916279, 4.446499 51.916226, 4.4468347 51.9160513, 4.4468787 51.9160383), (4.4485975 51.9148415, 4.4478192 51.9153754, 4.4476039 51.9155168, 4.4474492 51.9156239, 4.4473802 51.9156743, 4.4471285 51.9158571, 4.4468787 51.9160383), (4.4485975 51.9148415, 4.4486126 51.9148022, 4.4486182 51.9147877, 4.4486563 51.9147635, 4.4487434 51.9147046, 4.4488035 51.9146666, 4.448844 51.9146462, 4.4489369 51.9146176), (4.4489369 51.9146176, 4.4492275 51.9144577, 4.4494637 51.9143277, 4.4495265 51.9142951, 4.4496816 51.9142218, 4.4499075 51.9141209, 4.4500915 51.9140452), (4.4500915 51.9140452, 4.4501454 51.9140022, 4.4501542 51.9139952, 4.4502883 51.9139443, 4.4503923 51.9139096, 4.4504034 51.9139087, 4.450493 51.9139013), (4.450493 51.9139013, 4.4508093 51.9138107, 4.4511809 51.9137124, 4.4514195 51.9136601, 4.4516318 51.9136158, 4.4518332 51.9135818), (4.4518332 51.9135818, 4.4518685 51.9135629, 4.4518839 51.9135538, 4.4518907 51.9135498, 4.4519882 51.9135348, 4.4520902 51.9135265, 4.4521011 51.9135283, 4.4521841 51.913542), (4.4543143 51.9136682, 4.4537135 51.9135949, 4.4534777 51.9135646, 4.4533286 51.9135449, 4.4532165 51.9135322, 4.4531083 51.9135237, 4.4530377 51.9135204, 4.4527943 51.913519, 4.4524335 51.9135268, 4.4521841 51.913542), (4.4543143 51.9136682, 4.4543837 51.9136609, 4.4544748 51.9136587, 4.4545729 51.9136704), (4.4545729 51.9136704, 4.4546908 51.9136855, 4.4548282 51.913704, 4.4551497 51.9137474, 4.4551614 51.9137496, 4.4554094 51.9137824), (4.4554094 51.9137824, 4.4554486 51.9137876), (4.4554486 51.9137876, 4.4557022 51.9138211), (4.4557022 51.9138211, 4.4559927 51.9138554), (4.4559927 51.9138554, 4.4562085 51.9138859, 4.4562213 51.9138918, 4.4562847 51.9139207), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4628355 51.914788, 4.4629226 51.9147814, 4.4629757 51.9147774, 4.4631538 51.9148017, 4.4635049 51.9148482), (4.4635049 51.9148482, 4.4637501 51.9148806, 4.4637813 51.9148845, 4.4638303 51.9148984, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4682043 51.9143475, 4.4683202 51.9142988, 4.4687414 51.9142051, 4.4687758 51.9141975, 4.4688677 51.9141734, 4.4690053 51.9141298), (4.4690053 51.9141298, 4.4691876 51.9140815), (4.4691876 51.9140815, 4.4692884 51.9141504), (4.4692884 51.9141504, 4.4693804 51.9142214, 4.4698485 51.914547, 4.4700117 51.9146594, 4.4705638 51.9150193, 4.471047 51.9153211, 4.4710914 51.9153464, 4.4711478 51.9153759, 4.4712798 51.9154353, 4.4715535 51.9155554, 4.4717416 51.9156344, 4.4718873 51.9156934, 4.4720331 51.9157473, 4.4721166 51.9157749, 4.4725135 51.9159065), (4.4725135 51.9159065, 4.4729604 51.9160219, 4.4732595 51.9160992, 4.4734164 51.9161398), (4.4734164 51.9161398, 4.473553 51.916163), (4.473553 51.916163, 4.4737619 51.9162052, 4.4737993 51.9162124), (4.4737993 51.9162124, 4.4739021 51.9162238), (4.4739021 51.9162238, 4.4740925 51.9162616, 4.4741702 51.9162765, 4.4753691 51.9165059, 4.4754344 51.9165201, 4.4759359 51.9166249, 4.4768861 51.9168147, 4.4771474 51.9168749, 4.4773882 51.9169373, 4.4774327 51.9169488, 4.4775 51.9169676, 4.4776669 51.9170141, 4.4778265 51.9170567, 4.4778732 51.9170692, 4.4782979 51.9171829, 4.4786533 51.917287, 4.4789487 51.9173622, 4.4794832 51.917462, 4.4805985 51.9176931), (4.4805985 51.9176931, 4.4817063 51.9179051), (4.4817063 51.9179051, 4.4840324 51.9183377, 4.4841727 51.9183639, 4.4842897 51.9183859, 4.4843694 51.9184026, 4.4845223 51.9184269), (4.4845223 51.9184269, 4.4847187 51.9184577, 4.4857789 51.9186548), (4.4857789 51.9186548, 4.4863169 51.9187548), (4.4863169 51.9187548, 4.4864363 51.91878, 4.4865692 51.9188081), (4.4865692 51.9188081, 4.4872886 51.9189504), (4.4872886 51.9189504, 4.4875503 51.9190104), (4.4875503 51.9190104, 4.4883413 51.9191917, 4.488553 51.9192402, 4.4887175 51.9192931), (4.4887175 51.9192931, 4.4888365 51.9191999, 4.4891648 51.9189112, 4.4895091 51.918601, 4.4895953 51.9185302, 4.4899026 51.9183026), (4.4899026 51.9183026, 4.4900786 51.9181791, 4.4903343 51.9179936, 4.4907311 51.9177016, 4.4909144 51.9175788, 4.4912506 51.9173535), (4.4912506 51.9173535, 4.491361 51.9172777, 4.4914461 51.9172195, 4.4914766 51.9172037, 4.4914998 51.9171929, 4.4915342 51.9171783, 4.4915471 51.9171744), (4.4915471 51.9171744, 4.4915788 51.9171687, 4.4916081 51.9171668, 4.4916448 51.9171669, 4.4916673 51.9171693, 4.4916925 51.9171734), (4.4916925 51.9171734, 4.4925887 51.9177684, 4.492732 51.9178937), (4.493162 51.9180745, 4.4929308 51.9179824, 4.492732 51.9178937), (4.4943902 51.9182714, 4.4942972 51.9183037, 4.4941753 51.9183331, 4.4941056 51.9183409, 4.4940197 51.9183416, 4.4939007 51.9183301, 4.4937395 51.9182876, 4.4935517 51.9182189, 4.493162 51.9180745), (4.4946165 51.9181048, 4.4944985 51.9181958, 4.4943902 51.9182714), (4.4975941 51.9156292, 4.4948606 51.9179005, 4.4946165 51.9181048), (4.4979665 51.9153494, 4.4977346 51.9155223, 4.4975941 51.9156292), (4.4979665 51.9153494, 4.4980336 51.9152537, 4.4981101 51.9151815), (4.4981101 51.9151815, 4.4984475 51.9149173), (4.4984475 51.9149173, 4.4985822 51.9148315, 4.4987033 51.9147162), (4.4987033 51.9147162, 4.4987215 51.914682, 4.4987299 51.9146615, 4.4987342 51.9146467, 4.4987424 51.9146131, 4.4987433 51.9145767, 4.4987334 51.9145403, 4.4987194 51.9145027, 4.4987054 51.9144707, 4.4986871 51.9144419), (4.4986871 51.9144419, 4.4986649 51.9144169, 4.4986453 51.9143971, 4.4985877 51.9143677, 4.4984414 51.9143149), (4.4984414 51.9143149, 4.498055 51.9140583, 4.4979504 51.9139985, 4.4977613 51.9138903, 4.4972593 51.9136076, 4.4971106 51.9135228, 4.497028 51.9134789), (4.497028 51.9134789, 4.496939 51.9134143), (4.496939 51.9134143, 4.4970063 51.9133518), (4.4970063 51.9133518, 4.4971532 51.9132478, 4.497277 51.9131679), (4.497277 51.9131679, 4.497344 51.9131479, 4.4974771 51.913108), (4.4975154 51.9130826, 4.4974771 51.913108), (4.4976644 51.9129838, 4.4975154 51.9130826), (4.4977909 51.9128999, 4.4976644 51.9129838), (4.4977909 51.9128999, 4.498187 51.9126406), (4.498187 51.9126406, 4.498337 51.9125424), (4.498337 51.9125424, 4.4985176 51.9124241), (4.4985176 51.9124241, 4.4985554 51.9123546, 4.4985968 51.9123078, 4.498617 51.912291, 4.4987726 51.9121842), (4.4987726 51.9121842, 4.498928 51.912157), (4.498928 51.912157, 4.499072 51.9122232, 4.4997546 51.9126276), (4.4997546 51.9126276, 4.5000017 51.912767, 4.5004 51.913, 4.5004937 51.9130341, 4.5005666 51.9130444), (4.5005666 51.9130444, 4.5006413 51.9130339, 4.5007281 51.9129928, 4.5013368 51.9125632), (4.5013368 51.9125632, 4.501443 51.9124942, 4.5018491 51.912219), (4.5018491 51.912219, 4.5022079 51.9119608), (4.5022079 51.9119608, 4.502328 51.9120211), (4.502328 51.9120211, 4.5024459 51.912082), (4.5024459 51.912082, 4.5026421 51.9121916, 4.5031303 51.9124595, 4.5033557 51.9125832, 4.5041949 51.9130446), (4.5041949 51.9130446, 4.5043165 51.9131095, 4.5046995 51.9133214, 4.5056805 51.9138532), (4.5077828 51.9090881, 4.5076662 51.9091964, 4.507429 51.9094168, 4.5074069 51.9094425, 4.507239 51.9096797, 4.5069774 51.9100488, 4.5068822 51.9101711, 4.5068688 51.9101892, 4.5065413 51.9106737, 4.5062007 51.9111569, 4.5057686 51.911732, 4.5057396 51.9117911, 4.5057267 51.9118313, 4.5057059 51.9122002, 4.5057132 51.9127331, 4.505709 51.9128986, 4.5057073 51.913283, 4.5056954 51.9137369, 4.5056805 51.9138532), (4.5097464 51.9073087, 4.5097185 51.907336, 4.5089302 51.9080695, 4.5088245 51.9081626, 4.5083727 51.9085739, 4.508 51.9089, 4.5077828 51.9090881), (4.5111377 51.9058905, 4.5106811 51.9063824, 4.5102903 51.9067762, 4.5102581 51.9068092, 4.5097464 51.9073087), (4.511948 51.905048, 4.5117728 51.9052407, 4.5111377 51.9058905), (4.5108733 51.9046914, 4.5110391 51.9047463, 4.511948 51.905048), (4.5108733 51.9046914, 4.5114899 51.9040292, 4.5118216 51.9036626), (4.5118216 51.9036626, 4.5120258 51.9034308, 4.5120632 51.9033877), (4.5120632 51.9033877, 4.5122007 51.9034046), (4.5122007 51.9034046, 4.5122978 51.9034308, 4.5125171 51.903492, 4.5126255 51.903532))</t>
+          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.477892 51.8738233), (4.477892 51.8738233, 4.4778583 51.8736846, 4.4773956 51.8716034, 4.4773731 51.8715251), (4.4773731 51.8715251, 4.4773167 51.8715123, 4.4772689 51.8714898, 4.4772337 51.8714597, 4.4772142 51.8714246, 4.4772129 51.8713843, 4.4772322 51.8713457, 4.4772703 51.871313, 4.4773232 51.8712893), (4.4773232 51.8712893, 4.4772998 51.871209, 4.4768061 51.8690926, 4.4765546 51.868247, 4.4764177 51.8677994, 4.4764086 51.8677656, 4.4763693 51.8676743), (4.4763693 51.8676743, 4.4762952 51.867659, 4.4762362 51.8676275, 4.4762011 51.8675844, 4.4761954 51.8675363, 4.4762199 51.8674905, 4.4762708 51.867454), (4.4762708 51.867454, 4.4762724 51.8673804, 4.4760339 51.8667754, 4.4752828 51.865055, 4.4751265 51.8647011), (4.4751265 51.8647011, 4.4750728 51.8645796), (4.4750728 51.8645796, 4.4748794 51.8641417, 4.4748324 51.864032, 4.4748172 51.8639916, 4.4747789 51.8639089), (4.4747789 51.8639089, 4.4747146 51.8638955, 4.4746596 51.863871), (4.4746596 51.863871, 4.4746027 51.863815, 4.4745936 51.8637491), (4.4745936 51.8637491, 4.474608 51.8637172, 4.4746341 51.8636882, 4.4746704 51.8636638), (4.4746704 51.8636638, 4.4746475 51.8635968, 4.474327 51.8629049, 4.4742318 51.8626459), (4.4742318 51.8626459, 4.4739064 51.861581), (4.4739064 51.861581, 4.4736285 51.8606326), (4.4736285 51.8606326, 4.4735954 51.8605385), (4.4735954 51.8605385, 4.4735847 51.8604812), (4.4735847 51.8604812, 4.4735195 51.8604638, 4.4734664 51.8604346, 4.4734306 51.8603967), (4.4734306 51.8603967, 4.4733127 51.8603665, 4.472152 51.860328, 4.4720801 51.8603288, 4.4719956 51.8603319, 4.4719399 51.8603394), (4.4719399 51.8603394, 4.4719181 51.8603656, 4.4718878 51.8603883, 4.4718504 51.8604065, 4.4718075 51.8604195, 4.47174 51.8604277, 4.4716716 51.8604228, 4.4716151 51.8604078, 4.4715673 51.8603838, 4.471532 51.8603527), (4.471532 51.8603527, 4.4715108 51.8603139, 4.4715089 51.8602731), (4.4715089 51.8602731, 4.4715266 51.8602333, 4.4715625 51.8601986, 4.4716135 51.8601719, 4.4716749 51.8601557), (4.4716749 51.8601557, 4.4716904 51.860089, 4.4716917 51.8600668, 4.471765 51.859785), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4742753 51.857107, 4.4742343 51.8570635, 4.474224 51.8570301, 4.4742322 51.8569879, 4.4742776 51.8569386, 4.4743184 51.8569179, 4.4744058 51.8568994, 4.4744955 51.8569064, 4.4745575 51.8569288), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4849479 51.8530844, 4.4849478 51.8530381, 4.484976 51.8529951, 4.4850284 51.852962, 4.4850972 51.8529435, 4.4851723 51.8529424, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.489866 51.8513095, 4.4899069 51.8513065, 4.4899388 51.8513029, 4.4899701 51.8512983, 4.4899944 51.8512938, 4.4900343 51.8512851, 4.4900619 51.8512787, 4.4900998 51.851268, 4.4901995 51.8512324, 4.4902957 51.8511942, 4.4904588 51.8511261, 4.4905014 51.8511099, 4.4905567 51.8510898, 4.4905955 51.8510755, 4.4906369 51.8510644, 4.4909165 51.8510154), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4919243 51.8506091, 4.4921994 51.8504556, 4.4923991 51.8503541, 4.4925084 51.850299, 4.4925566 51.8502745, 4.4925916 51.8502556, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4972441 51.8486291, 4.4972842 51.8486168, 4.4973376 51.8486054, 4.4973792 51.8485974, 4.4975215 51.8485668, 4.497848 51.8484988, 4.4979464 51.8484809, 4.4979805 51.8484743, 4.498023 51.8484685, 4.4980732 51.8484619, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4994995 51.8481354, 4.4997151 51.8480292, 4.4999322 51.8478913), (4.4999322 51.8478913, 4.5000134 51.847828, 4.5000345 51.8478115, 4.5001142 51.8477494), (4.5001142 51.8477494, 4.5002513 51.847627, 4.5004034 51.847461, 4.5005066 51.8472903, 4.500547 51.8471197, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005137 51.8465004, 4.5005059 51.8464439, 4.5004991 51.8463644, 4.5004817 51.8461678, 4.5004716 51.8460832, 4.5004681 51.8460263, 4.5005065 51.8458942), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5004432 51.8452783, 4.5004072 51.8452074, 4.5003706 51.8449916, 4.5003559 51.8448126, 4.5003416 51.8446572, 4.5003164 51.8445903), (4.5003164 51.8445903, 4.5002659 51.8445787, 4.5002296 51.8445594, 4.5002017 51.8445353, 4.5001839 51.8445078, 4.500177 51.8444785, 4.5001816 51.844449, 4.5002048 51.8444125, 4.5002451 51.8443823, 4.5002988 51.8443613, 4.5003603 51.8443517, 4.5004236 51.8443544, 4.5004824 51.8443691, 4.5005292 51.8443964), (4.5005292 51.8443964, 4.500795 51.844334, 4.5008577 51.8443193, 4.5009906 51.8442881, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5078395 51.8443642, 4.5078749 51.8443775, 4.5079132 51.8443942, 4.5079503 51.8444108, 4.5079838 51.8444263), (4.5079838 51.8444263, 4.5081677 51.8444709, 4.5082185 51.8444807, 4.5082607 51.8444856, 4.5083143 51.8444859, 4.5083593 51.8444818, 4.508419 51.8444716, 4.5084743 51.8444615, 4.50853 51.8444518, 4.508599 51.8444445, 4.5086671 51.8444439, 4.5087315 51.844449, 4.508807 51.8444594, 4.5088692 51.8444684, 4.5089276 51.8444751, 4.5089826 51.8444778, 4.5090501 51.8444749, 4.5090991 51.8444687, 4.509155 51.8444563, 4.5093588 51.8444, 4.5094985 51.8443857), (4.5094985 51.8443857, 4.5097981 51.8443108, 4.5101319 51.8442641), (4.5101319 51.8442641, 4.5104897 51.8442412, 4.5116343 51.8441942), (4.5116343 51.8441942, 4.5132989 51.8441191, 4.5136485 51.8441066), (4.5136485 51.8441066, 4.5148861 51.844045), (4.5148861 51.844045, 4.5169883 51.8439607, 4.5172702 51.8439518), (4.5172702 51.8439518, 4.517891 51.8439196), (4.517891 51.8439196, 4.5194925 51.8438508, 4.5198892 51.8438364), (4.5198892 51.8438364, 4.52014 51.8438258, 4.5207779 51.8437967), (4.5207779 51.8437967, 4.52194 51.8437326, 4.522601 51.8436777, 4.5235639 51.8435811, 4.5245053 51.8434575, 4.5253188 51.843329), (4.5253188 51.843329, 4.5257417 51.8432773, 4.5261534 51.8432511, 4.5267089 51.843254, 4.5269781 51.8432397, 4.5271361 51.8432238), (4.5271361 51.8432238, 4.5271551 51.8431872, 4.5271864 51.8431538, 4.5272284 51.8431254, 4.5272793 51.8431032, 4.5273367 51.8430881, 4.527398 51.843081, 4.5274603 51.8430822, 4.5275208 51.8430915, 4.5275766 51.8431086, 4.5276253 51.8431326), (4.5276253 51.8431326, 4.5276688 51.8431666, 4.5276978 51.8432061), (4.5276978 51.8432061, 4.5277082 51.8432345, 4.5277111 51.8432636, 4.5277064 51.8432925, 4.5276941 51.8433206, 4.5276747 51.8433471, 4.5276485 51.8433713, 4.5276164 51.8433926, 4.5275792 51.8434104), (4.5275792 51.8434104, 4.5276361 51.8436986), (4.5276361 51.8436986, 4.5276835 51.8437908, 4.5277152 51.843879, 4.5277539 51.8443623, 4.527758 51.8445349), (4.527758 51.8445349, 4.5277585 51.8445616, 4.5277644 51.8448864, 4.5277657 51.8449603, 4.5277671 51.8450377), (4.5277671 51.8450377, 4.5277676 51.8450646, 4.5277694 51.8451663), (4.5277694 51.8451663, 4.5281975 51.8451604, 4.5282487 51.8451597, 4.5283163 51.8451586, 4.5289664 51.8451561, 4.5289928 51.8451552, 4.5291012 51.8451527, 4.5296719 51.8451465), (4.5296719 51.8451465, 4.5299127 51.8451429), (4.5299127 51.8451429, 4.5304491 51.8451377, 4.5309206 51.8451331, 4.5311141 51.8451293, 4.5314885 51.8451246), (4.5314885 51.8451246, 4.5314882 51.844853, 4.5314792 51.8446802, 4.5314681 51.8444255, 4.5314779 51.8442987), (4.5314779 51.8442987, 4.5321761 51.8442991, 4.5324246 51.8442941, 4.5326342 51.8442917, 4.5328468 51.8442931, 4.5333037 51.8442892), (4.5333037 51.8442892, 4.5338219 51.8442834, 4.5342277 51.8442759, 4.5347077 51.8442632), (4.5347077 51.8442632, 4.5348397 51.8442601, 4.5349606 51.8442657, 4.5355284 51.8443193), (4.5355284 51.8443193, 4.5357538 51.844306, 4.5360008 51.8443263, 4.5360506 51.8443287), (4.5360506 51.8443287, 4.5360772 51.844303, 4.5361138 51.8442825, 4.5361578 51.8442688, 4.5361994 51.8442632, 4.5362419 51.8442635, 4.5362831 51.8442699, 4.5363306 51.8442862, 4.5363683 51.8443103, 4.5363928 51.8443421, 4.5364026 51.8443739, 4.5363956 51.8444078, 4.5363721 51.8444395, 4.5363341 51.8444653, 4.5362853 51.8444828), (4.5362853 51.8444828, 4.5362767 51.8446845, 4.5362351 51.8447571), (4.5362351 51.8447571, 4.536245 51.8453334), (4.536245 51.8453334, 4.5362664 51.8454462, 4.5362697 51.8455701, 4.5362889 51.8458584), (4.5362889 51.8458584, 4.5362806 51.8460899, 4.5362893 51.8462115), (4.5362893 51.8462115, 4.5364363 51.8462105, 4.5365394 51.8462105, 4.5366482 51.8462121), (4.5403196 51.8453231, 4.5402262 51.8453904, 4.5400804 51.8454289, 4.5374695 51.8459066, 4.5373021 51.8459489, 4.5371641 51.8460108, 4.5368943 51.8461415, 4.5367847 51.8461794, 4.5366785 51.8462064, 4.5366482 51.8462121), (4.5437503 51.8447871, 4.5436926 51.8447777, 4.5436082 51.8447839, 4.5435271 51.8447977, 4.5433949 51.8448374, 4.5432607 51.8448678, 4.5430214 51.8449163, 4.5423141 51.8450325, 4.5406261 51.845344, 4.5405104 51.8453506, 4.5403956 51.8453432, 4.5403196 51.8453231), (4.5460218 51.8438554, 4.5458332 51.8439088, 4.5456475 51.8439643, 4.5454198 51.8440454, 4.5452729 51.8441077, 4.5440504 51.8446261, 4.543895 51.8446862, 4.5438388 51.8447122, 4.5438009 51.8447369, 4.5437503 51.8447871), (4.5470725 51.8433769, 4.5467802 51.8436146, 4.5466431 51.8436775, 4.5465127 51.8437231, 4.5461784 51.843815, 4.5460218 51.8438554), (4.5470725 51.8433769, 4.5471832 51.8432243, 4.5471987 51.843203, 4.5472228 51.8431), (4.5472228 51.8431, 4.5471938 51.8430707, 4.5471794 51.8430376, 4.5471807 51.8430033, 4.5471977 51.8429707), (4.5471977 51.8429707, 4.5472278 51.8429431, 4.5472689 51.8429217, 4.547318 51.8429081), (4.547318 51.8429081, 4.5473736 51.8429033, 4.5474291 51.8429086, 4.5474799 51.8429234, 4.5475216 51.8429466, 4.5475509 51.8429762, 4.5475653 51.8430098), (4.5475653 51.8430098, 4.5476748 51.8430547, 4.5477112 51.8430696, 4.5479063 51.8431476, 4.5480775 51.8432412), (4.5480775 51.8432412, 4.5485619 51.843384, 4.5492477 51.8435449, 4.5496217 51.8436134, 4.5502883 51.8437029, 4.5507617 51.843741, 4.5511774 51.8437555), (4.5511774 51.8437555, 4.551315 51.8437406, 4.55151 51.8437351), (4.55151 51.8437351, 4.5515435 51.8436992, 4.5515956 51.8436731, 4.5516594 51.8436603, 4.5517176 51.8436613, 4.5517724 51.8436735, 4.5518149 51.8436935, 4.5518463 51.8437203, 4.5518639 51.8437515), (4.5518639 51.8437515, 4.5518657 51.8437878, 4.5518487 51.8438226), (4.5518487 51.8438226, 4.5518197 51.8438491, 4.5517799 51.8438696, 4.5517324 51.8438824), (4.5517324 51.8438824, 4.551694 51.844007, 4.5516506 51.8440807), (4.5516506 51.8440807, 4.5516236 51.8444005, 4.5516014 51.8445003), (4.5516014 51.8445003, 4.551555 51.8446123), (4.551555 51.8446123, 4.5514027 51.8451022, 4.5513 51.8456, 4.5512331 51.8457157), (4.5512331 51.8457157, 4.5512313 51.8458338, 4.5511394 51.845969), (4.5511394 51.845969, 4.5510817 51.8460402, 4.5503437 51.8467788, 4.5502793 51.8468812, 4.5502315 51.8469433, 4.5501673 51.8470231), (4.5501673 51.8470231, 4.5501019 51.8473196, 4.5498698 51.8479058), (4.5498698 51.8479058, 4.5497797 51.8481803, 4.5497089 51.8483044, 4.5494363 51.8486115, 4.5493165 51.8486733), (4.5493165 51.8486733, 4.5490986 51.8488976, 4.5480482 51.8498356, 4.5477413 51.8500256, 4.546971 51.8503821), (4.546971 51.8503821, 4.5472673 51.8506665, 4.5473351 51.8508021, 4.547364 51.8509107, 4.5473832 51.8510197, 4.5473965 51.8510914), (4.5473965 51.8510914, 4.547394 51.8511564, 4.5473597 51.8514184, 4.5472795 51.8518996, 4.547256 51.8520381, 4.5472358 51.8521552), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5486849 51.8522221, 4.5487987 51.8522093, 4.5488635 51.8522167, 4.5490941 51.8522428, 4.5493137 51.8522676, 4.5494177 51.8523009), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5519422 51.8525328, 4.5521179 51.8525618, 4.5523302 51.8526119, 4.552533 51.8526696, 4.5533174 51.8529705), (4.5533174 51.8529705, 4.5535743 51.8530623, 4.5536128 51.8530921, 4.5536247 51.853115), (4.5536247 51.853115, 4.5536248 51.8531441, 4.5536057 51.853175, 4.5533553 51.8534009), (4.5533553 51.8534009, 4.5531322 51.8536107, 4.5522968 51.8543932), (4.5522968 51.8543932, 4.5521568 51.8545351), (4.5521568 51.8545351, 4.5519122 51.85453), (4.5519122 51.85453, 4.5518042 51.8545278), (4.5518042 51.8545278, 4.5517061 51.8545257), (4.5517061 51.8545257, 4.551594 51.8545234, 4.5515223 51.8546147, 4.5515145 51.854765), (4.5515145 51.854765, 4.5514998 51.8549187), (4.5514998 51.8549187, 4.5511668 51.8549131), (4.5513873 51.8542902, 4.5513471 51.8544039, 4.5511859 51.8548593, 4.5511668 51.8549131), (4.5519422 51.8525328, 4.5517713 51.8530495, 4.5517 51.8533, 4.5515239 51.8538194, 4.5513873 51.8542902), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5494177 51.8523009, 4.5493128 51.8523101, 4.5490803 51.8522859, 4.5488502 51.8522619, 4.5487817 51.8522548, 4.5486849 51.8522221), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5472358 51.8521552, 4.5471428 51.8522429, 4.5469869 51.852301, 4.5461557 51.8526461, 4.5445974 51.8533239, 4.5440281 51.8535651, 4.5438464 51.8536433, 4.543031 51.8539753, 4.5424539 51.8542392, 4.5423018 51.8543125), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.5407372 51.8552967, 4.5405935 51.8554282, 4.5405462 51.855458, 4.540513 51.8554819, 4.5403666 51.8555742, 4.5402179 51.8556677, 4.540188 51.8556849), (4.540188 51.8556849, 4.5399866 51.8557707), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5372261 51.8567319, 4.5370627 51.8567723, 4.5369727 51.8567813, 4.5365812 51.8567813, 4.536467 51.8567817, 4.536276 51.8567869), (4.536276 51.8567869, 4.5362737 51.8569004, 4.5362788 51.8569739, 4.5362701 51.8572417, 4.5362632 51.8573295, 4.5362365 51.8574061), (4.5362365 51.8574061, 4.5362365 51.8584422, 4.5362397 51.8589712, 4.5362395 51.8590436, 4.5362409 51.8591443, 4.5362433 51.8593107), (4.5362433 51.8593107, 4.5362563 51.8600024, 4.5362603 51.8600793, 4.5362618 51.8602102, 4.5362724 51.8605997, 4.5362764 51.8614328, 4.5362945 51.8615858), (4.5362945 51.8615858, 4.536351 51.8616689, 4.5364209 51.861867), (4.5364209 51.861867, 4.536429 51.8619148, 4.5364322 51.8620523, 4.5364329 51.8623996, 4.5364318 51.862473, 4.5364308 51.8626027), (4.5364308 51.8626027, 4.5364322 51.8627023), (4.5364322 51.8627023, 4.5364352 51.8628252, 4.5364269 51.8629148, 4.5364224 51.8629924, 4.5364148 51.8630358, 4.5364 51.8630843, 4.5363105 51.8633919, 4.5362744 51.8635002), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5357387 51.8692299, 4.5358962 51.8691815, 4.5360179 51.8691419, 4.536083 51.8691058, 4.5361453 51.8690587, 4.5361792 51.8690086, 4.5361952 51.8689713, 4.5362062 51.8689163, 4.5362056 51.8688542, 4.536216 51.8687493), (4.5353282 51.8693549, 4.535419 51.8693301, 4.5357387 51.8692299), (4.5346672 51.8696393, 4.5348068 51.869543, 4.5349507 51.8694684, 4.5353282 51.8693549), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5301922 51.8712078, 4.5300378 51.8712823, 4.5298383 51.8713552, 4.5296118 51.8714681, 4.5294845 51.871529, 4.5292887 51.8715998, 4.5287904 51.8717275, 4.5282423 51.8719334, 4.5280262 51.8719879), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5238862 51.873997, 4.5236198 51.8744114, 4.5235218 51.8745134), (4.5235218 51.8745134, 4.5235807 51.8745336), (4.5235807 51.8745336, 4.5236739 51.8745663, 4.5244158 51.8748388), (4.5244158 51.8748388, 4.5248697 51.8750019), (4.5248697 51.8750019, 4.5249426 51.8750294), (4.5249426 51.8750294, 4.5249147 51.8752794, 4.5249067 51.8753511, 4.5248415 51.8754574), (4.5248415 51.8754574, 4.5248163 51.8756396, 4.5248078 51.8757007, 4.5247946 51.8758005, 4.5247822 51.875888, 4.5247638 51.8760179, 4.5247591 51.8760399, 4.524729 51.8763276, 4.524701 51.8765536), (4.524701 51.8765536, 4.524688 51.876658, 4.524621 51.8769296, 4.5245797 51.8769938, 4.524405 51.8771971, 4.5242986 51.877321), (4.5242986 51.877321, 4.5242449 51.8773787, 4.524212 51.8774151, 4.5241877 51.8774431, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5491952 51.8858746, 4.5491868 51.8859218, 4.5491074 51.8860822), (4.5491074 51.8860822, 4.5491135 51.8866017), (4.5491135 51.8866017, 4.5490916 51.8869321), (4.5490916 51.8869321, 4.5490954 51.8869723, 4.5489717 51.8872989), (4.5489717 51.8872989, 4.5488624 51.8875512), (4.5488624 51.8875512, 4.5488079 51.887664, 4.5488039 51.8877079, 4.5488566 51.887742, 4.5491058 51.8877813, 4.549192 51.8877593, 4.5493116 51.8874768), (4.5493116 51.8874768, 4.5494448 51.8871435), (4.5494448 51.8871435, 4.5495234 51.886977), (4.5495234 51.886977, 4.5496839 51.8870025, 4.5498132 51.887023, 4.5498728 51.8870342, 4.5500591 51.8870593, 4.5501612 51.8870756), (4.5501612 51.8870756, 4.5502685 51.8871105, 4.5504269 51.8871326, 4.5508141 51.8871919, 4.5509547 51.8872134, 4.5510431 51.8872269, 4.5513083 51.887269, 4.5514007 51.8872818, 4.5520649 51.8873867, 4.5522603 51.8874175, 4.5529682 51.88753, 4.5530416 51.8875403, 4.5533176 51.8875727, 4.5534049 51.8875862), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.550361 51.8960888, 4.5508161 51.8975901), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.5548122 51.8987608, 4.5547723 51.8987965, 4.5547152 51.8988289, 4.5546472 51.8988569, 4.5545288 51.8988786, 4.5544459 51.8988879, 4.5535816 51.8989779, 4.5531226 51.8990396, 4.5527269 51.8990836, 4.5523393 51.8991256, 4.5519014 51.8991729, 4.5513648 51.8992125, 4.5513068 51.8992207), (4.5548983 51.8987023, 4.5548526 51.8987272, 4.5548122 51.8987608), (4.5545245 51.8972914, 4.5545246 51.8973396, 4.5545545 51.8974781, 4.5548888 51.8986688, 4.5548983 51.8987023), (4.5547206 51.8969503, 4.554628 51.8970397, 4.5545733 51.8971128, 4.5545344 51.8972013, 4.5545245 51.8972914), (4.5547206 51.8969503, 4.5547147 51.8968396, 4.5546911 51.8967736, 4.55466 51.8967347, 4.5545522 51.8966665, 4.55445 51.8966365), (4.55445 51.8966365, 4.5538792 51.8966295, 4.5536181 51.8966344, 4.5533994 51.8966478, 4.5531848 51.8966684, 4.5529702 51.896704, 4.5527702 51.8967562, 4.551023 51.8973207, 4.5503541 51.8975386, 4.5498802 51.8977113, 4.5493006 51.8979438, 4.5488513 51.8981658), (4.5488513 51.8981658, 4.5487497 51.8982024), (4.5487497 51.8982024, 4.5483649 51.8983135), (4.5483649 51.8983135, 4.5478294 51.8986555), (4.5478294 51.8986555, 4.5471605 51.8991251, 4.5466865 51.8995082, 4.5463181 51.899844, 4.5459668 51.9001904, 4.5456836 51.9005042, 4.5454325 51.9008173, 4.5449534 51.9014626, 4.5443886 51.9022514), (4.5443886 51.9022514, 4.5425932 51.9047847), (4.5425932 51.9047847, 4.542333 51.9051525), (4.542333 51.9051525, 4.5417629 51.9059437), (4.5417629 51.9059437, 4.5396931 51.9088629, 4.539377 51.9093208), (4.539377 51.9093208, 4.5387852 51.910157), (4.5387852 51.910157, 4.5380469 51.9112595), (4.5380469 51.9112595, 4.5379521 51.9116746), (4.5379521 51.9116746, 4.5378351 51.9119875), (4.5378351 51.9119875, 4.5375947 51.9125348, 4.5374436 51.9127966, 4.537105 51.9133637, 4.5370412 51.9134951, 4.5369934 51.9136265, 4.5369753 51.913689, 4.5369626 51.9137448, 4.5369453 51.9138582, 4.5369214 51.9140174), (4.5369214 51.9140174, 4.5368888 51.9142896), (4.5368888 51.9142896, 4.5369016 51.9143641), (4.5369016 51.9143641, 4.5368592 51.9146113, 4.5368458 51.9146701, 4.5368271 51.9147223, 4.5367233 51.9149487), (4.5367233 51.9149487, 4.5366293 51.9151457, 4.5365924 51.9152169, 4.536554 51.9152706, 4.5365167 51.9153179, 4.5364379 51.9153952), (4.5364379 51.9153952, 4.5363083 51.9154615), (4.5363083 51.9154615, 4.5362162 51.915499, 4.5361277 51.9155279, 4.5359824 51.9155615, 4.5358612 51.9155819, 4.5357098 51.9155998, 4.5355691 51.9156122, 4.5354354 51.9156156), (4.5354354 51.9156156, 4.5352698 51.9156114, 4.5351538 51.9156033, 4.5350202 51.9155864, 4.534884 51.9155597, 4.5347655 51.9155265, 4.5346049 51.9154696, 4.5345568 51.9154471, 4.5344284 51.9153869, 4.5343384 51.9153395), (4.5343384 51.9153395, 4.5342584 51.9152815, 4.534185 51.9152151), (4.534185 51.9152151, 4.5341561 51.9151597), (4.5341561 51.9151597, 4.5340751 51.9150032, 4.5339324 51.9147448, 4.5338688 51.9146521, 4.5338052 51.9145726, 4.5337264 51.9144932, 4.5336709 51.9144427, 4.5336154 51.9144022), (4.5336154 51.9144022, 4.5334611 51.9143302, 4.533296 51.9142682, 4.5331445 51.9142189, 4.5329668 51.9141725, 4.5326279 51.9140931, 4.5323165 51.9140357, 4.5320094 51.9139874, 4.5318264 51.9139655, 4.5316488 51.9139536, 4.5314866 51.9139494), (4.5314866 51.9139494, 4.5312325 51.9139526, 4.530978 51.9139687, 4.5307919 51.9139862, 4.5305729 51.9140187, 4.5301352 51.9141132, 4.5296575 51.9142469), (4.5296575 51.9142469, 4.5293095 51.9143451), (4.5293095 51.9143451, 4.5289756 51.9144581, 4.5288483 51.9145063, 4.5286589 51.9145778, 4.5285964 51.9146047, 4.5285529 51.9146207, 4.5284886 51.9146505, 4.5284173 51.9147023), (4.5284173 51.9147023, 4.5289734 51.9156684, 4.5290143 51.9157669, 4.529028 51.9158167, 4.5290971 51.9160723, 4.5291621 51.9162899, 4.529186 51.9164778, 4.5291863 51.9165782, 4.5291886 51.916624, 4.5291924 51.9167389, 4.5291293 51.917261, 4.5291197 51.9173397, 4.5291135 51.9174258, 4.5291124 51.9174854, 4.5291179 51.9175545, 4.5291233 51.9176184, 4.5291377 51.9177075, 4.5291588 51.9178107, 4.5291818 51.9178874, 4.52921 51.9179576, 4.5292986 51.9181552, 4.5294137 51.9183615, 4.5298236 51.9191005, 4.5298961 51.9192186, 4.5299221 51.9192625, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>384339</t>
+          <t>1755250</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1628,17 +1628,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rotterdam, Van Noortwijckstraat</t>
+          <t>Ridderkerk, Groenendijk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bus 32: Rotterdam Station Zuid =&gt; Rotterdam Overschie</t>
+          <t>Bus 290: Rotterdam Zuidplein =&gt; Ridderkerk Donkersloot</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>290</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1649,14 +1649,14 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5126255 51.903532, 4.5127923 51.9035935, 4.512853 51.9036159, 4.5128966 51.903632, 4.5129207 51.9036537, 4.5129454 51.9036812, 4.5129605 51.903709, 4.512972 51.9037368, 4.5129742 51.9037872, 4.5129609 51.9038456, 4.5129335 51.9039171), (4.5129335 51.9039171, 4.5128875 51.9040054, 4.5128456 51.9040687, 4.5125715 51.9043562, 4.511948 51.905048), (4.511948 51.905048, 4.5117728 51.9052407, 4.5111377 51.9058905), (4.5111377 51.9058905, 4.5106811 51.9063824, 4.5102903 51.9067762, 4.5102581 51.9068092, 4.5097464 51.9073087), (4.5097464 51.9073087, 4.5097185 51.907336, 4.5089302 51.9080695, 4.5088245 51.9081626, 4.5083727 51.9085739, 4.508 51.9089, 4.5077828 51.9090881), (4.5077828 51.9090881, 4.5076662 51.9091964, 4.507429 51.9094168, 4.5074069 51.9094425, 4.507239 51.9096797, 4.5069774 51.9100488, 4.5068822 51.9101711, 4.5068688 51.9101892, 4.5065413 51.9106737, 4.5062007 51.9111569, 4.5057686 51.911732, 4.5057396 51.9117911, 4.5057267 51.9118313, 4.5057059 51.9122002, 4.5057132 51.9127331, 4.505709 51.9128986, 4.5057073 51.913283, 4.5056954 51.9137369, 4.5056805 51.9138532), (4.5041949 51.9130446, 4.5043165 51.9131095, 4.5046995 51.9133214, 4.5056805 51.9138532), (4.5024459 51.912082, 4.5026421 51.9121916, 4.5031303 51.9124595, 4.5033557 51.9125832, 4.5041949 51.9130446), (4.502328 51.9120211, 4.5024459 51.912082), (4.502328 51.9120211, 4.5021412 51.9122649, 4.5008655 51.9131437, 4.5006931 51.9131543), (4.5006931 51.9131543, 4.5005966 51.9131692, 4.5005241 51.9131646, 4.5004627 51.9131444, 4.5003665 51.9130922, 4.4998861 51.9128361, 4.4995853 51.9126501), (4.4995853 51.9126501, 4.4991265 51.9123684), (4.4991265 51.9123684, 4.4989399 51.9123334, 4.4987832 51.9123103), (4.4987832 51.9123103, 4.4987117 51.9123473, 4.4986829 51.9123631, 4.4985176 51.9124241), (4.498337 51.9125424, 4.4985176 51.9124241), (4.498187 51.9126406, 4.498337 51.9125424), (4.4977909 51.9128999, 4.498187 51.9126406), (4.4977909 51.9128999, 4.4976644 51.9129838), (4.4976644 51.9129838, 4.4975154 51.9130826), (4.4975154 51.9130826, 4.4974771 51.913108), (4.4974771 51.913108, 4.4973933 51.9132348), (4.4973933 51.9132348, 4.4973498 51.9132654, 4.4972794 51.9133164, 4.4971391 51.9134214), (4.4971391 51.9134214, 4.4972207 51.9134693, 4.4978245 51.9138011, 4.4978702 51.9138262, 4.498052 51.9139261, 4.4981643 51.9139878, 4.4985151 51.9142103), (4.4985151 51.9142103, 4.4987704 51.9143634, 4.4988278 51.9144083, 4.498865 51.9144452, 4.4989062 51.914487, 4.498935 51.9145206, 4.4989701 51.9145638), (4.4989701 51.9145638, 4.4989782 51.9145897, 4.4989795 51.9146066, 4.4989764 51.9146256, 4.4989682 51.9146464, 4.4989536 51.9146767, 4.4989358 51.9147066, 4.4989068 51.9147402, 4.4988727 51.9147718, 4.498838 51.9148012, 4.4981288 51.9152951, 4.4979665 51.9153494), (4.4979665 51.9153494, 4.4977346 51.9155223, 4.4975941 51.9156292), (4.4975941 51.9156292, 4.4948606 51.9179005, 4.4946165 51.9181048), (4.4946165 51.9181048, 4.4944985 51.9181958, 4.4943902 51.9182714), (4.4943902 51.9182714, 4.4942972 51.9183037, 4.4941753 51.9183331, 4.4941056 51.9183409, 4.4940197 51.9183416, 4.4939007 51.9183301, 4.4937395 51.9182876, 4.4935517 51.9182189, 4.493162 51.9180745), (4.493162 51.9180745, 4.4929308 51.9179824, 4.492732 51.9178937), (4.492732 51.9178937, 4.4925475 51.9178491, 4.4922677 51.9176795, 4.4917313 51.917329, 4.4916407 51.9172607), (4.4916407 51.9172607, 4.4915335 51.9172921, 4.4913312 51.9173972), (4.4913312 51.9173972, 4.491311 51.9174093, 4.4912187 51.9174714, 4.490903 51.9176912, 4.4907303 51.9178184, 4.490435 51.918036, 4.4899922 51.9183507), (4.4899922 51.9183507, 4.4896732 51.9185789, 4.4895712 51.9186659, 4.4894938 51.9187421, 4.4893093 51.9189289, 4.4891834 51.9190413, 4.4890355 51.9191731, 4.4889486 51.9192506, 4.4888669 51.9193386), (4.4888669 51.9193386, 4.488678 51.919445), (4.488678 51.919445, 4.4884581 51.9193808, 4.4879941 51.9192747), (4.4879941 51.9192747, 4.4866944 51.9190221, 4.4864748 51.9189794), (4.4864748 51.9189794, 4.4861946 51.9189264, 4.4852446 51.9187468, 4.4851758 51.91873, 4.4848354 51.9186457, 4.4846525 51.9186025), (4.4846525 51.9186025, 4.4845296 51.9185523, 4.4844322 51.9185086, 4.4842511 51.9184583, 4.4816672 51.9179764), (4.4816672 51.9179764, 4.4811073 51.9178737, 4.4805597 51.9177731), (4.4805597 51.9177731, 4.4788277 51.9174097, 4.4786821 51.9173868, 4.4785283 51.9173666, 4.4781386 51.9173222), (4.4781386 51.9173222, 4.4778222 51.9172784, 4.4777003 51.9172615, 4.4776515 51.9172554, 4.4774431 51.9172291), (4.4774431 51.9172291, 4.4772707 51.9172003, 4.4772028 51.9171889, 4.4769279 51.9171435, 4.4763091 51.9170308, 4.4760425 51.9169697, 4.4757096 51.9168946, 4.4755515 51.9168517, 4.4752872 51.9167695, 4.4751809 51.9167322, 4.4749053 51.9166654), (4.4749053 51.9166654, 4.4740966 51.9164799, 4.4739971 51.916457, 4.4739217 51.9164433, 4.4737012 51.9163924), (4.4737012 51.9163924, 4.4736223 51.916377, 4.4735875 51.9163664, 4.473388 51.9163191), (4.473388 51.9163191, 4.4732623 51.9162764, 4.4722727 51.9159647, 4.4720535 51.9158886, 4.4717943 51.9157915, 4.4712867 51.9155744, 4.4710081 51.9154461, 4.4708961 51.9153827, 4.4705223 51.9151757), (4.4705223 51.9151757, 4.4698695 51.9147371, 4.4693408 51.91435, 4.4692061 51.9142683), (4.4692061 51.9142683, 4.4691061 51.9142071), (4.4691061 51.9142071, 4.4689737 51.9142372, 4.468819 51.9142575, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4639022 51.9149224, 4.4638106 51.9149371, 4.463789 51.9149405, 4.4636936 51.9149303, 4.463478 51.9149074), (4.463478 51.9149074, 4.4631323 51.9148597), (4.4631323 51.9148597, 4.4629618 51.9148326, 4.4629299 51.9148213, 4.4628355 51.914788), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4562847 51.9139207, 4.4561981 51.9139308, 4.4561877 51.913932, 4.456096 51.9139207, 4.4560046 51.913912), (4.4560046 51.913912, 4.4557282 51.9138779, 4.4556834 51.9138719), (4.4556834 51.9138719, 4.4554282 51.9138377), (4.4554282 51.9138377, 4.455389 51.9138325), (4.455389 51.9138325, 4.4551304 51.9138007, 4.454673 51.9137422, 4.454559 51.9137289), (4.454559 51.9137289, 4.4544153 51.9137094, 4.454393 51.9137003, 4.4543143 51.9136682), (4.4543143 51.9136682, 4.4537135 51.9135949, 4.4534777 51.9135646, 4.4533286 51.9135449, 4.4532165 51.9135322, 4.4531083 51.9135237, 4.4530377 51.9135204, 4.4527943 51.913519, 4.4524335 51.9135268, 4.4521841 51.913542), (4.4521841 51.913542, 4.4521066 51.9135706, 4.452092 51.913576, 4.4520045 51.9135869, 4.4519081 51.9135958, 4.4518987 51.913594, 4.4518332 51.9135818), (4.450493 51.9139013, 4.4508093 51.9138107, 4.4511809 51.9137124, 4.4514195 51.9136601, 4.4516318 51.9136158, 4.4518332 51.9135818), (4.450493 51.9139013, 4.4504482 51.9139399, 4.4504367 51.9139498, 4.450336 51.9139846, 4.4502155 51.9140295, 4.4501926 51.9140324, 4.4500915 51.9140452), (4.4489369 51.9146176, 4.4492275 51.9144577, 4.4494637 51.9143277, 4.4495265 51.9142951, 4.4496816 51.9142218, 4.4499075 51.9141209, 4.4500915 51.9140452), (4.4489369 51.9146176, 4.448895 51.914675, 4.4488709 51.9147003, 4.4488066 51.9147443, 4.4487186 51.9148018, 4.4486686 51.9148211, 4.4485975 51.9148415), (4.4485975 51.9148415, 4.4478192 51.9153754, 4.4476039 51.9155168, 4.4474492 51.9156239, 4.4473802 51.9156743, 4.4471285 51.9158571, 4.4468787 51.9160383), (4.4468787 51.9160383, 4.4468576 51.9160714, 4.4465781 51.9163393, 4.4465477 51.9163698, 4.446497 51.9164236), (4.446497 51.9164236, 4.4463542 51.9165784, 4.4463245 51.9166106, 4.4462444 51.9166974), (4.4462444 51.9166974, 4.4462165 51.9167366, 4.4461594 51.9168158, 4.4461061 51.9168843, 4.4460597 51.916945), (4.4460597 51.916945, 4.4460355 51.9169763, 4.4460136 51.9170034, 4.4458962 51.9171618, 4.4455293 51.91765, 4.4454917 51.9176869, 4.4453946 51.917782), (4.4441977 51.9189023, 4.4446925 51.9185057, 4.4453536 51.9178492, 4.4453946 51.917782), (4.4439798 51.9190765, 4.4440902 51.9189882, 4.4441977 51.9189023), (4.4439798 51.9190765, 4.443136 51.9196997, 4.4430411 51.9197547), (4.4430411 51.9197547, 4.4429721 51.9198231, 4.442959 51.9198432, 4.4429506 51.9198606, 4.4429471 51.9198857, 4.4429488 51.9199225, 4.4429547 51.9199609, 4.4429648 51.9200043, 4.4429731 51.9200528), (4.4429731 51.9200528, 4.4429752 51.9200801, 4.4429771 51.9201201), (4.4429771 51.9201201, 4.4429686 51.9201331, 4.4429553 51.9201488, 4.4429282 51.9201672, 4.4428946 51.92018, 4.4428623 51.920191), (4.4428623 51.920191, 4.4426886 51.9202016, 4.4426399 51.9202081, 4.4426046 51.9202156, 4.4425676 51.9202244, 4.4425211 51.9202377, 4.4424861 51.9202477, 4.442453 51.9202613, 4.4422817 51.9203483, 4.4421917 51.9204029, 4.4420499 51.9204975, 4.4416836 51.9207179), (4.4416836 51.9207179, 4.4415875 51.9207787), (4.4415875 51.9207787, 4.4412874 51.9209901, 4.4410692 51.9211326, 4.4407619 51.9213242, 4.4406117 51.921406, 4.4403588 51.9215402, 4.4401957 51.9216129, 4.4400262 51.9216927, 4.4399192 51.921739, 4.4398202 51.9217754, 4.4397317 51.9218025, 4.4396637 51.9218207, 4.4395329 51.9218508, 4.4394269 51.9218721, 4.4393519 51.9218825, 4.4392469 51.9218911, 4.4391483 51.9218917, 4.4389669 51.9218838, 4.4386418 51.9218614, 4.4385565 51.9218553), (4.4385565 51.9218553, 4.4383572 51.9218601, 4.4383248 51.9218643, 4.4382576 51.9218755, 4.4382097 51.9218875, 4.4381474 51.921909, 4.4380765 51.9219467, 4.4380285 51.9219763, 4.4378879 51.9220827, 4.4376191 51.9223028, 4.4375843 51.922347, 4.4375619 51.922389, 4.4374554 51.9226568, 4.4374204 51.9227244, 4.437325 51.9228316, 4.4372181 51.9229194, 4.4371551 51.9229655, 4.4371273 51.9229875, 4.4364158 51.9235449, 4.4363412 51.9236371, 4.4362966 51.9237707, 4.4363061 51.923891, 4.4363297 51.9239747, 4.43643 51.9241462, 4.4366062 51.9243881, 4.4370052 51.9249066, 4.4373346 51.9253118, 4.4373854 51.9253782, 4.4381535 51.9263698, 4.4384754 51.9267734, 4.4388643 51.9272779, 4.4390413 51.9274913, 4.4392673 51.9276478, 4.4393724 51.9277154), (4.4393724 51.9277154, 4.4394356 51.9277091, 4.4394984 51.9277168, 4.439553 51.9277374, 4.4395878 51.9277632, 4.4396086 51.9277942, 4.4396138 51.9278229, 4.4396069 51.9278515, 4.4395884 51.9278781), (4.4395884 51.9278781, 4.4396541 51.9280001, 4.4398232 51.9282008, 4.4399377 51.9283391, 4.439968 51.9284117, 4.4401523 51.9286559, 4.4402841 51.9287904, 4.4404219 51.9288982, 4.4406102 51.9289931, 4.4408882 51.9291132, 4.4409827 51.9291568), (4.4409827 51.9291568, 4.4411014 51.9292352, 4.4411969 51.9293173, 4.4412717 51.9294203, 4.4414144 51.9296071, 4.4414512 51.9296553, 4.4414741 51.9296889, 4.4415222 51.9297594), (4.4415222 51.9297594, 4.4418081 51.9301475, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4389533 51.932181, 4.4389614 51.9322199, 4.4389896 51.9322502, 4.4391515 51.9324245, 4.4394284 51.9326362, 4.4395246 51.9327358, 4.4396188 51.9328719, 4.439672 51.9330095, 4.4396935 51.9331181, 4.4396641 51.933326), (4.4396641 51.933326, 4.4396547 51.9333717, 4.4392589 51.9340308, 4.4391867 51.9341414, 4.4390217 51.9344226, 4.4389159 51.9345872, 4.4385061 51.9351545, 4.4383808 51.9352959, 4.4383054 51.9353866), (4.4383054 51.9353866, 4.4382146 51.9354809, 4.4381417 51.9355565), (4.4381417 51.9355565, 4.4371358 51.9365536, 4.4370247 51.9366328, 4.4369779 51.9366625, 4.4368756 51.9367256), (4.4368756 51.9367256, 4.4368856 51.9367504, 4.4368848 51.936776, 4.4368731 51.9368006, 4.4368441 51.9368276, 4.4368022 51.9368471, 4.4367523 51.9368572, 4.4366998 51.9368565, 4.4366506 51.9368451), (4.4366506 51.9368451, 4.4366055 51.936821, 4.4365783 51.9367882, 4.4365722 51.9367579, 4.4365817 51.936728), (4.4365817 51.936728, 4.4364982 51.9366448, 4.4364649 51.9366251, 4.4363799 51.9365609), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.432806 51.935817, 4.4335304 51.9360056), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4274731 51.9366312, 4.4275292 51.9366566, 4.4275622 51.9366945, 4.4275658 51.9367374, 4.4275487 51.9367677, 4.4275167 51.9367929, 4.4274557 51.9368145, 4.4273856 51.9368177), (4.4273856 51.9368177, 4.4273451 51.9368104, 4.4273091 51.9367969, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272122 51.9366727, 4.4271832 51.9366581, 4.4270453 51.9365989, 4.4269614 51.9365655), (4.4269614 51.9365655, 4.4264394 51.9363528, 4.4254953 51.9359689, 4.4250154 51.9357625, 4.4247514 51.9356523, 4.4245832 51.935575, 4.4243496 51.9354693), (4.4244044 51.935403, 4.4243496 51.9354693), (4.4254798 51.9346127, 4.4244896 51.9353191, 4.4244598 51.9353478, 4.4244044 51.935403))</t>
+          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.5105415 51.8754014, 4.510776 51.8752818, 4.5109024 51.8752089, 4.5110329 51.8751203), (4.5110329 51.8751203, 4.5112047 51.8749389), (4.5112047 51.8749389, 4.5115852 51.8745949, 4.5119918 51.8741924), (4.5119918 51.8741924, 4.5124366 51.8737681), (4.5124366 51.8737681, 4.5130293 51.8731922, 4.513444 51.8727936, 4.5138482 51.8723891, 4.513983 51.8722283, 4.5141152 51.8720659, 4.51419 51.8719714, 4.5143362 51.8717699), (4.5143362 51.8717699, 4.5144448 51.8715932, 4.514536 51.8714408, 4.5146219 51.8712883, 4.5147742 51.8709813), (4.5147742 51.8709813, 4.5148605 51.870739, 4.5149478 51.8704562, 4.5150113 51.8701689, 4.5150652 51.8698476, 4.5150862 51.869489), (4.5150862 51.869489, 4.5151156 51.8691838), (4.5151156 51.8691838, 4.5151296 51.8690358, 4.5151392 51.8689342), (4.5151392 51.8689342, 4.5152286 51.8687194), (4.5152286 51.8687194, 4.5153662 51.8680853, 4.5154245 51.8678352, 4.5154447 51.8677532, 4.5154762 51.8676467, 4.5155034 51.8675544, 4.5155305 51.8674685, 4.5155717 51.867358, 4.5156125 51.8672626, 4.5156494 51.8671878, 4.5156789 51.8671323, 4.5157084 51.8670768, 4.5157569 51.8669981, 4.5158174 51.8669084), (4.5158174 51.8669084, 4.5161773 51.8664051, 4.5165072 51.8659436, 4.5169064 51.8653852, 4.5170635 51.8651655, 4.5171099 51.8650991, 4.5171525 51.8650352, 4.5171844 51.8649843, 4.5172125 51.8649368, 4.5172402 51.8648872, 4.5172771 51.8648164), (4.5172771 51.8648164, 4.5173356 51.8646937, 4.5173491 51.8646612, 4.5173627 51.8646232, 4.5173723 51.8645842, 4.5173807 51.8645449, 4.5173876 51.8645013, 4.5173909 51.8644484, 4.5173913 51.8644182, 4.5173886 51.8643829, 4.5173828 51.8643495, 4.5173726 51.8643024, 4.5173609 51.8642584, 4.5173474 51.8642203, 4.5173284 51.8641818, 4.5173046 51.8641402, 4.5172788 51.8640967, 4.5172515 51.8640525, 4.5172208 51.8640106, 4.5171812 51.8639665, 4.5171132 51.8639017, 4.5170372 51.8638423, 4.5169611 51.8637921, 4.5168933 51.8637525, 4.5168086 51.8637115, 4.5167027 51.8636618, 4.5165823 51.8636142, 4.5164514 51.8635678, 4.5163229 51.8635265, 4.51621 51.8634922, 4.5160926 51.8634626, 4.5159753 51.8634372, 4.5158673 51.8634169, 4.5157549 51.8633985, 4.5156375 51.8633807, 4.5155193 51.863367, 4.51541 51.863359, 4.5152937 51.8633554, 4.5151818 51.8633565, 4.5150804 51.8633647, 4.5149872 51.8633765, 4.5148858 51.8633945, 4.5148008 51.8634153, 4.5145046 51.8635018, 4.514294 51.8636051, 4.5141189 51.8637213, 4.5139802 51.8638706, 4.5138955 51.8640109, 4.5138395 51.8641724, 4.5138513 51.8644091, 4.5139563 51.864616, 4.5141045 51.8647797, 4.5143152 51.8649315, 4.5146301 51.8650682, 4.5149704 51.8651203, 4.5152626 51.8651313, 4.5155375 51.8651288, 4.5158788 51.8651067, 4.5161595 51.8651216), (4.5161595 51.8651216, 4.5167068 51.8650917, 4.5169508 51.8650755, 4.5178202 51.8650219, 4.5187389 51.864962, 4.5193734 51.8649111, 4.5197004 51.8648844, 4.5201615 51.864843), (4.5201615 51.864843, 4.5213874 51.8647202, 4.5225584 51.8646005, 4.5238924 51.864434, 4.5251796 51.8642698, 4.5253728 51.8642423, 4.5262595 51.8641789), (4.5262595 51.8641789, 4.5276191 51.8639975, 4.5288418 51.8638506, 4.5294743 51.8637844, 4.5310465 51.8636484, 4.5339191 51.8635293), (4.5339191 51.8635293, 4.5347441 51.863533, 4.53592 51.863559), (4.53592 51.863559, 4.5366308 51.8635799), (4.5366308 51.8635799, 4.537808 51.8636469, 4.538599 51.8637127, 4.5395993 51.8638207, 4.5408043 51.8639757, 4.5421351 51.8641921, 4.5434546 51.8644467), (4.5434546 51.8644467, 4.5447329 51.8647254), (4.5447329 51.8647254, 4.5452991 51.8648724), (4.5452991 51.8648724, 4.546221 51.8650046), (4.546221 51.8650046, 4.5469904 51.8651785), (4.5469904 51.8651785, 4.5478061 51.8653934, 4.5483858 51.8655607, 4.5489312 51.8657262), (4.5489312 51.8657262, 4.5494146 51.8658908, 4.5499711 51.8660929, 4.5516633 51.8667488, 4.5537965 51.8675798), (4.5537965 51.8675798, 4.5540561 51.8676811), (4.5540561 51.8676811, 4.5542504 51.8677569), (4.5542504 51.8677569, 4.5546991 51.867932), (4.5546991 51.867932, 4.5557437 51.8683248, 4.5563851 51.8685345, 4.5566728 51.8686207), (4.5566728 51.8686207, 4.556985 51.8687046, 4.5576509 51.868863, 4.5583338 51.8690016, 4.5591582 51.8691518, 4.5598826 51.8692963, 4.5604335 51.8694349, 4.5608419 51.8695531, 4.5611961 51.8696789), (4.5611961 51.8696789, 4.5616672 51.8698542, 4.5622067 51.870093, 4.5625452 51.8702562), (4.5625452 51.8702562, 4.5625707 51.8702694), (4.5625707 51.8702694, 4.563022 51.8705235, 4.5632505 51.8706661, 4.5636413 51.870946, 4.5640451 51.8712665, 4.5643922 51.8715478, 4.5646124 51.871733), (4.5646124 51.871733, 4.5649317 51.8719543), (4.5649317 51.8719543, 4.5649996 51.8720029), (4.5649996 51.8720029, 4.5653076 51.872212), (4.5653076 51.872212, 4.5653911 51.8722688, 4.5656401 51.8724161, 4.5658844 51.8725477, 4.5661777 51.8726892, 4.5664409 51.8728092, 4.5668209 51.8729683, 4.5683501 51.8735636), (4.5683501 51.8735636, 4.5691196 51.873864), (4.5691196 51.873864, 4.5703275 51.8743334), (4.5703275 51.8743334, 4.57114 51.8746491), (4.57114 51.8746491, 4.5714164 51.8747577, 4.571606 51.874825), (4.571606 51.874825, 4.5717428 51.874873, 4.5719399 51.8749295, 4.572122 51.8749773, 4.5723002 51.8750192, 4.5725106 51.8750623, 4.5728035 51.8751081), (4.5728035 51.8751081, 4.5730529 51.8751374, 4.5733076 51.8751549, 4.5734963 51.8751642, 4.5736679 51.8751654), (4.5736679 51.8751654, 4.5740971 51.8751654, 4.574643 51.875167, 4.5751087 51.875201, 4.5755269 51.8752588, 4.575878 51.8753378, 4.5761831 51.8754269, 4.5764269 51.8755165, 4.5765835 51.8755876), (4.5765835 51.8755876, 4.5767544 51.8756649, 4.5768943 51.8757381), (4.5768943 51.8757381, 4.5770702 51.8758415, 4.5772038 51.8759331, 4.5774597 51.8761288, 4.5776472 51.8763098, 4.5778511 51.8765697, 4.5780148 51.8768361, 4.5781665 51.8771503, 4.578354 51.8776261, 4.5784365 51.8778444), (4.5784365 51.8778444, 4.5791456 51.8796617), (4.5791456 51.8796617, 4.5799783 51.8818057), (4.5799783 51.8818057, 4.5802773 51.8825775, 4.5803384 51.8827632, 4.5803897 51.882945, 4.5804275 51.8831117, 4.580446 51.883277, 4.5804591 51.8834671, 4.5804507 51.8837153), (4.5804507 51.8837153, 4.5804193 51.8842818, 4.5804074 51.884527, 4.5804164 51.8846951, 4.5804406 51.8848965, 4.5805338 51.8851927), (4.5805338 51.8851927, 4.5806817 51.885566), (4.5806817 51.885566, 4.5807654 51.8857771, 4.5807998 51.885864), (4.5807998 51.885864, 4.5808539 51.8860094), (4.5808539 51.8860094, 4.5808803 51.8860843), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5929354 51.8805071, 4.5929659 51.8803737), (4.5929659 51.8803737, 4.5930636 51.8803059, 4.5930893 51.8802887, 4.595223 51.8788612, 4.5956619 51.8786187, 4.5978354 51.8771389, 4.5986893 51.8765586, 4.5993419 51.8761209, 4.5999764 51.8757102, 4.6002444 51.8755584, 4.6004661 51.8754379, 4.6007547 51.8753051, 4.6010499 51.8751887, 4.6013534 51.8750839, 4.601581 51.8750169, 4.60188 51.8749388, 4.6021856 51.8748736, 4.6023723 51.874841, 4.6026197 51.8748033), (4.6026197 51.8748033, 4.6027376 51.8747882), (4.6027376 51.8747882, 4.6030246 51.8747557, 4.6034731 51.8747222, 4.6042404 51.8746946, 4.6049569 51.8746804), (4.6049569 51.8746804, 4.6055313 51.874669), (4.6055313 51.874669, 4.6061773 51.8746559), (4.6061773 51.8746559, 4.6075352 51.8746303), (4.6075352 51.8746303, 4.6081176 51.8746267, 4.6090087 51.8746336, 4.6091176 51.8746357, 4.6093439 51.8746403), (4.6093439 51.8746403, 4.6095179 51.8746438), (4.6095179 51.8746438, 4.6097629 51.8746487, 4.6106553 51.8746585, 4.6124952 51.8746771), (4.6124952 51.8746771, 4.6130393 51.8746832, 4.6135026 51.8746738), (4.6135026 51.8746738, 4.6139514 51.8746483, 4.6142605 51.8746181, 4.6145564 51.8745745), (4.6145564 51.8745745, 4.6149447 51.874498, 4.6154889 51.8743594, 4.6159068 51.874222, 4.6164037 51.8740171, 4.6165718 51.873936, 4.616725 51.8738542, 4.6168279 51.8737945), (4.6168279 51.8737945, 4.6170487 51.8738686), (4.6170487 51.8738686, 4.6172135 51.8739712, 4.6173951 51.8740904), (4.6173951 51.8740904, 4.6179205 51.874434, 4.6180323 51.8745072), (4.6180323 51.8745072, 4.6181418 51.8746121, 4.6182516 51.874754, 4.6182998 51.8748967, 4.6183185 51.8750441, 4.6182515 51.8752544, 4.6181174 51.8754183), (4.6181174 51.8754183, 4.6178779 51.8757949, 4.6177098 51.8760596, 4.6174382 51.8764869, 4.6168942 51.8773626, 4.6163068 51.8782829, 4.6153905 51.8797265, 4.61521 51.8800162, 4.6150775 51.8802309, 4.6150169 51.8803258, 4.6149581 51.8804221, 4.6148996 51.8805432, 4.6148703 51.8806433, 4.6148667 51.8807148, 4.6148691 51.8807975, 4.6148825 51.8808532, 4.6149015 51.8809087, 4.6149712 51.8810544, 4.6150495 51.8811707, 4.6151738 51.8812844, 4.6152847 51.8813626, 4.6155518 51.8815052, 4.6169918 51.8821891, 4.6175788 51.8824769, 4.6177049 51.8825862, 4.6177866 51.8827029, 4.6178122 51.8828037, 4.6178122 51.8829233, 4.6177342 51.8830761, 4.6175696 51.8832401, 4.6171978 51.8835267, 4.6157011 51.8847349), (4.6157011 51.8847349, 4.6156142 51.8848209, 4.6155757 51.8848817, 4.61557 51.8849236, 4.6155794 51.8849888), (4.6155794 51.8849888, 4.6156187 51.8851637), (4.6167407 51.8846104, 4.6162443 51.8849201, 4.6160334 51.8850478, 4.615888 51.8851385, 4.6158129 51.8851483, 4.6156187 51.8851637), (4.6212561 51.8801532, 4.6212127 51.8802195, 4.6211971 51.8802434, 4.6204305 51.8813772, 4.6196924 51.8825284, 4.6196064 51.8826536, 4.619392 51.8828899, 4.6192043 51.8830354, 4.6180877 51.8837575, 4.616817 51.8845628, 4.6167407 51.8846104), (4.6243062 51.8765704, 4.6242389 51.8766743, 4.6235344 51.8767433, 4.6234799 51.876823, 4.6234324 51.8768959, 4.6215373 51.8797296, 4.6214421 51.8798718, 4.6213445 51.8800178, 4.6212988 51.8800878, 4.6212561 51.8801532), (4.6244258 51.8763859, 4.6243062 51.8765704), (4.6235538 51.8761336, 4.6236365 51.8761786, 4.6237054 51.8762083, 4.6238629 51.8762532, 4.6244258 51.8763859), (4.6236671 51.8740281, 4.6238232 51.8740642, 4.6239308 51.8741486, 4.6239572 51.87424, 4.623928 51.8743769, 4.6235931 51.8750058, 4.6235035 51.8752137, 4.6234111 51.8754723, 4.6233602 51.8756411, 4.6233394 51.8757885, 4.6233555 51.8758898, 4.6234149 51.8759969, 4.6234552 51.8760512, 4.6235101 51.8761003, 4.6235538 51.8761336), (4.6237882 51.8738101, 4.6236671 51.8740281), (4.6201832 51.8725114, 4.6202195 51.8725244, 4.6205871 51.8726951, 4.6208436 51.8728011, 4.6211681 51.8729105, 4.6227 51.8734, 4.6233828 51.8736164, 4.6236262 51.8737177, 4.6237882 51.8738101), (4.6193701 51.8722305, 4.6200475 51.8724626, 4.6201832 51.8725114), (4.6188473 51.8720587, 4.6193701 51.8722305), (4.6181 51.8718, 4.6188473 51.8720587), (4.6152575 51.8710884, 4.6153069 51.8710772, 4.6154068 51.8710802, 4.6154807 51.8710941, 4.6169195 51.8715428, 4.6173325 51.8716624, 4.6181 51.8718), (4.6130186 51.8726872, 4.6133261 51.8726852, 4.6135374 51.8726549, 4.6137345 51.872599, 4.6139165 51.8725163, 4.6140675 51.8724202, 4.6142232 51.8722436, 4.6145434 51.8718814, 4.6152131 51.8711188, 4.6152575 51.8710884), (4.61234 51.8726798, 4.6126868 51.8726826, 4.6129165 51.8726869, 4.6130186 51.8726872))</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>384340</t>
+          <t>383275</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hoogvliet Rotterdam, Hoogvliet Metro</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bus 62: Hoogvliet Metro =&gt; Hoogvliet Metro</t>
+          <t>Bus 290: Ridderkerk Donkersloot =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>290</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1687,14 +1687,14 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3660178 51.8607373, 4.3662118 51.8606856), (4.3662118 51.8606856, 4.3662476 51.8607378), (4.3662476 51.8607378, 4.3662654 51.8607615, 4.3662885 51.8607947), (4.3662885 51.8607947, 4.3663237 51.8608465), (4.3663237 51.8608465, 4.3663605 51.8608988), (4.3663605 51.8608988, 4.3663864 51.8609357), (4.3663864 51.8609357, 4.3664359 51.8610069, 4.3664341 51.861029, 4.3663983 51.8610755, 4.366378 51.8610879, 4.3660759 51.8611683, 4.3659655 51.8611697, 4.3658097 51.8612081, 4.365712 51.8612314), (4.365712 51.8612314, 4.3656205 51.8612536), (4.3656205 51.8612536, 4.365358 51.8608381), (4.365358 51.8608381, 4.3652392 51.86065, 4.3647062 51.8598064, 4.3644885 51.8594617), (4.3644386 51.8594656, 4.3644885 51.8594617), (4.3644386 51.8594656, 4.3639 51.8595, 4.3632091 51.8596174), (4.3617487 51.8597372, 4.3617952 51.8597536, 4.3618469 51.8597615, 4.3619418 51.859761, 4.3621151 51.859758, 4.3623353 51.8597473, 4.362587 51.8597268, 4.3628574 51.8596894, 4.3632091 51.8596174), (4.3611684 51.8588725, 4.3613287 51.8590459, 4.3615 51.8593, 4.3616874 51.8596558, 4.3616939 51.8596682, 4.3617487 51.8597372), (4.3606 51.8584, 4.3606851 51.8584707, 4.3610441 51.8587692, 4.3611684 51.8588725), (4.3605765 51.8583831, 4.3606 51.8584), (4.3604769 51.8583106, 4.3605315 51.8583507, 4.3605765 51.8583831), (4.3604769 51.8583106, 4.3603541 51.8582491, 4.3601661 51.8581307, 4.3601289 51.8581045, 4.3600941 51.8580598), (4.3600941 51.8580598, 4.3600326 51.8580667, 4.3599708 51.8580606, 4.3599158 51.8580422, 4.3598819 51.8580208, 4.3598582 51.8579948, 4.3598451 51.8579599, 4.35985 51.8579242, 4.3598725 51.8578912), (4.3598725 51.8578912, 4.3598248 51.8578545, 4.3598058 51.8578331, 4.3597453 51.8577686, 4.3596968 51.8577059, 4.3596583 51.8576561), (4.359601 51.8576134, 4.3596583 51.8576561), (4.3589218 51.8570525, 4.359159 51.8572511, 4.3593679 51.8574252, 4.3594126 51.8574625, 4.3595193 51.8575484, 4.3595688 51.8575895, 4.359601 51.8576134), (4.3586 51.8568, 4.3589218 51.8570525), (4.3586 51.8568, 4.3585239 51.8568423, 4.3577 51.8573, 4.3568 51.8577, 4.3564692 51.8578729, 4.35602 51.8580881, 4.3557641 51.8582067, 4.3555999 51.8582828, 4.3553288 51.8584121, 4.3553245 51.8584142, 4.3546431 51.8587412, 4.3538694 51.8591114, 4.353843 51.859124), (4.353843 51.859124, 4.3542391 51.8594476, 4.3543771 51.8595535, 4.3544278 51.8595899, 4.3545836 51.8597111, 4.3547062 51.859807, 4.3548159 51.8598928), (4.3548159 51.8598928, 4.3550672 51.8600966, 4.3551031 51.8601247), (4.3551031 51.8601247, 4.355138 51.8601524), (4.355138 51.8601524, 4.3551989 51.8601347, 4.3552662 51.8601325, 4.3553299 51.8601459, 4.3553735 51.8601677, 4.3554037 51.8601968, 4.3554169 51.8602255, 4.3554169 51.8602554, 4.3554037 51.8602841, 4.3553756 51.8603117, 4.3553354 51.8603329, 4.355287 51.8603459, 4.3552226 51.8603488, 4.3551609 51.8603373), (4.3551609 51.8603373, 4.355102 51.8603739, 4.3550593 51.8603992, 4.3548522 51.8605056), (4.3548522 51.8605056, 4.3545801 51.8606712, 4.3543343 51.8608492, 4.3541109 51.8610409, 4.3539867 51.8611504, 4.3538449 51.8613201, 4.3537154 51.8614833, 4.3534406 51.8619552), (4.3534406 51.8619552, 4.3530688 51.8626462, 4.353058 51.8626664, 4.353027 51.8627233, 4.3529593 51.8628456), (4.3529593 51.8628456, 4.3528866 51.8629777, 4.3528427 51.8630573), (4.3528427 51.8630573, 4.3528018 51.8631316, 4.3527722 51.8631884, 4.3527553 51.8632187), (4.3527553 51.8632187, 4.3525849 51.8635301, 4.3524718 51.8637503), (4.3524718 51.8637503, 4.3523047 51.8640398, 4.3522859 51.8640797, 4.3522681 51.8641176, 4.3522157 51.8642286), (4.3522157 51.8642286, 4.3519511 51.8641916), (4.3519511 51.8641916, 4.3517594 51.8641692, 4.3512638 51.8639998), (4.3512638 51.8639998, 4.3509526 51.8639221), (4.3446262 51.8624386, 4.3448531 51.8624945, 4.3453153 51.8626083, 4.3456662 51.8626911, 4.3461815 51.8628102, 4.3462613 51.8628277, 4.3465282 51.8628921, 4.3477172 51.8631716, 4.3480987 51.8632581, 4.3486122 51.8633784, 4.34919 51.8635163, 4.349623 51.8636196, 4.3499501 51.8636915, 4.3504064 51.8637969, 4.3509526 51.8639221), (4.3446262 51.8624386, 4.3445463 51.8625685, 4.3444042 51.8627998, 4.3442699 51.8630183, 4.3441807 51.8631633, 4.343735 51.8638885, 4.3436757 51.8640048, 4.3434973 51.8644177, 4.343362 51.8646794, 4.3432706 51.8648503), (4.3432706 51.8648503, 4.3430718 51.8652143, 4.3429023 51.8655245, 4.3426769 51.865925, 4.3424023 51.866413), (4.3424023 51.866413, 4.3429086 51.8665206, 4.3433076 51.8666054, 4.3437139 51.8666917, 4.3437824 51.8667052, 4.3443879 51.8668242, 4.3448436 51.8669243, 4.3450528 51.8669703, 4.3452444 51.8670079, 4.3456464 51.8670967, 4.345729 51.8671152, 4.3462674 51.8672332), (4.3462674 51.8672332, 4.3467958 51.8673485, 4.3471701 51.8674474, 4.3473233 51.867505, 4.3475 51.8676, 4.347887 51.8678502, 4.3479798 51.8679236), (4.3479798 51.8679236, 4.3481216 51.8680278, 4.3484155 51.8682474, 4.3487714 51.8685241, 4.3490566 51.8687391, 4.3494673 51.8690372, 4.349709 51.8692097, 4.3497659 51.8692534, 4.3501235 51.8695281, 4.3503392 51.8696893, 4.350421 51.869752), (4.350421 51.869752, 4.3507862 51.870036, 4.35094 51.870152), (4.35094 51.870152, 4.3516249 51.8707023, 4.3516425 51.8707164, 4.3519024 51.8709123, 4.3519639 51.8709581, 4.3523331 51.8711637, 4.3524372 51.8712164), (4.3524372 51.8712164, 4.3525635 51.8712873, 4.3526474 51.8713079), (4.3535864 51.8709302, 4.3533683 51.8710218, 4.3527187 51.8712917, 4.3526474 51.8713079), (4.3544542 51.8705975, 4.3543605 51.8706299, 4.3535864 51.8709302), (4.3544542 51.8705975, 4.3546569 51.8705037, 4.3550416 51.8703627), (4.3550416 51.8703627, 4.3553876 51.8702517, 4.3554434 51.8702321), (4.3554434 51.8702321, 4.3555803 51.8701741), (4.3555803 51.8701741, 4.3555915 51.8701235, 4.3556322 51.8700791), (4.3556322 51.8700791, 4.3556758 51.8700549, 4.3557283 51.8700388, 4.3557858 51.8700317), (4.3557858 51.8700317, 4.355822 51.8700323, 4.355849 51.8700359), (4.355849 51.8700359, 4.3559446 51.8700656, 4.3559845 51.8700946, 4.3560097 51.8701293), (4.3561137 51.8701027, 4.3560097 51.8701293), (4.3567066 51.8699813, 4.3561743 51.8700897, 4.3561137 51.8701027), (4.3595758 51.8692442, 4.359371 51.8692987, 4.3584512 51.8695341, 4.3583761 51.8695533, 4.3575797 51.869757, 4.3573722 51.8698101, 4.357222 51.8698486, 4.3567066 51.8699813), (4.3595758 51.8692442, 4.3599068 51.8697361), (4.3599068 51.8697361, 4.3601939 51.870163, 4.3602468 51.8702416), (4.3602468 51.8702416, 4.3604486 51.8705371, 4.3607033 51.8709101, 4.3608118 51.871069, 4.3608702 51.8711546, 4.3609172 51.8712234, 4.3609971 51.8713438, 4.3610376 51.8714048, 4.3611921 51.8716376, 4.3613477 51.8718728), (4.3658108 51.8707188, 4.3654174 51.8708215, 4.3651246 51.8708979, 4.3645539 51.8710469, 4.363753 51.8712559, 4.3637143 51.871266, 4.3626184 51.8715521, 4.3613477 51.8718728), (4.3635337 51.8681446, 4.3636945 51.8683234, 4.3642514 51.8689173, 4.3643158 51.8689856, 4.3643623 51.8690351, 4.3646495 51.8693412, 4.3648648 51.8695707, 4.3651269 51.8698485, 4.3654 51.8701, 4.3654226 51.8701347, 4.3655988 51.8704044, 4.3658108 51.8707188), (4.3632137 51.8678177, 4.3632801 51.8678501, 4.3634416 51.8680423, 4.3635337 51.8681446), (4.3632137 51.8678177, 4.3631544 51.8678158, 4.3628552 51.8678916, 4.3616251 51.8682053), (4.3608409 51.8670654, 4.3608703 51.8671081, 4.3610277 51.8673369, 4.3612157 51.8676102, 4.361286 51.8677124, 4.3613014 51.8677347, 4.3616251 51.8682053), (4.3608409 51.8670654, 4.3606913 51.8669146, 4.360544 51.8667337), (4.360544 51.8667337, 4.360454 51.8666192, 4.3603906 51.8665346, 4.3603377 51.8664639), (4.3603377 51.8664639, 4.3602719 51.8663767), (4.3602719 51.8663767, 4.3604327 51.8663357), (4.3604327 51.8663357, 4.3606121 51.8662962, 4.3611872 51.866167, 4.3622052 51.8659179, 4.3628464 51.8657469), (4.3628464 51.8657469, 4.3631779 51.8656718), (4.3631779 51.8656718, 4.3635415 51.8656019, 4.3637292 51.8655518, 4.3638122 51.8655122, 4.3638636 51.8654697, 4.3638825 51.8654493, 4.3639338 51.8653736), (4.3639338 51.8653736, 4.3639033 51.8653419, 4.3638875 51.8653064, 4.3638875 51.8652695), (4.3638875 51.8652695, 4.3638979 51.8652428, 4.3639167 51.8652178, 4.3639432 51.8651957, 4.3640005 51.8651676, 4.3640695 51.8651525, 4.3641427 51.865152, 4.3642122 51.8651662, 4.3642705 51.8651935, 4.3643114 51.865231), (4.3643114 51.865231, 4.3644971 51.8652371, 4.3646849 51.8652289, 4.3647542 51.8652172), (4.3647542 51.8652172, 4.3650124 51.8651972, 4.3652702 51.8651626, 4.3661656 51.8649379, 4.3663011 51.8649032), (4.3663011 51.8649032, 4.366869 51.8647815), (4.366869 51.8647815, 4.3674179 51.8646513, 4.3675589 51.8646137, 4.3677621 51.8645557), (4.3671347 51.8635721, 4.3676642 51.8644021, 4.3677621 51.8645557), (4.36656 51.8626509, 4.3671347 51.8635721), (4.36656 51.8626509, 4.3662883 51.8623092), (4.3662883 51.8623092, 4.3662438 51.8623052, 4.3662047 51.8622915, 4.3661864 51.8622797, 4.3661726 51.8622657, 4.3661641 51.8622507, 4.3661609 51.8622349, 4.3661654 51.862213, 4.3661799 51.8621928, 4.3662033 51.8621761), (4.3662033 51.8621761, 4.3661521 51.862095, 4.3656205 51.8612536), (4.3656205 51.8612536, 4.365358 51.8608381), (4.365358 51.8608381, 4.3654506 51.8608118), (4.3654506 51.8608118, 4.3655427 51.8607863, 4.3660426 51.8606475, 4.3660835 51.8606456, 4.366182 51.8606651, 4.3662118 51.8606856), (4.3662118 51.8606856, 4.3662476 51.8607378), (4.3662476 51.8607378, 4.3662654 51.8607615, 4.3662885 51.8607947), (4.3662885 51.8607947, 4.3663237 51.8608465), (4.3663237 51.8608465, 4.3663605 51.8608988), (4.3663605 51.8608988, 4.3663864 51.8609357))</t>
+          <t>MULTILINESTRING ((4.6130186 51.8726872, 4.6133261 51.8726852, 4.6135374 51.8726549, 4.6137345 51.872599, 4.6139165 51.8725163, 4.6140675 51.8724202, 4.6142232 51.8722436, 4.6145434 51.8718814, 4.6152131 51.8711188, 4.6152575 51.8710884), (4.6152575 51.8710884, 4.6153069 51.8710772, 4.6154068 51.8710802, 4.6154807 51.8710941, 4.6169195 51.8715428, 4.6173325 51.8716624, 4.6181 51.8718), (4.6181 51.8718, 4.6188473 51.8720587), (4.6188473 51.8720587, 4.6193701 51.8722305), (4.6193701 51.8722305, 4.6200475 51.8724626, 4.6201832 51.8725114), (4.6201832 51.8725114, 4.6202195 51.8725244, 4.6205871 51.8726951, 4.6208436 51.8728011, 4.6211681 51.8729105, 4.6227 51.8734, 4.6233828 51.8736164, 4.6236262 51.8737177, 4.6237882 51.8738101), (4.6237882 51.8738101, 4.6236671 51.8740281), (4.6236671 51.8740281, 4.6238232 51.8740642, 4.6239308 51.8741486, 4.6239572 51.87424, 4.623928 51.8743769, 4.6235931 51.8750058, 4.6235035 51.8752137, 4.6234111 51.8754723, 4.6233602 51.8756411, 4.6233394 51.8757885, 4.6233555 51.8758898, 4.6234149 51.8759969, 4.6234552 51.8760512, 4.6235101 51.8761003, 4.6235538 51.8761336), (4.6235538 51.8761336, 4.6236365 51.8761786, 4.6237054 51.8762083, 4.6238629 51.8762532, 4.6244258 51.8763859), (4.6244258 51.8763859, 4.6243062 51.8765704), (4.6243062 51.8765704, 4.6242389 51.8766743, 4.6235344 51.8767433, 4.6234799 51.876823, 4.6234324 51.8768959, 4.6215373 51.8797296, 4.6214421 51.8798718, 4.6213445 51.8800178, 4.6212988 51.8800878, 4.6212561 51.8801532), (4.6212561 51.8801532, 4.6212127 51.8802195, 4.6211971 51.8802434, 4.6204305 51.8813772, 4.6196924 51.8825284, 4.6196064 51.8826536, 4.619392 51.8828899, 4.6192043 51.8830354, 4.6180877 51.8837575, 4.616817 51.8845628, 4.6167407 51.8846104), (4.6167407 51.8846104, 4.6162443 51.8849201, 4.6160334 51.8850478, 4.615888 51.8851385, 4.6158129 51.8851483, 4.6156187 51.8851637), (4.6155794 51.8849888, 4.6156187 51.8851637), (4.6157011 51.8847349, 4.6156142 51.8848209, 4.6155757 51.8848817, 4.61557 51.8849236, 4.6155794 51.8849888), (4.6181174 51.8754183, 4.6178779 51.8757949, 4.6177098 51.8760596, 4.6174382 51.8764869, 4.6168942 51.8773626, 4.6163068 51.8782829, 4.6153905 51.8797265, 4.61521 51.8800162, 4.6150775 51.8802309, 4.6150169 51.8803258, 4.6149581 51.8804221, 4.6148996 51.8805432, 4.6148703 51.8806433, 4.6148667 51.8807148, 4.6148691 51.8807975, 4.6148825 51.8808532, 4.6149015 51.8809087, 4.6149712 51.8810544, 4.6150495 51.8811707, 4.6151738 51.8812844, 4.6152847 51.8813626, 4.6155518 51.8815052, 4.6169918 51.8821891, 4.6175788 51.8824769, 4.6177049 51.8825862, 4.6177866 51.8827029, 4.6178122 51.8828037, 4.6178122 51.8829233, 4.6177342 51.8830761, 4.6175696 51.8832401, 4.6171978 51.8835267, 4.6157011 51.8847349), (4.6181174 51.8754183, 4.6181376 51.8753675, 4.6181871 51.8752428, 4.6182074 51.875124), (4.6182074 51.875124, 4.6182139 51.8750292, 4.6181576 51.8748388, 4.6180161 51.874661, 4.6179018 51.8745621), (4.6179018 51.8745621, 4.6178196 51.8744994, 4.6176226 51.8743739), (4.6176226 51.8743739, 4.6172725 51.8741591), (4.6172725 51.8741591, 4.6171704 51.8740956, 4.6170853 51.8740418, 4.6169101 51.8739385), (4.6169101 51.8739385, 4.6167344 51.8740271, 4.616351 51.874216, 4.6160142 51.8743516, 4.615601 51.8744846, 4.6151646 51.8745966, 4.6147146 51.8746833, 4.6143259 51.8747389, 4.6138683 51.8747766), (4.6138683 51.8747766, 4.6135062 51.8747898, 4.6131413 51.8747965), (4.6131413 51.8747965, 4.6125618 51.874792), (4.6125618 51.874792, 4.609868 51.8747586, 4.609755 51.8747572, 4.6095253 51.8747544), (4.6095253 51.8747544, 4.609339 51.8747522), (4.609339 51.8747522, 4.6091114 51.874748, 4.6084056 51.8747352, 4.6077506 51.874735), (4.6077506 51.874735, 4.6071319 51.8747415), (4.6071319 51.8747415, 4.6047489 51.8747852, 4.6037457 51.8748154, 4.6032128 51.8748457, 4.6027525 51.8748907), (4.6027525 51.8748907, 4.6026341 51.8749055), (4.6026341 51.8749055, 4.6024153 51.8749368, 4.6022205 51.8749732, 4.6020309 51.875014, 4.6017106 51.8750917, 4.6013367 51.8752056, 4.6010792 51.8752993, 4.6007908 51.8754137, 4.6005095 51.8755497, 4.6001444 51.8757564, 4.5998368 51.8759464, 4.5987983 51.8766419, 4.5979028 51.8772506, 4.5975806 51.8774765, 4.597147 51.8777654, 4.595786 51.8786929), (4.595786 51.8786929, 4.5954553 51.8788289, 4.5951142 51.879033, 4.5932199 51.8803151, 4.5931811 51.8803413, 4.5931551 51.8803589, 4.5930586 51.8804231), (4.5930586 51.8804231, 4.5929354 51.8805071), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5808803 51.8860843, 4.580697 51.8861956), (4.580697 51.8861956, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5806371 51.8860403), (4.5806371 51.8860403, 4.5805833 51.8858996), (4.5805833 51.8858996, 4.5805479 51.8858152), (4.5805479 51.8858152, 4.5805254 51.8857581), (4.5805254 51.8857581, 4.5803986 51.8854485, 4.5803426 51.8853116, 4.580278 51.8851328, 4.5802218 51.884892, 4.5802014 51.884717, 4.5802058 51.8844493, 4.5802267 51.884241, 4.5802745 51.8838924, 4.5803004 51.883673, 4.5803063 51.883437, 4.5802902 51.8832476, 4.5802568 51.8830513, 4.5801998 51.8828407, 4.5799585 51.8821946), (4.5799585 51.8821946, 4.5793812 51.8807131), (4.5793812 51.8807131, 4.5791915 51.8802168, 4.5790151 51.8797749, 4.5788189 51.8793218, 4.5786661 51.8789993, 4.5784643 51.8786848), (4.5784643 51.8786848, 4.5782511 51.8783948, 4.5779303 51.878047, 4.5776891 51.8778104, 4.5773872 51.8775587, 4.5770757 51.8773425, 4.5767006 51.8771142, 4.5765101 51.8770204), (4.5765101 51.8770204, 4.5758402 51.8767027, 4.5751516 51.8764197, 4.5741495 51.8760344), (4.5741495 51.8760344, 4.5734541 51.8757202), (4.5734541 51.8757202, 4.5725971 51.8753896, 4.5717327 51.8750501), (4.5717327 51.8750501, 4.5714682 51.874949), (4.5714682 51.874949, 4.5710065 51.8747676), (4.5710065 51.8747676, 4.5701935 51.8744515), (4.5701935 51.8744515, 4.5695884 51.8742186), (4.5695884 51.8742186, 4.5691995 51.8740479), (4.5691995 51.8740479, 4.5677925 51.8734999, 4.5665777 51.8730293, 4.5653779 51.8725576, 4.5647025 51.8722991, 4.5640922 51.8720826, 4.5636255 51.8719374, 4.5630855 51.8717864, 4.5624785 51.8716502), (4.5624785 51.8716502, 4.560991 51.8713367), (4.560991 51.8713367, 4.5608239 51.8713036, 4.5602652 51.8711659, 4.5597515 51.8710173, 4.5593001 51.8708669, 4.5588564 51.8706956, 4.5584753 51.8705337, 4.5582354 51.8704241), (4.5582354 51.8704241, 4.5576113 51.870086, 4.5572934 51.8699055), (4.5572934 51.8699055, 4.5567152 51.8695828, 4.5562983 51.869365, 4.5560078 51.8692276, 4.5555513 51.8690202, 4.5551834 51.8688676, 4.5541377 51.8684516), (4.5541377 51.8684516, 4.5536322 51.8682572), (4.5536322 51.8682572, 4.5529493 51.8679945), (4.5529493 51.8679945, 4.5525075 51.8678234, 4.5506418 51.8671148), (4.5506418 51.8671148, 4.5499608 51.8668623, 4.549123 51.866548, 4.5482206 51.8662305, 4.5472781 51.8659201), (4.5472781 51.8659201, 4.5465403 51.8656843, 4.5456438 51.8654318, 4.5443994 51.8651227), (4.5443994 51.8651227, 4.5431206 51.8648471), (4.5431206 51.8648471, 4.5415177 51.8645291, 4.5401468 51.8643273, 4.5384332 51.864132), (4.5384332 51.864132, 4.537373 51.8640392, 4.5366244 51.8639966), (4.5366244 51.8639966, 4.5359179 51.8639684), (4.5359179 51.8639684, 4.5347166 51.8639244, 4.5331489 51.8639331, 4.532493 51.8639476, 4.5317805 51.8639748, 4.5296808 51.8641288, 4.5290106 51.8642019, 4.5283436 51.8642806), (4.5283436 51.8642806, 4.5274414 51.8644176, 4.5264261 51.8645766, 4.525654 51.8647171, 4.5250799 51.8648337), (4.5250799 51.8648337, 4.5245561 51.8650106, 4.523294 51.8653815), (4.523294 51.8653815, 4.521927 51.8657796, 4.5215318 51.8658844, 4.5212375 51.8659427, 4.5208394 51.8660155, 4.5200349 51.8661424, 4.5196802 51.86621, 4.5191426 51.8663486, 4.5184823 51.8665636, 4.5180475 51.8667406, 4.5176994 51.8669079), (4.5176994 51.8669079, 4.5172165 51.8671821, 4.5167713 51.8674966, 4.5164336 51.8677948, 4.5161563 51.868086, 4.515929 51.8683848, 4.5157778 51.8686353, 4.515742 51.8687212), (4.515742 51.8687212, 4.5156652 51.8689502, 4.5156472 51.8690395), (4.5156472 51.8690395, 4.5156353 51.8690983, 4.5156123 51.869304, 4.5155875 51.8694923), (4.5155875 51.8694923, 4.5155433 51.8699384, 4.5154987 51.8702196, 4.5154112 51.8705351, 4.5153059 51.8708281, 4.5152067 51.8710521, 4.5149474 51.8715001, 4.5146615 51.871897, 4.5143575 51.8722183), (4.5143575 51.8722183, 4.5141897 51.8724126, 4.5140652 51.8725489, 4.5138281 51.8726764), (4.5138281 51.8726764, 4.5136826 51.8728125), (4.5136826 51.8728125, 4.5123878 51.8740487, 4.5121984 51.874231), (4.5121984 51.874231, 4.5114715 51.8749277, 4.5113051 51.875076), (4.5113051 51.875076, 4.5112231 51.8751625, 4.511008 51.8753356, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.510858 51.8754417, 4.5107671 51.8754933, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>384341</t>
+          <t>383705</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rotterdam, Meeuwenstaart</t>
+          <t>Rotterdam, Station Alexander</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bus 547: Rotterdam Noordereiland =&gt; Rotterdam Noordereiland</t>
+          <t>Bus 30: Capelle Schollevaar =&gt; Rotterdam Station Alexander</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1725,14 +1725,14 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4887007 51.9098734, 4.4885343 51.909937, 4.4885134 51.9099552, 4.4884905 51.9100929), (4.4884905 51.9100929, 4.4884696 51.9101109, 4.488461 51.9101275, 4.488454 51.9101571, 4.4884551 51.9101784, 4.4884625 51.910203, 4.4884775 51.9102276, 4.488686 51.9104572), (4.488686 51.9104572, 4.4888036 51.9105812, 4.4890247 51.910823, 4.4890996 51.9108973, 4.4891799 51.9109683, 4.4893549 51.9111164, 4.4895537 51.9112732, 4.4897565 51.9114175, 4.4898695 51.9114917, 4.4905163 51.9118889, 4.4906179 51.9119515, 4.4906597 51.9119763, 4.4911765 51.9122837, 4.4922134 51.912905, 4.4922375 51.912919, 4.4924267 51.913028, 4.4932208 51.9134961, 4.4933622 51.9135762, 4.4936604 51.9137514, 4.4938736 51.9138777, 4.4945562 51.914284, 4.4952138 51.9146726, 4.4958079 51.9150466, 4.4961315 51.9152289), (4.4961315 51.9152289, 4.4968368 51.9156082, 4.497003 51.9156897, 4.4971323 51.9157425), (4.4971323 51.9157425, 4.4976322 51.9159399), (4.4976322 51.9159399, 4.4976603 51.915951, 4.4977632 51.9159901, 4.4978903 51.9160341, 4.4981724 51.9161171, 4.4984759 51.9162, 4.4989967 51.9163185, 4.4993714 51.916385, 4.4994996 51.9164026, 4.4996603 51.9164161, 4.5003868 51.9164725, 4.5004473 51.9164704, 4.500504 51.9164641), (4.5010915 51.9156274, 4.5008931 51.9157639, 4.5007629 51.9158608, 4.5007163 51.9159017, 4.5006724 51.9159409, 4.5006489 51.915973, 4.5006339 51.9160019, 4.5006215 51.916029, 4.5005915 51.9161794, 4.5005566 51.9164196, 4.5005449 51.9164398, 4.5005249 51.9164555, 4.500504 51.9164641), (4.5001783 51.9151265, 4.5003585 51.9152253, 4.5008877 51.9155156, 4.5010915 51.9156274), (4.5001783 51.9151265, 4.4995075 51.914772), (4.4995075 51.914772, 4.4993801 51.9147347, 4.49928 51.9146993, 4.4991129 51.9146359), (4.4991129 51.9146359, 4.4989701 51.9145638), (4.4989701 51.9145638, 4.4986871 51.9144419), (4.4986871 51.9144419, 4.4986649 51.9144169, 4.4986453 51.9143971, 4.4985877 51.9143677, 4.4984414 51.9143149), (4.4984414 51.9143149, 4.498055 51.9140583, 4.4979504 51.9139985, 4.4977613 51.9138903, 4.4972593 51.9136076, 4.4971106 51.9135228, 4.497028 51.9134789), (4.497028 51.9134789, 4.496939 51.9134143), (4.496939 51.9134143, 4.4968303 51.9133422, 4.4967505 51.9132971, 4.4966238 51.9132097), (4.4966238 51.9132097, 4.4962848 51.913035), (4.4896 51.9098, 4.4903329 51.9100839, 4.4905089 51.9101496, 4.4919424 51.9106955, 4.4921701 51.9107843, 4.4922898 51.9108294, 4.4923815 51.9108733, 4.4926629 51.9110231, 4.4933122 51.9113885, 4.4934289 51.9114536, 4.4939139 51.9117241, 4.4945202 51.9120536, 4.4946679 51.9121412, 4.4950923 51.9123769, 4.495692 51.9127099, 4.4960797 51.9129323, 4.4962848 51.913035), (4.4896 51.9098, 4.4895393 51.9097808, 4.4895036 51.9097712, 4.4894598 51.9097649, 4.4894168 51.9097621, 4.4893711 51.909766), (4.4893711 51.909766, 4.4891298 51.9097083, 4.4890868 51.9097192, 4.4887007 51.9098734))</t>
+          <t>MULTILINESTRING ((4.5879362 51.9513509, 4.5880569 51.9514644, 4.5880944 51.9514997, 4.5881246 51.9515613, 4.5881435 51.9516415, 4.5880653 51.9518919, 4.588009 51.9520946, 4.587956 51.9522765, 4.5878644 51.9525939, 4.5877927 51.952835, 4.5877449 51.9529444, 4.5877418 51.9529535, 4.5876795 51.9530215, 4.5875698 51.9530831, 4.587446 51.9531403, 4.5868709 51.953401, 4.5867556 51.9534542), (4.5867556 51.9534542, 4.5866345 51.9535466, 4.5865279 51.9536059, 4.5864987 51.9536489, 4.5864874 51.9536849), (4.5863703 51.9536887, 4.5864874 51.9536849), (4.5823648 51.9531854, 4.5825128 51.9532063, 4.5826121 51.9532134, 4.5827062 51.9532424, 4.5827864 51.9532801, 4.5829007 51.9533706, 4.5830475 51.9535106, 4.5830687 51.9535319, 4.5832307 51.9536784, 4.5832859 51.953723, 4.5833583 51.9537534, 4.5834532 51.9537789, 4.5838417 51.9538211, 4.5839635 51.9538331, 4.5844657 51.9538909, 4.5851349 51.9539667, 4.585226 51.953968, 4.5853164 51.9539534, 4.5858493 51.9537926, 4.5861125 51.9537191, 4.5861665 51.9537094, 4.5863703 51.9536887), (4.5818247 51.9511838, 4.5818792 51.9512143, 4.5818951 51.951273, 4.5818364 51.9516804, 4.5818134 51.9517749, 4.5817625 51.9518914, 4.5816945 51.9519968, 4.5816226 51.9521519, 4.5816294 51.952292, 4.5816619 51.9524224, 4.5817456 51.9525271, 4.5819637 51.9527248, 4.5820712 51.9528223, 4.5822061 51.9529375, 4.5823104 51.9530404, 4.582343 51.9530974, 4.5823648 51.9531854), (4.579333 51.9505618, 4.5795895 51.9505794, 4.5797258 51.9506024, 4.5798134 51.9506564, 4.5799173 51.9507494, 4.5800227 51.9508504, 4.5801298 51.9509174, 4.5802578 51.950972, 4.580401 51.9510038, 4.5807269 51.9510604, 4.580993 51.9510994, 4.5814288 51.9511353, 4.5817526 51.9511619, 4.5818247 51.9511838), (4.5785523 51.950505, 4.579333 51.9505618), (4.5767757 51.9503798, 4.5769748 51.9503938, 4.5771331 51.950405, 4.5785523 51.950505), (4.5765468 51.950337, 4.5766436 51.9503633, 4.5767757 51.9503798), (4.5757862 51.9497428, 4.5760539 51.9497603, 4.5761343 51.9497674, 4.5762264 51.9497947, 4.5762725 51.9498205, 4.5762971 51.9498343, 4.576353 51.949892, 4.5763596 51.9499579, 4.5763365 51.9501484, 4.576353 51.9502052, 4.5763777 51.9502538, 4.5764479 51.950299, 4.5765468 51.950337), (4.5741231 51.9496413, 4.5745324 51.9495777, 4.5752111 51.9496242, 4.5756641 51.9497218, 4.5757862 51.9497428), (4.5724438 51.9494598, 4.5725379 51.9494842, 4.5728243 51.9495102, 4.5729703 51.9495304, 4.5731795 51.9495741, 4.5734126 51.9495918, 4.5735545 51.9496017, 4.5741231 51.9496413), (4.5699052 51.9486855, 4.5700123 51.9486645, 4.5701518 51.9486585, 4.5704504 51.9486665, 4.5705198 51.9486686, 4.5711383 51.9486875, 4.5712973 51.9487035, 4.571432 51.9487365, 4.5715391 51.9487865, 4.5716202 51.9488493, 4.5719555 51.9490839, 4.5723636 51.9494183, 4.5724438 51.9494598), (4.5697791 51.9479519, 4.5697527 51.948205, 4.5697233 51.9484564, 4.5697592 51.9485628, 4.5699052 51.9486855), (4.5687634 51.9478953, 4.5697791 51.9479519), (4.5687634 51.9478953, 4.5686522 51.9478891, 4.5683177 51.9477617, 4.5682792 51.947747, 4.5682762 51.9477459, 4.5681472 51.9476809), (4.5681472 51.9476809, 4.5679829 51.9476086), (4.5679829 51.9476086, 4.5670859 51.9471017), (4.5670859 51.9471017, 4.5669256 51.9470109), (4.5669256 51.9470109, 4.5667871 51.9469005, 4.5666501 51.9466789, 4.5665916 51.946576, 4.565876 51.9461431, 4.5648949 51.9455359, 4.5645801 51.9453411, 4.5638338 51.9448817, 4.5634721 51.9446582, 4.5631771 51.9445326, 4.5625337 51.9444045, 4.5623456 51.9443672, 4.5620735 51.9443218, 4.5614306 51.9442275, 4.5609863 51.9441539, 4.5607346 51.9441377, 4.5605891 51.9441458, 4.5603814 51.9441757, 4.5601593 51.944236, 4.5599251 51.9443107, 4.5581472 51.9449486), (4.5581472 51.9449486, 4.5579174 51.9450301, 4.5573755 51.9452224, 4.5570749 51.9453312), (4.5570749 51.9453312, 4.5569223 51.9453864, 4.5568034 51.9454288, 4.5567723 51.9454399, 4.5567196 51.9454587, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.5558538 51.949644), (4.5558538 51.949644, 4.5558136 51.9497617, 4.555598 51.950245, 4.5554771 51.950419), (4.5554771 51.950419, 4.5554128 51.9505729), (4.5554128 51.9505729, 4.55539 51.950632), (4.55539 51.950632, 4.5553885 51.9506358, 4.5553657 51.9506944, 4.5553509 51.950817, 4.5553693 51.950894), (4.5553693 51.950894, 4.5554179 51.9509614, 4.5554662 51.9510056, 4.5555278 51.9510585, 4.5556792 51.9511329, 4.5558846 51.9511775, 4.5560963 51.9512054), (4.5560787 51.9512475, 4.5560963 51.9512054), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.555853 51.9518422, 4.5558531 51.9519017, 4.5558077 51.9520505, 4.5557758 51.9521549, 4.5557409 51.9522389), (4.5557409 51.9522389, 4.5556635 51.9523168), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.5522534 51.9523763, 4.5521498 51.9523628), (4.5521498 51.9523628, 4.5522106 51.9521068))</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>384379</t>
+          <t>383704</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Capelle aan den IJssel, Operalaan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bus 44: Rotterdam Centraal =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 30: Rotterdam Station Alexander =&gt; Capelle Schollevaar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1763,14 +1763,14 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629196 51.9227524, 4.4628444 51.9230812, 4.4627567 51.9234229), (4.4627567 51.9234229, 4.4624587 51.9244078), (4.4624587 51.9244078, 4.4622986 51.9249119, 4.4622376 51.9250492), (4.4622376 51.9250492, 4.4621471 51.9252022), (4.4621471 51.9252022, 4.4621564 51.9253122, 4.4621457 51.9254007, 4.4619016 51.9259951, 4.4618304 51.9261938, 4.4616541 51.9262605), (4.4616541 51.9262605, 4.4616271 51.9263227, 4.461618 51.9263436, 4.4616158 51.9263487, 4.4615816 51.9264275), (4.4615816 51.9264275, 4.461349 51.9263877), (4.461349 51.9263877, 4.4610804 51.9263369, 4.460766 51.9262819, 4.4606197 51.9262639, 4.4597794 51.9261522, 4.4587459 51.9260512, 4.4554528 51.9256675, 4.4553232 51.9256569, 4.4551836 51.9256444, 4.4549384 51.9256063, 4.4545624 51.9255559, 4.4544247 51.9255415, 4.4543513 51.9255099), (4.4543513 51.9255099, 4.4543787 51.9254161), (4.4543787 51.9254161, 4.4544031 51.9253322, 4.4544457 51.9251858, 4.4544971 51.9251254), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4550899 51.9218326, 4.4550388 51.9217086, 4.455006 51.9215775, 4.4549942 51.9215052, 4.4549794 51.9214656, 4.4549499 51.9213836), (4.4549499 51.9213836, 4.4548705 51.9213628, 4.4548277 51.9213389, 4.4547968 51.9213088, 4.4547799 51.9212748), (4.4547799 51.9212748, 4.454778 51.9212414, 4.4547897 51.9212059), (4.4547897 51.9212059, 4.4548174 51.9211762, 4.4548585 51.9211495, 4.45491 51.9211308), (4.45491 51.9211308, 4.4549013 51.9210462), (4.4549013 51.9210462, 4.4549038 51.9210155, 4.4549076 51.9209446, 4.454917 51.9208705), (4.4547413 51.9178951, 4.4547875 51.9195514, 4.4548 51.9200033, 4.4548705 51.9206434, 4.4548891 51.920734, 4.454917 51.9208705), (4.4547332 51.9175873, 4.4547354 51.9176569, 4.4547413 51.9178951), (4.4547185 51.9173844, 4.4547277 51.917462, 4.4547266 51.917496, 4.4547332 51.9175873), (4.4547185 51.9173844, 4.4547133 51.9173124, 4.4547109 51.9172791, 4.4547072 51.9172279), (4.4547072 51.9172279, 4.4547027 51.9171664, 4.4546993 51.9171178, 4.4546959 51.9170725, 4.4544853 51.9169277, 4.4542723 51.916785), (4.4542723 51.916785, 4.4542774 51.9166618), (4.4542774 51.9166618, 4.4543086 51.9161001, 4.4543123 51.9160424, 4.4544049 51.9146032), (4.4544049 51.9146032, 4.4545111 51.9140224, 4.4545253 51.9139689), (4.4545253 51.9139689, 4.4545356 51.9138051, 4.454559 51.9137289), (4.454559 51.9137289, 4.4545603 51.9137233, 4.4545696 51.9136833, 4.4545729 51.9136704), (4.4545729 51.9136704, 4.4546908 51.9136855, 4.4548282 51.913704, 4.4551497 51.9137474, 4.4551614 51.9137496, 4.4554094 51.9137824), (4.4554094 51.9137824, 4.4554486 51.9137876), (4.4554486 51.9137876, 4.4557022 51.9138211), (4.4557022 51.9138211, 4.4559927 51.9138554), (4.4559927 51.9138554, 4.4562085 51.9138859, 4.4562213 51.9138918, 4.4562847 51.9139207), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4628355 51.914788, 4.4629226 51.9147814, 4.4629757 51.9147774, 4.4631538 51.9148017, 4.4635049 51.9148482), (4.4635049 51.9148482, 4.4637501 51.9148806, 4.4637813 51.9148845, 4.4638303 51.9148984, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4682043 51.9143475, 4.4683202 51.9142988, 4.4687414 51.9142051, 4.4687758 51.9141975, 4.4688677 51.9141734, 4.4690053 51.9141298), (4.4690053 51.9141298, 4.4691876 51.9140815), (4.4691876 51.9140815, 4.4692871 51.9140533, 4.4693327 51.9140372, 4.4695513 51.913966, 4.4695912 51.9139499, 4.4696206 51.9139378, 4.4696485 51.9139223, 4.4696883 51.9138939), (4.4696883 51.9138939, 4.469707 51.9138619, 4.4697193 51.9138402, 4.4697267 51.9138037, 4.4697251 51.9137798, 4.4697172 51.9137534, 4.4696913 51.9137082, 4.4696545 51.9136592, 4.4696073 51.9136033), (4.4696073 51.9136033, 4.4695782 51.9135613, 4.4695238 51.9134588, 4.4694999 51.9133941), (4.4694999 51.9133941, 4.4693663 51.9131638, 4.4693006 51.9130368, 4.4691013 51.912669, 4.4688132 51.9121432, 4.4687987 51.9121151, 4.468585 51.9116996), (4.4685748 51.9116819, 4.468585 51.9116996), (4.4673853 51.9117229, 4.4675206 51.91155, 4.4676384 51.911405, 4.4676704 51.9113817, 4.4677422 51.91136, 4.4678043 51.9113578, 4.4678923 51.9113749, 4.468166 51.9114521, 4.4683727 51.9115096, 4.4684226 51.9115296, 4.4684904 51.9115587, 4.4685249 51.9115908, 4.4685748 51.9116819), (4.4673853 51.9117229, 4.4672298 51.9119309, 4.4671552 51.9120092, 4.4670975 51.9120702, 4.4669938 51.9121682), (4.4669938 51.9121682, 4.4669345 51.9122247), (4.4669345 51.9122247, 4.4669176 51.9122822), (4.4669176 51.9122822, 4.466733 51.9124558, 4.4666659 51.9125243, 4.466576 51.9126259, 4.4664332 51.9126796), (4.4664332 51.9126796, 4.466275 51.9126286, 4.465628 51.9124122, 4.4641013 51.9119087, 4.4639609 51.9118698, 4.4637477 51.9118222, 4.4634997 51.911746), (4.4634997 51.911746, 4.463579 51.911614, 4.4636384 51.9115147, 4.4638413 51.9111711, 4.4639091 51.9110587), (4.4639091 51.9110587, 4.4640623 51.9108019, 4.4642368 51.910497), (4.4642368 51.910497, 4.4644434 51.9100876, 4.46473 51.909622, 4.4649577 51.9092729, 4.4651992 51.9088905, 4.4653997 51.9085656), (4.4653997 51.9085656, 4.4655589 51.9083401), (4.4655589 51.9083401, 4.465744 51.9080455, 4.4658347 51.9079004, 4.4658891 51.907809, 4.4659434 51.9076916), (4.4659434 51.9076916, 4.4660402 51.9074805), (4.4660402 51.9074805, 4.4664363 51.9065406, 4.4666922 51.9059728, 4.4667273 51.9059188, 4.4667717 51.9058669, 4.4669394 51.9057125), (4.4669394 51.9057125, 4.4669911 51.9056028), (4.4669911 51.9056028, 4.4670893 51.9053959, 4.4671839 51.9051934, 4.467475 51.9044907), (4.467475 51.9044907, 4.4678672 51.9035974, 4.4679218 51.9034244, 4.4679525 51.9032895, 4.4679701 51.9031651, 4.4679987 51.9017226, 4.468049 51.8972633, 4.4680559 51.897151, 4.4680816 51.8969813, 4.4681222 51.8968239, 4.4681815 51.8966611, 4.4682623 51.8964855, 4.4683483 51.8963365, 4.4684487 51.8961896, 4.4685607 51.8960495, 4.4687306 51.8958673, 4.4688468 51.8957566, 4.4689592 51.895664, 4.4692218 51.8954759, 4.4696156 51.8952542), (4.4696156 51.8952542, 4.470045 51.89502, 4.4706473 51.8946976, 4.470868 51.8945773, 4.4715486 51.8942204), (4.4715486 51.8942204, 4.4720995 51.8939245), (4.4720995 51.8939245, 4.4724995 51.8937208), (4.4724995 51.8937208, 4.4728182 51.8935644), (4.4728182 51.8935644, 4.4732322 51.8933598, 4.4745155 51.8927377, 4.474672 51.8926596, 4.4747075 51.8926313, 4.4748062 51.8925316), (4.4748062 51.8925316, 4.4746549 51.8924376, 4.4746175 51.8924144), (4.4746175 51.8924144, 4.4742126 51.8921638, 4.473986 51.8919865, 4.4738585 51.89185), (4.4738585 51.89185, 4.4734823 51.8913334, 4.473432 51.8912644, 4.473377 51.8911894), (4.473377 51.8911894, 4.4733266 51.891129, 4.4733021 51.8910978, 4.473271 51.8910572, 4.4732148 51.8909801, 4.4731745 51.8909196), (4.4731745 51.8909196, 4.4730553 51.8907407, 4.4730112 51.8906746, 4.4729748 51.890624), (4.4729748 51.890624, 4.4729462 51.8905807, 4.4728981 51.8905133, 4.4728564 51.8904549, 4.4727153 51.8902555, 4.4723092 51.8896755, 4.4722774 51.8896243, 4.4722554 51.8895731, 4.4722323 51.889515, 4.4722087 51.8894507, 4.4721883 51.8893844, 4.4721602 51.8892519, 4.4720394 51.8886674, 4.4720286 51.8886193, 4.4719941 51.888438), (4.4719941 51.888438, 4.4721395 51.8884305), (4.4721395 51.8884305, 4.4723545 51.8884183, 4.4724879 51.8884096, 4.4726924 51.8883989), (4.4726924 51.8883989, 4.4731678 51.8883741, 4.473976 51.8883135, 4.4748057 51.8882616, 4.4752377 51.8882369, 4.4754381 51.8882256, 4.4755722 51.8882213, 4.4756799 51.8882217, 4.4759115 51.8882267), (4.4759115 51.8882267, 4.4761246 51.8882311, 4.4763212 51.888237, 4.4764029 51.8882391, 4.4769668 51.8882532, 4.4771941 51.8882589, 4.477309 51.8882618, 4.4779577 51.8882781, 4.478261 51.8882857, 4.4784795 51.8882912, 4.4786219 51.8882948, 4.4787115 51.888297), (4.4787115 51.888297, 4.4787347 51.8882659, 4.4787932 51.8882519, 4.4788589 51.8882574, 4.478913 51.8882824, 4.4789314 51.8883232), (4.4789314 51.8883232, 4.4790474 51.8883477, 4.480494 51.8886538, 4.4808706 51.8887334, 4.481014 51.8887624, 4.4811574 51.8887914, 4.4817 51.8889), (4.4845023 51.8883518, 4.484281 51.8884006, 4.4837585 51.8885121, 4.4835811 51.8885488, 4.4829968 51.8886795, 4.4828541 51.8887139, 4.4827203 51.8887415, 4.4822328 51.8888432, 4.4820641 51.8888814, 4.4819483 51.8888992, 4.4818799 51.8889045, 4.4818296 51.8889053, 4.4817621 51.8889051, 4.4817 51.8889), (4.4861362 51.8879926, 4.48601 51.888019, 4.4858838 51.8880455, 4.4855998 51.8881052, 4.4852935 51.8881722, 4.4847194 51.888302, 4.4845023 51.8883518), (4.4844867 51.8859264, 4.4845226 51.8860169, 4.4845593 51.8860782, 4.4845986 51.8861379, 4.4848486 51.886417, 4.4852882 51.8869497, 4.4860538 51.8878912, 4.4861362 51.8879926), (4.4844198 51.8857861, 4.4844707 51.8858882, 4.4844867 51.8859264), (4.4856621 51.8854944, 4.4844198 51.8857861), (4.4856621 51.8854944, 4.4856836 51.885479, 4.4857158 51.8854618, 4.4860052 51.885395, 4.4860957 51.8853749, 4.4865039 51.885292, 4.4866795 51.8852602, 4.4868797 51.885223, 4.4869627 51.8852089, 4.4870399 51.8852053, 4.487137 51.8852016, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.5521298 51.9520982, 4.5521448 51.9520508, 4.5523312 51.9519987), (4.5523312 51.9519987, 4.5525756 51.9520624, 4.5524949 51.9524061), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556635 51.9523168, 4.5556662 51.9522246, 4.5556983 51.9521449, 4.5557319 51.9520613, 4.555787 51.9519264, 4.5558017 51.9518965, 4.555853 51.9518422), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5560787 51.9512475, 4.5556664 51.951177, 4.5555308 51.9511328, 4.5554069 51.9510761, 4.5553136 51.9510114), (4.5553136 51.9510114, 4.5552663 51.9509693), (4.5552663 51.9509693, 4.5552148 51.9508771, 4.5552019 51.9507641, 4.5552139 51.9507074, 4.5552483 51.9506131, 4.5552497 51.9506093), (4.5552497 51.9506093, 4.5552706 51.9505523), (4.5552706 51.9505523, 4.5554109 51.9501973, 4.5555868 51.9498173, 4.5556261 51.9497323, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5565252 51.945449), (4.5565252 51.945449, 4.5566413 51.9454101, 4.556665 51.9454022, 4.5567204 51.9453825, 4.5570236 51.9452744), (4.5570236 51.9452744, 4.5573256 51.9451667, 4.558098 51.9448935), (4.558098 51.9448935, 4.5598696 51.9442764, 4.5601156 51.9441888, 4.5603427 51.9441306, 4.5605838 51.9441016, 4.5609927 51.9441028, 4.5614516 51.9441798, 4.5623885 51.9443342, 4.5625515 51.9443662, 4.5631824 51.9444896, 4.5635204 51.9446119, 4.5638955 51.9448439, 4.5646402 51.9453018, 4.5649372 51.9454878, 4.5659353 51.9461053, 4.566651 51.9465651, 4.5667991 51.946821, 4.5669933 51.9469628), (4.5669933 51.9469628, 4.567149 51.9470642), (4.567149 51.9470642, 4.5679499 51.9474809, 4.5680637 51.9475422), (4.5680637 51.9475422, 4.5682307 51.9476111), (4.5682307 51.9476111, 4.5683493 51.9476844, 4.5683517 51.9476856, 4.5684502 51.9477358), (4.5684502 51.9477358, 4.5687634 51.9478953), (4.5687634 51.9478953, 4.5697791 51.9479519), (4.5697791 51.9479519, 4.5697527 51.948205, 4.5697233 51.9484564, 4.5697592 51.9485628, 4.5699052 51.9486855), (4.5699052 51.9486855, 4.5700123 51.9486645, 4.5701518 51.9486585, 4.5704504 51.9486665, 4.5705198 51.9486686, 4.5711383 51.9486875, 4.5712973 51.9487035, 4.571432 51.9487365, 4.5715391 51.9487865, 4.5716202 51.9488493, 4.5719555 51.9490839, 4.5723636 51.9494183, 4.5724438 51.9494598), (4.5724438 51.9494598, 4.5725379 51.9494842, 4.5728243 51.9495102, 4.5729703 51.9495304, 4.5731795 51.9495741, 4.5734126 51.9495918, 4.5735545 51.9496017, 4.5741231 51.9496413), (4.5741231 51.9496413, 4.5745324 51.9495777, 4.5752111 51.9496242, 4.5756641 51.9497218, 4.5757862 51.9497428), (4.5757862 51.9497428, 4.5760539 51.9497603, 4.5761343 51.9497674, 4.5762264 51.9497947, 4.5762725 51.9498205, 4.5762971 51.9498343, 4.576353 51.949892, 4.5763596 51.9499579, 4.5763365 51.9501484, 4.576353 51.9502052, 4.5763777 51.9502538, 4.5764479 51.950299, 4.5765468 51.950337), (4.5765468 51.950337, 4.5766436 51.9503633, 4.5767757 51.9503798), (4.5767757 51.9503798, 4.5769748 51.9503938, 4.5771331 51.950405, 4.5785523 51.950505), (4.5785523 51.950505, 4.579333 51.9505618), (4.579333 51.9505618, 4.5795895 51.9505794, 4.5797258 51.9506024, 4.5798134 51.9506564, 4.5799173 51.9507494, 4.5800227 51.9508504, 4.5801298 51.9509174, 4.5802578 51.950972, 4.580401 51.9510038, 4.5807269 51.9510604, 4.580993 51.9510994, 4.5814288 51.9511353, 4.5817526 51.9511619, 4.5818247 51.9511838), (4.5818247 51.9511838, 4.5818792 51.9512143, 4.5818951 51.951273, 4.5818364 51.9516804, 4.5818134 51.9517749, 4.5817625 51.9518914, 4.5816945 51.9519968, 4.5816226 51.9521519, 4.5816294 51.952292, 4.5816619 51.9524224, 4.5817456 51.9525271, 4.5819637 51.9527248, 4.5820712 51.9528223, 4.5822061 51.9529375, 4.5823104 51.9530404, 4.582343 51.9530974, 4.5823648 51.9531854), (4.5823648 51.9531854, 4.5825128 51.9532063, 4.5826121 51.9532134, 4.5827062 51.9532424, 4.5827864 51.9532801, 4.5829007 51.9533706, 4.5830475 51.9535106, 4.5830687 51.9535319, 4.5832307 51.9536784, 4.5832859 51.953723, 4.5833583 51.9537534, 4.5834532 51.9537789, 4.5838417 51.9538211, 4.5839635 51.9538331, 4.5844657 51.9538909, 4.5851349 51.9539667, 4.585226 51.953968, 4.5853164 51.9539534, 4.5858493 51.9537926, 4.5861125 51.9537191, 4.5861665 51.9537094, 4.5863703 51.9536887), (4.5863703 51.9536887, 4.5864874 51.9536849), (4.5864874 51.9536849, 4.5864883 51.9537088, 4.5864982 51.9537454, 4.5865195 51.9537821, 4.5865849 51.9538756), (4.5865849 51.9538756, 4.5866413 51.9538788, 4.5866937 51.9538921, 4.5867373 51.9539144, 4.5867681 51.9539437), (4.5867681 51.9539437, 4.5869288 51.9539436, 4.5871867 51.9539363, 4.587341 51.9539494, 4.5874723 51.9539665, 4.5876891 51.9540275, 4.58794 51.9541251, 4.5880224 51.9541728), (4.5880224 51.9541728, 4.588238 51.9542354, 4.5884622 51.9542819, 4.5892629 51.9544056), (4.5904693 51.950309, 4.5906278 51.9503459, 4.5907598 51.9503976, 4.5908811 51.9504782, 4.5910585 51.9506031, 4.5912118 51.950668, 4.5914411 51.9507181, 4.5915811 51.9507642, 4.5916861 51.9508117, 4.5917705 51.9508833, 4.5918331 51.9509671, 4.5918438 51.9510362, 4.5918301 51.9511305, 4.5917838 51.9512087, 4.5916991 51.9512842, 4.5916371 51.9513394, 4.5915651 51.9514191, 4.5915278 51.9514955, 4.5915065 51.9515769, 4.5914958 51.9516878, 4.5914585 51.9518966, 4.5914265 51.9520387, 4.5913211 51.9526739, 4.5913038 51.9527233, 4.5912825 51.9527635, 4.5912198 51.9528136, 4.590855 51.9530045, 4.5904745 51.9532073, 4.5904542 51.9532263, 4.5904178 51.9532713, 4.5903817 51.9535208, 4.5903474 51.9535953, 4.5902476 51.9536945, 4.5899878 51.9538266, 4.5897863 51.953921, 4.5895724 51.9540264, 4.5893957 51.9541753, 4.5893184 51.9542706, 4.5892629 51.9544056), (4.5904693 51.950309, 4.5899185 51.9502727, 4.5897878 51.9502735, 4.5896945 51.9503007, 4.5895 51.9504, 4.5892038 51.9505398, 4.5890851 51.9505669, 4.5889651 51.950562, 4.5885206 51.950532, 4.5882104 51.9505163, 4.5881057 51.950536, 4.5880227 51.9505622, 4.587937 51.9506122, 4.5878842 51.950661, 4.5878587 51.9506993, 4.5878248 51.9507685, 4.5877891 51.950952, 4.5877618 51.9511252, 4.5877833 51.951172, 4.5878361 51.9512568, 4.5879362 51.9513509))</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>384380</t>
+          <t>384017</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1780,17 +1780,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rotterdam, Rotterdam Centraal</t>
+          <t>Capelle aan den IJssel, Sint Annabaai</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bus 44: Rotterdam Zuidplein =&gt; Rotterdam Centraal</t>
+          <t>Bus 31: Rotterdam Station Alexander =&gt; Capelle Oostgaarde</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1801,14 +1801,14 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891791 51.8877301, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4856621 51.8854944, 4.4856836 51.885479, 4.4857158 51.8854618, 4.4860052 51.885395, 4.4860957 51.8853749, 4.4865039 51.885292, 4.4866795 51.8852602, 4.4868797 51.885223, 4.4869627 51.8852089, 4.4870399 51.8852053, 4.487137 51.8852016, 4.4873373 51.8851978), (4.4856621 51.8854944, 4.4844198 51.8857861), (4.4844198 51.8857861, 4.4844707 51.8858882, 4.4844867 51.8859264), (4.4844867 51.8859264, 4.4845226 51.8860169, 4.4845593 51.8860782, 4.4845986 51.8861379, 4.4848486 51.886417, 4.4852882 51.8869497, 4.4860538 51.8878912, 4.4861362 51.8879926), (4.4861362 51.8879926, 4.48601 51.888019, 4.4858838 51.8880455, 4.4855998 51.8881052, 4.4852935 51.8881722, 4.4847194 51.888302, 4.4845023 51.8883518), (4.4845023 51.8883518, 4.484281 51.8884006, 4.4837585 51.8885121, 4.4835811 51.8885488, 4.4829968 51.8886795, 4.4828541 51.8887139, 4.4827203 51.8887415, 4.4822328 51.8888432, 4.4820641 51.8888814, 4.4819483 51.8888992, 4.4818799 51.8889045, 4.4818296 51.8889053, 4.4817621 51.8889051, 4.4817 51.8889), (4.4789314 51.8883232, 4.4790474 51.8883477, 4.480494 51.8886538, 4.4808706 51.8887334, 4.481014 51.8887624, 4.4811574 51.8887914, 4.4817 51.8889), (4.4789314 51.8883232, 4.4789065 51.8883591, 4.4788408 51.8883616, 4.4787733 51.8883544, 4.4787282 51.8883368, 4.4787115 51.888297), (4.4759115 51.8882267, 4.4761246 51.8882311, 4.4763212 51.888237, 4.4764029 51.8882391, 4.4769668 51.8882532, 4.4771941 51.8882589, 4.477309 51.8882618, 4.4779577 51.8882781, 4.478261 51.8882857, 4.4784795 51.8882912, 4.4786219 51.8882948, 4.4787115 51.888297), (4.4726924 51.8883989, 4.4731678 51.8883741, 4.473976 51.8883135, 4.4748057 51.8882616, 4.4752377 51.8882369, 4.4754381 51.8882256, 4.4755722 51.8882213, 4.4756799 51.8882217, 4.4759115 51.8882267), (4.4721395 51.8884305, 4.4723545 51.8884183, 4.4724879 51.8884096, 4.4726924 51.8883989), (4.4721395 51.8884305, 4.4721659 51.8885838), (4.4721659 51.8885838, 4.4723159 51.8893082), (4.4723159 51.8893082, 4.47233 51.8893577, 4.4723478 51.8894087, 4.4723771 51.8894788, 4.4724013 51.8895251, 4.4724184 51.8895603, 4.4724502 51.8896129, 4.4728667 51.8901803, 4.4729813 51.890328, 4.4730177 51.8903738, 4.4731219 51.8904994, 4.4731502 51.8905325, 4.4732122 51.8906193, 4.4733564 51.8908095, 4.4734269 51.8909101, 4.4734819 51.890985), (4.4734819 51.890985, 4.4735086 51.8910239, 4.4735319 51.891052, 4.4735772 51.8911138), (4.4735772 51.8911138, 4.4736366 51.8911906, 4.4737117 51.8912925), (4.4737117 51.8912925, 4.473797 51.8914779, 4.4739464 51.8916932, 4.4739797 51.8917367, 4.4740191 51.8917801), (4.4740191 51.8917801, 4.4740586 51.8918153, 4.4741011 51.8918525, 4.47415 51.8918899, 4.4747419 51.8922208, 4.4748336 51.8922722, 4.4748708 51.8922944, 4.4749585 51.8923943), (4.4749585 51.8923943, 4.4749834 51.8924665, 4.4749671 51.892529), (4.4749671 51.892529, 4.4749001 51.8926084), (4.4749001 51.8926084, 4.4747498 51.8926994, 4.473404 51.8933765, 4.472343 51.8938905, 4.4716234 51.8942724), (4.4716234 51.8942724, 4.469678 51.8952959), (4.469678 51.8952959, 4.4694513 51.8954309, 4.4692958 51.8955293, 4.4690523 51.8957073, 4.4689306 51.8958074, 4.4688427 51.8958932, 4.4687113 51.8960278, 4.468617 51.8961392, 4.4685404 51.8962374, 4.4684668 51.8963461, 4.4683742 51.896508, 4.4683143 51.8966337, 4.4682608 51.8967716, 4.4682223 51.8968974, 4.4681899 51.89705, 4.4681727 51.8972113, 4.4681685 51.8973726, 4.4681676 51.8974546, 4.4681069 51.9026299, 4.4681059 51.9027117, 4.4681 51.9031154, 4.4680846 51.9032608, 4.4680602 51.903386, 4.4680219 51.9035244, 4.4679489 51.9037249, 4.4676133 51.9044891, 4.467603 51.9045147), (4.467603 51.9045147, 4.4672906 51.9051851, 4.4672 51.9054, 4.4670984 51.9056193), (4.4670984 51.9056193, 4.466983 51.9059131, 4.4668698 51.9061806), (4.4668698 51.9061806, 4.46685 51.9063516, 4.4668142 51.9065375, 4.4667028 51.906811, 4.4663725 51.9075614), (4.4663725 51.9075614, 4.4662729 51.9077767), (4.4662729 51.9077767, 4.4661379 51.9080937, 4.4660564 51.9082458, 4.4659621 51.9084101), (4.4659621 51.9084101, 4.4658135 51.9086428), (4.4658135 51.9086428, 4.4648339 51.9101728, 4.4646934 51.9103331, 4.4645204 51.910535), (4.4645204 51.910535, 4.4644093 51.9106849, 4.4641927 51.9110394, 4.4640539 51.911274, 4.4639232 51.9114976, 4.4638741 51.9115893, 4.4638119 51.9116953), (4.4638119 51.9116953, 4.4640227 51.9117615, 4.4653065 51.9121895, 4.4659812 51.9124107, 4.4662413 51.9125001, 4.4663528 51.9125372, 4.4664557 51.9125852), (4.4664557 51.9125852, 4.4665768 51.9124952, 4.4667532 51.9123361), (4.4667532 51.9123361, 4.4669345 51.9122247), (4.4669938 51.9121682, 4.4669345 51.9122247), (4.4673853 51.9117229, 4.4672298 51.9119309, 4.4671552 51.9120092, 4.4670975 51.9120702, 4.4669938 51.9121682), (4.4673853 51.9117229, 4.4675206 51.91155, 4.4676384 51.911405, 4.4676704 51.9113817, 4.4677422 51.91136, 4.4678043 51.9113578, 4.4678923 51.9113749, 4.468166 51.9114521, 4.4683727 51.9115096, 4.4684226 51.9115296, 4.4684904 51.9115587, 4.4685249 51.9115908, 4.4685748 51.9116819), (4.4685748 51.9116819, 4.468585 51.9116996), (4.4694999 51.9133941, 4.4693663 51.9131638, 4.4693006 51.9130368, 4.4691013 51.912669, 4.4688132 51.9121432, 4.4687987 51.9121151, 4.468585 51.9116996), (4.4694999 51.9133941, 4.4696111 51.9135112, 4.4696699 51.9135603, 4.4697565 51.9136306, 4.4698055 51.9136795, 4.4698334 51.9137164, 4.4698585 51.9137616, 4.4698842 51.9138201), (4.4698842 51.9138201, 4.4698803 51.9138655), (4.4698803 51.9138655, 4.4698412 51.9139187, 4.4698078 51.9139423, 4.4697745 51.9139654, 4.4696674 51.9140128, 4.4695759 51.9140493, 4.4695212 51.9140709, 4.4694457 51.9141008, 4.4694006 51.9141169, 4.4692884 51.9141504), (4.4692884 51.9141504, 4.4691061 51.9142071), (4.4691061 51.9142071, 4.4689737 51.9142372, 4.468819 51.9142575, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4639022 51.9149224, 4.4638106 51.9149371, 4.463789 51.9149405, 4.4636936 51.9149303, 4.463478 51.9149074), (4.463478 51.9149074, 4.4631323 51.9148597), (4.4631323 51.9148597, 4.4629618 51.9148326, 4.4629299 51.9148213, 4.4628355 51.914788), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4562847 51.9139207, 4.4561981 51.9139308, 4.4561877 51.913932, 4.456096 51.9139207, 4.4560046 51.913912), (4.4560046 51.913912, 4.4559197 51.9142233, 4.4558772 51.9145223, 4.4558476 51.9148828), (4.4558476 51.9148828, 4.4557749 51.9156755), (4.4557749 51.9156755, 4.4557046 51.917298, 4.455703 51.9173436, 4.4556891 51.9173915), (4.4556891 51.9173915, 4.4556815 51.9174387, 4.455681 51.9174663, 4.4556798 51.9175321), (4.4556798 51.9175321, 4.4555628 51.9175144, 4.4549419 51.9174208, 4.4549035 51.917415, 4.4547185 51.9173844), (4.4547185 51.9173844, 4.4547277 51.917462, 4.4547266 51.917496, 4.4547332 51.9175873), (4.4547332 51.9175873, 4.4547354 51.9176569, 4.4547413 51.9178951), (4.4547413 51.9178951, 4.4547875 51.9195514, 4.4548 51.9200033, 4.4548705 51.9206434, 4.4548891 51.920734, 4.454917 51.9208705), (4.454917 51.9208705, 4.4549614 51.9209486, 4.4549774 51.9210103, 4.4549876 51.9210384), (4.4549876 51.9210384, 4.4550047 51.921122), (4.4550047 51.921122, 4.455027 51.9211225, 4.4550836 51.9211333, 4.4551333 51.9211532, 4.4551722 51.9211807, 4.4551976 51.9212137, 4.4552092 51.9212428), (4.4552092 51.9212428, 4.4551993 51.9212895, 4.4551847 51.9213132), (4.4551847 51.9213132, 4.4551246 51.9213581, 4.455073 51.9213783), (4.455073 51.9213783, 4.4550773 51.9214595, 4.4550851 51.9215008, 4.455102 51.9216757, 4.4550899 51.9218326), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4544971 51.9251254, 4.4545087 51.9251758, 4.454478 51.9253402, 4.454461 51.9254092), (4.454461 51.9254092, 4.4545894 51.925425, 4.4553692 51.9255185), (4.4553692 51.9255185, 4.455669 51.9255543, 4.4570932 51.9257214, 4.4588016 51.9259102, 4.4599102 51.9260427, 4.4610234 51.926161, 4.4611543 51.9261751, 4.4613208 51.9262017, 4.4614198 51.9262164), (4.4614198 51.9262164, 4.4614538 51.9261322, 4.4615729 51.9258742, 4.4616146 51.9257729), (4.4616146 51.9257729, 4.4617251 51.9255311), (4.4617251 51.9255311, 4.4617315 51.9253463, 4.461795 51.9251081), (4.461795 51.9251081, 4.4620129 51.9243544), (4.4620129 51.9243544, 4.4623025 51.9233666), (4.4623025 51.9233666, 4.4624397 51.9229588), (4.4624397 51.9229588, 4.4625063 51.9227482, 4.4625424 51.9226622, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014))</t>
+          <t>MULTILINESTRING ((4.5521298 51.9520982, 4.5521448 51.9520508, 4.5523312 51.9519987), (4.5523312 51.9519987, 4.5525756 51.9520624, 4.5524949 51.9524061), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556635 51.9523168, 4.5556662 51.9522246, 4.5556983 51.9521449, 4.5557319 51.9520613, 4.555787 51.9519264, 4.5558017 51.9518965, 4.555853 51.9518422), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5560787 51.9512475, 4.5556664 51.951177, 4.5555308 51.9511328, 4.5554069 51.9510761, 4.5553136 51.9510114), (4.5553136 51.9510114, 4.5552663 51.9509693), (4.5552663 51.9509693, 4.5552148 51.9508771, 4.5552019 51.9507641, 4.5552139 51.9507074, 4.5552483 51.9506131, 4.5552497 51.9506093), (4.5552497 51.9506093, 4.5552706 51.9505523), (4.5552706 51.9505523, 4.5554109 51.9501973, 4.5555868 51.9498173, 4.5556261 51.9497323, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5565252 51.945449), (4.5565252 51.945449, 4.5566413 51.9454101, 4.556665 51.9454022, 4.5567204 51.9453825, 4.5570236 51.9452744), (4.5570236 51.9452744, 4.5573256 51.9451667, 4.558098 51.9448935), (4.558098 51.9448935, 4.5598696 51.9442764, 4.5601156 51.9441888, 4.5603427 51.9441306, 4.5605838 51.9441016, 4.5609927 51.9441028, 4.5614516 51.9441798, 4.5623885 51.9443342, 4.5625515 51.9443662, 4.5631824 51.9444896, 4.5635204 51.9446119, 4.5638955 51.9448439, 4.5646402 51.9453018, 4.5649372 51.9454878, 4.5659353 51.9461053, 4.566651 51.9465651, 4.5667991 51.946821, 4.5669933 51.9469628), (4.5669933 51.9469628, 4.567149 51.9470642), (4.567149 51.9470642, 4.5679499 51.9474809, 4.5680637 51.9475422), (4.5680637 51.9475422, 4.56848 51.94718), (4.56848 51.94718, 4.5689706 51.9467689, 4.5694643 51.9463448, 4.5700085 51.9459167), (4.5728456 51.9435323, 4.5725279 51.9438069, 4.5719061 51.9443238, 4.5715088 51.944654, 4.5714568 51.9446973, 4.5711107 51.9449852, 4.5709622 51.9451132, 4.5709139 51.9451534, 4.5706044 51.9454097, 4.5703656 51.9456075, 4.5700085 51.9459167), (4.5730521 51.943358, 4.5728456 51.9435323), (4.5779347 51.9391215, 4.5775653 51.9393953, 4.5771548 51.9397568, 4.576331 51.9404525, 4.5759411 51.9407775, 4.5756433 51.9410331, 4.5755233 51.9411323, 4.5751907 51.9414073, 4.5744494 51.9420212, 4.5742251 51.9422069, 4.573907 51.9424713, 4.5738635 51.9425074, 4.5735362 51.9428159, 4.5733548 51.9429854, 4.5732254 51.9431432, 4.5730521 51.943358), (4.5799577 51.9375657, 4.5798006 51.9376936, 4.5790287 51.9383357, 4.5783816 51.9388596, 4.5782425 51.9389475, 4.5779347 51.9391215), (4.5800477 51.9374907, 4.5799577 51.9375657), (4.5803401 51.9372517, 4.5802024 51.9373657, 4.5800477 51.9374907), (4.5805396 51.9370825, 4.5803401 51.9372517), (4.5827581 51.9343632, 4.5825842 51.9345583, 4.5822275 51.934964, 4.5819691 51.9352766, 4.5818102 51.9355006, 4.5814228 51.9359855, 4.5809175 51.9366477, 4.580818 51.9367766, 4.5807424 51.9368752, 4.5806776 51.9369503, 4.5805396 51.9370825), (4.5837165 51.9336086, 4.5836166 51.9336908, 4.5827581 51.9343632), (4.5838276 51.9335206, 4.5837165 51.9336086), (4.5851722 51.9325886, 4.5850661 51.9326619, 4.5840003 51.9333868, 4.5838276 51.9335206), (4.5864393 51.9317334, 4.5852855 51.9325124, 4.5851722 51.9325886), (4.5864393 51.9317334, 4.5865032 51.9316704, 4.5866067 51.9315684, 4.5866784 51.9315124), (4.5866784 51.9315124, 4.5867787 51.931547, 4.5868845 51.9315798, 4.5869936 51.9316395, 4.5871292 51.9317203, 4.5871956 51.9317641, 4.5873429 51.9319069), (4.5873429 51.9319069, 4.587845 51.9321857, 4.5881272 51.9323254, 4.5883859 51.932434, 4.5885839 51.9325117, 4.5888752 51.9326235, 4.5894766 51.9328592, 4.5895536 51.9328831, 4.5896269 51.9328918, 4.5897301 51.9328756), (4.5904339 51.9320735, 4.5903401 51.9321833, 4.5902947 51.9322366, 4.590204 51.9323633, 4.5900839 51.9325054, 4.5898348 51.9328145, 4.5897799 51.9328511, 4.589756 51.9328647, 4.5897301 51.9328756), (4.5905636 51.9319109, 4.5904339 51.9320735), (4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.590792 51.9315924, 4.5909841 51.9316511, 4.5911175 51.9316918), (4.5911175 51.9316918, 4.5913724 51.9317752, 4.5915988 51.9318549, 4.5920696 51.9320323, 4.5927314 51.9322774, 4.5935017 51.932573, 4.5941426 51.9328172, 4.5953193 51.9332727, 4.5953972 51.9333021, 4.5954865 51.9333338), (4.5954865 51.9333338, 4.595633 51.93336, 4.5957876 51.9334013, 4.5960653 51.9335042), (4.5960653 51.9335042, 4.5961083 51.9334818, 4.5961601 51.9334681, 4.5962161 51.9334642, 4.5962714 51.9334707, 4.5963099 51.933482, 4.5963433 51.9334984, 4.5963766 51.9335259, 4.5963957 51.9335582, 4.5963987 51.9335926, 4.5963855 51.933626), (4.5963855 51.933626, 4.5965161 51.9336729, 4.5966931 51.9337444, 4.596778 51.9337991), (4.596778 51.9337991, 4.5972118 51.9339426, 4.5977906 51.9341379, 4.5978599 51.9341626, 4.5979825 51.9342103, 4.59808 51.93425, 4.598225 51.9343137, 4.5983323 51.9343626, 4.5986091 51.9344839, 4.5988862 51.9346069, 4.5995376 51.9348887, 4.600075 51.9351373), (4.600075 51.9351373, 4.6001869 51.9351565, 4.6002406 51.935178, 4.6002878 51.935195, 4.6004041 51.9352403), (4.6004041 51.9352403, 4.6004474 51.9352237, 4.6004963 51.9352147, 4.6005474 51.9352139, 4.6005969 51.9352215, 4.6006428 51.9352374, 4.60068 51.9352603), (4.60068 51.9352603, 4.6007012 51.9352822, 4.6007144 51.9353063, 4.6007189 51.9353316, 4.6007145 51.9353569, 4.6007016 51.9353811, 4.6006728 51.9354089, 4.6006328 51.9354307, 4.6005661 51.935448, 4.6004937 51.9354488), (4.6004937 51.9354488, 4.600419 51.9355216, 4.6003861 51.9355578, 4.600086 51.9358177, 4.5999553 51.9359301, 4.5999128 51.9359632, 4.5998062 51.9360267), (4.5996178 51.9362029, 4.5998062 51.9360267), (4.5996178 51.9362029, 4.5993 51.9365, 4.5986961 51.9370277, 4.5980549 51.9376022, 4.5979768 51.9376726, 4.597303 51.9382706, 4.5972518 51.9383518, 4.5972265 51.9384272), (4.5972265 51.9384272, 4.5972441 51.9385054, 4.5972984 51.9386022, 4.5974176 51.9386946, 4.5978912 51.9389565, 4.5982417 51.9391148, 4.5985925 51.9392145, 4.599217 51.9393607, 4.599506 51.9395048, 4.5996365 51.9396012, 4.5997706 51.9397319, 4.5998501 51.9398803), (4.5998501 51.9398803, 4.6000081 51.940198), (4.6000081 51.940198, 4.6000916 51.9403305, 4.6002091 51.9404516, 4.600342 51.9405621, 4.6005307 51.9406679, 4.6006675 51.9407257, 4.6009388 51.9408137, 4.6013849 51.9409483, 4.6018073 51.9411774, 4.6019182 51.941236, 4.6019888 51.9412743), (4.6019888 51.9412743, 4.6024841 51.9415661, 4.6026426 51.9416457), (4.6058202 51.9392778, 4.6058202 51.9393095, 4.6057907 51.9393329, 4.6055394 51.939523, 4.6053946 51.9396349, 4.6050407 51.9399034, 4.6039777 51.9407, 4.6030947 51.941329, 4.6030677 51.9413479, 4.6027694 51.9415566, 4.6026426 51.9416457), (4.6042229 51.938289, 4.6042869 51.9385016, 4.6043291 51.9385715, 4.6044082 51.9386239, 4.6052256 51.938908, 4.6054029 51.9389749, 4.6056557 51.9391219, 4.6057902 51.9392061, 4.6058137 51.9392353, 4.6058202 51.9392778), (4.6048292 51.9376608, 4.604458 51.9379842, 4.6043186 51.9381076, 4.6042641 51.9381671, 4.6042317 51.93823, 4.6042229 51.938289), (4.6050884 51.9374127, 4.6048292 51.9376608), (4.6071005 51.9355008, 4.6070895 51.93553, 4.6070623 51.9356136, 4.6070362 51.93567, 4.6069723 51.9357515, 4.6068431 51.9358678, 4.6068199 51.9358874, 4.6065964 51.9360769, 4.6064192 51.9362272, 4.6061978 51.9364148, 4.605999 51.9365876, 4.6056657 51.9368771, 4.6051569 51.9373193, 4.6050884 51.9374127), (4.6071335 51.9354327, 4.6071005 51.9355008), (4.6095397 51.9356759, 4.6092416 51.935504, 4.609051 51.9354131, 4.6089492 51.9353751, 4.6088757 51.9353477, 4.6087444 51.9353235, 4.608608 51.9353131, 4.6083203 51.9353334, 4.6076052 51.9354105, 4.6074281 51.93544, 4.6072832 51.9354455, 4.6071927 51.9354398, 4.6071335 51.9354327), (4.6095397 51.9356759, 4.609738 51.9357206, 4.6098451 51.9357432, 4.6099512 51.9357552, 4.6100644 51.9357467, 4.6102478 51.9357171, 4.610373 51.9357052), (4.6107565 51.9355307, 4.610373 51.9357052), (4.6107565 51.9355307, 4.6111843 51.9353407), (4.6111843 51.9353407, 4.6113765 51.9352557), (4.6134107 51.9338514, 4.6133773 51.9338838, 4.6130872 51.9341647, 4.6126272 51.9346103, 4.6125615 51.9346739, 4.6124337 51.9347692, 4.6123601 51.9348241, 4.6120213 51.9349843, 4.6119267 51.935029, 4.6113765 51.9352557), (4.6082201 51.9301868, 4.6086574 51.930257, 4.608879 51.9302926, 4.6090804 51.9303404, 4.6092301 51.9304017, 4.6093322 51.9304537, 4.6094506 51.9305225, 4.6095336 51.9305855, 4.6096112 51.9306744, 4.6097568 51.9308674, 4.6101174 51.9314196, 4.6102878 51.9316725, 4.6105408 51.9320557, 4.6105709 51.9321021, 4.6105848 51.9321232, 4.6107529 51.9323704, 4.6109706 51.9326884, 4.6110414 51.9327656, 4.6111203 51.9328394, 4.6112442 51.9329192, 4.6113476 51.9329796, 4.6119717 51.9332996, 4.6123798 51.9334574, 4.6129859 51.9336916, 4.6134107 51.9338514))</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>384416</t>
+          <t>384018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Schiedam, Harreweg</t>
+          <t>Rotterdam, Station Alexander</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bus 51: Schiedam Centrum =&gt; Schiedam Woudhoek</t>
+          <t>Bus 31: Capelle Oostgaarde =&gt; Rotterdam Station Alexander</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1839,14 +1839,14 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4030168 51.9226615, 4.4029977 51.9226303, 4.4029741 51.9225613), (4.4029741 51.9225613, 4.4028913 51.922478, 4.4028582 51.9224268, 4.4028355 51.9223499), (4.4028355 51.9223499, 4.4028239 51.9222624, 4.4028002 51.9221863, 4.4026273 51.9218013, 4.402572 51.9216791, 4.4025263 51.9215776, 4.4024883 51.921489, 4.4024544 51.9214158, 4.4022804 51.9210387, 4.4021092 51.9206542, 4.4020599 51.9204292, 4.4020411 51.9202942, 4.4020297 51.9201511, 4.4020449 51.919886, 4.4020862 51.9194999), (4.4020862 51.9194999, 4.4020939 51.9194222), (4.4020939 51.9194222, 4.4021194 51.9192185, 4.4021437 51.9191328, 4.4021906 51.9190311, 4.402222 51.9189515, 4.4022496 51.9188787, 4.4022798 51.9188233), (4.4022798 51.9188233, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023816 51.9149644, 4.4023853 51.9149053, 4.4024035 51.9148696, 4.4024755 51.9147714, 4.4025195 51.9147, 4.4025452 51.9146696, 4.4025731 51.914635), (4.4025731 51.914635, 4.4025057 51.9146144), (4.4025057 51.9146144, 4.4023111 51.9145415, 4.4022566 51.9145243, 4.4020376 51.914461, 4.4019371 51.9144294, 4.4018269 51.914386), (4.4018269 51.914386, 4.4017625 51.9143529, 4.4017015 51.914225, 4.4016245 51.9140211), (4.4016245 51.9140211, 4.4015786 51.9139241), (4.4015786 51.9139241, 4.401525 51.9138567, 4.4014889 51.9138268, 4.4013186 51.9137264), (4.4013186 51.9137264, 4.4009579 51.9135638, 4.4006661 51.9133843, 4.4005816 51.9133339, 4.4005518 51.9133162, 4.4004209 51.913244, 4.4003474 51.9132055), (4.4003474 51.9132055, 4.4002465 51.9131438, 4.4002083 51.9131212, 4.3994952 51.9126829), (4.3994952 51.9126829, 4.399452 51.9126563), (4.399452 51.9126563, 4.3993377 51.9125859), (4.3993377 51.9125859, 4.3993173 51.9125734), (4.3993173 51.9125734, 4.3992696 51.9125475, 4.3991711 51.9124928), (4.3991711 51.9124928, 4.399125 51.9125038, 4.399076 51.9125078, 4.3990269 51.9125047, 4.3989803 51.9124946, 4.3989388 51.9124781), (4.3989388 51.9124781, 4.3988164 51.9125122, 4.3987272 51.912544, 4.3979159 51.9130192, 4.3977903 51.9130712, 4.3977354 51.913094, 4.397653 51.9131291), (4.397653 51.9131291, 4.3976571 51.9131642, 4.3976434 51.9131984, 4.3976131 51.9132282, 4.3975694 51.9132508, 4.3975164 51.9132638, 4.3974595 51.9132661, 4.3974042 51.9132574, 4.3973627 51.913242, 4.3973292 51.9132203, 4.3973063 51.9131939), (4.3973063 51.9131939, 4.3972948 51.9131561, 4.3973047 51.9131182), (4.3973047 51.9131182, 4.3972312 51.9130688, 4.3965539 51.9126393, 4.3964302 51.9125619, 4.3962367 51.9124423, 4.3958981 51.912245, 4.3957165 51.9121615, 4.3950134 51.9119194, 4.3942792 51.9117321, 4.3935025 51.9115709, 4.3928415 51.9114426, 4.3922686 51.9113451, 4.3914946 51.9112645, 4.3909575 51.9112355, 4.3906487 51.9112169), (4.3906487 51.9112169, 4.3905745 51.9112982, 4.3904085 51.9114938, 4.3900895 51.9118906, 4.3900188 51.9119801, 4.3894716 51.9126381, 4.3894363 51.912682, 4.3894149 51.912708, 4.3890544 51.9131372, 4.3889823 51.9132196, 4.3888047 51.9134384, 4.3887145 51.9135772, 4.3886626 51.9137106, 4.3886032 51.9138969, 4.3885067 51.9142196, 4.3884815 51.9142938, 4.3884574 51.9145172, 4.3884765 51.9148121, 4.3885083 51.9149556, 4.3885355 51.9150462, 4.3886181 51.9152316, 4.3887474 51.9155236, 4.3887154 51.9156955), (4.3887154 51.9156955, 4.3889217 51.9157827, 4.3890833 51.9158738, 4.389243 51.9159893, 4.3894207 51.9161219, 4.3895487 51.9161932, 4.38964 51.9162441, 4.3897723 51.9163121, 4.3899136 51.9163753, 4.3900569 51.9164413, 4.3902145 51.9164986, 4.3905791 51.9166105, 4.390813 51.916688, 4.391263 51.9168332, 4.3914328 51.9168973), (4.3914328 51.9168973, 4.3916097 51.9169562, 4.3918413 51.9170526, 4.3919341 51.9170959, 4.3919847 51.9171186), (4.3919847 51.9171186, 4.3920545 51.9171544), (4.3920545 51.9171544, 4.3921258 51.9171373, 4.3922019 51.9171422, 4.3922659 51.9171682), (4.3922659 51.9171682, 4.3922982 51.9171998, 4.3923094 51.9172366, 4.3922903 51.9172783, 4.3922582 51.9173093, 4.3922112 51.9173283, 4.3921564 51.9173363, 4.3921006 51.9173322), (4.3921006 51.9173322, 4.3920231 51.9173693, 4.3919887 51.9173913, 4.3914783 51.9177146, 4.3913093 51.9178194, 4.3911124 51.9179208, 4.3908095 51.918042, 4.3902189 51.9182319, 4.3888929 51.9186199, 4.3888309 51.918638, 4.388718 51.9186714), (4.388718 51.9186714, 4.3887074 51.9187134, 4.3886749 51.918751, 4.3886241 51.9187798, 4.3885595 51.9187969, 4.3884894 51.9187997, 4.3884218 51.9187878), (4.3884218 51.9187878, 4.3883193 51.9188411, 4.3882968 51.9188547, 4.3881776 51.9189272, 4.3880399 51.919026, 4.3879948 51.9190571, 4.3877957 51.9192086, 4.387655 51.9193288, 4.3870322 51.9198461, 4.3869493 51.9199264, 4.3868686 51.9200049, 4.3867658 51.9200944, 4.3867502 51.9201075, 4.3860398 51.9207085), (4.3860398 51.9207085, 4.3859866 51.9207578, 4.3858918 51.9208415), (4.3858918 51.9208415, 4.3858423 51.9208794, 4.3858037 51.9209157, 4.385715 51.9209959), (4.385715 51.9209959, 4.3856188 51.9210726, 4.3855209 51.9211715), (4.3855209 51.9211715, 4.3855454 51.9212109, 4.3855547 51.9212528, 4.3855456 51.9213021, 4.3855155 51.9213481, 4.3854666 51.9213875, 4.3854018 51.9214177), (4.3854018 51.9214177, 4.3853124 51.9215043, 4.385178 51.921578, 4.3851318 51.921622, 4.3851292 51.9216374), (4.3851292 51.9216374, 4.3850543 51.921665, 4.3849953 51.9216909, 4.3848982 51.921741, 4.3847935 51.9218172, 4.3844308 51.9220784, 4.3839658 51.9224495, 4.3832975 51.9230085, 4.3829636 51.9232819, 4.3828787 51.92335, 4.3828023 51.9234006, 4.382674 51.9234785, 4.3825099 51.9235576, 4.3823731 51.9236193, 4.3821029 51.9237051, 4.3819425 51.9237473, 4.3818076 51.9237787, 4.381755 51.923791), (4.381755 51.923791, 4.3817486 51.9237732, 4.3817256 51.923709), (4.3817256 51.923709, 4.381578 51.9237466, 4.3800637 51.9241), (4.3800637 51.9241, 4.3789719 51.9243774), (4.3789719 51.9243774, 4.3783049 51.9245385), (4.3783049 51.9245385, 4.3779906 51.9246038, 4.3777183 51.9246627, 4.3774531 51.9247366, 4.3771629 51.9248527, 4.377084 51.9248935, 4.3769864 51.9249439, 4.3769069 51.924988), (4.3769069 51.924988, 4.3768086 51.925059), (4.3768086 51.925059, 4.3767187 51.9251426, 4.37662 51.9252548, 4.3765407 51.9253642, 4.3765032 51.9254294, 4.3764743 51.9254974), (4.3764743 51.9254974, 4.3764468 51.9255809, 4.3764205 51.9257188, 4.3763461 51.9261485), (4.3763461 51.9261485, 4.3762179 51.9269219, 4.3762035 51.9269908), (4.3762035 51.9269908, 4.3761481 51.9273294), (4.3761481 51.9273294, 4.376016 51.9280902), (4.376016 51.9280902, 4.3759026 51.9287646, 4.3758904 51.9288278, 4.3758516 51.92901), (4.3758516 51.92901, 4.3758296 51.9290922), (4.3758296 51.9290922, 4.3755632 51.9290783), (4.3755632 51.9290783, 4.375349 51.9290636, 4.3738456 51.928927, 4.3735711 51.9289028), (4.3735711 51.9289028, 4.37332 51.9288801, 4.3728553 51.9288381), (4.3728553 51.9288381, 4.3724867 51.9288078, 4.3722299 51.9287886, 4.3718735 51.9287529, 4.3715875 51.9287278, 4.3706702 51.9286496, 4.3702741 51.9286136, 4.3696746 51.9285643, 4.369589 51.9285591, 4.3689366 51.9285002, 4.3688717 51.9284947, 4.3687041 51.9284804, 4.3686357 51.9284733, 4.3684767 51.9284621), (4.3684767 51.9284621, 4.368436 51.9284939, 4.3683784 51.9285133), (4.3683784 51.9285133, 4.3683438 51.9286098, 4.3682907 51.9287985, 4.3682427 51.9288577), (4.3682427 51.9288577, 4.3682699 51.9289061, 4.3683133 51.9289433, 4.3684044 51.9289945, 4.3685169 51.9290583, 4.3686422 51.9291207, 4.3687327 51.9291506, 4.3688299 51.9291599, 4.3689264 51.9291898, 4.3689776 51.9292373, 4.368942 51.9294547, 4.3689406 51.929506, 4.3689 51.9297, 4.3688666 51.9299108, 4.3685802 51.9311859, 4.3685208 51.9314866, 4.3684803 51.931723, 4.3683947 51.9321082, 4.3682533 51.9326925, 4.3682275 51.9327982, 4.3682171 51.9328523, 4.3681907 51.9329639, 4.3681321 51.9332028, 4.3681094 51.9333319), (4.3681094 51.9333319, 4.3683039 51.9333551, 4.3684984 51.9333783, 4.36944 51.9334547, 4.3704764 51.933543), (4.3704764 51.933543, 4.3708727 51.9335768), (4.3708727 51.9335768, 4.3710409 51.9335955, 4.3711492 51.9336063), (4.3711492 51.9336063, 4.3712701 51.9336177), (4.3712701 51.9336177, 4.3716146 51.9338479, 4.3718195 51.9339885, 4.3719248 51.9340695), (4.3719248 51.9340695, 4.3721134 51.9340076, 4.3726227 51.9338831, 4.3727024 51.9338636, 4.3729406 51.9338204, 4.3730718 51.9338144), (4.3730718 51.9338144, 4.3734878 51.9338369, 4.3740546 51.9338823, 4.3741638 51.9338918, 4.3743659 51.9339015), (4.3743659 51.9339015, 4.3745661 51.9339392, 4.3748132 51.9339754, 4.3748547 51.9339911, 4.3749004 51.933995, 4.3749852 51.9340005, 4.3756126 51.9340243, 4.3767101 51.9340847, 4.3783747 51.9342229, 4.3785502 51.9342375, 4.3786918 51.9342538, 4.3789345 51.9342731, 4.3792023 51.9342859), (4.3792023 51.9342859, 4.3794792 51.9343104, 4.3797594 51.9343394, 4.379899 51.9343499), (4.379899 51.9343499, 4.3807113 51.9344312, 4.381542 51.9345154, 4.3824084 51.9346068, 4.3825596 51.9346379, 4.382662 51.9346809, 4.3827843 51.9347589, 4.3829003 51.934876, 4.3829715 51.9349999, 4.3836492 51.9360663, 4.383689 51.9361289, 4.3837605 51.9362412, 4.3843222 51.9371238, 4.3844366 51.9373057, 4.3846284 51.9376107, 4.3847114 51.9377315, 4.3850599 51.9382946, 4.3851364 51.9384183, 4.3855819 51.9390944, 4.3856037 51.9391275, 4.385689 51.9392304), (4.385689 51.9392304, 4.3857699 51.9392281, 4.3858452 51.9392465), (4.3858452 51.9392465, 4.3858931 51.9392745, 4.3859229 51.9393109), (4.3859229 51.9393109, 4.3859309 51.9393526, 4.3859149 51.9393934, 4.3858769 51.9394283, 4.3858217 51.9394529, 4.3857561 51.9394641, 4.3856883 51.9394606, 4.3856266 51.9394428), (4.3856266 51.9394428, 4.3854951 51.9394935, 4.3854043 51.9395572, 4.3853029 51.939641, 4.3848782 51.9400583, 4.3846265 51.9403064, 4.3844512 51.9404876, 4.3840152 51.940902), (4.3840152 51.940902, 4.3829366 51.941969, 4.3824224 51.9424763, 4.3818622 51.943038, 4.3815987 51.9432998, 4.3813675 51.9435218, 4.3810119 51.9438696, 4.3807693 51.9440039, 4.3804122 51.9441441, 4.3801021 51.9442209, 4.3800415 51.9442359, 4.3796491 51.9442785, 4.3780692 51.9443452, 4.377839 51.9443365, 4.3776485 51.9443464, 4.3775693 51.9443545, 4.3774646 51.9443737, 4.3771033 51.944393, 4.3757634 51.9444447, 4.3754427 51.9444556, 4.3744551 51.9444945), (4.3744551 51.9444945, 4.3744335 51.9444335), (4.3744335 51.9444335, 4.374435 51.9443759, 4.3744635 51.9443396, 4.3744864 51.9443178, 4.3745213 51.9443004, 4.3745729 51.9442905, 4.3749283 51.9442744))</t>
+          <t>MULTILINESTRING ((4.6070795 51.930079, 4.6072187 51.9300618, 4.6074677 51.9300769, 4.6079343 51.9301409, 4.6082201 51.9301868), (4.6070795 51.930079, 4.6070005 51.9301031, 4.6068459 51.9301974, 4.6065753 51.9304138, 4.6064863 51.9304979, 4.6060042 51.930913, 4.605493 51.9313531, 4.6053929 51.9314393, 4.6052 51.9316, 4.6042333 51.9324479, 4.6040359 51.9326219, 4.6033052 51.9333046), (4.6033052 51.9333046, 4.6032364 51.9333647), (4.6032364 51.9333647, 4.603208 51.933442, 4.6031619 51.9334859, 4.6030801 51.9335613), (4.6030801 51.9335613, 4.6030899 51.933576, 4.6030951 51.9335915, 4.6030957 51.9336073, 4.6030914 51.9336229, 4.6030775 51.9336438, 4.6030551 51.9336618, 4.6030258 51.9336755, 4.6029919 51.9336839, 4.6029556 51.9336866, 4.6029194 51.9336834), (4.6029194 51.9336834, 4.6028389 51.9337562, 4.602746 51.9338176, 4.602658 51.9338509), (4.602658 51.9338509, 4.6024235 51.9340506, 4.6016574 51.9345519, 4.6012989 51.9347819, 4.6011593 51.9348668, 4.6008851 51.9350504), (4.6008851 51.9350504, 4.6008368 51.9351198, 4.6007832 51.9351654, 4.6007478 51.9351955, 4.60068 51.9352603), (4.60068 51.9352603, 4.6007012 51.9352822, 4.6007144 51.9353063, 4.6007189 51.9353316, 4.6007145 51.9353569, 4.6007016 51.9353811, 4.6006728 51.9354089, 4.6006328 51.9354307, 4.6005661 51.935448, 4.6004937 51.9354488), (4.6004937 51.9354488, 4.6004577 51.9354427, 4.6004243 51.9354324, 4.6003947 51.9354183), (4.6003947 51.9354183, 4.6003618 51.9353933, 4.6003411 51.9353637, 4.600334 51.9353318, 4.6003412 51.9352999), (4.6003412 51.9352999, 4.6002309 51.935244, 4.6001888 51.9352251, 4.6001633 51.9352117, 4.600075 51.9351373), (4.596778 51.9337991, 4.5972118 51.9339426, 4.5977906 51.9341379, 4.5978599 51.9341626, 4.5979825 51.9342103, 4.59808 51.93425, 4.598225 51.9343137, 4.5983323 51.9343626, 4.5986091 51.9344839, 4.5988862 51.9346069, 4.5995376 51.9348887, 4.600075 51.9351373), (4.596778 51.9337991, 4.5966432 51.9337805, 4.5964664 51.9337204, 4.596331 51.9336721), (4.596331 51.9336721, 4.5962893 51.9336884, 4.5962422 51.9336976, 4.5961929 51.933699, 4.5961446 51.9336925, 4.5961082 51.9336817, 4.5960764 51.9336665, 4.596046 51.9336431, 4.5960262 51.9336158, 4.5960181 51.9335863, 4.5960225 51.9335565), (4.5960225 51.9335565, 4.5955933 51.9333955, 4.5954865 51.9333338), (4.5911175 51.9316918, 4.5913724 51.9317752, 4.5915988 51.9318549, 4.5920696 51.9320323, 4.5927314 51.9322774, 4.5935017 51.932573, 4.5941426 51.9328172, 4.5953193 51.9332727, 4.5953972 51.9333021, 4.5954865 51.9333338), (4.590792 51.9315924, 4.5909841 51.9316511, 4.5911175 51.9316918), (4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.5905636 51.9319109, 4.5904339 51.9320735), (4.5904339 51.9320735, 4.5903401 51.9321833, 4.5902947 51.9322366, 4.590204 51.9323633, 4.5900839 51.9325054, 4.5898348 51.9328145, 4.5897799 51.9328511, 4.589756 51.9328647, 4.5897301 51.9328756), (4.5873429 51.9319069, 4.587845 51.9321857, 4.5881272 51.9323254, 4.5883859 51.932434, 4.5885839 51.9325117, 4.5888752 51.9326235, 4.5894766 51.9328592, 4.5895536 51.9328831, 4.5896269 51.9328918, 4.5897301 51.9328756), (4.5873429 51.9319069, 4.5871247 51.9318031, 4.5869537 51.9317142, 4.5869142 51.9316936, 4.5868102 51.9316338, 4.5867316 51.9315788), (4.5867316 51.9315788, 4.586676 51.9316104, 4.5864393 51.9317334), (4.5864393 51.9317334, 4.5852855 51.9325124, 4.5851722 51.9325886), (4.5851722 51.9325886, 4.5850661 51.9326619, 4.5840003 51.9333868, 4.5838276 51.9335206), (4.5838276 51.9335206, 4.5837165 51.9336086), (4.5837165 51.9336086, 4.5836166 51.9336908, 4.5827581 51.9343632), (4.5827581 51.9343632, 4.5825842 51.9345583, 4.5822275 51.934964, 4.5819691 51.9352766, 4.5818102 51.9355006, 4.5814228 51.9359855, 4.5809175 51.9366477, 4.580818 51.9367766, 4.5807424 51.9368752, 4.5806776 51.9369503, 4.5805396 51.9370825), (4.5805396 51.9370825, 4.5803401 51.9372517), (4.5803401 51.9372517, 4.5802024 51.9373657, 4.5800477 51.9374907), (4.5800477 51.9374907, 4.5799577 51.9375657), (4.5799577 51.9375657, 4.5798006 51.9376936, 4.5790287 51.9383357, 4.5783816 51.9388596, 4.5782425 51.9389475, 4.5779347 51.9391215), (4.5779347 51.9391215, 4.5775653 51.9393953, 4.5771548 51.9397568, 4.576331 51.9404525, 4.5759411 51.9407775, 4.5756433 51.9410331, 4.5755233 51.9411323, 4.5751907 51.9414073, 4.5744494 51.9420212, 4.5742251 51.9422069, 4.573907 51.9424713, 4.5738635 51.9425074, 4.5735362 51.9428159, 4.5733548 51.9429854, 4.5732254 51.9431432, 4.5730521 51.943358), (4.5730521 51.943358, 4.5728456 51.9435323), (4.5728456 51.9435323, 4.5725279 51.9438069, 4.5719061 51.9443238, 4.5715088 51.944654, 4.5714568 51.9446973, 4.5711107 51.9449852, 4.5709622 51.9451132, 4.5709139 51.9451534, 4.5706044 51.9454097, 4.5703656 51.9456075, 4.5700085 51.9459167), (4.5700085 51.9459167, 4.5695154 51.9463727, 4.5691159 51.9468119, 4.5685802 51.9473066, 4.5683473 51.9475095, 4.5682307 51.9476111), (4.5681472 51.9476809, 4.5682307 51.9476111), (4.5681472 51.9476809, 4.5679829 51.9476086), (4.5679829 51.9476086, 4.5670859 51.9471017), (4.5670859 51.9471017, 4.5669256 51.9470109), (4.5669256 51.9470109, 4.5667871 51.9469005, 4.5666501 51.9466789, 4.5665916 51.946576, 4.565876 51.9461431, 4.5648949 51.9455359, 4.5645801 51.9453411, 4.5638338 51.9448817, 4.5634721 51.9446582, 4.5631771 51.9445326, 4.5625337 51.9444045, 4.5623456 51.9443672, 4.5620735 51.9443218, 4.5614306 51.9442275, 4.5609863 51.9441539, 4.5607346 51.9441377, 4.5605891 51.9441458, 4.5603814 51.9441757, 4.5601593 51.944236, 4.5599251 51.9443107, 4.5581472 51.9449486), (4.5581472 51.9449486, 4.5579174 51.9450301, 4.5573755 51.9452224, 4.5570749 51.9453312), (4.5570749 51.9453312, 4.5569223 51.9453864, 4.5568034 51.9454288, 4.5567723 51.9454399, 4.5567196 51.9454587, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.5558538 51.949644), (4.5558538 51.949644, 4.5558136 51.9497617, 4.555598 51.950245, 4.5554771 51.950419), (4.5554771 51.950419, 4.5554128 51.9505729), (4.5554128 51.9505729, 4.55539 51.950632), (4.55539 51.950632, 4.5553885 51.9506358, 4.5553657 51.9506944, 4.5553509 51.950817, 4.5553693 51.950894), (4.5553693 51.950894, 4.5554179 51.9509614, 4.5554662 51.9510056, 4.5555278 51.9510585, 4.5556792 51.9511329, 4.5558846 51.9511775, 4.5560963 51.9512054), (4.5560787 51.9512475, 4.5560963 51.9512054), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.555853 51.9518422, 4.5558531 51.9519017, 4.5558077 51.9520505, 4.5557758 51.9521549, 4.5557409 51.9522389), (4.5557409 51.9522389, 4.5556635 51.9523168), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.5522534 51.9523763, 4.5521498 51.9523628), (4.5521498 51.9523628, 4.5522106 51.9521068))</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>384417</t>
+          <t>384339</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1856,17 +1856,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Schiedam, Station Schiedam Centrum</t>
+          <t>Rotterdam, Van Noortwijckstraat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bus 51: Schiedam Woudhoek =&gt; Schiedam Centrum</t>
+          <t>Bus 32: Rotterdam Station Zuid =&gt; Rotterdam Overschie</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1877,14 +1877,14 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3749283 51.9442744, 4.3752596 51.9442599, 4.3753789 51.9442566, 4.3754274 51.9442613, 4.3754856 51.9442826, 4.3755257 51.9442995, 4.3755446 51.9443075, 4.3756103 51.9443542, 4.3756289 51.9443811), (4.3756289 51.9443811, 4.3757505 51.9443781, 4.3762101 51.9443597, 4.3766958 51.9443417, 4.3770978 51.9443257, 4.3776004 51.9443, 4.3796425 51.9441957, 4.3800136 51.9441636, 4.3800692 51.9441505, 4.3803435 51.9440859, 4.3806949 51.9439602, 4.3809363 51.9438296, 4.3817739 51.9430168), (4.3817739 51.9430168, 4.3820298 51.9427648, 4.3823377 51.9424403, 4.3828451 51.9419372, 4.3839298 51.9408737, 4.3843581 51.9404514, 4.3847841 51.9400202, 4.38505 51.9397638, 4.3853507 51.9395049, 4.3854365 51.9394487, 4.3854754 51.9394227, 4.3855515 51.9393763), (4.3855515 51.9393763, 4.385545 51.9393415, 4.3855553 51.939307, 4.3855815 51.9392758), (4.3855815 51.9392758, 4.3855014 51.9391515, 4.3854813 51.9391202, 4.3850426 51.9384407, 4.3849646 51.9383183, 4.3847 51.9379031, 4.3845053 51.9376461, 4.3844171 51.9375105, 4.3842891 51.937316, 4.384185 51.9371552, 4.3836258 51.9362729), (4.3836258 51.9362729, 4.3835554 51.9361618, 4.3835193 51.9361048, 4.3828707 51.9350266, 4.3827939 51.9349116, 4.3826746 51.934781, 4.3825921 51.934724, 4.3825086 51.9346909, 4.382403 51.9346607, 4.3815267 51.9345719, 4.380697 51.9344848, 4.3800374 51.9344266, 4.3798869 51.9344039), (4.3798869 51.9344039, 4.379584 51.9343725, 4.3794669 51.9343605, 4.3791013 51.9343287, 4.3786776 51.9343274, 4.3785265 51.9343269), (4.3785265 51.9343269, 4.3783498 51.9343212), (4.3783498 51.9343212, 4.3778611 51.9342667, 4.3769397 51.9341988, 4.3766925 51.9341806, 4.3759827 51.9341364), (4.3759827 51.9341364, 4.3753489 51.9341085), (4.3753489 51.9341085, 4.3750802 51.9340988, 4.3749661 51.9340947, 4.3748781 51.934089, 4.3748284 51.9340876, 4.3747607 51.9340821, 4.3743664 51.9340491), (4.3743664 51.9340491, 4.3741299 51.9340427, 4.3736577 51.9340029, 4.3731954 51.9339643), (4.3731954 51.9339643, 4.3727716 51.9339858, 4.3721874 51.9341097, 4.3719943 51.9341734), (4.3719943 51.9341734, 4.3718093 51.9341177), (4.3718093 51.9341177, 4.3717073 51.93405, 4.371227 51.9337409, 4.3711517 51.9336918, 4.3710961 51.9336648, 4.3708727 51.9335768), (4.3704764 51.933543, 4.3708727 51.9335768), (4.3681094 51.9333319, 4.3683039 51.9333551, 4.3684984 51.9333783, 4.36944 51.9334547, 4.3704764 51.933543), (4.3682427 51.9288577, 4.3682699 51.9289061, 4.3683133 51.9289433, 4.3684044 51.9289945, 4.3685169 51.9290583, 4.3686422 51.9291207, 4.3687327 51.9291506, 4.3688299 51.9291599, 4.3689264 51.9291898, 4.3689776 51.9292373, 4.368942 51.9294547, 4.3689406 51.929506, 4.3689 51.9297, 4.3688666 51.9299108, 4.3685802 51.9311859, 4.3685208 51.9314866, 4.3684803 51.931723, 4.3683947 51.9321082, 4.3682533 51.9326925, 4.3682275 51.9327982, 4.3682171 51.9328523, 4.3681907 51.9329639, 4.3681321 51.9332028, 4.3681094 51.9333319), (4.3682427 51.9288577, 4.3682067 51.9287973, 4.3682199 51.9286932, 4.3682346 51.9286031, 4.3682583 51.9285076), (4.3682583 51.9285076, 4.3682064 51.9284832, 4.368174 51.9284483), (4.368174 51.9284483, 4.3681685 51.9283977, 4.3682035 51.9283517, 4.3682558 51.928326, 4.3683204 51.9283153, 4.3683866 51.9283213, 4.3684434 51.9283431, 4.3684814 51.928377), (4.3684814 51.928377, 4.368654 51.9283962, 4.368954 51.9284204, 4.3695485 51.9284572, 4.3702917 51.9285227, 4.3706926 51.928565, 4.3716007 51.9286376, 4.371892 51.9286596, 4.3722454 51.9286889, 4.3725469 51.9287146, 4.3728785 51.9287395), (4.3728785 51.9287395, 4.3733441 51.9287819, 4.3738636 51.9288293, 4.3742311 51.9288618), (4.3742311 51.9288618, 4.3744241 51.9288367, 4.3749337 51.928846, 4.3752854 51.9288716, 4.3753953 51.9288794, 4.375505 51.9288667, 4.3756144 51.9288461), (4.3756144 51.9288461, 4.3756255 51.9288047, 4.3758902 51.9277542), (4.3758902 51.9277542, 4.3758491 51.927252, 4.3758642 51.9270931, 4.3758728 51.9270169), (4.3758728 51.9270169, 4.3758846 51.9269258), (4.3758846 51.9269258, 4.3760827 51.926318, 4.3761085 51.9262211), (4.3761085 51.9262211, 4.3761972 51.9257136, 4.3762284 51.9255837, 4.3762587 51.9255003), (4.3762587 51.9255003, 4.3762804 51.9254488, 4.3763064 51.9253959, 4.37634 51.9253351, 4.3763735 51.9252796, 4.376425 51.9252095, 4.3764947 51.92514, 4.3766035 51.9250463, 4.3766625 51.9249955), (4.3766625 51.9249955, 4.3767831 51.9249198), (4.3767831 51.9249198, 4.3768776 51.9248688, 4.3770104 51.9247969, 4.3771772 51.9247247, 4.3773526 51.9246631, 4.377506 51.9246133, 4.3776615 51.9245727, 4.3778293 51.9245357, 4.3779972 51.9245054, 4.37813 51.9244859, 4.3782579 51.9244656, 4.378375 51.9244453, 4.3786514 51.9243817, 4.3789277 51.9243102), (4.3789277 51.9243102, 4.3800244 51.9240404), (4.3800244 51.9240404, 4.3808628 51.9238284), (4.3808628 51.9238284, 4.3814341 51.9236875, 4.3815276 51.9236645, 4.3816889 51.9236242), (4.3816889 51.9236242, 4.3818135 51.9235936, 4.381992 51.9235498, 4.3822093 51.9234836, 4.3823756 51.9234208, 4.3826576 51.9232539, 4.3830286 51.9229573), (4.3830286 51.9229573, 4.3835768 51.9224868), (4.3835768 51.9224868, 4.384384 51.9218497), (4.384384 51.9218497, 4.3848853 51.9214858, 4.3850131 51.9213705), (4.3850131 51.9213705, 4.3849691 51.9213095, 4.3849566 51.921257, 4.3849689 51.9212044, 4.3850074 51.9211538, 4.3850687 51.9211127, 4.3851472 51.9210848, 4.3852366 51.9210726, 4.3853277 51.9210777), (4.3853277 51.9210777, 4.3856476 51.9208478, 4.3856914 51.9208143, 4.3857765 51.9207335, 4.3858663 51.9206581, 4.3865964 51.9200447, 4.3866166 51.9200278, 4.3867136 51.9199434, 4.3868119 51.9198625, 4.386963 51.9197384, 4.3875297 51.9192728, 4.3875883 51.9192265, 4.3880364 51.9188728, 4.388176 51.9187897, 4.3882168 51.9187654, 4.3883123 51.918707), (4.3883123 51.918707, 4.3883048 51.9186731, 4.3883122 51.9186393, 4.3883339 51.9186079, 4.388364 51.9185838, 4.3884026 51.9185647, 4.3884473 51.9185519, 4.3885049 51.9185456, 4.388563 51.9185496, 4.388617 51.9185635, 4.3886626 51.9185861), (4.3886626 51.9185861, 4.3887605 51.9185484, 4.3888249 51.9185306, 4.3892347 51.9184156, 4.3901696 51.9181558, 4.3907704 51.9179694, 4.3910534 51.9178703, 4.3912725 51.917756, 4.3914263 51.9176593, 4.3919022 51.9173484, 4.3919443 51.9173218, 4.3920074 51.917287), (4.3920074 51.917287, 4.3919872 51.9172522, 4.3919887 51.9172154), (4.3919887 51.9172154, 4.3919188 51.9171763), (4.3919188 51.9171763, 4.3918752 51.9171537, 4.3916394 51.9170229, 4.3914328 51.9168973), (4.3887154 51.9156955, 4.3889217 51.9157827, 4.3890833 51.9158738, 4.389243 51.9159893, 4.3894207 51.9161219, 4.3895487 51.9161932, 4.38964 51.9162441, 4.3897723 51.9163121, 4.3899136 51.9163753, 4.3900569 51.9164413, 4.3902145 51.9164986, 4.3905791 51.9166105, 4.390813 51.916688, 4.391263 51.9168332, 4.3914328 51.9168973), (4.3906487 51.9112169, 4.3905745 51.9112982, 4.3904085 51.9114938, 4.3900895 51.9118906, 4.3900188 51.9119801, 4.3894716 51.9126381, 4.3894363 51.912682, 4.3894149 51.912708, 4.3890544 51.9131372, 4.3889823 51.9132196, 4.3888047 51.9134384, 4.3887145 51.9135772, 4.3886626 51.9137106, 4.3886032 51.9138969, 4.3885067 51.9142196, 4.3884815 51.9142938, 4.3884574 51.9145172, 4.3884765 51.9148121, 4.3885083 51.9149556, 4.3885355 51.9150462, 4.3886181 51.9152316, 4.3887474 51.9155236, 4.3887154 51.9156955), (4.3906487 51.9112169, 4.3906709 51.9111441), (4.3906709 51.9111441, 4.3908252 51.9111498, 4.3915113 51.911197, 4.392291 51.911277, 4.3929441 51.9113906, 4.3935685 51.9115096, 4.3943295 51.9116643, 4.3950574 51.911838, 4.3951543 51.9118611, 4.3954133 51.9119483, 4.3958178 51.9121033, 4.3964989 51.9125195, 4.3966217 51.9125977, 4.3972353 51.9129943, 4.3972904 51.9130262, 4.3973722 51.913063), (4.3973722 51.913063, 4.3974217 51.9130479, 4.3974763 51.9130427, 4.3975309 51.9130479, 4.3975805 51.913063), (4.3975805 51.913063, 4.3976773 51.913042, 4.3977223 51.9130146, 4.3977543 51.9129951, 4.3986546 51.9124633, 4.3987457 51.9124384, 4.3988699 51.9124128), (4.3988699 51.9124128, 4.3988622 51.9123829, 4.398866 51.9123526, 4.398881 51.9123238, 4.3989065 51.9122978, 4.3989409 51.9122763, 4.3989826 51.9122602, 4.3990291 51.9122505, 4.399078 51.9122477, 4.3991267 51.9122519), (4.3991267 51.9122519, 4.3991666 51.9122612, 4.3992028 51.9122752, 4.3992336 51.9122934, 4.3992578 51.9123151, 4.3992736 51.9123378, 4.3992822 51.9123619, 4.3992833 51.9123865, 4.3992768 51.9124109, 4.399263 51.912434), (4.399263 51.912434, 4.39935 51.9124929, 4.3993938 51.9125301), (4.3993938 51.9125301, 4.399411 51.9125407), (4.399411 51.9125407, 4.3995253 51.912611), (4.3995253 51.912611, 4.3995622 51.9126338), (4.3995622 51.9126338, 4.4001878 51.9130126, 4.4003025 51.9130679, 4.4003417 51.9130877, 4.4004551 51.9131411), (4.4004551 51.9131411, 4.4005278 51.913176), (4.4005278 51.913176, 4.4006698 51.9132443, 4.4010029 51.9134413, 4.4011293 51.9135206), (4.4011293 51.9135206, 4.4015827 51.9138122, 4.4016484 51.9139115), (4.4016484 51.9139115, 4.4016943 51.9140085), (4.4016943 51.9140085, 4.4018001 51.9142071, 4.4018107 51.9142276), (4.4018107 51.9142276, 4.4018888 51.914294, 4.4021132 51.9143678), (4.4021132 51.9143678, 4.4022894 51.9144163, 4.4023322 51.91443, 4.4023904 51.914445, 4.4026704 51.9145403), (4.4026704 51.9145403, 4.4026639 51.9146617), (4.4026639 51.9146617, 4.4026479 51.9147047, 4.4026358 51.9147357, 4.402608 51.9147978, 4.4026004 51.9148212), (4.4026004 51.9148212, 4.4024819 51.9148932, 4.4024187 51.9149613, 4.4023781 51.9150201), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023445 51.9188801, 4.4023243 51.9188543, 4.4023083 51.918818, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023881 51.9189542, 4.402364 51.9190272, 4.4023615 51.9190373, 4.4023469 51.9191291, 4.4023418 51.9191637, 4.4023121 51.9192971, 4.4022934 51.9194298), (4.4022934 51.9194298, 4.4022857 51.9195074), (4.4022857 51.9195074, 4.402264 51.9197357, 4.4022543 51.9199786, 4.4022507 51.920291, 4.4023273 51.9206063, 4.4024516 51.9208966), (4.4024516 51.9208966, 4.4026187 51.9212013, 4.4026684 51.921302, 4.4026907 51.9213442, 4.402705 51.9213712, 4.4027375 51.9214414), (4.4027375 51.9214414, 4.4027841 51.9215306, 4.4027953 51.9215577, 4.4029344 51.9218933), (4.4029344 51.9218933, 4.4032079 51.922545, 4.4032192 51.9225763, 4.4032343 51.9226131, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
+          <t>MULTILINESTRING ((4.5126255 51.903532, 4.5127923 51.9035935, 4.512853 51.9036159, 4.5128966 51.903632, 4.5129207 51.9036537, 4.5129454 51.9036812, 4.5129605 51.903709, 4.512972 51.9037368, 4.5129742 51.9037872, 4.5129609 51.9038456, 4.5129335 51.9039171), (4.5129335 51.9039171, 4.5128875 51.9040054, 4.5128456 51.9040687, 4.5125715 51.9043562, 4.511948 51.905048), (4.511948 51.905048, 4.5117728 51.9052407, 4.5111377 51.9058905), (4.5111377 51.9058905, 4.5106811 51.9063824, 4.5102903 51.9067762, 4.5102581 51.9068092, 4.5097464 51.9073087), (4.5097464 51.9073087, 4.5097185 51.907336, 4.5089302 51.9080695, 4.5088245 51.9081626, 4.5083727 51.9085739, 4.508 51.9089, 4.5077828 51.9090881), (4.5077828 51.9090881, 4.5076662 51.9091964, 4.507429 51.9094168, 4.5074069 51.9094425, 4.507239 51.9096797, 4.5069774 51.9100488, 4.5068822 51.9101711, 4.5068688 51.9101892, 4.5065413 51.9106737, 4.5062007 51.9111569, 4.5057686 51.911732, 4.5057396 51.9117911, 4.5057267 51.9118313, 4.5057059 51.9122002, 4.5057132 51.9127331, 4.505709 51.9128986, 4.5057073 51.913283, 4.5056954 51.9137369, 4.5056805 51.9138532), (4.5041949 51.9130446, 4.5043165 51.9131095, 4.5046995 51.9133214, 4.5056805 51.9138532), (4.5024459 51.912082, 4.5026421 51.9121916, 4.5031303 51.9124595, 4.5033557 51.9125832, 4.5041949 51.9130446), (4.502328 51.9120211, 4.5024459 51.912082), (4.502328 51.9120211, 4.5021412 51.9122649, 4.5008655 51.9131437, 4.5006931 51.9131543), (4.5006931 51.9131543, 4.5005966 51.9131692, 4.5005241 51.9131646, 4.5004627 51.9131444, 4.5003665 51.9130922, 4.4998861 51.9128361, 4.4995853 51.9126501), (4.4995853 51.9126501, 4.4991265 51.9123684), (4.4991265 51.9123684, 4.4989399 51.9123334, 4.4987832 51.9123103), (4.4987832 51.9123103, 4.4987117 51.9123473, 4.4986829 51.9123631, 4.4985176 51.9124241), (4.498337 51.9125424, 4.4985176 51.9124241), (4.498187 51.9126406, 4.498337 51.9125424), (4.4977909 51.9128999, 4.498187 51.9126406), (4.4977909 51.9128999, 4.4976644 51.9129838), (4.4976644 51.9129838, 4.4975154 51.9130826), (4.4975154 51.9130826, 4.4974771 51.913108), (4.4974771 51.913108, 4.4973933 51.9132348), (4.4973933 51.9132348, 4.4973498 51.9132654, 4.4972794 51.9133164, 4.4971391 51.9134214), (4.4971391 51.9134214, 4.4972207 51.9134693, 4.4978245 51.9138011, 4.4978702 51.9138262, 4.498052 51.9139261, 4.4981643 51.9139878, 4.4985151 51.9142103), (4.4985151 51.9142103, 4.4987704 51.9143634, 4.4988278 51.9144083, 4.498865 51.9144452, 4.4989062 51.914487, 4.498935 51.9145206, 4.4989701 51.9145638), (4.4989701 51.9145638, 4.4989782 51.9145897, 4.4989795 51.9146066, 4.4989764 51.9146256, 4.4989682 51.9146464, 4.4989536 51.9146767, 4.4989358 51.9147066, 4.4989068 51.9147402, 4.4988727 51.9147718, 4.498838 51.9148012, 4.4981288 51.9152951, 4.4979665 51.9153494), (4.4979665 51.9153494, 4.4977346 51.9155223, 4.4975941 51.9156292), (4.4975941 51.9156292, 4.4948606 51.9179005, 4.4946165 51.9181048), (4.4946165 51.9181048, 4.4944985 51.9181958, 4.4943902 51.9182714), (4.4943902 51.9182714, 4.4942972 51.9183037, 4.4941753 51.9183331, 4.4941056 51.9183409, 4.4940197 51.9183416, 4.4939007 51.9183301, 4.4937395 51.9182876, 4.4935517 51.9182189, 4.493162 51.9180745), (4.493162 51.9180745, 4.4929308 51.9179824, 4.492732 51.9178937), (4.492732 51.9178937, 4.4925475 51.9178491, 4.4922677 51.9176795, 4.4917313 51.917329, 4.4916407 51.9172607), (4.4916407 51.9172607, 4.4915335 51.9172921, 4.4913312 51.9173972), (4.4913312 51.9173972, 4.491311 51.9174093, 4.4912187 51.9174714, 4.490903 51.9176912, 4.4907303 51.9178184, 4.490435 51.918036, 4.4899922 51.9183507), (4.4899922 51.9183507, 4.4896732 51.9185789, 4.4895712 51.9186659, 4.4894938 51.9187421, 4.4893093 51.9189289, 4.4891834 51.9190413, 4.4890355 51.9191731, 4.4889486 51.9192506, 4.4888669 51.9193386), (4.4888669 51.9193386, 4.488678 51.919445), (4.488678 51.919445, 4.4884581 51.9193808, 4.4879941 51.9192747), (4.4879941 51.9192747, 4.4866944 51.9190221, 4.4864748 51.9189794), (4.4864748 51.9189794, 4.4861946 51.9189264, 4.4852446 51.9187468, 4.4851758 51.91873, 4.4848354 51.9186457, 4.4846525 51.9186025), (4.4846525 51.9186025, 4.4845296 51.9185523, 4.4844322 51.9185086, 4.4842511 51.9184583, 4.4816672 51.9179764), (4.4816672 51.9179764, 4.4811073 51.9178737, 4.4805597 51.9177731), (4.4805597 51.9177731, 4.4788277 51.9174097, 4.4786821 51.9173868, 4.4785283 51.9173666, 4.4781386 51.9173222), (4.4781386 51.9173222, 4.4778222 51.9172784, 4.4777003 51.9172615, 4.4776515 51.9172554, 4.4774431 51.9172291), (4.4774431 51.9172291, 4.4772707 51.9172003, 4.4772028 51.9171889, 4.4769279 51.9171435, 4.4763091 51.9170308, 4.4760425 51.9169697, 4.4757096 51.9168946, 4.4755515 51.9168517, 4.4752872 51.9167695, 4.4751809 51.9167322, 4.4749053 51.9166654), (4.4749053 51.9166654, 4.4740966 51.9164799, 4.4739971 51.916457, 4.4739217 51.9164433, 4.4737012 51.9163924), (4.4737012 51.9163924, 4.4736223 51.916377, 4.4735875 51.9163664, 4.473388 51.9163191), (4.473388 51.9163191, 4.4732623 51.9162764, 4.4722727 51.9159647, 4.4720535 51.9158886, 4.4717943 51.9157915, 4.4712867 51.9155744, 4.4710081 51.9154461, 4.4708961 51.9153827, 4.4705223 51.9151757), (4.4705223 51.9151757, 4.4698695 51.9147371, 4.4693408 51.91435, 4.4692061 51.9142683), (4.4692061 51.9142683, 4.4691061 51.9142071), (4.4691061 51.9142071, 4.4689737 51.9142372, 4.468819 51.9142575, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4639022 51.9149224, 4.4638106 51.9149371, 4.463789 51.9149405, 4.4636936 51.9149303, 4.463478 51.9149074), (4.463478 51.9149074, 4.4631323 51.9148597), (4.4631323 51.9148597, 4.4629618 51.9148326, 4.4629299 51.9148213, 4.4628355 51.914788), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4562847 51.9139207, 4.4561981 51.9139308, 4.4561877 51.913932, 4.456096 51.9139207, 4.4560046 51.913912), (4.4560046 51.913912, 4.4557282 51.9138779, 4.4556834 51.9138719), (4.4556834 51.9138719, 4.4554282 51.9138377), (4.4554282 51.9138377, 4.455389 51.9138325), (4.455389 51.9138325, 4.4551304 51.9138007, 4.454673 51.9137422, 4.454559 51.9137289), (4.454559 51.9137289, 4.4544153 51.9137094, 4.454393 51.9137003, 4.4543143 51.9136682), (4.4543143 51.9136682, 4.4537135 51.9135949, 4.4534777 51.9135646, 4.4533286 51.9135449, 4.4532165 51.9135322, 4.4531083 51.9135237, 4.4530377 51.9135204, 4.4527943 51.913519, 4.4524335 51.9135268, 4.4521841 51.913542), (4.4521841 51.913542, 4.4521066 51.9135706, 4.452092 51.913576, 4.4520045 51.9135869, 4.4519081 51.9135958, 4.4518987 51.913594, 4.4518332 51.9135818), (4.450493 51.9139013, 4.4508093 51.9138107, 4.4511809 51.9137124, 4.4514195 51.9136601, 4.4516318 51.9136158, 4.4518332 51.9135818), (4.450493 51.9139013, 4.4504482 51.9139399, 4.4504367 51.9139498, 4.450336 51.9139846, 4.4502155 51.9140295, 4.4501926 51.9140324, 4.4500915 51.9140452), (4.4489369 51.9146176, 4.4492275 51.9144577, 4.4494637 51.9143277, 4.4495265 51.9142951, 4.4496816 51.9142218, 4.4499075 51.9141209, 4.4500915 51.9140452), (4.4489369 51.9146176, 4.448895 51.914675, 4.4488709 51.9147003, 4.4488066 51.9147443, 4.4487186 51.9148018, 4.4486686 51.9148211, 4.4485975 51.9148415), (4.4485975 51.9148415, 4.4478192 51.9153754, 4.4476039 51.9155168, 4.4474492 51.9156239, 4.4473802 51.9156743, 4.4471285 51.9158571, 4.4468787 51.9160383), (4.4468787 51.9160383, 4.4468576 51.9160714, 4.4465781 51.9163393, 4.4465477 51.9163698, 4.446497 51.9164236), (4.446497 51.9164236, 4.4463542 51.9165784, 4.4463245 51.9166106, 4.4462444 51.9166974), (4.4462444 51.9166974, 4.4462165 51.9167366, 4.4461594 51.9168158, 4.4461061 51.9168843, 4.4460597 51.916945), (4.4460597 51.916945, 4.4460355 51.9169763, 4.4460136 51.9170034, 4.4458962 51.9171618, 4.4455293 51.91765, 4.4454917 51.9176869, 4.4453946 51.917782), (4.4441977 51.9189023, 4.4446925 51.9185057, 4.4453536 51.9178492, 4.4453946 51.917782), (4.4439798 51.9190765, 4.4440902 51.9189882, 4.4441977 51.9189023), (4.4439798 51.9190765, 4.443136 51.9196997, 4.4430411 51.9197547), (4.4430411 51.9197547, 4.4429721 51.9198231, 4.442959 51.9198432, 4.4429506 51.9198606, 4.4429471 51.9198857, 4.4429488 51.9199225, 4.4429547 51.9199609, 4.4429648 51.9200043, 4.4429731 51.9200528), (4.4429731 51.9200528, 4.4429752 51.9200801, 4.4429771 51.9201201), (4.4429771 51.9201201, 4.4429686 51.9201331, 4.4429553 51.9201488, 4.4429282 51.9201672, 4.4428946 51.92018, 4.4428623 51.920191), (4.4428623 51.920191, 4.4426886 51.9202016, 4.4426399 51.9202081, 4.4426046 51.9202156, 4.4425676 51.9202244, 4.4425211 51.9202377, 4.4424861 51.9202477, 4.442453 51.9202613, 4.4422817 51.9203483, 4.4421917 51.9204029, 4.4420499 51.9204975, 4.4416836 51.9207179), (4.4416836 51.9207179, 4.4415875 51.9207787), (4.4415875 51.9207787, 4.4412874 51.9209901, 4.4410692 51.9211326, 4.4407619 51.9213242, 4.4406117 51.921406, 4.4403588 51.9215402, 4.4401957 51.9216129, 4.4400262 51.9216927, 4.4399192 51.921739, 4.4398202 51.9217754, 4.4397317 51.9218025, 4.4396637 51.9218207, 4.4395329 51.9218508, 4.4394269 51.9218721, 4.4393519 51.9218825, 4.4392469 51.9218911, 4.4391483 51.9218917, 4.4389669 51.9218838, 4.4386418 51.9218614, 4.4385565 51.9218553), (4.4385565 51.9218553, 4.4383572 51.9218601, 4.4383248 51.9218643, 4.4382576 51.9218755, 4.4382097 51.9218875, 4.4381474 51.921909, 4.4380765 51.9219467, 4.4380285 51.9219763, 4.4378879 51.9220827, 4.4376191 51.9223028, 4.4375843 51.922347, 4.4375619 51.922389, 4.4374554 51.9226568, 4.4374204 51.9227244, 4.437325 51.9228316, 4.4372181 51.9229194, 4.4371551 51.9229655, 4.4371273 51.9229875, 4.4364158 51.9235449, 4.4363412 51.9236371, 4.4362966 51.9237707, 4.4363061 51.923891, 4.4363297 51.9239747, 4.43643 51.9241462, 4.4366062 51.9243881, 4.4370052 51.9249066, 4.4373346 51.9253118, 4.4373854 51.9253782, 4.4381535 51.9263698, 4.4384754 51.9267734, 4.4388643 51.9272779, 4.4390413 51.9274913, 4.4392673 51.9276478, 4.4393724 51.9277154), (4.4393724 51.9277154, 4.4394356 51.9277091, 4.4394984 51.9277168, 4.439553 51.9277374, 4.4395878 51.9277632, 4.4396086 51.9277942, 4.4396138 51.9278229, 4.4396069 51.9278515, 4.4395884 51.9278781), (4.4395884 51.9278781, 4.4396541 51.9280001, 4.4398232 51.9282008, 4.4399377 51.9283391, 4.439968 51.9284117, 4.4401523 51.9286559, 4.4402841 51.9287904, 4.4404219 51.9288982, 4.4406102 51.9289931, 4.4408882 51.9291132, 4.4409827 51.9291568), (4.4409827 51.9291568, 4.4411014 51.9292352, 4.4411969 51.9293173, 4.4412717 51.9294203, 4.4414144 51.9296071, 4.4414512 51.9296553, 4.4414741 51.9296889, 4.4415222 51.9297594), (4.4415222 51.9297594, 4.4418081 51.9301475, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4389533 51.932181, 4.4389614 51.9322199, 4.4389896 51.9322502, 4.4391515 51.9324245, 4.4394284 51.9326362, 4.4395246 51.9327358, 4.4396188 51.9328719, 4.439672 51.9330095, 4.4396935 51.9331181, 4.4396641 51.933326), (4.4396641 51.933326, 4.4396547 51.9333717, 4.4392589 51.9340308, 4.4391867 51.9341414, 4.4390217 51.9344226, 4.4389159 51.9345872, 4.4385061 51.9351545, 4.4383808 51.9352959, 4.4383054 51.9353866), (4.4383054 51.9353866, 4.4382146 51.9354809, 4.4381417 51.9355565), (4.4381417 51.9355565, 4.4371358 51.9365536, 4.4370247 51.9366328, 4.4369779 51.9366625, 4.4368756 51.9367256), (4.4368756 51.9367256, 4.4368856 51.9367504, 4.4368848 51.936776, 4.4368731 51.9368006, 4.4368441 51.9368276, 4.4368022 51.9368471, 4.4367523 51.9368572, 4.4366998 51.9368565, 4.4366506 51.9368451), (4.4366506 51.9368451, 4.4366055 51.936821, 4.4365783 51.9367882, 4.4365722 51.9367579, 4.4365817 51.936728), (4.4365817 51.936728, 4.4364982 51.9366448, 4.4364649 51.9366251, 4.4363799 51.9365609), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.432806 51.935817, 4.4335304 51.9360056), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4274731 51.9366312, 4.4275292 51.9366566, 4.4275622 51.9366945, 4.4275658 51.9367374, 4.4275487 51.9367677, 4.4275167 51.9367929, 4.4274557 51.9368145, 4.4273856 51.9368177), (4.4273856 51.9368177, 4.4273451 51.9368104, 4.4273091 51.9367969, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272122 51.9366727, 4.4271832 51.9366581, 4.4270453 51.9365989, 4.4269614 51.9365655), (4.4269614 51.9365655, 4.4264394 51.9363528, 4.4254953 51.9359689, 4.4250154 51.9357625, 4.4247514 51.9356523, 4.4245832 51.935575, 4.4243496 51.9354693), (4.4244044 51.935403, 4.4243496 51.9354693), (4.4254798 51.9346127, 4.4244896 51.9353191, 4.4244598 51.9353478, 4.4244044 51.935403))</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>384659</t>
+          <t>384338</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Schiedam, Harreweg</t>
+          <t>Rotterdam, Station Zuid/Steenplaat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bus 53: Schiedam Centrum =&gt; Schiedam Woudhoek</t>
+          <t>Bus 32: Rotterdam Overschie =&gt; Rotterdam Station Zuid</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1915,14 +1915,14 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4034095 51.9230619, 4.4034329 51.9231299, 4.4034421 51.9231568, 4.4035621 51.923414, 4.40361 51.9235167, 4.4037392 51.9237863, 4.4038196 51.9239707, 4.4039754 51.924297), (4.4039754 51.924297, 4.4041173 51.9245035, 4.4042765 51.9247126), (4.4042765 51.9247126, 4.4043553 51.9248533, 4.4044098 51.9249754), (4.4044098 51.9249754, 4.4044545 51.9250865), (4.4044545 51.9250865, 4.4044892 51.9252018, 4.4045342 51.9253958, 4.4046141 51.925908, 4.4046411 51.9261386, 4.4046438 51.9263216), (4.4046438 51.9263216, 4.404607 51.9265348, 4.404559 51.9267542, 4.404485 51.9269993, 4.4043979 51.927224, 4.4043617 51.9273138), (4.4043617 51.9273138, 4.404318 51.9274009), (4.404318 51.9274009, 4.4042699 51.9275127, 4.4037827 51.928231), (4.4037827 51.928231, 4.4035902 51.928571, 4.4031893 51.9292777), (4.4031893 51.9292777, 4.4031063 51.9294546), (4.4031063 51.9294546, 4.4027542 51.9301142, 4.4026054 51.9303885), (4.4026054 51.9303885, 4.4025111 51.9305587), (4.4025111 51.9305587, 4.4016932 51.9320345, 4.4015651 51.9322866), (4.4015651 51.9322866, 4.4014716 51.9324944), (4.4014716 51.9324944, 4.4014122 51.9326051, 4.4009444 51.9334059), (4.4009444 51.9334059, 4.4007257 51.9338057, 4.4006449 51.9339557), (4.4006449 51.9339557, 4.4005079 51.9342101, 4.4001379 51.9349043, 4.4001177 51.9349346, 4.4001098 51.9349464, 4.4000833 51.9349766, 4.4000526 51.9350016, 4.4000036 51.9350195, 4.3999522 51.9350303, 4.3998849 51.9350339, 4.399821 51.9350282, 4.3997513 51.9350165, 4.3994653 51.9349586, 4.3990577 51.9348721, 4.3989826 51.9348635, 4.3989204 51.9348707, 4.3988723 51.9348873, 4.3988359 51.9349119, 4.3988233 51.934926, 4.3987995 51.9349525, 4.3987596 51.935014, 4.3987003 51.9351567, 4.3986802 51.9352056, 4.3984073 51.9357493, 4.3980101 51.9364761, 4.3979161 51.9366592, 4.3976544 51.9371372, 4.3973921 51.9376201, 4.3973326 51.9376715, 4.397245 51.9377142, 4.3971955 51.9377314, 4.397107 51.9377541, 4.3969937 51.9377693, 4.3951113 51.9378979), (4.3951113 51.9378979, 4.3937189 51.9380016), (4.3937189 51.9380016, 4.3929275 51.9380605), (4.3929275 51.9380605, 4.3916055 51.9381589), (4.3916055 51.9381589, 4.390185 51.9382721, 4.3899027 51.9382951, 4.3896868 51.9383219, 4.3894884 51.9383539, 4.3893072 51.9383925, 4.3889252 51.9384821), (4.3889252 51.9384821, 4.388608 51.9385574), (4.388608 51.9385574, 4.3872935 51.9388761, 4.3866199 51.9390489, 4.3862636 51.9391509, 4.3861362 51.9391963, 4.3860612 51.939223, 4.3859229 51.9393109), (4.3859229 51.9393109, 4.3859309 51.9393526, 4.3859149 51.9393934, 4.3858769 51.9394283, 4.3858217 51.9394529, 4.3857561 51.9394641, 4.3856883 51.9394606, 4.3856266 51.9394428), (4.3856266 51.9394428, 4.3854951 51.9394935, 4.3854043 51.9395572, 4.3853029 51.939641, 4.3848782 51.9400583, 4.3846265 51.9403064, 4.3844512 51.9404876, 4.3840152 51.940902), (4.3840152 51.940902, 4.3829366 51.941969, 4.3824224 51.9424763, 4.3818622 51.943038, 4.3815987 51.9432998, 4.3813675 51.9435218, 4.3810119 51.9438696, 4.3807693 51.9440039, 4.3804122 51.9441441, 4.3801021 51.9442209, 4.3800415 51.9442359, 4.3796491 51.9442785, 4.3780692 51.9443452, 4.377839 51.9443365, 4.3776485 51.9443464, 4.3775693 51.9443545, 4.3774646 51.9443737, 4.3771033 51.944393, 4.3757634 51.9444447, 4.3754427 51.9444556, 4.3744551 51.9444945), (4.3744551 51.9444945, 4.3744335 51.9444335), (4.3744335 51.9444335, 4.374435 51.9443759, 4.3744635 51.9443396, 4.3744864 51.9443178, 4.3745213 51.9443004, 4.3745729 51.9442905, 4.3749283 51.9442744))</t>
+          <t>MULTILINESTRING ((4.4257583 51.934414, 4.4254798 51.9346127), (4.4257583 51.934414, 4.4267886 51.9348098), (4.4267886 51.9348098, 4.4273664 51.9350451, 4.4276105 51.9350731, 4.4279605 51.9351132, 4.4280066 51.9351185, 4.4281072 51.9351304), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.432806 51.935817, 4.4335304 51.9360056), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4363799 51.9365609, 4.4365007 51.9365817, 4.4365201 51.93659, 4.4365598 51.9366094, 4.4366571 51.9366752), (4.4366571 51.9366752, 4.4367048 51.9366655, 4.4367551 51.9366656, 4.4368027 51.9366755), (4.4368027 51.9366755, 4.4369048 51.936615, 4.4369482 51.9365771, 4.4370105 51.9365338, 4.4370708 51.9364852, 4.438046 51.9355251), (4.438046 51.9355251, 4.4381221 51.9354479, 4.4382133 51.9353555), (4.4382133 51.9353555, 4.4382864 51.9352625, 4.4384223 51.9351197, 4.4388365 51.9345667, 4.4391044 51.9341261, 4.4391723 51.934013, 4.4393924 51.9336307, 4.4395438 51.933357, 4.4395594 51.9333155, 4.4395866 51.9331075, 4.4395526 51.9329658, 4.4394792 51.932825, 4.4393683 51.9326937, 4.439051 51.932455, 4.4388959 51.9322883, 4.4388663 51.9322565, 4.4388058 51.9322256, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4374625 51.9312203, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411354 51.9298369, 4.4412392 51.9297781, 4.4412694 51.9297517, 4.4412966 51.9296959), (4.4412966 51.9296959, 4.4412598 51.9296588, 4.4411057 51.9295033, 4.4407703 51.9292578), (4.4407703 51.9292578, 4.4405638 51.9291277, 4.4403209 51.9289555, 4.4401524 51.9288076, 4.4400234 51.928655, 4.4394512 51.9279322), (4.4394512 51.9279322, 4.4394004 51.927931, 4.4393522 51.9279212, 4.4393103 51.9279035, 4.4392779 51.9278794, 4.4392625 51.9278599, 4.4392535 51.9278389, 4.4392521 51.9278092, 4.4392635 51.9277803, 4.4392869 51.9277543), (4.4392869 51.9277543, 4.439188 51.9276786, 4.4389609 51.927521, 4.4387785 51.927306, 4.4384003 51.9268115, 4.4380758 51.9263913, 4.4372904 51.9253968, 4.4372435 51.9253382, 4.436498 51.9244063, 4.4363277 51.9241766, 4.4362021 51.9239674, 4.4361703 51.9238937, 4.4361438 51.9238271, 4.4361373 51.9237644, 4.436194 51.9236333, 4.4363 51.9235, 4.4370252 51.9229373, 4.4370507 51.9229163, 4.437123 51.9228632, 4.4372285 51.922774, 4.4372831 51.922701, 4.4373631 51.9224811, 4.4374217 51.9223528, 4.4377592 51.9220618, 4.4383067 51.9216196, 4.4386375 51.9213456, 4.4389623 51.9210923, 4.4389952 51.9210777, 4.4391186 51.9210362, 4.4398004 51.9208241), (4.4398004 51.9208241, 4.4400129 51.9207734, 4.4402063 51.9207151, 4.4402865 51.9206953, 4.4403276 51.9206904, 4.4403687 51.9206927, 4.440401 51.9206984, 4.4404324 51.9207122, 4.440462 51.9207296, 4.4405835 51.9208134, 4.440615 51.9208297, 4.4406819 51.920845, 4.440731 51.9208498, 4.4407705 51.9208509, 4.44081 51.9208519), (4.44081 51.9208519, 4.4413574 51.9204832, 4.4415509 51.9203989, 4.4416446 51.9203581, 4.4417042 51.9203337, 4.441716 51.9203289, 4.4418188 51.920292), (4.4418188 51.920292, 4.4419417 51.9202534, 4.4420143 51.9202345, 4.4421058 51.9202166), (4.4421058 51.9202166, 4.442191 51.920178, 4.4422475 51.9201565, 4.4423091 51.9201376, 4.4424367 51.9201013, 4.4425207 51.9200631, 4.4427205 51.9199218), (4.4427205 51.9199218, 4.4429061 51.9198129, 4.4429343 51.9197992, 4.4430411 51.9197547), (4.4439798 51.9190765, 4.443136 51.9196997, 4.4430411 51.9197547), (4.4439798 51.9190765, 4.4440902 51.9189882, 4.4441977 51.9189023), (4.4441977 51.9189023, 4.4446925 51.9185057, 4.4453536 51.9178492, 4.4453946 51.917782), (4.4460597 51.916945, 4.4460355 51.9169763, 4.4460136 51.9170034, 4.4458962 51.9171618, 4.4455293 51.91765, 4.4454917 51.9176869, 4.4453946 51.917782), (4.4460597 51.916945, 4.4460612 51.9168391, 4.4460613 51.9167704, 4.4460628 51.9167322, 4.4460664 51.9166637), (4.4460664 51.9166637, 4.4460663 51.9166549, 4.4460659 51.9166216, 4.4460658 51.9166127, 4.4460654 51.91658, 4.446065 51.9165038), (4.446065 51.9165038, 4.4462775 51.9163897), (4.4462775 51.9163897, 4.4463891 51.91631, 4.4464296 51.916279, 4.446499 51.916226, 4.4468347 51.9160513, 4.4468787 51.9160383), (4.4485975 51.9148415, 4.4478192 51.9153754, 4.4476039 51.9155168, 4.4474492 51.9156239, 4.4473802 51.9156743, 4.4471285 51.9158571, 4.4468787 51.9160383), (4.4485975 51.9148415, 4.4486126 51.9148022, 4.4486182 51.9147877, 4.4486563 51.9147635, 4.4487434 51.9147046, 4.4488035 51.9146666, 4.448844 51.9146462, 4.4489369 51.9146176), (4.4489369 51.9146176, 4.4492275 51.9144577, 4.4494637 51.9143277, 4.4495265 51.9142951, 4.4496816 51.9142218, 4.4499075 51.9141209, 4.4500915 51.9140452), (4.4500915 51.9140452, 4.4501454 51.9140022, 4.4501542 51.9139952, 4.4502883 51.9139443, 4.4503923 51.9139096, 4.4504034 51.9139087, 4.450493 51.9139013), (4.450493 51.9139013, 4.4508093 51.9138107, 4.4511809 51.9137124, 4.4514195 51.9136601, 4.4516318 51.9136158, 4.4518332 51.9135818), (4.4518332 51.9135818, 4.4518685 51.9135629, 4.4518839 51.9135538, 4.4518907 51.9135498, 4.4519882 51.9135348, 4.4520902 51.9135265, 4.4521011 51.9135283, 4.4521841 51.913542), (4.4543143 51.9136682, 4.4537135 51.9135949, 4.4534777 51.9135646, 4.4533286 51.9135449, 4.4532165 51.9135322, 4.4531083 51.9135237, 4.4530377 51.9135204, 4.4527943 51.913519, 4.4524335 51.9135268, 4.4521841 51.913542), (4.4543143 51.9136682, 4.4543837 51.9136609, 4.4544748 51.9136587, 4.4545729 51.9136704), (4.4545729 51.9136704, 4.4546908 51.9136855, 4.4548282 51.913704, 4.4551497 51.9137474, 4.4551614 51.9137496, 4.4554094 51.9137824), (4.4554094 51.9137824, 4.4554486 51.9137876), (4.4554486 51.9137876, 4.4557022 51.9138211), (4.4557022 51.9138211, 4.4559927 51.9138554), (4.4559927 51.9138554, 4.4562085 51.9138859, 4.4562213 51.9138918, 4.4562847 51.9139207), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4628355 51.914788, 4.4629226 51.9147814, 4.4629757 51.9147774, 4.4631538 51.9148017, 4.4635049 51.9148482), (4.4635049 51.9148482, 4.4637501 51.9148806, 4.4637813 51.9148845, 4.4638303 51.9148984, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4682043 51.9143475, 4.4683202 51.9142988, 4.4687414 51.9142051, 4.4687758 51.9141975, 4.4688677 51.9141734, 4.4690053 51.9141298), (4.4690053 51.9141298, 4.4691876 51.9140815), (4.4691876 51.9140815, 4.4692884 51.9141504), (4.4692884 51.9141504, 4.4693804 51.9142214, 4.4698485 51.914547, 4.4700117 51.9146594, 4.4705638 51.9150193, 4.471047 51.9153211, 4.4710914 51.9153464, 4.4711478 51.9153759, 4.4712798 51.9154353, 4.4715535 51.9155554, 4.4717416 51.9156344, 4.4718873 51.9156934, 4.4720331 51.9157473, 4.4721166 51.9157749, 4.4725135 51.9159065), (4.4725135 51.9159065, 4.4729604 51.9160219, 4.4732595 51.9160992, 4.4734164 51.9161398), (4.4734164 51.9161398, 4.473553 51.916163), (4.473553 51.916163, 4.4737619 51.9162052, 4.4737993 51.9162124), (4.4737993 51.9162124, 4.4739021 51.9162238), (4.4739021 51.9162238, 4.4740925 51.9162616, 4.4741702 51.9162765, 4.4753691 51.9165059, 4.4754344 51.9165201, 4.4759359 51.9166249, 4.4768861 51.9168147, 4.4771474 51.9168749, 4.4773882 51.9169373, 4.4774327 51.9169488, 4.4775 51.9169676, 4.4776669 51.9170141, 4.4778265 51.9170567, 4.4778732 51.9170692, 4.4782979 51.9171829, 4.4786533 51.917287, 4.4789487 51.9173622, 4.4794832 51.917462, 4.4805985 51.9176931), (4.4805985 51.9176931, 4.4817063 51.9179051), (4.4817063 51.9179051, 4.4840324 51.9183377, 4.4841727 51.9183639, 4.4842897 51.9183859, 4.4843694 51.9184026, 4.4845223 51.9184269), (4.4845223 51.9184269, 4.4847187 51.9184577, 4.4857789 51.9186548), (4.4857789 51.9186548, 4.4863169 51.9187548), (4.4863169 51.9187548, 4.4864363 51.91878, 4.4865692 51.9188081), (4.4865692 51.9188081, 4.4872886 51.9189504), (4.4872886 51.9189504, 4.4875503 51.9190104), (4.4875503 51.9190104, 4.4883413 51.9191917, 4.488553 51.9192402, 4.4887175 51.9192931), (4.4887175 51.9192931, 4.4888365 51.9191999, 4.4891648 51.9189112, 4.4895091 51.918601, 4.4895953 51.9185302, 4.4899026 51.9183026), (4.4899026 51.9183026, 4.4900786 51.9181791, 4.4903343 51.9179936, 4.4907311 51.9177016, 4.4909144 51.9175788, 4.4912506 51.9173535), (4.4912506 51.9173535, 4.491361 51.9172777, 4.4914461 51.9172195, 4.4914766 51.9172037, 4.4914998 51.9171929, 4.4915342 51.9171783, 4.4915471 51.9171744), (4.4915471 51.9171744, 4.4915788 51.9171687, 4.4916081 51.9171668, 4.4916448 51.9171669, 4.4916673 51.9171693, 4.4916925 51.9171734), (4.4916925 51.9171734, 4.4925887 51.9177684, 4.492732 51.9178937), (4.493162 51.9180745, 4.4929308 51.9179824, 4.492732 51.9178937), (4.4943902 51.9182714, 4.4942972 51.9183037, 4.4941753 51.9183331, 4.4941056 51.9183409, 4.4940197 51.9183416, 4.4939007 51.9183301, 4.4937395 51.9182876, 4.4935517 51.9182189, 4.493162 51.9180745), (4.4946165 51.9181048, 4.4944985 51.9181958, 4.4943902 51.9182714), (4.4975941 51.9156292, 4.4948606 51.9179005, 4.4946165 51.9181048), (4.4979665 51.9153494, 4.4977346 51.9155223, 4.4975941 51.9156292), (4.4979665 51.9153494, 4.4980336 51.9152537, 4.4981101 51.9151815), (4.4981101 51.9151815, 4.4984475 51.9149173), (4.4984475 51.9149173, 4.4985822 51.9148315, 4.4987033 51.9147162), (4.4987033 51.9147162, 4.4987215 51.914682, 4.4987299 51.9146615, 4.4987342 51.9146467, 4.4987424 51.9146131, 4.4987433 51.9145767, 4.4987334 51.9145403, 4.4987194 51.9145027, 4.4987054 51.9144707, 4.4986871 51.9144419), (4.4986871 51.9144419, 4.4986649 51.9144169, 4.4986453 51.9143971, 4.4985877 51.9143677, 4.4984414 51.9143149), (4.4984414 51.9143149, 4.498055 51.9140583, 4.4979504 51.9139985, 4.4977613 51.9138903, 4.4972593 51.9136076, 4.4971106 51.9135228, 4.497028 51.9134789), (4.497028 51.9134789, 4.496939 51.9134143), (4.496939 51.9134143, 4.4970063 51.9133518), (4.4970063 51.9133518, 4.4971532 51.9132478, 4.497277 51.9131679), (4.497277 51.9131679, 4.497344 51.9131479, 4.4974771 51.913108), (4.4975154 51.9130826, 4.4974771 51.913108), (4.4976644 51.9129838, 4.4975154 51.9130826), (4.4977909 51.9128999, 4.4976644 51.9129838), (4.4977909 51.9128999, 4.498187 51.9126406), (4.498187 51.9126406, 4.498337 51.9125424), (4.498337 51.9125424, 4.4985176 51.9124241), (4.4985176 51.9124241, 4.4985554 51.9123546, 4.4985968 51.9123078, 4.498617 51.912291, 4.4987726 51.9121842), (4.4987726 51.9121842, 4.498928 51.912157), (4.498928 51.912157, 4.499072 51.9122232, 4.4997546 51.9126276), (4.4997546 51.9126276, 4.5000017 51.912767, 4.5004 51.913, 4.5004937 51.9130341, 4.5005666 51.9130444), (4.5005666 51.9130444, 4.5006413 51.9130339, 4.5007281 51.9129928, 4.5013368 51.9125632), (4.5013368 51.9125632, 4.501443 51.9124942, 4.5018491 51.912219), (4.5018491 51.912219, 4.5022079 51.9119608), (4.5022079 51.9119608, 4.502328 51.9120211), (4.502328 51.9120211, 4.5024459 51.912082), (4.5024459 51.912082, 4.5026421 51.9121916, 4.5031303 51.9124595, 4.5033557 51.9125832, 4.5041949 51.9130446), (4.5041949 51.9130446, 4.5043165 51.9131095, 4.5046995 51.9133214, 4.5056805 51.9138532), (4.5077828 51.9090881, 4.5076662 51.9091964, 4.507429 51.9094168, 4.5074069 51.9094425, 4.507239 51.9096797, 4.5069774 51.9100488, 4.5068822 51.9101711, 4.5068688 51.9101892, 4.5065413 51.9106737, 4.5062007 51.9111569, 4.5057686 51.911732, 4.5057396 51.9117911, 4.5057267 51.9118313, 4.5057059 51.9122002, 4.5057132 51.9127331, 4.505709 51.9128986, 4.5057073 51.913283, 4.5056954 51.9137369, 4.5056805 51.9138532), (4.5097464 51.9073087, 4.5097185 51.907336, 4.5089302 51.9080695, 4.5088245 51.9081626, 4.5083727 51.9085739, 4.508 51.9089, 4.5077828 51.9090881), (4.5111377 51.9058905, 4.5106811 51.9063824, 4.5102903 51.9067762, 4.5102581 51.9068092, 4.5097464 51.9073087), (4.511948 51.905048, 4.5117728 51.9052407, 4.5111377 51.9058905), (4.5108733 51.9046914, 4.5110391 51.9047463, 4.511948 51.905048), (4.5108733 51.9046914, 4.5114899 51.9040292, 4.5118216 51.9036626), (4.5118216 51.9036626, 4.5120258 51.9034308, 4.5120632 51.9033877), (4.5120632 51.9033877, 4.5122007 51.9034046), (4.5122007 51.9034046, 4.5122978 51.9034308, 4.5125171 51.903492, 4.5126255 51.903532))</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>384660</t>
+          <t>384206</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1932,17 +1932,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Schiedam, Station Schiedam Centrum</t>
+          <t>Rotterdam, Meijersplein Metro</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bus 53: Schiedam Woudhoek =&gt; Schiedam Centrum</t>
+          <t>Bus 33: Rotterdam Centraal =&gt; Rotterdam Meijersplein</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1953,14 +1953,14 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3749283 51.9442744, 4.3752596 51.9442599, 4.3753789 51.9442566, 4.3754274 51.9442613, 4.3754856 51.9442826, 4.3755257 51.9442995, 4.3755446 51.9443075, 4.3756103 51.9443542, 4.3756289 51.9443811), (4.3756289 51.9443811, 4.3757505 51.9443781, 4.3762101 51.9443597, 4.3766958 51.9443417, 4.3770978 51.9443257, 4.3776004 51.9443, 4.3796425 51.9441957, 4.3800136 51.9441636, 4.3800692 51.9441505, 4.3803435 51.9440859, 4.3806949 51.9439602, 4.3809363 51.9438296, 4.3817739 51.9430168), (4.3817739 51.9430168, 4.3820298 51.9427648, 4.3823377 51.9424403, 4.3828451 51.9419372, 4.3839298 51.9408737, 4.3843581 51.9404514, 4.3847841 51.9400202, 4.38505 51.9397638, 4.3853507 51.9395049, 4.3854365 51.9394487, 4.3854754 51.9394227, 4.3855515 51.9393763), (4.3855515 51.9393763, 4.385545 51.9393415, 4.3855553 51.939307, 4.3855815 51.9392758), (4.3855815 51.9392758, 4.3856288 51.9392473, 4.385689 51.9392304), (4.385689 51.9392304, 4.3857699 51.9392281, 4.3858452 51.9392465), (4.3858452 51.9392465, 4.3859932 51.9391745, 4.386082 51.9391432, 4.3862091 51.9390984, 4.3865838 51.9389959, 4.3872524 51.9388192, 4.3885574 51.9385019), (4.3885574 51.9385019, 4.3888881 51.9384186), (4.3888881 51.9384186, 4.3891315 51.9383614, 4.389209 51.9383434, 4.3893412 51.9383126, 4.3895382 51.9382765, 4.389746 51.9382435, 4.3900191 51.9382184, 4.3907426 51.9381676, 4.3915958 51.9381076), (4.3915958 51.9381076, 4.3930189 51.9380035), (4.3930189 51.9380035, 4.3935657 51.9379635), (4.3935657 51.9379635, 4.3950973 51.9378515), (4.3950973 51.9378515, 4.3969093 51.9377141, 4.3970293 51.9376929, 4.3971237 51.9376663, 4.3971724 51.9376452, 4.3972361 51.9376026, 4.397258 51.937561, 4.3975846 51.9369255, 4.3977642 51.9366263, 4.3982564 51.9357182, 4.3985663 51.9351733, 4.3987171 51.9349022, 4.3987325 51.9348745, 4.398779 51.9348311, 4.3988475 51.9347946, 4.398939 51.9347843, 4.3990517 51.9348067, 4.3994985 51.9348975, 4.3997795 51.9349546, 4.3998459 51.9349602, 4.399904 51.9349566, 4.3999463 51.9349459, 4.3999903 51.9349223, 4.3999988 51.9349127, 4.4000275 51.9348804, 4.4000957 51.9347502, 4.4004339 51.934158, 4.4005557 51.9339306), (4.4005557 51.9339306, 4.4006418 51.9337198, 4.4009425 51.9331431), (4.4009425 51.9331431, 4.4010557 51.9329302), (4.4010557 51.9329302, 4.4013632 51.9324264, 4.4014594 51.9322548), (4.4014594 51.9322548, 4.4015611 51.9320571), (4.4015611 51.9320571, 4.4016354 51.93192, 4.4023514 51.9305564, 4.4024475 51.9303597), (4.4024475 51.9303597, 4.4025705 51.9301548), (4.4025705 51.9301548, 4.4026387 51.9299654, 4.4034438 51.9285479, 4.4035326 51.928318, 4.4035961 51.928165, 4.4036907 51.9279548), (4.4036907 51.9279548, 4.4037663 51.9278149), (4.4037663 51.9278149, 4.4039277 51.9275142, 4.4039633 51.927453, 4.4040248 51.9273439), (4.4040248 51.9273439, 4.4040678 51.9272501), (4.4040678 51.9272501, 4.4041813 51.9269919), (4.4041813 51.9269919, 4.4042254 51.9268717, 4.4042588 51.9267529, 4.4043054 51.9265365, 4.4043315 51.926326, 4.4043301 51.9262277, 4.4043203 51.9260575), (4.4043203 51.9260575, 4.4042872 51.9258274, 4.4042147 51.9254103), (4.4042147 51.9254103, 4.4041985 51.9253188, 4.404159 51.9251672), (4.404159 51.9251672, 4.4041238 51.9250406), (4.4041238 51.9250406, 4.4040522 51.9248704), (4.4040522 51.9248704, 4.4040209 51.9247908, 4.4038952 51.9245117), (4.4038952 51.9245117, 4.4038552 51.9243633, 4.4036044 51.923821), (4.4036044 51.923821, 4.4034974 51.923629, 4.4034549 51.9235441, 4.4033267 51.9232756, 4.4032909 51.923196, 4.403279 51.9231695, 4.4032473 51.9230989, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
+          <t>MULTILINESTRING ((4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629196 51.9227524, 4.4628444 51.9230812, 4.4627567 51.9234229), (4.4627567 51.9234229, 4.4624587 51.9244078), (4.4624587 51.9244078, 4.4622986 51.9249119, 4.4622376 51.9250492), (4.4622376 51.9250492, 4.4621471 51.9252022), (4.4621471 51.9252022, 4.4621564 51.9253122, 4.4621457 51.9254007, 4.4619016 51.9259951, 4.4618304 51.9261938, 4.4616541 51.9262605), (4.4616541 51.9262605, 4.4616271 51.9263227, 4.461618 51.9263436, 4.4616158 51.9263487, 4.4615816 51.9264275), (4.4615816 51.9264275, 4.461545 51.9265267, 4.4614678 51.9267011, 4.4613642 51.926932, 4.4613259 51.9270051, 4.4611842 51.9271995, 4.4610976 51.9273193, 4.4606 51.9279, 4.4603276 51.9282095, 4.4595505 51.9290925), (4.4595505 51.9290925, 4.4595204 51.929123), (4.4595204 51.929123, 4.4592663 51.9294183), (4.4592663 51.9294183, 4.4591427 51.9295921), (4.4591427 51.9295921, 4.4587954 51.9300065, 4.4587404 51.9300685, 4.4586713 51.9301504, 4.4586291 51.9302118), (4.4586291 51.9302118, 4.4585235 51.9302682, 4.4585015 51.9302754), (4.4585015 51.9302754, 4.4584708 51.9302801, 4.4583513 51.9303148), (4.4583513 51.9303148, 4.4582226 51.9302663, 4.4581939 51.9302528, 4.456681 51.929762, 4.4563069 51.9296456, 4.4562367 51.9296249), (4.4562367 51.9296249, 4.4552759 51.9293284, 4.4552156 51.9293098, 4.4551554 51.9292912, 4.4548689 51.9292044), (4.4548689 51.9292044, 4.4545624 51.9291219, 4.4543953 51.9290759, 4.4539883 51.928991, 4.4535955 51.9289192, 4.4533467 51.928883, 4.4531352 51.9288576, 4.4528569 51.9288338), (4.4528569 51.9288338, 4.4526247 51.9288197, 4.4524888 51.928815, 4.452291 51.9288114, 4.4519195 51.9288264, 4.4515117 51.9288628, 4.4509268 51.9289242, 4.4485549 51.9291987), (4.4485549 51.9291987, 4.4483394 51.9292831), (4.4483394 51.9292831, 4.4480514 51.9293576, 4.4477665 51.9294258), (4.4477665 51.9294258, 4.4474471 51.929502), (4.4474471 51.929502, 4.4469608 51.9296229), (4.4469608 51.9296229, 4.4467294 51.9296751, 4.4465081 51.9297077, 4.4462281 51.9297421, 4.445903 51.929772), (4.445903 51.929772, 4.4456879 51.929799, 4.4451475 51.9298373, 4.4449558 51.9298384), (4.4449558 51.9298384, 4.4443548 51.9298812), (4.4443548 51.9298812, 4.4442318 51.9299072, 4.4440847 51.9299186, 4.4435597 51.9299462), (4.4435597 51.9299462, 4.4429796 51.9300203), (4.4429796 51.9300203, 4.4426818 51.930074, 4.4426004 51.9300887), (4.4426004 51.9300887, 4.4421727 51.930166, 4.4420941 51.9301802, 4.4420155 51.9301943, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4373188 51.9313247, 4.4372607 51.9312902, 4.4367886 51.9312194, 4.4360861 51.9311198, 4.4355991 51.9310552, 4.4353083 51.9310143, 4.4351117 51.9309816, 4.4349393 51.9309427, 4.4348532 51.9309166, 4.4347929 51.9308944, 4.4347634 51.9308851, 4.4347349 51.930877, 4.4346532 51.9308599), (4.4346532 51.9308599, 4.4346028 51.9308709, 4.4345496 51.9308735, 4.434497 51.9308675, 4.4344488 51.9308533), (4.4344488 51.9308533, 4.4343725 51.9308738, 4.4343209 51.9308904, 4.4342611 51.9309145, 4.4342013 51.9309386, 4.433997 51.9310155, 4.4338605 51.93107, 4.4337117 51.9311353, 4.4334287 51.9312817, 4.4333277 51.9313334, 4.4331954 51.9313974, 4.4330711 51.9314425), (4.4330711 51.9314425, 4.432337 51.9318543, 4.432242 51.9319085), (4.432242 51.9319085, 4.432135 51.9319679, 4.4317837 51.9321628, 4.4314893 51.9323241, 4.4313921 51.9323759, 4.431275 51.9324277, 4.4310585 51.9325147, 4.430748 51.9326194, 4.4305829 51.932679, 4.4294235 51.9330973, 4.4290224 51.9332532, 4.4288567 51.9333275, 4.4287739 51.9333936, 4.4287545 51.9334365, 4.4287209 51.9335246, 4.4286269 51.9337708, 4.4285694 51.9339213, 4.4285341 51.9340136), (4.4285341 51.9340136, 4.4285033 51.9341141, 4.4284473 51.9342692, 4.4281597 51.9350008, 4.4281072 51.9351304), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4274731 51.9366312, 4.4275292 51.9366566, 4.4275622 51.9366945, 4.4275658 51.9367374, 4.4275487 51.9367677, 4.4275167 51.9367929, 4.4274557 51.9368145, 4.4273856 51.9368177), (4.4273856 51.9368177, 4.4273457 51.9368399), (4.4273457 51.9368399, 4.4273035 51.9368695, 4.427117 51.937028, 4.4270683 51.9370452), (4.4270683 51.9370452, 4.426373 51.9376912), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.4237385 51.9401662, 4.4237184 51.940237, 4.4236893 51.9402742, 4.4236515 51.9403036, 4.4236093 51.9403285), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236089 51.9403468, 4.4236464 51.9403938, 4.4236976 51.9404188, 4.4237287 51.9404329), (4.4237287 51.9404329, 4.4240357 51.9405534, 4.4244828 51.9407398, 4.4250175 51.9409499, 4.4258131 51.941257, 4.4259391 51.9413077), (4.4259391 51.9413077, 4.4260777 51.94136, 4.4261838 51.9414016, 4.426335 51.9414608), (4.426335 51.9414608, 4.426473 51.9414868, 4.426852 51.9416533, 4.4268939 51.9416963), (4.4268939 51.9416963, 4.4268089 51.9417716, 4.4265746 51.9419792), (4.4265746 51.9419792, 4.426431 51.9421072), (4.426431 51.9421072, 4.4263462 51.9421757), (4.4263462 51.9421757, 4.4264302 51.9421943, 4.4265905 51.9422968), (4.4265905 51.9422968, 4.4270831 51.9424925, 4.4271587 51.9425311, 4.4273687 51.94265), (4.4273687 51.94265, 4.4274223 51.9426791, 4.427576 51.9427625, 4.4282261 51.9430312, 4.4284061 51.9431014, 4.4285801 51.9433772, 4.4286207 51.9434486), (4.4286207 51.9434486, 4.4286645 51.9435243), (4.4286645 51.9435243, 4.4287395 51.9436466), (4.4287395 51.9436466, 4.4286722 51.9436613, 4.4281306 51.9437795, 4.4279322 51.9438401, 4.4277604 51.9439169, 4.4276079 51.9440122, 4.4274919 51.9441221, 4.4268023 51.9449347), (4.4268023 51.9449347, 4.4265608 51.9452259, 4.4264546 51.945354), (4.4264546 51.945354, 4.4264036 51.9454155, 4.426382 51.9455212, 4.4264829 51.9456107, 4.4266989 51.945699, 4.4278839 51.9461686, 4.4279391 51.9462013, 4.4279599 51.9462178, 4.4279738 51.9462455), (4.4279738 51.9462455, 4.4279857 51.9462741, 4.4279787 51.9462985, 4.4279698 51.9463297, 4.427835 51.946454), (4.427835 51.946454, 4.4275916 51.9466871, 4.4272293 51.9470335), (4.4272293 51.9470335, 4.427418 51.9471111, 4.4275552 51.9471452, 4.4277666 51.9471697, 4.4279535 51.9471978, 4.4281473 51.9472586, 4.4286848 51.9474848), (4.4286848 51.9474848, 4.4287918 51.9475235, 4.4289731 51.9475932), (4.4289731 51.9475932, 4.4304311 51.9481786, 4.4308575 51.9483491, 4.4308948 51.9483633, 4.4312832 51.9485194), (4.4312832 51.9485194, 4.4315032 51.9483418, 4.4315203 51.9483287, 4.4316193 51.9482401, 4.4317242 51.9481359, 4.4318758 51.9479807, 4.4319937 51.9479307), (4.4319937 51.9479307, 4.4320703 51.9478608, 4.4321445 51.9477899, 4.4322494 51.9477432), (4.4342457 51.9471155, 4.4341641 51.9471017, 4.4340468 51.9470552, 4.4335047 51.9468441, 4.4334066 51.9468337, 4.4333193 51.9468732, 4.4327997 51.9473721, 4.4325994 51.9475644, 4.4324511 51.9476979, 4.4323644 51.9477226, 4.4322494 51.9477432), (4.4341173 51.9478611, 4.4338518 51.947754, 4.4337819 51.9477182, 4.4337736 51.9476726, 4.4338075 51.9476191, 4.4338882 51.9475437, 4.4339526 51.9474861, 4.4342499 51.947197, 4.4342584 51.9471587, 4.4342457 51.9471155), (4.4343204 51.9479194, 4.4342574 51.9479127, 4.4341994 51.9478905, 4.4341173 51.9478611), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4343662 51.9480889, 4.4341057 51.9483329), (4.4341057 51.9483329, 4.4340219 51.9484187, 4.4341344 51.9484616, 4.4342488 51.9485052, 4.4344685 51.9482988, 4.4345971 51.9481812, 4.4344709 51.9481307, 4.4343662 51.9480889), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4354898 51.9468744, 4.4352169 51.947135, 4.4349689 51.9473593, 4.4345769 51.9477386, 4.4344403 51.9478715, 4.4343857 51.9479098, 4.4343204 51.9479194), (4.4354898 51.9468744, 4.4356587 51.9469442, 4.4357405 51.9469801, 4.4358081 51.9470116, 4.4360644 51.9471776), (4.4360644 51.9471776, 4.436197 51.9472495), (4.4426127 51.9498244, 4.4423971 51.9497392, 4.4419723 51.9495678, 4.4413515 51.9493185, 4.4406504 51.9490373, 4.4403447 51.9489104, 4.4393773 51.9485301, 4.4383207 51.9481043, 4.436197 51.9472495), (4.4426127 51.9498244, 4.4429322 51.9498464, 4.4435359 51.9500766, 4.4449065 51.9506221, 4.4451797 51.9507256, 4.4454487 51.9508414, 4.4456121 51.9509085, 4.445875 51.9510165, 4.4460429 51.9510765, 4.4462183 51.9511205, 4.4464815 51.9511569, 4.4468019 51.9512, 4.4470519 51.9512493, 4.4472291 51.9512939, 4.4473827 51.9513532, 4.4490841 51.9520252, 4.4492524 51.9520933, 4.4494915 51.9521901, 4.4496815 51.9522671, 4.4515506 51.9530205, 4.4515929 51.9530337, 4.4518069 51.9531147, 4.4535034 51.9537923, 4.4564652 51.9549915, 4.4565872 51.9550487), (4.4565872 51.9550487, 4.4566408 51.9550323, 4.4567 51.9550265, 4.4567624 51.9550324, 4.4568186 51.9550501, 4.4568691 51.9550832, 4.4568966 51.9551254, 4.4568972 51.9551709), (4.4568972 51.9551709, 4.4570371 51.9552231, 4.4575733 51.955424, 4.4579363 51.9555692, 4.45822 51.9556831, 4.4584663 51.9557797, 4.4587985 51.955874), (4.4587985 51.955874, 4.459155 51.9559464, 4.4595562 51.9560051, 4.4598567 51.9560189, 4.4601646 51.9560177, 4.4604016 51.9559947, 4.460617 51.9559762), (4.460617 51.9559762, 4.4609127 51.9559429, 4.4610509 51.9559261, 4.4612695 51.9559016), (4.4612695 51.9559016, 4.4615134 51.9558837), (4.4615134 51.9558837, 4.4618241 51.9558838))</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>384661</t>
+          <t>12125308</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1970,17 +1970,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Schiedam, Nieuwe Maasstraat</t>
+          <t>Rotterdam, West-Sidelinge</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bus 54: Schiedam Centrum =&gt; Schiedam De Gorzen</t>
+          <t>Bus 33: Rotterdam Centraal =&gt; Rotterdam Overschie</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1991,14 +1991,14 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4030168 51.9226615, 4.4029977 51.9226303, 4.4029741 51.9225613), (4.4029741 51.9225613, 4.4028913 51.922478, 4.4028582 51.9224268, 4.4028355 51.9223499), (4.4028355 51.9223499, 4.4028239 51.9222624, 4.4028002 51.9221863, 4.4026273 51.9218013, 4.402572 51.9216791, 4.4025263 51.9215776, 4.4024883 51.921489, 4.4024544 51.9214158, 4.4022804 51.9210387, 4.4021092 51.9206542, 4.4020599 51.9204292, 4.4020411 51.9202942, 4.4020297 51.9201511, 4.4020449 51.919886, 4.4020862 51.9194999), (4.4020862 51.9194999, 4.4020939 51.9194222), (4.4020939 51.9194222, 4.4021194 51.9192185, 4.4021437 51.9191328, 4.4021906 51.9190311, 4.402222 51.9189515, 4.4022496 51.9188787, 4.4022798 51.9188233), (4.4022798 51.9188233, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023816 51.9149644, 4.4023853 51.9149053, 4.4024035 51.9148696, 4.4024755 51.9147714, 4.4025195 51.9147, 4.4025452 51.9146696, 4.4025731 51.914635), (4.4025731 51.914635, 4.4025057 51.9146144), (4.4025057 51.9146144, 4.4023111 51.9145415, 4.4022566 51.9145243, 4.4020376 51.914461, 4.4019371 51.9144294, 4.4018269 51.914386), (4.4018269 51.914386, 4.4017625 51.9143529, 4.4017015 51.914225, 4.4016245 51.9140211), (4.4016245 51.9140211, 4.4015786 51.9139241), (4.4015786 51.9139241, 4.401525 51.9138567, 4.4014889 51.9138268, 4.4013186 51.9137264), (4.4013186 51.9137264, 4.4009579 51.9135638, 4.4006661 51.9133843, 4.4005816 51.9133339, 4.4005518 51.9133162, 4.4004209 51.913244, 4.4003474 51.9132055), (4.4003474 51.9132055, 4.4002465 51.9131438, 4.4002083 51.9131212, 4.3994952 51.9126829), (4.3994952 51.9126829, 4.399452 51.9126563), (4.399452 51.9126563, 4.3993377 51.9125859), (4.3993377 51.9125859, 4.3993173 51.9125734), (4.3993173 51.9125734, 4.3992696 51.9125475, 4.3991711 51.9124928), (4.3991711 51.9124928, 4.399125 51.9125038, 4.399076 51.9125078, 4.3990269 51.9125047, 4.3989803 51.9124946, 4.3989388 51.9124781), (4.3989388 51.9124781, 4.3989087 51.9124593, 4.3988855 51.9124373, 4.3988699 51.9124128), (4.3988699 51.9124128, 4.3988622 51.9123829, 4.398866 51.9123526, 4.398881 51.9123238, 4.3989065 51.9122978, 4.3989409 51.9122763, 4.3989826 51.9122602, 4.3990291 51.9122505, 4.399078 51.9122477, 4.3991267 51.9122519), (4.3991267 51.9122519, 4.3991539 51.9122057, 4.3991722 51.9121815, 4.3993354 51.9120429, 4.3997617 51.9117723, 4.4000659 51.9115952, 4.4001265 51.911545, 4.4001649 51.9115007, 4.4001732 51.9114675), (4.3992174 51.9108541, 4.3993356 51.91093, 4.4000505 51.9113895, 4.4001732 51.9114675), (4.3992174 51.9108541, 4.3990781 51.9107989, 4.3987618 51.910603, 4.3986618 51.9105357, 4.3985397 51.9104258), (4.3964921 51.9085332, 4.3965669 51.9086566, 4.3966908 51.9088324, 4.3968828 51.9091002, 4.3971314 51.9093655, 4.3973341 51.9095643, 4.3975675 51.9097538, 4.3980311 51.9101024, 4.3985397 51.9104258), (4.3964921 51.9085332, 4.3974152 51.9083298, 4.3981764 51.9081512, 4.3985617 51.9080521, 4.398937 51.9079426, 4.3995178 51.9077234, 4.3996281 51.9077007, 4.3997272 51.9076969, 4.400004 51.907704, 4.4000931 51.9076929), (4.4003157 51.9075798, 4.4000931 51.9076929), (4.4004365 51.9075182, 4.4003157 51.9075798), (4.4007442 51.9073295, 4.400677 51.9073962, 4.4004365 51.9075182), (4.401146 51.9058731, 4.4011336 51.9060466, 4.4010003 51.9064893, 4.4008614 51.9069653, 4.4008402 51.9070348, 4.4007713 51.9072752, 4.4007442 51.9073295), (4.4009406 51.9055073, 4.4009524 51.9055882, 4.4011227 51.9058175, 4.401146 51.9058731), (4.4009406 51.9055073, 4.4010661 51.9054468, 4.4012829 51.9053749, 4.4018607 51.9051777, 4.4023817 51.9050034, 4.4027613 51.9048774, 4.4029823 51.90482), (4.4036354 51.9046577, 4.4034843 51.9046992, 4.4029823 51.90482))</t>
+          <t>MULTILINESTRING ((4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629196 51.9227524, 4.4628444 51.9230812, 4.4627567 51.9234229), (4.4627567 51.9234229, 4.4624587 51.9244078), (4.4624587 51.9244078, 4.4622986 51.9249119, 4.4622376 51.9250492), (4.4622376 51.9250492, 4.4621471 51.9252022), (4.4621471 51.9252022, 4.4621564 51.9253122, 4.4621457 51.9254007, 4.4619016 51.9259951, 4.4618304 51.9261938, 4.4616541 51.9262605), (4.4616541 51.9262605, 4.4616271 51.9263227, 4.461618 51.9263436, 4.4616158 51.9263487, 4.4615816 51.9264275), (4.4615816 51.9264275, 4.461545 51.9265267, 4.4614678 51.9267011, 4.4613642 51.926932, 4.4613259 51.9270051, 4.4611842 51.9271995, 4.4610976 51.9273193, 4.4606 51.9279, 4.4603276 51.9282095, 4.4595505 51.9290925), (4.4595505 51.9290925, 4.4595204 51.929123), (4.4595204 51.929123, 4.4592663 51.9294183), (4.4592663 51.9294183, 4.4591427 51.9295921), (4.4591427 51.9295921, 4.4587954 51.9300065, 4.4587404 51.9300685, 4.4586713 51.9301504, 4.4586291 51.9302118), (4.4586291 51.9302118, 4.4585235 51.9302682, 4.4585015 51.9302754), (4.4585015 51.9302754, 4.4584708 51.9302801, 4.4583513 51.9303148), (4.4583513 51.9303148, 4.4582226 51.9302663, 4.4581939 51.9302528, 4.456681 51.929762, 4.4563069 51.9296456, 4.4562367 51.9296249), (4.4562367 51.9296249, 4.4552759 51.9293284, 4.4552156 51.9293098, 4.4551554 51.9292912, 4.4548689 51.9292044), (4.4548689 51.9292044, 4.4545624 51.9291219, 4.4543953 51.9290759, 4.4539883 51.928991, 4.4535955 51.9289192, 4.4533467 51.928883, 4.4531352 51.9288576, 4.4528569 51.9288338), (4.4528569 51.9288338, 4.4526247 51.9288197, 4.4524888 51.928815, 4.452291 51.9288114, 4.4519195 51.9288264, 4.4515117 51.9288628, 4.4509268 51.9289242, 4.4485549 51.9291987), (4.4485549 51.9291987, 4.4483394 51.9292831), (4.4483394 51.9292831, 4.4480514 51.9293576, 4.4477665 51.9294258), (4.4477665 51.9294258, 4.4474471 51.929502), (4.4474471 51.929502, 4.4469608 51.9296229), (4.4469608 51.9296229, 4.4467294 51.9296751, 4.4465081 51.9297077, 4.4462281 51.9297421, 4.445903 51.929772), (4.445903 51.929772, 4.4456879 51.929799, 4.4451475 51.9298373, 4.4449558 51.9298384), (4.4449558 51.9298384, 4.4443548 51.9298812), (4.4443548 51.9298812, 4.4442318 51.9299072, 4.4440847 51.9299186, 4.4435597 51.9299462), (4.4435597 51.9299462, 4.4429796 51.9300203), (4.4429796 51.9300203, 4.4426818 51.930074, 4.4426004 51.9300887), (4.4426004 51.9300887, 4.4421727 51.930166, 4.4420941 51.9301802, 4.4420155 51.9301943, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4373188 51.9313247, 4.4372607 51.9312902, 4.4367886 51.9312194, 4.4360861 51.9311198, 4.4355991 51.9310552, 4.4353083 51.9310143, 4.4351117 51.9309816, 4.4349393 51.9309427, 4.4348532 51.9309166, 4.4347929 51.9308944, 4.4347634 51.9308851, 4.4347349 51.930877, 4.4346532 51.9308599), (4.4346532 51.9308599, 4.4346028 51.9308709, 4.4345496 51.9308735, 4.434497 51.9308675, 4.4344488 51.9308533), (4.4344488 51.9308533, 4.4343725 51.9308738, 4.4343209 51.9308904, 4.4342611 51.9309145, 4.4342013 51.9309386, 4.433997 51.9310155, 4.4338605 51.93107, 4.4337117 51.9311353, 4.4334287 51.9312817, 4.4333277 51.9313334, 4.4331954 51.9313974, 4.4330711 51.9314425), (4.4330711 51.9314425, 4.432337 51.9318543, 4.432242 51.9319085), (4.432242 51.9319085, 4.432135 51.9319679, 4.4317837 51.9321628, 4.4314893 51.9323241, 4.4313921 51.9323759, 4.431275 51.9324277, 4.4310585 51.9325147, 4.430748 51.9326194, 4.4305829 51.932679, 4.4294235 51.9330973, 4.4290224 51.9332532, 4.4288567 51.9333275, 4.4287739 51.9333936, 4.4287545 51.9334365, 4.4287209 51.9335246, 4.4286269 51.9337708, 4.4285694 51.9339213, 4.4285341 51.9340136), (4.4285341 51.9340136, 4.4285033 51.9341141, 4.4284473 51.9342692, 4.4281597 51.9350008, 4.4281072 51.9351304), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.432806 51.935817, 4.4335304 51.9360056), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4363799 51.9365609, 4.4365007 51.9365817, 4.4365201 51.93659, 4.4365598 51.9366094, 4.4366571 51.9366752), (4.4366571 51.9366752, 4.4367048 51.9366655, 4.4367551 51.9366656, 4.4368027 51.9366755), (4.4368027 51.9366755, 4.4368464 51.9366966, 4.4368756 51.9367256), (4.4368756 51.9367256, 4.4368856 51.9367504, 4.4368848 51.936776, 4.4368731 51.9368006, 4.4368441 51.9368276, 4.4368022 51.9368471, 4.4367523 51.9368572, 4.4366998 51.9368565, 4.4366506 51.9368451), (4.4366506 51.9368451, 4.4365528 51.9369054, 4.4365071 51.9369284, 4.4361266 51.9371403, 4.4360501 51.9371751, 4.4359802 51.9371997, 4.4356788 51.9372912, 4.4353617 51.9373771, 4.4344388 51.9376153, 4.4342137 51.9376722, 4.4341395 51.937695, 4.4340623 51.9377199, 4.4340082 51.9377411, 4.4339537 51.9377723, 4.4339025 51.9378019, 4.4338481 51.9378421, 4.433612 51.9380483, 4.4332377 51.9383802, 4.4332103 51.9383995, 4.4331743 51.9384193, 4.4331617 51.9384266, 4.4331205 51.9384401, 4.4331022 51.9384462, 4.4330623 51.9384526, 4.4330153 51.938456, 4.432973 51.9384555, 4.4329379 51.9384531, 4.4328646 51.9384417, 4.4328364 51.9384338, 4.4328191 51.938429, 4.4327856 51.9384132, 4.4327577 51.9383906), (4.4304819 51.9385488, 4.4310816 51.9380095, 4.4312259 51.9379251, 4.4313627 51.9378961, 4.4314957 51.9378879, 4.4316862 51.9379228, 4.4318913 51.9380129, 4.4327577 51.9383906), (4.4304819 51.9385488, 4.4294089 51.9394798, 4.42766 51.9410063, 4.4274745 51.9411555), (4.4274745 51.9411555, 4.4274332 51.9412257, 4.4272552 51.9413933), (4.4272552 51.9413933, 4.4270397 51.941574), (4.4270397 51.941574, 4.4269617 51.9416395), (4.4269617 51.9416395, 4.4268939 51.9416963), (4.4268939 51.9416963, 4.4268024 51.9416963), (4.4268024 51.9416963, 4.4264239 51.9415321, 4.426335 51.9414608), (4.4259391 51.9413077, 4.4260777 51.94136, 4.4261838 51.9414016, 4.426335 51.9414608))</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>384662</t>
+          <t>384205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2008,17 +2008,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Schiedam, Station Schiedam Centrum</t>
+          <t>Rotterdam, Rotterdam Centraal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bus 54: Schiedam De Gorzen =&gt; Schiedam Centrum</t>
+          <t>Bus 33: Rotterdam Meijersplein =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2029,14 +2029,14 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4066558 51.9041766, 4.4059806 51.9042209, 4.4056209 51.9042775, 4.4050348 51.9043698, 4.404401 51.9044786, 4.4036354 51.9046577), (4.4066558 51.9041766, 4.4066939 51.904122, 4.4067804 51.9040957, 4.4068242 51.9040971, 4.4068651 51.9041069, 4.4069121 51.9041346, 4.4069336 51.9041724, 4.406925 51.9042121, 4.4068882 51.9042451), (4.4068882 51.9042451, 4.4069688 51.9043065, 4.4071924 51.9045657, 4.4072931 51.9046806, 4.4076585 51.9051093, 4.4077524 51.90519, 4.4078333 51.9052285, 4.4079189 51.9052479, 4.4080901 51.9052573, 4.4081783 51.9052635), (4.4081783 51.9052635, 4.4081863 51.9053837, 4.408145 51.9055114), (4.408145 51.9055114, 4.4081726 51.90565, 4.4082286 51.9057488, 4.4082965 51.9058296, 4.4083713 51.9058709, 4.4084232 51.9058911), (4.4080476 51.9071611, 4.4081569 51.9070178, 4.4083315 51.9060041, 4.4083357 51.9059798, 4.4083572 51.9059613, 4.4084232 51.9058911), (4.4080476 51.9071611, 4.4078922 51.9073019, 4.4077623 51.9074141, 4.4069309 51.9082659, 4.4068 51.9084, 4.4064508 51.9087737), (4.4064508 51.9087737, 4.4063 51.909), (4.4063 51.909, 4.4061479 51.9091577, 4.405739 51.9095815, 4.4051925 51.9101478, 4.4051208 51.910246, 4.4049663 51.9104023, 4.4048049 51.9105277, 4.4044404 51.9107188, 4.4041822 51.9108763, 4.404 51.911, 4.4028813 51.9116393, 4.4026 51.9118, 4.401296 51.9126368, 4.4010473 51.9127964, 4.4008515 51.9129275), (4.4008515 51.9129275, 4.4007377 51.9130234, 4.4007081 51.9130483, 4.400667 51.9130758, 4.4006045 51.9131177), (4.4006045 51.9131177, 4.4005278 51.913176), (4.4005278 51.913176, 4.4006698 51.9132443, 4.4010029 51.9134413, 4.4011293 51.9135206), (4.4011293 51.9135206, 4.4015827 51.9138122, 4.4016484 51.9139115), (4.4016484 51.9139115, 4.4016943 51.9140085), (4.4016943 51.9140085, 4.4018001 51.9142071, 4.4018107 51.9142276), (4.4018107 51.9142276, 4.4018888 51.914294, 4.4021132 51.9143678), (4.4021132 51.9143678, 4.4022894 51.9144163, 4.4023322 51.91443, 4.4023904 51.914445, 4.4026704 51.9145403), (4.4026704 51.9145403, 4.4026639 51.9146617), (4.4026639 51.9146617, 4.4026479 51.9147047, 4.4026358 51.9147357, 4.402608 51.9147978, 4.4026004 51.9148212), (4.4026004 51.9148212, 4.4024819 51.9148932, 4.4024187 51.9149613, 4.4023781 51.9150201), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023445 51.9188801, 4.4023243 51.9188543, 4.4023083 51.918818, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023881 51.9189542, 4.402364 51.9190272, 4.4023615 51.9190373, 4.4023469 51.9191291, 4.4023418 51.9191637, 4.4023121 51.9192971, 4.4022934 51.9194298), (4.4022934 51.9194298, 4.4022857 51.9195074), (4.4022857 51.9195074, 4.402264 51.9197357, 4.4022543 51.9199786, 4.4022507 51.920291, 4.4023273 51.9206063, 4.4024516 51.9208966), (4.4024516 51.9208966, 4.4026187 51.9212013, 4.4026684 51.921302, 4.4026907 51.9213442, 4.402705 51.9213712, 4.4027375 51.9214414), (4.4027375 51.9214414, 4.4027841 51.9215306, 4.4027953 51.9215577, 4.4029344 51.9218933), (4.4029344 51.9218933, 4.4032079 51.922545, 4.4032192 51.9225763, 4.4032343 51.9226131, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
+          <t>MULTILINESTRING ((4.4618241 51.9558838, 4.4618262 51.9560254, 4.4615584 51.9560291), (4.4615584 51.9560291, 4.4613079 51.9560494), (4.4613079 51.9560494, 4.4610887 51.9560695, 4.4610389 51.9560739, 4.4607064 51.9561107), (4.4607064 51.9561107, 4.4605362 51.9561246, 4.460354 51.9561374, 4.4601555 51.956144, 4.4598425 51.9561476, 4.4595355 51.9561274, 4.4591285 51.9560665, 4.4587129 51.9559749, 4.4584079 51.9558844, 4.4581201 51.9557834, 4.4578513 51.955673, 4.4574627 51.955521), (4.4574627 51.955521, 4.4569472 51.9553024, 4.4568275 51.955244), (4.4568275 51.955244, 4.4567804 51.9552617, 4.4567272 51.9552708, 4.456672 51.9552705, 4.4566004 51.9552549, 4.4565434 51.9552239, 4.4565165 51.9551947, 4.4565034 51.9551621, 4.4565051 51.9551286), (4.4565051 51.9551286, 4.4563744 51.95508, 4.4534401 51.9539218, 4.4516951 51.9532227, 4.451483 51.953138, 4.4512332 51.9530341, 4.4495747 51.9523709, 4.4493839 51.9522935, 4.4491454 51.9521967, 4.4489772 51.9521285, 4.4472472 51.9514422, 4.4471272 51.9514046, 4.4469422 51.9513599, 4.4467027 51.9513135, 4.4464252 51.9512624, 4.4461991 51.9512218, 4.4459702 51.9511654, 4.4457671 51.9510948, 4.4453609 51.9509249, 4.4450895 51.9508128, 4.4448168 51.9507151, 4.4446224 51.9506349, 4.4437093 51.9502585, 4.4434446 51.950161, 4.4428547 51.9499239, 4.4426127 51.9498244), (4.4426127 51.9498244, 4.4423971 51.9497392, 4.4419723 51.9495678, 4.4413515 51.9493185, 4.4406504 51.9490373, 4.4403447 51.9489104, 4.4393773 51.9485301, 4.4383207 51.9481043, 4.436197 51.9472495), (4.4360644 51.9471776, 4.436197 51.9472495), (4.4354898 51.9468744, 4.4356587 51.9469442, 4.4357405 51.9469801, 4.4358081 51.9470116, 4.4360644 51.9471776), (4.4354898 51.9468744, 4.4352169 51.947135, 4.4349689 51.9473593, 4.4345769 51.9477386, 4.4344403 51.9478715, 4.4343857 51.9479098, 4.4343204 51.9479194), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4343662 51.9480889, 4.4341057 51.9483329), (4.4341057 51.9483329, 4.4340219 51.9484187, 4.4341344 51.9484616, 4.4342488 51.9485052, 4.4344685 51.9482988, 4.4345971 51.9481812, 4.4344709 51.9481307, 4.4343662 51.9480889), (4.4343204 51.9479194, 4.4343377 51.9480036, 4.4343662 51.9480889), (4.4343204 51.9479194, 4.4342574 51.9479127, 4.4341994 51.9478905, 4.4341173 51.9478611), (4.4341173 51.9478611, 4.4338518 51.947754, 4.4337819 51.9477182, 4.4337736 51.9476726, 4.4338075 51.9476191, 4.4338882 51.9475437, 4.4339526 51.9474861, 4.4342499 51.947197, 4.4342584 51.9471587, 4.4342457 51.9471155), (4.4342457 51.9471155, 4.4341641 51.9471017, 4.4340468 51.9470552, 4.4335047 51.9468441, 4.4334066 51.9468337, 4.4333193 51.9468732, 4.4327997 51.9473721, 4.4325994 51.9475644, 4.4324511 51.9476979, 4.4323644 51.9477226, 4.4322494 51.9477432), (4.4319937 51.9479307, 4.4320703 51.9478608, 4.4321445 51.9477899, 4.4322494 51.9477432), (4.4319937 51.9479307, 4.4319522 51.9480133, 4.4317944 51.9481706, 4.4316891 51.9482686, 4.4316022 51.9483517, 4.4315724 51.9483798, 4.4313981 51.9485644, 4.4312553 51.9486279), (4.4312553 51.9486279, 4.4308656 51.9484738, 4.430342 51.9482638, 4.4293338 51.9478645, 4.4289708 51.9477208, 4.428875 51.9476828, 4.4280484 51.9473447, 4.427894 51.9472899, 4.4277708 51.947269, 4.4276225 51.9472664, 4.4274982 51.9472656, 4.4273937 51.9472617, 4.4272408 51.9472408, 4.4270474 51.9471994), (4.4272293 51.9470335, 4.4270474 51.9471994), (4.427835 51.946454, 4.4275916 51.9466871, 4.4272293 51.9470335), (4.4279738 51.9462455, 4.4279857 51.9462741, 4.4279787 51.9462985, 4.4279698 51.9463297, 4.427835 51.946454), (4.4281995 51.9461472, 4.4281208 51.9461732, 4.4280623 51.9462006, 4.4279738 51.9462455), (4.4286439 51.9456801, 4.4285283 51.9457883, 4.4282472 51.9460534, 4.4281995 51.9461472), (4.4286439 51.9456801, 4.4285466 51.9456407, 4.42782 51.9453466, 4.4268023 51.9449347), (4.4287395 51.9436466, 4.4286722 51.9436613, 4.4281306 51.9437795, 4.4279322 51.9438401, 4.4277604 51.9439169, 4.4276079 51.9440122, 4.4274919 51.9441221, 4.4268023 51.9449347), (4.4286645 51.9435243, 4.4287395 51.9436466), (4.4286207 51.9434486, 4.4286645 51.9435243), (4.4273687 51.94265, 4.4274223 51.9426791, 4.427576 51.9427625, 4.4282261 51.9430312, 4.4284061 51.9431014, 4.4285801 51.9433772, 4.4286207 51.9434486), (4.4265905 51.9422968, 4.4270831 51.9424925, 4.4271587 51.9425311, 4.4273687 51.94265), (4.4265905 51.9422968, 4.426377 51.9422429, 4.4262418 51.9422063), (4.4262418 51.9422063, 4.4262714 51.9421477, 4.4263635 51.9420777), (4.4263635 51.9420777, 4.4265105 51.94195, 4.4267456 51.9417457), (4.4267456 51.9417457, 4.4268024 51.9416963), (4.4268024 51.9416963, 4.4264239 51.9415321, 4.426335 51.9414608), (4.4259391 51.9413077, 4.4260777 51.94136, 4.4261838 51.9414016, 4.426335 51.9414608), (4.4237287 51.9404329, 4.4240357 51.9405534, 4.4244828 51.9407398, 4.4250175 51.9409499, 4.4258131 51.941257, 4.4259391 51.9413077), (4.4236089 51.9403468, 4.4236464 51.9403938, 4.4236976 51.9404188, 4.4237287 51.9404329), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236035 51.9402878, 4.4236137 51.9402478, 4.4236637 51.9402051, 4.4237385 51.9401662), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4270683 51.9370452, 4.426373 51.9376912), (4.4270683 51.9370452, 4.427082 51.9369986, 4.4271667 51.9368991, 4.4272147 51.9368427, 4.4272501 51.9368031), (4.4272501 51.9368031, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272706 51.9366729, 4.4272911 51.9366554, 4.4273173 51.936641, 4.4273663 51.9366265, 4.4274203 51.9366231, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4285341 51.9340136, 4.4285033 51.9341141, 4.4284473 51.9342692, 4.4281597 51.9350008, 4.4281072 51.9351304), (4.432242 51.9319085, 4.432135 51.9319679, 4.4317837 51.9321628, 4.4314893 51.9323241, 4.4313921 51.9323759, 4.431275 51.9324277, 4.4310585 51.9325147, 4.430748 51.9326194, 4.4305829 51.932679, 4.4294235 51.9330973, 4.4290224 51.9332532, 4.4288567 51.9333275, 4.4287739 51.9333936, 4.4287545 51.9334365, 4.4287209 51.9335246, 4.4286269 51.9337708, 4.4285694 51.9339213, 4.4285341 51.9340136), (4.4330711 51.9314425, 4.432337 51.9318543, 4.432242 51.9319085), (4.4330711 51.9314425, 4.4331351 51.9313815, 4.4332696 51.9312955, 4.4333682 51.9312404, 4.4334446 51.931197, 4.4336887 51.9310632, 4.4338594 51.930983, 4.4341974 51.9308369, 4.4342483 51.9308149, 4.4342928 51.9307957, 4.4343593 51.930771), (4.4343593 51.930771, 4.4343578 51.9307296, 4.4343782 51.9306901, 4.4344182 51.9306569, 4.4344735 51.9306334), (4.4344735 51.9306334, 4.4345296 51.9306229, 4.4345883 51.9306227, 4.4346446 51.9306327, 4.4346858 51.930648, 4.4347201 51.9306689, 4.4347455 51.9306941, 4.4347607 51.9307223), (4.4347607 51.9307223, 4.4348329 51.9307713, 4.4348822 51.9307965, 4.434938 51.9308121, 4.4351093 51.93086, 4.4361214 51.9310013, 4.4366914 51.9310783, 4.4369013 51.9311042, 4.4370328 51.9311144, 4.4373609 51.9311337, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411748 51.9298744, 4.4413655 51.9298059), (4.4413655 51.9298059, 4.4415222 51.9297594, 4.4417071 51.9297127), (4.4417071 51.9297127, 4.4417842 51.9296966, 4.4420381 51.9296437, 4.4421633 51.9296299, 4.442924 51.9295461, 4.4432197 51.9295176, 4.4436136 51.9294796, 4.4440253 51.9294401, 4.4443073 51.9294184, 4.4445478 51.9294001, 4.4474544 51.9290982, 4.4476899 51.9290793, 4.4479408 51.929063, 4.4482372 51.9290547, 4.4486326 51.929048, 4.4489235 51.9290776), (4.4489235 51.9290776, 4.451483 51.928758, 4.4518455 51.9287187, 4.4521984 51.9286924, 4.4525874 51.9286841, 4.453014 51.9287007, 4.4534101 51.928726, 4.4537858 51.9287652, 4.454069 51.9288139, 4.4543227 51.9288638, 4.4545912 51.9289339, 4.4546806 51.9289573, 4.4548902 51.9290061), (4.4548902 51.9290061, 4.4550004 51.929042, 4.4550285 51.9290505, 4.4550901 51.9290671, 4.4551369 51.92908), (4.4551369 51.92908, 4.4552782 51.9291252, 4.455322 51.92914, 4.4558103 51.9293057, 4.4559957 51.9293676, 4.4566856 51.929577), (4.4566856 51.929577, 4.4582187 51.9300752, 4.4583316 51.9301119, 4.4584932 51.9301628), (4.4584932 51.9301628, 4.458545 51.9301021, 4.4588119 51.929784, 4.4591557 51.9293752, 4.4594065 51.9290855), (4.4594065 51.9290855, 4.4594334 51.9290538), (4.4594334 51.9290538, 4.4601822 51.9281608, 4.4609108 51.9272917, 4.4610122 51.9271469, 4.4610742 51.9270027), (4.4610742 51.9270027, 4.4612677 51.9265761, 4.4613066 51.9264892, 4.461349 51.9263877), (4.461349 51.9263877, 4.4613778 51.9263181, 4.4613899 51.9262895, 4.4613975 51.9262694, 4.4614198 51.9262164), (4.4614198 51.9262164, 4.4614538 51.9261322, 4.4615729 51.9258742, 4.4616146 51.9257729), (4.4616146 51.9257729, 4.4617251 51.9255311), (4.4617251 51.9255311, 4.4617315 51.9253463, 4.461795 51.9251081), (4.461795 51.9251081, 4.4620129 51.9243544), (4.4620129 51.9243544, 4.4623025 51.9233666), (4.4623025 51.9233666, 4.4624397 51.9229588), (4.4624397 51.9229588, 4.4625063 51.9227482, 4.4625424 51.9226622, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825))</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>384665</t>
+          <t>12125309</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2046,17 +2046,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vlaardingen, Begraafplaats Holy</t>
+          <t>Rotterdam, Rotterdam Centraal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bus 56: Vlaardingen West =&gt; Vlaardingen Holy Noord</t>
+          <t>Bus 33: Rotterdam Overschie =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2067,14 +2067,14 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3149703 51.9044683, 4.3148871 51.9043298, 4.3148788 51.9042771, 4.3148928 51.9042486, 4.3149737 51.9041959, 4.3152921 51.9041188, 4.3154104 51.9040901), (4.3158689 51.904823, 4.3158165 51.9047571, 4.3156247 51.9044463, 4.3154104 51.9040901), (4.3158689 51.904823, 4.3155775 51.904895, 4.3152785 51.9049688), (4.3152785 51.9049688, 4.3149079 51.905055, 4.3147712 51.9050989, 4.3147155 51.905133), (4.3147155 51.905133, 4.3146949 51.9051686, 4.3146937 51.905179, 4.3146896 51.9052142, 4.3147071 51.9052742, 4.3147493 51.9053738), (4.3147493 51.9053738, 4.3150761 51.9060425), (4.3150761 51.9060425, 4.3151932 51.9062677, 4.315635 51.9071258, 4.315736 51.907312, 4.3158242 51.9074772, 4.3160471 51.9079105, 4.3163962 51.9086105), (4.3163962 51.9086105, 4.316582 51.9089508, 4.31674 51.9092775, 4.316787 51.9093778, 4.3168883 51.9096121, 4.3170211 51.9098371, 4.3170998 51.9100099), (4.3173406 51.9104781, 4.3173317 51.910461, 4.3172762 51.910344, 4.3172502 51.910281, 4.3172042 51.9101972, 4.3170998 51.9100099), (4.3174996 51.9107224, 4.3174219 51.9106348, 4.3173406 51.9104781), (4.3175531 51.9107796, 4.3174996 51.9107224), (4.3175531 51.9107796, 4.3174109 51.910831, 4.3170411 51.9109923, 4.3168654 51.9110391), (4.3168654 51.9110391, 4.316219 51.9113539), (4.316219 51.9113539, 4.3161489 51.9114269, 4.3160696 51.9115305, 4.3160544 51.9116107), (4.3160544 51.9116107, 4.3160574 51.9117336, 4.3160835 51.9118353), (4.3160835 51.9118353, 4.3161253 51.9119977, 4.3161129 51.9121043), (4.3161129 51.9121043, 4.3162309 51.9125272, 4.3162589 51.9126183, 4.3162855 51.9127189, 4.316354 51.912992, 4.31644 51.9132895), (4.31644 51.9132895, 4.3165207 51.9135717, 4.316551 51.9136311, 4.3166314 51.9136657), (4.3166314 51.9136657, 4.3169459 51.9136683, 4.3171779 51.9136707, 4.3172946 51.9136714, 4.3186721 51.9136851, 4.3189693 51.9136873, 4.319681 51.9136884, 4.3199892 51.9136831), (4.3266714 51.9130641, 4.3262789 51.9131035, 4.3260794 51.9131269, 4.3252635 51.9132005, 4.3249395 51.9132309, 4.3247289 51.9132507, 4.3242197 51.9133022, 4.3216897 51.9135331, 4.320528 51.9136486, 4.3202021 51.913674, 4.3199892 51.9136831), (4.3273976 51.9129952, 4.3273525 51.9129992, 4.327277 51.9130064, 4.3266714 51.9130641), (4.3273976 51.9129952, 4.3275722 51.9129724), (4.3275722 51.9129724, 4.3277265 51.9129507), (4.3277265 51.9129507, 4.3278663 51.9129183), (4.3280686 51.9128757, 4.3279711 51.9128963, 4.3279198 51.9129071, 4.3278663 51.9129183), (4.3285028 51.9127895, 4.3280686 51.9128757), (4.3288141 51.9127264, 4.3286987 51.9127498, 4.3285028 51.9127895), (4.3319355 51.9120894, 4.3310565 51.9122668, 4.3308912 51.9123013, 4.3307236 51.9123335, 4.3305572 51.9123669, 4.3298911 51.9125014, 4.3296722 51.9125472, 4.3295422 51.912573, 4.3288141 51.9127264), (4.3336587 51.9117294, 4.3333849 51.9117881, 4.3327983 51.9119094, 4.3320314 51.9120694, 4.3319355 51.9120894), (4.3344452 51.9115739, 4.334402 51.9115831, 4.3336587 51.9117294), (4.3345112 51.91156, 4.3344452 51.9115739), (4.3347128 51.9115162, 4.33462 51.9115364, 4.3345112 51.91156), (4.3347128 51.9115162, 4.334855 51.9114864), (4.3350243 51.9114476, 4.3349632 51.9114604, 4.3349091 51.9114734, 4.334855 51.9114864), (4.335145 51.911422, 4.3351062 51.9114302, 4.3350243 51.9114476), (4.3378036 51.9108706, 4.3377469 51.9108838, 4.3376508 51.9109062, 4.3371833 51.9110026, 4.336912 51.9110588, 4.3359093 51.9112671, 4.3356535 51.9113193, 4.335168 51.9114174, 4.335145 51.911422), (4.3378036 51.9108706, 4.3378974 51.9109945, 4.338072 51.9111947), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.342946 51.9095826, 4.3430227 51.9095288, 4.3430781 51.9095155, 4.3435151 51.9094109, 4.3437 51.9094), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3446973 51.909355, 4.3449363 51.909356), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3517346 51.9093718, 4.3517446 51.9093132, 4.3517805 51.9092523, 4.3518404 51.909199, 4.3519203 51.9091569, 4.3520148 51.9091286, 4.3520574 51.9091235, 4.3521179 51.9091161, 4.3522047 51.9091195, 4.3522228 51.9091202, 4.3523225 51.9091406, 4.3524106 51.9091759, 4.3524406 51.9091963, 4.3524812 51.9092239, 4.3525022 51.9092488), (4.3525022 51.9092488, 4.3525298 51.9092814, 4.3525531 51.9093446, 4.3525515 51.9093726), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3581013 51.9093656, 4.3583597 51.9092941, 4.3585158 51.9092802, 4.3586815 51.9093418), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3591826 51.9095669, 4.3593609 51.9096185, 4.3595031 51.909712, 4.3595557 51.9097493), (4.3595557 51.9097493, 4.359685 51.9098633, 4.3597555 51.9099313), (4.3597555 51.9099313, 4.3601654 51.9103626), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611359 51.910654, 4.3611799 51.9106149, 4.3612563 51.9105478, 4.3613318 51.91048, 4.3614031 51.9104158), (4.3614031 51.9104158, 4.3613667 51.9103952, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604497 51.910645), (4.3604497 51.910645, 4.3605905 51.9107268, 4.3606753 51.9108044, 4.3606969 51.9108242, 4.3607331 51.9108561, 4.3608002 51.9109014, 4.3608325 51.9109233), (4.3608325 51.9109233, 4.3608919 51.9109269, 4.3609462 51.9109372, 4.3609927 51.9109558, 4.3610399 51.9109981, 4.3610516 51.9110511, 4.3610113 51.9111143), (4.3610113 51.9111143, 4.3610562 51.9111753, 4.3610713 51.9111957, 4.3610954 51.9112226, 4.3612148 51.9113423, 4.3612286 51.9114164), (4.3612418 51.9117696, 4.3612961 51.9115948, 4.3612286 51.9114164), (4.3612418 51.9117696, 4.3610047 51.9123802), (4.3610047 51.9123802, 4.3609786 51.9125271, 4.3609473 51.9126305, 4.3608888 51.912779, 4.360862 51.9128594, 4.3608327 51.9129337, 4.3608014 51.9130078, 4.3606994 51.9131287), (4.3602702 51.9142028, 4.3606291 51.9133128, 4.3606994 51.9131287), (4.3602702 51.9142028, 4.3602511 51.9143769, 4.360244 51.9143938, 4.3602361 51.9144124, 4.3601878 51.9144588), (4.3601568 51.9145522, 4.3601878 51.9144588), (4.3601568 51.9145522, 4.3601482 51.9146279, 4.3601186 51.9146726, 4.3600937 51.9147103, 4.3600498 51.9147781, 4.3597036 51.9152008), (4.3597036 51.9152008, 4.3594615 51.9155295, 4.3594443 51.9155532), (4.3591233 51.9160252, 4.3591738 51.9159466, 4.3593765 51.9156528, 4.3594443 51.9155532), (4.3591233 51.9160252, 4.3591204 51.9161175, 4.3590763 51.9161837), (4.3590763 51.9161837, 4.3591165 51.9162043, 4.3591475 51.9162303, 4.3591674 51.91626, 4.3591752 51.9162919, 4.3591702 51.916324, 4.3591529 51.9163544, 4.3591222 51.9163828, 4.3590808 51.9164055, 4.3590314 51.9164209, 4.3589858 51.9164275, 4.3589389 51.9164278, 4.3588931 51.9164219), (4.3588931 51.9164219, 4.3588347 51.9164864, 4.3586714 51.9165993), (4.358273 51.9171422, 4.3583989 51.9169823, 4.3586714 51.9165993), (4.358273 51.9171422, 4.3578643 51.9176704), (4.3578643 51.9176704, 4.3577993 51.917811, 4.3576805 51.917929), (4.3576805 51.917929, 4.3575409 51.9181246), (4.3575409 51.9181246, 4.3574882 51.9182451, 4.357445 51.9182819, 4.3572854 51.9183682), (4.3572854 51.9183682, 4.3569974 51.918635, 4.3566069 51.9189934, 4.3564182 51.9191851), (4.3564182 51.9191851, 4.3563417 51.9192801, 4.3562468 51.9193374), (4.3562468 51.9193374, 4.3560239 51.9195228), (4.3560239 51.9195228, 4.3558465 51.9197878, 4.3558101 51.9198244, 4.3556857 51.9199499), (4.3556857 51.9199499, 4.3556357 51.9199939, 4.3550793 51.9204564, 4.3545101 51.9209508, 4.354413 51.9210352, 4.3540337 51.9213937, 4.3538564 51.9215552, 4.3537162 51.9217682), (4.3537162 51.9217682, 4.3536035 51.9219403, 4.3534553 51.9221915, 4.3534185 51.9222563, 4.3533439 51.9223647), (4.3533439 51.9223647, 4.3532802 51.9224554), (4.3532802 51.9224554, 4.3531998 51.9225614, 4.3528996 51.9230406, 4.3526556 51.923441, 4.3525548 51.9236011, 4.3524875 51.9237135, 4.3524552 51.9238351, 4.3524641 51.9239577, 4.3524859 51.9240535, 4.3525491 51.9241608, 4.3526099 51.9242377, 4.352709 51.9243259, 4.3531594 51.9245569, 4.353409 51.9246754), (4.353409 51.9246754, 4.3535946 51.9247669, 4.3537482 51.924846, 4.3538754 51.9249254, 4.3539722 51.9250309, 4.3540515 51.9251593, 4.3540663 51.9252262), (4.3540663 51.9252262, 4.3540685 51.925314, 4.3540384 51.9254504, 4.3539805 51.9255705, 4.3539459 51.9256302, 4.3538888 51.9257276), (4.3537485 51.9256952, 4.3538888 51.9257276), (4.3532185 51.9255728, 4.3535027 51.9256376, 4.353601 51.9256611, 4.3537485 51.9256952), (4.3526789 51.9254486, 4.3529509 51.9255086, 4.3532185 51.9255728), (4.3519857 51.9253504, 4.3523562 51.9253952, 4.3526789 51.9254486), (4.3466087 51.924549, 4.3468574 51.9246083, 4.3469652 51.9246344, 4.3475963 51.9247879, 4.3483397 51.9249657, 4.3487193 51.9250421, 4.348866 51.9250729, 4.3490906 51.9250954, 4.3493369 51.9251204, 4.349398 51.9251245, 4.3498175 51.9251678, 4.3505473 51.9252226, 4.3508518 51.9252494, 4.3518988 51.9253428, 4.3519857 51.9253504), (4.3461052 51.9244273, 4.3462418 51.9244593, 4.3463134 51.9244758, 4.3466087 51.924549), (4.3461052 51.9244273, 4.3460313 51.9245358, 4.3457582 51.9249629, 4.344433 51.9270788), (4.344433 51.9270788, 4.3442193 51.9274127, 4.3441614 51.9275016, 4.3440878 51.9276145), (4.3440878 51.9276145, 4.3442102 51.9276415), (4.3442102 51.9276415, 4.3442972 51.9276604, 4.3444789 51.9277003), (4.3444789 51.9277003, 4.3445113 51.9277074, 4.3448134 51.9277814), (4.3448134 51.9277814, 4.3449599 51.9278178, 4.3453012 51.9278982), (4.3453012 51.9278982, 4.3458234 51.9280233, 4.346062 51.9280805, 4.3463656 51.9281532, 4.3464048 51.9281629, 4.346954 51.9282996, 4.3470822 51.9283427, 4.3471565 51.9283836), (4.3471565 51.9283836, 4.3472503 51.9284811, 4.3474773 51.9288911), (4.3474773 51.9288911, 4.3475502 51.9289818, 4.347647 51.9290551), (4.347647 51.9290551, 4.347712 51.9290943, 4.3479637 51.9291789, 4.3481723 51.9292292, 4.3483479 51.9292716, 4.3492231 51.9294823), (4.3492231 51.9294823, 4.3497179 51.9295998, 4.3497826 51.9296139, 4.3501344 51.9296988, 4.3505695 51.9297981), (4.3505695 51.9297981, 4.3506634 51.9298204, 4.350742 51.9298416), (4.350742 51.9298416, 4.3509365 51.9298588, 4.3510916 51.9298812), (4.3510916 51.9298812, 4.3511209 51.9298685, 4.3511536 51.9298593, 4.3511885 51.929854, 4.3512529 51.9298547, 4.3513134 51.9298685, 4.3513632 51.9298937, 4.3513944 51.929924, 4.3514096 51.9299586), (4.3514096 51.9299586, 4.3515483 51.9299975, 4.3519893 51.9301404), (4.3519893 51.9301404, 4.3524502 51.930253), (4.3524502 51.930253, 4.3527713 51.93033), (4.3527713 51.93033, 4.3531083 51.9304095, 4.3541228 51.9306487), (4.3541228 51.9306487, 4.3542693 51.9306833, 4.3548684 51.9308323, 4.3550447 51.9308568, 4.3551793 51.9308663, 4.3553254 51.9308444), (4.3553254 51.9308444, 4.3554304 51.9308101, 4.3555582 51.9307683), (4.3555582 51.9307683, 4.3556617 51.930733, 4.355829 51.930676, 4.3559427 51.9306372), (4.3559427 51.9306372, 4.3562669 51.9305392), (4.3562669 51.9305392, 4.3564801 51.9305838, 4.3566222 51.9306164, 4.3567608 51.9306465, 4.357046 51.9307135, 4.3576866 51.9308703, 4.3579138 51.9309236), (4.3579138 51.9309236, 4.3580075 51.9309415, 4.3590429 51.9311931), (4.3590429 51.9311931, 4.3592642 51.9312469), (4.3592642 51.9312469, 4.359855 51.9313847, 4.3599898 51.9314162), (4.3599898 51.9314162, 4.3601858 51.9314661, 4.3602706 51.9315656, 4.359799 51.932356), (4.359799 51.932356, 4.3596709 51.9325515), (4.3596709 51.9325515, 4.3593714 51.9330199, 4.3589339 51.9337078, 4.3586679 51.9341225), (4.3586679 51.9341225, 4.358382 51.9345833, 4.3582754 51.9347574, 4.3582411 51.9348103, 4.3582257 51.9348376, 4.3581827 51.9349044, 4.3581622 51.9349332, 4.3581428 51.9349659, 4.3579474 51.9352716, 4.3578647 51.9354195, 4.3578092 51.9354828, 4.357195 51.9359678, 4.3569988 51.9362657, 4.3567507 51.9366201, 4.3565536 51.9369281, 4.356491 51.9370351), (4.356491 51.9370351, 4.3565665 51.9370686), (4.3565665 51.9370686, 4.3566717 51.9371406, 4.3567154 51.9371776, 4.3567625 51.9372252, 4.3568002 51.9372833, 4.3568238 51.9373298, 4.3568481 51.9373842, 4.3568639 51.9374799, 4.3568651 51.9375806, 4.3568554 51.9376864, 4.35684 51.9377514, 4.3567858 51.9378995, 4.3567455 51.9380034, 4.3566979 51.9381088, 4.3564993 51.9384651, 4.3564494 51.9385596, 4.3563249 51.9387951, 4.3561249 51.9392072, 4.356065 51.9393251, 4.3557599 51.9399255, 4.3557022 51.940032, 4.3556172 51.9401481, 4.355529 51.9402184, 4.35539 51.940299, 4.3550185 51.9404123, 4.3546396 51.9405166, 4.3544254 51.9405252, 4.3542605 51.9404987, 4.3538845 51.9404167, 4.3533824 51.9402992, 4.3530935 51.9402316, 4.3530221 51.9402142, 4.3527503 51.9401479, 4.3525357 51.9400993, 4.3523454 51.9400515, 4.3518236 51.9399261, 4.3509842 51.9397313, 4.3508536 51.9397016), (4.3487857 51.9399596, 4.3489563 51.9400046, 4.3491827 51.9400563, 4.3494664 51.9401237, 4.3496142 51.9401357, 4.3497747 51.9401344, 4.3500136 51.9400879, 4.3502442 51.9400226, 4.3505525 51.9399353, 4.3506999 51.939864, 4.3507801 51.9398, 4.3508536 51.9397016), (4.3487857 51.9399596, 4.3486584 51.939958, 4.3485371 51.9399373, 4.3484128 51.939901, 4.3483153 51.9398496), (4.3464812 51.9392417, 4.3465445 51.9393187, 4.3466764 51.9394249, 4.3468529 51.9394998, 4.3475501 51.9396673, 4.3483153 51.9398496), (4.3464812 51.9392417, 4.34637 51.9391652, 4.3463194 51.9390866, 4.346066 51.9387156, 4.3460271 51.9386053), (4.3449612 51.9381213, 4.3450929 51.9381525, 4.3452872 51.9381973, 4.3453958 51.9382246, 4.3456217 51.9382767, 4.3457936 51.938358, 4.3458869 51.9384266, 4.3460271 51.9386053), (4.3449612 51.9381213, 4.3448668 51.9381189, 4.3446974 51.9380757, 4.3445747 51.938048, 4.3444494 51.9379978), (4.3400387 51.9378618, 4.3403173 51.9377216, 4.3409861 51.9373795, 4.3411221 51.9373351, 4.3412581 51.937307, 4.3414806 51.9373042, 4.3416068 51.9373219, 4.3420276 51.93742, 4.343464 51.9377645, 4.3444494 51.9379978), (4.3400387 51.9378618, 4.3399563 51.9379266, 4.3398057 51.9379996, 4.3396986 51.9380525, 4.339586 51.9380869), (4.3365298 51.9377525, 4.3376971 51.9380252, 4.3383212 51.9381785, 4.3385091 51.9382234, 4.3387554 51.9382808, 4.3389716 51.9382917, 4.3390861 51.9382804, 4.339202 51.9382572, 4.339284 51.9382315, 4.339586 51.9380869), (4.3365298 51.9377525, 4.3364963 51.9378144, 4.3364667 51.9378646, 4.3364278 51.9379375), (4.3364278 51.9379375, 4.3359951 51.9378332))</t>
+          <t>MULTILINESTRING ((4.4237287 51.9404329, 4.4240357 51.9405534, 4.4244828 51.9407398, 4.4250175 51.9409499, 4.4258131 51.941257, 4.4259391 51.9413077), (4.4236089 51.9403468, 4.4236464 51.9403938, 4.4236976 51.9404188, 4.4237287 51.9404329), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236035 51.9402878, 4.4236137 51.9402478, 4.4236637 51.9402051, 4.4237385 51.9401662), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4270683 51.9370452, 4.426373 51.9376912), (4.4270683 51.9370452, 4.427082 51.9369986, 4.4271667 51.9368991, 4.4272147 51.9368427, 4.4272501 51.9368031), (4.4272501 51.9368031, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272706 51.9366729, 4.4272911 51.9366554, 4.4273173 51.936641, 4.4273663 51.9366265, 4.4274203 51.9366231, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4285341 51.9340136, 4.4285033 51.9341141, 4.4284473 51.9342692, 4.4281597 51.9350008, 4.4281072 51.9351304), (4.432242 51.9319085, 4.432135 51.9319679, 4.4317837 51.9321628, 4.4314893 51.9323241, 4.4313921 51.9323759, 4.431275 51.9324277, 4.4310585 51.9325147, 4.430748 51.9326194, 4.4305829 51.932679, 4.4294235 51.9330973, 4.4290224 51.9332532, 4.4288567 51.9333275, 4.4287739 51.9333936, 4.4287545 51.9334365, 4.4287209 51.9335246, 4.4286269 51.9337708, 4.4285694 51.9339213, 4.4285341 51.9340136), (4.4330711 51.9314425, 4.432337 51.9318543, 4.432242 51.9319085), (4.4330711 51.9314425, 4.4331351 51.9313815, 4.4332696 51.9312955, 4.4333682 51.9312404, 4.4334446 51.931197, 4.4336887 51.9310632, 4.4338594 51.930983, 4.4341974 51.9308369, 4.4342483 51.9308149, 4.4342928 51.9307957, 4.4343593 51.930771), (4.4343593 51.930771, 4.4343578 51.9307296, 4.4343782 51.9306901, 4.4344182 51.9306569, 4.4344735 51.9306334), (4.4344735 51.9306334, 4.4345296 51.9306229, 4.4345883 51.9306227, 4.4346446 51.9306327, 4.4346858 51.930648, 4.4347201 51.9306689, 4.4347455 51.9306941, 4.4347607 51.9307223), (4.4347607 51.9307223, 4.4348329 51.9307713, 4.4348822 51.9307965, 4.434938 51.9308121, 4.4351093 51.93086, 4.4361214 51.9310013, 4.4366914 51.9310783, 4.4369013 51.9311042, 4.4370328 51.9311144, 4.4373609 51.9311337, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411748 51.9298744, 4.4413655 51.9298059), (4.4413655 51.9298059, 4.4415222 51.9297594, 4.4417071 51.9297127), (4.4417071 51.9297127, 4.4417842 51.9296966, 4.4420381 51.9296437, 4.4421633 51.9296299, 4.442924 51.9295461, 4.4432197 51.9295176, 4.4436136 51.9294796, 4.4440253 51.9294401, 4.4443073 51.9294184, 4.4445478 51.9294001, 4.4474544 51.9290982, 4.4476899 51.9290793, 4.4479408 51.929063, 4.4482372 51.9290547, 4.4486326 51.929048, 4.4489235 51.9290776), (4.4489235 51.9290776, 4.451483 51.928758, 4.4518455 51.9287187, 4.4521984 51.9286924, 4.4525874 51.9286841, 4.453014 51.9287007, 4.4534101 51.928726, 4.4537858 51.9287652, 4.454069 51.9288139, 4.4543227 51.9288638, 4.4545912 51.9289339, 4.4546806 51.9289573, 4.4548902 51.9290061), (4.4548902 51.9290061, 4.4550004 51.929042, 4.4550285 51.9290505, 4.4550901 51.9290671, 4.4551369 51.92908), (4.4551369 51.92908, 4.4552782 51.9291252, 4.455322 51.92914, 4.4558103 51.9293057, 4.4559957 51.9293676, 4.4566856 51.929577), (4.4566856 51.929577, 4.4582187 51.9300752, 4.4583316 51.9301119, 4.4584932 51.9301628), (4.4584932 51.9301628, 4.458545 51.9301021, 4.4588119 51.929784, 4.4591557 51.9293752, 4.4594065 51.9290855), (4.4594065 51.9290855, 4.4594334 51.9290538), (4.4594334 51.9290538, 4.4601822 51.9281608, 4.4609108 51.9272917, 4.4610122 51.9271469, 4.4610742 51.9270027), (4.4610742 51.9270027, 4.4612677 51.9265761, 4.4613066 51.9264892, 4.461349 51.9263877), (4.461349 51.9263877, 4.4613778 51.9263181, 4.4613899 51.9262895, 4.4613975 51.9262694, 4.4614198 51.9262164), (4.4614198 51.9262164, 4.4614538 51.9261322, 4.4615729 51.9258742, 4.4616146 51.9257729), (4.4616146 51.9257729, 4.4617251 51.9255311), (4.4617251 51.9255311, 4.4617315 51.9253463, 4.461795 51.9251081), (4.461795 51.9251081, 4.4620129 51.9243544), (4.4620129 51.9243544, 4.4623025 51.9233666), (4.4623025 51.9233666, 4.4624397 51.9229588), (4.4624397 51.9229588, 4.4625063 51.9227482, 4.4625424 51.9226622, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825))</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>384666</t>
+          <t>384086</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2084,17 +2084,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vlaardingen, Station Vlaardingen West</t>
+          <t>Rotterdam, Melanchthonweg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bus 56: Vlaardingen Holy Noord =&gt; Vlaardingen West</t>
+          <t>Bus 35: Rotterdam Station Alexander =&gt; Rotterdam Melanchthonweg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2105,14 +2105,14 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3359951 51.9378332, 4.3358063 51.9377908), (4.3358943 51.9376361, 4.3358569 51.9376982, 4.3358063 51.9377908), (4.3359252 51.937591, 4.3358943 51.9376361), (4.3359252 51.937591, 4.3360908 51.9376302, 4.3362423 51.9376853), (4.3362423 51.9376853, 4.3365298 51.9377525), (4.3365298 51.9377525, 4.3376971 51.9380252, 4.3383212 51.9381785, 4.3385091 51.9382234, 4.3387554 51.9382808, 4.3389716 51.9382917, 4.3390861 51.9382804, 4.339202 51.9382572, 4.339284 51.9382315, 4.339586 51.9380869), (4.339586 51.9380869, 4.3396544 51.9380272, 4.3397665 51.9379658, 4.3399374 51.9378799, 4.3400387 51.9378618), (4.3400387 51.9378618, 4.3403173 51.9377216, 4.3409861 51.9373795, 4.3411221 51.9373351, 4.3412581 51.937307, 4.3414806 51.9373042, 4.3416068 51.9373219, 4.3420276 51.93742, 4.343464 51.9377645, 4.3444494 51.9379978), (4.3444494 51.9379978, 4.3445941 51.9380074, 4.3447251 51.9380304, 4.3449127 51.9380904, 4.3449612 51.9381213), (4.3449612 51.9381213, 4.3450929 51.9381525, 4.3452872 51.9381973, 4.3453958 51.9382246, 4.3456217 51.9382767, 4.3457936 51.938358, 4.3458869 51.9384266, 4.3460271 51.9386053), (4.3460271 51.9386053, 4.3461452 51.9386965, 4.3463991 51.9390576, 4.346445 51.9391564, 4.3464812 51.9392417), (4.3464812 51.9392417, 4.3465445 51.9393187, 4.3466764 51.9394249, 4.3468529 51.9394998, 4.3475501 51.9396673, 4.3483153 51.9398496), (4.3483153 51.9398496, 4.348449 51.9398644, 4.3485692 51.9398824, 4.3486804 51.9399182, 4.3487857 51.9399596), (4.3487857 51.9399596, 4.3489563 51.9400046, 4.3491827 51.9400563, 4.3494664 51.9401237, 4.3496142 51.9401357, 4.3497747 51.9401344, 4.3500136 51.9400879, 4.3502442 51.9400226, 4.3505525 51.9399353, 4.3506999 51.939864, 4.3507801 51.9398, 4.3508536 51.9397016), (4.3509028 51.9396262, 4.3508536 51.9397016), (4.3509028 51.9396262, 4.3510325 51.9396597, 4.3518665 51.9398576, 4.3525421 51.9400092, 4.3526477 51.9400348, 4.3527787 51.9400665, 4.353143 51.9401525, 4.3539259 51.9403409, 4.3544192 51.940462, 4.3546187 51.9404701, 4.3549997 51.9403882, 4.3553659 51.940269, 4.3555552 51.9401346, 4.3556883 51.9399078, 4.3559838 51.9393107, 4.3560445 51.9391879, 4.3564222 51.9384494, 4.3565673 51.9381618, 4.3566658 51.9379756, 4.3567119 51.9378776, 4.3567584 51.9377788, 4.356795 51.9376787, 4.3568071 51.9376199, 4.3568076 51.9375258, 4.3568002 51.9374406, 4.3567691 51.9373402), (4.3567691 51.9373402, 4.3567599 51.9373221, 4.3567459 51.9372951, 4.3567171 51.9372573, 4.3566653 51.9372061, 4.3566179 51.9371689, 4.3565376 51.93712, 4.3564458 51.937082), (4.356491 51.9370351, 4.3564458 51.937082), (4.3586679 51.9341225, 4.358382 51.9345833, 4.3582754 51.9347574, 4.3582411 51.9348103, 4.3582257 51.9348376, 4.3581827 51.9349044, 4.3581622 51.9349332, 4.3581428 51.9349659, 4.3579474 51.9352716, 4.3578647 51.9354195, 4.3578092 51.9354828, 4.357195 51.9359678, 4.3569988 51.9362657, 4.3567507 51.9366201, 4.3565536 51.9369281, 4.356491 51.9370351), (4.3596709 51.9325515, 4.3593714 51.9330199, 4.3589339 51.9337078, 4.3586679 51.9341225), (4.359799 51.932356, 4.3596709 51.9325515), (4.3599898 51.9314162, 4.3601858 51.9314661, 4.3602706 51.9315656, 4.359799 51.932356), (4.3592642 51.9312469, 4.359855 51.9313847, 4.3599898 51.9314162), (4.3590429 51.9311931, 4.3592642 51.9312469), (4.3579138 51.9309236, 4.3580075 51.9309415, 4.3590429 51.9311931), (4.3562669 51.9305392, 4.3564801 51.9305838, 4.3566222 51.9306164, 4.3567608 51.9306465, 4.357046 51.9307135, 4.3576866 51.9308703, 4.3579138 51.9309236), (4.3559427 51.9306372, 4.3562669 51.9305392), (4.3555582 51.9307683, 4.3556617 51.930733, 4.355829 51.930676, 4.3559427 51.9306372), (4.3553254 51.9308444, 4.3554304 51.9308101, 4.3555582 51.9307683), (4.3541228 51.9306487, 4.3542693 51.9306833, 4.3548684 51.9308323, 4.3550447 51.9308568, 4.3551793 51.9308663, 4.3553254 51.9308444), (4.3527713 51.93033, 4.3531083 51.9304095, 4.3541228 51.9306487), (4.3524502 51.930253, 4.3527713 51.93033), (4.3519893 51.9301404, 4.3524502 51.930253), (4.3519893 51.9301404, 4.3515087 51.9300628, 4.3513649 51.9300493), (4.3513649 51.9300493, 4.3513298 51.9300692, 4.3512879 51.9300833, 4.3512417 51.9300906, 4.3511782 51.9300891, 4.3511189 51.930075, 4.3510701 51.9300499, 4.351044 51.9300257, 4.3510282 51.9299984, 4.3510235 51.9299695), (4.3510235 51.9299695, 4.3508993 51.9299256, 4.350742 51.9298416), (4.3505695 51.9297981, 4.3506634 51.9298204, 4.350742 51.9298416), (4.3492231 51.9294823, 4.3497179 51.9295998, 4.3497826 51.9296139, 4.3501344 51.9296988, 4.3505695 51.9297981), (4.347647 51.9290551, 4.347712 51.9290943, 4.3479637 51.9291789, 4.3481723 51.9292292, 4.3483479 51.9292716, 4.3492231 51.9294823), (4.3474773 51.9288911, 4.3475502 51.9289818, 4.347647 51.9290551), (4.3471565 51.9283836, 4.3472503 51.9284811, 4.3474773 51.9288911), (4.3453012 51.9278982, 4.3458234 51.9280233, 4.346062 51.9280805, 4.3463656 51.9281532, 4.3464048 51.9281629, 4.346954 51.9282996, 4.3470822 51.9283427, 4.3471565 51.9283836), (4.3448134 51.9277814, 4.3449599 51.9278178, 4.3453012 51.9278982), (4.3444789 51.9277003, 4.3445113 51.9277074, 4.3448134 51.9277814), (4.3442102 51.9276415, 4.3442972 51.9276604, 4.3444789 51.9277003), (4.3440878 51.9276145, 4.3442102 51.9276415), (4.343923 51.9275755, 4.3440878 51.9276145), (4.343923 51.9275755, 4.3439967 51.9274593, 4.3441877 51.9271451, 4.3455256 51.9249444), (4.3455256 51.9249444, 4.3457742 51.9245327, 4.3458006 51.9244771, 4.3458652 51.9243697), (4.3458652 51.9243697, 4.3461052 51.9244273), (4.3461052 51.9244273, 4.3462418 51.9244593, 4.3463134 51.9244758, 4.3466087 51.924549), (4.3466087 51.924549, 4.3468574 51.9246083, 4.3469652 51.9246344, 4.3475963 51.9247879, 4.3483397 51.9249657, 4.3487193 51.9250421, 4.348866 51.9250729, 4.3490906 51.9250954, 4.3493369 51.9251204, 4.349398 51.9251245, 4.3498175 51.9251678, 4.3505473 51.9252226, 4.3508518 51.9252494, 4.3518988 51.9253428, 4.3519857 51.9253504), (4.3519857 51.9253504, 4.3523562 51.9253952, 4.3526789 51.9254486), (4.3526789 51.9254486, 4.3529509 51.9255086, 4.3532185 51.9255728), (4.3532185 51.9255728, 4.3535027 51.9256376, 4.353601 51.9256611, 4.3537485 51.9256952), (4.3537485 51.9256952, 4.3538107 51.9255953, 4.3538648 51.9255004, 4.3539148 51.9253552, 4.3539074 51.925262, 4.3539009 51.9251977, 4.3538406 51.9250855, 4.3537617 51.9250007, 4.3536657 51.924917, 4.3533774 51.9247632, 4.3528098 51.9244962, 4.3527098 51.9244424, 4.3525613 51.9243541, 4.3524401 51.9242471, 4.3523886 51.9241733, 4.3523171 51.9240715, 4.3522744 51.9239525, 4.3522643 51.9238274, 4.3522604 51.9236989, 4.3523225 51.9235858, 4.3524323 51.9234144, 4.3526445 51.9230833), (4.3526445 51.9230833, 4.3529797 51.9225548, 4.3530046 51.9225156, 4.3530809 51.9224077), (4.3530809 51.9224077, 4.3531574 51.922321), (4.3531574 51.922321, 4.3532507 51.9222196, 4.3536143 51.9217443, 4.3537672 51.9215293, 4.3539137 51.9213865, 4.3542556 51.9210476, 4.3543213 51.9209843, 4.3544126 51.9209086, 4.3546035 51.9207503, 4.3550078 51.9204317, 4.3552227 51.9202518), (4.3552227 51.9202518, 4.355464 51.9200296, 4.3555709 51.9199245), (4.3555709 51.9199245, 4.3556222 51.9198745), (4.3556222 51.9198745, 4.3557114 51.9197805, 4.3557619 51.9197408, 4.3560239 51.9195228), (4.3562468 51.9193374, 4.3560239 51.9195228), (4.3562468 51.9193374, 4.3562923 51.9192579, 4.3564182 51.9191851), (4.3572854 51.9183682, 4.3569974 51.918635, 4.3566069 51.9189934, 4.3564182 51.9191851), (4.3572854 51.9183682, 4.3573706 51.9182493, 4.3574128 51.9182124, 4.3575409 51.9181246), (4.3576805 51.917929, 4.3575409 51.9181246), (4.3576805 51.917929, 4.3577307 51.9177909, 4.3578643 51.9176704), (4.358273 51.9171422, 4.3578643 51.9176704), (4.358273 51.9171422, 4.3583989 51.9169823, 4.3586714 51.9165993), (4.3586714 51.9165993, 4.3587495 51.9164541, 4.3588002 51.9163849), (4.3588002 51.9163849, 4.3587662 51.9163541, 4.3587474 51.9163186, 4.3587454 51.9162813, 4.3587579 51.9162488, 4.3587832 51.9162192, 4.3588227 51.9161929, 4.3588721 51.916174, 4.3589278 51.916164, 4.3589859 51.9161635), (4.3589859 51.9161635, 4.3590302 51.9160969, 4.3591233 51.9160252), (4.3591233 51.9160252, 4.3591738 51.9159466, 4.3593765 51.9156528, 4.3594443 51.9155532), (4.3597036 51.9152008, 4.3594615 51.9155295, 4.3594443 51.9155532), (4.3597036 51.9152008, 4.359976 51.9147613, 4.3600199 51.9146933, 4.3600458 51.9146559, 4.3600791 51.9146078), (4.3600791 51.9146078, 4.3601568 51.9145522), (4.3601568 51.9145522, 4.3601878 51.9144588), (4.3601878 51.9144588, 4.3601608 51.9144005, 4.3601679 51.9143823, 4.3601752 51.9143639, 4.3602702 51.9142028), (4.3602702 51.9142028, 4.3606291 51.9133128, 4.3606994 51.9131287), (4.3606994 51.9131287, 4.360726 51.9129965, 4.3607586 51.9129137, 4.3607856 51.9128488, 4.3607944 51.9128238, 4.3608172 51.9127679), (4.3608172 51.9127679, 4.3608899 51.9126204, 4.3609313 51.9125196, 4.3610047 51.9123802), (4.3612418 51.9117696, 4.3610047 51.9123802), (4.3612418 51.9117696, 4.3612961 51.9115948, 4.3612286 51.9114164), (4.3612286 51.9114164, 4.3611347 51.9113805, 4.3610383 51.9112782, 4.3610129 51.9112515, 4.3609873 51.9112275, 4.3609268 51.9111813, 4.3608946 51.9111568), (4.3608946 51.9111568, 4.3607963 51.9111515, 4.360737 51.9111312, 4.3606969 51.911108, 4.3606689 51.9110621, 4.3606736 51.9110153, 4.3606919 51.9109839, 4.3607214 51.910963), (4.3607214 51.910963, 4.3606641 51.9109053, 4.3606477 51.9108887, 4.3606117 51.9108579, 4.3605134 51.9107619, 4.3604497 51.910645), (4.3603759 51.9105709, 4.3604497 51.910645), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.3610858 51.9106382, 4.3611254 51.9105905, 4.3612273 51.9104633, 4.3612512 51.9104357, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3601654 51.9103626, 4.3598195 51.9101251, 4.3596939 51.9099938), (4.3596939 51.9099938, 4.3596106 51.9099183, 4.3594546 51.9097895), (4.3594546 51.9097895, 4.3593013 51.9096644, 4.3591826 51.9095669), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3586815 51.9093418, 4.3584023 51.9093665, 4.3582834 51.9093753, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3525496 51.9094094, 4.3525195 51.9094715), (4.3525195 51.9094715, 4.3524649 51.9095268, 4.3523892 51.9095718, 4.3523097 51.9095992), (4.3523097 51.9095992, 4.3522975 51.9096035, 4.3522368 51.9096136), (4.3522368 51.9096136, 4.3521958 51.9096197, 4.3520908 51.9096195, 4.3520628 51.9096149), (4.3520628 51.9096149, 4.3519892 51.9096028, 4.3519821 51.9096002), (4.3519821 51.9096002, 4.3518979 51.9095707, 4.3518673 51.9095523, 4.3518228 51.9095254, 4.3517875 51.9094917, 4.3517808 51.9094853, 4.3517469 51.9094302, 4.3517346 51.9093718), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3446973 51.909355, 4.3449363 51.909356), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3437 51.9094, 4.3435453 51.9094618, 4.343117 51.9095625), (4.343117 51.9095625, 4.3430661 51.9095744, 4.342946 51.9095826), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3378036 51.9108706, 4.3378974 51.9109945, 4.338072 51.9111947), (4.3378036 51.9108706, 4.3377469 51.9108838, 4.3376508 51.9109062, 4.3371833 51.9110026, 4.336912 51.9110588, 4.3359093 51.9112671, 4.3356535 51.9113193, 4.335168 51.9114174, 4.335145 51.911422), (4.335145 51.911422, 4.3351062 51.9114302, 4.3350243 51.9114476), (4.3350243 51.9114476, 4.3349632 51.9114604, 4.3349091 51.9114734, 4.334855 51.9114864), (4.3347128 51.9115162, 4.334855 51.9114864), (4.3347128 51.9115162, 4.33462 51.9115364, 4.3345112 51.91156), (4.3345112 51.91156, 4.3344452 51.9115739), (4.3344452 51.9115739, 4.334402 51.9115831, 4.3336587 51.9117294), (4.3336587 51.9117294, 4.3333849 51.9117881, 4.3327983 51.9119094, 4.3320314 51.9120694, 4.3319355 51.9120894), (4.3319355 51.9120894, 4.3310565 51.9122668, 4.3308912 51.9123013, 4.3307236 51.9123335, 4.3305572 51.9123669, 4.3298911 51.9125014, 4.3296722 51.9125472, 4.3295422 51.912573, 4.3288141 51.9127264), (4.3288141 51.9127264, 4.3286987 51.9127498, 4.3285028 51.9127895), (4.3285028 51.9127895, 4.3280686 51.9128757), (4.3280686 51.9128757, 4.3279711 51.9128963, 4.3279198 51.9129071, 4.3278663 51.9129183), (4.3277265 51.9129507, 4.3278663 51.9129183), (4.3275722 51.9129724, 4.3277265 51.9129507), (4.3273976 51.9129952, 4.3275722 51.9129724), (4.3273976 51.9129952, 4.3273525 51.9129992, 4.327277 51.9130064, 4.3266714 51.9130641), (4.3266714 51.9130641, 4.3262789 51.9131035, 4.3260794 51.9131269, 4.3252635 51.9132005, 4.3249395 51.9132309, 4.3247289 51.9132507, 4.3242197 51.9133022, 4.3216897 51.9135331, 4.320528 51.9136486, 4.3202021 51.913674, 4.3199892 51.9136831), (4.3166314 51.9136657, 4.3169459 51.9136683, 4.3171779 51.9136707, 4.3172946 51.9136714, 4.3186721 51.9136851, 4.3189693 51.9136873, 4.319681 51.9136884, 4.3199892 51.9136831), (4.31644 51.9132895, 4.3165207 51.9135717, 4.316551 51.9136311, 4.3166314 51.9136657), (4.3161129 51.9121043, 4.3162309 51.9125272, 4.3162589 51.9126183, 4.3162855 51.9127189, 4.316354 51.912992, 4.31644 51.9132895), (4.3161129 51.9121043, 4.316031 51.9120012, 4.3159829 51.9118434, 4.3159536 51.9117475, 4.315925 51.9116129), (4.315925 51.9116129, 4.3159272 51.9115485, 4.3159536 51.9114985, 4.3160064 51.9114554, 4.3160668 51.9114136, 4.316219 51.9113539), (4.3168654 51.9110391, 4.316219 51.9113539), (4.3168654 51.9110391, 4.3169825 51.9109428, 4.3173545 51.9107783, 4.3174996 51.9107224), (4.3174996 51.9107224, 4.3174219 51.9106348, 4.3173406 51.9104781), (4.3173406 51.9104781, 4.3173317 51.910461, 4.3172762 51.910344, 4.3172502 51.910281, 4.3172042 51.9101972, 4.3170998 51.9100099), (4.3163962 51.9086105, 4.316582 51.9089508, 4.31674 51.9092775, 4.316787 51.9093778, 4.3168883 51.9096121, 4.3170211 51.9098371, 4.3170998 51.9100099), (4.3150761 51.9060425, 4.3151932 51.9062677, 4.315635 51.9071258, 4.315736 51.907312, 4.3158242 51.9074772, 4.3160471 51.9079105, 4.3163962 51.9086105), (4.3147493 51.9053738, 4.3150761 51.9060425), (4.3147155 51.905133, 4.3146949 51.9051686, 4.3146937 51.905179, 4.3146896 51.9052142, 4.3147071 51.9052742, 4.3147493 51.9053738), (4.3152785 51.9049688, 4.3149079 51.905055, 4.3147712 51.9050989, 4.3147155 51.905133), (4.3152785 51.9049688, 4.3152333 51.9049019), (4.3152333 51.9049019, 4.3150527 51.9046041, 4.3150059 51.9045269, 4.3149703 51.9044683))</t>
+          <t>MULTILINESTRING ((4.5512133 51.9522286, 4.5511895 51.9522888, 4.5508647 51.953045, 4.550846 51.9531211, 4.5507882 51.9533338), (4.5507882 51.9533338, 4.5504969 51.9540911), (4.5504969 51.9540911, 4.5498886 51.9554752, 4.5497528 51.9558062, 4.5496322 51.9560771, 4.5494213 51.9565484), (4.5494213 51.9565484, 4.549192 51.9570693, 4.5488435 51.9579054, 4.5484348 51.9588179, 4.5484101 51.9588721, 4.548392 51.9589114, 4.5483235 51.9590597), (4.5483235 51.9590597, 4.5486125 51.9591106, 4.5486707 51.9591191, 4.5488137 51.9591414, 4.5488807 51.9591533, 4.5507389 51.959507, 4.552417 51.9597822, 4.5524793 51.9597933, 4.5526053 51.9598132), (4.5526053 51.9598132, 4.5526519 51.9597894, 4.552707 51.959774, 4.5527667 51.9597679, 4.5528261 51.9597715, 4.5529009 51.9597914, 4.5529593 51.9598256, 4.552995 51.9598702), (4.552995 51.9598702, 4.5531126 51.9598821, 4.5531675 51.9598912, 4.5558747 51.9603387, 4.5559309 51.9603504, 4.5560694 51.9603701), (4.5560694 51.9603701, 4.5561309 51.9603443, 4.5562031 51.9603333, 4.5562766 51.9603385, 4.5563347 51.9603554, 4.5563814 51.9603822, 4.556413 51.9604164), (4.556413 51.9604164, 4.5564265 51.9604548, 4.5564206 51.960494, 4.5563959 51.9605302, 4.5563548 51.9605603), (4.5563548 51.9605603, 4.5562944 51.960583, 4.5562251 51.9605921), (4.5562251 51.9605921, 4.5561964 51.9606726, 4.5561766 51.9607203, 4.5560535 51.961017, 4.5558639 51.9614738, 4.5555843 51.962086, 4.5553224 51.9627613, 4.5551031 51.9632709, 4.5550214 51.9634915, 4.5550072 51.9635247, 4.5549068 51.963747, 4.5548372 51.9638879, 4.5547529 51.9640715, 4.5547189 51.9641334, 4.5541808 51.9654218, 4.5541197 51.9655647, 4.5537412 51.9664629, 4.5537204 51.9665117, 4.5536515 51.9666201, 4.5535551 51.9666839), (4.5535551 51.9666839, 4.5533822 51.9666588, 4.553316 51.9666479, 4.5505247 51.9661889, 4.5503348 51.9661577, 4.5502567 51.9661448, 4.5500533 51.9661114, 4.5498361 51.96608, 4.5497929 51.9660729, 4.5485196 51.9658541, 4.5483789 51.9658319, 4.5458307 51.9654202, 4.5457712 51.9654094, 4.5447154 51.9652476, 4.5446126 51.9652306, 4.5425594 51.9648905, 4.5425072 51.9648818, 4.5423065 51.9648513, 4.5421054 51.9648265, 4.5420476 51.9648163, 4.5414973 51.9647206, 4.5380804 51.964159, 4.5380102 51.9641488, 4.5368698 51.96396, 4.5367467 51.9639398, 4.5366027 51.9639182, 4.534454 51.9635714, 4.5341893 51.9635287, 4.534114 51.963516, 4.533933 51.9634878, 4.5337249 51.9634527, 4.5336773 51.9634449, 4.5330237 51.9633471, 4.5328783 51.9633209, 4.5299144 51.9628437, 4.5298409 51.9628328, 4.5296891 51.9628059, 4.5295831 51.9627368), (4.5295831 51.9627368, 4.529636 51.962602, 4.5296504 51.9625533, 4.5298275 51.9621335, 4.5298982 51.9619812, 4.5301804 51.9613164, 4.5302099 51.9612434, 4.5303672 51.9608906, 4.5304075 51.9607954, 4.5306911 51.9601258, 4.5311963 51.9589308, 4.5312505 51.9588027, 4.531287 51.9587163, 4.5317765 51.9575951, 4.5320511 51.9569691, 4.5321188 51.9568149, 4.5321367 51.956774, 4.5321744 51.9566762), (4.5321744 51.9566762, 4.5321425 51.9566602, 4.5321173 51.9566401, 4.5321 51.9566171), (4.5321 51.9566171, 4.5319184 51.9565827, 4.5318596 51.9565739, 4.5309692 51.9564277, 4.53021 51.9562335, 4.5299169 51.9561501), (4.5282061 51.9558718, 4.5287176 51.9559525, 4.5299169 51.9561501), (4.5282061 51.9558718, 4.5279948 51.955877, 4.5276996 51.9558421, 4.5259546 51.9555724, 4.5257468 51.9555248, 4.5255336 51.9554625, 4.5253982 51.955403, 4.5252628 51.9553244, 4.5251071 51.9552102, 4.5250231 51.955122, 4.5249582 51.9550271, 4.5249053 51.9549109, 4.5248719 51.9548117, 4.5248648 51.9547405, 4.5249115 51.9544586, 4.5249338 51.9543521, 4.5249705 51.9542182, 4.5250771 51.9538835, 4.5251642 51.9536192), (4.5251642 51.9536192, 4.5252346 51.9531142, 4.525267 51.9528292, 4.5252893 51.9525759), (4.5252893 51.9525759, 4.5252137 51.9524501, 4.5251528 51.9522985, 4.5251359 51.9522619, 4.5251222 51.9522325, 4.5250665 51.9521209), (4.5250665 51.9521209, 4.525026 51.952026, 4.5249921 51.9519291, 4.5249864 51.9518918, 4.5250001 51.9518555, 4.5250654 51.9517805), (4.5250654 51.9517805, 4.5249274 51.951759, 4.5248472 51.9517456, 4.5246415 51.9517109, 4.5246222 51.9517076, 4.5243811 51.9516669, 4.5242313 51.9516419, 4.5241502 51.9516268, 4.5240917 51.9516087, 4.5240309 51.9515805, 4.5239743 51.9515442, 4.5239412 51.9515227, 4.5238833 51.9514852, 4.5238367 51.9514561), (4.5230697 51.9513436, 4.5234698 51.9514698, 4.5235149 51.9514827, 4.5235484 51.9514897, 4.5235788 51.9514936, 4.5236097 51.9514951, 4.5236371 51.951496, 4.5236665 51.9514957, 4.5237095 51.9514932, 4.5237526 51.9514874, 4.5237843 51.9514779, 4.5238118 51.9514675, 4.5238367 51.9514561), (4.5190355 51.9501284, 4.5190964 51.950117, 4.5191709 51.950119, 4.5211196 51.9507392, 4.5222088 51.9510769, 4.5230697 51.9513436), (4.5187402 51.9506961, 4.5189813 51.9501812, 4.5190355 51.9501284), (4.5187402 51.9506961, 4.5186934 51.9508097), (4.5186934 51.9508097, 4.5185607 51.9511334), (4.5185607 51.9511334, 4.5184599 51.9513738), (4.5184599 51.9513738, 4.5183999 51.9515137, 4.5183433 51.9516539, 4.5180147 51.9524114), (4.5180147 51.9524114, 4.51812 51.9525233, 4.5184959 51.9528011, 4.5187542 51.952998, 4.5198813 51.9538431, 4.5200386 51.953961, 4.5204577 51.954257, 4.5205083 51.9542949, 4.5205584 51.9543259, 4.5206366 51.9543835, 4.5206923 51.9544319), (4.5206923 51.9544319, 4.5204938 51.954542), (4.5204938 51.954542, 4.5203616 51.9546254, 4.5202301 51.9546848), (4.5191595 51.9553678, 4.5194221 51.9551822, 4.5194518 51.9551645, 4.5200315 51.954809, 4.5202301 51.9546848), (4.5191595 51.9553678, 4.5191143 51.9554317, 4.5190475 51.9554952, 4.5188881 51.9555395), (4.5188881 51.9555395, 4.5186502 51.9555779), (4.5186502 51.9555779, 4.5185185 51.9556009), (4.5185185 51.9556009, 4.5182272 51.9556422), (4.5182272 51.9556422, 4.5181477 51.9556756, 4.5178964 51.955717, 4.517141 51.9558301, 4.516987 51.9558466, 4.5165799 51.9558694, 4.5164783 51.9558698, 4.5164138 51.95587, 4.5163438 51.9558638, 4.5161903 51.9558503, 4.5160346 51.9558346, 4.5157102 51.9557857, 4.5155838 51.9557631, 4.5152332 51.9556937, 4.514841 51.9556032, 4.5147037 51.9555672, 4.5143119 51.9554595, 4.5140586 51.9553899, 4.5136497 51.9552949, 4.5132826 51.9552471, 4.5129318 51.9552458, 4.5125693 51.9552883, 4.5124273 51.9553079, 4.5121847 51.955382, 4.5115704 51.9556744, 4.5113561 51.955743), (4.5113561 51.955743, 4.5111908 51.9558282, 4.5111417 51.9558535, 4.5099593 51.9564478, 4.5088205 51.9570319, 4.5083696 51.9572555, 4.5080133 51.9574317, 4.5039376 51.9594766, 4.5037926 51.9595472, 4.5037559 51.9595651, 4.5037073 51.9595892), (4.5037073 51.9595892, 4.5037298 51.9596033, 4.5037475 51.9596197, 4.5037607 51.9596399, 4.5037667 51.9596614, 4.5037625 51.959692, 4.5037508 51.9597124, 4.5037324 51.9597308, 4.5037087 51.9597463, 4.5036803 51.9597583, 4.503647 51.9597668, 4.5036116 51.9597707, 4.5035755 51.9597698, 4.5035405 51.9597642, 4.503501 51.9597509, 4.5034688 51.9597316), (4.5034688 51.9597316, 4.5034148 51.9597582, 4.5033713 51.9597797, 4.5032653 51.9598324, 4.5031374 51.9598956, 4.4995424 51.9616724, 4.4986838 51.9621142, 4.4983612 51.9622802, 4.4981391 51.9623904, 4.4968457 51.9630322, 4.4967223 51.963095), (4.4967223 51.963095, 4.496522 51.963207, 4.4963424 51.9632937, 4.496117 51.9634024), (4.496117 51.9634024, 4.4959179 51.9633575), (4.4959179 51.9633575, 4.4958561 51.9632692, 4.4957541 51.9631117, 4.4957229 51.9630449, 4.4957171 51.9630004, 4.4957258 51.9629538), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4947256 51.9588903, 4.4945035 51.9589287, 4.4944445 51.9589371, 4.494325 51.958957, 4.4941102 51.9590205, 4.4938361 51.9591313, 4.4935002 51.9592896, 4.4933364 51.9593655, 4.4931854 51.9594332, 4.4926965 51.9596564, 4.4914524 51.9602241, 4.4912643 51.9602903, 4.4911922 51.9603044, 4.4910264 51.9603364), (4.4910264 51.9603364, 4.4909514 51.9603493, 4.4908491 51.9603639, 4.4905674 51.9603672, 4.4903067 51.9603413), (4.4903067 51.9603413, 4.4898986 51.9603381, 4.4895312 51.9603357, 4.4885172 51.9603234, 4.4880386 51.9603203, 4.487502 51.9603169, 4.4870723 51.9603121, 4.4865201 51.9602819, 4.4859047 51.9602288, 4.4858252 51.9602222), (4.4858252 51.9602222, 4.4854695 51.9602076, 4.4845788 51.9601138, 4.4844053 51.9600984, 4.484171 51.9600862, 4.4838171 51.9601002, 4.4832862 51.9601694, 4.4830418 51.9602419, 4.4828798 51.9602752), (4.4828798 51.9602752, 4.4828666 51.9603086, 4.4828376 51.960338), (4.4828376 51.960338, 4.4827984 51.9603596, 4.4827508 51.9603734, 4.4826988 51.9603784), (4.4826988 51.9603784, 4.4826396 51.9603727, 4.4825866 51.9603556), (4.4825866 51.9603556, 4.4825452 51.9603287, 4.48252 51.9602951, 4.4825139 51.9602582), (4.4825139 51.9602582, 4.4825318 51.9602154, 4.4825721 51.9601823), (4.4825721 51.9601823, 4.4825009 51.9600937), (4.4825009 51.9600937, 4.4824629 51.9600478, 4.4822155 51.9597639, 4.4819572 51.9594422), (4.4808593 51.9586176, 4.4809805 51.9586942, 4.4810226 51.9587249, 4.4813274 51.9589474, 4.4815775 51.9591299, 4.4819572 51.9594422), (4.4790072 51.9574984, 4.4793269 51.9576909, 4.4807064 51.9585217, 4.4808593 51.9586176), (4.4783766 51.9567261, 4.4783931 51.9567549, 4.4784489 51.956877, 4.4786328 51.9572059, 4.4789332 51.9574538, 4.4790072 51.9574984), (4.4783311 51.9566338, 4.4783766 51.9567261), (4.4770266 51.9535046, 4.4770446 51.9535475, 4.4772622 51.9540669, 4.4778519 51.9555169, 4.4783058 51.9565748, 4.4783311 51.9566338), (4.4769777 51.9533935, 4.4770266 51.9535046), (4.4761133 51.951366, 4.4762884 51.9517992, 4.4763883 51.9520347, 4.4764833 51.9522527, 4.4766674 51.9526909, 4.4768984 51.953217, 4.4769777 51.9533935), (4.4761133 51.951366, 4.4760122 51.9512203, 4.4756489 51.9503361, 4.4754925 51.9499359, 4.4754222 51.9497574, 4.4752499 51.9494071, 4.4751368 51.9493007, 4.4750345 51.9492347, 4.4749306 51.9491678, 4.4748507 51.9491163), (4.4748507 51.9491163, 4.4747347 51.9491597, 4.4744511 51.9492319, 4.4724441 51.9495501), (4.4724441 51.9495501, 4.4722236 51.9495855, 4.4721214 51.9496012, 4.4712745 51.9497315, 4.4711276 51.9497567, 4.4708872 51.9497798), (4.4708872 51.9497798, 4.4708087 51.949781, 4.4707619 51.9497815, 4.4707108 51.9497823, 4.4705513 51.9497618, 4.4658642 51.9487337, 4.4656684 51.9486885, 4.465322 51.9486231))</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>384833</t>
+          <t>384087</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2122,17 +2122,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rotterdam, Damstraat</t>
+          <t>Rotterdam, Station Alexander</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bus 66: Rotterdam Zuidplein =&gt; Rotterdam Feijenoord</t>
+          <t>Bus 35: Rotterdam Melanchthonweg =&gt; Rotterdam Station Alexander</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2143,14 +2143,14 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4890851 51.8875527, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914114 51.8848169, 4.4915476 51.8848622, 4.4917179 51.8849251, 4.4918239 51.8849677, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919694 51.8850469, 4.4919908 51.8850637, 4.4920249 51.8850973, 4.4920684 51.8851479, 4.4921085 51.8851992, 4.4921349 51.8852442, 4.4921623 51.8852898, 4.4921817 51.8853378), (4.4921817 51.8853378, 4.492182 51.8853799, 4.4921836 51.8854204, 4.4921976 51.8854864, 4.4922585 51.8858192), (4.4922585 51.8858192, 4.492345 51.8863409), (4.492345 51.8863409, 4.4924248 51.8865158), (4.4924248 51.8865158, 4.4924453 51.8865872, 4.4924679 51.8866906, 4.4924773 51.8867328, 4.4925035 51.8868456), (4.4925035 51.8868456, 4.492525 51.8869391), (4.492525 51.8869391, 4.492546 51.8870408, 4.4925541 51.8870788, 4.492603 51.8873091), (4.492603 51.8873091, 4.4926749 51.8874203, 4.4926838 51.887444, 4.4927095 51.8875448, 4.492853 51.8881947, 4.4928616 51.8882335, 4.4928748 51.8882935, 4.4928937 51.8883717, 4.4929264 51.8884548, 4.4929584 51.8885152, 4.4930067 51.8885755), (4.4930067 51.8885755, 4.4930826 51.8886188, 4.493786 51.8890369), (4.493786 51.8890369, 4.493859 51.8890675, 4.4939897 51.8891399, 4.4940574 51.8891698, 4.4942335 51.8892474, 4.4943806 51.8892855, 4.494549 51.8893272), (4.494549 51.8893272, 4.4946726 51.8893486, 4.4947663 51.8893588, 4.4948977 51.8893652, 4.4953682 51.8893762, 4.4954829 51.8893789), (4.4954829 51.8893789, 4.4957775 51.889388, 4.496096 51.8893979, 4.4962387 51.8894001), (4.4962387 51.8894001, 4.4963871 51.8894084), (4.4963871 51.8894084, 4.4963795 51.8894994), (4.4963795 51.8894994, 4.4963715 51.8895956, 4.4963665 51.8896336, 4.4963551 51.8897533, 4.4963654 51.8897864, 4.4963984 51.8898161, 4.4965265 51.8898766), (4.4965265 51.8898766, 4.4970472 51.8901649, 4.4970805 51.8901834, 4.4978093 51.8905885, 4.4980375 51.8907142, 4.4981067 51.8907523, 4.4982784 51.8908436, 4.5000567 51.891829, 4.5001704 51.891895, 4.5016935 51.8927244, 4.5020744 51.8929356, 4.5021387 51.8929709, 4.5027727 51.8933256, 4.5034568 51.8936837, 4.5036591 51.8937981, 4.5038063 51.8938813, 4.5039889 51.8939789, 4.5044471 51.8942426, 4.5055685 51.8948613, 4.505992 51.8950997, 4.5060346 51.8951232, 4.5060726 51.8951505), (4.5060726 51.8951505, 4.5061521 51.8951986, 4.5061853 51.895222, 4.5065265 51.8954518), (4.5065265 51.8954518, 4.5066077 51.8954924, 4.507125 51.8958489, 4.5072364 51.8959257, 4.5078043 51.8962341, 4.5082281 51.8964685, 4.5093164 51.8970659, 4.5094396 51.8971342, 4.5098968 51.8973908), (4.5098968 51.8973908, 4.5100026 51.8974393, 4.5100927 51.8974595, 4.510137 51.8974643, 4.5102215 51.8975387, 4.5102253 51.8976121), (4.5102253 51.8976121, 4.5101952 51.8976791, 4.509199 51.8987249), (4.509199 51.8987249, 4.5091542 51.8987965, 4.5091105 51.8988576), (4.5091105 51.8988576, 4.5092766 51.8989175, 4.5099869 51.8991929, 4.5100522 51.8992153, 4.510149 51.8992732), (4.510149 51.8992732, 4.5103055 51.899309, 4.5103509 51.8993335, 4.5104126 51.8993731), (4.5104126 51.8993731, 4.5104924 51.8994402, 4.5105749 51.8995172, 4.5106389 51.8995864, 4.5106868 51.8996473, 4.510712 51.8996876), (4.510712 51.8996876, 4.5108057 51.8998186), (4.5108057 51.8998186, 4.5108701 51.8999119, 4.5109549 51.9000247, 4.5110421 51.9001303, 4.5111419 51.900228, 4.5112443 51.9003223, 4.5113136 51.9003805, 4.5114057 51.90046, 4.511473 51.9005239, 4.5114993 51.9005496, 4.5115781 51.9006236), (4.5115781 51.9006236, 4.5116739 51.9007187, 4.512018 51.9010389, 4.5121491 51.9011562, 4.5122181 51.9012279), (4.5122181 51.9012279, 4.5122476 51.9012758, 4.5122749 51.9013236, 4.5122881 51.9013631, 4.5122994 51.9014033, 4.512307 51.9014702, 4.512307 51.9015319, 4.5123013 51.9015855, 4.5122825 51.9016449, 4.5122666 51.9016767, 4.5122417 51.9017152, 4.51219 51.901782, 4.5121346 51.9018489, 4.5119209 51.9020859, 4.5113416 51.9027283), (4.5113416 51.9027283, 4.5112182 51.9028623, 4.5100523 51.9041245, 4.5092285 51.9050163, 4.5091435 51.9051084), (4.5091435 51.9051084, 4.5089353 51.9053204), (4.5089353 51.9053204, 4.5088695 51.9053949, 4.5082313 51.9060631, 4.5079594 51.9063177, 4.5076347 51.9066218, 4.5070834 51.9070973, 4.5070137 51.9071819), (4.5070137 51.9071819, 4.5070307 51.9072182, 4.507028 51.9072562, 4.5070075 51.9072899, 4.5069715 51.9073182, 4.5069232 51.9073385), (4.5069232 51.9073385, 4.5068624 51.9073491, 4.5067993 51.9073469), (4.5067993 51.9073469, 4.5066854 51.9074188, 4.5062411 51.9078138, 4.5054961 51.9083704, 4.504258 51.9092873, 4.5030312 51.910166, 4.5028869 51.9102673), (4.5028869 51.9102673, 4.5027652 51.9103536, 4.5013571 51.9113516, 4.5012337 51.911439), (4.5012337 51.911439, 4.5012955 51.9114707, 4.5013301 51.9114896, 4.5014891 51.9115761, 4.5020175 51.911854, 4.5020923 51.9118944, 4.5021465 51.9119247, 4.5022079 51.9119608), (4.5022079 51.9119608, 4.502328 51.9120211), (4.502328 51.9120211, 4.5024459 51.912082), (4.5024459 51.912082, 4.5026421 51.9121916, 4.5031303 51.9124595, 4.5033557 51.9125832, 4.5041949 51.9130446), (4.5041949 51.9130446, 4.5043165 51.9131095, 4.5046995 51.9133214, 4.5056805 51.9138532), (4.5056805 51.9138532, 4.5057884 51.9138942, 4.5058803 51.9139202, 4.5060303 51.9139566, 4.5061061 51.9139673, 4.5063719 51.9139957, 4.5066206 51.9140084), (4.5066206 51.9140084, 4.5068136 51.9140192), (4.5068136 51.9140192, 4.507173 51.9140306, 4.5074053 51.9140448), (4.5074053 51.9140448, 4.5075798 51.9140524), (4.5101582 51.9104103, 4.5101185 51.9104941, 4.5100055 51.9107333, 4.5099658 51.9108173, 4.5098957 51.9109409, 4.5098038 51.9110836, 4.5095351 51.9114699, 4.509515 51.9114987, 4.5093261 51.9117617, 4.5092873 51.9118226, 4.5088951 51.9123558, 4.508676 51.9126536, 4.5086493 51.9127198, 4.5086207 51.912756, 4.508596 51.912789, 4.5085126 51.9129004, 4.5080435 51.9135477, 4.5078732 51.9137672, 4.5076986 51.9140115, 4.5076697 51.91403, 4.5076392 51.9140411, 4.5076135 51.9140492, 4.5075798 51.9140524), (4.510523 51.9100023, 4.5101582 51.9104103), (4.5077828 51.9090881, 4.5085423 51.9093334, 4.5088084 51.9094193, 4.5096531 51.9097012, 4.5097653 51.9097389, 4.510523 51.9100023), (4.507475 51.9084554, 4.5076346 51.9090111, 4.5076614 51.9090351, 4.5077828 51.9090881))</t>
+          <t>MULTILINESTRING ((4.4645829 51.9484554, 4.4647692 51.9484723, 4.464916 51.9484851, 4.465012 51.9484947, 4.4652842 51.9485329), (4.4652842 51.9485329, 4.4657957 51.9486184, 4.4659296 51.9486445), (4.4659296 51.9486445, 4.4694131 51.9494095), (4.4694131 51.9494095, 4.4705267 51.949657, 4.4706234 51.9496679, 4.4706929 51.9496733, 4.4707491 51.9496763, 4.470806 51.94968), (4.470806 51.94968, 4.4710858 51.949662, 4.4715732 51.949587, 4.4721833 51.9494916, 4.4725064 51.94944, 4.4728318 51.9493883), (4.4728318 51.9493883, 4.4745151 51.9491291, 4.4746684 51.949094, 4.4747875 51.9490348), (4.4747875 51.9490348, 4.4749412 51.9490543, 4.4750191 51.9491104, 4.475184 51.9492366, 4.4752364 51.9492719, 4.4753387 51.9493807, 4.4754996 51.9497418, 4.4757275 51.9503233, 4.4760813 51.951205, 4.4761133 51.951366), (4.4761133 51.951366, 4.4762884 51.9517992, 4.4763883 51.9520347, 4.4764833 51.9522527, 4.4766674 51.9526909, 4.4768984 51.953217, 4.4769777 51.9533935), (4.4769777 51.9533935, 4.4770266 51.9535046), (4.4770266 51.9535046, 4.4770446 51.9535475, 4.4772622 51.9540669, 4.4778519 51.9555169, 4.4783058 51.9565748, 4.4783311 51.9566338), (4.4783311 51.9566338, 4.4783766 51.9567261), (4.4783766 51.9567261, 4.4783931 51.9567549, 4.4784489 51.956877, 4.4786328 51.9572059, 4.4789332 51.9574538, 4.4790072 51.9574984), (4.4790072 51.9574984, 4.4793269 51.9576909, 4.4807064 51.9585217, 4.4808593 51.9586176), (4.4808593 51.9586176, 4.4809805 51.9586942, 4.4810226 51.9587249, 4.4813274 51.9589474, 4.4815775 51.9591299, 4.4819572 51.9594422), (4.4819572 51.9594422, 4.482318 51.9597296, 4.4825968 51.9600123, 4.4826249 51.9600568), (4.4826249 51.9600568, 4.4826919 51.9601523), (4.4826919 51.9601523, 4.482766 51.9601602, 4.4828239 51.9601806), (4.4828239 51.9601806, 4.4829588 51.9601254, 4.4832621 51.9600528, 4.4836205 51.9600074, 4.4839723 51.9599975, 4.4841922 51.9600068, 4.4844028 51.9600264, 4.4854863 51.9601457, 4.4858252 51.9602222), (4.4903067 51.9603413, 4.4898986 51.9603381, 4.4895312 51.9603357, 4.4885172 51.9603234, 4.4880386 51.9603203, 4.487502 51.9603169, 4.4870723 51.9603121, 4.4865201 51.9602819, 4.4859047 51.9602288, 4.4858252 51.9602222), (4.4903067 51.9603413, 4.49064 51.960305, 4.4908176 51.9602861, 4.4909839 51.9602607), (4.4909839 51.9602607, 4.4911408 51.9602268, 4.4914118 51.9601614, 4.4926451 51.9596135, 4.4927862 51.9595491), (4.4927862 51.9595491, 4.4931374 51.9593884, 4.4932486 51.9593394), (4.4932486 51.9593394, 4.4934496 51.9592457, 4.4937927 51.9590891, 4.49417 51.9589289, 4.4943728 51.9588738, 4.4944196 51.9588654, 4.4944834 51.9588498, 4.4947057 51.9588168), (4.4947057 51.9588168, 4.4947256 51.9588903), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4957258 51.9629538, 4.495903 51.9631354, 4.4959833 51.9632024, 4.496087 51.963289), (4.496087 51.963289, 4.4962586 51.9632325, 4.4964528 51.9631687, 4.4967223 51.963095), (4.5034688 51.9597316, 4.5034148 51.9597582, 4.5033713 51.9597797, 4.5032653 51.9598324, 4.5031374 51.9598956, 4.4995424 51.9616724, 4.4986838 51.9621142, 4.4983612 51.9622802, 4.4981391 51.9623904, 4.4968457 51.9630322, 4.4967223 51.963095), (4.5034688 51.9597316, 4.5034479 51.9597103, 4.5034359 51.9596866, 4.5034351 51.9596523, 4.5034527 51.9596198, 4.5034809 51.9595961, 4.5035129 51.9595804, 4.5035503 51.9595699, 4.5035892 51.9595654, 4.5036287 51.9595667, 4.5036704 51.9595748, 4.5037073 51.9595892), (4.5113561 51.955743, 4.5111908 51.9558282, 4.5111417 51.9558535, 4.5099593 51.9564478, 4.5088205 51.9570319, 4.5083696 51.9572555, 4.5080133 51.9574317, 4.5039376 51.9594766, 4.5037926 51.9595472, 4.5037559 51.9595651, 4.5037073 51.9595892), (4.5113561 51.955743, 4.5114918 51.9556376, 4.5121627 51.9553323, 4.5123956 51.9552604, 4.5125418 51.9552284, 4.5129409 51.9551906, 4.5133054 51.9551972, 4.5134643 51.9552211, 4.5136724 51.9552525, 4.5141902 51.95538, 4.5143381 51.9554195, 4.5145463 51.9554751, 4.514734 51.9555257, 4.5148802 51.955564, 4.5152752 51.9556573, 4.5156089 51.9557193, 4.515879 51.9557666, 4.5162044 51.9557991, 4.5164261 51.9558171, 4.5166013 51.955826, 4.5169811 51.9558057, 4.5171868 51.9557838, 4.5178727 51.9556779, 4.5180899 51.9556422, 4.5182272 51.9556422), (4.5185185 51.9556009, 4.5182272 51.9556422), (4.5186502 51.9555779, 4.5185185 51.9556009), (4.5188881 51.9555395, 4.5186502 51.9555779), (4.5188881 51.9555395, 4.5189959 51.9554584, 4.5191595 51.9553678), (4.5191595 51.9553678, 4.5194221 51.9551822, 4.5194518 51.9551645, 4.5200315 51.954809, 4.5202301 51.9546848), (4.5202301 51.9546848, 4.5203056 51.9545871, 4.5204308 51.9544982), (4.5204308 51.9544982, 4.5204337 51.9544171, 4.5204327 51.9543984, 4.5203884 51.9543521, 4.5199212 51.9540192, 4.5197667 51.9539031, 4.5186406 51.9530566, 4.5183868 51.9528612, 4.5180136 51.9525834, 4.5179769 51.9525362, 4.5179747 51.9524899, 4.5180147 51.9524114), (4.5184599 51.9513738, 4.5183999 51.9515137, 4.5183433 51.9516539, 4.5180147 51.9524114), (4.5185607 51.9511334, 4.5184599 51.9513738), (4.5186934 51.9508097, 4.5185607 51.9511334), (4.5187402 51.9506961, 4.5186934 51.9508097), (4.5187402 51.9506961, 4.5189813 51.9501812, 4.5190355 51.9501284), (4.5190355 51.9501284, 4.5190964 51.950117, 4.5191709 51.950119, 4.5211196 51.9507392, 4.5222088 51.9510769, 4.5230697 51.9513436), (4.5230697 51.9513436, 4.5234698 51.9514698, 4.5235149 51.9514827, 4.5235484 51.9514897, 4.5235788 51.9514936, 4.5236097 51.9514951, 4.5236371 51.951496, 4.5236665 51.9514957, 4.5237095 51.9514932, 4.5237526 51.9514874, 4.5237843 51.9514779, 4.5238118 51.9514675, 4.5238367 51.9514561), (4.5250654 51.9517805, 4.5249274 51.951759, 4.5248472 51.9517456, 4.5246415 51.9517109, 4.5246222 51.9517076, 4.5243811 51.9516669, 4.5242313 51.9516419, 4.5241502 51.9516268, 4.5240917 51.9516087, 4.5240309 51.9515805, 4.5239743 51.9515442, 4.5239412 51.9515227, 4.5238833 51.9514852, 4.5238367 51.9514561), (4.5250654 51.9517805, 4.5251198 51.9519227, 4.5251503 51.9520018, 4.5251753 51.9520546), (4.5251753 51.9520546, 4.5252417 51.9521767, 4.5252714 51.9522369, 4.5252822 51.9522607, 4.5253033 51.9523296, 4.5253196 51.9523973, 4.5253217 51.9524549, 4.5252893 51.9525759), (4.5251642 51.9536192, 4.5252346 51.9531142, 4.525267 51.9528292, 4.5252893 51.9525759), (4.5251642 51.9536192, 4.5251576 51.9538814, 4.5250873 51.9542337, 4.5250654 51.9543572, 4.5250438 51.9544653, 4.5250066 51.9547878, 4.5250177 51.9548804, 4.5250404 51.9549425, 4.5250711 51.955, 4.5251325 51.9550947, 4.5252132 51.9551794, 4.5253236 51.9552648, 4.5254341 51.9553319, 4.5255912 51.9554077, 4.5257565 51.9554528, 4.5264281 51.9555631, 4.5277297 51.9557724, 4.528041 51.9558247, 4.5282061 51.9558718), (4.5282061 51.9558718, 4.5287176 51.9559525, 4.5299169 51.9561501), (4.5299169 51.9561501, 4.5303899 51.9562117, 4.5319004 51.9564626, 4.5319648 51.9564739, 4.5321495 51.9564988), (4.5321495 51.9564988, 4.5321957 51.9564797, 4.5322491 51.95647, 4.5323188 51.9564726, 4.5323819 51.9564911, 4.532419 51.9565137, 4.5324442 51.9565418, 4.5324559 51.9565841, 4.5324412 51.9566259, 4.5324021 51.9566614, 4.5323715 51.9566765, 4.5323363 51.9566872, 4.5322983 51.9566931), (4.5322983 51.9566931, 4.5322414 51.9567922, 4.5322233 51.9568317, 4.5321025 51.9571458, 4.5319644 51.9574656, 4.5319057 51.9576155, 4.5314308 51.9587371, 4.5313924 51.9588282, 4.5312476 51.9591697, 4.5308309 51.9601528, 4.5305497 51.9608177, 4.5305085 51.960915, 4.5303541 51.9612668, 4.5303248 51.9613367, 4.5300227 51.9620027, 4.5298936 51.9623657, 4.5298669 51.9624288, 4.5298031 51.9625793, 4.5297709 51.962624, 4.5297306 51.9627294), (4.5297306 51.9627294, 4.5298774 51.9627493, 4.5299533 51.9627642, 4.5329093 51.9632468, 4.5330565 51.9632734, 4.5337147 51.9633724, 4.5337612 51.9633818, 4.5339103 51.9634077, 4.5340168 51.9634234, 4.5341412 51.9634441, 4.5342143 51.9634564, 4.5347643 51.9635444, 4.5366373 51.9638439, 4.5367773 51.9638665, 4.5369042 51.9638873, 4.5380382 51.9640734, 4.5381101 51.9640856, 4.5420821 51.9647419, 4.5421422 51.9647522, 4.5423333 51.9647808, 4.5425336 51.9648112, 4.5425928 51.9648208, 4.5431142 51.9649049, 4.544623 51.9651483, 4.5446484 51.965153, 4.5447479 51.9651716, 4.5457997 51.9653448, 4.5458589 51.9653542, 4.5484064 51.9657597, 4.5485472 51.9657814, 4.5498271 51.9659958, 4.5498738 51.9660028, 4.5500837 51.9660383, 4.550294 51.9660727, 4.5503621 51.9660839, 4.5508364 51.9661615, 4.5533538 51.9665728, 4.5534225 51.966581, 4.5535426 51.9666026), (4.5535426 51.9666026, 4.5535853 51.9664901, 4.5536099 51.9664386, 4.5539044 51.9657314, 4.5539821 51.9655378, 4.5541647 51.9651132, 4.554591 51.9641127, 4.5546207 51.9640487, 4.5547707 51.9637242, 4.5548675 51.9635043, 4.5548831 51.9634675, 4.554979 51.9632535, 4.555048 51.9630598, 4.5551849 51.9627392, 4.5557389 51.9614539, 4.5558884 51.9611038, 4.5560603 51.960701, 4.5560793 51.9606565, 4.5561078 51.9605735), (4.5561078 51.9605735, 4.5560487 51.9605407, 4.5560136 51.9604967), (4.5560136 51.9604967, 4.555877 51.9604787, 4.5558169 51.960466, 4.5531091 51.9600402, 4.5530526 51.9600313, 4.5529428 51.9600061), (4.5529428 51.9600061, 4.5528713 51.9600382, 4.5527853 51.9600514, 4.5526966 51.9600433, 4.5526456 51.9600275, 4.5526018 51.9600039, 4.552569 51.9599743, 4.5525492 51.9599405), (4.5525492 51.9599405, 4.5524246 51.9599229, 4.5523648 51.9599136, 4.5506458 51.9596368, 4.5488775 51.959352, 4.5488079 51.9593408, 4.5487378 51.9593295, 4.5485904 51.9593024, 4.5485295 51.9592922, 4.5482387 51.9592425, 4.5479634 51.9591987), (4.5479634 51.9591987, 4.5480387 51.9590098, 4.5480749 51.9588595, 4.5480932 51.9588166, 4.5481246 51.958743, 4.548234 51.958535, 4.5483558 51.9583034, 4.5486316 51.9578542, 4.5491924 51.956536, 4.5492864 51.9563293, 4.549387 51.9561082, 4.5495049 51.9558074, 4.5496767 51.9554339, 4.550263 51.9540745), (4.550263 51.9540745, 4.5505764 51.9533053), (4.5505764 51.9533053, 4.5506891 51.9530762, 4.5507271 51.9530235), (4.5507271 51.9530235, 4.551148 51.952015))</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>384834</t>
+          <t>384029</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2160,17 +2160,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Rotterdam, Kralingse Zoom</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bus 66: Rotterdam Feijenoord =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 36: Rotterdam Station Alexander =&gt; Rotterdam Kralingse Zoom</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2181,14 +2181,14 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5072611 51.908237, 4.5073903 51.9083614, 4.5074417 51.9084167, 4.507475 51.9084554), (4.5072611 51.908237, 4.5078619 51.9077246), (4.5078619 51.9077246, 4.5077811 51.90769, 4.5072018 51.9074451, 4.5071187 51.9074108, 4.5070691 51.9073869), (4.5070691 51.9073869, 4.5069232 51.9073385), (4.5069232 51.9073385, 4.5068624 51.9073491, 4.5067993 51.9073469), (4.5067993 51.9073469, 4.5067482 51.9073348, 4.5067047 51.9073142, 4.5066726 51.9072868), (4.5066726 51.9072868, 4.5066559 51.9072591, 4.5066509 51.9072296, 4.5066634 51.9071902, 4.5066968 51.9071557, 4.506747 51.9071301, 4.5068082 51.9071164, 4.5068733 51.9071163), (4.5068733 51.9071163, 4.5069642 51.907051, 4.5075058 51.9065761, 4.5078324 51.9062751, 4.5081063 51.9059988, 4.508739 51.9053508, 4.5088214 51.9052683, 4.5089013 51.9051769), (4.5089013 51.9051769, 4.5089569 51.9051134), (4.5089569 51.9051134, 4.5090023 51.9050615, 4.5090867 51.9049713, 4.5097326 51.9042822, 4.5098479 51.9041602, 4.5099229 51.9040759, 4.5110864 51.9028177, 4.5112071 51.9026854), (4.5112071 51.9026854, 4.5117866 51.9020425, 4.5120051 51.9018051, 4.5120405 51.9017623), (4.5120405 51.9017623, 4.5120759 51.9017194, 4.5120994 51.9016798, 4.512118 51.9016389, 4.5121258 51.9015991, 4.5121339 51.9015374, 4.5121284 51.9014872, 4.5121075 51.901435), (4.5121075 51.901435, 4.512081 51.9013953, 4.5120454 51.9013466, 4.5118087 51.9011272, 4.5115316 51.9008703, 4.5114576 51.9008037, 4.5113726 51.9007295), (4.5113726 51.9007295, 4.5112928 51.900659, 4.5112649 51.9006338, 4.511246 51.9006174, 4.5112071 51.9005915, 4.5111929 51.9005709), (4.5111929 51.9005709, 4.5111046 51.9004915, 4.5110537 51.9004505, 4.5109488 51.9003546, 4.5104822 51.8999156, 4.5103867 51.8998322, 4.5102852 51.8997434, 4.5101297 51.8996198, 4.5099964 51.8995222), (4.5099964 51.8995222, 4.5097776 51.8994025, 4.50972 51.8993764, 4.5091745 51.8991229, 4.5090032 51.8990408), (4.5091105 51.8988576, 4.5090554 51.8989459, 4.5090446 51.8989716, 4.5090032 51.8990408), (4.509199 51.8987249, 4.5091542 51.8987965, 4.5091105 51.8988576), (4.5102253 51.8976121, 4.5101952 51.8976791, 4.509199 51.8987249), (4.5102253 51.8976121, 4.5100074 51.897576, 4.5098838 51.8975416, 4.5098127 51.897515, 4.5093618 51.8972714), (4.5093618 51.8972714, 4.5092201 51.8971892, 4.508207 51.8966292, 4.507667 51.8963386, 4.5070984 51.8960214, 4.5069785 51.89595, 4.5068938 51.8959032, 4.5063071 51.8956757, 4.5062078 51.8956361), (4.5062078 51.8956361, 4.5057703 51.8954542, 4.5057361 51.8954407, 4.5056448 51.8954008), (4.5056448 51.8954008, 4.5055829 51.8953706, 4.5055532 51.8953505, 4.5051932 51.8951543, 4.5044505 51.8947472, 4.5041277 51.8945645, 4.5035087 51.8942299, 4.5033959 51.8941587, 4.5031702 51.8940326, 4.502328 51.8935614, 4.5019537 51.893345, 4.5017536 51.8932287, 4.5016953 51.8931967, 4.501177 51.8929335, 4.5006144 51.8926133, 4.5002655 51.8924234, 4.4998789 51.8922144, 4.4997831 51.8921598, 4.49959 51.8920519, 4.4989669 51.8917238, 4.4987405 51.8915974, 4.4985705 51.8915042, 4.4977164 51.8910224, 4.497658 51.8909862, 4.4972092 51.8907438, 4.4965863 51.8903942, 4.4960487 51.8901077, 4.4958284 51.8899903, 4.4957309 51.8899355, 4.4956972 51.8899115, 4.4956414 51.889864, 4.4956243 51.8898197, 4.4956244 51.889744, 4.4956326 51.8896501, 4.495639 51.8895754), (4.495639 51.8895754, 4.4956474 51.8894833), (4.4956474 51.8894833, 4.4954763 51.8894789, 4.4952064 51.8894719), (4.4952064 51.8894719, 4.49472 51.88946, 4.494487 51.8894496, 4.4943313 51.8894426, 4.4941455 51.889419), (4.4941455 51.889419, 4.4940607 51.8894029, 4.4939586 51.8893849, 4.4938487 51.8893557), (4.4938487 51.8893557, 4.4936576 51.8892463, 4.4927817 51.8887242), (4.4927817 51.8887242, 4.4927292 51.888674, 4.4926827 51.8886137, 4.4926484 51.8885583), (4.4926484 51.8885583, 4.49262 51.8885206, 4.4925672 51.8884373, 4.49252 51.8883536), (4.49252 51.8883536, 4.492513 51.8883233, 4.4924982 51.8882579, 4.4923457 51.8875871, 4.4923003 51.8874506, 4.4922774 51.8873747, 4.49224 51.8871639, 4.4922294 51.8871117, 4.4922215 51.8870777, 4.4921985 51.8869585), (4.4921985 51.8869585, 4.4921754 51.8868688, 4.4921614 51.8868275, 4.4921537 51.8867916, 4.4921316 51.8867044, 4.4921058 51.8865694), (4.4921058 51.8865694, 4.4920674 51.8863641), (4.4920674 51.8863641, 4.4920557 51.8863017, 4.4918885 51.885519, 4.4918351 51.8852996), (4.4918351 51.8852996, 4.4917261 51.8851744, 4.4916553 51.8851081, 4.4916043 51.8850733, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.5521298 51.9520982, 4.5521448 51.9520508, 4.5523312 51.9519987), (4.5523312 51.9519987, 4.5525756 51.9520624, 4.5524949 51.9524061), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556635 51.9523168, 4.5556662 51.9522246, 4.5556983 51.9521449, 4.5557319 51.9520613, 4.555787 51.9519264, 4.5558017 51.9518965, 4.555853 51.9518422), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5560787 51.9512475, 4.5556664 51.951177, 4.5555308 51.9511328, 4.5554069 51.9510761, 4.5553136 51.9510114), (4.5553136 51.9510114, 4.5552663 51.9509693), (4.5552663 51.9509693, 4.5552148 51.9508771, 4.5552019 51.9507641, 4.5552139 51.9507074, 4.5552483 51.9506131, 4.5552497 51.9506093), (4.5552497 51.9506093, 4.5552706 51.9505523), (4.5552706 51.9505523, 4.5554109 51.9501973, 4.5555868 51.9498173, 4.5556261 51.9497323, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5563591 51.9454209, 4.5563198 51.9453827, 4.5562548 51.9453195, 4.5561573 51.9452476, 4.5560598 51.9451975, 4.5559165 51.9451538, 4.5557762 51.9451237, 4.5550626 51.9450198, 4.5549115 51.9449963, 4.5547708 51.9449745, 4.5547162 51.944966, 4.5543735 51.9449128), (4.5543735 51.9449128, 4.5541894 51.9448842), (4.5541894 51.9448842, 4.5540109 51.9448489, 4.5536707 51.9447546), (4.549397 51.9440563, 4.5509306 51.9443064, 4.5524506 51.9445543, 4.5533342 51.9446983, 4.5536707 51.9447546), (4.549397 51.9440563, 4.5493532 51.9441606, 4.5491439 51.9446582, 4.5490606 51.944856, 4.549 51.945), (4.5455591 51.9444508, 4.5462081 51.9445555, 4.5464133 51.944587, 4.5473659 51.9447431, 4.5482302 51.9448789, 4.5487949 51.9449681, 4.549 51.945), (4.5455591 51.9444508, 4.5451832 51.9444346, 4.5451112 51.9444315, 4.5450062 51.9444134, 4.5448797 51.9443916), (4.5448797 51.9443916, 4.5447645 51.9443718, 4.544709 51.9443556, 4.5445041 51.944296, 4.5443977 51.9442651), (4.5397519 51.943511, 4.5399246 51.9435386, 4.5400091 51.9435521, 4.5404961 51.9436298, 4.5411837 51.9437398, 4.5416623 51.9438199, 4.5421572 51.9439028, 4.5436206 51.944139, 4.5438235 51.9441704, 4.5443977 51.9442651), (4.5397519 51.943511, 4.5390844 51.9434219, 4.5386828 51.9433376), (4.5386828 51.9433376, 4.5377743 51.9431559, 4.5376338 51.9431279, 4.5375614 51.9430899, 4.5375271 51.9430544, 4.537512 51.9430056, 4.5375906 51.9428814), (4.5378072 51.9423129, 4.537702 51.9425662, 4.5375906 51.9428814), (4.5395285 51.9382236, 4.5394633 51.9383728, 4.5392549 51.9388493, 4.539229 51.9389085, 4.5391928 51.9389914, 4.5390872 51.939252, 4.5388251 51.939899, 4.5386806 51.9402204, 4.5383627 51.9409823, 4.5382746 51.9411964, 4.5382525 51.9412487, 4.5380935 51.9416336, 4.5378072 51.9423129), (4.5395642 51.9381419, 4.5395285 51.9382236), (4.5395642 51.9381419, 4.539523 51.9381288, 4.5394916 51.9381079, 4.5394736 51.9380816, 4.5394731 51.938046, 4.539497 51.9380136, 4.5395367 51.9379918, 4.5395871 51.9379813, 4.5396402 51.9379837), (4.5396877 51.93788, 4.5396402 51.9379837), (4.5450821 51.9281895, 4.5450405 51.9282895, 4.544725 51.9290478, 4.5443232 51.9299757, 4.543928 51.9309417, 4.5434874 51.931969, 4.5432049 51.9326546, 4.5427624 51.9336672, 4.5425102 51.934247, 4.5416997 51.9361239, 4.5416605 51.9362147, 4.5415618 51.936399, 4.5415097 51.9364589, 4.541417 51.9365245, 4.5412114 51.936607, 4.5408596 51.9367298, 4.5405981 51.9368153, 4.5403397 51.9369315, 4.5401523 51.9370569, 4.54 51.9372, 4.5399151 51.937385, 4.5397898 51.9376577, 4.5396877 51.93788), (4.5450821 51.9281895, 4.5451118 51.9280006), (4.5451118 51.9280006, 4.5451264 51.9279047), (4.5451264 51.9279047, 4.5450986 51.9278828, 4.5450806 51.9278573), (4.5450806 51.9278573, 4.5449265 51.9278216, 4.5447226 51.9277737, 4.5446112 51.9277377, 4.5444838 51.9276809, 4.5443296 51.927571, 4.5441942 51.9274178, 4.5435363 51.9263738, 4.5434083 51.9262283, 4.5433138 51.9261574, 4.5431702 51.9260764, 4.5430286 51.9260262, 4.5428624 51.9259891, 4.5424067 51.9259245), (4.5424067 51.9259245, 4.5417657 51.9258407), (4.5417657 51.9258407, 4.5415995 51.9258184, 4.5409149 51.9256993, 4.5404426 51.9256558), (4.5404426 51.9256558, 4.5392671 51.9255868, 4.5390992 51.9255753), (4.5390992 51.9255753, 4.5380379 51.9255006, 4.537332 51.9254715), (4.537332 51.9254715, 4.5371383 51.9254714, 4.5369446 51.9254762, 4.5365931 51.9254948, 4.5362443 51.9255151, 4.5359879 51.9255352), (4.5359879 51.9255352, 4.5358427 51.9255501, 4.5355346 51.9255743), (4.5355346 51.9255743, 4.5340615 51.9256903, 4.5338287 51.9257103, 4.5336824 51.9257325), (4.5336824 51.9257325, 4.5334787 51.9256958), (4.5334787 51.9256958, 4.5333967 51.9255338, 4.5332314 51.9252324), (4.5332314 51.9252324, 4.5326307 51.9240879), (4.5326307 51.9240879, 4.5322478 51.9234163), (4.5322478 51.9234163, 4.5318117 51.9227005, 4.5317895 51.9226644, 4.531767 51.9226272, 4.5316969 51.9225121), (4.5316969 51.9225121, 4.5314889 51.9221997, 4.531435 51.9221187, 4.5313874 51.9220472), (4.5313874 51.9220472, 4.5313317 51.9219579, 4.5305464 51.9206507, 4.5304358 51.92045), (4.5304358 51.92045, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>385078</t>
+          <t>384030</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rotterdam, RDM Campus</t>
+          <t>Rotterdam, Station Alexander</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bus 68: Rotterdam Zuidplein =&gt; Rotterdam Heijplaat</t>
+          <t>Bus 36: Rotterdam Kralingse Zoom =&gt; Rotterdam Station Alexander</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2219,14 +2219,14 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4894216 51.8881435, 4.4892687 51.8881265), (4.4892687 51.8881265, 4.4892353 51.8880675), (4.4892353 51.8880675, 4.489202 51.8880084), (4.489202 51.8880084, 4.4891686 51.8879494), (4.4891686 51.8879494, 4.4891352 51.8878903), (4.4891352 51.8878903, 4.4891019 51.8878313), (4.4891019 51.8878313, 4.4890685 51.8877722), (4.4890685 51.8877722, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.4772044 51.874002), (4.4772044 51.874002, 4.4769271 51.8740373, 4.4765921 51.8740693, 4.4758806 51.8740626, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4719936 51.8744898, 4.4708191 51.8746203, 4.4705094 51.8746547, 4.4701998 51.8747087, 4.469905 51.8747573, 4.4694501 51.8748169, 4.4692574 51.8748422), (4.4692574 51.8748422, 4.4690757 51.8748598, 4.4680044 51.8749638, 4.467427 51.8750013, 4.4669859 51.8750464, 4.4668565 51.8750593), (4.4668565 51.8750593, 4.4667279 51.8750744, 4.4658218 51.8751804, 4.4655801 51.8752136, 4.4650023 51.875293, 4.4647222 51.8753614, 4.4642787 51.8755251, 4.4641038 51.8756286, 4.4639078 51.8757473, 4.4637094 51.8758674, 4.4635338 51.8759878, 4.4627356 51.8765043, 4.4626895 51.8765347, 4.4626388 51.8765682, 4.4624718 51.8766748), (4.4624718 51.8766748, 4.4621781 51.8767841), (4.4621781 51.8767841, 4.4618914 51.8766224, 4.4618561 51.8766002, 4.4611599 51.8761627), (4.4611599 51.8761627, 4.4603603 51.8756389, 4.460239 51.875551), (4.460239 51.875551, 4.4601336 51.8756015, 4.4600791 51.8756208, 4.4591968 51.8759334, 4.4589973 51.8759951, 4.4587977 51.8760637, 4.458256 51.8762722, 4.4567528 51.876839, 4.4563484 51.8769651, 4.4555767 51.8772096, 4.4537119 51.8778005, 4.4535708 51.8778452, 4.4535032 51.8778673, 4.453337 51.8779216), (4.453337 51.8779216, 4.4530845 51.8779837), (4.4530845 51.8779837, 4.4528457 51.8780289, 4.4522215 51.8781035, 4.4514473 51.8781994, 4.4483504 51.8785528, 4.4482299 51.8785665, 4.4479696 51.8785965), (4.4479696 51.8785965, 4.4477701 51.8786183, 4.447216 51.8786861, 4.446688 51.878709, 4.4461766 51.8787129), (4.4419044 51.8791873, 4.4430351 51.8790718, 4.4449929 51.8788444, 4.4461766 51.8787129), (4.4419044 51.8791873, 4.4415544 51.8792632, 4.4412116 51.879307, 4.440487 51.879388, 4.4396798 51.8794803, 4.4395387 51.8794966, 4.4394032 51.879509, 4.4392247 51.8795193, 4.439073 51.879523, 4.438876 51.8795173, 4.4386742 51.8795115, 4.4384304 51.8794932, 4.4381517 51.8794616, 4.437931 51.8794262, 4.437713 51.8793842, 4.4374107 51.8793089, 4.4372758 51.8792659, 4.4367403 51.8790961, 4.4365039 51.8790195, 4.436327 51.8789688, 4.4362886 51.8789556, 4.4359504 51.878855, 4.4349886 51.8785584, 4.4345526 51.8784246, 4.4344041 51.8783869, 4.4342408 51.8783543, 4.4340689 51.8783254), (4.4340689 51.8783254, 4.4339188 51.8783142, 4.4338672 51.8783104, 4.4336245 51.878303, 4.4335087 51.8783014, 4.4334333 51.8783004, 4.4332635 51.8783083, 4.4332132 51.8783126, 4.4331604 51.8783232, 4.4331249 51.878334, 4.4330839 51.8783505), (4.4330839 51.8783505, 4.4330422 51.8783748, 4.433022 51.8783905, 4.4330006 51.8784102, 4.4329611 51.8784676, 4.432933 51.8785027, 4.432336 51.8791826, 4.4320774 51.879474), (4.4320774 51.879474, 4.4316229 51.8799863, 4.4312473 51.8804566, 4.4312163 51.8804958), (4.4312163 51.8804958, 4.4310577 51.8806958, 4.4310263 51.8807334, 4.4308021 51.8810018, 4.430199 51.8817205, 4.4298941 51.8820808, 4.4290604 51.8830671), (4.4290604 51.8830671, 4.4287303 51.8834472, 4.4285311 51.883686, 4.4283706 51.8838784, 4.4283109 51.883955), (4.4283109 51.883955, 4.4282421 51.884036, 4.4282069 51.8840773, 4.4280398 51.8842736, 4.426676 51.885882), (4.426676 51.885882, 4.4266209 51.8859503, 4.4265385 51.8860741, 4.4265165 51.886106, 4.4264854 51.8861512, 4.4263787 51.8862796, 4.4262256 51.8865214, 4.4260464 51.8867895, 4.4258935 51.8870214, 4.4256469 51.8873357, 4.4252474 51.8877468, 4.4248705 51.8881822, 4.424739 51.8883488), (4.424739 51.8883488, 4.4246506 51.8884698, 4.4246104 51.8885549, 4.4245842 51.8886515, 4.4245731 51.8887022, 4.4245702 51.8887505, 4.4245685 51.8888179, 4.4245709 51.8888777, 4.4245894 51.888969), (4.4245894 51.888969, 4.4246509 51.8890714, 4.4246674 51.8891023, 4.4247018 51.8891461, 4.4247662 51.889217, 4.4248397 51.8892864, 4.4249447 51.8893724, 4.4250615 51.8894585, 4.4251587 51.8895564), (4.4251587 51.8895564, 4.425218 51.8896003, 4.4253486 51.8897169, 4.4254015 51.8897789, 4.4254406 51.8898532, 4.4255339 51.8900933, 4.4256032 51.8903131, 4.425635 51.890403, 4.4258669 51.8910132, 4.4258928 51.891105, 4.4259 51.8912, 4.4258848 51.8913056, 4.4258665 51.89137, 4.4258321 51.8914311, 4.4252 51.8922, 4.4248206 51.8926484, 4.424754 51.8927271, 4.4241 51.8935, 4.4239163 51.8937296, 4.4238793 51.8937759, 4.4237632 51.893921, 4.423338 51.8944495, 4.423292 51.8944983, 4.423227 51.894563, 4.4228862 51.8948399, 4.4226834 51.8950429, 4.4224467 51.8953113, 4.4223942 51.8953801, 4.4223614 51.895428, 4.4223419 51.8954564, 4.4220692 51.8958044, 4.4220104 51.8958948, 4.4219997 51.8959552, 4.4220174 51.8960262), (4.4220174 51.8960262, 4.4220919 51.8960962, 4.4223717 51.8963266, 4.4224916 51.8963828, 4.4232348 51.8965847), (4.423115 51.8968618, 4.4232348 51.8965847), (4.42055 51.8964408, 4.4213305 51.8965661, 4.422052 51.896686, 4.4222039 51.8967118, 4.4224366 51.8967496, 4.4226555 51.8967859, 4.4228781 51.8968231, 4.423115 51.8968618))</t>
+          <t>MULTILINESTRING ((4.5326664 51.921806, 4.5328002 51.9219914, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5307185 51.9206082, 4.5310848 51.9212139), (4.5310848 51.9212139, 4.5314589 51.9218274, 4.5315103 51.9219175, 4.5315638 51.9220081), (4.5315638 51.9220081, 4.5316038 51.922077, 4.5317895 51.9223681, 4.5318388 51.9224432), (4.5318388 51.9224432, 4.5318798 51.9225055, 4.5319356 51.9225905, 4.531956 51.9226272, 4.5324261 51.9234743), (4.5324261 51.9234743, 4.5327515 51.9240585), (4.5327515 51.9240585, 4.5332141 51.9248827), (4.5332141 51.9248827, 4.5335086 51.9254077, 4.5335603 51.9255002, 4.533614 51.9256065), (4.533614 51.9256065, 4.5337572 51.9255804, 4.5340409 51.9255598), (4.5340409 51.9255598, 4.5348442 51.9254953), (4.5348442 51.9254953, 4.5355316 51.9254342, 4.5358113 51.9254104, 4.5359317 51.9254021), (4.5359317 51.9254021, 4.5365555 51.925355, 4.5368411 51.9253352, 4.5369978 51.9253294, 4.5371544 51.9253245, 4.5373097 51.9253222), (4.5373097 51.9253222, 4.5379887 51.925345, 4.5387377 51.9253926, 4.5390758 51.9254164), (4.5390758 51.9254164, 4.5399331 51.9254818), (4.5399331 51.9254818, 4.5403455 51.925511, 4.5409592 51.9255879), (4.5409592 51.9255879, 4.5418099 51.9257048), (4.5418099 51.9257048, 4.5429137 51.9258664, 4.5431292 51.9259145, 4.5432811 51.92597, 4.5434415 51.9260689, 4.5435322 51.9261475, 4.5435553 51.9261662, 4.5436745 51.926301, 4.5443399 51.9273533, 4.5443892 51.9274242, 4.5444626 51.927502, 4.5446066 51.9276097, 4.5447144 51.927661, 4.5448721 51.927708, 4.5449601 51.9277337, 4.5451193 51.9277523), (4.5451193 51.9277523, 4.5451629 51.9277305, 4.5452153 51.9277181, 4.5452713 51.9277163, 4.5453255 51.9277252, 4.5453725 51.9277441, 4.5454079 51.9277709, 4.545428 51.9278032, 4.5454309 51.9278375, 4.5454167 51.9278707, 4.5453866 51.9278996), (4.5453866 51.9278996, 4.5453485 51.9279196, 4.5453029 51.9279323), (4.5453029 51.9279323, 4.5452289 51.9280186), (4.5452289 51.9280186, 4.5450821 51.9281895), (4.5450821 51.9281895, 4.5450405 51.9282895, 4.544725 51.9290478, 4.5443232 51.9299757, 4.543928 51.9309417, 4.5434874 51.931969, 4.5432049 51.9326546, 4.5427624 51.9336672, 4.5425102 51.934247, 4.5416997 51.9361239, 4.5416605 51.9362147, 4.5415618 51.936399, 4.5415097 51.9364589, 4.541417 51.9365245, 4.5412114 51.936607, 4.5408596 51.9367298, 4.5405981 51.9368153, 4.5403397 51.9369315, 4.5401523 51.9370569, 4.54 51.9372, 4.5399151 51.937385, 4.5397898 51.9376577, 4.5396877 51.93788), (4.5396877 51.93788, 4.5396402 51.9379837), (4.5396402 51.9379837, 4.5396848 51.9379973, 4.5397183 51.9380201, 4.5397359 51.9380488, 4.539733 51.9380852, 4.5397051 51.9381172, 4.5396646 51.9381367, 4.5396152 51.9381454, 4.5395642 51.9381419), (4.5395642 51.9381419, 4.5395285 51.9382236), (4.5395285 51.9382236, 4.5394633 51.9383728, 4.5392549 51.9388493, 4.539229 51.9389085, 4.5391928 51.9389914, 4.5390872 51.939252, 4.5388251 51.939899, 4.5386806 51.9402204, 4.5383627 51.9409823, 4.5382746 51.9411964, 4.5382525 51.9412487, 4.5380935 51.9416336, 4.5378072 51.9423129), (4.5378072 51.9423129, 4.537702 51.9425662, 4.5375906 51.9428814), (4.5375906 51.9428814, 4.5376261 51.9429899, 4.537678 51.9430439, 4.537728 51.9430713, 4.5378053 51.9430939, 4.5387057 51.9432807), (4.5387057 51.9432807, 4.5391032 51.9433626, 4.5397519 51.943511), (4.5397519 51.943511, 4.5399246 51.9435386, 4.5400091 51.9435521, 4.5404961 51.9436298, 4.5411837 51.9437398, 4.5416623 51.9438199, 4.5421572 51.9439028, 4.5436206 51.944139, 4.5438235 51.9441704, 4.5443977 51.9442651), (4.5443977 51.9442651, 4.5447503 51.9442712, 4.5448101 51.9442722, 4.5449174 51.9442923), (4.5449174 51.9442923, 4.5450467 51.9443166, 4.5451505 51.9443361, 4.5452178 51.944355, 4.5455591 51.9444508), (4.5455591 51.9444508, 4.5462081 51.9445555, 4.5464133 51.944587, 4.5473659 51.9447431, 4.5482302 51.9448789, 4.5487949 51.9449681, 4.549 51.945), (4.549397 51.9440563, 4.5493532 51.9441606, 4.5491439 51.9446582, 4.5490606 51.944856, 4.549 51.945), (4.549397 51.9440563, 4.5509306 51.9443064, 4.5524506 51.9445543, 4.5533342 51.9446983, 4.5536707 51.9447546), (4.5536707 51.9447546, 4.553906 51.9447483, 4.554047 51.9447657, 4.5542266 51.9447931), (4.5542266 51.9447931, 4.5544106 51.9448242), (4.5544106 51.9448242, 4.5547523 51.9448819, 4.5548064 51.9448911, 4.5549459 51.9449146, 4.5552355 51.9449635, 4.55576 51.9450436, 4.5560067 51.94509, 4.5561576 51.945146, 4.5562679 51.9452069, 4.55636 51.9452764, 4.5564269 51.9453476, 4.5564608 51.9453836, 4.5565252 51.945449), (4.5565252 51.945449, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.5558538 51.949644), (4.5558538 51.949644, 4.5558136 51.9497617, 4.555598 51.950245, 4.5554771 51.950419), (4.5554771 51.950419, 4.5554128 51.9505729), (4.5554128 51.9505729, 4.55539 51.950632), (4.55539 51.950632, 4.5553885 51.9506358, 4.5553657 51.9506944, 4.5553509 51.950817, 4.5553693 51.950894), (4.5553693 51.950894, 4.5554179 51.9509614, 4.5554662 51.9510056, 4.5555278 51.9510585, 4.5556792 51.9511329, 4.5558846 51.9511775, 4.5560963 51.9512054), (4.5560787 51.9512475, 4.5560963 51.9512054), (4.5559854 51.9515312, 4.5559928 51.9514537, 4.5560787 51.9512475), (4.5559854 51.9515312, 4.5559193 51.9516865), (4.5559193 51.9516865, 4.5559042 51.951722, 4.555853 51.9518422), (4.555853 51.9518422, 4.5558531 51.9519017, 4.5558077 51.9520505, 4.5557758 51.9521549, 4.5557409 51.9522389), (4.5557409 51.9522389, 4.5556635 51.9523168), (4.5556635 51.9523168, 4.5556427 51.9523657), (4.5556427 51.9523657, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.554 51.9526, 4.5547587 51.9526531, 4.5554889 51.9527219), (4.5524949 51.9524061, 4.5522534 51.9523763, 4.5521498 51.9523628), (4.5521498 51.9523628, 4.5522106 51.9521068))</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>385079</t>
+          <t>384208</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2236,17 +2236,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Rotterdam, Kerkhoflaan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bus 68: Rotterdam Heijplaat =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 38: Schiedam Centrum =&gt; Rotterdam Crooswijk</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2257,14 +2257,14 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4202895 51.8964016, 4.42055 51.8964408), (4.4216563 51.894587, 4.4212783 51.8951465, 4.4206644 51.8958558, 4.4205511 51.8960023, 4.4205026 51.8960672, 4.42045 51.896126, 4.4204032 51.896192, 4.4203625 51.8962509, 4.4202895 51.8964016), (4.4225255 51.8935582, 4.4220407 51.8941324, 4.4219822 51.8942053, 4.4217593 51.8944679, 4.4216563 51.894587), (4.4225255 51.8935582, 4.4217815 51.8933074, 4.4207943 51.8929868), (4.4231509 51.8901411, 4.4231504 51.890189, 4.4231303 51.8902275, 4.4224416 51.8910239, 4.4217269 51.8918528, 4.4216 51.892, 4.4208255 51.8929486, 4.4207943 51.8929868), (4.4229427 51.8897762, 4.4229741 51.8898102, 4.4230592 51.8899565, 4.4231509 51.8901411), (4.4229427 51.8897762, 4.4228935 51.8897802, 4.422845 51.8897739, 4.4228024 51.8897581, 4.4227706 51.8897346, 4.422753 51.889706, 4.4227517 51.8896754, 4.4227667 51.8896462, 4.4227964 51.8896217, 4.4228468 51.8896021, 4.4229056 51.8895963, 4.4229746 51.8896063), (4.4229746 51.8896063, 4.4230802 51.8895805, 4.4233117 51.8895224), (4.4233117 51.8895224, 4.4233579 51.8895088, 4.423459 51.8894794, 4.4235843 51.8894367), (4.4239736 51.8891775, 4.4237159 51.8893564, 4.4235843 51.8894367), (4.4239736 51.8891775, 4.4240275 51.8891131, 4.4240997 51.889066, 4.4242548 51.8889935, 4.4244117 51.8889448), (4.4244117 51.8889448, 4.4243974 51.8887775, 4.4244078 51.888698, 4.4244276 51.8886302, 4.4244568 51.8885424, 4.4245063 51.8884445, 4.4245399 51.8883925, 4.4245735 51.8883405, 4.4246595 51.8882281), (4.4246595 51.8882281, 4.425137 51.88761, 4.425364 51.8873075), (4.425364 51.8873075, 4.4256054 51.8869842, 4.4258231 51.8867053, 4.4262671 51.8861636, 4.4263506 51.8860615, 4.4263713 51.8860254, 4.4264634 51.8859109, 4.4265222 51.8858383, 4.4268383 51.8854482), (4.4268383 51.8854482, 4.4271216 51.885074, 4.4274385 51.8846732), (4.4274385 51.8846732, 4.4279693 51.8840523, 4.4280063 51.8840092, 4.42804 51.8839669, 4.4281027 51.8838945), (4.4281027 51.8838945, 4.4281668 51.8838184, 4.4284441 51.883481, 4.4285338 51.8833722, 4.4296891 51.8819801, 4.4304781 51.8810411, 4.430807 51.8806608, 4.4308438 51.8806183, 4.4309178 51.8805212), (4.4309178 51.8805212, 4.4311007 51.8803009, 4.4312129 51.8801762, 4.4314334 51.8799222, 4.4321623 51.8791056, 4.4323913 51.8788762, 4.4325846 51.87866, 4.4326696 51.8785628, 4.4327235 51.8784991, 4.4327696 51.8784378, 4.4327904 51.8783985, 4.4328206 51.8783531, 4.4328344 51.8783303, 4.4328445 51.8783134, 4.4328584 51.8782901), (4.4328584 51.8782901, 4.4328764 51.8782645, 4.4328909 51.8782462, 4.4329086 51.8782289, 4.4329362 51.8782066, 4.4329773 51.8781855, 4.4330096 51.878172), (4.4330096 51.878172, 4.4330401 51.878161, 4.4330833 51.8781481), (4.4330833 51.8781481, 4.433136 51.8781415, 4.4332283 51.8781345, 4.4333134 51.8781329, 4.4334654 51.8781379), (4.4334654 51.8781379, 4.4335626 51.878141, 4.433629 51.878145, 4.4338731 51.8781597, 4.4339786 51.87817, 4.4340157 51.8781742, 4.4341045 51.8781844, 4.434218 51.8782014, 4.4343857 51.8782318, 4.4345105 51.8782589, 4.4363465 51.8787596, 4.4364369 51.8787837, 4.4364893 51.8787977, 4.436658 51.8788462), (4.436658 51.8788462, 4.4369393 51.8789183, 4.437381 51.8790403, 4.4374634 51.8790575, 4.4378987 51.8791388, 4.4381752 51.8791759, 4.4384329 51.8792048, 4.4386398 51.8792249, 4.4388677 51.8792416, 4.4390956 51.879255, 4.4392989 51.8792646, 4.4395023 51.8792708, 4.4399303 51.8792716, 4.4402157 51.8792642, 4.4404957 51.8792502, 4.4410612 51.8792232, 4.4411829 51.8792164, 4.4412316 51.8792137, 4.441386 51.8792008, 4.4419044 51.8791873), (4.4419044 51.8791873, 4.4430351 51.8790718, 4.4449929 51.8788444, 4.4461766 51.8787129), (4.4461766 51.8787129, 4.4463234 51.8786723, 4.4476093 51.878514, 4.4477375 51.8784982, 4.4479404 51.8784742), (4.4479404 51.8784742, 4.4481915 51.8784445, 4.448326 51.8784283, 4.4492569 51.8783304), (4.4492569 51.8783304, 4.4500983 51.8782381, 4.4513957 51.8780744, 4.4528189 51.8778866, 4.4530565 51.8778407), (4.4530565 51.8778407, 4.4532869 51.8777905), (4.4532869 51.8777905, 4.4534605 51.8777435, 4.4535257 51.8777259, 4.4536777 51.8776807, 4.4567189 51.8767747), (4.4567189 51.8767747, 4.4572002 51.8766023, 4.4581553 51.8762314, 4.4592633 51.8757846), (4.4592633 51.8757846, 4.4594948 51.8757248, 4.4598959 51.8755675, 4.4599603 51.8755424, 4.4600173 51.8755203, 4.4601378 51.8754772), (4.4601378 51.8754772, 4.4601713 51.8754706, 4.4602105 51.8754635, 4.4602644 51.8754575), (4.4602644 51.8754575, 4.4603393 51.8754502, 4.4604291 51.8754498, 4.4605341 51.8754518), (4.4605341 51.8754518, 4.4614522 51.8760476, 4.4620181 51.8763824, 4.4621126 51.8764407, 4.4621554 51.8764672, 4.4623707 51.8766085), (4.4623707 51.8766085, 4.4625373 51.876506, 4.4625862 51.8764726, 4.4632249 51.8760296, 4.4635895 51.8757838, 4.4637936 51.8756706, 4.4639958 51.8755589, 4.4641748 51.8754617, 4.4644541 51.8753548, 4.464678 51.875287, 4.4648219 51.8752622, 4.4655674 51.8751688, 4.4658079 51.8751417, 4.466713 51.8750275, 4.4668418 51.8750112), (4.4668418 51.8750112, 4.4669713 51.8750005, 4.4674257 51.8749605, 4.4680017 51.8749255, 4.4689661 51.8748202, 4.4690654 51.8748063, 4.4692478 51.8747859), (4.4692478 51.8747859, 4.4694353 51.8747645, 4.4700085 51.8746991, 4.4700184 51.8746981, 4.4705051 51.8746145, 4.4708083 51.874579, 4.4719782 51.8744418, 4.4726732 51.8744), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4754217 51.8740922, 4.4758293 51.8740335, 4.4765659 51.873952, 4.4771434 51.8738897, 4.4772992 51.8738759), (4.4772992 51.8738759, 4.4776054 51.8738487, 4.477892 51.8738233), (4.477892 51.8738233, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.408814 51.9213724, 4.40915 51.921267, 4.4098666 51.9210988, 4.4099402 51.9210803, 4.4101263 51.9210344), (4.4096943 51.920582, 4.4099168 51.9207407, 4.41 51.9208, 4.4100309 51.9208582, 4.4100585 51.9209076, 4.4100809 51.9209507, 4.4101263 51.9210344), (4.4096943 51.920582, 4.4092212 51.9202484, 4.4091246 51.9201803), (4.4100502 51.9196647, 4.4093856 51.920034, 4.4091859 51.9201509, 4.4091246 51.9201803), (4.4117961 51.9188068, 4.4116308 51.9188262, 4.4111473 51.919076, 4.4109898 51.9191603, 4.4107464 51.9192914, 4.4100502 51.9196647), (4.4121411 51.9187634, 4.4119883 51.9187849, 4.4117961 51.9188068), (4.4121411 51.9187634, 4.4121348 51.9187299, 4.4121475 51.918697, 4.4121777 51.9186688, 4.4122216 51.9186487, 4.412274 51.918639, 4.4123327 51.9186415, 4.4123858 51.9186571, 4.4124259 51.9186837, 4.4124475 51.9187174, 4.4124476 51.9187537), (4.415733 51.9177269, 4.4155021 51.9177641, 4.4152379 51.9178534, 4.4150968 51.9179052, 4.4149636 51.9179561, 4.4147638 51.9180307, 4.4146456 51.9180752, 4.4144889 51.9181352, 4.4132896 51.918594, 4.4131221 51.9186545, 4.412934 51.9187194, 4.41276 51.9187392, 4.4126161 51.9187518, 4.4124476 51.9187537), (4.415733 51.9177269, 4.4158382 51.9176912, 4.4161301 51.9176681, 4.4163084 51.9176636), (4.4163084 51.9176636, 4.4165127 51.9176793), (4.4165127 51.9176793, 4.4166322 51.9176676, 4.4168141 51.9176218), (4.4168141 51.9176218, 4.4169424 51.9176046, 4.4169995 51.9176003, 4.4171907 51.9175816, 4.4173174 51.9175906), (4.4236547 51.917027, 4.422765 51.9171043, 4.422586 51.9171192, 4.4217003 51.917197, 4.4215615 51.9172108, 4.4211344 51.9172522, 4.4208113 51.9172802, 4.420165 51.9173385, 4.4199665 51.9173564, 4.4190629 51.9174307, 4.4177935 51.9175495, 4.4176338 51.9175609, 4.4173174 51.9175906), (4.4242957 51.9170059, 4.4241158 51.9170025, 4.4236547 51.917027), (4.4242957 51.9170059, 4.4244216 51.9169572, 4.4252444 51.9169186, 4.4253495 51.9169141, 4.4254195 51.9169111, 4.4256443 51.9169033), (4.4256443 51.9169033, 4.4258331 51.9169067), (4.4258331 51.9169067, 4.4260558 51.9169001, 4.4261357 51.9168991, 4.4271126 51.9168864), (4.4271126 51.9168864, 4.4274727 51.9168889), (4.4274727 51.9168889, 4.4277596 51.9169537, 4.427942 51.9170265, 4.428111 51.9171109, 4.4282799 51.9172449, 4.4283443 51.9173276, 4.428398 51.9174136, 4.428423 51.9175843), (4.428423 51.9175843, 4.4284493 51.9176943, 4.4284763 51.917801), (4.4284763 51.917801, 4.4285415 51.9180672, 4.4285597 51.9181512, 4.4287696 51.9189763, 4.4288415 51.919246, 4.4289935 51.9199124, 4.4290357 51.9201532, 4.4290504 51.9202373, 4.4290818 51.9203542), (4.4290818 51.9203542, 4.4292411 51.9203234, 4.4303292 51.9202561, 4.4307461 51.9202493, 4.4312374 51.9202571), (4.4312374 51.9202571, 4.4317039 51.9202742, 4.4318625 51.9202906, 4.4320212 51.9203125), (4.4320212 51.9203125, 4.4321898 51.9203389, 4.4324917 51.9203899, 4.4326024 51.9204126, 4.4326838 51.9204326, 4.4327689 51.9204558, 4.4328562 51.9204845, 4.4330481 51.9205485, 4.4334797 51.9206898, 4.4340027 51.9208582, 4.4344141 51.9209837, 4.4348515 51.921106, 4.4353215 51.9212284, 4.4357389 51.9213366, 4.4359471 51.921381, 4.4361312 51.921418, 4.4363977 51.9214733), (4.4363977 51.9214733, 4.4364704 51.9214863), (4.4364704 51.9214863, 4.43664 51.9215118, 4.436763 51.9215265, 4.436897 51.921539, 4.4372138 51.9215639, 4.4374904 51.9215818, 4.437873 51.9215831, 4.4380276 51.9215834, 4.4382635 51.921576, 4.4384854 51.9215644, 4.4386611 51.9215494), (4.4386611 51.9215494, 4.4388897 51.9215238, 4.4390395 51.9215035, 4.4390928 51.9214941), (4.4390928 51.9214941, 4.4393446 51.9214461, 4.4395328 51.9214053, 4.4397271 51.9213512, 4.4398926 51.9213028, 4.4400274 51.9212563, 4.4401231 51.9212212, 4.4402579 51.921164, 4.4403697 51.9211163, 4.4405125 51.9210415, 4.4406706 51.9209467, 4.44081 51.9208519), (4.44081 51.9208519, 4.4413574 51.9204832, 4.4415509 51.9203989, 4.4416446 51.9203581, 4.4417042 51.9203337, 4.441716 51.9203289, 4.4418188 51.920292), (4.4418188 51.920292, 4.4419417 51.9202534, 4.4420143 51.9202345, 4.4421058 51.9202166), (4.4421058 51.9202166, 4.4429771 51.9201201, 4.4430291 51.9201147, 4.4431669 51.9200999, 4.4433747 51.9200854, 4.4435509 51.9200746, 4.4436147 51.9200714, 4.4439657 51.9200533), (4.4439657 51.9200533, 4.4444745 51.9200132, 4.4452987 51.9199548, 4.447123 51.9198137, 4.4474696 51.9197888, 4.4477412 51.9197674, 4.4478124 51.9197613), (4.4478124 51.9197613, 4.448051 51.9197155, 4.4481309 51.9197001, 4.4482265 51.9196513), (4.4482265 51.9196513, 4.4482266 51.9196035, 4.4482544 51.919559), (4.4482544 51.919559, 4.4482924 51.9195308, 4.4483416 51.9195102, 4.4484272 51.919497, 4.4485141 51.9195064, 4.4485872 51.9195368, 4.448623 51.9195677, 4.4486429 51.9196037, 4.4486458 51.9196377, 4.4486344 51.919671), (4.4486344 51.919671, 4.4487034 51.9197376, 4.4487653 51.9197727, 4.4488902 51.9198435, 4.4490572 51.9199095), (4.4490572 51.9199095, 4.4496221 51.9200402, 4.4497665 51.9200738, 4.4504507 51.9202332, 4.4513299 51.9204361, 4.4521657 51.9206156, 4.4530105 51.9207929, 4.4531413 51.92082), (4.4531413 51.92082, 4.4532334 51.9208403, 4.4535517 51.9209074), (4.4535517 51.9209074, 4.453956 51.920985, 4.4545424 51.9211656, 4.4546101 51.9211809, 4.4546604 51.9211938, 4.4547897 51.9212059), (4.4547897 51.9212059, 4.4548174 51.9211762, 4.4548585 51.9211495, 4.45491 51.9211308), (4.45491 51.9211308, 4.4549678 51.9211216, 4.4550047 51.921122), (4.4550047 51.921122, 4.455027 51.9211225, 4.4550836 51.9211333, 4.4551333 51.9211532, 4.4551722 51.9211807, 4.4551976 51.9212137, 4.4552092 51.9212428), (4.4552092 51.9212428, 4.4553035 51.9212544, 4.4553396 51.921264, 4.4553905 51.9212679, 4.455708 51.9213039, 4.4557744 51.9213125, 4.4559055 51.921322, 4.4560815 51.9213233), (4.4560815 51.9213233, 4.4562137 51.9213262, 4.4562858 51.9213293, 4.4563319 51.9213323, 4.4563924 51.9213379, 4.4564273 51.9213438, 4.4565831 51.9213873), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4616448 51.922171, 4.4617134 51.9221824, 4.4617725 51.9221935, 4.4619426 51.9222344, 4.4620721 51.9222699, 4.462115 51.9222847), (4.462115 51.9222847, 4.4623979 51.922397, 4.4624753 51.9224277, 4.4625906 51.9224711, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661004 51.9224577, 4.466304 51.9224402, 4.4664005 51.9224341, 4.4670548 51.9223911, 4.4673276 51.9223794), (4.4673276 51.9223794, 4.4674555 51.922379, 4.4675654 51.9223809, 4.4676719 51.9223857, 4.467816 51.9223984, 4.4679869 51.9224187, 4.4681857 51.9224535, 4.4686671 51.9225472, 4.4691077 51.922632, 4.4695231 51.9227013, 4.4696893 51.9227278), (4.4696893 51.9227278, 4.4700805 51.9228048, 4.4709773 51.9229556, 4.4715933 51.9230921), (4.4715933 51.9230921, 4.4724497 51.9232651), (4.4724497 51.9232651, 4.472973 51.9233656, 4.4732262 51.9234142), (4.4732262 51.9234142, 4.4733896 51.9234439, 4.4735459 51.9234738), (4.4735459 51.9234738, 4.4741718 51.9235894, 4.4751239 51.9237692, 4.4751617 51.9237762, 4.4753603 51.9238153), (4.4753603 51.9238153, 4.4761927 51.9239776, 4.476813 51.9240985, 4.4769224 51.9241169, 4.4770044 51.924125, 4.4772165 51.9241418), (4.4772165 51.9241418, 4.4773054 51.9240886, 4.4774322 51.9240388, 4.4774795 51.9240283, 4.4775736 51.9240075, 4.4777228 51.9239962, 4.477846 51.9240061, 4.4779195 51.9240158, 4.4779584 51.9240232, 4.4779744 51.9240262, 4.478001 51.9240312, 4.4780116 51.9240341), (4.4780116 51.9240341, 4.4780355 51.9240419, 4.478077 51.9240553, 4.4781806 51.9241041), (4.4781806 51.9241041, 4.4782549 51.9241504, 4.4783414 51.9242352), (4.4783414 51.9242352, 4.4785235 51.924358, 4.4786137 51.9244196, 4.478661 51.9244573, 4.4788154 51.9245171, 4.479551 51.9246743, 4.4796266 51.9246902, 4.479682 51.9247018, 4.4798461 51.9247374), (4.4798461 51.9247374, 4.4800363 51.9247734, 4.48011 51.9247899, 4.4802513 51.9248218, 4.480471 51.9248855), (4.480471 51.9248855, 4.4808426 51.9250146, 4.4818492 51.9253455), (4.4818492 51.9253455, 4.4820681 51.9254518, 4.4821452 51.9254895, 4.4822083 51.9255273, 4.4823875 51.9256318, 4.4825872 51.9257483, 4.4848009 51.9266659), (4.4848009 51.9266659, 4.484976 51.9267366), (4.484976 51.9267366, 4.4852199 51.9268409, 4.4863278 51.9271928, 4.4865022 51.9272469, 4.4865576 51.9272641, 4.4866486 51.9272923, 4.4866931 51.927306, 4.4867411 51.9273209), (4.4867411 51.9273209, 4.4867577 51.9274516, 4.4867621 51.9275182, 4.4867635 51.9275583, 4.4867404 51.927697, 4.4866366 51.9285917, 4.4865567 51.9292396, 4.4865584 51.9293792, 4.486592 51.9295298, 4.4866325 51.9296506, 4.4866487 51.9297568, 4.4866398 51.9298594, 4.4866133 51.9299587, 4.4865995 51.9299865, 4.4865528 51.9300715), (4.4865528 51.9300715, 4.4865295 51.9301224, 4.4864706 51.9302193, 4.4864164 51.9302644, 4.4863926 51.9302863), (4.4863926 51.9302863, 4.486379 51.9304008, 4.4863776 51.9304305, 4.4863889 51.9305556, 4.4864002 51.9306355, 4.4864398 51.9307667, 4.4864827 51.9308827, 4.4865285 51.9309804, 4.4865808 51.9310921, 4.4866605 51.9312372, 4.4867379 51.9313582, 4.4868565 51.9315391, 4.4873423 51.9321848, 4.4876155 51.9325845, 4.487682 51.9326758, 4.4877443 51.9327386, 4.487782 51.9327787, 4.4878721 51.9328552, 4.4879358 51.9329064, 4.4881141 51.9330312, 4.4883432 51.9331858), (4.4883432 51.9331858, 4.4884081 51.9332145, 4.4885239 51.9332728, 4.4886267 51.9333187, 4.4886854 51.9333499, 4.4887075 51.9333601), (4.4931195 51.9328701, 4.4923667 51.9329522, 4.4920995 51.9329813, 4.4918255 51.9330139, 4.4904884 51.9331618, 4.4901868 51.9331976, 4.4888748 51.9333423, 4.4887378 51.9333577, 4.4887075 51.9333601), (4.4931195 51.9328701, 4.4931575 51.9328659, 4.4938352 51.9327866, 4.4940671 51.93276, 4.4942035 51.9327443, 4.4944129 51.9327281, 4.4944426 51.9327273, 4.4944934 51.9327252, 4.4946942 51.9327319), (4.4946942 51.9327319, 4.4947204 51.9327548), (4.4947204 51.9327548, 4.4947971 51.932817, 4.4953038 51.9332279), (4.4953038 51.9332279, 4.4954532 51.9333669, 4.4959268 51.9337925, 4.4960139 51.9338664), (4.4960139 51.9338664, 4.4961348 51.9339858, 4.4963537 51.9341923, 4.4963761 51.9342135, 4.4968895 51.9347223), (4.4968895 51.9347223, 4.4967408 51.9347866, 4.4961675 51.9351944, 4.495778 51.935451, 4.4954 51.9357, 4.4952641 51.9357918, 4.4950929 51.9359074, 4.4949296 51.9360225), (4.4949296 51.9360225, 4.4948137 51.936125), (4.4948137 51.936125, 4.494196 51.9366086, 4.4928863 51.9376753), (4.4928019 51.9376328, 4.4928863 51.9376753), (4.4927019 51.9375811, 4.4928019 51.9376328), (4.4924397 51.9374524, 4.4927019 51.9375811))</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>385080</t>
+          <t>384207</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rotterdam, Metro Pernis</t>
+          <t>Schiedam, Station Schiedam Centrum</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bus 69: Rotterdam Zuidplein =&gt; Rotterdam Metro Pernis</t>
+          <t>Bus 38: Rotterdam Crooswijk =&gt; Schiedam Centrum</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2295,14 +2295,14 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4894216 51.8881435, 4.4892687 51.8881265), (4.4892687 51.8881265, 4.4892353 51.8880675), (4.4892353 51.8880675, 4.489202 51.8880084), (4.489202 51.8880084, 4.4891686 51.8879494), (4.4891686 51.8879494, 4.4891352 51.8878903), (4.4891352 51.8878903, 4.4891019 51.8878313), (4.4891019 51.8878313, 4.4890685 51.8877722), (4.4890685 51.8877722, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.4772044 51.874002), (4.4772044 51.874002, 4.4769271 51.8740373, 4.4765921 51.8740693, 4.4758806 51.8740626, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4719936 51.8744898, 4.4708191 51.8746203, 4.4705094 51.8746547, 4.4701998 51.8747087, 4.469905 51.8747573, 4.4694501 51.8748169, 4.4692574 51.8748422), (4.4692574 51.8748422, 4.4690757 51.8748598, 4.4680044 51.8749638, 4.467427 51.8750013, 4.4669859 51.8750464, 4.4668565 51.8750593), (4.4668565 51.8750593, 4.4667279 51.8750744, 4.4658218 51.8751804, 4.4655801 51.8752136, 4.4650023 51.875293, 4.4647222 51.8753614, 4.4642787 51.8755251, 4.4641038 51.8756286, 4.4639078 51.8757473, 4.4637094 51.8758674, 4.4635338 51.8759878, 4.4627356 51.8765043, 4.4626895 51.8765347, 4.4626388 51.8765682, 4.4624718 51.8766748), (4.4624718 51.8766748, 4.4621781 51.8767841), (4.4621781 51.8767841, 4.4618914 51.8766224, 4.4618561 51.8766002, 4.4611599 51.8761627), (4.4611599 51.8761627, 4.4603603 51.8756389, 4.460239 51.875551), (4.460239 51.875551, 4.4601378 51.8754772), (4.4601378 51.8754772, 4.460071 51.8754301, 4.4598986 51.8753086), (4.4598986 51.8753086, 4.4589202 51.8745749, 4.4584294 51.8741945, 4.4581019 51.8739404), (4.4581019 51.8739404, 4.4579277 51.8737989, 4.4574665 51.8733974, 4.4573838 51.8733203, 4.4569321 51.8728689, 4.4568696 51.8728065, 4.4568453 51.8727821, 4.4568152 51.8727521, 4.4567391 51.8726706), (4.4567391 51.8726706, 4.456515 51.8727479, 4.4564623 51.8727652, 4.456233 51.8728408, 4.4561945 51.8728523, 4.4560532 51.872884, 4.455968 51.8729009, 4.4558851 51.8729136, 4.4557493 51.8729271), (4.4557493 51.8729271, 4.4545216 51.8731505, 4.4539925 51.8732575, 4.4535919 51.873325, 4.4534889 51.8733423, 4.4533254 51.8733785), (4.4533254 51.8733785, 4.4534129 51.8735344, 4.4534575 51.8736138, 4.4535946 51.8738839, 4.4536933 51.8742887, 4.4536833 51.8744076, 4.4534682 51.8760421), (4.4480238 51.8758934, 4.449639 51.8759339, 4.45011 51.8759486, 4.450747 51.8759656, 4.4511878 51.875974, 4.4514896 51.87598, 4.4519995 51.8759944, 4.4522914 51.8760026, 4.4527884 51.8760166, 4.4531775 51.8760275, 4.4534682 51.8760421), (4.4480904 51.8751789, 4.4480238 51.8758934), (4.4439415 51.8750767, 4.4463169 51.8751448, 4.447599 51.8751639, 4.4480904 51.8751789), (4.4416143 51.8750218, 4.4439415 51.8750767), (4.441819 51.8721081, 4.4416143 51.8750218), (4.4360786 51.8719943, 4.4361246 51.8719781, 4.4361709 51.8719682, 4.4362197 51.8719665, 4.4362528 51.8719667, 4.4363059 51.8719678, 4.4364372 51.8719713, 4.4366004 51.8719756, 4.4367373 51.8719793, 4.4374494 51.8719974, 4.4376147 51.8720017, 4.438456 51.8720234, 4.4395235 51.8720488, 4.441819 51.8721081), (4.4357067 51.8721666, 4.4360786 51.8719943), (4.4357067 51.8721666, 4.4354074 51.8723163, 4.4352403 51.872401, 4.435084 51.8724924, 4.4349563 51.8725766, 4.4348382 51.8726613, 4.4346772 51.872789, 4.4345099 51.8729279, 4.4343978 51.8730349, 4.4341742 51.873282, 4.4339506 51.8735357, 4.4338923 51.8736231, 4.4338502 51.8737138, 4.4338254 51.8737905, 4.4338036 51.8738711, 4.4337831 51.8739471, 4.4337 51.8743, 4.433577 51.8746706, 4.4335294 51.8747782, 4.4334811 51.8748511), (4.4334811 51.8748511, 4.4334382 51.8749676, 4.4334089 51.8750303), (4.4334089 51.8750303, 4.4333194 51.8751204, 4.4332246 51.8752072), (4.4332246 51.8752072, 4.4331316 51.8752781, 4.4330597 51.875333, 4.4329524 51.8754016, 4.4328918 51.8754346, 4.4328258 51.875471, 4.4327116 51.875524, 4.432592 51.8755687, 4.4324594 51.8756159, 4.4323214 51.8756615, 4.4320455 51.8757394, 4.4319692 51.8757561), (4.4319692 51.8757561, 4.4318946 51.8757733, 4.4317877 51.8757862, 4.4317102 51.8757925, 4.4316401 51.875794), (4.4316401 51.875794, 4.4315743 51.8757862, 4.4315193 51.8757768, 4.4314709 51.8757662), (4.4314709 51.8757662, 4.4314027 51.8757499, 4.431348 51.8757336), (4.431348 51.8757336, 4.4312676 51.8755887), (4.4312676 51.8755887, 4.4309565 51.8750551, 4.4306727 51.8745872, 4.4305486 51.8743454), (4.4305486 51.8743454, 4.4303507 51.8739145, 4.4303254 51.8738578), (4.4303254 51.8738578, 4.4298766 51.8730753), (4.4298766 51.8730753, 4.4297115 51.8727758, 4.4294015 51.8722359), (4.4294015 51.8722359, 4.4293274 51.8720563, 4.4289558 51.8713179, 4.4288959 51.8711988), (4.4288959 51.8711988, 4.4288391 51.8710702), (4.4288391 51.8710702, 4.428719 51.8708117, 4.4285551 51.8704614, 4.4284803 51.8703157), (4.4284803 51.8703157, 4.4284348 51.8702338), (4.4284348 51.8702338, 4.4283656 51.8700806, 4.4282054 51.8697231, 4.4281424 51.8696113, 4.4280685 51.8694944, 4.4280158 51.8694162, 4.4279735 51.8693613, 4.4279062 51.8692957, 4.4278462 51.8692436, 4.427786 51.8691985, 4.4277258 51.8691543, 4.427635 51.8690928, 4.4275347 51.8690316, 4.4274423 51.8689832, 4.4273472 51.8689365, 4.4272209 51.8688846, 4.4270994 51.8688431), (4.4270994 51.8688431, 4.4270145 51.8688179, 4.426922 51.8687964, 4.4267531 51.8687615, 4.4266437 51.868741, 4.4265238 51.8687225, 4.4264363 51.8687134, 4.4263198 51.8687065, 4.4262061 51.8687029, 4.4260733 51.8687046, 4.4259264 51.86871, 4.425797 51.8687195, 4.4256215 51.8687395, 4.4254354 51.8687628, 4.4253128 51.8687808, 4.4250089 51.8688328, 4.424676 51.8688906, 4.424359 51.8689429), (4.424359 51.8689429, 4.420534 51.8695702, 4.417313 51.8700726, 4.4139509 51.8706012), (4.4139509 51.8706012, 4.413079 51.8707589, 4.4128625 51.8708236), (4.4128625 51.8708236, 4.4126327 51.8708965), (4.4119454 51.8717548, 4.412023 51.871554, 4.412137 51.8713582, 4.4122507 51.8712153, 4.4124264 51.8710545, 4.4126327 51.8708965), (4.4120964 51.8725907, 4.4120745 51.872486, 4.4120236 51.8723189, 4.4119814 51.8721794, 4.411937 51.8719232, 4.4119454 51.8717548), (4.4120964 51.8725907, 4.412136 51.8727, 4.4121465 51.8727986), (4.4121465 51.8727986, 4.4121461 51.8730488, 4.4121443 51.8736514), (4.4121443 51.8736514, 4.4121576 51.8737707), (4.4121576 51.8737707, 4.4123184 51.8742968, 4.4123552 51.8744073, 4.412391 51.874525), (4.412391 51.874525, 4.4123434 51.8746485), (4.4123434 51.8746485, 4.4120522 51.8747109, 4.4086829 51.8753726, 4.4015844 51.8767184), (4.4015844 51.8767184, 4.4002553 51.8769719, 4.4001537 51.8769913, 4.3998736 51.8770506), (4.3998736 51.8770506, 4.3985159 51.8773128, 4.3970261 51.8775966), (4.3970261 51.8775966, 4.3961771 51.8777243, 4.395619 51.877792, 4.3950258 51.8778423, 4.394794 51.8778604), (4.394794 51.8778604, 4.3941019 51.8778931, 4.393775 51.877892), (4.393775 51.877892, 4.3927214 51.8778837, 4.3921034 51.8778658, 4.3918686 51.877862), (4.3918686 51.877862, 4.3917685 51.87774), (4.3917685 51.87774, 4.3918617 51.8767971), (4.3918617 51.8767971, 4.3918772 51.8765148, 4.391877 51.8764366, 4.3918664 51.876368, 4.3918392 51.8762984, 4.3918076 51.8762347, 4.3916496 51.8759785), (4.3916496 51.8759785, 4.3915647 51.8759275, 4.391465 51.8758761, 4.3913674 51.8758316, 4.3912612 51.8757926, 4.3911747 51.8757669, 4.3911079 51.8757495), (4.3911079 51.8757495, 4.3909741 51.8757226, 4.3908474 51.8757071, 4.3907347 51.8757006, 4.3906242 51.8757019, 4.3904992 51.8757123, 4.3903909 51.8757266, 4.3902811 51.8757474, 4.390181 51.8757735, 4.3898804 51.8758742, 4.3896077 51.8760796), (4.3896077 51.8760796, 4.3895351 51.8761559, 4.3894786 51.8762294, 4.3894332 51.8763219, 4.389371 51.8764814, 4.389155 51.877097, 4.3889795 51.877621, 4.3889088 51.8778539, 4.3888701 51.8780257, 4.3888418 51.8781963, 4.3888163 51.8784205, 4.3887975 51.8787378, 4.3887984 51.8788968, 4.3888065 51.8790334), (4.3888065 51.8790334, 4.388866 51.8791887), (4.388866 51.8791887, 4.3889903 51.8798263, 4.389194 51.8803831, 4.3892285 51.8804579), (4.3892285 51.8804579, 4.3893163 51.8806512, 4.3893754 51.8808192, 4.3894006 51.8809908), (4.3894006 51.8809908, 4.3897275 51.8816928, 4.3897898 51.8818442, 4.3898313 51.8820061, 4.389852 51.8821493, 4.389852 51.8822925, 4.3898294 51.8824055, 4.3897728 51.8826127, 4.3896181 51.8830972, 4.3893938 51.8837674, 4.3892725 51.8841413, 4.3889253 51.8852868, 4.3889172 51.8853119, 4.3889092 51.8853364), (4.3889092 51.8853364, 4.3889069 51.8854598, 4.3888802 51.8855521, 4.3888182 51.8857788, 4.3887346 51.8858357), (4.3887346 51.8858357, 4.3886812 51.8860116, 4.3881348 51.8876924), (4.3881348 51.8876924, 4.3891795 51.8878217, 4.389477 51.8878353, 4.3904583 51.887874), (4.3904583 51.887874, 4.3904018 51.8883469), (4.3904018 51.8883469, 4.3903955 51.8884235, 4.3903751 51.8885061, 4.3903382 51.8886307, 4.3902851 51.8887894, 4.3902266 51.8892951, 4.3901581 51.8899403, 4.3901107 51.8903896), (4.3901107 51.8903896, 4.3895241 51.8903768, 4.3889703 51.8904089, 4.3881688 51.8904891, 4.3879787 51.8904914, 4.3879487 51.8904918, 4.3872297 51.8904249), (4.3881348 51.8876924, 4.3878624 51.8885566, 4.3878238 51.8886855, 4.3876678 51.8890817, 4.38754 51.8894609, 4.3872558 51.8903438, 4.3872297 51.8904249), (4.3867841 51.8875224, 4.3870036 51.8875472, 4.3881348 51.8876924), (4.3859378 51.8874168, 4.3867841 51.8875224), (4.3859378 51.8874168, 4.3858887 51.8876896), (4.3831191 51.8875355, 4.3838743 51.887566, 4.3842077 51.8875862, 4.3843869 51.8875971, 4.3846929 51.8876156, 4.3851165 51.8876458, 4.3854124 51.8876625, 4.3858887 51.8876896), (4.3834313 51.8854747, 4.3833356 51.8861678, 4.3831948 51.8870013, 4.3831191 51.8875355), (4.3829417 51.8854417, 4.3834313 51.8854747), (4.3825574 51.8853605, 4.3829417 51.8854417), (4.3818714 51.8852036, 4.3825574 51.8853605))</t>
+          <t>MULTILINESTRING ((4.4917757 51.9371883, 4.4916792 51.9371381, 4.491676 51.9370574), (4.4905215 51.9359435, 4.4907751 51.9362681, 4.4911439 51.9367248, 4.491245 51.9368255, 4.4913732 51.9369017, 4.491676 51.9370574), (4.4903644 51.9357268, 4.4905215 51.9359435), (4.4903644 51.9357268, 4.4914752 51.9357962, 4.4921988 51.9358548, 4.4931761 51.9359078, 4.4937986 51.9359398), (4.4937986 51.9359398, 4.4944866 51.9359895, 4.4946666 51.9360026), (4.4946666 51.9360026, 4.4949296 51.9360225), (4.4968895 51.9347223, 4.4967408 51.9347866, 4.4961675 51.9351944, 4.495778 51.935451, 4.4954 51.9357, 4.4952641 51.9357918, 4.4950929 51.9359074, 4.4949296 51.9360225), (4.4960139 51.9338664, 4.4961348 51.9339858, 4.4963537 51.9341923, 4.4963761 51.9342135, 4.4968895 51.9347223), (4.4953038 51.9332279, 4.4954532 51.9333669, 4.4959268 51.9337925, 4.4960139 51.9338664), (4.4947204 51.9327548, 4.4947971 51.932817, 4.4953038 51.9332279), (4.4946942 51.9327319, 4.4947204 51.9327548), (4.4931195 51.9328701, 4.4931575 51.9328659, 4.4938352 51.9327866, 4.4940671 51.93276, 4.4942035 51.9327443, 4.4944129 51.9327281, 4.4944426 51.9327273, 4.4944934 51.9327252, 4.4946942 51.9327319), (4.4931195 51.9328701, 4.4923667 51.9329522, 4.4920995 51.9329813, 4.4918255 51.9330139, 4.4904884 51.9331618, 4.4901868 51.9331976, 4.4888748 51.9333423, 4.4887378 51.9333577, 4.4887075 51.9333601), (4.4887075 51.9333601, 4.4886807 51.9333639, 4.4886463 51.9333692), (4.4886463 51.9333692, 4.4886196 51.9333592, 4.4885732 51.933341, 4.4885286 51.9333167, 4.4884594 51.933282, 4.4883959 51.9332376, 4.4883432 51.9331858), (4.4863926 51.9302863, 4.486379 51.9304008, 4.4863776 51.9304305, 4.4863889 51.9305556, 4.4864002 51.9306355, 4.4864398 51.9307667, 4.4864827 51.9308827, 4.4865285 51.9309804, 4.4865808 51.9310921, 4.4866605 51.9312372, 4.4867379 51.9313582, 4.4868565 51.9315391, 4.4873423 51.9321848, 4.4876155 51.9325845, 4.487682 51.9326758, 4.4877443 51.9327386, 4.487782 51.9327787, 4.4878721 51.9328552, 4.4879358 51.9329064, 4.4881141 51.9330312, 4.4883432 51.9331858), (4.4863926 51.9302863, 4.4864125 51.9301961, 4.4864305 51.9301176, 4.486415 51.9300978, 4.486391 51.9300588), (4.486391 51.9300588, 4.4864102 51.929973, 4.4864374 51.9298628, 4.4864199 51.9297366, 4.4864099 51.9296651, 4.4863583 51.929482, 4.4863537 51.9293376, 4.4863676 51.9291922, 4.4863848 51.9291376, 4.4864461 51.9289434, 4.4864831 51.9286527, 4.4864885 51.9286153, 4.486537 51.9281036, 4.4865755 51.9278887), (4.4865755 51.9278887, 4.4865958 51.927721, 4.4866014 51.9276558, 4.4866012 51.9275692), (4.4866012 51.9275692, 4.4866011 51.927553, 4.4865904 51.9274624, 4.4865754 51.9273916), (4.4865754 51.9273916, 4.4865246 51.9273749, 4.4851496 51.9269229, 4.4849079 51.9268222), (4.4849079 51.9268222, 4.4847361 51.9267436), (4.4847361 51.9267436, 4.4826045 51.9258907, 4.4824523 51.9258285, 4.4819174 51.9256072), (4.4819174 51.9256072, 4.4812629 51.925377, 4.4808857 51.9252436, 4.4807344 51.9251952, 4.4805964 51.9251501, 4.48039 51.9250926, 4.4802719 51.9250656, 4.4801521 51.9250389, 4.4799927 51.92501, 4.4799149 51.924997, 4.4797142 51.9249583), (4.4797142 51.9249583, 4.4795644 51.9249278, 4.4795062 51.9249152, 4.4786273 51.9247213, 4.4785222 51.924703, 4.4784609 51.9246928, 4.4782456 51.9246829), (4.4782456 51.9246829, 4.4781356 51.9247468, 4.4780055 51.924794), (4.4780055 51.924794, 4.4778717 51.9248209, 4.4777317 51.9248302, 4.4775917 51.9248214, 4.4775463 51.9248145, 4.4774976 51.9248045, 4.4774804 51.9247999, 4.4774465 51.9247922, 4.477373 51.9247674, 4.4772886 51.9247292), (4.4772886 51.9247292, 4.4771852 51.924672, 4.4771197 51.9246116), (4.4771197 51.9246116, 4.4769519 51.9244827, 4.4768482 51.9244082, 4.4767203 51.9243525, 4.4766115 51.9243242, 4.4756633 51.9241341, 4.475333 51.9240679, 4.475232 51.9240477, 4.4750155 51.9240038, 4.4748755 51.9239743), (4.4748755 51.9239743, 4.4747305 51.9239454, 4.4747029 51.9239394, 4.4746503 51.923929, 4.4746045 51.9239197, 4.4740531 51.9238093), (4.4740531 51.9238093, 4.4734552 51.9236854, 4.4734382 51.9236819, 4.4732799 51.9236498, 4.4731271 51.9236199), (4.4731271 51.9236199, 4.4714901 51.9232759), (4.4714901 51.9232759, 4.469607 51.9228865), (4.469607 51.9228865, 4.4681272 51.9225877, 4.4678125 51.9225305, 4.4676768 51.9225104, 4.4676173 51.9225031, 4.4675508 51.9224986, 4.4674958 51.9224977, 4.467429 51.9224969, 4.4672711 51.922498), (4.4672711 51.922498, 4.4671554 51.9225021, 4.4664572 51.9225417, 4.4663065 51.9225503, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629276 51.9226624, 4.4628351 51.9226479, 4.462784 51.9226396, 4.4627358 51.9226309, 4.4626965 51.9226232, 4.4626495 51.9226121, 4.4626077 51.9226011, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4624456 51.9225368, 4.46233 51.9224838, 4.4619885 51.9223321, 4.4617093 51.922195, 4.4616448 51.922171), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4565831 51.9213873, 4.456427 51.9214005, 4.4563845 51.9214019, 4.4562106 51.9214041, 4.4560904 51.9214067, 4.4559084 51.9213913, 4.4557499 51.9213717, 4.4554996 51.921336, 4.4553721 51.9213207, 4.4553214 51.9213215, 4.4551847 51.9213132), (4.4551847 51.9213132, 4.4551246 51.9213581, 4.455073 51.9213783), (4.455073 51.9213783, 4.4549923 51.9213861, 4.4549499 51.9213836), (4.4549499 51.9213836, 4.4548705 51.9213628, 4.4548277 51.9213389, 4.4547968 51.9213088, 4.4547799 51.9212748), (4.4547799 51.9212748, 4.4546473 51.9212537, 4.4545967 51.921237, 4.4545707 51.9212307, 4.4543595 51.9211693, 4.4539267 51.9210393, 4.4535517 51.9209074), (4.4531413 51.92082, 4.4532334 51.9208403, 4.4535517 51.9209074), (4.4490572 51.9199095, 4.4496221 51.9200402, 4.4497665 51.9200738, 4.4504507 51.9202332, 4.4513299 51.9204361, 4.4521657 51.9206156, 4.4530105 51.9207929, 4.4531413 51.92082), (4.4490572 51.9199095, 4.4489356 51.919896, 4.4488549 51.919871, 4.448713 51.9198124, 4.4486543 51.9197882, 4.4485447 51.9197391), (4.4485447 51.9197391, 4.4484836 51.9197546, 4.4484177 51.9197577, 4.4483535 51.9197481, 4.4482972 51.9197268), (4.4482972 51.9197268, 4.4481769 51.9197568, 4.4481034 51.9197577, 4.4478124 51.9197613), (4.4439657 51.9200533, 4.4444745 51.9200132, 4.4452987 51.9199548, 4.447123 51.9198137, 4.4474696 51.9197888, 4.4477412 51.9197674, 4.4478124 51.9197613), (4.4439657 51.9200533, 4.4436304 51.9201182, 4.4435672 51.9201291, 4.4435202 51.9201347, 4.4434228 51.920144, 4.4433279 51.9201529, 4.4431786 51.9201656, 4.4430418 51.9201775, 4.4428623 51.920191), (4.4428623 51.920191, 4.4426886 51.9202016, 4.4426399 51.9202081, 4.4426046 51.9202156, 4.4425676 51.9202244, 4.4425211 51.9202377, 4.4424861 51.9202477, 4.442453 51.9202613, 4.4422817 51.9203483, 4.4421917 51.9204029, 4.4420499 51.9204975, 4.4416836 51.9207179), (4.4416836 51.9207179, 4.4415875 51.9207787), (4.4415875 51.9207787, 4.4411797 51.9209696, 4.440888 51.9211152, 4.4408223 51.9211457, 4.4407606 51.9211728, 4.4406679 51.9212088, 4.4405342 51.9212581, 4.440383 51.9213158, 4.4402386 51.9213661, 4.4401177 51.9214032, 4.4399964 51.9214361, 4.4398501 51.921474, 4.4397277 51.9215011, 4.4395365 51.9215392, 4.4393411 51.9215751, 4.4392064 51.9215953, 4.4390544 51.9216142), (4.4390544 51.9216142, 4.4390283 51.9216177, 4.4388902 51.9216324, 4.4386863 51.9216519, 4.438456 51.9216677), (4.438456 51.9216677, 4.4382673 51.9216751, 4.4379905 51.9216804, 4.4378507 51.9216793, 4.4372982 51.9216641, 4.4371203 51.9216558, 4.4369388 51.9216464, 4.4368801 51.9216406, 4.4368074 51.9216308, 4.4366945 51.9216097, 4.4364353 51.9215623), (4.4364353 51.9215623, 4.4362398 51.9215257), (4.4362398 51.9215257, 4.4359303 51.9214591, 4.4357786 51.921426, 4.43566 51.9213987, 4.435512 51.9213613, 4.4349958 51.9212241, 4.4346902 51.9211413, 4.434402 51.9210571, 4.4341314 51.9209798, 4.4338811 51.920905, 4.4336515 51.9208316, 4.4333323 51.9207332, 4.4330638 51.920654, 4.4329366 51.9206191, 4.4327871 51.920583, 4.4326171 51.9205449, 4.4324808 51.9205161, 4.4323422 51.9204907, 4.4320415 51.920439, 4.43188 51.9204207, 4.4317184 51.9204024, 4.4312009 51.9203731), (4.4312009 51.9203731, 4.4307225 51.9203687, 4.4302031 51.9203802, 4.4294252 51.9204512, 4.4292614 51.9204662, 4.4291095 51.9204757, 4.4289284 51.9204899), (4.4289284 51.9204899, 4.428923 51.9203707), (4.428923 51.9203707, 4.4289037 51.9202507, 4.428814 51.919929, 4.4286737 51.9192605, 4.4286175 51.9189925, 4.4284398 51.9181656, 4.4283821 51.9178973, 4.4283606 51.9178117), (4.4283606 51.9178117, 4.4283362 51.9177031, 4.428305 51.9175926), (4.428305 51.9175926, 4.4282771 51.9174632, 4.4282347 51.9173869, 4.4281669 51.917289, 4.428019 51.9171673, 4.4278606 51.9170822, 4.4276637 51.9170127, 4.4275231 51.9169799, 4.4273456 51.9169604), (4.4273456 51.9169604, 4.4270564 51.9169682, 4.4270092 51.9169695), (4.4270092 51.9169695, 4.4261477 51.9169928, 4.4260726 51.9169949, 4.4259974 51.9169969, 4.4257895 51.9170017), (4.4257895 51.9170017, 4.4255816 51.9170042), (4.4255816 51.9170042, 4.4253618 51.9170098, 4.4247254 51.9170197, 4.4244382 51.9170252, 4.4242957 51.9170059), (4.4242957 51.9170059, 4.4241158 51.9170025, 4.4236547 51.917027), (4.4236547 51.917027, 4.422765 51.9171043, 4.422586 51.9171192, 4.4217003 51.917197, 4.4215615 51.9172108, 4.4211344 51.9172522, 4.4208113 51.9172802, 4.420165 51.9173385, 4.4199665 51.9173564, 4.4190629 51.9174307, 4.4177935 51.9175495, 4.4176338 51.9175609, 4.4173174 51.9175906), (4.4173174 51.9175906, 4.4171927 51.9176218, 4.4170147 51.9176467, 4.4168287 51.9176738, 4.4166418 51.9177145, 4.416523 51.9177218), (4.416523 51.9177218, 4.416316 51.9177168, 4.4161383 51.9177197, 4.4158486 51.9177382, 4.415733 51.9177269), (4.415733 51.9177269, 4.4155021 51.9177641, 4.4152379 51.9178534, 4.4150968 51.9179052, 4.4149636 51.9179561, 4.4147638 51.9180307, 4.4146456 51.9180752, 4.4144889 51.9181352, 4.4132896 51.918594, 4.4131221 51.9186545, 4.412934 51.9187194, 4.41276 51.9187392, 4.4126161 51.9187518, 4.4124476 51.9187537), (4.4124476 51.9187537, 4.4124295 51.918784, 4.4123963 51.918809, 4.4123517 51.9188259, 4.4123005 51.9188329, 4.4122485 51.9188292, 4.4122013 51.9188152, 4.4121641 51.9187924, 4.4121411 51.9187634), (4.4121411 51.9187634, 4.4119883 51.9187849, 4.4117961 51.9188068), (4.4117961 51.9188068, 4.4116308 51.9188262, 4.4111473 51.919076, 4.4109898 51.9191603, 4.4107464 51.9192914, 4.4100502 51.9196647), (4.4100502 51.9196647, 4.4093856 51.920034, 4.4091859 51.9201509, 4.4091246 51.9201803), (4.4096943 51.920582, 4.4092212 51.9202484, 4.4091246 51.9201803), (4.4096943 51.920582, 4.4099168 51.9207407, 4.41 51.9208, 4.4100309 51.9208582, 4.4100585 51.9209076, 4.4100809 51.9209507, 4.4101263 51.9210344), (4.4101714 51.9211202, 4.4101263 51.9210344), (4.4101714 51.9211202, 4.409913 51.9211819, 4.4096667 51.9212407), (4.4096667 51.9212407, 4.4090742 51.9213762))</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>385081</t>
+          <t>4553216</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2312,17 +2312,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Rotterdam, Rotterdam Centraal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bus 69: Rotterdam Metro Pernis =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 40: Delft Station Delft =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2333,14 +2333,14 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3816287 51.8850895, 4.3816963 51.8851608, 4.3818714 51.8852036), (4.3819622 51.8845088, 4.3815346 51.8849901, 4.3816287 51.8850895), (4.3819622 51.8845088, 4.38225 51.8847692, 4.38263 51.8852004, 4.3825574 51.8853605), (4.3825574 51.8853605, 4.3829417 51.8854417), (4.3829417 51.8854417, 4.3834313 51.8854747), (4.3834313 51.8854747, 4.3833356 51.8861678, 4.3831948 51.8870013, 4.3831191 51.8875355), (4.3831191 51.8875355, 4.3838743 51.887566, 4.3842077 51.8875862, 4.3843869 51.8875971, 4.3846929 51.8876156, 4.3851165 51.8876458, 4.3854124 51.8876625, 4.3858887 51.8876896), (4.3859378 51.8874168, 4.3858887 51.8876896), (4.3859378 51.8874168, 4.3867841 51.8875224), (4.3867841 51.8875224, 4.3870036 51.8875472, 4.3881348 51.8876924), (4.3881348 51.8876924, 4.3878624 51.8885566, 4.3878238 51.8886855, 4.3876678 51.8890817, 4.38754 51.8894609, 4.3872558 51.8903438, 4.3872297 51.8904249), (4.3901107 51.8903896, 4.3895241 51.8903768, 4.3889703 51.8904089, 4.3881688 51.8904891, 4.3879787 51.8904914, 4.3879487 51.8904918, 4.3872297 51.8904249), (4.3904018 51.8883469, 4.3903955 51.8884235, 4.3903751 51.8885061, 4.3903382 51.8886307, 4.3902851 51.8887894, 4.3902266 51.8892951, 4.3901581 51.8899403, 4.3901107 51.8903896), (4.3904583 51.887874, 4.3904018 51.8883469), (4.3881348 51.8876924, 4.3891795 51.8878217, 4.389477 51.8878353, 4.3904583 51.887874), (4.3887346 51.8858357, 4.3886812 51.8860116, 4.3881348 51.8876924), (4.3887346 51.8858357, 4.3887041 51.8857328, 4.3887984 51.8854935, 4.3889092 51.8853364), (4.3894006 51.8809908, 4.3897275 51.8816928, 4.3897898 51.8818442, 4.3898313 51.8820061, 4.389852 51.8821493, 4.389852 51.8822925, 4.3898294 51.8824055, 4.3897728 51.8826127, 4.3896181 51.8830972, 4.3893938 51.8837674, 4.3892725 51.8841413, 4.3889253 51.8852868, 4.3889172 51.8853119, 4.3889092 51.8853364), (4.3894006 51.8809908, 4.389319 51.8808279, 4.3892531 51.8806622, 4.3891566 51.8804697, 4.3891214 51.8803957, 4.3889138 51.8798285, 4.3888255 51.8794013), (4.3888255 51.8794013, 4.3888065 51.8790334), (4.3896077 51.8760796, 4.3895351 51.8761559, 4.3894786 51.8762294, 4.3894332 51.8763219, 4.389371 51.8764814, 4.389155 51.877097, 4.3889795 51.877621, 4.3889088 51.8778539, 4.3888701 51.8780257, 4.3888418 51.8781963, 4.3888163 51.8784205, 4.3887975 51.8787378, 4.3887984 51.8788968, 4.3888065 51.8790334), (4.3911079 51.8757495, 4.3909741 51.8757226, 4.3908474 51.8757071, 4.3907347 51.8757006, 4.3906242 51.8757019, 4.3904992 51.8757123, 4.3903909 51.8757266, 4.3902811 51.8757474, 4.390181 51.8757735, 4.3898804 51.8758742, 4.3896077 51.8760796), (4.3916496 51.8759785, 4.3915647 51.8759275, 4.391465 51.8758761, 4.3913674 51.8758316, 4.3912612 51.8757926, 4.3911747 51.8757669, 4.3911079 51.8757495), (4.3916496 51.8759785, 4.3917062 51.8760117, 4.3917705 51.8760475, 4.3918118 51.8760753, 4.3918461 51.8761092, 4.3918891 51.8761502, 4.3919271 51.8761951, 4.3919683 51.8762669, 4.3919967 51.8763207, 4.3920196 51.8763866, 4.3920374 51.8764633, 4.3920461 51.8765337, 4.3920441 51.8766777, 4.3920373 51.8768033), (4.3920373 51.8768033, 4.3919898 51.8776217, 4.3919818 51.8777113, 4.391979 51.8777472), (4.391979 51.8777472, 4.3927972 51.8777627, 4.3935797 51.8777548), (4.3935797 51.8777548, 4.3941895 51.8777324, 4.3944059 51.8777201), (4.3944059 51.8777201, 4.3946673 51.877706, 4.3947259 51.8777017, 4.39547 51.8776478, 4.3965074 51.8775323, 4.3972895 51.8774159, 4.3981079 51.8772707), (4.3981079 51.8772707, 4.3995184 51.876999, 4.3998206 51.8769407), (4.3998206 51.8769407, 4.4001018 51.876889, 4.4058821 51.8757733, 4.409076 51.8751597, 4.409645 51.8750418), (4.409645 51.8750418, 4.4118289 51.8746202, 4.4119922 51.8745886, 4.4122043 51.8745521), (4.4122043 51.8745521, 4.4121729 51.8744264, 4.4121561 51.8743501), (4.4121561 51.8743501, 4.4120304 51.87378), (4.4120304 51.87378, 4.4120261 51.8737216, 4.4120607 51.8730499, 4.4120805 51.8728043), (4.4120805 51.8728043, 4.4120776 51.8726908, 4.4120964 51.8725907), (4.4120964 51.8725907, 4.4120745 51.872486, 4.4120236 51.8723189, 4.4119814 51.8721794, 4.411937 51.8719232, 4.4119454 51.8717548), (4.4119454 51.8717548, 4.412023 51.871554, 4.412137 51.8713582, 4.4122507 51.8712153, 4.4124264 51.8710545, 4.4126327 51.8708965), (4.4126327 51.8708965, 4.4128622 51.8706988), (4.4128622 51.8706988, 4.4130146 51.870633, 4.4133096 51.870537, 4.4138833 51.8704359), (4.4138833 51.8704359, 4.4172637 51.8699318, 4.4204684 51.8694125, 4.4243001 51.8688026), (4.4243001 51.8688026, 4.4246131 51.868752, 4.4246268 51.8687498, 4.4251368 51.8686846, 4.4256861 51.8686163, 4.4258753 51.8685978, 4.4259774 51.8685907, 4.4261149 51.8685861, 4.4262369 51.8685901, 4.4263937 51.8685991, 4.4265438 51.8686104, 4.4266847 51.868626, 4.4268203 51.8686483, 4.4269447 51.8686725, 4.4270796 51.868702, 4.427193 51.8687321), (4.427193 51.8687321, 4.4273378 51.8687822, 4.4274142 51.8688114, 4.4274852 51.8688407, 4.4275708 51.8688799, 4.4276777 51.8689329, 4.4277765 51.8689868, 4.427868 51.869039, 4.4279568 51.8690953, 4.4280488 51.8691637, 4.4281407 51.869237, 4.4282076 51.8692931, 4.4282966 51.8693782, 4.4283395 51.8694242, 4.4283784 51.8694701, 4.4284105 51.8695156, 4.4284378 51.8695604, 4.4284758 51.8696342, 4.4285588 51.8698214), (4.4285588 51.8698214, 4.4286638 51.8700762, 4.4287407 51.8702453), (4.4287407 51.8702453, 4.4287779 51.8703282), (4.4287779 51.8703282, 4.4289651 51.8707074), (4.4289651 51.8707074, 4.4291393 51.8710483, 4.4291849 51.8711676), (4.4291849 51.8711676, 4.4292606 51.8713665), (4.4292606 51.8713665, 4.4293253 51.8715393, 4.4295395 51.8720134, 4.4297133 51.8723662, 4.4299189 51.8727663, 4.4305041 51.8738202), (4.4305041 51.8738202, 4.43068 51.8741077), (4.43068 51.8741077, 4.4307869 51.874305), (4.4307869 51.874305, 4.4314274 51.8754539, 4.4314657 51.875524), (4.4314657 51.875524, 4.4315204 51.8756034), (4.4315204 51.8756034, 4.4315663 51.8756278, 4.4316037 51.8756417, 4.4316602 51.875654, 4.4317286 51.8756651, 4.4317722 51.8756676, 4.4318293 51.875663), (4.4318293 51.875663, 4.431905 51.8756471, 4.4320491 51.8756167, 4.4322796 51.8755571, 4.4324868 51.8754969, 4.4326093 51.8754532, 4.4327192 51.8754062, 4.4328585 51.8753378, 4.4329564 51.8752817, 4.4330359 51.8752251, 4.4331346 51.8751491, 4.4332363 51.8750648, 4.4333234 51.8749907, 4.4334811 51.8748511), (4.4357067 51.8721666, 4.4354074 51.8723163, 4.4352403 51.872401, 4.435084 51.8724924, 4.4349563 51.8725766, 4.4348382 51.8726613, 4.4346772 51.872789, 4.4345099 51.8729279, 4.4343978 51.8730349, 4.4341742 51.873282, 4.4339506 51.8735357, 4.4338923 51.8736231, 4.4338502 51.8737138, 4.4338254 51.8737905, 4.4338036 51.8738711, 4.4337831 51.8739471, 4.4337 51.8743, 4.433577 51.8746706, 4.4335294 51.8747782, 4.4334811 51.8748511), (4.4357067 51.8721666, 4.4360786 51.8719943), (4.4360786 51.8719943, 4.4361246 51.8719781, 4.4361709 51.8719682, 4.4362197 51.8719665, 4.4362528 51.8719667, 4.4363059 51.8719678, 4.4364372 51.8719713, 4.4366004 51.8719756, 4.4367373 51.8719793, 4.4374494 51.8719974, 4.4376147 51.8720017, 4.438456 51.8720234, 4.4395235 51.8720488, 4.441819 51.8721081), (4.441819 51.8721081, 4.4416143 51.8750218), (4.4416143 51.8750218, 4.4439415 51.8750767), (4.4439415 51.8750767, 4.4463169 51.8751448, 4.447599 51.8751639, 4.4480904 51.8751789), (4.4480904 51.8751789, 4.4480238 51.8758934), (4.4480238 51.8758934, 4.449639 51.8759339, 4.45011 51.8759486, 4.450747 51.8759656, 4.4511878 51.875974, 4.4514896 51.87598, 4.4519995 51.8759944, 4.4522914 51.8760026, 4.4527884 51.8760166, 4.4531775 51.8760275, 4.4534682 51.8760421), (4.4533254 51.8733785, 4.4534129 51.8735344, 4.4534575 51.8736138, 4.4535946 51.8738839, 4.4536933 51.8742887, 4.4536833 51.8744076, 4.4534682 51.8760421), (4.4557493 51.8729271, 4.4545216 51.8731505, 4.4539925 51.8732575, 4.4535919 51.873325, 4.4534889 51.8733423, 4.4533254 51.8733785), (4.4557493 51.8729271, 4.4563308 51.8727226, 4.4563989 51.8726984, 4.4564549 51.8726789, 4.4566745 51.8726017), (4.4566745 51.8726017, 4.4568776 51.8725861), (4.4568776 51.8725861, 4.4569756 51.8726926, 4.4570077 51.8727242, 4.457299 51.8730128, 4.4576262 51.8733296, 4.4579964 51.8736452), (4.4579964 51.8736452, 4.458325 51.8739254, 4.4585008 51.874069, 4.4586863 51.8742126, 4.4587783 51.8742811), (4.4587783 51.8742811, 4.4590593 51.8744915), (4.4590593 51.8744915, 4.4592579 51.8746409), (4.4592579 51.8746409, 4.4596166 51.8748427, 4.4602917 51.8752942, 4.4603615 51.8753396, 4.4605341 51.8754518), (4.4605341 51.8754518, 4.4614522 51.8760476, 4.4620181 51.8763824, 4.4621126 51.8764407, 4.4621554 51.8764672, 4.4623707 51.8766085), (4.4623707 51.8766085, 4.4625373 51.876506, 4.4625862 51.8764726, 4.4632249 51.8760296, 4.4635895 51.8757838, 4.4637936 51.8756706, 4.4639958 51.8755589, 4.4641748 51.8754617, 4.4644541 51.8753548, 4.464678 51.875287, 4.4648219 51.8752622, 4.4655674 51.8751688, 4.4658079 51.8751417, 4.466713 51.8750275, 4.4668418 51.8750112), (4.4668418 51.8750112, 4.4669713 51.8750005, 4.4674257 51.8749605, 4.4680017 51.8749255, 4.4689661 51.8748202, 4.4690654 51.8748063, 4.4692478 51.8747859), (4.4692478 51.8747859, 4.4694353 51.8747645, 4.4700085 51.8746991, 4.4700184 51.8746981, 4.4705051 51.8746145, 4.4708083 51.874579, 4.4719782 51.8744418, 4.4726732 51.8744), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4754217 51.8740922, 4.4758293 51.8740335, 4.4765659 51.873952, 4.4771434 51.8738897, 4.4772992 51.8738759), (4.4772992 51.8738759, 4.4776054 51.8738487, 4.477892 51.8738233), (4.477892 51.8738233, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.3568847 52.00682, 4.3568742 52.0068337, 4.3568703 52.0068426, 4.3568593 52.0068662, 4.3568588 52.0068891, 4.3568751 52.006917, 4.3568962 52.0069397, 4.3569577 52.0069693), (4.3569577 52.0069693, 4.3570185 52.0070006), (4.3570185 52.0070006, 4.3571009 52.0070495), (4.3571009 52.0070495, 4.3572227 52.0071121, 4.3572714 52.0071359), (4.3572714 52.0071359, 4.3575394 52.0072585), (4.3575394 52.0072585, 4.3575451 52.0072611, 4.3575718 52.0072731, 4.3575958 52.0072839, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3578982 52.0069613, 4.3578318 52.0070382, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3580248 52.006814, 4.3585991 52.0061224, 4.3588413 52.005834, 4.3590516 52.0055838, 4.3590832 52.0055491, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3595616 52.0053611, 4.3594949 52.0053641, 4.3594342 52.0053738, 4.3593744 52.0053886, 4.3593243 52.0054026, 4.3592387 52.0054377, 4.3591849 52.0054614, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3598326 52.0053837, 4.3598989 52.005388, 4.3599739 52.0053902), (4.3599739 52.0053902, 4.3601022 52.0054459, 4.360238 52.0055048, 4.3609544 52.0058104), (4.3609544 52.0058104, 4.3611177 52.0058752), (4.3611177 52.0058752, 4.3612717 52.0059321, 4.3614377 52.0059957, 4.3619597 52.0062065, 4.3622142 52.0063226, 4.3624276 52.0064306, 4.3626021 52.0065577), (4.3626021 52.0065577, 4.3626477 52.0066204, 4.3626839 52.0066661, 4.3628134 52.0068119, 4.3628556 52.0068664, 4.3629298 52.0069781, 4.362969 52.0070559, 4.3629831 52.0071198, 4.362967 52.0071966, 4.3629575 52.0072319), (4.36309 52.0074856, 4.3630228 52.0073716, 4.3629987 52.0073203, 4.3629575 52.0072319), (4.363445 52.0080343, 4.3633155 52.0079799, 4.3632647 52.0079459, 4.3632193 52.0079081, 4.3631903 52.0078728, 4.363164 52.0078271, 4.3631527 52.0077937, 4.3631385 52.0077307, 4.363124 52.0076205, 4.3631154 52.0075866, 4.36309 52.0074856), (4.363445 52.0080343, 4.363517 52.0080467, 4.364334 52.0083913, 4.3644182 52.008427, 4.3645003 52.0084593, 4.3645994 52.0084903, 4.3646759 52.0085091, 4.3647045 52.0085162, 4.3647827 52.008547), (4.3649522 52.008549, 4.3649047 52.0085533, 4.3648531 52.0085544, 4.3647827 52.008547), (4.365626 52.0079791, 4.3653334 52.0083575, 4.365238 52.0084511, 4.3651605 52.0084967, 4.3651111 52.0085144, 4.3650378 52.0085348, 4.3649522 52.008549), (4.3660422 52.0074607, 4.365626 52.0079791), (4.3668863 52.0064478, 4.3667956 52.0065233, 4.3667054 52.0066138, 4.3666113 52.0067322, 4.3663926 52.0069857, 4.3661976 52.0072443, 4.3660422 52.0074607), (4.3675553 52.0061843, 4.3673579 52.0062467, 4.367227 52.0062887, 4.3670791 52.0063487, 4.3669706 52.006401, 4.3668863 52.0064478), (4.3675553 52.0061843, 4.3676484 52.0061527), (4.369021 52.0052864, 4.3689794 52.0053379, 4.3689458 52.0053795, 4.3688341 52.0055124, 4.3687718 52.0055637, 4.3686905 52.0056135, 4.3683275 52.0058219, 4.3681313 52.0059352, 4.3679126 52.0060461, 4.3678488 52.0060791, 4.3677522 52.0061199, 4.3676484 52.0061527), (4.3704272 52.004489, 4.3698047 52.0048057, 4.3694533 52.0049832, 4.3693009 52.00506, 4.3691991 52.0051233, 4.3691477 52.0051649, 4.3691012 52.0052027, 4.3690571 52.0052497, 4.369021 52.0052864), (4.3703795 52.004445, 4.370407 52.0044739, 4.3704272 52.004489), (4.3709921 52.0035667, 4.370387 52.0043915, 4.370378 52.0044142, 4.3703795 52.004445), (4.3709921 52.0035667, 4.3711563 52.003321, 4.3711736 52.0032618, 4.3711674 52.0032189), (4.3711674 52.0032189, 4.3711108 52.0032154, 4.3710943 52.0032095, 4.3710509 52.0031951, 4.3709943 52.0031801, 4.3698875 52.0028805, 4.369457 52.0027625, 4.3687703 52.0025678, 4.3683699 52.0024563, 4.3682038 52.0023896), (4.3682038 52.0023896, 4.368153 52.0023756, 4.3673081 52.0021465), (4.3673081 52.0021465, 4.3671322 52.0021243, 4.3670379 52.0021044, 4.36701 52.0020974, 4.3669741 52.002087, 4.3669498 52.0020725, 4.3669026 52.0020167), (4.3676295 52.0009218, 4.3676055 52.0009582, 4.367573 52.0010088, 4.3673896 52.0012949, 4.3671445 52.0016384, 4.366909 52.0019185, 4.3668874 52.0019586, 4.3669026 52.0020167), (4.3690266 51.9985108, 4.3687023 51.9990906, 4.3686 51.9992706, 4.3684162 51.9995943, 4.3680979 52.0001378, 4.367919 52.0004329, 4.3676295 52.0009218), (4.3690266 51.9985108, 4.3690229 51.9984529, 4.3690451 51.998414, 4.3690833 51.998347, 4.3691463 51.9982929), (4.3704901 51.9959338, 4.3701355 51.9965236, 4.3698144 51.9971105, 4.3696201 51.9974426, 4.3693153 51.9979956, 4.3692012 51.9981985, 4.3691896 51.9982193, 4.3691463 51.9982929), (4.3704901 51.9959338, 4.3704932 51.9958784, 4.3705109 51.9958464, 4.3705388 51.9958057, 4.3706041 51.9957596), (4.3726096 51.9926719, 4.3725315 51.9927861, 4.3724098 51.9929706, 4.3722585 51.9931999, 4.3720724 51.9934821, 4.3717264 51.9940066, 4.3709749 51.9952155, 4.3708575 51.9953836, 4.3707925 51.9954836, 4.3706972 51.9956217, 4.3706545 51.9956828, 4.3706041 51.9957596), (4.3728477 51.992324, 4.3726096 51.9926719), (4.3746715 51.9893205, 4.3742703 51.9898286, 4.3741563 51.9900651, 4.3738574 51.9907162, 4.3736484 51.9910996, 4.373572 51.9912286, 4.3733593 51.9915604, 4.3731773 51.9918442, 4.3730808 51.9919946, 4.3728718 51.99229, 4.3728477 51.992324), (4.3763206 51.9868255, 4.3760914 51.98718, 4.3753649 51.9883406, 4.3751959 51.988617, 4.3750737 51.9887915, 4.3750108 51.9888809, 4.3746715 51.9893205), (4.376365 51.9867568, 4.3763206 51.9868255), (4.3775557 51.9849168, 4.3774271 51.9851084, 4.3769528 51.9858155, 4.3765748 51.9864208, 4.3765528 51.9864561, 4.376365 51.9867568), (4.3832279 51.9770032, 4.3829333 51.9773932, 4.3826382 51.9777852, 4.3820276 51.9786208, 4.3815882 51.9791957, 4.3813043 51.979583, 4.3804238 51.9806564, 4.3802686 51.9808511, 4.3799083 51.9813031, 4.3798662 51.9813559, 4.3796876 51.981589, 4.379484 51.9818579, 4.3791278 51.9823857, 4.3777592 51.9845891, 4.3777077 51.984672, 4.3776317 51.9847945, 4.3775557 51.9849168), (4.3929433 51.9638726, 4.3927491 51.9641471, 4.3927124 51.9641989, 4.3926718 51.9642535, 4.392625 51.9643176, 4.3924844 51.9645281, 4.3924014 51.9646625, 4.3923058 51.9648232, 4.392224 51.9649616, 4.3921421 51.9651192, 4.3920733 51.9652393, 4.3920078 51.965339, 4.3919248 51.9654509, 4.391832 51.9655726, 4.3914694 51.9660768, 4.3909419 51.9667524, 4.3904148 51.9673795, 4.3900291 51.967864, 4.3896031 51.968386, 4.389515 51.9685276, 4.3894082 51.9686861, 4.3890376 51.9692071, 4.3889188 51.9693573, 4.3887578 51.9695584, 4.3883258 51.9700669, 4.3881744 51.970251, 4.3877952 51.9707255, 4.3874406 51.9711934, 4.3872083 51.9715069, 4.3870745 51.9716863, 4.3869389 51.9718796, 4.3868031 51.9720897, 4.3866965 51.9722546, 4.3865 51.9725, 4.3862 51.9729, 4.3853 51.974, 4.3846746 51.9748347, 4.3844289 51.9751837, 4.3842873 51.9753848, 4.3839453 51.975913, 4.3838124 51.9761321, 4.3834903 51.9766078, 4.3832279 51.9770032), (4.3929974 51.9637979, 4.3929433 51.9638726), (4.3933316 51.9633802, 4.3931868 51.9635602, 4.3929974 51.9637979), (4.3939921 51.9626577, 4.3939431 51.9627059, 4.3934087 51.9632909, 4.3933316 51.9633802), (4.3940082 51.9626404, 4.3939921 51.9626577), (4.3940242 51.9626224, 4.3940082 51.9626404), (4.3959494 51.9600892, 4.3958441 51.9602641, 4.395686 51.9604925, 4.394822 51.9617642, 4.3945283 51.9620793, 4.3942169 51.962396, 4.3940723 51.9625656, 4.3940242 51.9626224), (4.3962404 51.9597713, 4.3959494 51.9600892), (4.3965544 51.9593447, 4.396395 51.959557, 4.3962404 51.9597713), (4.3982394 51.9575199, 4.3977075 51.9580625, 4.3975532 51.9582139, 4.3974188 51.9583467, 4.3970619 51.9586668, 4.3968688 51.9588502, 4.3967525 51.9589782, 4.3967066 51.9590357, 4.3966676 51.9591224, 4.3966355 51.9591987, 4.3965938 51.9592869, 4.3965544 51.9593447), (4.3990012 51.9567999, 4.3988985 51.9568671, 4.3988374 51.9569162, 4.3987642 51.9569838, 4.3985386 51.9572175, 4.3984273 51.95733, 4.3983789 51.957379, 4.3982394 51.9575199), (4.4113844 51.9493271, 4.4106365 51.9497778, 4.4103499 51.9499545, 4.4100052 51.9501794, 4.4097646 51.9503461, 4.4095325 51.9504992, 4.4093671 51.9506055, 4.4091628 51.9507291, 4.4086374 51.9510044, 4.4082553 51.9512001, 4.4079584 51.9513607, 4.4077989 51.9514532, 4.4075815 51.951594, 4.4072905 51.951796, 4.4071688 51.9518851, 4.4070187 51.952005, 4.4067827 51.952214, 4.4062671 51.9526576, 4.4062002 51.9527122, 4.4061404 51.952761, 4.4059142 51.9529456, 4.4056709 51.953127, 4.4055576 51.9532046, 4.4053453 51.9533503, 4.4052028 51.9534418, 4.4046828 51.9537771, 4.4043345 51.9539929, 4.4041659 51.9540912, 4.4040375 51.95416, 4.4032108 51.9545977, 4.4020913 51.9551985, 4.4012869 51.9555977, 4.4009425 51.9557747, 4.4004834 51.9560038, 4.4000839 51.9562143, 4.3991468 51.9567138, 4.3990012 51.9567999), (4.412049 51.9489379, 4.411718 51.9491376, 4.4113844 51.9493271), (4.4126911 51.9485873, 4.4124573 51.9487058, 4.412049 51.9489379), (4.4129109 51.9484754, 4.4128867 51.9484881, 4.4126911 51.9485873), (4.4182844 51.944631, 4.4182481 51.9446782, 4.4181956 51.9447465, 4.4176758 51.9453674, 4.4169882 51.9461995, 4.4169613 51.946232, 4.4167571 51.9464598, 4.4164434 51.9467337, 4.4160661 51.9469998, 4.4156019 51.9472602, 4.4148686 51.9475885, 4.4142858 51.9478384, 4.4139613 51.9479789, 4.4138685 51.948019, 4.4136391 51.9481117, 4.4133735 51.94823, 4.4129109 51.9484754), (4.4200585 51.9430683, 4.4200024 51.9431256, 4.4198638 51.9432627, 4.4197727 51.9433371, 4.4197142 51.9433696, 4.4193601 51.9435633, 4.4190693 51.9437484, 4.4189 51.9439, 4.4185613 51.9442959, 4.4182844 51.944631), (4.4217616 51.9406815, 4.4217327 51.9408169, 4.4217059 51.9409123, 4.4216649 51.9410044, 4.4213664 51.9416743, 4.4212681 51.9418575, 4.4212397 51.9419099, 4.42122 51.9419404, 4.4211956 51.9419694, 4.4209707 51.9422071, 4.4207885 51.9423771, 4.4205559 51.9425769, 4.4200971 51.9430205, 4.4200585 51.9430683), (4.4217652 51.9406676, 4.4217616 51.9406815), (4.4217635 51.9406174, 4.4217652 51.9406676), (4.4217639 51.9405928, 4.4217635 51.9406174), (4.4216011 51.9399531, 4.4216204 51.9400187, 4.4217639 51.9405928), (4.4216011 51.9399531, 4.4216922 51.9399429, 4.4222656 51.9399006, 4.4223216 51.9398991, 4.4223816 51.9399037, 4.4224226 51.9399112, 4.4224916 51.9399372, 4.4225764 51.9399704, 4.4226308 51.9399901, 4.4227063 51.9400234, 4.4228481 51.9400854, 4.4229945 51.9401421, 4.4234488 51.940316, 4.4235528 51.9403406, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236035 51.9402878, 4.4236137 51.9402478, 4.4236637 51.9402051, 4.4237385 51.9401662), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4270683 51.9370452, 4.426373 51.9376912), (4.4270683 51.9370452, 4.427082 51.9369986, 4.4271667 51.9368991, 4.4272147 51.9368427, 4.4272501 51.9368031), (4.4272501 51.9368031, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272706 51.9366729, 4.4272911 51.9366554, 4.4273173 51.936641, 4.4273663 51.9366265, 4.4274203 51.9366231, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.432806 51.935817, 4.4335304 51.9360056), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4363799 51.9365609, 4.4365007 51.9365817, 4.4365201 51.93659, 4.4365598 51.9366094, 4.4366571 51.9366752), (4.4366571 51.9366752, 4.4367048 51.9366655, 4.4367551 51.9366656, 4.4368027 51.9366755), (4.4368027 51.9366755, 4.4369048 51.936615, 4.4369482 51.9365771, 4.4370105 51.9365338, 4.4370708 51.9364852, 4.438046 51.9355251), (4.438046 51.9355251, 4.4381221 51.9354479, 4.4382133 51.9353555), (4.4382133 51.9353555, 4.4382864 51.9352625, 4.4384223 51.9351197, 4.4388365 51.9345667, 4.4391044 51.9341261, 4.4391723 51.934013, 4.4393924 51.9336307, 4.4395438 51.933357, 4.4395594 51.9333155, 4.4395866 51.9331075, 4.4395526 51.9329658, 4.4394792 51.932825, 4.4393683 51.9326937, 4.439051 51.932455, 4.4388959 51.9322883, 4.4388663 51.9322565, 4.4388058 51.9322256, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4374625 51.9312203, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411748 51.9298744, 4.4413655 51.9298059), (4.4413655 51.9298059, 4.4415222 51.9297594, 4.4417071 51.9297127), (4.4417071 51.9297127, 4.4417842 51.9296966, 4.4420381 51.9296437, 4.4421633 51.9296299, 4.442924 51.9295461, 4.4432197 51.9295176, 4.4436136 51.9294796, 4.4440253 51.9294401, 4.4443073 51.9294184, 4.4445478 51.9294001, 4.4474544 51.9290982, 4.4476899 51.9290793, 4.4479408 51.929063, 4.4482372 51.9290547, 4.4486326 51.929048, 4.4489235 51.9290776), (4.4489235 51.9290776, 4.451483 51.928758, 4.4518455 51.9287187, 4.4521984 51.9286924, 4.4525874 51.9286841, 4.453014 51.9287007, 4.4534101 51.928726, 4.4537858 51.9287652, 4.454069 51.9288139, 4.4543227 51.9288638, 4.4545912 51.9289339, 4.4546806 51.9289573, 4.4548902 51.9290061), (4.4548902 51.9290061, 4.4549257 51.9289068, 4.4549456 51.9288733, 4.4550214 51.9287058, 4.4550269 51.9286202, 4.4550345 51.9285739, 4.4550393 51.9285287), (4.4545777 51.9268006, 4.4546198 51.9269176, 4.4547638 51.9274642, 4.4549944 51.9283163, 4.4550393 51.9285287), (4.4545301 51.9265878, 4.4545777 51.9268006), (4.4543542 51.9258783, 4.4543871 51.925981, 4.4544488 51.9262046, 4.4545222 51.9265266, 4.4545301 51.9265878), (4.4543542 51.9258783, 4.4543238 51.9258223, 4.4543069 51.9257686, 4.4542986 51.9257129, 4.4543054 51.9256652, 4.4543138 51.9256372, 4.4543205 51.9256151, 4.4543513 51.9255099), (4.4543513 51.9255099, 4.4543787 51.9254161), (4.4543787 51.9254161, 4.4544031 51.9253322, 4.4544457 51.9251858, 4.4544971 51.9251254), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4550899 51.9218326, 4.4550388 51.9217086, 4.455006 51.9215775, 4.4549942 51.9215052, 4.4549794 51.9214656, 4.4549499 51.9213836), (4.4549499 51.9213836, 4.4548705 51.9213628, 4.4548277 51.9213389, 4.4547968 51.9213088, 4.4547799 51.9212748), (4.4547799 51.9212748, 4.454778 51.9212414, 4.4547897 51.9212059), (4.4547897 51.9212059, 4.4548174 51.9211762, 4.4548585 51.9211495, 4.45491 51.9211308), (4.45491 51.9211308, 4.4549678 51.9211216, 4.4550047 51.921122), (4.4550047 51.921122, 4.455027 51.9211225, 4.4550836 51.9211333, 4.4551333 51.9211532, 4.4551722 51.9211807, 4.4551976 51.9212137, 4.4552092 51.9212428), (4.4552092 51.9212428, 4.4553035 51.9212544, 4.4553396 51.921264, 4.4553905 51.9212679, 4.455708 51.9213039, 4.4557744 51.9213125, 4.4559055 51.921322, 4.4560815 51.9213233), (4.4560815 51.9213233, 4.4562137 51.9213262, 4.4562858 51.9213293, 4.4563319 51.9213323, 4.4563924 51.9213379, 4.4564273 51.9213438, 4.4565831 51.9213873), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4616448 51.922171, 4.4617134 51.9221824, 4.4617725 51.9221935, 4.4619426 51.9222344, 4.4620721 51.9222699, 4.462115 51.9222847), (4.462115 51.9222847, 4.4623979 51.922397, 4.4624753 51.9224277, 4.4625906 51.9224711, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139))</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>385082</t>
+          <t>4500364</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2350,17 +2350,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rotterdam, Keizerswaard</t>
+          <t>Delft, Station Delft</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bus 70: Rotterdam Charlois =&gt; Rotterdam Keizerswaard</t>
+          <t>Bus 40: Rotterdam Centraal =&gt; Delft Station Delft</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2371,14 +2371,14 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4608931 51.893857, 4.4610736 51.8942826), (4.4607961 51.8936246, 4.4608582 51.8937732, 4.4608931 51.893857), (4.4607961 51.8936246, 4.4608203 51.893621, 4.460997 51.8935963, 4.4612052 51.8935621, 4.4613559 51.8935374), (4.4613559 51.8935374, 4.4616187 51.8934585, 4.4617394 51.8934222, 4.4618797 51.8933928, 4.4620636 51.8933585), (4.4620636 51.8933585, 4.4622272 51.8933382, 4.4628631 51.8932142), (4.4628631 51.8932142, 4.4632102 51.8931601, 4.4637106 51.8931292, 4.4637539 51.8931207, 4.4637983 51.8931088, 4.4638212 51.8930989, 4.4638681 51.8930812), (4.4639923 51.8929297, 4.4638681 51.8930812), (4.4639923 51.8929297, 4.4640011 51.8928537, 4.4640624 51.8927942, 4.4641273 51.8927536, 4.4642433 51.8927113, 4.464721 51.8925905), (4.464721 51.8925905, 4.4647507 51.8925672, 4.4647629 51.8925381, 4.4647497 51.8924491, 4.4647487 51.8923888, 4.4647763 51.8923447, 4.4649247 51.8921732, 4.4652119 51.8918585, 4.4652988 51.8918055), (4.4628439 51.8879381, 4.4629207 51.8880619, 4.4630307 51.8882255, 4.4632639 51.8885843, 4.463766 51.8893772, 4.4641307 51.8899383, 4.4642408 51.8901172, 4.4645496 51.8905767, 4.4648968 51.891141, 4.4652824 51.8917403, 4.4652934 51.8917698, 4.4652988 51.8918055), (4.4648871 51.8874704, 4.4645565 51.8875427, 4.4641976 51.8876205, 4.4639203 51.8876835, 4.4636513 51.8877501, 4.4635562 51.8877723, 4.4628439 51.8879381), (4.4655545 51.8873126, 4.4654239 51.8873412, 4.4650195 51.8874393, 4.4648871 51.8874704), (4.4662 51.8872, 4.4656802 51.8872877, 4.465651 51.8872924, 4.4656206 51.8872982, 4.4655545 51.8873126), (4.467519 51.8865947, 4.4672281 51.8867336, 4.4668763 51.8868867, 4.4665956 51.8870227, 4.4663145 51.8871564, 4.4662732 51.8871771, 4.4662387 51.8871903, 4.4662 51.8872), (4.467519 51.8865947, 4.4675646 51.8865613, 4.4676156 51.8865296, 4.4677204 51.8864804), (4.4677204 51.8864804, 4.4678118 51.8864448, 4.4680243 51.8863844), (4.4680243 51.8863844, 4.4681563 51.8863277, 4.4683938 51.8862363, 4.4685 51.8862008, 4.4686152 51.8861687, 4.4687465 51.8861374, 4.4688866 51.8861099, 4.4690881 51.8860815, 4.4692932 51.8860601, 4.4695154 51.8860408, 4.4696464 51.8860342, 4.4698053 51.8860247, 4.4699515 51.8860166, 4.4702011 51.8859991, 4.4704 51.8859834), (4.4704 51.8859834, 4.4705329 51.8859743), (4.4711015 51.8859376, 4.4705329 51.8859743), (4.4713728 51.8859215, 4.4712793 51.8859271, 4.4711015 51.8859376), (4.4713728 51.8859215, 4.4715298 51.8859136), (4.4715298 51.8859136, 4.4716226 51.8859063), (4.4716226 51.8859063, 4.4717046 51.8859018), (4.4717046 51.8859018, 4.4718982 51.8858904), (4.4718982 51.8858904, 4.4719398 51.8858879, 4.4720171 51.8858833, 4.4721589 51.8858749), (4.4721589 51.8858749, 4.4727298 51.8858535, 4.4731498 51.8858305, 4.4735872 51.8858088, 4.4743278 51.8857768), (4.4743278 51.8857768, 4.4744406 51.8857709, 4.4746322 51.885761, 4.4748185 51.8857519, 4.4750362 51.8857414, 4.4752121 51.8857329, 4.4753575 51.8857254), (4.4844198 51.8857861, 4.4842463 51.8858167, 4.484188 51.8858312, 4.4837063 51.8859354, 4.4834866 51.885984, 4.4831942 51.8860574, 4.4827163 51.8861673, 4.4825353 51.8862085, 4.4823405 51.8862577, 4.4821255 51.8862964, 4.4820066 51.8863054, 4.4819048 51.8863115, 4.4817708 51.8863056, 4.4816407 51.8862851, 4.4799551 51.886127, 4.4796981 51.8861037, 4.4795851 51.8860927, 4.4794693 51.8860826, 4.4792774 51.8860653, 4.478957 51.8860338, 4.4782605 51.8859568, 4.4781447 51.8859457, 4.4773098 51.8858654, 4.4763626 51.8857716, 4.4763384 51.8857692, 4.4760335 51.8857413, 4.4758292 51.8857226, 4.4755562 51.8857204, 4.4753575 51.8857254), (4.4856621 51.8854944, 4.4844198 51.8857861), (4.4856621 51.8854944, 4.4856836 51.885479, 4.4857158 51.8854618, 4.4860052 51.885395, 4.4860957 51.8853749, 4.4865039 51.885292, 4.4866795 51.8852602, 4.4868797 51.885223, 4.4869627 51.8852089, 4.4870399 51.8852053, 4.487137 51.8852016, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046), (4.488119 51.8870046, 4.4884175 51.887514), (4.4884175 51.887514, 4.4887097 51.8879652, 4.4887881 51.8880556, 4.4888639 51.8881113, 4.4889611 51.8881546, 4.489051 51.8881821, 4.4893654 51.8882679, 4.4895553 51.8883226, 4.4896115 51.888334, 4.4896685 51.8883381, 4.4897412 51.8883357), (4.4897412 51.8883357, 4.4897644 51.8883311, 4.4898021 51.8883154, 4.4898258 51.8882934, 4.4898237 51.8882604), (4.4898237 51.8882604, 4.489776 51.8881851), (4.489776 51.8881851, 4.4897385 51.8881268), (4.4897385 51.8881268, 4.4896976 51.8880634), (4.4896976 51.8880634, 4.4896642 51.8880088), (4.4896642 51.8880088, 4.4896284 51.8879473), (4.4896284 51.8879473, 4.4895887 51.8878872), (4.4895887 51.8878872, 4.4895512 51.8878253), (4.4895512 51.8878253, 4.4892056 51.8877855), (4.4892056 51.8877855, 4.4890685 51.8877722), (4.4890685 51.8877722, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.477892 51.8738233), (4.477892 51.8738233, 4.4780496 51.873791), (4.4780496 51.873791, 4.4782567 51.8737692, 4.4789596 51.8737001, 4.4796626 51.8736252, 4.4797443 51.8736177, 4.4807934 51.8735323, 4.4813907 51.8734832, 4.4818979 51.8734456, 4.482888 51.8733616, 4.4836576 51.8733481, 4.4843551 51.8733408), (4.4843551 51.8733408, 4.4845272 51.8733426, 4.4857246 51.8733609, 4.4858806 51.8733606, 4.4888097 51.8733559, 4.489427 51.8733826, 4.4899231 51.8734188, 4.4902147 51.8734349, 4.4912692 51.8735025, 4.4917075 51.8735305, 4.4920452 51.873552, 4.493208 51.8736261, 4.4941262 51.8736914, 4.4941688 51.8736937, 4.4942879 51.873688), (4.4942879 51.873688, 4.4943531 51.8736681, 4.4944255 51.8736641), (4.4944255 51.8736641, 4.4944932 51.8736757, 4.4945502 51.8737011, 4.4945892 51.8737372), (4.4945892 51.8737372, 4.4947312 51.873763, 4.4948508 51.8737897, 4.4949515 51.873811, 4.4951193 51.8738488, 4.4959785 51.8740317, 4.4965951 51.8741396, 4.4971923 51.8742444, 4.499148 51.8745901, 4.4997516 51.8747031, 4.5002312 51.874819, 4.5008851 51.8750649, 4.5018308 51.8756333, 4.5020016 51.8757341), (4.5020016 51.8757341, 4.5023439 51.8759362, 4.5028171 51.8761763, 4.5034642 51.8764447, 4.5038312 51.8765639), (4.5038312 51.8765639, 4.5041785 51.8766767, 4.5047551 51.8768369, 4.5052932 51.8770609, 4.5059528 51.8773951), (4.5059528 51.8773951, 4.5061905 51.8775156), (4.5061905 51.8775156, 4.5082273 51.8786051, 4.5084558 51.8787278, 4.5085418 51.8787741, 4.5086187 51.8787957), (4.5086187 51.8787957, 4.5086846 51.8787912, 4.50875 51.8787976), (4.50875 51.8787976, 4.5088452 51.878771, 4.508928 51.8787439, 4.5095828 51.8784657, 4.5098827 51.8783149, 4.5101722 51.8781529, 4.5104378 51.8780052, 4.5109487 51.8777106, 4.5110825 51.8776277, 4.5111878 51.8775625, 4.511633 51.8772491), (4.511633 51.8772491, 4.5121886 51.8767798, 4.5122551 51.8767187), (4.5122551 51.8767187, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.512471 51.8765872, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.538095 51.8837779, 4.5380221 51.8838279, 4.5378811 51.8839247, 4.5377109 51.8840415, 4.5373251 51.884293, 4.53696 51.884536, 4.536282 51.8849963, 4.5359828 51.8851992, 4.5355929 51.8854635, 4.5352603 51.8856933, 4.5350147 51.8858671, 4.5349907 51.8858801, 4.5349045 51.8859478, 4.5347645 51.8860666, 4.5346529 51.8861905, 4.5345978 51.886279), (4.5345978 51.886279, 4.5345616 51.8864868, 4.5345463 51.8866543, 4.5345387 51.8867194, 4.5345299 51.8867564, 4.5345558 51.8868597), (4.5345558 51.8868597, 4.5346143 51.8868944), (4.5346143 51.8868944, 4.5347016 51.8869071, 4.5347802 51.8869128, 4.5348441 51.8869194, 4.535736 51.8869464, 4.5372987 51.8870158, 4.53896 51.8870859, 4.5399069 51.8871222, 4.5407352 51.8871559, 4.5410344 51.8871845, 4.5415203 51.8872521, 4.5415802 51.8872604, 4.541741 51.8872827), (4.541741 51.8872827, 4.5417568 51.8872691, 4.5417827 51.8872517, 4.5418309 51.8872295), (4.5418309 51.8872295, 4.5418452 51.8871336, 4.5418509 51.8870755, 4.5418884 51.8869498, 4.5419935 51.8867196, 4.5421182 51.8865137, 4.5423056 51.8862603, 4.5423437 51.8862166, 4.5424509 51.8861074), (4.5424509 51.8861074, 4.5424463 51.8860659), (4.5424463 51.8860659, 4.5424704 51.886009, 4.542527 51.8859617, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5491952 51.8858746, 4.5491868 51.8859218, 4.5491074 51.8860822), (4.5491074 51.8860822, 4.5491135 51.8866017), (4.5491135 51.8866017, 4.5490916 51.8869321), (4.5490916 51.8869321, 4.5490954 51.8869723, 4.5489717 51.8872989))</t>
+          <t>MULTILINESTRING ((4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629276 51.9226624, 4.4628351 51.9226479, 4.462784 51.9226396, 4.4627358 51.9226309, 4.4626965 51.9226232, 4.4626495 51.9226121, 4.4626077 51.9226011, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4624456 51.9225368, 4.46233 51.9224838, 4.4619885 51.9223321, 4.4617093 51.922195, 4.4616448 51.922171), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4565831 51.9213873, 4.456427 51.9214005, 4.4563845 51.9214019, 4.4562106 51.9214041, 4.4560904 51.9214067, 4.4559084 51.9213913, 4.4557499 51.9213717, 4.4554996 51.921336, 4.4553721 51.9213207, 4.4553214 51.9213215, 4.4551847 51.9213132), (4.4551847 51.9213132, 4.4551246 51.9213581, 4.455073 51.9213783), (4.455073 51.9213783, 4.4550773 51.9214595, 4.4550851 51.9215008, 4.455102 51.9216757, 4.4550899 51.9218326), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4544971 51.9251254, 4.4545087 51.9251758, 4.454478 51.9253402, 4.454461 51.9254092), (4.454461 51.9254092, 4.4544247 51.9255415, 4.4543974 51.9256225, 4.4543827 51.9256725, 4.4543781 51.9257693, 4.4543542 51.9258783), (4.4543542 51.9258783, 4.4543871 51.925981, 4.4544488 51.9262046, 4.4545222 51.9265266, 4.4545301 51.9265878), (4.4545301 51.9265878, 4.4545777 51.9268006), (4.4545777 51.9268006, 4.4546198 51.9269176, 4.4547638 51.9274642, 4.4549944 51.9283163, 4.4550393 51.9285287), (4.4550393 51.9285287, 4.4550696 51.9285562, 4.4551226 51.9286019, 4.4551614 51.9287376, 4.4551613 51.928859, 4.4551612 51.9289344, 4.4551612 51.9289858, 4.4551369 51.92908), (4.4551369 51.92908, 4.4551149 51.9291021, 4.4550749 51.9291251, 4.4548689 51.9292044), (4.4548689 51.9292044, 4.4545624 51.9291219, 4.4543953 51.9290759, 4.4539883 51.928991, 4.4535955 51.9289192, 4.4533467 51.928883, 4.4531352 51.9288576, 4.4528569 51.9288338), (4.4528569 51.9288338, 4.4526247 51.9288197, 4.4524888 51.928815, 4.452291 51.9288114, 4.4519195 51.9288264, 4.4515117 51.9288628, 4.4509268 51.9289242, 4.4485549 51.9291987), (4.4485549 51.9291987, 4.4483394 51.9292831), (4.4483394 51.9292831, 4.4480514 51.9293576, 4.4477665 51.9294258), (4.4477665 51.9294258, 4.4474471 51.929502), (4.4474471 51.929502, 4.4469608 51.9296229), (4.4469608 51.9296229, 4.4467294 51.9296751, 4.4465081 51.9297077, 4.4462281 51.9297421, 4.445903 51.929772), (4.445903 51.929772, 4.4456879 51.929799, 4.4451475 51.9298373, 4.4449558 51.9298384), (4.4449558 51.9298384, 4.4443548 51.9298812), (4.4443548 51.9298812, 4.4442318 51.9299072, 4.4440847 51.9299186, 4.4435597 51.9299462), (4.4435597 51.9299462, 4.4429796 51.9300203), (4.4429796 51.9300203, 4.4426818 51.930074, 4.4426004 51.9300887), (4.4426004 51.9300887, 4.4421727 51.930166, 4.4420941 51.9301802, 4.4420155 51.9301943, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4389533 51.932181, 4.4389614 51.9322199, 4.4389896 51.9322502, 4.4391515 51.9324245, 4.4394284 51.9326362, 4.4395246 51.9327358, 4.4396188 51.9328719, 4.439672 51.9330095, 4.4396935 51.9331181, 4.4396641 51.933326), (4.4396641 51.933326, 4.4396547 51.9333717, 4.4392589 51.9340308, 4.4391867 51.9341414, 4.4390217 51.9344226, 4.4389159 51.9345872, 4.4385061 51.9351545, 4.4383808 51.9352959, 4.4383054 51.9353866), (4.4383054 51.9353866, 4.4382146 51.9354809, 4.4381417 51.9355565), (4.4381417 51.9355565, 4.4371358 51.9365536, 4.4370247 51.9366328, 4.4369779 51.9366625, 4.4368756 51.9367256), (4.4368756 51.9367256, 4.4368856 51.9367504, 4.4368848 51.936776, 4.4368731 51.9368006, 4.4368441 51.9368276, 4.4368022 51.9368471, 4.4367523 51.9368572, 4.4366998 51.9368565, 4.4366506 51.9368451), (4.4366506 51.9368451, 4.4366055 51.936821, 4.4365783 51.9367882, 4.4365722 51.9367579, 4.4365817 51.936728), (4.4365817 51.936728, 4.4364982 51.9366448, 4.4364649 51.9366251, 4.4363799 51.9365609), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.432806 51.935817, 4.4335304 51.9360056), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4274731 51.9366312, 4.4275292 51.9366566, 4.4275622 51.9366945, 4.4275658 51.9367374, 4.4275487 51.9367677, 4.4275167 51.9367929, 4.4274557 51.9368145, 4.4273856 51.9368177), (4.4273856 51.9368177, 4.4273457 51.9368399), (4.4273457 51.9368399, 4.4273035 51.9368695, 4.427117 51.937028, 4.4270683 51.9370452), (4.4270683 51.9370452, 4.426373 51.9376912), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.4237385 51.9401662, 4.4237184 51.940237, 4.4236893 51.9402742, 4.4236515 51.9403036, 4.4236093 51.9403285), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4216011 51.9399531, 4.4216922 51.9399429, 4.4222656 51.9399006, 4.4223216 51.9398991, 4.4223816 51.9399037, 4.4224226 51.9399112, 4.4224916 51.9399372, 4.4225764 51.9399704, 4.4226308 51.9399901, 4.4227063 51.9400234, 4.4228481 51.9400854, 4.4229945 51.9401421, 4.4234488 51.940316, 4.4235528 51.9403406, 4.4236089 51.9403468), (4.4216011 51.9399531, 4.4216204 51.9400187, 4.4217639 51.9405928), (4.4217639 51.9405928, 4.4217635 51.9406174), (4.4217635 51.9406174, 4.4217652 51.9406676), (4.4217652 51.9406676, 4.4217616 51.9406815), (4.4217616 51.9406815, 4.4217327 51.9408169, 4.4217059 51.9409123, 4.4216649 51.9410044, 4.4213664 51.9416743, 4.4212681 51.9418575, 4.4212397 51.9419099, 4.42122 51.9419404, 4.4211956 51.9419694, 4.4209707 51.9422071, 4.4207885 51.9423771, 4.4205559 51.9425769, 4.4200971 51.9430205, 4.4200585 51.9430683), (4.4200585 51.9430683, 4.4200024 51.9431256, 4.4198638 51.9432627, 4.4197727 51.9433371, 4.4197142 51.9433696, 4.4193601 51.9435633, 4.4190693 51.9437484, 4.4189 51.9439, 4.4185613 51.9442959, 4.4182844 51.944631), (4.4182844 51.944631, 4.4182481 51.9446782, 4.4181956 51.9447465, 4.4176758 51.9453674, 4.4169882 51.9461995, 4.4169613 51.946232, 4.4167571 51.9464598, 4.4164434 51.9467337, 4.4160661 51.9469998, 4.4156019 51.9472602, 4.4148686 51.9475885, 4.4142858 51.9478384, 4.4139613 51.9479789, 4.4138685 51.948019, 4.4136391 51.9481117, 4.4133735 51.94823, 4.4129109 51.9484754), (4.4129109 51.9484754, 4.4128867 51.9484881, 4.4126911 51.9485873), (4.4126911 51.9485873, 4.4124573 51.9487058, 4.412049 51.9489379), (4.412049 51.9489379, 4.411718 51.9491376, 4.4113844 51.9493271), (4.4113844 51.9493271, 4.4106365 51.9497778, 4.4103499 51.9499545, 4.4100052 51.9501794, 4.4097646 51.9503461, 4.4095325 51.9504992, 4.4093671 51.9506055, 4.4091628 51.9507291, 4.4086374 51.9510044, 4.4082553 51.9512001, 4.4079584 51.9513607, 4.4077989 51.9514532, 4.4075815 51.951594, 4.4072905 51.951796, 4.4071688 51.9518851, 4.4070187 51.952005, 4.4067827 51.952214, 4.4062671 51.9526576, 4.4062002 51.9527122, 4.4061404 51.952761, 4.4059142 51.9529456, 4.4056709 51.953127, 4.4055576 51.9532046, 4.4053453 51.9533503, 4.4052028 51.9534418, 4.4046828 51.9537771, 4.4043345 51.9539929, 4.4041659 51.9540912, 4.4040375 51.95416, 4.4032108 51.9545977, 4.4020913 51.9551985, 4.4012869 51.9555977, 4.4009425 51.9557747, 4.4004834 51.9560038, 4.4000839 51.9562143, 4.3991468 51.9567138, 4.3990012 51.9567999), (4.3990012 51.9567999, 4.3988985 51.9568671, 4.3988374 51.9569162, 4.3987642 51.9569838, 4.3985386 51.9572175, 4.3984273 51.95733, 4.3983789 51.957379, 4.3982394 51.9575199), (4.3982394 51.9575199, 4.3977075 51.9580625, 4.3975532 51.9582139, 4.3974188 51.9583467, 4.3970619 51.9586668, 4.3968688 51.9588502, 4.3967525 51.9589782, 4.3967066 51.9590357, 4.3966676 51.9591224, 4.3966355 51.9591987, 4.3965938 51.9592869, 4.3965544 51.9593447), (4.3965544 51.9593447, 4.396395 51.959557, 4.3962404 51.9597713), (4.3962404 51.9597713, 4.3959494 51.9600892), (4.3959494 51.9600892, 4.3958441 51.9602641, 4.395686 51.9604925, 4.394822 51.9617642, 4.3945283 51.9620793, 4.3942169 51.962396, 4.3940723 51.9625656, 4.3940242 51.9626224), (4.3940242 51.9626224, 4.3940082 51.9626404), (4.3940082 51.9626404, 4.3939921 51.9626577), (4.3939921 51.9626577, 4.3939431 51.9627059, 4.3934087 51.9632909, 4.3933316 51.9633802), (4.3933316 51.9633802, 4.3931868 51.9635602, 4.3929974 51.9637979), (4.3929974 51.9637979, 4.3929433 51.9638726), (4.3929433 51.9638726, 4.3927491 51.9641471, 4.3927124 51.9641989, 4.3926718 51.9642535, 4.392625 51.9643176, 4.3924844 51.9645281, 4.3924014 51.9646625, 4.3923058 51.9648232, 4.392224 51.9649616, 4.3921421 51.9651192, 4.3920733 51.9652393, 4.3920078 51.965339, 4.3919248 51.9654509, 4.391832 51.9655726, 4.3914694 51.9660768, 4.3909419 51.9667524, 4.3904148 51.9673795, 4.3900291 51.967864, 4.3896031 51.968386, 4.389515 51.9685276, 4.3894082 51.9686861, 4.3890376 51.9692071, 4.3889188 51.9693573, 4.3887578 51.9695584, 4.3883258 51.9700669, 4.3881744 51.970251, 4.3877952 51.9707255, 4.3874406 51.9711934, 4.3872083 51.9715069, 4.3870745 51.9716863, 4.3869389 51.9718796, 4.3868031 51.9720897, 4.3866965 51.9722546, 4.3865 51.9725, 4.3862 51.9729, 4.3853 51.974, 4.3846746 51.9748347, 4.3844289 51.9751837, 4.3842873 51.9753848, 4.3839453 51.975913, 4.3838124 51.9761321, 4.3834903 51.9766078, 4.3832279 51.9770032), (4.3832279 51.9770032, 4.3829333 51.9773932, 4.3826382 51.9777852, 4.3820276 51.9786208, 4.3815882 51.9791957, 4.3813043 51.979583, 4.3804238 51.9806564, 4.3802686 51.9808511, 4.3799083 51.9813031, 4.3798662 51.9813559, 4.3796876 51.981589, 4.379484 51.9818579, 4.3791278 51.9823857, 4.3777592 51.9845891, 4.3777077 51.984672, 4.3776317 51.9847945, 4.3775557 51.9849168), (4.3775557 51.9849168, 4.3774271 51.9851084, 4.3769528 51.9858155, 4.3765748 51.9864208, 4.3765528 51.9864561, 4.376365 51.9867568), (4.376365 51.9867568, 4.3763206 51.9868255), (4.3763206 51.9868255, 4.3760914 51.98718, 4.3753649 51.9883406, 4.3751959 51.988617, 4.3750737 51.9887915, 4.3750108 51.9888809, 4.3746715 51.9893205), (4.3746715 51.9893205, 4.3742703 51.9898286, 4.3741563 51.9900651, 4.3738574 51.9907162, 4.3736484 51.9910996, 4.373572 51.9912286, 4.3733593 51.9915604, 4.3731773 51.9918442, 4.3730808 51.9919946, 4.3728718 51.99229, 4.3728477 51.992324), (4.3728477 51.992324, 4.3726096 51.9926719), (4.3726096 51.9926719, 4.3725315 51.9927861, 4.3724098 51.9929706, 4.3722585 51.9931999, 4.3720724 51.9934821, 4.3717264 51.9940066, 4.3709749 51.9952155, 4.3708575 51.9953836, 4.3707925 51.9954836, 4.3706972 51.9956217, 4.3706545 51.9956828, 4.3706041 51.9957596), (4.3706041 51.9957596, 4.3705983 51.9958177, 4.3705751 51.9958611, 4.3705565 51.9958922, 4.3704901 51.9959338), (4.3704901 51.9959338, 4.3701355 51.9965236, 4.3698144 51.9971105, 4.3696201 51.9974426, 4.3693153 51.9979956, 4.3692012 51.9981985, 4.3691896 51.9982193, 4.3691463 51.9982929), (4.3691463 51.9982929, 4.3691391 51.9983596, 4.3691016 51.9984271, 4.3690805 51.9984649, 4.3690266 51.9985108), (4.3690266 51.9985108, 4.3687023 51.9990906, 4.3686 51.9992706, 4.3684162 51.9995943, 4.3680979 52.0001378, 4.367919 52.0004329, 4.3676295 52.0009218), (4.3676295 52.0009218, 4.3676055 52.0009582, 4.367573 52.0010088, 4.3673896 52.0012949, 4.3671445 52.0016384, 4.366909 52.0019185, 4.3668874 52.0019586, 4.3669026 52.0020167), (4.3669026 52.0020167, 4.3669755 52.0020226, 4.3670246 52.0020324, 4.3670514 52.0020381), (4.3670514 52.0020381, 4.3671673 52.0020821, 4.3672344 52.0021111, 4.3673081 52.0021465), (4.3682038 52.0023896, 4.368153 52.0023756, 4.3673081 52.0021465), (4.3682038 52.0023896, 4.3683902 52.002422, 4.3687944 52.0025277, 4.36945 52.0027031, 4.369918 52.0028297, 4.3709799 52.0031138, 4.3710444 52.003131, 4.3710854 52.003141), (4.3710854 52.003141, 4.3711242 52.0031536, 4.3711471 52.003163, 4.3711566 52.0031774, 4.3711674 52.0032189), (4.3709921 52.0035667, 4.3711563 52.003321, 4.3711736 52.0032618, 4.3711674 52.0032189), (4.3709921 52.0035667, 4.370387 52.0043915, 4.370378 52.0044142, 4.3703795 52.004445), (4.3703795 52.004445, 4.370407 52.0044739, 4.3704272 52.004489), (4.3704272 52.004489, 4.3698047 52.0048057, 4.3694533 52.0049832, 4.3693009 52.00506, 4.3691991 52.0051233, 4.3691477 52.0051649, 4.3691012 52.0052027, 4.3690571 52.0052497, 4.369021 52.0052864), (4.369021 52.0052864, 4.3689794 52.0053379, 4.3689458 52.0053795, 4.3688341 52.0055124, 4.3687718 52.0055637, 4.3686905 52.0056135, 4.3683275 52.0058219, 4.3681313 52.0059352, 4.3679126 52.0060461, 4.3678488 52.0060791, 4.3677522 52.0061199, 4.3676484 52.0061527), (4.3675553 52.0061843, 4.3676484 52.0061527), (4.3675553 52.0061843, 4.3673579 52.0062467, 4.367227 52.0062887, 4.3670791 52.0063487, 4.3669706 52.006401, 4.3668863 52.0064478), (4.3668863 52.0064478, 4.3667956 52.0065233, 4.3667054 52.0066138, 4.3666113 52.0067322, 4.3663926 52.0069857, 4.3661976 52.0072443, 4.3660422 52.0074607), (4.3660422 52.0074607, 4.365626 52.0079791), (4.365626 52.0079791, 4.3653334 52.0083575, 4.365238 52.0084511, 4.3651605 52.0084967, 4.3651111 52.0085144, 4.3650378 52.0085348, 4.3649522 52.008549), (4.3649522 52.008549, 4.3649047 52.0085533, 4.3648531 52.0085544, 4.3647827 52.008547), (4.3647827 52.008547, 4.3646833 52.0085501, 4.3646576 52.0085474, 4.3645621 52.0085222, 4.3644772 52.0084897, 4.3643466 52.0084328, 4.3636001 52.0081179, 4.3634944 52.0080734, 4.363445 52.0080343), (4.363445 52.0080343, 4.3633155 52.0079799, 4.3632647 52.0079459, 4.3632193 52.0079081, 4.3631903 52.0078728, 4.363164 52.0078271, 4.3631527 52.0077937, 4.3631385 52.0077307, 4.363124 52.0076205, 4.3631154 52.0075866, 4.36309 52.0074856), (4.36309 52.0074856, 4.3630228 52.0073716, 4.3629987 52.0073203, 4.3629575 52.0072319), (4.3629575 52.0072319, 4.3628053 52.0069342, 4.3627239 52.0068256, 4.3626284 52.006721, 4.3624762 52.0065865, 4.3623241 52.0064833, 4.3621375 52.0063763, 4.3619437 52.0062845), (4.3619437 52.0062845, 4.3617278 52.0062069, 4.3614582 52.0061026, 4.3612046 52.0060045), (4.3612046 52.0060045, 4.361056 52.005953), (4.361056 52.005953, 4.360887 52.0058943), (4.360887 52.0058943, 4.3606086 52.0057851), (4.3606086 52.0057851, 4.3600172 52.0055285, 4.3598464 52.005454), (4.3598464 52.005454, 4.3596911 52.0053859, 4.3596325 52.005359), (4.3596325 52.005359, 4.3595616 52.0053611, 4.3594949 52.0053641, 4.3594342 52.0053738, 4.3593744 52.0053886, 4.3593243 52.0054026, 4.3592387 52.0054377, 4.3591849 52.0054614, 4.3591526 52.0054768), (4.3579661 52.0068834, 4.3580248 52.006814, 4.3585991 52.0061224, 4.3588413 52.005834, 4.3590516 52.0055838, 4.3590832 52.0055491, 4.3591526 52.0054768), (4.3579661 52.0068834, 4.3579427 52.0068727, 4.3579085 52.0068536, 4.3578876 52.0068425), (4.3578876 52.0068425, 4.3576854 52.0067432, 4.3576253 52.0067129), (4.3576253 52.0067129, 4.3575984 52.0066994, 4.357521 52.0066588, 4.3574045 52.0065977), (4.3574045 52.0065977, 4.3573372 52.006565), (4.3573372 52.006565, 4.3572916 52.0065422, 4.357264 52.0065284), (4.357264 52.0065284, 4.3572006 52.0065055, 4.3571596 52.006503, 4.357119 52.0065086, 4.3570842 52.0065203, 4.3570521 52.0065339, 4.3570042 52.0065642, 4.3568162 52.0067921))</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>385085</t>
+          <t>384325</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2388,17 +2388,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rotterdam, Garage Sluisjesdijk</t>
+          <t>Rotterdam, Marconiplein</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bus 70: Rotterdam Keizerswaard =&gt; Rotterdam Charlois</t>
+          <t>Bus 42: Rotterdam Marconiplein =&gt; Rotterdam Bedrijvenpark Noord-West</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2409,14 +2409,14 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5488624 51.8875512, 4.5488079 51.887664, 4.5488039 51.8877079, 4.5488566 51.887742, 4.5491058 51.8877813, 4.549192 51.8877593, 4.5493116 51.8874768), (4.5493116 51.8874768, 4.5494448 51.8871435), (4.5494448 51.8871435, 4.5495234 51.886977), (4.5495234 51.886977, 4.5494377 51.8869646, 4.5493828 51.8869546, 4.5493512 51.8869493, 4.5493132 51.8869436, 4.5492641 51.8869358, 4.5492272 51.8869313, 4.5491579 51.8869317, 4.5490916 51.8869321), (4.5491135 51.8866017, 4.5490916 51.8869321), (4.5491074 51.8860822, 4.5491135 51.8866017), (4.5491074 51.8860822, 4.5490574 51.8859212, 4.5490569 51.8858682, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5451065 51.8858424, 4.5448637 51.8858898, 4.5446285 51.8859197, 4.5439324 51.885986, 4.5431033 51.8860573, 4.54295 51.8860755), (4.54295 51.8860755, 4.5429419 51.8861152, 4.5429177 51.8861524, 4.5428788 51.8861845, 4.542828 51.8862094), (4.542828 51.8862094, 4.5428248 51.8863164, 4.5427262 51.8865727, 4.5425639 51.8868808, 4.5424251 51.887068, 4.5423302 51.8871798, 4.5422969 51.8872224, 4.5421999 51.8873186), (4.5421999 51.8873186, 4.5422112 51.887374), (4.5422112 51.887374, 4.5421962 51.8874193, 4.5421642 51.8874567, 4.542106 51.8874928, 4.5420519 51.8875111), (4.5420519 51.8875111, 4.542005 51.8875196, 4.5419255 51.8875211, 4.5418457 51.8875064, 4.5417859 51.8874812, 4.5417423 51.887449, 4.5417263 51.8874274, 4.5417101 51.8874031), (4.5417101 51.8874031, 4.5415409 51.8873749, 4.5414832 51.8873688, 4.5411659 51.8873267, 4.5409114 51.8872983, 4.540662 51.8872845, 4.5402958 51.8872649, 4.5389231 51.8872039, 4.5372695 51.8871395, 4.5357166 51.8870731, 4.534834 51.8870373, 4.5347665 51.8870375, 4.5345949 51.8870422), (4.5345949 51.8870422, 4.5345275 51.8870708, 4.5344801 51.8870786, 4.5344311 51.8870788, 4.5343835 51.8870713, 4.5343406 51.8870567, 4.5343073 51.8870374, 4.5342822 51.8870139), (4.5342822 51.8870139, 4.5342627 51.8869715, 4.5342696 51.8869277, 4.5343019 51.8868884), (4.5343019 51.8868884, 4.5343574 51.8868582), (4.5343574 51.8868582, 4.5344072 51.8867498, 4.5344151 51.8867179, 4.5344616 51.8865147, 4.5344762 51.8864574, 4.5345243 51.886368, 4.5345978 51.886279), (4.5381906 51.8837113, 4.538095 51.8837779, 4.5380221 51.8838279, 4.5378811 51.8839247, 4.5377109 51.8840415, 4.5373251 51.884293, 4.53696 51.884536, 4.536282 51.8849963, 4.5359828 51.8851992, 4.5355929 51.8854635, 4.5352603 51.8856933, 4.5350147 51.8858671, 4.5349907 51.8858801, 4.5349045 51.8859478, 4.5347645 51.8860666, 4.5346529 51.8861905, 4.5345978 51.886279), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5219444 51.8772234, 4.5217767 51.8772117, 4.5217336 51.877208, 4.5212746 51.8771694, 4.5205345 51.8771298, 4.5201732 51.8771112, 4.5178314 51.8769968, 4.5173799 51.8769776, 4.517248 51.876972, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.512527 51.8767921, 4.5125028 51.8768108, 4.5121515 51.8770825), (4.5121515 51.8770825, 4.5118048 51.8773103, 4.5112818 51.8776274, 4.5111728 51.8776922, 4.5110331 51.8777751, 4.5108525 51.877878, 4.510449 51.8781072, 4.5099564 51.8783709, 4.5095648 51.8785706, 4.5090517 51.8788209, 4.5089833 51.8788529, 4.508917 51.8789026), (4.508917 51.8789026, 4.508926 51.878937, 4.5089221 51.8789717, 4.5089005 51.8790117, 4.508862 51.8790466, 4.5088095 51.8790736, 4.5087518 51.8790899, 4.5086892 51.8790966, 4.5086206 51.8790925, 4.5085565 51.8790768, 4.5084987 51.8790488, 4.5084666 51.8790227, 4.5084443 51.878993, 4.5084317 51.8789542, 4.5084357 51.8789147), (4.5084357 51.8789147, 4.5083905 51.8788767, 4.5083141 51.8788336, 4.5077681 51.8785491, 4.5060268 51.8776282), (4.5060268 51.8776282, 4.5057431 51.8774933), (4.5057431 51.8774933, 4.5050344 51.8771563, 4.5040978 51.8768022, 4.5030715 51.8764763, 4.5023332 51.8761579, 4.5016819 51.8758454, 4.5015921 51.8757894, 4.5006 51.8752, 4.5001793 51.8749868, 4.499898 51.874891, 4.4995451 51.8748075, 4.4990822 51.8747273, 4.4986895 51.8746547, 4.4977756 51.8744934, 4.497117 51.8743796, 4.4968606 51.8743326, 4.4964305 51.8742575, 4.4959205 51.8741622, 4.4954529 51.8740682, 4.4946749 51.8739016, 4.494559 51.8738653), (4.494559 51.8738653, 4.4945141 51.8738896, 4.4944596 51.8739046, 4.4944003 51.8739089, 4.4943338 51.8739003, 4.4942758 51.8738784, 4.4942332 51.8738458), (4.4942332 51.8738458, 4.4940947 51.8738392), (4.4940947 51.8738392, 4.4931915 51.8737533, 4.4921552 51.8736885, 4.4912437 51.8736353, 4.49114 51.8736293, 4.490192 51.873567, 4.4895546 51.8735294, 4.4891833 51.8735034, 4.4888092 51.8734723, 4.4876679 51.8734859, 4.4866832 51.8734895, 4.4858871 51.8734962, 4.4857266 51.8734976, 4.4855312 51.8734992, 4.4845125 51.8735034, 4.4843578 51.8734999), (4.4843578 51.8734999, 4.4835965 51.8734953, 4.4829225 51.8734862, 4.4828319 51.8734873, 4.482557 51.8735045, 4.4818963 51.8735584, 4.4814104 51.8735967, 4.4797722 51.8737333, 4.4796647 51.8737426, 4.479474 51.8737589), (4.479474 51.8737589, 4.4791025 51.8737916, 4.4784232 51.8738514, 4.4782845 51.8738661, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046), (4.488119 51.8870046, 4.4884175 51.887514), (4.4884175 51.887514, 4.4887097 51.8879652, 4.4887881 51.8880556, 4.4888639 51.8881113, 4.4889611 51.8881546, 4.489051 51.8881821, 4.4893654 51.8882679, 4.4895553 51.8883226, 4.4896115 51.888334, 4.4896685 51.8883381, 4.4897412 51.8883357), (4.4897412 51.8883357, 4.4897644 51.8883311, 4.4898021 51.8883154, 4.4898258 51.8882934, 4.4898237 51.8882604), (4.4898237 51.8882604, 4.489776 51.8881851), (4.489776 51.8881851, 4.4897385 51.8881268), (4.4897385 51.8881268, 4.4896976 51.8880634), (4.4896976 51.8880634, 4.4896642 51.8880088), (4.4896642 51.8880088, 4.4896284 51.8879473), (4.4896284 51.8879473, 4.4895887 51.8878872), (4.4895887 51.8878872, 4.4895512 51.8878253), (4.4895512 51.8878253, 4.4895104 51.8877659), (4.4895104 51.8877659, 4.4894731 51.8877078), (4.4894731 51.8877078, 4.4894359 51.8876441), (4.4894359 51.8876441, 4.4894004 51.8875876), (4.4894004 51.8875876, 4.489361 51.8875304, 4.4893121 51.8874826, 4.4891915 51.8874664, 4.4890698 51.8874416), (4.4890698 51.8874416, 4.4890077 51.8874293, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4856621 51.8854944, 4.4856836 51.885479, 4.4857158 51.8854618, 4.4860052 51.885395, 4.4860957 51.8853749, 4.4865039 51.885292, 4.4866795 51.8852602, 4.4868797 51.885223, 4.4869627 51.8852089, 4.4870399 51.8852053, 4.487137 51.8852016, 4.4873373 51.8851978), (4.4856621 51.8854944, 4.4844198 51.8857861), (4.4844198 51.8857861, 4.4842463 51.8858167, 4.484188 51.8858312, 4.4837063 51.8859354, 4.4834866 51.885984, 4.4831942 51.8860574, 4.4827163 51.8861673, 4.4825353 51.8862085, 4.4823405 51.8862577, 4.4821255 51.8862964, 4.4820066 51.8863054, 4.4819048 51.8863115, 4.4817708 51.8863056, 4.4816407 51.8862851, 4.4799551 51.886127, 4.4796981 51.8861037, 4.4795851 51.8860927, 4.4794693 51.8860826, 4.4792774 51.8860653, 4.478957 51.8860338, 4.4782605 51.8859568, 4.4781447 51.8859457, 4.4773098 51.8858654, 4.4763626 51.8857716, 4.4763384 51.8857692, 4.4760335 51.8857413, 4.4758292 51.8857226, 4.4755562 51.8857204, 4.4753575 51.8857254), (4.4743278 51.8857768, 4.4744406 51.8857709, 4.4746322 51.885761, 4.4748185 51.8857519, 4.4750362 51.8857414, 4.4752121 51.8857329, 4.4753575 51.8857254), (4.4721589 51.8858749, 4.4727298 51.8858535, 4.4731498 51.8858305, 4.4735872 51.8858088, 4.4743278 51.8857768), (4.4718982 51.8858904, 4.4719398 51.8858879, 4.4720171 51.8858833, 4.4721589 51.8858749), (4.4717046 51.8859018, 4.4718982 51.8858904), (4.4716226 51.8859063, 4.4717046 51.8859018), (4.4715298 51.8859136, 4.4716226 51.8859063), (4.4713728 51.8859215, 4.4715298 51.8859136), (4.4713728 51.8859215, 4.4712793 51.8859271, 4.4711015 51.8859376), (4.4711015 51.8859376, 4.4705329 51.8859743), (4.4704 51.8859834, 4.4705329 51.8859743), (4.4680243 51.8863844, 4.4681563 51.8863277, 4.4683938 51.8862363, 4.4685 51.8862008, 4.4686152 51.8861687, 4.4687465 51.8861374, 4.4688866 51.8861099, 4.4690881 51.8860815, 4.4692932 51.8860601, 4.4695154 51.8860408, 4.4696464 51.8860342, 4.4698053 51.8860247, 4.4699515 51.8860166, 4.4702011 51.8859991, 4.4704 51.8859834), (4.4680243 51.8863844, 4.4679476 51.8864378, 4.4679087 51.8864635, 4.4678685 51.8864875, 4.4677792 51.886533), (4.4677792 51.886533, 4.4677363 51.8865461, 4.4676754 51.8865645, 4.467519 51.8865947), (4.467519 51.8865947, 4.4672281 51.8867336, 4.4668763 51.8868867, 4.4665956 51.8870227, 4.4663145 51.8871564, 4.4662732 51.8871771, 4.4662387 51.8871903, 4.4662 51.8872), (4.4662 51.8872, 4.4656802 51.8872877, 4.465651 51.8872924, 4.4656206 51.8872982, 4.4655545 51.8873126), (4.4655545 51.8873126, 4.4654239 51.8873412, 4.4650195 51.8874393, 4.4648871 51.8874704), (4.4648871 51.8874704, 4.4645565 51.8875427, 4.4641976 51.8876205, 4.4639203 51.8876835, 4.4636513 51.8877501, 4.4635562 51.8877723, 4.4628439 51.8879381), (4.4628439 51.8879381, 4.4629207 51.8880619, 4.4630307 51.8882255, 4.4632639 51.8885843, 4.463766 51.8893772, 4.4641307 51.8899383, 4.4642408 51.8901172, 4.4645496 51.8905767, 4.4648968 51.891141, 4.4652824 51.8917403, 4.4652934 51.8917698, 4.4652988 51.8918055), (4.4652988 51.8918055, 4.4652704 51.891887, 4.464874 51.8923409, 4.4648186 51.8924055, 4.464853 51.8925559, 4.4648342 51.8925894, 4.4648077 51.8926161, 4.4647851 51.8926295, 4.4647579 51.8926389), (4.4647579 51.8926389, 4.4642089 51.8927857, 4.4641487 51.892817, 4.4640748 51.8928881, 4.4639923 51.8929297), (4.4639923 51.8929297, 4.4638681 51.8930812), (4.4628631 51.8932142, 4.4632102 51.8931601, 4.4637106 51.8931292, 4.4637539 51.8931207, 4.4637983 51.8931088, 4.4638212 51.8930989, 4.4638681 51.8930812), (4.4628631 51.8932142, 4.4625946 51.8933039, 4.4623678 51.8933682, 4.4622746 51.8933946, 4.4621373 51.8934355), (4.4621373 51.8934355, 4.4619454 51.8934766), (4.4619454 51.8934766, 4.4617968 51.8935047, 4.4613559 51.8935374), (4.4607961 51.8936246, 4.4608203 51.893621, 4.460997 51.8935963, 4.4612052 51.8935621, 4.4613559 51.8935374), (4.4607961 51.8936246, 4.4608582 51.8937732, 4.4608931 51.893857), (4.4608931 51.893857, 4.4610736 51.8942826))</t>
+          <t>MULTILINESTRING ((4.4316822 51.9136058, 4.4318559 51.913557, 4.431904 51.9135169, 4.4318932 51.9134463, 4.4318861 51.9134363, 4.4318661 51.9134138, 4.4318447 51.9133912, 4.4317438 51.9133624, 4.4316506 51.9133654), (4.4316506 51.9133654, 4.4311943 51.9135124), (4.4311943 51.9135124, 4.430908 51.9136151, 4.4307552 51.9136959), (4.4307552 51.9136959, 4.4306095 51.9138959), (4.4306095 51.9138959, 4.4304502 51.9140443, 4.4302457 51.9141746, 4.4301333 51.9142374, 4.4298954 51.9143341, 4.4289021 51.9147234, 4.4285609 51.9148782, 4.4279131 51.9152276, 4.4274959 51.9154913, 4.4266441 51.9160857, 4.4264829 51.916192), (4.4264829 51.916192, 4.426453 51.9162117, 4.4262601 51.9163553, 4.4261142 51.9165168, 4.4259646 51.916701, 4.4258978 51.9167995, 4.4258331 51.9169067), (4.4258331 51.9169067, 4.4260558 51.9169001, 4.4261357 51.9168991, 4.4271126 51.9168864), (4.4271126 51.9168864, 4.4274727 51.9168889), (4.4274727 51.9168889, 4.4277596 51.9169537, 4.427942 51.9170265, 4.428111 51.9171109, 4.4282799 51.9172449, 4.4283443 51.9173276, 4.428398 51.9174136, 4.428423 51.9175843), (4.428423 51.9175843, 4.4284493 51.9176943, 4.4284763 51.917801), (4.4284763 51.917801, 4.4285415 51.9180672, 4.4285597 51.9181512, 4.4287696 51.9189763, 4.4288415 51.919246, 4.4289935 51.9199124, 4.4290357 51.9201532, 4.4290504 51.9202373, 4.4290818 51.9203542), (4.4290818 51.9203542, 4.4291095 51.9204757), (4.4291095 51.9204757, 4.4290942 51.9206756, 4.4290943 51.9207571, 4.428985 51.9212549), (4.428985 51.9212549, 4.4289119 51.9215876), (4.4289119 51.9215876, 4.428892 51.921649, 4.4288422 51.9217798), (4.4288422 51.9217798, 4.4288717 51.9218212, 4.4288261 51.9219287, 4.4287724 51.9219548, 4.4286652 51.9219713, 4.428542 51.9219637, 4.4283783 51.9219482, 4.4280502 51.9219249), (4.4280502 51.9219249, 4.4279096 51.9219484, 4.4278388 51.9219659, 4.4277687 51.9219919, 4.4276779 51.922052, 4.427406 51.9223028, 4.4272946 51.9223882), (4.4272946 51.9223882, 4.4271813 51.9225129, 4.4270379 51.9226764, 4.4269779 51.9227424, 4.4268286 51.9228893, 4.4264954 51.9232006, 4.4260067 51.9236572, 4.4256486 51.9239911, 4.4251075 51.9245017, 4.425071 51.9245354, 4.4247933 51.9247919, 4.4245047 51.9250473), (4.4245047 51.9250473, 4.4244035 51.9252117, 4.4243864 51.9252396), (4.4243864 51.9252396, 4.4244785 51.9252842, 4.4245121 51.9253071, 4.4245242 51.9253222, 4.4245296 51.9253503), (4.4245296 51.9253503, 4.4245142 51.9253748, 4.4242826 51.9255788, 4.4242492 51.9256082, 4.4241999 51.9256205), (4.4241999 51.9256205, 4.4241116 51.9256243, 4.4240616 51.9256216, 4.4238903 51.9255558), (4.4238903 51.9255558, 4.4238554 51.9255855, 4.4237216 51.9256988), (4.4237216 51.9256988, 4.4234458 51.9259323, 4.4228858 51.9263846, 4.4226614 51.9265777, 4.4220188 51.9270944, 4.4215586 51.9274945, 4.4210053 51.9279383, 4.4201697 51.9286366, 4.4194152 51.9292547, 4.4189761 51.9296217, 4.4182827 51.9301959, 4.4180459 51.9304032, 4.4172511 51.9310471, 4.4171635 51.9311203, 4.4164937 51.9317138), (4.4164937 51.9317138, 4.4164385 51.9317978), (4.4164385 51.9317978, 4.4164656 51.9318295, 4.4164802 51.9318641, 4.4164815 51.9319, 4.4164618 51.9319477, 4.4164188 51.9319891, 4.4163571 51.9320202, 4.4163006 51.9320351, 4.4162401 51.932041, 4.416179 51.9320378, 4.416121 51.9320254), (4.416121 51.9320254, 4.4160302 51.9320937), (4.4160302 51.9320937, 4.4154362 51.9326257, 4.415338 51.9327203, 4.4150466 51.9329983, 4.4150126 51.9330351, 4.4140663 51.9339201, 4.4135411 51.9344073, 4.4134873 51.9344476, 4.4134459 51.9344664, 4.4133921 51.9344792, 4.4123588 51.9345795), (4.4123588 51.9345795, 4.4120602 51.9346055), (4.4120602 51.9346055, 4.4119082 51.9346182, 4.4118188 51.9346257), (4.4118188 51.9346257, 4.4116937 51.9346356), (4.4116937 51.9346356, 4.411845 51.9352395, 4.4118506 51.9353837, 4.4118202 51.9356665), (4.4117446 51.9364715, 4.4118202 51.9356665), (4.4116975 51.9369918, 4.4117446 51.9364715), (4.4116975 51.9369918, 4.4116691 51.9372014, 4.4116221 51.9376335, 4.4115653 51.9378173, 4.4114583 51.9380844, 4.4114034 51.9382312), (4.4114034 51.9382312, 4.411393 51.9383583, 4.4109425 51.9393238), (4.4109425 51.9393238, 4.4107327 51.939759, 4.4107079 51.9398219), (4.4107079 51.9398219, 4.4105476 51.9401911), (4.4105476 51.9401911, 4.4103729 51.9405935, 4.4101286 51.9411186, 4.4100341 51.9413217), (4.4100341 51.9413217, 4.4099834 51.9414478, 4.4098523 51.9417122), (4.4098523 51.9417122, 4.4099731 51.9417369, 4.4103136 51.9417991, 4.4105069 51.9418225, 4.4107663 51.9418708, 4.4120706 51.9421403, 4.4124497 51.9422212, 4.4132293 51.9423875, 4.4138219 51.942514), (4.4138219 51.942514, 4.4138184 51.9426317, 4.413817 51.9431811, 4.413817 51.9436483, 4.4138271 51.943943, 4.4137318 51.9441232, 4.4134825 51.9445677, 4.4134422 51.9446371, 4.4134078 51.9446964, 4.4131687 51.9451131, 4.4129094 51.9455873, 4.4126333 51.9461069, 4.4123983 51.9464892), (4.4123983 51.9464892, 4.4123488 51.9465773, 4.412257 51.9465849), (4.412257 51.9465849, 4.4105401 51.9462068, 4.4099085 51.9460786, 4.4093778 51.9459691, 4.4086914 51.9458273, 4.408359 51.9457596, 4.4081715 51.9457214, 4.4081375 51.9457121, 4.4080075 51.9456768, 4.4078843 51.9456434, 4.4073255 51.9455199, 4.4070525 51.9454609), (4.4070525 51.9454609, 4.4069365 51.9454381, 4.4068082 51.9454128, 4.4066943 51.9454, 4.4065868 51.9453772, 4.4064444 51.9453468, 4.4060074 51.9452537, 4.4051879 51.9450792, 4.4045506 51.9449465, 4.4030001 51.9446195, 4.40284 51.9445895, 4.4020706 51.9444295, 4.4018292 51.9443777, 4.40018 51.944025, 4.4001237 51.9440129, 4.398107 51.9435943), (4.398107 51.9435943, 4.3973193 51.9434357), (4.3999354 51.9417311, 4.3998115 51.9418143, 4.399705 51.941883, 4.3985722 51.9426134, 4.3984725 51.9426782, 4.3980265 51.9429679, 4.3978317 51.9431003, 4.3975887 51.9432523, 4.3974397 51.943349, 4.3973193 51.9434357), (4.3999354 51.9417311, 4.401081 51.9419808, 4.4012227 51.942012, 4.4039627 51.9425942), (4.4039627 51.9425942, 4.4040561 51.9424284), (4.4040561 51.9424284, 4.4044614 51.9416762, 4.4046192 51.9413844))</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>385086</t>
+          <t>384326</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2426,17 +2426,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rotterdam, Willem Egmondstraat</t>
+          <t>Rotterdam, Marconiplein</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bus 72: Rotterdam Zuidplein =&gt; Rotterdam Sluisjesdijk</t>
+          <t>Bus 42: Rotterdam Bedrijvenpark Noord-West =&gt; Rotterdam Marconiplein</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2447,14 +2447,14 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4892056 51.8877855, 4.4890685 51.8877722), (4.4890685 51.8877722, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.4772044 51.874002), (4.4772044 51.874002, 4.4769271 51.8740373, 4.4765921 51.8740693, 4.4758806 51.8740626, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4719936 51.8744898, 4.4708191 51.8746203, 4.4705094 51.8746547, 4.4701998 51.8747087, 4.469905 51.8747573, 4.4694501 51.8748169, 4.4692574 51.8748422), (4.4692574 51.8748422, 4.4690757 51.8748598, 4.4680044 51.8749638, 4.467427 51.8750013, 4.4669859 51.8750464, 4.4668565 51.8750593), (4.4668565 51.8750593, 4.4667279 51.8750744, 4.4658218 51.8751804, 4.4655801 51.8752136, 4.4650023 51.875293, 4.4647222 51.8753614, 4.4642787 51.8755251, 4.4641038 51.8756286, 4.4639078 51.8757473, 4.4637094 51.8758674, 4.4635338 51.8759878, 4.4627356 51.8765043, 4.4626895 51.8765347, 4.4626388 51.8765682, 4.4624718 51.8766748), (4.4624718 51.8766748, 4.4621781 51.8767841), (4.4621781 51.8767841, 4.4618914 51.8766224, 4.4618561 51.8766002, 4.4611599 51.8761627), (4.4611599 51.8761627, 4.4603603 51.8756389, 4.460239 51.875551), (4.460239 51.875551, 4.4601336 51.8756015, 4.4600791 51.8756208, 4.4591968 51.8759334, 4.4589973 51.8759951, 4.4587977 51.8760637, 4.458256 51.8762722, 4.4567528 51.876839, 4.4563484 51.8769651, 4.4555767 51.8772096, 4.4537119 51.8778005, 4.4535708 51.8778452, 4.4535032 51.8778673, 4.453337 51.8779216), (4.453337 51.8779216, 4.4534314 51.8780684, 4.4534481 51.8781101, 4.4539568 51.8793789, 4.4541452 51.8797128, 4.4543458 51.8800421, 4.4547497 51.8807606, 4.4548505 51.8809303, 4.4573832 51.8853726, 4.4574295 51.8854602), (4.4574295 51.8854602, 4.4575961 51.8857481), (4.4575961 51.8857481, 4.4588416 51.8879076, 4.4589255 51.888055, 4.4589426 51.888085, 4.4589626 51.8881201, 4.4591837 51.8885083, 4.4599864 51.8899111, 4.4601775 51.8902538, 4.460286 51.8904716, 4.460564 51.8909551, 4.4606029 51.8910278, 4.4606161 51.891048, 4.4606517 51.8911023, 4.4606902 51.8911563, 4.4607228 51.8912079, 4.4607601 51.8912712, 4.4613875 51.8923709, 4.4616059 51.8927735, 4.461642 51.8928275, 4.4617855 51.8930085, 4.4619366 51.8931961, 4.4619885 51.8932605, 4.4620636 51.8933585), (4.4620636 51.8933585, 4.4621373 51.8934355, 4.4622197 51.8935282, 4.462366 51.8936626, 4.4624589 51.8937374, 4.4626113 51.8938418, 4.4627531 51.8939286, 4.46299 51.8940464, 4.4631595 51.8941307), (4.4631595 51.8941307, 4.4630762 51.8941984), (4.4630762 51.8941984, 4.462975 51.8942784), (4.462975 51.8942784, 4.4628999 51.8943439, 4.4626693 51.8945449, 4.4625914 51.8946057, 4.4625454 51.894636, 4.4625018 51.8946566, 4.462454 51.8946753, 4.4624101 51.8946896, 4.4623444 51.8947054, 4.4621658 51.8947467, 4.4620525 51.8947664), (4.4620525 51.8947664, 4.4616556 51.8948243, 4.4612084 51.894902, 4.4596199 51.8951736, 4.4594913 51.8951965, 4.4591399 51.8952576, 4.4581368 51.8954311, 4.4572113 51.8955889, 4.4571576 51.8955988, 4.456996 51.8956285), (4.456996 51.8956285, 4.4567188 51.8956765, 4.4562241 51.8957622, 4.45586 51.8958237, 4.4556587 51.8958557, 4.4555067 51.8958799, 4.4554169 51.8958948, 4.4541542 51.8961129, 4.4535501 51.8962156, 4.4528594 51.8963365, 4.4525787 51.8963827, 4.4522095 51.8964476, 4.45199 51.8964851, 4.4519248 51.8964955, 4.4517442 51.896526, 4.4510581 51.8966419, 4.4505026 51.8966905, 4.4496024 51.8967697, 4.4485596 51.8968615, 4.4484241 51.8968731, 4.4482114 51.8968829, 4.4481114 51.8968867, 4.4477016 51.8968948, 4.4474424 51.8969042, 4.4473109 51.8969151, 4.4471743 51.8969361, 4.4468 51.897, 4.4456986 51.8971908, 4.4455293 51.8972201, 4.4452751 51.8972631, 4.4437031 51.8975324, 4.4421836 51.8977926, 4.4419346 51.8978353, 4.4400966 51.8981533, 4.4399733 51.8981724))</t>
+          <t>MULTILINESTRING ((4.4046192 51.9413844, 4.4048656 51.9409487), (4.4048656 51.9409487, 4.4049656 51.9407685, 4.4050168 51.9406804), (4.4050168 51.9406804, 4.4051664 51.9407126, 4.4067167 51.9410262, 4.407898 51.9412746, 4.4089696 51.9415058), (4.4089696 51.9415058, 4.4091805 51.9415673, 4.4097173 51.9416867), (4.4097173 51.9416867, 4.4099126 51.9412606, 4.410377 51.9402404), (4.410377 51.9402404, 4.4105803 51.9397948, 4.4106041 51.9397346), (4.4106041 51.9397346, 4.4110544 51.9387965, 4.411285 51.938336, 4.4114034 51.9382312), (4.4116975 51.9369918, 4.4116691 51.9372014, 4.4116221 51.9376335, 4.4115653 51.9378173, 4.4114583 51.9380844, 4.4114034 51.9382312), (4.4116975 51.9369918, 4.4117446 51.9364715), (4.4117446 51.9364715, 4.4118202 51.9356665), (4.4118202 51.9356665, 4.4118007 51.9354702), (4.4118007 51.9354702, 4.4117718 51.9352794, 4.4116513 51.9348172, 4.4115866 51.9346232), (4.4115866 51.9346232, 4.41168 51.9345777, 4.4118042 51.9345581, 4.4118866 51.9345511, 4.412011 51.9345406), (4.412011 51.9345406, 4.4129291 51.9344517, 4.4133572 51.9344103, 4.413402 51.9343994, 4.4134331 51.9343906, 4.4134682 51.9343712, 4.4135023 51.9343484, 4.4139922 51.9338915, 4.4149354 51.933004, 4.4151636 51.9327848, 4.4152365 51.9327157, 4.4152657 51.9326877, 4.4153619 51.9325979, 4.4159405 51.9320537), (4.4159405 51.9320537, 4.4160223 51.9319723), (4.4160223 51.9319723, 4.4159875 51.9319243, 4.4159806 51.9318719, 4.415991 51.9318395, 4.4160122 51.9318092, 4.4160432 51.9317824, 4.4160827 51.9317602, 4.4161315 51.9317429, 4.4161853 51.9317328, 4.4162414 51.9317304, 4.416297 51.9317357), (4.416297 51.9317357, 4.4164045 51.9316764), (4.4164045 51.9316764, 4.4170777 51.93109, 4.417164 51.9310151, 4.4182055 51.9301621, 4.418451 51.9299562, 4.4188997 51.9295898, 4.4193375 51.9292303, 4.4200921 51.9286077, 4.4209242 51.9279095, 4.4219686 51.927057, 4.4228088 51.9263596, 4.4230651 51.9261485, 4.4236237 51.9256734), (4.4236237 51.9256734, 4.4237667 51.9255518, 4.4237972 51.92552), (4.4237972 51.92552, 4.423679 51.9254703, 4.4236346 51.9254329, 4.4236252 51.9253945), (4.4236252 51.9253945, 4.4236551 51.9253615, 4.4236773 51.9253407, 4.423911 51.9251218, 4.4239459 51.9251081, 4.4239703 51.9250967), (4.4239703 51.9250967, 4.4240301 51.9250925, 4.4242662 51.925184), (4.4242662 51.925184, 4.4242971 51.9251663, 4.4245047 51.9250473), (4.4272946 51.9223882, 4.4271813 51.9225129, 4.4270379 51.9226764, 4.4269779 51.9227424, 4.4268286 51.9228893, 4.4264954 51.9232006, 4.4260067 51.9236572, 4.4256486 51.9239911, 4.4251075 51.9245017, 4.425071 51.9245354, 4.4247933 51.9247919, 4.4245047 51.9250473), (4.4272946 51.9223882, 4.4274354 51.9221799, 4.4275911 51.9220164, 4.4276953 51.9219399, 4.4277909 51.9218966), (4.4277909 51.9218966, 4.4279478 51.9218557, 4.4284063 51.9217721), (4.4284063 51.9217721, 4.4286575 51.9217182), (4.4286575 51.9217182, 4.4287401 51.921645, 4.4288042 51.9215569), (4.4288042 51.9215569, 4.4288655 51.921323), (4.4288655 51.921323, 4.4288783 51.9211997, 4.4289246 51.9206548, 4.4289284 51.9204899), (4.4289284 51.9204899, 4.428923 51.9203707), (4.428923 51.9203707, 4.4289037 51.9202507, 4.428814 51.919929, 4.4286737 51.9192605, 4.4286175 51.9189925, 4.4284398 51.9181656, 4.4283821 51.9178973, 4.4283606 51.9178117), (4.4283606 51.9178117, 4.4283362 51.9177031, 4.428305 51.9175926), (4.428305 51.9175926, 4.4282771 51.9174632, 4.4282347 51.9173869, 4.4281669 51.917289, 4.428019 51.9171673, 4.4278606 51.9170822, 4.4276637 51.9170127, 4.4275231 51.9169799, 4.4273456 51.9169604), (4.4273456 51.9169604, 4.4270564 51.9169682, 4.4270092 51.9169695), (4.4270092 51.9169695, 4.4261477 51.9169928, 4.4260726 51.9169949, 4.4259974 51.9169969, 4.4257895 51.9170017), (4.4257895 51.9170017, 4.4255816 51.9170042), (4.4255816 51.9170042, 4.4256443 51.9169033), (4.4256443 51.9169033, 4.4257027 51.9167971, 4.4260616 51.9163348, 4.4262186 51.9162024, 4.4265499 51.9159677, 4.4273278 51.9154515, 4.4277355 51.9151886, 4.4281318 51.9149564, 4.42846 51.9147872, 4.4287198 51.9146502), (4.4287198 51.9146502, 4.4290038 51.9145982, 4.430084 51.9141982, 4.4302809 51.9140802, 4.4304037 51.9139597, 4.4306095 51.9138959), (4.4306095 51.9138959, 4.4307924 51.913842, 4.4313343 51.9137082), (4.4313343 51.9137082, 4.4316822 51.9136058))</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>385087</t>
+          <t>384380</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2464,17 +2464,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein</t>
+          <t>Rotterdam, Rotterdam Centraal</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bus 72: Rotterdam Sluisjesdijk =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 44: Rotterdam Zuidplein =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2485,14 +2485,14 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.456996 51.8956285, 4.4567188 51.8956765, 4.4562241 51.8957622, 4.45586 51.8958237, 4.4556587 51.8958557, 4.4555067 51.8958799, 4.4554169 51.8958948, 4.4541542 51.8961129, 4.4535501 51.8962156, 4.4528594 51.8963365, 4.4525787 51.8963827, 4.4522095 51.8964476, 4.45199 51.8964851, 4.4519248 51.8964955, 4.4517442 51.896526, 4.4510581 51.8966419, 4.4505026 51.8966905, 4.4496024 51.8967697, 4.4485596 51.8968615, 4.4484241 51.8968731, 4.4482114 51.8968829, 4.4481114 51.8968867, 4.4477016 51.8968948, 4.4474424 51.8969042, 4.4473109 51.8969151, 4.4471743 51.8969361, 4.4468 51.897, 4.4456986 51.8971908, 4.4455293 51.8972201, 4.4452751 51.8972631, 4.4437031 51.8975324, 4.4421836 51.8977926, 4.4419346 51.8978353, 4.4400966 51.8981533, 4.4399733 51.8981724), (4.4620525 51.8947664, 4.4616556 51.8948243, 4.4612084 51.894902, 4.4596199 51.8951736, 4.4594913 51.8951965, 4.4591399 51.8952576, 4.4581368 51.8954311, 4.4572113 51.8955889, 4.4571576 51.8955988, 4.456996 51.8956285), (4.462975 51.8942784, 4.4628999 51.8943439, 4.4626693 51.8945449, 4.4625914 51.8946057, 4.4625454 51.894636, 4.4625018 51.8946566, 4.462454 51.8946753, 4.4624101 51.8946896, 4.4623444 51.8947054, 4.4621658 51.8947467, 4.4620525 51.8947664), (4.4630762 51.8941984, 4.462975 51.8942784), (4.4630762 51.8941984, 4.4627768 51.8940569, 4.4625263 51.8939221, 4.4623749 51.8938385, 4.4622237 51.8937307, 4.4621358 51.8936555, 4.4621034 51.8936295, 4.4620377 51.8935766, 4.4619454 51.8934766, 4.4618797 51.8933928), (4.4618797 51.8933928, 4.461807 51.8932947, 4.4617433 51.8931851, 4.4616848 51.8930981, 4.4616547 51.8930535, 4.4615095 51.8928374, 4.4614941 51.8928146, 4.4614427 51.8927338, 4.4613884 51.8926386, 4.4612528 51.8923997, 4.4606235 51.8913021, 4.4606071 51.8912738, 4.4605281 51.8911379, 4.4605228 51.8911287, 4.460508 51.8911023, 4.4604239 51.8909522, 4.4603584 51.8908352, 4.4599115 51.8900133, 4.4590422 51.8885366, 4.4588429 51.8881486, 4.458821 51.8881107, 4.4588034 51.8880802, 4.4586972 51.8879346, 4.4584739 51.8875046, 4.4572496 51.8854023, 4.4571892 51.8853027), (4.4571892 51.8853027, 4.4570417 51.8850467, 4.4570233 51.8850123), (4.4570233 51.8850123, 4.4559982 51.8832148, 4.4554932 51.8823355, 4.4550156 51.8814675, 4.454711 51.8809604, 4.4546184 51.8807898, 4.4542846 51.8801756, 4.4540458 51.8797912, 4.4538238 51.8794034, 4.4534905 51.8786949, 4.4532134 51.8782157, 4.4531703 51.8781412, 4.4531487 51.8781039, 4.4531132 51.8780458, 4.4530845 51.8779837), (4.4530845 51.8779837, 4.4530565 51.8778407), (4.4530565 51.8778407, 4.4532869 51.8777905), (4.4532869 51.8777905, 4.4534605 51.8777435, 4.4535257 51.8777259, 4.4536777 51.8776807, 4.4567189 51.8767747), (4.4567189 51.8767747, 4.4572002 51.8766023, 4.4581553 51.8762314, 4.4592633 51.8757846), (4.4592633 51.8757846, 4.4594948 51.8757248, 4.4598959 51.8755675, 4.4599603 51.8755424, 4.4600173 51.8755203, 4.4601378 51.8754772), (4.4601378 51.8754772, 4.4601713 51.8754706, 4.4602105 51.8754635, 4.4602644 51.8754575), (4.4602644 51.8754575, 4.4603393 51.8754502, 4.4604291 51.8754498, 4.4605341 51.8754518), (4.4605341 51.8754518, 4.4614522 51.8760476, 4.4620181 51.8763824, 4.4621126 51.8764407, 4.4621554 51.8764672, 4.4623707 51.8766085), (4.4623707 51.8766085, 4.4625373 51.876506, 4.4625862 51.8764726, 4.4632249 51.8760296, 4.4635895 51.8757838, 4.4637936 51.8756706, 4.4639958 51.8755589, 4.4641748 51.8754617, 4.4644541 51.8753548, 4.464678 51.875287, 4.4648219 51.8752622, 4.4655674 51.8751688, 4.4658079 51.8751417, 4.466713 51.8750275, 4.4668418 51.8750112), (4.4668418 51.8750112, 4.4669713 51.8750005, 4.4674257 51.8749605, 4.4680017 51.8749255, 4.4689661 51.8748202, 4.4690654 51.8748063, 4.4692478 51.8747859), (4.4692478 51.8747859, 4.4694353 51.8747645, 4.4700085 51.8746991, 4.4700184 51.8746981, 4.4705051 51.8746145, 4.4708083 51.874579, 4.4719782 51.8744418, 4.4726732 51.8744), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4754217 51.8740922, 4.4758293 51.8740335, 4.4765659 51.873952, 4.4771434 51.8738897, 4.4772992 51.8738759), (4.4772992 51.8738759, 4.4776054 51.8738487, 4.477892 51.8738233), (4.477892 51.8738233, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.4891791 51.8877301, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4856621 51.8854944, 4.4856836 51.885479, 4.4857158 51.8854618, 4.4860052 51.885395, 4.4860957 51.8853749, 4.4865039 51.885292, 4.4866795 51.8852602, 4.4868797 51.885223, 4.4869627 51.8852089, 4.4870399 51.8852053, 4.487137 51.8852016, 4.4873373 51.8851978), (4.4856621 51.8854944, 4.4844198 51.8857861), (4.4844198 51.8857861, 4.4844707 51.8858882, 4.4844867 51.8859264), (4.4844867 51.8859264, 4.4845226 51.8860169, 4.4845593 51.8860782, 4.4845986 51.8861379, 4.4848486 51.886417, 4.4852882 51.8869497, 4.4860538 51.8878912, 4.4861362 51.8879926), (4.4861362 51.8879926, 4.48601 51.888019, 4.4858838 51.8880455, 4.4855998 51.8881052, 4.4852935 51.8881722, 4.4847194 51.888302, 4.4845023 51.8883518), (4.4845023 51.8883518, 4.484281 51.8884006, 4.4837585 51.8885121, 4.4835811 51.8885488, 4.4829968 51.8886795, 4.4828541 51.8887139, 4.4827203 51.8887415, 4.4822328 51.8888432, 4.4820641 51.8888814, 4.4819483 51.8888992, 4.4818799 51.8889045, 4.4818296 51.8889053, 4.4817621 51.8889051, 4.4817 51.8889), (4.4789314 51.8883232, 4.4790474 51.8883477, 4.480494 51.8886538, 4.4808706 51.8887334, 4.481014 51.8887624, 4.4811574 51.8887914, 4.4817 51.8889), (4.4789314 51.8883232, 4.4789065 51.8883591, 4.4788408 51.8883616, 4.4787733 51.8883544, 4.4787282 51.8883368, 4.4787115 51.888297), (4.4759115 51.8882267, 4.4761246 51.8882311, 4.4763212 51.888237, 4.4764029 51.8882391, 4.4769668 51.8882532, 4.4771941 51.8882589, 4.477309 51.8882618, 4.4779577 51.8882781, 4.478261 51.8882857, 4.4784795 51.8882912, 4.4786219 51.8882948, 4.4787115 51.888297), (4.4726924 51.8883989, 4.4731678 51.8883741, 4.473976 51.8883135, 4.4748057 51.8882616, 4.4752377 51.8882369, 4.4754381 51.8882256, 4.4755722 51.8882213, 4.4756799 51.8882217, 4.4759115 51.8882267), (4.4721395 51.8884305, 4.4723545 51.8884183, 4.4724879 51.8884096, 4.4726924 51.8883989), (4.4721395 51.8884305, 4.4721659 51.8885838), (4.4721659 51.8885838, 4.4723159 51.8893082), (4.4723159 51.8893082, 4.47233 51.8893577, 4.4723478 51.8894087, 4.4723771 51.8894788, 4.4724013 51.8895251, 4.4724184 51.8895603, 4.4724502 51.8896129, 4.4728667 51.8901803, 4.4729813 51.890328, 4.4730177 51.8903738, 4.4731219 51.8904994, 4.4731502 51.8905325, 4.4732122 51.8906193, 4.4733564 51.8908095, 4.4734269 51.8909101, 4.4734819 51.890985), (4.4734819 51.890985, 4.4735086 51.8910239, 4.4735319 51.891052, 4.4735772 51.8911138), (4.4735772 51.8911138, 4.4736366 51.8911906, 4.4737117 51.8912925), (4.4737117 51.8912925, 4.473797 51.8914779, 4.4739464 51.8916932, 4.4739797 51.8917367, 4.4740191 51.8917801), (4.4740191 51.8917801, 4.4740586 51.8918153, 4.4741011 51.8918525, 4.47415 51.8918899, 4.4747419 51.8922208, 4.4748336 51.8922722, 4.4748708 51.8922944, 4.4749585 51.8923943), (4.4749585 51.8923943, 4.4749834 51.8924665, 4.4749671 51.892529), (4.4749671 51.892529, 4.4749001 51.8926084), (4.4749001 51.8926084, 4.4747498 51.8926994, 4.473404 51.8933765, 4.472343 51.8938905, 4.4716234 51.8942724), (4.4716234 51.8942724, 4.469678 51.8952959), (4.469678 51.8952959, 4.4694513 51.8954309, 4.4692958 51.8955293, 4.4690523 51.8957073, 4.4689306 51.8958074, 4.4688427 51.8958932, 4.4687113 51.8960278, 4.468617 51.8961392, 4.4685404 51.8962374, 4.4684668 51.8963461, 4.4683742 51.896508, 4.4683143 51.8966337, 4.4682608 51.8967716, 4.4682223 51.8968974, 4.4681899 51.89705, 4.4681727 51.8972113, 4.4681685 51.8973726, 4.4681676 51.8974546, 4.4681069 51.9026299, 4.4681059 51.9027117, 4.4681 51.9031154, 4.4680846 51.9032608, 4.4680602 51.903386, 4.4680219 51.9035244, 4.4679489 51.9037249, 4.4676133 51.9044891, 4.467603 51.9045147), (4.467603 51.9045147, 4.4672906 51.9051851, 4.4672 51.9054, 4.4670984 51.9056193), (4.4670984 51.9056193, 4.466983 51.9059131, 4.4668698 51.9061806), (4.4668698 51.9061806, 4.46685 51.9063516, 4.4668142 51.9065375, 4.4667028 51.906811, 4.4663725 51.9075614), (4.4663725 51.9075614, 4.4662729 51.9077767), (4.4662729 51.9077767, 4.4661379 51.9080937, 4.4660564 51.9082458, 4.4659621 51.9084101), (4.4659621 51.9084101, 4.4658135 51.9086428), (4.4658135 51.9086428, 4.4648339 51.9101728, 4.4646934 51.9103331, 4.4645204 51.910535), (4.4645204 51.910535, 4.4644093 51.9106849, 4.4641927 51.9110394, 4.4640539 51.911274, 4.4639232 51.9114976, 4.4638741 51.9115893, 4.4638119 51.9116953), (4.4638119 51.9116953, 4.4640227 51.9117615, 4.4653065 51.9121895, 4.4659812 51.9124107, 4.4662413 51.9125001, 4.4663528 51.9125372, 4.4664557 51.9125852), (4.4664557 51.9125852, 4.4665768 51.9124952, 4.4667532 51.9123361), (4.4667532 51.9123361, 4.4669345 51.9122247), (4.4669938 51.9121682, 4.4669345 51.9122247), (4.4673853 51.9117229, 4.4672298 51.9119309, 4.4671552 51.9120092, 4.4670975 51.9120702, 4.4669938 51.9121682), (4.4673853 51.9117229, 4.4675206 51.91155, 4.4676384 51.911405, 4.4676704 51.9113817, 4.4677422 51.91136, 4.4678043 51.9113578, 4.4678923 51.9113749, 4.468166 51.9114521, 4.4683727 51.9115096, 4.4684226 51.9115296, 4.4684904 51.9115587, 4.4685249 51.9115908, 4.4685748 51.9116819), (4.4685748 51.9116819, 4.468585 51.9116996), (4.4694999 51.9133941, 4.4693663 51.9131638, 4.4693006 51.9130368, 4.4691013 51.912669, 4.4688132 51.9121432, 4.4687987 51.9121151, 4.468585 51.9116996), (4.4694999 51.9133941, 4.4696111 51.9135112, 4.4696699 51.9135603, 4.4697565 51.9136306, 4.4698055 51.9136795, 4.4698334 51.9137164, 4.4698585 51.9137616, 4.4698842 51.9138201), (4.4698842 51.9138201, 4.4698803 51.9138655), (4.4698803 51.9138655, 4.4698412 51.9139187, 4.4698078 51.9139423, 4.4697745 51.9139654, 4.4696674 51.9140128, 4.4695759 51.9140493, 4.4695212 51.9140709, 4.4694457 51.9141008, 4.4694006 51.9141169, 4.4692884 51.9141504), (4.4692884 51.9141504, 4.4691061 51.9142071), (4.4691061 51.9142071, 4.4689737 51.9142372, 4.468819 51.9142575, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4639022 51.9149224, 4.4638106 51.9149371, 4.463789 51.9149405, 4.4636936 51.9149303, 4.463478 51.9149074), (4.463478 51.9149074, 4.4631323 51.9148597), (4.4631323 51.9148597, 4.4629618 51.9148326, 4.4629299 51.9148213, 4.4628355 51.914788), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4562847 51.9139207, 4.4561981 51.9139308, 4.4561877 51.913932, 4.456096 51.9139207, 4.4560046 51.913912), (4.4560046 51.913912, 4.4559197 51.9142233, 4.4558772 51.9145223, 4.4558476 51.9148828), (4.4558476 51.9148828, 4.4557749 51.9156755), (4.4557749 51.9156755, 4.4557046 51.917298, 4.455703 51.9173436, 4.4556891 51.9173915), (4.4556891 51.9173915, 4.4556815 51.9174387, 4.455681 51.9174663, 4.4556798 51.9175321), (4.4556798 51.9175321, 4.4555628 51.9175144, 4.4549419 51.9174208, 4.4549035 51.917415, 4.4547185 51.9173844), (4.4547185 51.9173844, 4.4547277 51.917462, 4.4547266 51.917496, 4.4547332 51.9175873), (4.4547332 51.9175873, 4.4547354 51.9176569, 4.4547413 51.9178951), (4.4547413 51.9178951, 4.4547875 51.9195514, 4.4548 51.9200033, 4.4548705 51.9206434, 4.4548891 51.920734, 4.454917 51.9208705), (4.454917 51.9208705, 4.4549614 51.9209486, 4.4549774 51.9210103, 4.4549876 51.9210384), (4.4549876 51.9210384, 4.4550047 51.921122), (4.4550047 51.921122, 4.455027 51.9211225, 4.4550836 51.9211333, 4.4551333 51.9211532, 4.4551722 51.9211807, 4.4551976 51.9212137, 4.4552092 51.9212428), (4.4552092 51.9212428, 4.4551993 51.9212895, 4.4551847 51.9213132), (4.4551847 51.9213132, 4.4551246 51.9213581, 4.455073 51.9213783), (4.455073 51.9213783, 4.4550773 51.9214595, 4.4550851 51.9215008, 4.455102 51.9216757, 4.4550899 51.9218326), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4544971 51.9251254, 4.4545087 51.9251758, 4.454478 51.9253402, 4.454461 51.9254092), (4.454461 51.9254092, 4.4545894 51.925425, 4.4553692 51.9255185), (4.4553692 51.9255185, 4.455669 51.9255543, 4.4570932 51.9257214, 4.4588016 51.9259102, 4.4599102 51.9260427, 4.4610234 51.926161, 4.4611543 51.9261751, 4.4613208 51.9262017, 4.4614198 51.9262164), (4.4614198 51.9262164, 4.4614538 51.9261322, 4.4615729 51.9258742, 4.4616146 51.9257729), (4.4616146 51.9257729, 4.4617251 51.9255311), (4.4617251 51.9255311, 4.4617315 51.9253463, 4.461795 51.9251081), (4.461795 51.9251081, 4.4620129 51.9243544), (4.4620129 51.9243544, 4.4623025 51.9233666), (4.4623025 51.9233666, 4.4624397 51.9229588), (4.4624397 51.9229588, 4.4625063 51.9227482, 4.4625424 51.9226622, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139), (4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014))</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>385090</t>
+          <t>384379</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2502,17 +2502,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein</t>
+          <t>Rotterdam, Zuidplein Hoog</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bus 76: Rotterdam Keizerswaard =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 44: Rotterdam Centraal =&gt; Rotterdam Zuidplein</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2523,14 +2523,14 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5493116 51.8874768, 4.5494448 51.8871435), (4.5494448 51.8871435, 4.5495234 51.886977), (4.5495234 51.886977, 4.5496839 51.8870025, 4.5498132 51.887023, 4.5498728 51.8870342, 4.5500591 51.8870593, 4.5501612 51.8870756), (4.5501612 51.8870756, 4.5502685 51.8871105, 4.5504269 51.8871326, 4.5508141 51.8871919, 4.5509547 51.8872134, 4.5510431 51.8872269, 4.5513083 51.887269, 4.5514007 51.8872818, 4.5520649 51.8873867, 4.5522603 51.8874175, 4.5529682 51.88753, 4.5530416 51.8875403, 4.5533176 51.8875727, 4.5534049 51.8875862), (4.5537909 51.8866067, 4.5537511 51.8866954, 4.5534485 51.8874889, 4.5534049 51.8875862), (4.5537909 51.8866067, 4.553608 51.8862373, 4.5535617 51.8861367, 4.5534987 51.8859574, 4.5534857 51.885831, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5531929 51.885465, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5578725 51.884723, 4.5578628 51.8846842, 4.5578376 51.8845849), (4.5578376 51.8845849, 4.5578505 51.8844485), (4.557254 51.8830491, 4.5573938 51.8831972, 4.5576041 51.8836705, 4.5578241 51.8843276, 4.5578505 51.8844485), (4.5592571 51.8805038, 4.5589804 51.880871, 4.5587951 51.8810972, 4.5586603 51.8812291, 4.5585115 51.881421, 4.558256 51.8817464, 4.5580605 51.8819817, 4.5577825 51.8823306, 4.5575132 51.8826669, 4.5573061 51.8829161, 4.557254 51.8830491), (4.5543658 51.8793487, 4.5545837 51.8791029, 4.554744 51.8790856, 4.5554556 51.8792957, 4.5563012 51.8795578, 4.5563448 51.8795719, 4.5565764 51.8796464, 4.5568014 51.8797188, 4.5572227 51.8798543, 4.557573 51.8799712, 4.5580783 51.8801306, 4.558577 51.880288, 4.5588134 51.8803676, 4.5592571 51.8805038), (4.5538457 51.8791874, 4.5539025 51.879205, 4.5543658 51.8793487), (4.550838 51.8782508, 4.552187 51.8786764, 4.5530636 51.8789464, 4.5538457 51.8791874), (4.5496255 51.8778795, 4.550542 51.8781624, 4.550838 51.8782508), (4.5496255 51.8778795, 4.5492946 51.8777789), (4.5492946 51.8777789, 4.5497219 51.8772335), (4.545254 51.8758514, 4.5460922 51.8761096, 4.5463707 51.8761985, 4.5473906 51.8765116, 4.5474957 51.8765442, 4.5477751 51.8766307, 4.5483552 51.8768102, 4.548637 51.876899, 4.5492226 51.8770745, 4.5497219 51.8772335), (4.545254 51.8758514, 4.5447947 51.8764075, 4.5447268 51.8764983, 4.544519 51.8767513, 4.5440973 51.8772901, 4.5438472 51.8775783, 4.5435614 51.8779303, 4.5431476 51.8784552, 4.5428982 51.8787417, 4.5426441 51.8790782, 4.5421975 51.8796076, 4.5419629 51.8799056, 4.5419564 51.8801312, 4.5419524 51.8802702, 4.5419419 51.8808675, 4.541938 51.8811647, 4.5419349 51.8815035, 4.5419349 51.8815371, 4.5419344 51.8815654, 4.5419329 51.8816504), (4.5419329 51.8816504, 4.5416796 51.8816518, 4.5413107 51.8816565, 4.5409958 51.8816923, 4.5406748 51.8817641, 4.5403771 51.8818626, 4.5401291 51.8819763, 4.540075 51.8820082, 4.5399611 51.8820754), (4.5399611 51.8820754, 4.5398723 51.8821405, 4.5397575 51.8822333, 4.5396203 51.8823652, 4.5392538 51.8827669, 4.539047 51.8829869, 4.5388521 51.8831966, 4.5386527 51.8833778), (4.5386527 51.8833778, 4.5385567 51.8834588, 4.5385101 51.8834931, 4.5384277 51.8835537, 4.5383238 51.883624), (4.5383238 51.883624, 4.5381906 51.8837113), (4.5381906 51.8837113, 4.5380121 51.8836139, 4.5371363 51.8831295, 4.5365838 51.8827926, 4.5360503 51.8823409, 4.5359998 51.8822981, 4.535951 51.8822568, 4.5357508 51.882062), (4.5357508 51.882062, 4.535688 51.8820219, 4.5356289 51.8819687), (4.5356289 51.8819687, 4.5353525 51.8817996, 4.5352619 51.8817381, 4.535205 51.8816962, 4.5350829 51.8816063, 4.5347582 51.8814269, 4.5341683 51.8811827, 4.533714 51.8810199, 4.5336231 51.8809873, 4.5334971 51.880946, 4.5329538 51.8807509, 4.5326678 51.8806528), (4.5326678 51.8806528, 4.5316298 51.8802956), (4.5316298 51.8802956, 4.5310247 51.8800874, 4.5306597 51.8799568), (4.5306597 51.8799568, 4.5292686 51.8794589, 4.5284659 51.8791793, 4.5242355 51.8777508, 4.5241591 51.8777232, 4.5241228 51.8777101, 4.5239828 51.8776682), (4.5239828 51.8776682, 4.5238685 51.8776289, 4.5238295 51.8776117, 4.5234305 51.8774725, 4.5231079 51.8773723, 4.522766 51.877298, 4.5223941 51.8772604, 4.5223324 51.8772541, 4.522282 51.877249, 4.5221315 51.8772393), (4.5221315 51.8772393, 4.5221241 51.8773392, 4.5221173 51.8773727, 4.5220849 51.8775736, 4.5220364 51.8778784, 4.5220078 51.8780803, 4.5219331 51.8787358, 4.5219077 51.8788529), (4.5219077 51.8788529, 4.5218878 51.8789449, 4.5217445 51.8792385), (4.5217445 51.8792385, 4.5214752 51.8815044, 4.5214974 51.8821407, 4.5215158 51.8822688), (4.5215158 51.8822688, 4.5215517 51.8823403, 4.5216051 51.8825727, 4.5216526 51.8827255, 4.5216754 51.8827979, 4.5217004 51.8828771, 4.5217289 51.8829676, 4.5217849 51.8831609, 4.5218455 51.8833601, 4.5218634 51.8834673), (4.5218634 51.8834673, 4.5220704 51.8839344, 4.5220906 51.8839788, 4.5220996 51.8839979, 4.522112 51.8840234, 4.5223623 51.8846, 4.522476 51.8849102, 4.5224913 51.884952, 4.5224991 51.8849715, 4.5226359 51.885411, 4.5226737 51.8858301), (4.5226737 51.8858301, 4.5227061 51.8860187, 4.5227052 51.8862003, 4.5227081 51.8863092), (4.5227081 51.8863092, 4.522592 51.8863022), (4.5215331 51.8862307, 4.5216336 51.8862382, 4.5220521 51.8862773, 4.5222465 51.886289, 4.522306 51.8862902, 4.5223888 51.8862925, 4.522592 51.8863022), (4.5145651 51.8855314, 4.5153721 51.8856072, 4.5155382 51.8856256, 4.5161702 51.8856957, 4.5162773 51.8857063, 4.5169762 51.8857829, 4.5171156 51.8857993, 4.5179354 51.8858968, 4.5179807 51.8859014, 4.5188339 51.8859845, 4.5197118 51.886071, 4.5213471 51.8862123, 4.5215331 51.8862307), (4.5142484 51.8854948, 4.5145651 51.8855314), (4.5141135 51.8854738, 4.5142484 51.8854948), (4.5141135 51.8854738, 4.5139539 51.8854807, 4.51285 51.8852868, 4.5122942 51.8851772, 4.5119221 51.8851039, 4.5116608 51.8850498, 4.5110385 51.8849245, 4.5102402 51.8847672, 4.5092446 51.8845674, 4.508254 51.8843599, 4.5080245 51.8843125, 4.5076334 51.8842192, 4.5073685 51.8841454), (4.5073685 51.8841454, 4.5073232 51.8841285), (4.5073232 51.8841285, 4.5069298 51.8839561, 4.5060938 51.8836022, 4.5059276 51.8835553), (4.5059276 51.8835553, 4.5057451 51.8835294), (4.5052465 51.883622, 4.5053174 51.8836097, 4.5057451 51.8835294), (4.5050163 51.883662, 4.505104 51.8836471, 4.5051554 51.8836383, 4.5052465 51.883622), (4.5050163 51.883662, 4.5048328 51.8832439, 4.5047916 51.883086, 4.5047533 51.8830001, 4.5046828 51.8828491, 4.5045975 51.8827714, 4.5042961 51.882616, 4.5041975 51.8825673, 4.5041167 51.8824977), (4.5041167 51.8824977, 4.5039996 51.8825395, 4.503745 51.8826531), (4.503745 51.8826531, 4.5021225 51.8838991, 4.5018197 51.8841165, 4.5016698 51.8842262, 4.5013066 51.8844761, 4.5006278 51.8849512, 4.5004859 51.8850525, 4.5000705 51.8853508, 4.4998318 51.8855287, 4.499262 51.8859343, 4.4991594 51.8860066, 4.4990759 51.8860663, 4.4985047 51.886475, 4.4975515 51.8871502, 4.4974527 51.8872201, 4.4969693 51.8875552, 4.4965688 51.8878376, 4.4962187 51.8880846, 4.4961543 51.8881298, 4.4958434 51.8883159), (4.4958434 51.8883159, 4.4957326 51.8883921), (4.4957326 51.8883921, 4.4956689 51.8883563, 4.4954478 51.8882322, 4.4953523 51.8881757), (4.4953523 51.8881757, 4.494677 51.8877972, 4.493743 51.8872786, 4.4934437 51.8871046, 4.4933421 51.8870401), (4.4933421 51.8870401, 4.4931935 51.8869603, 4.4930305 51.8869214, 4.4929538 51.8869096, 4.4928568 51.8869077, 4.4927507 51.8869176, 4.4926915 51.8869243, 4.492525 51.8869391), (4.492525 51.8869391, 4.4923805 51.8869491, 4.4921985 51.8869585), (4.4921985 51.8869585, 4.4921754 51.8868688, 4.4921614 51.8868275, 4.4921537 51.8867916, 4.4921316 51.8867044, 4.4921058 51.8865694), (4.4921058 51.8865694, 4.4920674 51.8863641), (4.4920674 51.8863641, 4.4920557 51.8863017, 4.4918885 51.885519, 4.4918351 51.8852996), (4.4918351 51.8852996, 4.4917261 51.8851744, 4.4916553 51.8851081, 4.4916043 51.8850733, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629196 51.9227524, 4.4628444 51.9230812, 4.4627567 51.9234229), (4.4627567 51.9234229, 4.4624587 51.9244078), (4.4624587 51.9244078, 4.4622986 51.9249119, 4.4622376 51.9250492), (4.4622376 51.9250492, 4.4621471 51.9252022), (4.4621471 51.9252022, 4.4621564 51.9253122, 4.4621457 51.9254007, 4.4619016 51.9259951, 4.4618304 51.9261938, 4.4616541 51.9262605), (4.4616541 51.9262605, 4.4616271 51.9263227, 4.461618 51.9263436, 4.4616158 51.9263487, 4.4615816 51.9264275), (4.4615816 51.9264275, 4.461349 51.9263877), (4.461349 51.9263877, 4.4610804 51.9263369, 4.460766 51.9262819, 4.4606197 51.9262639, 4.4597794 51.9261522, 4.4587459 51.9260512, 4.4554528 51.9256675, 4.4553232 51.9256569, 4.4551836 51.9256444, 4.4549384 51.9256063, 4.4545624 51.9255559, 4.4544247 51.9255415, 4.4543513 51.9255099), (4.4543513 51.9255099, 4.4543787 51.9254161), (4.4543787 51.9254161, 4.4544031 51.9253322, 4.4544457 51.9251858, 4.4544971 51.9251254), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4550899 51.9218326, 4.4550388 51.9217086, 4.455006 51.9215775, 4.4549942 51.9215052, 4.4549794 51.9214656, 4.4549499 51.9213836), (4.4549499 51.9213836, 4.4548705 51.9213628, 4.4548277 51.9213389, 4.4547968 51.9213088, 4.4547799 51.9212748), (4.4547799 51.9212748, 4.454778 51.9212414, 4.4547897 51.9212059), (4.4547897 51.9212059, 4.4548174 51.9211762, 4.4548585 51.9211495, 4.45491 51.9211308), (4.45491 51.9211308, 4.4549013 51.9210462), (4.4549013 51.9210462, 4.4549038 51.9210155, 4.4549076 51.9209446, 4.454917 51.9208705), (4.4547413 51.9178951, 4.4547875 51.9195514, 4.4548 51.9200033, 4.4548705 51.9206434, 4.4548891 51.920734, 4.454917 51.9208705), (4.4547332 51.9175873, 4.4547354 51.9176569, 4.4547413 51.9178951), (4.4547185 51.9173844, 4.4547277 51.917462, 4.4547266 51.917496, 4.4547332 51.9175873), (4.4547185 51.9173844, 4.4547133 51.9173124, 4.4547109 51.9172791, 4.4547072 51.9172279), (4.4547072 51.9172279, 4.4547027 51.9171664, 4.4546993 51.9171178, 4.4546959 51.9170725, 4.4544853 51.9169277, 4.4542723 51.916785), (4.4542723 51.916785, 4.4542774 51.9166618), (4.4542774 51.9166618, 4.4543086 51.9161001, 4.4543123 51.9160424, 4.4544049 51.9146032), (4.4544049 51.9146032, 4.4545111 51.9140224, 4.4545253 51.9139689), (4.4545253 51.9139689, 4.4545356 51.9138051, 4.454559 51.9137289), (4.454559 51.9137289, 4.4545603 51.9137233, 4.4545696 51.9136833, 4.4545729 51.9136704), (4.4545729 51.9136704, 4.4546908 51.9136855, 4.4548282 51.913704, 4.4551497 51.9137474, 4.4551614 51.9137496, 4.4554094 51.9137824), (4.4554094 51.9137824, 4.4554486 51.9137876), (4.4554486 51.9137876, 4.4557022 51.9138211), (4.4557022 51.9138211, 4.4559927 51.9138554), (4.4559927 51.9138554, 4.4562085 51.9138859, 4.4562213 51.9138918, 4.4562847 51.9139207), (4.459573 51.9143586, 4.4593931 51.9143328, 4.4593748 51.9143302, 4.4593067 51.9143204, 4.45927 51.9143152, 4.4590321 51.9142845, 4.4587981 51.9142557, 4.4579113 51.9141389, 4.4564083 51.9139388, 4.4563804 51.9139347, 4.4562847 51.9139207), (4.4598 51.914389, 4.4597805 51.9143864, 4.4595934 51.9143613, 4.459573 51.9143586), (4.4628355 51.914788, 4.4620082 51.9146809, 4.4612725 51.9145849, 4.4602529 51.9144467, 4.4600203 51.9144171, 4.459996 51.914414, 4.4598 51.914389), (4.4628355 51.914788, 4.4629226 51.9147814, 4.4629757 51.9147774, 4.4631538 51.9148017, 4.4635049 51.9148482), (4.4635049 51.9148482, 4.4637501 51.9148806, 4.4637813 51.9148845, 4.4638303 51.9148984, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4658709 51.9147738, 4.4657419 51.9147901, 4.4656849 51.9147964, 4.4655831 51.9148114, 4.4654762 51.9148262, 4.4652346 51.9148644, 4.465077 51.91489, 4.4648313 51.9149209, 4.464654 51.9149354, 4.4643361 51.9149418, 4.4641965 51.9149406, 4.4639022 51.9149224), (4.4658903 51.9147703, 4.4659076 51.9147672, 4.4660288 51.9147443, 4.4661814 51.9147158, 4.4672751 51.9145077, 4.4682043 51.9143475), (4.4682043 51.9143475, 4.4683202 51.9142988, 4.4687414 51.9142051, 4.4687758 51.9141975, 4.4688677 51.9141734, 4.4690053 51.9141298), (4.4690053 51.9141298, 4.4691876 51.9140815), (4.4691876 51.9140815, 4.4692871 51.9140533, 4.4693327 51.9140372, 4.4695513 51.913966, 4.4695912 51.9139499, 4.4696206 51.9139378, 4.4696485 51.9139223, 4.4696883 51.9138939), (4.4696883 51.9138939, 4.469707 51.9138619, 4.4697193 51.9138402, 4.4697267 51.9138037, 4.4697251 51.9137798, 4.4697172 51.9137534, 4.4696913 51.9137082, 4.4696545 51.9136592, 4.4696073 51.9136033), (4.4696073 51.9136033, 4.4695782 51.9135613, 4.4695238 51.9134588, 4.4694999 51.9133941), (4.4694999 51.9133941, 4.4693663 51.9131638, 4.4693006 51.9130368, 4.4691013 51.912669, 4.4688132 51.9121432, 4.4687987 51.9121151, 4.468585 51.9116996), (4.4685748 51.9116819, 4.468585 51.9116996), (4.4673853 51.9117229, 4.4675206 51.91155, 4.4676384 51.911405, 4.4676704 51.9113817, 4.4677422 51.91136, 4.4678043 51.9113578, 4.4678923 51.9113749, 4.468166 51.9114521, 4.4683727 51.9115096, 4.4684226 51.9115296, 4.4684904 51.9115587, 4.4685249 51.9115908, 4.4685748 51.9116819), (4.4673853 51.9117229, 4.4672298 51.9119309, 4.4671552 51.9120092, 4.4670975 51.9120702, 4.4669938 51.9121682), (4.4669938 51.9121682, 4.4669345 51.9122247), (4.4669345 51.9122247, 4.4669176 51.9122822), (4.4669176 51.9122822, 4.466733 51.9124558, 4.4666659 51.9125243, 4.466576 51.9126259, 4.4664332 51.9126796), (4.4664332 51.9126796, 4.466275 51.9126286, 4.465628 51.9124122, 4.4641013 51.9119087, 4.4639609 51.9118698, 4.4637477 51.9118222, 4.4634997 51.911746), (4.4634997 51.911746, 4.463579 51.911614, 4.4636384 51.9115147, 4.4638413 51.9111711, 4.4639091 51.9110587), (4.4639091 51.9110587, 4.4640623 51.9108019, 4.4642368 51.910497), (4.4642368 51.910497, 4.4644434 51.9100876, 4.46473 51.909622, 4.4649577 51.9092729, 4.4651992 51.9088905, 4.4653997 51.9085656), (4.4653997 51.9085656, 4.4655589 51.9083401), (4.4655589 51.9083401, 4.465744 51.9080455, 4.4658347 51.9079004, 4.4658891 51.907809, 4.4659434 51.9076916), (4.4659434 51.9076916, 4.4660402 51.9074805), (4.4660402 51.9074805, 4.4664363 51.9065406, 4.4666922 51.9059728, 4.4667273 51.9059188, 4.4667717 51.9058669, 4.4669394 51.9057125), (4.4669394 51.9057125, 4.4669911 51.9056028), (4.4669911 51.9056028, 4.4670893 51.9053959, 4.4671839 51.9051934, 4.467475 51.9044907), (4.467475 51.9044907, 4.4678672 51.9035974, 4.4679218 51.9034244, 4.4679525 51.9032895, 4.4679701 51.9031651, 4.4679987 51.9017226, 4.468049 51.8972633, 4.4680559 51.897151, 4.4680816 51.8969813, 4.4681222 51.8968239, 4.4681815 51.8966611, 4.4682623 51.8964855, 4.4683483 51.8963365, 4.4684487 51.8961896, 4.4685607 51.8960495, 4.4687306 51.8958673, 4.4688468 51.8957566, 4.4689592 51.895664, 4.4692218 51.8954759, 4.4696156 51.8952542), (4.4696156 51.8952542, 4.470045 51.89502, 4.4706473 51.8946976, 4.470868 51.8945773, 4.4715486 51.8942204), (4.4715486 51.8942204, 4.4720995 51.8939245), (4.4720995 51.8939245, 4.4724995 51.8937208), (4.4724995 51.8937208, 4.4728182 51.8935644), (4.4728182 51.8935644, 4.4732322 51.8933598, 4.4745155 51.8927377, 4.474672 51.8926596, 4.4747075 51.8926313, 4.4748062 51.8925316), (4.4748062 51.8925316, 4.4746549 51.8924376, 4.4746175 51.8924144), (4.4746175 51.8924144, 4.4742126 51.8921638, 4.473986 51.8919865, 4.4738585 51.89185), (4.4738585 51.89185, 4.4734823 51.8913334, 4.473432 51.8912644, 4.473377 51.8911894), (4.473377 51.8911894, 4.4733266 51.891129, 4.4733021 51.8910978, 4.473271 51.8910572, 4.4732148 51.8909801, 4.4731745 51.8909196), (4.4731745 51.8909196, 4.4730553 51.8907407, 4.4730112 51.8906746, 4.4729748 51.890624), (4.4729748 51.890624, 4.4729462 51.8905807, 4.4728981 51.8905133, 4.4728564 51.8904549, 4.4727153 51.8902555, 4.4723092 51.8896755, 4.4722774 51.8896243, 4.4722554 51.8895731, 4.4722323 51.889515, 4.4722087 51.8894507, 4.4721883 51.8893844, 4.4721602 51.8892519, 4.4720394 51.8886674, 4.4720286 51.8886193, 4.4719941 51.888438), (4.4719941 51.888438, 4.4721395 51.8884305), (4.4721395 51.8884305, 4.4723545 51.8884183, 4.4724879 51.8884096, 4.4726924 51.8883989), (4.4726924 51.8883989, 4.4731678 51.8883741, 4.473976 51.8883135, 4.4748057 51.8882616, 4.4752377 51.8882369, 4.4754381 51.8882256, 4.4755722 51.8882213, 4.4756799 51.8882217, 4.4759115 51.8882267), (4.4759115 51.8882267, 4.4761246 51.8882311, 4.4763212 51.888237, 4.4764029 51.8882391, 4.4769668 51.8882532, 4.4771941 51.8882589, 4.477309 51.8882618, 4.4779577 51.8882781, 4.478261 51.8882857, 4.4784795 51.8882912, 4.4786219 51.8882948, 4.4787115 51.888297), (4.4787115 51.888297, 4.4787347 51.8882659, 4.4787932 51.8882519, 4.4788589 51.8882574, 4.478913 51.8882824, 4.4789314 51.8883232), (4.4789314 51.8883232, 4.4790474 51.8883477, 4.480494 51.8886538, 4.4808706 51.8887334, 4.481014 51.8887624, 4.4811574 51.8887914, 4.4817 51.8889), (4.4845023 51.8883518, 4.484281 51.8884006, 4.4837585 51.8885121, 4.4835811 51.8885488, 4.4829968 51.8886795, 4.4828541 51.8887139, 4.4827203 51.8887415, 4.4822328 51.8888432, 4.4820641 51.8888814, 4.4819483 51.8888992, 4.4818799 51.8889045, 4.4818296 51.8889053, 4.4817621 51.8889051, 4.4817 51.8889), (4.4861362 51.8879926, 4.48601 51.888019, 4.4858838 51.8880455, 4.4855998 51.8881052, 4.4852935 51.8881722, 4.4847194 51.888302, 4.4845023 51.8883518), (4.4844867 51.8859264, 4.4845226 51.8860169, 4.4845593 51.8860782, 4.4845986 51.8861379, 4.4848486 51.886417, 4.4852882 51.8869497, 4.4860538 51.8878912, 4.4861362 51.8879926), (4.4844198 51.8857861, 4.4844707 51.8858882, 4.4844867 51.8859264), (4.4856621 51.8854944, 4.4844198 51.8857861), (4.4856621 51.8854944, 4.4856836 51.885479, 4.4857158 51.8854618, 4.4860052 51.885395, 4.4860957 51.8853749, 4.4865039 51.885292, 4.4866795 51.8852602, 4.4868797 51.885223, 4.4869627 51.8852089, 4.4870399 51.8852053, 4.487137 51.8852016, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>385091</t>
+          <t>384417</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2540,17 +2540,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rotterdam, Keizerswaard</t>
+          <t>Schiedam, Station Schiedam Centrum</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bus 76: Rotterdam Zuidplein =&gt; Rotterdam Keizerswaard</t>
+          <t>Bus 51: Schiedam Woudhoek =&gt; Schiedam Centrum</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2561,14 +2561,14 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891791 51.8877301, 4.4890351 51.8877132), (4.4890351 51.8877132, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914114 51.8848169, 4.4915476 51.8848622, 4.4917179 51.8849251, 4.4918239 51.8849677, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919694 51.8850469, 4.4919908 51.8850637, 4.4920249 51.8850973, 4.4920684 51.8851479, 4.4921085 51.8851992, 4.4921349 51.8852442, 4.4921623 51.8852898, 4.4921817 51.8853378), (4.4921817 51.8853378, 4.492182 51.8853799, 4.4921836 51.8854204, 4.4921976 51.8854864, 4.4922585 51.8858192), (4.4922585 51.8858192, 4.492345 51.8863409), (4.492345 51.8863409, 4.4924248 51.8865158), (4.4924248 51.8865158, 4.4924453 51.8865872, 4.4924679 51.8866906, 4.4924773 51.8867328, 4.4925035 51.8868456), (4.4925035 51.8868456, 4.4926658 51.8868305, 4.4927298 51.8868313, 4.4928843 51.8868308, 4.4930305 51.8868408, 4.4931911 51.8868759), (4.4931911 51.8868759, 4.4934038 51.8869529, 4.4935402 51.8870274, 4.493859 51.8872056, 4.4947789 51.8877204, 4.4954683 51.8880982), (4.4954683 51.8880982, 4.4957385 51.8882551), (4.4957385 51.8882551, 4.4957847 51.8882819, 4.4958434 51.8883159), (4.503745 51.8826531, 4.5021225 51.8838991, 4.5018197 51.8841165, 4.5016698 51.8842262, 4.5013066 51.8844761, 4.5006278 51.8849512, 4.5004859 51.8850525, 4.5000705 51.8853508, 4.4998318 51.8855287, 4.499262 51.8859343, 4.4991594 51.8860066, 4.4990759 51.8860663, 4.4985047 51.886475, 4.4975515 51.8871502, 4.4974527 51.8872201, 4.4969693 51.8875552, 4.4965688 51.8878376, 4.4962187 51.8880846, 4.4961543 51.8881298, 4.4958434 51.8883159), (4.503745 51.8826531, 4.5038574 51.8825349, 4.5039146 51.8824942, 4.5039972 51.8824288), (4.5039972 51.8824288, 4.5040785 51.8823392), (4.5040785 51.8823392, 4.5042629 51.8824279, 4.5043603 51.8824591, 4.5044456 51.8824947, 4.5047215 51.8826413, 4.504796 51.8826896, 4.504846 51.882756, 4.5049234 51.8829324, 4.5052465 51.883622), (4.5052465 51.883622, 4.5053174 51.8836097, 4.5057451 51.8835294), (4.5057451 51.8835294, 4.505936 51.8834963, 4.5059878 51.8834874, 4.5060762 51.8834943, 4.5061833 51.8835181, 4.5069473 51.8838686), (4.5069473 51.8838686, 4.5073805 51.8840665), (4.5073805 51.8840665, 4.5074236 51.8840833), (4.5074236 51.8840833, 4.5080652 51.8842244), (4.5080652 51.8842244, 4.5083191 51.8842672, 4.5093858 51.884489, 4.5102879 51.884674, 4.5111278 51.8848377, 4.5119815 51.8850109, 4.5129144 51.8852019, 4.5140048 51.8854173, 4.5141135 51.8854738), (4.5141135 51.8854738, 4.5142484 51.8854948), (4.5142484 51.8854948, 4.5145651 51.8855314), (4.5145651 51.8855314, 4.5153721 51.8856072, 4.5155382 51.8856256, 4.5161702 51.8856957, 4.5162773 51.8857063, 4.5169762 51.8857829, 4.5171156 51.8857993, 4.5179354 51.8858968, 4.5179807 51.8859014, 4.5188339 51.8859845, 4.5197118 51.886071, 4.5213471 51.8862123, 4.5215331 51.8862307), (4.5215331 51.8862307, 4.5216336 51.8862382, 4.5220521 51.8862773, 4.5222465 51.886289, 4.522306 51.8862902, 4.5223888 51.8862925, 4.522592 51.8863022), (4.522592 51.8863022, 4.5226127 51.8861997, 4.522625 51.8859593, 4.5226737 51.8858301), (4.5218634 51.8834673, 4.5220704 51.8839344, 4.5220906 51.8839788, 4.5220996 51.8839979, 4.522112 51.8840234, 4.5223623 51.8846, 4.522476 51.8849102, 4.5224913 51.884952, 4.5224991 51.8849715, 4.5226359 51.885411, 4.5226737 51.8858301), (4.5218634 51.8834673, 4.521787 51.8833702, 4.5216534 51.8831406, 4.5215534 51.8829636, 4.5215365 51.8828843, 4.5215167 51.8827913, 4.5215032 51.8827281, 4.5214808 51.88245, 4.5214849 51.8823441, 4.5215158 51.8822688), (4.5217445 51.8792385, 4.5214752 51.8815044, 4.5214974 51.8821407, 4.5215158 51.8822688), (4.5217445 51.8792385, 4.5217581 51.8789333, 4.5217816 51.8788393, 4.5218109 51.8787217, 4.5218411 51.8784927, 4.5218978 51.8780623, 4.522001 51.8774076, 4.5220074 51.8773668, 4.5220131 51.87733, 4.5220147 51.8772286), (4.5220147 51.8772286, 4.5220156 51.8771828, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5386527 51.8833778, 4.5385567 51.8834588, 4.5385101 51.8834931, 4.5384277 51.8835537, 4.5383238 51.883624), (4.5399611 51.8820754, 4.5398723 51.8821405, 4.5397575 51.8822333, 4.5396203 51.8823652, 4.5392538 51.8827669, 4.539047 51.8829869, 4.5388521 51.8831966, 4.5386527 51.8833778), (4.5419329 51.8816504, 4.5416796 51.8816518, 4.5413107 51.8816565, 4.5409958 51.8816923, 4.5406748 51.8817641, 4.5403771 51.8818626, 4.5401291 51.8819763, 4.540075 51.8820082, 4.5399611 51.8820754), (4.545254 51.8758514, 4.5447947 51.8764075, 4.5447268 51.8764983, 4.544519 51.8767513, 4.5440973 51.8772901, 4.5438472 51.8775783, 4.5435614 51.8779303, 4.5431476 51.8784552, 4.5428982 51.8787417, 4.5426441 51.8790782, 4.5421975 51.8796076, 4.5419629 51.8799056, 4.5419564 51.8801312, 4.5419524 51.8802702, 4.5419419 51.8808675, 4.541938 51.8811647, 4.5419349 51.8815035, 4.5419349 51.8815371, 4.5419344 51.8815654, 4.5419329 51.8816504), (4.545254 51.8758514, 4.5460922 51.8761096, 4.5463707 51.8761985, 4.5473906 51.8765116, 4.5474957 51.8765442, 4.5477751 51.8766307, 4.5483552 51.8768102, 4.548637 51.876899, 4.5492226 51.8770745, 4.5497219 51.8772335), (4.5497219 51.8772335, 4.5500564 51.8773369), (4.5500564 51.8773369, 4.5496255 51.8778795), (4.5496255 51.8778795, 4.550542 51.8781624, 4.550838 51.8782508), (4.550838 51.8782508, 4.552187 51.8786764, 4.5530636 51.8789464, 4.5538457 51.8791874), (4.5538457 51.8791874, 4.5539025 51.879205, 4.5543658 51.8793487), (4.5543658 51.8793487, 4.5545837 51.8791029, 4.554744 51.8790856, 4.5554556 51.8792957, 4.5563012 51.8795578, 4.5563448 51.8795719, 4.5565764 51.8796464, 4.5568014 51.8797188, 4.5572227 51.8798543, 4.557573 51.8799712, 4.5580783 51.8801306, 4.558577 51.880288, 4.5588134 51.8803676, 4.5592571 51.8805038), (4.5592571 51.8805038, 4.5589804 51.880871, 4.5587951 51.8810972, 4.5586603 51.8812291, 4.5585115 51.881421, 4.558256 51.8817464, 4.5580605 51.8819817, 4.5577825 51.8823306, 4.5575132 51.8826669, 4.5573061 51.8829161, 4.557254 51.8830491), (4.557254 51.8830491, 4.5573938 51.8831972, 4.5576041 51.8836705, 4.5578241 51.8843276, 4.5578505 51.8844485), (4.5578505 51.8844485, 4.557932 51.8845178, 4.5580106 51.8846622, 4.5580297 51.8846972, 4.5580638 51.8847621), (4.5580638 51.8847621, 4.558091 51.8848347), (4.558091 51.8848347, 4.5579261 51.8848591), (4.5579261 51.8848591, 4.5578686 51.8848672, 4.5575639 51.8849104, 4.5573488 51.8849287, 4.5572643 51.8849331, 4.5571319 51.8849454, 4.5565892 51.8850241, 4.556272 51.8850405), (4.556272 51.8850405, 4.5549835 51.8852373), (4.5549835 51.8852373, 4.5547534 51.8853046, 4.5543288 51.8854052, 4.554134 51.885465), (4.554134 51.885465, 4.5541006 51.8855397, 4.5540366 51.8856064, 4.5539466 51.8856605, 4.5538368 51.885698, 4.5537934 51.8857071, 4.5537242 51.8857159, 4.5536537 51.8857182, 4.553577 51.8857134, 4.5535026 51.8857009), (4.5535026 51.8857009, 4.5534066 51.8856717, 4.5533236 51.8856299, 4.5532579 51.8855777, 4.5532358 51.8855526, 4.5532145 51.8855207), (4.5532145 51.8855207, 4.5530251 51.8855539, 4.5524798 51.8856329, 4.5523756 51.8856428, 4.5522821 51.8856578, 4.5519467 51.8856433, 4.551776 51.8856321, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5492059 51.8856531, 4.5491952 51.8858746, 4.5491868 51.8859218, 4.5491074 51.8860822), (4.5491074 51.8860822, 4.5491135 51.8866017), (4.5491135 51.8866017, 4.5490916 51.8869321), (4.5490916 51.8869321, 4.5490954 51.8869723, 4.5489717 51.8872989))</t>
+          <t>MULTILINESTRING ((4.3749283 51.9442744, 4.3752596 51.9442599, 4.3753789 51.9442566, 4.3754274 51.9442613, 4.3754856 51.9442826, 4.3755257 51.9442995, 4.3755446 51.9443075, 4.3756103 51.9443542, 4.3756289 51.9443811), (4.3756289 51.9443811, 4.3757505 51.9443781, 4.3762101 51.9443597, 4.3766958 51.9443417, 4.3770978 51.9443257, 4.3776004 51.9443, 4.3796425 51.9441957, 4.3800136 51.9441636, 4.3800692 51.9441505, 4.3803435 51.9440859, 4.3806949 51.9439602, 4.3809363 51.9438296, 4.3817739 51.9430168), (4.3817739 51.9430168, 4.3820298 51.9427648, 4.3823377 51.9424403, 4.3828451 51.9419372, 4.3839298 51.9408737, 4.3843581 51.9404514, 4.3847841 51.9400202, 4.38505 51.9397638, 4.3853507 51.9395049, 4.3854365 51.9394487, 4.3854754 51.9394227, 4.3855515 51.9393763), (4.3855515 51.9393763, 4.385545 51.9393415, 4.3855553 51.939307, 4.3855815 51.9392758), (4.3855815 51.9392758, 4.3855014 51.9391515, 4.3854813 51.9391202, 4.3850426 51.9384407, 4.3849646 51.9383183, 4.3847 51.9379031, 4.3845053 51.9376461, 4.3844171 51.9375105, 4.3842891 51.937316, 4.384185 51.9371552, 4.3836258 51.9362729), (4.3836258 51.9362729, 4.3835554 51.9361618, 4.3835193 51.9361048, 4.3828707 51.9350266, 4.3827939 51.9349116, 4.3826746 51.934781, 4.3825921 51.934724, 4.3825086 51.9346909, 4.382403 51.9346607, 4.3815267 51.9345719, 4.380697 51.9344848, 4.3800374 51.9344266, 4.3798869 51.9344039), (4.3798869 51.9344039, 4.379584 51.9343725, 4.3794669 51.9343605, 4.3791013 51.9343287, 4.3786776 51.9343274, 4.3785265 51.9343269), (4.3785265 51.9343269, 4.3783498 51.9343212), (4.3783498 51.9343212, 4.3778611 51.9342667, 4.3769397 51.9341988, 4.3766925 51.9341806, 4.3759827 51.9341364), (4.3759827 51.9341364, 4.3753489 51.9341085), (4.3753489 51.9341085, 4.3750802 51.9340988, 4.3749661 51.9340947, 4.3748781 51.934089, 4.3748284 51.9340876, 4.3747607 51.9340821, 4.3743664 51.9340491), (4.3743664 51.9340491, 4.3741299 51.9340427, 4.3736577 51.9340029, 4.3731954 51.9339643), (4.3731954 51.9339643, 4.3727716 51.9339858, 4.3721874 51.9341097, 4.3719943 51.9341734), (4.3719943 51.9341734, 4.3718093 51.9341177), (4.3718093 51.9341177, 4.3717073 51.93405, 4.371227 51.9337409, 4.3711517 51.9336918, 4.3710961 51.9336648, 4.3708727 51.9335768), (4.3704764 51.933543, 4.3708727 51.9335768), (4.3681094 51.9333319, 4.3683039 51.9333551, 4.3684984 51.9333783, 4.36944 51.9334547, 4.3704764 51.933543), (4.3682427 51.9288577, 4.3682699 51.9289061, 4.3683133 51.9289433, 4.3684044 51.9289945, 4.3685169 51.9290583, 4.3686422 51.9291207, 4.3687327 51.9291506, 4.3688299 51.9291599, 4.3689264 51.9291898, 4.3689776 51.9292373, 4.368942 51.9294547, 4.3689406 51.929506, 4.3689 51.9297, 4.3688666 51.9299108, 4.3685802 51.9311859, 4.3685208 51.9314866, 4.3684803 51.931723, 4.3683947 51.9321082, 4.3682533 51.9326925, 4.3682275 51.9327982, 4.3682171 51.9328523, 4.3681907 51.9329639, 4.3681321 51.9332028, 4.3681094 51.9333319), (4.3682427 51.9288577, 4.3682067 51.9287973, 4.3682199 51.9286932, 4.3682346 51.9286031, 4.3682583 51.9285076), (4.3682583 51.9285076, 4.3682064 51.9284832, 4.368174 51.9284483), (4.368174 51.9284483, 4.3681685 51.9283977, 4.3682035 51.9283517, 4.3682558 51.928326, 4.3683204 51.9283153, 4.3683866 51.9283213, 4.3684434 51.9283431, 4.3684814 51.928377), (4.3684814 51.928377, 4.368654 51.9283962, 4.368954 51.9284204, 4.3695485 51.9284572, 4.3702917 51.9285227, 4.3706926 51.928565, 4.3716007 51.9286376, 4.371892 51.9286596, 4.3722454 51.9286889, 4.3725469 51.9287146, 4.3728785 51.9287395), (4.3728785 51.9287395, 4.3733441 51.9287819, 4.3738636 51.9288293, 4.3742311 51.9288618), (4.3742311 51.9288618, 4.3744241 51.9288367, 4.3749337 51.928846, 4.3752854 51.9288716, 4.3753953 51.9288794, 4.375505 51.9288667, 4.3756144 51.9288461), (4.3756144 51.9288461, 4.3756255 51.9288047, 4.3758902 51.9277542), (4.3758902 51.9277542, 4.3758491 51.927252, 4.3758642 51.9270931, 4.3758728 51.9270169), (4.3758728 51.9270169, 4.3758846 51.9269258), (4.3758846 51.9269258, 4.3760827 51.926318, 4.3761085 51.9262211), (4.3761085 51.9262211, 4.3761972 51.9257136, 4.3762284 51.9255837, 4.3762587 51.9255003), (4.3762587 51.9255003, 4.3762804 51.9254488, 4.3763064 51.9253959, 4.37634 51.9253351, 4.3763735 51.9252796, 4.376425 51.9252095, 4.3764947 51.92514, 4.3766035 51.9250463, 4.3766625 51.9249955), (4.3766625 51.9249955, 4.3767831 51.9249198), (4.3767831 51.9249198, 4.3768776 51.9248688, 4.3770104 51.9247969, 4.3771772 51.9247247, 4.3773526 51.9246631, 4.377506 51.9246133, 4.3776615 51.9245727, 4.3778293 51.9245357, 4.3779972 51.9245054, 4.37813 51.9244859, 4.3782579 51.9244656, 4.378375 51.9244453, 4.3786514 51.9243817, 4.3789277 51.9243102), (4.3789277 51.9243102, 4.3800244 51.9240404), (4.3800244 51.9240404, 4.3808628 51.9238284), (4.3808628 51.9238284, 4.3814341 51.9236875, 4.3815276 51.9236645, 4.3816889 51.9236242), (4.3816889 51.9236242, 4.3818135 51.9235936, 4.381992 51.9235498, 4.3822093 51.9234836, 4.3823756 51.9234208, 4.3826576 51.9232539, 4.3830286 51.9229573), (4.3830286 51.9229573, 4.3835768 51.9224868), (4.3835768 51.9224868, 4.384384 51.9218497), (4.384384 51.9218497, 4.3848853 51.9214858, 4.3850131 51.9213705), (4.3850131 51.9213705, 4.3849691 51.9213095, 4.3849566 51.921257, 4.3849689 51.9212044, 4.3850074 51.9211538, 4.3850687 51.9211127, 4.3851472 51.9210848, 4.3852366 51.9210726, 4.3853277 51.9210777), (4.3853277 51.9210777, 4.3856476 51.9208478, 4.3856914 51.9208143, 4.3857765 51.9207335, 4.3858663 51.9206581, 4.3865964 51.9200447, 4.3866166 51.9200278, 4.3867136 51.9199434, 4.3868119 51.9198625, 4.386963 51.9197384, 4.3875297 51.9192728, 4.3875883 51.9192265, 4.3880364 51.9188728, 4.388176 51.9187897, 4.3882168 51.9187654, 4.3883123 51.918707), (4.3883123 51.918707, 4.3883048 51.9186731, 4.3883122 51.9186393, 4.3883339 51.9186079, 4.388364 51.9185838, 4.3884026 51.9185647, 4.3884473 51.9185519, 4.3885049 51.9185456, 4.388563 51.9185496, 4.388617 51.9185635, 4.3886626 51.9185861), (4.3886626 51.9185861, 4.3887605 51.9185484, 4.3888249 51.9185306, 4.3892347 51.9184156, 4.3901696 51.9181558, 4.3907704 51.9179694, 4.3910534 51.9178703, 4.3912725 51.917756, 4.3914263 51.9176593, 4.3919022 51.9173484, 4.3919443 51.9173218, 4.3920074 51.917287), (4.3920074 51.917287, 4.3919872 51.9172522, 4.3919887 51.9172154), (4.3919887 51.9172154, 4.3919188 51.9171763), (4.3919188 51.9171763, 4.3918752 51.9171537, 4.3916394 51.9170229, 4.3914328 51.9168973), (4.3887154 51.9156955, 4.3889217 51.9157827, 4.3890833 51.9158738, 4.389243 51.9159893, 4.3894207 51.9161219, 4.3895487 51.9161932, 4.38964 51.9162441, 4.3897723 51.9163121, 4.3899136 51.9163753, 4.3900569 51.9164413, 4.3902145 51.9164986, 4.3905791 51.9166105, 4.390813 51.916688, 4.391263 51.9168332, 4.3914328 51.9168973), (4.3906487 51.9112169, 4.3905745 51.9112982, 4.3904085 51.9114938, 4.3900895 51.9118906, 4.3900188 51.9119801, 4.3894716 51.9126381, 4.3894363 51.912682, 4.3894149 51.912708, 4.3890544 51.9131372, 4.3889823 51.9132196, 4.3888047 51.9134384, 4.3887145 51.9135772, 4.3886626 51.9137106, 4.3886032 51.9138969, 4.3885067 51.9142196, 4.3884815 51.9142938, 4.3884574 51.9145172, 4.3884765 51.9148121, 4.3885083 51.9149556, 4.3885355 51.9150462, 4.3886181 51.9152316, 4.3887474 51.9155236, 4.3887154 51.9156955), (4.3906487 51.9112169, 4.3906709 51.9111441), (4.3906709 51.9111441, 4.3908252 51.9111498, 4.3915113 51.911197, 4.392291 51.911277, 4.3929441 51.9113906, 4.3935685 51.9115096, 4.3943295 51.9116643, 4.3950574 51.911838, 4.3951543 51.9118611, 4.3954133 51.9119483, 4.3958178 51.9121033, 4.3964989 51.9125195, 4.3966217 51.9125977, 4.3972353 51.9129943, 4.3972904 51.9130262, 4.3973722 51.913063), (4.3973722 51.913063, 4.3974217 51.9130479, 4.3974763 51.9130427, 4.3975309 51.9130479, 4.3975805 51.913063), (4.3975805 51.913063, 4.3976773 51.913042, 4.3977223 51.9130146, 4.3977543 51.9129951, 4.3986546 51.9124633, 4.3987457 51.9124384, 4.3988699 51.9124128), (4.3988699 51.9124128, 4.3988622 51.9123829, 4.398866 51.9123526, 4.398881 51.9123238, 4.3989065 51.9122978, 4.3989409 51.9122763, 4.3989826 51.9122602, 4.3990291 51.9122505, 4.399078 51.9122477, 4.3991267 51.9122519), (4.3991267 51.9122519, 4.3991666 51.9122612, 4.3992028 51.9122752, 4.3992336 51.9122934, 4.3992578 51.9123151, 4.3992736 51.9123378, 4.3992822 51.9123619, 4.3992833 51.9123865, 4.3992768 51.9124109, 4.399263 51.912434), (4.399263 51.912434, 4.39935 51.9124929, 4.3993938 51.9125301), (4.3993938 51.9125301, 4.399411 51.9125407), (4.399411 51.9125407, 4.3995253 51.912611), (4.3995253 51.912611, 4.3995622 51.9126338), (4.3995622 51.9126338, 4.4001878 51.9130126, 4.4003025 51.9130679, 4.4003417 51.9130877, 4.4004551 51.9131411), (4.4004551 51.9131411, 4.4005278 51.913176), (4.4005278 51.913176, 4.4006698 51.9132443, 4.4010029 51.9134413, 4.4011293 51.9135206), (4.4011293 51.9135206, 4.4015827 51.9138122, 4.4016484 51.9139115), (4.4016484 51.9139115, 4.4016943 51.9140085), (4.4016943 51.9140085, 4.4018001 51.9142071, 4.4018107 51.9142276), (4.4018107 51.9142276, 4.4018888 51.914294, 4.4021132 51.9143678), (4.4021132 51.9143678, 4.4022894 51.9144163, 4.4023322 51.91443, 4.4023904 51.914445, 4.4026704 51.9145403), (4.4026704 51.9145403, 4.4026639 51.9146617), (4.4026639 51.9146617, 4.4026479 51.9147047, 4.4026358 51.9147357, 4.402608 51.9147978, 4.4026004 51.9148212), (4.4026004 51.9148212, 4.4024819 51.9148932, 4.4024187 51.9149613, 4.4023781 51.9150201), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023445 51.9188801, 4.4023243 51.9188543, 4.4023083 51.918818, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023881 51.9189542, 4.402364 51.9190272, 4.4023615 51.9190373, 4.4023469 51.9191291, 4.4023418 51.9191637, 4.4023121 51.9192971, 4.4022934 51.9194298), (4.4022934 51.9194298, 4.4022857 51.9195074), (4.4022857 51.9195074, 4.402264 51.9197357, 4.4022543 51.9199786, 4.4022507 51.920291, 4.4023273 51.9206063, 4.4024516 51.9208966), (4.4024516 51.9208966, 4.4026187 51.9212013, 4.4026684 51.921302, 4.4026907 51.9213442, 4.402705 51.9213712, 4.4027375 51.9214414), (4.4027375 51.9214414, 4.4027841 51.9215306, 4.4027953 51.9215577, 4.4029344 51.9218933), (4.4029344 51.9218933, 4.4032079 51.922545, 4.4032192 51.9225763, 4.4032343 51.9226131, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>385109</t>
+          <t>384416</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2578,17 +2578,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Rotterdam, SS Rotterdam</t>
+          <t>Schiedam, Harreweg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bus 77: Rotterdam Zuidplein =&gt; Rotterdam Katendrecht</t>
+          <t>Bus 51: Schiedam Centrum =&gt; Schiedam Woudhoek</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2599,14 +2599,14 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4890851 51.8875527, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914114 51.8848169, 4.4915476 51.8848622, 4.4917179 51.8849251, 4.4918239 51.8849677, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919694 51.8850469, 4.4919908 51.8850637, 4.4920249 51.8850973, 4.4920684 51.8851479, 4.4921085 51.8851992, 4.4921349 51.8852442, 4.4921623 51.8852898, 4.4921817 51.8853378), (4.4921817 51.8853378, 4.492182 51.8853799, 4.4921836 51.8854204, 4.4921976 51.8854864, 4.4922585 51.8858192), (4.4922585 51.8858192, 4.492345 51.8863409), (4.492345 51.8863409, 4.4924248 51.8865158), (4.4924248 51.8865158, 4.4924453 51.8865872, 4.4924679 51.8866906, 4.4924773 51.8867328, 4.4925035 51.8868456), (4.4925035 51.8868456, 4.492525 51.8869391), (4.492525 51.8869391, 4.492546 51.8870408, 4.4925541 51.8870788, 4.492603 51.8873091), (4.492603 51.8873091, 4.4926749 51.8874203, 4.4926838 51.887444, 4.4927095 51.8875448, 4.492853 51.8881947, 4.4928616 51.8882335, 4.4928748 51.8882935, 4.4928937 51.8883717, 4.4929264 51.8884548, 4.4929584 51.8885152, 4.4930067 51.8885755), (4.4930067 51.8885755, 4.4930826 51.8886188, 4.493786 51.8890369), (4.493786 51.8890369, 4.493859 51.8890675, 4.4939897 51.8891399, 4.4940574 51.8891698, 4.4942335 51.8892474, 4.4943806 51.8892855, 4.494549 51.8893272), (4.494549 51.8893272, 4.4946726 51.8893486, 4.4947663 51.8893588, 4.4948977 51.8893652, 4.4953682 51.8893762, 4.4954829 51.8893789), (4.4954829 51.8893789, 4.4957775 51.889388, 4.496096 51.8893979, 4.4962387 51.8894001), (4.4962387 51.8894001, 4.4963871 51.8894084), (4.4963871 51.8894084, 4.4965572 51.8894144, 4.4997331 51.8895097, 4.4999497 51.8895133, 4.5002265 51.8895192, 4.5032357 51.8896176, 4.5051156 51.8896688, 4.5060171 51.8896952), (4.5060171 51.8896952, 4.5061852 51.8896699), (4.5061852 51.8896699, 4.5063548 51.8896608, 4.5067963 51.8896382, 4.5074449 51.889648, 4.5075446 51.8896461, 4.5076471 51.8896448), (4.5076471 51.8896448, 4.5077569 51.8896484, 4.507795 51.8896494, 4.507883 51.8896551, 4.5079735 51.8896649, 4.5086336 51.8897432, 4.5100802 51.8898952), (4.5100802 51.8898952, 4.5101402 51.8899182, 4.5101695 51.8899318, 4.5102218 51.8899617), (4.5102218 51.8899617, 4.5108178 51.8900326, 4.5108767 51.8900359, 4.5109371 51.8900353, 4.5110223 51.8900384, 4.5111331 51.8900458, 4.5112558 51.8900623, 4.5113368 51.8900788, 4.5114118 51.8900919, 4.5115422 51.8901109, 4.512854 51.8902547), (4.512854 51.8902547, 4.5131323 51.8902765, 4.5132603 51.8902892), (4.5132603 51.8902892, 4.5137157 51.8903279), (4.5137157 51.8903279, 4.5139499 51.8903554, 4.5140249 51.8903636, 4.5141164 51.8903736), (4.5141164 51.8903736, 4.5141849 51.890391, 4.5142706 51.8904183, 4.5142948 51.8904261, 4.5143208 51.8904344, 4.5143324 51.8904393, 4.5143407 51.8904429, 4.5143906 51.8904638, 4.5145472 51.8905412), (4.5145472 51.8905412, 4.5144899 51.8905962), (4.5144899 51.8905962, 4.5140417 51.89092, 4.5136721 51.8911923, 4.513536 51.8912917, 4.5107285 51.8933548, 4.5102388 51.8937425, 4.5099566 51.8939303, 4.5098941 51.8939563), (4.5098941 51.8939563, 4.5098209 51.8939704, 4.5097575 51.8939735, 4.5096991 51.8939765, 4.5095939 51.8939817), (4.5095939 51.8939817, 4.5095186 51.8940001, 4.5093673 51.8940372, 4.5092774 51.8940698, 4.5086079 51.8943772, 4.5081934 51.8945737, 4.5072071 51.8950798), (4.5072071 51.8950798, 4.5066357 51.895407, 4.5065265 51.8954518), (4.5065265 51.8954518, 4.5066077 51.8954924, 4.507125 51.8958489, 4.5072364 51.8959257, 4.5078043 51.8962341, 4.5082281 51.8964685, 4.5093164 51.8970659, 4.5094396 51.8971342, 4.5098968 51.8973908), (4.5098968 51.8973908, 4.5100026 51.8974393, 4.5100927 51.8974595, 4.510137 51.8974643, 4.5102215 51.8975387, 4.5102253 51.8976121), (4.5102253 51.8976121, 4.5101952 51.8976791, 4.509199 51.8987249), (4.509199 51.8987249, 4.5091542 51.8987965, 4.5091105 51.8988576), (4.5091105 51.8988576, 4.5090554 51.8989459, 4.5090446 51.8989716, 4.5090032 51.8990408), (4.5090032 51.8990408, 4.5088536 51.8989704, 4.5087747 51.8989386), (4.5087747 51.8989386, 4.5086552 51.8988807, 4.5085686 51.8988464, 4.5084455 51.8988021, 4.5083441 51.8987823, 4.5073887 51.8985956, 4.5071528 51.8985518, 4.5068761 51.8985157, 4.5065636 51.8984844, 4.5064307 51.8984714, 4.5059985 51.8984256, 4.5055858 51.8984028, 4.505513 51.8984, 4.5053236 51.8983958, 4.504455 51.898366, 4.502523 51.8983246, 4.5024425 51.8983219, 4.5023651 51.8983214, 4.5022052 51.8983156), (4.5022052 51.8983156, 4.5021625 51.8983303, 4.5021084 51.8983417, 4.5019544 51.8983499, 4.50145 51.8983264), (4.50145 51.8983264, 4.5013313 51.8984092), (4.5013313 51.8984092, 4.5012877 51.89845, 4.5011227 51.8985813, 4.500705 51.8988875, 4.5003011 51.8991594, 4.4995097 51.8997115, 4.4989354 51.9001031, 4.4988643 51.9001618), (4.4988643 51.9001618, 4.4987695 51.9002348, 4.4981752 51.9006548, 4.4976135 51.9010502, 4.4974856 51.9011497, 4.497355 51.9012445, 4.4973166 51.9012724), (4.4973166 51.9012724, 4.4972814 51.9013372, 4.4972584 51.9013641, 4.4972302 51.9013883, 4.4971903 51.9014196, 4.4971479 51.9014513, 4.4970905 51.9014857, 4.4970407 51.9015151, 4.4969707 51.9015522, 4.4968994 51.9015787, 4.4968419 51.9015938, 4.4966904 51.9016195, 4.4965697 51.9016316), (4.4965697 51.9016316, 4.4965867 51.9017212, 4.4966012 51.901802), (4.4966012 51.901802, 4.4967649 51.9025733, 4.4967899 51.902673, 4.4968281 51.9027763), (4.4968281 51.9027763, 4.4968606 51.9028915, 4.4968855 51.9029938, 4.4968919 51.9030221, 4.4969466 51.9032367, 4.496954 51.9032799), (4.496954 51.9032799, 4.4968916 51.903365, 4.4968454 51.9034181, 4.4968344 51.9034534, 4.4968948 51.9036376, 4.4969616 51.9038413), (4.4969616 51.9038413, 4.4968295 51.903858), (4.4968295 51.903858, 4.4966925 51.9038732), (4.4966925 51.9038732, 4.4966525 51.903788, 4.4965087 51.9034812, 4.4964575 51.9033242), (4.4964575 51.9033242, 4.496445 51.9032852, 4.4963945 51.9030594, 4.496372 51.9029524, 4.4963601 51.9028998, 4.4963513 51.9028537, 4.4963365 51.9027767), (4.4963365 51.9027767, 4.4961563 51.9027407, 4.4959349 51.9026961), (4.4959349 51.9026961, 4.4956939 51.9026477, 4.4949107 51.9024818, 4.4914836 51.9017651, 4.4912509 51.9017243), (4.4912509 51.9017243, 4.4909065 51.9016567, 4.4908638 51.9016401, 4.4907941 51.9016, 4.4907513 51.9015577, 4.4905802 51.9012914, 4.4905309 51.9012182, 4.4905072 51.9011831, 4.4904657 51.9011398, 4.4904235 51.9011208, 4.4903692 51.9011046, 4.4899582 51.9010349, 4.4898334 51.9010181, 4.4884237 51.9007977, 4.4870944 51.9005738, 4.4868995 51.9005399, 4.4850519 51.9002191, 4.4845328 51.9001353, 4.4841001 51.9000669), (4.4841001 51.9000669, 4.4833062 51.8999374, 4.4830113 51.8998692), (4.4830113 51.8998692, 4.4829701 51.8998645, 4.4829327 51.8998529, 4.4829018 51.8998354, 4.48288 51.8998134), (4.48288 51.8998134, 4.4827535 51.8998188, 4.4826781 51.8998183), (4.4826781 51.8998183, 4.4825218 51.8998036), (4.4825218 51.8998036, 4.4824832 51.8998013, 4.4820488 51.8997343, 4.4818141 51.8996987, 4.4816784 51.8996917, 4.4815674 51.8996896, 4.4815081 51.8996893, 4.4814451 51.8996934, 4.4813088 51.8997041, 4.4811564 51.8997217, 4.4810461 51.8997338, 4.4808407 51.8997617, 4.4805519 51.8998065, 4.4801721 51.8998703, 4.4801221 51.8998806, 4.4798016 51.8999465, 4.4794582 51.900023), (4.4794582 51.900023, 4.4792927 51.9000625, 4.4786 51.900221), (4.4786 51.900221, 4.4779868 51.9003645, 4.4778445 51.9003976, 4.4773751 51.9005095), (4.4773751 51.9005095, 4.4767392 51.9006658, 4.4765876 51.9006978, 4.4764945 51.9007139, 4.4764598 51.9007073, 4.4764305 51.9006988, 4.4764085 51.9006918, 4.4763904 51.9006821, 4.4763701 51.9006535, 4.476367 51.900636, 4.4763694 51.9006184, 4.4763735 51.9006043, 4.4763816 51.9005918, 4.4763971 51.9005812, 4.4764229 51.9005704, 4.4764679 51.9005561, 4.4765086 51.9005461, 4.4766267 51.9005184, 4.4775726 51.9003092, 4.4784723 51.900094), (4.4780225 51.8993873, 4.4780328 51.8994033, 4.478143 51.8995752, 4.4784309 51.9000288, 4.4784723 51.900094), (4.4780225 51.8993873, 4.4779938 51.8993402), (4.4774089 51.898431, 4.4777284 51.8989232, 4.4777933 51.899026, 4.4778143 51.8990576, 4.4779938 51.8993402), (4.4773429 51.8983192, 4.4774089 51.898431), (4.4772448 51.8981642, 4.4773429 51.8983192), (4.4772448 51.8981642, 4.4769424 51.8981054, 4.4768632 51.8980891, 4.4767556 51.8980691, 4.4767291 51.8980658, 4.4767029 51.8980643, 4.4766793 51.8980637, 4.4766596 51.8980653, 4.4763128 51.8981455))</t>
+          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4030168 51.9226615, 4.4029977 51.9226303, 4.4029741 51.9225613), (4.4029741 51.9225613, 4.4028913 51.922478, 4.4028582 51.9224268, 4.4028355 51.9223499), (4.4028355 51.9223499, 4.4028239 51.9222624, 4.4028002 51.9221863, 4.4026273 51.9218013, 4.402572 51.9216791, 4.4025263 51.9215776, 4.4024883 51.921489, 4.4024544 51.9214158, 4.4022804 51.9210387, 4.4021092 51.9206542, 4.4020599 51.9204292, 4.4020411 51.9202942, 4.4020297 51.9201511, 4.4020449 51.919886, 4.4020862 51.9194999), (4.4020862 51.9194999, 4.4020939 51.9194222), (4.4020939 51.9194222, 4.4021194 51.9192185, 4.4021437 51.9191328, 4.4021906 51.9190311, 4.402222 51.9189515, 4.4022496 51.9188787, 4.4022798 51.9188233), (4.4022798 51.9188233, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023816 51.9149644, 4.4023853 51.9149053, 4.4024035 51.9148696, 4.4024755 51.9147714, 4.4025195 51.9147, 4.4025452 51.9146696, 4.4025731 51.914635), (4.4025731 51.914635, 4.4025057 51.9146144), (4.4025057 51.9146144, 4.4023111 51.9145415, 4.4022566 51.9145243, 4.4020376 51.914461, 4.4019371 51.9144294, 4.4018269 51.914386), (4.4018269 51.914386, 4.4017625 51.9143529, 4.4017015 51.914225, 4.4016245 51.9140211), (4.4016245 51.9140211, 4.4015786 51.9139241), (4.4015786 51.9139241, 4.401525 51.9138567, 4.4014889 51.9138268, 4.4013186 51.9137264), (4.4013186 51.9137264, 4.4009579 51.9135638, 4.4006661 51.9133843, 4.4005816 51.9133339, 4.4005518 51.9133162, 4.4004209 51.913244, 4.4003474 51.9132055), (4.4003474 51.9132055, 4.4002465 51.9131438, 4.4002083 51.9131212, 4.3994952 51.9126829), (4.3994952 51.9126829, 4.399452 51.9126563), (4.399452 51.9126563, 4.3993377 51.9125859), (4.3993377 51.9125859, 4.3993173 51.9125734), (4.3993173 51.9125734, 4.3992696 51.9125475, 4.3991711 51.9124928), (4.3991711 51.9124928, 4.399125 51.9125038, 4.399076 51.9125078, 4.3990269 51.9125047, 4.3989803 51.9124946, 4.3989388 51.9124781), (4.3989388 51.9124781, 4.3988164 51.9125122, 4.3987272 51.912544, 4.3979159 51.9130192, 4.3977903 51.9130712, 4.3977354 51.913094, 4.397653 51.9131291), (4.397653 51.9131291, 4.3976571 51.9131642, 4.3976434 51.9131984, 4.3976131 51.9132282, 4.3975694 51.9132508, 4.3975164 51.9132638, 4.3974595 51.9132661, 4.3974042 51.9132574, 4.3973627 51.913242, 4.3973292 51.9132203, 4.3973063 51.9131939), (4.3973063 51.9131939, 4.3972948 51.9131561, 4.3973047 51.9131182), (4.3973047 51.9131182, 4.3972312 51.9130688, 4.3965539 51.9126393, 4.3964302 51.9125619, 4.3962367 51.9124423, 4.3958981 51.912245, 4.3957165 51.9121615, 4.3950134 51.9119194, 4.3942792 51.9117321, 4.3935025 51.9115709, 4.3928415 51.9114426, 4.3922686 51.9113451, 4.3914946 51.9112645, 4.3909575 51.9112355, 4.3906487 51.9112169), (4.3906487 51.9112169, 4.3905745 51.9112982, 4.3904085 51.9114938, 4.3900895 51.9118906, 4.3900188 51.9119801, 4.3894716 51.9126381, 4.3894363 51.912682, 4.3894149 51.912708, 4.3890544 51.9131372, 4.3889823 51.9132196, 4.3888047 51.9134384, 4.3887145 51.9135772, 4.3886626 51.9137106, 4.3886032 51.9138969, 4.3885067 51.9142196, 4.3884815 51.9142938, 4.3884574 51.9145172, 4.3884765 51.9148121, 4.3885083 51.9149556, 4.3885355 51.9150462, 4.3886181 51.9152316, 4.3887474 51.9155236, 4.3887154 51.9156955), (4.3887154 51.9156955, 4.3889217 51.9157827, 4.3890833 51.9158738, 4.389243 51.9159893, 4.3894207 51.9161219, 4.3895487 51.9161932, 4.38964 51.9162441, 4.3897723 51.9163121, 4.3899136 51.9163753, 4.3900569 51.9164413, 4.3902145 51.9164986, 4.3905791 51.9166105, 4.390813 51.916688, 4.391263 51.9168332, 4.3914328 51.9168973), (4.3914328 51.9168973, 4.3916097 51.9169562, 4.3918413 51.9170526, 4.3919341 51.9170959, 4.3919847 51.9171186), (4.3919847 51.9171186, 4.3920545 51.9171544), (4.3920545 51.9171544, 4.3921258 51.9171373, 4.3922019 51.9171422, 4.3922659 51.9171682), (4.3922659 51.9171682, 4.3922982 51.9171998, 4.3923094 51.9172366, 4.3922903 51.9172783, 4.3922582 51.9173093, 4.3922112 51.9173283, 4.3921564 51.9173363, 4.3921006 51.9173322), (4.3921006 51.9173322, 4.3920231 51.9173693, 4.3919887 51.9173913, 4.3914783 51.9177146, 4.3913093 51.9178194, 4.3911124 51.9179208, 4.3908095 51.918042, 4.3902189 51.9182319, 4.3888929 51.9186199, 4.3888309 51.918638, 4.388718 51.9186714), (4.388718 51.9186714, 4.3887074 51.9187134, 4.3886749 51.918751, 4.3886241 51.9187798, 4.3885595 51.9187969, 4.3884894 51.9187997, 4.3884218 51.9187878), (4.3884218 51.9187878, 4.3883193 51.9188411, 4.3882968 51.9188547, 4.3881776 51.9189272, 4.3880399 51.919026, 4.3879948 51.9190571, 4.3877957 51.9192086, 4.387655 51.9193288, 4.3870322 51.9198461, 4.3869493 51.9199264, 4.3868686 51.9200049, 4.3867658 51.9200944, 4.3867502 51.9201075, 4.3860398 51.9207085), (4.3860398 51.9207085, 4.3859866 51.9207578, 4.3858918 51.9208415), (4.3858918 51.9208415, 4.3858423 51.9208794, 4.3858037 51.9209157, 4.385715 51.9209959), (4.385715 51.9209959, 4.3856188 51.9210726, 4.3855209 51.9211715), (4.3855209 51.9211715, 4.3855454 51.9212109, 4.3855547 51.9212528, 4.3855456 51.9213021, 4.3855155 51.9213481, 4.3854666 51.9213875, 4.3854018 51.9214177), (4.3854018 51.9214177, 4.3853124 51.9215043, 4.385178 51.921578, 4.3851318 51.921622, 4.3851292 51.9216374), (4.3851292 51.9216374, 4.3850543 51.921665, 4.3849953 51.9216909, 4.3848982 51.921741, 4.3847935 51.9218172, 4.3844308 51.9220784, 4.3839658 51.9224495, 4.3832975 51.9230085, 4.3829636 51.9232819, 4.3828787 51.92335, 4.3828023 51.9234006, 4.382674 51.9234785, 4.3825099 51.9235576, 4.3823731 51.9236193, 4.3821029 51.9237051, 4.3819425 51.9237473, 4.3818076 51.9237787, 4.381755 51.923791), (4.381755 51.923791, 4.3817486 51.9237732, 4.3817256 51.923709), (4.3817256 51.923709, 4.381578 51.9237466, 4.3800637 51.9241), (4.3800637 51.9241, 4.3789719 51.9243774), (4.3789719 51.9243774, 4.3783049 51.9245385), (4.3783049 51.9245385, 4.3779906 51.9246038, 4.3777183 51.9246627, 4.3774531 51.9247366, 4.3771629 51.9248527, 4.377084 51.9248935, 4.3769864 51.9249439, 4.3769069 51.924988), (4.3769069 51.924988, 4.3768086 51.925059), (4.3768086 51.925059, 4.3767187 51.9251426, 4.37662 51.9252548, 4.3765407 51.9253642, 4.3765032 51.9254294, 4.3764743 51.9254974), (4.3764743 51.9254974, 4.3764468 51.9255809, 4.3764205 51.9257188, 4.3763461 51.9261485), (4.3763461 51.9261485, 4.3762179 51.9269219, 4.3762035 51.9269908), (4.3762035 51.9269908, 4.3761481 51.9273294), (4.3761481 51.9273294, 4.376016 51.9280902), (4.376016 51.9280902, 4.3759026 51.9287646, 4.3758904 51.9288278, 4.3758516 51.92901), (4.3758516 51.92901, 4.3758296 51.9290922), (4.3758296 51.9290922, 4.3755632 51.9290783), (4.3755632 51.9290783, 4.375349 51.9290636, 4.3738456 51.928927, 4.3735711 51.9289028), (4.3735711 51.9289028, 4.37332 51.9288801, 4.3728553 51.9288381), (4.3728553 51.9288381, 4.3724867 51.9288078, 4.3722299 51.9287886, 4.3718735 51.9287529, 4.3715875 51.9287278, 4.3706702 51.9286496, 4.3702741 51.9286136, 4.3696746 51.9285643, 4.369589 51.9285591, 4.3689366 51.9285002, 4.3688717 51.9284947, 4.3687041 51.9284804, 4.3686357 51.9284733, 4.3684767 51.9284621), (4.3684767 51.9284621, 4.368436 51.9284939, 4.3683784 51.9285133), (4.3683784 51.9285133, 4.3683438 51.9286098, 4.3682907 51.9287985, 4.3682427 51.9288577), (4.3682427 51.9288577, 4.3682699 51.9289061, 4.3683133 51.9289433, 4.3684044 51.9289945, 4.3685169 51.9290583, 4.3686422 51.9291207, 4.3687327 51.9291506, 4.3688299 51.9291599, 4.3689264 51.9291898, 4.3689776 51.9292373, 4.368942 51.9294547, 4.3689406 51.929506, 4.3689 51.9297, 4.3688666 51.9299108, 4.3685802 51.9311859, 4.3685208 51.9314866, 4.3684803 51.931723, 4.3683947 51.9321082, 4.3682533 51.9326925, 4.3682275 51.9327982, 4.3682171 51.9328523, 4.3681907 51.9329639, 4.3681321 51.9332028, 4.3681094 51.9333319), (4.3681094 51.9333319, 4.3683039 51.9333551, 4.3684984 51.9333783, 4.36944 51.9334547, 4.3704764 51.933543), (4.3704764 51.933543, 4.3708727 51.9335768), (4.3708727 51.9335768, 4.3710409 51.9335955, 4.3711492 51.9336063), (4.3711492 51.9336063, 4.3712701 51.9336177), (4.3712701 51.9336177, 4.3716146 51.9338479, 4.3718195 51.9339885, 4.3719248 51.9340695), (4.3719248 51.9340695, 4.3721134 51.9340076, 4.3726227 51.9338831, 4.3727024 51.9338636, 4.3729406 51.9338204, 4.3730718 51.9338144), (4.3730718 51.9338144, 4.3734878 51.9338369, 4.3740546 51.9338823, 4.3741638 51.9338918, 4.3743659 51.9339015), (4.3743659 51.9339015, 4.3745661 51.9339392, 4.3748132 51.9339754, 4.3748547 51.9339911, 4.3749004 51.933995, 4.3749852 51.9340005, 4.3756126 51.9340243, 4.3767101 51.9340847, 4.3783747 51.9342229, 4.3785502 51.9342375, 4.3786918 51.9342538, 4.3789345 51.9342731, 4.3792023 51.9342859), (4.3792023 51.9342859, 4.3794792 51.9343104, 4.3797594 51.9343394, 4.379899 51.9343499), (4.379899 51.9343499, 4.3807113 51.9344312, 4.381542 51.9345154, 4.3824084 51.9346068, 4.3825596 51.9346379, 4.382662 51.9346809, 4.3827843 51.9347589, 4.3829003 51.934876, 4.3829715 51.9349999, 4.3836492 51.9360663, 4.383689 51.9361289, 4.3837605 51.9362412, 4.3843222 51.9371238, 4.3844366 51.9373057, 4.3846284 51.9376107, 4.3847114 51.9377315, 4.3850599 51.9382946, 4.3851364 51.9384183, 4.3855819 51.9390944, 4.3856037 51.9391275, 4.385689 51.9392304), (4.385689 51.9392304, 4.3857699 51.9392281, 4.3858452 51.9392465), (4.3858452 51.9392465, 4.3858931 51.9392745, 4.3859229 51.9393109), (4.3859229 51.9393109, 4.3859309 51.9393526, 4.3859149 51.9393934, 4.3858769 51.9394283, 4.3858217 51.9394529, 4.3857561 51.9394641, 4.3856883 51.9394606, 4.3856266 51.9394428), (4.3856266 51.9394428, 4.3854951 51.9394935, 4.3854043 51.9395572, 4.3853029 51.939641, 4.3848782 51.9400583, 4.3846265 51.9403064, 4.3844512 51.9404876, 4.3840152 51.940902), (4.3840152 51.940902, 4.3829366 51.941969, 4.3824224 51.9424763, 4.3818622 51.943038, 4.3815987 51.9432998, 4.3813675 51.9435218, 4.3810119 51.9438696, 4.3807693 51.9440039, 4.3804122 51.9441441, 4.3801021 51.9442209, 4.3800415 51.9442359, 4.3796491 51.9442785, 4.3780692 51.9443452, 4.377839 51.9443365, 4.3776485 51.9443464, 4.3775693 51.9443545, 4.3774646 51.9443737, 4.3771033 51.944393, 4.3757634 51.9444447, 4.3754427 51.9444556, 4.3744551 51.9444945), (4.3744551 51.9444945, 4.3744335 51.9444335), (4.3744335 51.9444335, 4.374435 51.9443759, 4.3744635 51.9443396, 4.3744864 51.9443178, 4.3745213 51.9443004, 4.3745729 51.9442905, 4.3749283 51.9442744))</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>385110</t>
+          <t>384660</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2616,17 +2616,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein</t>
+          <t>Schiedam, Station Schiedam Centrum</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bus 77: Rotterdam Katendrecht =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 53: Schiedam Woudhoek =&gt; Schiedam Centrum</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2637,14 +2637,14 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4763128 51.8981455, 4.4761673 51.8981813, 4.4761477 51.8981897, 4.4761295 51.8982022, 4.4761066 51.8982218, 4.4760914 51.8982376, 4.4760818 51.8982572, 4.4760789 51.8982744, 4.476079 51.8982929, 4.4760835 51.898312, 4.4760896 51.8983263, 4.4761032 51.8983485, 4.4761136 51.8983602, 4.4761264 51.8983709, 4.4761447 51.8983831, 4.4761581 51.8983906, 4.4761756 51.898397, 4.476193 51.8984006, 4.476218 51.898402, 4.4762434 51.8984011, 4.4762789 51.8983979, 4.4763276 51.8983887, 4.4767238 51.8982895, 4.4772448 51.8981642), (4.4772448 51.8981642, 4.4773429 51.8983192), (4.4773429 51.8983192, 4.4774089 51.898431), (4.4774089 51.898431, 4.4777284 51.8989232, 4.4777933 51.899026, 4.4778143 51.8990576, 4.4779938 51.8993402), (4.4780225 51.8993873, 4.4779938 51.8993402), (4.4780225 51.8993873, 4.4780328 51.8994033, 4.478143 51.8995752, 4.4784309 51.9000288, 4.4784723 51.900094), (4.4784723 51.900094, 4.4790818 51.8999585, 4.4791343 51.8999561, 4.4792096 51.8999538, 4.4792943 51.8999667, 4.4794582 51.900023), (4.4825218 51.8998036, 4.4824832 51.8998013, 4.4820488 51.8997343, 4.4818141 51.8996987, 4.4816784 51.8996917, 4.4815674 51.8996896, 4.4815081 51.8996893, 4.4814451 51.8996934, 4.4813088 51.8997041, 4.4811564 51.8997217, 4.4810461 51.8997338, 4.4808407 51.8997617, 4.4805519 51.8998065, 4.4801721 51.8998703, 4.4801221 51.8998806, 4.4798016 51.8999465, 4.4794582 51.900023), (4.4825218 51.8998036, 4.4826665 51.8997726), (4.4826665 51.8997726, 4.4827328 51.8997573, 4.4828111 51.8997416, 4.4828494 51.8997392, 4.4828784 51.8997418), (4.4828784 51.8997418, 4.4829028 51.8997167, 4.4829386 51.8996975, 4.4829823 51.8996862, 4.4830295 51.8996838, 4.4830756 51.8996906, 4.4831123 51.899704, 4.4831415 51.8997232, 4.4831607 51.8997467, 4.4831685 51.8997726, 4.4831642 51.8997988), (4.4831642 51.8997988, 4.483221 51.899838, 4.483249 51.8998502, 4.4832896 51.8998577, 4.4841235 51.8999847), (4.4841235 51.8999847, 4.4845674 51.9000657, 4.4846519 51.9000792, 4.4846961 51.9000836, 4.4847287 51.9000831, 4.4847724 51.9000797, 4.4849388 51.9000582), (4.4849388 51.9000582, 4.4849718 51.9000541, 4.4850163 51.900049, 4.4850619 51.9000463, 4.4851112 51.9000495, 4.4851497 51.9000552, 4.4871773 51.9004192, 4.4874185 51.9004652, 4.4884678 51.9006652, 4.4898787 51.900931, 4.4900518 51.9009621, 4.4904737 51.9010472, 4.4905139 51.9010621, 4.490559 51.901089, 4.4905966 51.9011132, 4.4906285 51.9011398, 4.4906686 51.9011878, 4.4907132 51.9012604), (4.4907132 51.9012604, 4.4908245 51.9012372, 4.4909401 51.9012097, 4.4909822 51.9011835, 4.4910262 51.9011501, 4.4910375 51.901131, 4.4910799 51.9010453, 4.4911041 51.9009976, 4.4912418 51.9007764, 4.491345 51.9006067), (4.491345 51.9006067, 4.4922529 51.9007998, 4.4943148 51.901234), (4.4943148 51.901234, 4.4949432 51.9013668, 4.495614 51.9014944), (4.495614 51.9014944, 4.495945 51.9015085, 4.4960732 51.9015186, 4.4962094 51.9015284), (4.4962094 51.9015284, 4.496311 51.9015299), (4.496311 51.9015299, 4.496348 51.9015304, 4.4964957 51.9015225, 4.4965387 51.9015193), (4.4965387 51.9015193, 4.4965697 51.9016316), (4.4965697 51.9016316, 4.4965867 51.9017212, 4.4966012 51.901802), (4.4966012 51.901802, 4.4967649 51.9025733, 4.4967899 51.902673, 4.4968281 51.9027763), (4.4968281 51.9027763, 4.4968606 51.9028915, 4.4968855 51.9029938, 4.4968919 51.9030221, 4.4969466 51.9032367, 4.496954 51.9032799), (4.496954 51.9032799, 4.4970663 51.9037121, 4.4970977 51.9038261), (4.4969616 51.9038413, 4.4970977 51.9038261), (4.4969616 51.9038413, 4.4968295 51.903858), (4.4968295 51.903858, 4.4967613 51.903643, 4.4967108 51.9034842, 4.4967025 51.9034579, 4.496656 51.9034198, 4.4965746 51.9033806, 4.4964575 51.9033242), (4.4964575 51.9033242, 4.496445 51.9032852, 4.4963945 51.9030594, 4.496372 51.9029524, 4.4963601 51.9028998, 4.4963513 51.9028537, 4.4963365 51.9027767), (4.4963365 51.9027767, 4.496313 51.9026592, 4.4962905 51.9025669, 4.4962441 51.9023533), (4.4962441 51.9023533, 4.4962019 51.9020941, 4.4961715 51.9019436, 4.4961622 51.9018102, 4.4961683 51.9017107, 4.4961882 51.9016293), (4.4961882 51.9016293, 4.4962094 51.9015284), (4.4962094 51.9015284, 4.496311 51.9015299), (4.496311 51.9015299, 4.496348 51.9015304, 4.4964957 51.9015225, 4.4965387 51.9015193), (4.4965387 51.9015193, 4.4966687 51.9015286, 4.4967477 51.9015227, 4.4968303 51.9015114, 4.4969063 51.9014922, 4.4969526 51.9014749, 4.4970059 51.9014591, 4.4970582 51.901439, 4.4971084 51.9014172, 4.4971729 51.9013855, 4.4973166 51.9012724), (4.4988643 51.9001618, 4.4987695 51.9002348, 4.4981752 51.9006548, 4.4976135 51.9010502, 4.4974856 51.9011497, 4.497355 51.9012445, 4.4973166 51.9012724), (4.5013313 51.8984092, 4.5012877 51.89845, 4.5011227 51.8985813, 4.500705 51.8988875, 4.5003011 51.8991594, 4.4995097 51.8997115, 4.4989354 51.9001031, 4.4988643 51.9001618), (4.50145 51.8983264, 4.5013313 51.8984092), (4.50145 51.8983264, 4.5013454 51.8983239, 4.5012867 51.8983126, 4.5012143 51.8982989), (4.5012143 51.8982989, 4.5011843 51.8982625, 4.5011759 51.8982453, 4.5011753 51.8982277, 4.5011783 51.8982145, 4.5011842 51.8982003, 4.5011875 51.8981934, 4.5011919 51.8981836, 4.5012023 51.8981676, 4.5012192 51.8981493), (4.5012192 51.8981493, 4.5012621 51.8981221, 4.5012863 51.8981123, 4.5013171 51.8981052, 4.5013782 51.8981006, 4.5015164 51.8981071, 4.5015861 51.8981101, 4.5016959 51.8981133, 4.5017588 51.8981177, 4.502043 51.8981242, 4.5021335 51.8981355, 4.5021843 51.8981518, 4.5022236 51.8981774), (4.5022236 51.8981774, 4.5023753 51.8981815, 4.5024484 51.8981835, 4.5027917 51.8982081, 4.5030477 51.8982147, 4.5033387 51.8982174, 4.5044531 51.8982412, 4.5053269 51.898272, 4.505521 51.8982786, 4.5056122 51.8982833, 4.5064617 51.8983432, 4.5072183 51.8984308, 4.5074424 51.8984645, 4.5084008 51.8986633, 4.508777 51.8987347, 4.5089844 51.8988032, 4.5091105 51.8988576), (4.509199 51.8987249, 4.5091542 51.8987965, 4.5091105 51.8988576), (4.5102253 51.8976121, 4.5101952 51.8976791, 4.509199 51.8987249), (4.5102253 51.8976121, 4.5100074 51.897576, 4.5098838 51.8975416, 4.5098127 51.897515, 4.5093618 51.8972714), (4.5093618 51.8972714, 4.5092201 51.8971892, 4.508207 51.8966292, 4.507667 51.8963386, 4.5070984 51.8960214, 4.5069785 51.89595, 4.5068938 51.8959032, 4.5063071 51.8956757, 4.5062078 51.8956361), (4.5062078 51.8956361, 4.5057703 51.8954542, 4.5057361 51.8954407, 4.5056448 51.8954008), (4.5056448 51.8954008, 4.5060726 51.8951505, 4.5061585 51.8951035, 4.5073194 51.8944853), (4.5073194 51.8944853, 4.5076933 51.8942963, 4.5081558 51.8940826, 4.5086103 51.8938826, 4.5092686 51.8935956, 4.5093886 51.8935429), (4.5093886 51.8935429, 4.5095758 51.8934747, 4.5096594 51.8934431, 4.5099073 51.8933683, 4.5099983 51.8933416, 4.5100885 51.8933103, 4.5101484 51.8932815, 4.510181 51.8932629, 4.5102109 51.893246, 4.5105318 51.8930203), (4.5105318 51.8930203, 4.5106714 51.8929354, 4.5124606 51.8916316, 4.5132225 51.8910534), (4.5132225 51.8910534, 4.513551 51.8908041), (4.513551 51.8908041, 4.5136675 51.8907186, 4.5137688 51.890648, 4.5138276 51.8905989, 4.513867 51.89056, 4.5139445 51.8905068), (4.5139445 51.8905068, 4.5138225 51.8904926, 4.5137862 51.8904882, 4.5137444 51.8904833, 4.5132942 51.8904294, 4.5131227 51.8904082), (4.5131227 51.8904082, 4.5130042 51.8903906, 4.5127454 51.8903435, 4.5126253 51.8903309, 4.5114114 51.8901974, 4.5112485 51.8901845, 4.5111629 51.8901788, 4.5111003 51.8901741, 4.5109853 51.8901577, 4.5109201 51.8901448, 4.5108541 51.8901327, 4.5105409 51.8900957), (4.5105409 51.8900957, 4.5105009 51.8901092, 4.5104455 51.8901132, 4.509788 51.8900463), (4.509788 51.8900463, 4.508978 51.8899568, 4.5083999 51.8898939, 4.5081778 51.8898759, 4.5080435 51.8898667, 4.5079554 51.8898613), (4.5079554 51.8898613, 4.507781 51.8898484, 4.5076831 51.88984, 4.5072338 51.8898095, 4.5069968 51.8898034, 4.5067289 51.8898135, 4.5064107 51.8898264, 4.5063165 51.8898263, 4.5061245 51.8898268, 4.5057012 51.8898124), (4.5057012 51.8898124, 4.5056094 51.8897868, 4.5055221 51.8897631), (4.5055221 51.8897631, 4.503377 51.8896992, 4.5032823 51.8896976, 4.4998619 51.8895939, 4.4974464 51.8895284, 4.4973992 51.8895271, 4.4966621 51.8895068, 4.4965488 51.8895047, 4.4963795 51.8894994), (4.4963795 51.8894994, 4.4958449 51.8894892, 4.4956474 51.8894833), (4.4956474 51.8894833, 4.4954763 51.8894789, 4.4952064 51.8894719), (4.4952064 51.8894719, 4.49472 51.88946, 4.494487 51.8894496, 4.4943313 51.8894426, 4.4941455 51.889419), (4.4941455 51.889419, 4.4940607 51.8894029, 4.4939586 51.8893849, 4.4938487 51.8893557), (4.4938487 51.8893557, 4.4936576 51.8892463, 4.4927817 51.8887242), (4.4927817 51.8887242, 4.4927292 51.888674, 4.4926827 51.8886137, 4.4926484 51.8885583), (4.4926484 51.8885583, 4.49262 51.8885206, 4.4925672 51.8884373, 4.49252 51.8883536), (4.49252 51.8883536, 4.492513 51.8883233, 4.4924982 51.8882579, 4.4923457 51.8875871, 4.4923003 51.8874506, 4.4922774 51.8873747, 4.49224 51.8871639, 4.4922294 51.8871117, 4.4922215 51.8870777, 4.4921985 51.8869585), (4.4921985 51.8869585, 4.4921754 51.8868688, 4.4921614 51.8868275, 4.4921537 51.8867916, 4.4921316 51.8867044, 4.4921058 51.8865694), (4.4921058 51.8865694, 4.4920674 51.8863641), (4.4920674 51.8863641, 4.4920557 51.8863017, 4.4918885 51.885519, 4.4918351 51.8852996), (4.4918351 51.8852996, 4.4917261 51.8851744, 4.4916553 51.8851081, 4.4916043 51.8850733, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.3749283 51.9442744, 4.3752596 51.9442599, 4.3753789 51.9442566, 4.3754274 51.9442613, 4.3754856 51.9442826, 4.3755257 51.9442995, 4.3755446 51.9443075, 4.3756103 51.9443542, 4.3756289 51.9443811), (4.3756289 51.9443811, 4.3757505 51.9443781, 4.3762101 51.9443597, 4.3766958 51.9443417, 4.3770978 51.9443257, 4.3776004 51.9443, 4.3796425 51.9441957, 4.3800136 51.9441636, 4.3800692 51.9441505, 4.3803435 51.9440859, 4.3806949 51.9439602, 4.3809363 51.9438296, 4.3817739 51.9430168), (4.3817739 51.9430168, 4.3820298 51.9427648, 4.3823377 51.9424403, 4.3828451 51.9419372, 4.3839298 51.9408737, 4.3843581 51.9404514, 4.3847841 51.9400202, 4.38505 51.9397638, 4.3853507 51.9395049, 4.3854365 51.9394487, 4.3854754 51.9394227, 4.3855515 51.9393763), (4.3855515 51.9393763, 4.385545 51.9393415, 4.3855553 51.939307, 4.3855815 51.9392758), (4.3855815 51.9392758, 4.3856288 51.9392473, 4.385689 51.9392304), (4.385689 51.9392304, 4.3857699 51.9392281, 4.3858452 51.9392465), (4.3858452 51.9392465, 4.3859932 51.9391745, 4.386082 51.9391432, 4.3862091 51.9390984, 4.3865838 51.9389959, 4.3872524 51.9388192, 4.3885574 51.9385019), (4.3885574 51.9385019, 4.3888881 51.9384186), (4.3888881 51.9384186, 4.3891315 51.9383614, 4.389209 51.9383434, 4.3893412 51.9383126, 4.3895382 51.9382765, 4.389746 51.9382435, 4.3900191 51.9382184, 4.3907426 51.9381676, 4.3915958 51.9381076), (4.3915958 51.9381076, 4.3930189 51.9380035), (4.3930189 51.9380035, 4.3935657 51.9379635), (4.3935657 51.9379635, 4.3950973 51.9378515), (4.3950973 51.9378515, 4.3969093 51.9377141, 4.3970293 51.9376929, 4.3971237 51.9376663, 4.3971724 51.9376452, 4.3972361 51.9376026, 4.397258 51.937561, 4.3975846 51.9369255, 4.3977642 51.9366263, 4.3982564 51.9357182, 4.3985663 51.9351733, 4.3987171 51.9349022, 4.3987325 51.9348745, 4.398779 51.9348311, 4.3988475 51.9347946, 4.398939 51.9347843, 4.3990517 51.9348067, 4.3994985 51.9348975, 4.3997795 51.9349546, 4.3998459 51.9349602, 4.399904 51.9349566, 4.3999463 51.9349459, 4.3999903 51.9349223, 4.3999988 51.9349127, 4.4000275 51.9348804, 4.4000957 51.9347502, 4.4004339 51.934158, 4.4005557 51.9339306), (4.4005557 51.9339306, 4.4006418 51.9337198, 4.4009425 51.9331431), (4.4009425 51.9331431, 4.4010557 51.9329302), (4.4010557 51.9329302, 4.4013632 51.9324264, 4.4014594 51.9322548), (4.4014594 51.9322548, 4.4015611 51.9320571), (4.4015611 51.9320571, 4.4016354 51.93192, 4.4023514 51.9305564, 4.4024475 51.9303597), (4.4024475 51.9303597, 4.4025705 51.9301548), (4.4025705 51.9301548, 4.4026387 51.9299654, 4.4034438 51.9285479, 4.4035326 51.928318, 4.4035961 51.928165, 4.4036907 51.9279548), (4.4036907 51.9279548, 4.4037663 51.9278149), (4.4037663 51.9278149, 4.4039277 51.9275142, 4.4039633 51.927453, 4.4040248 51.9273439), (4.4040248 51.9273439, 4.4040678 51.9272501), (4.4040678 51.9272501, 4.4041813 51.9269919), (4.4041813 51.9269919, 4.4042254 51.9268717, 4.4042588 51.9267529, 4.4043054 51.9265365, 4.4043315 51.926326, 4.4043301 51.9262277, 4.4043203 51.9260575), (4.4043203 51.9260575, 4.4042872 51.9258274, 4.4042147 51.9254103), (4.4042147 51.9254103, 4.4041985 51.9253188, 4.404159 51.9251672), (4.404159 51.9251672, 4.4041238 51.9250406), (4.4041238 51.9250406, 4.4040522 51.9248704), (4.4040522 51.9248704, 4.4040209 51.9247908, 4.4038952 51.9245117), (4.4038952 51.9245117, 4.4038552 51.9243633, 4.4036044 51.923821), (4.4036044 51.923821, 4.4034974 51.923629, 4.4034549 51.9235441, 4.4033267 51.9232756, 4.4032909 51.923196, 4.403279 51.9231695, 4.4032473 51.9230989, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>385203</t>
+          <t>384659</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2654,17 +2654,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Poortugaal, De Kijvelanden</t>
+          <t>Schiedam, Harreweg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Bus 79: Poortugaal Metro =&gt; Poortugaal Psychiatrisch Centrum</t>
+          <t>Bus 53: Schiedam Centrum =&gt; Schiedam Woudhoek</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2675,14 +2675,14 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3956379 51.8613193, 4.3955209 51.8613437, 4.3954562 51.8612066, 4.3953928 51.8610723, 4.3953756 51.8610407, 4.3953284 51.8609212, 4.395346 51.8608337), (4.395346 51.8608337, 4.3953936 51.8607748, 4.3954919 51.8607315, 4.3956219 51.8607045), (4.3956219 51.8607045, 4.3954817 51.860598, 4.3954356 51.8604162), (4.3954356 51.8604162, 4.39539 51.8602466, 4.3953824 51.8602173, 4.3953429 51.860055), (4.3953429 51.860055, 4.3953233 51.8599314), (4.3953233 51.8599314, 4.3954877 51.8599198), (4.3954877 51.8599198, 4.3956536 51.8599081, 4.3964862 51.8598555, 4.3984586 51.8597003, 4.3990106 51.8596585, 4.399541 51.85961, 4.4001391 51.8595448, 4.4007967 51.8594529, 4.4070153 51.8583253), (4.4070153 51.8583253, 4.4081165 51.858144, 4.4085889 51.8580663), (4.4085889 51.8580663, 4.4085353 51.8579301, 4.4084649 51.8577928), (4.4084649 51.8577928, 4.4083963 51.8576545, 4.4081957 51.857236, 4.4081489 51.8571201, 4.4081362 51.8570702, 4.408129 51.8570003, 4.4081452 51.8568945, 4.4081944 51.8568376), (4.4082731 51.8565736, 4.4082458 51.8566844, 4.4081944 51.8568376), (4.4048988 51.853206, 4.4051832 51.8534986, 4.4072752 51.8554927, 4.4078478 51.8560455, 4.4082183 51.8563806, 4.4082749 51.8564766, 4.4082832 51.8565288, 4.4082731 51.8565736), (4.4047345 51.8530516, 4.4048988 51.853206), (4.4047345 51.8530516, 4.4046303 51.8529985, 4.4045827 51.8529538, 4.4045361 51.8529077, 4.4044597 51.8528393), (4.4044597 51.8528393, 4.4044165 51.8528409, 4.4043739 51.8528365, 4.404334 51.8528262, 4.4042989 51.8528106), (4.4042989 51.8528106, 4.4042643 51.8527846, 4.4042432 51.8527537), (4.4042432 51.8527537, 4.4042373 51.8527179, 4.4042492 51.8526828, 4.4042779 51.8526515), (4.4042779 51.8526515, 4.4042182 51.8525716, 4.4041674 51.8525097, 4.4040847 51.8523763), (4.4025819 51.8508629, 4.4026347 51.8509158, 4.404 51.8523, 4.4040847 51.8523763), (4.4020581 51.850343, 4.4021535 51.8504437, 4.4022868 51.850571, 4.4025819 51.8508629), (4.3998632 51.8480826, 4.3998606 51.8481267, 4.3998847 51.8481634, 4.3999894 51.8482783, 4.4000246 51.8483138, 4.4000989 51.8483888, 4.4001637 51.8484543, 4.4012737 51.8495576, 4.4020581 51.850343), (4.4032548 51.8474159, 4.4026388 51.847532, 4.4020855 51.8476444, 4.4015509 51.8477529, 4.4007312 51.8479037, 4.4002323 51.8479732, 4.4000318 51.8480017, 4.3999479 51.8480239, 4.3998941 51.8480524, 4.3998632 51.8480826), (4.4032548 51.8474159, 4.4032739 51.8473636, 4.4032358 51.8471539, 4.4031326 51.8462946, 4.4030763 51.846056, 4.4029541 51.8459067, 4.4028716 51.8458235, 4.4027469 51.8457464, 4.4025511 51.845681, 4.4022288 51.8456209, 4.4020205 51.8456118, 4.4017048 51.8456567, 4.4016256 51.845682, 4.4014088 51.8457512, 4.4012874 51.845819, 4.4011144 51.8459061, 4.4006274 51.846151, 4.4005911 51.8461693, 4.4001643 51.8463698, 4.4001 51.8464, 4.3999168 51.8464521, 4.3996349 51.8464668, 4.399 51.8465, 4.3978956 51.8465423, 4.3974453 51.8467662, 4.3971901 51.8468903, 4.3969717 51.8469965), (4.3959375 51.8461436, 4.396017 51.8462443, 4.3962231 51.8464117, 4.3963933 51.8465499, 4.3968821 51.8469289, 4.3969717 51.8469965), (4.3951207 51.8455116, 4.3959375 51.8461436), (4.3951207 51.8455116, 4.3944619 51.8458324, 4.3938221 51.8461439, 4.3937152 51.846196, 4.3931456 51.8464733, 4.3923762 51.846848, 4.3919863 51.8470378), (4.3907783 51.8464625, 4.3915622 51.8468324, 4.3919863 51.8470378), (4.3914025 51.8461367, 4.3908857 51.8463813, 4.3907783 51.8464625), (4.3921212 51.8457876, 4.3919287 51.8458777, 4.3914025 51.8461367), (4.3910755 51.8455023, 4.3912649 51.8454703, 4.3916 51.8455, 4.3919263 51.8455968, 4.3921212 51.8457876), (4.3910755 51.8455023, 4.3907605 51.8455644, 4.3903273 51.845674, 4.3897769 51.8458558), (4.3886401 51.8462278, 4.3897769 51.8458558))</t>
+          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4034095 51.9230619, 4.4034329 51.9231299, 4.4034421 51.9231568, 4.4035621 51.923414, 4.40361 51.9235167, 4.4037392 51.9237863, 4.4038196 51.9239707, 4.4039754 51.924297), (4.4039754 51.924297, 4.4041173 51.9245035, 4.4042765 51.9247126), (4.4042765 51.9247126, 4.4043553 51.9248533, 4.4044098 51.9249754), (4.4044098 51.9249754, 4.4044545 51.9250865), (4.4044545 51.9250865, 4.4044892 51.9252018, 4.4045342 51.9253958, 4.4046141 51.925908, 4.4046411 51.9261386, 4.4046438 51.9263216), (4.4046438 51.9263216, 4.404607 51.9265348, 4.404559 51.9267542, 4.404485 51.9269993, 4.4043979 51.927224, 4.4043617 51.9273138), (4.4043617 51.9273138, 4.404318 51.9274009), (4.404318 51.9274009, 4.4042699 51.9275127, 4.4037827 51.928231), (4.4037827 51.928231, 4.4035902 51.928571, 4.4031893 51.9292777), (4.4031893 51.9292777, 4.4031063 51.9294546), (4.4031063 51.9294546, 4.4027542 51.9301142, 4.4026054 51.9303885), (4.4026054 51.9303885, 4.4025111 51.9305587), (4.4025111 51.9305587, 4.4016932 51.9320345, 4.4015651 51.9322866), (4.4015651 51.9322866, 4.4014716 51.9324944), (4.4014716 51.9324944, 4.4014122 51.9326051, 4.4009444 51.9334059), (4.4009444 51.9334059, 4.4007257 51.9338057, 4.4006449 51.9339557), (4.4006449 51.9339557, 4.4005079 51.9342101, 4.4001379 51.9349043, 4.4001177 51.9349346, 4.4001098 51.9349464, 4.4000833 51.9349766, 4.4000526 51.9350016, 4.4000036 51.9350195, 4.3999522 51.9350303, 4.3998849 51.9350339, 4.399821 51.9350282, 4.3997513 51.9350165, 4.3994653 51.9349586, 4.3990577 51.9348721, 4.3989826 51.9348635, 4.3989204 51.9348707, 4.3988723 51.9348873, 4.3988359 51.9349119, 4.3988233 51.934926, 4.3987995 51.9349525, 4.3987596 51.935014, 4.3987003 51.9351567, 4.3986802 51.9352056, 4.3984073 51.9357493, 4.3980101 51.9364761, 4.3979161 51.9366592, 4.3976544 51.9371372, 4.3973921 51.9376201, 4.3973326 51.9376715, 4.397245 51.9377142, 4.3971955 51.9377314, 4.397107 51.9377541, 4.3969937 51.9377693, 4.3951113 51.9378979), (4.3951113 51.9378979, 4.3937189 51.9380016), (4.3937189 51.9380016, 4.3929275 51.9380605), (4.3929275 51.9380605, 4.3916055 51.9381589), (4.3916055 51.9381589, 4.390185 51.9382721, 4.3899027 51.9382951, 4.3896868 51.9383219, 4.3894884 51.9383539, 4.3893072 51.9383925, 4.3889252 51.9384821), (4.3889252 51.9384821, 4.388608 51.9385574), (4.388608 51.9385574, 4.3872935 51.9388761, 4.3866199 51.9390489, 4.3862636 51.9391509, 4.3861362 51.9391963, 4.3860612 51.939223, 4.3859229 51.9393109), (4.3859229 51.9393109, 4.3859309 51.9393526, 4.3859149 51.9393934, 4.3858769 51.9394283, 4.3858217 51.9394529, 4.3857561 51.9394641, 4.3856883 51.9394606, 4.3856266 51.9394428), (4.3856266 51.9394428, 4.3854951 51.9394935, 4.3854043 51.9395572, 4.3853029 51.939641, 4.3848782 51.9400583, 4.3846265 51.9403064, 4.3844512 51.9404876, 4.3840152 51.940902), (4.3840152 51.940902, 4.3829366 51.941969, 4.3824224 51.9424763, 4.3818622 51.943038, 4.3815987 51.9432998, 4.3813675 51.9435218, 4.3810119 51.9438696, 4.3807693 51.9440039, 4.3804122 51.9441441, 4.3801021 51.9442209, 4.3800415 51.9442359, 4.3796491 51.9442785, 4.3780692 51.9443452, 4.377839 51.9443365, 4.3776485 51.9443464, 4.3775693 51.9443545, 4.3774646 51.9443737, 4.3771033 51.944393, 4.3757634 51.9444447, 4.3754427 51.9444556, 4.3744551 51.9444945), (4.3744551 51.9444945, 4.3744335 51.9444335), (4.3744335 51.9444335, 4.374435 51.9443759, 4.3744635 51.9443396, 4.3744864 51.9443178, 4.3745213 51.9443004, 4.3745729 51.9442905, 4.3749283 51.9442744))</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1689867</t>
+          <t>384661</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bus 126: Maassluis West =&gt; Schiedam Centrum</t>
+          <t>Bus 54: Schiedam Centrum =&gt; Schiedam De Gorzen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2713,14 +2713,14 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.2362522 51.9260742, 4.2362083 51.9260474, 4.23615 51.9260117, 4.2360756 51.9260368), (4.2360756 51.9260368, 4.2360399 51.9260545), (4.2360399 51.9260545, 4.2359978 51.926072), (4.2359978 51.926072, 4.235645 51.9262759, 4.2353966 51.92643, 4.2355613 51.9265323, 4.2356466 51.9265883, 4.235716 51.9266335), (4.235716 51.9266335, 4.2359671 51.9267941), (4.2359671 51.9267941, 4.2358355 51.9269303, 4.2356971 51.9270198, 4.2355502 51.9271231, 4.2354572 51.9271969), (4.2354572 51.9271969, 4.2356168 51.9272568, 4.2357087 51.9273488), (4.2357087 51.9273488, 4.2361711 51.9276359, 4.2370914 51.9282072), (4.2370914 51.9282072, 4.2371924 51.9282384, 4.2373455 51.928338, 4.2376331 51.9285112, 4.237928 51.9286888, 4.2379821 51.9287754), (4.2379821 51.9287754, 4.2383707 51.9290109), (4.2383707 51.9290109, 4.2384889 51.9290424, 4.2385689 51.9291152), (4.2385689 51.9291152, 4.2392728 51.9295598), (4.2392728 51.9295598, 4.2394432 51.9296374, 4.2395664 51.9297336), (4.2395664 51.9297336, 4.2399109 51.9299392, 4.239944 51.9299588), (4.239944 51.9299588, 4.2401348 51.9300771, 4.2402466 51.9301432), (4.2402466 51.9301432, 4.240505 51.9302282, 4.2406741 51.9302953, 4.2408082 51.9303537, 4.2409146 51.9304022), (4.2409146 51.9304022, 4.2409778 51.9303601, 4.2409881 51.9303539, 4.241075 51.9303009, 4.2414179 51.930091, 4.2424482 51.9294345, 4.2425002 51.9294013, 4.243819 51.928561), (4.243819 51.928561, 4.2442509 51.9282898, 4.2443126 51.9282511, 4.2444958 51.9281278), (4.2444958 51.9281278, 4.2446558 51.9280304, 4.2452812 51.927629), (4.2452812 51.927629, 4.2455748 51.9274406, 4.2457566 51.9273315, 4.2458912 51.9272306), (4.2458912 51.9272306, 4.2460026 51.927151, 4.2460332 51.9271192, 4.2461267 51.9270094), (4.2461267 51.9270094, 4.246096 51.9269806, 4.2460781 51.926948, 4.246074 51.9269136, 4.2460839 51.9268797, 4.2461073 51.9268484, 4.2461427 51.9268217, 4.2461946 51.9267991, 4.2462548 51.9267865), (4.2462548 51.9267865, 4.2463142 51.9267847, 4.2463722 51.9267928, 4.2464246 51.92681, 4.2464677 51.9268353), (4.2464677 51.9268353, 4.2466506 51.9268001, 4.2467107 51.9267845, 4.2467866 51.9267636, 4.2469196 51.9267633), (4.2472869 51.9265984, 4.2471321 51.9266764, 4.2469196 51.9267633), (4.248122 51.9261996, 4.2476658 51.9264131, 4.2474554 51.9265163, 4.2473324 51.926575, 4.2472869 51.9265984), (4.248122 51.9261996, 4.248233 51.9261113, 4.2484756 51.9259861, 4.2486988 51.9258866, 4.2488463 51.9258642), (4.2497718 51.9254407, 4.2488463 51.9258642), (4.2497718 51.9254407, 4.2498385 51.9253834, 4.2499421 51.9253506, 4.2500796 51.9252915), (4.2500796 51.9252915, 4.2500844 51.9252425, 4.2501168 51.9251972, 4.2501628 51.9251664, 4.2502218 51.9251453, 4.2503107 51.9251356), (4.2503107 51.9251356, 4.250414 51.9250567, 4.250476 51.9249958, 4.2505739 51.9249411), (4.2525517 51.9232053, 4.2524806 51.9232221, 4.2520446 51.9234766, 4.2517873 51.923653, 4.2517099 51.9237474, 4.2516 51.9239, 4.2513 51.9243, 4.2512375 51.9243752, 4.251163 51.9244468, 4.2509877 51.9245879, 4.2505739 51.9249411), (4.2525517 51.9232053, 4.252652 51.9232142, 4.2530078 51.9233098, 4.2531502 51.923349, 4.2532482 51.9233639, 4.2533073 51.9233637), (4.2533073 51.9233637, 4.2533947 51.9233385, 4.2534477 51.9233104, 4.2534712 51.9232807, 4.2535316 51.923184, 4.2535756 51.9231153, 4.2536046 51.9230844, 4.2536497 51.9230588, 4.2537154 51.9230459), (4.2563873 51.9236562, 4.2563151 51.9236637, 4.2562413 51.9236593, 4.2561651 51.9236462, 4.2556 51.9235, 4.2553031 51.9234245, 4.255119 51.9233748, 4.2547712 51.9232843, 4.2543371 51.9231714, 4.2539268 51.9230591, 4.2538229 51.9230429, 4.253756 51.9230382, 4.2537154 51.9230459), (4.256698 51.9233291, 4.2565123 51.9235826, 4.2564778 51.9236169, 4.2564452 51.9236363, 4.2563873 51.9236562), (4.2567486 51.9232597, 4.256698 51.9233291), (4.2567781 51.9232215, 4.2567486 51.9232597), (4.2572123 51.9226886, 4.2568239 51.9231621, 4.2567781 51.9232215), (4.2573246 51.9225354, 4.2572123 51.9226886), (4.2573246 51.9225354, 4.2575023 51.9223036, 4.2575611 51.9222267, 4.2577879 51.9219428, 4.2581358 51.9215252, 4.2582315 51.9214088, 4.2586578 51.9209387, 4.2590222 51.9205369, 4.2594573 51.9200291, 4.2596906 51.9197266, 4.2597381 51.9196639, 4.2597592 51.9196387, 4.2598095 51.9195724), (4.2598095 51.9195724, 4.2597888 51.9195654, 4.2597693 51.9195571, 4.2597513 51.9195477, 4.259735 51.9195371, 4.2597206 51.9195256, 4.2597081 51.9195132, 4.2596978 51.9195001, 4.2596898 51.9194864, 4.259684 51.9194722, 4.2596807 51.9194578, 4.2596797 51.9194432, 4.2596812 51.9194287), (4.2596812 51.9194287, 4.2596855 51.9194134, 4.2596924 51.9193985, 4.2597019 51.9193842, 4.2597139 51.9193706, 4.2597282 51.9193579, 4.2597447 51.9193463, 4.2597632 51.9193358), (4.2597632 51.9193358, 4.2597881 51.9193247, 4.2598153 51.9193158, 4.2598441 51.9193093, 4.2598741 51.9193051, 4.2599047 51.9193035, 4.2599354 51.9193044, 4.2599656 51.9193078, 4.2599948 51.9193137, 4.2600225 51.9193219, 4.2600486 51.9193326, 4.2600721 51.9193454, 4.2600926 51.91936, 4.2601097 51.9193763, 4.260123 51.9193938, 4.2601323 51.9194122, 4.2601375 51.9194313, 4.2601383 51.9194506, 4.2601349 51.9194698, 4.2601273 51.9194886), (4.2601273 51.9194886, 4.2602359 51.9195274, 4.260286 51.9195427, 4.2609472 51.9197652, 4.2611279 51.9198224, 4.2616284 51.91998, 4.2625522 51.9202568, 4.2635239 51.9205585, 4.2640782 51.9207446, 4.264315 51.9208355), (4.264315 51.9208355, 4.2649748 51.9210731), (4.2649748 51.9210731, 4.2652941 51.9211601, 4.2653364 51.9211768, 4.2653772 51.9211919, 4.2654662 51.9212214, 4.2655082 51.9212272), (4.2655082 51.9212272, 4.2655387 51.9212149, 4.2655715 51.921205, 4.265606 51.9211977, 4.2656417 51.921193, 4.2656781 51.9211911, 4.2657146 51.9211919, 4.2657507 51.9211955, 4.2657859 51.9212018, 4.2658196 51.9212108, 4.2658512 51.9212222, 4.2658802 51.921236), (4.2658802 51.921236, 4.2659106 51.9212549, 4.2659363 51.9212763, 4.2659566 51.9212997, 4.2659712 51.9213248), (4.2659712 51.9213248, 4.2659817 51.9213407, 4.2659983 51.9213669, 4.2660108 51.9213834, 4.2660247 51.921397, 4.2660474 51.9214136, 4.2660717 51.9214266, 4.2661189 51.9214415, 4.2662746 51.9214891, 4.2664849 51.9215676), (4.2664849 51.9215676, 4.2668654 51.9216803, 4.2672298 51.9217992), (4.2672298 51.9217992, 4.2686899 51.9222791, 4.2692015 51.9224629, 4.2695351 51.9225965, 4.2698454 51.9227554, 4.2700291 51.9228611, 4.2702869 51.9230359), (4.2702869 51.9230359, 4.2705048 51.9232078), (4.2705048 51.9232078, 4.2707191 51.9233698, 4.2708427 51.9234907, 4.2708836 51.9235082), (4.2708836 51.9235082, 4.2709307 51.9235135, 4.2709761 51.9235229, 4.2710188 51.9235363, 4.271058 51.9235533, 4.2710928 51.9235736, 4.2711224 51.9235968), (4.2711224 51.9235968, 4.2711421 51.9236245, 4.2711546 51.9236538, 4.2711595 51.9236839, 4.2711566 51.9237142, 4.2711473 51.9237409, 4.2711369 51.923763, 4.2711314 51.9237863), (4.2711314 51.9237863, 4.2711283 51.923813, 4.2711327 51.9238397, 4.2711435 51.9238696, 4.2711869 51.9240271), (4.2711869 51.9240271, 4.2713379 51.9243127), (4.2713379 51.9243127, 4.2714039 51.9244378), (4.2714039 51.9244378, 4.2714874 51.9245427, 4.2714962 51.9245537, 4.2715087 51.9245699, 4.2715253 51.9245867, 4.271541 51.9245994), (4.271541 51.9245994, 4.2715616 51.9246133, 4.2715819 51.9246244, 4.2716524 51.9246545, 4.2716897 51.9246739, 4.2717139 51.9246902, 4.2717379 51.9247117, 4.2717566 51.9247385, 4.2717607 51.9247439), (4.2717607 51.9247439, 4.2717717 51.9247619, 4.2717795 51.9247876), (4.2717795 51.9247876, 4.2717743 51.9248243, 4.2717604 51.9248554, 4.2717472 51.9248798, 4.2717365 51.9248975), (4.2717365 51.9248975, 4.2717977 51.9249488, 4.2719049 51.9250118), (4.2719049 51.9250118, 4.2719885 51.9250405, 4.2721797 51.9251073, 4.2722459 51.9251398, 4.2723117 51.9252248), (4.2723117 51.9252248, 4.2722346 51.9252465), (4.2722346 51.9252465, 4.2721316 51.9252725, 4.2720189 51.9252984, 4.2718931 51.9253305, 4.2718647 51.9253354), (4.2718647 51.9253354, 4.2718293 51.9253414, 4.271694 51.9253646, 4.2715981 51.925381), (4.2715981 51.925381, 4.2715195 51.9252275, 4.2715057 51.9252044, 4.271475 51.9251532), (4.271475 51.9251532, 4.2714369 51.925084), (4.2714369 51.925084, 4.2714006 51.9250631, 4.2713605 51.9250043, 4.2713319 51.9249726), (4.2713319 51.9249726, 4.2712981 51.924963, 4.2712638 51.9249505, 4.2712302 51.9249347, 4.2711978 51.9249144), (4.2711978 51.9249144, 4.2711691 51.9248917, 4.2711497 51.9248691, 4.2711362 51.924845, 4.2711327 51.9248272, 4.2711289 51.9248042, 4.2711275 51.9247818, 4.2711358 51.9247576, 4.2711495 51.9247322, 4.2711643 51.9246986, 4.27117 51.924671), (4.27117 51.924671, 4.27117 51.9246157, 4.2711558 51.9245331), (4.2711558 51.9245331, 4.2710681 51.9243563), (4.2710681 51.9243563, 4.2709162 51.9240614), (4.2709162 51.9240614, 4.2708634 51.9239131, 4.2708455 51.9238857, 4.2708162 51.923859, 4.2708078 51.9238526), (4.2708078 51.9238526, 4.2707778 51.9238355, 4.2707373 51.9238223, 4.2706986 51.9238059, 4.2706633 51.9237867, 4.2706338 51.9237642, 4.2706115 51.9237386, 4.2705967 51.923711, 4.27059 51.9236823), (4.27059 51.9236823, 4.2705915 51.9236533, 4.2706011 51.9236249, 4.2706187 51.923598, 4.2706435 51.9235733, 4.270675 51.9235517, 4.2707121 51.9235338, 4.2707536 51.9235202, 4.2707956 51.923513), (4.2707956 51.923513, 4.270838 51.9235075, 4.2708836 51.9235082), (4.2708836 51.9235082, 4.2709307 51.9235135, 4.2709761 51.9235229, 4.2710188 51.9235363, 4.271058 51.9235533, 4.2710928 51.9235736, 4.2711224 51.9235968), (4.2711224 51.9235968, 4.2711714 51.9236042, 4.2712218 51.9236071, 4.271418 51.9236065, 4.271578 51.9236151, 4.2717402 51.9236169), (4.2717402 51.9236169, 4.2720719 51.9236488, 4.2722988 51.9236648, 4.2727396 51.923677), (4.2727396 51.923677, 4.2740411 51.9236301, 4.2747025 51.9235948, 4.275122 51.9236088), (4.275122 51.9236088, 4.2769596 51.9234453, 4.2778387 51.9233523, 4.2784296 51.9232827), (4.2784296 51.9232827, 4.2790061 51.9232149), (4.2790061 51.9232149, 4.2807973 51.9229846), (4.2807973 51.9229846, 4.2866722 51.9222409, 4.2879741 51.9220762, 4.2888743 51.921958, 4.2903005 51.9217719), (4.2903005 51.9217719, 4.2928116 51.9214203), (4.2928116 51.9214203, 4.2943993 51.9211536, 4.2954559 51.9209411, 4.2971565 51.920604, 4.2985268 51.9203502, 4.2994872 51.9201963, 4.3002196 51.9200837, 4.3005901 51.9200355, 4.3017538 51.9198853, 4.3025142 51.9198055), (4.3025142 51.9198055, 4.3029704 51.9197606, 4.3033191 51.9197282, 4.3036372 51.9197022, 4.3039287 51.9196739), (4.3039287 51.9196739, 4.3044224 51.9196458, 4.3049655 51.9196162, 4.3063148 51.9195494, 4.3070968 51.9195003, 4.307542 51.919465, 4.3083114 51.9193974, 4.3090764 51.9193203, 4.3104455 51.9191576, 4.3120641 51.9189433), (4.3120641 51.9189433, 4.314611 51.9186155, 4.3163083 51.9183942, 4.3180821 51.9181666, 4.320817 51.917811, 4.3215497 51.9177069, 4.3221992 51.9176261, 4.3227929 51.9175531, 4.3235126 51.9174721, 4.3238849 51.9174427, 4.3241543 51.9174255, 4.3248342 51.9173883, 4.3256897 51.9173752), (4.3256897 51.9173752, 4.3264273 51.9173281, 4.3272434 51.9173025, 4.3277805 51.9173132), (4.3277805 51.9173132, 4.3284912 51.9173214), (4.3284912 51.9173214, 4.3293914 51.9173245, 4.3301573 51.9172922, 4.3304399 51.9172619, 4.3307957 51.9171965, 4.3308521 51.9171786, 4.3310899 51.9171228), (4.3310899 51.9171228, 4.3312965 51.9170494, 4.3313595 51.9170328), (4.3313595 51.9170328, 4.3318442 51.9168858, 4.3318965 51.9168707, 4.3319308 51.9168607, 4.3319493 51.9168565), (4.3319493 51.9168565, 4.3319971 51.9168453, 4.3324025 51.9167384, 4.3325139 51.9167089, 4.332598 51.9166848, 4.3326714 51.9166638, 4.333242 51.9165232, 4.3335637 51.9164376, 4.3342269 51.9162642, 4.3344389 51.9162088, 4.336474 51.9156853, 4.3366744 51.9156321), (4.3366744 51.9156321, 4.3369825 51.915541), (4.3369825 51.915541, 4.337575 51.9153842, 4.3376886 51.9153563, 4.3379038 51.9153082), (4.3379038 51.9153082, 4.3378114 51.9152079, 4.3376684 51.9150611, 4.3375905 51.9149057), (4.3371571 51.9144645, 4.3373518 51.9146625, 4.3374216 51.9147341, 4.3375905 51.9149057), (4.3371571 51.9144645, 4.337001 51.9143698, 4.3369199 51.9142205), (4.3365337 51.9138407, 4.3369199 51.9142205), (4.3361144 51.9133822, 4.3365337 51.9138407), (4.3361144 51.9133822, 4.336002 51.9133133, 4.3359279 51.9132307, 4.3359028 51.9132049), (4.3359028 51.9132049, 4.3358305 51.913135), (4.3358305 51.913135, 4.3359725 51.913141), (4.3361593 51.9130626, 4.3359725 51.913141), (4.3364853 51.9129373, 4.3362593 51.9130261, 4.3362096 51.9130444, 4.3361593 51.9130626), (4.3367019 51.9128422, 4.3364853 51.9129373), (4.3369974 51.9127347, 4.3369115 51.9127655, 4.3367019 51.9128422), (4.3371572 51.9126845, 4.3369974 51.9127347), (4.3373137 51.9126233, 4.3371572 51.9126845), (4.338691 51.9120689, 4.3386553 51.9120947, 4.3381667 51.9122894, 4.3375539 51.9125293, 4.3373137 51.9126233), (4.3387083 51.9120338, 4.338691 51.9120689), (4.3387027 51.9120181, 4.3387055 51.912026, 4.3387083 51.9120338), (4.338072 51.9111947, 4.3384213 51.9116402, 4.338593 51.9118611, 4.3386821 51.9119758, 4.3387027 51.9120181), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.342946 51.9095826, 4.3430227 51.9095288, 4.3430781 51.9095155, 4.3435151 51.9094109, 4.3437 51.9094), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3446973 51.909355, 4.3449363 51.909356), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3517346 51.9093718, 4.3517446 51.9093132, 4.3517805 51.9092523, 4.3518404 51.909199, 4.3519203 51.9091569, 4.3520148 51.9091286, 4.3520574 51.9091235, 4.3521179 51.9091161, 4.3522047 51.9091195, 4.3522228 51.9091202, 4.3523225 51.9091406, 4.3524106 51.9091759, 4.3524406 51.9091963, 4.3524812 51.9092239, 4.3525022 51.9092488), (4.3525022 51.9092488, 4.3525298 51.9092814, 4.3525531 51.9093446, 4.3525515 51.9093726), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3581013 51.9093656, 4.3583597 51.9092941, 4.3585158 51.9092802, 4.3586815 51.9093418), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3591826 51.9095669, 4.3593609 51.9096185, 4.3595031 51.909712, 4.3595557 51.9097493), (4.3595557 51.9097493, 4.359685 51.9098633, 4.3597555 51.9099313), (4.3597555 51.9099313, 4.3601654 51.9103626), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611126 51.9107367), (4.3611126 51.9107367, 4.3612052 51.9106805, 4.3613204 51.9105963, 4.3614235 51.9105274, 4.3614435 51.9104581, 4.3614031 51.9104158), (4.3614031 51.9104158, 4.3613667 51.9103952, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611126 51.9107367), (4.3611126 51.9107367, 4.3611208 51.9107423, 4.3611339 51.9107527, 4.3611597 51.9107722, 4.3611809 51.9107825, 4.3612213 51.9108023, 4.3613344 51.9108012, 4.3614523 51.9107598, 4.3618808 51.9105876, 4.3622939 51.9103907, 4.3631313 51.9100301, 4.363477 51.9098659, 4.3636342 51.9098051, 4.3637472 51.9097786, 4.3639217 51.909792, 4.3641086 51.9098235), (4.3641086 51.9098235, 4.3642746 51.909836, 4.3644335 51.90981, 4.3650426 51.9096896, 4.3652479 51.9096503, 4.3656102 51.9095755, 4.3659478 51.9095051, 4.3660967 51.9094542, 4.3661665 51.9094125, 4.3662201 51.9093557), (4.3662201 51.9093557, 4.3662466 51.9092896, 4.3662532 51.9092177, 4.3662939 51.9091547, 4.3664061 51.9090948, 4.3665364 51.9090594), (4.3668089 51.9090127, 4.366604 51.9090471, 4.3665364 51.9090594), (4.369128 51.9089487, 4.368667 51.9089266, 4.3679363 51.9089204, 4.3677375 51.9089313, 4.3674451 51.9089456, 4.3671429 51.9089781, 4.3668089 51.9090127), (4.369128 51.9089487, 4.3694899 51.9089535, 4.3697508 51.9089618, 4.3703901 51.9090009, 4.3707876 51.9090434, 4.3712046 51.9090999, 4.3713342 51.9091467, 4.3713727 51.9092542), (4.3713727 51.9092542, 4.3713311 51.909311, 4.3713423 51.90938, 4.3713937 51.9094573, 4.3716651 51.9096469, 4.3717363 51.9096931, 4.3718318 51.9097339, 4.372045 51.9097247, 4.372205 51.9096817, 4.3723323 51.9096084, 4.3723737 51.9095309, 4.3724051 51.909458, 4.3724489 51.909416, 4.3725131 51.9093361, 4.3726552 51.9092755, 4.3727175 51.9092526), (4.3727175 51.9092526, 4.3729108 51.9091746), (4.3729108 51.9091746, 4.3733454 51.9092956, 4.3742606 51.9096154, 4.3744197 51.9096622, 4.3746069 51.9097201, 4.3747551 51.9097641), (4.3747551 51.9097641, 4.3749592 51.9098264, 4.3757693 51.9100652, 4.3770662 51.9104415, 4.3775498 51.9105886, 4.3783129 51.9108257, 4.3784874 51.9108837, 4.3786241 51.9109268, 4.3788233 51.9109802, 4.3789826 51.9110206), (4.3789826 51.9110206, 4.379184 51.9110701, 4.3795 51.9111331, 4.3800662 51.9112316, 4.381361 51.9113636, 4.3820491 51.911416, 4.3827137 51.9114269, 4.3829816 51.9114013, 4.3832627 51.9113388, 4.3834296 51.9112832), (4.3834296 51.9112832, 4.3834952 51.9112733, 4.3835669 51.9112645, 4.3836176 51.9112621, 4.3837262 51.9112632, 4.3837758 51.9112706, 4.3838412 51.9112893), (4.3838412 51.9112893, 4.3839744 51.9113081, 4.3840283 51.9113146, 4.3843153 51.9113494, 4.3844973 51.9113495, 4.3859185 51.9112922, 4.3861237 51.9112839, 4.3863332 51.9112734, 4.3883297 51.9111734, 4.3884242 51.9111658, 4.3885058 51.9111612, 4.3889253 51.9111252, 4.3892005 51.9111137, 4.3892811 51.9111116, 4.3899124 51.9111075, 4.3903402 51.9111281, 4.3906709 51.9111441), (4.3906709 51.9111441, 4.3908252 51.9111498, 4.3915113 51.911197, 4.392291 51.911277, 4.3929441 51.9113906, 4.3935685 51.9115096, 4.3943295 51.9116643, 4.3950574 51.911838, 4.3951543 51.9118611, 4.3954133 51.9119483, 4.3958178 51.9121033, 4.3964989 51.9125195, 4.3966217 51.9125977, 4.3972353 51.9129943, 4.3972904 51.9130262, 4.3973722 51.913063), (4.3973722 51.913063, 4.3974217 51.9130479, 4.3974763 51.9130427, 4.3975309 51.9130479, 4.3975805 51.913063), (4.3975805 51.913063, 4.3976773 51.913042, 4.3977223 51.9130146, 4.3977543 51.9129951, 4.3986546 51.9124633, 4.3987457 51.9124384, 4.3988699 51.9124128), (4.3988699 51.9124128, 4.3988622 51.9123829, 4.398866 51.9123526, 4.398881 51.9123238, 4.3989065 51.9122978, 4.3989409 51.9122763, 4.3989826 51.9122602, 4.3990291 51.9122505, 4.399078 51.9122477, 4.3991267 51.9122519), (4.3991267 51.9122519, 4.3991666 51.9122612, 4.3992028 51.9122752, 4.3992336 51.9122934, 4.3992578 51.9123151, 4.3992736 51.9123378, 4.3992822 51.9123619, 4.3992833 51.9123865, 4.3992768 51.9124109, 4.399263 51.912434), (4.399263 51.912434, 4.39935 51.9124929, 4.3993938 51.9125301), (4.3993938 51.9125301, 4.399411 51.9125407), (4.399411 51.9125407, 4.3995253 51.912611), (4.3995253 51.912611, 4.3995622 51.9126338), (4.3995622 51.9126338, 4.4001878 51.9130126, 4.4003025 51.9130679, 4.4003417 51.9130877, 4.4004551 51.9131411), (4.4004551 51.9131411, 4.4005278 51.913176), (4.4005278 51.913176, 4.4006698 51.9132443, 4.4010029 51.9134413, 4.4011293 51.9135206), (4.4011293 51.9135206, 4.4015827 51.9138122, 4.4016484 51.9139115), (4.4016484 51.9139115, 4.4016943 51.9140085), (4.4016943 51.9140085, 4.4018001 51.9142071, 4.4018107 51.9142276), (4.4018107 51.9142276, 4.4018888 51.914294, 4.4021132 51.9143678), (4.4021132 51.9143678, 4.4022894 51.9144163, 4.4023322 51.91443, 4.4023904 51.914445, 4.4026704 51.9145403), (4.4026704 51.9145403, 4.4026639 51.9146617), (4.4026639 51.9146617, 4.4026479 51.9147047, 4.4026358 51.9147357, 4.402608 51.9147978, 4.4026004 51.9148212), (4.4026004 51.9148212, 4.4024819 51.9148932, 4.4024187 51.9149613, 4.4023781 51.9150201), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023445 51.9188801, 4.4023243 51.9188543, 4.4023083 51.918818, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023881 51.9189542, 4.402364 51.9190272, 4.4023615 51.9190373, 4.4023469 51.9191291, 4.4023418 51.9191637, 4.4023121 51.9192971, 4.4022934 51.9194298), (4.4022934 51.9194298, 4.4022857 51.9195074), (4.4022857 51.9195074, 4.402264 51.9197357, 4.4022543 51.9199786, 4.4022507 51.920291, 4.4023273 51.9206063, 4.4024516 51.9208966), (4.4024516 51.9208966, 4.4026187 51.9212013, 4.4026684 51.921302, 4.4026907 51.9213442, 4.402705 51.9213712, 4.4027375 51.9214414), (4.4027375 51.9214414, 4.4027841 51.9215306, 4.4027953 51.9215577, 4.4029344 51.9218933), (4.4029344 51.9218933, 4.4032079 51.922545, 4.4032192 51.9225763, 4.4032343 51.9226131, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
+          <t>MULTILINESTRING ((4.4090742 51.9213762, 4.40849 51.9215162), (4.40849 51.9215162, 4.4072784 51.9218021, 4.4067811 51.9219248), (4.4067811 51.9219248, 4.4064171 51.9220176), (4.4064171 51.9220176, 4.4060624 51.9221239, 4.406046 51.9221288, 4.4057429 51.9222397), (4.4057429 51.9222397, 4.4053531 51.9223621, 4.4037114 51.9228155, 4.4035048 51.9228694, 4.4033546 51.9229134), (4.4033546 51.9229134, 4.4031792 51.9229473), (4.4031792 51.9229473, 4.4030898 51.9228573), (4.4030898 51.9228573, 4.4030168 51.9226615, 4.4029977 51.9226303, 4.4029741 51.9225613), (4.4029741 51.9225613, 4.4028913 51.922478, 4.4028582 51.9224268, 4.4028355 51.9223499), (4.4028355 51.9223499, 4.4028239 51.9222624, 4.4028002 51.9221863, 4.4026273 51.9218013, 4.402572 51.9216791, 4.4025263 51.9215776, 4.4024883 51.921489, 4.4024544 51.9214158, 4.4022804 51.9210387, 4.4021092 51.9206542, 4.4020599 51.9204292, 4.4020411 51.9202942, 4.4020297 51.9201511, 4.4020449 51.919886, 4.4020862 51.9194999), (4.4020862 51.9194999, 4.4020939 51.9194222), (4.4020939 51.9194222, 4.4021194 51.9192185, 4.4021437 51.9191328, 4.4021906 51.9190311, 4.402222 51.9189515, 4.4022496 51.9188787, 4.4022798 51.9188233), (4.4022798 51.9188233, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023781 51.9150201, 4.4023816 51.9149644, 4.4023853 51.9149053, 4.4024035 51.9148696, 4.4024755 51.9147714, 4.4025195 51.9147, 4.4025452 51.9146696, 4.4025731 51.914635), (4.4025731 51.914635, 4.4025057 51.9146144), (4.4025057 51.9146144, 4.4023111 51.9145415, 4.4022566 51.9145243, 4.4020376 51.914461, 4.4019371 51.9144294, 4.4018269 51.914386), (4.4018269 51.914386, 4.4017625 51.9143529, 4.4017015 51.914225, 4.4016245 51.9140211), (4.4016245 51.9140211, 4.4015786 51.9139241), (4.4015786 51.9139241, 4.401525 51.9138567, 4.4014889 51.9138268, 4.4013186 51.9137264), (4.4013186 51.9137264, 4.4009579 51.9135638, 4.4006661 51.9133843, 4.4005816 51.9133339, 4.4005518 51.9133162, 4.4004209 51.913244, 4.4003474 51.9132055), (4.4003474 51.9132055, 4.4002465 51.9131438, 4.4002083 51.9131212, 4.3994952 51.9126829), (4.3994952 51.9126829, 4.399452 51.9126563), (4.399452 51.9126563, 4.3993377 51.9125859), (4.3993377 51.9125859, 4.3993173 51.9125734), (4.3993173 51.9125734, 4.3992696 51.9125475, 4.3991711 51.9124928), (4.3991711 51.9124928, 4.399125 51.9125038, 4.399076 51.9125078, 4.3990269 51.9125047, 4.3989803 51.9124946, 4.3989388 51.9124781), (4.3989388 51.9124781, 4.3989087 51.9124593, 4.3988855 51.9124373, 4.3988699 51.9124128), (4.3988699 51.9124128, 4.3988622 51.9123829, 4.398866 51.9123526, 4.398881 51.9123238, 4.3989065 51.9122978, 4.3989409 51.9122763, 4.3989826 51.9122602, 4.3990291 51.9122505, 4.399078 51.9122477, 4.3991267 51.9122519), (4.3991267 51.9122519, 4.3991539 51.9122057, 4.3991722 51.9121815, 4.3993354 51.9120429, 4.3997617 51.9117723, 4.4000659 51.9115952, 4.4001265 51.911545, 4.4001649 51.9115007, 4.4001732 51.9114675), (4.3992174 51.9108541, 4.3993356 51.91093, 4.4000505 51.9113895, 4.4001732 51.9114675), (4.3992174 51.9108541, 4.3990781 51.9107989, 4.3987618 51.910603, 4.3986618 51.9105357, 4.3985397 51.9104258), (4.3964921 51.9085332, 4.3965669 51.9086566, 4.3966908 51.9088324, 4.3968828 51.9091002, 4.3971314 51.9093655, 4.3973341 51.9095643, 4.3975675 51.9097538, 4.3980311 51.9101024, 4.3985397 51.9104258), (4.3964921 51.9085332, 4.3974152 51.9083298, 4.3981764 51.9081512, 4.3985617 51.9080521, 4.398937 51.9079426, 4.3995178 51.9077234, 4.3996281 51.9077007, 4.3997272 51.9076969, 4.400004 51.907704, 4.4000931 51.9076929), (4.4003157 51.9075798, 4.4000931 51.9076929), (4.4004365 51.9075182, 4.4003157 51.9075798), (4.4007442 51.9073295, 4.400677 51.9073962, 4.4004365 51.9075182), (4.401146 51.9058731, 4.4011336 51.9060466, 4.4010003 51.9064893, 4.4008614 51.9069653, 4.4008402 51.9070348, 4.4007713 51.9072752, 4.4007442 51.9073295), (4.4009406 51.9055073, 4.4009524 51.9055882, 4.4011227 51.9058175, 4.401146 51.9058731), (4.4009406 51.9055073, 4.4010661 51.9054468, 4.4012829 51.9053749, 4.4018607 51.9051777, 4.4023817 51.9050034, 4.4027613 51.9048774, 4.4029823 51.90482), (4.4036354 51.9046577, 4.4034843 51.9046992, 4.4029823 51.90482))</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1755250</t>
+          <t>384662</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2730,17 +2730,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ridderkerk, Donkersloot</t>
+          <t>Schiedam, Station Schiedam Centrum</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Bus 290: Rotterdam Zuidplein =&gt; Ridderkerk Donkersloot</t>
+          <t>Bus 54: Schiedam De Gorzen =&gt; Schiedam Centrum</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2751,14 +2751,14 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.5105415 51.8754014, 4.510776 51.8752818, 4.5109024 51.8752089, 4.5110329 51.8751203), (4.5110329 51.8751203, 4.5112047 51.8749389), (4.5112047 51.8749389, 4.5115852 51.8745949, 4.5119918 51.8741924), (4.5119918 51.8741924, 4.5124366 51.8737681), (4.5124366 51.8737681, 4.5130293 51.8731922, 4.513444 51.8727936, 4.5138482 51.8723891, 4.513983 51.8722283, 4.5141152 51.8720659, 4.51419 51.8719714, 4.5143362 51.8717699), (4.5143362 51.8717699, 4.5144448 51.8715932, 4.514536 51.8714408, 4.5146219 51.8712883, 4.5147742 51.8709813), (4.5147742 51.8709813, 4.5148605 51.870739, 4.5149478 51.8704562, 4.5150113 51.8701689, 4.5150652 51.8698476, 4.5150862 51.869489), (4.5150862 51.869489, 4.5151156 51.8691838), (4.5151156 51.8691838, 4.5151296 51.8690358, 4.5151392 51.8689342), (4.5151392 51.8689342, 4.5152286 51.8687194), (4.5152286 51.8687194, 4.5153662 51.8680853, 4.5154245 51.8678352, 4.5154447 51.8677532, 4.5154762 51.8676467, 4.5155034 51.8675544, 4.5155305 51.8674685, 4.5155717 51.867358, 4.5156125 51.8672626, 4.5156494 51.8671878, 4.5156789 51.8671323, 4.5157084 51.8670768, 4.5157569 51.8669981, 4.5158174 51.8669084), (4.5158174 51.8669084, 4.5161773 51.8664051, 4.5165072 51.8659436, 4.5169064 51.8653852, 4.5170635 51.8651655, 4.5171099 51.8650991, 4.5171525 51.8650352, 4.5171844 51.8649843, 4.5172125 51.8649368, 4.5172402 51.8648872, 4.5172771 51.8648164), (4.5172771 51.8648164, 4.5173356 51.8646937, 4.5173491 51.8646612, 4.5173627 51.8646232, 4.5173723 51.8645842, 4.5173807 51.8645449, 4.5173876 51.8645013, 4.5173909 51.8644484, 4.5173913 51.8644182, 4.5173886 51.8643829, 4.5173828 51.8643495, 4.5173726 51.8643024, 4.5173609 51.8642584, 4.5173474 51.8642203, 4.5173284 51.8641818, 4.5173046 51.8641402, 4.5172788 51.8640967, 4.5172515 51.8640525, 4.5172208 51.8640106, 4.5171812 51.8639665, 4.5171132 51.8639017, 4.5170372 51.8638423, 4.5169611 51.8637921, 4.5168933 51.8637525, 4.5168086 51.8637115, 4.5167027 51.8636618, 4.5165823 51.8636142, 4.5164514 51.8635678, 4.5163229 51.8635265, 4.51621 51.8634922, 4.5160926 51.8634626, 4.5159753 51.8634372, 4.5158673 51.8634169, 4.5157549 51.8633985, 4.5156375 51.8633807, 4.5155193 51.863367, 4.51541 51.863359, 4.5152937 51.8633554, 4.5151818 51.8633565, 4.5150804 51.8633647, 4.5149872 51.8633765, 4.5148858 51.8633945, 4.5148008 51.8634153, 4.5145046 51.8635018, 4.514294 51.8636051, 4.5141189 51.8637213, 4.5139802 51.8638706, 4.5138955 51.8640109, 4.5138395 51.8641724, 4.5138513 51.8644091, 4.5139563 51.864616, 4.5141045 51.8647797, 4.5143152 51.8649315, 4.5146301 51.8650682, 4.5149704 51.8651203, 4.5152626 51.8651313, 4.5155375 51.8651288, 4.5158788 51.8651067, 4.5161595 51.8651216), (4.5161595 51.8651216, 4.5167068 51.8650917, 4.5169508 51.8650755, 4.5178202 51.8650219, 4.5187389 51.864962, 4.5193734 51.8649111, 4.5197004 51.8648844, 4.5201615 51.864843), (4.5201615 51.864843, 4.5213874 51.8647202, 4.5225584 51.8646005, 4.5238924 51.864434, 4.5251796 51.8642698, 4.5253728 51.8642423, 4.5262595 51.8641789), (4.5262595 51.8641789, 4.5276191 51.8639975, 4.5288418 51.8638506, 4.5294743 51.8637844, 4.5310465 51.8636484, 4.5339191 51.8635293), (4.5339191 51.8635293, 4.5347441 51.863533, 4.53592 51.863559), (4.53592 51.863559, 4.5366308 51.8635799), (4.5366308 51.8635799, 4.537808 51.8636469, 4.538599 51.8637127, 4.5395993 51.8638207, 4.5408043 51.8639757, 4.5421351 51.8641921, 4.5434546 51.8644467), (4.5434546 51.8644467, 4.5447329 51.8647254), (4.5447329 51.8647254, 4.5452991 51.8648724), (4.5452991 51.8648724, 4.546221 51.8650046), (4.546221 51.8650046, 4.5469904 51.8651785), (4.5469904 51.8651785, 4.5478061 51.8653934, 4.5483858 51.8655607, 4.5489312 51.8657262), (4.5489312 51.8657262, 4.5494146 51.8658908, 4.5499711 51.8660929, 4.5516633 51.8667488, 4.5537965 51.8675798), (4.5537965 51.8675798, 4.5540561 51.8676811), (4.5540561 51.8676811, 4.5542504 51.8677569), (4.5542504 51.8677569, 4.5546991 51.867932), (4.5546991 51.867932, 4.5557437 51.8683248, 4.5563851 51.8685345, 4.5566728 51.8686207), (4.5566728 51.8686207, 4.556985 51.8687046, 4.5576509 51.868863, 4.5583338 51.8690016, 4.5591582 51.8691518, 4.5598826 51.8692963, 4.5604335 51.8694349, 4.5608419 51.8695531, 4.5611961 51.8696789), (4.5611961 51.8696789, 4.5616672 51.8698542, 4.5622067 51.870093, 4.5625452 51.8702562), (4.5625452 51.8702562, 4.5625707 51.8702694), (4.5625707 51.8702694, 4.563022 51.8705235, 4.5632505 51.8706661, 4.5636413 51.870946, 4.5640451 51.8712665, 4.5643922 51.8715478, 4.5646124 51.871733), (4.5646124 51.871733, 4.5649317 51.8719543), (4.5649317 51.8719543, 4.5649996 51.8720029), (4.5649996 51.8720029, 4.5653076 51.872212), (4.5653076 51.872212, 4.5653911 51.8722688, 4.5656401 51.8724161, 4.5658844 51.8725477, 4.5661777 51.8726892, 4.5664409 51.8728092, 4.5668209 51.8729683, 4.5683501 51.8735636), (4.5683501 51.8735636, 4.5691196 51.873864), (4.5691196 51.873864, 4.5703275 51.8743334), (4.5703275 51.8743334, 4.57114 51.8746491), (4.57114 51.8746491, 4.5714164 51.8747577, 4.571606 51.874825), (4.571606 51.874825, 4.5717428 51.874873, 4.5719399 51.8749295, 4.572122 51.8749773, 4.5723002 51.8750192, 4.5725106 51.8750623, 4.5728035 51.8751081), (4.5728035 51.8751081, 4.5730529 51.8751374, 4.5733076 51.8751549, 4.5734963 51.8751642, 4.5736679 51.8751654), (4.5736679 51.8751654, 4.5740971 51.8751654, 4.574643 51.875167, 4.5751087 51.875201, 4.5755269 51.8752588, 4.575878 51.8753378, 4.5761831 51.8754269, 4.5764269 51.8755165, 4.5765835 51.8755876), (4.5765835 51.8755876, 4.5767544 51.8756649, 4.5768943 51.8757381), (4.5768943 51.8757381, 4.5770702 51.8758415, 4.5772038 51.8759331, 4.5774597 51.8761288, 4.5776472 51.8763098, 4.5778511 51.8765697, 4.5780148 51.8768361, 4.5781665 51.8771503, 4.578354 51.8776261, 4.5784365 51.8778444), (4.5784365 51.8778444, 4.5791456 51.8796617), (4.5791456 51.8796617, 4.5799783 51.8818057), (4.5799783 51.8818057, 4.5802773 51.8825775, 4.5803384 51.8827632, 4.5803897 51.882945, 4.5804275 51.8831117, 4.580446 51.883277, 4.5804591 51.8834671, 4.5804507 51.8837153), (4.5804507 51.8837153, 4.5804193 51.8842818, 4.5804074 51.884527, 4.5804164 51.8846951, 4.5804406 51.8848965, 4.5805338 51.8851927), (4.5805338 51.8851927, 4.5806817 51.885566), (4.5806817 51.885566, 4.5807654 51.8857771, 4.5807998 51.885864), (4.5807998 51.885864, 4.5808539 51.8860094), (4.5808539 51.8860094, 4.5808803 51.8860843), (4.5829314 51.8856434, 4.5820259 51.8858754, 4.5815273 51.8859799, 4.5810249 51.8860662, 4.5808803 51.8860843), (4.5832149 51.8855581, 4.5829314 51.8856434), (4.5929354 51.8805071, 4.5917217 51.881365, 4.5910934 51.8818227, 4.5901624 51.8824689, 4.5896943 51.8827783, 4.5892148 51.8830444, 4.5888167 51.8832525, 4.5882468 51.8835115, 4.5868045 51.8841318, 4.5849856 51.8849114, 4.5843039 51.8851948, 4.5838142 51.8853801, 4.5834136 51.8854939, 4.5832149 51.8855581), (4.5929354 51.8805071, 4.5929659 51.8803737), (4.5929659 51.8803737, 4.5930636 51.8803059, 4.5930893 51.8802887, 4.595223 51.8788612, 4.5956619 51.8786187, 4.5978354 51.8771389, 4.5986893 51.8765586, 4.5993419 51.8761209, 4.5999764 51.8757102, 4.6002444 51.8755584, 4.6004661 51.8754379, 4.6007547 51.8753051, 4.6010499 51.8751887, 4.6013534 51.8750839, 4.601581 51.8750169, 4.60188 51.8749388, 4.6021856 51.8748736, 4.6023723 51.874841, 4.6026197 51.8748033), (4.6026197 51.8748033, 4.6027376 51.8747882), (4.6027376 51.8747882, 4.6030246 51.8747557, 4.6034731 51.8747222, 4.6042404 51.8746946, 4.6049569 51.8746804), (4.6049569 51.8746804, 4.6055313 51.874669), (4.6055313 51.874669, 4.6061773 51.8746559), (4.6061773 51.8746559, 4.6075352 51.8746303), (4.6075352 51.8746303, 4.6081176 51.8746267, 4.6090087 51.8746336, 4.6091176 51.8746357, 4.6093439 51.8746403), (4.6093439 51.8746403, 4.6095179 51.8746438), (4.6095179 51.8746438, 4.6097629 51.8746487, 4.6106553 51.8746585, 4.6124952 51.8746771), (4.6124952 51.8746771, 4.6130393 51.8746832, 4.6135026 51.8746738), (4.6135026 51.8746738, 4.6139514 51.8746483, 4.6142605 51.8746181, 4.6145564 51.8745745), (4.6145564 51.8745745, 4.6149447 51.874498, 4.6154889 51.8743594, 4.6159068 51.874222, 4.6164037 51.8740171, 4.6165718 51.873936, 4.616725 51.8738542, 4.6168279 51.8737945), (4.6168279 51.8737945, 4.6170487 51.8738686), (4.6170487 51.8738686, 4.6172135 51.8739712, 4.6173951 51.8740904), (4.6173951 51.8740904, 4.6179205 51.874434, 4.6180323 51.8745072), (4.6180323 51.8745072, 4.6181418 51.8746121, 4.6182516 51.874754, 4.6182998 51.8748967, 4.6183185 51.8750441, 4.6182515 51.8752544, 4.6181174 51.8754183), (4.6181174 51.8754183, 4.6178779 51.8757949, 4.6177098 51.8760596, 4.6174382 51.8764869, 4.6168942 51.8773626, 4.6163068 51.8782829, 4.6153905 51.8797265, 4.61521 51.8800162, 4.6150775 51.8802309, 4.6150169 51.8803258, 4.6149581 51.8804221, 4.6148996 51.8805432, 4.6148703 51.8806433, 4.6148667 51.8807148, 4.6148691 51.8807975, 4.6148825 51.8808532, 4.6149015 51.8809087, 4.6149712 51.8810544, 4.6150495 51.8811707, 4.6151738 51.8812844, 4.6152847 51.8813626, 4.6155518 51.8815052, 4.6169918 51.8821891, 4.6175788 51.8824769, 4.6177049 51.8825862, 4.6177866 51.8827029, 4.6178122 51.8828037, 4.6178122 51.8829233, 4.6177342 51.8830761, 4.6175696 51.8832401, 4.6171978 51.8835267, 4.6157011 51.8847349), (4.6157011 51.8847349, 4.6156142 51.8848209, 4.6155757 51.8848817, 4.61557 51.8849236, 4.6155794 51.8849888), (4.6155794 51.8849888, 4.6156187 51.8851637), (4.6167407 51.8846104, 4.6162443 51.8849201, 4.6160334 51.8850478, 4.615888 51.8851385, 4.6158129 51.8851483, 4.6156187 51.8851637), (4.6212561 51.8801532, 4.6212127 51.8802195, 4.6211971 51.8802434, 4.6204305 51.8813772, 4.6196924 51.8825284, 4.6196064 51.8826536, 4.619392 51.8828899, 4.6192043 51.8830354, 4.6180877 51.8837575, 4.616817 51.8845628, 4.6167407 51.8846104), (4.6243062 51.8765704, 4.6242389 51.8766743, 4.6235344 51.8767433, 4.6234799 51.876823, 4.6234324 51.8768959, 4.6215373 51.8797296, 4.6214421 51.8798718, 4.6213445 51.8800178, 4.6212988 51.8800878, 4.6212561 51.8801532), (4.6244258 51.8763859, 4.6243062 51.8765704), (4.6235538 51.8761336, 4.6236365 51.8761786, 4.6237054 51.8762083, 4.6238629 51.8762532, 4.6244258 51.8763859), (4.6236671 51.8740281, 4.6238232 51.8740642, 4.6239308 51.8741486, 4.6239572 51.87424, 4.623928 51.8743769, 4.6235931 51.8750058, 4.6235035 51.8752137, 4.6234111 51.8754723, 4.6233602 51.8756411, 4.6233394 51.8757885, 4.6233555 51.8758898, 4.6234149 51.8759969, 4.6234552 51.8760512, 4.6235101 51.8761003, 4.6235538 51.8761336), (4.6237882 51.8738101, 4.6236671 51.8740281), (4.6201832 51.8725114, 4.6202195 51.8725244, 4.6205871 51.8726951, 4.6208436 51.8728011, 4.6211681 51.8729105, 4.6227 51.8734, 4.6233828 51.8736164, 4.6236262 51.8737177, 4.6237882 51.8738101), (4.6193701 51.8722305, 4.6200475 51.8724626, 4.6201832 51.8725114), (4.6188473 51.8720587, 4.6193701 51.8722305), (4.6181 51.8718, 4.6188473 51.8720587), (4.6152575 51.8710884, 4.6153069 51.8710772, 4.6154068 51.8710802, 4.6154807 51.8710941, 4.6169195 51.8715428, 4.6173325 51.8716624, 4.6181 51.8718), (4.6130186 51.8726872, 4.6133261 51.8726852, 4.6135374 51.8726549, 4.6137345 51.872599, 4.6139165 51.8725163, 4.6140675 51.8724202, 4.6142232 51.8722436, 4.6145434 51.8718814, 4.6152131 51.8711188, 4.6152575 51.8710884), (4.61234 51.8726798, 4.6126868 51.8726826, 4.6129165 51.8726869, 4.6130186 51.8726872))</t>
+          <t>MULTILINESTRING ((4.4066558 51.9041766, 4.4059806 51.9042209, 4.4056209 51.9042775, 4.4050348 51.9043698, 4.404401 51.9044786, 4.4036354 51.9046577), (4.4066558 51.9041766, 4.4066939 51.904122, 4.4067804 51.9040957, 4.4068242 51.9040971, 4.4068651 51.9041069, 4.4069121 51.9041346, 4.4069336 51.9041724, 4.406925 51.9042121, 4.4068882 51.9042451), (4.4068882 51.9042451, 4.4069688 51.9043065, 4.4071924 51.9045657, 4.4072931 51.9046806, 4.4076585 51.9051093, 4.4077524 51.90519, 4.4078333 51.9052285, 4.4079189 51.9052479, 4.4080901 51.9052573, 4.4081783 51.9052635), (4.4081783 51.9052635, 4.4081863 51.9053837, 4.408145 51.9055114), (4.408145 51.9055114, 4.4081726 51.90565, 4.4082286 51.9057488, 4.4082965 51.9058296, 4.4083713 51.9058709, 4.4084232 51.9058911), (4.4080476 51.9071611, 4.4081569 51.9070178, 4.4083315 51.9060041, 4.4083357 51.9059798, 4.4083572 51.9059613, 4.4084232 51.9058911), (4.4080476 51.9071611, 4.4078922 51.9073019, 4.4077623 51.9074141, 4.4069309 51.9082659, 4.4068 51.9084, 4.4064508 51.9087737), (4.4064508 51.9087737, 4.4063 51.909), (4.4063 51.909, 4.4061479 51.9091577, 4.405739 51.9095815, 4.4051925 51.9101478, 4.4051208 51.910246, 4.4049663 51.9104023, 4.4048049 51.9105277, 4.4044404 51.9107188, 4.4041822 51.9108763, 4.404 51.911, 4.4028813 51.9116393, 4.4026 51.9118, 4.401296 51.9126368, 4.4010473 51.9127964, 4.4008515 51.9129275), (4.4008515 51.9129275, 4.4007377 51.9130234, 4.4007081 51.9130483, 4.400667 51.9130758, 4.4006045 51.9131177), (4.4006045 51.9131177, 4.4005278 51.913176), (4.4005278 51.913176, 4.4006698 51.9132443, 4.4010029 51.9134413, 4.4011293 51.9135206), (4.4011293 51.9135206, 4.4015827 51.9138122, 4.4016484 51.9139115), (4.4016484 51.9139115, 4.4016943 51.9140085), (4.4016943 51.9140085, 4.4018001 51.9142071, 4.4018107 51.9142276), (4.4018107 51.9142276, 4.4018888 51.914294, 4.4021132 51.9143678), (4.4021132 51.9143678, 4.4022894 51.9144163, 4.4023322 51.91443, 4.4023904 51.914445, 4.4026704 51.9145403), (4.4026704 51.9145403, 4.4026639 51.9146617), (4.4026639 51.9146617, 4.4026479 51.9147047, 4.4026358 51.9147357, 4.402608 51.9147978, 4.4026004 51.9148212), (4.4026004 51.9148212, 4.4024819 51.9148932, 4.4024187 51.9149613, 4.4023781 51.9150201), (4.4023781 51.9150201, 4.4023611 51.9150605, 4.4023569 51.9150986, 4.402355 51.9151577, 4.4023687 51.915272, 4.4023867 51.9153971, 4.402446 51.9158078, 4.4024847 51.9161444, 4.4025045 51.9165226, 4.4025022 51.9168947, 4.4024819 51.9172934, 4.4024363 51.9176939, 4.4024022 51.917958, 4.4023828 51.9181231, 4.40235 51.9183831, 4.4023352 51.9185038, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023445 51.9188801, 4.4023243 51.9188543, 4.4023083 51.918818, 4.4022989 51.9187581), (4.4023921 51.9189256, 4.4023881 51.9189542, 4.402364 51.9190272, 4.4023615 51.9190373, 4.4023469 51.9191291, 4.4023418 51.9191637, 4.4023121 51.9192971, 4.4022934 51.9194298), (4.4022934 51.9194298, 4.4022857 51.9195074), (4.4022857 51.9195074, 4.402264 51.9197357, 4.4022543 51.9199786, 4.4022507 51.920291, 4.4023273 51.9206063, 4.4024516 51.9208966), (4.4024516 51.9208966, 4.4026187 51.9212013, 4.4026684 51.921302, 4.4026907 51.9213442, 4.402705 51.9213712, 4.4027375 51.9214414), (4.4027375 51.9214414, 4.4027841 51.9215306, 4.4027953 51.9215577, 4.4029344 51.9218933), (4.4029344 51.9218933, 4.4032079 51.922545, 4.4032192 51.9225763, 4.4032343 51.9226131, 4.4033065 51.9227802), (4.4033065 51.9227802, 4.4034417 51.9227276, 4.4044581 51.9224514, 4.4049476 51.9223364), (4.4049476 51.9223364, 4.4058381 51.922092, 4.4059931 51.922052, 4.4063871 51.9219505), (4.4063871 51.9219505, 4.406766 51.9218573), (4.406766 51.9218573, 4.40766 51.9216446))</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2014228</t>
+          <t>384341</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rotterdam, Station Noord</t>
+          <t>Rotterdam, Sleephellingstraat Zuid</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bus 174: Delft Station Delft =&gt; Rotterdam Station Noord</t>
+          <t>Bus 547: Rotterdam Noordereiland =&gt; Rotterdam Noordereiland</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>547</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2789,14 +2789,14 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3568847 52.00682, 4.3568742 52.0068337, 4.3568703 52.0068426, 4.3568593 52.0068662, 4.3568588 52.0068891, 4.3568751 52.006917, 4.3568962 52.0069397, 4.3569577 52.0069693), (4.3569577 52.0069693, 4.3570185 52.0070006), (4.3570185 52.0070006, 4.3571009 52.0070495), (4.3571009 52.0070495, 4.3572227 52.0071121, 4.3572714 52.0071359), (4.3572714 52.0071359, 4.3575394 52.0072585), (4.3575394 52.0072585, 4.3575451 52.0072611, 4.3575718 52.0072731, 4.3575958 52.0072839, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3578982 52.0069613, 4.3578318 52.0070382, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3580248 52.006814, 4.3585991 52.0061224, 4.3588413 52.005834, 4.3590516 52.0055838, 4.3590832 52.0055491, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3595616 52.0053611, 4.3594949 52.0053641, 4.3594342 52.0053738, 4.3593744 52.0053886, 4.3593243 52.0054026, 4.3592387 52.0054377, 4.3591849 52.0054614, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3598326 52.0053837, 4.3598989 52.005388, 4.3599739 52.0053902), (4.3599739 52.0053902, 4.3601022 52.0054459, 4.360238 52.0055048, 4.3609544 52.0058104), (4.3609544 52.0058104, 4.3611177 52.0058752), (4.3611177 52.0058752, 4.3612717 52.0059321, 4.3614377 52.0059957, 4.3619597 52.0062065, 4.3622142 52.0063226, 4.3624276 52.0064306, 4.3626021 52.0065577), (4.3626021 52.0065577, 4.3626477 52.0066204, 4.3626839 52.0066661, 4.3628134 52.0068119, 4.3628556 52.0068664, 4.3629298 52.0069781, 4.362969 52.0070559, 4.3629831 52.0071198, 4.362967 52.0071966, 4.3629575 52.0072319), (4.36309 52.0074856, 4.3630228 52.0073716, 4.3629987 52.0073203, 4.3629575 52.0072319), (4.363445 52.0080343, 4.3633155 52.0079799, 4.3632647 52.0079459, 4.3632193 52.0079081, 4.3631903 52.0078728, 4.363164 52.0078271, 4.3631527 52.0077937, 4.3631385 52.0077307, 4.363124 52.0076205, 4.3631154 52.0075866, 4.36309 52.0074856), (4.363445 52.0080343, 4.363517 52.0080467, 4.364334 52.0083913, 4.3644182 52.008427, 4.3645003 52.0084593, 4.3645994 52.0084903, 4.3646759 52.0085091, 4.3647045 52.0085162, 4.3647827 52.008547), (4.3649522 52.008549, 4.3649047 52.0085533, 4.3648531 52.0085544, 4.3647827 52.008547), (4.365626 52.0079791, 4.3653334 52.0083575, 4.365238 52.0084511, 4.3651605 52.0084967, 4.3651111 52.0085144, 4.3650378 52.0085348, 4.3649522 52.008549), (4.3660422 52.0074607, 4.365626 52.0079791), (4.3668863 52.0064478, 4.3667956 52.0065233, 4.3667054 52.0066138, 4.3666113 52.0067322, 4.3663926 52.0069857, 4.3661976 52.0072443, 4.3660422 52.0074607), (4.3675553 52.0061843, 4.3673579 52.0062467, 4.367227 52.0062887, 4.3670791 52.0063487, 4.3669706 52.006401, 4.3668863 52.0064478), (4.3675553 52.0061843, 4.3676484 52.0061527), (4.3676484 52.0061527, 4.3676766 52.0061678, 4.3677614 52.0062156), (4.3677614 52.0062156, 4.3678307 52.0062508, 4.3679271 52.0062947, 4.3680172 52.00636), (4.3690533 52.006663, 4.3686518 52.0065513, 4.3685216 52.0065191, 4.368236 52.0064393, 4.3680172 52.00636), (4.3695005 52.0067804, 4.3692897 52.0067252, 4.3690533 52.006663), (4.3695005 52.0067804, 4.3696237 52.0067974, 4.3696937 52.0068148), (4.3696937 52.0068148, 4.3698131 52.0068457, 4.3699184 52.0068995), (4.371492 52.0073103, 4.3713928 52.0072964, 4.3713014 52.0072873, 4.3712509 52.0072776, 4.3710648 52.0072313, 4.3707029 52.0071244, 4.3705462 52.0070782, 4.3699184 52.0068995), (4.371492 52.0073103, 4.3714543 52.0072568, 4.3714312 52.0072055, 4.3714204 52.0071293, 4.3714345 52.0070796, 4.3714573 52.0070359, 4.3715024 52.0069764, 4.3715666 52.0069358, 4.3716872 52.0069122), (4.3719408 52.006777, 4.3718901 52.0068033, 4.3716872 52.0069122), (4.3723567 52.0065598, 4.3719408 52.006777), (4.3723567 52.0065598, 4.3724524 52.0064659, 4.3725786 52.0063966, 4.3726437 52.0063613, 4.3727896 52.0062761), (4.3727896 52.0062761, 4.3728493 52.0062396), (4.3728493 52.0062396, 4.3729885 52.0061592, 4.3731086 52.0060859, 4.3732474 52.0060009, 4.3733667 52.0059639), (4.3738835 52.0056435, 4.3734421 52.0059234, 4.3733667 52.0059639), (4.3743674 52.0052663, 4.3739557 52.0055875, 4.3738835 52.0056435), (4.3743674 52.0052663, 4.374493 52.0051275, 4.375039 52.0046752, 4.3751208 52.0046004, 4.3754954 52.0042536, 4.3755611 52.0041806, 4.375618 52.0041191, 4.3756432 52.0040894, 4.375715 52.0040408), (4.3762024 52.0033604, 4.3759514 52.0037108, 4.3758492 52.0038535, 4.375715 52.0040408), (4.3766822 52.0026707, 4.3762373 52.0033129, 4.3762024 52.0033604), (4.3776908 52.0012426, 4.3776382 52.0013149, 4.3775508 52.0014335, 4.3773682 52.001684, 4.3770488 52.0021498, 4.3769144 52.0023462, 4.3768895 52.0023785, 4.3768562 52.0024292, 4.3766822 52.0026707), (4.3776908 52.0012426, 4.3776933 52.001186, 4.377748 52.0010899, 4.3777847 52.0010406, 4.3778368 52.0009498), (4.3778368 52.0009498, 4.3778136 52.0009353, 4.3777954 52.0009183, 4.377783 52.0008994, 4.3777768 52.0008794, 4.3777771 52.000859, 4.3777886 52.0008318, 4.3777993 52.0008176, 4.3778223 52.0007988, 4.3778515 52.0007837, 4.3778855 52.000773, 4.3779226 52.0007673, 4.3779693 52.0007681), (4.3779693 52.0007681, 4.3780345 52.0006868, 4.3780574 52.0006565, 4.3781236 52.0005615, 4.3782091 52.000507), (4.3798377 51.9981491, 4.3789068 51.9994968, 4.3783299 52.0003453, 4.3782091 52.000507), (4.3798377 51.9981491, 4.3798521 51.9980628, 4.3799629 51.9979022, 4.3800491 51.9977772, 4.3801171 51.9976786, 4.3802023 51.9975609, 4.3802721 51.9975252), (4.3804629 51.9972399, 4.3802721 51.9975252), (4.3807495 51.9967897, 4.3804629 51.9972399), (4.3807495 51.9967897, 4.3807821 51.9966152, 4.3808219 51.9965472, 4.3809041 51.9964125), (4.3809041 51.9964125, 4.3809924 51.9962593, 4.3810686 51.996147, 4.3811635 51.9960038, 4.3812765 51.9958332), (4.3812765 51.9958332, 4.3815861 51.9953889, 4.3816208 51.9953411, 4.3818241 51.994993), (4.3818241 51.994993, 4.3821253 51.9945618, 4.382254 51.9943775), (4.382254 51.9943775, 4.3824651 51.9944201), (4.3824651 51.9944201, 4.3825902 51.9944509, 4.3851444 51.9950802, 4.385821 51.9952343, 4.3861062 51.9953028, 4.3865158 51.9953957), (4.3865158 51.9953957, 4.3871766 51.9954484, 4.3873329 51.9954602), (4.3873329 51.9954602, 4.3880107 51.9955121, 4.388425 51.995522), (4.388425 51.995522, 4.3886822 51.9955355), (4.3886822 51.9955355, 4.3890467 51.9955711, 4.3893998 51.9956175, 4.3897631 51.9956932, 4.3900595 51.9957904), (4.3900595 51.9957904, 4.3901478 51.9958278, 4.3903498 51.995926, 4.3904698 51.9960175, 4.3905934 51.9961335), (4.3905934 51.9961335, 4.3908541 51.9963034, 4.391112 51.9964557), (4.391112 51.9964557, 4.3914757 51.9966031), (4.3914757 51.9966031, 4.3921085 51.9968399, 4.3927382 51.9970506, 4.3932424 51.9971878), (4.3932424 51.9971878, 4.3938036 51.9973318, 4.3946284 51.9974971, 4.3951224 51.9975838), (4.3951224 51.9975838, 4.3954016 51.9976363), (4.3954016 51.9976363, 4.3968078 51.99791), (4.3968078 51.99791, 4.3970211 51.9979535, 4.397347 51.9980173), (4.397347 51.9980173, 4.397471 51.9980411), (4.397471 51.9980411, 4.3985303 51.9982516, 4.3999189 51.9985586), (4.3999189 51.9985586, 4.4008179 51.9987425, 4.4021176 51.9990194, 4.4025638 51.9991152), (4.4025638 51.9991152, 4.4027468 51.9991544), (4.4027468 51.9991544, 4.4032619 51.999265, 4.4048894 51.9996192, 4.4052524 51.9997043, 4.4056684 51.9998206, 4.406216 52.0000256, 4.4065483 52.0001904, 4.4068557 52.0003677, 4.4070609 52.0005105, 4.4072586 52.000663, 4.4075219 52.0009176, 4.4076828 52.0011258, 4.4078131 52.0013148, 4.4079532 52.0015834, 4.4080322 52.0018657, 4.4080629 52.0019926), (4.4080629 52.0019926, 4.4080807 52.0020824), (4.4080807 52.0020824, 4.4081328 52.0022702, 4.4081874 52.0024349, 4.4082516 52.0025884, 4.4083221 52.0027292, 4.4085029 52.0029958, 4.4087465 52.0032719, 4.4089708 52.0034651, 4.4093388 52.0037232, 4.4096046 52.0038761, 4.4099338 52.0040283, 4.4102509 52.004143, 4.4104352 52.004209, 4.4106838 52.0042839, 4.4110606 52.0043722, 4.4115884 52.0044824, 4.4128541 52.0047561, 4.4133139 52.0048489, 4.4137776 52.004934, 4.4140468 52.0049732, 4.4143581 52.0050162, 4.4145996 52.0050469, 4.4148448 52.0050707, 4.4151268 52.0050911, 4.4153994 52.0050963, 4.4156861 52.0050998, 4.4160332 52.0050928, 4.4167159 52.0050481), (4.4167159 52.0050481, 4.4170529 52.005029, 4.4178655 52.0049631), (4.4178655 52.0049631, 4.417984 52.0049256, 4.4180405 52.0049012, 4.4181027 52.0048774, 4.4181527 52.0048524, 4.4182074 52.0048147, 4.4182801 52.0047781, 4.4183461 52.004765, 4.4183885 52.0047601, 4.4184725 52.0047618, 4.4185536 52.0047729, 4.4186658 52.0048106, 4.4187253 52.0048292, 4.4188158 52.0048449, 4.4189504 52.0048679), (4.4189504 52.0048679, 4.4201618 52.0047874, 4.4209749 52.0047421), (4.4209749 52.0047421, 4.4215516 52.0047311, 4.4232751 52.0046614, 4.4243969 52.0046248, 4.4255463 52.0045969, 4.4263183 52.004583, 4.4271683 52.00457), (4.4271683 52.00457, 4.4273149 52.0045679), (4.4273149 52.0045679, 4.4276092 52.0045644), (4.4276092 52.0045644, 4.4287432 52.004539, 4.4291791 52.0045296, 4.429581 52.0045034), (4.429581 52.0045034, 4.4297059 52.0044637, 4.4298378 52.0044452), (4.4298378 52.0044452, 4.4299412 52.0044192, 4.4299979 52.0043924, 4.4300631 52.004334, 4.4301266 52.0042978, 4.4301866 52.0042738, 4.4302865 52.0042591, 4.430363 52.0042628, 4.4304234 52.0042682, 4.4304936 52.0042832, 4.430605 52.0043112, 4.4306955 52.0043258, 4.4309169 52.0043259), (4.4309169 52.0043259, 4.4312971 52.0042501, 4.4316749 52.0041566, 4.4322186 52.0040017), (4.4322186 52.0040017, 4.4326869 52.0038429, 4.4329782 52.0037268, 4.4332968 52.0035841, 4.4337074 52.0033523, 4.4340612 52.0031511, 4.4344448 52.0029063, 4.4356305 52.0020873, 4.4363391 52.0015269, 4.4370052 52.000962, 4.4371508 52.0008397, 4.437606 52.0004072), (4.437606 52.0004072, 4.4378253 52.0002607, 4.4381026 52.00009, 4.4383152 51.999977, 4.4386155 51.9998348, 4.4389189 51.9997213), (4.4389189 51.9997213, 4.4390033 51.9997079, 4.4391519 51.9996669, 4.4391797 51.999655), (4.4391797 51.999655, 4.4392103 51.9996361, 4.4392278 51.9996184, 4.4392405 51.999599, 4.4392448 51.9995743, 4.4392561 51.9995496, 4.4392717 51.9995267, 4.4392985 51.9995049, 4.4393306 51.999486, 4.439366 51.9994756, 4.4394117 51.9994677, 4.4394471 51.9994663), (4.4394471 51.9994663, 4.4394966 51.9994683, 4.4395348 51.9994733, 4.4395947 51.9994889, 4.4396263 51.9995032, 4.4396484 51.9995131), (4.4396484 51.9995131, 4.4396702 51.9995264, 4.4396989 51.9995546, 4.4397197 51.9995972), (4.4397197 51.9995972, 4.4397277 51.9996202, 4.4397301 51.999639), (4.4397301 51.999639, 4.439722 51.9996751, 4.4397051 51.9997119, 4.4396881 51.999736, 4.4396505 51.9997687), (4.4396505 51.9997687, 4.4396555 51.9998191, 4.4396735 51.9998632, 4.4398404 52.0001125, 4.4399683 52.0003196, 4.4402808 52.0008743, 4.4403098 52.0009297), (4.4403098 52.0009297, 4.4403463 52.0010095, 4.4403428 52.0010964), (4.4403428 52.0010964, 4.4404886 52.0013525, 4.4405358 52.001434), (4.4405358 52.001434, 4.4405931 52.0015321), (4.4405931 52.0015321, 4.4406427 52.0016127, 4.440951 52.002177, 4.4411178 52.0024548), (4.4411178 52.0024548, 4.4411776 52.0024952, 4.4412258 52.0025222, 4.441285 52.0025436, 4.4413613 52.0025585, 4.4422669 52.0027016, 4.4426834 52.0027671, 4.4429747 52.002813, 4.4431821 52.0028634, 4.4435545 52.0029563, 4.4440875 52.0030757, 4.4444079 52.0031504, 4.4444447 52.0031645, 4.4444687 52.0031769, 4.4444903 52.0031897), (4.4444903 52.0031897, 4.444548 52.0032184, 4.4445645 52.0032395, 4.4445749 52.0032636, 4.4445707 52.0032928, 4.4443287 52.0037623, 4.444291 52.0038305), (4.444291 52.0038305, 4.4444055 52.0038728, 4.444677 52.0039509), (4.444677 52.0039509, 4.4447353 52.0039688, 4.4450694 52.0040581, 4.446545 52.0043442, 4.4473278 52.0044855, 4.4480021 52.0046072, 4.4480621 52.0046186), (4.4480621 52.0046186, 4.4482026 52.0046321), (4.4482026 52.0046321, 4.4482467 52.0046072, 4.4483008 52.0045915, 4.4483599 52.0045862), (4.4483599 52.0045862, 4.448436 52.0045071, 4.4484674 52.0044644, 4.448588 52.0043211, 4.4487363 52.0041453, 4.4489789 52.0039386, 4.4492449 52.0037362, 4.4501244 52.0031903, 4.4501695 52.0031604, 4.450265 52.003093), (4.450265 52.003093, 4.4502434 52.0030682, 4.4502317 52.0030411, 4.4502307 52.0030129, 4.4502408 52.0029848, 4.4502615 52.002959, 4.4502916 52.002937, 4.4503227 52.0029225, 4.4503579 52.0029121, 4.4503958 52.0029063, 4.4504348 52.0029052, 4.4504733 52.002909), (4.4504733 52.002909, 4.4505645 52.0028382, 4.4506006 52.0028013, 4.4506932 52.0027026), (4.4506932 52.0027026, 4.4507998 52.0025848, 4.4509515 52.0023583, 4.4512163 52.0018386), (4.4512163 52.0018386, 4.4513073 52.0016721, 4.4514121 52.0014385, 4.4514277 52.0013787, 4.451427 52.0013379), (4.451427 52.0013379, 4.4514195 52.0013144, 4.451404 52.0012885, 4.4513766 52.0012566, 4.4513107 52.0011874), (4.4513107 52.0011874, 4.4512757 52.0011633, 4.4512493 52.0011413, 4.4512229 52.0011181, 4.4511867 52.0010774, 4.4511653 52.0010446, 4.4511498 52.0010104, 4.4511302 52.0009392, 4.4511312 52.0008849), (4.4511312 52.0008849, 4.4511431 52.0008261, 4.4511645 52.0007855), (4.4511645 52.0007855, 4.4511974 52.0007357, 4.451238 52.0006858, 4.451321 52.0005875), (4.451321 52.0005875, 4.4513653 52.0005443, 4.4514409 52.0004575, 4.4515955 52.0002764, 4.4518188 51.9999138, 4.4519129 51.9997231, 4.4520034 51.9994881), (4.4520034 51.9994881, 4.4520343 51.9993503, 4.4520535 51.9991725, 4.4520539 51.9989794), (4.4520539 51.9989794, 4.4520477 51.998653), (4.4520477 51.998653, 4.4520311 51.9982376), (4.4520311 51.9982376, 4.4520138 51.9977493), (4.4520138 51.9977493, 4.4520117 51.9976731, 4.4520033 51.9973796), (4.4520033 51.9973796, 4.451986 51.9970788), (4.451986 51.9970788, 4.4519813 51.996796), (4.4519813 51.996796, 4.4519766 51.9965597), (4.4519766 51.9965597, 4.4519614 51.9962718), (4.4519614 51.9962718, 4.451926 51.9959421, 4.4519194 51.9957928), (4.4519194 51.9957928, 4.4518996 51.9955959, 4.4518506 51.995287, 4.4517072 51.9947619, 4.4515167 51.9941997, 4.4512513 51.9935674, 4.4510337 51.993116, 4.4505769 51.9922765), (4.4505769 51.9922765, 4.4505072 51.992146), (4.4505072 51.992146, 4.4500153 51.9912967, 4.449735 51.9907937), (4.449735 51.9907937, 4.4495895 51.9905351, 4.4494411 51.9902606), (4.4494411 51.9902606, 4.4494708 51.9901857, 4.4495193 51.990115), (4.4495193 51.990115, 4.4495729 51.9900825, 4.449703 51.9900478, 4.4499248 51.9900378), (4.4517786 51.9893332, 4.4516603 51.9893629, 4.4515549 51.9894001, 4.4507155 51.9897455, 4.4501316 51.9899858, 4.4499248 51.9900378), (4.4533902 51.9894022, 4.4531404 51.9893453, 4.4528758 51.9892851, 4.4526217 51.9892511, 4.4523786 51.9892477, 4.4521135 51.9892613, 4.4518943 51.989299, 4.4517786 51.9893332), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4534431 51.9896457, 4.4537124 51.989795), (4.4537124 51.989795, 4.4537358 51.9898088, 4.453789 51.9898479, 4.4538154 51.9898909, 4.4538111 51.9899361, 4.4537861 51.9899867, 4.4537579 51.9900293, 4.4536849 51.9901411, 4.4535654 51.9901099, 4.4533996 51.9900666, 4.4533519 51.9900218, 4.4533436 51.9899686, 4.4533694 51.9899137, 4.4533972 51.9898604, 4.4534291 51.9898006, 4.4534338 51.9897681, 4.4534321 51.9897229, 4.4534431 51.9896457), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4559381 51.9899824, 4.4556971 51.9899487, 4.4555423 51.9899217, 4.4541691 51.9895931, 4.4533902 51.9894022), (4.4559381 51.9899824, 4.456041 51.9899735, 4.4560982 51.9899763, 4.456165 51.9899811, 4.4562348 51.989983, 4.4563143 51.9899995), (4.4580889 51.9897888, 4.4577493 51.9898563, 4.4576325 51.9898771, 4.4573482 51.9899251, 4.4569563 51.9899738, 4.4565921 51.9899927, 4.4563143 51.9899995), (4.4585413 51.9896822, 4.4580889 51.9897888), (4.4585413 51.9896822, 4.4586786 51.9896232, 4.4587687 51.9895934, 4.4588179 51.9895796, 4.4588887 51.9895691, 4.4589697 51.9895641), (4.4595392 51.9893945, 4.4589697 51.9895641), (4.4625128 51.9886669, 4.4624158 51.9886872, 4.462359 51.9886987, 4.4622552 51.9887199, 4.4621419 51.988744, 4.4608387 51.9890217, 4.4604064 51.9891387, 4.4595392 51.9893945), (4.4626924 51.9886291, 4.4625128 51.9886669), (4.4626924 51.9886291, 4.4627506 51.9887324, 4.4631133 51.9893721, 4.4631305 51.9894042), (4.4631305 51.9894042, 4.4632009 51.9895357), (4.4632009 51.9895357, 4.4632142 51.9895608, 4.4635192 51.990115, 4.463582 51.9902292, 4.4639289 51.9908599, 4.4645315 51.9919631, 4.4646219 51.9921103, 4.4646492 51.9921548, 4.4647132 51.9922589, 4.4650082 51.9926747), (4.4650082 51.9926747, 4.4650968 51.9927761), (4.4650968 51.9927761, 4.4651916 51.9928732, 4.465219 51.9928921), (4.465219 51.9928921, 4.4652643 51.992931), (4.4652643 51.992931, 4.4653058 51.9929333, 4.4653591 51.9929417, 4.4654157 51.9929554, 4.4654696 51.9929756, 4.4655102 51.9930031, 4.4655474 51.9930424), (4.4655474 51.9930424, 4.465565 51.9930906, 4.4655621 51.9931352, 4.4655388 51.9931799, 4.4655066 51.9932183), (4.4655066 51.9932183, 4.4655831 51.9932856, 4.4657944 51.9934424, 4.4658148 51.993455, 4.4659176 51.9935071, 4.4662139 51.9936531, 4.4663426 51.9937108, 4.4664994 51.9937809, 4.4666079 51.993832, 4.466716 51.9938859, 4.4669254 51.9939877, 4.4685191 51.9947486, 4.4690475 51.9949949, 4.469488 51.9952048, 4.4695416 51.9952304, 4.4697342 51.9953186), (4.4697342 51.9953186, 4.4711577 51.9960095, 4.4712769 51.9960907, 4.4713962 51.996168, 4.4715314 51.996238, 4.4716059 51.9962769, 4.471787 51.9963534, 4.4730463 51.9968836, 4.4736488 51.9971354, 4.4738278 51.9972094, 4.4739627 51.9972671, 4.4741065 51.9973242, 4.4742802 51.9973932, 4.474357 51.9974184, 4.4744825 51.9974799, 4.4745466 51.9974921, 4.4748494 51.9975246, 4.4749184 51.9975385, 4.4764732 51.9981894, 4.4766146 51.9982496, 4.4767503 51.9983095, 4.4777544 51.9987314, 4.4778945 51.9987773, 4.4780501 51.9988106, 4.4782557 51.9988545), (4.4787004 51.9988266, 4.4784196 51.9988442, 4.478308 51.9988512, 4.4782557 51.9988545), (4.481089 51.9986847, 4.4807705 51.9987064, 4.4805147 51.9987126, 4.4792085 51.9987946, 4.4787004 51.9988266), (4.481089 51.9986847, 4.4812538 51.9986642), (4.4812538 51.9986642, 4.4813612 51.9986656), (4.482258 52.0020059, 4.4819645 52.0009823, 4.4819339 52.0008687, 4.4818251 52.0004813, 4.481809 52.0004014, 4.481602 51.9996075, 4.4813612 51.9986656), (4.48462 52.0018028, 4.4841 52.0018, 4.4838128 52.0018195, 4.4833894 52.0018664, 4.482258 52.0020059), (4.48462 52.0018028, 4.4846152 52.0027557, 4.4845933 52.0036271, 4.484584 52.0038032, 4.4845755 52.0040883, 4.4845679 52.0048652), (4.4845679 52.0048652, 4.4845576 52.0059411, 4.4845683 52.0059924, 4.4846326 52.0061477), (4.4846326 52.0061477, 4.4846804 52.0062473), (4.4846804 52.0062473, 4.4847222 52.0063235), (4.4849465 52.006273, 4.4848744 52.0062894, 4.4847222 52.0063235), (4.4849465 52.006273, 4.4850335 52.0062393, 4.4850962 52.0062216, 4.4851193 52.0062185, 4.4851952 52.0062079, 4.4852259 52.0062056, 4.4853216 52.0062201), (4.4914316 52.0060064, 4.4908613 52.0061234, 4.4903504 52.0062195, 4.4902322 52.0062382, 4.4900856 52.0062428, 4.4895604 52.0062371, 4.4893536 52.0062348, 4.4880591 52.0062199, 4.4862985 52.0062126, 4.4856745 52.0062143, 4.4853216 52.0062201), (4.4921053 52.0057447, 4.4920917 52.005766, 4.4920727 52.0057859, 4.4920314 52.0058186, 4.4919711 52.0058547, 4.4919147 52.0058799, 4.4918446 52.005904, 4.4916066 52.0059698, 4.4914316 52.0060064), (4.4919153 52.0051213, 4.4920522 52.0053727, 4.4921213 52.0055, 4.4921321 52.0055311, 4.4921389 52.0055689, 4.4921369 52.0056444, 4.4921235 52.0056959, 4.4921053 52.0057447), (4.4914897 52.0032121, 4.4914883 52.0032885, 4.491485 52.0040297, 4.4914688 52.004192, 4.4914761 52.0042731, 4.4915084 52.004358, 4.4916607 52.0046465, 4.4918473 52.0049872, 4.4919153 52.0051213), (4.4908325 52.0016296, 4.4909394 52.0017495, 4.491241 52.0020485, 4.4913529 52.002184, 4.4914252 52.0023298, 4.4914711 52.0024423, 4.4914985 52.002546, 4.4915076 52.0026788, 4.4915035 52.0027773, 4.4914994 52.0030179, 4.4914897 52.0032121), (4.4866087 51.9972193, 4.4867064 51.9973671, 4.4868836 51.9976102, 4.4877534 51.9985069, 4.4879633 51.998718, 4.4881191 51.9988797, 4.4883429 51.9991121, 4.4886996 51.9994824, 4.488778 51.9995638, 4.489098 51.9998886, 4.4891516 51.9999445, 4.4894194 52.0002185, 4.4896256 52.0004241, 4.4903229 52.0011061, 4.4904195 52.0012101, 4.4907038 52.0014989, 4.4908325 52.0016296), (4.4866087 51.9972193, 4.4865115 51.9971222, 4.4864383 51.9970142, 4.4863002 51.9968198, 4.4862606 51.9967609, 4.4862281 51.9966797, 4.4862018 51.9965918), (4.4862018 51.9965918, 4.4861425 51.9965737, 4.4860964 51.9965444, 4.486069 51.9965073, 4.4860633 51.9964667, 4.4860724 51.9964392, 4.4860917 51.9964138, 4.4861362 51.996383, 4.486195 51.9963632, 4.4862613 51.996357), (4.4862613 51.996357, 4.4863325 51.9962887, 4.4864415 51.9961629, 4.4866202 51.9960083, 4.4868459 51.9958794, 4.4870317 51.9958274), (4.489175 51.9947712, 4.4890171 51.9948481, 4.4885523 51.9950785, 4.4883067 51.9951999, 4.4872715 51.9957093, 4.4870317 51.9958274), (4.4893767 51.9946729, 4.489175 51.9947712), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4897415 51.9944962, 4.4898099 51.9944327, 4.4898827 51.9943828), (4.4898827 51.9943828, 4.4898632 51.9943444, 4.4898621 51.9943042, 4.4898795 51.9942655), (4.4898795 51.9942655, 4.4899002 51.9942425, 4.4899275 51.9942224, 4.4899604 51.9942057, 4.4900253 51.994187, 4.4900964 51.9941816, 4.4901667 51.9941901, 4.4902293 51.9942116), (4.4902293 51.9942116, 4.4903455 51.99417, 4.4904477 51.9941336, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911912 51.9939533, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4928618 51.9933762, 4.4928445 51.9933386, 4.4928496 51.9932997, 4.4928766 51.9932644, 4.4929221 51.9932372, 4.4929811 51.9932214, 4.4930454 51.9932195, 4.4931065 51.9932319, 4.4931475 51.9932505), (4.4997193 51.9899727, 4.4993802 51.9901192, 4.4991798 51.9902124, 4.4989763 51.9903028, 4.4984151 51.9905956, 4.4981121 51.990745, 4.4979333 51.9908371, 4.4977338 51.9909353, 4.4969219 51.9913518, 4.4964086 51.9916209, 4.4962083 51.9917271, 4.4960082 51.9918288, 4.4957711 51.9919497, 4.494653 51.9925049, 4.4944611 51.9926006, 4.4942524 51.9927028, 4.4931971 51.9932268, 4.4931475 51.9932505), (4.4997193 51.9899727, 4.4998067 51.9899287), (4.5000545 51.9897699, 4.5000227 51.9897975, 4.4999537 51.9898508, 4.4998067 51.9899287), (4.5002077 51.9891235, 4.5002047 51.9891932, 4.500193 51.9893184, 4.500114 51.9896098, 4.5001076 51.9896569, 4.5000545 51.9897699), (4.5001201 51.9886931, 4.5001937 51.9890499, 4.5002077 51.9891235), (4.4999039 51.9877363, 4.4999389 51.9878691, 4.499963 51.9879634, 4.4999657 51.987974, 4.5000026 51.9881061, 4.5000337 51.9882353, 4.5000893 51.9884995, 4.5001064 51.9886068, 4.5001201 51.9886931), (4.4998134 51.9874232, 4.4998933 51.987699, 4.4999039 51.9877363), (4.4996791 51.9869375, 4.4998134 51.9874232), (4.4981174 51.9808894, 4.4981715 51.9810096, 4.4982053 51.9811134, 4.4984383 51.9821217, 4.4986538 51.9829816, 4.4987615 51.9834112, 4.4989318 51.9840177, 4.4989622 51.9841395, 4.4991534 51.9849077, 4.4992515 51.9853211, 4.4993081 51.9855413, 4.499362 51.9857965, 4.499392 51.9859064, 4.4993962 51.9859288, 4.4994133 51.9860023, 4.4994368 51.9860844, 4.499546 51.9864494, 4.4996045 51.9866583, 4.4996791 51.9869375), (4.4965634 51.9808041, 4.4970291 51.9806298, 4.4971787 51.9805925, 4.4973039 51.9805796, 4.4974478 51.9805795, 4.4976 51.9805982, 4.4977807 51.9806384, 4.4979379 51.9807144, 4.498042 51.980788, 4.4980823 51.9808423, 4.4981174 51.9808894), (4.4965634 51.9808041, 4.4965173 51.9808771, 4.496176 51.9810216, 4.4960953 51.9810494), (4.4960953 51.9810494, 4.4960412 51.9810675, 4.4959503 51.9810838, 4.4958413 51.9810828), (4.4958413 51.9810828, 4.4957231 51.9810898, 4.4955693 51.9810601, 4.4955317 51.9810547), (4.4955317 51.9810547, 4.4955102 51.9810681, 4.4954769 51.9810848, 4.4954302 51.981102, 4.4953665 51.9811159, 4.4953217 51.9811304), (4.4953217 51.9811304, 4.4952887 51.9811467, 4.4952548 51.9811727, 4.495234 51.9811917, 4.4951802 51.9812312), (4.4951802 51.9812312, 4.495143 51.9812865, 4.494895 51.9816249), (4.494895 51.9816249, 4.4946711 51.9818096, 4.4943429 51.9820067, 4.4939941 51.9821831, 4.4935324 51.9824488, 4.4930508 51.9826908), (4.4930508 51.9826908, 4.4925487 51.9829295), (4.4925487 51.9829295, 4.4920766 51.9831637, 4.4920452 51.9831798), (4.4920452 51.9831798, 4.4920115 51.9831936, 4.491994 51.9832093, 4.4919879 51.9832343, 4.4919838 51.9832761, 4.4919628 51.9833184, 4.4919358 51.9833433, 4.4918917 51.9833633, 4.4918477 51.9833749, 4.4917903 51.9833871, 4.4917073 51.9833865, 4.4916495 51.9833753, 4.4915955 51.9833592, 4.4915571 51.9833392, 4.4915229 51.9833147, 4.491504 51.9832947, 4.4914841 51.9832664), (4.4914841 51.9832664, 4.4914715 51.9832208, 4.4914804 51.9831786, 4.4914932 51.9831401, 4.4915216 51.9831069, 4.4915756 51.9830753, 4.4916293 51.9830541), (4.4916293 51.9830541, 4.4916858 51.9830372, 4.4917521 51.983031, 4.4918225 51.9830355), (4.4918225 51.9830355, 4.4918662 51.9830324, 4.4919124 51.983024, 4.4919709 51.9830095, 4.4921982 51.9828927, 4.4922841 51.9828834), (4.4922841 51.9828834, 4.4925307 51.9827731, 4.492717 51.9826819, 4.4933681 51.9823776), (4.4933681 51.9823776, 4.4937246 51.9822065, 4.4939455 51.982087), (4.4939455 51.982087, 4.4943416 51.9818815), (4.4943416 51.9818815, 4.4946096 51.9817104, 4.4947053 51.9816317), (4.4947053 51.9816317, 4.4949342 51.9813468, 4.4949935 51.9812586, 4.495027 51.9812063), (4.495027 51.9812063, 4.4950251 51.9811519, 4.4950562 51.9810895, 4.4950675 51.9810529, 4.4950704 51.9810324), (4.4950704 51.9810324, 4.4950359 51.9810099, 4.4950124 51.9809837, 4.4949949 51.9809538, 4.4949874 51.9809271, 4.4949864 51.9808948, 4.494993 51.9808638, 4.4950048 51.9808402, 4.4950209 51.9808164), (4.4950209 51.9808164, 4.4950628 51.9807787), (4.4950628 51.9807787, 4.4950958 51.9807592, 4.4951392 51.98074, 4.4951784 51.9807287, 4.4952364 51.9807156, 4.4952708 51.9807023), (4.4952708 51.9807023, 4.4952972 51.980686, 4.4953194 51.9806662, 4.4953467 51.9806369, 4.4953987 51.9806041), (4.4953987 51.9806041, 4.4957071 51.9801924), (4.4957071 51.9801924, 4.4959618 51.9797979), (4.4959618 51.9797979, 4.4960434 51.9796992, 4.496125 51.9796139, 4.4962543 51.9795086, 4.4964098 51.9794157, 4.4966192 51.979337, 4.4968071 51.9792848, 4.4970289 51.9792408, 4.4973611 51.9791933), (4.4973611 51.9791933, 4.4973838 51.9791499, 4.4974295 51.9791141, 4.4974926 51.9790903), (4.4974926 51.9790903, 4.4975183 51.979005, 4.4975434 51.9788928), (4.4971464 51.97733, 4.4972527 51.9777293, 4.4973309 51.9780316, 4.4974101 51.9783281, 4.4974343 51.9784326, 4.4974892 51.9786302, 4.4975434 51.9788928), (4.4971464 51.97733, 4.4970989 51.9772726, 4.4970161 51.9770078, 4.4969971 51.9769273, 4.496978 51.9768026, 4.4969771 51.9767714, 4.4969636 51.9765714), (4.4961024 51.9727832, 4.4961015 51.9728668, 4.4961753 51.9732404, 4.4962275 51.9734478, 4.4962658 51.9736254, 4.4962957 51.9737643, 4.4964149 51.9742908, 4.4964342 51.9743737, 4.4965369 51.9748032, 4.4967156 51.9755394, 4.4968832 51.9762228, 4.4969636 51.9765714), (4.5002492 51.9716854, 4.5000576 51.9717267, 4.4991401 51.9719458, 4.4986637 51.9720492, 4.4978453 51.9721916, 4.4974265 51.972249, 4.4971525 51.9722888, 4.4968884 51.9723447, 4.4967243 51.9724122, 4.4966652 51.9724535, 4.4966061 51.9724848, 4.4965057 51.9725279, 4.4963063 51.9725859, 4.4962111 51.9726272, 4.4961615 51.9726636, 4.4961239 51.9727032, 4.4961024 51.9727832), (4.5002492 51.9716854, 4.5006153 51.9715763, 4.5007253 51.9715276, 4.5008031 51.9714763, 4.500854 51.9714309, 4.5008808 51.971364, 4.5008808 51.9713086, 4.5008607 51.9712359, 4.5008167 51.9711788, 4.5007588 51.9711137, 4.5003953 51.9707444, 4.5003323 51.9707063, 4.5002371 51.9706675, 4.5001003 51.9706435, 4.4999917 51.970646, 4.4997985 51.9706948, 4.4987686 51.9709939, 4.4986198 51.9710302, 4.4985129 51.9710358, 4.4984065 51.9710261, 4.4983207 51.9710046, 4.498179 51.9709504), (4.4980914 51.9708919, 4.498179 51.9709504), (4.4980914 51.9708919, 4.4979445 51.9707883, 4.4977968 51.9706942, 4.4977041 51.9706575, 4.4975943 51.9706413, 4.4974944 51.9706426, 4.4973708 51.9706611, 4.4972171 51.9707193, 4.4967275 51.9709371, 4.4965149 51.9710201, 4.4962909 51.9710584, 4.4961467 51.9710591, 4.496014 51.9710393, 4.4958913 51.9709862, 4.4957954 51.9709021), (4.4954332 51.9676581, 4.4954411 51.9678838, 4.4954521 51.9684068, 4.4954713 51.9688019, 4.4954917 51.9691899, 4.4955033 51.9693673, 4.495566 51.969827, 4.4956524 51.9703215, 4.4957124 51.970642, 4.4957325 51.9707772, 4.4957618 51.9708617, 4.4957954 51.9709021), (4.4954332 51.9676581, 4.4953896 51.9674814, 4.4953862 51.9674263, 4.4953845 51.9673797, 4.4954163 51.9671868), (4.4955663 51.9640734, 4.4955623 51.9641835, 4.4955559 51.9642203, 4.4955452 51.9642812, 4.4955337 51.9644234, 4.4955123 51.9646891, 4.4954676 51.9652903, 4.4954032 51.9664572, 4.4954062 51.9669155, 4.4954163 51.9671868), (4.495412 51.9638569, 4.4955136 51.9639566, 4.4955663 51.9640734), (4.4953332 51.9638076, 4.495412 51.9638569), (4.4951771 51.9637166, 4.4953332 51.9638076), (4.4951771 51.9637166, 4.4954081 51.963595, 4.4956621 51.9634612, 4.4959179 51.9633575), (4.4959179 51.9633575, 4.4958561 51.9632692, 4.4957541 51.9631117, 4.4957229 51.9630449, 4.4957171 51.9630004, 4.4957258 51.9629538), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4947256 51.9588903, 4.4945035 51.9589287, 4.4944445 51.9589371, 4.494325 51.958957, 4.4941102 51.9590205, 4.4938361 51.9591313, 4.4935002 51.9592896, 4.4933364 51.9593655, 4.4931854 51.9594332, 4.4926965 51.9596564, 4.4914524 51.9602241, 4.4912643 51.9602903, 4.4911922 51.9603044, 4.4910264 51.9603364), (4.4910264 51.9603364, 4.4910421 51.9604157, 4.4910459 51.9604351), (4.4910459 51.9604351, 4.4910507 51.9604705, 4.4910534 51.9604924, 4.4910854 51.9607568, 4.4910739 51.961431, 4.4910719 51.961555), (4.4897511 51.9615623, 4.4900178 51.9615474, 4.4903622 51.9615531, 4.4905097 51.9615526, 4.490683 51.9615525, 4.4910719 51.961555), (4.48713 51.9615821, 4.4871915 51.9615415, 4.4874932 51.961539, 4.488508 51.9615501, 4.4885688 51.9615506, 4.4894977 51.961557, 4.4897511 51.9615623), (4.48713 51.9615821, 4.4871272 51.9619825, 4.4871292 51.9620547, 4.4871247 51.9622869, 4.4871104 51.9627074, 4.4869815 51.9627937, 4.486992 51.9631635, 4.4869885 51.9634249), (4.4869885 51.9634249, 4.485925 51.9636442, 4.4858047 51.963669, 4.4856888 51.9636914, 4.485437 51.9637432, 4.4852684 51.9637795, 4.4849452 51.9638462), (4.4849452 51.9638462, 4.4848236 51.9638723), (4.4848236 51.9638723, 4.4846916 51.9639001), (4.4846916 51.9639001, 4.484572 51.9636895, 4.4830747 51.9609292, 4.482798 51.9605113, 4.4827659 51.9604692), (4.4827659 51.9604692, 4.4826988 51.9603784), (4.4826988 51.9603784, 4.4826396 51.9603727, 4.4825866 51.9603556), (4.4825866 51.9603556, 4.4824278 51.9603887, 4.4823707 51.9604014, 4.4821664 51.960447, 4.4819445 51.9604698), (4.4819445 51.9604698, 4.4818827 51.9604906, 4.481745 51.960534, 4.4813992 51.960639, 4.480526 51.9610628, 4.4803729 51.9611376, 4.4801984 51.9612308), (4.4801984 51.9612308, 4.4800966 51.9612777), (4.4800966 51.9612777, 4.4799524 51.9613537, 4.4793479 51.9616521, 4.4790786 51.9617758, 4.4787651 51.9619302), (4.4787651 51.9619302, 4.4783882 51.962113, 4.4782329 51.9621894, 4.4780393 51.9622869), (4.4780393 51.9622869, 4.4775142 51.9625512, 4.4768852 51.9628544, 4.4767266 51.962937, 4.4759319 51.9633184, 4.4751352 51.9637155), (4.4751352 51.9637155, 4.4747088 51.9639143), (4.4747088 51.9639143, 4.474607 51.963973, 4.4744308 51.9640625), (4.4744308 51.9640625, 4.474373 51.9640176, 4.4742847 51.963949, 4.4741045 51.9638091, 4.4733156 51.9631965, 4.4726725 51.9626971, 4.4724536 51.9625271, 4.47179 51.9620118, 4.4715589 51.961837, 4.4714528 51.9617877), (4.4714528 51.9617877, 4.4713632 51.9617284, 4.4711428 51.9615583, 4.4705699 51.9611146, 4.4699648 51.9606445, 4.4696856 51.9604286, 4.4696653 51.9604127, 4.4695668 51.960338, 4.4694908 51.9602785, 4.4693497 51.9601669, 4.4686232 51.9596049, 4.468084 51.9591884, 4.4679294 51.9590693, 4.4678558 51.95901, 4.4677917 51.9589409, 4.4677461 51.9588596, 4.4677132 51.9587639, 4.4676851 51.9586616), (4.4676851 51.9586616, 4.4678085 51.9584593, 4.468 51.9582), (4.468 51.9582, 4.4681407 51.9579625, 4.4681736 51.9579101, 4.4681811 51.9578518, 4.4681859 51.9577</t>
+          <t>MULTILINESTRING ((4.4887007 51.9098734, 4.4885343 51.909937, 4.4885134 51.9099552, 4.4884905 51.9100929), (4.4884905 51.9100929, 4.4884696 51.9101109, 4.488461 51.9101275, 4.488454 51.9101571, 4.4884551 51.9101784, 4.4884625 51.910203, 4.4884775 51.9102276, 4.488686 51.9104572), (4.488686 51.9104572, 4.4888036 51.9105812, 4.4890247 51.910823, 4.4890996 51.9108973, 4.4891799 51.9109683, 4.4893549 51.9111164, 4.4895537 51.9112732, 4.4897565 51.9114175, 4.4898695 51.9114917, 4.4905163 51.9118889, 4.4906179 51.9119515, 4.4906597 51.9119763, 4.4911765 51.9122837, 4.4922134 51.912905, 4.4922375 51.912919, 4.4924267 51.913028, 4.4932208 51.9134961, 4.4933622 51.9135762, 4.4936604 51.9137514, 4.4938736 51.9138777, 4.4945562 51.914284, 4.4952138 51.9146726, 4.4958079 51.9150466, 4.4961315 51.9152289), (4.4961315 51.9152289, 4.4968368 51.9156082, 4.497003 51.9156897, 4.4971323 51.9157425), (4.4971323 51.9157425, 4.4976322 51.9159399), (4.4976322 51.9159399, 4.4976603 51.915951, 4.4977632 51.9159901, 4.4978903 51.9160341, 4.4981724 51.9161171, 4.4984759 51.9162, 4.4989967 51.9163185, 4.4993714 51.916385, 4.4994996 51.9164026, 4.4996603 51.9164161, 4.5003868 51.9164725, 4.5004473 51.9164704, 4.500504 51.9164641), (4.5010915 51.9156274, 4.5008931 51.9157639, 4.5007629 51.9158608, 4.5007163 51.9159017, 4.5006724 51.9159409, 4.5006489 51.915973, 4.5006339 51.9160019, 4.5006215 51.916029, 4.5005915 51.9161794, 4.5005566 51.9164196, 4.5005449 51.9164398, 4.5005249 51.9164555, 4.500504 51.9164641), (4.5001783 51.9151265, 4.5003585 51.9152253, 4.5008877 51.9155156, 4.5010915 51.9156274), (4.5001783 51.9151265, 4.4995075 51.914772), (4.4995075 51.914772, 4.4993801 51.9147347, 4.49928 51.9146993, 4.4991129 51.9146359), (4.4991129 51.9146359, 4.4989701 51.9145638), (4.4989701 51.9145638, 4.4986871 51.9144419), (4.4986871 51.9144419, 4.4986649 51.9144169, 4.4986453 51.9143971, 4.4985877 51.9143677, 4.4984414 51.9143149), (4.4984414 51.9143149, 4.498055 51.9140583, 4.4979504 51.9139985, 4.4977613 51.9138903, 4.4972593 51.9136076, 4.4971106 51.9135228, 4.497028 51.9134789), (4.497028 51.9134789, 4.496939 51.9134143), (4.496939 51.9134143, 4.4968303 51.9133422, 4.4967505 51.9132971, 4.4966238 51.9132097), (4.4966238 51.9132097, 4.4962848 51.913035), (4.4896 51.9098, 4.4903329 51.9100839, 4.4905089 51.9101496, 4.4919424 51.9106955, 4.4921701 51.9107843, 4.4922898 51.9108294, 4.4923815 51.9108733, 4.4926629 51.9110231, 4.4933122 51.9113885, 4.4934289 51.9114536, 4.4939139 51.9117241, 4.4945202 51.9120536, 4.4946679 51.9121412, 4.4950923 51.9123769, 4.495692 51.9127099, 4.4960797 51.9129323, 4.4962848 51.913035), (4.4896 51.9098, 4.4895393 51.9097808, 4.4895036 51.9097712, 4.4894598 51.9097649, 4.4894168 51.9097621, 4.4893711 51.909766), (4.4893711 51.909766, 4.4891298 51.9097083, 4.4890868 51.9097192, 4.4887007 51.9098734))</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2014244</t>
+          <t>384665</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Delft, Station Delft</t>
+          <t>Vlaardingen, Begraafplaats Holy</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Bus 174: Rotterdam Station Noord =&gt; Delft Station Delft</t>
+          <t>Bus 56: Vlaardingen West =&gt; Vlaardingen Holy Noord</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2827,14 +2827,14 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4813935 51.941748, 4.4813314 51.9419118, 4.4813558 51.941945, 4.4814209 51.9419694, 4.4815096 51.9419788, 4.481581 51.9419607, 4.4816095 51.9419281, 4.4816789 51.9417666, 4.4817797 51.9414578, 4.4814951 51.9414329), (4.480616 51.9413643, 4.4814951 51.9414329), (4.480616 51.9413643, 4.4804787 51.9413853, 4.4803345 51.9414021, 4.4802377 51.9414509, 4.4801813 51.9414816), (4.4801813 51.9414816, 4.4802986 51.9415635, 4.4804532 51.9416839, 4.4806353 51.9418258), (4.4806353 51.9418258, 4.4807524 51.94195, 4.4810792 51.9423961), (4.4810792 51.9423961, 4.4812448 51.9426017, 4.4812703 51.9426404, 4.4813131 51.9427053, 4.4813138 51.942748), (4.4813897 51.9428247, 4.4813555 51.9427901, 4.4813138 51.942748), (4.4813897 51.9428247, 4.4814383 51.9428843, 4.4815631 51.9430218), (4.4815631 51.9430218, 4.4816142 51.9430782, 4.4817293 51.943237, 4.4819953 51.9436335, 4.4820566 51.943731, 4.4821291 51.9438465, 4.4824428 51.9443158), (4.4824428 51.9443158, 4.4825407 51.9444279, 4.4827063 51.9446175, 4.4827625 51.9446875, 4.4827806 51.9447102, 4.4828101 51.944769, 4.4828347 51.9448179), (4.4828347 51.9448179, 4.4827924 51.9448266, 4.482754 51.9448356, 4.4826988 51.944848), (4.4826988 51.944848, 4.4825871 51.944873, 4.4825182 51.9448884, 4.4823448 51.9449106, 4.4818519 51.9449682, 4.4812236 51.9450368, 4.4809328 51.9450716, 4.4808488 51.9450815, 4.4803019 51.9451399, 4.4801595 51.945156, 4.4801351 51.9451588, 4.4790704 51.9452794, 4.4781022 51.9453857, 4.4779668 51.9453999), (4.4779668 51.9453999, 4.4778303 51.9454327, 4.47778 51.9454403, 4.477712 51.9454447, 4.4776131 51.9454394, 4.4775288 51.9454228, 4.477415 51.9453947), (4.477415 51.9453947, 4.4773415 51.9453881, 4.4767811 51.9453476, 4.4762416 51.9453216, 4.4761529 51.9453185, 4.4759623 51.9453128), (4.4759623 51.9453128, 4.4758806 51.9453227, 4.4757415 51.945338, 4.4754206 51.9453496, 4.4751828 51.9453637), (4.4751828 51.9453637, 4.4746089 51.9453944, 4.474525 51.9453946, 4.4744396 51.9453948, 4.4743637 51.9453929), (4.4743637 51.9453929, 4.4743669 51.945474, 4.4743141 51.9455834), (4.4743141 51.9455834, 4.4742225 51.9460215), (4.4742225 51.9460215, 4.4742204 51.946177, 4.4742181 51.9463465), (4.4742181 51.9463465, 4.4742212 51.9464449, 4.4742223 51.9464814, 4.4742247 51.9465553, 4.4742137 51.9467044), (4.4742137 51.9467044, 4.4742313 51.9467483, 4.4748804 51.9483275, 4.4750004 51.9486179), (4.4750004 51.9486179, 4.4750697 51.9487206, 4.4750736 51.9488339, 4.4750211 51.9489553, 4.4749412 51.9490543, 4.4748507 51.9491163), (4.4748507 51.9491163, 4.4747347 51.9491597, 4.4744511 51.9492319, 4.4724441 51.9495501), (4.4724441 51.9495501, 4.4722236 51.9495855, 4.4721214 51.9496012, 4.4712745 51.9497315, 4.4711276 51.9497567, 4.4708872 51.9497798), (4.4708872 51.9497798, 4.4709069 51.9498969, 4.470883 51.9500045, 4.470725 51.9502601), (4.470725 51.9502601, 4.4704577 51.9507442, 4.470402 51.9508451), (4.470402 51.9508451, 4.4703107 51.9510147, 4.4701238 51.9513108, 4.4699545 51.9515844, 4.469784 51.9518459, 4.4696945 51.9520686, 4.469386 51.9525648, 4.4686399 51.953867, 4.4685887 51.9539497, 4.4685672 51.9539905), (4.4685672 51.9539905, 4.468504 51.9541022, 4.4684566 51.9541861, 4.4684043 51.9542715, 4.4683032 51.954431), (4.4683032 51.954431, 4.4681905 51.9544089, 4.468116 51.9543855), (4.468116 51.9543855, 4.4670979 51.9541577, 4.4661587 51.9539462, 4.4658518 51.9538771, 4.464732 51.9536516, 4.4645 51.9536), (4.4647572 51.9531557, 4.4646279 51.9533791, 4.4645905 51.9534436, 4.4645 51.9536), (4.4647572 51.9531557, 4.4683727 51.9539508), (4.4683727 51.9539508, 4.4684445 51.9539665, 4.4685672 51.9539905), (4.4685672 51.9539905, 4.468504 51.9541022, 4.4684566 51.9541861, 4.4684043 51.9542715, 4.4683032 51.954431), (4.4683032 51.954431, 4.467476 51.9558769, 4.4672232 51.9563173, 4.4671981 51.956416), (4.4671981 51.956416, 4.4671822 51.9565116, 4.4671822 51.9566051, 4.4671968 51.9566508, 4.4672196 51.956722, 4.4672278 51.9567478, 4.4672903 51.9568594, 4.467397 51.9569706, 4.4680629 51.9574963), (4.4680629 51.9574963, 4.4681846 51.9575637), (4.4681846 51.9575637, 4.4683059 51.9576698), (4.4683059 51.9576698, 4.4683462 51.9577346), (4.4683462 51.9577346, 4.4683573 51.9577851, 4.4683573 51.9578788, 4.4683109 51.9579628), (4.4683109 51.9579628, 4.4679177 51.9584885, 4.4678926 51.958553, 4.4678584 51.9586325, 4.4679159 51.95864, 4.468 51.9587, 4.4684216 51.9590256, 4.4689399 51.9594256, 4.4694545 51.9598513, 4.4699547 51.9602468, 4.470203 51.9604439, 4.4702841 51.9605108, 4.470885 51.9609722, 4.4715877 51.9615163, 4.4717023 51.9616104, 4.4717249 51.9616302, 4.4717726 51.9616668, 4.4718226 51.9617145, 4.4723621 51.9621207, 4.4727903 51.9624462, 4.4729563 51.9625613, 4.4735656 51.9630413, 4.4741014 51.9634575, 4.4745749 51.9638085, 4.4747088 51.9639143), (4.4751352 51.9637155, 4.4747088 51.9639143), (4.4780393 51.9622869, 4.4775142 51.9625512, 4.4768852 51.9628544, 4.4767266 51.962937, 4.4759319 51.9633184, 4.4751352 51.9637155), (4.4787651 51.9619302, 4.4783882 51.962113, 4.4782329 51.9621894, 4.4780393 51.9622869), (4.4800966 51.9612777, 4.4799524 51.9613537, 4.4793479 51.9616521, 4.4790786 51.9617758, 4.4787651 51.9619302), (4.4801984 51.9612308, 4.4800966 51.9612777), (4.4819445 51.9604698, 4.4818827 51.9604906, 4.481745 51.960534, 4.4813992 51.960639, 4.480526 51.9610628, 4.4803729 51.9611376, 4.4801984 51.9612308), (4.4819445 51.9604698, 4.4821229 51.9603849, 4.482319 51.9603192, 4.4823665 51.9603033, 4.4825139 51.9602582), (4.4825139 51.9602582, 4.4825318 51.9602154, 4.4825721 51.9601823), (4.4825721 51.9601823, 4.4826206 51.9601625, 4.4826919 51.9601523), (4.4826919 51.9601523, 4.482766 51.9601602, 4.4828239 51.9601806), (4.4828239 51.9601806, 4.4828454 51.9601988, 4.4828738 51.9602351, 4.4828798 51.9602752), (4.4828798 51.9602752, 4.4828666 51.9603086, 4.4828376 51.960338), (4.4828376 51.960338, 4.4829107 51.9604259), (4.4829107 51.9604259, 4.4829466 51.9604709, 4.4831758 51.9609149, 4.4847035 51.9636655, 4.4848236 51.9638723), (4.4849452 51.9638462, 4.4848236 51.9638723), (4.4869885 51.9634249, 4.485925 51.9636442, 4.4858047 51.963669, 4.4856888 51.9636914, 4.485437 51.9637432, 4.4852684 51.9637795, 4.4849452 51.9638462), (4.48713 51.9615821, 4.4871272 51.9619825, 4.4871292 51.9620547, 4.4871247 51.9622869, 4.4871104 51.9627074, 4.4869815 51.9627937, 4.486992 51.9631635, 4.4869885 51.9634249), (4.48713 51.9615821, 4.4871915 51.9615415, 4.4874932 51.961539, 4.488508 51.9615501, 4.4885688 51.9615506, 4.4894977 51.961557, 4.4897511 51.9615623), (4.4897511 51.9615623, 4.4900178 51.9615474, 4.4903622 51.9615531, 4.4905097 51.9615526, 4.490683 51.9615525, 4.4910719 51.961555), (4.4910459 51.9604351, 4.4910507 51.9604705, 4.4910534 51.9604924, 4.4910854 51.9607568, 4.4910739 51.961431, 4.4910719 51.961555), (4.4910264 51.9603364, 4.4910421 51.9604157, 4.4910459 51.9604351), (4.4909839 51.9602607, 4.4910264 51.9603364), (4.4909839 51.9602607, 4.4911408 51.9602268, 4.4914118 51.9601614, 4.4926451 51.9596135, 4.4927862 51.9595491), (4.4927862 51.9595491, 4.4931374 51.9593884, 4.4932486 51.9593394), (4.4932486 51.9593394, 4.4934496 51.9592457, 4.4937927 51.9590891, 4.49417 51.9589289, 4.4943728 51.9588738, 4.4944196 51.9588654, 4.4944834 51.9588498, 4.4947057 51.9588168), (4.4947057 51.9588168, 4.4947256 51.9588903), (4.4947256 51.9588903, 4.4947429 51.9589494, 4.4947495 51.958972, 4.4947614 51.9590119, 4.494768 51.9590383, 4.4947755 51.9590678, 4.4948041 51.9591666), (4.4948041 51.9591666, 4.4948437 51.9592916), (4.4948437 51.9592916, 4.4949061 51.9594669, 4.4949803 51.959738, 4.4950798 51.9601012), (4.4950798 51.9601012, 4.4951466 51.960356), (4.4951466 51.960356, 4.4952956 51.960924, 4.4955636 51.9618781, 4.4956487 51.9623058, 4.4956774 51.9628098, 4.4957258 51.9629538), (4.4957258 51.9629538, 4.495903 51.9631354, 4.4959833 51.9632024, 4.496087 51.963289), (4.496087 51.963289, 4.496117 51.9634024), (4.496117 51.9634024, 4.4957391 51.9635933, 4.4955507 51.9636928, 4.4953332 51.9638076), (4.4953332 51.9638076, 4.495412 51.9638569), (4.495412 51.9638569, 4.4955136 51.9639566, 4.4955663 51.9640734), (4.4955663 51.9640734, 4.4955623 51.9641835, 4.4955559 51.9642203, 4.4955452 51.9642812, 4.4955337 51.9644234, 4.4955123 51.9646891, 4.4954676 51.9652903, 4.4954032 51.9664572, 4.4954062 51.9669155, 4.4954163 51.9671868), (4.4954163 51.9671868, 4.4954701 51.9673776, 4.4954786 51.9674259, 4.4954332 51.9676581), (4.4954332 51.9676581, 4.4954411 51.9678838, 4.4954521 51.9684068, 4.4954713 51.9688019, 4.4954917 51.9691899, 4.4955033 51.9693673, 4.495566 51.969827, 4.4956524 51.9703215, 4.4957124 51.970642, 4.4957325 51.9707772, 4.4957618 51.9708617, 4.4957954 51.9709021), (4.4980914 51.9708919, 4.4979445 51.9707883, 4.4977968 51.9706942, 4.4977041 51.9706575, 4.4975943 51.9706413, 4.4974944 51.9706426, 4.4973708 51.9706611, 4.4972171 51.9707193, 4.4967275 51.9709371, 4.4965149 51.9710201, 4.4962909 51.9710584, 4.4961467 51.9710591, 4.496014 51.9710393, 4.4958913 51.9709862, 4.4957954 51.9709021), (4.4980914 51.9708919, 4.498179 51.9709504), (4.5002492 51.9716854, 4.5006153 51.9715763, 4.5007253 51.9715276, 4.5008031 51.9714763, 4.500854 51.9714309, 4.5008808 51.971364, 4.5008808 51.9713086, 4.5008607 51.9712359, 4.5008167 51.9711788, 4.5007588 51.9711137, 4.5003953 51.9707444, 4.5003323 51.9707063, 4.5002371 51.9706675, 4.5001003 51.9706435, 4.4999917 51.970646, 4.4997985 51.9706948, 4.4987686 51.9709939, 4.4986198 51.9710302, 4.4985129 51.9710358, 4.4984065 51.9710261, 4.4983207 51.9710046, 4.498179 51.9709504), (4.5002492 51.9716854, 4.5000576 51.9717267, 4.4991401 51.9719458, 4.4986637 51.9720492, 4.4978453 51.9721916, 4.4974265 51.972249, 4.4971525 51.9722888, 4.4968884 51.9723447, 4.4967243 51.9724122, 4.4966652 51.9724535, 4.4966061 51.9724848, 4.4965057 51.9725279, 4.4963063 51.9725859, 4.4962111 51.9726272, 4.4961615 51.9726636, 4.4961239 51.9727032, 4.4961024 51.9727832), (4.4961024 51.9727832, 4.4961015 51.9728668, 4.4961753 51.9732404, 4.4962275 51.9734478, 4.4962658 51.9736254, 4.4962957 51.9737643, 4.4964149 51.9742908, 4.4964342 51.9743737, 4.4965369 51.9748032, 4.4967156 51.9755394, 4.4968832 51.9762228, 4.4969636 51.9765714), (4.4969636 51.9765714, 4.4970732 51.9769171, 4.4970925 51.9770007, 4.4971205 51.977106, 4.4971638 51.9772691, 4.4971464 51.97733), (4.4971464 51.97733, 4.4972527 51.9777293, 4.4973309 51.9780316, 4.4974101 51.9783281, 4.4974343 51.9784326, 4.4974892 51.9786302, 4.4975434 51.9788928), (4.4975434 51.9788928, 4.4975988 51.9790169, 4.4976214 51.9790858), (4.4976214 51.9790858, 4.4976758 51.9790999, 4.4977216 51.9791227, 4.4977553 51.9791526, 4.4977759 51.9791944, 4.4977726 51.9792381, 4.4977449 51.9792794, 4.4976781 51.9793194, 4.4976329 51.9793329, 4.4975622 51.9793391, 4.4974926 51.9793304, 4.4974318 51.9793079, 4.4973867 51.9792741), (4.4973867 51.9792741, 4.4972433 51.9792886, 4.4969581 51.9793511), (4.4969581 51.9793511, 4.496759 51.979403, 4.4966031 51.9794605, 4.496456 51.9795285, 4.4963305 51.979602, 4.4962417 51.9796731, 4.4960809 51.9798434), (4.4960809 51.9798434, 4.4959152 51.9801102), (4.4959152 51.9801102, 4.4958148 51.980262), (4.4958148 51.980262, 4.4955737 51.9806261), (4.4955737 51.9806261, 4.4955571 51.9806924, 4.4955184 51.9807592, 4.4955094 51.9807813, 4.4955007 51.9808024), (4.4955007 51.9808024, 4.495526 51.9808141, 4.4955533 51.9808344, 4.4955745 51.9808565, 4.4955915 51.9808861, 4.4955991 51.9809085, 4.495606 51.98094), (4.495606 51.98094, 4.4955979 51.9809736, 4.4955887 51.9809951, 4.4955726 51.9810203), (4.4955726 51.9810203, 4.4955557 51.9810372, 4.4955317 51.9810547), (4.4955317 51.9810547, 4.4955102 51.9810681, 4.4954769 51.9810848, 4.4954302 51.981102, 4.4953665 51.9811159, 4.4953217 51.9811304), (4.4953217 51.9811304, 4.4952887 51.9811467, 4.4952548 51.9811727, 4.495234 51.9811917, 4.4951802 51.9812312), (4.4951802 51.9812312, 4.495143 51.9812865, 4.494895 51.9816249), (4.494895 51.9816249, 4.4946711 51.9818096, 4.4943429 51.9820067, 4.4939941 51.9821831, 4.4935324 51.9824488, 4.4930508 51.9826908), (4.4930508 51.9826908, 4.4925487 51.9829295), (4.4925487 51.9829295, 4.4920766 51.9831637, 4.4920452 51.9831798), (4.4920452 51.9831798, 4.4920115 51.9831936, 4.491994 51.9832093, 4.4919879 51.9832343, 4.4919838 51.9832761, 4.4919628 51.9833184, 4.4919358 51.9833433, 4.4918917 51.9833633, 4.4918477 51.9833749, 4.4917903 51.9833871, 4.4917073 51.9833865, 4.4916495 51.9833753, 4.4915955 51.9833592, 4.4915571 51.9833392, 4.4915229 51.9833147, 4.491504 51.9832947, 4.4914841 51.9832664), (4.4914841 51.9832664, 4.4914715 51.9832208, 4.4914804 51.9831786, 4.4914932 51.9831401, 4.4915216 51.9831069, 4.4915756 51.9830753, 4.4916293 51.9830541), (4.4916293 51.9830541, 4.4916858 51.9830372, 4.4917521 51.983031, 4.4918225 51.9830355), (4.4918225 51.9830355, 4.4918662 51.9830324, 4.4919124 51.983024, 4.4919709 51.9830095, 4.4921982 51.9828927, 4.4922841 51.9828834), (4.4922841 51.9828834, 4.4925307 51.9827731, 4.492717 51.9826819, 4.4933681 51.9823776), (4.4933681 51.9823776, 4.4937246 51.9822065, 4.4939455 51.982087), (4.4939455 51.982087, 4.4943416 51.9818815), (4.4943416 51.9818815, 4.4946096 51.9817104, 4.4947053 51.9816317), (4.4947053 51.9816317, 4.4949342 51.9813468, 4.4949935 51.9812586, 4.495027 51.9812063), (4.495027 51.9812063, 4.4950822 51.9811653, 4.4951166 51.9811098, 4.4951322 51.9810813, 4.4951382 51.9810579), (4.4951382 51.9810579, 4.4951406 51.981041, 4.4951383 51.9810256, 4.4951274 51.9810041, 4.4951048 51.9809805, 4.4950708 51.9809527, 4.4950572 51.9809219, 4.4950529 51.9808928, 4.4950642 51.9808612, 4.4950892 51.9808257, 4.4951152 51.9808063, 4.4951515 51.9807877, 4.4952001 51.9807714, 4.4952571 51.9807618, 4.4953128 51.9807589, 4.4953741 51.980763, 4.4954246 51.9807746, 4.4954452 51.9807811), (4.4954452 51.9807811, 4.4954882 51.9807967, 4.4955007 51.9808024), (4.4955007 51.9808024, 4.495526 51.9808141, 4.4955533 51.9808344, 4.4955745 51.9808565, 4.4955915 51.9808861, 4.4955991 51.9809085, 4.495606 51.98094), (4.495606 51.98094, 4.4957042 51.9809727, 4.4957948 51.9809923, 4.4958629 51.9809985, 4.495981 51.9809749), (4.495981 51.9809749, 4.4960853 51.9809628, 4.49619 51.9809178, 4.4964133 51.9808257, 4.4965634 51.9808041), (4.4965634 51.9808041, 4.4970291 51.9806298, 4.4971787 51.9805925, 4.4973039 51.9805796, 4.4974478 51.9805795, 4.4976 51.9805982, 4.4977807 51.9806384, 4.4979379 51.9807144, 4.498042 51.980788, 4.4980823 51.9808423, 4.4981174 51.9808894), (4.4981174 51.9808894, 4.4981715 51.9810096, 4.4982053 51.9811134, 4.4984383 51.9821217, 4.4986538 51.9829816, 4.4987615 51.9834112, 4.4989318 51.9840177, 4.4989622 51.9841395, 4.4991534 51.9849077, 4.4992515 51.9853211, 4.4993081 51.9855413, 4.499362 51.9857965, 4.499392 51.9859064, 4.4993962 51.9859288, 4.4994133 51.9860023, 4.4994368 51.9860844, 4.499546 51.9864494, 4.4996045 51.9866583, 4.4996791 51.9869375), (4.4996791 51.9869375, 4.4998134 51.9874232), (4.4998134 51.9874232, 4.4998933 51.987699, 4.4999039 51.9877363), (4.4999039 51.9877363, 4.4999389 51.9878691, 4.499963 51.9879634, 4.4999657 51.987974, 4.5000026 51.9881061, 4.5000337 51.9882353, 4.5000893 51.9884995, 4.5001064 51.9886068, 4.5001201 51.9886931), (4.5001201 51.9886931, 4.5001937 51.9890499, 4.5002077 51.9891235), (4.5002077 51.9891235, 4.5002047 51.9891932, 4.500193 51.9893184, 4.500114 51.9896098, 4.5001076 51.9896569, 4.5000545 51.9897699), (4.5000545 51.9897699, 4.5000227 51.9897975, 4.4999537 51.9898508, 4.4998067 51.9899287), (4.4997193 51.9899727, 4.4998067 51.9899287), (4.4997193 51.9899727, 4.4993802 51.9901192, 4.4991798 51.9902124, 4.4989763 51.9903028, 4.4984151 51.9905956, 4.4981121 51.990745, 4.4979333 51.9908371, 4.4977338 51.9909353, 4.4969219 51.9913518, 4.4964086 51.9916209, 4.4962083 51.9917271, 4.4960082 51.9918288, 4.4957711 51.9919497, 4.494653 51.9925049, 4.4944611 51.9926006, 4.4942524 51.9927028, 4.4931971 51.9932268, 4.4931475 51.9932505), (4.4931475 51.9932505, 4.493191 51.9932955, 4.493198 51.9933394, 4.4931763 51.9933814, 4.4931295 51.9934148), (4.4931295 51.9934148, 4.4930838 51.9934304, 4.4930328 51.9934371, 4.4929808 51.9934345, 4.4929323 51.9934227, 4.4928914 51.9934026, 4.4928618 51.9933762), (4.4928618 51.9933762, 4.4928111 51.9933937, 4.4926165 51.9934683, 4.4923437 51.9935967, 4.492124 51.9936958, 4.4919337 51.9937697, 4.4911912 51.9939533, 4.4907983 51.9940592, 4.4906338 51.9941019), (4.4906338 51.9941019, 4.4905151 51.9941812, 4.4904075 51.994222, 4.490298 51.9942667), (4.490298 51.9942667, 4.4903113 51.9942925, 4.4903163 51.9943193, 4.4903129 51.9943462, 4.4903012 51.9943722, 4.4902817 51.9943964, 4.490255 51.9944178), (4.490255 51.9944178, 4.4902065 51.994442, 4.4901492 51.9944573, 4.4900995 51.9944622, 4.4900493 51.9944603, 4.4900009 51.9944517, 4.4899568 51.9944367), (4.4899568 51.9944367, 4.4898617 51.9944752, 4.4897415 51.9944962), (4.4897415 51.9944962, 4.4896955 51.9945178), (4.4896955 51.9945178, 4.4893767 51.9946729), (4.4893767 51.9946729, 4.489175 51.9947712), (4.489175 51.9947712, 4.4890171 51.9948481, 4.4885523 51.9950785, 4.4883067 51.9951999, 4.4872715 51.9957093, 4.4870317 51.9958274), (4.4870317 51.9958274, 4.4869027 51.9959241, 4.4866836 51.9960543, 4.4865238 51.9961937, 4.4864332 51.9963122, 4.4863911 51.9963897), (4.4863911 51.9963897, 4.4864291 51.9964203, 4.4864494 51.9964567, 4.4864498 51.9964952, 4.4864304 51.9965319, 4.4863932 51.9965628, 4.4863419 51.9965849), (4.4863419 51.9965849, 4.4863275 51.9966747, 4.4863398 51.9967429, 4.4863741 51.9968053, 4.4865055 51.9970004, 4.4865747 51.9971076, 4.4866087 51.9972193), (4.4866087 51.9972193, 4.4867064 51.9973671, 4.4868836 51.9976102, 4.4877534 51.9985069, 4.4879633 51.998718, 4.4881191 51.9988797, 4.4883429 51.9991121, 4.4886996 51.9994824, 4.488778 51.9995638, 4.489098 51.9998886, 4.4891516 51.9999445, 4.4894194 52.0002185, 4.4896256 52.0004241, 4.4903229 52.0011061, 4.4904195 52.0012101, 4.4907038 52.0014989, 4.4908325 52.0016296), (4.4908325 52.0016296, 4.4909394 52.0017495, 4.491241 52.0020485, 4.4913529 52.002184, 4.4914252 52.0023298, 4.4914711 52.0024423, 4.4914985 52.002546, 4.4915076 52.0026788, 4.4915035 52.0027773, 4.4914994 52.0030179, 4.4914897 52.0032121), (4.4914897 52.0032121, 4.4914883 52.0032885, 4.491485 52.0040297, 4.4914688 52.004192, 4.4914761 52.0042731, 4.4915084 52.004358, 4.4916607 52.0046465, 4.4918473 52.0049872, 4.4919153 52.0051213), (4.4919153 52.0051213, 4.4920522 52.0053727, 4.4921213 52.0055, 4.4921321 52.0055311, 4.4921389 52.0055689, 4.4921369 52.0056444, 4.4921235 52.0056959, 4.4921053 52.0057447), (4.4921053 52.0057447, 4.4920917 52.005766, 4.4920727 52.0057859, 4.4920314 52.0058186, 4.4919711 52.0058547, 4.4919147 52.0058799, 4.4918446 52.005904, 4.4916066 52.0059698, 4.4914316 52.0060064), (4.4914316 52.0060064, 4.4908613 52.0061234, 4.4903504 52.0062195, 4.4902322 52.0062382, 4.4900856 52.0062428, 4.4895604 52.0062371, 4.4893536 52.0062348, 4.4880591 52.0062199, 4.4862985 52.0062126, 4.4856745 52.0062143, 4.4853216 52.0062201), (4.4853216 52.0062201, 4.4852362 52.0062491, 4.4851406 52.0062654, 4.4850599 52.006279, 4.4849465 52.006273), (4.4849465 52.006273, 4.4848744 52.0062894, 4.4847222 52.0063235), (4.4846804 52.0062473, 4.4847222 52.0063235), (4.4846326 52.0061477, 4.4846804 52.0062473), (4.4845679 52.0048652, 4.4845576 52.0059411, 4.4845683 52.0059924, 4.4846326 52.0061477), (4.48462 52.0018028, 4.4846152 52.0027557, 4.4845933 52.0036271, 4.484584 52.0038032, 4.4845755 52.0040883, 4.4845679 52.0048652), (4.48462 52.0018028, 4.4841 52.0018, 4.4838128 52.0018195, 4.4833894 52.0018664, 4.482258 52.0020059), (4.482258 52.0020059, 4.4819645 52.0009823, 4.4819339 52.0008687, 4.4818251 52.0004813, 4.481809 52.0004014, 4.481602 51.9996075, 4.4813612 51.9986656), (4.4812538 51.9986642, 4.4813612 51.9986656), (4.481089 51.9986847, 4.4812538 51.9986642), (4.481089 51.9986847, 4.4807705 51.9987064, 4.4805147 51.9987126, 4.4792085 51.9987946, 4.4787004 51.9988266), (4.4787004 51.9988266, 4.4784196 51.9988442, 4.478308 51.9988512, 4.4782557 51.9988545), (4.4782557 51.9988545, 4.4779662 51.9988827, 4.4777682 51.9988954, 4.4776152 51.9988883, 4.4774841 51.9988717, 4.4773594 51.99884, 4.4772488 51.9987957, 4.4765423 51.9984923, 4.476401 51.9984293, 4.4762609 51.9983705, 4.4741 51.997462, 4.4740058 51.997417, 4.4738628 51.9973564, 4.4737265 51.9972999, 4.4734308 51.9971753, 4.4729533 51.996969, 4.471697 51.9964378, 4.4714684 51.9963422, 4.4713078 51.9962394, 4.471195 51.9961585, 4.4710568 51.9960779, 4.4696267 51.9953946), (4.4696267 51.9953946, 4.4694442 51.9953076, 4.4693906 51.995282, 4.4689452 51.9950717, 4.4684209 51.9948227, 4.4677017 51.9944783, 4.4673326 51.994306, 4.4667058 51.9940065, 4.4666158 51.993967, 4.4665051 51.993914, 4.4663172 51.9938239, 4.4662552 51.993794, 4.4661161 51.9937322, 4.4659177 51.9936187, 4.4658062 51.9935472, 4.4657395 51.9935032, 4.4656646 51.9934584), (4.4656646 51.9934584, 4.4654869 51.9933553), (4.4654869 51.9933553, 4.465402 51.9932931, 4.4653766 51.9932771), (4.4653766 51.9932771, 4.4653261 51.9932377), (4.4653261 51.9932377, 4.4652897 51.9932397, 4.4652294 51.9932362, 4.4651695 51.9932243, 4.4651167 51.9932095, 4.4650747 51.9931897, 4.4650327 51.9931607, 4.4650068 51.9931317, 4.4649959 51.993109, 4.4649931 51.9930848), (4.4649931 51.9930848, 4.4649917 51.9930588, 4.4649988 51.9930291, 4.4650191 51.9929923, 4.4650429 51.9929678), (4.4650429 51.9929678, 4.4650049 51.9928924, 4.4649558 51.9928094), (4.4649558 51.9928094, 4.464874 51.9927063), (4.464874 51.9927063, 4.4646126 51.9923801, 4.4645423 51.9922935, 4.4644666 51.9921938, 4.4637485 51.9908962, 4.4634003 51.9902681, 4.4633381 51.9901527, 4.4630282 51.9896007, 4.4630146 51.9895753), (4.4630146 51.9895753, 4.4629402 51.9894412), (4.4629402 51.9894412, 4.462925 51.9894105, 4.462635 51.9888846, 4.4625717 51.9887698, 4.4625128 51.9886669), (4.4625128 51.9886669, 4.4624158 51.9886872, 4.462359 51.9886987, 4.4622552 51.9887199, 4.4621419 51.988744, 4.4608387 51.9890217, 4.4604064 51.9891387, 4.4595392 51.9893945), (4.4595392 51.9893945, 4.4589697 51.9895641), (4.4589697 51.9895641, 4.4589049 51.9896042, 4.4587972 51.9896436, 4.4587063 51.989662, 4.4585413 51.9896822), (4.4585413 51.9896822, 4.4580889 51.9897888), (4.4580889 51.9897888, 4.4577493 51.9898563, 4.4576325 51.9898771, 4.4573482 51.9899251, 4.4569563 51.9899738, 4.4565921 51.9899927, 4.4563143 51.9899995), (4.4563143 51.9899995, 4.4562368 51.9900209, 4.4561907 51.9900224, 4.4560891 51.9900163, 4.4560216 51.9900119, 4.4559381 51.9899824), (4.4559381 51.9899824, 4.4556971 51.9899487, 4.4555423 51.9899217, 4.4541691 51.9895931, 4.4533902 51.9894022), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4534431 51.9896457, 4.4537124 51.989795), (4.4537124 51.989795, 4.4537358 51.9898088, 4.453789 51.9898479, 4.4538154 51.9898909, 4.4538111 51.9899361, 4.4537861 51.9899867, 4.4537579 51.9900293, 4.4536849 51.9901411, 4.4535654 51.9901099, 4.4533996 51.9900666, 4.4533519 51.9900218, 4.4533436 51.9899686, 4.4533694 51.9899137, 4.4533972 51.9898604, 4.4534291 51.9898006, 4.4534338 51.9897681, 4.4534321 51.9897229, 4.4534431 51.9896457), (4.4533902 51.9894022, 4.4533479 51.9894603, 4.4533364 51.9895014, 4.4533408 51.9895459, 4.4533643 51.9895765, 4.4533858 51.9896007, 4.4534431 51.9896457), (4.4533902 51.9894022, 4.4531404 51.9893453, 4.4528758 51.9892851, 4.4526217 51.9892511, 4.4523786 51.9892477, 4.4521135 51.9892613, 4.4518943 51.989299, 4.4517786 51.9893332), (4.4517786 51.9893332, 4.4516603 51.9893629, 4.4515549 51.9894001, 4.4507155 51.9897455, 4.4501316 51.9899858, 4.4499248 51.9900378), (4.4499248 51.9900378, 4.4497141 51.9901065, 4.4495849 51.9901477, 4.4495556 51.9901836), (4.4495556 51.9901836, 4.4497396 51.9905195, 4.4499396 51.9909182, 4.4501082 51.9912653, 4.4506114 51.9921242), (4.4506114 51.9921242, 4.4506801 51.992255), (4.4506801 51.992255, 4.4508904 51.9926235, 4.4513108 51.9934741, 4.4515743 51.9941105, 4.4517591 51.9946536, 4.4520143 51.9955146, 4.4520697 51.9958008), (4.4520697 51.9958008, 4.45211 51.9960147, 4.4521521 51.9962227), (4.4521521 51.9962227, 4.4521798 51.9964206, 4.4522149 51.9967118), (4.4522149 51.9967118, 4.4522334 51.9969616), (4.4522334 51.9969616, 4.4522391 51.9970449, 4.452249 51.997314), (4.452249 51.997314, 4.4522566 51.9974458, 4.4522858 51.9978575), (4.4522858 51.9978575, 4.4523086 51.9983478), (4.4523086 51.9983478, 4.4523492 51.9990735), (4.4523492 51.9990735, 4.452366 51.9993406, 4.4523677 51.9995537), (4.4523677 51.9995537, 4.4523271 51.99979, 4.452258 52.0000405), (4.452258 52.0000405, 4.4522117 52.000173, 4.4521779 52.0002717, 4.4520817 52.0004827, 4.4520787 52.0005872), (4.4520787 52.0005872, 4.4520794 52.0006136, 4.4521028 52.0006645), (4.4521028 52.0006645, 4.4521425 52.000689, 4.4521786 52.000715, 4.4522451 52.0007551, 4.452293 52.0007906, 4.4523283 52.0008192, 4.452358 52.0008524, 4.4523906 52.0008954, 4.4524146 52.0009456, 4.4524267 52.0009888, 4.4524295 52.0010083, 4.4524247 52.0010641), (4.4524247 52.0010641, 4.4524139 52.0011003, 4.4523866 52.0011634), (4.4523866 52.0011634, 4.452299 52.001275), (4.452299 52.001275, 4.4521783 52.0013512, 4.4519572 52.0014328, 4.4517632 52.0015249, 4.4516004 52.0016627, 4.4514628 52.0018733), (4.4514628 52.0018733, 4.4511861 52.0023202), (4.4511861 52.0023202, 4.4509211 52.0026387, 4.4507962 52.0027482, 4.4506904 52.0028416, 4.4506513 52.0028768, 4.450573 52.0029482), (4.450573 52.0029482, 4.4506002 52.0029749, 4.4506151 52.0030051, 4.4506166 52.0030367, 4.450609 52.0030598, 4.4505941 52.0030815, 4.4505726 52.0031009, 4.4505453 52.0031175, 4.4505119 52.0031308, 4.4504747 52.0031396, 4.4504355 52.0031436, 4.4503957 52.0031425), (4.4503957 52.0031425, 4.4502685 52.0032061, 4.4502026 52.0032444, 4.4497842 52.0034925, 4.4493231 52.0037817, 4.4490667 52.0039784, 4.4488266 52.0041972), (4.4488266 52.0041972, 4.44872 52.0043082, 4.4486743 52.0043588), (4.4486743 52.0043588, 4.4485633 52.0044927, 4.448536 52.0045312, 4.4484959 52.0046193), (4.4484959 52.0046193, 4.4485256 52.0046407, 4.4485467 52.0046656, 4.4485581 52.0046928, 4.4485552 52.0047372, 4.4485269 52.0047781, 4.4484848 52.0048066, 4.4484306 52.0048257, 4.4483694 52.0048336), (4.4483694 52.0048336, 4.448298 52.004828, 4.4482343 52.0048072), (4.4482343 52.0048072, 4.4481918 52.0047788, 4.4481655 52.0047438, 4.448158 52.0047055), (4.448158 52.0047055, 4.4480309 52.0046771), (4.4480309 52.0046771, 4.447965 52.0046636, 4.4465292 52.0043782, 4.4450523 52.0040915, 4.4446435 52.0040465), (4.4446435 52.0040465, 4.4444596 52.0040292, 4.4443377 52.0040155, 4.444228 52.0040161, 4.4441223 52.0040168), (4.4441223 52.0040168, 4.4441642 52.0039155), (4.4441642 52.0039155, 4.4442108 52.0038027), (4.4442108 52.0038027, 4.4442317 52.0037477, 4.4444656 52.0032879, 4.4444884 52.0032407, 4.4444972 52.0032166, 4.4444903 52.0031897), (4.4411178 52.0024548, 4.4411776 52.0024952, 4.4412258 52.0025222, 4.441285 52.0025436, 4.4413613 52.0025585, 4.4422669 52.0027016, 4.4426834 52.0027671, 4.4429747 52.002813, 4.4431821 52.0028634, 4.4435545 52.0029563, 4.4440875 52.0030757, 4.4444079 52.0031504, 4.4444447 52.0031645, 4.4444687 52.0031769, 4.4444903 52.0031897), (4.4405931 52.0015321, 4.4406427 52.0016127, 4.440951 52.002177, 4.4411178 52.0024548), (4.4405358 52.001434, 4.4405931 52.0015321), (4.4403428 52.0010964, 4.4404886 52.0013525, 4.4405358 52.001434), (4.4403428 52.0010964, 4.4402711 52.0010263, 4.4402145 52.0009538), (4.4402145 52.0009538, 4.4399873 52.0005901, 4.4396943 52.0001, 4.4395924 51.9999677), (4.4395924 51.9999677, 4.4395315 51.9999375, 4.4394787 51.9998696, 4.4394537 51.9998403, 4.4394377 51.9998199), (4.4394377 51.9998199, 4.4393787 51.9998141, 4.4393117 51.9998011, 4.4392669 51.9997926), (4.4392669 51.9997926, 4.4392207 51.9997871, 4.4391622 51.9997906, 4.439117 51.9998002, 4.4390087 51.9998143), (4.4390087 51.9998143, 4.4388706 51.999858, 4.4386085 51.999961, 4.4381813 52.0001736, 4.4379045 52.000352), (4.4379045 52.000352, 4.4377486 52.0004504, 4.4371023 52.0009976, 4.4364306 52.0015652, 4.4357282 52.0021139, 4.4345258 52.0029494, 4.4337715 52.0034148, 4.4333605 52.003629, 4.4330337 52.0037819), (4.4330337 52.0037819, 4.4327581 52.0039137, 4.4325247 52.0040027, 4.4323094 52.004077, 4.4320157 52.0041688, 4.4317207 52.0042536, 4.4313188 52.0043497, 4.4309531 52.0044254), (4.4309531 52.0044254, 4.4309 52.0044555, 4.4306208 52.0045023, 4.4305969 52.0045087, 4.4305804 52.0045134), (4.4305804 52.0045134, 4.4305675 52.0045389, 4.4305505 52.0045606, 4.4305354 52.0045749, 4.430518 52.0045876, 4.4304928 52.0046027, 4.4304614 52.0046204, 4.4304293 52.0046335, 4.4303784 52.0046452), (4.4303784 52.0046452, 4.430343 52.0046521, 4.4303062 52.004655, 4.4302629 52.004653, 4.4302105 52.0046463, 4.4301714 52.0046364, 4.4301266 52.0046193, 4.4300954 52.0046077, 4.4300558 52.0045963), (4.4300558 52.0045963, 4.4300054 52.0045897, 4.4299539 52.0045876, 4.4298768 52.0045947), (4.4298768 52.0045947, 4.4298056 52.0046001, 4.4297006 52.0045845), (4.4297006 52.0045845, 4.429185 52.0046134, 4.4278317 52.0046393), (4.4278317 52.0046393, 4.4273173 52.0046368), (4.4273173 52.0046368, 4.4271712 52.0046391), (4.4271712 52.0046391, 4.4263626 52.0046451, 4.4255495 52.0046573, 4.424412 52.004691, 4.4232895 52.0047295, 4.4219709 52.0047757, 4.4210465 52.0048245, 4.4199312 52.0049032), (4.4199312 52.0049032, 4.4190073 52.0049628), (4.4190073 52.0049628, 4.4189436 52.0049868, 4.4187512 52.0050069, 4.4187253 52.0050121, 4.4186746 52.0050222), (4.4186746 52.0050222, 4.4186613 52.0050421, 4.4186291 52.0050772, 4.4185795 52.0051085, 4.4185374 52.0051248, 4.4185064 52.0051317, 4.4184649 52.0051392, 4.4184163 52.0051422, 4.4183659 52.0051401, 4.4183112 52.0051283), (4.4183112 52.0051283, 4.4182664 52.0051143, 4.418222 52.0050986, 4.418189 52.005085), (4.418189 52.005085, 4.4181437 52.0050731, 4.4181093 52.0050696, 4.418073 52.0050696, 4.4180174 52.0050731, 4.4179509 52.005058), (4.4179509 52.005058, 4.4177065 52.0050771, 4.4171829 52.0051193, 4.4167171 52.0051561, 4.4161832 52.0051741), (4.4161832 52.0051741, 4.4160474 52.0051753, 4.4156984 52.0051776, 4.4153947 52.0051671, 4.4151136 52.0051555, 4.4148363 52.0051358, 4.4145854 52.0051114, 4.4143307 52.00508, 4.414027 52.0050371, 4.4137591 52.0049964, 4.4132819 52.0049058, 4.4128291 52.0048217, 4.4115351 52.0045491, 4.410638 52.004342, 4.4102398 52.0042263, 4.4098588 52.0040768, 4.4094781 52.0038942, 4.4092757 52.0037758, 4.4090571 52.00364, 4.4088374 52.0034674, 4.4086639 52.0033121, 4.4084961 52.0031377, 4.4083493 52.0029542, 4.4081226 52.0025862, 4.4080705 52.0024578, 4.408042 52.0023524, 4.4079733 52.002091), (4.4079733 52.002091, 4.4079462 52.0020019), (4.4079462 52.0020019, 4.4078922 52.0017943, 4.4078203 52.0015897, 4.4076992 52.0013356, 4.407567 52.0011439, 4.4073861 52.0009177, 4.4071598 52.0006985, 4.4069764 52.0005569, 4.4067818 52.0004246, 4.4066429 52.0003341, 4.4064859 52.000247, 4.4061616 52.0000853, 4.4057199 51.9999142, 4.4052283 51.9997642, 4.4048694 51.999674, 4.4032323 51.9993116, 4.4027192 51.9992004), (4.4027192 51.9992004, 4.402577 51.9991695), (4.402577 51.9991695, 4.4021054 51.9990673, 4.4008211 51.9988045, 4.4003574 51.9987184, 4.3996374 51.9985906), (4.3996374 51.9985906, 4.3991319 51.9984863), (4.3991319 51.9984863, 4.3979428 51.9982565), (4.3979428 51.9982565, 4.3977346 51.9982158, 4.3974066 51.9981515), (4.3974066 51.9981515, 4.3972855 51.9981295), (4.3972855 51.9981295, 4.3962774 51.9979292, 4.3956439 51.9978092, 4.3951014 51.9977149, 4.3945862 51.9976313, 4.3937787 51.997513, 4.3930464 51.9974125), (4.3930464 51.9974125, 4.3917853 51.9972668), (4.3917853 51.9972668, 4.3910858 51.9971921), (4.3910858 51.9971921, 4.3907834 51.9971612, 4.3906839 51.9971511), (4.3906839 51.9971511, 4.3905811 51.9971476, 4.3901843 51.997162), (4.3901843 51.997162, 4.3897749 51.9972744, 4.3895165 51.9973061, 4.3893292 51.9973041), (4.3893292 51.9973041, 4.3890265 51.9972623, 4.3886868 51.997174, 4.3883621 51.9970633, 4.3881568 51.9969746, 4.3880424 51.99692), (4.3880424 51.99692, 4.3878544 51.996828), (4.3878544 51.996828, 4.3873665 51.9966075), (4.3873665 51.9966075, 4.3866861 51.9963215), (4.3866861 51.9963215, 4.3863993 51.9962747, 4.3863128 51.9962456, 4.3855338 51.9960422, 4.3837769 51.9956683, 4.3832472 51.9955353), (4.3832472 51.9955353, 4.3821908 51.9952723, 4.3820299 51.9952323, 4.3818973 51.9951887), (4.3818973 51.9951887, 4.38177 51.9953811, 4.3815174 51.9957286), (4.3815174 51.9957286, 4.3811732 51.996243, 4.3811362 51.9962989, 4.3810718 51.9964014), (4.3810718 51.9964014, 4.3810166 51.9964884, 4.38096 51.9965822, 4.3809192 51.9966368, 4.3808622 51.9967052, 4.3807495 51.9967897), (4.3807495 51.9967897, 4.3804629 51.9972399), (4.3804629 51.9972399, 4.3802721 51.9975252), (</t>
+          <t>MULTILINESTRING ((4.3149703 51.9044683, 4.3148871 51.9043298, 4.3148788 51.9042771, 4.3148928 51.9042486, 4.3149737 51.9041959, 4.3152921 51.9041188, 4.3154104 51.9040901), (4.3158689 51.904823, 4.3158165 51.9047571, 4.3156247 51.9044463, 4.3154104 51.9040901), (4.3158689 51.904823, 4.3155775 51.904895, 4.3152785 51.9049688), (4.3152785 51.9049688, 4.3149079 51.905055, 4.3147712 51.9050989, 4.3147155 51.905133), (4.3147155 51.905133, 4.3146949 51.9051686, 4.3146937 51.905179, 4.3146896 51.9052142, 4.3147071 51.9052742, 4.3147493 51.9053738), (4.3147493 51.9053738, 4.3150761 51.9060425), (4.3150761 51.9060425, 4.3151932 51.9062677, 4.315635 51.9071258, 4.315736 51.907312, 4.3158242 51.9074772, 4.3160471 51.9079105, 4.3163962 51.9086105), (4.3163962 51.9086105, 4.316582 51.9089508, 4.31674 51.9092775, 4.316787 51.9093778, 4.3168883 51.9096121, 4.3170211 51.9098371, 4.3170998 51.9100099), (4.3173406 51.9104781, 4.3173317 51.910461, 4.3172762 51.910344, 4.3172502 51.910281, 4.3172042 51.9101972, 4.3170998 51.9100099), (4.3174996 51.9107224, 4.3174219 51.9106348, 4.3173406 51.9104781), (4.3175531 51.9107796, 4.3174996 51.9107224), (4.3175531 51.9107796, 4.3174109 51.910831, 4.3170411 51.9109923, 4.3168654 51.9110391), (4.3168654 51.9110391, 4.316219 51.9113539), (4.316219 51.9113539, 4.3161489 51.9114269, 4.3160696 51.9115305, 4.3160544 51.9116107), (4.3160544 51.9116107, 4.3160574 51.9117336, 4.3160835 51.9118353), (4.3160835 51.9118353, 4.3161253 51.9119977, 4.3161129 51.9121043), (4.3161129 51.9121043, 4.3162309 51.9125272, 4.3162589 51.9126183, 4.3162855 51.9127189, 4.316354 51.912992, 4.31644 51.9132895), (4.31644 51.9132895, 4.3165207 51.9135717, 4.316551 51.9136311, 4.3166314 51.9136657), (4.3166314 51.9136657, 4.3169459 51.9136683, 4.3171779 51.9136707, 4.3172946 51.9136714, 4.3186721 51.9136851, 4.3189693 51.9136873, 4.319681 51.9136884, 4.3199892 51.9136831), (4.3266714 51.9130641, 4.3262789 51.9131035, 4.3260794 51.9131269, 4.3252635 51.9132005, 4.3249395 51.9132309, 4.3247289 51.9132507, 4.3242197 51.9133022, 4.3216897 51.9135331, 4.320528 51.9136486, 4.3202021 51.913674, 4.3199892 51.9136831), (4.3273976 51.9129952, 4.3273525 51.9129992, 4.327277 51.9130064, 4.3266714 51.9130641), (4.3273976 51.9129952, 4.3275722 51.9129724), (4.3275722 51.9129724, 4.3277265 51.9129507), (4.3277265 51.9129507, 4.3278663 51.9129183), (4.3280686 51.9128757, 4.3279711 51.9128963, 4.3279198 51.9129071, 4.3278663 51.9129183), (4.3285028 51.9127895, 4.3280686 51.9128757), (4.3288141 51.9127264, 4.3286987 51.9127498, 4.3285028 51.9127895), (4.3319355 51.9120894, 4.3310565 51.9122668, 4.3308912 51.9123013, 4.3307236 51.9123335, 4.3305572 51.9123669, 4.3298911 51.9125014, 4.3296722 51.9125472, 4.3295422 51.912573, 4.3288141 51.9127264), (4.3336587 51.9117294, 4.3333849 51.9117881, 4.3327983 51.9119094, 4.3320314 51.9120694, 4.3319355 51.9120894), (4.3344452 51.9115739, 4.334402 51.9115831, 4.3336587 51.9117294), (4.3345112 51.91156, 4.3344452 51.9115739), (4.3347128 51.9115162, 4.33462 51.9115364, 4.3345112 51.91156), (4.3347128 51.9115162, 4.334855 51.9114864), (4.3350243 51.9114476, 4.3349632 51.9114604, 4.3349091 51.9114734, 4.334855 51.9114864), (4.335145 51.911422, 4.3351062 51.9114302, 4.3350243 51.9114476), (4.3378036 51.9108706, 4.3377469 51.9108838, 4.3376508 51.9109062, 4.3371833 51.9110026, 4.336912 51.9110588, 4.3359093 51.9112671, 4.3356535 51.9113193, 4.335168 51.9114174, 4.335145 51.911422), (4.3378036 51.9108706, 4.3378974 51.9109945, 4.338072 51.9111947), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.342946 51.9095826, 4.3430227 51.9095288, 4.3430781 51.9095155, 4.3435151 51.9094109, 4.3437 51.9094), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3446973 51.909355, 4.3449363 51.909356), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3517346 51.9093718, 4.3517446 51.9093132, 4.3517805 51.9092523, 4.3518404 51.909199, 4.3519203 51.9091569, 4.3520148 51.9091286, 4.3520574 51.9091235, 4.3521179 51.9091161, 4.3522047 51.9091195, 4.3522228 51.9091202, 4.3523225 51.9091406, 4.3524106 51.9091759, 4.3524406 51.9091963, 4.3524812 51.9092239, 4.3525022 51.9092488), (4.3525022 51.9092488, 4.3525298 51.9092814, 4.3525531 51.9093446, 4.3525515 51.9093726), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3581013 51.9093656, 4.3583597 51.9092941, 4.3585158 51.9092802, 4.3586815 51.9093418), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3591826 51.9095669, 4.3593609 51.9096185, 4.3595031 51.909712, 4.3595557 51.9097493), (4.3595557 51.9097493, 4.359685 51.9098633, 4.3597555 51.9099313), (4.3597555 51.9099313, 4.3601654 51.9103626), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.361054 51.9107217), (4.361054 51.9107217, 4.3611359 51.910654, 4.3611799 51.9106149, 4.3612563 51.9105478, 4.3613318 51.91048, 4.3614031 51.9104158), (4.3614031 51.9104158, 4.3613667 51.9103952, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604497 51.910645), (4.3604497 51.910645, 4.3605905 51.9107268, 4.3606753 51.9108044, 4.3606969 51.9108242, 4.3607331 51.9108561, 4.3608002 51.9109014, 4.3608325 51.9109233), (4.3608325 51.9109233, 4.3608919 51.9109269, 4.3609462 51.9109372, 4.3609927 51.9109558, 4.3610399 51.9109981, 4.3610516 51.9110511, 4.3610113 51.9111143), (4.3610113 51.9111143, 4.3610562 51.9111753, 4.3610713 51.9111957, 4.3610954 51.9112226, 4.3612148 51.9113423, 4.3612286 51.9114164), (4.3612418 51.9117696, 4.3612961 51.9115948, 4.3612286 51.9114164), (4.3612418 51.9117696, 4.3610047 51.9123802), (4.3610047 51.9123802, 4.3609786 51.9125271, 4.3609473 51.9126305, 4.3608888 51.912779, 4.360862 51.9128594, 4.3608327 51.9129337, 4.3608014 51.9130078, 4.3606994 51.9131287), (4.3602702 51.9142028, 4.3606291 51.9133128, 4.3606994 51.9131287), (4.3602702 51.9142028, 4.3602511 51.9143769, 4.360244 51.9143938, 4.3602361 51.9144124, 4.3601878 51.9144588), (4.3601568 51.9145522, 4.3601878 51.9144588), (4.3601568 51.9145522, 4.3601482 51.9146279, 4.3601186 51.9146726, 4.3600937 51.9147103, 4.3600498 51.9147781, 4.3597036 51.9152008), (4.3597036 51.9152008, 4.3594615 51.9155295, 4.3594443 51.9155532), (4.3591233 51.9160252, 4.3591738 51.9159466, 4.3593765 51.9156528, 4.3594443 51.9155532), (4.3591233 51.9160252, 4.3591204 51.9161175, 4.3590763 51.9161837), (4.3590763 51.9161837, 4.3591165 51.9162043, 4.3591475 51.9162303, 4.3591674 51.91626, 4.3591752 51.9162919, 4.3591702 51.916324, 4.3591529 51.9163544, 4.3591222 51.9163828, 4.3590808 51.9164055, 4.3590314 51.9164209, 4.3589858 51.9164275, 4.3589389 51.9164278, 4.3588931 51.9164219), (4.3588931 51.9164219, 4.3588347 51.9164864, 4.3586714 51.9165993), (4.358273 51.9171422, 4.3583989 51.9169823, 4.3586714 51.9165993), (4.358273 51.9171422, 4.3578643 51.9176704), (4.3578643 51.9176704, 4.3577993 51.917811, 4.3576805 51.917929), (4.3576805 51.917929, 4.3575409 51.9181246), (4.3575409 51.9181246, 4.3574882 51.9182451, 4.357445 51.9182819, 4.3572854 51.9183682), (4.3572854 51.9183682, 4.3569974 51.918635, 4.3566069 51.9189934, 4.3564182 51.9191851), (4.3564182 51.9191851, 4.3563417 51.9192801, 4.3562468 51.9193374), (4.3562468 51.9193374, 4.3560239 51.9195228), (4.3560239 51.9195228, 4.3558465 51.9197878, 4.3558101 51.9198244, 4.3556857 51.9199499), (4.3556857 51.9199499, 4.3556357 51.9199939, 4.3550793 51.9204564, 4.3545101 51.9209508, 4.354413 51.9210352, 4.3540337 51.9213937, 4.3538564 51.9215552, 4.3537162 51.9217682), (4.3537162 51.9217682, 4.3536035 51.9219403, 4.3534553 51.9221915, 4.3534185 51.9222563, 4.3533439 51.9223647), (4.3533439 51.9223647, 4.3532802 51.9224554), (4.3532802 51.9224554, 4.3531998 51.9225614, 4.3528996 51.9230406, 4.3526556 51.923441, 4.3525548 51.9236011, 4.3524875 51.9237135, 4.3524552 51.9238351, 4.3524641 51.9239577, 4.3524859 51.9240535, 4.3525491 51.9241608, 4.3526099 51.9242377, 4.352709 51.9243259, 4.3531594 51.9245569, 4.353409 51.9246754), (4.353409 51.9246754, 4.3535946 51.9247669, 4.3537482 51.924846, 4.3538754 51.9249254, 4.3539722 51.9250309, 4.3540515 51.9251593, 4.3540663 51.9252262), (4.3540663 51.9252262, 4.3540685 51.925314, 4.3540384 51.9254504, 4.3539805 51.9255705, 4.3539459 51.9256302, 4.3538888 51.9257276), (4.3537485 51.9256952, 4.3538888 51.9257276), (4.3532185 51.9255728, 4.3535027 51.9256376, 4.353601 51.9256611, 4.3537485 51.9256952), (4.3526789 51.9254486, 4.3529509 51.9255086, 4.3532185 51.9255728), (4.3519857 51.9253504, 4.3523562 51.9253952, 4.3526789 51.9254486), (4.3466087 51.924549, 4.3468574 51.9246083, 4.3469652 51.9246344, 4.3475963 51.9247879, 4.3483397 51.9249657, 4.3487193 51.9250421, 4.348866 51.9250729, 4.3490906 51.9250954, 4.3493369 51.9251204, 4.349398 51.9251245, 4.3498175 51.9251678, 4.3505473 51.9252226, 4.3508518 51.9252494, 4.3518988 51.9253428, 4.3519857 51.9253504), (4.3461052 51.9244273, 4.3462418 51.9244593, 4.3463134 51.9244758, 4.3466087 51.924549), (4.3461052 51.9244273, 4.3460313 51.9245358, 4.3457582 51.9249629, 4.344433 51.9270788), (4.344433 51.9270788, 4.3442193 51.9274127, 4.3441614 51.9275016, 4.3440878 51.9276145), (4.3440878 51.9276145, 4.3442102 51.9276415), (4.3442102 51.9276415, 4.3442972 51.9276604, 4.3444789 51.9277003), (4.3444789 51.9277003, 4.3445113 51.9277074, 4.3448134 51.9277814), (4.3448134 51.9277814, 4.3449599 51.9278178, 4.3453012 51.9278982), (4.3453012 51.9278982, 4.3458234 51.9280233, 4.346062 51.9280805, 4.3463656 51.9281532, 4.3464048 51.9281629, 4.346954 51.9282996, 4.3470822 51.9283427, 4.3471565 51.9283836), (4.3471565 51.9283836, 4.3472503 51.9284811, 4.3474773 51.9288911), (4.3474773 51.9288911, 4.3475502 51.9289818, 4.347647 51.9290551), (4.347647 51.9290551, 4.347712 51.9290943, 4.3479637 51.9291789, 4.3481723 51.9292292, 4.3483479 51.9292716, 4.3492231 51.9294823), (4.3492231 51.9294823, 4.3497179 51.9295998, 4.3497826 51.9296139, 4.3501344 51.9296988, 4.3505695 51.9297981), (4.3505695 51.9297981, 4.3506634 51.9298204, 4.350742 51.9298416), (4.350742 51.9298416, 4.3509365 51.9298588, 4.3510916 51.9298812), (4.3510916 51.9298812, 4.3511209 51.9298685, 4.3511536 51.9298593, 4.3511885 51.929854, 4.3512529 51.9298547, 4.3513134 51.9298685, 4.3513632 51.9298937, 4.3513944 51.929924, 4.3514096 51.9299586), (4.3514096 51.9299586, 4.3515483 51.9299975, 4.3519893 51.9301404), (4.3519893 51.9301404, 4.3524502 51.930253), (4.3524502 51.930253, 4.3527713 51.93033), (4.3527713 51.93033, 4.3531083 51.9304095, 4.3541228 51.9306487), (4.3541228 51.9306487, 4.3542693 51.9306833, 4.3548684 51.9308323, 4.3550447 51.9308568, 4.3551793 51.9308663, 4.3553254 51.9308444), (4.3553254 51.9308444, 4.3554304 51.9308101, 4.3555582 51.9307683), (4.3555582 51.9307683, 4.3556617 51.930733, 4.355829 51.930676, 4.3559427 51.9306372), (4.3559427 51.9306372, 4.3562669 51.9305392), (4.3562669 51.9305392, 4.3564801 51.9305838, 4.3566222 51.9306164, 4.3567608 51.9306465, 4.357046 51.9307135, 4.3576866 51.9308703, 4.3579138 51.9309236), (4.3579138 51.9309236, 4.3580075 51.9309415, 4.3590429 51.9311931), (4.3590429 51.9311931, 4.3592642 51.9312469), (4.3592642 51.9312469, 4.359855 51.9313847, 4.3599898 51.9314162), (4.3599898 51.9314162, 4.3601858 51.9314661, 4.3602706 51.9315656, 4.359799 51.932356), (4.359799 51.932356, 4.3596709 51.9325515), (4.3596709 51.9325515, 4.3593714 51.9330199, 4.3589339 51.9337078, 4.3586679 51.9341225), (4.3586679 51.9341225, 4.358382 51.9345833, 4.3582754 51.9347574, 4.3582411 51.9348103, 4.3582257 51.9348376, 4.3581827 51.9349044, 4.3581622 51.9349332, 4.3581428 51.9349659, 4.3579474 51.9352716, 4.3578647 51.9354195, 4.3578092 51.9354828, 4.357195 51.9359678, 4.3569988 51.9362657, 4.3567507 51.9366201, 4.3565536 51.9369281, 4.356491 51.9370351), (4.356491 51.9370351, 4.3565665 51.9370686), (4.3565665 51.9370686, 4.3566717 51.9371406, 4.3567154 51.9371776, 4.3567625 51.9372252, 4.3568002 51.9372833, 4.3568238 51.9373298, 4.3568481 51.9373842, 4.3568639 51.9374799, 4.3568651 51.9375806, 4.3568554 51.9376864, 4.35684 51.9377514, 4.3567858 51.9378995, 4.3567455 51.9380034, 4.3566979 51.9381088, 4.3564993 51.9384651, 4.3564494 51.9385596, 4.3563249 51.9387951, 4.3561249 51.9392072, 4.356065 51.9393251, 4.3557599 51.9399255, 4.3557022 51.940032, 4.3556172 51.9401481, 4.355529 51.9402184, 4.35539 51.940299, 4.3550185 51.9404123, 4.3546396 51.9405166, 4.3544254 51.9405252, 4.3542605 51.9404987, 4.3538845 51.9404167, 4.3533824 51.9402992, 4.3530935 51.9402316, 4.3530221 51.9402142, 4.3527503 51.9401479, 4.3525357 51.9400993, 4.3523454 51.9400515, 4.3518236 51.9399261, 4.3509842 51.9397313, 4.3508536 51.9397016), (4.3487857 51.9399596, 4.3489563 51.9400046, 4.3491827 51.9400563, 4.3494664 51.9401237, 4.3496142 51.9401357, 4.3497747 51.9401344, 4.3500136 51.9400879, 4.3502442 51.9400226, 4.3505525 51.9399353, 4.3506999 51.939864, 4.3507801 51.9398, 4.3508536 51.9397016), (4.3487857 51.9399596, 4.3486584 51.939958, 4.3485371 51.9399373, 4.3484128 51.939901, 4.3483153 51.9398496), (4.3464812 51.9392417, 4.3465445 51.9393187, 4.3466764 51.9394249, 4.3468529 51.9394998, 4.3475501 51.9396673, 4.3483153 51.9398496), (4.3464812 51.9392417, 4.34637 51.9391652, 4.3463194 51.9390866, 4.346066 51.9387156, 4.3460271 51.9386053), (4.3449612 51.9381213, 4.3450929 51.9381525, 4.3452872 51.9381973, 4.3453958 51.9382246, 4.3456217 51.9382767, 4.3457936 51.938358, 4.3458869 51.9384266, 4.3460271 51.9386053), (4.3449612 51.9381213, 4.3448668 51.9381189, 4.3446974 51.9380757, 4.3445747 51.938048, 4.3444494 51.9379978), (4.3400387 51.9378618, 4.3403173 51.9377216, 4.3409861 51.9373795, 4.3411221 51.9373351, 4.3412581 51.937307, 4.3414806 51.9373042, 4.3416068 51.9373219, 4.3420276 51.93742, 4.343464 51.9377645, 4.3444494 51.9379978), (4.3400387 51.9378618, 4.3399563 51.9379266, 4.3398057 51.9379996, 4.3396986 51.9380525, 4.339586 51.9380869), (4.3365298 51.9377525, 4.3376971 51.9380252, 4.3383212 51.9381785, 4.3385091 51.9382234, 4.3387554 51.9382808, 4.3389716 51.9382917, 4.3390861 51.9382804, 4.339202 51.9382572, 4.339284 51.9382315, 4.339586 51.9380869), (4.3365298 51.9377525, 4.3364963 51.9378144, 4.3364667 51.9378646, 4.3364278 51.9379375), (4.3364278 51.9379375, 4.3359951 51.9378332))</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2064547</t>
+          <t>384666</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2844,17 +2844,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ridderkerk, Sporthal Drievliet</t>
+          <t>Vlaardingen, Station Vlaardingen West</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bus 143: Rotterdam Zuidplein =&gt; Ridderkerk Drievliet</t>
+          <t>Bus 56: Vlaardingen Holy Noord =&gt; Vlaardingen West</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2865,14 +2865,14 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891393 51.8876688, 4.4890017 51.8876541), (4.4890017 51.8876541, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.517263 51.8768196, 4.5178812 51.8768747, 4.5182778 51.8768969, 4.5187582 51.8769237, 4.5201846 51.8769891, 4.5216321 51.8770439, 4.5217544 51.8770485, 4.521797 51.8770497, 4.5220066 51.877059), (4.5220066 51.877059, 4.5221389 51.8770651), (4.5221389 51.8770651, 4.5223079 51.8770705, 4.5223569 51.8770733, 4.5225143 51.8770824, 4.5228649 51.8771191, 4.5232898 51.8772398, 4.5235856 51.877326, 4.5239127 51.8774407, 4.5239652 51.8774568, 4.5240138 51.8774734, 4.5241253 51.877511), (4.5241253 51.877511, 4.5242604 51.877558, 4.5242961 51.8775704, 4.5288116 51.879135, 4.5293719 51.8793293, 4.5307955 51.8798076), (4.5307955 51.8798076, 4.531778 51.8801376), (4.531778 51.8801376, 4.5321164 51.8802513, 4.5329567 51.8805429, 4.5335046 51.8807367, 4.5335874 51.8807649, 4.5336331 51.8807804, 4.5336763 51.8807958, 4.5337195 51.8808111), (4.5337195 51.8808111, 4.5338679 51.8808139, 4.534082 51.8808179, 4.5344183 51.880931), (4.5344183 51.880931, 4.5344696 51.88095, 4.5345921 51.8810355, 4.5346666 51.8811373), (4.5346666 51.8811373, 4.5351924 51.8813149, 4.5354251 51.8813802, 4.5354533 51.8813858, 4.535566 51.8814083, 4.5356497 51.881425, 4.5359754 51.881477), (4.5359754 51.881477, 4.5360218 51.8814715, 4.5360564 51.8814759), (4.5360564 51.8814759, 4.5361628 51.8814885, 4.5362631 51.8815137, 4.5363534 51.8815507, 4.53643 51.8815979, 4.5364902 51.8816535, 4.5365314 51.8817154, 4.5365516 51.881781), (4.5365516 51.881781, 4.5365431 51.8818485, 4.5365221 51.8819149, 4.5365092 51.8819442), (4.5365092 51.8819442, 4.5365246 51.8820968, 4.5365321 51.8821688, 4.5365412 51.8822201, 4.5365548 51.882297, 4.5366 51.8824, 4.5366995 51.8825491, 4.5368347 51.8826931, 4.5370586 51.8828706, 4.5373357 51.8830475, 4.5380559 51.8834764, 4.5381438 51.8835273, 4.5383238 51.883624), (4.5383238 51.883624, 4.5385085 51.8837232, 4.5389039 51.8839418, 4.54164 51.885492, 4.5421822 51.8857804, 4.5424083 51.8858801, 4.5426081 51.8859307), (4.5426081 51.8859307, 4.5426689 51.8859215, 4.5427315 51.8859219, 4.5427921 51.8859317, 4.5428468 51.8859505, 4.5428923 51.885977), (4.5428923 51.885977, 4.5430679 51.8859614, 4.543905 51.8858825, 4.5444137 51.8858348, 4.5448125 51.885826, 4.5451065 51.8858424), (4.5451065 51.8858424, 4.5451523 51.885836, 4.5458123 51.8857786, 4.5465136 51.8857222, 4.5473456 51.8856845, 4.5474934 51.8856778, 4.547563 51.8856732, 4.5479311 51.8856622, 4.5484099 51.8856617, 4.5488743 51.8856548, 4.5490593 51.8856539), (4.5490593 51.8856539, 4.5492059 51.8856531), (4.5492059 51.8856531, 4.5493916 51.885652, 4.5503603 51.8856556, 4.5507708 51.8856544, 4.5512374 51.8856363, 4.5515763 51.8856119), (4.5515763 51.8856119, 4.551893 51.8855858, 4.5523292 51.885541, 4.5529925 51.885444, 4.5531894 51.8854077), (4.5531894 51.8854077, 4.5532 51.8853611, 4.5532226 51.8853161, 4.5532565 51.885274, 4.553301 51.8852357, 4.5533883 51.8851862, 4.5534928 51.8851516, 4.5535367 51.8851426, 4.5536404 51.8851323, 4.5537453 51.8851364, 4.5538462 51.8851545, 4.5539381 51.885186, 4.5540165 51.8852291, 4.5540777 51.8852818, 4.5540994 51.8853088, 4.5541177 51.8853395), (4.5541177 51.8853395, 4.5542102 51.8853373, 4.554305 51.8853263, 4.554721 51.8852571, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5549835 51.8852373), (4.556272 51.8850405, 4.5565794 51.8849807, 4.5578418 51.8847947, 4.5578958 51.8847868), (4.5578958 51.8847868, 4.5580638 51.8847621, 4.5581165 51.8847544, 4.5586696 51.8846721, 4.5590969 51.8846121, 4.559427 51.8845737, 4.5597377 51.8845459, 4.5600613 51.8845315, 4.5603754 51.8845325, 4.5606027 51.8845391), (4.5606027 51.8845391, 4.5609047 51.8845622, 4.5612939 51.8846229), (4.5612939 51.8846229, 4.5617826 51.8847044, 4.5631299 51.884958), (4.5631299 51.884958, 4.563184 51.8849679), (4.563184 51.8849679, 4.5647865 51.8852906), (4.5647865 51.8852906, 4.5652597 51.8853862, 4.5655691 51.8854499), (4.5655691 51.8854499, 4.5663024 51.8855805, 4.5665608 51.8856355, 4.5668478 51.885704, 4.5670852 51.8857556, 4.5672369 51.8857841), (4.5672369 51.8857841, 4.5675313 51.8858393, 4.5680394 51.8859092, 4.5686534 51.8859693, 4.5687927 51.885983, 4.5690155 51.8860048), (4.5690155 51.8860048, 4.5691059 51.8860116, 4.5691585 51.8860156), (4.5691585 51.8860156, 4.5691825 51.8860182, 4.5693397 51.8860332, 4.5693771 51.8860373, 4.5694437 51.8860423, 4.5696658 51.8860594, 4.5698241 51.8860942), (4.5698241 51.8860942, 4.5698619 51.8860971, 4.5712944 51.8861923), (4.5712944 51.8861923, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5766228 51.8865318, 4.5761394 51.8865161, 4.571764 51.8862374, 4.5714401 51.8862168), (4.5770448 51.8865355, 4.5778115 51.8864842, 4.5782203 51.8864501, 4.5789008 51.8863724, 4.5803265 51.886144, 4.5806548 51.8860862), (4.5806548 51.8860862, 4.5808539 51.8860094), (4.5808539 51.8860094, 4.5816583 51.8858829, 4.5820105 51.8858158, 4.5828973 51.8855969), (4.5828973 51.8855969, 4.5831876 51.885511), (4.5831876 51.885511, 4.5835267 51.8853972, 4.5842198 51.885121, 4.5858468 51.8844222, 4.5879601 51.8835154, 4.5888663 51.8831043, 4.5892971 51.8828734, 4.5897879 51.882581, 4.5901198 51.8823636, 4.5905132 51.8820931), (4.5905132 51.8820931, 4.5915395 51.8813513), (4.5915395 51.8813513, 4.5926297 51.8806087, 4.5928425 51.8804588), (4.5928425 51.8804588, 4.5917152 51.8798175, 4.5912797 51.8795869, 4.5910282 51.8794502), (4.5903152 51.8789495, 4.5904728 51.8791024, 4.5907214 51.8792848, 4.5910282 51.8794502), (4.5903152 51.8789495, 4.5901557 51.8788033, 4.5900367 51.8786174, 4.5899873 51.8785436), (4.5899873 51.8785436, 4.5899219 51.8785326, 4.589865 51.8785099, 4.589818 51.8784732, 4.5897939 51.8784289, 4.5897934 51.8783899, 4.5898108 51.8783525, 4.5898447 51.8783196, 4.5898923 51.8782939), (4.5898923 51.8782939, 4.5898803 51.8782023, 4.5898926 51.8781003, 4.5898906 51.8779483), (4.5900455 51.8763427, 4.5899066 51.8777485, 4.5898906 51.8779483), (4.5900455 51.8763427, 4.5900252 51.8761076, 4.589991 51.8759486, 4.5899715 51.8758531, 4.589948 51.8757762), (4.589948 51.8757762, 4.5898845 51.8757652, 4.5898291 51.8757431), (4.5898291 51.8757431, 4.5897743 51.8756977, 4.5897543 51.8756424, 4.5897725 51.8755865, 4.5898262 51.8755401), (4.5898262 51.8755401, 4.5897978 51.8754567, 4.5897396 51.8753355, 4.5896572 51.8752307, 4.5895966 51.8751509, 4.5894484 51.8750315, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5871848 51.8735403, 4.5872149 51.8735591, 4.5893205 51.8749147), (4.5870755 51.8734864, 4.5870325 51.8735014, 4.5869841 51.8735076, 4.586935 51.8735044, 4.5868898 51.8734921, 4.5868529 51.8734718, 4.5868278 51.8734455, 4.5868169 51.8734157, 4.5868213 51.8733853, 4.5868406 51.8733572, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5986297 51.8719968, 4.598818 51.8720142), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6005942 51.8711482, 4.6005834 51.8710827, 4.6007545 51.8709185, 4.600817 51.8708585), (4.600817 51.8708585, 4.6008858 51.8707925, 4.6010114 51.8707586), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6000875 51.868606, 4.5999607 51.8686449), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5986982 51.8675912, 4.5986528 51.8676009, 4.5986048 51.8676018, 4.5985584 51.8675941, 4.5985178 51.8675782, 4.598494 51.8675618), (4.598494 51.8675618, 4.5984686 51.8675312, 4.5984619 51.8675047, 4.5984668 51.867478, 4.5984831 51.8674531, 4.5985096 51.8674318, 4.5985443 51.8674156), (4.5985443 51.8674156, 4.5985818 51.8674062, 4.598622 51.8674028, 4.5986622 51.8674057, 4.5987 51.8674147, 4.598733 51.8674292, 4.5987671 51.8674556), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6040394 51.8659482, 4.6040236 51.8659148, 4.6040266 51.86588, 4.604048 51.8658478, 4.6040854 51.8658218, 4.6041347 51.8658049), (4.6041347 51.8658049, 4.6041856 51.865799, 4.6042369 51.865803, 4.6042838 51.8658164, 4.6043219 51.865838, 4.6043476 51.8658657, 4.6043587 51.8659039, 4.6043463 51.8659419, 4.6043121 51.8659745, 4.604261 51.8659971), (4.604261 51.8659971, 4.6043052 51.8660662, 4.6043234 51.8660906, 4.6045048 51.8663357, 4.6045324 51.866373, 4.6046504 51.8665048, 4.6047667 51.8666309, 4.6049011 51.8667604, 4.6051256 51.8669433, 4.6052897 51.867058), (4.6052897 51.867058, 4.6053952 51.867092, 4.6057101 51.8672583, 4.6059378 51.8673591, 4.6061161 51.867439, 4.6061637 51.8674603, 4.6062881 51.8675197), (4.6062881 51.8675197, 4.6063748 51.8675047, 4.6064639 51.8675126), (4.6064639 51.8675126, 4.6065697 51.8674438, 4.6066151 51.8674195, 4.6067548 51.8673448, 4.6069127 51.8673049), (4.6110534 51.8667243, 4.6082034 51.8669911, 4.6079327 51.8670186, 4.6076943 51.8670488, 4.607492 51.8670898, 4.6073108 51.8671398, 4.607179 51.8671852, 4.6070466 51.8672395, 4.6069127 51.8673049), (4.6110534 51.8667243, 4.6112142 51.8666911, 4.611479 51.8666502, 4.6115325 51.8666406, 4.611649 51.8666182), (4.611649 51.8666182, 4.6116523 51.8665998, 4.6116606 51.8665821, 4.611691 51.8665512, 4.6117219 51.8665341, 4.6117586 51.8665222, 4.6117976 51.8665162, 4.6118396 51.8665162, 4.6118776 51.8665218, 4.6119201 51.866536, 4.6119525 51.8665555, 4.6119754 51.8665796), (4.6119754 51.8665796, 4.6121023 51.8665742, 4.6121586 51.8665733, 4.6124053 51.8665696, 4.6126315 51.8665623), (4.616425 51.8663185, 4.614839 51.8663614, 4.6145098 51.8663731, 4.6142231 51.8663981, 4.6131844 51.8665053, 4.6130919 51.8665148, 4.6127577 51.8665493, 4.6126315 51.8665623), (4.616425 51.8663185, 4.6165933 51.8662999, 4.6171875 51.8662691, 4.6172966 51.8662677), (4.6172966 51.8662677, 4.6173045 51.8662416, 4.6173227 51.8662175, 4.6173501 51.8661969, 4.617381 51.8661825, 4.6174128 51.8661735, 4.6174502 51.8661684, 4.6174885 51.8661685, 4.6175225 51.8661731, 4.6175519 51.866181, 4.6175818 51.8661939, 4.6176077 51.8662113, 4.6176261 51.866231, 4.6176374 51.8662526), (4.6176374 51.8662526, 4.6177665 51.8662401, 4.6178113 51.8662399, 4.6181866 51.8662482, 4.618367 51.866267), (4.6194177 51.8662374, 4.6193385 51.8662396, 4.618367 51.866267))</t>
+          <t>MULTILINESTRING ((4.3359951 51.9378332, 4.3358063 51.9377908), (4.3358943 51.9376361, 4.3358569 51.9376982, 4.3358063 51.9377908), (4.3359252 51.937591, 4.3358943 51.9376361), (4.3359252 51.937591, 4.3360908 51.9376302, 4.3362423 51.9376853), (4.3362423 51.9376853, 4.3365298 51.9377525), (4.3365298 51.9377525, 4.3376971 51.9380252, 4.3383212 51.9381785, 4.3385091 51.9382234, 4.3387554 51.9382808, 4.3389716 51.9382917, 4.3390861 51.9382804, 4.339202 51.9382572, 4.339284 51.9382315, 4.339586 51.9380869), (4.339586 51.9380869, 4.3396544 51.9380272, 4.3397665 51.9379658, 4.3399374 51.9378799, 4.3400387 51.9378618), (4.3400387 51.9378618, 4.3403173 51.9377216, 4.3409861 51.9373795, 4.3411221 51.9373351, 4.3412581 51.937307, 4.3414806 51.9373042, 4.3416068 51.9373219, 4.3420276 51.93742, 4.343464 51.9377645, 4.3444494 51.9379978), (4.3444494 51.9379978, 4.3445941 51.9380074, 4.3447251 51.9380304, 4.3449127 51.9380904, 4.3449612 51.9381213), (4.3449612 51.9381213, 4.3450929 51.9381525, 4.3452872 51.9381973, 4.3453958 51.9382246, 4.3456217 51.9382767, 4.3457936 51.938358, 4.3458869 51.9384266, 4.3460271 51.9386053), (4.3460271 51.9386053, 4.3461452 51.9386965, 4.3463991 51.9390576, 4.346445 51.9391564, 4.3464812 51.9392417), (4.3464812 51.9392417, 4.3465445 51.9393187, 4.3466764 51.9394249, 4.3468529 51.9394998, 4.3475501 51.9396673, 4.3483153 51.9398496), (4.3483153 51.9398496, 4.348449 51.9398644, 4.3485692 51.9398824, 4.3486804 51.9399182, 4.3487857 51.9399596), (4.3487857 51.9399596, 4.3489563 51.9400046, 4.3491827 51.9400563, 4.3494664 51.9401237, 4.3496142 51.9401357, 4.3497747 51.9401344, 4.3500136 51.9400879, 4.3502442 51.9400226, 4.3505525 51.9399353, 4.3506999 51.939864, 4.3507801 51.9398, 4.3508536 51.9397016), (4.3509028 51.9396262, 4.3508536 51.9397016), (4.3509028 51.9396262, 4.3510325 51.9396597, 4.3518665 51.9398576, 4.3525421 51.9400092, 4.3526477 51.9400348, 4.3527787 51.9400665, 4.353143 51.9401525, 4.3539259 51.9403409, 4.3544192 51.940462, 4.3546187 51.9404701, 4.3549997 51.9403882, 4.3553659 51.940269, 4.3555552 51.9401346, 4.3556883 51.9399078, 4.3559838 51.9393107, 4.3560445 51.9391879, 4.3564222 51.9384494, 4.3565673 51.9381618, 4.3566658 51.9379756, 4.3567119 51.9378776, 4.3567584 51.9377788, 4.356795 51.9376787, 4.3568071 51.9376199, 4.3568076 51.9375258, 4.3568002 51.9374406, 4.3567691 51.9373402), (4.3567691 51.9373402, 4.3567599 51.9373221, 4.3567459 51.9372951, 4.3567171 51.9372573, 4.3566653 51.9372061, 4.3566179 51.9371689, 4.3565376 51.93712, 4.3564458 51.937082), (4.356491 51.9370351, 4.3564458 51.937082), (4.3586679 51.9341225, 4.358382 51.9345833, 4.3582754 51.9347574, 4.3582411 51.9348103, 4.3582257 51.9348376, 4.3581827 51.9349044, 4.3581622 51.9349332, 4.3581428 51.9349659, 4.3579474 51.9352716, 4.3578647 51.9354195, 4.3578092 51.9354828, 4.357195 51.9359678, 4.3569988 51.9362657, 4.3567507 51.9366201, 4.3565536 51.9369281, 4.356491 51.9370351), (4.3596709 51.9325515, 4.3593714 51.9330199, 4.3589339 51.9337078, 4.3586679 51.9341225), (4.359799 51.932356, 4.3596709 51.9325515), (4.3599898 51.9314162, 4.3601858 51.9314661, 4.3602706 51.9315656, 4.359799 51.932356), (4.3592642 51.9312469, 4.359855 51.9313847, 4.3599898 51.9314162), (4.3590429 51.9311931, 4.3592642 51.9312469), (4.3579138 51.9309236, 4.3580075 51.9309415, 4.3590429 51.9311931), (4.3562669 51.9305392, 4.3564801 51.9305838, 4.3566222 51.9306164, 4.3567608 51.9306465, 4.357046 51.9307135, 4.3576866 51.9308703, 4.3579138 51.9309236), (4.3559427 51.9306372, 4.3562669 51.9305392), (4.3555582 51.9307683, 4.3556617 51.930733, 4.355829 51.930676, 4.3559427 51.9306372), (4.3553254 51.9308444, 4.3554304 51.9308101, 4.3555582 51.9307683), (4.3541228 51.9306487, 4.3542693 51.9306833, 4.3548684 51.9308323, 4.3550447 51.9308568, 4.3551793 51.9308663, 4.3553254 51.9308444), (4.3527713 51.93033, 4.3531083 51.9304095, 4.3541228 51.9306487), (4.3524502 51.930253, 4.3527713 51.93033), (4.3519893 51.9301404, 4.3524502 51.930253), (4.3519893 51.9301404, 4.3515087 51.9300628, 4.3513649 51.9300493), (4.3513649 51.9300493, 4.3513298 51.9300692, 4.3512879 51.9300833, 4.3512417 51.9300906, 4.3511782 51.9300891, 4.3511189 51.930075, 4.3510701 51.9300499, 4.351044 51.9300257, 4.3510282 51.9299984, 4.3510235 51.9299695), (4.3510235 51.9299695, 4.3508993 51.9299256, 4.350742 51.9298416), (4.3505695 51.9297981, 4.3506634 51.9298204, 4.350742 51.9298416), (4.3492231 51.9294823, 4.3497179 51.9295998, 4.3497826 51.9296139, 4.3501344 51.9296988, 4.3505695 51.9297981), (4.347647 51.9290551, 4.347712 51.9290943, 4.3479637 51.9291789, 4.3481723 51.9292292, 4.3483479 51.9292716, 4.3492231 51.9294823), (4.3474773 51.9288911, 4.3475502 51.9289818, 4.347647 51.9290551), (4.3471565 51.9283836, 4.3472503 51.9284811, 4.3474773 51.9288911), (4.3453012 51.9278982, 4.3458234 51.9280233, 4.346062 51.9280805, 4.3463656 51.9281532, 4.3464048 51.9281629, 4.346954 51.9282996, 4.3470822 51.9283427, 4.3471565 51.9283836), (4.3448134 51.9277814, 4.3449599 51.9278178, 4.3453012 51.9278982), (4.3444789 51.9277003, 4.3445113 51.9277074, 4.3448134 51.9277814), (4.3442102 51.9276415, 4.3442972 51.9276604, 4.3444789 51.9277003), (4.3440878 51.9276145, 4.3442102 51.9276415), (4.343923 51.9275755, 4.3440878 51.9276145), (4.343923 51.9275755, 4.3439967 51.9274593, 4.3441877 51.9271451, 4.3455256 51.9249444), (4.3455256 51.9249444, 4.3457742 51.9245327, 4.3458006 51.9244771, 4.3458652 51.9243697), (4.3458652 51.9243697, 4.3461052 51.9244273), (4.3461052 51.9244273, 4.3462418 51.9244593, 4.3463134 51.9244758, 4.3466087 51.924549), (4.3466087 51.924549, 4.3468574 51.9246083, 4.3469652 51.9246344, 4.3475963 51.9247879, 4.3483397 51.9249657, 4.3487193 51.9250421, 4.348866 51.9250729, 4.3490906 51.9250954, 4.3493369 51.9251204, 4.349398 51.9251245, 4.3498175 51.9251678, 4.3505473 51.9252226, 4.3508518 51.9252494, 4.3518988 51.9253428, 4.3519857 51.9253504), (4.3519857 51.9253504, 4.3523562 51.9253952, 4.3526789 51.9254486), (4.3526789 51.9254486, 4.3529509 51.9255086, 4.3532185 51.9255728), (4.3532185 51.9255728, 4.3535027 51.9256376, 4.353601 51.9256611, 4.3537485 51.9256952), (4.3537485 51.9256952, 4.3538107 51.9255953, 4.3538648 51.9255004, 4.3539148 51.9253552, 4.3539074 51.925262, 4.3539009 51.9251977, 4.3538406 51.9250855, 4.3537617 51.9250007, 4.3536657 51.924917, 4.3533774 51.9247632, 4.3528098 51.9244962, 4.3527098 51.9244424, 4.3525613 51.9243541, 4.3524401 51.9242471, 4.3523886 51.9241733, 4.3523171 51.9240715, 4.3522744 51.9239525, 4.3522643 51.9238274, 4.3522604 51.9236989, 4.3523225 51.9235858, 4.3524323 51.9234144, 4.3526445 51.9230833), (4.3526445 51.9230833, 4.3529797 51.9225548, 4.3530046 51.9225156, 4.3530809 51.9224077), (4.3530809 51.9224077, 4.3531574 51.922321), (4.3531574 51.922321, 4.3532507 51.9222196, 4.3536143 51.9217443, 4.3537672 51.9215293, 4.3539137 51.9213865, 4.3542556 51.9210476, 4.3543213 51.9209843, 4.3544126 51.9209086, 4.3546035 51.9207503, 4.3550078 51.9204317, 4.3552227 51.9202518), (4.3552227 51.9202518, 4.355464 51.9200296, 4.3555709 51.9199245), (4.3555709 51.9199245, 4.3556222 51.9198745), (4.3556222 51.9198745, 4.3557114 51.9197805, 4.3557619 51.9197408, 4.3560239 51.9195228), (4.3562468 51.9193374, 4.3560239 51.9195228), (4.3562468 51.9193374, 4.3562923 51.9192579, 4.3564182 51.9191851), (4.3572854 51.9183682, 4.3569974 51.918635, 4.3566069 51.9189934, 4.3564182 51.9191851), (4.3572854 51.9183682, 4.3573706 51.9182493, 4.3574128 51.9182124, 4.3575409 51.9181246), (4.3576805 51.917929, 4.3575409 51.9181246), (4.3576805 51.917929, 4.3577307 51.9177909, 4.3578643 51.9176704), (4.358273 51.9171422, 4.3578643 51.9176704), (4.358273 51.9171422, 4.3583989 51.9169823, 4.3586714 51.9165993), (4.3586714 51.9165993, 4.3587495 51.9164541, 4.3588002 51.9163849), (4.3588002 51.9163849, 4.3587662 51.9163541, 4.3587474 51.9163186, 4.3587454 51.9162813, 4.3587579 51.9162488, 4.3587832 51.9162192, 4.3588227 51.9161929, 4.3588721 51.916174, 4.3589278 51.916164, 4.3589859 51.9161635), (4.3589859 51.9161635, 4.3590302 51.9160969, 4.3591233 51.9160252), (4.3591233 51.9160252, 4.3591738 51.9159466, 4.3593765 51.9156528, 4.3594443 51.9155532), (4.3597036 51.9152008, 4.3594615 51.9155295, 4.3594443 51.9155532), (4.3597036 51.9152008, 4.359976 51.9147613, 4.3600199 51.9146933, 4.3600458 51.9146559, 4.3600791 51.9146078), (4.3600791 51.9146078, 4.3601568 51.9145522), (4.3601568 51.9145522, 4.3601878 51.9144588), (4.3601878 51.9144588, 4.3601608 51.9144005, 4.3601679 51.9143823, 4.3601752 51.9143639, 4.3602702 51.9142028), (4.3602702 51.9142028, 4.3606291 51.9133128, 4.3606994 51.9131287), (4.3606994 51.9131287, 4.360726 51.9129965, 4.3607586 51.9129137, 4.3607856 51.9128488, 4.3607944 51.9128238, 4.3608172 51.9127679), (4.3608172 51.9127679, 4.3608899 51.9126204, 4.3609313 51.9125196, 4.3610047 51.9123802), (4.3612418 51.9117696, 4.3610047 51.9123802), (4.3612418 51.9117696, 4.3612961 51.9115948, 4.3612286 51.9114164), (4.3612286 51.9114164, 4.3611347 51.9113805, 4.3610383 51.9112782, 4.3610129 51.9112515, 4.3609873 51.9112275, 4.3609268 51.9111813, 4.3608946 51.9111568), (4.3608946 51.9111568, 4.3607963 51.9111515, 4.360737 51.9111312, 4.3606969 51.911108, 4.3606689 51.9110621, 4.3606736 51.9110153, 4.3606919 51.9109839, 4.3607214 51.910963), (4.3607214 51.910963, 4.3606641 51.9109053, 4.3606477 51.9108887, 4.3606117 51.9108579, 4.3605134 51.9107619, 4.3604497 51.910645), (4.3603759 51.9105709, 4.3604497 51.910645), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.360644 51.9104615, 4.3609607 51.9106819, 4.360968 51.910686, 4.361003 51.9107058), (4.361003 51.9107058, 4.3610858 51.9106382, 4.3611254 51.9105905, 4.3612273 51.9104633, 4.3612512 51.9104357, 4.3613044 51.9103599), (4.3613044 51.9103599, 4.3612671 51.9103377, 4.3611766 51.9102838, 4.3608855 51.9103799, 4.360644 51.9104615), (4.3603759 51.9105709, 4.3604328 51.910547, 4.3604724 51.9105293, 4.3604972 51.9105183, 4.3605469 51.9104991, 4.360644 51.9104615), (4.3601654 51.9103626, 4.3602212 51.910416, 4.3602855 51.9104824, 4.3603759 51.9105709), (4.3601654 51.9103626, 4.3598195 51.9101251, 4.3596939 51.9099938), (4.3596939 51.9099938, 4.3596106 51.9099183, 4.3594546 51.9097895), (4.3594546 51.9097895, 4.3593013 51.9096644, 4.3591826 51.9095669), (4.3589182 51.9094482, 4.3591826 51.9095669), (4.3586815 51.9093418, 4.3589182 51.9094482), (4.3586815 51.9093418, 4.3584023 51.9093665, 4.3582834 51.9093753, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3526583 51.9093729, 4.3528683 51.9093723, 4.3532124 51.9093729, 4.3547052 51.9093629, 4.3554786 51.9093626, 4.355537 51.9093634, 4.3557088 51.9093634, 4.3558001 51.909363, 4.3567158 51.90937, 4.3575922 51.9093676, 4.3581013 51.9093656), (4.3525515 51.9093726, 4.3525496 51.9094094, 4.3525195 51.9094715), (4.3525195 51.9094715, 4.3524649 51.9095268, 4.3523892 51.9095718, 4.3523097 51.9095992), (4.3523097 51.9095992, 4.3522975 51.9096035, 4.3522368 51.9096136), (4.3522368 51.9096136, 4.3521958 51.9096197, 4.3520908 51.9096195, 4.3520628 51.9096149), (4.3520628 51.9096149, 4.3519892 51.9096028, 4.3519821 51.9096002), (4.3519821 51.9096002, 4.3518979 51.9095707, 4.3518673 51.9095523, 4.3518228 51.9095254, 4.3517875 51.9094917, 4.3517808 51.9094853, 4.3517469 51.9094302, 4.3517346 51.9093718), (4.3514934 51.9093681, 4.3516327 51.9093717, 4.3517346 51.9093718), (4.3468773 51.9093598, 4.3469711 51.90936, 4.3476767 51.9093601, 4.3478455 51.9093586, 4.3485051 51.9093602, 4.3486542 51.9093608, 4.3490577 51.9093612, 4.3494404 51.9093616, 4.3504626 51.9093657, 4.3508478 51.9093666, 4.350978 51.9093669, 4.3511123 51.9093672, 4.3514934 51.9093681), (4.3449363 51.909356, 4.3462889 51.9093612, 4.3463787 51.9093615, 4.3464509 51.9093618, 4.3468773 51.9093598), (4.3446973 51.909355, 4.3449363 51.909356), (4.3444997 51.9093519, 4.3446672 51.9093545, 4.3446973 51.909355), (4.3442571 51.9093628, 4.3444251 51.9093552, 4.3444997 51.9093519), (4.3440181 51.9093806, 4.3442571 51.9093628), (4.3437 51.9094, 4.3438461 51.909391, 4.3439153 51.9093868, 4.3440181 51.9093806), (4.3437 51.9094, 4.3435453 51.9094618, 4.343117 51.9095625), (4.343117 51.9095625, 4.3430661 51.9095744, 4.342946 51.9095826), (4.342946 51.9095826, 4.3428955 51.9095984, 4.3426842 51.9096644), (4.3426842 51.9096644, 4.3425766 51.9096991), (4.3425766 51.9096991, 4.3421826 51.9098304, 4.3410332 51.9102134, 4.3410052 51.9102227), (4.3410052 51.9102227, 4.3409295 51.910248, 4.3407547 51.9103062, 4.3405592 51.9103714, 4.3405065 51.910389), (4.3405065 51.910389, 4.3404611 51.9104041, 4.3392314 51.9108139, 4.3385446 51.9110428), (4.3385446 51.9110428, 4.3382566 51.9111353, 4.3381299 51.9111774, 4.338072 51.9111947), (4.3378036 51.9108706, 4.3378974 51.9109945, 4.338072 51.9111947), (4.3378036 51.9108706, 4.3377469 51.9108838, 4.3376508 51.9109062, 4.3371833 51.9110026, 4.336912 51.9110588, 4.3359093 51.9112671, 4.3356535 51.9113193, 4.335168 51.9114174, 4.335145 51.911422), (4.335145 51.911422, 4.3351062 51.9114302, 4.3350243 51.9114476), (4.3350243 51.9114476, 4.3349632 51.9114604, 4.3349091 51.9114734, 4.334855 51.9114864), (4.3347128 51.9115162, 4.334855 51.9114864), (4.3347128 51.9115162, 4.33462 51.9115364, 4.3345112 51.91156), (4.3345112 51.91156, 4.3344452 51.9115739), (4.3344452 51.9115739, 4.334402 51.9115831, 4.3336587 51.9117294), (4.3336587 51.9117294, 4.3333849 51.9117881, 4.3327983 51.9119094, 4.3320314 51.9120694, 4.3319355 51.9120894), (4.3319355 51.9120894, 4.3310565 51.9122668, 4.3308912 51.9123013, 4.3307236 51.9123335, 4.3305572 51.9123669, 4.3298911 51.9125014, 4.3296722 51.9125472, 4.3295422 51.912573, 4.3288141 51.9127264), (4.3288141 51.9127264, 4.3286987 51.9127498, 4.3285028 51.9127895), (4.3285028 51.9127895, 4.3280686 51.9128757), (4.3280686 51.9128757, 4.3279711 51.9128963, 4.3279198 51.9129071, 4.3278663 51.9129183), (4.3277265 51.9129507, 4.3278663 51.9129183), (4.3275722 51.9129724, 4.3277265 51.9129507), (4.3273976 51.9129952, 4.3275722 51.9129724), (4.3273976 51.9129952, 4.3273525 51.9129992, 4.327277 51.9130064, 4.3266714 51.9130641), (4.3266714 51.9130641, 4.3262789 51.9131035, 4.3260794 51.9131269, 4.3252635 51.9132005, 4.3249395 51.9132309, 4.3247289 51.9132507, 4.3242197 51.9133022, 4.3216897 51.9135331, 4.320528 51.9136486, 4.3202021 51.913674, 4.3199892 51.9136831), (4.3166314 51.9136657, 4.3169459 51.9136683, 4.3171779 51.9136707, 4.3172946 51.9136714, 4.3186721 51.9136851, 4.3189693 51.9136873, 4.319681 51.9136884, 4.3199892 51.9136831), (4.31644 51.9132895, 4.3165207 51.9135717, 4.316551 51.9136311, 4.3166314 51.9136657), (4.3161129 51.9121043, 4.3162309 51.9125272, 4.3162589 51.9126183, 4.3162855 51.9127189, 4.316354 51.912992, 4.31644 51.9132895), (4.3161129 51.9121043, 4.316031 51.9120012, 4.3159829 51.9118434, 4.3159536 51.9117475, 4.315925 51.9116129), (4.315925 51.9116129, 4.3159272 51.9115485, 4.3159536 51.9114985, 4.3160064 51.9114554, 4.3160668 51.9114136, 4.316219 51.9113539), (4.3168654 51.9110391, 4.316219 51.9113539), (4.3168654 51.9110391, 4.3169825 51.9109428, 4.3173545 51.9107783, 4.3174996 51.9107224), (4.3174996 51.9107224, 4.3174219 51.9106348, 4.3173406 51.9104781), (4.3173406 51.9104781, 4.3173317 51.910461, 4.3172762 51.910344, 4.3172502 51.910281, 4.3172042 51.9101972, 4.3170998 51.9100099), (4.3163962 51.9086105, 4.316582 51.9089508, 4.31674 51.9092775, 4.316787 51.9093778, 4.3168883 51.9096121, 4.3170211 51.9098371, 4.3170998 51.9100099), (4.3150761 51.9060425, 4.3151932 51.9062677, 4.315635 51.9071258, 4.315736 51.907312, 4.3158242 51.9074772, 4.3160471 51.9079105, 4.3163962 51.9086105), (4.3147493 51.9053738, 4.3150761 51.9060425), (4.3147155 51.905133, 4.3146949 51.9051686, 4.3146937 51.905179, 4.3146896 51.9052142, 4.3147071 51.9052742, 4.3147493 51.9053738), (4.3152785 51.9049688, 4.3149079 51.905055, 4.3147712 51.9050989, 4.3147155 51.905133), (4.3152785 51.9049688, 4.3152333 51.9049019), (4.3152333 51.9049019, 4.3150527 51.9046041, 4.3150059 51.9045269, 4.3149703 51.9044683))</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2676429</t>
+          <t>12121870</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2882,17 +2882,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Berkel en Rodenrijs, Rodenrijs Metro</t>
+          <t>Rotterdam, Slinge Metro</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bus 170: Zoetermeer Centrum West =&gt; Berkel en Rodenrijs Rodenrijs Metro</t>
+          <t>Bus 567: Rotterdam Slinge =&gt; Rotterdam Slinge</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>567</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2903,14 +2903,14 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4828706 52.0610622, 4.4830312 52.0610416), (4.4830312 52.0610416, 4.4830423 52.0610676, 4.483053 52.0610939), (4.483053 52.0610939, 4.4830647 52.0611233, 4.4830747 52.0611461), (4.4830747 52.0611461, 4.4830872 52.061175, 4.4830965 52.0611984), (4.4830965 52.0611984, 4.4831077 52.0612276, 4.4831182 52.0612507), (4.4831182 52.0612507, 4.4831299 52.0612791, 4.4831398 52.0613026), (4.4831398 52.0613026, 4.4831531 52.0613308, 4.4831635 52.0613549), (4.4831635 52.0613549, 4.4832797 52.0616062), (4.4832797 52.0616062, 4.4837988 52.06152), (4.4837988 52.06152, 4.4839294 52.0615258), (4.4839294 52.0615258, 4.4840596 52.0618167, 4.4841147 52.0619397), (4.4841147 52.0619397, 4.4840934 52.0619919), (4.4840934 52.0619919, 4.4840198 52.0621319), (4.4840198 52.0621319, 4.4830365 52.0620321), (4.4830365 52.0620321, 4.4827674 52.0619812, 4.4824858 52.06192, 4.4822274 52.0618111, 4.4820902 52.0617138, 4.4819919 52.0616102), (4.4819919 52.0616102, 4.481933 52.0615347, 4.4818661 52.0614374), (4.4818661 52.0614374, 4.4817637 52.0612827, 4.4816855 52.0611347, 4.4815533 52.0608662), (4.4815533 52.0608662, 4.4813035 52.0603548, 4.4812457 52.0602405), (4.4812457 52.0602405, 4.4811104 52.0599756), (4.4811104 52.0599756, 4.4810407 52.0598216), (4.4810407 52.0598216, 4.4809238 52.0595726, 4.4807394 52.0591907, 4.4803136 52.0583015, 4.4801864 52.0580357, 4.4801036 52.0578666, 4.4799864 52.0576412), (4.4799864 52.0576412, 4.4795336 52.0566925, 4.4793957 52.0564103), (4.4793957 52.0564103, 4.4791743 52.0559091, 4.479054 52.0556644), (4.479054 52.0556644, 4.4789945 52.0555487, 4.4787608 52.0550542), (4.4787608 52.0550542, 4.4780371 52.053562, 4.4773934 52.0522181), (4.4773934 52.0522181, 4.4766597 52.0506754, 4.4764528 52.0502324, 4.476405 52.0501374), (4.476405 52.0501374, 4.4762756 52.049877), (4.4762756 52.049877, 4.4761428 52.0496099), (4.4761428 52.0496099, 4.475608 52.0484925, 4.4755292 52.0483276), (4.4755292 52.0483276, 4.4754906 52.0482399, 4.4753933 52.0480269, 4.4753196 52.0478839), (4.4753196 52.0478839, 4.4749875 52.0472102), (4.4749875 52.0472102, 4.4747897 52.0467868), (4.4747897 52.0467868, 4.4746182 52.046405), (4.4746182 52.046405, 4.4745389 52.0462647), (4.4745389 52.0462647, 4.4744285 52.0461394, 4.4743175 52.0460399, 4.4741029 52.0459238, 4.4739307 52.0458716, 4.4737489 52.045828, 4.4735733 52.0458034, 4.4733905 52.0457918, 4.4731943 52.0457977, 4.4729871 52.0458235, 4.4726524 52.0459185, 4.4723889 52.0460402, 4.4722044 52.0462083, 4.4721007 52.0463713, 4.4720527 52.0465708, 4.4720683 52.0467239, 4.4721136 52.0468398, 4.4721412 52.0468928, 4.4721987 52.0469773, 4.4723464 52.0471128), (4.4723464 52.0471128, 4.4725957 52.0472539), (4.4725957 52.0472539, 4.4728855 52.0473616, 4.4731613 52.0474213), (4.4731613 52.0474213, 4.4734551 52.047445, 4.4737352 52.0474492, 4.4741339 52.0474391), (4.4741339 52.0474391, 4.474707 52.0474213), (4.474707 52.0474213, 4.4749552 52.0474152, 4.4755289 52.0473654, 4.4759578 52.0473096), (4.4759578 52.0473096, 4.4769504 52.0471725), (4.4779066 52.0469671, 4.4777619 52.0469789, 4.4777214 52.0469817, 4.4776326 52.0469882, 4.4772606 52.0470145, 4.4771794 52.0470203, 4.4771208 52.0470318, 4.4770712 52.0470538, 4.477028 52.0470809, 4.4769504 52.0471725), (4.4779066 52.0469671, 4.4780612 52.0470746), (4.4780612 52.0470746, 4.4785316 52.0470436), (4.4785316 52.0470436, 4.4830667 52.046715), (4.4830667 52.046715, 4.4844699 52.0466146), (4.4844699 52.0466146, 4.4846216 52.0466053, 4.4883887 52.0463448), (4.4883887 52.0463448, 4.4901515 52.0462279, 4.4902103 52.0462227, 4.4903055 52.0462146, 4.4904585 52.0462014), (4.4904585 52.0462014, 4.4908431 52.0461703, 4.4913319 52.0461341, 4.4917467 52.046106), (4.4917467 52.046106, 4.4923192 52.0460631, 4.4933103 52.0459886, 4.4954734 52.0458301), (4.4954734 52.0458301, 4.4959183 52.0457943, 4.4963595 52.045747, 4.4966309 52.0457111, 4.4969108 52.0456693, 4.4970341 52.0456476, 4.497199 52.045624), (4.497199 52.045624, 4.4972955 52.0456042), (4.4972955 52.0456042, 4.4975059 52.045562, 4.497614 52.0455381, 4.4979426 52.0454575, 4.498268 52.0453644, 4.4988887 52.0451477, 4.4992241 52.044999), (4.4992241 52.044999, 4.4993136 52.0449118, 4.4994249 52.0448299, 4.4994441 52.0448205, 4.4996569 52.044722, 4.4997167 52.0446928, 4.5000048 52.0446171), (4.5000048 52.0446171, 4.500226 52.0444881), (4.500226 52.0444881, 4.5005578 52.0442637), (4.5005578 52.0442637, 4.5007276 52.0441514, 4.5009926 52.0439522, 4.5011996 52.0437458, 4.5012472 52.0436983), (4.5012472 52.0436983, 4.5013931 52.0435576), (4.5013931 52.0435576, 4.5015713 52.0435733), (4.5015713 52.0435733, 4.5018121 52.0436558, 4.502021 52.0437482, 4.5022021 52.0438196, 4.5023826 52.0439198), (4.5024427 52.0439437, 4.5023826 52.0439198), (4.5045905 52.0441807, 4.5043322 52.0442422, 4.5041872 52.0442808, 4.5041309 52.0442886, 4.5040175 52.0443066, 4.5039063 52.0443218, 4.5037375 52.0443318, 4.503569 52.0443185, 4.5033678 52.0442848, 4.5031923 52.0442376, 4.5031499 52.0442203, 4.5028938 52.0441256, 4.5028048 52.0440871, 4.5026164 52.0440119, 4.5024891 52.0439604, 4.5024427 52.0439437), (4.5076111 52.0434264, 4.5063087 52.0437516, 4.5057 52.0439, 4.5045905 52.0441807), (4.5081423 52.0432942, 4.5076111 52.0434264), (4.508783 52.0431338, 4.50844 52.0432205, 4.5081423 52.0432942), (4.508783 52.0431338, 4.5093742 52.0431313, 4.509559 52.0431173, 4.5097749 52.0430901, 4.5102168 52.0430005, 4.5102757 52.0429885, 4.5104411 52.0429455, 4.5159503 52.0415567, 4.5161971 52.0414642, 4.516366 52.0413871, 4.516587 52.0412737, 4.5167675 52.0411619, 4.5169934 52.0409869), (4.5169934 52.0409869, 4.5172933 52.0407442), (4.5175721 52.0405235, 4.5174311 52.0406333, 4.5172933 52.0407442), (4.5175721 52.0405235, 4.5177904 52.040427, 4.5178598 52.0403589, 4.5179069 52.0402849), (4.5179069 52.0402849, 4.5178569 52.040269, 4.517822 52.0402527, 4.517732 52.0401911), (4.517732 52.0401911, 4.517526 52.0400427, 4.5173452 52.0399151), (4.5173452 52.0399151, 4.516962 52.0396478), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5137257 52.0373333, 4.5136531 52.0372933, 4.5135814 52.0372063, 4.5135661 52.0371504), (4.5135661 52.0371504, 4.5133959 52.03717), (4.5133959 52.03717, 4.5131304 52.0371463, 4.5128956 52.0370737, 4.5127633 52.0369977, 4.5127218 52.036959), (4.5127218 52.036959, 4.5122589 52.0366537, 4.5119523 52.0364337, 4.5113302 52.0359511, 4.5109747 52.0356634, 4.5109553 52.0356452, 4.5107077 52.035443, 4.5103906 52.0351841, 4.5102312 52.0350608), (4.5102312 52.0350608, 4.5101215 52.0350232, 4.5099701 52.034982, 4.5097053 52.0349548), (4.5097053 52.0349548, 4.5095282 52.0349756, 4.5093793 52.0350141, 4.5091403 52.035127, 4.5090737 52.0351585, 4.5088896 52.0352619), (4.5088896 52.0352619, 4.5087293 52.0351976), (4.5087293 52.0351976, 4.5084999 52.035004, 4.5080683 52.0346833, 4.5079515 52.0345703), (4.5079515 52.0345703, 4.5072318 52.034023, 4.5071449 52.033967, 4.5070822 52.0339426, 4.5070084 52.0339146), (4.5037603 52.0312266, 4.5037807 52.0313763, 4.5038844 52.0317588, 4.5039737 52.0318888, 4.5041573 52.0320572, 4.5045094 52.0322376, 4.5049764 52.0324799, 4.5056956 52.0328658, 4.506006 52.0331006, 4.5066661 52.0335861, 4.5067704 52.0336624, 4.5068546 52.0337131, 4.5069092 52.033758, 4.5069795 52.0338303, 4.5069965 52.0338598, 4.5070084 52.0339146), (4.5037603 52.0312266, 4.5037134 52.0311369, 4.5036936 52.0310662, 4.5036832 52.0310085), (4.5036832 52.0310085, 4.5036761 52.0309259, 4.5036846 52.0308648, 4.5037384 52.0305735, 4.5037564 52.0304047), (4.5035378 52.0282905, 4.5035556 52.0286996, 4.503559 52.028791, 4.5035605 52.028843, 4.5036117 52.0293788, 4.5037243 52.0301771, 4.5037564 52.0304047), (4.5035047 52.0277898, 4.5035462 52.0278918, 4.5035547 52.0281861, 4.5035378 52.0282905), (4.5035085 52.0274374, 4.5035074 52.0275347, 4.5035047 52.0277898), (4.5034766 52.0258733, 4.5035001 52.0267603, 4.5035106 52.0272511, 4.5035085 52.0274374), (4.5034717 52.0256879, 4.5034766 52.0258733), (4.5034717 52.0256879, 4.5033878 52.0256255, 4.5033811 52.0255419, 4.5034165 52.0252894, 4.5034667 52.0250843), (4.5040234 52.0159596, 4.5040274 52.0161526, 4.503964 52.0164233, 4.5038248 52.0167235, 4.5036289 52.0170113, 4.5035204 52.0172104, 4.5034714 52.0174427, 4.5034426 52.017698, 4.5033187 52.0189561, 4.5033014 52.0196665, 4.5033053 52.0202917, 4.503336 52.0210362, 4.503361 52.0218292, 4.5034205 52.0232899, 4.5034608 52.0241408, 4.5034762 52.0246513, 4.5034707 52.0248965, 4.5034667 52.0250843), (4.5039556 52.0155212, 4.5039933 52.0157509, 4.5040234 52.0159596), (4.5037605 52.0145049, 4.5038467 52.0149974, 4.5039556 52.0155212), (4.5036817 52.0140262, 4.5037177 52.0142591, 4.5037605 52.0145049), (4.4970885 52.0008594, 4.4970974 52.0008662, 4.4971429 52.0009012, 4.4971986 52.0009424, 4.4972746 52.0009946, 4.4973788 52.0010677, 4.4974336 52.0011078, 4.5000608 52.00317, 4.5001206 52.0032189, 4.5001697 52.0032642, 4.500208 52.0033034, 4.5002434 52.0033448, 4.5002789 52.0033903, 4.5003167 52.0034453, 4.5003526 52.0035123, 4.5004021 52.0036167, 4.5004558 52.00373, 4.5004851 52.0037865, 4.5005188 52.0038418, 4.5005596 52.0038965, 4.5006053 52.0039505, 4.5006565 52.0040009, 4.500712 52.0040509, 4.5020538 52.0051789, 4.5021051 52.0052228, 4.5021533 52.0052677, 4.502194 52.0053105, 4.5022299 52.0053528, 4.502264 52.0053994, 4.5022944 52.005446, 4.5023204 52.0054939, 4.5023419 52.0055421, 4.5023557 52.0055806, 4.5023675 52.005619, 4.5023775 52.0056581, 4.5023853 52.0056971, 4.50239 52.0057371, 4.5023913 52.0057767, 4.5023909 52.0058158, 4.5023882 52.0058547, 4.5023823 52.0058969, 4.5023731 52.0059354, 4.5023622 52.0059751, 4.5023499 52.0060143, 4.5022838 52.0062299, 4.50221 52.0064661, 4.5022043 52.0064875, 4.502202 52.0065063, 4.5022029 52.006529, 4.5022087 52.006555, 4.5022202 52.0065847, 4.5022398 52.0066341, 4.50235 52.0068831, 4.5023648 52.0069172, 4.5023709 52.0069313, 4.5024016 52.0070141, 4.5024233 52.0070784, 4.5024454 52.0071579, 4.5024646 52.0072344, 4.5024943 52.0074065, 4.5025107 52.0075999, 4.5025768 52.0090911, 4.5025932 52.0096361, 4.5025952 52.0098347, 4.5026393 52.0100534, 4.5026912 52.0102567, 4.5028179 52.0106255, 4.5030849 52.0114601, 4.503204 52.0116539, 4.5033077 52.0118135, 4.5033615 52.011995, 4.5034402 52.0125104, 4.5036817 52.0140262), (4.4969055 52.0007183, 4.4970885 52.0008594), (4.4895897 51.9950967, 4.4901346 51.9955141, 4.490665 51.9959236, 4.4909861 51.9961733, 4.4911524 51.9962961, 4.4913188 51.9964138, 4.4916497 51.9966445, 4.4918158 51.9967619, 4.4919717 51.9968809, 4.4932038 51.9978342, 4.4932661 51.9978862, 4.4933261 51.9979386, 4.4933943 51.9979965, 4.4934663 51.9980565, 4.4935383 51.9981148, 4.4936674 51.9982134, 4.4937635 51.9982851, 4.4938585 51.9983518, 4.4939551 51.9984194, 4.4940462 51.9984848, 4.4955238 51.999633, 4.4955822 51.9996797, 4.4956397 51.9997266, 4.4956966 51.9997751, 4.4957516 51.999823, 4.4958113 51.999872, 4.4958674 51.9999158, 4.4959861 52.0000072, 4.4960923 52.000092, 4.4961214 52.0001143, 4.4963782 52.0003106, 4.4966227 52.0004995, 4.4968862 52.000703, 4.4969055 52.0007183), (4.489175 51.9947712, 4.4892292 51.9948137, 4.4895897 51.9950967), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.4710576 51.9802382, 4.470935 51.9802726, 4.4708407 51.9802802, 4.4707127 51.9802661), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.469132 51.979373, 4.4690315 51.9793373, 4.4689806 51.979292, 4.4689412 51.9792258), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4639126 51.9772531, 4.4638287 51.9772152, 4.463774 51.977167, 4.4637436 51.9771046), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4618374 51.9758343, 4.4618339 51.9757344, 4.4618319 51.9756331, 4.4618293 51.975575, 4.4618218 51.9755567, 4.4618017 51.9755381, 4.4617789 51.9755245, 4.4617551 51.9755151, 4.4615248 51.9754898))</t>
+          <t>MULTILINESTRING ((4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.4772044 51.874002), (4.4772044 51.874002, 4.4769271 51.8740373, 4.4765921 51.8740693, 4.4758806 51.8740626, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4726732 51.8744, 4.4719936 51.8744898, 4.4708191 51.8746203, 4.4705094 51.8746547, 4.4701998 51.8747087, 4.469905 51.8747573, 4.4694501 51.8748169, 4.4692574 51.8748422), (4.4692574 51.8748422, 4.4692651 51.8749137, 4.4692809 51.8749959, 4.4693428 51.8752602), (4.4693428 51.8752602, 4.4695938 51.8760268, 4.4698431 51.8768969, 4.4700484 51.877615), (4.4700484 51.877615, 4.4700908 51.8778196, 4.4701007 51.8778532, 4.4702389 51.8782835), (4.4702389 51.8782835, 4.4702648 51.878379), (4.4702648 51.878379, 4.4702857 51.8784579), (4.4702857 51.8784579, 4.470095 51.8784784, 4.4680195 51.8787263, 4.467733 51.8787603), (4.467733 51.8787603, 4.4672982 51.878816, 4.4671179 51.8788457, 4.4669414 51.8788755, 4.4667317 51.8789196, 4.4665881 51.8789501), (4.4665881 51.8789501, 4.4665163 51.8789781, 4.466497 51.8789934, 4.4664805 51.8790113, 4.4664681 51.8790369, 4.4664626 51.8790564, 4.4664589 51.8790802, 4.4664584 51.8791007, 4.4664622 51.8791188), (4.4664622 51.8791188, 4.4672723 51.8796041, 4.4681186 51.8801406), (4.4681186 51.8801406, 4.4688812 51.8806102, 4.4693069 51.880903, 4.4695515 51.8810826, 4.4697402 51.8812341, 4.4698464 51.881333, 4.4699619 51.881443, 4.4700593 51.881548), (4.4700593 51.881548, 4.4701035 51.8815909, 4.4701718 51.8816533, 4.4702829 51.8817773, 4.4704046 51.881914, 4.4704918 51.8820118), (4.4704918 51.8820118, 4.4706157 51.8821797), (4.4706157 51.8821797, 4.470669 51.8822555, 4.4708062 51.8824769, 4.4709452 51.8827653, 4.4710632 51.8830204, 4.4711087 51.8831275, 4.471155 51.8831986), (4.470934 51.8832047, 4.471155 51.8831986), (4.470934 51.8832047, 4.4707715 51.8832093), (4.4707715 51.8832093, 4.4696405 51.8832363, 4.4684564 51.8833008, 4.4684061 51.8833026, 4.4664195 51.8833922), (4.4664195 51.8833922, 4.4663582 51.8833965, 4.4655821 51.8834322, 4.4654337 51.8834674), (4.4626252 51.8836503, 4.4635353 51.8834911, 4.4641065 51.8834713, 4.4646916 51.8834655, 4.4647724 51.8834647, 4.4648442 51.8834621, 4.4648967 51.8834614, 4.4649341 51.8834602, 4.4653038 51.8834491, 4.4654337 51.8834674), (4.4626252 51.8836503, 4.4611187 51.8839382, 4.460592 51.884053), (4.4593671 51.8838398, 4.4597356 51.8841223, 4.4598128 51.884157, 4.4599019 51.8841971, 4.4600153 51.8842045, 4.460121 51.8841815, 4.460592 51.884053), (4.4593671 51.8838398, 4.458913 51.8840857), (4.458913 51.8840857, 4.4587582 51.8842145, 4.4586748 51.8844358, 4.4587324 51.8847105), (4.4587324 51.8847105, 4.4588725 51.884892, 4.4590663 51.8850831), (4.4590663 51.8850831, 4.4591776 51.8851617, 4.4592418 51.8852521, 4.4593075 51.8853524), (4.4588712 51.8852506, 4.4589642 51.8853596, 4.4590659 51.8853895, 4.4591659 51.8853866, 4.4593075 51.8853524), (4.4590663 51.8850831, 4.4588712 51.8852506), (4.4587324 51.8847105, 4.4588725 51.884892, 4.4590663 51.8850831), (4.458913 51.8840857, 4.4587582 51.8842145, 4.4586748 51.8844358, 4.4587324 51.8847105), (4.4593671 51.8838398, 4.458913 51.8840857), (4.4576971 51.87827, 4.4578163 51.8783737, 4.4579 51.8786, 4.4579753 51.8789281, 4.4580925 51.8794391, 4.4581785 51.879905, 4.4584467 51.8808338, 4.4586169 51.8813939, 4.4591938 51.8832924, 4.4593671 51.8838398), (4.4570513 51.8776157, 4.4572204 51.8779881, 4.4573121 51.8780875, 4.4574551 51.8781788, 4.4576971 51.87827), (4.4569887 51.8774595, 4.4570513 51.8776157), (4.4569887 51.8774595, 4.4568824 51.8771285), (4.4568824 51.8771285, 4.4568448 51.8770123, 4.4568176 51.8769281), (4.4567189 51.8767747, 4.4567528 51.876839, 4.4567807 51.8768784, 4.4568176 51.8769281), (4.4567189 51.8767747, 4.4572002 51.8766023, 4.4581553 51.8762314, 4.4592633 51.8757846), (4.4592633 51.8757846, 4.4594369 51.875667, 4.4598091 51.8755076, 4.4598376 51.87549, 4.459856 51.8754774, 4.4598661 51.8754705, 4.459882 51.8754539, 4.4598955 51.8754311, 4.459901 51.8754059, 4.4599027 51.8753748, 4.4599045 51.8753464, 4.4598986 51.8753086), (4.4598986 51.8753086, 4.4589202 51.8745749, 4.4584294 51.8741945, 4.4581019 51.8739404), (4.4581019 51.8739404, 4.4579277 51.8737989, 4.4574665 51.8733974, 4.4573838 51.8733203, 4.4569321 51.8728689, 4.4568696 51.8728065, 4.4568453 51.8727821, 4.4568152 51.8727521, 4.4567391 51.8726706), (4.4567391 51.8726706, 4.4566745 51.8726017, 4.4565834 51.872494, 4.45656 51.8724706, 4.4562565 51.8721668, 4.4558897 51.8717771), (4.4558897 51.8717771, 4.4556472 51.8715216, 4.4554332 51.8712945), (4.4554332 51.8712945, 4.4552634 51.8711234, 4.4550959 51.8709545, 4.4549554 51.8708186, 4.4548012 51.870689, 4.454496 51.8704304), (4.454496 51.8704304, 4.4545809 51.8703076, 4.4548287 51.8702393, 4.4549438 51.8701707), (4.4549438 51.8701707, 4.4550503 51.8699614), (4.4562048 51.8689914, 4.4561074 51.8690441, 4.4555471 51.8693248, 4.4554556 51.8693906, 4.4552321 51.8696536, 4.4550503 51.8699614), (4.4634894 51.8654425, 4.4634196 51.865421, 4.4633605 51.8654028, 4.4630736 51.8653937, 4.462836 51.8653873, 4.4625859 51.8653801, 4.4621978 51.8654213, 4.4618525 51.8655166, 4.4615731 51.8656486, 4.4613282 51.8657784, 4.460344 51.8663775, 4.459985 51.8666032, 4.4596734 51.8667917, 4.4593851 51.866966, 4.4585447 51.867492, 4.4576638 51.8680791, 4.4574854 51.8681984, 4.457409 51.868252, 4.4573125 51.8683128, 4.4570091 51.8685042, 4.4566582 51.8687302, 4.4563206 51.8689288, 4.4562048 51.8689914), (4.4634894 51.8654425, 4.4634477 51.8658607, 4.4634646 51.8661978, 4.4635164 51.8664083, 4.4636174 51.8666626, 4.463796 51.8669108, 4.463899 51.8670171, 4.4639972 51.8671185, 4.4644013 51.8674754), (4.4644013 51.8674754, 4.4647045 51.8677365, 4.4649777 51.8679764), (4.4649777 51.8679764, 4.4650381 51.8680369, 4.4650747 51.8680735, 4.465118 51.8681287, 4.4651532 51.8681789, 4.4651722 51.8682123, 4.4651885 51.8682457, 4.4652051 51.8682794, 4.4652184 51.8683206, 4.4652318 51.8683669, 4.4652376 51.8684017, 4.4652389 51.8686941), (4.4652389 51.8686941, 4.4652421 51.8690222), (4.4652421 51.8690222, 4.4652324 51.8693374), (4.4652324 51.8693374, 4.4653711 51.8693403, 4.465424 51.869354, 4.4654706 51.8693753, 4.4654898 51.8694065, 4.4654941 51.8694419, 4.4654696 51.8694889, 4.4652726 51.8696319), (4.465237 51.8694297, 4.4652457 51.8695365, 4.4652726 51.8696319), (4.4652324 51.8693374, 4.465237 51.8694297), (4.4652324 51.8693374, 4.4653711 51.8693403, 4.465424 51.869354, 4.4654706 51.8693753, 4.4654898 51.8694065, 4.4654941 51.8694419, 4.4654696 51.8694889, 4.4652726 51.8696319), (4.4652726 51.8696319, 4.465321 51.869806), (4.465321 51.869806, 4.4653537 51.8698815, 4.4653865 51.8699872, 4.4656211 51.8708406, 4.4656666 51.8709909, 4.4657211 51.8711965, 4.4659058 51.8718359, 4.465987 51.8720968, 4.4660982 51.8724727, 4.4662404 51.8729589, 4.4663235 51.8732361, 4.4663437 51.8733116, 4.4663519 51.8733422, 4.4663924 51.8734934, 4.4664155 51.8735747, 4.4664512 51.8737107, 4.4664861 51.8738384), (4.4664861 51.8738384, 4.4665423 51.8740242, 4.4667735 51.8747843), (4.4667735 51.8747843, 4.4668322 51.8749799), (4.4668322 51.8749799, 4.4668418 51.8750112), (4.4668418 51.8750112, 4.4669713 51.8750005, 4.4674257 51.8749605, 4.4680017 51.8749255, 4.4689661 51.8748202, 4.4690654 51.8748063, 4.4692478 51.8747859), (4.4692478 51.8747859, 4.4694353 51.8747645, 4.4700085 51.8746991, 4.4700184 51.8746981, 4.4705051 51.8746145, 4.4708083 51.874579, 4.4719782 51.8744418, 4.4726732 51.8744), (4.4726732 51.8744, 4.4731051 51.8743483, 4.4742844 51.8742222, 4.4754217 51.8740922), (4.4754217 51.8740922, 4.4758293 51.8740335, 4.4765659 51.873952, 4.4771434 51.8738897, 4.4772992 51.8738759), (4.4772992 51.8738759, 4.4776054 51.8738487, 4.477892 51.8738233), (4.477892 51.8738233, 4.4780496 51.873791), (4.4780496 51.873791, 4.4782567 51.8737692, 4.4789596 51.8737001, 4.4796626 51.8736252, 4.4797443 51.8736177, 4.4807934 51.8735323, 4.4813907 51.8734832, 4.4818979 51.8734456, 4.482888 51.8733616, 4.4836576 51.8733481, 4.4843551 51.8733408), (4.4843551 51.8733408, 4.4843578 51.8734999), (4.4843578 51.8734999, 4.4835965 51.8734953, 4.4829225 51.8734862, 4.4828319 51.8734873, 4.482557 51.8735045, 4.4818963 51.8735584, 4.4814104 51.8735967, 4.4797722 51.8737333, 4.4796647 51.8737426, 4.479474 51.8737589), (4.479474 51.8737589, 4.4791025 51.8737916, 4.4784232 51.8738514, 4.4782845 51.8738661, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719))</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2676430</t>
+          <t>9422228</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2920,17 +2920,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Zoetermeer, Centrum West</t>
+          <t>Rhoon, Kwartslaan</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bus 170: Berkel en Rodenrijs Rodenrijs Metro =&gt; Zoetermeer Centrum West</t>
+          <t>Bus 602: Poortugaal Metro =&gt; Rhoon Portland</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2941,14 +2941,14 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4612988 51.9756827, 4.461283 51.9757357, 4.4612794 51.9757502, 4.4612847 51.9757728, 4.4613089 51.975786, 4.4613488 51.9757971, 4.4616458 51.9758184), (4.4616458 51.9758184, 4.4618374 51.9758343), (4.4618374 51.9758343, 4.4621143 51.9758809, 4.4622491 51.975905, 4.4623035 51.9759149, 4.4624032 51.9759536, 4.4625339 51.9760373, 4.4628345 51.9763048, 4.4637436 51.9771046), (4.4637436 51.9771046, 4.4638291 51.9771429, 4.4638829 51.9771902, 4.4639126 51.9772531), (4.4639126 51.9772531, 4.4647958 51.9780316, 4.4649143 51.9781375, 4.4650367 51.9782165, 4.4650992 51.9782479, 4.4651569 51.9782699, 4.4652482 51.9782985, 4.4653271 51.9783123, 4.4654378 51.9783205, 4.4655609 51.9783218, 4.4667995 51.9782399, 4.466963 51.9782404, 4.4671119 51.9782487, 4.4672564 51.9782659, 4.4674015 51.9782957, 4.4675543 51.9783418, 4.4677044 51.978399, 4.4678237 51.9784563, 4.4680679 51.9785956, 4.4684393 51.9788281, 4.4689412 51.9792258), (4.4689412 51.9792258, 4.469024 51.979253, 4.4691004 51.9793111, 4.469132 51.979373), (4.469132 51.979373, 4.4697273 51.979819, 4.4699563 51.9799836, 4.4700723 51.9800686, 4.4701519 51.9801265, 4.4702219 51.9801683, 4.4703062 51.9802055, 4.4703947 51.9802324, 4.4704844 51.9802539, 4.4705401 51.9802626, 4.4705873 51.9802668, 4.4706492 51.9802689, 4.4707127 51.9802661), (4.4707127 51.9802661, 4.4708237 51.980236, 4.4709237 51.9802285, 4.4710576 51.9802382), (4.4710576 51.9802382, 4.4712022 51.9802265, 4.4712699 51.9802241, 4.4713368 51.980224, 4.4714109 51.9802248, 4.471484 51.9802286, 4.4715771 51.9802409, 4.47167 51.9802572, 4.4717714 51.9802789, 4.4718649 51.9803068, 4.4719533 51.9803367, 4.4720154 51.9803624, 4.472082 51.980395, 4.4721376 51.9804257, 4.4722162 51.9804762, 4.4722906 51.9805295, 4.4723556 51.9805847, 4.4724187 51.9806429, 4.4730199 51.9812, 4.474653 51.9827134, 4.4749967 51.9830239, 4.475276 51.983278, 4.4753383 51.9833374, 4.4754024 51.9834041, 4.4754576 51.9834692, 4.4755096 51.9835396, 4.4755708 51.9836254, 4.4756296 51.9837113, 4.4757084 51.9838296, 4.4757546 51.9838976, 4.4758007 51.9839614, 4.4758497 51.9840233, 4.4759008 51.9840831, 4.4759556 51.9841422, 4.4760111 51.984198, 4.4761332 51.9843151, 4.4761825 51.9843635, 4.4762458 51.9844347, 4.4763048 51.9845031, 4.4763654 51.9845677, 4.4764741 51.9846642, 4.4767389 51.984904, 4.4767661 51.9849234, 4.47679 51.9849452, 4.4768207 51.9849698, 4.476869 51.9850006, 4.4769257 51.9850299, 4.476976 51.9850571, 4.4770322 51.9850941, 4.477086 51.9851344, 4.477143 51.9851804, 4.4773005 51.9853156, 4.4786119 51.9864352, 4.4792745 51.9869831, 4.4797437 51.987366, 4.4799621 51.9875425, 4.4800919 51.9876498, 4.4802273 51.9877594, 4.4803574 51.9878661, 4.480609 51.9880772), (4.480609 51.9880772, 4.4806804 51.988141, 4.4808935 51.9883179, 4.4809164 51.9883375, 4.4809586 51.9883734, 4.4810497 51.9884498, 4.4811511 51.9885243, 4.481422 51.9887239, 4.4814639 51.9887593, 4.4815036 51.9887992, 4.4815397 51.9888426, 4.481572 51.9888965, 4.4816056 51.9889685, 4.4816396 51.9890483, 4.4816631 51.9890947, 4.4816999 51.9891474, 4.4817327 51.9891851, 4.4817778 51.9892242, 4.481805 51.9892455, 4.4818478 51.989279, 4.4818814 51.9893015, 4.4820057 51.9893885, 4.4820902 51.9894459, 4.4821368 51.9894712, 4.4822239 51.9895143, 4.482311 51.9895536, 4.482596 51.9896774, 4.4826895 51.9897184, 4.4827475 51.9897502, 4.4828073 51.9897891, 4.4828554 51.9898256, 4.4850384 51.9915148, 4.4851282 51.9915883, 4.485234 51.9916772, 4.4853352 51.9917648, 4.4854396 51.9918468, 4.4855492 51.9919341, 4.4856128 51.9919822, 4.4856856 51.9920358, 4.4857628 51.9920892, 4.4858732 51.9921668, 4.4859309 51.9922084, 4.4859827 51.9922473, 4.487506 51.9934249, 4.4876019 51.993501, 4.4876901 51.993574, 4.4877772 51.9936498, 4.4878643 51.9937251, 4.4879494 51.9938, 4.488037 51.9938754, 4.4881306 51.9939566, 4.4882125 51.9940255, 4.4883709 51.9941494, 4.4885278 51.9942703, 4.4886428 51.9943595, 4.4887857 51.9944724, 4.4888333 51.99451, 4.4889409 51.994589), (4.4889409 51.994589, 4.4891237 51.9947308, 4.489175 51.9947712), (4.489175 51.9947712, 4.4892292 51.9948137, 4.4895897 51.9950967), (4.4895897 51.9950967, 4.4901346 51.9955141, 4.490665 51.9959236, 4.4909861 51.9961733, 4.4911524 51.9962961, 4.4913188 51.9964138, 4.4916497 51.9966445, 4.4918158 51.9967619, 4.4919717 51.9968809, 4.4932038 51.9978342, 4.4932661 51.9978862, 4.4933261 51.9979386, 4.4933943 51.9979965, 4.4934663 51.9980565, 4.4935383 51.9981148, 4.4936674 51.9982134, 4.4937635 51.9982851, 4.4938585 51.9983518, 4.4939551 51.9984194, 4.4940462 51.9984848, 4.4955238 51.999633, 4.4955822 51.9996797, 4.4956397 51.9997266, 4.4956966 51.9997751, 4.4957516 51.999823, 4.4958113 51.999872, 4.4958674 51.9999158, 4.4959861 52.0000072, 4.4960923 52.000092, 4.4961214 52.0001143, 4.4963782 52.0003106, 4.4966227 52.0004995, 4.4968862 52.000703, 4.4969055 52.0007183), (4.4969055 52.0007183, 4.4970885 52.0008594), (4.4970885 52.0008594, 4.4970974 52.0008662, 4.4971429 52.0009012, 4.4971986 52.0009424, 4.4972746 52.0009946, 4.4973788 52.0010677, 4.4974336 52.0011078, 4.5000608 52.00317, 4.5001206 52.0032189, 4.5001697 52.0032642, 4.500208 52.0033034, 4.5002434 52.0033448, 4.5002789 52.0033903, 4.5003167 52.0034453, 4.5003526 52.0035123, 4.5004021 52.0036167, 4.5004558 52.00373, 4.5004851 52.0037865, 4.5005188 52.0038418, 4.5005596 52.0038965, 4.5006053 52.0039505, 4.5006565 52.0040009, 4.500712 52.0040509, 4.5020538 52.0051789, 4.5021051 52.0052228, 4.5021533 52.0052677, 4.502194 52.0053105, 4.5022299 52.0053528, 4.502264 52.0053994, 4.5022944 52.005446, 4.5023204 52.0054939, 4.5023419 52.0055421, 4.5023557 52.0055806, 4.5023675 52.005619, 4.5023775 52.0056581, 4.5023853 52.0056971, 4.50239 52.0057371, 4.5023913 52.0057767, 4.5023909 52.0058158, 4.5023882 52.0058547, 4.5023823 52.0058969, 4.5023731 52.0059354, 4.5023622 52.0059751, 4.5023499 52.0060143, 4.5022838 52.0062299, 4.50221 52.0064661, 4.5022043 52.0064875, 4.502202 52.0065063, 4.5022029 52.006529, 4.5022087 52.006555, 4.5022202 52.0065847, 4.5022398 52.0066341, 4.50235 52.0068831, 4.5023648 52.0069172, 4.5023709 52.0069313, 4.5024016 52.0070141, 4.5024233 52.0070784, 4.5024454 52.0071579, 4.5024646 52.0072344, 4.5024943 52.0074065, 4.5025107 52.0075999, 4.5025768 52.0090911, 4.5025932 52.0096361, 4.5025952 52.0098347, 4.5026393 52.0100534, 4.5026912 52.0102567, 4.5028179 52.0106255, 4.5030849 52.0114601, 4.503204 52.0116539, 4.5033077 52.0118135, 4.5033615 52.011995, 4.5034402 52.0125104, 4.5036817 52.0140262), (4.5036817 52.0140262, 4.5037177 52.0142591, 4.5037605 52.0145049), (4.5037605 52.0145049, 4.5038467 52.0149974, 4.5039556 52.0155212), (4.5039556 52.0155212, 4.5039933 52.0157509, 4.5040234 52.0159596), (4.5040234 52.0159596, 4.5040274 52.0161526, 4.503964 52.0164233, 4.5038248 52.0167235, 4.5036289 52.0170113, 4.5035204 52.0172104, 4.5034714 52.0174427, 4.5034426 52.017698, 4.5033187 52.0189561, 4.5033014 52.0196665, 4.5033053 52.0202917, 4.503336 52.0210362, 4.503361 52.0218292, 4.5034205 52.0232899, 4.5034608 52.0241408, 4.5034762 52.0246513, 4.5034707 52.0248965, 4.5034667 52.0250843), (4.5034667 52.0250843, 4.5035124 52.0252919, 4.5035147 52.0253893), (4.5035147 52.0253893, 4.5035204 52.0255237, 4.5035208 52.025629, 4.5034717 52.0256879), (4.5034717 52.0256879, 4.5034766 52.0258733), (4.5034766 52.0258733, 4.5035001 52.0267603, 4.5035106 52.0272511, 4.5035085 52.0274374), (4.5035085 52.0274374, 4.5035074 52.0275347, 4.5035047 52.0277898), (4.5035047 52.0277898, 4.5035462 52.0278918, 4.5035547 52.0281861, 4.5035378 52.0282905), (4.5035378 52.0282905, 4.5035556 52.0286996, 4.503559 52.028791, 4.5035605 52.028843, 4.5036117 52.0293788, 4.5037243 52.0301771, 4.5037564 52.0304047), (4.5037564 52.0304047, 4.503805 52.0305707, 4.5037984 52.0306463), (4.5037984 52.0306463, 4.5037962 52.030709, 4.5037874 52.0308988), (4.5037874 52.0308988, 4.5037906 52.0309407, 4.5037931 52.0309776, 4.5037747 52.0310525, 4.5037603 52.0312266), (4.5037603 52.0312266, 4.5037807 52.0313763, 4.5038844 52.0317588, 4.5039737 52.0318888, 4.5041573 52.0320572, 4.5045094 52.0322376, 4.5049764 52.0324799, 4.5056956 52.0328658, 4.506006 52.0331006, 4.5066661 52.0335861, 4.5067704 52.0336624, 4.5068546 52.0337131, 4.5069092 52.033758, 4.5069795 52.0338303, 4.5069965 52.0338598, 4.5070084 52.0339146), (4.5079515 52.0345703, 4.5072318 52.034023, 4.5071449 52.033967, 4.5070822 52.0339426, 4.5070084 52.0339146), (4.5079515 52.0345703, 4.5081001 52.0346426, 4.5086332 52.035015, 4.5088338 52.0351552), (4.5088338 52.0351552, 4.508982 52.0350839, 4.5092528 52.0349408, 4.5093603 52.034903, 4.5094801 52.0348764, 4.5095933 52.0348677, 4.5097244 52.0348613, 4.5099038 52.0348863, 4.510021 52.0349196), (4.510021 52.0349196, 4.5101385 52.0349717, 4.5102312 52.0350608), (4.5127218 52.036959, 4.5122589 52.0366537, 4.5119523 52.0364337, 4.5113302 52.0359511, 4.5109747 52.0356634, 4.5109553 52.0356452, 4.5107077 52.035443, 4.5103906 52.0351841, 4.5102312 52.0350608), (4.5127218 52.036959, 4.5128201 52.0369855, 4.512972 52.0370343, 4.5130861 52.0370592), (4.5130861 52.0370592, 4.5131398 52.0370708, 4.5133247 52.0370824, 4.5134587 52.0370865, 4.5136145 52.0370647), (4.5136145 52.0370647, 4.5137018 52.0371348), (4.5137018 52.0371348, 4.5137118 52.0372229, 4.5137257 52.0373333), (4.516962 52.0396478, 4.5156281 52.0386691, 4.5142734 52.0376852, 4.514022 52.0375541, 4.5138256 52.0374335, 4.5137257 52.0373333), (4.5173452 52.0399151, 4.516962 52.0396478), (4.5173452 52.0399151, 4.517167 52.0400031, 4.5171127 52.0400537, 4.5171005 52.0401013, 4.5171104 52.0401619, 4.5171986 52.0402415), (4.5171986 52.0402415, 4.5173893 52.0403909, 4.5174731 52.0404587, 4.5175721 52.0405235), (4.5175721 52.0405235, 4.5174311 52.0406333, 4.5172933 52.0407442), (4.5169934 52.0409869, 4.5172933 52.0407442), (4.508783 52.0431338, 4.5093742 52.0431313, 4.509559 52.0431173, 4.5097749 52.0430901, 4.5102168 52.0430005, 4.5102757 52.0429885, 4.5104411 52.0429455, 4.5159503 52.0415567, 4.5161971 52.0414642, 4.516366 52.0413871, 4.516587 52.0412737, 4.5167675 52.0411619, 4.5169934 52.0409869), (4.508783 52.0431338, 4.50844 52.0432205, 4.5081423 52.0432942), (4.5081423 52.0432942, 4.5076111 52.0434264), (4.5076111 52.0434264, 4.5063087 52.0437516, 4.5057 52.0439, 4.5045905 52.0441807), (4.5045905 52.0441807, 4.5043322 52.0442422, 4.5041872 52.0442808, 4.5041309 52.0442886, 4.5040175 52.0443066, 4.5039063 52.0443218, 4.5037375 52.0443318, 4.503569 52.0443185, 4.5033678 52.0442848, 4.5031923 52.0442376, 4.5031499 52.0442203, 4.5028938 52.0441256, 4.5028048 52.0440871, 4.5026164 52.0440119, 4.5024891 52.0439604, 4.5024427 52.0439437), (4.5024427 52.0439437, 4.5023826 52.0439198), (4.5023826 52.0439198, 4.5021192 52.0438706, 4.5017344 52.0437386, 4.5014961 52.0436447), (4.5014961 52.0436447, 4.5013883 52.0437417, 4.5009668 52.0441154), (4.5009668 52.0441154, 4.5008843 52.0442459, 4.5008422 52.0442887, 4.5007948 52.0443358, 4.5006405 52.0444452, 4.5005698 52.04449, 4.5004244 52.0445558, 4.500285 52.0445936), (4.500285 52.0445936, 4.5000981 52.0447069), (4.5000981 52.0447069, 4.49981 52.0448696), (4.49981 52.0448696, 4.4992691 52.0451102, 4.4988684 52.0452628, 4.4984547 52.0453926, 4.4982998 52.0454426, 4.4978707 52.0455712, 4.4976226 52.0456337), (4.4976226 52.0456337, 4.4974856 52.04572, 4.497412 52.0457482, 4.4973342 52.0457699, 4.496919 52.0458515, 4.4967688 52.0458707, 4.4966186 52.0458859, 4.4964084 52.045867), (4.4964084 52.045867, 4.49621 52.0458887, 4.4957529 52.0459375, 4.4932096 52.0461221), (4.4932096 52.0461221, 4.491206 52.0462723, 4.4910919 52.0462816), (4.4910919 52.0462816, 4.4909128 52.0462946, 4.4908695 52.0462978, 4.4905869 52.046308), (4.4905869 52.046308, 4.4904414 52.0463204, 4.4902351 52.0463351, 4.4890868 52.0464144, 4.4870658 52.0465438), (4.4870658 52.0465438, 4.4845785 52.0467256), (4.4845785 52.0467256, 4.4812395 52.0469623), (4.4812395 52.0469623, 4.4788525 52.0471369, 4.4783284 52.04719), (4.4783284 52.04719, 4.4780612 52.0470746), (4.4779066 52.0469671, 4.4780612 52.0470746), (4.4779066 52.0469671, 4.4777619 52.0469789, 4.4777214 52.0469817, 4.4776326 52.0469882, 4.4772606 52.0470145, 4.4771794 52.0470203, 4.4771208 52.0470318, 4.4770712 52.0470538, 4.477028 52.0470809, 4.4769504 52.0471725), (4.4769504 52.0471725, 4.4767373 52.0473052), (4.4767373 52.0473052, 4.4757316 52.0474238, 4.4747987 52.0475028), (4.4747987 52.0475028, 4.4740514 52.0475391, 4.4737101 52.0475554, 4.4733907 52.0475547, 4.4731274 52.0475374, 4.4729754 52.047522), (4.4729754 52.047522, 4.4727265 52.0474631, 4.4724906 52.0473727, 4.4722289 52.0472259), (4.4722289 52.0472259, 4.4721624 52.0471741, 4.4720275 52.047056, 4.4719356 52.0469151, 4.4718897 52.0467922, 4.4718577 52.0466905, 4.4718383 52.0465313), (4.4718383 52.0465313, 4.4718761 52.0463437, 4.4719896 52.0461446, 4.472221 52.0459555, 4.4724807 52.0458152, 4.4728241 52.0457062, 4.4731317 52.045662, 4.473411 52.0456497, 4.4736656 52.0456671, 4.4739658 52.0457282, 4.4742451 52.0458298, 4.4744639 52.0459486, 4.4746305 52.046079, 4.4747493 52.0462005), (4.4747493 52.0462005, 4.4748106 52.0462876, 4.4748455 52.0463546), (4.4748455 52.0463546, 4.4752117 52.0471945), (4.4752117 52.0471945, 4.4754635 52.0477046, 4.4755446 52.0478686), (4.4755446 52.0478686, 4.4757131 52.0482076), (4.4757131 52.0482076, 4.4763647 52.0495721), (4.4763647 52.0495721, 4.4764844 52.0498197), (4.4764844 52.0498197, 4.4766188 52.0500979, 4.4767029 52.050272), (4.4767029 52.050272, 4.4768417 52.0505479, 4.4780376 52.0530366, 4.4782837 52.0535191), (4.4782837 52.0535191, 4.478613 52.0541647), (4.478613 52.0541647, 4.4791324 52.0551965, 4.4791891 52.0553089, 4.4793098 52.0555546), (4.4793098 52.0555546, 4.4796105 52.0561922), (4.4796105 52.0561922, 4.4796903 52.0563591, 4.4799267 52.0568734), (4.4799267 52.0568734, 4.4802477 52.0575599), (4.4802477 52.0575599, 4.4802931 52.0576544, 4.4803846 52.0578344, 4.4804115 52.0578909, 4.4804664 52.0580023, 4.4804996 52.0580722, 4.4807672 52.0586347, 4.4810386 52.0592052), (4.4810386 52.0592052, 4.4813649 52.0598675), (4.4813649 52.0598675, 4.4814917 52.0601295), (4.4814917 52.0601295, 4.481839 52.0608186), (4.481839 52.0608186, 4.4819428 52.0610372), (4.4819428 52.0610372, 4.4820272 52.0611622, 4.4821277 52.06137), (4.4821277 52.06137, 4.4821865 52.0614658), (4.4821865 52.0614658, 4.4822404 52.0615182, 4.4823277 52.0616009, 4.482424 52.0616714, 4.4825653 52.0617286, 4.4828258 52.0617829, 4.483114 52.0618185, 4.4833976 52.0618565), (4.4833976 52.0618565, 4.4835104 52.0618311, 4.4836517 52.0618426, 4.4837329 52.0618183, 4.4837954 52.0617961, 4.4838435 52.0617628, 4.4838692 52.0617068), (4.4838692 52.0617068, 4.4838193 52.0615715), (4.4838193 52.0615715, 4.4832999 52.0616549), (4.4832999 52.0616549, 4.4830337 52.061662), (4.4824274 52.0614694, 4.4826036 52.06156, 4.4828232 52.0616342, 4.4830337 52.061662), (4.4824274 52.0614694, 4.4825514 52.0614079), (4.4825514 52.0614079, 4.4824807 52.0613585, 4.4824487 52.0613274, 4.4824292 52.0613085, 4.4823958 52.0612602, 4.4823751 52.0612149, 4.4823572 52.0611837))</t>
+          <t>MULTILINESTRING ((4.3956379 51.8613193, 4.3955209 51.8613437, 4.3954562 51.8612066, 4.3953928 51.8610723, 4.3953756 51.8610407, 4.3953284 51.8609212, 4.395346 51.8608337), (4.395346 51.8608337, 4.3953936 51.8607748, 4.3954919 51.8607315, 4.3956219 51.8607045), (4.3956219 51.8607045, 4.3954817 51.860598, 4.3954356 51.8604162), (4.3954356 51.8604162, 4.39539 51.8602466, 4.3953824 51.8602173, 4.3953429 51.860055), (4.3953429 51.860055, 4.3951498 51.860069, 4.3943743 51.8601236, 4.3935608 51.8601816, 4.3909417 51.8603577, 4.3903955 51.8603833), (4.3903955 51.8603833, 4.3899342 51.8604415, 4.3892401 51.860571, 4.3891698 51.8605856), (4.3891698 51.8605856, 4.3889216 51.8606373), (4.3889216 51.8606373, 4.3888112 51.8606605), (4.3888112 51.8606605, 4.3887696 51.8605306), (4.3887696 51.8605306, 4.3887533 51.8604926, 4.3887399 51.8604575, 4.3886957 51.8603639, 4.3886923 51.8603092, 4.3887118 51.8602795), (4.3887118 51.8602795, 4.3887498 51.860258, 4.3888845 51.8602295), (4.3891949 51.8601065, 4.3891539 51.8601438, 4.3891067 51.8601705, 4.3890399 51.8601869, 4.3888845 51.8602295), (4.3890349 51.8597378, 4.3890044 51.8597868, 4.3890328 51.8598608, 4.3892003 51.8600585, 4.3891949 51.8601065), (4.3907659 51.8572452, 4.3906942 51.8573042, 4.3905728 51.8574042, 4.3904745 51.8575208, 4.3904333 51.8576213, 4.390378 51.8578488, 4.3901664 51.8584768, 4.39 51.8587, 4.3890349 51.8597378), (4.3913238 51.8565809, 4.3912825 51.8566544, 4.3911683 51.8568576, 4.3910395 51.8569967, 4.390834 51.8571833, 4.3907659 51.8572452), (4.3913238 51.8565809, 4.3913725 51.8565168, 4.3915277 51.8563125, 4.3916457 51.8561949, 4.391681 51.8561736, 4.3917852 51.8561104, 4.3919837 51.8560689, 4.3923208 51.8560526, 4.3926156 51.8560614, 4.392784 51.8560894, 4.3934127 51.8562788, 4.3939541 51.8564562, 4.3945229 51.8566672, 4.3946489 51.8567093, 4.3951582 51.856936, 4.3952219 51.8569457), (4.3959526 51.8565402, 4.395277 51.8569371, 4.3952219 51.8569457), (4.4026814 51.8532629, 4.4025673 51.8532995, 4.4025269 51.8533125, 4.4017588 51.8535592, 4.401322 51.8537385, 4.4009972 51.8538706, 4.4004755 51.854088, 4.4000253 51.8543049, 4.3999576 51.8543375, 4.3998888 51.8543709, 4.3990082 51.8548567, 4.3988725 51.8549399, 4.3986449 51.8550849, 4.3984407 51.8551987, 4.3982382 51.8553117, 4.3980356 51.8554247, 4.3979055 51.8554973, 4.3978299 51.8555414, 4.3976243 51.855653, 4.3974313 51.8557675, 4.3972255 51.8558827, 4.397045 51.8559855, 4.3966265 51.856212, 4.3963395 51.8563633, 4.3961603 51.8564469, 4.3960393 51.8565013, 4.3959526 51.8565402), (4.4026814 51.8532629, 4.402797 51.8531997, 4.4028873 51.8531727, 4.4041223 51.8528086, 4.4042432 51.8527537), (4.4042432 51.8527537, 4.4042373 51.8527179, 4.4042492 51.8526828, 4.4042779 51.8526515), (4.4042779 51.8526515, 4.4043054 51.8526341, 4.4043381 51.8526206, 4.4043746 51.8526116), (4.4043746 51.8526116, 4.4044218 51.8526072, 4.4044693 51.8526102, 4.4045141 51.8526204, 4.4045533 51.8526373), (4.4045533 51.8526373, 4.4045801 51.8526557, 4.4045999 51.8526773, 4.4046146 51.8527114), (4.4046146 51.8527114, 4.4046122 51.8527466, 4.404593 51.8527797, 4.4045587 51.8528078), (4.4045587 51.8528078, 4.4046238 51.8528832, 4.4046995 51.8529743, 4.4047345 51.8530516), (4.4047345 51.8530516, 4.4048988 51.853206), (4.4048988 51.853206, 4.4051832 51.8534986, 4.4072752 51.8554927, 4.4078478 51.8560455, 4.4082183 51.8563806, 4.4082749 51.8564766, 4.4082832 51.8565288, 4.4082731 51.8565736), (4.4082731 51.8565736, 4.4082458 51.8566844, 4.4081944 51.8568376), (4.4081944 51.8568376, 4.4082112 51.8568905, 4.408196 51.8570009, 4.4081932 51.8570282, 4.4082042 51.8570709, 4.4082216 51.8571146, 4.4082798 51.8572161, 4.40859 51.8578246), (4.40859 51.8578246, 4.4086058 51.8578569, 4.408691 51.8580483), (4.408691 51.8580483, 4.4086622 51.8581719), (4.4086622 51.8581719, 4.4086209 51.8582852, 4.4085967 51.858354), (4.4085967 51.858354, 4.4085491 51.8584931, 4.4085234 51.8585214, 4.4083856 51.8585933), (4.4083856 51.8585933, 4.4082956 51.8588791, 4.4082214 51.8591147, 4.4082346 51.8591881, 4.4083525 51.8594328, 4.4083877 51.8595287, 4.4083866 51.8595744), (4.4083866 51.8595744, 4.408511 51.8596104, 4.4085885 51.8596151, 4.4086451 51.8596096, 4.4087644 51.8595997, 4.4088694 51.8596029), (4.4088694 51.8596029, 4.4090868 51.859574), (4.4090868 51.859574, 4.4092497 51.859546, 4.4096912 51.8594571), (4.415029 51.8586549, 4.4144024 51.8586618, 4.4141784 51.8586713, 4.4138991 51.8586928, 4.4133968 51.8587443, 4.4128992 51.858819, 4.4122583 51.858944, 4.4121583 51.858964, 4.4113331 51.8591293, 4.4105909 51.8592833, 4.4096912 51.8594571), (4.415029 51.8586549, 4.4155993 51.858683, 4.4161817 51.8587273, 4.4167631 51.8588118, 4.4173209 51.8589006), (4.4173209 51.8589006, 4.4180565 51.8590168), (4.4180565 51.8590168, 4.4185243 51.8590966, 4.4187337 51.8591402, 4.4187926 51.8591508, 4.419541 51.8592729), (4.419541 51.8592729, 4.4198963 51.8593308), (4.4198963 51.8593308, 4.420094 51.8593618), (4.420094 51.8593618, 4.4202493 51.8593866, 4.4203302 51.8594008, 4.4204121 51.8594151, 4.4207986 51.8594791, 4.4208875 51.859496, 4.421271 51.8595726, 4.4217379 51.8596588, 4.4221636 51.8597222, 4.4231226 51.8598766, 4.4231952 51.8598999, 4.4232506 51.8599414), (4.4221718 51.8605058, 4.4222859 51.8605034, 4.4224406 51.8604964, 4.4225878 51.8604778, 4.4227019 51.8604487, 4.4228226 51.8604003, 4.4229122 51.8603458, 4.4229898 51.8602794, 4.4230934 51.8601726, 4.4231735 51.8600555, 4.423216 51.859978, 4.4232506 51.8599414), (4.419893 51.8595924, 4.419893 51.8597089, 4.4199222 51.8598219, 4.4199413 51.8598764, 4.419976 51.8599326, 4.4200567 51.8600181, 4.4201844 51.8601085, 4.4203759 51.8601871, 4.4205148 51.8602305, 4.4206485 51.8602582, 4.4212871 51.8603601, 4.4220162 51.8604772, 4.4221718 51.8605058), (4.4199434 51.8594642, 4.4199155 51.8595347, 4.419893 51.8595924), (4.420259 51.8587177, 4.4200491 51.859204, 4.4199434 51.8594642), (4.4202918 51.858639, 4.420259 51.8587177), (4.4210028 51.8569685, 4.4209711 51.8570408, 4.420711 51.8576561, 4.4202918 51.858639), (4.4214573 51.8558593, 4.4212685 51.8563237, 4.4212358 51.856404, 4.4211437 51.8566443, 4.4210028 51.8569685), (4.4214573 51.8558593, 4.4217043 51.855935, 4.4219252 51.8560015, 4.4221421 51.8560665, 4.4232274 51.8563238, 4.4234702 51.8563811, 4.4236918 51.8564285), (4.4245111 51.8563381, 4.4243079 51.8564105, 4.4240588 51.8564424, 4.4237825 51.8564376, 4.4236918 51.8564285), (4.4273341 51.8558716, 4.4271752 51.855894, 4.4258767 51.8560706, 4.4250515 51.8561824, 4.4248072 51.8562342, 4.4245111 51.8563381), (4.4271096 51.8547192, 4.4270728 51.8551568, 4.4270961 51.8552553, 4.4273135 51.8558175, 4.4273341 51.8558716), (4.4274257 51.8535578, 4.4273682 51.8537413, 4.4273163 51.8539067, 4.4271983 51.8544202, 4.4271869 51.85447, 4.4271096 51.8547192), (4.4274257 51.8535578, 4.4282521 51.8541047, 4.4289775 51.8545421), (4.4289775 51.8545421, 4.429962 51.8551647, 4.4302603 51.8554104, 4.4303662 51.8554977, 4.4304476 51.8556544, 4.4305291 51.8557604), (4.4324183 51.8555841, 4.4321621 51.8555884, 4.4319353 51.8556066, 4.4312687 51.8556735, 4.4305291 51.8557604), (4.4324183 51.8555841, 4.4328005 51.8556084, 4.4331811 51.8556409), (4.4331811 51.8556409, 4.4335121 51.8556613, 4.4337085 51.8556842, 4.4338035 51.8557178, 4.4338673 51.8557659), (4.4338673 51.8557659, 4.4339084 51.8558099, 4.4339251 51.8558585, 4.433886 51.8564077, 4.4338794 51.8565336), (4.4338794 51.8565336, 4.4341239 51.8565429), (4.4341239 51.8565429, 4.4345628 51.8565636), (4.436944 51.8572935, 4.4365551 51.8569206, 4.436291 51.8566673, 4.4362377 51.8566427, 4.4345628 51.8565636), (4.436944 51.8572935, 4.4372491 51.8577267, 4.437336 51.8579363, 4.4374052 51.8581033, 4.437432 51.8582525, 4.4374467 51.8584783, 4.4374544 51.858597, 4.43742 51.8588476, 4.4374078 51.8589362, 4.4372816 51.8592597), (4.4372816 51.8592597, 4.4371964 51.8594896, 4.4371871 51.8595146, 4.4371593 51.8595691, 4.4371463 51.8595944), (4.4371463 51.8595944, 4.4371862 51.8596177, 4.4372139 51.8596469, 4.4372272 51.8596798, 4.4372297 51.8597041), (4.4372297 51.8597041, 4.4373136 51.8597312, 4.4373469 51.8597415, 4.4378243 51.8599238), (4.4392211 51.860247, 4.4386499 51.860134, 4.4378243 51.8599238), (4.4440307 51.8599165, 4.4435674 51.8599447, 4.4431819 51.8599974, 4.4426548 51.8600977, 4.4418776 51.8602435, 4.4415639 51.8602985, 4.4412462 51.8603348, 4.4408488 51.8603677, 4.4404225 51.8603677, 4.4397631 51.8603322, 4.4392211 51.860247), (4.4470077 51.8603248, 4.4456971 51.8600478, 4.4454712 51.8600086, 4.4450366 51.8599462, 4.4445141 51.8599127, 4.4440307 51.8599165), (4.4515675 51.8611956, 4.4493093 51.860782, 4.4470077 51.8603248), (4.4530715 51.8614775, 4.4515675 51.8611956), (4.4571112 51.8613066, 4.4562708 51.8615091, 4.4559923 51.8615648, 4.4557038 51.8616103, 4.4554847 51.8616361, 4.4551811 51.8616602, 4.4549066 51.8616723, 4.4544851 51.861669, 4.4541545 51.8616443, 4.4536404 51.8615755, 4.4530715 51.8614775), (4.4571112 51.8613066, 4.4574449 51.8611893, 4.4576561 51.8611316, 4.4576961 51.8611207), (4.4576961 51.8611207, 4.4576962 51.8610841, 4.4577119 51.8610488, 4.457742 51.8610174, 4.4577845 51.8609919, 4.4578363 51.8609741, 4.4579087 51.8609648, 4.4579821 51.8609706, 4.4580484 51.8609908, 4.4581004 51.8610233), (4.4581004 51.8610233, 4.4583014 51.8609791, 4.4586828 51.8609214), (4.4586828 51.8609214, 4.4590548 51.8608296, 4.4595659 51.8606966, 4.4597404 51.8606559, 4.4599143 51.8606182, 4.4600885 51.860584), (4.4600885 51.860584, 4.4605556 51.8605064), (4.4605556 51.8605064, 4.4608027 51.8604803, 4.4611119 51.8604623, 4.4613651 51.8604546, 4.462604 51.8604687, 4.4649738 51.8604994, 4.4663643 51.8605187, 4.4689354 51.8605469, 4.4694065 51.860529, 4.4699253 51.8604841, 4.4708275 51.8603782), (4.4708275 51.8603782, 4.4712376 51.8603064, 4.4714637 51.8602809, 4.4715089 51.8602731), (4.4715089 51.8602731, 4.4715266 51.8602333, 4.4715625 51.8601986, 4.4716135 51.8601719, 4.4716749 51.8601557), (4.4716749 51.8601557, 4.4717462 51.8601516, 4.4718159 51.8601616), (4.4718159 51.8601616, 4.4718724 51.8601823, 4.4719167 51.8602123, 4.4719451 51.8602489), (4.4719451 51.8602489, 4.4720414 51.8602614, 4.4720863 51.8602646, 4.4721582 51.8602672, 4.4733019 51.8603012, 4.4733791 51.8602965, 4.4734322 51.8602912), (4.4734322 51.8602912, 4.473468 51.8602573, 4.4735213 51.8602287, 4.4735863 51.8602117, 4.4736567 51.8602079, 4.4737255 51.8602178, 4.4737859 51.8602404, 4.473832 51.8602734, 4.4738593 51.8603137), (4.4738593 51.8603137, 4.4739564 51.8603277, 4.473999 51.8603327, 4.4755634 51.8604454, 4.4771957 51.860561, 4.4791643 51.860862, 4.4805469 51.8610346), (4.4805469 51.8610346, 4.4808621 51.8610594, 4.4811983 51.861084, 4.4817793 51.861123, 4.4818076 51.8611249), (4.4818076 51.8611249, 4.481835 51.8610876, 4.4819044 51.8610365, 4.4819547 51.8610149, 4.4820514 51.8609929, 4.4821488 51.8609906, 4.4822428 51.8610063, 4.4823249 51.8610387, 4.4823875 51.8610847, 4.482425 51.8611403), (4.482425 51.8611403, 4.4825338 51.8611642, 4.4827624 51.8611997, 4.4830192 51.8612421, 4.4832559 51.8612971, 4.4834652 51.8613709, 4.4841271 51.8616139, 4.4843026 51.8616615, 4.484715 51.8617701, 4.4851062 51.8618394, 4.4864783 51.8620206, 4.4888825 51.8623286, 4.4889256 51.8623341), (4.4889256 51.8623341, 4.4889739 51.8622921, 4.4890385 51.8622595, 4.4891365 51.862233), (4.4891365 51.862233, 4.4891644 51.8621519, 4.489172 51.86213, 4.4891408 51.861824, 4.4890925 51.8615665, 4.4890603 51.861453), (4.4890603 51.861453, 4.4890171 51.861332, 4.4889271 51.8610703), (4.4887379 51.8605346, 4.4887797 51.860685, 4.4889271 51.8610703), (4.4887379 51.8605346, 4.4886336 51.8602789, 4.488626 51.8601516, 4.4886187 51.86003, 4.4886546 51.8597323), (4.4887534 51.8588861, 4.4886696 51.8593906, 4.4886559 51.8596416, 4.4886546 51.8597323), (4.4887534 51.8588861, 4.4887592 51.8586195, 4.488781 51.8584969, 4.4888079 51.8583888, 4.4888906 51.8581433), (4.4887417 51.8571667, 4.4888338 51.8575254, 4.4889 51.8579, 4.4888906 51.8581433), (4.4887417 51.8571667, 4.4886253 51.857035, 4.4885543 51.856867, 4.4884998 51.8567416, 4.4883847 51.856422), (4.4882105 51.8561357, 4.4883847 51.856422), (4.4882105 51.8561357, 4.4879229 51.8558932, 4.4878632 51.8558288, 4.4878076 51.8557687, 4.4877443 51.8557004, 4.4875973 51.8554734), (4.4867534 51.8546573, 4.4874146 51.8552951, 4.4875973 51.8554734), (4.4867534 51.8546573, 4.4864986 51.8544909, 4.4863934 51.8543881, 4.486288 51.8542804, 4.4861651 51.8540832), (4.4856819 51.8535981, 4.4861651 51.8540832), (4.4856064 51.8535227, 4.4856819 51.8535981), (4.4852423 51.8531632, 4.485256 51.8531765, 4.485514 51.8534279, 4.4856064 51.8535227), (4.4852423 51.8531632, 4.4851723 51.8531797, 4.4850974 51.8531787, 4.4850287 51.8531603, 4.4849763 51.8531272, 4.4849479 51.8530844), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285))</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4500364</t>
+          <t>9422227</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Delft, Station Delft</t>
+          <t>Poortugaal, Poortugaal Metro</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bus 40: Rotterdam Centraal =&gt; Delft Station Delft</t>
+          <t>Bus 602: Rhoon Portland =&gt; Poortugaal Metro</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2979,14 +2979,14 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4684164 51.9237139, 4.4682817 51.9236877, 4.4678361 51.9236014), (4.4678361 51.9236014, 4.4677359 51.9235859, 4.4674915 51.9235551, 4.467406 51.9235444, 4.4673209 51.9235377), (4.4673209 51.9235377, 4.4669786 51.9235387), (4.4669786 51.9235387, 4.4665226 51.9235401), (4.4665226 51.9235401, 4.4663345 51.9235385, 4.4661361 51.9235379), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661031 51.9225636, 4.4659122 51.9225787, 4.4653082 51.9226236, 4.4645932 51.9226706), (4.4645932 51.9226706, 4.4641076 51.9227006, 4.4639494 51.9227095, 4.4638232 51.9227141, 4.4637326 51.9227163, 4.4636419 51.9227174, 4.4635182 51.9227151, 4.4634313 51.9227124, 4.4633483 51.9227076, 4.4631988 51.9226944, 4.4631103 51.9226868, 4.463064 51.9226815, 4.4630033 51.9226739, 4.4629409 51.9226645), (4.4629409 51.9226645, 4.4629276 51.9226624, 4.4628351 51.9226479, 4.462784 51.9226396, 4.4627358 51.9226309, 4.4626965 51.9226232, 4.4626495 51.9226121, 4.4626077 51.9226011, 4.4625731 51.9225901), (4.4625731 51.9225901, 4.4624456 51.9225368, 4.46233 51.9224838, 4.4619885 51.9223321, 4.4617093 51.922195, 4.4616448 51.922171), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4565831 51.9213873, 4.456427 51.9214005, 4.4563845 51.9214019, 4.4562106 51.9214041, 4.4560904 51.9214067, 4.4559084 51.9213913, 4.4557499 51.9213717, 4.4554996 51.921336, 4.4553721 51.9213207, 4.4553214 51.9213215, 4.4551847 51.9213132), (4.4551847 51.9213132, 4.4551246 51.9213581, 4.455073 51.9213783), (4.455073 51.9213783, 4.4550773 51.9214595, 4.4550851 51.9215008, 4.455102 51.9216757, 4.4550899 51.9218326), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4544971 51.9251254, 4.4545087 51.9251758, 4.454478 51.9253402, 4.454461 51.9254092), (4.454461 51.9254092, 4.4544247 51.9255415, 4.4543974 51.9256225, 4.4543827 51.9256725, 4.4543781 51.9257693, 4.4543542 51.9258783), (4.4543542 51.9258783, 4.4543871 51.925981, 4.4544488 51.9262046, 4.4545222 51.9265266, 4.4545301 51.9265878), (4.4545301 51.9265878, 4.4545777 51.9268006), (4.4545777 51.9268006, 4.4546198 51.9269176, 4.4547638 51.9274642, 4.4549944 51.9283163, 4.4550393 51.9285287), (4.4550393 51.9285287, 4.4550696 51.9285562, 4.4551226 51.9286019, 4.4551614 51.9287376, 4.4551613 51.928859, 4.4551612 51.9289344, 4.4551612 51.9289858, 4.4551369 51.92908), (4.4551369 51.92908, 4.4551149 51.9291021, 4.4550749 51.9291251, 4.4548689 51.9292044), (4.4548689 51.9292044, 4.4545624 51.9291219, 4.4543953 51.9290759, 4.4539883 51.928991, 4.4535955 51.9289192, 4.4533467 51.928883, 4.4531352 51.9288576, 4.4528569 51.9288338), (4.4528569 51.9288338, 4.4526247 51.9288197, 4.4524888 51.928815, 4.452291 51.9288114, 4.4519195 51.9288264, 4.4515117 51.9288628, 4.4509268 51.9289242, 4.4485549 51.9291987), (4.4485549 51.9291987, 4.4483394 51.9292831), (4.4483394 51.9292831, 4.4480514 51.9293576, 4.4477665 51.9294258), (4.4477665 51.9294258, 4.4474471 51.929502), (4.4474471 51.929502, 4.4469608 51.9296229), (4.4469608 51.9296229, 4.4467294 51.9296751, 4.4465081 51.9297077, 4.4462281 51.9297421, 4.445903 51.929772), (4.445903 51.929772, 4.4456879 51.929799, 4.4451475 51.9298373, 4.4449558 51.9298384), (4.4449558 51.9298384, 4.4443548 51.9298812), (4.4443548 51.9298812, 4.4442318 51.9299072, 4.4440847 51.9299186, 4.4435597 51.9299462), (4.4435597 51.9299462, 4.4429796 51.9300203), (4.4429796 51.9300203, 4.4426818 51.930074, 4.4426004 51.9300887), (4.4426004 51.9300887, 4.4421727 51.930166, 4.4420941 51.9301802, 4.4420155 51.9301943, 4.4418676 51.9302282), (4.4418676 51.9302282, 4.4416746 51.9302851, 4.4415141 51.9303326, 4.4413421 51.930396, 4.4411808 51.9304798), (4.4411808 51.9304798, 4.4402131 51.9310303), (4.4402131 51.9310303, 4.4401168 51.9310922, 4.4400607 51.931136, 4.4399815 51.9312313), (4.4399815 51.9312313, 4.4398677 51.9313683), (4.4398677 51.9313683, 4.4398187 51.9314324), (4.4398187 51.9314324, 4.4396435 51.9316473), (4.4396435 51.9316473, 4.4395207 51.9317861, 4.439382 51.931895, 4.4391924 51.9320101, 4.4389806 51.9321134), (4.4389806 51.9321134, 4.4389533 51.932181, 4.4389614 51.9322199, 4.4389896 51.9322502, 4.4391515 51.9324245, 4.4394284 51.9326362, 4.4395246 51.9327358, 4.4396188 51.9328719, 4.439672 51.9330095, 4.4396935 51.9331181, 4.4396641 51.933326), (4.4396641 51.933326, 4.4396547 51.9333717, 4.4392589 51.9340308, 4.4391867 51.9341414, 4.4390217 51.9344226, 4.4389159 51.9345872, 4.4385061 51.9351545, 4.4383808 51.9352959, 4.4383054 51.9353866), (4.4383054 51.9353866, 4.4382146 51.9354809, 4.4381417 51.9355565), (4.4381417 51.9355565, 4.4371358 51.9365536, 4.4370247 51.9366328, 4.4369779 51.9366625, 4.4368756 51.9367256), (4.4368756 51.9367256, 4.4368856 51.9367504, 4.4368848 51.936776, 4.4368731 51.9368006, 4.4368441 51.9368276, 4.4368022 51.9368471, 4.4367523 51.9368572, 4.4366998 51.9368565, 4.4366506 51.9368451), (4.4366506 51.9368451, 4.4366055 51.936821, 4.4365783 51.9367882, 4.4365722 51.9367579, 4.4365817 51.936728), (4.4365817 51.936728, 4.4364982 51.9366448, 4.4364649 51.9366251, 4.4363799 51.9365609), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.432806 51.935817, 4.4335304 51.9360056), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4274731 51.9366312, 4.4275292 51.9366566, 4.4275622 51.9366945, 4.4275658 51.9367374, 4.4275487 51.9367677, 4.4275167 51.9367929, 4.4274557 51.9368145, 4.4273856 51.9368177), (4.4273856 51.9368177, 4.4273457 51.9368399), (4.4273457 51.9368399, 4.4273035 51.9368695, 4.427117 51.937028, 4.4270683 51.9370452), (4.4270683 51.9370452, 4.426373 51.9376912), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.4237385 51.9401662, 4.4237184 51.940237, 4.4236893 51.9402742, 4.4236515 51.9403036, 4.4236093 51.9403285), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4216011 51.9399531, 4.4216922 51.9399429, 4.4222656 51.9399006, 4.4223216 51.9398991, 4.4223816 51.9399037, 4.4224226 51.9399112, 4.4224916 51.9399372, 4.4225764 51.9399704, 4.4226308 51.9399901, 4.4227063 51.9400234, 4.4228481 51.9400854, 4.4229945 51.9401421, 4.4234488 51.940316, 4.4235528 51.9403406, 4.4236089 51.9403468), (4.4216011 51.9399531, 4.4216204 51.9400187, 4.4217639 51.9405928), (4.4217639 51.9405928, 4.4217635 51.9406174), (4.4217635 51.9406174, 4.4217652 51.9406676), (4.4217652 51.9406676, 4.4217616 51.9406815), (4.4217616 51.9406815, 4.4217327 51.9408169, 4.4217059 51.9409123, 4.4216649 51.9410044, 4.4213664 51.9416743, 4.4212681 51.9418575, 4.4212397 51.9419099, 4.42122 51.9419404, 4.4211956 51.9419694, 4.4209707 51.9422071, 4.4207885 51.9423771, 4.4205559 51.9425769, 4.4200971 51.9430205, 4.4200585 51.9430683), (4.4200585 51.9430683, 4.4200024 51.9431256, 4.4198638 51.9432627, 4.4197727 51.9433371, 4.4197142 51.9433696, 4.4193601 51.9435633, 4.4190693 51.9437484, 4.4189 51.9439, 4.4185613 51.9442959, 4.4182844 51.944631), (4.4182844 51.944631, 4.4182481 51.9446782, 4.4181956 51.9447465, 4.4176758 51.9453674, 4.4169882 51.9461995, 4.4169613 51.946232, 4.4167571 51.9464598, 4.4164434 51.9467337, 4.4160661 51.9469998, 4.4156019 51.9472602, 4.4148686 51.9475885, 4.4142858 51.9478384, 4.4139613 51.9479789, 4.4138685 51.948019, 4.4136391 51.9481117, 4.4133735 51.94823, 4.4129109 51.9484754), (4.4129109 51.9484754, 4.4128867 51.9484881, 4.4126911 51.9485873), (4.4126911 51.9485873, 4.4124573 51.9487058, 4.412049 51.9489379), (4.412049 51.9489379, 4.411718 51.9491376, 4.4113844 51.9493271), (4.4113844 51.9493271, 4.4106365 51.9497778, 4.4103499 51.9499545, 4.4100052 51.9501794, 4.4097646 51.9503461, 4.4095325 51.9504992, 4.4093671 51.9506055, 4.4091628 51.9507291, 4.4086374 51.9510044, 4.4082553 51.9512001, 4.4079584 51.9513607, 4.4077989 51.9514532, 4.4075815 51.951594, 4.4072905 51.951796, 4.4071688 51.9518851, 4.4070187 51.952005, 4.4067827 51.952214, 4.4062671 51.9526576, 4.4062002 51.9527122, 4.4061404 51.952761, 4.4059142 51.9529456, 4.4056709 51.953127, 4.4055576 51.9532046, 4.4053453 51.9533503, 4.4052028 51.9534418, 4.4046828 51.9537771, 4.4043345 51.9539929, 4.4041659 51.9540912, 4.4040375 51.95416, 4.4032108 51.9545977, 4.4020913 51.9551985, 4.4012869 51.9555977, 4.4009425 51.9557747, 4.4004834 51.9560038, 4.4000839 51.9562143, 4.3991468 51.9567138, 4.3990012 51.9567999), (4.3990012 51.9567999, 4.3988985 51.9568671, 4.3988374 51.9569162, 4.3987642 51.9569838, 4.3985386 51.9572175, 4.3984273 51.95733, 4.3983789 51.957379, 4.3982394 51.9575199), (4.3982394 51.9575199, 4.3977075 51.9580625, 4.3975532 51.9582139, 4.3974188 51.9583467, 4.3970619 51.9586668, 4.3968688 51.9588502, 4.3967525 51.9589782, 4.3967066 51.9590357, 4.3966676 51.9591224, 4.3966355 51.9591987, 4.3965938 51.9592869, 4.3965544 51.9593447), (4.3965544 51.9593447, 4.396395 51.959557, 4.3962404 51.9597713), (4.3962404 51.9597713, 4.3959494 51.9600892), (4.3959494 51.9600892, 4.3958441 51.9602641, 4.395686 51.9604925, 4.394822 51.9617642, 4.3945283 51.9620793, 4.3942169 51.962396, 4.3940723 51.9625656, 4.3940242 51.9626224), (4.3940242 51.9626224, 4.3940082 51.9626404), (4.3940082 51.9626404, 4.3939921 51.9626577), (4.3939921 51.9626577, 4.3939431 51.9627059, 4.3934087 51.9632909, 4.3933316 51.9633802), (4.3933316 51.9633802, 4.3931868 51.9635602, 4.3929974 51.9637979), (4.3929974 51.9637979, 4.3929433 51.9638726), (4.3929433 51.9638726, 4.3927491 51.9641471, 4.3927124 51.9641989, 4.3926718 51.9642535, 4.392625 51.9643176, 4.3924844 51.9645281, 4.3924014 51.9646625, 4.3923058 51.9648232, 4.392224 51.9649616, 4.3921421 51.9651192, 4.3920733 51.9652393, 4.3920078 51.965339, 4.3919248 51.9654509, 4.391832 51.9655726, 4.3914694 51.9660768, 4.3909419 51.9667524, 4.3904148 51.9673795, 4.3900291 51.967864, 4.3896031 51.968386, 4.389515 51.9685276, 4.3894082 51.9686861, 4.3890376 51.9692071, 4.3889188 51.9693573, 4.3887578 51.9695584, 4.3883258 51.9700669, 4.3881744 51.970251, 4.3877952 51.9707255, 4.3874406 51.9711934, 4.3872083 51.9715069, 4.3870745 51.9716863, 4.3869389 51.9718796, 4.3868031 51.9720897, 4.3866965 51.9722546, 4.3865 51.9725, 4.3862 51.9729, 4.3853 51.974, 4.3846746 51.9748347, 4.3844289 51.9751837, 4.3842873 51.9753848, 4.3839453 51.975913, 4.3838124 51.9761321, 4.3834903 51.9766078, 4.3832279 51.9770032), (4.3832279 51.9770032, 4.3829333 51.9773932, 4.3826382 51.9777852, 4.3820276 51.9786208, 4.3815882 51.9791957, 4.3813043 51.979583, 4.3804238 51.9806564, 4.3802686 51.9808511, 4.3799083 51.9813031, 4.3798662 51.9813559, 4.3796876 51.981589, 4.379484 51.9818579, 4.3791278 51.9823857, 4.3777592 51.9845891, 4.3777077 51.984672, 4.3776317 51.9847945, 4.3775557 51.9849168), (4.3775557 51.9849168, 4.3774271 51.9851084, 4.3769528 51.9858155, 4.3765748 51.9864208, 4.3765528 51.9864561, 4.376365 51.9867568), (4.376365 51.9867568, 4.3763206 51.9868255), (4.3763206 51.9868255, 4.3760914 51.98718, 4.3753649 51.9883406, 4.3751959 51.988617, 4.3750737 51.9887915, 4.3750108 51.9888809, 4.3746715 51.9893205), (4.3746715 51.9893205, 4.3742703 51.9898286, 4.3741563 51.9900651, 4.3738574 51.9907162, 4.3736484 51.9910996, 4.373572 51.9912286, 4.3733593 51.9915604, 4.3731773 51.9918442, 4.3730808 51.9919946, 4.3728718 51.99229, 4.3728477 51.992324), (4.3728477 51.992324, 4.3726096 51.9926719), (4.3726096 51.9926719, 4.3725315 51.9927861, 4.3724098 51.9929706, 4.3722585 51.9931999, 4.3720724 51.9934821, 4.3717264 51.9940066, 4.3709749 51.9952155, 4.3708575 51.9953836, 4.3707925 51.9954836, 4.3706972 51.9956217, 4.3706545 51.9956828, 4.3706041 51.9957596), (4.3706041 51.9957596, 4.3705983 51.9958177, 4.3705751 51.9958611, 4.3705565 51.9958922, 4.3704901 51.9959338), (4.3704901 51.9959338, 4.3701355 51.9965236, 4.3698144 51.9971105, 4.3696201 51.9974426, 4.3693153 51.9979956, 4.3692012 51.9981985, 4.3691896 51.9982193, 4.3691463 51.9982929), (4.3691463 51.9982929, 4.3691391 51.9983596, 4.3691016 51.9984271, 4.3690805 51.9984649, 4.3690266 51.9985108), (4.3690266 51.9985108, 4.3687023 51.9990906, 4.3686 51.9992706, 4.3684162 51.9995943, 4.3680979 52.0001378, 4.367919 52.0004329, 4.3676295 52.0009218), (4.3676295 52.0009218, 4.3676055 52.0009582, 4.367573 52.0010088, 4.3673896 52.0012949, 4.3671445 52.0016384, 4.366909 52.0019185, 4.3668874 52.0019586, 4.3669026 52.0020167), (4.3669026 52.0020167, 4.3669755 52.0020226, 4.3670246 52.0020324, 4.3670514 52.0020381), (4.3670514 52.0020381, 4.3671673 52.0020821, 4.3672344 52.0021111, 4.3673081 52.0021465), (4.3682038 52.0023896, 4.368153 52.0023756, 4.3673081 52.0021465), (4.3682038 52.0023896, 4.3683902 52.002422, 4.3687944 52.0025277, 4.36945 52.0027031, 4.369918 52.0028297, 4.3709799 52.0031138, 4.3710444 52.003131, 4.3710854 52.003141), (4.3710854 52.003141, 4.3711242 52.0031536, 4.3711471 52.003163, 4.3711566 52.0031774, 4.3711674 52.0032189), (4.3709921 52.0035667, 4.3711563 52.003321, 4.3711736 52.0032618, 4.3711674 52.0032189), (4.3709921 52.0035667, 4.370387 52.0043915, 4.370378 52.0044142, 4.3703795 52.004445), (4.3703795 52.004445, 4.370407 52.0044739, 4.3704272 52.004489), (4.3704272 52.004489, 4.3698047 52.0048057, 4.3694533 52.0049832, 4.3693009 52.00506, 4.3691991 52.0051233, 4.3691477 52.0051649, 4.3691012 52.0052027, 4.3690571 52.0052497, 4.369021 52.0052864), (4.369021 52.0052864, 4.3689794 52.0053379, 4.3689458 52.0053795, 4.3688341 52.0055124, 4.3687718 52.0055637, 4.3686905 52.0056135, 4.3683275 52.0058219, 4.3681313 52.0059352, 4.3679126 52.0060461, 4.3678488 52.0060791, 4.3677522 52.0061199, 4.3676484 52.0061527), (4.3675553 52.0061843, 4.3676484 52.0061527), (4.3675553 52.0061843, 4.3673579 52.0062467, 4.367227 52.0062887, 4.3670791 52.0063487, 4.3669706 52.006401, 4.3668863 52.0064478), (4.3668863 52.0064478, 4.3667956 52.0065233, 4.3667054 52.0066138, 4.3666113 52.0067322, 4.3663926 52.0069857, 4.3661976 52.0072443, 4.3660422 52.0074607), (4.3660422 52.0074607, 4.365626 52.0079791), (4.365626 52.0079791, 4.3653334 52.0083575, 4.365238 52.0084511, 4.3651605 52.0084967, 4.3651111 52.0085144, 4.3650378 52.0085348, 4.3649522 52.008549), (4.3649522 52.008549, 4.3649047 52.0085533, 4.3648531 52.0085544, 4.3647827 52.008547), (4.3647827 52.008547, 4.3646833 52.0085501, 4.3646576 52.0085474, 4.3645621 52.0085222, 4.3644772 52.0084897, 4.3643466 52.0084328, 4.3636001 52.0081179, 4.3634944 52.0080734, 4.363445 52.0080343), (4.363445 52.0080343, 4.3633155 52.0079799, 4.3632647 52.0079459, 4.3632193 52.0079081, 4.3631903 52.0078728, 4.363164 52.0078271, 4.3631527 52.0077937, 4.3631385 52.0077307, 4.363124 52.0076205, 4.3631154 52.0075866, 4.36309 52.0074856), (4.36309 52.0074856, 4.3630228 52.0073716, 4.3629987 52.0073203, 4.3629575 52.0072319), (4.3629575 52.0072319, 4.3628053 52.0069342, 4.3627239 52.0068256, 4.3626284 52.006721, 4.3624762 52.0065865, 4.3623241 52.0064833, 4.3621375 52.0063763, 4.3619437 52.0062845), (4.3619437 52.0062845, 4.3617278 52.0062069, 4.3614582 52.0061026, 4.3612046 52.0060045), (4.3612046 52.0060045, 4.361056 52.005953), (4.361056 52.005953, 4.360887 52.0058943), (4.360887 52.0058943, 4.3606086 52.0057851), (4.3606086 52.0057851, 4.3600172 52.0055285, 4.3598464 52.005454), (4.3598464 52.005454, 4.3596911 52.0053859, 4.3596325 52.005359), (4.3596325 52.005359, 4.3595616 52.0053611, 4.3594949 52.0053641, 4.3594342 52.0053738, 4.3593744 52.0053886, 4.3593243 52.0054026, 4.3592387 52.0054377, 4.3591849 52.0054614, 4.3591526 52.0054768), (4.3579661 52.0068834, 4.3580248 52.006814, 4.3585991 52.0061224, 4.3588413 52.005834, 4.3590516 52.0055838, 4.3590832 52.0055491, 4.3591526 52.0054768), (4.3579661 52.0068834, 4.3579427 52.0068727, 4.3579085 52.0068536, 4.3578876 52.0068425), (4.3578876 52.0068425, 4.3576854 52.0067432, 4.3576253 52.0067129), (4.3576253 52.0067129, 4.3575984 52.0066994, 4.357521 52.0066588, 4.3574045 52.0065977), (4.3574045 52.0065977, 4.3573372 52.006565), (4.3573372 52.006565, 4.3572916 52.0065422, 4.357264 52.0065284), (4.357264 52.0065284, 4.3572006 52.0065055, 4.3571596 52.006503, 4.357119 52.0065086, 4.3570842 52.0065203, 4.3570521 52.0065339, 4.3570042 52.0065642, 4.3568162 52.0067921))</t>
+          <t>MULTILINESTRING ((4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4745575 51.8569288, 4.474605 51.8569655, 4.4746271 51.8570102, 4.4746207 51.8570578, 4.4745796 51.857105, 4.4745011 51.8571397, 4.474458 51.8571471, 4.4743645 51.8571427, 4.4742753 51.857107), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.471765 51.859785, 4.4717757 51.8598451, 4.4718127 51.860047, 4.4718124 51.8600709, 4.4718145 51.8601245, 4.4718159 51.8601616), (4.4718159 51.8601616, 4.4718724 51.8601823, 4.4719167 51.8602123, 4.4719451 51.8602489), (4.4719451 51.8602489, 4.4719543 51.860279, 4.4719526 51.8603097, 4.4719399 51.8603394), (4.4719399 51.8603394, 4.4719181 51.8603656, 4.4718878 51.8603883, 4.4718504 51.8604065, 4.4718075 51.8604195, 4.47174 51.8604277, 4.4716716 51.8604228, 4.4716151 51.8604078, 4.4715673 51.8603838, 4.471532 51.8603527), (4.471532 51.8603527, 4.4714415 51.8603559, 4.4712585 51.8603671, 4.4708275 51.8603782), (4.4605556 51.8605064, 4.4608027 51.8604803, 4.4611119 51.8604623, 4.4613651 51.8604546, 4.462604 51.8604687, 4.4649738 51.8604994, 4.4663643 51.8605187, 4.4689354 51.8605469, 4.4694065 51.860529, 4.4699253 51.8604841, 4.4708275 51.8603782), (4.4600885 51.860584, 4.4605556 51.8605064), (4.4586828 51.8609214, 4.4590548 51.8608296, 4.4595659 51.8606966, 4.4597404 51.8606559, 4.4599143 51.8606182, 4.4600885 51.860584), (4.4586828 51.8609214, 4.4583395 51.8610403, 4.4581908 51.8610854, 4.4581491 51.8610981), (4.4581491 51.8610981, 4.4581406 51.861143, 4.4581118 51.8611839, 4.4580637 51.8612173, 4.4580012 51.8612397, 4.4579305 51.861249, 4.4578613 51.8612439, 4.4577953 51.8612253, 4.4577452 51.8611942), (4.4577452 51.8611942, 4.4574913 51.861248, 4.4571112 51.8613066), (4.4571112 51.8613066, 4.4562708 51.8615091, 4.4559923 51.8615648, 4.4557038 51.8616103, 4.4554847 51.8616361, 4.4551811 51.8616602, 4.4549066 51.8616723, 4.4544851 51.861669, 4.4541545 51.8616443, 4.4536404 51.8615755, 4.4530715 51.8614775), (4.4530715 51.8614775, 4.4515675 51.8611956), (4.4515675 51.8611956, 4.4493093 51.860782, 4.4470077 51.8603248), (4.4470077 51.8603248, 4.4456971 51.8600478, 4.4454712 51.8600086, 4.4450366 51.8599462, 4.4445141 51.8599127, 4.4440307 51.8599165), (4.4440307 51.8599165, 4.4435674 51.8599447, 4.4431819 51.8599974, 4.4426548 51.8600977, 4.4418776 51.8602435, 4.4415639 51.8602985, 4.4412462 51.8603348, 4.4408488 51.8603677, 4.4404225 51.8603677, 4.4397631 51.8603322, 4.4392211 51.860247), (4.4392211 51.860247, 4.4386499 51.860134, 4.4378243 51.8599238), (4.4378243 51.8599238, 4.4373384 51.8598097, 4.4373047 51.8598018, 4.437218 51.8597828, 4.4371761 51.8597736), (4.4371761 51.8597736, 4.4371333 51.8597949, 4.4370826 51.8598079, 4.4370281 51.8598115, 4.4369741 51.8598056, 4.4369237 51.8597901, 4.4368827 51.8597663, 4.4368546 51.8597362, 4.4368421 51.8597053, 4.4368449 51.8596677, 4.4368634 51.859636, 4.4368955 51.8596087, 4.4369387 51.8595881, 4.4369895 51.8595757, 4.4370438 51.8595725), (4.4370438 51.8595725, 4.437077 51.8595154, 4.43709 51.8594932, 4.4372816 51.8592597), (4.436944 51.8572935, 4.4372491 51.8577267, 4.437336 51.8579363, 4.4374052 51.8581033, 4.437432 51.8582525, 4.4374467 51.8584783, 4.4374544 51.858597, 4.43742 51.8588476, 4.4374078 51.8589362, 4.4372816 51.8592597), (4.436944 51.8572935, 4.4365551 51.8569206, 4.436291 51.8566673, 4.4362377 51.8566427, 4.4345628 51.8565636), (4.4341239 51.8565429, 4.4345628 51.8565636), (4.4338794 51.8565336, 4.4341239 51.8565429), (4.4337867 51.8565313, 4.4338794 51.8565336), (4.4337867 51.8565313, 4.4337965 51.8564062, 4.4338252 51.8558745, 4.4338066 51.8558285, 4.4337727 51.8557994), (4.4337727 51.8557994, 4.4336651 51.8557438, 4.4334921 51.855693, 4.4331811 51.8556409), (4.4324183 51.8555841, 4.4328005 51.8556084, 4.4331811 51.8556409), (4.4324183 51.8555841, 4.4321621 51.8555884, 4.4319353 51.8556066, 4.4312687 51.8556735, 4.4305291 51.8557604), (4.4289775 51.8545421, 4.429962 51.8551647, 4.4302603 51.8554104, 4.4303662 51.8554977, 4.4304476 51.8556544, 4.4305291 51.8557604), (4.4274257 51.8535578, 4.4282521 51.8541047, 4.4289775 51.8545421), (4.4274257 51.8535578, 4.4273682 51.8537413, 4.4273163 51.8539067, 4.4271983 51.8544202, 4.4271869 51.85447, 4.4271096 51.8547192), (4.4271096 51.8547192, 4.4270728 51.8551568, 4.4270961 51.8552553, 4.4273135 51.8558175, 4.4273341 51.8558716), (4.4273341 51.8558716, 4.4271752 51.855894, 4.4258767 51.8560706, 4.4250515 51.8561824, 4.4248072 51.8562342, 4.4245111 51.8563381), (4.4245111 51.8563381, 4.4243079 51.8564105, 4.4240588 51.8564424, 4.4237825 51.8564376, 4.4236918 51.8564285), (4.4214573 51.8558593, 4.4217043 51.855935, 4.4219252 51.8560015, 4.4221421 51.8560665, 4.4232274 51.8563238, 4.4234702 51.8563811, 4.4236918 51.8564285), (4.4214573 51.8558593, 4.4212685 51.8563237, 4.4212358 51.856404, 4.4211437 51.8566443, 4.4210028 51.8569685), (4.4210028 51.8569685, 4.4209711 51.8570408, 4.420711 51.8576561, 4.4202918 51.858639), (4.4202918 51.858639, 4.420259 51.8587177), (4.420259 51.8587177, 4.4200491 51.859204, 4.4199434 51.8594642), (4.4199434 51.8594642, 4.4199155 51.8595347, 4.419893 51.8595924), (4.419893 51.8595924, 4.419893 51.8597089, 4.4199222 51.8598219, 4.4199413 51.8598764, 4.419976 51.8599326, 4.4200567 51.8600181, 4.4201844 51.8601085, 4.4203759 51.8601871, 4.4205148 51.8602305, 4.4206485 51.8602582, 4.4212871 51.8603601, 4.4220162 51.8604772, 4.4221718 51.8605058), (4.4221718 51.8605058, 4.4222859 51.8605034, 4.4224406 51.8604964, 4.4225878 51.8604778, 4.4227019 51.8604487, 4.4228226 51.8604003, 4.4229122 51.8603458, 4.4229898 51.8602794, 4.4230934 51.8601726, 4.4231735 51.8600555, 4.423216 51.859978, 4.4232506 51.8599414), (4.420094 51.8593618, 4.4202493 51.8593866, 4.4203302 51.8594008, 4.4204121 51.8594151, 4.4207986 51.8594791, 4.4208875 51.859496, 4.421271 51.8595726, 4.4217379 51.8596588, 4.4221636 51.8597222, 4.4231226 51.8598766, 4.4231952 51.8598999, 4.4232506 51.8599414), (4.4198963 51.8593308, 4.420094 51.8593618), (4.419541 51.8592729, 4.4198963 51.8593308), (4.4180565 51.8590168, 4.4185243 51.8590966, 4.4187337 51.8591402, 4.4187926 51.8591508, 4.419541 51.8592729), (4.4173209 51.8589006, 4.4180565 51.8590168), (4.415029 51.8586549, 4.4155993 51.858683, 4.4161817 51.8587273, 4.4167631 51.8588118, 4.4173209 51.8589006), (4.415029 51.8586549, 4.4144024 51.8586618, 4.4141784 51.8586713, 4.4138991 51.8586928, 4.4133968 51.8587443, 4.4128992 51.858819, 4.4122583 51.858944, 4.4121583 51.858964, 4.4113331 51.8591293, 4.4105909 51.8592833, 4.4096912 51.8594571), (4.4090868 51.859574, 4.4092497 51.859546, 4.4096912 51.8594571), (4.4088694 51.8596029, 4.4090868 51.859574), (4.4088694 51.8596029, 4.4087782 51.8596369, 4.4086644 51.8596537, 4.4085532 51.8596703, 4.4085006 51.8596685, 4.4084085 51.8596519, 4.4083394 51.859637), (4.4083866 51.8595744, 4.4083705 51.8596069, 4.4083394 51.859637), (4.4083856 51.8585933, 4.4082956 51.8588791, 4.4082214 51.8591147, 4.4082346 51.8591881, 4.4083525 51.8594328, 4.4083877 51.8595287, 4.4083866 51.8595744), (4.4083856 51.8585933, 4.4084655 51.8584842), (4.4084655 51.8584842, 4.4085156 51.8583696, 4.40853 51.858299, 4.4085576 51.8581871), (4.4085576 51.8581871, 4.4085889 51.8580663), (4.4085889 51.8580663, 4.4085353 51.8579301, 4.4084649 51.8577928), (4.4084649 51.8577928, 4.4083963 51.8576545, 4.4081957 51.857236, 4.4081489 51.8571201, 4.4081362 51.8570702, 4.408129 51.8570003, 4.4081452 51.8568945, 4.4081944 51.8568376), (4.4082731 51.8565736, 4.4082458 51.8566844, 4.4081944 51.8568376), (4.4048988 51.853206, 4.4051832 51.8534986, 4.4072752 51.8554927, 4.4078478 51.8560455, 4.4082183 51.8563806, 4.4082749 51.8564766, 4.4082832 51.8565288, 4.4082731 51.8565736), (4.4047345 51.8530516, 4.4048988 51.853206), (4.4047345 51.8530516, 4.4046303 51.8529985, 4.4045827 51.8529538, 4.4045361 51.8529077, 4.4044597 51.8528393), (4.4044597 51.8528393, 4.4044165 51.8528409, 4.4043739 51.8528365, 4.404334 51.8528262, 4.4042989 51.8528106), (4.4042989 51.8528106, 4.4041605 51.8528498, 4.4034766 51.8530635, 4.4029229 51.8532147, 4.4028382 51.8532403, 4.4026814 51.8532629), (4.4026814 51.8532629, 4.4025673 51.8532995, 4.4025269 51.8533125, 4.4017588 51.8535592, 4.401322 51.8537385, 4.4009972 51.8538706, 4.4004755 51.854088, 4.4000253 51.8543049, 4.3999576 51.8543375, 4.3998888 51.8543709, 4.3990082 51.8548567, 4.3988725 51.8549399, 4.3986449 51.8550849, 4.3984407 51.8551987, 4.3982382 51.8553117, 4.3980356 51.8554247, 4.3979055 51.8554973, 4.3978299 51.8555414, 4.3976243 51.855653, 4.3974313 51.8557675, 4.3972255 51.8558827, 4.397045 51.8559855, 4.3966265 51.856212, 4.3963395 51.8563633, 4.3961603 51.8564469, 4.3960393 51.8565013, 4.3959526 51.8565402), (4.3959526 51.8565402, 4.395277 51.8569371, 4.3952219 51.8569457), (4.3913238 51.8565809, 4.3913725 51.8565168, 4.3915277 51.8563125, 4.3916457 51.8561949, 4.391681 51.8561736, 4.3917852 51.8561104, 4.3919837 51.8560689, 4.3923208 51.8560526, 4.3926156 51.8560614, 4.392784 51.8560894, 4.3934127 51.8562788, 4.3939541 51.8564562, 4.3945229 51.8566672, 4.3946489 51.8567093, 4.3951582 51.856936, 4.3952219 51.8569457), (4.3913238 51.8565809, 4.3912825 51.8566544, 4.3911683 51.8568576, 4.3910395 51.8569967, 4.390834 51.8571833, 4.3907659 51.8572452), (4.3907659 51.8572452, 4.3906942 51.8573042, 4.3905728 51.8574042, 4.3904745 51.8575208, 4.3904333 51.8576213, 4.390378 51.8578488, 4.3901664 51.8584768, 4.39 51.8587, 4.3890349 51.8597378), (4.3890349 51.8597378, 4.3890044 51.8597868, 4.3890328 51.8598608, 4.3892003 51.8600585, 4.3891949 51.8601065), (4.3891949 51.8601065, 4.3891539 51.8601438, 4.3891067 51.8601705, 4.3890399 51.8601869, 4.3888845 51.8602295), (4.3888845 51.8602295, 4.3888523 51.8602551, 4.3888331 51.8602809, 4.3888243 51.8603156), (4.3888243 51.8603156, 4.3888654 51.8603915, 4.3888884 51.8604338, 4.3889172 51.8604996), (4.3889172 51.8604996, 4.3891102 51.8604627, 4.3898213 51.8603259, 4.3900702 51.8602976, 4.390282 51.8602736, 4.3908908 51.8602222, 4.3937934 51.8600309), (4.3937934 51.8600309, 4.3950197 51.8599523, 4.395122 51.8599458, 4.3953233 51.8599314), (4.3953233 51.8599314, 4.3954877 51.8599198), (4.3954877 51.8599198, 4.3955155 51.860043), (4.3955155 51.860043, 4.3955276 51.8602136, 4.3955594 51.860403), (4.3955594 51.860403, 4.3955956 51.8605866, 4.3956219 51.8607045), (4.3956219 51.8607045, 4.3956853 51.8607925, 4.3958742 51.8610069, 4.3959477 51.8610942, 4.3960603 51.8612329), (4.3960603 51.8612329, 4.395969 51.8612475), (4.395969 51.8612475, 4.3958596 51.861273, 4.3956379 51.8613193))</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4553216</t>
+          <t>10190409</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2996,17 +2996,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rotterdam, Rotterdam Centraal</t>
+          <t>Barendrecht, Station Barendrecht</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bus 40: Delft Station Delft =&gt; Rotterdam Centraal</t>
+          <t>Bus 603: Barendrecht Carnisselande =&gt; Barendrecht Station</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>603</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3017,14 +3017,14 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.3568847 52.00682, 4.3568742 52.0068337, 4.3568703 52.0068426, 4.3568593 52.0068662, 4.3568588 52.0068891, 4.3568751 52.006917, 4.3568962 52.0069397, 4.3569577 52.0069693), (4.3569577 52.0069693, 4.3570185 52.0070006), (4.3570185 52.0070006, 4.3571009 52.0070495), (4.3571009 52.0070495, 4.3572227 52.0071121, 4.3572714 52.0071359), (4.3572714 52.0071359, 4.3575394 52.0072585), (4.3575394 52.0072585, 4.3575451 52.0072611, 4.3575718 52.0072731, 4.3575958 52.0072839, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3578982 52.0069613, 4.3578318 52.0070382, 4.3576191 52.0072939), (4.3579661 52.0068834, 4.3580248 52.006814, 4.3585991 52.0061224, 4.3588413 52.005834, 4.3590516 52.0055838, 4.3590832 52.0055491, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3595616 52.0053611, 4.3594949 52.0053641, 4.3594342 52.0053738, 4.3593744 52.0053886, 4.3593243 52.0054026, 4.3592387 52.0054377, 4.3591849 52.0054614, 4.3591526 52.0054768), (4.3596325 52.005359, 4.3598326 52.0053837, 4.3598989 52.005388, 4.3599739 52.0053902), (4.3599739 52.0053902, 4.3601022 52.0054459, 4.360238 52.0055048, 4.3609544 52.0058104), (4.3609544 52.0058104, 4.3611177 52.0058752), (4.3611177 52.0058752, 4.3612717 52.0059321, 4.3614377 52.0059957, 4.3619597 52.0062065, 4.3622142 52.0063226, 4.3624276 52.0064306, 4.3626021 52.0065577), (4.3626021 52.0065577, 4.3626477 52.0066204, 4.3626839 52.0066661, 4.3628134 52.0068119, 4.3628556 52.0068664, 4.3629298 52.0069781, 4.362969 52.0070559, 4.3629831 52.0071198, 4.362967 52.0071966, 4.3629575 52.0072319), (4.36309 52.0074856, 4.3630228 52.0073716, 4.3629987 52.0073203, 4.3629575 52.0072319), (4.363445 52.0080343, 4.3633155 52.0079799, 4.3632647 52.0079459, 4.3632193 52.0079081, 4.3631903 52.0078728, 4.363164 52.0078271, 4.3631527 52.0077937, 4.3631385 52.0077307, 4.363124 52.0076205, 4.3631154 52.0075866, 4.36309 52.0074856), (4.363445 52.0080343, 4.363517 52.0080467, 4.364334 52.0083913, 4.3644182 52.008427, 4.3645003 52.0084593, 4.3645994 52.0084903, 4.3646759 52.0085091, 4.3647045 52.0085162, 4.3647827 52.008547), (4.3649522 52.008549, 4.3649047 52.0085533, 4.3648531 52.0085544, 4.3647827 52.008547), (4.365626 52.0079791, 4.3653334 52.0083575, 4.365238 52.0084511, 4.3651605 52.0084967, 4.3651111 52.0085144, 4.3650378 52.0085348, 4.3649522 52.008549), (4.3660422 52.0074607, 4.365626 52.0079791), (4.3668863 52.0064478, 4.3667956 52.0065233, 4.3667054 52.0066138, 4.3666113 52.0067322, 4.3663926 52.0069857, 4.3661976 52.0072443, 4.3660422 52.0074607), (4.3675553 52.0061843, 4.3673579 52.0062467, 4.367227 52.0062887, 4.3670791 52.0063487, 4.3669706 52.006401, 4.3668863 52.0064478), (4.3675553 52.0061843, 4.3676484 52.0061527), (4.369021 52.0052864, 4.3689794 52.0053379, 4.3689458 52.0053795, 4.3688341 52.0055124, 4.3687718 52.0055637, 4.3686905 52.0056135, 4.3683275 52.0058219, 4.3681313 52.0059352, 4.3679126 52.0060461, 4.3678488 52.0060791, 4.3677522 52.0061199, 4.3676484 52.0061527), (4.3704272 52.004489, 4.3698047 52.0048057, 4.3694533 52.0049832, 4.3693009 52.00506, 4.3691991 52.0051233, 4.3691477 52.0051649, 4.3691012 52.0052027, 4.3690571 52.0052497, 4.369021 52.0052864), (4.3703795 52.004445, 4.370407 52.0044739, 4.3704272 52.004489), (4.3709921 52.0035667, 4.370387 52.0043915, 4.370378 52.0044142, 4.3703795 52.004445), (4.3709921 52.0035667, 4.3711563 52.003321, 4.3711736 52.0032618, 4.3711674 52.0032189), (4.3711674 52.0032189, 4.3711108 52.0032154, 4.3710943 52.0032095, 4.3710509 52.0031951, 4.3709943 52.0031801, 4.3698875 52.0028805, 4.369457 52.0027625, 4.3687703 52.0025678, 4.3683699 52.0024563, 4.3682038 52.0023896), (4.3682038 52.0023896, 4.368153 52.0023756, 4.3673081 52.0021465), (4.3673081 52.0021465, 4.3671322 52.0021243, 4.3670379 52.0021044, 4.36701 52.0020974, 4.3669741 52.002087, 4.3669498 52.0020725, 4.3669026 52.0020167), (4.3676295 52.0009218, 4.3676055 52.0009582, 4.367573 52.0010088, 4.3673896 52.0012949, 4.3671445 52.0016384, 4.366909 52.0019185, 4.3668874 52.0019586, 4.3669026 52.0020167), (4.3690266 51.9985108, 4.3687023 51.9990906, 4.3686 51.9992706, 4.3684162 51.9995943, 4.3680979 52.0001378, 4.367919 52.0004329, 4.3676295 52.0009218), (4.3690266 51.9985108, 4.3690229 51.9984529, 4.3690451 51.998414, 4.3690833 51.998347, 4.3691463 51.9982929), (4.3704901 51.9959338, 4.3701355 51.9965236, 4.3698144 51.9971105, 4.3696201 51.9974426, 4.3693153 51.9979956, 4.3692012 51.9981985, 4.3691896 51.9982193, 4.3691463 51.9982929), (4.3704901 51.9959338, 4.3704932 51.9958784, 4.3705109 51.9958464, 4.3705388 51.9958057, 4.3706041 51.9957596), (4.3726096 51.9926719, 4.3725315 51.9927861, 4.3724098 51.9929706, 4.3722585 51.9931999, 4.3720724 51.9934821, 4.3717264 51.9940066, 4.3709749 51.9952155, 4.3708575 51.9953836, 4.3707925 51.9954836, 4.3706972 51.9956217, 4.3706545 51.9956828, 4.3706041 51.9957596), (4.3728477 51.992324, 4.3726096 51.9926719), (4.3746715 51.9893205, 4.3742703 51.9898286, 4.3741563 51.9900651, 4.3738574 51.9907162, 4.3736484 51.9910996, 4.373572 51.9912286, 4.3733593 51.9915604, 4.3731773 51.9918442, 4.3730808 51.9919946, 4.3728718 51.99229, 4.3728477 51.992324), (4.3763206 51.9868255, 4.3760914 51.98718, 4.3753649 51.9883406, 4.3751959 51.988617, 4.3750737 51.9887915, 4.3750108 51.9888809, 4.3746715 51.9893205), (4.376365 51.9867568, 4.3763206 51.9868255), (4.3775557 51.9849168, 4.3774271 51.9851084, 4.3769528 51.9858155, 4.3765748 51.9864208, 4.3765528 51.9864561, 4.376365 51.9867568), (4.3832279 51.9770032, 4.3829333 51.9773932, 4.3826382 51.9777852, 4.3820276 51.9786208, 4.3815882 51.9791957, 4.3813043 51.979583, 4.3804238 51.9806564, 4.3802686 51.9808511, 4.3799083 51.9813031, 4.3798662 51.9813559, 4.3796876 51.981589, 4.379484 51.9818579, 4.3791278 51.9823857, 4.3777592 51.9845891, 4.3777077 51.984672, 4.3776317 51.9847945, 4.3775557 51.9849168), (4.3929433 51.9638726, 4.3927491 51.9641471, 4.3927124 51.9641989, 4.3926718 51.9642535, 4.392625 51.9643176, 4.3924844 51.9645281, 4.3924014 51.9646625, 4.3923058 51.9648232, 4.392224 51.9649616, 4.3921421 51.9651192, 4.3920733 51.9652393, 4.3920078 51.965339, 4.3919248 51.9654509, 4.391832 51.9655726, 4.3914694 51.9660768, 4.3909419 51.9667524, 4.3904148 51.9673795, 4.3900291 51.967864, 4.3896031 51.968386, 4.389515 51.9685276, 4.3894082 51.9686861, 4.3890376 51.9692071, 4.3889188 51.9693573, 4.3887578 51.9695584, 4.3883258 51.9700669, 4.3881744 51.970251, 4.3877952 51.9707255, 4.3874406 51.9711934, 4.3872083 51.9715069, 4.3870745 51.9716863, 4.3869389 51.9718796, 4.3868031 51.9720897, 4.3866965 51.9722546, 4.3865 51.9725, 4.3862 51.9729, 4.3853 51.974, 4.3846746 51.9748347, 4.3844289 51.9751837, 4.3842873 51.9753848, 4.3839453 51.975913, 4.3838124 51.9761321, 4.3834903 51.9766078, 4.3832279 51.9770032), (4.3929974 51.9637979, 4.3929433 51.9638726), (4.3933316 51.9633802, 4.3931868 51.9635602, 4.3929974 51.9637979), (4.3939921 51.9626577, 4.3939431 51.9627059, 4.3934087 51.9632909, 4.3933316 51.9633802), (4.3940082 51.9626404, 4.3939921 51.9626577), (4.3940242 51.9626224, 4.3940082 51.9626404), (4.3959494 51.9600892, 4.3958441 51.9602641, 4.395686 51.9604925, 4.394822 51.9617642, 4.3945283 51.9620793, 4.3942169 51.962396, 4.3940723 51.9625656, 4.3940242 51.9626224), (4.3962404 51.9597713, 4.3959494 51.9600892), (4.3965544 51.9593447, 4.396395 51.959557, 4.3962404 51.9597713), (4.3982394 51.9575199, 4.3977075 51.9580625, 4.3975532 51.9582139, 4.3974188 51.9583467, 4.3970619 51.9586668, 4.3968688 51.9588502, 4.3967525 51.9589782, 4.3967066 51.9590357, 4.3966676 51.9591224, 4.3966355 51.9591987, 4.3965938 51.9592869, 4.3965544 51.9593447), (4.3990012 51.9567999, 4.3988985 51.9568671, 4.3988374 51.9569162, 4.3987642 51.9569838, 4.3985386 51.9572175, 4.3984273 51.95733, 4.3983789 51.957379, 4.3982394 51.9575199), (4.4113844 51.9493271, 4.4106365 51.9497778, 4.4103499 51.9499545, 4.4100052 51.9501794, 4.4097646 51.9503461, 4.4095325 51.9504992, 4.4093671 51.9506055, 4.4091628 51.9507291, 4.4086374 51.9510044, 4.4082553 51.9512001, 4.4079584 51.9513607, 4.4077989 51.9514532, 4.4075815 51.951594, 4.4072905 51.951796, 4.4071688 51.9518851, 4.4070187 51.952005, 4.4067827 51.952214, 4.4062671 51.9526576, 4.4062002 51.9527122, 4.4061404 51.952761, 4.4059142 51.9529456, 4.4056709 51.953127, 4.4055576 51.9532046, 4.4053453 51.9533503, 4.4052028 51.9534418, 4.4046828 51.9537771, 4.4043345 51.9539929, 4.4041659 51.9540912, 4.4040375 51.95416, 4.4032108 51.9545977, 4.4020913 51.9551985, 4.4012869 51.9555977, 4.4009425 51.9557747, 4.4004834 51.9560038, 4.4000839 51.9562143, 4.3991468 51.9567138, 4.3990012 51.9567999), (4.412049 51.9489379, 4.411718 51.9491376, 4.4113844 51.9493271), (4.4126911 51.9485873, 4.4124573 51.9487058, 4.412049 51.9489379), (4.4129109 51.9484754, 4.4128867 51.9484881, 4.4126911 51.9485873), (4.4182844 51.944631, 4.4182481 51.9446782, 4.4181956 51.9447465, 4.4176758 51.9453674, 4.4169882 51.9461995, 4.4169613 51.946232, 4.4167571 51.9464598, 4.4164434 51.9467337, 4.4160661 51.9469998, 4.4156019 51.9472602, 4.4148686 51.9475885, 4.4142858 51.9478384, 4.4139613 51.9479789, 4.4138685 51.948019, 4.4136391 51.9481117, 4.4133735 51.94823, 4.4129109 51.9484754), (4.4200585 51.9430683, 4.4200024 51.9431256, 4.4198638 51.9432627, 4.4197727 51.9433371, 4.4197142 51.9433696, 4.4193601 51.9435633, 4.4190693 51.9437484, 4.4189 51.9439, 4.4185613 51.9442959, 4.4182844 51.944631), (4.4217616 51.9406815, 4.4217327 51.9408169, 4.4217059 51.9409123, 4.4216649 51.9410044, 4.4213664 51.9416743, 4.4212681 51.9418575, 4.4212397 51.9419099, 4.42122 51.9419404, 4.4211956 51.9419694, 4.4209707 51.9422071, 4.4207885 51.9423771, 4.4205559 51.9425769, 4.4200971 51.9430205, 4.4200585 51.9430683), (4.4217652 51.9406676, 4.4217616 51.9406815), (4.4217635 51.9406174, 4.4217652 51.9406676), (4.4217639 51.9405928, 4.4217635 51.9406174), (4.4216011 51.9399531, 4.4216204 51.9400187, 4.4217639 51.9405928), (4.4216011 51.9399531, 4.4216922 51.9399429, 4.4222656 51.9399006, 4.4223216 51.9398991, 4.4223816 51.9399037, 4.4224226 51.9399112, 4.4224916 51.9399372, 4.4225764 51.9399704, 4.4226308 51.9399901, 4.4227063 51.9400234, 4.4228481 51.9400854, 4.4229945 51.9401421, 4.4234488 51.940316, 4.4235528 51.9403406, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236089 51.9403468), (4.4236093 51.9403285, 4.4236035 51.9402878, 4.4236137 51.9402478, 4.4236637 51.9402051, 4.4237385 51.9401662), (4.4256989 51.9383147, 4.4255383 51.9384635, 4.4254454 51.9385502, 4.4254207 51.9385716, 4.4245183 51.9394243, 4.4244365 51.9395016, 4.4243383 51.9396004, 4.423911 51.9400067, 4.423875 51.940041, 4.4237385 51.9401662), (4.426373 51.9376912, 4.4258017 51.9382196, 4.4257417 51.9382751, 4.4256989 51.9383147), (4.4270683 51.9370452, 4.426373 51.9376912), (4.4270683 51.9370452, 4.427082 51.9369986, 4.4271667 51.9368991, 4.4272147 51.9368427, 4.4272501 51.9368031), (4.4272501 51.9368031, 4.4272802 51.936778), (4.4272802 51.936778, 4.4272583 51.9367515, 4.4272503 51.9367223, 4.427257 51.9366929), (4.427257 51.9366929, 4.4272706 51.9366729, 4.4272911 51.9366554, 4.4273173 51.936641, 4.4273663 51.9366265, 4.4274203 51.9366231, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4280657 51.9352344, 4.4278341 51.935815, 4.4277727 51.9359681, 4.4275644 51.9364877, 4.4275443 51.9365293, 4.4275143 51.9365734, 4.4274926 51.9366067, 4.4274731 51.9366312), (4.4281072 51.9351304, 4.4282032 51.9351429, 4.4282619 51.93515, 4.4284322 51.9351745, 4.4289546 51.9352362, 4.4291652 51.9352584, 4.4294591 51.9352941, 4.4295216 51.935298, 4.4299695 51.9353437, 4.4303063 51.9353549, 4.4304167 51.9353584, 4.4308465 51.9353842), (4.4308465 51.9353842, 4.4312794 51.9354367, 4.4315777 51.9354896, 4.4316673 51.9355106, 4.4318489 51.9355536), (4.4318489 51.9355536, 4.4326687 51.9357792, 4.432806 51.935817), (4.432806 51.935817, 4.4335304 51.9360056), (4.4335304 51.9360056, 4.4338477 51.9360938, 4.4343502 51.9362335), (4.4343502 51.9362335, 4.4345994 51.9363048, 4.4347173 51.9363353, 4.4348984 51.9363534, 4.4349629 51.9363638, 4.4351266 51.9363833, 4.435355 51.936415, 4.4354 51.9364214, 4.4356714 51.9364533, 4.43579 51.9364708, 4.4359224 51.936488, 4.4362273 51.9365278, 4.4363799 51.9365609), (4.4363799 51.9365609, 4.4365007 51.9365817, 4.4365201 51.93659, 4.4365598 51.9366094, 4.4366571 51.9366752), (4.4366571 51.9366752, 4.4367048 51.9366655, 4.4367551 51.9366656, 4.4368027 51.9366755), (4.4368027 51.9366755, 4.4369048 51.936615, 4.4369482 51.9365771, 4.4370105 51.9365338, 4.4370708 51.9364852, 4.438046 51.9355251), (4.438046 51.9355251, 4.4381221 51.9354479, 4.4382133 51.9353555), (4.4382133 51.9353555, 4.4382864 51.9352625, 4.4384223 51.9351197, 4.4388365 51.9345667, 4.4391044 51.9341261, 4.4391723 51.934013, 4.4393924 51.9336307, 4.4395438 51.933357, 4.4395594 51.9333155, 4.4395866 51.9331075, 4.4395526 51.9329658, 4.4394792 51.932825, 4.4393683 51.9326937, 4.439051 51.932455, 4.4388959 51.9322883, 4.4388663 51.9322565, 4.4388058 51.9322256, 4.4387049 51.9322029), (4.4387049 51.9322029, 4.4383391 51.9322507, 4.4380994 51.9322577, 4.4379305 51.9322328, 4.4377148 51.9321591, 4.4375373 51.9320514, 4.4374257 51.9319424, 4.4373655 51.9318549, 4.4373135 51.931756, 4.4372909 51.9316676, 4.4372956 51.9315379, 4.4373471 51.9313718), (4.4373471 51.9313718, 4.4374625 51.9312203, 4.4375532 51.9311215), (4.4375532 51.9311215, 4.4376732 51.931012), (4.4376732 51.931012, 4.4378084 51.930918, 4.4378491 51.9308934, 4.437925 51.9308589, 4.4380303 51.9308105, 4.4383839 51.9306882), (4.4383839 51.9306882, 4.4384233 51.930677, 4.4386033 51.9306426, 4.4388836 51.9306266), (4.4388836 51.9306266, 4.4390259 51.9306016, 4.4391281 51.9305836, 4.4393096 51.9305258), (4.4393096 51.9305258, 4.4403453 51.9301617), (4.4403453 51.9301617, 4.4409573 51.9299366), (4.4409573 51.9299366, 4.4411748 51.9298744, 4.4413655 51.9298059), (4.4413655 51.9298059, 4.4415222 51.9297594, 4.4417071 51.9297127), (4.4417071 51.9297127, 4.4417842 51.9296966, 4.4420381 51.9296437, 4.4421633 51.9296299, 4.442924 51.9295461, 4.4432197 51.9295176, 4.4436136 51.9294796, 4.4440253 51.9294401, 4.4443073 51.9294184, 4.4445478 51.9294001, 4.4474544 51.9290982, 4.4476899 51.9290793, 4.4479408 51.929063, 4.4482372 51.9290547, 4.4486326 51.929048, 4.4489235 51.9290776), (4.4489235 51.9290776, 4.451483 51.928758, 4.4518455 51.9287187, 4.4521984 51.9286924, 4.4525874 51.9286841, 4.453014 51.9287007, 4.4534101 51.928726, 4.4537858 51.9287652, 4.454069 51.9288139, 4.4543227 51.9288638, 4.4545912 51.9289339, 4.4546806 51.9289573, 4.4548902 51.9290061), (4.4548902 51.9290061, 4.4549257 51.9289068, 4.4549456 51.9288733, 4.4550214 51.9287058, 4.4550269 51.9286202, 4.4550345 51.9285739, 4.4550393 51.9285287), (4.4545777 51.9268006, 4.4546198 51.9269176, 4.4547638 51.9274642, 4.4549944 51.9283163, 4.4550393 51.9285287), (4.4545301 51.9265878, 4.4545777 51.9268006), (4.4543542 51.9258783, 4.4543871 51.925981, 4.4544488 51.9262046, 4.4545222 51.9265266, 4.4545301 51.9265878), (4.4543542 51.9258783, 4.4543238 51.9258223, 4.4543069 51.9257686, 4.4542986 51.9257129, 4.4543054 51.9256652, 4.4543138 51.9256372, 4.4543205 51.9256151, 4.4543513 51.9255099), (4.4543513 51.9255099, 4.4543787 51.9254161), (4.4543787 51.9254161, 4.4544031 51.9253322, 4.4544457 51.9251858, 4.4544971 51.9251254), (4.4547985 51.9240059, 4.4545738 51.9248404, 4.4544971 51.9251254), (4.4549616 51.9230629, 4.4547985 51.9240059), (4.4550899 51.9218326, 4.4551035 51.9220362, 4.4551046 51.9221035, 4.4551018 51.9221732, 4.4550948 51.9222349, 4.455076 51.9224184, 4.4550073 51.9227973, 4.4549616 51.9230629), (4.4550899 51.9218326, 4.4550388 51.9217086, 4.455006 51.9215775, 4.4549942 51.9215052, 4.4549794 51.9214656, 4.4549499 51.9213836), (4.4549499 51.9213836, 4.4548705 51.9213628, 4.4548277 51.9213389, 4.4547968 51.9213088, 4.4547799 51.9212748), (4.4547799 51.9212748, 4.454778 51.9212414, 4.4547897 51.9212059), (4.4547897 51.9212059, 4.4548174 51.9211762, 4.4548585 51.9211495, 4.45491 51.9211308), (4.45491 51.9211308, 4.4549678 51.9211216, 4.4550047 51.921122), (4.4550047 51.921122, 4.455027 51.9211225, 4.4550836 51.9211333, 4.4551333 51.9211532, 4.4551722 51.9211807, 4.4551976 51.9212137, 4.4552092 51.9212428), (4.4552092 51.9212428, 4.4553035 51.9212544, 4.4553396 51.921264, 4.4553905 51.9212679, 4.455708 51.9213039, 4.4557744 51.9213125, 4.4559055 51.921322, 4.4560815 51.9213233), (4.4560815 51.9213233, 4.4562137 51.9213262, 4.4562858 51.9213293, 4.4563319 51.9213323, 4.4563924 51.9213379, 4.4564273 51.9213438, 4.4565831 51.9213873), (4.4565831 51.9213873, 4.4566331 51.9213916, 4.4576673 51.921552, 4.4577703 51.921568, 4.458058 51.9216089, 4.4582198 51.9216332, 4.4597362 51.9218601, 4.4599094 51.921886), (4.4599094 51.921886, 4.4600325 51.9219062, 4.4604705 51.9219773, 4.4613142 51.9221156, 4.4616448 51.922171), (4.4616448 51.922171, 4.4617134 51.9221824, 4.4617725 51.9221935, 4.4619426 51.9222344, 4.4620721 51.9222699, 4.462115 51.9222847), (4.462115 51.9222847, 4.4623979 51.922397, 4.4624753 51.9224277, 4.4625906 51.9224711, 4.4626216 51.9224813), (4.4626216 51.9224813, 4.4626495 51.9224891, 4.4626953 51.9225019, 4.4627519 51.9225161, 4.4628089 51.922529, 4.4628765 51.9225423, 4.4629379 51.922553, 4.4629551 51.9225556, 4.4629684 51.9225576), (4.4629684 51.9225576, 4.4630866 51.922572, 4.463195 51.9225819, 4.4633035 51.9225908, 4.4634131 51.9225988, 4.4635027 51.922604, 4.4635669 51.9226056, 4.4636152 51.922605, 4.4637553 51.9226003, 4.4638451 51.922596, 4.4641045 51.9225796, 4.4643959 51.9225644), (4.4643959 51.9225644, 4.4653094 51.9225108, 4.4657743 51.9224844, 4.4659059 51.9224734, 4.4661004 51.9224577), (4.4661004 51.9224577, 4.4661031 51.9225636), (4.4661031 51.9225636, 4.4661108 51.9226572, 4.4661177 51.9227361, 4.4661292 51.9228669), (4.4661292 51.9228669, 4.4661341 51.9229985), (4.4661341 51.9229985, 4.4661354 51.9230326, 4.4661355 51.9230767), (4.4661355 51.9230767, 4.4661361 51.9235379), (4.4661361 51.9235379, 4.4661368 51.9236306), (4.4661368 51.9236306, 4.4661393 51.9236532, 4.4661494 51.9236689, 4.4661621 51.923681, 4.4661804 51.9236909, 4.4662085 51.9236968, 4.4662464 51.9236995, 4.4663386 51.9237001, 4.4668433 51.9236986, 4.4668877 51.9236997, 4.4669333 51.9237013, 4.4669755 51.9237047, 4.4670286 51.9237111, 4.4670843 51.92372, 4.4672355 51.9237505), (4.4672355 51.9237505, 4.4677818 51.9238613), (4.4677818 51.9238613, 4.4683738 51.9239825), (4.4683738 51.9239825, 4.4686065 51.9240269, 4.468666 51.9240325, 4.4687037 51.9240334, 4.4687411 51.9240315, 4.4687824 51.9240232, 4.4688205 51.9240096, 4.4688545 51.9239913, 4.4688795 51.9239729, 4.4688993 51.9239506, 4.4689113 51.9239344, 4.4689282 51.9239118, 4.4689367 51.9238871, 4.4689371 51.9238673, 4.468931 51.9238482, 4.4689213 51.9238319, 4.4689063 51.9238217, 4.4688862 51.9238124, 4.4688682 51.9238066, 4.4684164 51.9237139))</t>
+          <t>MULTILINESTRING ((4.4887534 51.8588861, 4.4886696 51.8593906, 4.4886559 51.8596416, 4.4886546 51.8597323), (4.4887534 51.8588861, 4.4887592 51.8586195, 4.488781 51.8584969, 4.4888079 51.8583888, 4.4888906 51.8581433), (4.4887417 51.8571667, 4.4888338 51.8575254, 4.4889 51.8579, 4.4888906 51.8581433), (4.4887417 51.8571667, 4.4886253 51.857035, 4.4885543 51.856867, 4.4884998 51.8567416, 4.4883847 51.856422), (4.4882105 51.8561357, 4.4883847 51.856422), (4.4882105 51.8561357, 4.4879229 51.8558932, 4.4878632 51.8558288, 4.4878076 51.8557687, 4.4877443 51.8557004, 4.4875973 51.8554734), (4.4867534 51.8546573, 4.4874146 51.8552951, 4.4875973 51.8554734), (4.4867534 51.8546573, 4.4864986 51.8544909, 4.4863934 51.8543881, 4.486288 51.8542804, 4.4861651 51.8540832), (4.4856819 51.8535981, 4.4861651 51.8540832), (4.4856064 51.8535227, 4.4856819 51.8535981), (4.4852423 51.8531632, 4.485256 51.8531765, 4.485514 51.8534279, 4.4856064 51.8535227), (4.4852423 51.8531632, 4.4851723 51.8531797, 4.4850974 51.8531787, 4.4850287 51.8531603, 4.4849763 51.8531272, 4.4849479 51.8530844), (4.4849479 51.8530844, 4.4849478 51.8530381, 4.484976 51.8529951, 4.4850284 51.852962, 4.4850972 51.8529435, 4.4851723 51.8529424, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4897243 51.8513197, 4.489866 51.8513095, 4.4899069 51.8513065, 4.4899388 51.8513029, 4.4899701 51.8512983, 4.4899944 51.8512938, 4.4900343 51.8512851, 4.4900619 51.8512787, 4.4900998 51.851268, 4.4901995 51.8512324, 4.4902957 51.8511942, 4.4904588 51.8511261, 4.4905014 51.8511099, 4.4905567 51.8510898, 4.4905955 51.8510755, 4.4906369 51.8510644, 4.4909165 51.8510154), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4919243 51.8506091, 4.4921994 51.8504556, 4.4923991 51.8503541, 4.4925084 51.850299, 4.4925566 51.8502745, 4.4925916 51.8502556, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4970461 51.8487123, 4.4972441 51.8486291, 4.4972842 51.8486168, 4.4973376 51.8486054, 4.4973792 51.8485974, 4.4975215 51.8485668, 4.497848 51.8484988, 4.4979464 51.8484809, 4.4979805 51.8484743, 4.498023 51.8484685, 4.4980732 51.8484619, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4992205 51.8482555, 4.4994995 51.8481354, 4.4997151 51.8480292, 4.4999322 51.8478913), (4.4999322 51.8478913, 4.5000134 51.847828, 4.5000345 51.8478115, 4.5001142 51.8477494), (4.5001142 51.8477494, 4.5002513 51.847627, 4.5004034 51.847461, 4.5005066 51.8472903, 4.500547 51.8471197, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005798 51.8466531, 4.5005137 51.8465004, 4.5005059 51.8464439, 4.5004991 51.8463644, 4.5004817 51.8461678, 4.5004716 51.8460832, 4.5004681 51.8460263, 4.5005065 51.8458942), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5004432 51.8452783, 4.5004072 51.8452074, 4.5003706 51.8449916, 4.5003559 51.8448126, 4.5003416 51.8446572, 4.5003164 51.8445903), (4.5003164 51.8445903, 4.5002659 51.8445787, 4.5002296 51.8445594, 4.5002017 51.8445353, 4.5001839 51.8445078, 4.500177 51.8444785, 4.5001816 51.844449, 4.5002048 51.8444125, 4.5002451 51.8443823, 4.5002988 51.8443613, 4.5003603 51.8443517, 4.5004236 51.8443544, 4.5004824 51.8443691, 4.5005292 51.8443964), (4.5005292 51.8443964, 4.500795 51.844334, 4.5008577 51.8443193, 4.5009906 51.8442881, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.507654 51.8442933, 4.5078395 51.8443642, 4.5078749 51.8443775, 4.5079132 51.8443942, 4.5079503 51.8444108, 4.5079838 51.8444263), (4.5079838 51.8444263, 4.5080354 51.8444708, 4.5080661 51.8444874, 4.508105 51.8445051, 4.5081487 51.8445238, 4.5081929 51.8445408, 4.5082326 51.8445501, 4.5082689 51.8445535, 4.5083157 51.8445548, 4.5083736 51.8445485), (4.5083736 51.8445485, 4.5084106 51.8445366, 4.508464 51.8445246, 4.5085245 51.8445137, 4.5086485 51.8445046, 4.5087727 51.8445128, 4.5088907 51.8445381, 4.5089965 51.8445791), (4.5089965 51.8445791, 4.5090929 51.8446403, 4.5091616 51.8447144), (4.5091616 51.8447144, 4.5091938 51.8447798, 4.5092042 51.8448479, 4.5091931 51.8449142, 4.5091613 51.8449778, 4.50911 51.8450365, 4.5090412 51.8450879), (4.5090412 51.8450879, 4.5089638 51.8451275, 4.5088759 51.8451578, 4.5087806 51.8451778, 4.5086811 51.8451867, 4.5085806 51.8451843, 4.5084824 51.8451707), (4.5084824 51.8451707, 4.5083178 51.8452592, 4.5081458 51.8454758, 4.5080705 51.8457061, 4.5080232 51.8459593, 4.5080166 51.8464374, 4.5081628 51.84798, 4.5081725 51.8480556, 4.5081835 51.8481407), (4.5081835 51.8481407, 4.5081858 51.848222), (4.5081858 51.848222, 4.5082793 51.8490484), (4.5082793 51.8490484, 4.508311 51.8491951), (4.508311 51.8491951, 4.5083977 51.8492137, 4.508472 51.8492471, 4.5085273 51.8492923, 4.508559 51.8493456), (4.508559 51.8493456, 4.508893 51.8493363, 4.5092886 51.8493275, 4.5104665 51.8492843, 4.510514 51.8492785, 4.5106106 51.8492606), (4.5106106 51.8492606, 4.5106349 51.8492273, 4.5106737 51.8491997, 4.5107237 51.8491801, 4.5107807 51.8491703, 4.5108471 51.8491718, 4.5109092 51.8491865, 4.5109603 51.8492127, 4.510995 51.8492477, 4.5110096 51.8492878, 4.5110025 51.8493286, 4.5109746 51.8493658, 4.5109287 51.8493955, 4.5108698 51.8494145), (4.5108698 51.8494145, 4.5108469 51.8495242, 4.5108288 51.8496058, 4.5108037 51.8497195), (4.5108037 51.8497195, 4.5108608 51.8500963, 4.510907 51.8503893, 4.5109959 51.8510178, 4.5110186 51.8511692, 4.511093 51.8516605), (4.511093 51.8516605, 4.5111054 51.851765), (4.5111054 51.851765, 4.5111736 51.8522229, 4.5112636 51.8528834, 4.5113491 51.853478), (4.5113491 51.853478, 4.5114501 51.8536126, 4.5114645 51.8536318, 4.5114904 51.853673, 4.5115414 51.8537285, 4.5115578 51.8537463), (4.5115578 51.8537463, 4.5116277 51.8537504, 4.5116912 51.853769, 4.5117396 51.8537993, 4.5117678 51.853849), (4.5117678 51.853849, 4.5118645 51.8538747, 4.5119002 51.8538842, 4.5119652 51.8538946, 4.5121249 51.8539113, 4.5123085 51.8539357), (4.5150815 51.8538817, 4.5146495 51.8538835, 4.5145846 51.8538877, 4.5144052 51.8539048, 4.5143165 51.8539126, 4.5142246 51.8539164, 4.5137986 51.8539208, 4.5132155 51.8539268, 4.5130327 51.8539287, 4.512759 51.8539312, 4.512581 51.853933, 4.5123085 51.8539357), (4.5150815 51.8538817, 4.5159002 51.853878), (4.5159002 51.853878, 4.5165713 51.8538698), (4.5165713 51.8538698, 4.5175637 51.8538579), (4.5175637 51.8538579, 4.5177295 51.8538318, 4.5179406 51.8538109), (4.5179406 51.8538109, 4.5179792 51.8537748, 4.5180368 51.8537501), (4.5180368 51.8537501, 4.5180945 51.8537407, 4.518154 51.8537432), (4.518154 51.8537432, 4.518209 51.8537571, 4.518254 51.8537811, 4.5182845 51.8538126), (4.5182845 51.8538126, 4.5184005 51.8538284, 4.5184256 51.8538318, 4.5185124 51.8538384, 4.5186495 51.8538628), (4.5186495 51.8538628, 4.5188101 51.8538626, 4.5199056 51.853822), (4.5199056 51.853822, 4.5203944 51.8538057, 4.5208333 51.853795), (4.5208333 51.853795, 4.5210069 51.853801, 4.5210388 51.8538064, 4.5211322 51.8538213, 4.521172 51.8538278), (4.521172 51.8538278, 4.5212129 51.8538041, 4.5212631 51.8537887, 4.5213184 51.8537828, 4.5213741 51.8537871, 4.5214254 51.8538012), (4.5214254 51.8538012, 4.5215105 51.8537541, 4.5215243 51.8537465, 4.5216805 51.8536916), (4.5242631 51.8521614, 4.524212 51.8522168, 4.524177 51.8522472, 4.5235753 51.852598, 4.5226685 51.8531211, 4.5221223 51.853441, 4.5217806 51.8536331, 4.5216805 51.8536916), (4.5243148 51.8521286, 4.5242631 51.8521614), (4.5244948 51.8520196, 4.5243768 51.8520922, 4.5243148 51.8521286), (4.5245251 51.8519832, 4.5244948 51.8520196), (4.5259202 51.8511551, 4.5254164 51.8514542, 4.5245251 51.8519832), (4.5267576 51.8511313, 4.5259202 51.8511551), (4.5268577 51.8511275, 4.5267576 51.8511313), (4.5274816 51.8511047, 4.5273995 51.8511087, 4.5269847 51.8511227, 4.5268577 51.8511275), (4.5276214 51.8511042, 4.5275445 51.8511051, 4.5274816 51.8511047), (4.5288899 51.8511058, 4.528686 51.8511058, 4.5277906 51.8511221, 4.5276214 51.8511042), (4.5288899 51.8511058, 4.5289016 51.8513171, 4.5289691 51.8513988, 4.5290754 51.8514285, 4.5298309 51.851419, 4.5301549 51.8514123, 4.530311 51.8514618, 4.5303529 51.8515335, 4.5303736 51.851678, 4.5304215 51.8517461, 4.5305377 51.851791, 4.5312148 51.8517825, 4.5313696 51.8517802), (4.5313696 51.8517802, 4.5315595 51.851781, 4.532105 51.851782, 4.5322046 51.85178), (4.5338181 51.851368, 4.5331995 51.8515558, 4.5326059 51.8517167, 4.5324071 51.8517706, 4.5322046 51.85178), (4.5338925 51.8499699, 4.5338935 51.8500917, 4.533903 51.8507024, 4.5339033 51.8509132, 4.5338987 51.8511789, 4.5339 51.8513, 4.5338181 51.851368), (4.5338925 51.8499699, 4.5341437 51.8499565, 4.5356758 51.8499445), (4.5356758 51.8499445, 4.5358866 51.8499212, 4.5360047 51.8499161, 4.5360991 51.8499123, 4.5361349 51.8499108), (4.5361349 51.8499108, 4.5361612 51.8498813, 4.5361998 51.8498575, 4.5362477 51.8498414), (4.5362477 51.8498414, 4.5363099 51.849834, 4.5363725 51.8498395), (4.5363725 51.8498395, 4.5364398 51.8498626, 4.536487 51.8499003, 4.5365064 51.8499463, 4.536495 51.8499934, 4.5364545 51.8500339, 4.5363916 51.8500613), (4.5363916 51.8500613, 4.5363728 51.850127, 4.536365 51.8501498, 4.5362852 51.8504404), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.536325 51.8524724, 4.5363937 51.8526698, 4.5364036 51.8527315, 4.5364231 51.8527931, 4.5364291 51.8528119), (4.5364291 51.8528119, 4.5364775 51.8528244, 4.5365187 51.8528445, 4.5365497 51.8528706), (4.5365497 51.8528706, 4.5365717 51.8529127, 4.5365675 51.8529569), (4.5365675 51.8529569, 4.5365412 51.852994, 4.5364964 51.8530236, 4.5364383 51.8530423), (4.5364383 51.8530423, 4.5364167 51.8531075, 4.5364087 51.8531318, 4.5363218 51.8534282), (4.5363218 51.8534282, 4.5362566 51.8538984, 4.5362493 51.8543713, 4.5362489 51.8547879, 4.5362326 51.8556728), (4.5362326 51.8556728, 4.5362636 51.8557888, 4.5362599 51.8564252), (4.5362599 51.8564252, 4.5362599 51.8565444, 4.5362729 51.8566129, 4.5362769 51.8567288), (4.5362769 51.8567288, 4.5364676 51.8567186, 4.5370489 51.8567172, 4.5372261 51.8567319), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5399866 51.8557707, 4.5401249 51.8556473), (4.5401249 51.8556473, 4.5401548 51.8556288, 4.5402927 51.8555419, 4.5403048 51.8555343, 4.5404479 51.8554431, 4.5404822 51.855421, 4.5405328 51.855388, 4.5407372 51.8552967), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.5472358 51.8521552, 4.5471428 51.8522429, 4.5469869 51.852301, 4.5461557 51.8526461, 4.5445974 51.8533239, 4.5440281 51.8535651, 4.5438464 51.8536433, 4.543031 51.8539753, 4.5424539 51.8542392, 4.5423018 51.8543125), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5486849 51.8522221, 4.5487987 51.8522093, 4.5488635 51.8522167, 4.5490941 51.8522428, 4.5493137 51.8522676, 4.5494177 51.8523009), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5519422 51.8525328, 4.5521179 51.8525618, 4.5523302 51.8526119, 4.552533 51.8526696, 4.5533174 51.8529705), (4.5533174 51.8529705, 4.5535743 51.8530623, 4.5536128 51.8530921, 4.5536247 51.853115), (4.5536247 51.853115, 4.5536248 51.8531441, 4.5536057 51.853175, 4.5533553 51.8534009), (4.5533553 51.8534009, 4.5531322 51.8536107, 4.5522968 51.8543932), (4.5522968 51.8543932, 4.5521568 51.8545351), (4.5521568 51.8545351, 4.5519122 51.85453), (4.5519122 51.85453, 4.5518042 51.8545278), (4.5518042 51.8545278, 4.5517061 51.8545257), (4.5517061 51.8545257, 4.5516354 51.8546157, 4.5516312 51.8547407))</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6306201</t>
+          <t>10190410</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein Hoog</t>
+          <t>Barendrecht, Vrijheidsakker</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bus 82: Rotterdam Zuidplein =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 603: Barendrecht Station =&gt; Barendrecht Carnisselande</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>603</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3055,14 +3055,14 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4873263 51.8845991, 4.4872536 51.8845987, 4.4871761 51.884598, 4.4871505 51.8845978, 4.4867899 51.8845867), (4.4867899 51.8845867, 4.4863905 51.8845475, 4.4859069 51.8844752), (4.4859069 51.8844752, 4.4853363 51.884362), (4.4853363 51.884362, 4.4848723 51.8842411, 4.4839 51.8839), (4.4839 51.8839, 4.4833122 51.8836707, 4.48276 51.8833881, 4.4827323 51.883374, 4.4825641 51.8832771, 4.4823797 51.8831615, 4.4822781 51.8830971, 4.4816778 51.882703, 4.4811815 51.8823057, 4.4807846 51.881905, 4.4803608 51.8814249, 4.4801569 51.8811136, 4.480039 51.880947, 4.4799165 51.8807258, 4.4798642 51.8806212), (4.4798642 51.8806212, 4.4797043 51.8802723), (4.4797043 51.8802723, 4.4796165 51.8800809), (4.4796165 51.8800809, 4.4794938 51.8797568, 4.4794713 51.8797034, 4.4794092 51.8795368, 4.4791404 51.8786068, 4.479043 51.8782072, 4.4789946 51.8780579, 4.4788839 51.8778542, 4.478808 51.8777145, 4.4787648 51.8776073, 4.4787094 51.877436, 4.4786745 51.8773283, 4.4786662 51.8772543, 4.4786578 51.8772098, 4.4785349 51.876495, 4.4782532 51.8753356), (4.4782532 51.8753356, 4.47814 51.8748601, 4.4780762 51.8746273), (4.4780762 51.8746273, 4.4779736 51.8742217, 4.4779442 51.8741057, 4.4779328 51.8740632, 4.4779207 51.8740177), (4.4779207 51.8740177, 4.4779083 51.8739124), (4.4779083 51.8739124, 4.477892 51.8738233), (4.477892 51.8738233, 4.4778583 51.8736846, 4.4773956 51.8716034, 4.4773731 51.8715251), (4.4773731 51.8715251, 4.4773167 51.8715123, 4.4772689 51.8714898, 4.4772337 51.8714597, 4.4772142 51.8714246, 4.4772129 51.8713843, 4.4772322 51.8713457, 4.4772703 51.871313, 4.4773232 51.8712893), (4.4773232 51.8712893, 4.4772998 51.871209, 4.4768061 51.8690926, 4.4765546 51.868247, 4.4764177 51.8677994, 4.4764086 51.8677656, 4.4763693 51.8676743), (4.4763693 51.8676743, 4.4762952 51.867659, 4.4762362 51.8676275, 4.4762011 51.8675844, 4.4761954 51.8675363, 4.4762199 51.8674905, 4.4762708 51.867454), (4.4762708 51.867454, 4.4762724 51.8673804, 4.4760339 51.8667754, 4.4752828 51.865055, 4.4751265 51.8647011), (4.4751265 51.8647011, 4.4750728 51.8645796), (4.4750728 51.8645796, 4.4748794 51.8641417, 4.4748324 51.864032, 4.4748172 51.8639916, 4.4747789 51.8639089), (4.4747789 51.8639089, 4.4747146 51.8638955, 4.4746596 51.863871), (4.4746596 51.863871, 4.4746027 51.863815, 4.4745936 51.8637491), (4.4745936 51.8637491, 4.474608 51.8637172, 4.4746341 51.8636882, 4.4746704 51.8636638), (4.4746704 51.8636638, 4.4746475 51.8635968, 4.474327 51.8629049, 4.4742318 51.8626459), (4.4742318 51.8626459, 4.4739064 51.861581), (4.4739064 51.861581, 4.4736285 51.8606326), (4.4736285 51.8606326, 4.4735954 51.8605385), (4.4735954 51.8605385, 4.4735847 51.8604812), (4.4735847 51.8604812, 4.4735195 51.8604638, 4.4734664 51.8604346, 4.4734306 51.8603967), (4.4734306 51.8603967, 4.4734171 51.860363, 4.4734175 51.8603283, 4.4734322 51.8602912), (4.4734322 51.8602912, 4.473468 51.8602573, 4.4735213 51.8602287, 4.4735863 51.8602117, 4.4736567 51.8602079, 4.4737255 51.8602178, 4.4737859 51.8602404, 4.473832 51.8602734, 4.4738593 51.8603137), (4.4738593 51.8603137, 4.4739564 51.8603277, 4.473999 51.8603327, 4.4755634 51.8604454, 4.4771957 51.860561, 4.4791643 51.860862, 4.4805469 51.8610346), (4.4805469 51.8610346, 4.4808621 51.8610594, 4.4811983 51.861084, 4.4817793 51.861123, 4.4818076 51.8611249), (4.4818076 51.8611249, 4.481835 51.8610876, 4.4819044 51.8610365, 4.4819547 51.8610149, 4.4820514 51.8609929, 4.4821488 51.8609906, 4.4822428 51.8610063, 4.4823249 51.8610387, 4.4823875 51.8610847, 4.482425 51.8611403), (4.482425 51.8611403, 4.4825338 51.8611642, 4.4827624 51.8611997, 4.4830192 51.8612421, 4.4832559 51.8612971, 4.4834652 51.8613709, 4.4841271 51.8616139, 4.4843026 51.8616615, 4.484715 51.8617701, 4.4851062 51.8618394, 4.4864783 51.8620206, 4.4888825 51.8623286, 4.4889256 51.8623341), (4.4889256 51.8623341, 4.4889739 51.8622921, 4.4890385 51.8622595, 4.4891365 51.862233), (4.4891365 51.862233, 4.4891644 51.8621519, 4.489172 51.86213, 4.4891408 51.861824, 4.4890925 51.8615665, 4.4890603 51.861453), (4.4890603 51.861453, 4.4890171 51.861332, 4.4889271 51.8610703), (4.4887379 51.8605346, 4.4887797 51.860685, 4.4889271 51.8610703), (4.4887379 51.8605346, 4.4886336 51.8602789, 4.488626 51.8601516, 4.4886187 51.86003, 4.4886546 51.8597323), (4.4887534 51.8588861, 4.4886696 51.8593906, 4.4886559 51.8596416, 4.4886546 51.8597323), (4.4887534 51.8588861, 4.4887592 51.8586195, 4.488781 51.8584969, 4.4888079 51.8583888, 4.4888906 51.8581433), (4.4887417 51.8571667, 4.4888338 51.8575254, 4.4889 51.8579, 4.4888906 51.8581433), (4.4887417 51.8571667, 4.4886253 51.857035, 4.4885543 51.856867, 4.4884998 51.8567416, 4.4883847 51.856422), (4.4882105 51.8561357, 4.4883847 51.856422), (4.4882105 51.8561357, 4.4879229 51.8558932, 4.4878632 51.8558288, 4.4878076 51.8557687, 4.4877443 51.8557004, 4.4875973 51.8554734), (4.4867534 51.8546573, 4.4874146 51.8552951, 4.4875973 51.8554734), (4.4867534 51.8546573, 4.4864986 51.8544909, 4.4863934 51.8543881, 4.486288 51.8542804, 4.4861651 51.8540832), (4.4856819 51.8535981, 4.4861651 51.8540832), (4.4856064 51.8535227, 4.4856819 51.8535981), (4.4852423 51.8531632, 4.485256 51.8531765, 4.485514 51.8534279, 4.4856064 51.8535227), (4.4852423 51.8531632, 4.4851723 51.8531797, 4.4850974 51.8531787, 4.4850287 51.8531603, 4.4849763 51.8531272, 4.4849479 51.8530844), (4.4849479 51.8530844, 4.4849147 51.8530911, 4.4848557 51.8531031, 4.4844677 51.8531759, 4.4843929 51.853189, 4.4843195 51.8532037, 4.4841711 51.8532374, 4.4840583 51.8532677, 4.4839475 51.8532991), (4.4839475 51.8532991, 4.4837575 51.8533656, 4.4836535 51.8534046), (4.4836535 51.8534046, 4.4835303 51.8534512, 4.4834831 51.8534678, 4.4833223 51.8535285), (4.4833223 51.8535285, 4.4825138 51.8538333, 4.482476 51.8538477, 4.4823654 51.8538907), (4.4823654 51.8538907, 4.4822552 51.8539311, 4.4809225 51.8544294, 4.4801012 51.8547416, 4.4799806 51.8547832, 4.4798461 51.8548287, 4.4794594 51.8549578, 4.4793235 51.8550056, 4.479082 51.8550917, 4.4788319 51.8551905, 4.4786684 51.8552513, 4.4786211 51.8552708, 4.4783731 51.8553856, 4.4761881 51.8562234, 4.476032 51.8562767, 4.4759476 51.8563133, 4.4759029 51.8563314, 4.4751561 51.856611, 4.4749127 51.8567136, 4.4747058 51.8568228), (4.4747058 51.8568228, 4.4746737 51.8568444, 4.4746272 51.8568758, 4.4745575 51.8569288), (4.4745575 51.8569288, 4.474605 51.8569655, 4.4746271 51.8570102, 4.4746207 51.8570578, 4.4745796 51.857105, 4.4745011 51.8571397, 4.474458 51.8571471, 4.4743645 51.8571427, 4.4742753 51.857107), (4.4742753 51.857107, 4.4742001 51.8571602, 4.4741769 51.8571801, 4.4736358 51.8576423, 4.4733482 51.8578842, 4.4733043 51.8579207, 4.4732413 51.8579704, 4.4731955 51.8580099, 4.4730158 51.8581543, 4.4729404 51.8582148, 4.4729042 51.8582455, 4.4728679 51.8582761, 4.4723802 51.8586888, 4.4723501 51.8587164, 4.4722887 51.8587726), (4.4722887 51.8587726, 4.472231 51.858827, 4.4721122 51.8589641, 4.4720139 51.8590837, 4.4719749 51.8591347, 4.4719277 51.8592181, 4.4719016 51.8592698, 4.4718778 51.8593286, 4.471857 51.8593766, 4.4718294 51.859458, 4.4718043 51.8595483, 4.4717935 51.8595925, 4.4717713 51.8596667, 4.4717649 51.8597575, 4.471765 51.859785), (4.471765 51.859785, 4.4717757 51.8598451, 4.4718127 51.860047, 4.4718124 51.8600709, 4.4718145 51.8601245, 4.4718159 51.8601616), (4.4718159 51.8601616, 4.4718724 51.8601823, 4.4719167 51.8602123, 4.4719451 51.8602489), (4.4719451 51.8602489, 4.4720414 51.8602614, 4.4720863 51.8602646, 4.4721582 51.8602672, 4.4733019 51.8603012, 4.4733791 51.8602965, 4.4734322 51.8602912), (4.4734322 51.8602912, 4.473468 51.8602573, 4.4735213 51.8602287, 4.4735863 51.8602117, 4.4736567 51.8602079, 4.4737255 51.8602178, 4.4737859 51.8602404, 4.473832 51.8602734, 4.4738593 51.8603137), (4.4738593 51.8603137, 4.4738657 51.8603444, 4.4738609 51.8603752, 4.4738451 51.8604047, 4.4738245 51.8604268, 4.4737977 51.8604461, 4.4737657 51.8604622), (4.4737657 51.8604622, 4.4737904 51.8605398), (4.4737904 51.8605398, 4.4738155 51.8606328), (4.4738155 51.8606328, 4.4741014 51.8615911), (4.4741014 51.8615911, 4.4744428 51.8626655), (4.4744428 51.8626655, 4.4744963 51.8628223, 4.4748308 51.8635667, 4.4748561 51.8636318), (4.4748561 51.8636318, 4.4749261 51.8636466, 4.4749847 51.8636744, 4.4750142 51.8637016, 4.4750259 51.8637124, 4.4750451 51.8637565, 4.4750436 51.8637715, 4.4750404 51.863802, 4.4750123 51.8638443, 4.4749638 51.8638787), (4.4749638 51.8638787, 4.4750017 51.8639658, 4.4750144 51.8640032, 4.4750704 51.8641367, 4.475233 51.8645218), (4.475233 51.8645218, 4.4752933 51.8646646), (4.4752933 51.8646646, 4.4754627 51.8650657, 4.4762919 51.8671223, 4.4763968 51.8673627, 4.4764328 51.8674299), (4.4764328 51.8674299, 4.4764907 51.8674428, 4.4765395 51.867466, 4.4765746 51.8674972, 4.4765919 51.8675299, 4.4765938 51.8675642, 4.4765754 51.8676047, 4.4765361 51.8676391), (4.4765361 51.8676391, 4.4765326 51.8677499, 4.4765384 51.8677815, 4.4766888 51.8682452, 4.4769296 51.8690926, 4.4774198 51.8711971, 4.4774442 51.8712772), (4.4774442 51.8712772, 4.4775273 51.8712967, 4.477589 51.8713362, 4.4776177 51.8713881, 4.4776083 51.8714419, 4.4775631 51.8714884, 4.4774906 51.8715188), (4.4774906 51.8715188, 4.4775154 51.8715932, 4.4778 51.8727, 4.4779931 51.873565, 4.478021 51.8736674, 4.4780496 51.873791), (4.4780496 51.873791, 4.4780725 51.8738948), (4.4780725 51.8738948, 4.4780894 51.8740005, 4.4781013 51.8740452, 4.478188 51.8743719), (4.478188 51.8743719, 4.4784205 51.8753219, 4.4786571 51.876276, 4.4787741 51.8765636, 4.4789865 51.8770829, 4.4790246 51.8771759, 4.4790442 51.8772178, 4.4790811 51.8772946, 4.4791517 51.8774686, 4.4791584 51.8775578, 4.4791721 51.8776774, 4.4791839 51.878023, 4.4796111 51.8793456, 4.4797265 51.8796611, 4.4797496 51.8797123, 4.4798979 51.8800296), (4.4798979 51.8800296, 4.4799841 51.8802067), (4.4799841 51.8802067, 4.4801568 51.8805237, 4.480374 51.8808668, 4.480595 51.8811393, 4.481 51.8816, 4.4811601 51.8817841, 4.481482 51.8821136, 4.4819674 51.8825209, 4.4822297 51.8827039, 4.4824799 51.8828854, 4.4825497 51.882935, 4.4828272 51.8831095, 4.4829264 51.883169, 4.4830244 51.8832203, 4.483165 51.8832898, 4.4833594 51.8833786, 4.4837121 51.8835314, 4.484081 51.883689, 4.4844377 51.8838266, 4.4845635 51.8838724, 4.4846628 51.8839065, 4.484758 51.8839382, 4.4850289 51.8840277, 4.4852139 51.8840838, 4.4853893 51.8841355, 4.4857373 51.8842319), (4.4857373 51.8842319, 4.4859144 51.8843152, 4.4860979 51.8843678, 4.4864494 51.8844271, 4.4868554 51.8844628, 4.4870873 51.8844808, 4.4871902 51.8844855, 4.4872157 51.8844866, 4.4872879 51.8844899), (4.4872879 51.8844899, 4.4873659 51.8844913, 4.4874047 51.8844997, 4.4874953 51.884523, 4.4875509 51.8845603, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.5516312 51.8547407, 4.5516229 51.8548868), (4.5516229 51.8548868, 4.5514998 51.8549187), (4.5514998 51.8549187, 4.5511668 51.8549131), (4.5513873 51.8542902, 4.5513471 51.8544039, 4.5511859 51.8548593, 4.5511668 51.8549131), (4.5519422 51.8525328, 4.5517713 51.8530495, 4.5517 51.8533, 4.5515239 51.8538194, 4.5513873 51.8542902), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5494177 51.8523009, 4.5493128 51.8523101, 4.5490803 51.8522859, 4.5488502 51.8522619, 4.5487817 51.8522548, 4.5486849 51.8522221), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5472358 51.8521552, 4.5471428 51.8522429, 4.5469869 51.852301, 4.5461557 51.8526461, 4.5445974 51.8533239, 4.5440281 51.8535651, 4.5438464 51.8536433, 4.543031 51.8539753, 4.5424539 51.8542392, 4.5423018 51.8543125), (4.5423018 51.8543125, 4.5421675 51.8543873, 4.5421296 51.8544104, 4.5416097 51.8547145, 4.5409204 51.8551793, 4.5407372 51.8552967), (4.5407372 51.8552967, 4.5405935 51.8554282, 4.5405462 51.855458, 4.540513 51.8554819, 4.5403666 51.8555742, 4.5402179 51.8556677, 4.540188 51.8556849), (4.540188 51.8556849, 4.5399866 51.8557707), (4.5399866 51.8557707, 4.5399188 51.8558135, 4.539721 51.8559394, 4.5396819 51.8559644), (4.5396819 51.8559644, 4.5390611 51.8563596, 4.538986 51.8563885, 4.5389457 51.8564041, 4.5388108 51.8564338, 4.5386335 51.8564827, 4.5385213 51.8565287, 4.5384383 51.8565768, 4.5383331 51.8566288, 4.5382757 51.8566525, 4.5381966 51.8566792, 4.5381326 51.8566956, 4.5380288 51.8567147, 4.5379034 51.8567216, 4.5377676 51.8567251, 4.5375052 51.8567293, 4.5373469 51.8567287, 4.5372261 51.8567319), (4.5372261 51.8567319, 4.5370627 51.8567723, 4.5369727 51.8567813, 4.5365812 51.8567813, 4.536467 51.8567817, 4.536276 51.8567869), (4.536276 51.8567869, 4.5361744 51.8567876), (4.5361744 51.8567876, 4.5361758 51.856731), (4.5361758 51.856731, 4.5361816 51.856612, 4.5361961 51.856147, 4.5361954 51.8557848, 4.5362326 51.8556728), (4.5363218 51.8534282, 4.5362566 51.8538984, 4.5362493 51.8543713, 4.5362489 51.8547879, 4.5362326 51.8556728), (4.5363218 51.8534282, 4.5362944 51.8531848, 4.5362951 51.8531256, 4.5363016 51.8530699, 4.5363001 51.8530377), (4.5363001 51.8530377, 4.5362427 51.8530136, 4.5362027 51.8529786, 4.5361849 51.8529355, 4.5361903 51.8528989, 4.5362147 51.8528636, 4.536256 51.8528349, 4.5363098 51.8528157), (4.5363098 51.8528157, 4.5363004 51.8527594, 4.5362966 51.8527367, 4.5362914 51.8526419, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362493 51.8502139, 4.5362533 51.850148, 4.5362579 51.8500909, 4.5362583 51.850066), (4.5362583 51.850066, 4.5362045 51.8500497, 4.5361613 51.850024, 4.5361331 51.8499914), (4.5361331 51.8499914, 4.5360357 51.8499843, 4.5360006 51.8499822, 4.5356758 51.8499445), (4.5338925 51.8499699, 4.5341437 51.8499565, 4.5356758 51.8499445), (4.5338925 51.8499699, 4.5338935 51.8500917, 4.533903 51.8507024, 4.5339033 51.8509132, 4.5338987 51.8511789, 4.5339 51.8513, 4.5338181 51.851368), (4.5338181 51.851368, 4.5331995 51.8515558, 4.5326059 51.8517167, 4.5324071 51.8517706, 4.5322046 51.85178), (4.5313696 51.8517802, 4.5315595 51.851781, 4.532105 51.851782, 4.5322046 51.85178), (4.5288899 51.8511058, 4.5289016 51.8513171, 4.5289691 51.8513988, 4.5290754 51.8514285, 4.5298309 51.851419, 4.5301549 51.8514123, 4.530311 51.8514618, 4.5303529 51.8515335, 4.5303736 51.851678, 4.5304215 51.8517461, 4.5305377 51.851791, 4.5312148 51.8517825, 4.5313696 51.8517802), (4.5288899 51.8511058, 4.528686 51.8511058, 4.5277906 51.8511221, 4.5276214 51.8511042), (4.5276214 51.8511042, 4.5275445 51.8511051, 4.5274816 51.8511047), (4.5274816 51.8511047, 4.5273995 51.8511087, 4.5269847 51.8511227, 4.5268577 51.8511275), (4.5268577 51.8511275, 4.5267576 51.8511313), (4.5267576 51.8511313, 4.5259202 51.8511551), (4.5259202 51.8511551, 4.5254164 51.8514542, 4.5245251 51.8519832), (4.5245251 51.8519832, 4.5244948 51.8520196), (4.5244948 51.8520196, 4.5243768 51.8520922, 4.5243148 51.8521286), (4.5243148 51.8521286, 4.5242631 51.8521614), (4.5242631 51.8521614, 4.524212 51.8522168, 4.524177 51.8522472, 4.5235753 51.852598, 4.5226685 51.8531211, 4.5221223 51.853441, 4.5217806 51.8536331, 4.5216805 51.8536916), (4.5216805 51.8536916, 4.5215962 51.8537775, 4.5215797 51.8537902), (4.5215797 51.8537902, 4.5215189 51.8538279, 4.5214922 51.8538455), (4.5214922 51.8538455, 4.5215123 51.8538816, 4.5215128 51.8539197, 4.5214937 51.853956, 4.521457 51.8539867), (4.521457 51.8539867, 4.5214101 51.8540075, 4.5213553 51.8540187), (4.5213553 51.8540187, 4.5212963 51.8540193, 4.5212397 51.8540088, 4.521191 51.8539882, 4.5211547 51.8539595, 4.5211342 51.8539253, 4.5211314 51.8538889), (4.5211314 51.8538889, 4.5210209 51.8538555, 4.5209949 51.8538478, 4.5208333 51.853795), (4.5199056 51.853822, 4.5203944 51.8538057, 4.5208333 51.853795), (4.5186495 51.8538628, 4.5188101 51.8538626, 4.5199056 51.853822), (4.5186495 51.8538628, 4.5185103 51.8538817, 4.5184614 51.8538832, 4.5184247 51.8538843, 4.518329 51.853891, 4.518286 51.8538948), (4.518286 51.8538948, 4.5182598 51.8539242, 4.518221 51.8539477, 4.5181728 51.8539632), (4.5181728 51.8539632, 4.5181084 51.8539695, 4.5180444 51.8539617), (4.5180444 51.8539617, 4.518003 51.8539477, 4.5179687 51.8539278, 4.5179436 51.8539031), (4.5179436 51.8539031, 4.5177252 51.853883, 4.5175637 51.8538579), (4.5165713 51.8538698, 4.5175637 51.8538579), (4.5159002 51.853878, 4.5165713 51.8538698), (4.5150815 51.8538817, 4.5159002 51.853878), (4.5150815 51.8538817, 4.5146495 51.8538835, 4.5145846 51.8538877, 4.5144052 51.8539048, 4.5143165 51.8539126, 4.5142246 51.8539164, 4.5137986 51.8539208, 4.5132155 51.8539268, 4.5130327 51.8539287, 4.512759 51.8539312, 4.512581 51.853933, 4.5123085 51.8539357), (4.5123085 51.8539357, 4.5121303 51.8539558, 4.511978 51.8539571, 4.5119376 51.8539523, 4.5118794 51.8539446, 4.5117727 51.8539394, 4.5117433 51.853938), (4.5117433 51.853938, 4.5117044 51.8539653, 4.5116545 51.8539845, 4.5115978 51.8539939, 4.5115216 51.8539905, 4.511453 51.8539698), (4.511453 51.8539698, 4.511413 51.853945, 4.5113858 51.8539144, 4.5113733 51.8538804, 4.5113768 51.8538455, 4.5113957 51.8538126, 4.5114288 51.8537842), (4.5114288 51.8537842, 4.5114018 51.8537239, 4.5113908 51.8536993, 4.5113742 51.8536615, 4.5113491 51.853478), (4.5111054 51.851765, 4.5111736 51.8522229, 4.5112636 51.8528834, 4.5113491 51.853478), (4.511093 51.8516605, 4.5111054 51.851765), (4.5108037 51.8497195, 4.5108608 51.8500963, 4.510907 51.8503893, 4.5109959 51.8510178, 4.5110186 51.8511692, 4.511093 51.8516605), (4.5108037 51.8497195, 4.5107555 51.8495223, 4.5107522 51.8494857, 4.5107483 51.8494424, 4.5107459 51.8494151), (4.5107459 51.8494151, 4.5106928 51.8493994, 4.5106492 51.8493749, 4.5106187 51.8493438), (4.5106187 51.8493438, 4.5105644 51.8493409, 4.5105217 51.8493385, 4.5088284 51.8493971, 4.5085531 51.8494388), (4.5085531 51.8494388, 4.5085242 51.8494809, 4.5084801 51.8495176, 4.5084233 51.8495468, 4.5083569 51.849567), (4.5083569 51.849567, 4.5082541 51.849578, 4.5081513 51.8495675), (4.5081513 51.8495675, 4.5080695 51.8495413, 4.5080036 51.8495015, 4.5079528 51.849453, 4.5079407 51.8493958, 4.5079456 51.849349, 4.5079687 51.8493043, 4.5080085 51.8492644, 4.5080627 51.8492316, 4.5081281 51.8492078), (4.5081281 51.8492078, 4.5081542 51.849102, 4.5080693 51.8482396), (4.5080693 51.8482396, 4.5080609 51.848136), (4.5080609 51.848136, 4.5080199 51.8477682, 4.5078881 51.8461491, 4.5079219 51.8458087, 4.5080165 51.8454771, 4.5082127 51.8451675, 4.5082159 51.8450556), (4.5082159 51.8450556, 4.5081619 51.8450037, 4.5081239 51.8449466, 4.5081032 51.8448863, 4.5081004 51.8448247, 4.5081071 51.8447825, 4.5081212 51.844743), (4.5081212 51.844743, 4.5081165 51.8447153, 4.5081083 51.8446876, 4.5080971 51.8446578, 4.5080815 51.8446312, 4.508052 51.8445984, 4.5080251 51.8445701, 4.5080013 51.8445451, 4.5079745 51.8445221), (4.5079745 51.8445221, 4.5079633 51.8445123, 4.5079444 51.8444987, 4.5079075 51.8444763, 4.5078709 51.8444547, 4.5078245 51.8444277, 4.5077789 51.8443989, 4.507654 51.8442933), (4.507654 51.8442933, 4.5075237 51.8442228, 4.5074764 51.8441996, 4.5074206 51.8441747, 4.5073552 51.8441503, 4.5072936 51.8441289, 4.5072352 51.844111, 4.5071862 51.8440991, 4.5071298 51.8440871, 4.5070699 51.8440774, 4.5069972 51.8440691, 4.506925 51.8440647, 4.5068528 51.844062, 4.5067881 51.8440616, 4.50671 51.8440633, 4.5063612 51.8440835, 4.506084 51.8440963, 4.5058597 51.8441053, 4.5054348 51.8441184, 4.504458 51.8441486, 4.5041539 51.844158, 4.5039822 51.8441603, 4.5037929 51.8441644, 4.5034384 51.8441861, 4.5013896 51.8442677, 4.5012858 51.8442682, 4.5011258 51.8442847), (4.5011258 51.8442847, 4.5010253 51.8443266, 4.5008624 51.8443752, 4.5008003 51.8443921, 4.5005717 51.8444634), (4.5005717 51.8444634, 4.5005701 51.8444922, 4.5005483 51.8445286, 4.5005177 51.8445509, 4.5004545 51.8445786), (4.5004545 51.8445786, 4.5004512 51.8446591, 4.5004557 51.8448558, 4.5004702 51.8449888, 4.5004732 51.8452103, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.5005037 51.845864, 4.5004786 51.8456343, 4.5004432 51.8452783), (4.5005065 51.8458942, 4.500569 51.8460238, 4.5005759 51.8460789, 4.5005822 51.8461653, 4.5006023 51.8463606, 4.5006114 51.846439, 4.5006156 51.8464964, 4.5005798 51.8466531), (4.5005798 51.8466531, 4.5005933 51.8467839, 4.5005968 51.8470272), (4.5005968 51.8470272, 4.5006109 51.8471269, 4.5005521 51.8473367, 4.5004631 51.8475036, 4.5003396 51.8476556, 4.5002013 51.8477813), (4.5002013 51.8477813, 4.5001313 51.8478358, 4.5001098 51.8478526, 4.5000883 51.8478694, 4.5000667 51.8478862, 4.499995 51.8479421), (4.499995 51.8479421, 4.4997806 51.8480715, 4.499629 51.8481465, 4.4994158 51.848224, 4.4992205 51.8482555), (4.4992205 51.8482555, 4.4984975 51.8484066, 4.4982856 51.8484509, 4.4982664 51.8484549), (4.4982664 51.8484549, 4.4981078 51.8485266, 4.4980619 51.8485408, 4.4980211 51.8485509, 4.4979907 51.8485572, 4.4978697 51.8485827, 4.4975776 51.8486428, 4.4974211 51.8486743, 4.4973787 51.848683, 4.4973249 51.8486899, 4.4972833 51.8486954, 4.4970461 51.8487123), (4.4970461 51.8487123, 4.4970273 51.8487162, 4.4968417 51.8487553, 4.4967942 51.8487655, 4.4952613 51.8490892, 4.4951504 51.8491154, 4.4950553 51.8491407, 4.4949012 51.8491898, 4.494743 51.8492472, 4.494579 51.8493158, 4.4944429 51.8493746, 4.4932423 51.8499454, 4.4928811 51.8501276), (4.4928811 51.8501276, 4.4927246 51.8502499, 4.4926516 51.8502987, 4.4926155 51.8503186), (4.4926155 51.8503186, 4.492567 51.8503431, 4.492459 51.8503978, 4.4922629 51.8504966, 4.4921699 51.8505319, 4.4919243 51.8506091), (4.4919243 51.8506091, 4.4917908 51.8506741, 4.4916362 51.8507405), (4.4916362 51.8507405, 4.4914206 51.8508288, 4.4913155 51.8508705, 4.4911898 51.8509203, 4.4910607 51.8509656, 4.4909165 51.8510154), (4.4909165 51.8510154, 4.490719 51.8511204, 4.4906671 51.8511421, 4.4906232 51.8511579, 4.4905678 51.8511796, 4.4905263 51.8511941, 4.4903489 51.8512567, 4.4902448 51.8512922, 4.4901716 51.8513121, 4.4901344 51.8513214, 4.4900957 51.8513298, 4.4900529 51.8513351, 4.4899584 51.8513392, 4.4899082 51.8513385, 4.4898594 51.8513368, 4.4898192 51.8513342, 4.4897837 51.8513301, 4.4897243 51.8513197), (4.4897243 51.8513197, 4.48961 51.8513121, 4.489545 51.8513092, 4.4894855 51.851309, 4.4894358 51.8513094, 4.4893979 51.8513097, 4.4893433 51.8513123, 4.489295 51.8513161, 4.4892546 51.8513226, 4.4891708 51.851338, 4.4891124 51.8513541, 4.4890762 51.8513658, 4.4889988 51.8513924, 4.4882063 51.8516881, 4.4879835 51.8517718, 4.487847 51.851822, 4.4874721 51.8519592, 4.4873472 51.8520064, 4.4860828 51.8524838, 4.4858005 51.8526252, 4.4852806 51.852936, 4.4852424 51.8529589), (4.4852424 51.8529589, 4.4852913 51.8529858, 4.4853231 51.8530212, 4.4853341 51.8530611, 4.4853231 51.853101, 4.4852913 51.8531364, 4.4852423 51.8531632), (4.4852423 51.8531632, 4.485256 51.8531765, 4.485514 51.8534279, 4.4856064 51.8535227), (4.4856064 51.8535227, 4.4856819 51.8535981), (4.4856819 51.8535981, 4.4861651 51.8540832), (4.4861651 51.8540832, 4.4863988 51.8542352, 4.4865079 51.8543445, 4.4866107 51.8544467, 4.4867534 51.8546573), (4.4867534 51.8546573, 4.4874146 51.8552951, 4.4875973 51.8554734), (4.4875973 51.8554734, 4.4878659 51.8556591, 4.4879268 51.8557273, 4.4879819 51.855789, 4.4880377 51.8558516, 4.4882105 51.8561357), (4.4882105 51.8561357, 4.4883847 51.856422), (4.4883847 51.856422, 4.4886275 51.856721, 4.4886889 51.8568426, 4.4887564 51.8570292, 4.4887417 51.8571667), (4.4887417 51.8571667, 4.4888338 51.8575254, 4.4889 51.8579, 4.4888906 51.8581433), (4.4888906 51.8581433, 4.4889381 51.8583983, 4.4889152 51.8585103, 4.4888903 51.8586288, 4.4887534 51.8588861), (4.4887534 51.8588861, 4.4886696 51.8593906, 4.4886559 51.8596416, 4.4886546 51.8597323), (4.4886546 51.8597323, 4.4887486 51.8600263, 4.4887582 51.8601527, 4.4887665 51.860275, 4.4887379 51.8605346), (4.4887379 51.8605346, 4.4887797 51.860685, 4.4889271 51.8610703), (4.4889271 51.8610703, 4.4891478 51.8613157, 4.4891971 51.8614331), (4.4891971 51.8614331, 4.4892297 51.8615495, 4.489287 51.8618994, 4.4892991 51.8621001, 4.4893006 51.8621251, 4.4893038 51.8621939, 4.4893061 51.8622428), (4.4893061 51.8622428, 4.4893849 51.8622688, 4.4894485 51.8623077, 4.4894914 51.8623562, 4.4895108 51.8624267, 4.4895133 51.8624804), (4.4895133 51.8624804, 4.4894381 51.8625462, 4.4893675 51.8625845, 4.4892816 51.8626079, 4.4891882 51.8626144, 4.489096 51.8626034, 4.4890134 51.8625758, 4.4889479 51.8625342, 4.4889056 51.8624824, 4.4888903 51.8624252, 4.4888988 51.8623783, 4.4889256 51.8623341), (4.4889256 51.8623341, 4.4889739 51.8622921, 4.4890385 51.8622595, 4.4891365 51.862233), (4.4891365 51.862233, 4.4891644 51.8621519, 4.489172 51.86213, 4.4891408 51.861824, 4.4890925 51.8615665, 4.4890603 51.861453), (4.4890603 51.861453, 4.4890171 51.861332, 4.4889271 51.8610703), (4.4887379 51.8605346, 4.4887797 51.860685, 4.4889271 51.8610703), (4.4887379 51.8605346, 4.4886336 51.8602789, 4.488626 51.8601516, 4.4886187 51.86003, 4.4886546 51.8597323), (4.4887534 51.8588861, 4.4886696 51.8593906, 4.4886559 51.8596416, 4.4886546 51.8597323))</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6308492</t>
+          <t>13647537</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3072,17 +3072,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rotterdam, Zuidplein</t>
+          <t>Capelle aan den IJssel, Capelle Centrum</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bus 84: Barendrecht Station =&gt; Rotterdam Zuidplein</t>
+          <t>Bus 605: Capelle Centrum =&gt; Capelle Centrum</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>605</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3093,14 +3093,14 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5518348 51.8547553, 4.5518288 51.8548366), (4.5518288 51.8548366, 4.5517167 51.8548646), (4.5517167 51.8548646, 4.5516229 51.8548868), (4.5516229 51.8548868, 4.5514998 51.8549187), (4.5514998 51.8549187, 4.5511668 51.8549131), (4.5513873 51.8542902, 4.5513471 51.8544039, 4.5511859 51.8548593, 4.5511668 51.8549131), (4.5519422 51.8525328, 4.5517713 51.8530495, 4.5517 51.8533, 4.5515239 51.8538194, 4.5513873 51.8542902), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5494177 51.8523009, 4.5493128 51.8523101, 4.5490803 51.8522859, 4.5488502 51.8522619, 4.5487817 51.8522548, 4.5486849 51.8522221), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5473965 51.8510914, 4.547394 51.8511564, 4.5473597 51.8514184, 4.5472795 51.8518996, 4.547256 51.8520381, 4.5472358 51.8521552), (4.546971 51.8503821, 4.5472673 51.8506665, 4.5473351 51.8508021, 4.547364 51.8509107, 4.5473832 51.8510197, 4.5473965 51.8510914), (4.5455 51.8499, 4.5462616 51.8500359, 4.5466418 51.8501865, 4.546971 51.8503821), (4.5440364 51.8496718, 4.5440878 51.8496787, 4.5455 51.8499), (4.5440364 51.8496718, 4.5438673 51.8496696, 4.5437827 51.8496609, 4.5435506 51.8496365, 4.5432769 51.849598), (4.5432769 51.849598, 4.5431452 51.8495955, 4.5421 51.8496, 4.5418688 51.8496358), (4.5418688 51.8496358, 4.5417052 51.8497298, 4.5416353 51.849765, 4.5415418 51.8498143, 4.5414694 51.8498607, 4.5413885 51.8499281, 4.5413127 51.8499912, 4.5412174 51.8500438), (4.5412174 51.8500438, 4.5411169 51.8501639, 4.5409809 51.8504042, 4.5404 51.8521), (4.5404 51.8521, 4.5403214 51.8523007, 4.5401954 51.8524296), (4.5401954 51.8524296, 4.5401532 51.8525037, 4.5400842 51.8525505, 4.5399923 51.852607, 4.5398699 51.8526671, 4.5397701 51.8527066), (4.5397701 51.8527066, 4.5396753 51.8527389, 4.5394128 51.8527701, 4.5391576 51.8527685), (4.5391576 51.8527685, 4.5390088 51.8527813, 4.5373411 51.8528389, 4.5371991 51.8528492, 4.5369493 51.8528736), (4.5369493 51.8528736, 4.5367911 51.8529254, 4.5366988 51.8529349, 4.5366052 51.8529506, 4.5365675 51.8529569), (4.5365675 51.8529569, 4.5365412 51.852994, 4.5364964 51.8530236, 4.5364383 51.8530423), (4.5364383 51.8530423, 4.5363685 51.8530478, 4.5363001 51.8530377), (4.5363001 51.8530377, 4.5362427 51.8530136, 4.5362027 51.8529786, 4.5361849 51.8529355, 4.5361903 51.8528989, 4.5362147 51.8528636, 4.536256 51.8528349, 4.5363098 51.8528157), (4.5363098 51.8528157, 4.5363004 51.8527594, 4.5362966 51.8527367, 4.5362914 51.8526419, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.5362852 51.8504404, 4.5362493 51.8502139, 4.5362533 51.850148, 4.5362579 51.8500909, 4.5362583 51.850066), (4.5362583 51.850066, 4.5362045 51.8500497, 4.5361613 51.850024, 4.5361331 51.8499914), (4.5361331 51.8499914, 4.5360357 51.8499843, 4.5360006 51.8499822, 4.5356758 51.8499445), (4.5338925 51.8499699, 4.5341437 51.8499565, 4.5356758 51.8499445), (4.5338925 51.8499699, 4.5338935 51.8500917, 4.533903 51.8507024, 4.5339033 51.8509132, 4.5338987 51.8511789, 4.5339 51.8513, 4.5338181 51.851368), (4.5338181 51.851368, 4.5331995 51.8515558, 4.5326059 51.8517167, 4.5324071 51.8517706, 4.5322046 51.85178), (4.5313696 51.8517802, 4.5315595 51.851781, 4.532105 51.851782, 4.5322046 51.85178), (4.5288899 51.8511058, 4.5289016 51.8513171, 4.5289691 51.8513988, 4.5290754 51.8514285, 4.5298309 51.851419, 4.5301549 51.8514123, 4.530311 51.8514618, 4.5303529 51.8515335, 4.5303736 51.851678, 4.5304215 51.8517461, 4.5305377 51.851791, 4.5312148 51.8517825, 4.5313696 51.8517802), (4.5288899 51.8511058, 4.528686 51.8511058, 4.5277906 51.8511221, 4.5276214 51.8511042), (4.5276214 51.8511042, 4.5275445 51.8511051, 4.5274816 51.8511047), (4.5274816 51.8511047, 4.5273995 51.8511087, 4.5269847 51.8511227, 4.5268577 51.8511275), (4.5268577 51.8511275, 4.5267576 51.8511313), (4.5267576 51.8511313, 4.5259202 51.8511551), (4.5259202 51.8511551, 4.5254164 51.8514542, 4.5245251 51.8519832), (4.5245251 51.8519832, 4.5244948 51.8520196), (4.5244948 51.8520196, 4.5243768 51.8520922, 4.5243148 51.8521286), (4.5243148 51.8521286, 4.5242631 51.8521614), (4.5242631 51.8521614, 4.524212 51.8522168, 4.524177 51.8522472, 4.5235753 51.852598, 4.5226685 51.8531211, 4.5221223 51.853441, 4.5217806 51.8536331, 4.5216805 51.8536916), (4.5216805 51.8536916, 4.5215962 51.8537775, 4.5215797 51.8537902), (4.5215797 51.8537902, 4.5215189 51.8538279, 4.5214922 51.8538455), (4.5214922 51.8538455, 4.5215123 51.8538816, 4.5215128 51.8539197, 4.5214937 51.853956, 4.521457 51.8539867), (4.521457 51.8539867, 4.5214834 51.8540538, 4.5214896 51.8540694, 4.5215012 51.8541594), (4.5215012 51.8541594, 4.5215779 51.8542721, 4.5215905 51.8543746, 4.5215962 51.8544888, 4.5216032 51.8545663), (4.5216032 51.8545663, 4.5216009 51.8547793, 4.5216485 51.8556846), (4.5216485 51.8556846, 4.5217726 51.8556869, 4.522697 51.8556624, 4.5228913 51.8556592, 4.5230557 51.8556568, 4.5241614 51.8556295), (4.5241614 51.8556295, 4.5254712 51.855612), (4.5254712 51.855612, 4.5255596 51.8556846, 4.5255618 51.8558963, 4.5255626 51.8559777, 4.5255631 51.856021), (4.5255631 51.856021, 4.5255636 51.8560765), (4.5255636 51.8560765, 4.5255634 51.8568945, 4.5256062 51.8575946, 4.5256134 51.8578539), (4.5256134 51.8578539, 4.5256602 51.8578762), (4.5256602 51.8578762, 4.525997 51.8580025), (4.525997 51.8580025, 4.5260323 51.8589669), (4.5260323 51.8589669, 4.5260338 51.8590908, 4.5260329 51.8592411), (4.5260329 51.8592411, 4.5260366 51.8594415, 4.5260376 51.8594916, 4.5260073 51.859559, 4.5259404 51.8596081, 4.5258709 51.8596381, 4.5257883 51.8596545, 4.5249924 51.8596682, 4.5240594 51.8596788, 4.523151 51.8596894, 4.5229249 51.8597159, 4.5226797 51.8597776, 4.5223957 51.8599244, 4.5222988 51.8600294, 4.5222209 51.8601437, 4.5221795 51.8603288, 4.5221867 51.8609223), (4.5221867 51.8609223, 4.522276 51.861012, 4.5224354 51.8611075, 4.5224632 51.8611545, 4.522476 51.8612042, 4.5224431 51.8612672), (4.5224431 51.8612672, 4.5224218 51.8613459, 4.5223614 51.8614505, 4.522351 51.8614687, 4.5223169 51.8615258, 4.5222954 51.8615522), (4.5222954 51.8615522, 4.5223256 51.8615747, 4.5223454 51.8616013, 4.5223535 51.8616301, 4.5223495 51.8616593), (4.5223495 51.8616593, 4.5224449 51.8616888, 4.5224736 51.8616982, 4.5225312 51.8617163, 4.5226603 51.8617864), (4.5226603 51.8617864, 4.5231585 51.8619437, 4.5233204 51.8619951), (4.5233204 51.8619951, 4.5244539 51.8623547, 4.5248122 51.8624599, 4.5251911 51.8625472, 4.5254611 51.8625897, 4.5257303 51.8626207, 4.526006 51.8626483, 4.5262829 51.862659, 4.5287234 51.8626377), (4.5287234 51.8626377, 4.5292216 51.8626329), (4.5292216 51.8626329, 4.5300017 51.862642, 4.5309347 51.8626704, 4.5313253 51.862668, 4.5315707 51.8626552), (4.5315707 51.8626552, 4.5317718 51.8626271, 4.5319481 51.8625812), (4.5319481 51.8625812, 4.5319706 51.862544, 4.5320102 51.8625126, 4.5320633 51.8624902, 4.5321211 51.862479, 4.5321818 51.8624784, 4.5322431 51.8624894, 4.5322962 51.8625111, 4.5323364 51.8625417, 4.53236 51.8625783), (4.53236 51.8625783, 4.532499 51.8625821, 4.5332272 51.8626083, 4.5336537 51.8626145), (4.5336537 51.8626145, 4.5342031 51.8626179, 4.5344511 51.8626185, 4.5349785 51.8626006), (4.5349785 51.8626006, 4.5357552 51.8625996, 4.5360107 51.8626012, 4.5361141 51.8625977, 4.536296 51.8626013), (4.536296 51.8626013, 4.5364308 51.8626027), (4.5364308 51.8626027, 4.5364322 51.8627023), (4.5364322 51.8627023, 4.5364352 51.8628252, 4.5364269 51.8629148, 4.5364224 51.8629924, 4.5364148 51.8630358, 4.5364 51.8630843, 4.5363105 51.8633919, 4.5362744 51.8635002), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.536216 51.8687493, 4.5362684 51.8687988, 4.5362839 51.8688321, 4.5363023 51.868918, 4.5362971 51.8689649, 4.5362773 51.8690301, 4.5362198 51.8690913, 4.5361594 51.8691419, 4.5360905 51.8691815, 4.5360075 51.8692153, 4.5357765 51.8692846), (4.5357765 51.8692846, 4.5354618 51.8693812, 4.5353732 51.8694084), (4.5353732 51.8694084, 4.5351646 51.8694777, 4.5350151 51.8695296, 4.5348653 51.8695826, 4.5346672 51.8696393), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5301922 51.8712078, 4.5300378 51.8712823, 4.5298383 51.8713552, 4.5296118 51.8714681, 4.5294845 51.871529, 4.5292887 51.8715998, 4.5287904 51.8717275, 4.5282423 51.8719334, 4.5280262 51.8719879), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5238862 51.873997, 4.5236198 51.8744114, 4.5235218 51.8745134), (4.5233961 51.8744682, 4.5235218 51.8745134), (4.5233399 51.8744456, 4.5233961 51.8744682), (4.5223 51.8741, 4.522426 51.8741192, 4.5225822 51.874177, 4.5230454 51.8743412, 4.5232607 51.8744175, 4.5233399 51.8744456), (4.5223 51.8741, 4.5219658 51.8742007, 4.5218368 51.8742511, 4.521283 51.8744492, 4.520472 51.8747443, 4.5196698 51.8750376, 4.5186987 51.8753965, 4.5185221 51.8754614, 4.5177519 51.8757387, 4.5173319 51.8758976), (4.5173319 51.8758976, 4.5171924 51.8759618), (4.5171924 51.8759618, 4.5171692 51.8761645), (4.5171692 51.8761645, 4.517119 51.8765252), (4.517119 51.8765252, 4.5171011 51.8766435, 4.5170905 51.8767132, 4.5170802 51.8768133), (4.5170802 51.8768133, 4.5170561 51.8769686), (4.5170561 51.8769686, 4.5168325 51.876961, 4.5160889 51.8768998, 4.5144097 51.8768481), (4.5144097 51.8768481, 4.5132745 51.8768015, 4.5130248 51.8767837, 4.5128198 51.8767494, 4.5127069 51.8767241, 4.5126198 51.8767011), (4.5126198 51.8767011, 4.5123757 51.8766193), (4.5123757 51.8766193, 4.5122661 51.8765612, 4.5122002 51.8765227, 4.5121396 51.8764809, 4.5120291 51.8763973, 4.5117545 51.8761675), (4.5117545 51.8761675, 4.5113076 51.875794), (4.5113076 51.875794, 4.5111784 51.8757465, 4.5111142 51.8756952, 4.5109991 51.875644, 4.510855 51.8756086, 4.5106972 51.8756016, 4.5105865 51.8756102, 4.5105026 51.8756266, 4.5104149 51.8756502), (4.5104149 51.8756502, 4.5085323 51.8764637), (4.5085323 51.8764637, 4.5082127 51.8766176), (4.5082127 51.8766176, 4.5078666 51.8767624, 4.5073879 51.8769722, 4.5069484 51.8771596, 4.5066581 51.8772859, 4.5064329 51.8773911), (4.5064329 51.8773911, 4.5056831 51.8777354), (4.5056831 51.8777354, 4.5054265 51.8778551, 4.5049518 51.8781091, 4.5044162 51.878422, 4.5042088 51.8785531, 4.5036155 51.8789649), (4.5036155 51.8789649, 4.5032541 51.8792271, 4.5029248 51.8794782), (4.5029248 51.8794782, 4.5020378 51.8801318), (4.5020378 51.8801318, 4.5017341 51.8803556), (4.5017341 51.8803556, 4.5014481 51.8806305, 4.5013875 51.8806768, 4.5013422 51.8807099, 4.5012795 51.8807557, 4.5011588 51.880841), (4.5011588 51.880841, 4.5009576 51.8808932), (4.5009576 51.8808932, 4.5008257 51.8810048, 4.5007671 51.8810509, 4.5005421 51.88122), (4.5005421 51.88122, 4.5003939 51.8813366, 4.4998929 51.8816897, 4.4997082 51.8818337, 4.499336 51.8821159, 4.4988998 51.8824401), (4.4988998 51.8824401, 4.4985384 51.8826894, 4.4982638 51.8828501, 4.4979853 51.8829855, 4.4976022 51.8831435, 4.4973916 51.8832261, 4.4971566 51.8833092, 4.4968694 51.8833987, 4.4966676 51.8834692, 4.4963422 51.8835581, 4.4958108 51.8837108), (4.4958108 51.8837108, 4.4954828 51.8838064, 4.4949383 51.883974, 4.4946784 51.8840494, 4.494222 51.8841872, 4.493938 51.8842707), (4.493938 51.8842707, 4.4935654 51.8843926, 4.4927243 51.8847411), (4.4927243 51.8847411, 4.4925054 51.8848049, 4.4923551 51.8848729, 4.4920709 51.8849862, 4.4919345 51.8850267), (4.4919345 51.8850267, 4.4919 51.8850326, 4.4918601 51.885036, 4.4917911 51.8850395, 4.4917201 51.8850366, 4.4916517 51.8850321, 4.4915801 51.8850232, 4.4915151 51.8850126), (4.4915151 51.8850126, 4.4914496 51.8849914), (4.4914496 51.8849914, 4.4913767 51.8849707, 4.4912441 51.8849295, 4.4911114 51.88489, 4.4909987 51.8848631), (4.4909987 51.8848631, 4.4905852 51.8847643, 4.4900594 51.8846937), (4.4900594 51.8846937, 4.4899058 51.8846784), (4.4899058 51.8846784, 4.4896597 51.8846539), (4.4896597 51.8846539, 4.4894078 51.8847042, 4.488824 51.8846885, 4.4886807 51.8846895), (4.4886807 51.8846895, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4884238 51.8846826, 4.4879622 51.8846633, 4.4877773 51.8846523, 4.4875884 51.8846005), (4.4875884 51.8846005, 4.4875868 51.8846674, 4.4875882 51.8847238, 4.4875783 51.884863, 4.487557 51.8849348, 4.4875315 51.8849849, 4.4874755 51.8850532, 4.4874123 51.8851227, 4.4873373 51.8851978), (4.4873373 51.8851978, 4.4873338 51.8853042, 4.4873356 51.8853473), (4.4873356 51.8853473, 4.4873689 51.8856286, 4.4873957 51.8857194, 4.4874757 51.885946, 4.487591 51.8861713, 4.488119 51.8870046))</t>
+          <t>MULTILINESTRING ((4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.590792 51.9315924, 4.5909841 51.9316511, 4.5911175 51.9316918), (4.5911175 51.9316918, 4.5913724 51.9317752, 4.5915988 51.9318549, 4.5920696 51.9320323, 4.5927314 51.9322774, 4.5935017 51.932573, 4.5941426 51.9328172, 4.5953193 51.9332727, 4.5953972 51.9333021, 4.5954865 51.9333338), (4.5954865 51.9333338, 4.595633 51.93336, 4.5957876 51.9334013, 4.5960653 51.9335042), (4.5960653 51.9335042, 4.5961083 51.9334818, 4.5961601 51.9334681, 4.5962161 51.9334642, 4.5962714 51.9334707, 4.5963099 51.933482, 4.5963433 51.9334984, 4.5963766 51.9335259, 4.5963957 51.9335582, 4.5963987 51.9335926, 4.5963855 51.933626), (4.5963855 51.933626, 4.5965161 51.9336729, 4.5966931 51.9337444, 4.596778 51.9337991), (4.596778 51.9337991, 4.5972118 51.9339426, 4.5977906 51.9341379, 4.5978599 51.9341626, 4.5979825 51.9342103, 4.59808 51.93425, 4.598225 51.9343137, 4.5983323 51.9343626, 4.5986091 51.9344839, 4.5988862 51.9346069, 4.5995376 51.9348887, 4.600075 51.9351373), (4.600075 51.9351373, 4.6001869 51.9351565, 4.6002406 51.935178, 4.6002878 51.935195, 4.6004041 51.9352403), (4.6004041 51.9352403, 4.6004474 51.9352237, 4.6004963 51.9352147, 4.6005474 51.9352139, 4.6005969 51.9352215, 4.6006428 51.9352374, 4.60068 51.9352603), (4.60068 51.9352603, 4.6007012 51.9352822, 4.6007144 51.9353063, 4.6007189 51.9353316, 4.6007145 51.9353569, 4.6007016 51.9353811, 4.6006728 51.9354089, 4.6006328 51.9354307, 4.6005661 51.935448, 4.6004937 51.9354488), (4.6004937 51.9354488, 4.600419 51.9355216, 4.6003861 51.9355578, 4.600086 51.9358177, 4.5999553 51.9359301, 4.5999128 51.9359632, 4.5998062 51.9360267), (4.5996178 51.9362029, 4.5998062 51.9360267), (4.5996178 51.9362029, 4.5993 51.9365, 4.5986961 51.9370277, 4.5980549 51.9376022, 4.5979768 51.9376726, 4.597303 51.9382706, 4.5972518 51.9383518, 4.5972265 51.9384272), (4.5972265 51.9384272, 4.5972441 51.9385054, 4.5972984 51.9386022, 4.5974176 51.9386946, 4.5978912 51.9389565, 4.5982417 51.9391148, 4.5985925 51.9392145, 4.599217 51.9393607, 4.599506 51.9395048, 4.5996365 51.9396012, 4.5997706 51.9397319, 4.5998501 51.9398803), (4.5998501 51.9398803, 4.6000081 51.940198), (4.6000081 51.940198, 4.6000916 51.9403305, 4.6002091 51.9404516, 4.600342 51.9405621, 4.6005307 51.9406679, 4.6006675 51.9407257, 4.6009388 51.9408137, 4.6013849 51.9409483, 4.6018073 51.9411774, 4.6019182 51.941236, 4.6019888 51.9412743), (4.6019888 51.9412743, 4.6024841 51.9415661, 4.6026426 51.9416457), (4.6026426 51.9416457, 4.6025167 51.9417333, 4.6019811 51.9421389, 4.6015851 51.9424682), (4.6015851 51.9424682, 4.6010153 51.942911, 4.6007983 51.9430796), (4.6007983 51.9430796, 4.6005964 51.9432328, 4.600005 51.9436789, 4.599956 51.9437229, 4.5998912 51.9437662), (4.5998912 51.9437662, 4.5998318 51.9438145, 4.5998123 51.9438292, 4.5988223 51.9446142, 4.5971506 51.9459307), (4.5971506 51.9459307, 4.5966533 51.9463147, 4.596364 51.9466014, 4.5962676 51.9467249), (4.5962676 51.9467249, 4.596172 51.9468699, 4.5961074 51.9470095, 4.596063 51.9471533, 4.5960327 51.9473056, 4.596026 51.9474158, 4.5960354 51.9475672, 4.5960681 51.9476999, 4.5961102 51.9478513, 4.5961934 51.9480431, 4.5963122 51.9482643, 4.5964816 51.9485429), (4.5964816 51.9485429, 4.5966408 51.948721, 4.5967762 51.9488755, 4.5969016 51.9490011, 4.5969971 51.9490785, 4.5971107 51.9491654, 4.5971967 51.9492233, 4.5972346 51.9492476, 4.5975215 51.9494195, 4.5976627 51.9494962, 4.5978505 51.9496058), (4.5995984 51.9503861, 4.5985993 51.9499355, 4.5978505 51.9496058), (4.5999618 51.9510349, 4.600012 51.9508633, 4.5999954 51.9507185, 4.5998862 51.9505615, 4.5995984 51.9503861), (4.5968924 51.9541587, 4.5984131 51.9526338, 4.5997969 51.9512507, 4.5999618 51.9510349), (4.5966933 51.9543544, 4.5968924 51.9541587), (4.5910774 51.9547168, 4.5930839 51.9551374, 4.5943 51.9554, 4.5945246 51.9554282, 4.5947268 51.9554244, 4.5948977 51.9553973, 4.5952097 51.9553229, 4.5955122 51.9552398, 4.5956972 51.9551713, 4.5958367 51.9550988, 4.5960375 51.9549328, 4.5961597 51.9548312, 4.5966933 51.9543544), (4.5905449 51.9546156, 4.5910774 51.9547168), (4.5892629 51.9544056, 4.5905449 51.9546156), (4.5904693 51.950309, 4.5906278 51.9503459, 4.5907598 51.9503976, 4.5908811 51.9504782, 4.5910585 51.9506031, 4.5912118 51.950668, 4.5914411 51.9507181, 4.5915811 51.9507642, 4.5916861 51.9508117, 4.5917705 51.9508833, 4.5918331 51.9509671, 4.5918438 51.9510362, 4.5918301 51.9511305, 4.5917838 51.9512087, 4.5916991 51.9512842, 4.5916371 51.9513394, 4.5915651 51.9514191, 4.5915278 51.9514955, 4.5915065 51.9515769, 4.5914958 51.9516878, 4.5914585 51.9518966, 4.5914265 51.9520387, 4.5913211 51.9526739, 4.5913038 51.9527233, 4.5912825 51.9527635, 4.5912198 51.9528136, 4.590855 51.9530045, 4.5904745 51.9532073, 4.5904542 51.9532263, 4.5904178 51.9532713, 4.5903817 51.9535208, 4.5903474 51.9535953, 4.5902476 51.9536945, 4.5899878 51.9538266, 4.5897863 51.953921, 4.5895724 51.9540264, 4.5893957 51.9541753, 4.5893184 51.9542706, 4.5892629 51.9544056), (4.5904693 51.950309, 4.5899185 51.9502727, 4.5897878 51.9502735, 4.5896945 51.9503007, 4.5895 51.9504, 4.5892038 51.9505398, 4.5890851 51.9505669, 4.5889651 51.950562, 4.5885206 51.950532, 4.5882104 51.9505163, 4.5881057 51.950536, 4.5880227 51.9505622, 4.587937 51.9506122, 4.5878842 51.950661, 4.5878587 51.9506993, 4.5878248 51.9507685, 4.5877891 51.950952, 4.5877618 51.9511252, 4.5877833 51.951172, 4.5878361 51.9512568, 4.5879362 51.9513509), (4.5879362 51.9513509, 4.5880569 51.9514644, 4.5880944 51.9514997, 4.5881246 51.9515613, 4.5881435 51.9516415, 4.5880653 51.9518919, 4.588009 51.9520946, 4.587956 51.9522765, 4.5878644 51.9525939, 4.5877927 51.952835, 4.5877449 51.9529444, 4.5877418 51.9529535, 4.5876795 51.9530215, 4.5875698 51.9530831, 4.587446 51.9531403, 4.5868709 51.953401, 4.5867556 51.9534542), (4.5867556 51.9534542, 4.5866345 51.9535466, 4.5865279 51.9536059, 4.5864987 51.9536489, 4.5864874 51.9536849), (4.5863703 51.9536887, 4.5864874 51.9536849), (4.5823648 51.9531854, 4.5825128 51.9532063, 4.5826121 51.9532134, 4.5827062 51.9532424, 4.5827864 51.9532801, 4.5829007 51.9533706, 4.5830475 51.9535106, 4.5830687 51.9535319, 4.5832307 51.9536784, 4.5832859 51.953723, 4.5833583 51.9537534, 4.5834532 51.9537789, 4.5838417 51.9538211, 4.5839635 51.9538331, 4.5844657 51.9538909, 4.5851349 51.9539667, 4.585226 51.953968, 4.5853164 51.9539534, 4.5858493 51.9537926, 4.5861125 51.9537191, 4.5861665 51.9537094, 4.5863703 51.9536887), (4.5818247 51.9511838, 4.5818792 51.9512143, 4.5818951 51.951273, 4.5818364 51.9516804, 4.5818134 51.9517749, 4.5817625 51.9518914, 4.5816945 51.9519968, 4.5816226 51.9521519, 4.5816294 51.952292, 4.5816619 51.9524224, 4.5817456 51.9525271, 4.5819637 51.9527248, 4.5820712 51.9528223, 4.5822061 51.9529375, 4.5823104 51.9530404, 4.582343 51.9530974, 4.5823648 51.9531854), (4.579333 51.9505618, 4.5795895 51.9505794, 4.5797258 51.9506024, 4.5798134 51.9506564, 4.5799173 51.9507494, 4.5800227 51.9508504, 4.5801298 51.9509174, 4.5802578 51.950972, 4.580401 51.9510038, 4.5807269 51.9510604, 4.580993 51.9510994, 4.5814288 51.9511353, 4.5817526 51.9511619, 4.5818247 51.9511838), (4.5785523 51.950505, 4.579333 51.9505618), (4.5767757 51.9503798, 4.5769748 51.9503938, 4.5771331 51.950405, 4.5785523 51.950505), (4.5765468 51.950337, 4.5766436 51.9503633, 4.5767757 51.9503798), (4.5757862 51.9497428, 4.5760539 51.9497603, 4.5761343 51.9497674, 4.5762264 51.9497947, 4.5762725 51.9498205, 4.5762971 51.9498343, 4.576353 51.949892, 4.5763596 51.9499579, 4.5763365 51.9501484, 4.576353 51.9502052, 4.5763777 51.9502538, 4.5764479 51.950299, 4.5765468 51.950337), (4.5741231 51.9496413, 4.5745324 51.9495777, 4.5752111 51.9496242, 4.5756641 51.9497218, 4.5757862 51.9497428), (4.5724438 51.9494598, 4.5725379 51.9494842, 4.5728243 51.9495102, 4.5729703 51.9495304, 4.5731795 51.9495741, 4.5734126 51.9495918, 4.5735545 51.9496017, 4.5741231 51.9496413), (4.5699052 51.9486855, 4.5700123 51.9486645, 4.5701518 51.9486585, 4.5704504 51.9486665, 4.5705198 51.9486686, 4.5711383 51.9486875, 4.5712973 51.9487035, 4.571432 51.9487365, 4.5715391 51.9487865, 4.5716202 51.9488493, 4.5719555 51.9490839, 4.5723636 51.9494183, 4.5724438 51.9494598), (4.5699052 51.9486855, 4.5698111 51.9487315, 4.5692627 51.9491905, 4.5691929 51.9492565, 4.5691491 51.9493165, 4.5691134 51.9494955, 4.5690907 51.9496385, 4.5689999 51.9500995, 4.569 51.9502, 4.5690339 51.9502675, 4.5690875 51.9503376, 4.5691816 51.9503996, 4.5693163 51.9504636, 4.5694123 51.9505061, 4.5696606 51.9506161, 4.5698245 51.9506941, 4.5699016 51.950767, 4.5699413 51.9508411, 4.5699575 51.9509121, 4.5699559 51.9510231, 4.5698926 51.9511661, 4.5698054 51.9513009, 4.5697353 51.9514212, 4.5696963 51.9516502, 4.5696652 51.9519327, 4.5696501 51.952074), (4.5696501 51.952074, 4.5696522 51.9522054, 4.5696322 51.9522376, 4.5695886 51.9522782), (4.5695886 51.9522782, 4.5696347 51.9523212, 4.5696519 51.9523717, 4.5696378 51.9524225, 4.5696079 51.9524563, 4.569564 51.9524837, 4.5695021 51.9525042, 4.5694329 51.9525119, 4.5693633 51.9525059, 4.5693001 51.9524869, 4.5692497 51.9524567, 4.5692183 51.9524209, 4.5692054 51.9523809, 4.569212 51.9523403), (4.569212 51.9523403, 4.5691284 51.9522888, 4.5690264 51.9522489, 4.5689736 51.9522253, 4.5688279 51.9521666), (4.5688279 51.9521666, 4.5684055 51.9519826, 4.5682322 51.9519229), (4.5682322 51.9519229, 4.5680865 51.95188, 4.5679036 51.9518306, 4.5676195 51.951805, 4.5674774 51.9518244), (4.5674774 51.9518244, 4.5673065 51.9518526, 4.5670556 51.9519248), (4.5670556 51.9519248, 4.5668608 51.9519748, 4.5667246 51.9519952), (4.5667246 51.9519952, 4.5666325 51.9519553), (4.5666325 51.9519553, 4.5661713 51.9517552, 4.5657639 51.9515998), (4.5657639 51.9515998, 4.5653213 51.9514355, 4.5652091 51.9513941, 4.5649661 51.9513041), (4.5649661 51.9513041, 4.5647265 51.9512154), (4.5647265 51.9512154, 4.5645076 51.9511344), (4.5645076 51.9511344, 4.564141 51.9510012, 4.5638549 51.9509231, 4.5633107 51.950802, 4.5620837 51.9506101), (4.5620837 51.9506101, 4.5612898 51.9504859), (4.5612898 51.9504859, 4.5610198 51.9504437, 4.5608704 51.9504209), (4.5608704 51.9504209, 4.560775 51.9504057, 4.5605913 51.9503776, 4.5605436 51.9503703, 4.5569816 51.9498262), (4.5569816 51.9498262, 4.5567563 51.9497931), (4.5567563 51.9497931, 4.5561597 51.9496893, 4.5560019 51.9496649, 4.5558538 51.949644), (4.5558538 51.949644, 4.5556727 51.9496153), (4.5556727 51.9496153, 4.5557199 51.9494996), (4.5557199 51.9494996, 4.5557723 51.9493889, 4.5560616 51.9488104, 4.5561074 51.9487193, 4.5564081 51.9481047, 4.5564857 51.9479628, 4.5566891 51.9475814, 4.5567172 51.9475288, 4.5570292 51.9470651, 4.5571004 51.9469774, 4.5571257 51.9469343, 4.5572108 51.9467455, 4.5572212 51.9465933, 4.5572033 51.9464629, 4.5571579 51.9463411, 4.5570903 51.9462219, 4.557037 51.946154, 4.5565642 51.9456521, 4.5565281 51.9456139, 4.5564608 51.9455451, 4.5564092 51.945486), (4.5564092 51.945486, 4.5563591 51.9454209, 4.5563198 51.9453827, 4.5562548 51.9453195, 4.5561573 51.9452476, 4.5560598 51.9451975, 4.5559165 51.9451538, 4.5557762 51.9451237, 4.5550626 51.9450198, 4.5549115 51.9449963, 4.5547708 51.9449745, 4.5547162 51.944966, 4.5543735 51.9449128), (4.5543735 51.9449128, 4.5541894 51.9448842), (4.5541894 51.9448842, 4.5540109 51.9448489, 4.5536707 51.9447546), (4.549397 51.9440563, 4.5509306 51.9443064, 4.5524506 51.9445543, 4.5533342 51.9446983, 4.5536707 51.9447546), (4.5509681 51.9403011, 4.5508862 51.9405174, 4.5507952 51.9407282, 4.5504656 51.9415171, 4.5502265 51.9420632, 4.5500981 51.942351, 4.5500112 51.9425549, 4.5498128 51.9429935, 4.5496331 51.9434545, 4.5494322 51.9439584, 4.549397 51.9440563), (4.5510977 51.9400288, 4.5510639 51.9400998, 4.55105 51.9401291, 4.5509681 51.9403011), (4.5510977 51.9400288, 4.5510416 51.9400107, 4.5510041 51.9399837, 4.5509853 51.9399501, 4.5509878 51.9399146, 4.5510072 51.939886, 4.5510405 51.9398628, 4.5510841 51.9398474, 4.5511335 51.9398415, 4.5511833 51.9398457), (4.5512999 51.9395423, 4.5512524 51.9396636, 4.551228 51.93973, 4.5512074 51.9397771, 4.5511833 51.9398457), (4.5514136 51.939282, 4.5512999 51.9395423), (4.551436 51.9392296, 4.5514136 51.939282), (4.5535423 51.9342405, 4.5532239 51.9349866, 4.5531656 51.9351233, 4.5531087 51.9352565, 4.5528246 51.9359224, 4.5527725 51.9360444, 4.5524133 51.9368861, 4.5522006 51.9373847, 4.5520817 51.937668, 4.5518868 51.9381218, 4.5517636 51.9384086, 4.551627 51.9387286, 4.5515238 51.9389703, 4.551436 51.9392296), (4.5540015 51.9331643, 4.5535423 51.9342405), (4.5540427 51.9330728, 4.5540015 51.9331643), (4.5540427 51.9330728, 4.5548494 51.9332039, 4.5556021 51.9333261, 4.5563447 51.9334468, 4.5571283 51.9335741, 4.5578632 51.9336935, 4.5586152 51.9338157, 4.5587236 51.9338333), (4.5587236 51.9338333, 4.5588815 51.9338602), (4.5588815 51.9338602, 4.5589589 51.9338803, 4.5590242 51.9339147, 4.5591512 51.9340529), (4.5591512 51.9340529, 4.5594056 51.9343507), (4.5594056 51.9343507, 4.5598453 51.9348655, 4.5599386 51.9349729, 4.5600112 51.9350528), (4.5600112 51.9350528, 4.5600854 51.9351311), (4.5600854 51.9351311, 4.5602896 51.9353089, 4.5603233 51.9353382, 4.5604236 51.9354255, 4.5606429 51.9356023, 4.5609027 51.9357482, 4.5612022 51.9358705, 4.5614251 51.9359537), (4.5614251 51.9359537, 4.5624305 51.9361238), (4.5624305 51.9361238, 4.5625935 51.9361487), (4.5625935 51.9361487, 4.5628084 51.9361808), (4.5628084 51.9361808, 4.5629511 51.936207, 4.5630287 51.9362255), (4.5630287 51.9362255, 4.5630881 51.9362518, 4.5631801 51.9363196, 4.5632 51.9364, 4.5631982 51.9364871, 4.563147 51.9365665, 4.5630414 51.9366217, 4.5628364 51.9366979, 4.5627374 51.9367428, 4.5626779 51.9367916, 4.5624433 51.937366), (4.5624433 51.937366, 4.5624455 51.9374308, 4.5624294 51.9374871, 4.5623649 51.9375645), (4.5623649 51.9375645, 4.5622749 51.9377647, 4.5621803 51.9379929, 4.5619921 51.938314, 4.5617114 51.9390485), (4.5617114 51.9390485, 4.5617759 51.9390727, 4.5625526 51.9398483, 4.5626297 51.9399177), (4.5640622 51.939735, 4.5639472 51.9397149, 4.5637706 51.9396923, 4.5637 51.9397, 4.5632204 51.9398588, 4.5630801 51.9398653, 4.5629149 51.9398524, 4.5627271 51.9398809, 4.5626297 51.9399177), (4.5640622 51.939735, 4.5641718 51.9394564, 4.5642205 51.9394153, 4.5643903 51.9393488), (4.5643903 51.9393488, 4.5644969 51.9393071, 4.5645474 51.9392873, 4.5648158 51.9391967), (4.5648158 51.9391967, 4.5650477 51.9391104, 4.5657125 51.9388625, 4.5661165 51.9387116, 4.5663117 51.9386369, 4.5666588 51.9385132, 4.5667404 51.9384725, 4.5667896 51.9384389, 4.5668182 51.9384065, 4.5668485 51.9383377, 4.5668642 51.9382733, 4.5668634 51.9381987, 4.5668233 51.9381243, 4.566183 51.937462, 4.5659906 51.9372526, 4.5659232 51.9371566, 4.5659115 51.9371063, 4.5659128 51.9370592, 4.5660157 51.9368122, 4.5660251 51.9367897), (4.5674668 51.9332139, 4.566998 51.9343577, 4.5669334 51.9345162, 4.5666027 51.9353431, 4.5665482 51.9354669, 4.5664907 51.9356175, 4.5660251 51.9367897), (4.5674668 51.9332139, 4.5675116 51.9329208), (4.5675116 51.9329208, 4.5675353 51.9327485, 4.5675466 51.9326833, 4.5675668 51.9325662), (4.5675668 51.9325662, 4.5675865 51.9324814), (4.5675865 51.9324814, 4.5677063 51.9325004, 4.5679326 51.9325507, 4.5686536 51.9327162), (4.5686536 51.9327162, 4.5696099 51.9328681, 4.5715577 51.9331681), (4.5715577 51.9331681, 4.5718641 51.9332149, 4.5721076 51.933267), (4.5721076 51.933267, 4.5721955 51.9332954, 4.5727565 51.9336112, 4.575188 51.93498, 4.5761862 51.9355397, 4.576744 51.9358364, 4.5770131 51.9359879, 4.5779943 51.9365316, 4.5789635 51.9370068), (4.5789635 51.9370068, 4.5798262 51.9373853, 4.5799651 51.9374502, 4.5800477 51.9374907), (4.5803401 51.9372517, 4.5802024 51.9373657, 4.5800477 51.9374907), (4.5805396 51.9370825, 4.5803401 51.9372517), (4.5827581 51.9343632, 4.5825842 51.9345583, 4.5822275 51.934964, 4.5819691 51.9352766, 4.5818102 51.9355006, 4.5814228 51.9359855, 4.5809175 51.9366477, 4.580818 51.9367766, 4.5807424 51.9368752, 4.5806776 51.9369503, 4.5805396 51.9370825), (4.5837165 51.9336086, 4.5836166 51.9336908, 4.5827581 51.9343632), (4.5838276 51.9335206, 4.5837165 51.9336086), (4.5851722 51.9325886, 4.5850661 51.9326619, 4.5840003 51.9333868, 4.5838276 51.9335206), (4.5864393 51.9317334, 4.5852855 51.9325124, 4.5851722 51.9325886), (4.5864393 51.9317334, 4.5865032 51.9316704, 4.5866067 51.9315684, 4.5866784 51.9315124), (4.5866784 51.9315124, 4.5867787 51.931547, 4.5868845 51.9315798, 4.5869936 51.9316395, 4.5871292 51.9317203, 4.5871956 51.9317641, 4.5873429 51.9319069), (4.5873429 51.9319069, 4.587845 51.9321857, 4.5881272 51.9323254, 4.5883859 51.932434, 4.5885839 51.9325117, 4.5888752 51.9326235, 4.5894766 51.9328592, 4.5895536 51.9328831, 4.5896269 51.9328918, 4.5897301 51.9328756), (4.5904339 51.9320735, 4.5903401 51.9321833, 4.5902947 51.9322366, 4.590204 51.9323633, 4.5900839 51.9325054, 4.5898348 51.9328145, 4.5897799 51.9328511, 4.589756 51.9328647, 4.5897301 51.9328756), (4.5905636 51.9319109, 4.5904339 51.9320735))</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6308493</t>
+          <t>10190357</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Barendrecht, Station</t>
+          <t>Capelle aan den IJssel, Capelle Centrum</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bus 84: Rotterdam Zuidplein =&gt; Barendrecht Station</t>
+          <t>Bus 606: Capelle Centrum =&gt; Capelle Centrum</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>606</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3131,14 +3131,14 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.4891087 51.8876119, 4.4889684 51.8875951), (4.4889684 51.8875951, 4.488935 51.887536), (4.488935 51.887536, 4.4889162 51.8875006, 4.4889081 51.8874775, 4.4889101 51.8874586, 4.4889389 51.8874235), (4.4889389 51.8874235, 4.4889158 51.8873844), (4.4889158 51.8873844, 4.4888984 51.8873554, 4.488885 51.8873332, 4.4882398 51.8863472), (4.4882398 51.8863472, 4.4882017 51.8862617), (4.4882017 51.8862617, 4.4881936 51.8861901, 4.4882886 51.8861485, 4.4884385 51.8861228, 4.4888136 51.8860378, 4.4889128 51.8860055, 4.4889423 51.8859732, 4.4889299 51.8859325), (4.4889299 51.8859325, 4.4888517 51.8858043, 4.4887849 51.8856949), (4.4887849 51.8856949, 4.4886203 51.8854195), (4.4886203 51.8854195, 4.4885574 51.8852968), (4.4885574 51.8852968, 4.4885611 51.8847576), (4.4885611 51.8847576, 4.4885658 51.8846861), (4.4885658 51.8846861, 4.4885933 51.8846331, 4.4886225 51.8845826, 4.4886661 51.8845362, 4.4888165 51.88444), (4.4888165 51.88444, 4.4889772 51.8844436, 4.489115 51.8844472), (4.489115 51.8844472, 4.4897234 51.8844781, 4.4897849 51.8844833, 4.4899046 51.8844934, 4.4900858 51.8845086), (4.4900858 51.8845086, 4.4905601 51.8845847, 4.4910638 51.8846882), (4.4910638 51.8846882, 4.4914835 51.884735, 4.4916239 51.884762, 4.4919081 51.8848032, 4.492062 51.8848055, 4.492258 51.8847897), (4.492258 51.8847897, 4.4924046 51.8847204, 4.4925939 51.8846422, 4.4930515 51.884433), (4.4930515 51.884433, 4.493294 51.8843369, 4.4937797 51.8841581, 4.4946148 51.8838948, 4.4954687 51.8836544, 4.4961131 51.883469, 4.4967024 51.8832961, 4.4970198 51.8832016, 4.4973052 51.8830987, 4.497558 51.883001, 4.4977963 51.882894, 4.4980381 51.8827783, 4.4983248 51.8826107), (4.4983248 51.8826107, 4.4984456 51.8825271, 4.4986595 51.8823747, 4.4988747 51.8822199), (4.4988747 51.8822199, 4.4991438 51.8820363, 4.499309 51.8819137), (4.499309 51.8819137, 4.4995922 51.8816928), (4.4995922 51.8816928, 4.5001356 51.8812723), (4.5001356 51.8812723, 4.5003968 51.8810157, 4.5004641 51.8809654, 4.5005098 51.8809244, 4.5005703 51.8808763, 4.5007085 51.8807832), (4.5007085 51.8807832, 4.5009126 51.8807109), (4.5009126 51.8807109, 4.5010517 51.880628, 4.5010991 51.8805933, 4.5013025 51.8804465, 4.5014562 51.8803336, 4.5017191 51.8801393, 4.5018786 51.8800235), (4.5018786 51.8800235, 4.5021977 51.8797856), (4.5021977 51.8797856, 4.5030301 51.8791718, 4.5031041 51.8791193), (4.5031041 51.8791193, 4.5034128 51.8789003, 4.5038458 51.8786251, 4.5041636 51.8784308), (4.5041636 51.8784308, 4.5048269 51.8780538, 4.5053345 51.8777927, 4.5055773 51.8776793), (4.5055773 51.8776793, 4.5063288 51.8773282), (4.5063288 51.8773282, 4.5085037 51.8763156, 4.5087514 51.8761983), (4.5087514 51.8761983, 4.5103481 51.8754867), (4.5103481 51.8754867, 4.510583 51.8754329, 4.5106995 51.8754095, 4.5107512 51.8754003, 4.5108017 51.8753943, 4.5108678 51.8753894, 4.5109422 51.8753859), (4.5109422 51.8753859, 4.5109782 51.8753908, 4.511019 51.8754007, 4.5110775 51.875425, 4.5111731 51.8754684, 4.5112308 51.8754996, 4.5112861 51.8755363, 4.5114301 51.8756421), (4.5114301 51.8756421, 4.5115827 51.8757856), (4.5115827 51.8757856, 4.5121581 51.8762788, 4.5123968 51.8764475, 4.5124334 51.8764715, 4.5126029 51.8765431), (4.5126029 51.8765431, 4.5127701 51.8765953, 4.5128871 51.8766202, 4.5130313 51.876636, 4.5131609 51.8766481, 4.5139257 51.876679, 4.5147736 51.8767145, 4.5167116 51.8767956, 4.5168551 51.8768016, 4.5170802 51.8768133), (4.517119 51.8765252, 4.5171011 51.8766435, 4.5170905 51.8767132, 4.5170802 51.8768133), (4.5171692 51.8761645, 4.517119 51.8765252), (4.5171924 51.8759618, 4.5171692 51.8761645), (4.5173319 51.8758976, 4.5171924 51.8759618), (4.5223 51.8741, 4.5219658 51.8742007, 4.5218368 51.8742511, 4.521283 51.8744492, 4.520472 51.8747443, 4.5196698 51.8750376, 4.5186987 51.8753965, 4.5185221 51.8754614, 4.5177519 51.8757387, 4.5173319 51.8758976), (4.5223 51.8741, 4.522426 51.8741192, 4.5225822 51.874177, 4.5230454 51.8743412, 4.5232607 51.8744175, 4.5233399 51.8744456), (4.5233399 51.8744456, 4.5233961 51.8744682), (4.5233961 51.8744682, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5248685 51.8731308, 4.5247157 51.8731964, 4.5245849 51.87328, 4.524483 51.8733549, 4.5241467 51.8737138, 4.5238862 51.873997), (4.5280262 51.8719879, 4.5282131 51.871889, 4.5287592 51.871698, 4.528907 51.8716415, 4.5292342 51.8715389, 4.5294225 51.87147, 4.5300086 51.8712543, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5344762 51.8697115, 4.5342189 51.8697924, 4.5337608 51.8699615, 4.5336393 51.8699969, 4.533186 51.8701219, 4.5329866 51.870185, 4.5322964 51.8704475, 4.5322426 51.8704666, 4.5320457 51.8705365, 4.5319054 51.8705828, 4.5309781 51.8709132, 4.5304911 51.8710958, 4.5301922 51.8712078), (4.5346672 51.8696393, 4.5348068 51.869543, 4.5349507 51.8694684, 4.5353282 51.8693549), (4.5353282 51.8693549, 4.535419 51.8693301, 4.5357387 51.8692299), (4.5357387 51.8692299, 4.5358962 51.8691815, 4.5360179 51.8691419, 4.536083 51.8691058, 4.5361453 51.8690587, 4.5361792 51.8690086, 4.5361952 51.8689713, 4.5362062 51.8689163, 4.5362056 51.8688542, 4.536216 51.8687493), (4.5358989 51.8680888, 4.5359103 51.8682389, 4.5359363 51.8683238, 4.5359675 51.868412, 4.5360097 51.8684758, 4.5360802 51.8685572, 4.536216 51.8687493), (4.5358848 51.8673267, 4.5358989 51.8680888), (4.535884 51.8666454, 4.5358848 51.8673267), (4.5362872 51.8647257, 4.536262 51.8648455, 4.5362285 51.8649601, 4.5360495 51.8652493, 4.5360082 51.8653161, 4.5359439 51.865428, 4.5359099 51.8655332, 4.5358978 51.8656459, 4.535884 51.8666454), (4.5362895 51.8645548, 4.5362872 51.8647257), (4.5362856 51.8641268, 4.5362881 51.8643453, 4.5362895 51.8645548), (4.5362744 51.8635002, 4.5362765 51.8639978, 4.5362856 51.8641268), (4.5362744 51.8635002, 4.5362616 51.8633186, 4.5362616 51.8632064, 4.5362697 51.863147), (4.5362697 51.863147, 4.5362812 51.8630752, 4.536286 51.8630431, 4.5362926 51.8628241, 4.5362966 51.8627044), (4.5362966 51.8627044, 4.5361124 51.8627051, 4.5356996 51.86269), (4.5356996 51.86269, 4.5352511 51.8626756, 4.5342013 51.8626709, 4.5339066 51.8626733, 4.5334843 51.8626758, 4.5327369 51.862653, 4.5324929 51.8626457, 4.532358 51.8626417), (4.532358 51.8626417, 4.5323277 51.8626817, 4.5322775 51.8627133, 4.532213 51.8627326, 4.5321418 51.8627374, 4.5320721 51.8627273, 4.5320119 51.8627034, 4.5319682 51.8626683), (4.5319682 51.8626683, 4.5318634 51.8626708, 4.5317842 51.8626719, 4.5315707 51.8626552), (4.5292216 51.8626329, 4.5300017 51.862642, 4.5309347 51.8626704, 4.5313253 51.862668, 4.5315707 51.8626552), (4.5287234 51.8626377, 4.5292216 51.8626329), (4.5233204 51.8619951, 4.5244539 51.8623547, 4.5248122 51.8624599, 4.5251911 51.8625472, 4.5254611 51.8625897, 4.5257303 51.8626207, 4.526006 51.8626483, 4.5262829 51.862659, 4.5287234 51.8626377), (4.5226603 51.8617864, 4.5231585 51.8619437, 4.5233204 51.8619951), (4.5226603 51.8617864, 4.5225159 51.8617724, 4.5224322 51.8617484, 4.5223446 51.8617251, 4.5223076 51.8617105), (4.5223076 51.8617105, 4.5222823 51.8617252, 4.522253 51.8617366, 4.5222207 51.8617445, 4.5221867 51.8617485, 4.522152 51.8617485, 4.5220881 51.8617373, 4.5220348 51.8617129, 4.5220127 51.861695, 4.5219967 51.8616748, 4.5219874 51.8616531, 4.5219853 51.8616306), (4.5219853 51.8616306, 4.5220015 51.8615884, 4.5220421 51.8615529), (4.5220421 51.8615529, 4.5220856 51.8615339, 4.5221361 51.8615233, 4.5221894 51.8615221), (4.5221894 51.8615221, 4.5222571 51.8614604, 4.522275 51.8614445, 4.5223725 51.8613312, 4.5224431 51.8612672), (4.5221867 51.8609223, 4.522276 51.861012, 4.5224354 51.8611075, 4.5224632 51.8611545, 4.522476 51.8612042, 4.5224431 51.8612672), (4.5260329 51.8592411, 4.5260366 51.8594415, 4.5260376 51.8594916, 4.5260073 51.859559, 4.5259404 51.8596081, 4.5258709 51.8596381, 4.5257883 51.8596545, 4.5249924 51.8596682, 4.5240594 51.8596788, 4.523151 51.8596894, 4.5229249 51.8597159, 4.5226797 51.8597776, 4.5223957 51.8599244, 4.5222988 51.8600294, 4.5222209 51.8601437, 4.5221795 51.8603288, 4.5221867 51.8609223), (4.5260323 51.8589669, 4.5260338 51.8590908, 4.5260329 51.8592411), (4.525997 51.8580025, 4.5260323 51.8589669), (4.5256602 51.8578762, 4.525997 51.8580025), (4.5256134 51.8578539, 4.5256602 51.8578762), (4.5255636 51.8560765, 4.5255634 51.8568945, 4.5256062 51.8575946, 4.5256134 51.8578539), (4.5255631 51.856021, 4.5255636 51.8560765), (4.5254712 51.855612, 4.5255596 51.8556846, 4.5255618 51.8558963, 4.5255626 51.8559777, 4.5255631 51.856021), (4.5241614 51.8556295, 4.5254712 51.855612), (4.5216485 51.8556846, 4.5217726 51.8556869, 4.522697 51.8556624, 4.5228913 51.8556592, 4.5230557 51.8556568, 4.5241614 51.8556295), (4.5216032 51.8545663, 4.5216009 51.8547793, 4.5216485 51.8556846), (4.5215012 51.8541594, 4.5215779 51.8542721, 4.5215905 51.8543746, 4.5215962 51.8544888, 4.5216032 51.8545663), (4.5215012 51.8541594, 4.5214287 51.8541008, 4.5214131 51.8540882, 4.5213707 51.8540362, 4.5213553 51.8540187), (4.5213553 51.8540187, 4.5212963 51.8540193, 4.5212397 51.8540088, 4.521191 51.8539882, 4.5211547 51.8539595, 4.5211342 51.8539253, 4.5211314 51.8538889), (4.5211314 51.8538889, 4.5211447 51.8538566, 4.521172 51.8538278), (4.521172 51.8538278, 4.5212129 51.8538041, 4.5212631 51.8537887, 4.5213184 51.8537828, 4.5213741 51.8537871, 4.5214254 51.8538012), (4.5214254 51.8538012, 4.5215105 51.8537541, 4.5215243 51.8537465, 4.5216805 51.8536916), (4.5242631 51.8521614, 4.524212 51.8522168, 4.524177 51.8522472, 4.5235753 51.852598, 4.5226685 51.8531211, 4.5221223 51.853441, 4.5217806 51.8536331, 4.5216805 51.8536916), (4.5243148 51.8521286, 4.5242631 51.8521614), (4.5244948 51.8520196, 4.5243768 51.8520922, 4.5243148 51.8521286), (4.5245251 51.8519832, 4.5244948 51.8520196), (4.5259202 51.8511551, 4.5254164 51.8514542, 4.5245251 51.8519832), (4.5267576 51.8511313, 4.5259202 51.8511551), (4.5268577 51.8511275, 4.5267576 51.8511313), (4.5274816 51.8511047, 4.5273995 51.8511087, 4.5269847 51.8511227, 4.5268577 51.8511275), (4.5276214 51.8511042, 4.5275445 51.8511051, 4.5274816 51.8511047), (4.5288899 51.8511058, 4.528686 51.8511058, 4.5277906 51.8511221, 4.5276214 51.8511042), (4.5288899 51.8511058, 4.5289016 51.8513171, 4.5289691 51.8513988, 4.5290754 51.8514285, 4.5298309 51.851419, 4.5301549 51.8514123, 4.530311 51.8514618, 4.5303529 51.8515335, 4.5303736 51.851678, 4.5304215 51.8517461, 4.5305377 51.851791, 4.5312148 51.8517825, 4.5313696 51.8517802), (4.5313696 51.8517802, 4.5315595 51.851781, 4.532105 51.851782, 4.5322046 51.85178), (4.5338181 51.851368, 4.5331995 51.8515558, 4.5326059 51.8517167, 4.5324071 51.8517706, 4.5322046 51.85178), (4.5338925 51.8499699, 4.5338935 51.8500917, 4.533903 51.8507024, 4.5339033 51.8509132, 4.5338987 51.8511789, 4.5339 51.8513, 4.5338181 51.851368), (4.5338925 51.8499699, 4.5341437 51.8499565, 4.5356758 51.8499445), (4.5356758 51.8499445, 4.5358866 51.8499212, 4.5360047 51.8499161, 4.5360991 51.8499123, 4.5361349 51.8499108), (4.5361349 51.8499108, 4.5361612 51.8498813, 4.5361998 51.8498575, 4.5362477 51.8498414), (4.5362477 51.8498414, 4.5363099 51.849834, 4.5363725 51.8498395), (4.5363725 51.8498395, 4.5364398 51.8498626, 4.536487 51.8499003, 4.5365064 51.8499463, 4.536495 51.8499934, 4.5364545 51.8500339, 4.5363916 51.8500613), (4.5363916 51.8500613, 4.5363728 51.850127, 4.536365 51.8501498, 4.5362852 51.8504404), (4.5362852 51.8504404, 4.5362748 51.8505919, 4.5362825 51.8508368, 4.5362818 51.8508838, 4.5362823 51.8510476, 4.5362852 51.8519116, 4.536294 51.8521112, 4.5363054 51.8522855, 4.536325 51.8524724), (4.536325 51.8524724, 4.5363937 51.8526698, 4.5364036 51.8527315, 4.5364231 51.8527931, 4.5364291 51.8528119), (4.5364291 51.8528119, 4.5364775 51.8528244, 4.5365187 51.8528445, 4.5365497 51.8528706), (4.5365497 51.8528706, 4.5366782 51.8528683, 4.5368008 51.8528673, 4.5369493 51.8528736), (4.5391576 51.8527685, 4.5390088 51.8527813, 4.5373411 51.8528389, 4.5371991 51.8528492, 4.5369493 51.8528736), (4.5391576 51.8527685, 4.5393891 51.8527134, 4.5396198 51.8526628, 4.5397591 51.8526241), (4.5397591 51.8526241, 4.5399205 51.8525487, 4.5400151 51.8524994, 4.5400927 51.8524634, 4.5401954 51.8524296), (4.5404 51.8521, 4.5403214 51.8523007, 4.5401954 51.8524296), (4.5412174 51.8500438, 4.5411169 51.8501639, 4.5409809 51.8504042, 4.5404 51.8521), (4.5412174 51.8500438, 4.5412467 51.8499751, 4.5413135 51.8498955, 4.5414058 51.849823, 4.5415113 51.8497533, 4.5415715 51.84972, 4.5416756 51.8496774, 4.5418688 51.8496358), (4.5432769 51.849598, 4.5431452 51.8495955, 4.5421 51.8496, 4.5418688 51.8496358), (4.5432769 51.849598, 4.5435052 51.8495756, 4.543629 51.8495824, 4.5437987 51.849602, 4.5439101 51.8496203, 4.5440364 51.8496718), (4.5440364 51.8496718, 4.5440878 51.8496787, 4.5455 51.8499), (4.5455 51.8499, 4.5462616 51.8500359, 4.5466418 51.8501865, 4.546971 51.8503821), (4.546971 51.8503821, 4.5472673 51.8506665, 4.5473351 51.8508021, 4.547364 51.8509107, 4.5473832 51.8510197, 4.5473965 51.8510914), (4.5473965 51.8510914, 4.547394 51.8511564, 4.5473597 51.8514184, 4.5472795 51.8518996, 4.547256 51.8520381, 4.5472358 51.8521552), (4.5472358 51.8521552, 4.5473959 51.852161, 4.5475929 51.8521555), (4.5475929 51.8521555, 4.5477395 51.8521458, 4.5479428 51.8521493, 4.5486849 51.8522221), (4.5486849 51.8522221, 4.5487987 51.8522093, 4.5488635 51.8522167, 4.5490941 51.8522428, 4.5493137 51.8522676, 4.5494177 51.8523009), (4.5494177 51.8523009, 4.5499511 51.8523622, 4.5501187 51.8523831, 4.5511162 51.8524944, 4.551747 51.8525232, 4.5519422 51.8525328), (4.5519422 51.8525328, 4.5521179 51.8525618, 4.5523302 51.8526119, 4.552533 51.8526696, 4.5533174 51.8529705), (4.5533174 51.8529705, 4.5535743 51.8530623, 4.5536128 51.8530921, 4.5536247 51.853115), (4.5536247 51.853115, 4.5536248 51.8531441, 4.5536057 51.853175, 4.5533553 51.8534009), (4.5533553 51.8534009, 4.5531322 51.8536107, 4.5522968 51.8543932), (4.5522968 51.8543932, 4.5521568 51.8545351), (4.5521568 51.8545351, 4.5519122 51.85453), (4.5519122 51.85453, 4.5518452 51.8546153, 4.5518348 51.8547553))</t>
+          <t>MULTILINESTRING ((4.5904339 51.9320735, 4.5903401 51.9321833, 4.5902947 51.9322366, 4.590204 51.9323633, 4.5900839 51.9325054, 4.5898348 51.9328145, 4.5897799 51.9328511, 4.589756 51.9328647, 4.5897301 51.9328756), (4.5873429 51.9319069, 4.587845 51.9321857, 4.5881272 51.9323254, 4.5883859 51.932434, 4.5885839 51.9325117, 4.5888752 51.9326235, 4.5894766 51.9328592, 4.5895536 51.9328831, 4.5896269 51.9328918, 4.5897301 51.9328756), (4.5873429 51.9319069, 4.5871247 51.9318031, 4.5869537 51.9317142, 4.5869142 51.9316936, 4.5868102 51.9316338, 4.5867316 51.9315788), (4.5867316 51.9315788, 4.586676 51.9316104, 4.5864393 51.9317334), (4.5864393 51.9317334, 4.5852855 51.9325124, 4.5851722 51.9325886), (4.5851722 51.9325886, 4.5850661 51.9326619, 4.5840003 51.9333868, 4.5838276 51.9335206), (4.5838276 51.9335206, 4.5837165 51.9336086), (4.5837165 51.9336086, 4.5836166 51.9336908, 4.5827581 51.9343632), (4.5827581 51.9343632, 4.5825842 51.9345583, 4.5822275 51.934964, 4.5819691 51.9352766, 4.5818102 51.9355006, 4.5814228 51.9359855, 4.5809175 51.9366477, 4.580818 51.9367766, 4.5807424 51.9368752, 4.5806776 51.9369503, 4.5805396 51.9370825), (4.5805396 51.9370825, 4.5803401 51.9372517), (4.5803401 51.9372517, 4.5802024 51.9373657, 4.5800477 51.9374907), (4.5800477 51.9374907, 4.5799577 51.9375657), (4.5799577 51.9375657, 4.5798767 51.9375186, 4.5789635 51.9370068), (4.5721076 51.933267, 4.5721955 51.9332954, 4.5727565 51.9336112, 4.575188 51.93498, 4.5761862 51.9355397, 4.576744 51.9358364, 4.5770131 51.9359879, 4.5779943 51.9365316, 4.5789635 51.9370068), (4.5715577 51.9331681, 4.5718641 51.9332149, 4.5721076 51.933267), (4.5686536 51.9327162, 4.5696099 51.9328681, 4.5715577 51.9331681), (4.5686536 51.9327162, 4.5680083 51.9326273, 4.5679104 51.9326148, 4.5676861 51.9325829), (4.5676861 51.9325829, 4.5676732 51.9327036, 4.5676561 51.9328637, 4.5674668 51.9332139), (4.5674668 51.9332139, 4.566998 51.9343577, 4.5669334 51.9345162, 4.5666027 51.9353431, 4.5665482 51.9354669, 4.5664907 51.9356175, 4.5660251 51.9367897), (4.5648158 51.9391967, 4.5650477 51.9391104, 4.5657125 51.9388625, 4.5661165 51.9387116, 4.5663117 51.9386369, 4.5666588 51.9385132, 4.5667404 51.9384725, 4.5667896 51.9384389, 4.5668182 51.9384065, 4.5668485 51.9383377, 4.5668642 51.9382733, 4.5668634 51.9381987, 4.5668233 51.9381243, 4.566183 51.937462, 4.5659906 51.9372526, 4.5659232 51.9371566, 4.5659115 51.9371063, 4.5659128 51.9370592, 4.5660157 51.9368122, 4.5660251 51.9367897), (4.5648158 51.9391967, 4.5645871 51.9393235, 4.5645428 51.9393481, 4.5644765 51.9393928), (4.5644765 51.9393928, 4.5644573 51.9394159, 4.5644285 51.9394555, 4.564406 51.9395132, 4.5643086 51.9397761), (4.5643086 51.9397761, 4.5640622 51.939735), (4.5640622 51.939735, 4.5641718 51.9394564, 4.5642205 51.9394153, 4.5643903 51.9393488), (4.5643903 51.9393488, 4.5644765 51.9393928), (4.5644765 51.9393928, 4.5644573 51.9394159, 4.5644285 51.9394555, 4.564406 51.9395132, 4.5643086 51.9397761), (4.5643086 51.9397761, 4.5640622 51.939735), (4.5640622 51.939735, 4.5639472 51.9397149, 4.5637706 51.9396923, 4.5637 51.9397, 4.5632204 51.9398588, 4.5630801 51.9398653, 4.5629149 51.9398524, 4.5627271 51.9398809, 4.5626297 51.9399177), (4.5617114 51.9390485, 4.5617759 51.9390727, 4.5625526 51.9398483, 4.5626297 51.9399177), (4.5623649 51.9375645, 4.5622749 51.9377647, 4.5621803 51.9379929, 4.5619921 51.938314, 4.5617114 51.9390485), (4.5623649 51.9375645, 4.5623684 51.9374804, 4.5623947 51.9374203, 4.5624433 51.937366), (4.5630287 51.9362255, 4.5630881 51.9362518, 4.5631801 51.9363196, 4.5632 51.9364, 4.5631982 51.9364871, 4.563147 51.9365665, 4.5630414 51.9366217, 4.5628364 51.9366979, 4.5627374 51.9367428, 4.5626779 51.9367916, 4.5624433 51.937366), (4.5628084 51.9361808, 4.5629511 51.936207, 4.5630287 51.9362255), (4.5625935 51.9361487, 4.5628084 51.9361808), (4.5624305 51.9361238, 4.5625935 51.9361487), (4.5614251 51.9359537, 4.5624305 51.9361238), (4.5614251 51.9359537, 4.561119 51.935902, 4.5609 51.93583, 4.56062 51.9357, 4.5604179 51.9355489, 4.5603227 51.9354695, 4.560218 51.9353829, 4.5601826 51.9353552, 4.559983 51.9351788), (4.559983 51.9351788, 4.5598994 51.9351071), (4.5598994 51.9351071, 4.5598195 51.9350368, 4.5592849 51.9343905), (4.5592849 51.9343905, 4.5590356 51.9340895), (4.5590356 51.9340895, 4.558941 51.9340038, 4.5588916 51.9339708, 4.5588333 51.9339547), (4.5588333 51.9339547, 4.5586737 51.9339285), (4.5586737 51.9339285, 4.5585737 51.9339121, 4.5578215 51.9337891, 4.5570871 51.933669, 4.5563053 51.9335411, 4.5555627 51.9334196, 4.5548087 51.9332963, 4.5540015 51.9331643), (4.5540015 51.9331643, 4.5535423 51.9342405), (4.5535423 51.9342405, 4.5532239 51.9349866, 4.5531656 51.9351233, 4.5531087 51.9352565, 4.5528246 51.9359224, 4.5527725 51.9360444, 4.5524133 51.9368861, 4.5522006 51.9373847, 4.5520817 51.937668, 4.5518868 51.9381218, 4.5517636 51.9384086, 4.551627 51.9387286, 4.5515238 51.9389703, 4.551436 51.9392296), (4.551436 51.9392296, 4.5514136 51.939282), (4.5514136 51.939282, 4.5512999 51.9395423), (4.5512999 51.9395423, 4.5512524 51.9396636, 4.551228 51.93973, 4.5512074 51.9397771, 4.5511833 51.9398457), (4.5511833 51.9398457, 4.5512258 51.9398585, 4.55126 51.9398786, 4.5512827 51.9399042, 4.5512918 51.9399328, 4.5512863 51.9399618, 4.5512658 51.9399893, 4.5512324 51.9400114, 4.5511894 51.940026, 4.5511411 51.9400314, 4.5510977 51.9400288), (4.5510977 51.9400288, 4.5510639 51.9400998, 4.55105 51.9401291, 4.5509681 51.9403011), (4.5509681 51.9403011, 4.5508862 51.9405174, 4.5507952 51.9407282, 4.5504656 51.9415171, 4.5502265 51.9420632, 4.5500981 51.942351, 4.5500112 51.9425549, 4.5498128 51.9429935, 4.5496331 51.9434545, 4.5494322 51.9439584, 4.549397 51.9440563), (4.549397 51.9440563, 4.5509306 51.9443064, 4.5524506 51.9445543, 4.5533342 51.9446983, 4.5536707 51.9447546), (4.5536707 51.9447546, 4.553906 51.9447483, 4.554047 51.9447657, 4.5542266 51.9447931), (4.5542266 51.9447931, 4.5544106 51.9448242), (4.5544106 51.9448242, 4.5547523 51.9448819, 4.5548064 51.9448911, 4.5549459 51.9449146, 4.5552355 51.9449635, 4.55576 51.9450436, 4.5560067 51.94509, 4.5561576 51.945146, 4.5562679 51.9452069, 4.55636 51.9452764, 4.5564269 51.9453476, 4.5564608 51.9453836, 4.5565252 51.945449), (4.5565252 51.945449, 4.5565827 51.9455076), (4.5565827 51.9455076, 4.556646 51.945572, 4.5566819 51.9456084, 4.5567058 51.9456327, 4.5571448 51.9460961, 4.5572203 51.946189, 4.5572917 51.9463133, 4.55733 51.94643, 4.5573574 51.9465997, 4.5573332 51.9467566, 4.557232 51.9469525, 4.5572098 51.9469955, 4.55715 51.947085, 4.5568489 51.9475539, 4.5568245 51.9476023, 4.5566274 51.9479938, 4.5561972 51.9488327), (4.5561972 51.9488327, 4.5559711 51.9493287, 4.5559323 51.9494141, 4.555894 51.9495274), (4.555894 51.9495274, 4.556051 51.9495539, 4.5568694 51.949688), (4.5568694 51.949688, 4.5570567 51.9497204), (4.5570567 51.9497204, 4.5590772 51.950025), (4.5590772 51.950025, 4.5604168 51.9502336, 4.5605912 51.9502607, 4.5606091 51.9502634), (4.5606091 51.9502634, 4.5608719 51.9503025), (4.5608719 51.9503025, 4.56107 51.9503338, 4.5628887 51.9506283), (4.5628887 51.9506283, 4.5634269 51.9507107, 4.5639556 51.9507995), (4.5639556 51.9507995, 4.5643447 51.9509042, 4.5645921 51.9509784, 4.5648162 51.9510433), (4.5648162 51.9510433, 4.5650713 51.9511092), (4.5650713 51.9511092, 4.5653385 51.9511762, 4.5654022 51.9511922), (4.5654022 51.9511922, 4.5658669 51.9513246), (4.5658669 51.9513246, 4.5671181 51.9516003), (4.5671181 51.9516003, 4.5678821 51.9516968, 4.5681906 51.9517735, 4.5684924 51.9518927), (4.5684924 51.9518927, 4.5689918 51.9521368, 4.5691586 51.9522154, 4.569291 51.9522657), (4.569291 51.9522657, 4.5693527 51.9522447, 4.569422 51.9522366, 4.5694919 51.9522422), (4.5694919 51.9522422, 4.5695414 51.9521986, 4.5695674 51.9521716, 4.5696501 51.952074), (4.5699052 51.9486855, 4.5698111 51.9487315, 4.5692627 51.9491905, 4.5691929 51.9492565, 4.5691491 51.9493165, 4.5691134 51.9494955, 4.5690907 51.9496385, 4.5689999 51.9500995, 4.569 51.9502, 4.5690339 51.9502675, 4.5690875 51.9503376, 4.5691816 51.9503996, 4.5693163 51.9504636, 4.5694123 51.9505061, 4.5696606 51.9506161, 4.5698245 51.9506941, 4.5699016 51.950767, 4.5699413 51.9508411, 4.5699575 51.9509121, 4.5699559 51.9510231, 4.5698926 51.9511661, 4.5698054 51.9513009, 4.5697353 51.9514212, 4.5696963 51.9516502, 4.5696652 51.9519327, 4.5696501 51.952074), (4.5699052 51.9486855, 4.5700123 51.9486645, 4.5701518 51.9486585, 4.5704504 51.9486665, 4.5705198 51.9486686, 4.5711383 51.9486875, 4.5712973 51.9487035, 4.571432 51.9487365, 4.5715391 51.9487865, 4.5716202 51.9488493, 4.5719555 51.9490839, 4.5723636 51.9494183, 4.5724438 51.9494598), (4.5724438 51.9494598, 4.5725379 51.9494842, 4.5728243 51.9495102, 4.5729703 51.9495304, 4.5731795 51.9495741, 4.5734126 51.9495918, 4.5735545 51.9496017, 4.5741231 51.9496413), (4.5741231 51.9496413, 4.5745324 51.9495777, 4.5752111 51.9496242, 4.5756641 51.9497218, 4.5757862 51.9497428), (4.5757862 51.9497428, 4.5760539 51.9497603, 4.5761343 51.9497674, 4.5762264 51.9497947, 4.5762725 51.9498205, 4.5762971 51.9498343, 4.576353 51.949892, 4.5763596 51.9499579, 4.5763365 51.9501484, 4.576353 51.9502052, 4.5763777 51.9502538, 4.5764479 51.950299, 4.5765468 51.950337), (4.5765468 51.950337, 4.5766436 51.9503633, 4.5767757 51.9503798), (4.5767757 51.9503798, 4.5769748 51.9503938, 4.5771331 51.950405, 4.5785523 51.950505), (4.5785523 51.950505, 4.579333 51.9505618), (4.579333 51.9505618, 4.5795895 51.9505794, 4.5797258 51.9506024, 4.5798134 51.9506564, 4.5799173 51.9507494, 4.5800227 51.9508504, 4.5801298 51.9509174, 4.5802578 51.950972, 4.580401 51.9510038, 4.5807269 51.9510604, 4.580993 51.9510994, 4.5814288 51.9511353, 4.5817526 51.9511619, 4.5818247 51.9511838), (4.5818247 51.9511838, 4.5818792 51.9512143, 4.5818951 51.951273, 4.5818364 51.9516804, 4.5818134 51.9517749, 4.5817625 51.9518914, 4.5816945 51.9519968, 4.5816226 51.9521519, 4.5816294 51.952292, 4.5816619 51.9524224, 4.5817456 51.9525271, 4.5819637 51.9527248, 4.5820712 51.9528223, 4.5822061 51.9529375, 4.5823104 51.9530404, 4.582343 51.9530974, 4.5823648 51.9531854), (4.5823648 51.9531854, 4.5825128 51.9532063, 4.5826121 51.9532134, 4.5827062 51.9532424, 4.5827864 51.9532801, 4.5829007 51.9533706, 4.5830475 51.9535106, 4.5830687 51.9535319, 4.5832307 51.9536784, 4.5832859 51.953723, 4.5833583 51.9537534, 4.5834532 51.9537789, 4.5838417 51.9538211, 4.5839635 51.9538331, 4.5844657 51.9538909, 4.5851349 51.9539667, 4.585226 51.953968, 4.5853164 51.9539534, 4.5858493 51.9537926, 4.5861125 51.9537191, 4.5861665 51.9537094, 4.5863703 51.9536887), (4.5863703 51.9536887, 4.5863789 51.9536378, 4.5864204 51.9535873, 4.5864761 51.953553, 4.5865808 51.9535111, 4.5867556 51.9534542), (4.5879362 51.9513509, 4.5880569 51.9514644, 4.5880944 51.9514997, 4.5881246 51.9515613, 4.5881435 51.9516415, 4.5880653 51.9518919, 4.588009 51.9520946, 4.587956 51.9522765, 4.5878644 51.9525939, 4.5877927 51.952835, 4.5877449 51.9529444, 4.5877418 51.9529535, 4.5876795 51.9530215, 4.5875698 51.9530831, 4.587446 51.9531403, 4.5868709 51.953401, 4.5867556 51.9534542), (4.5904693 51.950309, 4.5899185 51.9502727, 4.5897878 51.9502735, 4.5896945 51.9503007, 4.5895 51.9504, 4.5892038 51.9505398, 4.5890851 51.9505669, 4.5889651 51.950562, 4.5885206 51.950532, 4.5882104 51.9505163, 4.5881057 51.950536, 4.5880227 51.9505622, 4.587937 51.9506122, 4.5878842 51.950661, 4.5878587 51.9506993, 4.5878248 51.9507685, 4.5877891 51.950952, 4.5877618 51.9511252, 4.5877833 51.951172, 4.5878361 51.9512568, 4.5879362 51.9513509), (4.5904693 51.950309, 4.5906278 51.9503459, 4.5907598 51.9503976, 4.5908811 51.9504782, 4.5910585 51.9506031, 4.5912118 51.950668, 4.5914411 51.9507181, 4.5915811 51.9507642, 4.5916861 51.9508117, 4.5917705 51.9508833, 4.5918331 51.9509671, 4.5918438 51.9510362, 4.5918301 51.9511305, 4.5917838 51.9512087, 4.5916991 51.9512842, 4.5916371 51.9513394, 4.5915651 51.9514191, 4.5915278 51.9514955, 4.5915065 51.9515769, 4.5914958 51.9516878, 4.5914585 51.9518966, 4.5914265 51.9520387, 4.5913211 51.9526739, 4.5913038 51.9527233, 4.5912825 51.9527635, 4.5912198 51.9528136, 4.590855 51.9530045, 4.5904745 51.9532073, 4.5904542 51.9532263, 4.5904178 51.9532713, 4.5903817 51.9535208, 4.5903474 51.9535953, 4.5902476 51.9536945, 4.5899878 51.9538266, 4.5897863 51.953921, 4.5895724 51.9540264, 4.5893957 51.9541753, 4.5893184 51.9542706, 4.5892629 51.9544056), (4.5892629 51.9544056, 4.5905449 51.9546156), (4.5905449 51.9546156, 4.5910774 51.9547168), (4.5910774 51.9547168, 4.5930839 51.9551374, 4.5943 51.9554, 4.5945246 51.9554282, 4.5947268 51.9554244, 4.5948977 51.9553973, 4.5952097 51.9553229, 4.5955122 51.9552398, 4.5956972 51.9551713, 4.5958367 51.9550988, 4.5960375 51.9549328, 4.5961597 51.9548312, 4.5966933 51.9543544), (4.5966933 51.9543544, 4.5968924 51.9541587), (4.5968924 51.9541587, 4.5984131 51.9526338, 4.5997969 51.9512507, 4.5999618 51.9510349), (4.5999618 51.9510349, 4.600012 51.9508633, 4.5999954 51.9507185, 4.5998862 51.9505615, 4.5995984 51.9503861), (4.5995984 51.9503861, 4.5985993 51.9499355, 4.5978505 51.9496058), (4.5978505 51.9496058, 4.5976312 51.9495218, 4.5974714 51.9494486, 4.5972278 51.9493213, 4.597177 51.9492935, 4.5971365 51.9492707, 4.5970431 51.9492191, 4.5969478 51.9491521, 4.596812 51.9490371, 4.5966971 51.9489055, 4.5965705 51.9487275, 4.5964816 51.9485429), (4.5962676 51.9467249, 4.596172 51.9468699, 4.5961074 51.9470095, 4.596063 51.9471533, 4.5960327 51.9473056, 4.596026 51.9474158, 4.5960354 51.9475672, 4.5960681 51.9476999, 4.5961102 51.9478513, 4.5961934 51.9480431, 4.5963122 51.9482643, 4.5964816 51.9485429), (4.5971506 51.9459307, 4.5966533 51.9463147, 4.596364 51.9466014, 4.5962676 51.9467249), (4.5998912 51.9437662, 4.5998318 51.9438145, 4.5998123 51.9438292, 4.5988223 51.9446142, 4.5971506 51.9459307), (4.6007983 51.9430796, 4.6005964 51.9432328, 4.600005 51.9436789, 4.599956 51.9437229, 4.5998912 51.9437662), (4.6015851 51.9424682, 4.6010153 51.942911, 4.6007983 51.9430796), (4.6026426 51.9416457, 4.6025167 51.9417333, 4.6019811 51.9421389, 4.6015851 51.9424682), (4.6019888 51.9412743, 4.6024841 51.9415661, 4.6026426 51.9416457), (4.6000081 51.940198, 4.6000916 51.9403305, 4.6002091 51.9404516, 4.600342 51.9405621, 4.6005307 51.9406679, 4.6006675 51.9407257, 4.6009388 51.9408137, 4.6013849 51.9409483, 4.6018073 51.9411774, 4.6019182 51.941236, 4.6019888 51.9412743), (4.5998501 51.9398803, 4.6000081 51.940198), (4.5972265 51.9384272, 4.5972441 51.9385054, 4.5972984 51.9386022, 4.5974176 51.9386946, 4.5978912 51.9389565, 4.5982417 51.9391148, 4.5985925 51.9392145, 4.599217 51.9393607, 4.599506 51.9395048, 4.5996365 51.9396012, 4.5997706 51.9397319, 4.5998501 51.9398803), (4.5996178 51.9362029, 4.5993 51.9365, 4.5986961 51.9370277, 4.5980549 51.9376022, 4.5979768 51.9376726, 4.597303 51.9382706, 4.5972518 51.9383518, 4.5972265 51.9384272), (4.5996178 51.9362029, 4.5998062 51.9360267), (4.5998062 51.9360267, 4.5998512 51.9359436, 4.5998894 51.9359003, 4.6001945 51.9356237, 4.6002926 51.9355228, 4.6003259 51.9354918, 4.6003947 51.9354183), (4.6003947 51.9354183, 4.6003618 51.9353933, 4.6003411 51.9353637, 4.600334 51.9353318, 4.6003412 51.9352999), (4.6003412 51.9352999, 4.6002309 51.935244, 4.6001888 51.9352251, 4.6001633 51.9352117, 4.600075 51.9351373), (4.596778 51.9337991, 4.5972118 51.9339426, 4.5977906 51.9341379, 4.5978599 51.9341626, 4.5979825 51.9342103, 4.59808 51.93425, 4.598225 51.9343137, 4.5983323 51.9343626, 4.5986091 51.9344839, 4.5988862 51.9346069, 4.5995376 51.9348887, 4.600075 51.9351373), (4.596778 51.9337991, 4.5966432 51.9337805, 4.5964664 51.9337204, 4.596331 51.9336721), (4.596331 51.9336721, 4.5962893 51.9336884, 4.5962422 51.9336976, 4.5961929 51.933699, 4.5961446 51.9336925, 4.5961082 51.9336817, 4.5960764 51.9336665, 4.596046 51.9336431, 4.5960262 51.9336158, 4.5960181 51.9335863, 4.5960225 51.9335565), (4.5960225 51.9335565, 4.5955933 51.9333955, 4.5954865 51.9333338), (4.5911175 51.9316918, 4.5913724 51.9317752, 4.5915988 51.9318549, 4.5920696 51.9320323, 4.5927314 51.9322774, 4.5935017 51.932573, 4.5941426 51.9328172, 4.5953193 51.9332727, 4.5953972 51.9333021, 4.5954865 51.9333338), (4.590792 51.9315924, 4.5909841 51.9316511, 4.5911175 51.9316918), (4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.5905636 51.9319109, 4.5904339 51.9320735))</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6358170</t>
+          <t>10190367</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3148,17 +3148,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hoogvliet Rotterdam, Hoogvliet Metro</t>
+          <t>Rotterdam, Capelsebrug Metro</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Bus 61: Hoogvliet Metro =&gt; Hoogvliet Metro</t>
+          <t>Bus 607: Capelle Centrum =&gt; Rotterdam Capelsebrug</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>607</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.366064 51.8607875, 4.3662476 51.8607378), (4.3662476 51.8607378, 4.3662654 51.8607615, 4.3662885 51.8607947), (4.3662885 51.8607947, 4.3663237 51.8608465), (4.3663237 51.8608465, 4.3663605 51.8608988), (4.3663605 51.8608988, 4.3663864 51.8609357), (4.3663864 51.8609357, 4.3664359 51.8610069, 4.3664341 51.861029, 4.3663983 51.8610755, 4.366378 51.8610879, 4.3660759 51.8611683, 4.3659655 51.8611697, 4.3658097 51.8612081, 4.365712 51.8612314), (4.365712 51.8612314, 4.3662377 51.8620749, 4.3662892 51.8621576), (4.3662892 51.8621576, 4.3663284 51.8621628, 4.3663629 51.8621755, 4.3663852 51.8621907, 4.3664 51.862209, 4.3664063 51.8622295, 4.3664034 51.8622503, 4.366378 51.862282), (4.366378 51.862282, 4.36656 51.8626509), (4.36656 51.8626509, 4.3671347 51.8635721), (4.3671347 51.8635721, 4.3676642 51.8644021, 4.3677621 51.8645557), (4.3677621 51.8645557, 4.3678329 51.8646758), (4.3678329 51.8646758, 4.3676409 51.864723, 4.366951 51.8648922), (4.366951 51.8648922, 4.3668146 51.8649256, 4.3661978 51.865075, 4.3660611 51.8651077), (4.3660611 51.8651077, 4.3653204 51.8652873, 4.3649818 51.865339), (4.3649818 51.865339, 4.3646779 51.8653697, 4.3644849 51.8653948, 4.3644076 51.8654131, 4.3643231 51.8654666, 4.3642964 51.8654841, 4.3641403 51.8655577, 4.3639755 51.8656134, 4.3638278 51.8656374, 4.3635614 51.8656878), (4.3635614 51.8656878, 4.3626926 51.8658914), (4.3626926 51.8658914, 4.3622 51.866, 4.3614432 51.866187, 4.3608084 51.8663505, 4.3606707 51.8663856, 4.3604912 51.8664257), (4.3604912 51.8664257, 4.360533 51.8664933, 4.3607096 51.866806), (4.3607096 51.866806, 4.3607858 51.8669377, 4.3608409 51.8670654), (4.3608409 51.8670654, 4.3608703 51.8671081, 4.3610277 51.8673369, 4.3612157 51.8676102, 4.361286 51.8677124, 4.3613014 51.8677347, 4.3616251 51.8682053), (4.3632137 51.8678177, 4.3631544 51.8678158, 4.3628552 51.8678916, 4.3616251 51.8682053), (4.3632137 51.8678177, 4.3632801 51.8678501, 4.3634416 51.8680423, 4.3635337 51.8681446), (4.3635337 51.8681446, 4.3636945 51.8683234, 4.3642514 51.8689173, 4.3643158 51.8689856, 4.3643623 51.8690351, 4.3646495 51.8693412, 4.3648648 51.8695707, 4.3651269 51.8698485, 4.3654 51.8701, 4.3654226 51.8701347, 4.3655988 51.8704044, 4.3658108 51.8707188), (4.3658108 51.8707188, 4.3654174 51.8708215, 4.3651246 51.8708979, 4.3645539 51.8710469, 4.363753 51.8712559, 4.3637143 51.871266, 4.3626184 51.8715521, 4.3613477 51.8718728), (4.3602468 51.8702416, 4.3604486 51.8705371, 4.3607033 51.8709101, 4.3608118 51.871069, 4.3608702 51.8711546, 4.3609172 51.8712234, 4.3609971 51.8713438, 4.3610376 51.8714048, 4.3611921 51.8716376, 4.3613477 51.8718728), (4.3599068 51.8697361, 4.3601939 51.870163, 4.3602468 51.8702416), (4.3595758 51.8692442, 4.3599068 51.8697361), (4.3595758 51.8692442, 4.359371 51.8692987, 4.3584512 51.8695341, 4.3583761 51.8695533, 4.3575797 51.869757, 4.3573722 51.8698101, 4.357222 51.8698486, 4.3567066 51.8699813), (4.3567066 51.8699813, 4.3561743 51.8700897, 4.3561137 51.8701027), (4.3561137 51.8701027, 4.3560097 51.8701293), (4.3560097 51.8701293, 4.3560178 51.8701753, 4.3560004 51.8702203, 4.3559595 51.870259), (4.3559595 51.870259, 4.3559083 51.8702841, 4.3558475 51.8702988, 4.3557823 51.8703017), (4.3557823 51.8703017, 4.3557401 51.8702971, 4.3557002 51.8702875, 4.3556535 51.8702679), (4.3556535 51.8702679, 4.3555047 51.8703021), (4.3555047 51.8703021, 4.3554637 51.8703112, 4.3551402 51.8704074), (4.3551402 51.8704074, 4.3546783 51.8705448, 4.3544542 51.8705975), (4.3544542 51.8705975, 4.3543605 51.8706299, 4.3535864 51.8709302), (4.3535864 51.8709302, 4.3533683 51.8710218, 4.3527187 51.8712917, 4.3526474 51.8713079), (4.3524372 51.8712164, 4.3525635 51.8712873, 4.3526474 51.8713079), (4.35094 51.870152, 4.3516249 51.8707023, 4.3516425 51.8707164, 4.3519024 51.8709123, 4.3519639 51.8709581, 4.3523331 51.8711637, 4.3524372 51.8712164), (4.350421 51.869752, 4.3507862 51.870036, 4.35094 51.870152), (4.3479798 51.8679236, 4.3481216 51.8680278, 4.3484155 51.8682474, 4.3487714 51.8685241, 4.3490566 51.8687391, 4.3494673 51.8690372, 4.349709 51.8692097, 4.3497659 51.8692534, 4.3501235 51.8695281, 4.3503392 51.8696893, 4.350421 51.869752), (4.3462674 51.8672332, 4.3467958 51.8673485, 4.3471701 51.8674474, 4.3473233 51.867505, 4.3475 51.8676, 4.347887 51.8678502, 4.3479798 51.8679236), (4.3424023 51.866413, 4.3429086 51.8665206, 4.3433076 51.8666054, 4.3437139 51.8666917, 4.3437824 51.8667052, 4.3443879 51.8668242, 4.3448436 51.8669243, 4.3450528 51.8669703, 4.3452444 51.8670079, 4.3456464 51.8670967, 4.345729 51.8671152, 4.3462674 51.8672332), (4.3432706 51.8648503, 4.3430718 51.8652143, 4.3429023 51.8655245, 4.3426769 51.865925, 4.3424023 51.866413), (4.3446262 51.8624386, 4.3445463 51.8625685, 4.3444042 51.8627998, 4.3442699 51.8630183, 4.3441807 51.8631633, 4.343735 51.8638885, 4.3436757 51.8640048, 4.3434973 51.8644177, 4.343362 51.8646794, 4.3432706 51.8648503), (4.3446262 51.8624386, 4.3448531 51.8624945, 4.3453153 51.8626083, 4.3456662 51.8626911, 4.3461815 51.8628102, 4.3462613 51.8628277, 4.3465282 51.8628921, 4.3477172 51.8631716, 4.3480987 51.8632581, 4.3486122 51.8633784, 4.34919 51.8635163, 4.349623 51.8636196, 4.3499501 51.8636915, 4.3504064 51.8637969, 4.3509526 51.8639221), (4.3512638 51.8639998, 4.3509526 51.8639221), (4.3512638 51.8639998, 4.3515813 51.8640413, 4.3516842 51.8640652, 4.3518061 51.8640934, 4.3519733 51.8641521), (4.3519733 51.8641521, 4.3520213 51.8640669, 4.3520439 51.8640269, 4.3520902 51.8639569, 4.3521906 51.8637952), (4.3521906 51.8637952, 4.3524245 51.8634252), (4.3524245 51.8634252, 4.3525539 51.8632133, 4.3525916 51.8631448, 4.3526623 51.8630175), (4.3526623 51.8630175, 4.3527264 51.862895, 4.3527809 51.862804), (4.3527809 51.862804, 4.3528464 51.8626874, 4.3528764 51.8626322, 4.3532662 51.8619297, 4.353573 51.861443, 4.3538621 51.8611052, 4.3542163 51.8608059, 4.3546301 51.8605329, 4.3549931 51.8603274, 4.3550221 51.860311, 4.3550785 51.8602816), (4.3550785 51.8602816, 4.3550657 51.8602464, 4.3550722 51.8602107, 4.3550972 51.860178, 4.355138 51.8601524), (4.3551031 51.8601247, 4.355138 51.8601524), (4.3548159 51.8598928, 4.3550672 51.8600966, 4.3551031 51.8601247), (4.353843 51.859124, 4.3542391 51.8594476, 4.3543771 51.8595535, 4.3544278 51.8595899, 4.3545836 51.8597111, 4.3547062 51.859807, 4.3548159 51.8598928), (4.3586 51.8568, 4.3585239 51.8568423, 4.3577 51.8573, 4.3568 51.8577, 4.3564692 51.8578729, 4.35602 51.8580881, 4.3557641 51.8582067, 4.3555999 51.8582828, 4.3553288 51.8584121, 4.3553245 51.8584142, 4.3546431 51.8587412, 4.3538694 51.8591114, 4.353843 51.859124), (4.3586 51.8568, 4.3589218 51.8570525), (4.3589218 51.8570525, 4.359159 51.8572511, 4.3593679 51.8574252, 4.3594126 51.8574625, 4.3595193 51.8575484, 4.3595688 51.8575895, 4.359601 51.8576134), (4.359601 51.8576134, 4.3596583 51.8576561), (4.3596583 51.8576561, 4.3597961 51.8577264, 4.3598912 51.8577902, 4.3599187 51.8578084, 4.3599559 51.8578465), (4.3599559 51.8578465, 4.3600035 51.8578381, 4.360053 51.8578377, 4.3601009 51.8578454, 4.3601438 51.8578606, 4.3601747 51.857879, 4.3601979 51.8579014), (4.3601979 51.8579014, 4.3602135 51.8579303, 4.3602162 51.8579607, 4.3602058 51.8579905, 4.3601832 51.8580176), (4.3601832 51.8580176, 4.360242 51.8580498, 4.3602782 51.8580774), (4.3602782 51.8580774, 4.3604194 51.8582108, 4.3604769 51.8583106), (4.3604769 51.8583106, 4.3605315 51.8583507, 4.3605765 51.8583831), (4.3605765 51.8583831, 4.3606 51.8584), (4.3606 51.8584, 4.3606851 51.8584707, 4.3610441 51.8587692, 4.3611684 51.8588725), (4.3611684 51.8588725, 4.3613287 51.8590459, 4.3615 51.8593, 4.3616874 51.8596558, 4.3616939 51.8596682, 4.3617487 51.8597372), (4.3617487 51.8597372, 4.3617952 51.8597536, 4.3618469 51.8597615, 4.3619418 51.859761, 4.3621151 51.859758, 4.3623353 51.8597473, 4.362587 51.8597268, 4.3628574 51.8596894, 4.3632091 51.8596174), (4.3644386 51.8594656, 4.3639 51.8595, 4.3632091 51.8596174), (4.3644386 51.8594656, 4.3644885 51.8594617), (4.3644885 51.8594617, 4.3646078 51.8594593), (4.3646078 51.8594593, 4.3648079 51.8597804, 4.365144 51.8603199, 4.365193 51.8603985, 4.3653296 51.8606176, 4.3654506 51.8608118), (4.3654506 51.8608118, 4.3655427 51.8607863, 4.3660426 51.8606475, 4.3660835 51.8606456, 4.366182 51.8606651, 4.3662118 51.8606856), (4.3662118 51.8606856, 4.3662476 51.8607378), (4.3662476 51.8607378, 4.3662654 51.8607615, 4.3662885 51.8607947), (4.3662885 51.8607947, 4.3663237 51.8608465), (4.3663237 51.8608465, 4.3663605 51.8608988), (4.3663605 51.8608988, 4.3663864 51.8609357))</t>
+          <t>MULTILINESTRING ((4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.5925814 51.9294823, 4.5924875 51.9295901, 4.5921872 51.9299348, 4.5920282 51.9301172, 4.5919064 51.9302569, 4.5918581 51.9303123, 4.5917739 51.930409, 4.5914179 51.9307891, 4.5911064 51.931175, 4.5908724 51.9314853, 4.590792 51.9315924), (4.5943727 51.92735, 4.5943715 51.9274005, 4.5943474 51.9274671, 4.5942924 51.9275467, 4.594217 51.9276331, 4.5941015 51.9277655, 4.5934749 51.9284786, 4.5929605 51.9290614, 4.5928512 51.9291776, 4.5925814 51.9294823), (4.5921127 51.9265908, 4.5934941 51.9270298, 4.5935273 51.9270404, 4.5940403 51.9271964, 4.5942461 51.927259, 4.594331 51.9273077, 4.5943727 51.92735), (4.5921127 51.9265908, 4.5920081 51.926564, 4.5918897 51.9265461, 4.5917196 51.9265559), (4.5917196 51.9265559, 4.5914728 51.9266133), (4.5914728 51.9266133, 4.5913585 51.9266917, 4.591282 51.9267347), (4.591282 51.9267347, 4.5911876 51.9267798, 4.5911018 51.9268217, 4.5909575 51.9268265), (4.5909575 51.9268265, 4.5908971 51.9267695, 4.5907783 51.9267209, 4.5905672 51.9266314), (4.5904063 51.9265882, 4.5905672 51.9266314), (4.5860422 51.9252449, 4.5866536 51.9254244, 4.5867327 51.9254507, 4.5871291 51.9255748, 4.5884243 51.9259725, 4.5885489 51.9260104, 4.5893526 51.9262607, 4.5902092 51.9265259, 4.5904063 51.9265882), (4.5856057 51.9251296, 4.5860422 51.9252449), (4.5817969 51.9246578, 4.5818717 51.9246995, 4.5819085 51.9247132, 4.5821262 51.9247946, 4.5822882 51.9248458, 4.5825254 51.9248731, 4.5827573 51.9248738, 4.5831575 51.9248654, 4.5838218 51.9248581, 4.5840938 51.9248551, 4.5843202 51.9248551, 4.5845538 51.9248746, 4.5847907 51.9249143, 4.584877 51.9249371, 4.5856057 51.9251296), (4.5817969 51.9246578, 4.581744 51.924685, 4.5816773 51.9246952, 4.5816099 51.9246865), (4.5816099 51.9246865, 4.5815567 51.9246616, 4.5815256 51.9246252, 4.5815223 51.9245841, 4.5815476 51.9245459), (4.5774029 51.923628, 4.5785376 51.9238057, 4.5791772 51.9239097, 4.5798225 51.924023, 4.580006 51.9240677, 4.5803574 51.9241668, 4.5807066 51.924266, 4.5811138 51.924403, 4.5814183 51.924516, 4.5814675 51.9245302, 4.5815476 51.9245459), (4.5772079 51.9235995, 4.5774029 51.923628), (4.5757327 51.9233657, 4.5763156 51.9234564, 4.5772079 51.9235995), (4.5752666 51.9232965, 4.5757327 51.9233657), (4.5752873 51.9232392, 4.5752666 51.9232965), (4.5761296 51.9212578, 4.5757517 51.9221578, 4.5757109 51.9222534, 4.5755421 51.9226496, 4.5754885 51.9227755, 4.5752873 51.9232392), (4.5761296 51.9212578, 4.5760494 51.9212014, 4.5759854 51.9211476, 4.5759094 51.9210526, 4.5759156 51.9210016, 4.5759479 51.9209525, 4.5759958 51.9209358, 4.5760559 51.9209262), (4.5760559 51.9209262, 4.576263 51.9209485), (4.576263 51.9209485, 4.5761296 51.9212578), (4.5761296 51.9212578, 4.5757517 51.9221578, 4.5757109 51.9222534, 4.5755421 51.9226496, 4.5754885 51.9227755, 4.5752873 51.9232392), (4.5752873 51.9232392, 4.5752666 51.9232965), (4.5743901 51.9233238, 4.5745419 51.9232886, 4.5746685 51.9232586, 4.5748215 51.9232432, 4.574953 51.9232539, 4.5752666 51.9232965), (4.5742797 51.9233551, 4.5743901 51.9233238), (4.5742797 51.9233551, 4.5743006 51.9234191, 4.574262 51.9234798, 4.5741762 51.923518, 4.5740805 51.9235228, 4.5739935 51.9234977, 4.5739381 51.9234493), (4.5739381 51.9234493, 4.5738313 51.9234897, 4.5737288 51.923502, 4.5735839 51.9235012, 4.573435 51.9234743, 4.5728535 51.9233773), (4.5728535 51.9233773, 4.5721677 51.923286, 4.5721297 51.9232781, 4.5721091 51.9232744, 4.5715909 51.9231673), (4.5715909 51.9231673, 4.5710168 51.923086), (4.5710168 51.923086, 4.5706415 51.9230205), (4.5706415 51.9230205, 4.569559 51.9228597, 4.5693499 51.9228035, 4.56923 51.9227279, 4.5691668 51.9226705, 4.5690938 51.9225896, 4.569041 51.92253), (4.569041 51.92253, 4.5689816 51.922544, 4.568918 51.9225451, 4.5688573 51.9225333, 4.5688063 51.9225099, 4.5687707 51.9224774, 4.5687538 51.9224347, 4.5687635 51.9223911, 4.5687985 51.9223528, 4.5688538 51.9223251), (4.5667187 51.9199544, 4.5667772 51.9200194, 4.5674946 51.9208234, 4.5677057 51.921049, 4.567926 51.9212956, 4.5687584 51.922222, 4.568781 51.9222464, 4.5688538 51.9223251), (4.5667187 51.9199544, 4.5666643 51.9199673, 4.5666062 51.919969, 4.56655 51.9199595, 4.5665015 51.9199396, 4.56646 51.919905, 4.5664424 51.9198634, 4.5664511 51.9198207, 4.5664849 51.919783, 4.5665389 51.9197558), (4.5646143 51.9176998, 4.5649703 51.9180365, 4.5650195 51.9180886, 4.5651966 51.9182757, 4.5656733 51.9187958, 4.5659554 51.919116, 4.5662423 51.9194192, 4.5664769 51.9196864, 4.5665389 51.9197558), (4.5646143 51.9176998, 4.5645243 51.9176424, 4.5642384 51.9173704, 4.5641611 51.9172937), (4.5641611 51.9172937, 4.5640946 51.917278, 4.5640405 51.9172494, 4.5640052 51.9172113), (4.5640052 51.9172113, 4.5639938 51.9171804, 4.5639951 51.9171487, 4.5640089 51.9171181), (4.5640089 51.9171181, 4.5640372 51.9170883, 4.5640774 51.9170643, 4.5641265 51.9170477, 4.564181 51.9170398, 4.5642441 51.9170419, 4.5643032 51.9170557, 4.5643529 51.9170797, 4.5643886 51.9171118), (4.5643886 51.9171118, 4.5645098 51.9171159, 4.5668681 51.9170645, 4.5670138 51.9170626), (4.5670138 51.9170626, 4.5670447 51.917026, 4.5671065 51.9169946, 4.5671895 51.9169823), (4.5671895 51.9169823, 4.5672526 51.9169891, 4.5673137 51.9170118, 4.5673562 51.9170472), (4.5673562 51.9170472, 4.5674984 51.917045, 4.5705931 51.9169797, 4.5707442 51.9169722, 4.5708969 51.9169686, 4.5715153 51.9169283, 4.5720943 51.9168671, 4.5722614 51.9168391, 4.5724136 51.9168195, 4.5731282 51.9166981), (4.5731282 51.9166981, 4.5730494 51.9169283, 4.5730199 51.9169553, 4.5729814 51.9169797, 4.5728844 51.9170038, 4.5724659 51.917009, 4.5722898 51.9170133, 4.5721204 51.9170169, 4.5708994 51.9170441, 4.5707505 51.9170463, 4.5705985 51.9170538, 4.5675059 51.917126, 4.5673648 51.9171312), (4.5673648 51.9171312, 4.5673498 51.9171521, 4.5673199 51.9171762, 4.5672717 51.9171976, 4.5671967 51.9172093, 4.5671061 51.917197, 4.5670594 51.917176, 4.5670197 51.9171391), (4.5670197 51.9171391, 4.5670062 51.9171037, 4.5670138 51.9170626), (4.5670138 51.9170626, 4.5670447 51.917026, 4.5671065 51.9169946, 4.5671895 51.9169823), (4.566051 51.9142118, 4.5657 51.9151, 4.5656069 51.9153007, 4.5655995 51.915326, 4.5655861 51.9153717, 4.5655928 51.9154351, 4.5656204 51.9155042, 4.5656849 51.9155983, 4.5658309 51.9157552, 4.5664053 51.9164412, 4.5671639 51.9165682, 4.5671832 51.9168974, 4.5671895 51.9169823), (4.5665212 51.9130623, 4.5664409 51.9132586, 4.5664202 51.9133092, 4.5663396 51.9135062, 4.5662327 51.9137674, 4.5661528 51.9139627, 4.5661269 51.9140261, 4.566051 51.9142118), (4.5667027 51.9125258, 4.5665212 51.9130623), (4.564862 51.9122613, 4.5656478 51.9123552, 4.5657651 51.9123725, 4.5662138 51.9124433, 4.5663148 51.9124604, 4.5667027 51.9125258), (4.563717 51.9121354, 4.5642977 51.9121968, 4.564862 51.9122613), (4.5585953 51.9120752, 4.5598598 51.9120814, 4.5599529 51.9120822, 4.5616701 51.9120974, 4.5621 51.9121, 4.5626626 51.9120967, 4.5631626 51.9121, 4.5632503 51.9121056, 4.563717 51.9121354), (4.558848 51.9098445, 4.5588599 51.9099053, 4.5588683 51.9099482, 4.5588726 51.9100256, 4.5587501 51.9110021, 4.5586956 51.9114744, 4.5585953 51.9120752), (4.558848 51.9098445, 4.5586792 51.9098602, 4.5564913 51.9099545, 4.5564536 51.9099537, 4.5564171 51.909948, 4.5563885 51.9099388, 4.5563615 51.9099102), (4.5510168 51.909129, 4.5512163 51.909188, 4.5520302 51.9094436, 4.552389 51.9095578, 4.5526985 51.9096576, 4.5529939 51.9097459, 4.553106 51.9097768, 4.553197 51.9097985, 4.5532148 51.9098027, 4.5533831 51.9098384, 4.5535381 51.9098673, 4.5537178 51.9098973, 4.5539233 51.9099255, 4.5541394 51.9099559, 4.5543151 51.9099795, 4.5544383 51.9099947, 4.5546106 51.9100123, 4.5547357 51.9100211, 4.5549 51.9100287, 4.5550023 51.910032, 4.5550915 51.9100316, 4.5553395 51.9100249, 4.5554563 51.9100194, 4.5555007 51.9100173, 4.5555937 51.9100134, 4.5556973 51.9100052, 4.5557225 51.9100024, 4.5557941 51.9099943, 4.5563615 51.9099102), (4.5510168 51.909129, 4.5509121 51.9092261), (4.5509121 51.9092261, 4.5508827 51.9092732, 4.5508628 51.9093325, 4.5508429 51.9094116), (4.5508429 51.9094116, 4.550878 51.9095061, 4.5510965 51.9100939, 4.5514464 51.911035, 4.5514565 51.9110604, 4.5518347 51.9121399, 4.5521778 51.9130699, 4.5523938 51.9136555, 4.5524756 51.9138773, 4.5526938 51.9144687, 4.5527463 51.9146111), (4.5527463 51.9146111, 4.5531359 51.9156671, 4.5532272 51.9159143, 4.5532547 51.915989), (4.5532547 51.915989, 4.5533007 51.9161029), (4.5533007 51.9161029, 4.5533039 51.9162003, 4.5531838 51.9163189), (4.5531838 51.9163189, 4.5532771 51.9163642), (4.5532771 51.9163642, 4.5534814 51.9165677), (4.5534814 51.9165677, 4.5538412 51.9167425, 4.5541443 51.9169046, 4.5543374 51.9170303, 4.5545198 51.9171627, 4.5547022 51.9172686, 4.5552193 51.917575, 4.5558003 51.9178415, 4.5562345 51.918087, 4.5569624 51.918523, 4.5574326 51.9188267, 4.5578522 51.9190786, 4.5581034 51.919247, 4.5581434 51.9192802, 4.5581568 51.9192988, 4.5581837 51.9193537, 4.5581967 51.9193932), (4.5581967 51.9193932, 4.5577454 51.9196906, 4.5576324 51.9197858, 4.5575727 51.9198428), (4.5575727 51.9198428, 4.5573922 51.920009, 4.5571341 51.9202249), (4.5571341 51.9202249, 4.5570731 51.9202977, 4.5570453 51.9203684, 4.5570275 51.9204135, 4.5570645 51.9205312, 4.5571948 51.9206445), (4.5571948 51.9206445, 4.5573831 51.9206832, 4.5578123 51.9208208), (4.5578123 51.9208208, 4.5580288 51.9209046, 4.5580834 51.9209124, 4.5582038 51.9209099, 4.5583923 51.9209126, 4.558582 51.9209522, 4.5589084 51.921068, 4.5588845 51.9211893))</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6361959</t>
+          <t>10190368</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3186,17 +3186,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rotterdam, Kralingse Zoom</t>
+          <t>Capelle aan den IJssel, Capelle Centrum</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bus 83: Rotterdam Keizerswaard =&gt; Rotterdam Kralingse Zoom</t>
+          <t>Bus 607: Rotterdam Capelsebrug =&gt; Capelle Centrum</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>607</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3207,14 +3207,14 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5494448 51.8871435, 4.5495234 51.886977), (4.5495234 51.886977, 4.5496839 51.8870025, 4.5498132 51.887023, 4.5498728 51.8870342, 4.5500591 51.8870593, 4.5501612 51.8870756), (4.5501612 51.8870756, 4.5502685 51.8871105, 4.5504269 51.8871326, 4.5508141 51.8871919, 4.5509547 51.8872134, 4.5510431 51.8872269, 4.5513083 51.887269, 4.5514007 51.8872818, 4.5520649 51.8873867, 4.5522603 51.8874175, 4.5529682 51.88753, 4.5530416 51.8875403, 4.5533176 51.8875727, 4.5534049 51.8875862), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.550361 51.8960888, 4.5508161 51.8975901), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.5548122 51.8987608, 4.5547723 51.8987965, 4.5547152 51.8988289, 4.5546472 51.8988569, 4.5545288 51.8988786, 4.5544459 51.8988879, 4.5535816 51.8989779, 4.5531226 51.8990396, 4.5527269 51.8990836, 4.5523393 51.8991256, 4.5519014 51.8991729, 4.5513648 51.8992125, 4.5513068 51.8992207), (4.5548983 51.8987023, 4.5548526 51.8987272, 4.5548122 51.8987608), (4.5545245 51.8972914, 4.5545246 51.8973396, 4.5545545 51.8974781, 4.5548888 51.8986688, 4.5548983 51.8987023), (4.5547206 51.8969503, 4.554628 51.8970397, 4.5545733 51.8971128, 4.5545344 51.8972013, 4.5545245 51.8972914), (4.5547206 51.8969503, 4.5547147 51.8968396, 4.5546911 51.8967736, 4.55466 51.8967347, 4.5545522 51.8966665, 4.55445 51.8966365), (4.55445 51.8966365, 4.5538792 51.8966295, 4.5536181 51.8966344, 4.5533994 51.8966478, 4.5531848 51.8966684, 4.5529702 51.896704, 4.5527702 51.8967562, 4.551023 51.8973207, 4.5503541 51.8975386, 4.5498802 51.8977113, 4.5493006 51.8979438, 4.5488513 51.8981658), (4.5488513 51.8981658, 4.5487497 51.8982024), (4.5487497 51.8982024, 4.5483649 51.8983135), (4.5483649 51.8983135, 4.5478294 51.8986555), (4.5478294 51.8986555, 4.5471605 51.8991251, 4.5466865 51.8995082, 4.5463181 51.899844, 4.5459668 51.9001904, 4.5456836 51.9005042, 4.5454325 51.9008173, 4.5449534 51.9014626, 4.5443886 51.9022514), (4.5443886 51.9022514, 4.5425932 51.9047847), (4.5425932 51.9047847, 4.542333 51.9051525), (4.542333 51.9051525, 4.5417629 51.9059437), (4.5417629 51.9059437, 4.5396931 51.9088629, 4.539377 51.9093208), (4.539377 51.9093208, 4.5387852 51.910157), (4.5387852 51.910157, 4.5380469 51.9112595), (4.5380469 51.9112595, 4.5379521 51.9116746), (4.5379521 51.9116746, 4.5378351 51.9119875), (4.5378351 51.9119875, 4.5375947 51.9125348, 4.5374436 51.9127966, 4.537105 51.9133637, 4.5370412 51.9134951, 4.5369934 51.9136265, 4.5369753 51.913689, 4.5369626 51.9137448, 4.5369453 51.9138582, 4.5369214 51.9140174), (4.5369214 51.9140174, 4.5368888 51.9142896), (4.5368888 51.9142896, 4.5369016 51.9143641), (4.5369016 51.9143641, 4.5368592 51.9146113, 4.5368458 51.9146701, 4.5368271 51.9147223, 4.5367233 51.9149487), (4.5367233 51.9149487, 4.5366293 51.9151457, 4.5365924 51.9152169, 4.536554 51.9152706, 4.5365167 51.9153179, 4.5364379 51.9153952), (4.5364379 51.9153952, 4.5363083 51.9154615), (4.5363083 51.9154615, 4.5362162 51.915499, 4.5361277 51.9155279, 4.5359824 51.9155615, 4.5358612 51.9155819, 4.5357098 51.9155998, 4.5355691 51.9156122, 4.5354354 51.9156156), (4.5354354 51.9156156, 4.5352698 51.9156114, 4.5351538 51.9156033, 4.5350202 51.9155864, 4.534884 51.9155597, 4.5347655 51.9155265, 4.5346049 51.9154696, 4.5345568 51.9154471, 4.5344284 51.9153869, 4.5343384 51.9153395), (4.5343384 51.9153395, 4.5342584 51.9152815, 4.534185 51.9152151), (4.534185 51.9152151, 4.5341561 51.9151597), (4.5341561 51.9151597, 4.5340751 51.9150032, 4.5339324 51.9147448, 4.5338688 51.9146521, 4.5338052 51.9145726, 4.5337264 51.9144932, 4.5336709 51.9144427, 4.5336154 51.9144022), (4.5336154 51.9144022, 4.5334611 51.9143302, 4.533296 51.9142682, 4.5331445 51.9142189, 4.5329668 51.9141725, 4.5326279 51.9140931, 4.5323165 51.9140357, 4.5320094 51.9139874, 4.5318264 51.9139655, 4.5316488 51.9139536, 4.5314866 51.9139494), (4.5314866 51.9139494, 4.5312325 51.9139526, 4.530978 51.9139687, 4.5307919 51.9139862, 4.5305729 51.9140187, 4.5301352 51.9141132, 4.5296575 51.9142469), (4.5296575 51.9142469, 4.5293095 51.9143451), (4.5293095 51.9143451, 4.5289756 51.9144581, 4.5288483 51.9145063, 4.5286589 51.9145778, 4.5285964 51.9146047, 4.5285529 51.9146207, 4.5284886 51.9146505, 4.5284173 51.9147023), (4.5284173 51.9147023, 4.5289734 51.9156684, 4.5290143 51.9157669, 4.529028 51.9158167, 4.5290971 51.9160723, 4.5291621 51.9162899, 4.529186 51.9164778, 4.5291863 51.9165782, 4.5291886 51.916624, 4.5291924 51.9167389, 4.5291293 51.917261, 4.5291197 51.9173397, 4.5291135 51.9174258, 4.5291124 51.9174854, 4.5291179 51.9175545, 4.5291233 51.9176184, 4.5291377 51.9177075, 4.5291588 51.9178107, 4.5291818 51.9178874, 4.52921 51.9179576, 4.5292986 51.9181552, 4.5294137 51.9183615, 4.5298236 51.9191005, 4.5298961 51.9192186, 4.5299221 51.9192625, 4.530579 51.920365), (4.530579 51.920365, 4.5307161 51.9203328), (4.5307161 51.9203328, 4.5307744 51.9203191, 4.5311816 51.9202235, 4.5315333 51.9201379), (4.5315333 51.9201379, 4.5316076 51.920145, 4.5316966 51.9202181), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5324697 51.9214468, 4.532582 51.9215334, 4.5327285 51.9217497))</t>
+          <t>MULTILINESTRING ((4.5583115 51.9211802, 4.5582118 51.9211316, 4.558121 51.9210536, 4.5580142 51.9209667, 4.5579508 51.9209268), (4.5579508 51.9209268, 4.5578649 51.920916, 4.5573366 51.9207373, 4.5571948 51.9206445), (4.5571341 51.9202249, 4.5570731 51.9202977, 4.5570453 51.9203684, 4.5570275 51.9204135, 4.5570645 51.9205312, 4.5571948 51.9206445), (4.5571341 51.9202249, 4.5572329 51.9200128, 4.5572847 51.9199492, 4.5573503 51.9198746), (4.5573503 51.9198746, 4.557422 51.91979, 4.5574607 51.9197437), (4.5574607 51.9197437, 4.5575914 51.9196167, 4.5578388 51.9194336, 4.5580272 51.9192943), (4.5580272 51.9192943, 4.5574865 51.9189826, 4.5567842 51.9185242, 4.5560625 51.9181149), (4.5560625 51.9181149, 4.5553946 51.917737, 4.554227 51.9170693, 4.5539214 51.9169025), (4.5539214 51.9169025, 4.5536769 51.9167795, 4.5531556 51.9165326, 4.5531035 51.9165035, 4.5529975 51.9164604), (4.5529975 51.9164604, 4.5530008 51.9163429, 4.5530547 51.9162561), (4.5530547 51.9162561, 4.5531364 51.9161899, 4.5532001 51.916137, 4.5532405 51.9160654, 4.5532547 51.915989), (4.5527463 51.9146111, 4.5531359 51.9156671, 4.5532272 51.9159143, 4.5532547 51.915989), (4.5508429 51.9094116, 4.550878 51.9095061, 4.5510965 51.9100939, 4.5514464 51.911035, 4.5514565 51.9110604, 4.5518347 51.9121399, 4.5521778 51.9130699, 4.5523938 51.9136555, 4.5524756 51.9138773, 4.5526938 51.9144687, 4.5527463 51.9146111), (4.5508429 51.9094116, 4.5507962 51.9093148, 4.5507908 51.90929, 4.5507881 51.9092387, 4.5507935 51.9092106, 4.5508057 51.9091873, 4.5508563 51.9091168, 4.5508798 51.909084), (4.5508798 51.909084, 4.5510168 51.909129), (4.5510168 51.909129, 4.5512163 51.909188, 4.5520302 51.9094436, 4.552389 51.9095578, 4.5526985 51.9096576, 4.5529939 51.9097459, 4.553106 51.9097768, 4.553197 51.9097985, 4.5532148 51.9098027, 4.5533831 51.9098384, 4.5535381 51.9098673, 4.5537178 51.9098973, 4.5539233 51.9099255, 4.5541394 51.9099559, 4.5543151 51.9099795, 4.5544383 51.9099947, 4.5546106 51.9100123, 4.5547357 51.9100211, 4.5549 51.9100287, 4.5550023 51.910032, 4.5550915 51.9100316, 4.5553395 51.9100249, 4.5554563 51.9100194, 4.5555007 51.9100173, 4.5555937 51.9100134, 4.5556973 51.9100052, 4.5557225 51.9100024, 4.5557941 51.9099943, 4.5563615 51.9099102), (4.558848 51.9098445, 4.5586792 51.9098602, 4.5564913 51.9099545, 4.5564536 51.9099537, 4.5564171 51.909948, 4.5563885 51.9099388, 4.5563615 51.9099102), (4.558848 51.9098445, 4.5588599 51.9099053, 4.5588683 51.9099482, 4.5588726 51.9100256, 4.5587501 51.9110021, 4.5586956 51.9114744, 4.5585953 51.9120752), (4.5585953 51.9120752, 4.5598598 51.9120814, 4.5599529 51.9120822, 4.5616701 51.9120974, 4.5621 51.9121, 4.5626626 51.9120967, 4.5631626 51.9121, 4.5632503 51.9121056, 4.563717 51.9121354), (4.563717 51.9121354, 4.5642977 51.9121968, 4.564862 51.9122613), (4.564862 51.9122613, 4.5656478 51.9123552, 4.5657651 51.9123725, 4.5662138 51.9124433, 4.5663148 51.9124604, 4.5667027 51.9125258), (4.5667027 51.9125258, 4.5665212 51.9130623), (4.5665212 51.9130623, 4.5664409 51.9132586, 4.5664202 51.9133092, 4.5663396 51.9135062, 4.5662327 51.9137674, 4.5661528 51.9139627, 4.5661269 51.9140261, 4.566051 51.9142118), (4.566051 51.9142118, 4.5657 51.9151, 4.5656069 51.9153007, 4.5655995 51.915326, 4.5655861 51.9153717, 4.5655928 51.9154351, 4.5656204 51.9155042, 4.5656849 51.9155983, 4.5658309 51.9157552, 4.5664053 51.9164412, 4.5671639 51.9165682, 4.5671832 51.9168974, 4.5671895 51.9169823), (4.5671895 51.9169823, 4.5672526 51.9169891, 4.5673137 51.9170118, 4.5673562 51.9170472), (4.5673562 51.9170472, 4.5674984 51.917045, 4.5705931 51.9169797, 4.5707442 51.9169722, 4.5708969 51.9169686, 4.5715153 51.9169283, 4.5720943 51.9168671, 4.5722614 51.9168391, 4.5724136 51.9168195, 4.5731282 51.9166981), (4.5731282 51.9166981, 4.5730494 51.9169283, 4.5730199 51.9169553, 4.5729814 51.9169797, 4.5728844 51.9170038, 4.5724659 51.917009, 4.5722898 51.9170133, 4.5721204 51.9170169, 4.5708994 51.9170441, 4.5707505 51.9170463, 4.5705985 51.9170538, 4.5675059 51.917126, 4.5673648 51.9171312), (4.5673648 51.9171312, 4.5673498 51.9171521, 4.5673199 51.9171762, 4.5672717 51.9171976, 4.5671967 51.9172093, 4.5671061 51.917197, 4.5670594 51.917176, 4.5670197 51.9171391), (4.5670197 51.9171391, 4.5668741 51.9171463, 4.5660165 51.917163, 4.5645133 51.9171913, 4.5644038 51.9171968), (4.5644038 51.9171968, 4.564381 51.9172322, 4.5643424 51.9172619, 4.5642912 51.9172834), (4.5642912 51.9172834, 4.5643199 51.917339, 4.5645592 51.9175928, 4.5646143 51.9176998), (4.5646143 51.9176998, 4.5649703 51.9180365, 4.5650195 51.9180886, 4.5651966 51.9182757, 4.5656733 51.9187958, 4.5659554 51.919116, 4.5662423 51.9194192, 4.5664769 51.9196864, 4.5665389 51.9197558), (4.5665389 51.9197558, 4.5666126 51.9197425, 4.5666887 51.9197488, 4.566754 51.9197737, 4.5667936 51.9198078, 4.5668105 51.9198484, 4.5668024 51.9198901, 4.5667704 51.9199271, 4.5667187 51.9199544), (4.5667187 51.9199544, 4.5667772 51.9200194, 4.5674946 51.9208234, 4.5677057 51.921049, 4.567926 51.9212956, 4.5687584 51.922222, 4.568781 51.9222464, 4.5688538 51.9223251), (4.5688538 51.9223251, 4.5689239 51.9223117, 4.5689969 51.9223157, 4.5690622 51.9223363, 4.56911 51.9223706, 4.5691308 51.9224047, 4.5691338 51.922441, 4.5691186 51.9224762, 4.5690866 51.9225068, 4.569041 51.92253), (4.5706415 51.9230205, 4.569559 51.9228597, 4.5693499 51.9228035, 4.56923 51.9227279, 4.5691668 51.9226705, 4.5690938 51.9225896, 4.569041 51.92253), (4.5710168 51.923086, 4.5706415 51.9230205), (4.5715909 51.9231673, 4.5710168 51.923086), (4.5715909 51.9231673, 4.5721112 51.9232186, 4.5721327 51.9232202, 4.5721987 51.9232312, 4.572463 51.9232751, 4.5728535 51.9233773), (4.5739381 51.9234493, 4.5738313 51.9234897, 4.5737288 51.923502, 4.5735839 51.9235012, 4.573435 51.9234743, 4.5728535 51.9233773), (4.5739381 51.9234493, 4.5739284 51.9233922, 4.5739644 51.9233392, 4.5740373 51.9233035, 4.5741291 51.9232938, 4.5742171 51.9233125, 4.5742797 51.9233551), (4.5742797 51.9233551, 4.5743901 51.9233238), (4.5743901 51.9233238, 4.5745419 51.9232886, 4.5746685 51.9232586, 4.5748215 51.9232432, 4.574953 51.9232539, 4.5752666 51.9232965), (4.5752873 51.9232392, 4.5752666 51.9232965), (4.5761296 51.9212578, 4.5757517 51.9221578, 4.5757109 51.9222534, 4.5755421 51.9226496, 4.5754885 51.9227755, 4.5752873 51.9232392), (4.5761296 51.9212578, 4.5760494 51.9212014, 4.5759854 51.9211476, 4.5759094 51.9210526, 4.5759156 51.9210016, 4.5759479 51.9209525, 4.5759958 51.9209358, 4.5760559 51.9209262), (4.5760559 51.9209262, 4.576263 51.9209485), (4.576263 51.9209485, 4.5761296 51.9212578), (4.5761296 51.9212578, 4.5757517 51.9221578, 4.5757109 51.9222534, 4.5755421 51.9226496, 4.5754885 51.9227755, 4.5752873 51.9232392), (4.5752873 51.9232392, 4.5752666 51.9232965), (4.5752666 51.9232965, 4.5757327 51.9233657), (4.5757327 51.9233657, 4.5763156 51.9234564, 4.5772079 51.9235995), (4.5772079 51.9235995, 4.5774029 51.923628), (4.5774029 51.923628, 4.5785376 51.9238057, 4.5791772 51.9239097, 4.5798225 51.924023, 4.580006 51.9240677, 4.5803574 51.9241668, 4.5807066 51.924266, 4.5811138 51.924403, 4.5814183 51.924516, 4.5814675 51.9245302, 4.5815476 51.9245459), (4.5815476 51.9245459, 4.5816001 51.9245168, 4.5816681 51.9245051, 4.5817375 51.9245134), (4.5817375 51.9245134, 4.5817924 51.924539, 4.5818238 51.9245767, 4.5818254 51.9246192, 4.5817969 51.9246578), (4.5817969 51.9246578, 4.5818717 51.9246995, 4.5819085 51.9247132, 4.5821262 51.9247946, 4.5822882 51.9248458, 4.5825254 51.9248731, 4.5827573 51.9248738, 4.5831575 51.9248654, 4.5838218 51.9248581, 4.5840938 51.9248551, 4.5843202 51.9248551, 4.5845538 51.9248746, 4.5847907 51.9249143, 4.584877 51.9249371, 4.5856057 51.9251296), (4.5856057 51.9251296, 4.5860422 51.9252449), (4.5860422 51.9252449, 4.5866536 51.9254244, 4.5867327 51.9254507, 4.5871291 51.9255748, 4.5884243 51.9259725, 4.5885489 51.9260104, 4.5893526 51.9262607, 4.5902092 51.9265259, 4.5904063 51.9265882), (4.5904063 51.9265882, 4.5905672 51.9266314), (4.5905672 51.9266314, 4.5908191 51.9266735, 4.5909749 51.9267223, 4.5910296 51.9267556), (4.5910296 51.9267556, 4.5911146 51.9267196, 4.5912284 51.9266777), (4.5912284 51.9266777, 4.5914728 51.9266133), (4.5917196 51.9265559, 4.5914728 51.9266133), (4.5921127 51.9265908, 4.5920081 51.926564, 4.5918897 51.9265461, 4.5917196 51.9265559), (4.5921127 51.9265908, 4.5934941 51.9270298, 4.5935273 51.9270404, 4.5940403 51.9271964, 4.5942461 51.927259, 4.594331 51.9273077, 4.5943727 51.92735), (4.5943727 51.92735, 4.5943715 51.9274005, 4.5943474 51.9274671, 4.5942924 51.9275467, 4.594217 51.9276331, 4.5941015 51.9277655, 4.5934749 51.9284786, 4.5929605 51.9290614, 4.5928512 51.9291776, 4.5925814 51.9294823), (4.5925814 51.9294823, 4.5924875 51.9295901, 4.5921872 51.9299348, 4.5920282 51.9301172, 4.5919064 51.9302569, 4.5918581 51.9303123, 4.5917739 51.930409, 4.5914179 51.9307891, 4.5911064 51.931175, 4.5908724 51.9314853, 4.590792 51.9315924), (4.590792 51.9315924, 4.5907266 51.9316838, 4.5905636 51.9319109), (4.5905636 51.9319109, 4.5904339 51.9320735))</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6361960</t>
+          <t>6397486</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rotterdam, Keizerswaard</t>
+          <t>Barendrecht, Station Barendrecht</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bus 83: Rotterdam Kralingse Zoom =&gt; Rotterdam Keizerswaard</t>
+          <t>Bus 608: Ridderkerk Olmenlaan =&gt; Barendrecht Station NS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>608</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3245,14 +3245,14 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5326664 51.921806, 4.5328002 51.9219914, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5479149 51.8980137, 4.5485747 51.8975964, 4.5487375 51.8974839, 4.5488444 51.897379, 4.5488933 51.8972621, 4.5489196 51.8971507, 4.5489077 51.8970619, 4.5488729 51.8969771, 4.5488177 51.8968981), (4.5488177 51.8968981, 4.5487476 51.8968387, 4.5486356 51.8967748, 4.5484664 51.8967126, 4.5482726 51.8966717, 4.5481199 51.8966541, 4.5479251 51.8966494, 4.547233 51.8966504), (4.547233 51.8966504, 4.5467952 51.8966721, 4.5465439 51.896691, 4.5462845 51.8967191), (4.5462845 51.8967191, 4.5461268 51.8967364), (4.5461268 51.8967364, 4.546009 51.8967487, 4.5458973 51.8967672), (4.5458973 51.8967672, 4.5458275 51.8967838, 4.5457023 51.8968256, 4.5455832 51.8968701, 4.5454467 51.8969435, 4.5453203 51.8970335, 4.5451801 51.8971775, 4.5451243 51.8972607, 4.5450901 51.8973448, 4.5450587 51.8974481, 4.545048 51.8975699, 4.545076 51.8976869, 4.545124 51.8977958), (4.545124 51.8977958, 4.5451662 51.8978642, 4.5452108 51.8979192), (4.5452108 51.8979192, 4.5452709 51.8980302, 4.5453505 51.8981248, 4.5454883 51.8982762, 4.5456368 51.898438, 4.54568 51.8984894, 4.5457353 51.8985458, 4.5458583 51.8986813, 4.5459884 51.8988089, 4.5462656 51.8989648, 4.5472345 51.8994042, 4.547562 51.8995488, 4.5476515 51.8995782, 4.5477379 51.8995856, 4.5478421 51.8995974, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5487738 51.8995215), (4.5500922 51.8993607, 4.5499524 51.8993782, 4.5487738 51.8995215), (4.5513068 51.8992207, 4.5503112 51.8993343, 4.5500922 51.8993607), (4.5513068 51.8992207, 4.5508332 51.8976398, 4.5508161 51.8975901), (4.550361 51.8960888, 4.5508161 51.8975901), (4.548941 51.8913789, 4.5489912 51.891539, 4.5490053 51.8915881, 4.5491324 51.8919967, 4.5494875 51.8932181, 4.5497609 51.894087, 4.5498109 51.8942519, 4.5503506 51.8960486, 4.550361 51.8960888), (4.5488486 51.8912156, 4.5488752 51.8912548, 4.5488937 51.8912812, 4.548941 51.8913789), (4.5488289 51.8911661, 4.5488486 51.8912156), (4.5529623 51.8886414, 4.5528103 51.8890134, 4.5527562 51.8891627, 4.5527011 51.8892852, 4.5526301 51.8894648, 4.5526098 51.8895103, 4.5526008 51.8895323, 4.5525532 51.8896446, 4.552545 51.8896695, 4.5525293 51.8897083, 4.552324 51.8902135, 4.5522721 51.8902758, 4.5521971 51.890325, 4.5516205 51.8906033, 4.5510492 51.8908913, 4.5509568 51.8909204, 4.5508116 51.8909402, 4.5499521 51.8910483, 4.5488289 51.8911661), (4.5534049 51.8875862, 4.5530525 51.8884249, 4.5529782 51.8886017, 4.5529623 51.8886414), (4.5501612 51.8870756, 4.5502685 51.8871105, 4.5504269 51.8871326, 4.5508141 51.8871919, 4.5509547 51.8872134, 4.5510431 51.8872269, 4.5513083 51.887269, 4.5514007 51.8872818, 4.5520649 51.8873867, 4.5522603 51.8874175, 4.5529682 51.88753, 4.5530416 51.8875403, 4.5533176 51.8875727, 4.5534049 51.8875862), (4.5495234 51.886977, 4.5496839 51.8870025, 4.5498132 51.887023, 4.5498728 51.8870342, 4.5500591 51.8870593, 4.5501612 51.8870756), (4.5495234 51.886977, 4.5494377 51.8869646, 4.5493828 51.8869546, 4.5493512 51.8869493, 4.5493132 51.8869436, 4.5492641 51.8869358, 4.5492272 51.8869313, 4.5491579 51.8869317, 4.5490916 51.8869321), (4.5490916 51.8869321, 4.5490954 51.8869723, 4.5489717 51.8872989))</t>
+          <t>MULTILINESTRING ((4.5820072 51.8725648, 4.5826301 51.8729757, 4.5833463 51.8734521, 4.5840978 51.8739506, 4.5842576 51.8740566), (4.5828003 51.872096, 4.5826065 51.8722087, 4.5824764 51.8722849, 4.5820072 51.8725648), (4.5833563 51.8716966, 4.5830304 51.8719555, 4.5828003 51.872096), (4.5834888 51.8716031, 4.5833563 51.8716966), (4.5837518 51.8714284, 4.5836627 51.8714868, 4.5836305 51.8715087, 4.5834888 51.8716031), (4.5837518 51.8714284, 4.5837222 51.8713845, 4.5837291 51.8713372, 4.5837711 51.8712973), (4.5837711 51.8712973, 4.5838234 51.8712771, 4.5838843 51.8712706, 4.5839446 51.8712788, 4.5839955 51.8713005, 4.5840295 51.8713329, 4.5840409 51.8713709, 4.5840279 51.8714086, 4.5839924 51.8714405), (4.5839924 51.8714405, 4.5840791 51.8714972, 4.5841246 51.8715271, 4.5846026 51.8718404, 4.5848583 51.872008, 4.5860281 51.8727748, 4.5864742 51.8730672, 4.5867465 51.8732563, 4.5867756 51.8732755, 4.5868681 51.8733365), (4.5868681 51.8733365, 4.5869167 51.8733178, 4.5869667 51.8733108, 4.5870177 51.873314, 4.5870644 51.873327, 4.587102 51.8733485), (4.5886281 51.87236, 4.5884808 51.8724585, 4.5882965 51.8725878, 4.5879826 51.8728094, 4.5872286 51.8732623, 4.5871946 51.8732828, 4.587102 51.8733485), (4.5886281 51.87236, 4.588742 51.8724239, 4.5888113 51.8724628, 4.5889542 51.8725422, 4.5897285 51.8729658, 4.5905223 51.8734, 4.5909 51.8736, 4.5912 51.8737, 4.5916903 51.8738093, 4.5921041 51.87386, 4.5927794 51.873926, 4.5932477 51.8739742, 4.5938361 51.8740287, 4.594313 51.8740752, 4.5953119 51.8741679, 4.5955787 51.8741885, 4.596349 51.8742437), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5986297 51.8719968, 4.598818 51.8720142), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6005942 51.8711482, 4.6005834 51.8710827, 4.6007545 51.8709185, 4.600817 51.8708585), (4.600817 51.8708585, 4.6008858 51.8707925, 4.6010114 51.8707586), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6000875 51.868606, 4.5999607 51.8686449), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5986982 51.8675912, 4.5986528 51.8676009, 4.5986048 51.8676018, 4.5985584 51.8675941, 4.5985178 51.8675782, 4.598494 51.8675618), (4.598494 51.8675618, 4.5984686 51.8675312, 4.5984619 51.8675047, 4.5984668 51.867478, 4.5984831 51.8674531, 4.5985096 51.8674318, 4.5985443 51.8674156), (4.5985443 51.8674156, 4.5985818 51.8674062, 4.598622 51.8674028, 4.5986622 51.8674057, 4.5987 51.8674147, 4.598733 51.8674292, 4.5987671 51.8674556), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6040394 51.8659482, 4.6040236 51.8659148, 4.6040266 51.86588, 4.604048 51.8658478, 4.6040854 51.8658218, 4.6041347 51.8658049), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.5963168 51.8647624, 4.5963515 51.8647894, 4.5963706 51.8648218, 4.5963723 51.8648562, 4.5963563 51.8648892, 4.5963243 51.8649175, 4.5962796 51.8649381, 4.5962302 51.8649485, 4.596178 51.8649495, 4.5961277 51.864941, 4.5960837 51.8649236), (4.5960837 51.8649236, 4.5960486 51.8648977, 4.5960282 51.8648663, 4.5960245 51.8648326, 4.5960378 51.8647998, 4.5960669 51.8647711, 4.5961089 51.8647495), (4.5953395 51.8618448, 4.5954575 51.8619807, 4.5955879 51.8621337, 4.5956687 51.8622697, 4.5957124 51.8623902, 4.5957235 51.8624263, 4.5957537 51.8625381, 4.5957632 51.862656, 4.5957655 51.8630406, 4.5957578 51.8636612, 4.5957525 51.8640886, 4.5958 51.8643, 4.5959 51.8645, 4.5960399 51.8646673, 4.5961089 51.8647495), (4.5952528 51.8617552, 4.5953395 51.8618448), (4.5941715 51.8610119, 4.5946388 51.8613091, 4.594868 51.8614617, 4.5950104 51.8615581, 4.5950953 51.8616236, 4.5952528 51.8617552), (4.5926954 51.8600927, 4.5941715 51.8610119), (4.5922438 51.8598114, 4.5926954 51.8600927), (4.5914777 51.8592784, 4.591562 51.8593669, 4.5916318 51.8594258, 4.5917251 51.859489, 4.5922438 51.8598114), (4.591669 51.857713, 4.5914026 51.8586807, 4.5913743 51.8588292, 4.5913592 51.85899, 4.5913695 51.8590926, 4.5913908 51.8591537, 4.5914309 51.8592245, 4.5914777 51.8592784), (4.5918889 51.8565361, 4.591861 51.8568346, 4.591794 51.8572033, 4.591748 51.8574042, 4.5917383 51.8574423, 4.591669 51.857713), (4.5920287 51.8521412, 4.5920536 51.8521682, 4.5920941 51.8522122, 4.5922364 51.852357, 4.5922797 51.8524138, 4.5922967 51.8524535, 4.5923045 51.8524876, 4.5923147 51.8525461, 4.5923 51.8526, 4.592092 51.8528901, 4.5920487 51.8529504, 4.5920157 51.8530227, 4.5919874 51.8531258, 4.5919789 51.8532109, 4.5919492 51.8541223, 4.5919552 51.8543809, 4.591954 51.8544145, 4.5919286 51.8553007, 4.5918987 51.8562596, 4.5918889 51.8565361), (4.59431 51.8512898, 4.5940259 51.851399, 4.5938941 51.8514482, 4.5935658 51.8515712, 4.5933809 51.8516391, 4.592824 51.8518445, 4.5922437 51.8520621, 4.5921998 51.8520776, 4.5920287 51.8521412), (4.5959692 51.850468, 4.5958359 51.850553, 4.5954009 51.8507761, 4.5950634 51.8509481, 4.5948255 51.8510711, 4.5946648 51.8511484, 4.59431 51.8512898), (4.5975717 51.8487493, 4.5970549 51.8493192, 4.5965953 51.8498052, 4.5963449 51.8500672, 4.5959692 51.850468), (4.5976899 51.8486218, 4.5975717 51.8487493), (4.6002799 51.8475444, 4.6000899 51.8476033, 4.5999282 51.8476523, 4.5995451 51.8477665, 4.5993732 51.8478198, 4.5991018 51.8479032, 4.5984684 51.8481023, 4.5984039 51.8481279, 4.5983294 51.8481595, 4.5982643 51.8481902, 4.598166 51.8482409, 4.598027 51.8483252, 4.597925 51.8484105, 4.5978113 51.8484989, 4.5976899 51.8486218), (4.6028445 51.8467727, 4.6025914 51.8468623, 4.602311 51.8469461, 4.6023034 51.8469483, 4.6021205 51.8470012, 4.601446 51.8471992, 4.6010092 51.8473293, 4.6007609 51.8474025, 4.6002799 51.8475444), (4.6032435 51.8465245, 4.6031634 51.8465882, 4.603056 51.8466591, 4.6028445 51.8467727), (4.6032435 51.8465245, 4.6034574 51.8466016), (4.6034574 51.8466016, 4.6038023 51.8467411, 4.6040428 51.8468372, 4.6042277 51.8469205, 4.6047417 51.8471956, 4.6049492 51.847294, 4.6051586 51.8473774, 4.6055442 51.8474942), (4.6055442 51.8474942, 4.6069914 51.8479567), (4.6069914 51.8479567, 4.607272 51.8480545, 4.6075589 51.8481663, 4.6078337 51.8483045, 4.6080628 51.8484297, 4.6082746 51.8485398, 4.6084472 51.8486042, 4.6086599 51.8486761), (4.6086599 51.8486761, 4.6087873 51.8487129, 4.6090504 51.8487764, 4.6099251 51.8489399, 4.6100182 51.8489556, 4.6101098 51.848971, 4.6108383 51.8491095, 4.6110534 51.8491422, 4.6112627 51.849187, 4.6115498 51.8492645, 4.6119657 51.8493909, 4.6129134 51.8496788), (4.6086599 51.8486761, 4.6087873 51.8487129, 4.6090504 51.8487764, 4.6099251 51.8489399, 4.6100182 51.8489556, 4.6101098 51.848971, 4.6108383 51.8491095, 4.6110534 51.8491422, 4.6112627 51.849187, 4.6115498 51.8492645, 4.6119657 51.8493909, 4.6129134 51.8496788), (4.6069914 51.8479567, 4.607272 51.8480545, 4.6075589 51.8481663, 4.6078337 51.8483045, 4.6080628 51.8484297, 4.6082746 51.8485398, 4.6084472 51.8486042, 4.6086599 51.8486761), (4.6055442 51.8474942, 4.6069914 51.8479567), (4.6034574 51.8466016, 4.6038023 51.8467411, 4.6040428 51.8468372, 4.6042277 51.8469205, 4.6047417 51.8471956, 4.6049492 51.847294, 4.6051586 51.8473774, 4.6055442 51.8474942), (4.6032435 51.8465245, 4.6034574 51.8466016), (4.6032435 51.8465245, 4.6031634 51.8465882, 4.603056 51.8466591, 4.6028445 51.8467727), (4.6028445 51.8467727, 4.6025914 51.8468623, 4.602311 51.8469461, 4.6023034 51.8469483, 4.6021205 51.8470012, 4.601446 51.8471992, 4.6010092 51.8473293, 4.6007609 51.8474025, 4.6002799 51.8475444), (4.6002799 51.8475444, 4.6000899 51.8476033, 4.5999282 51.8476523, 4.5995451 51.8477665, 4.5993732 51.8478198, 4.5991018 51.8479032, 4.5984684 51.8481023, 4.5984039 51.8481279, 4.5983294 51.8481595, 4.5982643 51.8481902, 4.598166 51.8482409, 4.598027 51.8483252, 4.597925 51.8484105, 4.5978113 51.8484989, 4.5976899 51.8486218), (4.5976899 51.8486218, 4.5975717 51.8487493), (4.5975717 51.8487493, 4.5970549 51.8493192, 4.5965953 51.8498052, 4.5963449 51.8500672, 4.5959692 51.850468), (4.5959692 51.850468, 4.5958359 51.850553, 4.5954009 51.8507761, 4.5950634 51.8509481, 4.5948255 51.8510711, 4.5946648 51.8511484, 4.59431 51.8512898), (4.59431 51.8512898, 4.5940259 51.851399, 4.5938941 51.8514482, 4.5935658 51.8515712, 4.5933809 51.8516391, 4.592824 51.8518445, 4.5922437 51.8520621, 4.5921998 51.8520776, 4.5920287 51.8521412), (4.5920287 51.8521412, 4.5918591 51.8522057, 4.591526 51.8523323, 4.5913088 51.8524149, 4.5911138 51.852489, 4.5908928 51.852573, 4.5908825 51.852577, 4.5906618 51.8526608, 4.5905841 51.8526904, 4.5903825 51.852767, 4.5903032 51.8527972, 4.5900991 51.8528748, 4.5894256 51.8531308, 4.5890751 51.853264, 4.5888243 51.8533594, 4.5886865 51.8534118, 4.5884849 51.8534884, 4.5879064 51.8537083, 4.5876696 51.8537983, 4.5864542 51.8542604, 4.5859385 51.8544564, 4.5858988 51.8544715, 4.585859 51.8544866, 4.5856567 51.8545632, 4.585308 51.8546952, 4.5846353 51.8549499, 4.5843799 51.8550466, 4.5839234 51.8552194, 4.5804226 51.8565491, 4.580027 51.8566988, 4.5798253 51.8567699, 4.5796757 51.8568121, 4.5795371 51.8568403, 4.5793201 51.8568665, 4.5785519 51.8569047, 4.5779692 51.8569328, 4.5776203 51.8569482, 4.5774237 51.8569459, 4.577199 51.8569329, 4.5771002 51.8569254, 4.5768516 51.8568961, 4.5765151 51.8568483), (4.5765151 51.8568483, 4.5763764 51.8568247, 4.5759477 51.8567619, 4.5750596 51.8566263, 4.5743481 51.8565031, 4.5737239 51.8563898), (4.5737239 51.8563898, 4.5736563 51.8563782), (4.5736563 51.8563782, 4.5732482 51.8563036, 4.572852 51.8562389, 4.5723974 51.8561655), (4.5723974 51.8561655, 4.5718135 51.8560723, 4.5717494 51.8560627, 4.5716725 51.856051, 4.571544 51.8560327), (4.571544 51.8560327, 4.5715349 51.8560523, 4.5715197 51.8560704, 4.571499 51.8560862, 4.5714736 51.8560991, 4.5714444 51.8561087, 4.5714128 51.8561145, 4.5713799 51.8561162, 4.5713472 51.8561138, 4.5713159 51.8561075, 4.5712872 51.8560974, 4.5712624 51.856084, 4.5712425 51.8560677, 4.5712282 51.8560494, 4.5712201 51.8560296), (4.5712201 51.8560296, 4.5710954 51.8560403), (4.5710954 51.8560403, 4.5709019 51.8560884), (4.5709019 51.8560884, 4.570841 51.8561064, 4.5707165 51.8561599, 4.5705716 51.8562417, 4.5703658 51.8563782, 4.5701147 51.8565504, 4.5690423 51.8573405, 4.5686356 51.8576425, 4.5680071 51.8581113, 4.566884 51.8589481, 4.5642912 51.8608695, 4.5642323 51.8609147), (4.5642323 51.8609147, 4.5640488 51.861048, 4.5639482 51.8611243, 4.5638761 51.861179), (4.5638761 51.861179, 4.5637615 51.8612622), (4.5637615 51.8612622, 4.5636937 51.8613119, 4.5635205 51.8614414), (4.5633678 51.8615607, 4.5635205 51.8614414), (4.5631331 51.8617429, 4.5633678 51.8615607), (4.5631331 51.8617429, 4.5630707 51.8617906, 4.5630602 51.8618082, 4.5630577 51.8618292, 4.5630673 51.8618638), (4.5630673 51.8618638, 4.5630882 51.8618918, 4.5631268 51.8619174, 4.5632415 51.8619834, 4.5635687 51.862162), (4.5635687 51.862162, 4.5636577 51.8622151), (4.5636577 51.8622151, 4.5639932 51.8623995, 4.5641321 51.8624515, 4.5642035 51.8624653, 4.5642941 51.8624746, 4.5643875 51.8624799, 4.5649873 51.8624822), (4.5649873 51.8624822, 4.5649768 51.8626052), (4.5649768 51.8626052, 4.5649722 51.8626586, 4.5649843 51.8627597, 4.5650165 51.8628436, 4.5650605 51.8629271, 4.565184 51.8630505, 4.5652342 51.8630886, 4.5653479 51.8631713), (4.5653479 51.8631713, 4.5655419 51.8632872, 4.566458 51.8638223, 4.5670052 51.864138, 4.5675019 51.8644263, 4.5676733 51.8645258, 4.5678156 51.8646084, 4.5681119 51.8647803, 4.5683123 51.8648966, 4.56844 51.8649709), (4.56844 51.8649709, 4.5686379 51.865086), (4.5686379 51.865086, 4.5688795 51.8652265), (4.5682928 51.8655959, 4.5688795 51.8652265), (4.5680999 51.8657137, 4.5682928 51.8655959), (4.5678833 51.8658491, 4.5680999 51.8657137), (4.5675573 51.8660451, 4.5678833 51.8658491), (4.5675573 51.8660451, 4.5674438 51.8661686, 4.5673729 51.866219, 4.5673097 51.8662639, 4.567095 51.8663946), (4.567095 51.8663946, 4.5669609 51.8664714), (4.5669609 51.8664714, 4.5667592 51.8664664), (4.5667592 51.8664664, 4.5665909 51.8664622, 4.5629491 51.866298), (4.5629491 51.866298, 4.5623442 51.8662429), (4.5623442 51.8662429, 4.5612859 51.8661997, 4.5611966 51.8661961, 4.56111 51.866194, 4.5607838 51.8661848), (4.5607838 51.8661848, 4.5606537 51.8661806), (4.5606537 51.8661806, 4.5604001 51.86617, 4.5603533 51.8661681), (4.5603533 51.8661681, 4.5600959 51.8661575), (4.5600959 51.8661575, 4.5594428 51.8661233, 4.558977 51.8661033, 4.5587196 51.8660912, 4.5584618 51.8660786, 4.5583865 51.8660735, 4.5582722 51.8660628), (4.5582722 51.8660628, 4.5579985 51.8660262, 4.5576659 51.8659749), (4.5576659 51.8659749, 4.5571831 51.8659136, 4.5568049 51.8658854, 4.5564803 51.8658788, 4.5562202 51.8658838), (4.5562202 51.8658838, 4.5561209 51.8656834), (4.5561209 51.8656834, 4.556141 51.8655641, 4.5561759 51.8654316, 4.5562202 51.8652941, 4.5562654 51.8651779), (4.5562654 51.8651779, 4.5563274 51.8650485, 4.5564671 51.8647811), (4.5564671 51.8647811, 4.5566193 51.8645465, 4.5567866 51.8642732), (4.5567866 51.8642732, 4.5570531 51.8638821), (4.5570531 51.8638821, 4.5571844 51.8639181), (4.5571844 51.8639181, 4.5573924 51.8639766), (4.5573924 51.8639766, 4.558469 51.8642651, 4.5585468 51.8641595), (4.5586153 51.8640673, 4.5585468 51.8641595), (4.5597878 51.8624842, 4.5597029 51.8625986, 4.5589935 51.8635543, 4.5589601 51.8636004, 4.5587447 51.8638975, 4.5586153 51.8640673), (4.5589909 51.8622564, 4.5595488 51.8624157, 4.5597878 51.8624842), (4.5589909 51.8622564, 4.5588152 51.8622431, 4.558489 51.8621624), (4.558489 51.8621624, 4.5584022 51.8620749), (4.5584022 51.8620749, 4.5586466 51.8617406, 4.558893 51.8614973), (4.558893 51.8614973, 4.5597551 51.8602932, 4.5599282 51.8600605), (4.5599282 51.8600605, 4.5599846 51.8599336, 4.5600929 51.8597415), (4.5600929 51.8597415, 4.5600486 51.8596987, 4.560026 51.859646, 4.5600288 51.859597, 4.5600582 51.8595411, 4.5601071 51.859476), (4.5601071 51.859476, 4.5598854 51.8593594, 4.5594383 51.8592015, 4.558939 51.8590313), (4.558939 51.8590313, 4.5583438 51.8588731), (4.5583438 51.8588731, 4.5578443 51.8587384, 4.5577399 51.85871, 4.5576385 51.8586816), (4.5576385 51.8586816, 4.5572514 51.8585787), (4.5572514 51.8585787, 4.5570514 51.8585336), (4.5570514 51.8585336, 4.5564294 51.8583746, 4.556236 51.8582874), (4.556236 51.8582874, 4.556121 51.8582199, 4.55596 51.858089), (4.55596 51.858089, 4.5558286 51.8579828, 4.5554048 51.8576841), (4.5554048 51.8576841, 4.5546594 51.8571482, 4.5545618 51.8570781, 4.5545117 51.8570416, 4.5539162 51.8566083, 4.5538998 51.8565963, 4.5535988 51.8563803, 4.5534929 51.8563043, 4.5534729 51.8562899, 4.5534196 51.8562538, 4.5533529 51.8561948, 4.5533357 51.8561795), (4.5533357 51.8561795, 4.5532277 51.8561838, 4.5531282 51.8561573, 4.5530591 51.8561058), (4.5530591 51.8561058, 4.5529724 51.8561291, 4.5529405 51.856138, 4.5528784 51.8561565, 4.5528219 51.8561737), (4.5527489 51.8561141, 4.5528219 51.8561737), (4.5526275 51.8560268, 4.5526756 51.8560614, 4.5527489 51.8561141), (4.5522762 51.8559326, 4.5523328 51.8559173, 4.5523977 51.8559166, 4.5524632 51.8559278, 4.5525228 51.8559565, 4.5526275 51.8560268), (4.5513554 51.8565468, 4.5514671 51.8565922, 4.5515001 51.8565957, 4.5515367 51.8565903, 4.5515665 51.8565736, 4.5521296 51.8560338, 4.5521879 51.8559864, 4.5522252 51.8559597, 4.5522762 51.8559326), (4.5519504 51.8559505, 4.5518774 51.8560238, 4.5514204 51.8564821, 4.5513554 51.8565468), (4.5508008 51.8565956, 4.550868 51.8565183, 4.5513268 51.8560047, 4.5514793 51.8558436, 4.5515295 51.8557909, 4.5516818 51.8558469, 4.5519504 51.8559505), (4.5510824 51.8558527, 4.5507073 51.8564088, 4.5506498 51.8564896, 4.5506385 51.856512, 4.5506448 51.8565307, 4.5506676 51.8565476, 4.5508008 51.8565956), (4.5509898 51.8555863, 4.5510764 51.8556991, 4.5511 51.8557306, 4.5511161 51.8557629, 4.5511093 51.8558012, 4.5510824 51.8558527), (4.5509628 51.8555199, 4.5509898 51.8555863), (4.5510671 51.8552603, 4.5510315 51.8553762, 4.5510002 51.8554313, 4.5509628 51.8555199), (4.5511668 51.8549131, 4.5510671 51.8552603), (4.5513873 51.8542902, 4.5513471 51.8544039, 4.5511859 51.8548593, 4.5511668 51.8549131), (4.5513873 51.8542902, 4.5522968 51.8543932), (4.5522968 51.8543932, 4.5521568 51.8545351), (4.5521568 51.8545351, 4.5519122 51.85453), (4.5519122 51.85453, 4.5518042 51.8545278), (4.5518042 51.8545278, 4.5517352 51.8546157, 4.5517251 51.8547459))</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6377577</t>
+          <t>6398307</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3262,17 +3262,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Slikkerveer, Dillenburgplein</t>
+          <t>Ridderkerk, Olmenlaan</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Bus 140: Rotterdam Kralingse Zoom =&gt; Slikkerveer Dillenburgplein</t>
+          <t>Bus 608: Barendrecht Station NS =&gt; Ridderkerk Olmenlaan</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>608</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3283,14 +3283,14 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MULTILINESTRING ((4.5325838 51.9218251, 4.532716 51.9220104), (4.532716 51.9220104, 4.5326204 51.922033), (4.5326204 51.922033, 4.5324972 51.9220619, 4.5322721 51.922116, 4.5319349 51.9215916, 4.5321721 51.921534), (4.5321721 51.921534, 4.5322947 51.9215046), (4.5322947 51.9215046, 4.5323649 51.9214891, 4.5324469 51.9214705), (4.5324697 51.9214468, 4.5324469 51.9214705), (4.5324457 51.9214028, 4.5324697 51.9214468), (4.5322491 51.9210636, 4.5324457 51.9214028), (4.5316966 51.9202181, 4.5317598 51.9202778, 4.5318011 51.9203271, 4.5322491 51.9210636), (4.5316966 51.9202181, 4.531248 51.9203226, 4.5308333 51.9204192, 4.5307777 51.9204322), (4.5307777 51.9204322, 4.530637 51.9204649), (4.530637 51.9204649, 4.5304358 51.92045), (4.5304358 51.92045, 4.5297371 51.9193041, 4.5297147 51.9192645, 4.5296493 51.9191488, 4.5293736 51.9186744, 4.5291961 51.9183471, 4.5291667 51.9182856, 4.5291288 51.9182022, 4.5290904 51.9180895, 4.5290712 51.9180299, 4.5290591 51.9179769, 4.5290292 51.9178578, 4.5290028 51.9177321, 4.5289845 51.9175871, 4.5289822 51.9174899, 4.5289863 51.9174153, 4.5290661 51.9167428, 4.529056 51.9166246, 4.5290563 51.916581, 4.5290455 51.9165046, 4.5290247 51.9163695, 4.5290123 51.9162806, 4.5289546 51.9161078, 4.5288879 51.9159369, 4.5288515 51.9158501, 4.528819 51.9157915, 4.5287713 51.915698, 4.5282663 51.9146992, 4.5282163 51.9146054, 4.5281808 51.9145184), (4.5281808 51.9145184, 4.5280988 51.9143728), (4.5280988 51.9143728, 4.527831 51.9139159), (4.527831 51.9139159, 4.5277518 51.9137856), (4.5277518 51.9137856, 4.5278703 51.9137664), (4.5278703 51.9137664, 4.5279514 51.9137518, 4.5282028 51.9137148), (4.5282028 51.9137148, 4.5283951 51.9136354), (4.5283951 51.9136354, 4.5287901 51.9135541, 4.5290989 51.9135116, 4.5294532 51.9134698, 4.5297614 51.9134457, 4.5300688 51.9134293, 4.5302485 51.9134276, 4.530454 51.9134254, 4.5306627 51.9134327, 4.5309262 51.9134582, 4.5315111 51.9135397, 4.532225 51.9136417, 4.5328132 51.9137447, 4.5334767 51.9138813, 4.5337809 51.9139291, 4.5340058 51.913933, 4.5342163 51.9139183, 4.5344244 51.913882, 4.5346184 51.9138462, 4.5349387 51.9138455), (4.5349387 51.9138455, 4.5354142 51.9136004, 4.5356879 51.9134136, 4.535912 51.9132331, 4.5360258 51.9131158, 4.5361427 51.9129706, 4.5363965 51.9126378), (4.5363965 51.9126378, 4.5369248 51.9118851, 4.5371503 51.911592, 4.5375151 51.9111105, 4.5382828 51.9099654), (4.5382828 51.9099654, 4.5388292 51.9091719), (4.5388292 51.9091719, 4.5391272 51.9087324, 4.5417446 51.9050158), (4.5417446 51.9050158, 4.5420148 51.9046341), (4.5420148 51.9046341, 4.5429314 51.9033389), (4.5429314 51.9033389, 4.5437917 51.902098), (4.5437917 51.902098, 4.5443358 51.901339, 4.5448646 51.9006528, 4.5451312 51.9003338, 4.5454128 51.9000214, 4.5458034 51.8996375, 4.5461769 51.8993079, 4.5466811 51.8989054, 4.5470242 51.89865, 4.5473866 51.8984092), (4.5473866 51.8984092, 4.5477105 51.8981922), (4.5477105 51.8981922, 4.5479149 51.8980137, 4.5485747 51.8975964, 4.5487375 51.8974839, 4.5488444 51.897379, 4.5488933 51.8972621, 4.5489196 51.8971507, 4.5489077 51.8970619, 4.5488729 51.8969771, 4.5488177 51.8968981), (4.5488177 51.8968981, 4.5487476 51.8968387, 4.5486356 51.8967748, 4.5484664 51.8967126, 4.5482726 51.8966717, 4.5481199 51.8966541, 4.5479251 51.8966494, 4.547233 51.8966504), (4.547233 51.8966504, 4.5467952 51.8966721, 4.5465439 51.896691, 4.5462845 51.8967191), (4.5462845 51.8967191, 4.5461268 51.8967364), (4.5461268 51.8967364, 4.546009 51.8967487, 4.5458973 51.8967672), (4.5458973 51.8967672, 4.5458275 51.8967838, 4.5457023 51.8968256, 4.5455832 51.8968701, 4.5454467 51.8969435, 4.5453203 51.8970335, 4.5451801 51.8971775, 4.5451243 51.8972607, 4.5450901 51.8973448, 4.5450587 51.8974481, 4.545048 51.8975699, 4.545076 51.8976869, 4.545124 51.8977958), (4.545124 51.8977958, 4.5451662 51.8978642, 4.5452108 51.8979192), (4.5452108 51.8979192, 4.5452709 51.8980302, 4.5453505 51.8981248, 4.5454883 51.8982762, 4.5456368 51.898438, 4.54568 51.8984894, 4.5457353 51.8985458, 4.5458583 51.8986813, 4.5459884 51.8988089, 4.5462656 51.8989648, 4.5472345 51.8994042, 4.547562 51.8995488, 4.5476515 51.8995782, 4.5477379 51.8995856, 4.5478421 51.8995974, 4.5479803 51.8995695), (4.5479803 51.8995695, 4.5481319 51.8995482), (4.5481319 51.8995482, 4.5481455 51.8996143), (4.5481455 51.8996143, 4.548152 51.8996665, 4.5481516 51.8997139, 4.5481369 51.8997913, 4.548106 51.8998781, 4.5480221 51.9000798, 4.5479617 51.9001651), (4.547754 51.9006432, 4.5478594 51.9004027, 4.5479617 51.9001651), (4.547754 51.9006432, 4.5477124 51.9007684, 4.5476371 51.9009284, 4.5476126 51.9009616, 4.5475484 51.9010602), (4.5475484 51.9010602, 4.5474768 51.9011373, 4.5473698 51.90123, 4.5472192 51.9014106), (4.5517979 51.9020393, 4.5511774 51.9020027, 4.5504737 51.9020209, 4.5493815 51.9020668, 4.5483608 51.9021125, 4.5481545 51.9021172, 4.5479858 51.9021104, 4.5478335 51.9020864, 4.547713 51.9020551, 4.5476602 51.9020368, 4.5476032 51.9020132, 4.547542 51.901984, 4.5474808 51.9019496, 4.547426 51.9019155, 4.5473648 51.9018747, 4.5473089 51.9018203, 4.5472443 51.9017328, 4.5472186 51.9016689, 4.5472075 51.901602, 4.5472069 51.9015063, 4.5472192 51.9014106), (4.5517979 51.9020393, 4.5519698 51.9020307, 4.5522226 51.9020475, 4.5523564 51.9020574, 4.552616 51.9020702, 4.5527763 51.9020851), (4.556777 51.9013514, 4.5565388 51.9013637, 4.5560877 51.9013869, 4.5558778 51.9014091, 4.5554656 51.9015013, 4.5552254 51.9015923, 4.5549267 51.9016856, 4.5546052 51.9017638, 4.5541618 51.9018647, 4.5535444 51.9020006, 4.5532683 51.902045, 4.5527763 51.9020851), (4.556716 51.9011674, 4.556777 51.9013514), (4.5566426 51.9009131, 4.556716 51.9011674), (4.5582126 51.8999063, 4.5567807 51.9000084, 4.5566966 51.9000318, 4.5566238 51.9000574, 4.5565642 51.9000918, 4.5565103 51.9001321, 4.5564697 51.9001893, 4.5564555 51.9002453, 4.5564649 51.900331, 4.5566426 51.9009131), (4.5632174 51.8989903, 4.5627722 51.8990085, 4.5622263 51.8990389, 4.5619938 51.8990608, 4.5615419 51.8991103, 4.5613774 51.8991326, 4.5612544 51.8991706, 4.5611354 51.8992135, 4.5610126 51.8992819, 4.5608193 51.8994016, 4.5603321 51.8996895, 4.5601912 51.8997313, 4.559971 51.8997612, 4.5596758 51.899795, 4.5594495 51.899817, 4.5582126 51.8999063), (4.5648615 51.8989058, 4.564649 51.8989264, 4.5640101 51.8989544, 4.5635837 51.8989746, 4.5632174 51.8989903), (4.5749108 51.8981797, 4.5748614 51.8981566, 4.5747785 51.8981392, 4.5746862 51.8981343, 4.5745725 51.898145, 4.5744108 51.8981753, 4.5743172 51.8981929, 4.5739143 51.8982643, 4.5731774 51.8983948, 4.5721625 51.8985559, 4.5717862 51.8986039, 4.5708037 51.8987054, 4.5703319 51.8987511, 4.5695762 51.8988238, 4.5694793 51.8988173, 4.5693942 51.8988098, 4.5692969 51.8987888, 4.5692127 51.8987678, 4.5686899 51.8985597, 4.5685552 51.898511, 4.5684228 51.8984829, 4.5683372 51.8984739, 4.5682343 51.8984772, 4.5673211 51.8985907, 4.5671616 51.8986105, 4.5661205 51.8987398, 4.5648615 51.8989058), (4.5754797 51.8994565, 4.5754304 51.8994319, 4.5753818 51.8993938, 4.5753358 51.8992173, 4.5753092 51.8991361, 4.5751395 51.8986186, 4.5750606 51.8983579, 4.5750365 51.8982886, 4.574987 51.8982259, 4.5749108 51.8981797), (4.5754797 51.8994565, 4.5756047 51.899469, 4.5761929 51.8994749), (4.5761929 51.8994749, 4.5769876 51.8994797, 4.5777825 51.8994605, 4.5784093 51.899426, 4.5789704 51.8993942, 4.5790685 51.8993889, 4.5794446 51.8993656, 4.5796601 51.899349, 4.5798725 51.8993235, 4.5800809 51.8992854, 4.5802714 51.8992235, 4.5804479 51.8991449, 4.5805948 51.8990843, 4.5807369 51.8990092), (4.5807369 51.8990092, 4.5807925 51.8989839, 4.5808638 51.8989769, 4.580977 51.8989973, 4.5810703 51.8990476), (4.5810703 51.8990476, 4.581148 51.8990935), (4.5834166 51.8954751, 4.583298 51.8955846, 4.583055 51.8958787, 4.5827 51.8964, 4.5824 51.897, 4.58221 51.897569, 4.581996 51.898025, 4.5818374 51.8983629, 4.5816773 51.8986897, 4.5815882 51.898818, 4.5814496 51.8989327, 4.5812316 51.8990514, 4.581148 51.8990935), (4.585379 51.8937454, 4.5851018 51.8939849, 4.5838039 51.8951162, 4.5835627 51.8953534, 4.5834166 51.8954751), (4.5813918 51.8876576, 4.5815603 51.8880669, 4.5816256 51.8881942, 4.5820893 51.8892957, 4.5823255 51.8899257, 4.5827827 51.8909724, 4.5828013 51.8910179, 4.5828456 51.8911265, 4.5829366 51.891315, 4.5830591 51.8916398, 4.5834368 51.8925639, 4.5836 51.8929, 4.5837 51.893, 4.584 51.8932, 4.5847769 51.8934796, 4.5852205 51.8936795, 4.585379 51.8937454), (4.5813918 51.8876576, 4.5817493 51.8875972, 4.5819812 51.8875508), (4.5820725 51.8865322, 4.5820689 51.8866127, 4.582073 51.8866566, 4.5820755 51.88677, 4.5819922 51.8869977, 4.5818936 51.8872124, 4.5818885 51.8872972, 4.5819812 51.8875508), (4.5822055 51.8864571, 4.5821395 51.8864857, 4.5820894 51.8865076, 4.5820725 51.8865322), (4.5833313 51.8859659, 4.5832094 51.8860208, 4.5831265 51.8860581, 4.5822055 51.8864571), (4.5834553 51.8859101, 4.5833313 51.8859659), (4.5843863 51.8855117, 4.5838794 51.8857246, 4.5837 51.8858, 4.5834553 51.8859101), (4.5896855 51.8832363, 4.5868271 51.884465, 4.5854964 51.8850284, 4.5845946 51.8854218, 4.5843863 51.8855117), (4.5898143 51.883181, 4.5896855 51.8832363), (4.5925485 51.8820294, 4.5898143 51.883181), (4.5938141 51.8814805, 4.5936337 51.8815589, 4.5931712 51.8817601, 4.593038 51.8818193, 4.592671 51.8819776, 4.5926102 51.8820033, 4.5925485 51.8820294), (4.5941953 51.8813554, 4.593979 51.8814124, 4.5938141 51.8814805), (4.5941953 51.8813554, 4.5941886 51.8813284, 4.5941942 51.8813012, 4.5942116 51.8812761, 4.5942374 51.8812561, 4.5942706 51.8812409, 4.594309 51.8812314, 4.5943583 51.8812285, 4.5944066 51.8812351, 4.5944494 51.8812504, 4.5944825 51.8812731), (4.5951747 51.8808972, 4.5949802 51.8809871, 4.5947482 51.8811467, 4.5945853 51.8812242, 4.5944825 51.8812731), (4.599216 51.8791798, 4.5990933 51.8792307, 4.5989505 51.87929, 4.5981435 51.8796398, 4.5980207 51.8796911, 4.5973364 51.8799845, 4.5971654 51.8800563, 4.5967775 51.88021, 4.5961258 51.8804929, 4.5951747 51.8808972), (4.5995644 51.878936, 4.5995245 51.8790158, 4.5994393 51.8790708, 4.599216 51.8791798), (4.599887 51.8789464, 4.5995644 51.878936), (4.602167 51.8779919, 4.6021128 51.8779839, 4.6020585 51.8779842, 4.6019926 51.8779902, 4.6019401 51.8780035, 4.6014065 51.8782341, 4.6006528 51.8785771, 4.5999954 51.8788456, 4.5999514 51.8788693, 4.5999219 51.8788915, 4.599896 51.8789186, 4.599887 51.8789464), (4.602167 51.8779919, 4.6022069 51.8780024, 4.6022424 51.8780202, 4.6023063 51.878068, 4.6028803 51.8785787, 4.6031777 51.8788459, 4.6033405 51.87898, 4.6036146 51.8791658, 4.6038203 51.8792979, 4.6039892 51.8794064, 4.6040936 51.8794735, 4.604826 51.879944, 4.607183 51.881458, 4.607836 51.8818742), (4.607836 51.8818742, 4.6077279 51.8819441, 4.6074034 51.8821562, 4.6071762 51.8822945, 4.6071462 51.8823134, 4.6069719 51.882434, 4.6068902 51.882496, 4.6068286 51.8825525, 4.6067423 51.8826579, 4.606712 51.8827009, 4.6065028 51.8829636, 4.6064073 51.8830901), (4.6064073 51.8830901, 4.6063082 51.8832146), (4.6063082 51.8832146, 4.6060496 51.8835527, 4.605849 51.8838151, 4.6057053 51.884003), (4.6057053 51.884003, 4.6056788 51.8840395, 4.60526 51.8845674, 4.6052174 51.8846222, 4.6050497 51.8848484), (4.6050497 51.8848484, 4.6048545 51.8849665, 4.6046059 51.8851123), (4.6046059 51.8851123, 4.6042362 51.8853311), (4.6042362 51.8853311, 4.6039447 51.8855064))</t>
+          <t>MULTILINESTRING ((4.5517251 51.8547459, 4.5517167 51.8548646), (4.5517167 51.8548646, 4.5516229 51.8548868), (4.5516229 51.8548868, 4.5514998 51.8549187), (4.5514998 51.8549187, 4.5511668 51.8549131), (4.5511668 51.8549131, 4.5510671 51.8552603), (4.5510671 51.8552603, 4.5510315 51.8553762, 4.5510002 51.8554313, 4.5509628 51.8555199), (4.5509628 51.8555199, 4.5509898 51.8555863), (4.5509898 51.8555863, 4.5510764 51.8556991, 4.5511 51.8557306, 4.5511161 51.8557629, 4.5511093 51.8558012, 4.5510824 51.8558527), (4.5510824 51.8558527, 4.5507073 51.8564088, 4.5506498 51.8564896, 4.5506385 51.856512, 4.5506448 51.8565307, 4.5506676 51.8565476, 4.5508008 51.8565956), (4.5508008 51.8565956, 4.550868 51.8565183, 4.5513268 51.8560047, 4.5514793 51.8558436, 4.5515295 51.8557909, 4.5516818 51.8558469, 4.5519504 51.8559505), (4.5519504 51.8559505, 4.5518774 51.8560238, 4.5514204 51.8564821, 4.5513554 51.8565468), (4.5513554 51.8565468, 4.5514671 51.8565922, 4.5515001 51.8565957, 4.5515367 51.8565903, 4.5515665 51.8565736, 4.5521296 51.8560338, 4.5521879 51.8559864, 4.5522252 51.8559597, 4.5522762 51.8559326), (4.5522762 51.8559326, 4.5523328 51.8559173, 4.5523977 51.8559166, 4.5524632 51.8559278, 4.5525228 51.8559565, 4.5526275 51.8560268), (4.5526275 51.8560268, 4.5526756 51.8560614, 4.5527489 51.8561141), (4.5527489 51.8561141, 4.5528159 51.8560968, 4.5528419 51.8560901, 4.5529052 51.8560738, 4.5530031 51.8560416, 4.5530395 51.8560297), (4.5530395 51.8560297, 4.5530808 51.8559574, 4.5531686 51.8559129, 4.5532802 51.8558995), (4.5532802 51.8558995, 4.5533456 51.8559077, 4.5534046 51.8559271), (4.5534046 51.8559271, 4.5534733 51.8559767, 4.5534992 51.85604, 4.553477 51.8561038), (4.553477 51.8561038, 4.5535501 51.856154, 4.5535766 51.8561722, 4.5536316 51.856206, 4.5539675 51.8564525, 4.5546622 51.8569621, 4.554725 51.8570082, 4.5555483 51.8576005, 4.5556123 51.8576513, 4.5557073 51.8577212), (4.5557073 51.8577212, 4.5561841 51.8580543, 4.5563544 51.8581739), (4.5563544 51.8581739, 4.5565445 51.8582501, 4.5567341 51.85833), (4.5567341 51.85833, 4.5573095 51.8584879), (4.5573095 51.8584879, 4.5577952 51.8586288, 4.5580543 51.8586912), (4.5580543 51.8586912, 4.5586168 51.8588432), (4.5586168 51.8588432, 4.5589112 51.8589238, 4.5594885 51.8591275, 4.5598131 51.8592411, 4.5600335 51.8593087, 4.5602356 51.8593572), (4.5602356 51.8593572, 4.560314 51.8593341, 4.5603691 51.8593314), (4.5603691 51.8593314, 4.5604589 51.8593553, 4.5605063 51.8593756), (4.5605063 51.8593756, 4.5605363 51.8593885, 4.5605712 51.8594368, 4.5605776 51.8594804, 4.560561 51.8595166, 4.5605173 51.8595724, 4.5604675 51.8596392), (4.5604675 51.8596392, 4.5604114 51.8597066), (4.5604114 51.8597066, 4.5603891 51.8597304, 4.5603363 51.8597596, 4.560259 51.85977, 4.5602202 51.8597683), (4.5602202 51.8597683, 4.5600621 51.8599555, 4.5599282 51.8600605), (4.558893 51.8614973, 4.5597551 51.8602932, 4.5599282 51.8600605), (4.558893 51.8614973, 4.558756 51.8617769, 4.5585499 51.8620805), (4.5585499 51.8620805, 4.5588541 51.8621901, 4.5589909 51.8622564), (4.5589909 51.8622564, 4.5595488 51.8624157, 4.5597878 51.8624842), (4.5597878 51.8624842, 4.5597029 51.8625986, 4.5589935 51.8635543, 4.5589601 51.8636004, 4.5587447 51.8638975, 4.5586153 51.8640673), (4.5586153 51.8640673, 4.5585468 51.8641595), (4.5573924 51.8639766, 4.558469 51.8642651, 4.5585468 51.8641595), (4.5571844 51.8639181, 4.5573924 51.8639766), (4.5571844 51.8639181, 4.5569939 51.8641713, 4.5568394 51.8643939, 4.5566743 51.864674), (4.5566743 51.864674, 4.5566006 51.8648087, 4.5564944 51.8650189, 4.5564716 51.8650728, 4.5564119 51.8652206), (4.5564119 51.8652206, 4.5563494 51.8653882, 4.5563006 51.8655782, 4.5562872 51.8656834), (4.5562872 51.8656834, 4.5564455 51.8656875, 4.5566654 51.8656925, 4.5568451 51.8657024, 4.557049 51.8657281, 4.5573816 51.8657745, 4.5575801 51.8658109, 4.5580937 51.865907, 4.558315 51.8659384, 4.5585014 51.8659583, 4.5587177 51.8659788), (4.5587177 51.8659788, 4.5589416 51.8659892), (4.5589416 51.8659892, 4.5592827 51.8660015, 4.5599872 51.8660334), (4.5599872 51.8660334, 4.560372 51.8660509, 4.5604185 51.8660533, 4.5607147 51.8660662), (4.5607147 51.8660662, 4.560841 51.8660711), (4.560841 51.8660711, 4.5611239 51.8660824, 4.5612437 51.8660883), (4.5612437 51.8660883, 4.5614692 51.8660981, 4.5620322 51.8661232, 4.562218 51.8661349, 4.5623505 51.8661502, 4.5626953 51.8661832), (4.5626953 51.8661832, 4.5628245 51.8661954, 4.563017 51.8662147, 4.5633735 51.8662275, 4.5654446 51.8663235), (4.5654446 51.8663235, 4.5665786 51.8663715, 4.5668739 51.8663851), (4.5668739 51.8663851, 4.5671219 51.8662488, 4.5671978 51.8662033, 4.567386 51.8660993, 4.5675573 51.8660451), (4.5675573 51.8660451, 4.5678833 51.8658491), (4.5678833 51.8658491, 4.5680999 51.8657137), (4.5680999 51.8657137, 4.5682928 51.8655959), (4.5682928 51.8655959, 4.5688795 51.8652265), (4.5686379 51.865086, 4.5688795 51.8652265), (4.56844 51.8649709, 4.5686379 51.865086), (4.5653479 51.8631713, 4.5655419 51.8632872, 4.566458 51.8638223, 4.5670052 51.864138, 4.5675019 51.8644263, 4.5676733 51.8645258, 4.5678156 51.8646084, 4.5681119 51.8647803, 4.5683123 51.8648966, 4.56844 51.8649709), (4.5649768 51.8626052, 4.5649722 51.8626586, 4.5649843 51.8627597, 4.5650165 51.8628436, 4.5650605 51.8629271, 4.565184 51.8630505, 4.5652342 51.8630886, 4.5653479 51.8631713), (4.5649873 51.8624822, 4.5649768 51.8626052), (4.5636577 51.8622151, 4.5639932 51.8623995, 4.5641321 51.8624515, 4.5642035 51.8624653, 4.5642941 51.8624746, 4.5643875 51.8624799, 4.5649873 51.8624822), (4.5635687 51.862162, 4.5636577 51.8622151), (4.5630673 51.8618638, 4.5630882 51.8618918, 4.5631268 51.8619174, 4.5632415 51.8619834, 4.5635687 51.862162), (4.5631331 51.8617429, 4.5630707 51.8617906, 4.5630602 51.8618082, 4.5630577 51.8618292, 4.5630673 51.8618638), (4.5631331 51.8617429, 4.5633678 51.8615607), (4.5633678 51.8615607, 4.5635205 51.8614414), (4.5637615 51.8612622, 4.5636937 51.8613119, 4.5635205 51.8614414), (4.5638761 51.861179, 4.5637615 51.8612622), (4.5642323 51.8609147, 4.5640488 51.861048, 4.5639482 51.8611243, 4.5638761 51.861179), (4.5709019 51.8560884, 4.570841 51.8561064, 4.5707165 51.8561599, 4.5705716 51.8562417, 4.5703658 51.8563782, 4.5701147 51.8565504, 4.5690423 51.8573405, 4.5686356 51.8576425, 4.5680071 51.8581113, 4.566884 51.8589481, 4.5642912 51.8608695, 4.5642323 51.8609147), (4.5710954 51.8560403, 4.5709019 51.8560884), (4.5712201 51.8560296, 4.5710954 51.8560403), (4.5712201 51.8560296, 4.5712186 51.85601, 4.5712232 51.8559905, 4.5712338 51.855972, 4.57125 51.8559551, 4.5712711 51.8559404, 4.5712965 51.8559285, 4.5713251 51.8559199, 4.5713559 51.8559148), (4.5713559 51.8559148, 4.5713883 51.8559136, 4.5714204 51.8559163, 4.5714511 51.8559228, 4.5714791 51.855933, 4.571502 51.8559454, 4.5715207 51.8559603, 4.5715347 51.8559771, 4.5715434 51.8559952, 4.5715465 51.8560139, 4.571544 51.8560327), (4.5723974 51.8561655, 4.5718135 51.8560723, 4.5717494 51.8560627, 4.5716725 51.856051, 4.571544 51.8560327), (4.5736563 51.8563782, 4.5732482 51.8563036, 4.572852 51.8562389, 4.5723974 51.8561655), (4.5737239 51.8563898, 4.5736563 51.8563782), (4.5765151 51.8568483, 4.5763764 51.8568247, 4.5759477 51.8567619, 4.5750596 51.8566263, 4.5743481 51.8565031, 4.5737239 51.8563898), (4.5920287 51.8521412, 4.5918591 51.8522057, 4.591526 51.8523323, 4.5913088 51.8524149, 4.5911138 51.852489, 4.5908928 51.852573, 4.5908825 51.852577, 4.5906618 51.8526608, 4.5905841 51.8526904, 4.5903825 51.852767, 4.5903032 51.8527972, 4.5900991 51.8528748, 4.5894256 51.8531308, 4.5890751 51.853264, 4.5888243 51.8533594, 4.5886865 51.8534118, 4.5884849 51.8534884, 4.5879064 51.8537083, 4.5876696 51.8537983, 4.5864542 51.8542604, 4.5859385 51.8544564, 4.5858988 51.8544715, 4.585859 51.8544866, 4.5856567 51.8545632, 4.585308 51.8546952, 4.5846353 51.8549499, 4.5843799 51.8550466, 4.5839234 51.8552194, 4.5804226 51.8565491, 4.580027 51.8566988, 4.5798253 51.8567699, 4.5796757 51.8568121, 4.5795371 51.8568403, 4.5793201 51.8568665, 4.5785519 51.8569047, 4.5779692 51.8569328, 4.5776203 51.8569482, 4.5774237 51.8569459, 4.577199 51.8569329, 4.5771002 51.8569254, 4.5768516 51.8568961, 4.5765151 51.8568483), (4.59431 51.8512898, 4.5940259 51.851399, 4.5938941 51.8514482, 4.5935658 51.8515712, 4.5933809 51.8516391, 4.592824 51.8518445, 4.5922437 51.8520621, 4.5921998 51.8520776, 4.5920287 51.8521412), (4.5959692 51.850468, 4.5958359 51.850553, 4.5954009 51.8507761, 4.5950634 51.8509481, 4.5948255 51.8510711, 4.5946648 51.8511484, 4.59431 51.8512898), (4.5975717 51.8487493, 4.5970549 51.8493192, 4.5965953 51.8498052, 4.5963449 51.8500672, 4.5959692 51.850468), (4.5976899 51.8486218, 4.5975717 51.8487493), (4.6002799 51.8475444, 4.6000899 51.8476033, 4.5999282 51.8476523, 4.5995451 51.8477665, 4.5993732 51.8478198, 4.5991018 51.8479032, 4.5984684 51.8481023, 4.5984039 51.8481279, 4.5983294 51.8481595, 4.5982643 51.8481902, 4.598166 51.8482409, 4.598027 51.8483252, 4.597925 51.8484105, 4.5978113 51.8484989, 4.5976899 51.8486218), (4.6028445 51.8467727, 4.6025914 51.8468623, 4.602311 51.8469461, 4.6023034 51.8469483, 4.6021205 51.8470012, 4.601446 51.8471992, 4.6010092 51.8473293, 4.6007609 51.8474025, 4.6002799 51.8475444), (4.6032435 51.8465245, 4.6031634 51.8465882, 4.603056 51.8466591, 4.6028445 51.8467727), (4.6032435 51.8465245, 4.6034574 51.8466016), (4.6034574 51.8466016, 4.6038023 51.8467411, 4.6040428 51.8468372, 4.6042277 51.8469205, 4.6047417 51.8471956, 4.6049492 51.847294, 4.6051586 51.8473774, 4.6055442 51.8474942), (4.6055442 51.8474942, 4.6069914 51.8479567), (4.6069914 51.8479567, 4.607272 51.8480545, 4.6075589 51.8481663, 4.6078337 51.8483045, 4.6080628 51.8484297, 4.6082746 51.8485398, 4.6084472 51.8486042, 4.6086599 51.8486761), (4.6086599 51.8486761, 4.6087873 51.8487129, 4.6090504 51.8487764, 4.6099251 51.8489399, 4.6100182 51.8489556, 4.6101098 51.848971, 4.6108383 51.8491095, 4.6110534 51.8491422, 4.6112627 51.849187, 4.6115498 51.8492645, 4.6119657 51.8493909, 4.6129134 51.8496788), (4.6086599 51.8486761, 4.6087873 51.8487129, 4.6090504 51.8487764, 4.6099251 51.8489399, 4.6100182 51.8489556, 4.6101098 51.848971, 4.6108383 51.8491095, 4.6110534 51.8491422, 4.6112627 51.849187, 4.6115498 51.8492645, 4.6119657 51.8493909, 4.6129134 51.8496788), (4.6069914 51.8479567, 4.607272 51.8480545, 4.6075589 51.8481663, 4.6078337 51.8483045, 4.6080628 51.8484297, 4.6082746 51.8485398, 4.6084472 51.8486042, 4.6086599 51.8486761), (4.6055442 51.8474942, 4.6069914 51.8479567), (4.6034574 51.8466016, 4.6038023 51.8467411, 4.6040428 51.8468372, 4.6042277 51.8469205, 4.6047417 51.8471956, 4.6049492 51.847294, 4.6051586 51.8473774, 4.6055442 51.8474942), (4.6032435 51.8465245, 4.6034574 51.8466016), (4.6032435 51.8465245, 4.6031634 51.8465882, 4.603056 51.8466591, 4.6028445 51.8467727), (4.6028445 51.8467727, 4.6025914 51.8468623, 4.602311 51.8469461, 4.6023034 51.8469483, 4.6021205 51.8470012, 4.601446 51.8471992, 4.6010092 51.8473293, 4.6007609 51.8474025, 4.6002799 51.8475444), (4.6002799 51.8475444, 4.6000899 51.8476033, 4.5999282 51.8476523, 4.5995451 51.8477665, 4.5993732 51.8478198, 4.5991018 51.8479032, 4.5984684 51.8481023, 4.5984039 51.8481279, 4.5983294 51.8481595, 4.5982643 51.8481902, 4.598166 51.8482409, 4.598027 51.8483252, 4.597925 51.8484105, 4.5978113 51.8484989, 4.5976899 51.8486218), (4.5976899 51.8486218, 4.5975717 51.8487493), (4.5975717 51.8487493, 4.5970549 51.8493192, 4.5965953 51.8498052, 4.5963449 51.8500672, 4.5959692 51.850468), (4.5959692 51.850468, 4.5958359 51.850553, 4.5954009 51.8507761, 4.5950634 51.8509481, 4.5948255 51.8510711, 4.5946648 51.8511484, 4.59431 51.8512898), (4.59431 51.8512898, 4.5940259 51.851399, 4.5938941 51.8514482, 4.5935658 51.8515712, 4.5933809 51.8516391, 4.592824 51.8518445, 4.5922437 51.8520621, 4.5921998 51.8520776, 4.5920287 51.8521412), (4.5920287 51.8521412, 4.5920536 51.8521682, 4.5920941 51.8522122, 4.5922364 51.852357, 4.5922797 51.8524138, 4.5922967 51.8524535, 4.5923045 51.8524876, 4.5923147 51.8525461, 4.5923 51.8526, 4.592092 51.8528901, 4.5920487 51.8529504, 4.5920157 51.8530227, 4.5919874 51.8531258, 4.5919789 51.8532109, 4.5919492 51.8541223, 4.5919552 51.8543809, 4.591954 51.8544145, 4.5919286 51.8553007, 4.5918987 51.8562596, 4.5918889 51.8565361), (4.5918889 51.8565361, 4.591861 51.8568346, 4.591794 51.8572033, 4.591748 51.8574042, 4.5917383 51.8574423, 4.591669 51.857713), (4.591669 51.857713, 4.5914026 51.8586807, 4.5913743 51.8588292, 4.5913592 51.85899, 4.5913695 51.8590926, 4.5913908 51.8591537, 4.5914309 51.8592245, 4.5914777 51.8592784), (4.5914777 51.8592784, 4.591562 51.8593669, 4.5916318 51.8594258, 4.5917251 51.859489, 4.5922438 51.8598114), (4.5922438 51.8598114, 4.5926954 51.8600927), (4.5926954 51.8600927, 4.5941715 51.8610119), (4.5941715 51.8610119, 4.5946388 51.8613091, 4.594868 51.8614617, 4.5950104 51.8615581, 4.5950953 51.8616236, 4.5952528 51.8617552), (4.5952528 51.8617552, 4.5953395 51.8618448), (4.5953395 51.8618448, 4.5954575 51.8619807, 4.5955879 51.8621337, 4.5956687 51.8622697, 4.5957124 51.8623902, 4.5957235 51.8624263, 4.5957537 51.8625381, 4.5957632 51.862656, 4.5957655 51.8630406, 4.5957578 51.8636612, 4.5957525 51.8640886, 4.5958 51.8643, 4.5959 51.8645, 4.5960399 51.8646673, 4.5961089 51.8647495), (4.5961089 51.8647495, 4.5961607 51.8647367, 4.5962163 51.8647347, 4.5962702 51.8647435, 4.5963168 51.8647624), (4.5981113 51.8638342, 4.5977185 51.8639543, 4.5975329 51.8640382, 4.5975034 51.8640525, 4.5972718 51.8641874, 4.596674 51.8645373, 4.5964051 51.8647003, 4.5963168 51.8647624), (4.6023999 51.8635276, 4.6022578 51.8634713, 4.6020811 51.8634431, 4.601767 51.8634306, 4.6011354 51.863415, 4.5999 51.86339, 4.5997314 51.8634093, 4.5995681 51.8634433, 4.5992937 51.8635199, 4.59895 51.8636159, 4.5986861 51.863687, 4.5983061 51.8637889, 4.5981113 51.8638342), (4.6023999 51.8635276, 4.60251 51.8635947, 4.6025428 51.8636153, 4.6026288 51.8636995, 4.6028 51.8639, 4.6031692 51.8644261, 4.603947 51.8655361, 4.6040688 51.8657084, 4.6040833 51.865729, 4.6041347 51.8658049), (4.6041347 51.8658049, 4.6041856 51.865799, 4.6042369 51.865803, 4.6042838 51.8658164, 4.6043219 51.865838, 4.6043476 51.8658657, 4.6043587 51.8659039, 4.6043463 51.8659419, 4.6043121 51.8659745, 4.604261 51.8659971), (4.604261 51.8659971, 4.6041981 51.8660065, 4.604134 51.8660005, 4.6040784 51.8659801, 4.6040394 51.8659482), (4.6040394 51.8659482, 4.6039273 51.86598, 4.6038836 51.8659918, 4.6036959 51.8660424), (4.6036959 51.8660424, 4.603473 51.8661048, 4.6028775 51.8662619, 4.6024784 51.8663689, 4.6021979 51.8664441, 4.6014427 51.8666467, 4.6011626 51.8667218), (4.6011626 51.8667218, 4.6004093 51.8669238, 4.6002986 51.8669535), (4.6002986 51.8669535, 4.5997124 51.8671321, 4.5992486 51.8672856, 4.5990904 51.8673434), (4.5990904 51.8673434, 4.5989204 51.8674024, 4.5988755 51.867418, 4.5987671 51.8674556), (4.5987671 51.8674556, 4.5987781 51.8674734, 4.5987852 51.8675006, 4.5987799 51.8675281, 4.5987626 51.8675536, 4.5987347 51.8675752, 4.5986982 51.8675912), (4.5986982 51.8675912, 4.5987688 51.8676648, 4.5987898 51.8676867, 4.5988109 51.8677087, 4.599055 51.8679818, 4.599146 51.8680869, 4.5991965 51.868162, 4.599245 51.8682608, 4.5992694 51.8683449), (4.5992694 51.8683449, 4.5992842 51.868492, 4.5993002 51.8685706, 4.5993271 51.8686149, 4.5993724 51.8686559, 4.5994457 51.8686951), (4.5999607 51.8686449, 4.5997407 51.8687133, 4.5996733 51.8687244, 4.5995913 51.8687254, 4.5995403 51.8687209, 4.5994997 51.8687113, 4.5994457 51.8686951), (4.6000875 51.868606, 4.5999607 51.8686449), (4.6003877 51.8685197, 4.6000875 51.868606), (4.6011562 51.8683559, 4.6010817 51.8683487, 4.6010028 51.8683574, 4.6008655 51.8683887, 4.6006148 51.8684575, 4.6003877 51.8685197), (4.6011562 51.8683559, 4.6012117 51.8683726, 4.6012504 51.868393, 4.6012938 51.8684163, 4.6013447 51.8684617, 4.6013717 51.8684963, 4.6017757 51.8690834, 4.6017864 51.869099, 4.6018767 51.8692219, 4.6020439 51.8694497, 4.6020617 51.8695337, 4.6020543 51.8696148, 4.6020065 51.869723, 4.6019348 51.8697857), (4.6019348 51.8697857, 4.6017091 51.8699352, 4.6015395 51.8700284, 4.6014338 51.8701256, 4.6013812 51.8701978, 4.6013357 51.8702715, 4.6011476 51.8705944), (4.6011476 51.8705944, 4.6011277 51.8706275, 4.6010749 51.8706952, 4.6010575 51.8707156, 4.6010114 51.8707586), (4.6010114 51.8707586, 4.6010146 51.8708408, 4.6008982 51.8709489, 4.6007502 51.8710864), (4.6007502 51.8710864, 4.6007102 51.8711237, 4.6005942 51.8711482), (4.6005942 51.8711482, 4.6004642 51.8712695, 4.6004492 51.8712835), (4.6004492 51.8712835, 4.6004173 51.8713134, 4.6003689 51.8713713, 4.6003302 51.8714284, 4.6003076 51.8714995, 4.6002963 51.8715804, 4.6002965 51.8717125, 4.6002988 51.8717475), (4.6002988 51.8717475, 4.6002998 51.8717758, 4.6003067 51.8720271, 4.6002968 51.8720609, 4.6002703 51.8721089, 4.6002227 51.8721602, 4.6000812 51.8722924, 4.6000237 51.8723363, 4.599954 51.8723636), (4.5998171 51.8723672, 4.5998841 51.8723713, 4.599954 51.8723636), (4.5992908 51.8721587, 4.5997105 51.8723323, 4.5998171 51.8723672), (4.598818 51.8720142, 4.5988729 51.8720233, 4.5989673 51.8720428, 4.5991402 51.8721007, 4.5992908 51.8721587), (4.5986297 51.8719968, 4.598818 51.8720142), (4.5986297 51.8719968, 4.5986117 51.8720184, 4.598568 51.8720503, 4.5983515 51.8722486), (4.5983515 51.8722486, 4.5983227 51.8722775, 4.5980843 51.8725157, 4.5974868 51.8730953, 4.5970858 51.8735122, 4.5966472 51.873942, 4.596349 51.8742437), (4.596349 51.8742437, 4.5962574 51.8743784, 4.5956248 51.8757423, 4.5955868 51.875829), (4.5955868 51.875829, 4.5953443 51.8763754, 4.5952228 51.8765789, 4.5952115 51.8765991, 4.5951338 51.8767003), (4.5918202 51.8757545, 4.5936102 51.8762562, 4.5948943 51.8766301, 4.5951338 51.8767003), (4.59149 51.8756617, 4.5918202 51.8757545), (4.5909373 51.8755089, 4.5910262 51.8755293, 4.59149 51.8756617), (4.5909373 51.8755089, 4.5907989 51.8755188, 4.5905621 51.8755608, 4.590324 51.8756104, 4.5901957 51.8756328), (4.5901957 51.8756328, 4.5901861 51.8756814, 4.5901493 51.8757247, 4.5900901 51.8757573), (4.5900901 51.8757573, 4.5900216 51.8757742, 4.589948 51.8757762), (4.589948 51.8757762, 4.5898845 51.8757652, 4.5898291 51.8757431), (4.5898291 51.8757431, 4.5896731 51.8757424, 4.5893529 51.875804, 4.5891077 51.8758618), (4.5891077 51.8758618, 4.5889851 51.8759177, 4.5887572 51.8760471), (4.5887572 51.8760471, 4.5886203 51.8761482), (4.5844174 51.8741646, 4.5851235 51.8746192, 4.5852929 51.8746612, 4.5861419 51.8746606, 4.5862884 51.874679, 4.5864033 51.8747091, 4.5866722 51.8748814, 4.5874713 51.875391, 4.5875119 51.8754169, 4.5876218 51.875487, 4.5886203 51.8761482), (4.5842576 51.8740566, 4.5844174 51.8741646))</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6377578</t>
+          <t>10391331</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3300,17 +3300,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rotterdam, Kralingse Zoom</t>
+          <t>Slikkerveer, De Schans</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Bus 140: Slikkerveer Dillenburgplein =&gt; Rotterdam Kralingse Zoom</t>
+          <t>Bus 609: Barendrecht Station =&gt; Slikkerveer De Schans</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>609</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3321,14 +3321,14 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>MUL